--- a/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
+++ b/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq34bsi\Desktop\TPI_DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq34bsi\Desktop\TPI-GestionApiculture\doc\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1062C96-974E-48BC-9329-CC3E1CEBB609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CA54E1-FA24-4983-A71E-C92F3CC5D4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="2040" windowWidth="21600" windowHeight="11385" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="16" r:id="rId1"/>
     <sheet name="JournalDeTravail" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">JournalDeTravail!$B$5:$H$13</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planification!$B$4:$VC$67</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="95">
   <si>
     <t>Nom, Prénom</t>
   </si>
@@ -311,6 +312,45 @@
   <si>
     <t>TPI - Gestion des activités d'un apiculteur</t>
   </si>
+  <si>
+    <t>Le début de tpi et la rencontre avec l'expert c'est bien passer
+Je me sens capable d'effectuer le CdC</t>
+  </si>
+  <si>
+    <t>finalisation de la plannification initiale
+Réalisatoin du MCD</t>
+  </si>
+  <si>
+    <t>Réalisation du MCD, MLD</t>
+  </si>
+  <si>
+    <t>Commencement de la maquettes sur figma</t>
+  </si>
+  <si>
+    <t>https://app.diagrams.net/</t>
+  </si>
+  <si>
+    <t>https://www.figma.com</t>
+  </si>
+  <si>
+    <t>Finalisation du MCD, MLD et réalisation de la première migration en base de données
+avec l'ORM Prisma</t>
+  </si>
+  <si>
+    <t>https://www.prisma.io/docs/orm</t>
+  </si>
+  <si>
+    <t>Tout se passe bien, j'ai pu terminer la planification plutôt et prendre de l'avance sur le projet</t>
+  </si>
+  <si>
+    <t>Total réalisé : 2.25 heures</t>
+  </si>
+  <si>
+    <t>Total réalisé : 1.5 heures</t>
+  </si>
+  <si>
+    <t>Total réalisé : 5.75 heures</t>
+  </si>
 </sst>
 </file>
 
@@ -320,7 +360,7 @@
     <numFmt numFmtId="164" formatCode="dd\ mmmm"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +489,14 @@
       <color theme="1"/>
       <name val="Aptos"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1569,10 +1617,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2199,16 +2248,36 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0065FF"/>
       <color rgb="FF1FEC1A"/>
-      <color rgb="FF0065FF"/>
       <color rgb="FF6BA6FF"/>
       <color rgb="FF96C0FF"/>
       <color rgb="FFE6F0FF"/>
@@ -2491,8 +2560,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A2:VC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="CE7" sqref="CE7"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11980,12 +12049,12 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
-      <c r="V18" s="30"/>
-      <c r="W18" s="30"/>
-      <c r="X18" s="30"/>
-      <c r="Y18" s="30"/>
-      <c r="Z18" s="30"/>
-      <c r="AA18" s="30"/>
+      <c r="V18" s="252"/>
+      <c r="W18" s="252"/>
+      <c r="X18" s="252"/>
+      <c r="Y18" s="252"/>
+      <c r="Z18" s="252"/>
+      <c r="AA18" s="252"/>
       <c r="AB18" s="30"/>
       <c r="AC18" s="30"/>
       <c r="AD18" s="30"/>
@@ -14309,9 +14378,9 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="28"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="30"/>
+      <c r="S22" s="251"/>
+      <c r="T22" s="252"/>
+      <c r="U22" s="252"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
@@ -16619,7 +16688,7 @@
     <row r="26" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
       <c r="B26" s="90" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C26" s="51"/>
       <c r="D26" s="73"/>
@@ -18393,15 +18462,15 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
       <c r="AA29" s="30"/>
-      <c r="AB29" s="30"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="30"/>
+      <c r="AB29" s="252"/>
+      <c r="AC29" s="252"/>
+      <c r="AD29" s="252"/>
       <c r="AE29" s="27"/>
       <c r="AF29" s="27"/>
       <c r="AG29" s="31"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="30"/>
+      <c r="AH29" s="253"/>
+      <c r="AI29" s="252"/>
+      <c r="AJ29" s="252"/>
       <c r="AK29" s="30"/>
       <c r="AL29" s="30"/>
       <c r="AM29" s="30"/>
@@ -19528,7 +19597,7 @@
     <row r="31" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
       <c r="B31" s="90" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="73"/>
@@ -21331,7 +21400,7 @@
       <c r="BB34" s="30"/>
       <c r="BC34" s="30"/>
       <c r="BD34" s="30"/>
-      <c r="BE34" s="30"/>
+      <c r="BE34" s="252"/>
       <c r="BF34" s="30"/>
       <c r="BG34" s="30"/>
       <c r="BH34" s="30"/>
@@ -22477,26 +22546,26 @@
       <c r="AH36" s="32"/>
       <c r="AI36" s="30"/>
       <c r="AJ36" s="30"/>
-      <c r="AK36" s="30"/>
-      <c r="AL36" s="30"/>
-      <c r="AM36" s="30"/>
-      <c r="AN36" s="30"/>
-      <c r="AO36" s="30"/>
-      <c r="AP36" s="30"/>
-      <c r="AQ36" s="30"/>
-      <c r="AR36" s="30"/>
-      <c r="AS36" s="30"/>
-      <c r="AT36" s="30"/>
-      <c r="AU36" s="30"/>
-      <c r="AV36" s="33"/>
-      <c r="AW36" s="29"/>
-      <c r="AX36" s="30"/>
-      <c r="AY36" s="30"/>
-      <c r="AZ36" s="30"/>
-      <c r="BA36" s="30"/>
-      <c r="BB36" s="30"/>
-      <c r="BC36" s="30"/>
-      <c r="BD36" s="30"/>
+      <c r="AK36" s="252"/>
+      <c r="AL36" s="252"/>
+      <c r="AM36" s="252"/>
+      <c r="AN36" s="252"/>
+      <c r="AO36" s="252"/>
+      <c r="AP36" s="252"/>
+      <c r="AQ36" s="252"/>
+      <c r="AR36" s="252"/>
+      <c r="AS36" s="252"/>
+      <c r="AT36" s="252"/>
+      <c r="AU36" s="252"/>
+      <c r="AV36" s="254"/>
+      <c r="AW36" s="251"/>
+      <c r="AX36" s="252"/>
+      <c r="AY36" s="252"/>
+      <c r="AZ36" s="252"/>
+      <c r="BA36" s="252"/>
+      <c r="BB36" s="252"/>
+      <c r="BC36" s="252"/>
+      <c r="BD36" s="252"/>
       <c r="BE36" s="30"/>
       <c r="BF36" s="30"/>
       <c r="BG36" s="30"/>
@@ -23664,8 +23733,8 @@
       <c r="BC38" s="30"/>
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
-      <c r="BF38" s="30"/>
-      <c r="BG38" s="30"/>
+      <c r="BF38" s="252"/>
+      <c r="BG38" s="252"/>
       <c r="BH38" s="30"/>
       <c r="BI38" s="27"/>
       <c r="BJ38" s="27"/>
@@ -25935,7 +26004,7 @@
     <row r="42" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
       <c r="B42" s="90" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="73"/>
@@ -44697,11 +44766,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF53113-343E-49A3-A22C-98D261F58738}">
-  <sheetPr codeName="Feuil2"/>
+  <sheetPr codeName="Feuil2">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B4:H90"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N71" sqref="N71"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44711,8 +44782,8 @@
     <col min="3" max="3" width="8.7109375" style="50" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="50" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" style="50" customWidth="1"/>
-    <col min="7" max="7" width="45.140625" style="50" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="51.85546875" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
@@ -44771,7 +44842,9 @@
         <v>44</v>
       </c>
       <c r="E8" s="213"/>
-      <c r="F8" s="214"/>
+      <c r="F8" s="246" t="s">
+        <v>83</v>
+      </c>
       <c r="G8" s="214"/>
       <c r="H8" s="215"/>
     </row>
@@ -44787,8 +44860,12 @@
         <v>45</v>
       </c>
       <c r="F9" s="220"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="97"/>
+      <c r="G9" s="247" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="250" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="228"/>
@@ -44798,8 +44875,12 @@
         <v>46</v>
       </c>
       <c r="F10" s="212"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="97"/>
+      <c r="G10" s="247" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="249" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="228"/>
@@ -44809,8 +44890,12 @@
         <v>42</v>
       </c>
       <c r="F11" s="212"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="97"/>
+      <c r="G11" s="247" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="249" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="228"/>
@@ -44820,8 +44905,12 @@
         <v>43</v>
       </c>
       <c r="F12" s="212"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="97"/>
+      <c r="G12" s="248" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="249" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="229"/>
@@ -44830,7 +44919,9 @@
         <v>44</v>
       </c>
       <c r="E13" s="213"/>
-      <c r="F13" s="214"/>
+      <c r="F13" s="214" t="s">
+        <v>91</v>
+      </c>
       <c r="G13" s="214"/>
       <c r="H13" s="215"/>
     </row>
@@ -45924,7 +46015,16 @@
     <mergeCell ref="G27:G30"/>
     <mergeCell ref="G68:G71"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="H12" r:id="rId1" xr:uid="{A2C1CB60-4940-405A-AF22-2260F5964F0A}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{0D5DF0F1-4CFD-41DA-A1F2-0EAD6821EA81}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{618F8270-C5E0-4F55-B7AA-2FD75A1D5B20}"/>
+    <hyperlink ref="H11" r:id="rId4" xr:uid="{5E44CE8F-9AF2-48AB-92D2-D4A0A6B3BE16}"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="70" orientation="landscape" r:id="rId5"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="13" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
--- a/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
+++ b/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq34bsi\Desktop\TPI-GestionApiculture\doc\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CA54E1-FA24-4983-A71E-C92F3CC5D4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611925B7-C06C-42CB-9807-F49661A16344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="2040" windowWidth="21600" windowHeight="11385" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="16" r:id="rId1"/>
     <sheet name="JournalDeTravail" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">JournalDeTravail!$B$5:$H$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">JournalDeTravail!$B$5:$H$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planification!$B$4:$VC$67</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="96">
   <si>
     <t>Nom, Prénom</t>
   </si>
@@ -351,6 +351,10 @@
   <si>
     <t>Total réalisé : 5.75 heures</t>
   </si>
+  <si>
+    <t>Réalisation de la maquette du site avec figma 
+(5 pages: Login, Home, Activities, Details-rucher, Details-ruche)</t>
+  </si>
 </sst>
 </file>
 
@@ -555,7 +559,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -1616,12 +1620,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1900,171 +1917,22 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="15" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2089,8 +1957,20 @@
     <xf numFmtId="20" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2143,11 +2023,158 @@
     <xf numFmtId="20" fontId="8" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2158,83 +2185,23 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2248,25 +2215,84 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -3733,74 +3759,74 @@
     </row>
     <row r="4" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="194" t="s">
+      <c r="B4" s="151" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="195"/>
-      <c r="D4" s="200" t="s">
+      <c r="C4" s="152"/>
+      <c r="D4" s="157" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="201"/>
-      <c r="K4" s="201"/>
-      <c r="L4" s="201"/>
-      <c r="M4" s="201"/>
-      <c r="N4" s="201"/>
-      <c r="O4" s="201"/>
-      <c r="P4" s="201"/>
-      <c r="Q4" s="202" t="s">
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="158"/>
+      <c r="I4" s="158"/>
+      <c r="J4" s="158"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="158"/>
+      <c r="M4" s="158"/>
+      <c r="N4" s="158"/>
+      <c r="O4" s="158"/>
+      <c r="P4" s="158"/>
+      <c r="Q4" s="159" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="202"/>
-      <c r="S4" s="202"/>
-      <c r="T4" s="202"/>
-      <c r="U4" s="202"/>
-      <c r="V4" s="202"/>
-      <c r="W4" s="202"/>
-      <c r="X4" s="202"/>
-      <c r="Y4" s="202"/>
-      <c r="Z4" s="202"/>
-      <c r="AA4" s="202"/>
-      <c r="AB4" s="202"/>
-      <c r="AC4" s="202"/>
-      <c r="AD4" s="202"/>
-      <c r="AE4" s="202"/>
-      <c r="AF4" s="202"/>
-      <c r="AG4" s="202"/>
-      <c r="AH4" s="202"/>
-      <c r="AI4" s="202"/>
-      <c r="AJ4" s="202"/>
-      <c r="AK4" s="202"/>
-      <c r="AL4" s="202"/>
-      <c r="AM4" s="202"/>
-      <c r="AN4" s="202"/>
-      <c r="AO4" s="202"/>
-      <c r="AP4" s="202"/>
-      <c r="AQ4" s="202"/>
-      <c r="AR4" s="202"/>
-      <c r="AS4" s="202"/>
-      <c r="AT4" s="202"/>
-      <c r="AU4" s="202"/>
-      <c r="AV4" s="202"/>
-      <c r="AW4" s="202"/>
-      <c r="AX4" s="202"/>
-      <c r="AY4" s="202"/>
-      <c r="AZ4" s="202"/>
-      <c r="BA4" s="202"/>
-      <c r="BB4" s="202"/>
-      <c r="BC4" s="202"/>
-      <c r="BD4" s="202"/>
-      <c r="BE4" s="202"/>
-      <c r="BF4" s="202"/>
-      <c r="BG4" s="202"/>
-      <c r="BH4" s="202"/>
-      <c r="BI4" s="202"/>
-      <c r="BJ4" s="202"/>
-      <c r="BK4" s="203"/>
+      <c r="R4" s="159"/>
+      <c r="S4" s="159"/>
+      <c r="T4" s="159"/>
+      <c r="U4" s="159"/>
+      <c r="V4" s="159"/>
+      <c r="W4" s="159"/>
+      <c r="X4" s="159"/>
+      <c r="Y4" s="159"/>
+      <c r="Z4" s="159"/>
+      <c r="AA4" s="159"/>
+      <c r="AB4" s="159"/>
+      <c r="AC4" s="159"/>
+      <c r="AD4" s="159"/>
+      <c r="AE4" s="159"/>
+      <c r="AF4" s="159"/>
+      <c r="AG4" s="159"/>
+      <c r="AH4" s="159"/>
+      <c r="AI4" s="159"/>
+      <c r="AJ4" s="159"/>
+      <c r="AK4" s="159"/>
+      <c r="AL4" s="159"/>
+      <c r="AM4" s="159"/>
+      <c r="AN4" s="159"/>
+      <c r="AO4" s="159"/>
+      <c r="AP4" s="159"/>
+      <c r="AQ4" s="159"/>
+      <c r="AR4" s="159"/>
+      <c r="AS4" s="159"/>
+      <c r="AT4" s="159"/>
+      <c r="AU4" s="159"/>
+      <c r="AV4" s="159"/>
+      <c r="AW4" s="159"/>
+      <c r="AX4" s="159"/>
+      <c r="AY4" s="159"/>
+      <c r="AZ4" s="159"/>
+      <c r="BA4" s="159"/>
+      <c r="BB4" s="159"/>
+      <c r="BC4" s="159"/>
+      <c r="BD4" s="159"/>
+      <c r="BE4" s="159"/>
+      <c r="BF4" s="159"/>
+      <c r="BG4" s="159"/>
+      <c r="BH4" s="159"/>
+      <c r="BI4" s="159"/>
+      <c r="BJ4" s="159"/>
+      <c r="BK4" s="160"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
@@ -4041,8 +4067,8 @@
       <c r="KO4" s="6"/>
       <c r="KP4" s="6"/>
       <c r="KQ4" s="6"/>
-      <c r="KR4" s="135"/>
-      <c r="KS4" s="135"/>
+      <c r="KR4" s="215"/>
+      <c r="KS4" s="215"/>
       <c r="KT4" s="6"/>
       <c r="KU4" s="6"/>
       <c r="KV4" s="6"/>
@@ -4316,76 +4342,76 @@
     </row>
     <row r="5" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="196"/>
-      <c r="C5" s="197"/>
-      <c r="D5" s="204" t="s">
+      <c r="B5" s="153"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="205"/>
-      <c r="H5" s="205"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="205"/>
-      <c r="K5" s="205"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="205"/>
-      <c r="N5" s="205"/>
-      <c r="O5" s="205"/>
-      <c r="P5" s="205"/>
-      <c r="Q5" s="206" t="s">
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="162"/>
+      <c r="H5" s="162"/>
+      <c r="I5" s="162"/>
+      <c r="J5" s="162"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="162"/>
+      <c r="M5" s="162"/>
+      <c r="N5" s="162"/>
+      <c r="O5" s="162"/>
+      <c r="P5" s="162"/>
+      <c r="Q5" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="206"/>
-      <c r="S5" s="206"/>
-      <c r="T5" s="206"/>
-      <c r="U5" s="206"/>
-      <c r="V5" s="206"/>
-      <c r="W5" s="206"/>
-      <c r="X5" s="206"/>
-      <c r="Y5" s="206"/>
-      <c r="Z5" s="206"/>
-      <c r="AA5" s="206"/>
-      <c r="AB5" s="205" t="s">
+      <c r="R5" s="163"/>
+      <c r="S5" s="163"/>
+      <c r="T5" s="163"/>
+      <c r="U5" s="163"/>
+      <c r="V5" s="163"/>
+      <c r="W5" s="163"/>
+      <c r="X5" s="163"/>
+      <c r="Y5" s="163"/>
+      <c r="Z5" s="163"/>
+      <c r="AA5" s="163"/>
+      <c r="AB5" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="205"/>
-      <c r="AD5" s="205"/>
-      <c r="AE5" s="205"/>
-      <c r="AF5" s="205"/>
-      <c r="AG5" s="205"/>
-      <c r="AH5" s="205"/>
-      <c r="AI5" s="205"/>
-      <c r="AJ5" s="205"/>
-      <c r="AK5" s="205"/>
-      <c r="AL5" s="205"/>
-      <c r="AM5" s="205"/>
-      <c r="AN5" s="205"/>
-      <c r="AO5" s="206" t="s">
+      <c r="AC5" s="162"/>
+      <c r="AD5" s="162"/>
+      <c r="AE5" s="162"/>
+      <c r="AF5" s="162"/>
+      <c r="AG5" s="162"/>
+      <c r="AH5" s="162"/>
+      <c r="AI5" s="162"/>
+      <c r="AJ5" s="162"/>
+      <c r="AK5" s="162"/>
+      <c r="AL5" s="162"/>
+      <c r="AM5" s="162"/>
+      <c r="AN5" s="162"/>
+      <c r="AO5" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="AP5" s="206"/>
-      <c r="AQ5" s="206"/>
-      <c r="AR5" s="206"/>
-      <c r="AS5" s="206"/>
-      <c r="AT5" s="206"/>
-      <c r="AU5" s="206"/>
-      <c r="AV5" s="206"/>
-      <c r="AW5" s="206"/>
-      <c r="AX5" s="206"/>
-      <c r="AY5" s="206"/>
-      <c r="AZ5" s="206"/>
-      <c r="BA5" s="206"/>
-      <c r="BB5" s="206"/>
-      <c r="BC5" s="206"/>
-      <c r="BD5" s="206"/>
-      <c r="BE5" s="206"/>
-      <c r="BF5" s="206"/>
-      <c r="BG5" s="206"/>
-      <c r="BH5" s="206"/>
-      <c r="BI5" s="206"/>
-      <c r="BJ5" s="206"/>
-      <c r="BK5" s="207"/>
+      <c r="AP5" s="163"/>
+      <c r="AQ5" s="163"/>
+      <c r="AR5" s="163"/>
+      <c r="AS5" s="163"/>
+      <c r="AT5" s="163"/>
+      <c r="AU5" s="163"/>
+      <c r="AV5" s="163"/>
+      <c r="AW5" s="163"/>
+      <c r="AX5" s="163"/>
+      <c r="AY5" s="163"/>
+      <c r="AZ5" s="163"/>
+      <c r="BA5" s="163"/>
+      <c r="BB5" s="163"/>
+      <c r="BC5" s="163"/>
+      <c r="BD5" s="163"/>
+      <c r="BE5" s="163"/>
+      <c r="BF5" s="163"/>
+      <c r="BG5" s="163"/>
+      <c r="BH5" s="163"/>
+      <c r="BI5" s="163"/>
+      <c r="BJ5" s="163"/>
+      <c r="BK5" s="164"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
@@ -4626,8 +4652,8 @@
       <c r="KO5" s="6"/>
       <c r="KP5" s="6"/>
       <c r="KQ5" s="6"/>
-      <c r="KR5" s="135"/>
-      <c r="KS5" s="135"/>
+      <c r="KR5" s="215"/>
+      <c r="KS5" s="215"/>
       <c r="KT5" s="6"/>
       <c r="KU5" s="6"/>
       <c r="KV5" s="6"/>
@@ -4901,76 +4927,76 @@
     </row>
     <row r="6" spans="1:575" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="198"/>
-      <c r="C6" s="199"/>
-      <c r="D6" s="208" t="s">
+      <c r="B6" s="155"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="209"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="209"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
-      <c r="J6" s="209"/>
-      <c r="K6" s="209"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="209"/>
-      <c r="N6" s="209"/>
-      <c r="O6" s="209"/>
-      <c r="P6" s="209"/>
-      <c r="Q6" s="210" t="s">
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="166"/>
+      <c r="Q6" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="210"/>
-      <c r="S6" s="210"/>
-      <c r="T6" s="210"/>
-      <c r="U6" s="210"/>
-      <c r="V6" s="210"/>
-      <c r="W6" s="210"/>
-      <c r="X6" s="210"/>
-      <c r="Y6" s="210"/>
-      <c r="Z6" s="210"/>
-      <c r="AA6" s="210"/>
-      <c r="AB6" s="209" t="s">
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="209"/>
-      <c r="AD6" s="209"/>
-      <c r="AE6" s="209"/>
-      <c r="AF6" s="209"/>
-      <c r="AG6" s="209"/>
-      <c r="AH6" s="209"/>
-      <c r="AI6" s="209"/>
-      <c r="AJ6" s="209"/>
-      <c r="AK6" s="209"/>
-      <c r="AL6" s="209"/>
-      <c r="AM6" s="209"/>
-      <c r="AN6" s="209"/>
-      <c r="AO6" s="185" t="s">
+      <c r="AC6" s="166"/>
+      <c r="AD6" s="166"/>
+      <c r="AE6" s="166"/>
+      <c r="AF6" s="166"/>
+      <c r="AG6" s="166"/>
+      <c r="AH6" s="166"/>
+      <c r="AI6" s="166"/>
+      <c r="AJ6" s="166"/>
+      <c r="AK6" s="166"/>
+      <c r="AL6" s="166"/>
+      <c r="AM6" s="166"/>
+      <c r="AN6" s="166"/>
+      <c r="AO6" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="185"/>
-      <c r="AQ6" s="185"/>
-      <c r="AR6" s="185"/>
-      <c r="AS6" s="185"/>
-      <c r="AT6" s="185"/>
-      <c r="AU6" s="185"/>
-      <c r="AV6" s="185"/>
-      <c r="AW6" s="185"/>
-      <c r="AX6" s="185"/>
-      <c r="AY6" s="185"/>
-      <c r="AZ6" s="185"/>
-      <c r="BA6" s="185"/>
-      <c r="BB6" s="185"/>
-      <c r="BC6" s="185"/>
-      <c r="BD6" s="185"/>
-      <c r="BE6" s="185"/>
-      <c r="BF6" s="185"/>
-      <c r="BG6" s="185"/>
-      <c r="BH6" s="185"/>
-      <c r="BI6" s="185"/>
-      <c r="BJ6" s="185"/>
-      <c r="BK6" s="186"/>
+      <c r="AP6" s="138"/>
+      <c r="AQ6" s="138"/>
+      <c r="AR6" s="138"/>
+      <c r="AS6" s="138"/>
+      <c r="AT6" s="138"/>
+      <c r="AU6" s="138"/>
+      <c r="AV6" s="138"/>
+      <c r="AW6" s="138"/>
+      <c r="AX6" s="138"/>
+      <c r="AY6" s="138"/>
+      <c r="AZ6" s="138"/>
+      <c r="BA6" s="138"/>
+      <c r="BB6" s="138"/>
+      <c r="BC6" s="138"/>
+      <c r="BD6" s="138"/>
+      <c r="BE6" s="138"/>
+      <c r="BF6" s="138"/>
+      <c r="BG6" s="138"/>
+      <c r="BH6" s="138"/>
+      <c r="BI6" s="138"/>
+      <c r="BJ6" s="138"/>
+      <c r="BK6" s="139"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8"/>
@@ -5211,8 +5237,8 @@
       <c r="KO6" s="6"/>
       <c r="KP6" s="6"/>
       <c r="KQ6" s="6"/>
-      <c r="KR6" s="135"/>
-      <c r="KS6" s="135"/>
+      <c r="KR6" s="215"/>
+      <c r="KS6" s="215"/>
       <c r="KT6" s="6"/>
       <c r="KU6" s="6"/>
       <c r="KV6" s="6"/>
@@ -5486,70 +5512,70 @@
     </row>
     <row r="7" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="188"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="188"/>
-      <c r="U7" s="188"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="188"/>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="188"/>
-      <c r="AB7" s="188"/>
-      <c r="AC7" s="188"/>
-      <c r="AD7" s="188"/>
-      <c r="AE7" s="188"/>
-      <c r="AF7" s="188"/>
-      <c r="AG7" s="188"/>
-      <c r="AH7" s="188"/>
-      <c r="AI7" s="188"/>
-      <c r="AJ7" s="188"/>
-      <c r="AK7" s="188"/>
-      <c r="AL7" s="188"/>
-      <c r="AM7" s="188"/>
-      <c r="AN7" s="188"/>
-      <c r="AO7" s="188"/>
-      <c r="AP7" s="188"/>
-      <c r="AQ7" s="188"/>
-      <c r="AR7" s="188"/>
-      <c r="AS7" s="188"/>
-      <c r="AT7" s="188"/>
-      <c r="AU7" s="188"/>
-      <c r="AV7" s="188"/>
-      <c r="AW7" s="188"/>
-      <c r="AX7" s="188"/>
-      <c r="AY7" s="188"/>
-      <c r="AZ7" s="188"/>
-      <c r="BA7" s="188"/>
-      <c r="BB7" s="188"/>
-      <c r="BC7" s="188"/>
-      <c r="BD7" s="188"/>
-      <c r="BE7" s="188"/>
-      <c r="BF7" s="188"/>
-      <c r="BG7" s="188"/>
-      <c r="BH7" s="188"/>
-      <c r="BI7" s="188"/>
-      <c r="BJ7" s="188"/>
-      <c r="BK7" s="189"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="141"/>
+      <c r="N7" s="141"/>
+      <c r="O7" s="141"/>
+      <c r="P7" s="141"/>
+      <c r="Q7" s="141"/>
+      <c r="R7" s="141"/>
+      <c r="S7" s="141"/>
+      <c r="T7" s="141"/>
+      <c r="U7" s="141"/>
+      <c r="V7" s="141"/>
+      <c r="W7" s="141"/>
+      <c r="X7" s="141"/>
+      <c r="Y7" s="141"/>
+      <c r="Z7" s="141"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="141"/>
+      <c r="AC7" s="141"/>
+      <c r="AD7" s="141"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="141"/>
+      <c r="AG7" s="141"/>
+      <c r="AH7" s="141"/>
+      <c r="AI7" s="141"/>
+      <c r="AJ7" s="141"/>
+      <c r="AK7" s="141"/>
+      <c r="AL7" s="141"/>
+      <c r="AM7" s="141"/>
+      <c r="AN7" s="141"/>
+      <c r="AO7" s="141"/>
+      <c r="AP7" s="141"/>
+      <c r="AQ7" s="141"/>
+      <c r="AR7" s="141"/>
+      <c r="AS7" s="141"/>
+      <c r="AT7" s="141"/>
+      <c r="AU7" s="141"/>
+      <c r="AV7" s="141"/>
+      <c r="AW7" s="141"/>
+      <c r="AX7" s="141"/>
+      <c r="AY7" s="141"/>
+      <c r="AZ7" s="141"/>
+      <c r="BA7" s="141"/>
+      <c r="BB7" s="141"/>
+      <c r="BC7" s="141"/>
+      <c r="BD7" s="141"/>
+      <c r="BE7" s="141"/>
+      <c r="BF7" s="141"/>
+      <c r="BG7" s="141"/>
+      <c r="BH7" s="141"/>
+      <c r="BI7" s="141"/>
+      <c r="BJ7" s="141"/>
+      <c r="BK7" s="142"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9"/>
@@ -6065,68 +6091,68 @@
     </row>
     <row r="8" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="188"/>
-      <c r="F8" s="188"/>
-      <c r="G8" s="188"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="188"/>
-      <c r="J8" s="188"/>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188"/>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188"/>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188"/>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188"/>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188"/>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188"/>
-      <c r="AA8" s="188"/>
-      <c r="AB8" s="188"/>
-      <c r="AC8" s="188"/>
-      <c r="AD8" s="188"/>
-      <c r="AE8" s="188"/>
-      <c r="AF8" s="188"/>
-      <c r="AG8" s="188"/>
-      <c r="AH8" s="188"/>
-      <c r="AI8" s="188"/>
-      <c r="AJ8" s="188"/>
-      <c r="AK8" s="188"/>
-      <c r="AL8" s="188"/>
-      <c r="AM8" s="188"/>
-      <c r="AN8" s="188"/>
-      <c r="AO8" s="188"/>
-      <c r="AP8" s="188"/>
-      <c r="AQ8" s="188"/>
-      <c r="AR8" s="188"/>
-      <c r="AS8" s="188"/>
-      <c r="AT8" s="188"/>
-      <c r="AU8" s="188"/>
-      <c r="AV8" s="188"/>
-      <c r="AW8" s="188"/>
-      <c r="AX8" s="188"/>
-      <c r="AY8" s="188"/>
-      <c r="AZ8" s="188"/>
-      <c r="BA8" s="188"/>
-      <c r="BB8" s="188"/>
-      <c r="BC8" s="188"/>
-      <c r="BD8" s="188"/>
-      <c r="BE8" s="188"/>
-      <c r="BF8" s="188"/>
-      <c r="BG8" s="188"/>
-      <c r="BH8" s="188"/>
-      <c r="BI8" s="188"/>
-      <c r="BJ8" s="188"/>
-      <c r="BK8" s="189"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+      <c r="K8" s="141"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="141"/>
+      <c r="N8" s="141"/>
+      <c r="O8" s="141"/>
+      <c r="P8" s="141"/>
+      <c r="Q8" s="141"/>
+      <c r="R8" s="141"/>
+      <c r="S8" s="141"/>
+      <c r="T8" s="141"/>
+      <c r="U8" s="141"/>
+      <c r="V8" s="141"/>
+      <c r="W8" s="141"/>
+      <c r="X8" s="141"/>
+      <c r="Y8" s="141"/>
+      <c r="Z8" s="141"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="141"/>
+      <c r="AC8" s="141"/>
+      <c r="AD8" s="141"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="141"/>
+      <c r="AG8" s="141"/>
+      <c r="AH8" s="141"/>
+      <c r="AI8" s="141"/>
+      <c r="AJ8" s="141"/>
+      <c r="AK8" s="141"/>
+      <c r="AL8" s="141"/>
+      <c r="AM8" s="141"/>
+      <c r="AN8" s="141"/>
+      <c r="AO8" s="141"/>
+      <c r="AP8" s="141"/>
+      <c r="AQ8" s="141"/>
+      <c r="AR8" s="141"/>
+      <c r="AS8" s="141"/>
+      <c r="AT8" s="141"/>
+      <c r="AU8" s="141"/>
+      <c r="AV8" s="141"/>
+      <c r="AW8" s="141"/>
+      <c r="AX8" s="141"/>
+      <c r="AY8" s="141"/>
+      <c r="AZ8" s="141"/>
+      <c r="BA8" s="141"/>
+      <c r="BB8" s="141"/>
+      <c r="BC8" s="141"/>
+      <c r="BD8" s="141"/>
+      <c r="BE8" s="141"/>
+      <c r="BF8" s="141"/>
+      <c r="BG8" s="141"/>
+      <c r="BH8" s="141"/>
+      <c r="BI8" s="141"/>
+      <c r="BJ8" s="141"/>
+      <c r="BK8" s="142"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
@@ -6642,68 +6668,68 @@
     </row>
     <row r="9" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="190"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
-      <c r="L9" s="191"/>
-      <c r="M9" s="191"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="191"/>
-      <c r="P9" s="191"/>
-      <c r="Q9" s="191"/>
-      <c r="R9" s="191"/>
-      <c r="S9" s="191"/>
-      <c r="T9" s="191"/>
-      <c r="U9" s="191"/>
-      <c r="V9" s="191"/>
-      <c r="W9" s="191"/>
-      <c r="X9" s="191"/>
-      <c r="Y9" s="191"/>
-      <c r="Z9" s="191"/>
-      <c r="AA9" s="191"/>
-      <c r="AB9" s="191"/>
-      <c r="AC9" s="191"/>
-      <c r="AD9" s="191"/>
-      <c r="AE9" s="191"/>
-      <c r="AF9" s="191"/>
-      <c r="AG9" s="191"/>
-      <c r="AH9" s="191"/>
-      <c r="AI9" s="191"/>
-      <c r="AJ9" s="191"/>
-      <c r="AK9" s="191"/>
-      <c r="AL9" s="191"/>
-      <c r="AM9" s="191"/>
-      <c r="AN9" s="191"/>
-      <c r="AO9" s="191"/>
-      <c r="AP9" s="191"/>
-      <c r="AQ9" s="191"/>
-      <c r="AR9" s="191"/>
-      <c r="AS9" s="191"/>
-      <c r="AT9" s="191"/>
-      <c r="AU9" s="191"/>
-      <c r="AV9" s="191"/>
-      <c r="AW9" s="191"/>
-      <c r="AX9" s="191"/>
-      <c r="AY9" s="191"/>
-      <c r="AZ9" s="191"/>
-      <c r="BA9" s="191"/>
-      <c r="BB9" s="191"/>
-      <c r="BC9" s="191"/>
-      <c r="BD9" s="191"/>
-      <c r="BE9" s="191"/>
-      <c r="BF9" s="191"/>
-      <c r="BG9" s="191"/>
-      <c r="BH9" s="191"/>
-      <c r="BI9" s="191"/>
-      <c r="BJ9" s="191"/>
-      <c r="BK9" s="192"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
+      <c r="Q9" s="144"/>
+      <c r="R9" s="144"/>
+      <c r="S9" s="144"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
+      <c r="W9" s="144"/>
+      <c r="X9" s="144"/>
+      <c r="Y9" s="144"/>
+      <c r="Z9" s="144"/>
+      <c r="AA9" s="144"/>
+      <c r="AB9" s="144"/>
+      <c r="AC9" s="144"/>
+      <c r="AD9" s="144"/>
+      <c r="AE9" s="144"/>
+      <c r="AF9" s="144"/>
+      <c r="AG9" s="144"/>
+      <c r="AH9" s="144"/>
+      <c r="AI9" s="144"/>
+      <c r="AJ9" s="144"/>
+      <c r="AK9" s="144"/>
+      <c r="AL9" s="144"/>
+      <c r="AM9" s="144"/>
+      <c r="AN9" s="144"/>
+      <c r="AO9" s="144"/>
+      <c r="AP9" s="144"/>
+      <c r="AQ9" s="144"/>
+      <c r="AR9" s="144"/>
+      <c r="AS9" s="144"/>
+      <c r="AT9" s="144"/>
+      <c r="AU9" s="144"/>
+      <c r="AV9" s="144"/>
+      <c r="AW9" s="144"/>
+      <c r="AX9" s="144"/>
+      <c r="AY9" s="144"/>
+      <c r="AZ9" s="144"/>
+      <c r="BA9" s="144"/>
+      <c r="BB9" s="144"/>
+      <c r="BC9" s="144"/>
+      <c r="BD9" s="144"/>
+      <c r="BE9" s="144"/>
+      <c r="BF9" s="144"/>
+      <c r="BG9" s="144"/>
+      <c r="BH9" s="144"/>
+      <c r="BI9" s="144"/>
+      <c r="BJ9" s="144"/>
+      <c r="BK9" s="145"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
@@ -8373,2491 +8399,2491 @@
     </row>
     <row r="12" spans="1:575" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="136" t="s">
+      <c r="B12" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="193"/>
-      <c r="D12" s="176" t="s">
+      <c r="C12" s="147"/>
+      <c r="D12" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="177"/>
-      <c r="M12" s="177"/>
-      <c r="N12" s="177"/>
-      <c r="O12" s="177"/>
-      <c r="P12" s="177"/>
-      <c r="Q12" s="177"/>
-      <c r="R12" s="177"/>
-      <c r="S12" s="177"/>
-      <c r="T12" s="177"/>
-      <c r="U12" s="177"/>
-      <c r="V12" s="177"/>
-      <c r="W12" s="177"/>
-      <c r="X12" s="177"/>
-      <c r="Y12" s="177"/>
-      <c r="Z12" s="177"/>
-      <c r="AA12" s="177"/>
-      <c r="AB12" s="177"/>
-      <c r="AC12" s="177"/>
-      <c r="AD12" s="177"/>
-      <c r="AE12" s="177"/>
-      <c r="AF12" s="177"/>
-      <c r="AG12" s="177"/>
-      <c r="AH12" s="177"/>
-      <c r="AI12" s="177"/>
-      <c r="AJ12" s="177"/>
-      <c r="AK12" s="177"/>
-      <c r="AL12" s="177"/>
-      <c r="AM12" s="177"/>
-      <c r="AN12" s="177"/>
-      <c r="AO12" s="177"/>
-      <c r="AP12" s="177"/>
-      <c r="AQ12" s="177"/>
-      <c r="AR12" s="177"/>
-      <c r="AS12" s="177"/>
-      <c r="AT12" s="177"/>
-      <c r="AU12" s="177"/>
-      <c r="AV12" s="177"/>
-      <c r="AW12" s="177"/>
-      <c r="AX12" s="177"/>
-      <c r="AY12" s="177"/>
-      <c r="AZ12" s="177"/>
-      <c r="BA12" s="177"/>
-      <c r="BB12" s="177"/>
-      <c r="BC12" s="177"/>
-      <c r="BD12" s="177"/>
-      <c r="BE12" s="177"/>
-      <c r="BF12" s="177"/>
-      <c r="BG12" s="177"/>
-      <c r="BH12" s="177"/>
-      <c r="BI12" s="177"/>
-      <c r="BJ12" s="177"/>
-      <c r="BK12" s="177"/>
-      <c r="BL12" s="176" t="s">
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="149"/>
+      <c r="AN12" s="149"/>
+      <c r="AO12" s="149"/>
+      <c r="AP12" s="149"/>
+      <c r="AQ12" s="149"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="149"/>
+      <c r="AT12" s="149"/>
+      <c r="AU12" s="149"/>
+      <c r="AV12" s="149"/>
+      <c r="AW12" s="149"/>
+      <c r="AX12" s="149"/>
+      <c r="AY12" s="149"/>
+      <c r="AZ12" s="149"/>
+      <c r="BA12" s="149"/>
+      <c r="BB12" s="149"/>
+      <c r="BC12" s="149"/>
+      <c r="BD12" s="149"/>
+      <c r="BE12" s="149"/>
+      <c r="BF12" s="149"/>
+      <c r="BG12" s="149"/>
+      <c r="BH12" s="149"/>
+      <c r="BI12" s="149"/>
+      <c r="BJ12" s="149"/>
+      <c r="BK12" s="149"/>
+      <c r="BL12" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="BM12" s="177"/>
-      <c r="BN12" s="177"/>
-      <c r="BO12" s="177"/>
-      <c r="BP12" s="177"/>
-      <c r="BQ12" s="177"/>
-      <c r="BR12" s="177"/>
-      <c r="BS12" s="177"/>
-      <c r="BT12" s="177"/>
-      <c r="BU12" s="177"/>
-      <c r="BV12" s="177"/>
-      <c r="BW12" s="177"/>
-      <c r="BX12" s="177"/>
-      <c r="BY12" s="177"/>
-      <c r="BZ12" s="177"/>
-      <c r="CA12" s="177"/>
-      <c r="CB12" s="177"/>
-      <c r="CC12" s="177"/>
-      <c r="CD12" s="177"/>
-      <c r="CE12" s="177"/>
-      <c r="CF12" s="177"/>
-      <c r="CG12" s="177"/>
-      <c r="CH12" s="177"/>
-      <c r="CI12" s="177"/>
-      <c r="CJ12" s="177"/>
-      <c r="CK12" s="177"/>
-      <c r="CL12" s="177"/>
-      <c r="CM12" s="177"/>
-      <c r="CN12" s="177"/>
-      <c r="CO12" s="177"/>
-      <c r="CP12" s="177"/>
-      <c r="CQ12" s="177"/>
-      <c r="CR12" s="177"/>
-      <c r="CS12" s="177"/>
-      <c r="CT12" s="177"/>
-      <c r="CU12" s="177"/>
-      <c r="CV12" s="177"/>
-      <c r="CW12" s="177"/>
-      <c r="CX12" s="177"/>
-      <c r="CY12" s="177"/>
-      <c r="CZ12" s="177"/>
-      <c r="DA12" s="177"/>
-      <c r="DB12" s="177"/>
-      <c r="DC12" s="177"/>
-      <c r="DD12" s="177"/>
-      <c r="DE12" s="177"/>
-      <c r="DF12" s="177"/>
-      <c r="DG12" s="177"/>
-      <c r="DH12" s="177"/>
-      <c r="DI12" s="177"/>
-      <c r="DJ12" s="177"/>
-      <c r="DK12" s="177"/>
-      <c r="DL12" s="177"/>
-      <c r="DM12" s="177"/>
-      <c r="DN12" s="177"/>
-      <c r="DO12" s="177"/>
-      <c r="DP12" s="177"/>
-      <c r="DQ12" s="177"/>
-      <c r="DR12" s="177"/>
-      <c r="DS12" s="177"/>
-      <c r="DT12" s="177"/>
-      <c r="DU12" s="177"/>
-      <c r="DV12" s="177"/>
-      <c r="DW12" s="177"/>
-      <c r="DX12" s="177"/>
-      <c r="DY12" s="177"/>
-      <c r="DZ12" s="177"/>
-      <c r="EA12" s="177"/>
-      <c r="EB12" s="177"/>
-      <c r="EC12" s="177"/>
-      <c r="ED12" s="177"/>
-      <c r="EE12" s="177"/>
-      <c r="EF12" s="177"/>
-      <c r="EG12" s="177"/>
-      <c r="EH12" s="177"/>
-      <c r="EI12" s="177"/>
-      <c r="EJ12" s="177"/>
-      <c r="EK12" s="177"/>
-      <c r="EL12" s="177"/>
-      <c r="EM12" s="177"/>
-      <c r="EN12" s="177"/>
-      <c r="EO12" s="177"/>
-      <c r="EP12" s="177"/>
-      <c r="EQ12" s="177"/>
-      <c r="ER12" s="177"/>
-      <c r="ES12" s="177"/>
-      <c r="ET12" s="177"/>
-      <c r="EU12" s="177"/>
-      <c r="EV12" s="177"/>
-      <c r="EW12" s="177"/>
-      <c r="EX12" s="177"/>
-      <c r="EY12" s="177"/>
-      <c r="EZ12" s="177"/>
-      <c r="FA12" s="177"/>
-      <c r="FB12" s="177"/>
-      <c r="FC12" s="177"/>
-      <c r="FD12" s="177"/>
-      <c r="FE12" s="177"/>
-      <c r="FF12" s="177"/>
-      <c r="FG12" s="177"/>
-      <c r="FH12" s="177"/>
-      <c r="FI12" s="177"/>
-      <c r="FJ12" s="177"/>
-      <c r="FK12" s="177"/>
-      <c r="FL12" s="177"/>
-      <c r="FM12" s="177"/>
-      <c r="FN12" s="177"/>
-      <c r="FO12" s="177"/>
-      <c r="FP12" s="177"/>
-      <c r="FQ12" s="177"/>
-      <c r="FR12" s="177"/>
-      <c r="FS12" s="177"/>
-      <c r="FT12" s="177"/>
-      <c r="FU12" s="177"/>
-      <c r="FV12" s="177"/>
-      <c r="FW12" s="177"/>
-      <c r="FX12" s="177"/>
-      <c r="FY12" s="177"/>
-      <c r="FZ12" s="177"/>
-      <c r="GA12" s="177"/>
-      <c r="GB12" s="176" t="s">
+      <c r="BM12" s="149"/>
+      <c r="BN12" s="149"/>
+      <c r="BO12" s="149"/>
+      <c r="BP12" s="149"/>
+      <c r="BQ12" s="149"/>
+      <c r="BR12" s="149"/>
+      <c r="BS12" s="149"/>
+      <c r="BT12" s="149"/>
+      <c r="BU12" s="149"/>
+      <c r="BV12" s="149"/>
+      <c r="BW12" s="149"/>
+      <c r="BX12" s="149"/>
+      <c r="BY12" s="149"/>
+      <c r="BZ12" s="149"/>
+      <c r="CA12" s="149"/>
+      <c r="CB12" s="149"/>
+      <c r="CC12" s="149"/>
+      <c r="CD12" s="149"/>
+      <c r="CE12" s="149"/>
+      <c r="CF12" s="149"/>
+      <c r="CG12" s="149"/>
+      <c r="CH12" s="149"/>
+      <c r="CI12" s="149"/>
+      <c r="CJ12" s="149"/>
+      <c r="CK12" s="149"/>
+      <c r="CL12" s="149"/>
+      <c r="CM12" s="149"/>
+      <c r="CN12" s="149"/>
+      <c r="CO12" s="149"/>
+      <c r="CP12" s="149"/>
+      <c r="CQ12" s="149"/>
+      <c r="CR12" s="149"/>
+      <c r="CS12" s="149"/>
+      <c r="CT12" s="149"/>
+      <c r="CU12" s="149"/>
+      <c r="CV12" s="149"/>
+      <c r="CW12" s="149"/>
+      <c r="CX12" s="149"/>
+      <c r="CY12" s="149"/>
+      <c r="CZ12" s="149"/>
+      <c r="DA12" s="149"/>
+      <c r="DB12" s="149"/>
+      <c r="DC12" s="149"/>
+      <c r="DD12" s="149"/>
+      <c r="DE12" s="149"/>
+      <c r="DF12" s="149"/>
+      <c r="DG12" s="149"/>
+      <c r="DH12" s="149"/>
+      <c r="DI12" s="149"/>
+      <c r="DJ12" s="149"/>
+      <c r="DK12" s="149"/>
+      <c r="DL12" s="149"/>
+      <c r="DM12" s="149"/>
+      <c r="DN12" s="149"/>
+      <c r="DO12" s="149"/>
+      <c r="DP12" s="149"/>
+      <c r="DQ12" s="149"/>
+      <c r="DR12" s="149"/>
+      <c r="DS12" s="149"/>
+      <c r="DT12" s="149"/>
+      <c r="DU12" s="149"/>
+      <c r="DV12" s="149"/>
+      <c r="DW12" s="149"/>
+      <c r="DX12" s="149"/>
+      <c r="DY12" s="149"/>
+      <c r="DZ12" s="149"/>
+      <c r="EA12" s="149"/>
+      <c r="EB12" s="149"/>
+      <c r="EC12" s="149"/>
+      <c r="ED12" s="149"/>
+      <c r="EE12" s="149"/>
+      <c r="EF12" s="149"/>
+      <c r="EG12" s="149"/>
+      <c r="EH12" s="149"/>
+      <c r="EI12" s="149"/>
+      <c r="EJ12" s="149"/>
+      <c r="EK12" s="149"/>
+      <c r="EL12" s="149"/>
+      <c r="EM12" s="149"/>
+      <c r="EN12" s="149"/>
+      <c r="EO12" s="149"/>
+      <c r="EP12" s="149"/>
+      <c r="EQ12" s="149"/>
+      <c r="ER12" s="149"/>
+      <c r="ES12" s="149"/>
+      <c r="ET12" s="149"/>
+      <c r="EU12" s="149"/>
+      <c r="EV12" s="149"/>
+      <c r="EW12" s="149"/>
+      <c r="EX12" s="149"/>
+      <c r="EY12" s="149"/>
+      <c r="EZ12" s="149"/>
+      <c r="FA12" s="149"/>
+      <c r="FB12" s="149"/>
+      <c r="FC12" s="149"/>
+      <c r="FD12" s="149"/>
+      <c r="FE12" s="149"/>
+      <c r="FF12" s="149"/>
+      <c r="FG12" s="149"/>
+      <c r="FH12" s="149"/>
+      <c r="FI12" s="149"/>
+      <c r="FJ12" s="149"/>
+      <c r="FK12" s="149"/>
+      <c r="FL12" s="149"/>
+      <c r="FM12" s="149"/>
+      <c r="FN12" s="149"/>
+      <c r="FO12" s="149"/>
+      <c r="FP12" s="149"/>
+      <c r="FQ12" s="149"/>
+      <c r="FR12" s="149"/>
+      <c r="FS12" s="149"/>
+      <c r="FT12" s="149"/>
+      <c r="FU12" s="149"/>
+      <c r="FV12" s="149"/>
+      <c r="FW12" s="149"/>
+      <c r="FX12" s="149"/>
+      <c r="FY12" s="149"/>
+      <c r="FZ12" s="149"/>
+      <c r="GA12" s="149"/>
+      <c r="GB12" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="GC12" s="177"/>
-      <c r="GD12" s="177"/>
-      <c r="GE12" s="177"/>
-      <c r="GF12" s="177"/>
-      <c r="GG12" s="177"/>
-      <c r="GH12" s="177"/>
-      <c r="GI12" s="177"/>
-      <c r="GJ12" s="177"/>
-      <c r="GK12" s="177"/>
-      <c r="GL12" s="177"/>
-      <c r="GM12" s="177"/>
-      <c r="GN12" s="177"/>
-      <c r="GO12" s="177"/>
-      <c r="GP12" s="177"/>
-      <c r="GQ12" s="177"/>
-      <c r="GR12" s="177"/>
-      <c r="GS12" s="177"/>
-      <c r="GT12" s="177"/>
-      <c r="GU12" s="177"/>
-      <c r="GV12" s="177"/>
-      <c r="GW12" s="177"/>
-      <c r="GX12" s="177"/>
-      <c r="GY12" s="177"/>
-      <c r="GZ12" s="177"/>
-      <c r="HA12" s="177"/>
-      <c r="HB12" s="177"/>
-      <c r="HC12" s="177"/>
-      <c r="HD12" s="177"/>
-      <c r="HE12" s="177"/>
-      <c r="HF12" s="177"/>
-      <c r="HG12" s="177"/>
-      <c r="HH12" s="177"/>
-      <c r="HI12" s="177"/>
-      <c r="HJ12" s="177"/>
-      <c r="HK12" s="177"/>
-      <c r="HL12" s="177"/>
-      <c r="HM12" s="177"/>
-      <c r="HN12" s="177"/>
-      <c r="HO12" s="177"/>
-      <c r="HP12" s="177"/>
-      <c r="HQ12" s="177"/>
-      <c r="HR12" s="177"/>
-      <c r="HS12" s="177"/>
-      <c r="HT12" s="177"/>
-      <c r="HU12" s="177"/>
-      <c r="HV12" s="177"/>
-      <c r="HW12" s="177"/>
-      <c r="HX12" s="177"/>
-      <c r="HY12" s="177"/>
-      <c r="HZ12" s="177"/>
-      <c r="IA12" s="177"/>
-      <c r="IB12" s="177"/>
-      <c r="IC12" s="177"/>
-      <c r="ID12" s="177"/>
-      <c r="IE12" s="177"/>
-      <c r="IF12" s="177"/>
-      <c r="IG12" s="177"/>
-      <c r="IH12" s="177"/>
-      <c r="II12" s="177"/>
-      <c r="IJ12" s="177"/>
-      <c r="IK12" s="177"/>
-      <c r="IL12" s="177"/>
-      <c r="IM12" s="177"/>
-      <c r="IN12" s="177"/>
-      <c r="IO12" s="177"/>
-      <c r="IP12" s="177"/>
-      <c r="IQ12" s="177"/>
-      <c r="IR12" s="177"/>
-      <c r="IS12" s="177"/>
-      <c r="IT12" s="177"/>
-      <c r="IU12" s="177"/>
-      <c r="IV12" s="177"/>
-      <c r="IW12" s="177"/>
-      <c r="IX12" s="177"/>
-      <c r="IY12" s="177"/>
-      <c r="IZ12" s="177"/>
-      <c r="JA12" s="177"/>
-      <c r="JB12" s="177"/>
-      <c r="JC12" s="177"/>
-      <c r="JD12" s="177"/>
-      <c r="JE12" s="177"/>
-      <c r="JF12" s="177"/>
-      <c r="JG12" s="177"/>
-      <c r="JH12" s="177"/>
-      <c r="JI12" s="177"/>
-      <c r="JJ12" s="177"/>
-      <c r="JK12" s="177"/>
-      <c r="JL12" s="177"/>
-      <c r="JM12" s="177"/>
-      <c r="JN12" s="177"/>
-      <c r="JO12" s="177"/>
-      <c r="JP12" s="177"/>
-      <c r="JQ12" s="177"/>
-      <c r="JR12" s="177"/>
-      <c r="JS12" s="177"/>
-      <c r="JT12" s="177"/>
-      <c r="JU12" s="177"/>
-      <c r="JV12" s="177"/>
-      <c r="JW12" s="177"/>
-      <c r="JX12" s="177"/>
-      <c r="JY12" s="177"/>
-      <c r="JZ12" s="177"/>
-      <c r="KA12" s="177"/>
-      <c r="KB12" s="177"/>
-      <c r="KC12" s="177"/>
-      <c r="KD12" s="177"/>
-      <c r="KE12" s="177"/>
-      <c r="KF12" s="177"/>
-      <c r="KG12" s="177"/>
-      <c r="KH12" s="177"/>
-      <c r="KI12" s="177"/>
-      <c r="KJ12" s="177"/>
-      <c r="KK12" s="177"/>
-      <c r="KL12" s="177"/>
-      <c r="KM12" s="177"/>
-      <c r="KN12" s="177"/>
-      <c r="KO12" s="177"/>
-      <c r="KP12" s="177"/>
-      <c r="KQ12" s="178"/>
-      <c r="KR12" s="136" t="s">
+      <c r="GC12" s="149"/>
+      <c r="GD12" s="149"/>
+      <c r="GE12" s="149"/>
+      <c r="GF12" s="149"/>
+      <c r="GG12" s="149"/>
+      <c r="GH12" s="149"/>
+      <c r="GI12" s="149"/>
+      <c r="GJ12" s="149"/>
+      <c r="GK12" s="149"/>
+      <c r="GL12" s="149"/>
+      <c r="GM12" s="149"/>
+      <c r="GN12" s="149"/>
+      <c r="GO12" s="149"/>
+      <c r="GP12" s="149"/>
+      <c r="GQ12" s="149"/>
+      <c r="GR12" s="149"/>
+      <c r="GS12" s="149"/>
+      <c r="GT12" s="149"/>
+      <c r="GU12" s="149"/>
+      <c r="GV12" s="149"/>
+      <c r="GW12" s="149"/>
+      <c r="GX12" s="149"/>
+      <c r="GY12" s="149"/>
+      <c r="GZ12" s="149"/>
+      <c r="HA12" s="149"/>
+      <c r="HB12" s="149"/>
+      <c r="HC12" s="149"/>
+      <c r="HD12" s="149"/>
+      <c r="HE12" s="149"/>
+      <c r="HF12" s="149"/>
+      <c r="HG12" s="149"/>
+      <c r="HH12" s="149"/>
+      <c r="HI12" s="149"/>
+      <c r="HJ12" s="149"/>
+      <c r="HK12" s="149"/>
+      <c r="HL12" s="149"/>
+      <c r="HM12" s="149"/>
+      <c r="HN12" s="149"/>
+      <c r="HO12" s="149"/>
+      <c r="HP12" s="149"/>
+      <c r="HQ12" s="149"/>
+      <c r="HR12" s="149"/>
+      <c r="HS12" s="149"/>
+      <c r="HT12" s="149"/>
+      <c r="HU12" s="149"/>
+      <c r="HV12" s="149"/>
+      <c r="HW12" s="149"/>
+      <c r="HX12" s="149"/>
+      <c r="HY12" s="149"/>
+      <c r="HZ12" s="149"/>
+      <c r="IA12" s="149"/>
+      <c r="IB12" s="149"/>
+      <c r="IC12" s="149"/>
+      <c r="ID12" s="149"/>
+      <c r="IE12" s="149"/>
+      <c r="IF12" s="149"/>
+      <c r="IG12" s="149"/>
+      <c r="IH12" s="149"/>
+      <c r="II12" s="149"/>
+      <c r="IJ12" s="149"/>
+      <c r="IK12" s="149"/>
+      <c r="IL12" s="149"/>
+      <c r="IM12" s="149"/>
+      <c r="IN12" s="149"/>
+      <c r="IO12" s="149"/>
+      <c r="IP12" s="149"/>
+      <c r="IQ12" s="149"/>
+      <c r="IR12" s="149"/>
+      <c r="IS12" s="149"/>
+      <c r="IT12" s="149"/>
+      <c r="IU12" s="149"/>
+      <c r="IV12" s="149"/>
+      <c r="IW12" s="149"/>
+      <c r="IX12" s="149"/>
+      <c r="IY12" s="149"/>
+      <c r="IZ12" s="149"/>
+      <c r="JA12" s="149"/>
+      <c r="JB12" s="149"/>
+      <c r="JC12" s="149"/>
+      <c r="JD12" s="149"/>
+      <c r="JE12" s="149"/>
+      <c r="JF12" s="149"/>
+      <c r="JG12" s="149"/>
+      <c r="JH12" s="149"/>
+      <c r="JI12" s="149"/>
+      <c r="JJ12" s="149"/>
+      <c r="JK12" s="149"/>
+      <c r="JL12" s="149"/>
+      <c r="JM12" s="149"/>
+      <c r="JN12" s="149"/>
+      <c r="JO12" s="149"/>
+      <c r="JP12" s="149"/>
+      <c r="JQ12" s="149"/>
+      <c r="JR12" s="149"/>
+      <c r="JS12" s="149"/>
+      <c r="JT12" s="149"/>
+      <c r="JU12" s="149"/>
+      <c r="JV12" s="149"/>
+      <c r="JW12" s="149"/>
+      <c r="JX12" s="149"/>
+      <c r="JY12" s="149"/>
+      <c r="JZ12" s="149"/>
+      <c r="KA12" s="149"/>
+      <c r="KB12" s="149"/>
+      <c r="KC12" s="149"/>
+      <c r="KD12" s="149"/>
+      <c r="KE12" s="149"/>
+      <c r="KF12" s="149"/>
+      <c r="KG12" s="149"/>
+      <c r="KH12" s="149"/>
+      <c r="KI12" s="149"/>
+      <c r="KJ12" s="149"/>
+      <c r="KK12" s="149"/>
+      <c r="KL12" s="149"/>
+      <c r="KM12" s="149"/>
+      <c r="KN12" s="149"/>
+      <c r="KO12" s="149"/>
+      <c r="KP12" s="149"/>
+      <c r="KQ12" s="150"/>
+      <c r="KR12" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="KS12" s="137"/>
-      <c r="KT12" s="176" t="s">
+      <c r="KS12" s="216"/>
+      <c r="KT12" s="148" t="s">
         <v>14</v>
       </c>
-      <c r="KU12" s="177"/>
-      <c r="KV12" s="177"/>
-      <c r="KW12" s="177"/>
-      <c r="KX12" s="177"/>
-      <c r="KY12" s="177"/>
-      <c r="KZ12" s="177"/>
-      <c r="LA12" s="177"/>
-      <c r="LB12" s="177"/>
-      <c r="LC12" s="177"/>
-      <c r="LD12" s="177"/>
-      <c r="LE12" s="177"/>
-      <c r="LF12" s="177"/>
-      <c r="LG12" s="177"/>
-      <c r="LH12" s="177"/>
-      <c r="LI12" s="177"/>
-      <c r="LJ12" s="177"/>
-      <c r="LK12" s="177"/>
-      <c r="LL12" s="177"/>
-      <c r="LM12" s="177"/>
-      <c r="LN12" s="177"/>
-      <c r="LO12" s="177"/>
-      <c r="LP12" s="177"/>
-      <c r="LQ12" s="177"/>
-      <c r="LR12" s="177"/>
-      <c r="LS12" s="177"/>
-      <c r="LT12" s="177"/>
-      <c r="LU12" s="177"/>
-      <c r="LV12" s="177"/>
-      <c r="LW12" s="177"/>
-      <c r="LX12" s="177"/>
-      <c r="LY12" s="177"/>
-      <c r="LZ12" s="177"/>
-      <c r="MA12" s="177"/>
-      <c r="MB12" s="177"/>
-      <c r="MC12" s="177"/>
-      <c r="MD12" s="177"/>
-      <c r="ME12" s="177"/>
-      <c r="MF12" s="177"/>
-      <c r="MG12" s="177"/>
-      <c r="MH12" s="177"/>
-      <c r="MI12" s="177"/>
-      <c r="MJ12" s="177"/>
-      <c r="MK12" s="177"/>
-      <c r="ML12" s="177"/>
-      <c r="MM12" s="177"/>
-      <c r="MN12" s="177"/>
-      <c r="MO12" s="177"/>
-      <c r="MP12" s="177"/>
-      <c r="MQ12" s="177"/>
-      <c r="MR12" s="177"/>
-      <c r="MS12" s="177"/>
-      <c r="MT12" s="177"/>
-      <c r="MU12" s="177"/>
-      <c r="MV12" s="177"/>
-      <c r="MW12" s="177"/>
-      <c r="MX12" s="177"/>
-      <c r="MY12" s="177"/>
-      <c r="MZ12" s="177"/>
-      <c r="NA12" s="177"/>
-      <c r="NB12" s="177"/>
-      <c r="NC12" s="177"/>
-      <c r="ND12" s="177"/>
-      <c r="NE12" s="177"/>
-      <c r="NF12" s="177"/>
-      <c r="NG12" s="177"/>
-      <c r="NH12" s="177"/>
-      <c r="NI12" s="177"/>
-      <c r="NJ12" s="177"/>
-      <c r="NK12" s="177"/>
-      <c r="NL12" s="177"/>
-      <c r="NM12" s="177"/>
-      <c r="NN12" s="177"/>
-      <c r="NO12" s="177"/>
-      <c r="NP12" s="177"/>
-      <c r="NQ12" s="177"/>
-      <c r="NR12" s="177"/>
-      <c r="NS12" s="177"/>
-      <c r="NT12" s="177"/>
-      <c r="NU12" s="177"/>
-      <c r="NV12" s="177"/>
-      <c r="NW12" s="177"/>
-      <c r="NX12" s="177"/>
-      <c r="NY12" s="177"/>
-      <c r="NZ12" s="177"/>
-      <c r="OA12" s="177"/>
-      <c r="OB12" s="177"/>
-      <c r="OC12" s="177"/>
-      <c r="OD12" s="177"/>
-      <c r="OE12" s="177"/>
-      <c r="OF12" s="177"/>
-      <c r="OG12" s="177"/>
-      <c r="OH12" s="177"/>
-      <c r="OI12" s="177"/>
-      <c r="OJ12" s="177"/>
-      <c r="OK12" s="177"/>
-      <c r="OL12" s="177"/>
-      <c r="OM12" s="177"/>
-      <c r="ON12" s="177"/>
-      <c r="OO12" s="177"/>
-      <c r="OP12" s="177"/>
-      <c r="OQ12" s="177"/>
-      <c r="OR12" s="177"/>
-      <c r="OS12" s="177"/>
-      <c r="OT12" s="177"/>
-      <c r="OU12" s="177"/>
-      <c r="OV12" s="177"/>
-      <c r="OW12" s="177"/>
-      <c r="OX12" s="177"/>
-      <c r="OY12" s="177"/>
-      <c r="OZ12" s="177"/>
-      <c r="PA12" s="177"/>
-      <c r="PB12" s="177"/>
-      <c r="PC12" s="177"/>
-      <c r="PD12" s="177"/>
-      <c r="PE12" s="177"/>
-      <c r="PF12" s="177"/>
-      <c r="PG12" s="177"/>
-      <c r="PH12" s="177"/>
-      <c r="PI12" s="178"/>
-      <c r="PJ12" s="176" t="s">
+      <c r="KU12" s="149"/>
+      <c r="KV12" s="149"/>
+      <c r="KW12" s="149"/>
+      <c r="KX12" s="149"/>
+      <c r="KY12" s="149"/>
+      <c r="KZ12" s="149"/>
+      <c r="LA12" s="149"/>
+      <c r="LB12" s="149"/>
+      <c r="LC12" s="149"/>
+      <c r="LD12" s="149"/>
+      <c r="LE12" s="149"/>
+      <c r="LF12" s="149"/>
+      <c r="LG12" s="149"/>
+      <c r="LH12" s="149"/>
+      <c r="LI12" s="149"/>
+      <c r="LJ12" s="149"/>
+      <c r="LK12" s="149"/>
+      <c r="LL12" s="149"/>
+      <c r="LM12" s="149"/>
+      <c r="LN12" s="149"/>
+      <c r="LO12" s="149"/>
+      <c r="LP12" s="149"/>
+      <c r="LQ12" s="149"/>
+      <c r="LR12" s="149"/>
+      <c r="LS12" s="149"/>
+      <c r="LT12" s="149"/>
+      <c r="LU12" s="149"/>
+      <c r="LV12" s="149"/>
+      <c r="LW12" s="149"/>
+      <c r="LX12" s="149"/>
+      <c r="LY12" s="149"/>
+      <c r="LZ12" s="149"/>
+      <c r="MA12" s="149"/>
+      <c r="MB12" s="149"/>
+      <c r="MC12" s="149"/>
+      <c r="MD12" s="149"/>
+      <c r="ME12" s="149"/>
+      <c r="MF12" s="149"/>
+      <c r="MG12" s="149"/>
+      <c r="MH12" s="149"/>
+      <c r="MI12" s="149"/>
+      <c r="MJ12" s="149"/>
+      <c r="MK12" s="149"/>
+      <c r="ML12" s="149"/>
+      <c r="MM12" s="149"/>
+      <c r="MN12" s="149"/>
+      <c r="MO12" s="149"/>
+      <c r="MP12" s="149"/>
+      <c r="MQ12" s="149"/>
+      <c r="MR12" s="149"/>
+      <c r="MS12" s="149"/>
+      <c r="MT12" s="149"/>
+      <c r="MU12" s="149"/>
+      <c r="MV12" s="149"/>
+      <c r="MW12" s="149"/>
+      <c r="MX12" s="149"/>
+      <c r="MY12" s="149"/>
+      <c r="MZ12" s="149"/>
+      <c r="NA12" s="149"/>
+      <c r="NB12" s="149"/>
+      <c r="NC12" s="149"/>
+      <c r="ND12" s="149"/>
+      <c r="NE12" s="149"/>
+      <c r="NF12" s="149"/>
+      <c r="NG12" s="149"/>
+      <c r="NH12" s="149"/>
+      <c r="NI12" s="149"/>
+      <c r="NJ12" s="149"/>
+      <c r="NK12" s="149"/>
+      <c r="NL12" s="149"/>
+      <c r="NM12" s="149"/>
+      <c r="NN12" s="149"/>
+      <c r="NO12" s="149"/>
+      <c r="NP12" s="149"/>
+      <c r="NQ12" s="149"/>
+      <c r="NR12" s="149"/>
+      <c r="NS12" s="149"/>
+      <c r="NT12" s="149"/>
+      <c r="NU12" s="149"/>
+      <c r="NV12" s="149"/>
+      <c r="NW12" s="149"/>
+      <c r="NX12" s="149"/>
+      <c r="NY12" s="149"/>
+      <c r="NZ12" s="149"/>
+      <c r="OA12" s="149"/>
+      <c r="OB12" s="149"/>
+      <c r="OC12" s="149"/>
+      <c r="OD12" s="149"/>
+      <c r="OE12" s="149"/>
+      <c r="OF12" s="149"/>
+      <c r="OG12" s="149"/>
+      <c r="OH12" s="149"/>
+      <c r="OI12" s="149"/>
+      <c r="OJ12" s="149"/>
+      <c r="OK12" s="149"/>
+      <c r="OL12" s="149"/>
+      <c r="OM12" s="149"/>
+      <c r="ON12" s="149"/>
+      <c r="OO12" s="149"/>
+      <c r="OP12" s="149"/>
+      <c r="OQ12" s="149"/>
+      <c r="OR12" s="149"/>
+      <c r="OS12" s="149"/>
+      <c r="OT12" s="149"/>
+      <c r="OU12" s="149"/>
+      <c r="OV12" s="149"/>
+      <c r="OW12" s="149"/>
+      <c r="OX12" s="149"/>
+      <c r="OY12" s="149"/>
+      <c r="OZ12" s="149"/>
+      <c r="PA12" s="149"/>
+      <c r="PB12" s="149"/>
+      <c r="PC12" s="149"/>
+      <c r="PD12" s="149"/>
+      <c r="PE12" s="149"/>
+      <c r="PF12" s="149"/>
+      <c r="PG12" s="149"/>
+      <c r="PH12" s="149"/>
+      <c r="PI12" s="150"/>
+      <c r="PJ12" s="148" t="s">
         <v>15</v>
       </c>
-      <c r="PK12" s="177"/>
-      <c r="PL12" s="177"/>
-      <c r="PM12" s="177"/>
-      <c r="PN12" s="177"/>
-      <c r="PO12" s="177"/>
-      <c r="PP12" s="177"/>
-      <c r="PQ12" s="177"/>
-      <c r="PR12" s="177"/>
-      <c r="PS12" s="177"/>
-      <c r="PT12" s="177"/>
-      <c r="PU12" s="177"/>
-      <c r="PV12" s="177"/>
-      <c r="PW12" s="177"/>
-      <c r="PX12" s="177"/>
-      <c r="PY12" s="177"/>
-      <c r="PZ12" s="177"/>
-      <c r="QA12" s="177"/>
-      <c r="QB12" s="177"/>
-      <c r="QC12" s="177"/>
-      <c r="QD12" s="177"/>
-      <c r="QE12" s="177"/>
-      <c r="QF12" s="177"/>
-      <c r="QG12" s="177"/>
-      <c r="QH12" s="177"/>
-      <c r="QI12" s="177"/>
-      <c r="QJ12" s="177"/>
-      <c r="QK12" s="177"/>
-      <c r="QL12" s="177"/>
-      <c r="QM12" s="177"/>
-      <c r="QN12" s="177"/>
-      <c r="QO12" s="177"/>
-      <c r="QP12" s="177"/>
-      <c r="QQ12" s="177"/>
-      <c r="QR12" s="177"/>
-      <c r="QS12" s="177"/>
-      <c r="QT12" s="177"/>
-      <c r="QU12" s="177"/>
-      <c r="QV12" s="177"/>
-      <c r="QW12" s="177"/>
-      <c r="QX12" s="177"/>
-      <c r="QY12" s="177"/>
-      <c r="QZ12" s="177"/>
-      <c r="RA12" s="177"/>
-      <c r="RB12" s="177"/>
-      <c r="RC12" s="177"/>
-      <c r="RD12" s="177"/>
-      <c r="RE12" s="177"/>
-      <c r="RF12" s="177"/>
-      <c r="RG12" s="177"/>
-      <c r="RH12" s="177"/>
-      <c r="RI12" s="177"/>
-      <c r="RJ12" s="177"/>
-      <c r="RK12" s="177"/>
-      <c r="RL12" s="177"/>
-      <c r="RM12" s="177"/>
-      <c r="RN12" s="177"/>
-      <c r="RO12" s="177"/>
-      <c r="RP12" s="177"/>
-      <c r="RQ12" s="177"/>
-      <c r="RR12" s="177"/>
-      <c r="RS12" s="177"/>
-      <c r="RT12" s="177"/>
-      <c r="RU12" s="177"/>
-      <c r="RV12" s="177"/>
-      <c r="RW12" s="177"/>
-      <c r="RX12" s="177"/>
-      <c r="RY12" s="177"/>
-      <c r="RZ12" s="177"/>
-      <c r="SA12" s="177"/>
-      <c r="SB12" s="177"/>
-      <c r="SC12" s="177"/>
-      <c r="SD12" s="177"/>
-      <c r="SE12" s="177"/>
-      <c r="SF12" s="177"/>
-      <c r="SG12" s="177"/>
-      <c r="SH12" s="177"/>
-      <c r="SI12" s="177"/>
-      <c r="SJ12" s="177"/>
-      <c r="SK12" s="177"/>
-      <c r="SL12" s="177"/>
-      <c r="SM12" s="177"/>
-      <c r="SN12" s="177"/>
-      <c r="SO12" s="177"/>
-      <c r="SP12" s="177"/>
-      <c r="SQ12" s="177"/>
-      <c r="SR12" s="177"/>
-      <c r="SS12" s="177"/>
-      <c r="ST12" s="177"/>
-      <c r="SU12" s="177"/>
-      <c r="SV12" s="177"/>
-      <c r="SW12" s="177"/>
-      <c r="SX12" s="177"/>
-      <c r="SY12" s="177"/>
-      <c r="SZ12" s="177"/>
-      <c r="TA12" s="177"/>
-      <c r="TB12" s="177"/>
-      <c r="TC12" s="177"/>
-      <c r="TD12" s="177"/>
-      <c r="TE12" s="177"/>
-      <c r="TF12" s="177"/>
-      <c r="TG12" s="177"/>
-      <c r="TH12" s="177"/>
-      <c r="TI12" s="177"/>
-      <c r="TJ12" s="177"/>
-      <c r="TK12" s="177"/>
-      <c r="TL12" s="177"/>
-      <c r="TM12" s="177"/>
-      <c r="TN12" s="177"/>
-      <c r="TO12" s="177"/>
-      <c r="TP12" s="177"/>
-      <c r="TQ12" s="177"/>
-      <c r="TR12" s="177"/>
-      <c r="TS12" s="177"/>
-      <c r="TT12" s="177"/>
-      <c r="TU12" s="177"/>
-      <c r="TV12" s="177"/>
-      <c r="TW12" s="177"/>
-      <c r="TX12" s="177"/>
-      <c r="TY12" s="178"/>
-      <c r="TZ12" s="176" t="s">
+      <c r="PK12" s="149"/>
+      <c r="PL12" s="149"/>
+      <c r="PM12" s="149"/>
+      <c r="PN12" s="149"/>
+      <c r="PO12" s="149"/>
+      <c r="PP12" s="149"/>
+      <c r="PQ12" s="149"/>
+      <c r="PR12" s="149"/>
+      <c r="PS12" s="149"/>
+      <c r="PT12" s="149"/>
+      <c r="PU12" s="149"/>
+      <c r="PV12" s="149"/>
+      <c r="PW12" s="149"/>
+      <c r="PX12" s="149"/>
+      <c r="PY12" s="149"/>
+      <c r="PZ12" s="149"/>
+      <c r="QA12" s="149"/>
+      <c r="QB12" s="149"/>
+      <c r="QC12" s="149"/>
+      <c r="QD12" s="149"/>
+      <c r="QE12" s="149"/>
+      <c r="QF12" s="149"/>
+      <c r="QG12" s="149"/>
+      <c r="QH12" s="149"/>
+      <c r="QI12" s="149"/>
+      <c r="QJ12" s="149"/>
+      <c r="QK12" s="149"/>
+      <c r="QL12" s="149"/>
+      <c r="QM12" s="149"/>
+      <c r="QN12" s="149"/>
+      <c r="QO12" s="149"/>
+      <c r="QP12" s="149"/>
+      <c r="QQ12" s="149"/>
+      <c r="QR12" s="149"/>
+      <c r="QS12" s="149"/>
+      <c r="QT12" s="149"/>
+      <c r="QU12" s="149"/>
+      <c r="QV12" s="149"/>
+      <c r="QW12" s="149"/>
+      <c r="QX12" s="149"/>
+      <c r="QY12" s="149"/>
+      <c r="QZ12" s="149"/>
+      <c r="RA12" s="149"/>
+      <c r="RB12" s="149"/>
+      <c r="RC12" s="149"/>
+      <c r="RD12" s="149"/>
+      <c r="RE12" s="149"/>
+      <c r="RF12" s="149"/>
+      <c r="RG12" s="149"/>
+      <c r="RH12" s="149"/>
+      <c r="RI12" s="149"/>
+      <c r="RJ12" s="149"/>
+      <c r="RK12" s="149"/>
+      <c r="RL12" s="149"/>
+      <c r="RM12" s="149"/>
+      <c r="RN12" s="149"/>
+      <c r="RO12" s="149"/>
+      <c r="RP12" s="149"/>
+      <c r="RQ12" s="149"/>
+      <c r="RR12" s="149"/>
+      <c r="RS12" s="149"/>
+      <c r="RT12" s="149"/>
+      <c r="RU12" s="149"/>
+      <c r="RV12" s="149"/>
+      <c r="RW12" s="149"/>
+      <c r="RX12" s="149"/>
+      <c r="RY12" s="149"/>
+      <c r="RZ12" s="149"/>
+      <c r="SA12" s="149"/>
+      <c r="SB12" s="149"/>
+      <c r="SC12" s="149"/>
+      <c r="SD12" s="149"/>
+      <c r="SE12" s="149"/>
+      <c r="SF12" s="149"/>
+      <c r="SG12" s="149"/>
+      <c r="SH12" s="149"/>
+      <c r="SI12" s="149"/>
+      <c r="SJ12" s="149"/>
+      <c r="SK12" s="149"/>
+      <c r="SL12" s="149"/>
+      <c r="SM12" s="149"/>
+      <c r="SN12" s="149"/>
+      <c r="SO12" s="149"/>
+      <c r="SP12" s="149"/>
+      <c r="SQ12" s="149"/>
+      <c r="SR12" s="149"/>
+      <c r="SS12" s="149"/>
+      <c r="ST12" s="149"/>
+      <c r="SU12" s="149"/>
+      <c r="SV12" s="149"/>
+      <c r="SW12" s="149"/>
+      <c r="SX12" s="149"/>
+      <c r="SY12" s="149"/>
+      <c r="SZ12" s="149"/>
+      <c r="TA12" s="149"/>
+      <c r="TB12" s="149"/>
+      <c r="TC12" s="149"/>
+      <c r="TD12" s="149"/>
+      <c r="TE12" s="149"/>
+      <c r="TF12" s="149"/>
+      <c r="TG12" s="149"/>
+      <c r="TH12" s="149"/>
+      <c r="TI12" s="149"/>
+      <c r="TJ12" s="149"/>
+      <c r="TK12" s="149"/>
+      <c r="TL12" s="149"/>
+      <c r="TM12" s="149"/>
+      <c r="TN12" s="149"/>
+      <c r="TO12" s="149"/>
+      <c r="TP12" s="149"/>
+      <c r="TQ12" s="149"/>
+      <c r="TR12" s="149"/>
+      <c r="TS12" s="149"/>
+      <c r="TT12" s="149"/>
+      <c r="TU12" s="149"/>
+      <c r="TV12" s="149"/>
+      <c r="TW12" s="149"/>
+      <c r="TX12" s="149"/>
+      <c r="TY12" s="150"/>
+      <c r="TZ12" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="UA12" s="177"/>
-      <c r="UB12" s="177"/>
-      <c r="UC12" s="177"/>
-      <c r="UD12" s="177"/>
-      <c r="UE12" s="177"/>
-      <c r="UF12" s="177"/>
-      <c r="UG12" s="177"/>
-      <c r="UH12" s="177"/>
-      <c r="UI12" s="177"/>
-      <c r="UJ12" s="177"/>
-      <c r="UK12" s="177"/>
-      <c r="UL12" s="177"/>
-      <c r="UM12" s="177"/>
-      <c r="UN12" s="177"/>
-      <c r="UO12" s="177"/>
-      <c r="UP12" s="177"/>
-      <c r="UQ12" s="177"/>
-      <c r="UR12" s="177"/>
-      <c r="US12" s="177"/>
-      <c r="UT12" s="177"/>
-      <c r="UU12" s="177"/>
-      <c r="UV12" s="177"/>
-      <c r="UW12" s="177"/>
-      <c r="UX12" s="177"/>
-      <c r="UY12" s="177"/>
-      <c r="UZ12" s="177"/>
-      <c r="VA12" s="177"/>
-      <c r="VB12" s="177"/>
-      <c r="VC12" s="178"/>
+      <c r="UA12" s="149"/>
+      <c r="UB12" s="149"/>
+      <c r="UC12" s="149"/>
+      <c r="UD12" s="149"/>
+      <c r="UE12" s="149"/>
+      <c r="UF12" s="149"/>
+      <c r="UG12" s="149"/>
+      <c r="UH12" s="149"/>
+      <c r="UI12" s="149"/>
+      <c r="UJ12" s="149"/>
+      <c r="UK12" s="149"/>
+      <c r="UL12" s="149"/>
+      <c r="UM12" s="149"/>
+      <c r="UN12" s="149"/>
+      <c r="UO12" s="149"/>
+      <c r="UP12" s="149"/>
+      <c r="UQ12" s="149"/>
+      <c r="UR12" s="149"/>
+      <c r="US12" s="149"/>
+      <c r="UT12" s="149"/>
+      <c r="UU12" s="149"/>
+      <c r="UV12" s="149"/>
+      <c r="UW12" s="149"/>
+      <c r="UX12" s="149"/>
+      <c r="UY12" s="149"/>
+      <c r="UZ12" s="149"/>
+      <c r="VA12" s="149"/>
+      <c r="VB12" s="149"/>
+      <c r="VC12" s="150"/>
     </row>
     <row r="13" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="138" t="s">
+      <c r="B13" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="179" t="s">
+      <c r="C13" s="169"/>
+      <c r="D13" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="180"/>
-      <c r="F13" s="180"/>
-      <c r="G13" s="180"/>
-      <c r="H13" s="180"/>
-      <c r="I13" s="180"/>
-      <c r="J13" s="180"/>
-      <c r="K13" s="180"/>
-      <c r="L13" s="180"/>
-      <c r="M13" s="180"/>
-      <c r="N13" s="180"/>
-      <c r="O13" s="180"/>
-      <c r="P13" s="180"/>
-      <c r="Q13" s="180"/>
-      <c r="R13" s="180"/>
-      <c r="S13" s="180"/>
-      <c r="T13" s="180"/>
-      <c r="U13" s="180"/>
-      <c r="V13" s="180"/>
-      <c r="W13" s="180"/>
-      <c r="X13" s="180"/>
-      <c r="Y13" s="180"/>
-      <c r="Z13" s="180"/>
-      <c r="AA13" s="180"/>
-      <c r="AB13" s="180"/>
-      <c r="AC13" s="180"/>
-      <c r="AD13" s="180"/>
-      <c r="AE13" s="180"/>
-      <c r="AF13" s="180"/>
-      <c r="AG13" s="181"/>
-      <c r="AH13" s="182" t="s">
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="171"/>
+      <c r="M13" s="171"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="171"/>
+      <c r="P13" s="171"/>
+      <c r="Q13" s="171"/>
+      <c r="R13" s="171"/>
+      <c r="S13" s="171"/>
+      <c r="T13" s="171"/>
+      <c r="U13" s="171"/>
+      <c r="V13" s="171"/>
+      <c r="W13" s="171"/>
+      <c r="X13" s="171"/>
+      <c r="Y13" s="171"/>
+      <c r="Z13" s="171"/>
+      <c r="AA13" s="171"/>
+      <c r="AB13" s="171"/>
+      <c r="AC13" s="171"/>
+      <c r="AD13" s="171"/>
+      <c r="AE13" s="171"/>
+      <c r="AF13" s="171"/>
+      <c r="AG13" s="172"/>
+      <c r="AH13" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="AI13" s="180"/>
-      <c r="AJ13" s="180"/>
-      <c r="AK13" s="180"/>
-      <c r="AL13" s="180"/>
-      <c r="AM13" s="180"/>
-      <c r="AN13" s="180"/>
-      <c r="AO13" s="180"/>
-      <c r="AP13" s="180"/>
-      <c r="AQ13" s="180"/>
-      <c r="AR13" s="180"/>
-      <c r="AS13" s="180"/>
-      <c r="AT13" s="180"/>
-      <c r="AU13" s="180"/>
-      <c r="AV13" s="180"/>
-      <c r="AW13" s="180"/>
-      <c r="AX13" s="180"/>
-      <c r="AY13" s="180"/>
-      <c r="AZ13" s="180"/>
-      <c r="BA13" s="180"/>
-      <c r="BB13" s="180"/>
-      <c r="BC13" s="180"/>
-      <c r="BD13" s="180"/>
-      <c r="BE13" s="180"/>
-      <c r="BF13" s="180"/>
-      <c r="BG13" s="180"/>
-      <c r="BH13" s="180"/>
-      <c r="BI13" s="180"/>
-      <c r="BJ13" s="180"/>
-      <c r="BK13" s="183"/>
-      <c r="BL13" s="179" t="s">
+      <c r="AI13" s="171"/>
+      <c r="AJ13" s="171"/>
+      <c r="AK13" s="171"/>
+      <c r="AL13" s="171"/>
+      <c r="AM13" s="171"/>
+      <c r="AN13" s="171"/>
+      <c r="AO13" s="171"/>
+      <c r="AP13" s="171"/>
+      <c r="AQ13" s="171"/>
+      <c r="AR13" s="171"/>
+      <c r="AS13" s="171"/>
+      <c r="AT13" s="171"/>
+      <c r="AU13" s="171"/>
+      <c r="AV13" s="171"/>
+      <c r="AW13" s="171"/>
+      <c r="AX13" s="171"/>
+      <c r="AY13" s="171"/>
+      <c r="AZ13" s="171"/>
+      <c r="BA13" s="171"/>
+      <c r="BB13" s="171"/>
+      <c r="BC13" s="171"/>
+      <c r="BD13" s="171"/>
+      <c r="BE13" s="171"/>
+      <c r="BF13" s="171"/>
+      <c r="BG13" s="171"/>
+      <c r="BH13" s="171"/>
+      <c r="BI13" s="171"/>
+      <c r="BJ13" s="171"/>
+      <c r="BK13" s="174"/>
+      <c r="BL13" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="BM13" s="180"/>
-      <c r="BN13" s="180"/>
-      <c r="BO13" s="180"/>
-      <c r="BP13" s="180"/>
-      <c r="BQ13" s="180"/>
-      <c r="BR13" s="180"/>
-      <c r="BS13" s="180"/>
-      <c r="BT13" s="180"/>
-      <c r="BU13" s="180"/>
-      <c r="BV13" s="180"/>
-      <c r="BW13" s="180"/>
-      <c r="BX13" s="180"/>
-      <c r="BY13" s="180"/>
-      <c r="BZ13" s="180"/>
-      <c r="CA13" s="180"/>
-      <c r="CB13" s="180"/>
-      <c r="CC13" s="180"/>
-      <c r="CD13" s="180"/>
-      <c r="CE13" s="180"/>
-      <c r="CF13" s="180"/>
-      <c r="CG13" s="180"/>
-      <c r="CH13" s="180"/>
-      <c r="CI13" s="180"/>
-      <c r="CJ13" s="180"/>
-      <c r="CK13" s="180"/>
-      <c r="CL13" s="180"/>
-      <c r="CM13" s="180"/>
-      <c r="CN13" s="180"/>
-      <c r="CO13" s="181"/>
-      <c r="CP13" s="182" t="s">
+      <c r="BM13" s="171"/>
+      <c r="BN13" s="171"/>
+      <c r="BO13" s="171"/>
+      <c r="BP13" s="171"/>
+      <c r="BQ13" s="171"/>
+      <c r="BR13" s="171"/>
+      <c r="BS13" s="171"/>
+      <c r="BT13" s="171"/>
+      <c r="BU13" s="171"/>
+      <c r="BV13" s="171"/>
+      <c r="BW13" s="171"/>
+      <c r="BX13" s="171"/>
+      <c r="BY13" s="171"/>
+      <c r="BZ13" s="171"/>
+      <c r="CA13" s="171"/>
+      <c r="CB13" s="171"/>
+      <c r="CC13" s="171"/>
+      <c r="CD13" s="171"/>
+      <c r="CE13" s="171"/>
+      <c r="CF13" s="171"/>
+      <c r="CG13" s="171"/>
+      <c r="CH13" s="171"/>
+      <c r="CI13" s="171"/>
+      <c r="CJ13" s="171"/>
+      <c r="CK13" s="171"/>
+      <c r="CL13" s="171"/>
+      <c r="CM13" s="171"/>
+      <c r="CN13" s="171"/>
+      <c r="CO13" s="172"/>
+      <c r="CP13" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="CQ13" s="180"/>
-      <c r="CR13" s="180"/>
-      <c r="CS13" s="180"/>
-      <c r="CT13" s="180"/>
-      <c r="CU13" s="180"/>
-      <c r="CV13" s="180"/>
-      <c r="CW13" s="180"/>
-      <c r="CX13" s="180"/>
-      <c r="CY13" s="180"/>
-      <c r="CZ13" s="180"/>
-      <c r="DA13" s="180"/>
-      <c r="DB13" s="180"/>
-      <c r="DC13" s="180"/>
-      <c r="DD13" s="180"/>
-      <c r="DE13" s="180"/>
-      <c r="DF13" s="180"/>
-      <c r="DG13" s="180"/>
-      <c r="DH13" s="180"/>
-      <c r="DI13" s="180"/>
-      <c r="DJ13" s="180"/>
-      <c r="DK13" s="180"/>
-      <c r="DL13" s="180"/>
-      <c r="DM13" s="180"/>
-      <c r="DN13" s="180"/>
-      <c r="DO13" s="180"/>
-      <c r="DP13" s="180"/>
-      <c r="DQ13" s="180"/>
-      <c r="DR13" s="180"/>
-      <c r="DS13" s="181"/>
-      <c r="DT13" s="182" t="s">
+      <c r="CQ13" s="171"/>
+      <c r="CR13" s="171"/>
+      <c r="CS13" s="171"/>
+      <c r="CT13" s="171"/>
+      <c r="CU13" s="171"/>
+      <c r="CV13" s="171"/>
+      <c r="CW13" s="171"/>
+      <c r="CX13" s="171"/>
+      <c r="CY13" s="171"/>
+      <c r="CZ13" s="171"/>
+      <c r="DA13" s="171"/>
+      <c r="DB13" s="171"/>
+      <c r="DC13" s="171"/>
+      <c r="DD13" s="171"/>
+      <c r="DE13" s="171"/>
+      <c r="DF13" s="171"/>
+      <c r="DG13" s="171"/>
+      <c r="DH13" s="171"/>
+      <c r="DI13" s="171"/>
+      <c r="DJ13" s="171"/>
+      <c r="DK13" s="171"/>
+      <c r="DL13" s="171"/>
+      <c r="DM13" s="171"/>
+      <c r="DN13" s="171"/>
+      <c r="DO13" s="171"/>
+      <c r="DP13" s="171"/>
+      <c r="DQ13" s="171"/>
+      <c r="DR13" s="171"/>
+      <c r="DS13" s="172"/>
+      <c r="DT13" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="DU13" s="180"/>
-      <c r="DV13" s="180"/>
-      <c r="DW13" s="180"/>
-      <c r="DX13" s="180"/>
-      <c r="DY13" s="180"/>
-      <c r="DZ13" s="180"/>
-      <c r="EA13" s="180"/>
-      <c r="EB13" s="180"/>
-      <c r="EC13" s="180"/>
-      <c r="ED13" s="180"/>
-      <c r="EE13" s="180"/>
-      <c r="EF13" s="180"/>
-      <c r="EG13" s="180"/>
-      <c r="EH13" s="180"/>
-      <c r="EI13" s="180"/>
-      <c r="EJ13" s="180"/>
-      <c r="EK13" s="180"/>
-      <c r="EL13" s="180"/>
-      <c r="EM13" s="180"/>
-      <c r="EN13" s="180"/>
-      <c r="EO13" s="180"/>
-      <c r="EP13" s="180"/>
-      <c r="EQ13" s="180"/>
-      <c r="ER13" s="180"/>
-      <c r="ES13" s="180"/>
-      <c r="ET13" s="180"/>
-      <c r="EU13" s="180"/>
-      <c r="EV13" s="180"/>
-      <c r="EW13" s="181"/>
-      <c r="EX13" s="182" t="s">
+      <c r="DU13" s="171"/>
+      <c r="DV13" s="171"/>
+      <c r="DW13" s="171"/>
+      <c r="DX13" s="171"/>
+      <c r="DY13" s="171"/>
+      <c r="DZ13" s="171"/>
+      <c r="EA13" s="171"/>
+      <c r="EB13" s="171"/>
+      <c r="EC13" s="171"/>
+      <c r="ED13" s="171"/>
+      <c r="EE13" s="171"/>
+      <c r="EF13" s="171"/>
+      <c r="EG13" s="171"/>
+      <c r="EH13" s="171"/>
+      <c r="EI13" s="171"/>
+      <c r="EJ13" s="171"/>
+      <c r="EK13" s="171"/>
+      <c r="EL13" s="171"/>
+      <c r="EM13" s="171"/>
+      <c r="EN13" s="171"/>
+      <c r="EO13" s="171"/>
+      <c r="EP13" s="171"/>
+      <c r="EQ13" s="171"/>
+      <c r="ER13" s="171"/>
+      <c r="ES13" s="171"/>
+      <c r="ET13" s="171"/>
+      <c r="EU13" s="171"/>
+      <c r="EV13" s="171"/>
+      <c r="EW13" s="172"/>
+      <c r="EX13" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="EY13" s="180"/>
-      <c r="EZ13" s="180"/>
-      <c r="FA13" s="180"/>
-      <c r="FB13" s="180"/>
-      <c r="FC13" s="180"/>
-      <c r="FD13" s="180"/>
-      <c r="FE13" s="180"/>
-      <c r="FF13" s="180"/>
-      <c r="FG13" s="180"/>
-      <c r="FH13" s="180"/>
-      <c r="FI13" s="180"/>
-      <c r="FJ13" s="180"/>
-      <c r="FK13" s="180"/>
-      <c r="FL13" s="180"/>
-      <c r="FM13" s="180"/>
-      <c r="FN13" s="180"/>
-      <c r="FO13" s="180"/>
-      <c r="FP13" s="180"/>
-      <c r="FQ13" s="180"/>
-      <c r="FR13" s="180"/>
-      <c r="FS13" s="180"/>
-      <c r="FT13" s="180"/>
-      <c r="FU13" s="180"/>
-      <c r="FV13" s="180"/>
-      <c r="FW13" s="180"/>
-      <c r="FX13" s="180"/>
-      <c r="FY13" s="180"/>
-      <c r="FZ13" s="180"/>
-      <c r="GA13" s="183"/>
-      <c r="GB13" s="179" t="s">
+      <c r="EY13" s="171"/>
+      <c r="EZ13" s="171"/>
+      <c r="FA13" s="171"/>
+      <c r="FB13" s="171"/>
+      <c r="FC13" s="171"/>
+      <c r="FD13" s="171"/>
+      <c r="FE13" s="171"/>
+      <c r="FF13" s="171"/>
+      <c r="FG13" s="171"/>
+      <c r="FH13" s="171"/>
+      <c r="FI13" s="171"/>
+      <c r="FJ13" s="171"/>
+      <c r="FK13" s="171"/>
+      <c r="FL13" s="171"/>
+      <c r="FM13" s="171"/>
+      <c r="FN13" s="171"/>
+      <c r="FO13" s="171"/>
+      <c r="FP13" s="171"/>
+      <c r="FQ13" s="171"/>
+      <c r="FR13" s="171"/>
+      <c r="FS13" s="171"/>
+      <c r="FT13" s="171"/>
+      <c r="FU13" s="171"/>
+      <c r="FV13" s="171"/>
+      <c r="FW13" s="171"/>
+      <c r="FX13" s="171"/>
+      <c r="FY13" s="171"/>
+      <c r="FZ13" s="171"/>
+      <c r="GA13" s="174"/>
+      <c r="GB13" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="GC13" s="180"/>
-      <c r="GD13" s="180"/>
-      <c r="GE13" s="180"/>
-      <c r="GF13" s="180"/>
-      <c r="GG13" s="180"/>
-      <c r="GH13" s="180"/>
-      <c r="GI13" s="180"/>
-      <c r="GJ13" s="180"/>
-      <c r="GK13" s="180"/>
-      <c r="GL13" s="180"/>
-      <c r="GM13" s="180"/>
-      <c r="GN13" s="180"/>
-      <c r="GO13" s="180"/>
-      <c r="GP13" s="180"/>
-      <c r="GQ13" s="180"/>
-      <c r="GR13" s="180"/>
-      <c r="GS13" s="180"/>
-      <c r="GT13" s="180"/>
-      <c r="GU13" s="180"/>
-      <c r="GV13" s="180"/>
-      <c r="GW13" s="180"/>
-      <c r="GX13" s="180"/>
-      <c r="GY13" s="180"/>
-      <c r="GZ13" s="180"/>
-      <c r="HA13" s="180"/>
-      <c r="HB13" s="180"/>
-      <c r="HC13" s="180"/>
-      <c r="HD13" s="180"/>
-      <c r="HE13" s="181"/>
-      <c r="HF13" s="182" t="s">
+      <c r="GC13" s="171"/>
+      <c r="GD13" s="171"/>
+      <c r="GE13" s="171"/>
+      <c r="GF13" s="171"/>
+      <c r="GG13" s="171"/>
+      <c r="GH13" s="171"/>
+      <c r="GI13" s="171"/>
+      <c r="GJ13" s="171"/>
+      <c r="GK13" s="171"/>
+      <c r="GL13" s="171"/>
+      <c r="GM13" s="171"/>
+      <c r="GN13" s="171"/>
+      <c r="GO13" s="171"/>
+      <c r="GP13" s="171"/>
+      <c r="GQ13" s="171"/>
+      <c r="GR13" s="171"/>
+      <c r="GS13" s="171"/>
+      <c r="GT13" s="171"/>
+      <c r="GU13" s="171"/>
+      <c r="GV13" s="171"/>
+      <c r="GW13" s="171"/>
+      <c r="GX13" s="171"/>
+      <c r="GY13" s="171"/>
+      <c r="GZ13" s="171"/>
+      <c r="HA13" s="171"/>
+      <c r="HB13" s="171"/>
+      <c r="HC13" s="171"/>
+      <c r="HD13" s="171"/>
+      <c r="HE13" s="172"/>
+      <c r="HF13" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="HG13" s="180"/>
-      <c r="HH13" s="180"/>
-      <c r="HI13" s="180"/>
-      <c r="HJ13" s="180"/>
-      <c r="HK13" s="180"/>
-      <c r="HL13" s="180"/>
-      <c r="HM13" s="180"/>
-      <c r="HN13" s="180"/>
-      <c r="HO13" s="180"/>
-      <c r="HP13" s="180"/>
-      <c r="HQ13" s="180"/>
-      <c r="HR13" s="180"/>
-      <c r="HS13" s="180"/>
-      <c r="HT13" s="180"/>
-      <c r="HU13" s="180"/>
-      <c r="HV13" s="180"/>
-      <c r="HW13" s="180"/>
-      <c r="HX13" s="180"/>
-      <c r="HY13" s="180"/>
-      <c r="HZ13" s="180"/>
-      <c r="IA13" s="180"/>
-      <c r="IB13" s="180"/>
-      <c r="IC13" s="180"/>
-      <c r="ID13" s="180"/>
-      <c r="IE13" s="180"/>
-      <c r="IF13" s="180"/>
-      <c r="IG13" s="180"/>
-      <c r="IH13" s="180"/>
-      <c r="II13" s="181"/>
-      <c r="IJ13" s="182" t="s">
+      <c r="HG13" s="171"/>
+      <c r="HH13" s="171"/>
+      <c r="HI13" s="171"/>
+      <c r="HJ13" s="171"/>
+      <c r="HK13" s="171"/>
+      <c r="HL13" s="171"/>
+      <c r="HM13" s="171"/>
+      <c r="HN13" s="171"/>
+      <c r="HO13" s="171"/>
+      <c r="HP13" s="171"/>
+      <c r="HQ13" s="171"/>
+      <c r="HR13" s="171"/>
+      <c r="HS13" s="171"/>
+      <c r="HT13" s="171"/>
+      <c r="HU13" s="171"/>
+      <c r="HV13" s="171"/>
+      <c r="HW13" s="171"/>
+      <c r="HX13" s="171"/>
+      <c r="HY13" s="171"/>
+      <c r="HZ13" s="171"/>
+      <c r="IA13" s="171"/>
+      <c r="IB13" s="171"/>
+      <c r="IC13" s="171"/>
+      <c r="ID13" s="171"/>
+      <c r="IE13" s="171"/>
+      <c r="IF13" s="171"/>
+      <c r="IG13" s="171"/>
+      <c r="IH13" s="171"/>
+      <c r="II13" s="172"/>
+      <c r="IJ13" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="IK13" s="180"/>
-      <c r="IL13" s="180"/>
-      <c r="IM13" s="180"/>
-      <c r="IN13" s="180"/>
-      <c r="IO13" s="180"/>
-      <c r="IP13" s="180"/>
-      <c r="IQ13" s="180"/>
-      <c r="IR13" s="180"/>
-      <c r="IS13" s="180"/>
-      <c r="IT13" s="180"/>
-      <c r="IU13" s="180"/>
-      <c r="IV13" s="180"/>
-      <c r="IW13" s="180"/>
-      <c r="IX13" s="180"/>
-      <c r="IY13" s="180"/>
-      <c r="IZ13" s="180"/>
-      <c r="JA13" s="180"/>
-      <c r="JB13" s="180"/>
-      <c r="JC13" s="180"/>
-      <c r="JD13" s="180"/>
-      <c r="JE13" s="180"/>
-      <c r="JF13" s="180"/>
-      <c r="JG13" s="180"/>
-      <c r="JH13" s="180"/>
-      <c r="JI13" s="180"/>
-      <c r="JJ13" s="180"/>
-      <c r="JK13" s="180"/>
-      <c r="JL13" s="180"/>
-      <c r="JM13" s="181"/>
-      <c r="JN13" s="182" t="s">
+      <c r="IK13" s="171"/>
+      <c r="IL13" s="171"/>
+      <c r="IM13" s="171"/>
+      <c r="IN13" s="171"/>
+      <c r="IO13" s="171"/>
+      <c r="IP13" s="171"/>
+      <c r="IQ13" s="171"/>
+      <c r="IR13" s="171"/>
+      <c r="IS13" s="171"/>
+      <c r="IT13" s="171"/>
+      <c r="IU13" s="171"/>
+      <c r="IV13" s="171"/>
+      <c r="IW13" s="171"/>
+      <c r="IX13" s="171"/>
+      <c r="IY13" s="171"/>
+      <c r="IZ13" s="171"/>
+      <c r="JA13" s="171"/>
+      <c r="JB13" s="171"/>
+      <c r="JC13" s="171"/>
+      <c r="JD13" s="171"/>
+      <c r="JE13" s="171"/>
+      <c r="JF13" s="171"/>
+      <c r="JG13" s="171"/>
+      <c r="JH13" s="171"/>
+      <c r="JI13" s="171"/>
+      <c r="JJ13" s="171"/>
+      <c r="JK13" s="171"/>
+      <c r="JL13" s="171"/>
+      <c r="JM13" s="172"/>
+      <c r="JN13" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="JO13" s="180"/>
-      <c r="JP13" s="180"/>
-      <c r="JQ13" s="180"/>
-      <c r="JR13" s="180"/>
-      <c r="JS13" s="180"/>
-      <c r="JT13" s="180"/>
-      <c r="JU13" s="180"/>
-      <c r="JV13" s="180"/>
-      <c r="JW13" s="180"/>
-      <c r="JX13" s="180"/>
-      <c r="JY13" s="180"/>
-      <c r="JZ13" s="180"/>
-      <c r="KA13" s="180"/>
-      <c r="KB13" s="180"/>
-      <c r="KC13" s="180"/>
-      <c r="KD13" s="180"/>
-      <c r="KE13" s="180"/>
-      <c r="KF13" s="180"/>
-      <c r="KG13" s="180"/>
-      <c r="KH13" s="180"/>
-      <c r="KI13" s="180"/>
-      <c r="KJ13" s="180"/>
-      <c r="KK13" s="180"/>
-      <c r="KL13" s="180"/>
-      <c r="KM13" s="180"/>
-      <c r="KN13" s="180"/>
-      <c r="KO13" s="180"/>
-      <c r="KP13" s="180"/>
-      <c r="KQ13" s="184"/>
-      <c r="KR13" s="138" t="s">
+      <c r="JO13" s="171"/>
+      <c r="JP13" s="171"/>
+      <c r="JQ13" s="171"/>
+      <c r="JR13" s="171"/>
+      <c r="JS13" s="171"/>
+      <c r="JT13" s="171"/>
+      <c r="JU13" s="171"/>
+      <c r="JV13" s="171"/>
+      <c r="JW13" s="171"/>
+      <c r="JX13" s="171"/>
+      <c r="JY13" s="171"/>
+      <c r="JZ13" s="171"/>
+      <c r="KA13" s="171"/>
+      <c r="KB13" s="171"/>
+      <c r="KC13" s="171"/>
+      <c r="KD13" s="171"/>
+      <c r="KE13" s="171"/>
+      <c r="KF13" s="171"/>
+      <c r="KG13" s="171"/>
+      <c r="KH13" s="171"/>
+      <c r="KI13" s="171"/>
+      <c r="KJ13" s="171"/>
+      <c r="KK13" s="171"/>
+      <c r="KL13" s="171"/>
+      <c r="KM13" s="171"/>
+      <c r="KN13" s="171"/>
+      <c r="KO13" s="171"/>
+      <c r="KP13" s="171"/>
+      <c r="KQ13" s="175"/>
+      <c r="KR13" s="168" t="s">
         <v>17</v>
       </c>
-      <c r="KS13" s="139"/>
-      <c r="KT13" s="179" t="s">
+      <c r="KS13" s="217"/>
+      <c r="KT13" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="KU13" s="180"/>
-      <c r="KV13" s="180"/>
-      <c r="KW13" s="180"/>
-      <c r="KX13" s="180"/>
-      <c r="KY13" s="180"/>
-      <c r="KZ13" s="180"/>
-      <c r="LA13" s="180"/>
-      <c r="LB13" s="180"/>
-      <c r="LC13" s="180"/>
-      <c r="LD13" s="180"/>
-      <c r="LE13" s="180"/>
-      <c r="LF13" s="180"/>
-      <c r="LG13" s="180"/>
-      <c r="LH13" s="180"/>
-      <c r="LI13" s="180"/>
-      <c r="LJ13" s="180"/>
-      <c r="LK13" s="180"/>
-      <c r="LL13" s="180"/>
-      <c r="LM13" s="180"/>
-      <c r="LN13" s="180"/>
-      <c r="LO13" s="180"/>
-      <c r="LP13" s="180"/>
-      <c r="LQ13" s="180"/>
-      <c r="LR13" s="180"/>
-      <c r="LS13" s="180"/>
-      <c r="LT13" s="180"/>
-      <c r="LU13" s="180"/>
-      <c r="LV13" s="180"/>
-      <c r="LW13" s="181"/>
-      <c r="LX13" s="182" t="s">
+      <c r="KU13" s="171"/>
+      <c r="KV13" s="171"/>
+      <c r="KW13" s="171"/>
+      <c r="KX13" s="171"/>
+      <c r="KY13" s="171"/>
+      <c r="KZ13" s="171"/>
+      <c r="LA13" s="171"/>
+      <c r="LB13" s="171"/>
+      <c r="LC13" s="171"/>
+      <c r="LD13" s="171"/>
+      <c r="LE13" s="171"/>
+      <c r="LF13" s="171"/>
+      <c r="LG13" s="171"/>
+      <c r="LH13" s="171"/>
+      <c r="LI13" s="171"/>
+      <c r="LJ13" s="171"/>
+      <c r="LK13" s="171"/>
+      <c r="LL13" s="171"/>
+      <c r="LM13" s="171"/>
+      <c r="LN13" s="171"/>
+      <c r="LO13" s="171"/>
+      <c r="LP13" s="171"/>
+      <c r="LQ13" s="171"/>
+      <c r="LR13" s="171"/>
+      <c r="LS13" s="171"/>
+      <c r="LT13" s="171"/>
+      <c r="LU13" s="171"/>
+      <c r="LV13" s="171"/>
+      <c r="LW13" s="172"/>
+      <c r="LX13" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="LY13" s="180"/>
-      <c r="LZ13" s="180"/>
-      <c r="MA13" s="180"/>
-      <c r="MB13" s="180"/>
-      <c r="MC13" s="180"/>
-      <c r="MD13" s="180"/>
-      <c r="ME13" s="180"/>
-      <c r="MF13" s="180"/>
-      <c r="MG13" s="180"/>
-      <c r="MH13" s="180"/>
-      <c r="MI13" s="180"/>
-      <c r="MJ13" s="180"/>
-      <c r="MK13" s="180"/>
-      <c r="ML13" s="180"/>
-      <c r="MM13" s="180"/>
-      <c r="MN13" s="180"/>
-      <c r="MO13" s="180"/>
-      <c r="MP13" s="180"/>
-      <c r="MQ13" s="180"/>
-      <c r="MR13" s="180"/>
-      <c r="MS13" s="180"/>
-      <c r="MT13" s="180"/>
-      <c r="MU13" s="180"/>
-      <c r="MV13" s="180"/>
-      <c r="MW13" s="180"/>
-      <c r="MX13" s="180"/>
-      <c r="MY13" s="180"/>
-      <c r="MZ13" s="180"/>
-      <c r="NA13" s="181"/>
-      <c r="NB13" s="182" t="s">
+      <c r="LY13" s="171"/>
+      <c r="LZ13" s="171"/>
+      <c r="MA13" s="171"/>
+      <c r="MB13" s="171"/>
+      <c r="MC13" s="171"/>
+      <c r="MD13" s="171"/>
+      <c r="ME13" s="171"/>
+      <c r="MF13" s="171"/>
+      <c r="MG13" s="171"/>
+      <c r="MH13" s="171"/>
+      <c r="MI13" s="171"/>
+      <c r="MJ13" s="171"/>
+      <c r="MK13" s="171"/>
+      <c r="ML13" s="171"/>
+      <c r="MM13" s="171"/>
+      <c r="MN13" s="171"/>
+      <c r="MO13" s="171"/>
+      <c r="MP13" s="171"/>
+      <c r="MQ13" s="171"/>
+      <c r="MR13" s="171"/>
+      <c r="MS13" s="171"/>
+      <c r="MT13" s="171"/>
+      <c r="MU13" s="171"/>
+      <c r="MV13" s="171"/>
+      <c r="MW13" s="171"/>
+      <c r="MX13" s="171"/>
+      <c r="MY13" s="171"/>
+      <c r="MZ13" s="171"/>
+      <c r="NA13" s="172"/>
+      <c r="NB13" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="NC13" s="180"/>
-      <c r="ND13" s="180"/>
-      <c r="NE13" s="180"/>
-      <c r="NF13" s="180"/>
-      <c r="NG13" s="180"/>
-      <c r="NH13" s="180"/>
-      <c r="NI13" s="180"/>
-      <c r="NJ13" s="180"/>
-      <c r="NK13" s="180"/>
-      <c r="NL13" s="180"/>
-      <c r="NM13" s="180"/>
-      <c r="NN13" s="180"/>
-      <c r="NO13" s="180"/>
-      <c r="NP13" s="180"/>
-      <c r="NQ13" s="180"/>
-      <c r="NR13" s="180"/>
-      <c r="NS13" s="180"/>
-      <c r="NT13" s="180"/>
-      <c r="NU13" s="180"/>
-      <c r="NV13" s="180"/>
-      <c r="NW13" s="180"/>
-      <c r="NX13" s="180"/>
-      <c r="NY13" s="180"/>
-      <c r="NZ13" s="180"/>
-      <c r="OA13" s="180"/>
-      <c r="OB13" s="180"/>
-      <c r="OC13" s="180"/>
-      <c r="OD13" s="180"/>
-      <c r="OE13" s="181"/>
-      <c r="OF13" s="182" t="s">
+      <c r="NC13" s="171"/>
+      <c r="ND13" s="171"/>
+      <c r="NE13" s="171"/>
+      <c r="NF13" s="171"/>
+      <c r="NG13" s="171"/>
+      <c r="NH13" s="171"/>
+      <c r="NI13" s="171"/>
+      <c r="NJ13" s="171"/>
+      <c r="NK13" s="171"/>
+      <c r="NL13" s="171"/>
+      <c r="NM13" s="171"/>
+      <c r="NN13" s="171"/>
+      <c r="NO13" s="171"/>
+      <c r="NP13" s="171"/>
+      <c r="NQ13" s="171"/>
+      <c r="NR13" s="171"/>
+      <c r="NS13" s="171"/>
+      <c r="NT13" s="171"/>
+      <c r="NU13" s="171"/>
+      <c r="NV13" s="171"/>
+      <c r="NW13" s="171"/>
+      <c r="NX13" s="171"/>
+      <c r="NY13" s="171"/>
+      <c r="NZ13" s="171"/>
+      <c r="OA13" s="171"/>
+      <c r="OB13" s="171"/>
+      <c r="OC13" s="171"/>
+      <c r="OD13" s="171"/>
+      <c r="OE13" s="172"/>
+      <c r="OF13" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="OG13" s="180"/>
-      <c r="OH13" s="180"/>
-      <c r="OI13" s="180"/>
-      <c r="OJ13" s="180"/>
-      <c r="OK13" s="180"/>
-      <c r="OL13" s="180"/>
-      <c r="OM13" s="180"/>
-      <c r="ON13" s="180"/>
-      <c r="OO13" s="180"/>
-      <c r="OP13" s="180"/>
-      <c r="OQ13" s="180"/>
-      <c r="OR13" s="180"/>
-      <c r="OS13" s="180"/>
-      <c r="OT13" s="180"/>
-      <c r="OU13" s="180"/>
-      <c r="OV13" s="180"/>
-      <c r="OW13" s="180"/>
-      <c r="OX13" s="180"/>
-      <c r="OY13" s="180"/>
-      <c r="OZ13" s="180"/>
-      <c r="PA13" s="180"/>
-      <c r="PB13" s="180"/>
-      <c r="PC13" s="180"/>
-      <c r="PD13" s="180"/>
-      <c r="PE13" s="180"/>
-      <c r="PF13" s="180"/>
-      <c r="PG13" s="180"/>
-      <c r="PH13" s="180"/>
-      <c r="PI13" s="184"/>
-      <c r="PJ13" s="179" t="s">
+      <c r="OG13" s="171"/>
+      <c r="OH13" s="171"/>
+      <c r="OI13" s="171"/>
+      <c r="OJ13" s="171"/>
+      <c r="OK13" s="171"/>
+      <c r="OL13" s="171"/>
+      <c r="OM13" s="171"/>
+      <c r="ON13" s="171"/>
+      <c r="OO13" s="171"/>
+      <c r="OP13" s="171"/>
+      <c r="OQ13" s="171"/>
+      <c r="OR13" s="171"/>
+      <c r="OS13" s="171"/>
+      <c r="OT13" s="171"/>
+      <c r="OU13" s="171"/>
+      <c r="OV13" s="171"/>
+      <c r="OW13" s="171"/>
+      <c r="OX13" s="171"/>
+      <c r="OY13" s="171"/>
+      <c r="OZ13" s="171"/>
+      <c r="PA13" s="171"/>
+      <c r="PB13" s="171"/>
+      <c r="PC13" s="171"/>
+      <c r="PD13" s="171"/>
+      <c r="PE13" s="171"/>
+      <c r="PF13" s="171"/>
+      <c r="PG13" s="171"/>
+      <c r="PH13" s="171"/>
+      <c r="PI13" s="175"/>
+      <c r="PJ13" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="PK13" s="180"/>
-      <c r="PL13" s="180"/>
-      <c r="PM13" s="180"/>
-      <c r="PN13" s="180"/>
-      <c r="PO13" s="180"/>
-      <c r="PP13" s="180"/>
-      <c r="PQ13" s="180"/>
-      <c r="PR13" s="180"/>
-      <c r="PS13" s="180"/>
-      <c r="PT13" s="180"/>
-      <c r="PU13" s="180"/>
-      <c r="PV13" s="180"/>
-      <c r="PW13" s="180"/>
-      <c r="PX13" s="180"/>
-      <c r="PY13" s="180"/>
-      <c r="PZ13" s="180"/>
-      <c r="QA13" s="180"/>
-      <c r="QB13" s="180"/>
-      <c r="QC13" s="180"/>
-      <c r="QD13" s="180"/>
-      <c r="QE13" s="180"/>
-      <c r="QF13" s="180"/>
-      <c r="QG13" s="180"/>
-      <c r="QH13" s="180"/>
-      <c r="QI13" s="180"/>
-      <c r="QJ13" s="180"/>
-      <c r="QK13" s="180"/>
-      <c r="QL13" s="180"/>
-      <c r="QM13" s="181"/>
-      <c r="QN13" s="182" t="s">
+      <c r="PK13" s="171"/>
+      <c r="PL13" s="171"/>
+      <c r="PM13" s="171"/>
+      <c r="PN13" s="171"/>
+      <c r="PO13" s="171"/>
+      <c r="PP13" s="171"/>
+      <c r="PQ13" s="171"/>
+      <c r="PR13" s="171"/>
+      <c r="PS13" s="171"/>
+      <c r="PT13" s="171"/>
+      <c r="PU13" s="171"/>
+      <c r="PV13" s="171"/>
+      <c r="PW13" s="171"/>
+      <c r="PX13" s="171"/>
+      <c r="PY13" s="171"/>
+      <c r="PZ13" s="171"/>
+      <c r="QA13" s="171"/>
+      <c r="QB13" s="171"/>
+      <c r="QC13" s="171"/>
+      <c r="QD13" s="171"/>
+      <c r="QE13" s="171"/>
+      <c r="QF13" s="171"/>
+      <c r="QG13" s="171"/>
+      <c r="QH13" s="171"/>
+      <c r="QI13" s="171"/>
+      <c r="QJ13" s="171"/>
+      <c r="QK13" s="171"/>
+      <c r="QL13" s="171"/>
+      <c r="QM13" s="172"/>
+      <c r="QN13" s="173" t="s">
         <v>21</v>
       </c>
-      <c r="QO13" s="180"/>
-      <c r="QP13" s="180"/>
-      <c r="QQ13" s="180"/>
-      <c r="QR13" s="180"/>
-      <c r="QS13" s="180"/>
-      <c r="QT13" s="180"/>
-      <c r="QU13" s="180"/>
-      <c r="QV13" s="180"/>
-      <c r="QW13" s="180"/>
-      <c r="QX13" s="180"/>
-      <c r="QY13" s="180"/>
-      <c r="QZ13" s="180"/>
-      <c r="RA13" s="180"/>
-      <c r="RB13" s="180"/>
-      <c r="RC13" s="180"/>
-      <c r="RD13" s="180"/>
-      <c r="RE13" s="180"/>
-      <c r="RF13" s="180"/>
-      <c r="RG13" s="180"/>
-      <c r="RH13" s="180"/>
-      <c r="RI13" s="180"/>
-      <c r="RJ13" s="180"/>
-      <c r="RK13" s="180"/>
-      <c r="RL13" s="180"/>
-      <c r="RM13" s="180"/>
-      <c r="RN13" s="180"/>
-      <c r="RO13" s="180"/>
-      <c r="RP13" s="180"/>
-      <c r="RQ13" s="181"/>
-      <c r="RR13" s="182" t="s">
+      <c r="QO13" s="171"/>
+      <c r="QP13" s="171"/>
+      <c r="QQ13" s="171"/>
+      <c r="QR13" s="171"/>
+      <c r="QS13" s="171"/>
+      <c r="QT13" s="171"/>
+      <c r="QU13" s="171"/>
+      <c r="QV13" s="171"/>
+      <c r="QW13" s="171"/>
+      <c r="QX13" s="171"/>
+      <c r="QY13" s="171"/>
+      <c r="QZ13" s="171"/>
+      <c r="RA13" s="171"/>
+      <c r="RB13" s="171"/>
+      <c r="RC13" s="171"/>
+      <c r="RD13" s="171"/>
+      <c r="RE13" s="171"/>
+      <c r="RF13" s="171"/>
+      <c r="RG13" s="171"/>
+      <c r="RH13" s="171"/>
+      <c r="RI13" s="171"/>
+      <c r="RJ13" s="171"/>
+      <c r="RK13" s="171"/>
+      <c r="RL13" s="171"/>
+      <c r="RM13" s="171"/>
+      <c r="RN13" s="171"/>
+      <c r="RO13" s="171"/>
+      <c r="RP13" s="171"/>
+      <c r="RQ13" s="172"/>
+      <c r="RR13" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="RS13" s="180"/>
-      <c r="RT13" s="180"/>
-      <c r="RU13" s="180"/>
-      <c r="RV13" s="180"/>
-      <c r="RW13" s="180"/>
-      <c r="RX13" s="180"/>
-      <c r="RY13" s="180"/>
-      <c r="RZ13" s="180"/>
-      <c r="SA13" s="180"/>
-      <c r="SB13" s="180"/>
-      <c r="SC13" s="180"/>
-      <c r="SD13" s="180"/>
-      <c r="SE13" s="180"/>
-      <c r="SF13" s="180"/>
-      <c r="SG13" s="180"/>
-      <c r="SH13" s="180"/>
-      <c r="SI13" s="180"/>
-      <c r="SJ13" s="180"/>
-      <c r="SK13" s="180"/>
-      <c r="SL13" s="180"/>
-      <c r="SM13" s="180"/>
-      <c r="SN13" s="180"/>
-      <c r="SO13" s="180"/>
-      <c r="SP13" s="180"/>
-      <c r="SQ13" s="180"/>
-      <c r="SR13" s="180"/>
-      <c r="SS13" s="180"/>
-      <c r="ST13" s="180"/>
-      <c r="SU13" s="181"/>
-      <c r="SV13" s="182" t="s">
+      <c r="RS13" s="171"/>
+      <c r="RT13" s="171"/>
+      <c r="RU13" s="171"/>
+      <c r="RV13" s="171"/>
+      <c r="RW13" s="171"/>
+      <c r="RX13" s="171"/>
+      <c r="RY13" s="171"/>
+      <c r="RZ13" s="171"/>
+      <c r="SA13" s="171"/>
+      <c r="SB13" s="171"/>
+      <c r="SC13" s="171"/>
+      <c r="SD13" s="171"/>
+      <c r="SE13" s="171"/>
+      <c r="SF13" s="171"/>
+      <c r="SG13" s="171"/>
+      <c r="SH13" s="171"/>
+      <c r="SI13" s="171"/>
+      <c r="SJ13" s="171"/>
+      <c r="SK13" s="171"/>
+      <c r="SL13" s="171"/>
+      <c r="SM13" s="171"/>
+      <c r="SN13" s="171"/>
+      <c r="SO13" s="171"/>
+      <c r="SP13" s="171"/>
+      <c r="SQ13" s="171"/>
+      <c r="SR13" s="171"/>
+      <c r="SS13" s="171"/>
+      <c r="ST13" s="171"/>
+      <c r="SU13" s="172"/>
+      <c r="SV13" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="SW13" s="180"/>
-      <c r="SX13" s="180"/>
-      <c r="SY13" s="180"/>
-      <c r="SZ13" s="180"/>
-      <c r="TA13" s="180"/>
-      <c r="TB13" s="180"/>
-      <c r="TC13" s="180"/>
-      <c r="TD13" s="180"/>
-      <c r="TE13" s="180"/>
-      <c r="TF13" s="180"/>
-      <c r="TG13" s="180"/>
-      <c r="TH13" s="180"/>
-      <c r="TI13" s="180"/>
-      <c r="TJ13" s="180"/>
-      <c r="TK13" s="180"/>
-      <c r="TL13" s="180"/>
-      <c r="TM13" s="180"/>
-      <c r="TN13" s="180"/>
-      <c r="TO13" s="180"/>
-      <c r="TP13" s="180"/>
-      <c r="TQ13" s="180"/>
-      <c r="TR13" s="180"/>
-      <c r="TS13" s="180"/>
-      <c r="TT13" s="180"/>
-      <c r="TU13" s="180"/>
-      <c r="TV13" s="180"/>
-      <c r="TW13" s="180"/>
-      <c r="TX13" s="180"/>
-      <c r="TY13" s="184"/>
-      <c r="TZ13" s="179" t="s">
+      <c r="SW13" s="171"/>
+      <c r="SX13" s="171"/>
+      <c r="SY13" s="171"/>
+      <c r="SZ13" s="171"/>
+      <c r="TA13" s="171"/>
+      <c r="TB13" s="171"/>
+      <c r="TC13" s="171"/>
+      <c r="TD13" s="171"/>
+      <c r="TE13" s="171"/>
+      <c r="TF13" s="171"/>
+      <c r="TG13" s="171"/>
+      <c r="TH13" s="171"/>
+      <c r="TI13" s="171"/>
+      <c r="TJ13" s="171"/>
+      <c r="TK13" s="171"/>
+      <c r="TL13" s="171"/>
+      <c r="TM13" s="171"/>
+      <c r="TN13" s="171"/>
+      <c r="TO13" s="171"/>
+      <c r="TP13" s="171"/>
+      <c r="TQ13" s="171"/>
+      <c r="TR13" s="171"/>
+      <c r="TS13" s="171"/>
+      <c r="TT13" s="171"/>
+      <c r="TU13" s="171"/>
+      <c r="TV13" s="171"/>
+      <c r="TW13" s="171"/>
+      <c r="TX13" s="171"/>
+      <c r="TY13" s="175"/>
+      <c r="TZ13" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="UA13" s="180"/>
-      <c r="UB13" s="180"/>
-      <c r="UC13" s="180"/>
-      <c r="UD13" s="180"/>
-      <c r="UE13" s="180"/>
-      <c r="UF13" s="180"/>
-      <c r="UG13" s="180"/>
-      <c r="UH13" s="180"/>
-      <c r="UI13" s="180"/>
-      <c r="UJ13" s="180"/>
-      <c r="UK13" s="180"/>
-      <c r="UL13" s="180"/>
-      <c r="UM13" s="180"/>
-      <c r="UN13" s="180"/>
-      <c r="UO13" s="180"/>
-      <c r="UP13" s="180"/>
-      <c r="UQ13" s="180"/>
-      <c r="UR13" s="180"/>
-      <c r="US13" s="180"/>
-      <c r="UT13" s="180"/>
-      <c r="UU13" s="180"/>
-      <c r="UV13" s="180"/>
-      <c r="UW13" s="180"/>
-      <c r="UX13" s="180"/>
-      <c r="UY13" s="180"/>
-      <c r="UZ13" s="180"/>
-      <c r="VA13" s="180"/>
-      <c r="VB13" s="180"/>
-      <c r="VC13" s="184"/>
+      <c r="UA13" s="171"/>
+      <c r="UB13" s="171"/>
+      <c r="UC13" s="171"/>
+      <c r="UD13" s="171"/>
+      <c r="UE13" s="171"/>
+      <c r="UF13" s="171"/>
+      <c r="UG13" s="171"/>
+      <c r="UH13" s="171"/>
+      <c r="UI13" s="171"/>
+      <c r="UJ13" s="171"/>
+      <c r="UK13" s="171"/>
+      <c r="UL13" s="171"/>
+      <c r="UM13" s="171"/>
+      <c r="UN13" s="171"/>
+      <c r="UO13" s="171"/>
+      <c r="UP13" s="171"/>
+      <c r="UQ13" s="171"/>
+      <c r="UR13" s="171"/>
+      <c r="US13" s="171"/>
+      <c r="UT13" s="171"/>
+      <c r="UU13" s="171"/>
+      <c r="UV13" s="171"/>
+      <c r="UW13" s="171"/>
+      <c r="UX13" s="171"/>
+      <c r="UY13" s="171"/>
+      <c r="UZ13" s="171"/>
+      <c r="VA13" s="171"/>
+      <c r="VB13" s="171"/>
+      <c r="VC13" s="175"/>
     </row>
     <row r="14" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="138" t="s">
+      <c r="B14" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="171">
+      <c r="C14" s="169"/>
+      <c r="D14" s="176">
         <v>45414</v>
       </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="169"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="169"/>
-      <c r="K14" s="169"/>
-      <c r="L14" s="169"/>
-      <c r="M14" s="169"/>
-      <c r="N14" s="169"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="169"/>
-      <c r="U14" s="169"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="169"/>
-      <c r="X14" s="169"/>
-      <c r="Y14" s="169"/>
-      <c r="Z14" s="169"/>
-      <c r="AA14" s="169"/>
-      <c r="AB14" s="169"/>
-      <c r="AC14" s="169"/>
-      <c r="AD14" s="169"/>
-      <c r="AE14" s="169"/>
-      <c r="AF14" s="169"/>
-      <c r="AG14" s="173"/>
-      <c r="AH14" s="168">
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="177"/>
+      <c r="M14" s="177"/>
+      <c r="N14" s="177"/>
+      <c r="O14" s="177"/>
+      <c r="P14" s="177"/>
+      <c r="Q14" s="177"/>
+      <c r="R14" s="177"/>
+      <c r="S14" s="177"/>
+      <c r="T14" s="177"/>
+      <c r="U14" s="177"/>
+      <c r="V14" s="177"/>
+      <c r="W14" s="177"/>
+      <c r="X14" s="177"/>
+      <c r="Y14" s="177"/>
+      <c r="Z14" s="177"/>
+      <c r="AA14" s="177"/>
+      <c r="AB14" s="177"/>
+      <c r="AC14" s="177"/>
+      <c r="AD14" s="177"/>
+      <c r="AE14" s="177"/>
+      <c r="AF14" s="177"/>
+      <c r="AG14" s="178"/>
+      <c r="AH14" s="179">
         <v>45415</v>
       </c>
-      <c r="AI14" s="169"/>
-      <c r="AJ14" s="169"/>
-      <c r="AK14" s="169"/>
-      <c r="AL14" s="169"/>
-      <c r="AM14" s="169"/>
-      <c r="AN14" s="169"/>
-      <c r="AO14" s="169"/>
-      <c r="AP14" s="169"/>
-      <c r="AQ14" s="169"/>
-      <c r="AR14" s="169"/>
-      <c r="AS14" s="169"/>
-      <c r="AT14" s="169"/>
-      <c r="AU14" s="169"/>
-      <c r="AV14" s="169"/>
-      <c r="AW14" s="169"/>
-      <c r="AX14" s="169"/>
-      <c r="AY14" s="169"/>
-      <c r="AZ14" s="169"/>
-      <c r="BA14" s="169"/>
-      <c r="BB14" s="169"/>
-      <c r="BC14" s="169"/>
-      <c r="BD14" s="169"/>
-      <c r="BE14" s="169"/>
-      <c r="BF14" s="169"/>
-      <c r="BG14" s="169"/>
-      <c r="BH14" s="169"/>
-      <c r="BI14" s="169"/>
-      <c r="BJ14" s="169"/>
-      <c r="BK14" s="175"/>
-      <c r="BL14" s="171">
+      <c r="AI14" s="177"/>
+      <c r="AJ14" s="177"/>
+      <c r="AK14" s="177"/>
+      <c r="AL14" s="177"/>
+      <c r="AM14" s="177"/>
+      <c r="AN14" s="177"/>
+      <c r="AO14" s="177"/>
+      <c r="AP14" s="177"/>
+      <c r="AQ14" s="177"/>
+      <c r="AR14" s="177"/>
+      <c r="AS14" s="177"/>
+      <c r="AT14" s="177"/>
+      <c r="AU14" s="177"/>
+      <c r="AV14" s="177"/>
+      <c r="AW14" s="177"/>
+      <c r="AX14" s="177"/>
+      <c r="AY14" s="177"/>
+      <c r="AZ14" s="177"/>
+      <c r="BA14" s="177"/>
+      <c r="BB14" s="177"/>
+      <c r="BC14" s="177"/>
+      <c r="BD14" s="177"/>
+      <c r="BE14" s="177"/>
+      <c r="BF14" s="177"/>
+      <c r="BG14" s="177"/>
+      <c r="BH14" s="177"/>
+      <c r="BI14" s="177"/>
+      <c r="BJ14" s="177"/>
+      <c r="BK14" s="180"/>
+      <c r="BL14" s="176">
         <v>45418</v>
       </c>
-      <c r="BM14" s="169"/>
-      <c r="BN14" s="169"/>
-      <c r="BO14" s="169"/>
-      <c r="BP14" s="169"/>
-      <c r="BQ14" s="169"/>
-      <c r="BR14" s="169"/>
-      <c r="BS14" s="169"/>
-      <c r="BT14" s="169"/>
-      <c r="BU14" s="169"/>
-      <c r="BV14" s="169"/>
-      <c r="BW14" s="169"/>
-      <c r="BX14" s="169"/>
-      <c r="BY14" s="169"/>
-      <c r="BZ14" s="169"/>
-      <c r="CA14" s="169"/>
-      <c r="CB14" s="169"/>
-      <c r="CC14" s="169"/>
-      <c r="CD14" s="169"/>
-      <c r="CE14" s="169"/>
-      <c r="CF14" s="169"/>
-      <c r="CG14" s="169"/>
-      <c r="CH14" s="169"/>
-      <c r="CI14" s="169"/>
-      <c r="CJ14" s="169"/>
-      <c r="CK14" s="169"/>
-      <c r="CL14" s="169"/>
-      <c r="CM14" s="169"/>
-      <c r="CN14" s="169"/>
-      <c r="CO14" s="173"/>
-      <c r="CP14" s="168">
+      <c r="BM14" s="177"/>
+      <c r="BN14" s="177"/>
+      <c r="BO14" s="177"/>
+      <c r="BP14" s="177"/>
+      <c r="BQ14" s="177"/>
+      <c r="BR14" s="177"/>
+      <c r="BS14" s="177"/>
+      <c r="BT14" s="177"/>
+      <c r="BU14" s="177"/>
+      <c r="BV14" s="177"/>
+      <c r="BW14" s="177"/>
+      <c r="BX14" s="177"/>
+      <c r="BY14" s="177"/>
+      <c r="BZ14" s="177"/>
+      <c r="CA14" s="177"/>
+      <c r="CB14" s="177"/>
+      <c r="CC14" s="177"/>
+      <c r="CD14" s="177"/>
+      <c r="CE14" s="177"/>
+      <c r="CF14" s="177"/>
+      <c r="CG14" s="177"/>
+      <c r="CH14" s="177"/>
+      <c r="CI14" s="177"/>
+      <c r="CJ14" s="177"/>
+      <c r="CK14" s="177"/>
+      <c r="CL14" s="177"/>
+      <c r="CM14" s="177"/>
+      <c r="CN14" s="177"/>
+      <c r="CO14" s="178"/>
+      <c r="CP14" s="179">
         <v>45420</v>
       </c>
-      <c r="CQ14" s="169"/>
-      <c r="CR14" s="169"/>
-      <c r="CS14" s="169"/>
-      <c r="CT14" s="169"/>
-      <c r="CU14" s="169"/>
-      <c r="CV14" s="169"/>
-      <c r="CW14" s="169"/>
-      <c r="CX14" s="169"/>
-      <c r="CY14" s="169"/>
-      <c r="CZ14" s="169"/>
-      <c r="DA14" s="169"/>
-      <c r="DB14" s="169"/>
-      <c r="DC14" s="169"/>
-      <c r="DD14" s="169"/>
-      <c r="DE14" s="169"/>
-      <c r="DF14" s="169"/>
-      <c r="DG14" s="169"/>
-      <c r="DH14" s="169"/>
-      <c r="DI14" s="169"/>
-      <c r="DJ14" s="169"/>
-      <c r="DK14" s="169"/>
-      <c r="DL14" s="169"/>
-      <c r="DM14" s="169"/>
-      <c r="DN14" s="169"/>
-      <c r="DO14" s="169"/>
-      <c r="DP14" s="169"/>
-      <c r="DQ14" s="169"/>
-      <c r="DR14" s="169"/>
-      <c r="DS14" s="173"/>
-      <c r="DT14" s="168">
+      <c r="CQ14" s="177"/>
+      <c r="CR14" s="177"/>
+      <c r="CS14" s="177"/>
+      <c r="CT14" s="177"/>
+      <c r="CU14" s="177"/>
+      <c r="CV14" s="177"/>
+      <c r="CW14" s="177"/>
+      <c r="CX14" s="177"/>
+      <c r="CY14" s="177"/>
+      <c r="CZ14" s="177"/>
+      <c r="DA14" s="177"/>
+      <c r="DB14" s="177"/>
+      <c r="DC14" s="177"/>
+      <c r="DD14" s="177"/>
+      <c r="DE14" s="177"/>
+      <c r="DF14" s="177"/>
+      <c r="DG14" s="177"/>
+      <c r="DH14" s="177"/>
+      <c r="DI14" s="177"/>
+      <c r="DJ14" s="177"/>
+      <c r="DK14" s="177"/>
+      <c r="DL14" s="177"/>
+      <c r="DM14" s="177"/>
+      <c r="DN14" s="177"/>
+      <c r="DO14" s="177"/>
+      <c r="DP14" s="177"/>
+      <c r="DQ14" s="177"/>
+      <c r="DR14" s="177"/>
+      <c r="DS14" s="178"/>
+      <c r="DT14" s="179">
         <v>45421</v>
       </c>
-      <c r="DU14" s="169"/>
-      <c r="DV14" s="169"/>
-      <c r="DW14" s="169"/>
-      <c r="DX14" s="169"/>
-      <c r="DY14" s="169"/>
-      <c r="DZ14" s="169"/>
-      <c r="EA14" s="169"/>
-      <c r="EB14" s="169"/>
-      <c r="EC14" s="169"/>
-      <c r="ED14" s="169"/>
-      <c r="EE14" s="169"/>
-      <c r="EF14" s="169"/>
-      <c r="EG14" s="169"/>
-      <c r="EH14" s="169"/>
-      <c r="EI14" s="169"/>
-      <c r="EJ14" s="169"/>
-      <c r="EK14" s="169"/>
-      <c r="EL14" s="169"/>
-      <c r="EM14" s="169"/>
-      <c r="EN14" s="169"/>
-      <c r="EO14" s="169"/>
-      <c r="EP14" s="169"/>
-      <c r="EQ14" s="169"/>
-      <c r="ER14" s="169"/>
-      <c r="ES14" s="169"/>
-      <c r="ET14" s="169"/>
-      <c r="EU14" s="169"/>
-      <c r="EV14" s="169"/>
-      <c r="EW14" s="173"/>
-      <c r="EX14" s="168">
+      <c r="DU14" s="177"/>
+      <c r="DV14" s="177"/>
+      <c r="DW14" s="177"/>
+      <c r="DX14" s="177"/>
+      <c r="DY14" s="177"/>
+      <c r="DZ14" s="177"/>
+      <c r="EA14" s="177"/>
+      <c r="EB14" s="177"/>
+      <c r="EC14" s="177"/>
+      <c r="ED14" s="177"/>
+      <c r="EE14" s="177"/>
+      <c r="EF14" s="177"/>
+      <c r="EG14" s="177"/>
+      <c r="EH14" s="177"/>
+      <c r="EI14" s="177"/>
+      <c r="EJ14" s="177"/>
+      <c r="EK14" s="177"/>
+      <c r="EL14" s="177"/>
+      <c r="EM14" s="177"/>
+      <c r="EN14" s="177"/>
+      <c r="EO14" s="177"/>
+      <c r="EP14" s="177"/>
+      <c r="EQ14" s="177"/>
+      <c r="ER14" s="177"/>
+      <c r="ES14" s="177"/>
+      <c r="ET14" s="177"/>
+      <c r="EU14" s="177"/>
+      <c r="EV14" s="177"/>
+      <c r="EW14" s="178"/>
+      <c r="EX14" s="179">
         <v>45422</v>
       </c>
-      <c r="EY14" s="169"/>
-      <c r="EZ14" s="169"/>
-      <c r="FA14" s="169"/>
-      <c r="FB14" s="169"/>
-      <c r="FC14" s="169"/>
-      <c r="FD14" s="169"/>
-      <c r="FE14" s="169"/>
-      <c r="FF14" s="169"/>
-      <c r="FG14" s="169"/>
-      <c r="FH14" s="169"/>
-      <c r="FI14" s="169"/>
-      <c r="FJ14" s="169"/>
-      <c r="FK14" s="169"/>
-      <c r="FL14" s="169"/>
-      <c r="FM14" s="169"/>
-      <c r="FN14" s="169"/>
-      <c r="FO14" s="169"/>
-      <c r="FP14" s="169"/>
-      <c r="FQ14" s="169"/>
-      <c r="FR14" s="169"/>
-      <c r="FS14" s="169"/>
-      <c r="FT14" s="169"/>
-      <c r="FU14" s="169"/>
-      <c r="FV14" s="169"/>
-      <c r="FW14" s="169"/>
-      <c r="FX14" s="169"/>
-      <c r="FY14" s="169"/>
-      <c r="FZ14" s="169"/>
-      <c r="GA14" s="175"/>
-      <c r="GB14" s="171">
+      <c r="EY14" s="177"/>
+      <c r="EZ14" s="177"/>
+      <c r="FA14" s="177"/>
+      <c r="FB14" s="177"/>
+      <c r="FC14" s="177"/>
+      <c r="FD14" s="177"/>
+      <c r="FE14" s="177"/>
+      <c r="FF14" s="177"/>
+      <c r="FG14" s="177"/>
+      <c r="FH14" s="177"/>
+      <c r="FI14" s="177"/>
+      <c r="FJ14" s="177"/>
+      <c r="FK14" s="177"/>
+      <c r="FL14" s="177"/>
+      <c r="FM14" s="177"/>
+      <c r="FN14" s="177"/>
+      <c r="FO14" s="177"/>
+      <c r="FP14" s="177"/>
+      <c r="FQ14" s="177"/>
+      <c r="FR14" s="177"/>
+      <c r="FS14" s="177"/>
+      <c r="FT14" s="177"/>
+      <c r="FU14" s="177"/>
+      <c r="FV14" s="177"/>
+      <c r="FW14" s="177"/>
+      <c r="FX14" s="177"/>
+      <c r="FY14" s="177"/>
+      <c r="FZ14" s="177"/>
+      <c r="GA14" s="180"/>
+      <c r="GB14" s="176">
         <v>45425</v>
       </c>
-      <c r="GC14" s="169"/>
-      <c r="GD14" s="169"/>
-      <c r="GE14" s="169"/>
-      <c r="GF14" s="169"/>
-      <c r="GG14" s="169"/>
-      <c r="GH14" s="169"/>
-      <c r="GI14" s="169"/>
-      <c r="GJ14" s="169"/>
-      <c r="GK14" s="169"/>
-      <c r="GL14" s="169"/>
-      <c r="GM14" s="169"/>
-      <c r="GN14" s="169"/>
-      <c r="GO14" s="169"/>
-      <c r="GP14" s="169"/>
-      <c r="GQ14" s="169"/>
-      <c r="GR14" s="169"/>
-      <c r="GS14" s="169"/>
-      <c r="GT14" s="169"/>
-      <c r="GU14" s="169"/>
-      <c r="GV14" s="169"/>
-      <c r="GW14" s="169"/>
-      <c r="GX14" s="169"/>
-      <c r="GY14" s="169"/>
-      <c r="GZ14" s="169"/>
-      <c r="HA14" s="169"/>
-      <c r="HB14" s="169"/>
-      <c r="HC14" s="169"/>
-      <c r="HD14" s="169"/>
-      <c r="HE14" s="173"/>
-      <c r="HF14" s="168">
+      <c r="GC14" s="177"/>
+      <c r="GD14" s="177"/>
+      <c r="GE14" s="177"/>
+      <c r="GF14" s="177"/>
+      <c r="GG14" s="177"/>
+      <c r="GH14" s="177"/>
+      <c r="GI14" s="177"/>
+      <c r="GJ14" s="177"/>
+      <c r="GK14" s="177"/>
+      <c r="GL14" s="177"/>
+      <c r="GM14" s="177"/>
+      <c r="GN14" s="177"/>
+      <c r="GO14" s="177"/>
+      <c r="GP14" s="177"/>
+      <c r="GQ14" s="177"/>
+      <c r="GR14" s="177"/>
+      <c r="GS14" s="177"/>
+      <c r="GT14" s="177"/>
+      <c r="GU14" s="177"/>
+      <c r="GV14" s="177"/>
+      <c r="GW14" s="177"/>
+      <c r="GX14" s="177"/>
+      <c r="GY14" s="177"/>
+      <c r="GZ14" s="177"/>
+      <c r="HA14" s="177"/>
+      <c r="HB14" s="177"/>
+      <c r="HC14" s="177"/>
+      <c r="HD14" s="177"/>
+      <c r="HE14" s="178"/>
+      <c r="HF14" s="179">
         <v>45427</v>
       </c>
-      <c r="HG14" s="169"/>
-      <c r="HH14" s="169"/>
-      <c r="HI14" s="169"/>
-      <c r="HJ14" s="169"/>
-      <c r="HK14" s="169"/>
-      <c r="HL14" s="169"/>
-      <c r="HM14" s="169"/>
-      <c r="HN14" s="169"/>
-      <c r="HO14" s="169"/>
-      <c r="HP14" s="169"/>
-      <c r="HQ14" s="169"/>
-      <c r="HR14" s="169"/>
-      <c r="HS14" s="169"/>
-      <c r="HT14" s="169"/>
-      <c r="HU14" s="169"/>
-      <c r="HV14" s="169"/>
-      <c r="HW14" s="169"/>
-      <c r="HX14" s="169"/>
-      <c r="HY14" s="169"/>
-      <c r="HZ14" s="169"/>
-      <c r="IA14" s="169"/>
-      <c r="IB14" s="169"/>
-      <c r="IC14" s="169"/>
-      <c r="ID14" s="169"/>
-      <c r="IE14" s="169"/>
-      <c r="IF14" s="169"/>
-      <c r="IG14" s="169"/>
-      <c r="IH14" s="169"/>
-      <c r="II14" s="173"/>
-      <c r="IJ14" s="168">
+      <c r="HG14" s="177"/>
+      <c r="HH14" s="177"/>
+      <c r="HI14" s="177"/>
+      <c r="HJ14" s="177"/>
+      <c r="HK14" s="177"/>
+      <c r="HL14" s="177"/>
+      <c r="HM14" s="177"/>
+      <c r="HN14" s="177"/>
+      <c r="HO14" s="177"/>
+      <c r="HP14" s="177"/>
+      <c r="HQ14" s="177"/>
+      <c r="HR14" s="177"/>
+      <c r="HS14" s="177"/>
+      <c r="HT14" s="177"/>
+      <c r="HU14" s="177"/>
+      <c r="HV14" s="177"/>
+      <c r="HW14" s="177"/>
+      <c r="HX14" s="177"/>
+      <c r="HY14" s="177"/>
+      <c r="HZ14" s="177"/>
+      <c r="IA14" s="177"/>
+      <c r="IB14" s="177"/>
+      <c r="IC14" s="177"/>
+      <c r="ID14" s="177"/>
+      <c r="IE14" s="177"/>
+      <c r="IF14" s="177"/>
+      <c r="IG14" s="177"/>
+      <c r="IH14" s="177"/>
+      <c r="II14" s="178"/>
+      <c r="IJ14" s="179">
         <v>45428</v>
       </c>
-      <c r="IK14" s="169"/>
-      <c r="IL14" s="169"/>
-      <c r="IM14" s="169"/>
-      <c r="IN14" s="169"/>
-      <c r="IO14" s="169"/>
-      <c r="IP14" s="169"/>
-      <c r="IQ14" s="169"/>
-      <c r="IR14" s="169"/>
-      <c r="IS14" s="169"/>
-      <c r="IT14" s="169"/>
-      <c r="IU14" s="169"/>
-      <c r="IV14" s="169"/>
-      <c r="IW14" s="169"/>
-      <c r="IX14" s="169"/>
-      <c r="IY14" s="169"/>
-      <c r="IZ14" s="169"/>
-      <c r="JA14" s="169"/>
-      <c r="JB14" s="169"/>
-      <c r="JC14" s="169"/>
-      <c r="JD14" s="169"/>
-      <c r="JE14" s="169"/>
-      <c r="JF14" s="169"/>
-      <c r="JG14" s="169"/>
-      <c r="JH14" s="169"/>
-      <c r="JI14" s="169"/>
-      <c r="JJ14" s="169"/>
-      <c r="JK14" s="169"/>
-      <c r="JL14" s="169"/>
-      <c r="JM14" s="173"/>
-      <c r="JN14" s="168">
+      <c r="IK14" s="177"/>
+      <c r="IL14" s="177"/>
+      <c r="IM14" s="177"/>
+      <c r="IN14" s="177"/>
+      <c r="IO14" s="177"/>
+      <c r="IP14" s="177"/>
+      <c r="IQ14" s="177"/>
+      <c r="IR14" s="177"/>
+      <c r="IS14" s="177"/>
+      <c r="IT14" s="177"/>
+      <c r="IU14" s="177"/>
+      <c r="IV14" s="177"/>
+      <c r="IW14" s="177"/>
+      <c r="IX14" s="177"/>
+      <c r="IY14" s="177"/>
+      <c r="IZ14" s="177"/>
+      <c r="JA14" s="177"/>
+      <c r="JB14" s="177"/>
+      <c r="JC14" s="177"/>
+      <c r="JD14" s="177"/>
+      <c r="JE14" s="177"/>
+      <c r="JF14" s="177"/>
+      <c r="JG14" s="177"/>
+      <c r="JH14" s="177"/>
+      <c r="JI14" s="177"/>
+      <c r="JJ14" s="177"/>
+      <c r="JK14" s="177"/>
+      <c r="JL14" s="177"/>
+      <c r="JM14" s="178"/>
+      <c r="JN14" s="179">
         <v>45429</v>
       </c>
-      <c r="JO14" s="169"/>
-      <c r="JP14" s="169"/>
-      <c r="JQ14" s="169"/>
-      <c r="JR14" s="169"/>
-      <c r="JS14" s="169"/>
-      <c r="JT14" s="169"/>
-      <c r="JU14" s="169"/>
-      <c r="JV14" s="169"/>
-      <c r="JW14" s="169"/>
-      <c r="JX14" s="169"/>
-      <c r="JY14" s="169"/>
-      <c r="JZ14" s="169"/>
-      <c r="KA14" s="169"/>
-      <c r="KB14" s="169"/>
-      <c r="KC14" s="169"/>
-      <c r="KD14" s="169"/>
-      <c r="KE14" s="169"/>
-      <c r="KF14" s="169"/>
-      <c r="KG14" s="169"/>
-      <c r="KH14" s="169"/>
-      <c r="KI14" s="169"/>
-      <c r="KJ14" s="169"/>
-      <c r="KK14" s="169"/>
-      <c r="KL14" s="169"/>
-      <c r="KM14" s="169"/>
-      <c r="KN14" s="169"/>
-      <c r="KO14" s="169"/>
-      <c r="KP14" s="169"/>
-      <c r="KQ14" s="170"/>
-      <c r="KR14" s="138" t="s">
+      <c r="JO14" s="177"/>
+      <c r="JP14" s="177"/>
+      <c r="JQ14" s="177"/>
+      <c r="JR14" s="177"/>
+      <c r="JS14" s="177"/>
+      <c r="JT14" s="177"/>
+      <c r="JU14" s="177"/>
+      <c r="JV14" s="177"/>
+      <c r="JW14" s="177"/>
+      <c r="JX14" s="177"/>
+      <c r="JY14" s="177"/>
+      <c r="JZ14" s="177"/>
+      <c r="KA14" s="177"/>
+      <c r="KB14" s="177"/>
+      <c r="KC14" s="177"/>
+      <c r="KD14" s="177"/>
+      <c r="KE14" s="177"/>
+      <c r="KF14" s="177"/>
+      <c r="KG14" s="177"/>
+      <c r="KH14" s="177"/>
+      <c r="KI14" s="177"/>
+      <c r="KJ14" s="177"/>
+      <c r="KK14" s="177"/>
+      <c r="KL14" s="177"/>
+      <c r="KM14" s="177"/>
+      <c r="KN14" s="177"/>
+      <c r="KO14" s="177"/>
+      <c r="KP14" s="177"/>
+      <c r="KQ14" s="181"/>
+      <c r="KR14" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="KS14" s="139"/>
-      <c r="KT14" s="171">
+      <c r="KS14" s="217"/>
+      <c r="KT14" s="176">
         <v>45432</v>
       </c>
-      <c r="KU14" s="169"/>
-      <c r="KV14" s="169"/>
-      <c r="KW14" s="169"/>
-      <c r="KX14" s="169"/>
-      <c r="KY14" s="169"/>
-      <c r="KZ14" s="169"/>
-      <c r="LA14" s="169"/>
-      <c r="LB14" s="169"/>
-      <c r="LC14" s="169"/>
-      <c r="LD14" s="169"/>
-      <c r="LE14" s="169"/>
-      <c r="LF14" s="169"/>
-      <c r="LG14" s="169"/>
-      <c r="LH14" s="169"/>
-      <c r="LI14" s="169"/>
-      <c r="LJ14" s="169"/>
-      <c r="LK14" s="169"/>
-      <c r="LL14" s="169"/>
-      <c r="LM14" s="169"/>
-      <c r="LN14" s="169"/>
-      <c r="LO14" s="169"/>
-      <c r="LP14" s="169"/>
-      <c r="LQ14" s="169"/>
-      <c r="LR14" s="169"/>
-      <c r="LS14" s="169"/>
-      <c r="LT14" s="169"/>
-      <c r="LU14" s="169"/>
-      <c r="LV14" s="169"/>
-      <c r="LW14" s="173"/>
-      <c r="LX14" s="168">
+      <c r="KU14" s="177"/>
+      <c r="KV14" s="177"/>
+      <c r="KW14" s="177"/>
+      <c r="KX14" s="177"/>
+      <c r="KY14" s="177"/>
+      <c r="KZ14" s="177"/>
+      <c r="LA14" s="177"/>
+      <c r="LB14" s="177"/>
+      <c r="LC14" s="177"/>
+      <c r="LD14" s="177"/>
+      <c r="LE14" s="177"/>
+      <c r="LF14" s="177"/>
+      <c r="LG14" s="177"/>
+      <c r="LH14" s="177"/>
+      <c r="LI14" s="177"/>
+      <c r="LJ14" s="177"/>
+      <c r="LK14" s="177"/>
+      <c r="LL14" s="177"/>
+      <c r="LM14" s="177"/>
+      <c r="LN14" s="177"/>
+      <c r="LO14" s="177"/>
+      <c r="LP14" s="177"/>
+      <c r="LQ14" s="177"/>
+      <c r="LR14" s="177"/>
+      <c r="LS14" s="177"/>
+      <c r="LT14" s="177"/>
+      <c r="LU14" s="177"/>
+      <c r="LV14" s="177"/>
+      <c r="LW14" s="178"/>
+      <c r="LX14" s="179">
         <v>45434</v>
       </c>
-      <c r="LY14" s="169"/>
-      <c r="LZ14" s="169"/>
-      <c r="MA14" s="169"/>
-      <c r="MB14" s="169"/>
-      <c r="MC14" s="169"/>
-      <c r="MD14" s="169"/>
-      <c r="ME14" s="169"/>
-      <c r="MF14" s="169"/>
-      <c r="MG14" s="169"/>
-      <c r="MH14" s="169"/>
-      <c r="MI14" s="169"/>
-      <c r="MJ14" s="169"/>
-      <c r="MK14" s="169"/>
-      <c r="ML14" s="169"/>
-      <c r="MM14" s="169"/>
-      <c r="MN14" s="169"/>
-      <c r="MO14" s="169"/>
-      <c r="MP14" s="169"/>
-      <c r="MQ14" s="169"/>
-      <c r="MR14" s="169"/>
-      <c r="MS14" s="169"/>
-      <c r="MT14" s="169"/>
-      <c r="MU14" s="169"/>
-      <c r="MV14" s="169"/>
-      <c r="MW14" s="169"/>
-      <c r="MX14" s="169"/>
-      <c r="MY14" s="169"/>
-      <c r="MZ14" s="169"/>
-      <c r="NA14" s="173"/>
-      <c r="NB14" s="168">
+      <c r="LY14" s="177"/>
+      <c r="LZ14" s="177"/>
+      <c r="MA14" s="177"/>
+      <c r="MB14" s="177"/>
+      <c r="MC14" s="177"/>
+      <c r="MD14" s="177"/>
+      <c r="ME14" s="177"/>
+      <c r="MF14" s="177"/>
+      <c r="MG14" s="177"/>
+      <c r="MH14" s="177"/>
+      <c r="MI14" s="177"/>
+      <c r="MJ14" s="177"/>
+      <c r="MK14" s="177"/>
+      <c r="ML14" s="177"/>
+      <c r="MM14" s="177"/>
+      <c r="MN14" s="177"/>
+      <c r="MO14" s="177"/>
+      <c r="MP14" s="177"/>
+      <c r="MQ14" s="177"/>
+      <c r="MR14" s="177"/>
+      <c r="MS14" s="177"/>
+      <c r="MT14" s="177"/>
+      <c r="MU14" s="177"/>
+      <c r="MV14" s="177"/>
+      <c r="MW14" s="177"/>
+      <c r="MX14" s="177"/>
+      <c r="MY14" s="177"/>
+      <c r="MZ14" s="177"/>
+      <c r="NA14" s="178"/>
+      <c r="NB14" s="179">
         <v>45435</v>
       </c>
-      <c r="NC14" s="169"/>
-      <c r="ND14" s="169"/>
-      <c r="NE14" s="169"/>
-      <c r="NF14" s="169"/>
-      <c r="NG14" s="169"/>
-      <c r="NH14" s="169"/>
-      <c r="NI14" s="169"/>
-      <c r="NJ14" s="169"/>
-      <c r="NK14" s="169"/>
-      <c r="NL14" s="169"/>
-      <c r="NM14" s="169"/>
-      <c r="NN14" s="169"/>
-      <c r="NO14" s="169"/>
-      <c r="NP14" s="169"/>
-      <c r="NQ14" s="169"/>
-      <c r="NR14" s="169"/>
-      <c r="NS14" s="169"/>
-      <c r="NT14" s="169"/>
-      <c r="NU14" s="169"/>
-      <c r="NV14" s="169"/>
-      <c r="NW14" s="169"/>
-      <c r="NX14" s="169"/>
-      <c r="NY14" s="169"/>
-      <c r="NZ14" s="169"/>
-      <c r="OA14" s="169"/>
-      <c r="OB14" s="169"/>
-      <c r="OC14" s="169"/>
-      <c r="OD14" s="169"/>
-      <c r="OE14" s="173"/>
-      <c r="OF14" s="168">
+      <c r="NC14" s="177"/>
+      <c r="ND14" s="177"/>
+      <c r="NE14" s="177"/>
+      <c r="NF14" s="177"/>
+      <c r="NG14" s="177"/>
+      <c r="NH14" s="177"/>
+      <c r="NI14" s="177"/>
+      <c r="NJ14" s="177"/>
+      <c r="NK14" s="177"/>
+      <c r="NL14" s="177"/>
+      <c r="NM14" s="177"/>
+      <c r="NN14" s="177"/>
+      <c r="NO14" s="177"/>
+      <c r="NP14" s="177"/>
+      <c r="NQ14" s="177"/>
+      <c r="NR14" s="177"/>
+      <c r="NS14" s="177"/>
+      <c r="NT14" s="177"/>
+      <c r="NU14" s="177"/>
+      <c r="NV14" s="177"/>
+      <c r="NW14" s="177"/>
+      <c r="NX14" s="177"/>
+      <c r="NY14" s="177"/>
+      <c r="NZ14" s="177"/>
+      <c r="OA14" s="177"/>
+      <c r="OB14" s="177"/>
+      <c r="OC14" s="177"/>
+      <c r="OD14" s="177"/>
+      <c r="OE14" s="178"/>
+      <c r="OF14" s="179">
         <v>45436</v>
       </c>
-      <c r="OG14" s="169"/>
-      <c r="OH14" s="169"/>
-      <c r="OI14" s="169"/>
-      <c r="OJ14" s="169"/>
-      <c r="OK14" s="169"/>
-      <c r="OL14" s="169"/>
-      <c r="OM14" s="169"/>
-      <c r="ON14" s="169"/>
-      <c r="OO14" s="169"/>
-      <c r="OP14" s="169"/>
-      <c r="OQ14" s="169"/>
-      <c r="OR14" s="169"/>
-      <c r="OS14" s="169"/>
-      <c r="OT14" s="169"/>
-      <c r="OU14" s="169"/>
-      <c r="OV14" s="169"/>
-      <c r="OW14" s="169"/>
-      <c r="OX14" s="169"/>
-      <c r="OY14" s="169"/>
-      <c r="OZ14" s="169"/>
-      <c r="PA14" s="169"/>
-      <c r="PB14" s="169"/>
-      <c r="PC14" s="169"/>
-      <c r="PD14" s="169"/>
-      <c r="PE14" s="169"/>
-      <c r="PF14" s="169"/>
-      <c r="PG14" s="169"/>
-      <c r="PH14" s="169"/>
-      <c r="PI14" s="170"/>
-      <c r="PJ14" s="171">
+      <c r="OG14" s="177"/>
+      <c r="OH14" s="177"/>
+      <c r="OI14" s="177"/>
+      <c r="OJ14" s="177"/>
+      <c r="OK14" s="177"/>
+      <c r="OL14" s="177"/>
+      <c r="OM14" s="177"/>
+      <c r="ON14" s="177"/>
+      <c r="OO14" s="177"/>
+      <c r="OP14" s="177"/>
+      <c r="OQ14" s="177"/>
+      <c r="OR14" s="177"/>
+      <c r="OS14" s="177"/>
+      <c r="OT14" s="177"/>
+      <c r="OU14" s="177"/>
+      <c r="OV14" s="177"/>
+      <c r="OW14" s="177"/>
+      <c r="OX14" s="177"/>
+      <c r="OY14" s="177"/>
+      <c r="OZ14" s="177"/>
+      <c r="PA14" s="177"/>
+      <c r="PB14" s="177"/>
+      <c r="PC14" s="177"/>
+      <c r="PD14" s="177"/>
+      <c r="PE14" s="177"/>
+      <c r="PF14" s="177"/>
+      <c r="PG14" s="177"/>
+      <c r="PH14" s="177"/>
+      <c r="PI14" s="181"/>
+      <c r="PJ14" s="176">
         <v>45439</v>
       </c>
-      <c r="PK14" s="169"/>
-      <c r="PL14" s="169"/>
-      <c r="PM14" s="169"/>
-      <c r="PN14" s="169"/>
-      <c r="PO14" s="169"/>
-      <c r="PP14" s="169"/>
-      <c r="PQ14" s="169"/>
-      <c r="PR14" s="169"/>
-      <c r="PS14" s="169"/>
-      <c r="PT14" s="169"/>
-      <c r="PU14" s="169"/>
-      <c r="PV14" s="169"/>
-      <c r="PW14" s="169"/>
-      <c r="PX14" s="169"/>
-      <c r="PY14" s="169"/>
-      <c r="PZ14" s="169"/>
-      <c r="QA14" s="169"/>
-      <c r="QB14" s="169"/>
-      <c r="QC14" s="169"/>
-      <c r="QD14" s="169"/>
-      <c r="QE14" s="169"/>
-      <c r="QF14" s="169"/>
-      <c r="QG14" s="169"/>
-      <c r="QH14" s="169"/>
-      <c r="QI14" s="169"/>
-      <c r="QJ14" s="169"/>
-      <c r="QK14" s="169"/>
-      <c r="QL14" s="169"/>
-      <c r="QM14" s="173"/>
-      <c r="QN14" s="168">
+      <c r="PK14" s="177"/>
+      <c r="PL14" s="177"/>
+      <c r="PM14" s="177"/>
+      <c r="PN14" s="177"/>
+      <c r="PO14" s="177"/>
+      <c r="PP14" s="177"/>
+      <c r="PQ14" s="177"/>
+      <c r="PR14" s="177"/>
+      <c r="PS14" s="177"/>
+      <c r="PT14" s="177"/>
+      <c r="PU14" s="177"/>
+      <c r="PV14" s="177"/>
+      <c r="PW14" s="177"/>
+      <c r="PX14" s="177"/>
+      <c r="PY14" s="177"/>
+      <c r="PZ14" s="177"/>
+      <c r="QA14" s="177"/>
+      <c r="QB14" s="177"/>
+      <c r="QC14" s="177"/>
+      <c r="QD14" s="177"/>
+      <c r="QE14" s="177"/>
+      <c r="QF14" s="177"/>
+      <c r="QG14" s="177"/>
+      <c r="QH14" s="177"/>
+      <c r="QI14" s="177"/>
+      <c r="QJ14" s="177"/>
+      <c r="QK14" s="177"/>
+      <c r="QL14" s="177"/>
+      <c r="QM14" s="178"/>
+      <c r="QN14" s="179">
         <v>45441</v>
       </c>
-      <c r="QO14" s="169"/>
-      <c r="QP14" s="169"/>
-      <c r="QQ14" s="169"/>
-      <c r="QR14" s="169"/>
-      <c r="QS14" s="169"/>
-      <c r="QT14" s="169"/>
-      <c r="QU14" s="169"/>
-      <c r="QV14" s="169"/>
-      <c r="QW14" s="169"/>
-      <c r="QX14" s="169"/>
-      <c r="QY14" s="169"/>
-      <c r="QZ14" s="169"/>
-      <c r="RA14" s="169"/>
-      <c r="RB14" s="169"/>
-      <c r="RC14" s="169"/>
-      <c r="RD14" s="169"/>
-      <c r="RE14" s="169"/>
-      <c r="RF14" s="169"/>
-      <c r="RG14" s="169"/>
-      <c r="RH14" s="169"/>
-      <c r="RI14" s="169"/>
-      <c r="RJ14" s="169"/>
-      <c r="RK14" s="169"/>
-      <c r="RL14" s="169"/>
-      <c r="RM14" s="169"/>
-      <c r="RN14" s="169"/>
-      <c r="RO14" s="169"/>
-      <c r="RP14" s="169"/>
-      <c r="RQ14" s="173"/>
-      <c r="RR14" s="168">
+      <c r="QO14" s="177"/>
+      <c r="QP14" s="177"/>
+      <c r="QQ14" s="177"/>
+      <c r="QR14" s="177"/>
+      <c r="QS14" s="177"/>
+      <c r="QT14" s="177"/>
+      <c r="QU14" s="177"/>
+      <c r="QV14" s="177"/>
+      <c r="QW14" s="177"/>
+      <c r="QX14" s="177"/>
+      <c r="QY14" s="177"/>
+      <c r="QZ14" s="177"/>
+      <c r="RA14" s="177"/>
+      <c r="RB14" s="177"/>
+      <c r="RC14" s="177"/>
+      <c r="RD14" s="177"/>
+      <c r="RE14" s="177"/>
+      <c r="RF14" s="177"/>
+      <c r="RG14" s="177"/>
+      <c r="RH14" s="177"/>
+      <c r="RI14" s="177"/>
+      <c r="RJ14" s="177"/>
+      <c r="RK14" s="177"/>
+      <c r="RL14" s="177"/>
+      <c r="RM14" s="177"/>
+      <c r="RN14" s="177"/>
+      <c r="RO14" s="177"/>
+      <c r="RP14" s="177"/>
+      <c r="RQ14" s="178"/>
+      <c r="RR14" s="179">
         <v>45442</v>
       </c>
-      <c r="RS14" s="169"/>
-      <c r="RT14" s="169"/>
-      <c r="RU14" s="169"/>
-      <c r="RV14" s="169"/>
-      <c r="RW14" s="169"/>
-      <c r="RX14" s="169"/>
-      <c r="RY14" s="169"/>
-      <c r="RZ14" s="169"/>
-      <c r="SA14" s="169"/>
-      <c r="SB14" s="169"/>
-      <c r="SC14" s="169"/>
-      <c r="SD14" s="169"/>
-      <c r="SE14" s="169"/>
-      <c r="SF14" s="169"/>
-      <c r="SG14" s="169"/>
-      <c r="SH14" s="169"/>
-      <c r="SI14" s="169"/>
-      <c r="SJ14" s="169"/>
-      <c r="SK14" s="169"/>
-      <c r="SL14" s="169"/>
-      <c r="SM14" s="169"/>
-      <c r="SN14" s="169"/>
-      <c r="SO14" s="169"/>
-      <c r="SP14" s="169"/>
-      <c r="SQ14" s="169"/>
-      <c r="SR14" s="169"/>
-      <c r="SS14" s="169"/>
-      <c r="ST14" s="169"/>
-      <c r="SU14" s="173"/>
-      <c r="SV14" s="168">
+      <c r="RS14" s="177"/>
+      <c r="RT14" s="177"/>
+      <c r="RU14" s="177"/>
+      <c r="RV14" s="177"/>
+      <c r="RW14" s="177"/>
+      <c r="RX14" s="177"/>
+      <c r="RY14" s="177"/>
+      <c r="RZ14" s="177"/>
+      <c r="SA14" s="177"/>
+      <c r="SB14" s="177"/>
+      <c r="SC14" s="177"/>
+      <c r="SD14" s="177"/>
+      <c r="SE14" s="177"/>
+      <c r="SF14" s="177"/>
+      <c r="SG14" s="177"/>
+      <c r="SH14" s="177"/>
+      <c r="SI14" s="177"/>
+      <c r="SJ14" s="177"/>
+      <c r="SK14" s="177"/>
+      <c r="SL14" s="177"/>
+      <c r="SM14" s="177"/>
+      <c r="SN14" s="177"/>
+      <c r="SO14" s="177"/>
+      <c r="SP14" s="177"/>
+      <c r="SQ14" s="177"/>
+      <c r="SR14" s="177"/>
+      <c r="SS14" s="177"/>
+      <c r="ST14" s="177"/>
+      <c r="SU14" s="178"/>
+      <c r="SV14" s="179">
         <v>45443</v>
       </c>
-      <c r="SW14" s="169"/>
-      <c r="SX14" s="169"/>
-      <c r="SY14" s="169"/>
-      <c r="SZ14" s="169"/>
-      <c r="TA14" s="169"/>
-      <c r="TB14" s="169"/>
-      <c r="TC14" s="169"/>
-      <c r="TD14" s="169"/>
-      <c r="TE14" s="169"/>
-      <c r="TF14" s="169"/>
-      <c r="TG14" s="169"/>
-      <c r="TH14" s="169"/>
-      <c r="TI14" s="169"/>
-      <c r="TJ14" s="169"/>
-      <c r="TK14" s="169"/>
-      <c r="TL14" s="169"/>
-      <c r="TM14" s="169"/>
-      <c r="TN14" s="169"/>
-      <c r="TO14" s="169"/>
-      <c r="TP14" s="169"/>
-      <c r="TQ14" s="169"/>
-      <c r="TR14" s="169"/>
-      <c r="TS14" s="169"/>
-      <c r="TT14" s="169"/>
-      <c r="TU14" s="169"/>
-      <c r="TV14" s="169"/>
-      <c r="TW14" s="169"/>
-      <c r="TX14" s="169"/>
-      <c r="TY14" s="170"/>
-      <c r="TZ14" s="171">
+      <c r="SW14" s="177"/>
+      <c r="SX14" s="177"/>
+      <c r="SY14" s="177"/>
+      <c r="SZ14" s="177"/>
+      <c r="TA14" s="177"/>
+      <c r="TB14" s="177"/>
+      <c r="TC14" s="177"/>
+      <c r="TD14" s="177"/>
+      <c r="TE14" s="177"/>
+      <c r="TF14" s="177"/>
+      <c r="TG14" s="177"/>
+      <c r="TH14" s="177"/>
+      <c r="TI14" s="177"/>
+      <c r="TJ14" s="177"/>
+      <c r="TK14" s="177"/>
+      <c r="TL14" s="177"/>
+      <c r="TM14" s="177"/>
+      <c r="TN14" s="177"/>
+      <c r="TO14" s="177"/>
+      <c r="TP14" s="177"/>
+      <c r="TQ14" s="177"/>
+      <c r="TR14" s="177"/>
+      <c r="TS14" s="177"/>
+      <c r="TT14" s="177"/>
+      <c r="TU14" s="177"/>
+      <c r="TV14" s="177"/>
+      <c r="TW14" s="177"/>
+      <c r="TX14" s="177"/>
+      <c r="TY14" s="181"/>
+      <c r="TZ14" s="176">
         <v>45446</v>
       </c>
-      <c r="UA14" s="169"/>
-      <c r="UB14" s="169"/>
-      <c r="UC14" s="169"/>
-      <c r="UD14" s="169"/>
-      <c r="UE14" s="169"/>
-      <c r="UF14" s="169"/>
-      <c r="UG14" s="169"/>
-      <c r="UH14" s="169"/>
-      <c r="UI14" s="169"/>
-      <c r="UJ14" s="169"/>
-      <c r="UK14" s="169"/>
-      <c r="UL14" s="169"/>
-      <c r="UM14" s="169"/>
-      <c r="UN14" s="169"/>
-      <c r="UO14" s="169"/>
-      <c r="UP14" s="169"/>
-      <c r="UQ14" s="169"/>
-      <c r="UR14" s="169"/>
-      <c r="US14" s="169"/>
-      <c r="UT14" s="169"/>
-      <c r="UU14" s="169"/>
-      <c r="UV14" s="169"/>
-      <c r="UW14" s="169"/>
-      <c r="UX14" s="169"/>
-      <c r="UY14" s="169"/>
-      <c r="UZ14" s="169"/>
-      <c r="VA14" s="169"/>
-      <c r="VB14" s="169"/>
-      <c r="VC14" s="170"/>
+      <c r="UA14" s="177"/>
+      <c r="UB14" s="177"/>
+      <c r="UC14" s="177"/>
+      <c r="UD14" s="177"/>
+      <c r="UE14" s="177"/>
+      <c r="UF14" s="177"/>
+      <c r="UG14" s="177"/>
+      <c r="UH14" s="177"/>
+      <c r="UI14" s="177"/>
+      <c r="UJ14" s="177"/>
+      <c r="UK14" s="177"/>
+      <c r="UL14" s="177"/>
+      <c r="UM14" s="177"/>
+      <c r="UN14" s="177"/>
+      <c r="UO14" s="177"/>
+      <c r="UP14" s="177"/>
+      <c r="UQ14" s="177"/>
+      <c r="UR14" s="177"/>
+      <c r="US14" s="177"/>
+      <c r="UT14" s="177"/>
+      <c r="UU14" s="177"/>
+      <c r="UV14" s="177"/>
+      <c r="UW14" s="177"/>
+      <c r="UX14" s="177"/>
+      <c r="UY14" s="177"/>
+      <c r="UZ14" s="177"/>
+      <c r="VA14" s="177"/>
+      <c r="VB14" s="177"/>
+      <c r="VC14" s="181"/>
     </row>
     <row r="15" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="140" t="s">
+      <c r="B15" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="172"/>
-      <c r="D15" s="162" t="s">
+      <c r="C15" s="183"/>
+      <c r="D15" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="160"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="160"/>
-      <c r="Q15" s="160"/>
-      <c r="R15" s="160"/>
-      <c r="S15" s="160" t="s">
+      <c r="E15" s="185"/>
+      <c r="F15" s="185"/>
+      <c r="G15" s="185"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="185"/>
+      <c r="J15" s="185"/>
+      <c r="K15" s="185"/>
+      <c r="L15" s="185"/>
+      <c r="M15" s="185"/>
+      <c r="N15" s="185"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="185"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="185"/>
+      <c r="S15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="160"/>
-      <c r="U15" s="160"/>
-      <c r="V15" s="160"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="167"/>
-      <c r="AH15" s="159" t="s">
+      <c r="T15" s="185"/>
+      <c r="U15" s="185"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="185"/>
+      <c r="Y15" s="185"/>
+      <c r="Z15" s="185"/>
+      <c r="AA15" s="185"/>
+      <c r="AB15" s="185"/>
+      <c r="AC15" s="185"/>
+      <c r="AD15" s="185"/>
+      <c r="AE15" s="185"/>
+      <c r="AF15" s="185"/>
+      <c r="AG15" s="186"/>
+      <c r="AH15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="AI15" s="160"/>
-      <c r="AJ15" s="160"/>
-      <c r="AK15" s="160"/>
-      <c r="AL15" s="160"/>
-      <c r="AM15" s="160"/>
-      <c r="AN15" s="160"/>
-      <c r="AO15" s="160"/>
-      <c r="AP15" s="160"/>
-      <c r="AQ15" s="160"/>
-      <c r="AR15" s="160"/>
-      <c r="AS15" s="160"/>
-      <c r="AT15" s="160"/>
-      <c r="AU15" s="160"/>
-      <c r="AV15" s="160"/>
-      <c r="AW15" s="160" t="s">
+      <c r="AI15" s="185"/>
+      <c r="AJ15" s="185"/>
+      <c r="AK15" s="185"/>
+      <c r="AL15" s="185"/>
+      <c r="AM15" s="185"/>
+      <c r="AN15" s="185"/>
+      <c r="AO15" s="185"/>
+      <c r="AP15" s="185"/>
+      <c r="AQ15" s="185"/>
+      <c r="AR15" s="185"/>
+      <c r="AS15" s="185"/>
+      <c r="AT15" s="185"/>
+      <c r="AU15" s="185"/>
+      <c r="AV15" s="185"/>
+      <c r="AW15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="AX15" s="160"/>
-      <c r="AY15" s="160"/>
-      <c r="AZ15" s="160"/>
-      <c r="BA15" s="160"/>
-      <c r="BB15" s="160"/>
-      <c r="BC15" s="160"/>
-      <c r="BD15" s="160"/>
-      <c r="BE15" s="160"/>
-      <c r="BF15" s="160"/>
-      <c r="BG15" s="160"/>
-      <c r="BH15" s="160"/>
-      <c r="BI15" s="160"/>
-      <c r="BJ15" s="160"/>
-      <c r="BK15" s="163"/>
-      <c r="BL15" s="162" t="s">
+      <c r="AX15" s="185"/>
+      <c r="AY15" s="185"/>
+      <c r="AZ15" s="185"/>
+      <c r="BA15" s="185"/>
+      <c r="BB15" s="185"/>
+      <c r="BC15" s="185"/>
+      <c r="BD15" s="185"/>
+      <c r="BE15" s="185"/>
+      <c r="BF15" s="185"/>
+      <c r="BG15" s="185"/>
+      <c r="BH15" s="185"/>
+      <c r="BI15" s="185"/>
+      <c r="BJ15" s="185"/>
+      <c r="BK15" s="188"/>
+      <c r="BL15" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="BM15" s="160"/>
-      <c r="BN15" s="160"/>
-      <c r="BO15" s="160"/>
-      <c r="BP15" s="160"/>
-      <c r="BQ15" s="160"/>
-      <c r="BR15" s="160"/>
-      <c r="BS15" s="160"/>
-      <c r="BT15" s="160"/>
-      <c r="BU15" s="160"/>
-      <c r="BV15" s="160"/>
-      <c r="BW15" s="160"/>
-      <c r="BX15" s="160"/>
-      <c r="BY15" s="160"/>
-      <c r="BZ15" s="163"/>
-      <c r="CA15" s="160" t="s">
+      <c r="BM15" s="185"/>
+      <c r="BN15" s="185"/>
+      <c r="BO15" s="185"/>
+      <c r="BP15" s="185"/>
+      <c r="BQ15" s="185"/>
+      <c r="BR15" s="185"/>
+      <c r="BS15" s="185"/>
+      <c r="BT15" s="185"/>
+      <c r="BU15" s="185"/>
+      <c r="BV15" s="185"/>
+      <c r="BW15" s="185"/>
+      <c r="BX15" s="185"/>
+      <c r="BY15" s="185"/>
+      <c r="BZ15" s="188"/>
+      <c r="CA15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="CB15" s="160"/>
-      <c r="CC15" s="160"/>
-      <c r="CD15" s="160"/>
-      <c r="CE15" s="160"/>
-      <c r="CF15" s="160"/>
-      <c r="CG15" s="160"/>
-      <c r="CH15" s="160"/>
-      <c r="CI15" s="160"/>
-      <c r="CJ15" s="160"/>
-      <c r="CK15" s="160"/>
-      <c r="CL15" s="160"/>
-      <c r="CM15" s="160"/>
-      <c r="CN15" s="160"/>
-      <c r="CO15" s="167"/>
-      <c r="CP15" s="159" t="s">
+      <c r="CB15" s="185"/>
+      <c r="CC15" s="185"/>
+      <c r="CD15" s="185"/>
+      <c r="CE15" s="185"/>
+      <c r="CF15" s="185"/>
+      <c r="CG15" s="185"/>
+      <c r="CH15" s="185"/>
+      <c r="CI15" s="185"/>
+      <c r="CJ15" s="185"/>
+      <c r="CK15" s="185"/>
+      <c r="CL15" s="185"/>
+      <c r="CM15" s="185"/>
+      <c r="CN15" s="185"/>
+      <c r="CO15" s="186"/>
+      <c r="CP15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="CQ15" s="160"/>
-      <c r="CR15" s="160"/>
-      <c r="CS15" s="160"/>
-      <c r="CT15" s="160"/>
-      <c r="CU15" s="160"/>
-      <c r="CV15" s="160"/>
-      <c r="CW15" s="160"/>
-      <c r="CX15" s="160"/>
-      <c r="CY15" s="160"/>
-      <c r="CZ15" s="160"/>
-      <c r="DA15" s="160"/>
-      <c r="DB15" s="160"/>
-      <c r="DC15" s="160"/>
-      <c r="DD15" s="160"/>
-      <c r="DE15" s="160" t="s">
+      <c r="CQ15" s="185"/>
+      <c r="CR15" s="185"/>
+      <c r="CS15" s="185"/>
+      <c r="CT15" s="185"/>
+      <c r="CU15" s="185"/>
+      <c r="CV15" s="185"/>
+      <c r="CW15" s="185"/>
+      <c r="CX15" s="185"/>
+      <c r="CY15" s="185"/>
+      <c r="CZ15" s="185"/>
+      <c r="DA15" s="185"/>
+      <c r="DB15" s="185"/>
+      <c r="DC15" s="185"/>
+      <c r="DD15" s="185"/>
+      <c r="DE15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="DF15" s="160"/>
-      <c r="DG15" s="160"/>
-      <c r="DH15" s="160"/>
-      <c r="DI15" s="160"/>
-      <c r="DJ15" s="160"/>
-      <c r="DK15" s="160"/>
-      <c r="DL15" s="160"/>
-      <c r="DM15" s="160"/>
-      <c r="DN15" s="160"/>
-      <c r="DO15" s="160"/>
-      <c r="DP15" s="160"/>
-      <c r="DQ15" s="160"/>
-      <c r="DR15" s="160"/>
-      <c r="DS15" s="167"/>
-      <c r="DT15" s="159" t="s">
+      <c r="DF15" s="185"/>
+      <c r="DG15" s="185"/>
+      <c r="DH15" s="185"/>
+      <c r="DI15" s="185"/>
+      <c r="DJ15" s="185"/>
+      <c r="DK15" s="185"/>
+      <c r="DL15" s="185"/>
+      <c r="DM15" s="185"/>
+      <c r="DN15" s="185"/>
+      <c r="DO15" s="185"/>
+      <c r="DP15" s="185"/>
+      <c r="DQ15" s="185"/>
+      <c r="DR15" s="185"/>
+      <c r="DS15" s="186"/>
+      <c r="DT15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="DU15" s="160"/>
-      <c r="DV15" s="160"/>
-      <c r="DW15" s="160"/>
-      <c r="DX15" s="160"/>
-      <c r="DY15" s="160"/>
-      <c r="DZ15" s="160"/>
-      <c r="EA15" s="160"/>
-      <c r="EB15" s="160"/>
-      <c r="EC15" s="160"/>
-      <c r="ED15" s="160"/>
-      <c r="EE15" s="160"/>
-      <c r="EF15" s="160"/>
-      <c r="EG15" s="160"/>
-      <c r="EH15" s="160"/>
-      <c r="EI15" s="160" t="s">
+      <c r="DU15" s="185"/>
+      <c r="DV15" s="185"/>
+      <c r="DW15" s="185"/>
+      <c r="DX15" s="185"/>
+      <c r="DY15" s="185"/>
+      <c r="DZ15" s="185"/>
+      <c r="EA15" s="185"/>
+      <c r="EB15" s="185"/>
+      <c r="EC15" s="185"/>
+      <c r="ED15" s="185"/>
+      <c r="EE15" s="185"/>
+      <c r="EF15" s="185"/>
+      <c r="EG15" s="185"/>
+      <c r="EH15" s="185"/>
+      <c r="EI15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="EJ15" s="160"/>
-      <c r="EK15" s="160"/>
-      <c r="EL15" s="160"/>
-      <c r="EM15" s="160"/>
-      <c r="EN15" s="160"/>
-      <c r="EO15" s="160"/>
-      <c r="EP15" s="160"/>
-      <c r="EQ15" s="160"/>
-      <c r="ER15" s="160"/>
-      <c r="ES15" s="160"/>
-      <c r="ET15" s="160"/>
-      <c r="EU15" s="160"/>
-      <c r="EV15" s="160"/>
-      <c r="EW15" s="167"/>
-      <c r="EX15" s="159" t="s">
+      <c r="EJ15" s="185"/>
+      <c r="EK15" s="185"/>
+      <c r="EL15" s="185"/>
+      <c r="EM15" s="185"/>
+      <c r="EN15" s="185"/>
+      <c r="EO15" s="185"/>
+      <c r="EP15" s="185"/>
+      <c r="EQ15" s="185"/>
+      <c r="ER15" s="185"/>
+      <c r="ES15" s="185"/>
+      <c r="ET15" s="185"/>
+      <c r="EU15" s="185"/>
+      <c r="EV15" s="185"/>
+      <c r="EW15" s="186"/>
+      <c r="EX15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="EY15" s="160"/>
-      <c r="EZ15" s="160"/>
-      <c r="FA15" s="160"/>
-      <c r="FB15" s="160"/>
-      <c r="FC15" s="160"/>
-      <c r="FD15" s="160"/>
-      <c r="FE15" s="160"/>
-      <c r="FF15" s="160"/>
-      <c r="FG15" s="160"/>
-      <c r="FH15" s="160"/>
-      <c r="FI15" s="160"/>
-      <c r="FJ15" s="160"/>
-      <c r="FK15" s="160"/>
-      <c r="FL15" s="160"/>
-      <c r="FM15" s="160" t="s">
+      <c r="EY15" s="185"/>
+      <c r="EZ15" s="185"/>
+      <c r="FA15" s="185"/>
+      <c r="FB15" s="185"/>
+      <c r="FC15" s="185"/>
+      <c r="FD15" s="185"/>
+      <c r="FE15" s="185"/>
+      <c r="FF15" s="185"/>
+      <c r="FG15" s="185"/>
+      <c r="FH15" s="185"/>
+      <c r="FI15" s="185"/>
+      <c r="FJ15" s="185"/>
+      <c r="FK15" s="185"/>
+      <c r="FL15" s="185"/>
+      <c r="FM15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="FN15" s="160"/>
-      <c r="FO15" s="160"/>
-      <c r="FP15" s="160"/>
-      <c r="FQ15" s="160"/>
-      <c r="FR15" s="160"/>
-      <c r="FS15" s="160"/>
-      <c r="FT15" s="160"/>
-      <c r="FU15" s="160"/>
-      <c r="FV15" s="160"/>
-      <c r="FW15" s="160"/>
-      <c r="FX15" s="160"/>
-      <c r="FY15" s="160"/>
-      <c r="FZ15" s="160"/>
-      <c r="GA15" s="163"/>
-      <c r="GB15" s="162" t="s">
+      <c r="FN15" s="185"/>
+      <c r="FO15" s="185"/>
+      <c r="FP15" s="185"/>
+      <c r="FQ15" s="185"/>
+      <c r="FR15" s="185"/>
+      <c r="FS15" s="185"/>
+      <c r="FT15" s="185"/>
+      <c r="FU15" s="185"/>
+      <c r="FV15" s="185"/>
+      <c r="FW15" s="185"/>
+      <c r="FX15" s="185"/>
+      <c r="FY15" s="185"/>
+      <c r="FZ15" s="185"/>
+      <c r="GA15" s="188"/>
+      <c r="GB15" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="GC15" s="160"/>
-      <c r="GD15" s="160"/>
-      <c r="GE15" s="160"/>
-      <c r="GF15" s="160"/>
-      <c r="GG15" s="160"/>
-      <c r="GH15" s="160"/>
-      <c r="GI15" s="160"/>
-      <c r="GJ15" s="160"/>
-      <c r="GK15" s="160"/>
-      <c r="GL15" s="160"/>
-      <c r="GM15" s="160"/>
-      <c r="GN15" s="160"/>
-      <c r="GO15" s="160"/>
-      <c r="GP15" s="163"/>
-      <c r="GQ15" s="160" t="s">
+      <c r="GC15" s="185"/>
+      <c r="GD15" s="185"/>
+      <c r="GE15" s="185"/>
+      <c r="GF15" s="185"/>
+      <c r="GG15" s="185"/>
+      <c r="GH15" s="185"/>
+      <c r="GI15" s="185"/>
+      <c r="GJ15" s="185"/>
+      <c r="GK15" s="185"/>
+      <c r="GL15" s="185"/>
+      <c r="GM15" s="185"/>
+      <c r="GN15" s="185"/>
+      <c r="GO15" s="185"/>
+      <c r="GP15" s="188"/>
+      <c r="GQ15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="GR15" s="160"/>
-      <c r="GS15" s="160"/>
-      <c r="GT15" s="160"/>
-      <c r="GU15" s="160"/>
-      <c r="GV15" s="160"/>
-      <c r="GW15" s="160"/>
-      <c r="GX15" s="160"/>
-      <c r="GY15" s="160"/>
-      <c r="GZ15" s="160"/>
-      <c r="HA15" s="160"/>
-      <c r="HB15" s="160"/>
-      <c r="HC15" s="160"/>
-      <c r="HD15" s="160"/>
-      <c r="HE15" s="167"/>
-      <c r="HF15" s="159" t="s">
+      <c r="GR15" s="185"/>
+      <c r="GS15" s="185"/>
+      <c r="GT15" s="185"/>
+      <c r="GU15" s="185"/>
+      <c r="GV15" s="185"/>
+      <c r="GW15" s="185"/>
+      <c r="GX15" s="185"/>
+      <c r="GY15" s="185"/>
+      <c r="GZ15" s="185"/>
+      <c r="HA15" s="185"/>
+      <c r="HB15" s="185"/>
+      <c r="HC15" s="185"/>
+      <c r="HD15" s="185"/>
+      <c r="HE15" s="186"/>
+      <c r="HF15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="HG15" s="160"/>
-      <c r="HH15" s="160"/>
-      <c r="HI15" s="160"/>
-      <c r="HJ15" s="160"/>
-      <c r="HK15" s="160"/>
-      <c r="HL15" s="160"/>
-      <c r="HM15" s="160"/>
-      <c r="HN15" s="160"/>
-      <c r="HO15" s="160"/>
-      <c r="HP15" s="160"/>
-      <c r="HQ15" s="160"/>
-      <c r="HR15" s="160"/>
-      <c r="HS15" s="160"/>
-      <c r="HT15" s="160"/>
-      <c r="HU15" s="160" t="s">
+      <c r="HG15" s="185"/>
+      <c r="HH15" s="185"/>
+      <c r="HI15" s="185"/>
+      <c r="HJ15" s="185"/>
+      <c r="HK15" s="185"/>
+      <c r="HL15" s="185"/>
+      <c r="HM15" s="185"/>
+      <c r="HN15" s="185"/>
+      <c r="HO15" s="185"/>
+      <c r="HP15" s="185"/>
+      <c r="HQ15" s="185"/>
+      <c r="HR15" s="185"/>
+      <c r="HS15" s="185"/>
+      <c r="HT15" s="185"/>
+      <c r="HU15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="HV15" s="160"/>
-      <c r="HW15" s="160"/>
-      <c r="HX15" s="160"/>
-      <c r="HY15" s="160"/>
-      <c r="HZ15" s="160"/>
-      <c r="IA15" s="160"/>
-      <c r="IB15" s="160"/>
-      <c r="IC15" s="160"/>
-      <c r="ID15" s="160"/>
-      <c r="IE15" s="160"/>
-      <c r="IF15" s="160"/>
-      <c r="IG15" s="160"/>
-      <c r="IH15" s="160"/>
-      <c r="II15" s="167"/>
-      <c r="IJ15" s="159" t="s">
+      <c r="HV15" s="185"/>
+      <c r="HW15" s="185"/>
+      <c r="HX15" s="185"/>
+      <c r="HY15" s="185"/>
+      <c r="HZ15" s="185"/>
+      <c r="IA15" s="185"/>
+      <c r="IB15" s="185"/>
+      <c r="IC15" s="185"/>
+      <c r="ID15" s="185"/>
+      <c r="IE15" s="185"/>
+      <c r="IF15" s="185"/>
+      <c r="IG15" s="185"/>
+      <c r="IH15" s="185"/>
+      <c r="II15" s="186"/>
+      <c r="IJ15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="IK15" s="160"/>
-      <c r="IL15" s="160"/>
-      <c r="IM15" s="160"/>
-      <c r="IN15" s="160"/>
-      <c r="IO15" s="160"/>
-      <c r="IP15" s="160"/>
-      <c r="IQ15" s="160"/>
-      <c r="IR15" s="160"/>
-      <c r="IS15" s="160"/>
-      <c r="IT15" s="160"/>
-      <c r="IU15" s="160"/>
-      <c r="IV15" s="160"/>
-      <c r="IW15" s="160"/>
-      <c r="IX15" s="160"/>
-      <c r="IY15" s="160" t="s">
+      <c r="IK15" s="185"/>
+      <c r="IL15" s="185"/>
+      <c r="IM15" s="185"/>
+      <c r="IN15" s="185"/>
+      <c r="IO15" s="185"/>
+      <c r="IP15" s="185"/>
+      <c r="IQ15" s="185"/>
+      <c r="IR15" s="185"/>
+      <c r="IS15" s="185"/>
+      <c r="IT15" s="185"/>
+      <c r="IU15" s="185"/>
+      <c r="IV15" s="185"/>
+      <c r="IW15" s="185"/>
+      <c r="IX15" s="185"/>
+      <c r="IY15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="IZ15" s="160"/>
-      <c r="JA15" s="160"/>
-      <c r="JB15" s="160"/>
-      <c r="JC15" s="160"/>
-      <c r="JD15" s="160"/>
-      <c r="JE15" s="160"/>
-      <c r="JF15" s="160"/>
-      <c r="JG15" s="160"/>
-      <c r="JH15" s="160"/>
-      <c r="JI15" s="160"/>
-      <c r="JJ15" s="160"/>
-      <c r="JK15" s="160"/>
-      <c r="JL15" s="160"/>
-      <c r="JM15" s="167"/>
-      <c r="JN15" s="159" t="s">
+      <c r="IZ15" s="185"/>
+      <c r="JA15" s="185"/>
+      <c r="JB15" s="185"/>
+      <c r="JC15" s="185"/>
+      <c r="JD15" s="185"/>
+      <c r="JE15" s="185"/>
+      <c r="JF15" s="185"/>
+      <c r="JG15" s="185"/>
+      <c r="JH15" s="185"/>
+      <c r="JI15" s="185"/>
+      <c r="JJ15" s="185"/>
+      <c r="JK15" s="185"/>
+      <c r="JL15" s="185"/>
+      <c r="JM15" s="186"/>
+      <c r="JN15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="JO15" s="160"/>
-      <c r="JP15" s="160"/>
-      <c r="JQ15" s="160"/>
-      <c r="JR15" s="160"/>
-      <c r="JS15" s="160"/>
-      <c r="JT15" s="160"/>
-      <c r="JU15" s="160"/>
-      <c r="JV15" s="160"/>
-      <c r="JW15" s="160"/>
-      <c r="JX15" s="160"/>
-      <c r="JY15" s="160"/>
-      <c r="JZ15" s="160"/>
-      <c r="KA15" s="160"/>
-      <c r="KB15" s="160"/>
-      <c r="KC15" s="160" t="s">
+      <c r="JO15" s="185"/>
+      <c r="JP15" s="185"/>
+      <c r="JQ15" s="185"/>
+      <c r="JR15" s="185"/>
+      <c r="JS15" s="185"/>
+      <c r="JT15" s="185"/>
+      <c r="JU15" s="185"/>
+      <c r="JV15" s="185"/>
+      <c r="JW15" s="185"/>
+      <c r="JX15" s="185"/>
+      <c r="JY15" s="185"/>
+      <c r="JZ15" s="185"/>
+      <c r="KA15" s="185"/>
+      <c r="KB15" s="185"/>
+      <c r="KC15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="KD15" s="160"/>
-      <c r="KE15" s="160"/>
-      <c r="KF15" s="160"/>
-      <c r="KG15" s="160"/>
-      <c r="KH15" s="160"/>
-      <c r="KI15" s="160"/>
-      <c r="KJ15" s="160"/>
-      <c r="KK15" s="160"/>
-      <c r="KL15" s="160"/>
-      <c r="KM15" s="160"/>
-      <c r="KN15" s="160"/>
-      <c r="KO15" s="160"/>
-      <c r="KP15" s="160"/>
-      <c r="KQ15" s="161"/>
-      <c r="KR15" s="140" t="s">
+      <c r="KD15" s="185"/>
+      <c r="KE15" s="185"/>
+      <c r="KF15" s="185"/>
+      <c r="KG15" s="185"/>
+      <c r="KH15" s="185"/>
+      <c r="KI15" s="185"/>
+      <c r="KJ15" s="185"/>
+      <c r="KK15" s="185"/>
+      <c r="KL15" s="185"/>
+      <c r="KM15" s="185"/>
+      <c r="KN15" s="185"/>
+      <c r="KO15" s="185"/>
+      <c r="KP15" s="185"/>
+      <c r="KQ15" s="189"/>
+      <c r="KR15" s="182" t="s">
         <v>23</v>
       </c>
-      <c r="KS15" s="141"/>
-      <c r="KT15" s="162" t="s">
+      <c r="KS15" s="218"/>
+      <c r="KT15" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="KU15" s="160"/>
-      <c r="KV15" s="160"/>
-      <c r="KW15" s="160"/>
-      <c r="KX15" s="160"/>
-      <c r="KY15" s="160"/>
-      <c r="KZ15" s="160"/>
-      <c r="LA15" s="160"/>
-      <c r="LB15" s="160"/>
-      <c r="LC15" s="160"/>
-      <c r="LD15" s="160"/>
-      <c r="LE15" s="160"/>
-      <c r="LF15" s="160"/>
-      <c r="LG15" s="160"/>
-      <c r="LH15" s="163"/>
-      <c r="LI15" s="160" t="s">
+      <c r="KU15" s="185"/>
+      <c r="KV15" s="185"/>
+      <c r="KW15" s="185"/>
+      <c r="KX15" s="185"/>
+      <c r="KY15" s="185"/>
+      <c r="KZ15" s="185"/>
+      <c r="LA15" s="185"/>
+      <c r="LB15" s="185"/>
+      <c r="LC15" s="185"/>
+      <c r="LD15" s="185"/>
+      <c r="LE15" s="185"/>
+      <c r="LF15" s="185"/>
+      <c r="LG15" s="185"/>
+      <c r="LH15" s="188"/>
+      <c r="LI15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="LJ15" s="160"/>
-      <c r="LK15" s="160"/>
-      <c r="LL15" s="160"/>
-      <c r="LM15" s="160"/>
-      <c r="LN15" s="160"/>
-      <c r="LO15" s="160"/>
-      <c r="LP15" s="160"/>
-      <c r="LQ15" s="160"/>
-      <c r="LR15" s="160"/>
-      <c r="LS15" s="160"/>
-      <c r="LT15" s="160"/>
-      <c r="LU15" s="160"/>
-      <c r="LV15" s="160"/>
-      <c r="LW15" s="167"/>
-      <c r="LX15" s="159" t="s">
+      <c r="LJ15" s="185"/>
+      <c r="LK15" s="185"/>
+      <c r="LL15" s="185"/>
+      <c r="LM15" s="185"/>
+      <c r="LN15" s="185"/>
+      <c r="LO15" s="185"/>
+      <c r="LP15" s="185"/>
+      <c r="LQ15" s="185"/>
+      <c r="LR15" s="185"/>
+      <c r="LS15" s="185"/>
+      <c r="LT15" s="185"/>
+      <c r="LU15" s="185"/>
+      <c r="LV15" s="185"/>
+      <c r="LW15" s="186"/>
+      <c r="LX15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="LY15" s="160"/>
-      <c r="LZ15" s="160"/>
-      <c r="MA15" s="160"/>
-      <c r="MB15" s="160"/>
-      <c r="MC15" s="160"/>
-      <c r="MD15" s="160"/>
-      <c r="ME15" s="160"/>
-      <c r="MF15" s="160"/>
-      <c r="MG15" s="160"/>
-      <c r="MH15" s="160"/>
-      <c r="MI15" s="160"/>
-      <c r="MJ15" s="160"/>
-      <c r="MK15" s="160"/>
-      <c r="ML15" s="160"/>
-      <c r="MM15" s="160" t="s">
+      <c r="LY15" s="185"/>
+      <c r="LZ15" s="185"/>
+      <c r="MA15" s="185"/>
+      <c r="MB15" s="185"/>
+      <c r="MC15" s="185"/>
+      <c r="MD15" s="185"/>
+      <c r="ME15" s="185"/>
+      <c r="MF15" s="185"/>
+      <c r="MG15" s="185"/>
+      <c r="MH15" s="185"/>
+      <c r="MI15" s="185"/>
+      <c r="MJ15" s="185"/>
+      <c r="MK15" s="185"/>
+      <c r="ML15" s="185"/>
+      <c r="MM15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="MN15" s="160"/>
-      <c r="MO15" s="160"/>
-      <c r="MP15" s="160"/>
-      <c r="MQ15" s="160"/>
-      <c r="MR15" s="160"/>
-      <c r="MS15" s="160"/>
-      <c r="MT15" s="160"/>
-      <c r="MU15" s="160"/>
-      <c r="MV15" s="160"/>
-      <c r="MW15" s="160"/>
-      <c r="MX15" s="160"/>
-      <c r="MY15" s="160"/>
-      <c r="MZ15" s="160"/>
-      <c r="NA15" s="167"/>
-      <c r="NB15" s="159" t="s">
+      <c r="MN15" s="185"/>
+      <c r="MO15" s="185"/>
+      <c r="MP15" s="185"/>
+      <c r="MQ15" s="185"/>
+      <c r="MR15" s="185"/>
+      <c r="MS15" s="185"/>
+      <c r="MT15" s="185"/>
+      <c r="MU15" s="185"/>
+      <c r="MV15" s="185"/>
+      <c r="MW15" s="185"/>
+      <c r="MX15" s="185"/>
+      <c r="MY15" s="185"/>
+      <c r="MZ15" s="185"/>
+      <c r="NA15" s="186"/>
+      <c r="NB15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="NC15" s="160"/>
-      <c r="ND15" s="160"/>
-      <c r="NE15" s="160"/>
-      <c r="NF15" s="160"/>
-      <c r="NG15" s="160"/>
-      <c r="NH15" s="160"/>
-      <c r="NI15" s="160"/>
-      <c r="NJ15" s="160"/>
-      <c r="NK15" s="160"/>
-      <c r="NL15" s="160"/>
-      <c r="NM15" s="160"/>
-      <c r="NN15" s="160"/>
-      <c r="NO15" s="160"/>
-      <c r="NP15" s="160"/>
-      <c r="NQ15" s="160" t="s">
+      <c r="NC15" s="185"/>
+      <c r="ND15" s="185"/>
+      <c r="NE15" s="185"/>
+      <c r="NF15" s="185"/>
+      <c r="NG15" s="185"/>
+      <c r="NH15" s="185"/>
+      <c r="NI15" s="185"/>
+      <c r="NJ15" s="185"/>
+      <c r="NK15" s="185"/>
+      <c r="NL15" s="185"/>
+      <c r="NM15" s="185"/>
+      <c r="NN15" s="185"/>
+      <c r="NO15" s="185"/>
+      <c r="NP15" s="185"/>
+      <c r="NQ15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="NR15" s="160"/>
-      <c r="NS15" s="160"/>
-      <c r="NT15" s="160"/>
-      <c r="NU15" s="160"/>
-      <c r="NV15" s="160"/>
-      <c r="NW15" s="160"/>
-      <c r="NX15" s="160"/>
-      <c r="NY15" s="160"/>
-      <c r="NZ15" s="160"/>
-      <c r="OA15" s="160"/>
-      <c r="OB15" s="160"/>
-      <c r="OC15" s="160"/>
-      <c r="OD15" s="160"/>
-      <c r="OE15" s="167"/>
-      <c r="OF15" s="159" t="s">
+      <c r="NR15" s="185"/>
+      <c r="NS15" s="185"/>
+      <c r="NT15" s="185"/>
+      <c r="NU15" s="185"/>
+      <c r="NV15" s="185"/>
+      <c r="NW15" s="185"/>
+      <c r="NX15" s="185"/>
+      <c r="NY15" s="185"/>
+      <c r="NZ15" s="185"/>
+      <c r="OA15" s="185"/>
+      <c r="OB15" s="185"/>
+      <c r="OC15" s="185"/>
+      <c r="OD15" s="185"/>
+      <c r="OE15" s="186"/>
+      <c r="OF15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="OG15" s="160"/>
-      <c r="OH15" s="160"/>
-      <c r="OI15" s="160"/>
-      <c r="OJ15" s="160"/>
-      <c r="OK15" s="160"/>
-      <c r="OL15" s="160"/>
-      <c r="OM15" s="160"/>
-      <c r="ON15" s="160"/>
-      <c r="OO15" s="160"/>
-      <c r="OP15" s="160"/>
-      <c r="OQ15" s="160"/>
-      <c r="OR15" s="160"/>
-      <c r="OS15" s="160"/>
-      <c r="OT15" s="160"/>
-      <c r="OU15" s="160" t="s">
+      <c r="OG15" s="185"/>
+      <c r="OH15" s="185"/>
+      <c r="OI15" s="185"/>
+      <c r="OJ15" s="185"/>
+      <c r="OK15" s="185"/>
+      <c r="OL15" s="185"/>
+      <c r="OM15" s="185"/>
+      <c r="ON15" s="185"/>
+      <c r="OO15" s="185"/>
+      <c r="OP15" s="185"/>
+      <c r="OQ15" s="185"/>
+      <c r="OR15" s="185"/>
+      <c r="OS15" s="185"/>
+      <c r="OT15" s="185"/>
+      <c r="OU15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="OV15" s="160"/>
-      <c r="OW15" s="160"/>
-      <c r="OX15" s="160"/>
-      <c r="OY15" s="160"/>
-      <c r="OZ15" s="160"/>
-      <c r="PA15" s="160"/>
-      <c r="PB15" s="160"/>
-      <c r="PC15" s="160"/>
-      <c r="PD15" s="160"/>
-      <c r="PE15" s="160"/>
-      <c r="PF15" s="160"/>
-      <c r="PG15" s="160"/>
-      <c r="PH15" s="160"/>
-      <c r="PI15" s="161"/>
-      <c r="PJ15" s="162" t="s">
+      <c r="OV15" s="185"/>
+      <c r="OW15" s="185"/>
+      <c r="OX15" s="185"/>
+      <c r="OY15" s="185"/>
+      <c r="OZ15" s="185"/>
+      <c r="PA15" s="185"/>
+      <c r="PB15" s="185"/>
+      <c r="PC15" s="185"/>
+      <c r="PD15" s="185"/>
+      <c r="PE15" s="185"/>
+      <c r="PF15" s="185"/>
+      <c r="PG15" s="185"/>
+      <c r="PH15" s="185"/>
+      <c r="PI15" s="189"/>
+      <c r="PJ15" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="PK15" s="160"/>
-      <c r="PL15" s="160"/>
-      <c r="PM15" s="160"/>
-      <c r="PN15" s="160"/>
-      <c r="PO15" s="160"/>
-      <c r="PP15" s="160"/>
-      <c r="PQ15" s="160"/>
-      <c r="PR15" s="160"/>
-      <c r="PS15" s="160"/>
-      <c r="PT15" s="160"/>
-      <c r="PU15" s="160"/>
-      <c r="PV15" s="160"/>
-      <c r="PW15" s="160"/>
-      <c r="PX15" s="163"/>
-      <c r="PY15" s="160" t="s">
+      <c r="PK15" s="185"/>
+      <c r="PL15" s="185"/>
+      <c r="PM15" s="185"/>
+      <c r="PN15" s="185"/>
+      <c r="PO15" s="185"/>
+      <c r="PP15" s="185"/>
+      <c r="PQ15" s="185"/>
+      <c r="PR15" s="185"/>
+      <c r="PS15" s="185"/>
+      <c r="PT15" s="185"/>
+      <c r="PU15" s="185"/>
+      <c r="PV15" s="185"/>
+      <c r="PW15" s="185"/>
+      <c r="PX15" s="188"/>
+      <c r="PY15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="PZ15" s="160"/>
-      <c r="QA15" s="160"/>
-      <c r="QB15" s="160"/>
-      <c r="QC15" s="160"/>
-      <c r="QD15" s="160"/>
-      <c r="QE15" s="160"/>
-      <c r="QF15" s="160"/>
-      <c r="QG15" s="160"/>
-      <c r="QH15" s="160"/>
-      <c r="QI15" s="160"/>
-      <c r="QJ15" s="160"/>
-      <c r="QK15" s="160"/>
-      <c r="QL15" s="160"/>
-      <c r="QM15" s="167"/>
-      <c r="QN15" s="159" t="s">
+      <c r="PZ15" s="185"/>
+      <c r="QA15" s="185"/>
+      <c r="QB15" s="185"/>
+      <c r="QC15" s="185"/>
+      <c r="QD15" s="185"/>
+      <c r="QE15" s="185"/>
+      <c r="QF15" s="185"/>
+      <c r="QG15" s="185"/>
+      <c r="QH15" s="185"/>
+      <c r="QI15" s="185"/>
+      <c r="QJ15" s="185"/>
+      <c r="QK15" s="185"/>
+      <c r="QL15" s="185"/>
+      <c r="QM15" s="186"/>
+      <c r="QN15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="QO15" s="160"/>
-      <c r="QP15" s="160"/>
-      <c r="QQ15" s="160"/>
-      <c r="QR15" s="160"/>
-      <c r="QS15" s="160"/>
-      <c r="QT15" s="160"/>
-      <c r="QU15" s="160"/>
-      <c r="QV15" s="160"/>
-      <c r="QW15" s="160"/>
-      <c r="QX15" s="160"/>
-      <c r="QY15" s="160"/>
-      <c r="QZ15" s="160"/>
-      <c r="RA15" s="160"/>
-      <c r="RB15" s="160"/>
-      <c r="RC15" s="160" t="s">
+      <c r="QO15" s="185"/>
+      <c r="QP15" s="185"/>
+      <c r="QQ15" s="185"/>
+      <c r="QR15" s="185"/>
+      <c r="QS15" s="185"/>
+      <c r="QT15" s="185"/>
+      <c r="QU15" s="185"/>
+      <c r="QV15" s="185"/>
+      <c r="QW15" s="185"/>
+      <c r="QX15" s="185"/>
+      <c r="QY15" s="185"/>
+      <c r="QZ15" s="185"/>
+      <c r="RA15" s="185"/>
+      <c r="RB15" s="185"/>
+      <c r="RC15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="RD15" s="160"/>
-      <c r="RE15" s="160"/>
-      <c r="RF15" s="160"/>
-      <c r="RG15" s="160"/>
-      <c r="RH15" s="160"/>
-      <c r="RI15" s="160"/>
-      <c r="RJ15" s="160"/>
-      <c r="RK15" s="160"/>
-      <c r="RL15" s="160"/>
-      <c r="RM15" s="160"/>
-      <c r="RN15" s="160"/>
-      <c r="RO15" s="160"/>
-      <c r="RP15" s="160"/>
-      <c r="RQ15" s="167"/>
-      <c r="RR15" s="159" t="s">
+      <c r="RD15" s="185"/>
+      <c r="RE15" s="185"/>
+      <c r="RF15" s="185"/>
+      <c r="RG15" s="185"/>
+      <c r="RH15" s="185"/>
+      <c r="RI15" s="185"/>
+      <c r="RJ15" s="185"/>
+      <c r="RK15" s="185"/>
+      <c r="RL15" s="185"/>
+      <c r="RM15" s="185"/>
+      <c r="RN15" s="185"/>
+      <c r="RO15" s="185"/>
+      <c r="RP15" s="185"/>
+      <c r="RQ15" s="186"/>
+      <c r="RR15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="RS15" s="160"/>
-      <c r="RT15" s="160"/>
-      <c r="RU15" s="160"/>
-      <c r="RV15" s="160"/>
-      <c r="RW15" s="160"/>
-      <c r="RX15" s="160"/>
-      <c r="RY15" s="160"/>
-      <c r="RZ15" s="160"/>
-      <c r="SA15" s="160"/>
-      <c r="SB15" s="160"/>
-      <c r="SC15" s="160"/>
-      <c r="SD15" s="160"/>
-      <c r="SE15" s="160"/>
-      <c r="SF15" s="160"/>
-      <c r="SG15" s="160" t="s">
+      <c r="RS15" s="185"/>
+      <c r="RT15" s="185"/>
+      <c r="RU15" s="185"/>
+      <c r="RV15" s="185"/>
+      <c r="RW15" s="185"/>
+      <c r="RX15" s="185"/>
+      <c r="RY15" s="185"/>
+      <c r="RZ15" s="185"/>
+      <c r="SA15" s="185"/>
+      <c r="SB15" s="185"/>
+      <c r="SC15" s="185"/>
+      <c r="SD15" s="185"/>
+      <c r="SE15" s="185"/>
+      <c r="SF15" s="185"/>
+      <c r="SG15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="SH15" s="160"/>
-      <c r="SI15" s="160"/>
-      <c r="SJ15" s="160"/>
-      <c r="SK15" s="160"/>
-      <c r="SL15" s="160"/>
-      <c r="SM15" s="160"/>
-      <c r="SN15" s="160"/>
-      <c r="SO15" s="160"/>
-      <c r="SP15" s="160"/>
-      <c r="SQ15" s="160"/>
-      <c r="SR15" s="160"/>
-      <c r="SS15" s="160"/>
-      <c r="ST15" s="160"/>
-      <c r="SU15" s="167"/>
-      <c r="SV15" s="159" t="s">
+      <c r="SH15" s="185"/>
+      <c r="SI15" s="185"/>
+      <c r="SJ15" s="185"/>
+      <c r="SK15" s="185"/>
+      <c r="SL15" s="185"/>
+      <c r="SM15" s="185"/>
+      <c r="SN15" s="185"/>
+      <c r="SO15" s="185"/>
+      <c r="SP15" s="185"/>
+      <c r="SQ15" s="185"/>
+      <c r="SR15" s="185"/>
+      <c r="SS15" s="185"/>
+      <c r="ST15" s="185"/>
+      <c r="SU15" s="186"/>
+      <c r="SV15" s="187" t="s">
         <v>24</v>
       </c>
-      <c r="SW15" s="160"/>
-      <c r="SX15" s="160"/>
-      <c r="SY15" s="160"/>
-      <c r="SZ15" s="160"/>
-      <c r="TA15" s="160"/>
-      <c r="TB15" s="160"/>
-      <c r="TC15" s="160"/>
-      <c r="TD15" s="160"/>
-      <c r="TE15" s="160"/>
-      <c r="TF15" s="160"/>
-      <c r="TG15" s="160"/>
-      <c r="TH15" s="160"/>
-      <c r="TI15" s="160"/>
-      <c r="TJ15" s="160"/>
-      <c r="TK15" s="160" t="s">
+      <c r="SW15" s="185"/>
+      <c r="SX15" s="185"/>
+      <c r="SY15" s="185"/>
+      <c r="SZ15" s="185"/>
+      <c r="TA15" s="185"/>
+      <c r="TB15" s="185"/>
+      <c r="TC15" s="185"/>
+      <c r="TD15" s="185"/>
+      <c r="TE15" s="185"/>
+      <c r="TF15" s="185"/>
+      <c r="TG15" s="185"/>
+      <c r="TH15" s="185"/>
+      <c r="TI15" s="185"/>
+      <c r="TJ15" s="185"/>
+      <c r="TK15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="TL15" s="160"/>
-      <c r="TM15" s="160"/>
-      <c r="TN15" s="160"/>
-      <c r="TO15" s="160"/>
-      <c r="TP15" s="160"/>
-      <c r="TQ15" s="160"/>
-      <c r="TR15" s="160"/>
-      <c r="TS15" s="160"/>
-      <c r="TT15" s="160"/>
-      <c r="TU15" s="160"/>
-      <c r="TV15" s="160"/>
-      <c r="TW15" s="160"/>
-      <c r="TX15" s="160"/>
-      <c r="TY15" s="161"/>
-      <c r="TZ15" s="162" t="s">
+      <c r="TL15" s="185"/>
+      <c r="TM15" s="185"/>
+      <c r="TN15" s="185"/>
+      <c r="TO15" s="185"/>
+      <c r="TP15" s="185"/>
+      <c r="TQ15" s="185"/>
+      <c r="TR15" s="185"/>
+      <c r="TS15" s="185"/>
+      <c r="TT15" s="185"/>
+      <c r="TU15" s="185"/>
+      <c r="TV15" s="185"/>
+      <c r="TW15" s="185"/>
+      <c r="TX15" s="185"/>
+      <c r="TY15" s="189"/>
+      <c r="TZ15" s="184" t="s">
         <v>24</v>
       </c>
-      <c r="UA15" s="160"/>
-      <c r="UB15" s="160"/>
-      <c r="UC15" s="160"/>
-      <c r="UD15" s="160"/>
-      <c r="UE15" s="160"/>
-      <c r="UF15" s="160"/>
-      <c r="UG15" s="160"/>
-      <c r="UH15" s="160"/>
-      <c r="UI15" s="160"/>
-      <c r="UJ15" s="160"/>
-      <c r="UK15" s="160"/>
-      <c r="UL15" s="160"/>
-      <c r="UM15" s="160"/>
-      <c r="UN15" s="163"/>
-      <c r="UO15" s="160" t="s">
+      <c r="UA15" s="185"/>
+      <c r="UB15" s="185"/>
+      <c r="UC15" s="185"/>
+      <c r="UD15" s="185"/>
+      <c r="UE15" s="185"/>
+      <c r="UF15" s="185"/>
+      <c r="UG15" s="185"/>
+      <c r="UH15" s="185"/>
+      <c r="UI15" s="185"/>
+      <c r="UJ15" s="185"/>
+      <c r="UK15" s="185"/>
+      <c r="UL15" s="185"/>
+      <c r="UM15" s="185"/>
+      <c r="UN15" s="188"/>
+      <c r="UO15" s="185" t="s">
         <v>25</v>
       </c>
-      <c r="UP15" s="160"/>
-      <c r="UQ15" s="160"/>
-      <c r="UR15" s="160"/>
-      <c r="US15" s="160"/>
-      <c r="UT15" s="160"/>
-      <c r="UU15" s="160"/>
-      <c r="UV15" s="160"/>
-      <c r="UW15" s="160"/>
-      <c r="UX15" s="160"/>
-      <c r="UY15" s="160"/>
-      <c r="UZ15" s="160"/>
-      <c r="VA15" s="160"/>
-      <c r="VB15" s="160"/>
-      <c r="VC15" s="161"/>
+      <c r="UP15" s="185"/>
+      <c r="UQ15" s="185"/>
+      <c r="UR15" s="185"/>
+      <c r="US15" s="185"/>
+      <c r="UT15" s="185"/>
+      <c r="UU15" s="185"/>
+      <c r="UV15" s="185"/>
+      <c r="UW15" s="185"/>
+      <c r="UX15" s="185"/>
+      <c r="UY15" s="185"/>
+      <c r="UZ15" s="185"/>
+      <c r="VA15" s="185"/>
+      <c r="VB15" s="185"/>
+      <c r="VC15" s="189"/>
     </row>
     <row r="16" spans="1:575" s="3" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -11409,40 +11435,40 @@
       <c r="TW16" s="15"/>
       <c r="TX16" s="15"/>
       <c r="TY16" s="14"/>
-      <c r="TZ16" s="164"/>
-      <c r="UA16" s="165"/>
-      <c r="UB16" s="165"/>
-      <c r="UC16" s="165"/>
-      <c r="UD16" s="165"/>
-      <c r="UE16" s="165"/>
-      <c r="UF16" s="165"/>
-      <c r="UG16" s="165"/>
-      <c r="UH16" s="165"/>
-      <c r="UI16" s="165"/>
-      <c r="UJ16" s="165"/>
-      <c r="UK16" s="165"/>
-      <c r="UL16" s="165"/>
-      <c r="UM16" s="165"/>
-      <c r="UN16" s="165"/>
-      <c r="UO16" s="165"/>
-      <c r="UP16" s="165"/>
-      <c r="UQ16" s="165"/>
-      <c r="UR16" s="165"/>
-      <c r="US16" s="165"/>
-      <c r="UT16" s="165"/>
-      <c r="UU16" s="165"/>
-      <c r="UV16" s="165"/>
-      <c r="UW16" s="165"/>
-      <c r="UX16" s="165"/>
-      <c r="UY16" s="165"/>
-      <c r="UZ16" s="165"/>
-      <c r="VA16" s="165"/>
-      <c r="VB16" s="165"/>
-      <c r="VC16" s="166"/>
+      <c r="TZ16" s="201"/>
+      <c r="UA16" s="202"/>
+      <c r="UB16" s="202"/>
+      <c r="UC16" s="202"/>
+      <c r="UD16" s="202"/>
+      <c r="UE16" s="202"/>
+      <c r="UF16" s="202"/>
+      <c r="UG16" s="202"/>
+      <c r="UH16" s="202"/>
+      <c r="UI16" s="202"/>
+      <c r="UJ16" s="202"/>
+      <c r="UK16" s="202"/>
+      <c r="UL16" s="202"/>
+      <c r="UM16" s="202"/>
+      <c r="UN16" s="202"/>
+      <c r="UO16" s="202"/>
+      <c r="UP16" s="202"/>
+      <c r="UQ16" s="202"/>
+      <c r="UR16" s="202"/>
+      <c r="US16" s="202"/>
+      <c r="UT16" s="202"/>
+      <c r="UU16" s="202"/>
+      <c r="UV16" s="202"/>
+      <c r="UW16" s="202"/>
+      <c r="UX16" s="202"/>
+      <c r="UY16" s="202"/>
+      <c r="UZ16" s="202"/>
+      <c r="VA16" s="202"/>
+      <c r="VB16" s="202"/>
+      <c r="VC16" s="203"/>
     </row>
     <row r="17" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="192" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -11748,7 +11774,7 @@
       <c r="KO17" s="18"/>
       <c r="KP17" s="18"/>
       <c r="KQ17" s="24"/>
-      <c r="KR17" s="142" t="s">
+      <c r="KR17" s="192" t="s">
         <v>27</v>
       </c>
       <c r="KS17" s="122" t="s">
@@ -12027,7 +12053,7 @@
     </row>
     <row r="18" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="131"/>
+      <c r="B18" s="191"/>
       <c r="C18" s="64" t="s">
         <v>29</v>
       </c>
@@ -12049,12 +12075,12 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
       <c r="U18" s="30"/>
-      <c r="V18" s="252"/>
-      <c r="W18" s="252"/>
-      <c r="X18" s="252"/>
-      <c r="Y18" s="252"/>
-      <c r="Z18" s="252"/>
-      <c r="AA18" s="252"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
       <c r="AB18" s="30"/>
       <c r="AC18" s="30"/>
       <c r="AD18" s="30"/>
@@ -12331,7 +12357,7 @@
       <c r="KO18" s="27"/>
       <c r="KP18" s="27"/>
       <c r="KQ18" s="34"/>
-      <c r="KR18" s="131"/>
+      <c r="KR18" s="191"/>
       <c r="KS18" s="123" t="s">
         <v>29</v>
       </c>
@@ -12608,7 +12634,7 @@
     </row>
     <row r="19" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="190" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="65" t="s">
@@ -12914,7 +12940,7 @@
       <c r="KO19" s="37"/>
       <c r="KP19" s="37"/>
       <c r="KQ19" s="44"/>
-      <c r="KR19" s="132" t="s">
+      <c r="KR19" s="190" t="s">
         <v>30</v>
       </c>
       <c r="KS19" s="124" t="s">
@@ -13193,7 +13219,7 @@
     </row>
     <row r="20" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="131"/>
+      <c r="B20" s="191"/>
       <c r="C20" s="64" t="s">
         <v>29</v>
       </c>
@@ -13497,7 +13523,7 @@
       <c r="KO20" s="27"/>
       <c r="KP20" s="27"/>
       <c r="KQ20" s="34"/>
-      <c r="KR20" s="131"/>
+      <c r="KR20" s="191"/>
       <c r="KS20" s="123" t="s">
         <v>29</v>
       </c>
@@ -13774,7 +13800,7 @@
     </row>
     <row r="21" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="190" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="65" t="s">
@@ -14080,7 +14106,7 @@
       <c r="KO21" s="37"/>
       <c r="KP21" s="37"/>
       <c r="KQ21" s="44"/>
-      <c r="KR21" s="132" t="s">
+      <c r="KR21" s="190" t="s">
         <v>35</v>
       </c>
       <c r="KS21" s="124" t="s">
@@ -14359,7 +14385,7 @@
     </row>
     <row r="22" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="131"/>
+      <c r="B22" s="191"/>
       <c r="C22" s="64" t="s">
         <v>29</v>
       </c>
@@ -14378,9 +14404,9 @@
       <c r="P22" s="27"/>
       <c r="Q22" s="27"/>
       <c r="R22" s="28"/>
-      <c r="S22" s="251"/>
-      <c r="T22" s="252"/>
-      <c r="U22" s="252"/>
+      <c r="S22" s="134"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
       <c r="V22" s="30"/>
       <c r="W22" s="30"/>
       <c r="X22" s="30"/>
@@ -14663,7 +14689,7 @@
       <c r="KO22" s="27"/>
       <c r="KP22" s="27"/>
       <c r="KQ22" s="34"/>
-      <c r="KR22" s="131"/>
+      <c r="KR22" s="191"/>
       <c r="KS22" s="123" t="s">
         <v>29</v>
       </c>
@@ -14940,7 +14966,7 @@
     </row>
     <row r="23" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="142" t="s">
+      <c r="B23" s="192" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -15246,7 +15272,7 @@
       <c r="KO23" s="18"/>
       <c r="KP23" s="18"/>
       <c r="KQ23" s="24"/>
-      <c r="KR23" s="142" t="s">
+      <c r="KR23" s="192" t="s">
         <v>31</v>
       </c>
       <c r="KS23" s="122" t="s">
@@ -15525,7 +15551,7 @@
     </row>
     <row r="24" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="143"/>
+      <c r="B24" s="193"/>
       <c r="C24" s="66" t="s">
         <v>29</v>
       </c>
@@ -15829,7 +15855,7 @@
       <c r="KO24" s="18"/>
       <c r="KP24" s="18"/>
       <c r="KQ24" s="24"/>
-      <c r="KR24" s="143"/>
+      <c r="KR24" s="193"/>
       <c r="KS24" s="125" t="s">
         <v>29</v>
       </c>
@@ -16654,36 +16680,36 @@
       <c r="TW25" s="60"/>
       <c r="TX25" s="60"/>
       <c r="TY25" s="72"/>
-      <c r="TZ25" s="153"/>
-      <c r="UA25" s="154"/>
-      <c r="UB25" s="154"/>
-      <c r="UC25" s="154"/>
-      <c r="UD25" s="154"/>
-      <c r="UE25" s="154"/>
-      <c r="UF25" s="154"/>
-      <c r="UG25" s="154"/>
-      <c r="UH25" s="154"/>
-      <c r="UI25" s="154"/>
-      <c r="UJ25" s="154"/>
-      <c r="UK25" s="154"/>
-      <c r="UL25" s="154"/>
-      <c r="UM25" s="154"/>
-      <c r="UN25" s="154"/>
-      <c r="UO25" s="154"/>
-      <c r="UP25" s="154"/>
-      <c r="UQ25" s="154"/>
-      <c r="UR25" s="154"/>
-      <c r="US25" s="154"/>
-      <c r="UT25" s="154"/>
-      <c r="UU25" s="154"/>
-      <c r="UV25" s="154"/>
-      <c r="UW25" s="154"/>
-      <c r="UX25" s="154"/>
-      <c r="UY25" s="154"/>
-      <c r="UZ25" s="154"/>
-      <c r="VA25" s="154"/>
-      <c r="VB25" s="154"/>
-      <c r="VC25" s="155"/>
+      <c r="TZ25" s="194"/>
+      <c r="UA25" s="195"/>
+      <c r="UB25" s="195"/>
+      <c r="UC25" s="195"/>
+      <c r="UD25" s="195"/>
+      <c r="UE25" s="195"/>
+      <c r="UF25" s="195"/>
+      <c r="UG25" s="195"/>
+      <c r="UH25" s="195"/>
+      <c r="UI25" s="195"/>
+      <c r="UJ25" s="195"/>
+      <c r="UK25" s="195"/>
+      <c r="UL25" s="195"/>
+      <c r="UM25" s="195"/>
+      <c r="UN25" s="195"/>
+      <c r="UO25" s="195"/>
+      <c r="UP25" s="195"/>
+      <c r="UQ25" s="195"/>
+      <c r="UR25" s="195"/>
+      <c r="US25" s="195"/>
+      <c r="UT25" s="195"/>
+      <c r="UU25" s="195"/>
+      <c r="UV25" s="195"/>
+      <c r="UW25" s="195"/>
+      <c r="UX25" s="195"/>
+      <c r="UY25" s="195"/>
+      <c r="UZ25" s="195"/>
+      <c r="VA25" s="195"/>
+      <c r="VB25" s="195"/>
+      <c r="VC25" s="196"/>
     </row>
     <row r="26" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
@@ -17816,40 +17842,40 @@
       <c r="TW27" s="62"/>
       <c r="TX27" s="62"/>
       <c r="TY27" s="76"/>
-      <c r="TZ27" s="156"/>
-      <c r="UA27" s="157"/>
-      <c r="UB27" s="157"/>
-      <c r="UC27" s="157"/>
-      <c r="UD27" s="157"/>
-      <c r="UE27" s="157"/>
-      <c r="UF27" s="157"/>
-      <c r="UG27" s="157"/>
-      <c r="UH27" s="157"/>
-      <c r="UI27" s="157"/>
-      <c r="UJ27" s="157"/>
-      <c r="UK27" s="157"/>
-      <c r="UL27" s="157"/>
-      <c r="UM27" s="157"/>
-      <c r="UN27" s="157"/>
-      <c r="UO27" s="157"/>
-      <c r="UP27" s="157"/>
-      <c r="UQ27" s="157"/>
-      <c r="UR27" s="157"/>
-      <c r="US27" s="157"/>
-      <c r="UT27" s="157"/>
-      <c r="UU27" s="157"/>
-      <c r="UV27" s="157"/>
-      <c r="UW27" s="157"/>
-      <c r="UX27" s="157"/>
-      <c r="UY27" s="157"/>
-      <c r="UZ27" s="157"/>
-      <c r="VA27" s="157"/>
-      <c r="VB27" s="157"/>
-      <c r="VC27" s="158"/>
+      <c r="TZ27" s="197"/>
+      <c r="UA27" s="198"/>
+      <c r="UB27" s="198"/>
+      <c r="UC27" s="198"/>
+      <c r="UD27" s="198"/>
+      <c r="UE27" s="198"/>
+      <c r="UF27" s="198"/>
+      <c r="UG27" s="198"/>
+      <c r="UH27" s="198"/>
+      <c r="UI27" s="198"/>
+      <c r="UJ27" s="198"/>
+      <c r="UK27" s="198"/>
+      <c r="UL27" s="198"/>
+      <c r="UM27" s="198"/>
+      <c r="UN27" s="198"/>
+      <c r="UO27" s="198"/>
+      <c r="UP27" s="198"/>
+      <c r="UQ27" s="198"/>
+      <c r="UR27" s="198"/>
+      <c r="US27" s="198"/>
+      <c r="UT27" s="198"/>
+      <c r="UU27" s="198"/>
+      <c r="UV27" s="198"/>
+      <c r="UW27" s="198"/>
+      <c r="UX27" s="198"/>
+      <c r="UY27" s="198"/>
+      <c r="UZ27" s="198"/>
+      <c r="VA27" s="198"/>
+      <c r="VB27" s="198"/>
+      <c r="VC27" s="199"/>
     </row>
     <row r="28" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="200" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -18155,7 +18181,7 @@
       <c r="KO28" s="18"/>
       <c r="KP28" s="18"/>
       <c r="KQ28" s="24"/>
-      <c r="KR28" s="130" t="s">
+      <c r="KR28" s="200" t="s">
         <v>34</v>
       </c>
       <c r="KS28" s="128" t="s">
@@ -18434,7 +18460,7 @@
     </row>
     <row r="29" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="131"/>
+      <c r="B29" s="191"/>
       <c r="C29" s="64" t="s">
         <v>29</v>
       </c>
@@ -18462,15 +18488,15 @@
       <c r="Y29" s="30"/>
       <c r="Z29" s="30"/>
       <c r="AA29" s="30"/>
-      <c r="AB29" s="252"/>
-      <c r="AC29" s="252"/>
-      <c r="AD29" s="252"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
       <c r="AE29" s="27"/>
       <c r="AF29" s="27"/>
       <c r="AG29" s="31"/>
-      <c r="AH29" s="253"/>
-      <c r="AI29" s="252"/>
-      <c r="AJ29" s="252"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="135"/>
+      <c r="AJ29" s="135"/>
       <c r="AK29" s="30"/>
       <c r="AL29" s="30"/>
       <c r="AM29" s="30"/>
@@ -18738,7 +18764,7 @@
       <c r="KO29" s="27"/>
       <c r="KP29" s="27"/>
       <c r="KQ29" s="34"/>
-      <c r="KR29" s="131"/>
+      <c r="KR29" s="191"/>
       <c r="KS29" s="123" t="s">
         <v>29</v>
       </c>
@@ -19563,36 +19589,36 @@
       <c r="TW30" s="60"/>
       <c r="TX30" s="60"/>
       <c r="TY30" s="72"/>
-      <c r="TZ30" s="153"/>
-      <c r="UA30" s="154"/>
-      <c r="UB30" s="154"/>
-      <c r="UC30" s="154"/>
-      <c r="UD30" s="154"/>
-      <c r="UE30" s="154"/>
-      <c r="UF30" s="154"/>
-      <c r="UG30" s="154"/>
-      <c r="UH30" s="154"/>
-      <c r="UI30" s="154"/>
-      <c r="UJ30" s="154"/>
-      <c r="UK30" s="154"/>
-      <c r="UL30" s="154"/>
-      <c r="UM30" s="154"/>
-      <c r="UN30" s="154"/>
-      <c r="UO30" s="154"/>
-      <c r="UP30" s="154"/>
-      <c r="UQ30" s="154"/>
-      <c r="UR30" s="154"/>
-      <c r="US30" s="154"/>
-      <c r="UT30" s="154"/>
-      <c r="UU30" s="154"/>
-      <c r="UV30" s="154"/>
-      <c r="UW30" s="154"/>
-      <c r="UX30" s="154"/>
-      <c r="UY30" s="154"/>
-      <c r="UZ30" s="154"/>
-      <c r="VA30" s="154"/>
-      <c r="VB30" s="154"/>
-      <c r="VC30" s="155"/>
+      <c r="TZ30" s="194"/>
+      <c r="UA30" s="195"/>
+      <c r="UB30" s="195"/>
+      <c r="UC30" s="195"/>
+      <c r="UD30" s="195"/>
+      <c r="UE30" s="195"/>
+      <c r="UF30" s="195"/>
+      <c r="UG30" s="195"/>
+      <c r="UH30" s="195"/>
+      <c r="UI30" s="195"/>
+      <c r="UJ30" s="195"/>
+      <c r="UK30" s="195"/>
+      <c r="UL30" s="195"/>
+      <c r="UM30" s="195"/>
+      <c r="UN30" s="195"/>
+      <c r="UO30" s="195"/>
+      <c r="UP30" s="195"/>
+      <c r="UQ30" s="195"/>
+      <c r="UR30" s="195"/>
+      <c r="US30" s="195"/>
+      <c r="UT30" s="195"/>
+      <c r="UU30" s="195"/>
+      <c r="UV30" s="195"/>
+      <c r="UW30" s="195"/>
+      <c r="UX30" s="195"/>
+      <c r="UY30" s="195"/>
+      <c r="UZ30" s="195"/>
+      <c r="VA30" s="195"/>
+      <c r="VB30" s="195"/>
+      <c r="VC30" s="196"/>
     </row>
     <row r="31" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
@@ -20725,40 +20751,40 @@
       <c r="TW32" s="61"/>
       <c r="TX32" s="61"/>
       <c r="TY32" s="78"/>
-      <c r="TZ32" s="144"/>
-      <c r="UA32" s="145"/>
-      <c r="UB32" s="145"/>
-      <c r="UC32" s="145"/>
-      <c r="UD32" s="145"/>
-      <c r="UE32" s="145"/>
-      <c r="UF32" s="145"/>
-      <c r="UG32" s="145"/>
-      <c r="UH32" s="145"/>
-      <c r="UI32" s="145"/>
-      <c r="UJ32" s="145"/>
-      <c r="UK32" s="145"/>
-      <c r="UL32" s="145"/>
-      <c r="UM32" s="145"/>
-      <c r="UN32" s="145"/>
-      <c r="UO32" s="145"/>
-      <c r="UP32" s="145"/>
-      <c r="UQ32" s="145"/>
-      <c r="UR32" s="145"/>
-      <c r="US32" s="145"/>
-      <c r="UT32" s="145"/>
-      <c r="UU32" s="145"/>
-      <c r="UV32" s="145"/>
-      <c r="UW32" s="145"/>
-      <c r="UX32" s="145"/>
-      <c r="UY32" s="145"/>
-      <c r="UZ32" s="145"/>
-      <c r="VA32" s="145"/>
-      <c r="VB32" s="145"/>
-      <c r="VC32" s="146"/>
+      <c r="TZ32" s="204"/>
+      <c r="UA32" s="205"/>
+      <c r="UB32" s="205"/>
+      <c r="UC32" s="205"/>
+      <c r="UD32" s="205"/>
+      <c r="UE32" s="205"/>
+      <c r="UF32" s="205"/>
+      <c r="UG32" s="205"/>
+      <c r="UH32" s="205"/>
+      <c r="UI32" s="205"/>
+      <c r="UJ32" s="205"/>
+      <c r="UK32" s="205"/>
+      <c r="UL32" s="205"/>
+      <c r="UM32" s="205"/>
+      <c r="UN32" s="205"/>
+      <c r="UO32" s="205"/>
+      <c r="UP32" s="205"/>
+      <c r="UQ32" s="205"/>
+      <c r="UR32" s="205"/>
+      <c r="US32" s="205"/>
+      <c r="UT32" s="205"/>
+      <c r="UU32" s="205"/>
+      <c r="UV32" s="205"/>
+      <c r="UW32" s="205"/>
+      <c r="UX32" s="205"/>
+      <c r="UY32" s="205"/>
+      <c r="UZ32" s="205"/>
+      <c r="VA32" s="205"/>
+      <c r="VB32" s="205"/>
+      <c r="VC32" s="206"/>
     </row>
     <row r="33" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="190" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="65" t="s">
@@ -21064,7 +21090,7 @@
       <c r="KO33" s="37"/>
       <c r="KP33" s="37"/>
       <c r="KQ33" s="44"/>
-      <c r="KR33" s="132" t="s">
+      <c r="KR33" s="190" t="s">
         <v>63</v>
       </c>
       <c r="KS33" s="124" t="s">
@@ -21343,7 +21369,7 @@
     </row>
     <row r="34" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="131"/>
+      <c r="B34" s="191"/>
       <c r="C34" s="64" t="s">
         <v>29</v>
       </c>
@@ -21400,7 +21426,7 @@
       <c r="BB34" s="30"/>
       <c r="BC34" s="30"/>
       <c r="BD34" s="30"/>
-      <c r="BE34" s="252"/>
+      <c r="BE34" s="135"/>
       <c r="BF34" s="30"/>
       <c r="BG34" s="30"/>
       <c r="BH34" s="30"/>
@@ -21647,7 +21673,7 @@
       <c r="KO34" s="27"/>
       <c r="KP34" s="27"/>
       <c r="KQ34" s="34"/>
-      <c r="KR34" s="131"/>
+      <c r="KR34" s="191"/>
       <c r="KS34" s="123" t="s">
         <v>29</v>
       </c>
@@ -21924,7 +21950,7 @@
     </row>
     <row r="35" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="190" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -22230,7 +22256,7 @@
       <c r="KO35" s="37"/>
       <c r="KP35" s="37"/>
       <c r="KQ35" s="44"/>
-      <c r="KR35" s="132" t="s">
+      <c r="KR35" s="190" t="s">
         <v>71</v>
       </c>
       <c r="KS35" s="124" t="s">
@@ -22509,7 +22535,7 @@
     </row>
     <row r="36" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="131"/>
+      <c r="B36" s="191"/>
       <c r="C36" s="64" t="s">
         <v>29</v>
       </c>
@@ -22546,26 +22572,26 @@
       <c r="AH36" s="32"/>
       <c r="AI36" s="30"/>
       <c r="AJ36" s="30"/>
-      <c r="AK36" s="252"/>
-      <c r="AL36" s="252"/>
-      <c r="AM36" s="252"/>
-      <c r="AN36" s="252"/>
-      <c r="AO36" s="252"/>
-      <c r="AP36" s="252"/>
-      <c r="AQ36" s="252"/>
-      <c r="AR36" s="252"/>
-      <c r="AS36" s="252"/>
-      <c r="AT36" s="252"/>
-      <c r="AU36" s="252"/>
-      <c r="AV36" s="254"/>
-      <c r="AW36" s="251"/>
-      <c r="AX36" s="252"/>
-      <c r="AY36" s="252"/>
-      <c r="AZ36" s="252"/>
-      <c r="BA36" s="252"/>
-      <c r="BB36" s="252"/>
-      <c r="BC36" s="252"/>
-      <c r="BD36" s="252"/>
+      <c r="AK36" s="135"/>
+      <c r="AL36" s="135"/>
+      <c r="AM36" s="135"/>
+      <c r="AN36" s="135"/>
+      <c r="AO36" s="135"/>
+      <c r="AP36" s="135"/>
+      <c r="AQ36" s="135"/>
+      <c r="AR36" s="135"/>
+      <c r="AS36" s="135"/>
+      <c r="AT36" s="135"/>
+      <c r="AU36" s="135"/>
+      <c r="AV36" s="137"/>
+      <c r="AW36" s="134"/>
+      <c r="AX36" s="135"/>
+      <c r="AY36" s="135"/>
+      <c r="AZ36" s="135"/>
+      <c r="BA36" s="135"/>
+      <c r="BB36" s="135"/>
+      <c r="BC36" s="135"/>
+      <c r="BD36" s="135"/>
       <c r="BE36" s="30"/>
       <c r="BF36" s="30"/>
       <c r="BG36" s="30"/>
@@ -22813,7 +22839,7 @@
       <c r="KO36" s="27"/>
       <c r="KP36" s="27"/>
       <c r="KQ36" s="34"/>
-      <c r="KR36" s="131"/>
+      <c r="KR36" s="191"/>
       <c r="KS36" s="123" t="s">
         <v>29</v>
       </c>
@@ -23090,7 +23116,7 @@
     </row>
     <row r="37" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="132" t="s">
+      <c r="B37" s="190" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="65" t="s">
@@ -23396,7 +23422,7 @@
       <c r="KO37" s="37"/>
       <c r="KP37" s="37"/>
       <c r="KQ37" s="44"/>
-      <c r="KR37" s="132" t="s">
+      <c r="KR37" s="190" t="s">
         <v>72</v>
       </c>
       <c r="KS37" s="124" t="s">
@@ -23675,7 +23701,7 @@
     </row>
     <row r="38" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="131"/>
+      <c r="B38" s="191"/>
       <c r="C38" s="64" t="s">
         <v>29</v>
       </c>
@@ -23733,8 +23759,8 @@
       <c r="BC38" s="30"/>
       <c r="BD38" s="30"/>
       <c r="BE38" s="30"/>
-      <c r="BF38" s="252"/>
-      <c r="BG38" s="252"/>
+      <c r="BF38" s="135"/>
+      <c r="BG38" s="135"/>
       <c r="BH38" s="30"/>
       <c r="BI38" s="27"/>
       <c r="BJ38" s="27"/>
@@ -23979,7 +24005,7 @@
       <c r="KO38" s="27"/>
       <c r="KP38" s="27"/>
       <c r="KQ38" s="34"/>
-      <c r="KR38" s="131"/>
+      <c r="KR38" s="191"/>
       <c r="KS38" s="123" t="s">
         <v>29</v>
       </c>
@@ -24256,7 +24282,7 @@
     </row>
     <row r="39" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="133" t="s">
+      <c r="B39" s="207" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="65" t="s">
@@ -24562,7 +24588,7 @@
       <c r="KO39" s="18"/>
       <c r="KP39" s="18"/>
       <c r="KQ39" s="24"/>
-      <c r="KR39" s="133" t="s">
+      <c r="KR39" s="207" t="s">
         <v>66</v>
       </c>
       <c r="KS39" s="124" t="s">
@@ -24841,7 +24867,7 @@
     </row>
     <row r="40" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="134"/>
+      <c r="B40" s="208"/>
       <c r="C40" s="66" t="s">
         <v>29</v>
       </c>
@@ -25145,7 +25171,7 @@
       <c r="KO40" s="18"/>
       <c r="KP40" s="18"/>
       <c r="KQ40" s="24"/>
-      <c r="KR40" s="134"/>
+      <c r="KR40" s="208"/>
       <c r="KS40" s="125" t="s">
         <v>29</v>
       </c>
@@ -25970,36 +25996,36 @@
       <c r="TW41" s="60"/>
       <c r="TX41" s="60"/>
       <c r="TY41" s="72"/>
-      <c r="TZ41" s="153"/>
-      <c r="UA41" s="154"/>
-      <c r="UB41" s="154"/>
-      <c r="UC41" s="154"/>
-      <c r="UD41" s="154"/>
-      <c r="UE41" s="154"/>
-      <c r="UF41" s="154"/>
-      <c r="UG41" s="154"/>
-      <c r="UH41" s="154"/>
-      <c r="UI41" s="154"/>
-      <c r="UJ41" s="154"/>
-      <c r="UK41" s="154"/>
-      <c r="UL41" s="154"/>
-      <c r="UM41" s="154"/>
-      <c r="UN41" s="154"/>
-      <c r="UO41" s="154"/>
-      <c r="UP41" s="154"/>
-      <c r="UQ41" s="154"/>
-      <c r="UR41" s="154"/>
-      <c r="US41" s="154"/>
-      <c r="UT41" s="154"/>
-      <c r="UU41" s="154"/>
-      <c r="UV41" s="154"/>
-      <c r="UW41" s="154"/>
-      <c r="UX41" s="154"/>
-      <c r="UY41" s="154"/>
-      <c r="UZ41" s="154"/>
-      <c r="VA41" s="154"/>
-      <c r="VB41" s="154"/>
-      <c r="VC41" s="155"/>
+      <c r="TZ41" s="194"/>
+      <c r="UA41" s="195"/>
+      <c r="UB41" s="195"/>
+      <c r="UC41" s="195"/>
+      <c r="UD41" s="195"/>
+      <c r="UE41" s="195"/>
+      <c r="UF41" s="195"/>
+      <c r="UG41" s="195"/>
+      <c r="UH41" s="195"/>
+      <c r="UI41" s="195"/>
+      <c r="UJ41" s="195"/>
+      <c r="UK41" s="195"/>
+      <c r="UL41" s="195"/>
+      <c r="UM41" s="195"/>
+      <c r="UN41" s="195"/>
+      <c r="UO41" s="195"/>
+      <c r="UP41" s="195"/>
+      <c r="UQ41" s="195"/>
+      <c r="UR41" s="195"/>
+      <c r="US41" s="195"/>
+      <c r="UT41" s="195"/>
+      <c r="UU41" s="195"/>
+      <c r="UV41" s="195"/>
+      <c r="UW41" s="195"/>
+      <c r="UX41" s="195"/>
+      <c r="UY41" s="195"/>
+      <c r="UZ41" s="195"/>
+      <c r="VA41" s="195"/>
+      <c r="VB41" s="195"/>
+      <c r="VC41" s="196"/>
     </row>
     <row r="42" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
@@ -27132,40 +27158,40 @@
       <c r="TW43" s="61"/>
       <c r="TX43" s="61"/>
       <c r="TY43" s="78"/>
-      <c r="TZ43" s="144"/>
-      <c r="UA43" s="145"/>
-      <c r="UB43" s="145"/>
-      <c r="UC43" s="145"/>
-      <c r="UD43" s="145"/>
-      <c r="UE43" s="145"/>
-      <c r="UF43" s="145"/>
-      <c r="UG43" s="145"/>
-      <c r="UH43" s="145"/>
-      <c r="UI43" s="145"/>
-      <c r="UJ43" s="145"/>
-      <c r="UK43" s="145"/>
-      <c r="UL43" s="145"/>
-      <c r="UM43" s="145"/>
-      <c r="UN43" s="145"/>
-      <c r="UO43" s="145"/>
-      <c r="UP43" s="145"/>
-      <c r="UQ43" s="145"/>
-      <c r="UR43" s="145"/>
-      <c r="US43" s="145"/>
-      <c r="UT43" s="145"/>
-      <c r="UU43" s="145"/>
-      <c r="UV43" s="145"/>
-      <c r="UW43" s="145"/>
-      <c r="UX43" s="145"/>
-      <c r="UY43" s="145"/>
-      <c r="UZ43" s="145"/>
-      <c r="VA43" s="145"/>
-      <c r="VB43" s="145"/>
-      <c r="VC43" s="146"/>
+      <c r="TZ43" s="204"/>
+      <c r="UA43" s="205"/>
+      <c r="UB43" s="205"/>
+      <c r="UC43" s="205"/>
+      <c r="UD43" s="205"/>
+      <c r="UE43" s="205"/>
+      <c r="UF43" s="205"/>
+      <c r="UG43" s="205"/>
+      <c r="UH43" s="205"/>
+      <c r="UI43" s="205"/>
+      <c r="UJ43" s="205"/>
+      <c r="UK43" s="205"/>
+      <c r="UL43" s="205"/>
+      <c r="UM43" s="205"/>
+      <c r="UN43" s="205"/>
+      <c r="UO43" s="205"/>
+      <c r="UP43" s="205"/>
+      <c r="UQ43" s="205"/>
+      <c r="UR43" s="205"/>
+      <c r="US43" s="205"/>
+      <c r="UT43" s="205"/>
+      <c r="UU43" s="205"/>
+      <c r="UV43" s="205"/>
+      <c r="UW43" s="205"/>
+      <c r="UX43" s="205"/>
+      <c r="UY43" s="205"/>
+      <c r="UZ43" s="205"/>
+      <c r="VA43" s="205"/>
+      <c r="VB43" s="205"/>
+      <c r="VC43" s="206"/>
     </row>
     <row r="44" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="132" t="s">
+      <c r="B44" s="190" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="65" t="s">
@@ -27471,7 +27497,7 @@
       <c r="KO44" s="37"/>
       <c r="KP44" s="37"/>
       <c r="KQ44" s="44"/>
-      <c r="KR44" s="132" t="s">
+      <c r="KR44" s="190" t="s">
         <v>61</v>
       </c>
       <c r="KS44" s="124" t="s">
@@ -27750,7 +27776,7 @@
     </row>
     <row r="45" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="131"/>
+      <c r="B45" s="191"/>
       <c r="C45" s="64" t="s">
         <v>29</v>
       </c>
@@ -28054,7 +28080,7 @@
       <c r="KO45" s="27"/>
       <c r="KP45" s="27"/>
       <c r="KQ45" s="34"/>
-      <c r="KR45" s="131"/>
+      <c r="KR45" s="191"/>
       <c r="KS45" s="123" t="s">
         <v>29</v>
       </c>
@@ -28331,7 +28357,7 @@
     </row>
     <row r="46" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="132" t="s">
+      <c r="B46" s="190" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="65" t="s">
@@ -28637,7 +28663,7 @@
       <c r="KO46" s="37"/>
       <c r="KP46" s="37"/>
       <c r="KQ46" s="44"/>
-      <c r="KR46" s="132" t="s">
+      <c r="KR46" s="190" t="s">
         <v>73</v>
       </c>
       <c r="KS46" s="124" t="s">
@@ -28916,7 +28942,7 @@
     </row>
     <row r="47" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="131"/>
+      <c r="B47" s="191"/>
       <c r="C47" s="64" t="s">
         <v>29</v>
       </c>
@@ -29220,7 +29246,7 @@
       <c r="KO47" s="27"/>
       <c r="KP47" s="27"/>
       <c r="KQ47" s="34"/>
-      <c r="KR47" s="131"/>
+      <c r="KR47" s="191"/>
       <c r="KS47" s="123" t="s">
         <v>29</v>
       </c>
@@ -29497,7 +29523,7 @@
     </row>
     <row r="48" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="132" t="s">
+      <c r="B48" s="190" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="65" t="s">
@@ -29803,7 +29829,7 @@
       <c r="KO48" s="37"/>
       <c r="KP48" s="37"/>
       <c r="KQ48" s="44"/>
-      <c r="KR48" s="132" t="s">
+      <c r="KR48" s="190" t="s">
         <v>64</v>
       </c>
       <c r="KS48" s="124" t="s">
@@ -30082,7 +30108,7 @@
     </row>
     <row r="49" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="131"/>
+      <c r="B49" s="191"/>
       <c r="C49" s="64" t="s">
         <v>29</v>
       </c>
@@ -30386,7 +30412,7 @@
       <c r="KO49" s="27"/>
       <c r="KP49" s="27"/>
       <c r="KQ49" s="34"/>
-      <c r="KR49" s="131"/>
+      <c r="KR49" s="191"/>
       <c r="KS49" s="123" t="s">
         <v>29</v>
       </c>
@@ -30663,7 +30689,7 @@
     </row>
     <row r="50" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="132" t="s">
+      <c r="B50" s="190" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="65" t="s">
@@ -30969,7 +30995,7 @@
       <c r="KO50" s="37"/>
       <c r="KP50" s="37"/>
       <c r="KQ50" s="44"/>
-      <c r="KR50" s="132" t="s">
+      <c r="KR50" s="190" t="s">
         <v>65</v>
       </c>
       <c r="KS50" s="124" t="s">
@@ -31248,7 +31274,7 @@
     </row>
     <row r="51" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="131"/>
+      <c r="B51" s="191"/>
       <c r="C51" s="64" t="s">
         <v>29</v>
       </c>
@@ -31552,7 +31578,7 @@
       <c r="KO51" s="27"/>
       <c r="KP51" s="27"/>
       <c r="KQ51" s="34"/>
-      <c r="KR51" s="131"/>
+      <c r="KR51" s="191"/>
       <c r="KS51" s="123" t="s">
         <v>29</v>
       </c>
@@ -31829,7 +31855,7 @@
     </row>
     <row r="52" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="142" t="s">
+      <c r="B52" s="192" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -32135,7 +32161,7 @@
       <c r="KO52" s="18"/>
       <c r="KP52" s="18"/>
       <c r="KQ52" s="24"/>
-      <c r="KR52" s="142" t="s">
+      <c r="KR52" s="192" t="s">
         <v>62</v>
       </c>
       <c r="KS52" s="122" t="s">
@@ -32414,7 +32440,7 @@
     </row>
     <row r="53" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="143"/>
+      <c r="B53" s="193"/>
       <c r="C53" s="66" t="s">
         <v>29</v>
       </c>
@@ -32718,7 +32744,7 @@
       <c r="KO53" s="18"/>
       <c r="KP53" s="18"/>
       <c r="KQ53" s="24"/>
-      <c r="KR53" s="143"/>
+      <c r="KR53" s="193"/>
       <c r="KS53" s="125" t="s">
         <v>29</v>
       </c>
@@ -33543,36 +33569,36 @@
       <c r="TW54" s="60"/>
       <c r="TX54" s="60"/>
       <c r="TY54" s="72"/>
-      <c r="TZ54" s="153"/>
-      <c r="UA54" s="154"/>
-      <c r="UB54" s="154"/>
-      <c r="UC54" s="154"/>
-      <c r="UD54" s="154"/>
-      <c r="UE54" s="154"/>
-      <c r="UF54" s="154"/>
-      <c r="UG54" s="154"/>
-      <c r="UH54" s="154"/>
-      <c r="UI54" s="154"/>
-      <c r="UJ54" s="154"/>
-      <c r="UK54" s="154"/>
-      <c r="UL54" s="154"/>
-      <c r="UM54" s="154"/>
-      <c r="UN54" s="154"/>
-      <c r="UO54" s="154"/>
-      <c r="UP54" s="154"/>
-      <c r="UQ54" s="154"/>
-      <c r="UR54" s="154"/>
-      <c r="US54" s="154"/>
-      <c r="UT54" s="154"/>
-      <c r="UU54" s="154"/>
-      <c r="UV54" s="154"/>
-      <c r="UW54" s="154"/>
-      <c r="UX54" s="154"/>
-      <c r="UY54" s="154"/>
-      <c r="UZ54" s="154"/>
-      <c r="VA54" s="154"/>
-      <c r="VB54" s="154"/>
-      <c r="VC54" s="155"/>
+      <c r="TZ54" s="194"/>
+      <c r="UA54" s="195"/>
+      <c r="UB54" s="195"/>
+      <c r="UC54" s="195"/>
+      <c r="UD54" s="195"/>
+      <c r="UE54" s="195"/>
+      <c r="UF54" s="195"/>
+      <c r="UG54" s="195"/>
+      <c r="UH54" s="195"/>
+      <c r="UI54" s="195"/>
+      <c r="UJ54" s="195"/>
+      <c r="UK54" s="195"/>
+      <c r="UL54" s="195"/>
+      <c r="UM54" s="195"/>
+      <c r="UN54" s="195"/>
+      <c r="UO54" s="195"/>
+      <c r="UP54" s="195"/>
+      <c r="UQ54" s="195"/>
+      <c r="UR54" s="195"/>
+      <c r="US54" s="195"/>
+      <c r="UT54" s="195"/>
+      <c r="UU54" s="195"/>
+      <c r="UV54" s="195"/>
+      <c r="UW54" s="195"/>
+      <c r="UX54" s="195"/>
+      <c r="UY54" s="195"/>
+      <c r="UZ54" s="195"/>
+      <c r="VA54" s="195"/>
+      <c r="VB54" s="195"/>
+      <c r="VC54" s="196"/>
     </row>
     <row r="55" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
@@ -34705,40 +34731,40 @@
       <c r="TW56" s="61"/>
       <c r="TX56" s="61"/>
       <c r="TY56" s="78"/>
-      <c r="TZ56" s="144"/>
-      <c r="UA56" s="145"/>
-      <c r="UB56" s="145"/>
-      <c r="UC56" s="145"/>
-      <c r="UD56" s="145"/>
-      <c r="UE56" s="145"/>
-      <c r="UF56" s="145"/>
-      <c r="UG56" s="145"/>
-      <c r="UH56" s="145"/>
-      <c r="UI56" s="145"/>
-      <c r="UJ56" s="145"/>
-      <c r="UK56" s="145"/>
-      <c r="UL56" s="145"/>
-      <c r="UM56" s="145"/>
-      <c r="UN56" s="145"/>
-      <c r="UO56" s="145"/>
-      <c r="UP56" s="145"/>
-      <c r="UQ56" s="145"/>
-      <c r="UR56" s="145"/>
-      <c r="US56" s="145"/>
-      <c r="UT56" s="145"/>
-      <c r="UU56" s="145"/>
-      <c r="UV56" s="145"/>
-      <c r="UW56" s="145"/>
-      <c r="UX56" s="145"/>
-      <c r="UY56" s="145"/>
-      <c r="UZ56" s="145"/>
-      <c r="VA56" s="145"/>
-      <c r="VB56" s="145"/>
-      <c r="VC56" s="146"/>
+      <c r="TZ56" s="204"/>
+      <c r="UA56" s="205"/>
+      <c r="UB56" s="205"/>
+      <c r="UC56" s="205"/>
+      <c r="UD56" s="205"/>
+      <c r="UE56" s="205"/>
+      <c r="UF56" s="205"/>
+      <c r="UG56" s="205"/>
+      <c r="UH56" s="205"/>
+      <c r="UI56" s="205"/>
+      <c r="UJ56" s="205"/>
+      <c r="UK56" s="205"/>
+      <c r="UL56" s="205"/>
+      <c r="UM56" s="205"/>
+      <c r="UN56" s="205"/>
+      <c r="UO56" s="205"/>
+      <c r="UP56" s="205"/>
+      <c r="UQ56" s="205"/>
+      <c r="UR56" s="205"/>
+      <c r="US56" s="205"/>
+      <c r="UT56" s="205"/>
+      <c r="UU56" s="205"/>
+      <c r="UV56" s="205"/>
+      <c r="UW56" s="205"/>
+      <c r="UX56" s="205"/>
+      <c r="UY56" s="205"/>
+      <c r="UZ56" s="205"/>
+      <c r="VA56" s="205"/>
+      <c r="VB56" s="205"/>
+      <c r="VC56" s="206"/>
     </row>
     <row r="57" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="130" t="s">
+      <c r="B57" s="200" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="67" t="s">
@@ -35044,7 +35070,7 @@
       <c r="KO57" s="18"/>
       <c r="KP57" s="18"/>
       <c r="KQ57" s="24"/>
-      <c r="KR57" s="130" t="s">
+      <c r="KR57" s="200" t="s">
         <v>70</v>
       </c>
       <c r="KS57" s="128" t="s">
@@ -35323,7 +35349,7 @@
     </row>
     <row r="58" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="131"/>
+      <c r="B58" s="191"/>
       <c r="C58" s="64" t="s">
         <v>29</v>
       </c>
@@ -35627,7 +35653,7 @@
       <c r="KO58" s="27"/>
       <c r="KP58" s="27"/>
       <c r="KQ58" s="34"/>
-      <c r="KR58" s="131"/>
+      <c r="KR58" s="191"/>
       <c r="KS58" s="123" t="s">
         <v>29</v>
       </c>
@@ -35904,7 +35930,7 @@
     </row>
     <row r="59" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="132" t="s">
+      <c r="B59" s="190" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="65" t="s">
@@ -36210,7 +36236,7 @@
       <c r="KO59" s="37"/>
       <c r="KP59" s="37"/>
       <c r="KQ59" s="44"/>
-      <c r="KR59" s="132" t="s">
+      <c r="KR59" s="190" t="s">
         <v>67</v>
       </c>
       <c r="KS59" s="124" t="s">
@@ -36489,7 +36515,7 @@
     </row>
     <row r="60" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="131"/>
+      <c r="B60" s="191"/>
       <c r="C60" s="64" t="s">
         <v>29</v>
       </c>
@@ -36793,7 +36819,7 @@
       <c r="KO60" s="27"/>
       <c r="KP60" s="27"/>
       <c r="KQ60" s="34"/>
-      <c r="KR60" s="131"/>
+      <c r="KR60" s="191"/>
       <c r="KS60" s="123" t="s">
         <v>29</v>
       </c>
@@ -37618,36 +37644,36 @@
       <c r="TW61" s="60"/>
       <c r="TX61" s="60"/>
       <c r="TY61" s="72"/>
-      <c r="TZ61" s="153"/>
-      <c r="UA61" s="154"/>
-      <c r="UB61" s="154"/>
-      <c r="UC61" s="154"/>
-      <c r="UD61" s="154"/>
-      <c r="UE61" s="154"/>
-      <c r="UF61" s="154"/>
-      <c r="UG61" s="154"/>
-      <c r="UH61" s="154"/>
-      <c r="UI61" s="154"/>
-      <c r="UJ61" s="154"/>
-      <c r="UK61" s="154"/>
-      <c r="UL61" s="154"/>
-      <c r="UM61" s="154"/>
-      <c r="UN61" s="154"/>
-      <c r="UO61" s="154"/>
-      <c r="UP61" s="154"/>
-      <c r="UQ61" s="154"/>
-      <c r="UR61" s="154"/>
-      <c r="US61" s="154"/>
-      <c r="UT61" s="154"/>
-      <c r="UU61" s="154"/>
-      <c r="UV61" s="154"/>
-      <c r="UW61" s="154"/>
-      <c r="UX61" s="154"/>
-      <c r="UY61" s="154"/>
-      <c r="UZ61" s="154"/>
-      <c r="VA61" s="154"/>
-      <c r="VB61" s="154"/>
-      <c r="VC61" s="155"/>
+      <c r="TZ61" s="194"/>
+      <c r="UA61" s="195"/>
+      <c r="UB61" s="195"/>
+      <c r="UC61" s="195"/>
+      <c r="UD61" s="195"/>
+      <c r="UE61" s="195"/>
+      <c r="UF61" s="195"/>
+      <c r="UG61" s="195"/>
+      <c r="UH61" s="195"/>
+      <c r="UI61" s="195"/>
+      <c r="UJ61" s="195"/>
+      <c r="UK61" s="195"/>
+      <c r="UL61" s="195"/>
+      <c r="UM61" s="195"/>
+      <c r="UN61" s="195"/>
+      <c r="UO61" s="195"/>
+      <c r="UP61" s="195"/>
+      <c r="UQ61" s="195"/>
+      <c r="UR61" s="195"/>
+      <c r="US61" s="195"/>
+      <c r="UT61" s="195"/>
+      <c r="UU61" s="195"/>
+      <c r="UV61" s="195"/>
+      <c r="UW61" s="195"/>
+      <c r="UX61" s="195"/>
+      <c r="UY61" s="195"/>
+      <c r="UZ61" s="195"/>
+      <c r="VA61" s="195"/>
+      <c r="VB61" s="195"/>
+      <c r="VC61" s="196"/>
     </row>
     <row r="62" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46"/>
@@ -38780,40 +38806,40 @@
       <c r="TW63" s="61"/>
       <c r="TX63" s="61"/>
       <c r="TY63" s="78"/>
-      <c r="TZ63" s="144"/>
-      <c r="UA63" s="145"/>
-      <c r="UB63" s="145"/>
-      <c r="UC63" s="145"/>
-      <c r="UD63" s="145"/>
-      <c r="UE63" s="145"/>
-      <c r="UF63" s="145"/>
-      <c r="UG63" s="145"/>
-      <c r="UH63" s="145"/>
-      <c r="UI63" s="145"/>
-      <c r="UJ63" s="145"/>
-      <c r="UK63" s="145"/>
-      <c r="UL63" s="145"/>
-      <c r="UM63" s="145"/>
-      <c r="UN63" s="145"/>
-      <c r="UO63" s="145"/>
-      <c r="UP63" s="145"/>
-      <c r="UQ63" s="145"/>
-      <c r="UR63" s="145"/>
-      <c r="US63" s="145"/>
-      <c r="UT63" s="145"/>
-      <c r="UU63" s="145"/>
-      <c r="UV63" s="145"/>
-      <c r="UW63" s="145"/>
-      <c r="UX63" s="145"/>
-      <c r="UY63" s="145"/>
-      <c r="UZ63" s="145"/>
-      <c r="VA63" s="145"/>
-      <c r="VB63" s="145"/>
-      <c r="VC63" s="146"/>
+      <c r="TZ63" s="204"/>
+      <c r="UA63" s="205"/>
+      <c r="UB63" s="205"/>
+      <c r="UC63" s="205"/>
+      <c r="UD63" s="205"/>
+      <c r="UE63" s="205"/>
+      <c r="UF63" s="205"/>
+      <c r="UG63" s="205"/>
+      <c r="UH63" s="205"/>
+      <c r="UI63" s="205"/>
+      <c r="UJ63" s="205"/>
+      <c r="UK63" s="205"/>
+      <c r="UL63" s="205"/>
+      <c r="UM63" s="205"/>
+      <c r="UN63" s="205"/>
+      <c r="UO63" s="205"/>
+      <c r="UP63" s="205"/>
+      <c r="UQ63" s="205"/>
+      <c r="UR63" s="205"/>
+      <c r="US63" s="205"/>
+      <c r="UT63" s="205"/>
+      <c r="UU63" s="205"/>
+      <c r="UV63" s="205"/>
+      <c r="UW63" s="205"/>
+      <c r="UX63" s="205"/>
+      <c r="UY63" s="205"/>
+      <c r="UZ63" s="205"/>
+      <c r="VA63" s="205"/>
+      <c r="VB63" s="205"/>
+      <c r="VC63" s="206"/>
     </row>
     <row r="64" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="130" t="s">
+      <c r="B64" s="200" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="67" t="s">
@@ -39119,7 +39145,7 @@
       <c r="KO64" s="105"/>
       <c r="KP64" s="105"/>
       <c r="KQ64" s="24"/>
-      <c r="KR64" s="130" t="s">
+      <c r="KR64" s="200" t="s">
         <v>69</v>
       </c>
       <c r="KS64" s="128" t="s">
@@ -39398,7 +39424,7 @@
     </row>
     <row r="65" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="131"/>
+      <c r="B65" s="191"/>
       <c r="C65" s="64" t="s">
         <v>29</v>
       </c>
@@ -39702,7 +39728,7 @@
       <c r="KO65" s="27"/>
       <c r="KP65" s="27"/>
       <c r="KQ65" s="34"/>
-      <c r="KR65" s="131"/>
+      <c r="KR65" s="191"/>
       <c r="KS65" s="123" t="s">
         <v>29</v>
       </c>
@@ -40527,36 +40553,36 @@
       <c r="TW66" s="107"/>
       <c r="TX66" s="107"/>
       <c r="TY66" s="74"/>
-      <c r="TZ66" s="147"/>
-      <c r="UA66" s="148"/>
-      <c r="UB66" s="148"/>
-      <c r="UC66" s="148"/>
-      <c r="UD66" s="148"/>
-      <c r="UE66" s="148"/>
-      <c r="UF66" s="148"/>
-      <c r="UG66" s="148"/>
-      <c r="UH66" s="148"/>
-      <c r="UI66" s="148"/>
-      <c r="UJ66" s="148"/>
-      <c r="UK66" s="148"/>
-      <c r="UL66" s="148"/>
-      <c r="UM66" s="148"/>
-      <c r="UN66" s="148"/>
-      <c r="UO66" s="148"/>
-      <c r="UP66" s="148"/>
-      <c r="UQ66" s="148"/>
-      <c r="UR66" s="148"/>
-      <c r="US66" s="148"/>
-      <c r="UT66" s="148"/>
-      <c r="UU66" s="148"/>
-      <c r="UV66" s="148"/>
-      <c r="UW66" s="148"/>
-      <c r="UX66" s="148"/>
-      <c r="UY66" s="148"/>
-      <c r="UZ66" s="148"/>
-      <c r="VA66" s="148"/>
-      <c r="VB66" s="148"/>
-      <c r="VC66" s="149"/>
+      <c r="TZ66" s="209"/>
+      <c r="UA66" s="210"/>
+      <c r="UB66" s="210"/>
+      <c r="UC66" s="210"/>
+      <c r="UD66" s="210"/>
+      <c r="UE66" s="210"/>
+      <c r="UF66" s="210"/>
+      <c r="UG66" s="210"/>
+      <c r="UH66" s="210"/>
+      <c r="UI66" s="210"/>
+      <c r="UJ66" s="210"/>
+      <c r="UK66" s="210"/>
+      <c r="UL66" s="210"/>
+      <c r="UM66" s="210"/>
+      <c r="UN66" s="210"/>
+      <c r="UO66" s="210"/>
+      <c r="UP66" s="210"/>
+      <c r="UQ66" s="210"/>
+      <c r="UR66" s="210"/>
+      <c r="US66" s="210"/>
+      <c r="UT66" s="210"/>
+      <c r="UU66" s="210"/>
+      <c r="UV66" s="210"/>
+      <c r="UW66" s="210"/>
+      <c r="UX66" s="210"/>
+      <c r="UY66" s="210"/>
+      <c r="UZ66" s="210"/>
+      <c r="VA66" s="210"/>
+      <c r="VB66" s="210"/>
+      <c r="VC66" s="211"/>
     </row>
     <row r="67" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46"/>
@@ -41108,36 +41134,36 @@
       <c r="TW67" s="54"/>
       <c r="TX67" s="54"/>
       <c r="TY67" s="53"/>
-      <c r="TZ67" s="150"/>
-      <c r="UA67" s="151"/>
-      <c r="UB67" s="151"/>
-      <c r="UC67" s="151"/>
-      <c r="UD67" s="151"/>
-      <c r="UE67" s="151"/>
-      <c r="UF67" s="151"/>
-      <c r="UG67" s="151"/>
-      <c r="UH67" s="151"/>
-      <c r="UI67" s="151"/>
-      <c r="UJ67" s="151"/>
-      <c r="UK67" s="151"/>
-      <c r="UL67" s="151"/>
-      <c r="UM67" s="151"/>
-      <c r="UN67" s="151"/>
-      <c r="UO67" s="151"/>
-      <c r="UP67" s="151"/>
-      <c r="UQ67" s="151"/>
-      <c r="UR67" s="151"/>
-      <c r="US67" s="151"/>
-      <c r="UT67" s="151"/>
-      <c r="UU67" s="151"/>
-      <c r="UV67" s="151"/>
-      <c r="UW67" s="151"/>
-      <c r="UX67" s="151"/>
-      <c r="UY67" s="151"/>
-      <c r="UZ67" s="151"/>
-      <c r="VA67" s="151"/>
-      <c r="VB67" s="151"/>
-      <c r="VC67" s="152"/>
+      <c r="TZ67" s="212"/>
+      <c r="UA67" s="213"/>
+      <c r="UB67" s="213"/>
+      <c r="UC67" s="213"/>
+      <c r="UD67" s="213"/>
+      <c r="UE67" s="213"/>
+      <c r="UF67" s="213"/>
+      <c r="UG67" s="213"/>
+      <c r="UH67" s="213"/>
+      <c r="UI67" s="213"/>
+      <c r="UJ67" s="213"/>
+      <c r="UK67" s="213"/>
+      <c r="UL67" s="213"/>
+      <c r="UM67" s="213"/>
+      <c r="UN67" s="213"/>
+      <c r="UO67" s="213"/>
+      <c r="UP67" s="213"/>
+      <c r="UQ67" s="213"/>
+      <c r="UR67" s="213"/>
+      <c r="US67" s="213"/>
+      <c r="UT67" s="213"/>
+      <c r="UU67" s="213"/>
+      <c r="UV67" s="213"/>
+      <c r="UW67" s="213"/>
+      <c r="UX67" s="213"/>
+      <c r="UY67" s="213"/>
+      <c r="UZ67" s="213"/>
+      <c r="VA67" s="213"/>
+      <c r="VB67" s="213"/>
+      <c r="VC67" s="214"/>
     </row>
     <row r="68" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
@@ -44598,54 +44624,84 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="AO6:BK6"/>
-    <mergeCell ref="B7:BK9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:BK12"/>
-    <mergeCell ref="BL12:GA12"/>
-    <mergeCell ref="GB12:KQ12"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="Q4:BK4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="AB5:AN5"/>
-    <mergeCell ref="AO5:BK5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="Q6:AA6"/>
-    <mergeCell ref="AB6:AN6"/>
-    <mergeCell ref="KT12:PI12"/>
-    <mergeCell ref="PJ12:TY12"/>
-    <mergeCell ref="TZ12:VC12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:AG13"/>
-    <mergeCell ref="AH13:BK13"/>
-    <mergeCell ref="BL13:CO13"/>
-    <mergeCell ref="CP13:DS13"/>
-    <mergeCell ref="DT13:EW13"/>
-    <mergeCell ref="EX13:GA13"/>
-    <mergeCell ref="TZ13:VC13"/>
-    <mergeCell ref="NB13:OE13"/>
-    <mergeCell ref="OF13:PI13"/>
-    <mergeCell ref="PJ13:QM13"/>
-    <mergeCell ref="QN13:RQ13"/>
-    <mergeCell ref="RR13:SU13"/>
-    <mergeCell ref="SV13:TY13"/>
-    <mergeCell ref="GB13:HE13"/>
-    <mergeCell ref="HF13:II13"/>
-    <mergeCell ref="IJ13:JM13"/>
-    <mergeCell ref="JN13:KQ13"/>
-    <mergeCell ref="KT13:LW13"/>
-    <mergeCell ref="LX13:NA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:AG14"/>
-    <mergeCell ref="AH14:BK14"/>
-    <mergeCell ref="BL14:CO14"/>
-    <mergeCell ref="CP14:DS14"/>
-    <mergeCell ref="DT14:EW14"/>
-    <mergeCell ref="EX14:GA14"/>
-    <mergeCell ref="GB14:HE14"/>
-    <mergeCell ref="HF14:II14"/>
+    <mergeCell ref="KR28:KR29"/>
+    <mergeCell ref="KR33:KR34"/>
+    <mergeCell ref="KR35:KR36"/>
+    <mergeCell ref="KR37:KR38"/>
+    <mergeCell ref="KR39:KR40"/>
+    <mergeCell ref="KR44:KR45"/>
+    <mergeCell ref="KR46:KR47"/>
+    <mergeCell ref="KR48:KR49"/>
+    <mergeCell ref="KR50:KR51"/>
+    <mergeCell ref="KR4:KS6"/>
+    <mergeCell ref="KR12:KS12"/>
+    <mergeCell ref="KR13:KS13"/>
+    <mergeCell ref="KR14:KS14"/>
+    <mergeCell ref="KR15:KS15"/>
+    <mergeCell ref="KR17:KR18"/>
+    <mergeCell ref="KR19:KR20"/>
+    <mergeCell ref="KR21:KR22"/>
+    <mergeCell ref="KR23:KR24"/>
+    <mergeCell ref="TZ63:VC63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="TZ66:VC66"/>
+    <mergeCell ref="TZ67:VC67"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="TZ54:VC54"/>
+    <mergeCell ref="TZ56:VC56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="TZ61:VC61"/>
+    <mergeCell ref="KR52:KR53"/>
+    <mergeCell ref="KR57:KR58"/>
+    <mergeCell ref="KR59:KR60"/>
+    <mergeCell ref="KR64:KR65"/>
+    <mergeCell ref="TZ41:VC41"/>
+    <mergeCell ref="TZ43:VC43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="TZ30:VC30"/>
+    <mergeCell ref="TZ32:VC32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="TZ25:VC25"/>
+    <mergeCell ref="TZ27:VC27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="SV15:TJ15"/>
+    <mergeCell ref="TK15:TY15"/>
+    <mergeCell ref="TZ15:UN15"/>
+    <mergeCell ref="UO15:VC15"/>
+    <mergeCell ref="TZ16:VC16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="PJ15:PX15"/>
+    <mergeCell ref="PY15:QM15"/>
+    <mergeCell ref="QN15:RB15"/>
+    <mergeCell ref="RC15:RQ15"/>
+    <mergeCell ref="RR15:SF15"/>
+    <mergeCell ref="SG15:SU15"/>
+    <mergeCell ref="LX15:ML15"/>
+    <mergeCell ref="MM15:NA15"/>
+    <mergeCell ref="NB15:NP15"/>
+    <mergeCell ref="NQ15:OE15"/>
+    <mergeCell ref="OF15:OT15"/>
+    <mergeCell ref="OU15:PI15"/>
+    <mergeCell ref="JN15:KB15"/>
+    <mergeCell ref="KC15:KQ15"/>
+    <mergeCell ref="KT15:LH15"/>
+    <mergeCell ref="LI15:LW15"/>
+    <mergeCell ref="EX15:FL15"/>
+    <mergeCell ref="FM15:GA15"/>
+    <mergeCell ref="GB15:GP15"/>
+    <mergeCell ref="GQ15:HE15"/>
+    <mergeCell ref="HF15:HT15"/>
+    <mergeCell ref="HU15:II15"/>
     <mergeCell ref="SV14:TY14"/>
     <mergeCell ref="TZ14:VC14"/>
     <mergeCell ref="B15:C15"/>
@@ -44670,84 +44726,54 @@
     <mergeCell ref="RR14:SU14"/>
     <mergeCell ref="IJ15:IX15"/>
     <mergeCell ref="IY15:JM15"/>
-    <mergeCell ref="JN15:KB15"/>
-    <mergeCell ref="KC15:KQ15"/>
-    <mergeCell ref="KT15:LH15"/>
-    <mergeCell ref="LI15:LW15"/>
-    <mergeCell ref="EX15:FL15"/>
-    <mergeCell ref="FM15:GA15"/>
-    <mergeCell ref="GB15:GP15"/>
-    <mergeCell ref="GQ15:HE15"/>
-    <mergeCell ref="HF15:HT15"/>
-    <mergeCell ref="HU15:II15"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="TZ25:VC25"/>
-    <mergeCell ref="TZ27:VC27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="SV15:TJ15"/>
-    <mergeCell ref="TK15:TY15"/>
-    <mergeCell ref="TZ15:UN15"/>
-    <mergeCell ref="UO15:VC15"/>
-    <mergeCell ref="TZ16:VC16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="PJ15:PX15"/>
-    <mergeCell ref="PY15:QM15"/>
-    <mergeCell ref="QN15:RB15"/>
-    <mergeCell ref="RC15:RQ15"/>
-    <mergeCell ref="RR15:SF15"/>
-    <mergeCell ref="SG15:SU15"/>
-    <mergeCell ref="LX15:ML15"/>
-    <mergeCell ref="MM15:NA15"/>
-    <mergeCell ref="NB15:NP15"/>
-    <mergeCell ref="NQ15:OE15"/>
-    <mergeCell ref="OF15:OT15"/>
-    <mergeCell ref="OU15:PI15"/>
-    <mergeCell ref="TZ41:VC41"/>
-    <mergeCell ref="TZ43:VC43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="TZ30:VC30"/>
-    <mergeCell ref="TZ32:VC32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="TZ63:VC63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="TZ66:VC66"/>
-    <mergeCell ref="TZ67:VC67"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="TZ54:VC54"/>
-    <mergeCell ref="TZ56:VC56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="TZ61:VC61"/>
-    <mergeCell ref="KR52:KR53"/>
-    <mergeCell ref="KR57:KR58"/>
-    <mergeCell ref="KR59:KR60"/>
-    <mergeCell ref="KR64:KR65"/>
-    <mergeCell ref="KR4:KS6"/>
-    <mergeCell ref="KR12:KS12"/>
-    <mergeCell ref="KR13:KS13"/>
-    <mergeCell ref="KR14:KS14"/>
-    <mergeCell ref="KR15:KS15"/>
-    <mergeCell ref="KR17:KR18"/>
-    <mergeCell ref="KR19:KR20"/>
-    <mergeCell ref="KR21:KR22"/>
-    <mergeCell ref="KR23:KR24"/>
-    <mergeCell ref="KR28:KR29"/>
-    <mergeCell ref="KR33:KR34"/>
-    <mergeCell ref="KR35:KR36"/>
-    <mergeCell ref="KR37:KR38"/>
-    <mergeCell ref="KR39:KR40"/>
-    <mergeCell ref="KR44:KR45"/>
-    <mergeCell ref="KR46:KR47"/>
-    <mergeCell ref="KR48:KR49"/>
-    <mergeCell ref="KR50:KR51"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:AG14"/>
+    <mergeCell ref="AH14:BK14"/>
+    <mergeCell ref="BL14:CO14"/>
+    <mergeCell ref="CP14:DS14"/>
+    <mergeCell ref="DT14:EW14"/>
+    <mergeCell ref="EX14:GA14"/>
+    <mergeCell ref="GB14:HE14"/>
+    <mergeCell ref="HF14:II14"/>
+    <mergeCell ref="KT12:PI12"/>
+    <mergeCell ref="PJ12:TY12"/>
+    <mergeCell ref="TZ12:VC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:AG13"/>
+    <mergeCell ref="AH13:BK13"/>
+    <mergeCell ref="BL13:CO13"/>
+    <mergeCell ref="CP13:DS13"/>
+    <mergeCell ref="DT13:EW13"/>
+    <mergeCell ref="EX13:GA13"/>
+    <mergeCell ref="TZ13:VC13"/>
+    <mergeCell ref="NB13:OE13"/>
+    <mergeCell ref="OF13:PI13"/>
+    <mergeCell ref="PJ13:QM13"/>
+    <mergeCell ref="QN13:RQ13"/>
+    <mergeCell ref="RR13:SU13"/>
+    <mergeCell ref="SV13:TY13"/>
+    <mergeCell ref="GB13:HE13"/>
+    <mergeCell ref="HF13:II13"/>
+    <mergeCell ref="IJ13:JM13"/>
+    <mergeCell ref="JN13:KQ13"/>
+    <mergeCell ref="KT13:LW13"/>
+    <mergeCell ref="LX13:NA13"/>
+    <mergeCell ref="AO6:BK6"/>
+    <mergeCell ref="B7:BK9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:BK12"/>
+    <mergeCell ref="BL12:GA12"/>
+    <mergeCell ref="GB12:KQ12"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="Q4:BK4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="AB5:AN5"/>
+    <mergeCell ref="AO5:BK5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="Q6:AA6"/>
+    <mergeCell ref="AB6:AN6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -44771,8 +44797,8 @@
   </sheetPr>
   <dimension ref="B4:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44793,11 +44819,11 @@
       <c r="C5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="242" t="s">
+      <c r="D5" s="228" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="242"/>
-      <c r="F5" s="243"/>
+      <c r="E5" s="228"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="95" t="s">
         <v>38</v>
       </c>
@@ -44806,1070 +44832,1186 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="227" t="s">
+      <c r="B6" s="232" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="232">
+      <c r="C6" s="222">
         <v>45414</v>
       </c>
-      <c r="D6" s="218" t="s">
+      <c r="D6" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="211" t="s">
+      <c r="E6" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="212"/>
-      <c r="G6" s="244" t="s">
+      <c r="F6" s="226"/>
+      <c r="G6" s="230" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="97"/>
     </row>
     <row r="7" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="228"/>
-      <c r="C7" s="232"/>
-      <c r="D7" s="218"/>
-      <c r="E7" s="211" t="s">
+      <c r="B7" s="233"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="212"/>
-      <c r="G7" s="245"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="231"/>
       <c r="H7" s="97"/>
     </row>
     <row r="8" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="228"/>
-      <c r="C8" s="233"/>
-      <c r="D8" s="213" t="s">
+      <c r="B8" s="233"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="213"/>
-      <c r="F8" s="246" t="s">
+      <c r="E8" s="219"/>
+      <c r="F8" s="227" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="214"/>
-      <c r="H8" s="215"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="221"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="228"/>
-      <c r="C9" s="234">
+      <c r="B9" s="233"/>
+      <c r="C9" s="235">
         <v>45415</v>
       </c>
-      <c r="D9" s="218" t="s">
+      <c r="D9" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="219" t="s">
+      <c r="E9" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="220"/>
-      <c r="G9" s="247" t="s">
+      <c r="F9" s="237"/>
+      <c r="G9" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="250" t="s">
+      <c r="H9" s="133" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="228"/>
-      <c r="C10" s="232"/>
-      <c r="D10" s="218"/>
-      <c r="E10" s="211" t="s">
+      <c r="B10" s="233"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="212"/>
-      <c r="G10" s="247" t="s">
+      <c r="F10" s="226"/>
+      <c r="G10" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="H10" s="249" t="s">
+      <c r="H10" s="132" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="228"/>
-      <c r="C11" s="232"/>
-      <c r="D11" s="218"/>
-      <c r="E11" s="211" t="s">
+      <c r="B11" s="233"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="212"/>
-      <c r="G11" s="247" t="s">
+      <c r="F11" s="226"/>
+      <c r="G11" s="130" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="249" t="s">
+      <c r="H11" s="132" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="228"/>
-      <c r="C12" s="232"/>
-      <c r="D12" s="218"/>
-      <c r="E12" s="211" t="s">
+      <c r="B12" s="233"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="212"/>
-      <c r="G12" s="248" t="s">
+      <c r="F12" s="226"/>
+      <c r="G12" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="H12" s="249" t="s">
+      <c r="H12" s="132" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="229"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="213" t="s">
+      <c r="B13" s="234"/>
+      <c r="C13" s="223"/>
+      <c r="D13" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="213"/>
-      <c r="F13" s="214" t="s">
+      <c r="E13" s="219"/>
+      <c r="F13" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="214"/>
-      <c r="H13" s="215"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="221"/>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="227" t="s">
+      <c r="B14" s="232" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="232">
+      <c r="C14" s="222">
         <v>45418</v>
       </c>
-      <c r="D14" s="218" t="s">
+      <c r="D14" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="211" t="s">
+      <c r="E14" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="212"/>
-      <c r="G14" s="98"/>
-      <c r="H14" s="97"/>
+      <c r="F14" s="226"/>
+      <c r="G14" s="230" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" s="256" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="228"/>
-      <c r="C15" s="232"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="211" t="s">
+      <c r="B15" s="233"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="212"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="97"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="255"/>
+      <c r="H15" s="257"/>
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="228"/>
-      <c r="C16" s="232"/>
-      <c r="D16" s="218"/>
-      <c r="E16" s="211" t="s">
+      <c r="B16" s="233"/>
+      <c r="C16" s="222"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="212"/>
-      <c r="G16" s="99"/>
+      <c r="F16" s="226"/>
+      <c r="G16" s="131"/>
       <c r="H16" s="97"/>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="228"/>
-      <c r="C17" s="232"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="211" t="s">
+      <c r="B17" s="233"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="212"/>
-      <c r="G17" s="99"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="131"/>
       <c r="H17" s="97"/>
     </row>
     <row r="18" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="228"/>
-      <c r="C18" s="233"/>
-      <c r="D18" s="213" t="s">
+      <c r="B18" s="233"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="213"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="215"/>
+      <c r="E18" s="219"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="221"/>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="228"/>
-      <c r="C19" s="234">
+      <c r="B19" s="233"/>
+      <c r="C19" s="235">
         <v>45420</v>
       </c>
-      <c r="D19" s="218" t="s">
+      <c r="D19" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="219" t="s">
+      <c r="E19" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="220"/>
+      <c r="F19" s="237"/>
       <c r="G19" s="98"/>
       <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="228"/>
-      <c r="C20" s="232"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="211" t="s">
+      <c r="B20" s="233"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="212"/>
+      <c r="F20" s="226"/>
       <c r="G20" s="98"/>
       <c r="H20" s="97"/>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="228"/>
-      <c r="C21" s="232"/>
-      <c r="D21" s="218"/>
-      <c r="E21" s="211" t="s">
+      <c r="B21" s="233"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="212"/>
+      <c r="F21" s="226"/>
       <c r="G21" s="99"/>
       <c r="H21" s="97"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="228"/>
-      <c r="C22" s="232"/>
-      <c r="D22" s="218"/>
-      <c r="E22" s="211" t="s">
+      <c r="B22" s="233"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="212"/>
+      <c r="F22" s="226"/>
       <c r="G22" s="99"/>
       <c r="H22" s="97"/>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="228"/>
-      <c r="C23" s="233"/>
-      <c r="D23" s="213" t="s">
+      <c r="B23" s="233"/>
+      <c r="C23" s="223"/>
+      <c r="D23" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="213"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="214"/>
-      <c r="H23" s="215"/>
+      <c r="E23" s="219"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="221"/>
     </row>
     <row r="24" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="228"/>
-      <c r="C24" s="230">
+      <c r="B24" s="233"/>
+      <c r="C24" s="238">
         <v>45421</v>
       </c>
-      <c r="D24" s="218" t="s">
+      <c r="D24" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="216" t="s">
+      <c r="E24" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="217"/>
-      <c r="G24" s="237" t="s">
+      <c r="F24" s="241"/>
+      <c r="G24" s="248" t="s">
         <v>57</v>
       </c>
       <c r="H24" s="100"/>
     </row>
     <row r="25" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="228"/>
-      <c r="C25" s="230"/>
-      <c r="D25" s="218"/>
-      <c r="E25" s="216" t="s">
+      <c r="B25" s="233"/>
+      <c r="C25" s="238"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="240" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="217"/>
-      <c r="G25" s="238"/>
+      <c r="F25" s="241"/>
+      <c r="G25" s="249"/>
       <c r="H25" s="100"/>
     </row>
     <row r="26" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="228"/>
-      <c r="C26" s="231"/>
-      <c r="D26" s="221" t="s">
+      <c r="B26" s="233"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="221"/>
-      <c r="F26" s="235"/>
-      <c r="G26" s="235"/>
-      <c r="H26" s="236"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="243"/>
+      <c r="G26" s="243"/>
+      <c r="H26" s="244"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="228"/>
-      <c r="C27" s="239">
+      <c r="B27" s="233"/>
+      <c r="C27" s="245">
         <v>45422</v>
       </c>
-      <c r="D27" s="218" t="s">
+      <c r="D27" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="240" t="s">
+      <c r="E27" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="241"/>
-      <c r="G27" s="224" t="s">
+      <c r="F27" s="247"/>
+      <c r="G27" s="250" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="100"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="228"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="218"/>
-      <c r="E28" s="216" t="s">
+      <c r="B28" s="233"/>
+      <c r="C28" s="238"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="217"/>
-      <c r="G28" s="225"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="251"/>
       <c r="H28" s="100"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="228"/>
-      <c r="C29" s="230"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="216" t="s">
+      <c r="B29" s="233"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="217"/>
-      <c r="G29" s="225"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="251"/>
       <c r="H29" s="100"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="228"/>
-      <c r="C30" s="230"/>
-      <c r="D30" s="218"/>
-      <c r="E30" s="216" t="s">
+      <c r="B30" s="233"/>
+      <c r="C30" s="238"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="240" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="217"/>
-      <c r="G30" s="226"/>
+      <c r="F30" s="241"/>
+      <c r="G30" s="252"/>
       <c r="H30" s="100"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="229"/>
-      <c r="C31" s="231"/>
-      <c r="D31" s="221" t="s">
+      <c r="B31" s="234"/>
+      <c r="C31" s="239"/>
+      <c r="D31" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="221"/>
-      <c r="F31" s="222"/>
-      <c r="G31" s="222"/>
-      <c r="H31" s="223"/>
+      <c r="E31" s="242"/>
+      <c r="F31" s="253"/>
+      <c r="G31" s="253"/>
+      <c r="H31" s="254"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="227" t="s">
+      <c r="B32" s="232" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="232">
+      <c r="C32" s="222">
         <v>45425</v>
       </c>
-      <c r="D32" s="218" t="s">
+      <c r="D32" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="211" t="s">
+      <c r="E32" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="212"/>
+      <c r="F32" s="226"/>
       <c r="G32" s="98"/>
       <c r="H32" s="97"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="228"/>
-      <c r="C33" s="232"/>
-      <c r="D33" s="218"/>
-      <c r="E33" s="211" t="s">
+      <c r="B33" s="233"/>
+      <c r="C33" s="222"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="212"/>
+      <c r="F33" s="226"/>
       <c r="G33" s="98"/>
       <c r="H33" s="97"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="228"/>
-      <c r="C34" s="232"/>
-      <c r="D34" s="218"/>
-      <c r="E34" s="211" t="s">
+      <c r="B34" s="233"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="212"/>
+      <c r="F34" s="226"/>
       <c r="G34" s="99"/>
       <c r="H34" s="97"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="228"/>
-      <c r="C35" s="232"/>
-      <c r="D35" s="218"/>
-      <c r="E35" s="211" t="s">
+      <c r="B35" s="233"/>
+      <c r="C35" s="222"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="212"/>
+      <c r="F35" s="226"/>
       <c r="G35" s="99"/>
       <c r="H35" s="97"/>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="228"/>
-      <c r="C36" s="233"/>
-      <c r="D36" s="213" t="s">
+      <c r="B36" s="233"/>
+      <c r="C36" s="223"/>
+      <c r="D36" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="213"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="215"/>
+      <c r="E36" s="219"/>
+      <c r="F36" s="220"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="221"/>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="228"/>
-      <c r="C37" s="234">
+      <c r="B37" s="233"/>
+      <c r="C37" s="235">
         <v>45427</v>
       </c>
-      <c r="D37" s="218" t="s">
+      <c r="D37" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="219" t="s">
+      <c r="E37" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="220"/>
+      <c r="F37" s="237"/>
       <c r="G37" s="98"/>
       <c r="H37" s="97"/>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="228"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="218"/>
-      <c r="E38" s="211" t="s">
+      <c r="B38" s="233"/>
+      <c r="C38" s="222"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="212"/>
+      <c r="F38" s="226"/>
       <c r="G38" s="98"/>
       <c r="H38" s="97"/>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="228"/>
-      <c r="C39" s="232"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="211" t="s">
+      <c r="B39" s="233"/>
+      <c r="C39" s="222"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="212"/>
+      <c r="F39" s="226"/>
       <c r="G39" s="99"/>
       <c r="H39" s="97"/>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="228"/>
-      <c r="C40" s="232"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="211" t="s">
+      <c r="B40" s="233"/>
+      <c r="C40" s="222"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="212"/>
+      <c r="F40" s="226"/>
       <c r="G40" s="99"/>
       <c r="H40" s="97"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="228"/>
-      <c r="C41" s="233"/>
-      <c r="D41" s="213" t="s">
+      <c r="B41" s="233"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="213"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="215"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="221"/>
     </row>
     <row r="42" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="228"/>
-      <c r="C42" s="232">
+      <c r="B42" s="233"/>
+      <c r="C42" s="222">
         <v>45428</v>
       </c>
-      <c r="D42" s="218" t="s">
+      <c r="D42" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="211" t="s">
+      <c r="E42" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="212"/>
+      <c r="F42" s="226"/>
       <c r="G42" s="99"/>
       <c r="H42" s="97"/>
     </row>
     <row r="43" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="228"/>
-      <c r="C43" s="232"/>
-      <c r="D43" s="218"/>
-      <c r="E43" s="211" t="s">
+      <c r="B43" s="233"/>
+      <c r="C43" s="222"/>
+      <c r="D43" s="224"/>
+      <c r="E43" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="212"/>
+      <c r="F43" s="226"/>
       <c r="G43" s="99"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="228"/>
-      <c r="C44" s="233"/>
-      <c r="D44" s="213" t="s">
+      <c r="B44" s="233"/>
+      <c r="C44" s="223"/>
+      <c r="D44" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="213"/>
-      <c r="F44" s="214"/>
-      <c r="G44" s="214"/>
-      <c r="H44" s="215"/>
+      <c r="E44" s="219"/>
+      <c r="F44" s="220"/>
+      <c r="G44" s="220"/>
+      <c r="H44" s="221"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="228"/>
-      <c r="C45" s="234">
+      <c r="B45" s="233"/>
+      <c r="C45" s="235">
         <v>45429</v>
       </c>
-      <c r="D45" s="218" t="s">
+      <c r="D45" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="219" t="s">
+      <c r="E45" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="220"/>
+      <c r="F45" s="237"/>
       <c r="G45" s="98"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="228"/>
-      <c r="C46" s="232"/>
-      <c r="D46" s="218"/>
-      <c r="E46" s="211" t="s">
+      <c r="B46" s="233"/>
+      <c r="C46" s="222"/>
+      <c r="D46" s="224"/>
+      <c r="E46" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="212"/>
+      <c r="F46" s="226"/>
       <c r="G46" s="98"/>
       <c r="H46" s="97"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="228"/>
-      <c r="C47" s="232"/>
-      <c r="D47" s="218"/>
-      <c r="E47" s="211" t="s">
+      <c r="B47" s="233"/>
+      <c r="C47" s="222"/>
+      <c r="D47" s="224"/>
+      <c r="E47" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="212"/>
+      <c r="F47" s="226"/>
       <c r="G47" s="99"/>
       <c r="H47" s="97"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="228"/>
-      <c r="C48" s="232"/>
-      <c r="D48" s="218"/>
-      <c r="E48" s="211" t="s">
+      <c r="B48" s="233"/>
+      <c r="C48" s="222"/>
+      <c r="D48" s="224"/>
+      <c r="E48" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="212"/>
+      <c r="F48" s="226"/>
       <c r="G48" s="99"/>
       <c r="H48" s="97"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="229"/>
-      <c r="C49" s="233"/>
-      <c r="D49" s="213" t="s">
+      <c r="B49" s="234"/>
+      <c r="C49" s="223"/>
+      <c r="D49" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="213"/>
-      <c r="F49" s="214"/>
-      <c r="G49" s="214"/>
-      <c r="H49" s="215"/>
+      <c r="E49" s="219"/>
+      <c r="F49" s="220"/>
+      <c r="G49" s="220"/>
+      <c r="H49" s="221"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="227" t="s">
+      <c r="B50" s="232" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="230">
+      <c r="C50" s="238">
         <v>45432</v>
       </c>
-      <c r="D50" s="218" t="s">
+      <c r="D50" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="216" t="s">
+      <c r="E50" s="240" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="217"/>
-      <c r="G50" s="224" t="s">
+      <c r="F50" s="241"/>
+      <c r="G50" s="250" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="228"/>
-      <c r="C51" s="230"/>
-      <c r="D51" s="218"/>
-      <c r="E51" s="216" t="s">
+      <c r="B51" s="233"/>
+      <c r="C51" s="238"/>
+      <c r="D51" s="224"/>
+      <c r="E51" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="217"/>
-      <c r="G51" s="225"/>
+      <c r="F51" s="241"/>
+      <c r="G51" s="251"/>
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="228"/>
-      <c r="C52" s="230"/>
-      <c r="D52" s="218"/>
-      <c r="E52" s="216" t="s">
+      <c r="B52" s="233"/>
+      <c r="C52" s="238"/>
+      <c r="D52" s="224"/>
+      <c r="E52" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="217"/>
-      <c r="G52" s="225"/>
+      <c r="F52" s="241"/>
+      <c r="G52" s="251"/>
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="228"/>
-      <c r="C53" s="230"/>
-      <c r="D53" s="218"/>
-      <c r="E53" s="216" t="s">
+      <c r="B53" s="233"/>
+      <c r="C53" s="238"/>
+      <c r="D53" s="224"/>
+      <c r="E53" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="217"/>
-      <c r="G53" s="226"/>
+      <c r="F53" s="241"/>
+      <c r="G53" s="252"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="228"/>
-      <c r="C54" s="231"/>
-      <c r="D54" s="221" t="s">
+      <c r="B54" s="233"/>
+      <c r="C54" s="239"/>
+      <c r="D54" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="221"/>
-      <c r="F54" s="235"/>
-      <c r="G54" s="235"/>
-      <c r="H54" s="236"/>
+      <c r="E54" s="242"/>
+      <c r="F54" s="243"/>
+      <c r="G54" s="243"/>
+      <c r="H54" s="244"/>
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="228"/>
-      <c r="C55" s="234">
+      <c r="B55" s="233"/>
+      <c r="C55" s="235">
         <v>45434</v>
       </c>
-      <c r="D55" s="218" t="s">
+      <c r="D55" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="219" t="s">
+      <c r="E55" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="220"/>
+      <c r="F55" s="237"/>
       <c r="G55" s="98"/>
       <c r="H55" s="97"/>
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="228"/>
-      <c r="C56" s="232"/>
-      <c r="D56" s="218"/>
-      <c r="E56" s="211" t="s">
+      <c r="B56" s="233"/>
+      <c r="C56" s="222"/>
+      <c r="D56" s="224"/>
+      <c r="E56" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="212"/>
+      <c r="F56" s="226"/>
       <c r="G56" s="98"/>
       <c r="H56" s="97"/>
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="228"/>
-      <c r="C57" s="232"/>
-      <c r="D57" s="218"/>
-      <c r="E57" s="211" t="s">
+      <c r="B57" s="233"/>
+      <c r="C57" s="222"/>
+      <c r="D57" s="224"/>
+      <c r="E57" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="212"/>
+      <c r="F57" s="226"/>
       <c r="G57" s="99"/>
       <c r="H57" s="97"/>
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="228"/>
-      <c r="C58" s="232"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="211" t="s">
+      <c r="B58" s="233"/>
+      <c r="C58" s="222"/>
+      <c r="D58" s="224"/>
+      <c r="E58" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="212"/>
+      <c r="F58" s="226"/>
       <c r="G58" s="99"/>
       <c r="H58" s="97"/>
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="228"/>
-      <c r="C59" s="233"/>
-      <c r="D59" s="213" t="s">
+      <c r="B59" s="233"/>
+      <c r="C59" s="223"/>
+      <c r="D59" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="213"/>
-      <c r="F59" s="214"/>
-      <c r="G59" s="214"/>
-      <c r="H59" s="215"/>
+      <c r="E59" s="219"/>
+      <c r="F59" s="220"/>
+      <c r="G59" s="220"/>
+      <c r="H59" s="221"/>
     </row>
     <row r="60" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="228"/>
-      <c r="C60" s="232">
+      <c r="B60" s="233"/>
+      <c r="C60" s="222">
         <v>45435</v>
       </c>
-      <c r="D60" s="218" t="s">
+      <c r="D60" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="211" t="s">
+      <c r="E60" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="212"/>
+      <c r="F60" s="226"/>
       <c r="G60" s="99"/>
       <c r="H60" s="97"/>
     </row>
     <row r="61" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="228"/>
-      <c r="C61" s="232"/>
-      <c r="D61" s="218"/>
-      <c r="E61" s="211" t="s">
+      <c r="B61" s="233"/>
+      <c r="C61" s="222"/>
+      <c r="D61" s="224"/>
+      <c r="E61" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="212"/>
+      <c r="F61" s="226"/>
       <c r="G61" s="99"/>
       <c r="H61" s="97"/>
     </row>
     <row r="62" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="228"/>
-      <c r="C62" s="233"/>
-      <c r="D62" s="213" t="s">
+      <c r="B62" s="233"/>
+      <c r="C62" s="223"/>
+      <c r="D62" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="213"/>
-      <c r="F62" s="214"/>
-      <c r="G62" s="214"/>
-      <c r="H62" s="215"/>
+      <c r="E62" s="219"/>
+      <c r="F62" s="220"/>
+      <c r="G62" s="220"/>
+      <c r="H62" s="221"/>
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="228"/>
-      <c r="C63" s="234">
+      <c r="B63" s="233"/>
+      <c r="C63" s="235">
         <v>45436</v>
       </c>
-      <c r="D63" s="218" t="s">
+      <c r="D63" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="219" t="s">
+      <c r="E63" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="220"/>
+      <c r="F63" s="237"/>
       <c r="G63" s="98"/>
       <c r="H63" s="97"/>
     </row>
     <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="228"/>
-      <c r="C64" s="232"/>
-      <c r="D64" s="218"/>
-      <c r="E64" s="211" t="s">
+      <c r="B64" s="233"/>
+      <c r="C64" s="222"/>
+      <c r="D64" s="224"/>
+      <c r="E64" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="212"/>
+      <c r="F64" s="226"/>
       <c r="G64" s="98"/>
       <c r="H64" s="97"/>
     </row>
     <row r="65" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="228"/>
-      <c r="C65" s="232"/>
-      <c r="D65" s="218"/>
-      <c r="E65" s="211" t="s">
+      <c r="B65" s="233"/>
+      <c r="C65" s="222"/>
+      <c r="D65" s="224"/>
+      <c r="E65" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="212"/>
+      <c r="F65" s="226"/>
       <c r="G65" s="99"/>
       <c r="H65" s="97"/>
     </row>
     <row r="66" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="228"/>
-      <c r="C66" s="232"/>
-      <c r="D66" s="218"/>
-      <c r="E66" s="211" t="s">
+      <c r="B66" s="233"/>
+      <c r="C66" s="222"/>
+      <c r="D66" s="224"/>
+      <c r="E66" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="212"/>
+      <c r="F66" s="226"/>
       <c r="G66" s="99"/>
       <c r="H66" s="97"/>
     </row>
     <row r="67" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="229"/>
-      <c r="C67" s="233"/>
-      <c r="D67" s="213" t="s">
+      <c r="B67" s="234"/>
+      <c r="C67" s="223"/>
+      <c r="D67" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="213"/>
-      <c r="F67" s="214"/>
-      <c r="G67" s="214"/>
-      <c r="H67" s="215"/>
+      <c r="E67" s="219"/>
+      <c r="F67" s="220"/>
+      <c r="G67" s="220"/>
+      <c r="H67" s="221"/>
     </row>
     <row r="68" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="227" t="s">
+      <c r="B68" s="232" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="230">
+      <c r="C68" s="238">
         <v>45439</v>
       </c>
-      <c r="D68" s="218" t="s">
+      <c r="D68" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="216" t="s">
+      <c r="E68" s="240" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="217"/>
-      <c r="G68" s="224" t="s">
+      <c r="F68" s="241"/>
+      <c r="G68" s="250" t="s">
         <v>81</v>
       </c>
       <c r="H68" s="100"/>
     </row>
     <row r="69" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="228"/>
-      <c r="C69" s="230"/>
-      <c r="D69" s="218"/>
-      <c r="E69" s="216" t="s">
+      <c r="B69" s="233"/>
+      <c r="C69" s="238"/>
+      <c r="D69" s="224"/>
+      <c r="E69" s="240" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="217"/>
-      <c r="G69" s="225"/>
+      <c r="F69" s="241"/>
+      <c r="G69" s="251"/>
       <c r="H69" s="100"/>
     </row>
     <row r="70" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="228"/>
-      <c r="C70" s="230"/>
-      <c r="D70" s="218"/>
-      <c r="E70" s="216" t="s">
+      <c r="B70" s="233"/>
+      <c r="C70" s="238"/>
+      <c r="D70" s="224"/>
+      <c r="E70" s="240" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="217"/>
-      <c r="G70" s="225"/>
+      <c r="F70" s="241"/>
+      <c r="G70" s="251"/>
       <c r="H70" s="100"/>
     </row>
     <row r="71" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="228"/>
-      <c r="C71" s="230"/>
-      <c r="D71" s="218"/>
-      <c r="E71" s="216" t="s">
+      <c r="B71" s="233"/>
+      <c r="C71" s="238"/>
+      <c r="D71" s="224"/>
+      <c r="E71" s="240" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="217"/>
-      <c r="G71" s="226"/>
+      <c r="F71" s="241"/>
+      <c r="G71" s="252"/>
       <c r="H71" s="100"/>
     </row>
     <row r="72" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="228"/>
-      <c r="C72" s="231"/>
-      <c r="D72" s="221" t="s">
+      <c r="B72" s="233"/>
+      <c r="C72" s="239"/>
+      <c r="D72" s="242" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="221"/>
-      <c r="F72" s="222"/>
-      <c r="G72" s="222"/>
-      <c r="H72" s="223"/>
+      <c r="E72" s="242"/>
+      <c r="F72" s="253"/>
+      <c r="G72" s="253"/>
+      <c r="H72" s="254"/>
     </row>
     <row r="73" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="228"/>
-      <c r="C73" s="234">
+      <c r="B73" s="233"/>
+      <c r="C73" s="235">
         <v>45441</v>
       </c>
-      <c r="D73" s="218" t="s">
+      <c r="D73" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="219" t="s">
+      <c r="E73" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="220"/>
+      <c r="F73" s="237"/>
       <c r="G73" s="98"/>
       <c r="H73" s="97"/>
     </row>
     <row r="74" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="228"/>
-      <c r="C74" s="232"/>
-      <c r="D74" s="218"/>
-      <c r="E74" s="211" t="s">
+      <c r="B74" s="233"/>
+      <c r="C74" s="222"/>
+      <c r="D74" s="224"/>
+      <c r="E74" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="212"/>
+      <c r="F74" s="226"/>
       <c r="G74" s="98"/>
       <c r="H74" s="97"/>
     </row>
     <row r="75" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="228"/>
-      <c r="C75" s="232"/>
-      <c r="D75" s="218"/>
-      <c r="E75" s="211" t="s">
+      <c r="B75" s="233"/>
+      <c r="C75" s="222"/>
+      <c r="D75" s="224"/>
+      <c r="E75" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="212"/>
+      <c r="F75" s="226"/>
       <c r="G75" s="99"/>
       <c r="H75" s="97"/>
     </row>
     <row r="76" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="228"/>
-      <c r="C76" s="232"/>
-      <c r="D76" s="218"/>
-      <c r="E76" s="211" t="s">
+      <c r="B76" s="233"/>
+      <c r="C76" s="222"/>
+      <c r="D76" s="224"/>
+      <c r="E76" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="212"/>
+      <c r="F76" s="226"/>
       <c r="G76" s="99"/>
       <c r="H76" s="97"/>
     </row>
     <row r="77" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="228"/>
-      <c r="C77" s="233"/>
-      <c r="D77" s="213" t="s">
+      <c r="B77" s="233"/>
+      <c r="C77" s="223"/>
+      <c r="D77" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="213"/>
-      <c r="F77" s="214"/>
-      <c r="G77" s="214"/>
-      <c r="H77" s="215"/>
+      <c r="E77" s="219"/>
+      <c r="F77" s="220"/>
+      <c r="G77" s="220"/>
+      <c r="H77" s="221"/>
     </row>
     <row r="78" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="228"/>
-      <c r="C78" s="232">
+      <c r="B78" s="233"/>
+      <c r="C78" s="222">
         <v>45442</v>
       </c>
-      <c r="D78" s="218" t="s">
+      <c r="D78" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="211" t="s">
+      <c r="E78" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="212"/>
+      <c r="F78" s="226"/>
       <c r="G78" s="99"/>
       <c r="H78" s="97"/>
     </row>
     <row r="79" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="228"/>
-      <c r="C79" s="232"/>
-      <c r="D79" s="218"/>
-      <c r="E79" s="211" t="s">
+      <c r="B79" s="233"/>
+      <c r="C79" s="222"/>
+      <c r="D79" s="224"/>
+      <c r="E79" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="212"/>
+      <c r="F79" s="226"/>
       <c r="G79" s="99"/>
       <c r="H79" s="97"/>
     </row>
     <row r="80" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="228"/>
-      <c r="C80" s="233"/>
-      <c r="D80" s="213" t="s">
+      <c r="B80" s="233"/>
+      <c r="C80" s="223"/>
+      <c r="D80" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="213"/>
-      <c r="F80" s="214"/>
-      <c r="G80" s="214"/>
-      <c r="H80" s="215"/>
+      <c r="E80" s="219"/>
+      <c r="F80" s="220"/>
+      <c r="G80" s="220"/>
+      <c r="H80" s="221"/>
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="228"/>
-      <c r="C81" s="234">
+      <c r="B81" s="233"/>
+      <c r="C81" s="235">
         <v>45443</v>
       </c>
-      <c r="D81" s="218" t="s">
+      <c r="D81" s="224" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="219" t="s">
+      <c r="E81" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="220"/>
+      <c r="F81" s="237"/>
       <c r="G81" s="98"/>
       <c r="H81" s="97"/>
     </row>
     <row r="82" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="228"/>
-      <c r="C82" s="232"/>
-      <c r="D82" s="218"/>
-      <c r="E82" s="211" t="s">
+      <c r="B82" s="233"/>
+      <c r="C82" s="222"/>
+      <c r="D82" s="224"/>
+      <c r="E82" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="212"/>
+      <c r="F82" s="226"/>
       <c r="G82" s="98"/>
       <c r="H82" s="97"/>
     </row>
     <row r="83" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="228"/>
-      <c r="C83" s="232"/>
-      <c r="D83" s="218"/>
-      <c r="E83" s="211" t="s">
+      <c r="B83" s="233"/>
+      <c r="C83" s="222"/>
+      <c r="D83" s="224"/>
+      <c r="E83" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="212"/>
+      <c r="F83" s="226"/>
       <c r="G83" s="99"/>
       <c r="H83" s="97"/>
     </row>
     <row r="84" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="228"/>
-      <c r="C84" s="232"/>
-      <c r="D84" s="218"/>
-      <c r="E84" s="211" t="s">
+      <c r="B84" s="233"/>
+      <c r="C84" s="222"/>
+      <c r="D84" s="224"/>
+      <c r="E84" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="212"/>
+      <c r="F84" s="226"/>
       <c r="G84" s="99"/>
       <c r="H84" s="97"/>
     </row>
     <row r="85" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="229"/>
-      <c r="C85" s="233"/>
-      <c r="D85" s="213" t="s">
+      <c r="B85" s="234"/>
+      <c r="C85" s="223"/>
+      <c r="D85" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="213"/>
-      <c r="F85" s="214"/>
-      <c r="G85" s="214"/>
-      <c r="H85" s="215"/>
+      <c r="E85" s="219"/>
+      <c r="F85" s="220"/>
+      <c r="G85" s="220"/>
+      <c r="H85" s="221"/>
     </row>
     <row r="86" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="227" t="s">
+      <c r="B86" s="232" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="232">
+      <c r="C86" s="222">
         <v>45446</v>
       </c>
-      <c r="D86" s="218" t="s">
+      <c r="D86" s="224" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="211" t="s">
+      <c r="E86" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="212"/>
+      <c r="F86" s="226"/>
       <c r="G86" s="98"/>
       <c r="H86" s="97"/>
     </row>
     <row r="87" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="228"/>
-      <c r="C87" s="232"/>
-      <c r="D87" s="218"/>
-      <c r="E87" s="211" t="s">
+      <c r="B87" s="233"/>
+      <c r="C87" s="222"/>
+      <c r="D87" s="224"/>
+      <c r="E87" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="212"/>
+      <c r="F87" s="226"/>
       <c r="G87" s="98"/>
       <c r="H87" s="97"/>
     </row>
     <row r="88" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="228"/>
-      <c r="C88" s="232"/>
-      <c r="D88" s="218"/>
-      <c r="E88" s="211" t="s">
+      <c r="B88" s="233"/>
+      <c r="C88" s="222"/>
+      <c r="D88" s="224"/>
+      <c r="E88" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="212"/>
+      <c r="F88" s="226"/>
       <c r="G88" s="99"/>
       <c r="H88" s="97"/>
     </row>
     <row r="89" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="228"/>
-      <c r="C89" s="232"/>
-      <c r="D89" s="218"/>
-      <c r="E89" s="211" t="s">
+      <c r="B89" s="233"/>
+      <c r="C89" s="222"/>
+      <c r="D89" s="224"/>
+      <c r="E89" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="212"/>
+      <c r="F89" s="226"/>
       <c r="G89" s="99"/>
       <c r="H89" s="97"/>
     </row>
     <row r="90" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="229"/>
-      <c r="C90" s="233"/>
-      <c r="D90" s="213" t="s">
+      <c r="B90" s="234"/>
+      <c r="C90" s="223"/>
+      <c r="D90" s="219" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="213"/>
-      <c r="F90" s="214"/>
-      <c r="G90" s="214"/>
-      <c r="H90" s="215"/>
+      <c r="E90" s="219"/>
+      <c r="F90" s="220"/>
+      <c r="G90" s="220"/>
+      <c r="H90" s="221"/>
     </row>
   </sheetData>
-  <mergeCells count="154">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G6:G7"/>
+  <mergeCells count="156">
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="B68:B85"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="B32:B49"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B31"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="B86:B90"/>
     <mergeCell ref="C86:C90"/>
     <mergeCell ref="C81:C85"/>
@@ -45894,135 +46036,26 @@
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B31"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B32:B49"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="B68:B85"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G6:G7"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H12" r:id="rId1" xr:uid="{A2C1CB60-4940-405A-AF22-2260F5964F0A}"/>
     <hyperlink ref="H9" r:id="rId2" xr:uid="{0D5DF0F1-4CFD-41DA-A1F2-0EAD6821EA81}"/>
     <hyperlink ref="H10" r:id="rId3" xr:uid="{618F8270-C5E0-4F55-B7AA-2FD75A1D5B20}"/>
     <hyperlink ref="H11" r:id="rId4" xr:uid="{5E44CE8F-9AF2-48AB-92D2-D4A0A6B3BE16}"/>
+    <hyperlink ref="H14:H15" r:id="rId5" display="https://www.figma.com" xr:uid="{8E49F496-1765-4153-A76C-D8D361FDFECC}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="70" orientation="landscape" r:id="rId5"/>
+  <pageSetup scale="56" orientation="landscape" r:id="rId6"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="13" max="16383" man="1"/>
   </rowBreaks>

--- a/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
+++ b/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq34bsi\Desktop\TPI-GestionApiculture\doc\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611925B7-C06C-42CB-9807-F49661A16344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249DDB25-BA44-4A11-A4CE-20D5D6F9B888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="99">
   <si>
     <t>Nom, Prénom</t>
   </si>
@@ -355,6 +355,17 @@
     <t>Réalisation de la maquette du site avec figma 
 (5 pages: Login, Home, Activities, Details-rucher, Details-ruche)</t>
   </si>
+  <si>
+    <t>Rédaction du rapport (Introduction, objectifs, concept, méthode de projet, techonologies)
+Établissement de la stratégie de test</t>
+  </si>
+  <si>
+    <t>https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/doc/Sources</t>
+  </si>
+  <si>
+    <t>J'ai pris de l'avance sur ma planification en terminant la maquette assé rapidement ce qui ma permis de pouvoir bien débuté mon rapport.
+Pour l'instant je suis satisfait de l'avancement de mon TPI</t>
+  </si>
 </sst>
 </file>
 
@@ -559,7 +570,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="89">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -1633,12 +1644,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1933,6 +1957,171 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1957,20 +2146,8 @@
     <xf numFmtId="20" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2023,158 +2200,23 @@
     <xf numFmtId="20" fontId="8" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2185,19 +2227,82 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2209,88 +2314,13 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3759,74 +3789,74 @@
     </row>
     <row r="4" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="202" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="152"/>
-      <c r="D4" s="157" t="s">
+      <c r="C4" s="203"/>
+      <c r="D4" s="208" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-      <c r="O4" s="158"/>
-      <c r="P4" s="158"/>
-      <c r="Q4" s="159" t="s">
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="209"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
+      <c r="P4" s="209"/>
+      <c r="Q4" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159"/>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="159"/>
-      <c r="W4" s="159"/>
-      <c r="X4" s="159"/>
-      <c r="Y4" s="159"/>
-      <c r="Z4" s="159"/>
-      <c r="AA4" s="159"/>
-      <c r="AB4" s="159"/>
-      <c r="AC4" s="159"/>
-      <c r="AD4" s="159"/>
-      <c r="AE4" s="159"/>
-      <c r="AF4" s="159"/>
-      <c r="AG4" s="159"/>
-      <c r="AH4" s="159"/>
-      <c r="AI4" s="159"/>
-      <c r="AJ4" s="159"/>
-      <c r="AK4" s="159"/>
-      <c r="AL4" s="159"/>
-      <c r="AM4" s="159"/>
-      <c r="AN4" s="159"/>
-      <c r="AO4" s="159"/>
-      <c r="AP4" s="159"/>
-      <c r="AQ4" s="159"/>
-      <c r="AR4" s="159"/>
-      <c r="AS4" s="159"/>
-      <c r="AT4" s="159"/>
-      <c r="AU4" s="159"/>
-      <c r="AV4" s="159"/>
-      <c r="AW4" s="159"/>
-      <c r="AX4" s="159"/>
-      <c r="AY4" s="159"/>
-      <c r="AZ4" s="159"/>
-      <c r="BA4" s="159"/>
-      <c r="BB4" s="159"/>
-      <c r="BC4" s="159"/>
-      <c r="BD4" s="159"/>
-      <c r="BE4" s="159"/>
-      <c r="BF4" s="159"/>
-      <c r="BG4" s="159"/>
-      <c r="BH4" s="159"/>
-      <c r="BI4" s="159"/>
-      <c r="BJ4" s="159"/>
-      <c r="BK4" s="160"/>
+      <c r="R4" s="210"/>
+      <c r="S4" s="210"/>
+      <c r="T4" s="210"/>
+      <c r="U4" s="210"/>
+      <c r="V4" s="210"/>
+      <c r="W4" s="210"/>
+      <c r="X4" s="210"/>
+      <c r="Y4" s="210"/>
+      <c r="Z4" s="210"/>
+      <c r="AA4" s="210"/>
+      <c r="AB4" s="210"/>
+      <c r="AC4" s="210"/>
+      <c r="AD4" s="210"/>
+      <c r="AE4" s="210"/>
+      <c r="AF4" s="210"/>
+      <c r="AG4" s="210"/>
+      <c r="AH4" s="210"/>
+      <c r="AI4" s="210"/>
+      <c r="AJ4" s="210"/>
+      <c r="AK4" s="210"/>
+      <c r="AL4" s="210"/>
+      <c r="AM4" s="210"/>
+      <c r="AN4" s="210"/>
+      <c r="AO4" s="210"/>
+      <c r="AP4" s="210"/>
+      <c r="AQ4" s="210"/>
+      <c r="AR4" s="210"/>
+      <c r="AS4" s="210"/>
+      <c r="AT4" s="210"/>
+      <c r="AU4" s="210"/>
+      <c r="AV4" s="210"/>
+      <c r="AW4" s="210"/>
+      <c r="AX4" s="210"/>
+      <c r="AY4" s="210"/>
+      <c r="AZ4" s="210"/>
+      <c r="BA4" s="210"/>
+      <c r="BB4" s="210"/>
+      <c r="BC4" s="210"/>
+      <c r="BD4" s="210"/>
+      <c r="BE4" s="210"/>
+      <c r="BF4" s="210"/>
+      <c r="BG4" s="210"/>
+      <c r="BH4" s="210"/>
+      <c r="BI4" s="210"/>
+      <c r="BJ4" s="210"/>
+      <c r="BK4" s="211"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
@@ -4067,8 +4097,8 @@
       <c r="KO4" s="6"/>
       <c r="KP4" s="6"/>
       <c r="KQ4" s="6"/>
-      <c r="KR4" s="215"/>
-      <c r="KS4" s="215"/>
+      <c r="KR4" s="143"/>
+      <c r="KS4" s="143"/>
       <c r="KT4" s="6"/>
       <c r="KU4" s="6"/>
       <c r="KV4" s="6"/>
@@ -4342,76 +4372,76 @@
     </row>
     <row r="5" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="161" t="s">
+      <c r="B5" s="204"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
-      <c r="I5" s="162"/>
-      <c r="J5" s="162"/>
-      <c r="K5" s="162"/>
-      <c r="L5" s="162"/>
-      <c r="M5" s="162"/>
-      <c r="N5" s="162"/>
-      <c r="O5" s="162"/>
-      <c r="P5" s="162"/>
-      <c r="Q5" s="163" t="s">
+      <c r="E5" s="213"/>
+      <c r="F5" s="213"/>
+      <c r="G5" s="213"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="213"/>
+      <c r="J5" s="213"/>
+      <c r="K5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="213"/>
+      <c r="P5" s="213"/>
+      <c r="Q5" s="214" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="163"/>
-      <c r="S5" s="163"/>
-      <c r="T5" s="163"/>
-      <c r="U5" s="163"/>
-      <c r="V5" s="163"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="163"/>
-      <c r="Y5" s="163"/>
-      <c r="Z5" s="163"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="162" t="s">
+      <c r="R5" s="214"/>
+      <c r="S5" s="214"/>
+      <c r="T5" s="214"/>
+      <c r="U5" s="214"/>
+      <c r="V5" s="214"/>
+      <c r="W5" s="214"/>
+      <c r="X5" s="214"/>
+      <c r="Y5" s="214"/>
+      <c r="Z5" s="214"/>
+      <c r="AA5" s="214"/>
+      <c r="AB5" s="213" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="162"/>
-      <c r="AD5" s="162"/>
-      <c r="AE5" s="162"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="162"/>
-      <c r="AK5" s="162"/>
-      <c r="AL5" s="162"/>
-      <c r="AM5" s="162"/>
-      <c r="AN5" s="162"/>
-      <c r="AO5" s="163" t="s">
+      <c r="AC5" s="213"/>
+      <c r="AD5" s="213"/>
+      <c r="AE5" s="213"/>
+      <c r="AF5" s="213"/>
+      <c r="AG5" s="213"/>
+      <c r="AH5" s="213"/>
+      <c r="AI5" s="213"/>
+      <c r="AJ5" s="213"/>
+      <c r="AK5" s="213"/>
+      <c r="AL5" s="213"/>
+      <c r="AM5" s="213"/>
+      <c r="AN5" s="213"/>
+      <c r="AO5" s="214" t="s">
         <v>5</v>
       </c>
-      <c r="AP5" s="163"/>
-      <c r="AQ5" s="163"/>
-      <c r="AR5" s="163"/>
-      <c r="AS5" s="163"/>
-      <c r="AT5" s="163"/>
-      <c r="AU5" s="163"/>
-      <c r="AV5" s="163"/>
-      <c r="AW5" s="163"/>
-      <c r="AX5" s="163"/>
-      <c r="AY5" s="163"/>
-      <c r="AZ5" s="163"/>
-      <c r="BA5" s="163"/>
-      <c r="BB5" s="163"/>
-      <c r="BC5" s="163"/>
-      <c r="BD5" s="163"/>
-      <c r="BE5" s="163"/>
-      <c r="BF5" s="163"/>
-      <c r="BG5" s="163"/>
-      <c r="BH5" s="163"/>
-      <c r="BI5" s="163"/>
-      <c r="BJ5" s="163"/>
-      <c r="BK5" s="164"/>
+      <c r="AP5" s="214"/>
+      <c r="AQ5" s="214"/>
+      <c r="AR5" s="214"/>
+      <c r="AS5" s="214"/>
+      <c r="AT5" s="214"/>
+      <c r="AU5" s="214"/>
+      <c r="AV5" s="214"/>
+      <c r="AW5" s="214"/>
+      <c r="AX5" s="214"/>
+      <c r="AY5" s="214"/>
+      <c r="AZ5" s="214"/>
+      <c r="BA5" s="214"/>
+      <c r="BB5" s="214"/>
+      <c r="BC5" s="214"/>
+      <c r="BD5" s="214"/>
+      <c r="BE5" s="214"/>
+      <c r="BF5" s="214"/>
+      <c r="BG5" s="214"/>
+      <c r="BH5" s="214"/>
+      <c r="BI5" s="214"/>
+      <c r="BJ5" s="214"/>
+      <c r="BK5" s="215"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
@@ -4652,8 +4682,8 @@
       <c r="KO5" s="6"/>
       <c r="KP5" s="6"/>
       <c r="KQ5" s="6"/>
-      <c r="KR5" s="215"/>
-      <c r="KS5" s="215"/>
+      <c r="KR5" s="143"/>
+      <c r="KS5" s="143"/>
       <c r="KT5" s="6"/>
       <c r="KU5" s="6"/>
       <c r="KV5" s="6"/>
@@ -4927,76 +4957,76 @@
     </row>
     <row r="6" spans="1:575" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="155"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="165" t="s">
+      <c r="B6" s="206"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="166"/>
-      <c r="F6" s="166"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="166"/>
-      <c r="J6" s="166"/>
-      <c r="K6" s="166"/>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="166"/>
-      <c r="P6" s="166"/>
-      <c r="Q6" s="167" t="s">
+      <c r="E6" s="217"/>
+      <c r="F6" s="217"/>
+      <c r="G6" s="217"/>
+      <c r="H6" s="217"/>
+      <c r="I6" s="217"/>
+      <c r="J6" s="217"/>
+      <c r="K6" s="217"/>
+      <c r="L6" s="217"/>
+      <c r="M6" s="217"/>
+      <c r="N6" s="217"/>
+      <c r="O6" s="217"/>
+      <c r="P6" s="217"/>
+      <c r="Q6" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="166" t="s">
+      <c r="R6" s="218"/>
+      <c r="S6" s="218"/>
+      <c r="T6" s="218"/>
+      <c r="U6" s="218"/>
+      <c r="V6" s="218"/>
+      <c r="W6" s="218"/>
+      <c r="X6" s="218"/>
+      <c r="Y6" s="218"/>
+      <c r="Z6" s="218"/>
+      <c r="AA6" s="218"/>
+      <c r="AB6" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="166"/>
-      <c r="AD6" s="166"/>
-      <c r="AE6" s="166"/>
-      <c r="AF6" s="166"/>
-      <c r="AG6" s="166"/>
-      <c r="AH6" s="166"/>
-      <c r="AI6" s="166"/>
-      <c r="AJ6" s="166"/>
-      <c r="AK6" s="166"/>
-      <c r="AL6" s="166"/>
-      <c r="AM6" s="166"/>
-      <c r="AN6" s="166"/>
-      <c r="AO6" s="138" t="s">
+      <c r="AC6" s="217"/>
+      <c r="AD6" s="217"/>
+      <c r="AE6" s="217"/>
+      <c r="AF6" s="217"/>
+      <c r="AG6" s="217"/>
+      <c r="AH6" s="217"/>
+      <c r="AI6" s="217"/>
+      <c r="AJ6" s="217"/>
+      <c r="AK6" s="217"/>
+      <c r="AL6" s="217"/>
+      <c r="AM6" s="217"/>
+      <c r="AN6" s="217"/>
+      <c r="AO6" s="193" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="138"/>
-      <c r="AQ6" s="138"/>
-      <c r="AR6" s="138"/>
-      <c r="AS6" s="138"/>
-      <c r="AT6" s="138"/>
-      <c r="AU6" s="138"/>
-      <c r="AV6" s="138"/>
-      <c r="AW6" s="138"/>
-      <c r="AX6" s="138"/>
-      <c r="AY6" s="138"/>
-      <c r="AZ6" s="138"/>
-      <c r="BA6" s="138"/>
-      <c r="BB6" s="138"/>
-      <c r="BC6" s="138"/>
-      <c r="BD6" s="138"/>
-      <c r="BE6" s="138"/>
-      <c r="BF6" s="138"/>
-      <c r="BG6" s="138"/>
-      <c r="BH6" s="138"/>
-      <c r="BI6" s="138"/>
-      <c r="BJ6" s="138"/>
-      <c r="BK6" s="139"/>
+      <c r="AP6" s="193"/>
+      <c r="AQ6" s="193"/>
+      <c r="AR6" s="193"/>
+      <c r="AS6" s="193"/>
+      <c r="AT6" s="193"/>
+      <c r="AU6" s="193"/>
+      <c r="AV6" s="193"/>
+      <c r="AW6" s="193"/>
+      <c r="AX6" s="193"/>
+      <c r="AY6" s="193"/>
+      <c r="AZ6" s="193"/>
+      <c r="BA6" s="193"/>
+      <c r="BB6" s="193"/>
+      <c r="BC6" s="193"/>
+      <c r="BD6" s="193"/>
+      <c r="BE6" s="193"/>
+      <c r="BF6" s="193"/>
+      <c r="BG6" s="193"/>
+      <c r="BH6" s="193"/>
+      <c r="BI6" s="193"/>
+      <c r="BJ6" s="193"/>
+      <c r="BK6" s="194"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8"/>
@@ -5237,8 +5267,8 @@
       <c r="KO6" s="6"/>
       <c r="KP6" s="6"/>
       <c r="KQ6" s="6"/>
-      <c r="KR6" s="215"/>
-      <c r="KS6" s="215"/>
+      <c r="KR6" s="143"/>
+      <c r="KS6" s="143"/>
       <c r="KT6" s="6"/>
       <c r="KU6" s="6"/>
       <c r="KV6" s="6"/>
@@ -5512,70 +5542,70 @@
     </row>
     <row r="7" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="195" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="141"/>
-      <c r="N7" s="141"/>
-      <c r="O7" s="141"/>
-      <c r="P7" s="141"/>
-      <c r="Q7" s="141"/>
-      <c r="R7" s="141"/>
-      <c r="S7" s="141"/>
-      <c r="T7" s="141"/>
-      <c r="U7" s="141"/>
-      <c r="V7" s="141"/>
-      <c r="W7" s="141"/>
-      <c r="X7" s="141"/>
-      <c r="Y7" s="141"/>
-      <c r="Z7" s="141"/>
-      <c r="AA7" s="141"/>
-      <c r="AB7" s="141"/>
-      <c r="AC7" s="141"/>
-      <c r="AD7" s="141"/>
-      <c r="AE7" s="141"/>
-      <c r="AF7" s="141"/>
-      <c r="AG7" s="141"/>
-      <c r="AH7" s="141"/>
-      <c r="AI7" s="141"/>
-      <c r="AJ7" s="141"/>
-      <c r="AK7" s="141"/>
-      <c r="AL7" s="141"/>
-      <c r="AM7" s="141"/>
-      <c r="AN7" s="141"/>
-      <c r="AO7" s="141"/>
-      <c r="AP7" s="141"/>
-      <c r="AQ7" s="141"/>
-      <c r="AR7" s="141"/>
-      <c r="AS7" s="141"/>
-      <c r="AT7" s="141"/>
-      <c r="AU7" s="141"/>
-      <c r="AV7" s="141"/>
-      <c r="AW7" s="141"/>
-      <c r="AX7" s="141"/>
-      <c r="AY7" s="141"/>
-      <c r="AZ7" s="141"/>
-      <c r="BA7" s="141"/>
-      <c r="BB7" s="141"/>
-      <c r="BC7" s="141"/>
-      <c r="BD7" s="141"/>
-      <c r="BE7" s="141"/>
-      <c r="BF7" s="141"/>
-      <c r="BG7" s="141"/>
-      <c r="BH7" s="141"/>
-      <c r="BI7" s="141"/>
-      <c r="BJ7" s="141"/>
-      <c r="BK7" s="142"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="196"/>
+      <c r="P7" s="196"/>
+      <c r="Q7" s="196"/>
+      <c r="R7" s="196"/>
+      <c r="S7" s="196"/>
+      <c r="T7" s="196"/>
+      <c r="U7" s="196"/>
+      <c r="V7" s="196"/>
+      <c r="W7" s="196"/>
+      <c r="X7" s="196"/>
+      <c r="Y7" s="196"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="196"/>
+      <c r="AD7" s="196"/>
+      <c r="AE7" s="196"/>
+      <c r="AF7" s="196"/>
+      <c r="AG7" s="196"/>
+      <c r="AH7" s="196"/>
+      <c r="AI7" s="196"/>
+      <c r="AJ7" s="196"/>
+      <c r="AK7" s="196"/>
+      <c r="AL7" s="196"/>
+      <c r="AM7" s="196"/>
+      <c r="AN7" s="196"/>
+      <c r="AO7" s="196"/>
+      <c r="AP7" s="196"/>
+      <c r="AQ7" s="196"/>
+      <c r="AR7" s="196"/>
+      <c r="AS7" s="196"/>
+      <c r="AT7" s="196"/>
+      <c r="AU7" s="196"/>
+      <c r="AV7" s="196"/>
+      <c r="AW7" s="196"/>
+      <c r="AX7" s="196"/>
+      <c r="AY7" s="196"/>
+      <c r="AZ7" s="196"/>
+      <c r="BA7" s="196"/>
+      <c r="BB7" s="196"/>
+      <c r="BC7" s="196"/>
+      <c r="BD7" s="196"/>
+      <c r="BE7" s="196"/>
+      <c r="BF7" s="196"/>
+      <c r="BG7" s="196"/>
+      <c r="BH7" s="196"/>
+      <c r="BI7" s="196"/>
+      <c r="BJ7" s="196"/>
+      <c r="BK7" s="197"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9"/>
@@ -6091,68 +6121,68 @@
     </row>
     <row r="8" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="141"/>
-      <c r="D8" s="141"/>
-      <c r="E8" s="141"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="141"/>
-      <c r="H8" s="141"/>
-      <c r="I8" s="141"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="141"/>
-      <c r="L8" s="141"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="141"/>
-      <c r="P8" s="141"/>
-      <c r="Q8" s="141"/>
-      <c r="R8" s="141"/>
-      <c r="S8" s="141"/>
-      <c r="T8" s="141"/>
-      <c r="U8" s="141"/>
-      <c r="V8" s="141"/>
-      <c r="W8" s="141"/>
-      <c r="X8" s="141"/>
-      <c r="Y8" s="141"/>
-      <c r="Z8" s="141"/>
-      <c r="AA8" s="141"/>
-      <c r="AB8" s="141"/>
-      <c r="AC8" s="141"/>
-      <c r="AD8" s="141"/>
-      <c r="AE8" s="141"/>
-      <c r="AF8" s="141"/>
-      <c r="AG8" s="141"/>
-      <c r="AH8" s="141"/>
-      <c r="AI8" s="141"/>
-      <c r="AJ8" s="141"/>
-      <c r="AK8" s="141"/>
-      <c r="AL8" s="141"/>
-      <c r="AM8" s="141"/>
-      <c r="AN8" s="141"/>
-      <c r="AO8" s="141"/>
-      <c r="AP8" s="141"/>
-      <c r="AQ8" s="141"/>
-      <c r="AR8" s="141"/>
-      <c r="AS8" s="141"/>
-      <c r="AT8" s="141"/>
-      <c r="AU8" s="141"/>
-      <c r="AV8" s="141"/>
-      <c r="AW8" s="141"/>
-      <c r="AX8" s="141"/>
-      <c r="AY8" s="141"/>
-      <c r="AZ8" s="141"/>
-      <c r="BA8" s="141"/>
-      <c r="BB8" s="141"/>
-      <c r="BC8" s="141"/>
-      <c r="BD8" s="141"/>
-      <c r="BE8" s="141"/>
-      <c r="BF8" s="141"/>
-      <c r="BG8" s="141"/>
-      <c r="BH8" s="141"/>
-      <c r="BI8" s="141"/>
-      <c r="BJ8" s="141"/>
-      <c r="BK8" s="142"/>
+      <c r="B8" s="195"/>
+      <c r="C8" s="196"/>
+      <c r="D8" s="196"/>
+      <c r="E8" s="196"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="196"/>
+      <c r="N8" s="196"/>
+      <c r="O8" s="196"/>
+      <c r="P8" s="196"/>
+      <c r="Q8" s="196"/>
+      <c r="R8" s="196"/>
+      <c r="S8" s="196"/>
+      <c r="T8" s="196"/>
+      <c r="U8" s="196"/>
+      <c r="V8" s="196"/>
+      <c r="W8" s="196"/>
+      <c r="X8" s="196"/>
+      <c r="Y8" s="196"/>
+      <c r="Z8" s="196"/>
+      <c r="AA8" s="196"/>
+      <c r="AB8" s="196"/>
+      <c r="AC8" s="196"/>
+      <c r="AD8" s="196"/>
+      <c r="AE8" s="196"/>
+      <c r="AF8" s="196"/>
+      <c r="AG8" s="196"/>
+      <c r="AH8" s="196"/>
+      <c r="AI8" s="196"/>
+      <c r="AJ8" s="196"/>
+      <c r="AK8" s="196"/>
+      <c r="AL8" s="196"/>
+      <c r="AM8" s="196"/>
+      <c r="AN8" s="196"/>
+      <c r="AO8" s="196"/>
+      <c r="AP8" s="196"/>
+      <c r="AQ8" s="196"/>
+      <c r="AR8" s="196"/>
+      <c r="AS8" s="196"/>
+      <c r="AT8" s="196"/>
+      <c r="AU8" s="196"/>
+      <c r="AV8" s="196"/>
+      <c r="AW8" s="196"/>
+      <c r="AX8" s="196"/>
+      <c r="AY8" s="196"/>
+      <c r="AZ8" s="196"/>
+      <c r="BA8" s="196"/>
+      <c r="BB8" s="196"/>
+      <c r="BC8" s="196"/>
+      <c r="BD8" s="196"/>
+      <c r="BE8" s="196"/>
+      <c r="BF8" s="196"/>
+      <c r="BG8" s="196"/>
+      <c r="BH8" s="196"/>
+      <c r="BI8" s="196"/>
+      <c r="BJ8" s="196"/>
+      <c r="BK8" s="197"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
@@ -6668,68 +6698,68 @@
     </row>
     <row r="9" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="143"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
-      <c r="Q9" s="144"/>
-      <c r="R9" s="144"/>
-      <c r="S9" s="144"/>
-      <c r="T9" s="144"/>
-      <c r="U9" s="144"/>
-      <c r="V9" s="144"/>
-      <c r="W9" s="144"/>
-      <c r="X9" s="144"/>
-      <c r="Y9" s="144"/>
-      <c r="Z9" s="144"/>
-      <c r="AA9" s="144"/>
-      <c r="AB9" s="144"/>
-      <c r="AC9" s="144"/>
-      <c r="AD9" s="144"/>
-      <c r="AE9" s="144"/>
-      <c r="AF9" s="144"/>
-      <c r="AG9" s="144"/>
-      <c r="AH9" s="144"/>
-      <c r="AI9" s="144"/>
-      <c r="AJ9" s="144"/>
-      <c r="AK9" s="144"/>
-      <c r="AL9" s="144"/>
-      <c r="AM9" s="144"/>
-      <c r="AN9" s="144"/>
-      <c r="AO9" s="144"/>
-      <c r="AP9" s="144"/>
-      <c r="AQ9" s="144"/>
-      <c r="AR9" s="144"/>
-      <c r="AS9" s="144"/>
-      <c r="AT9" s="144"/>
-      <c r="AU9" s="144"/>
-      <c r="AV9" s="144"/>
-      <c r="AW9" s="144"/>
-      <c r="AX9" s="144"/>
-      <c r="AY9" s="144"/>
-      <c r="AZ9" s="144"/>
-      <c r="BA9" s="144"/>
-      <c r="BB9" s="144"/>
-      <c r="BC9" s="144"/>
-      <c r="BD9" s="144"/>
-      <c r="BE9" s="144"/>
-      <c r="BF9" s="144"/>
-      <c r="BG9" s="144"/>
-      <c r="BH9" s="144"/>
-      <c r="BI9" s="144"/>
-      <c r="BJ9" s="144"/>
-      <c r="BK9" s="145"/>
+      <c r="B9" s="198"/>
+      <c r="C9" s="199"/>
+      <c r="D9" s="199"/>
+      <c r="E9" s="199"/>
+      <c r="F9" s="199"/>
+      <c r="G9" s="199"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="199"/>
+      <c r="J9" s="199"/>
+      <c r="K9" s="199"/>
+      <c r="L9" s="199"/>
+      <c r="M9" s="199"/>
+      <c r="N9" s="199"/>
+      <c r="O9" s="199"/>
+      <c r="P9" s="199"/>
+      <c r="Q9" s="199"/>
+      <c r="R9" s="199"/>
+      <c r="S9" s="199"/>
+      <c r="T9" s="199"/>
+      <c r="U9" s="199"/>
+      <c r="V9" s="199"/>
+      <c r="W9" s="199"/>
+      <c r="X9" s="199"/>
+      <c r="Y9" s="199"/>
+      <c r="Z9" s="199"/>
+      <c r="AA9" s="199"/>
+      <c r="AB9" s="199"/>
+      <c r="AC9" s="199"/>
+      <c r="AD9" s="199"/>
+      <c r="AE9" s="199"/>
+      <c r="AF9" s="199"/>
+      <c r="AG9" s="199"/>
+      <c r="AH9" s="199"/>
+      <c r="AI9" s="199"/>
+      <c r="AJ9" s="199"/>
+      <c r="AK9" s="199"/>
+      <c r="AL9" s="199"/>
+      <c r="AM9" s="199"/>
+      <c r="AN9" s="199"/>
+      <c r="AO9" s="199"/>
+      <c r="AP9" s="199"/>
+      <c r="AQ9" s="199"/>
+      <c r="AR9" s="199"/>
+      <c r="AS9" s="199"/>
+      <c r="AT9" s="199"/>
+      <c r="AU9" s="199"/>
+      <c r="AV9" s="199"/>
+      <c r="AW9" s="199"/>
+      <c r="AX9" s="199"/>
+      <c r="AY9" s="199"/>
+      <c r="AZ9" s="199"/>
+      <c r="BA9" s="199"/>
+      <c r="BB9" s="199"/>
+      <c r="BC9" s="199"/>
+      <c r="BD9" s="199"/>
+      <c r="BE9" s="199"/>
+      <c r="BF9" s="199"/>
+      <c r="BG9" s="199"/>
+      <c r="BH9" s="199"/>
+      <c r="BI9" s="199"/>
+      <c r="BJ9" s="199"/>
+      <c r="BK9" s="200"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
@@ -8399,1223 +8429,1223 @@
     </row>
     <row r="12" spans="1:575" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="147"/>
-      <c r="D12" s="148" t="s">
+      <c r="C12" s="201"/>
+      <c r="D12" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="149"/>
-      <c r="F12" s="149"/>
-      <c r="G12" s="149"/>
-      <c r="H12" s="149"/>
-      <c r="I12" s="149"/>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
-      <c r="L12" s="149"/>
-      <c r="M12" s="149"/>
-      <c r="N12" s="149"/>
-      <c r="O12" s="149"/>
-      <c r="P12" s="149"/>
-      <c r="Q12" s="149"/>
-      <c r="R12" s="149"/>
-      <c r="S12" s="149"/>
-      <c r="T12" s="149"/>
-      <c r="U12" s="149"/>
-      <c r="V12" s="149"/>
-      <c r="W12" s="149"/>
-      <c r="X12" s="149"/>
-      <c r="Y12" s="149"/>
-      <c r="Z12" s="149"/>
-      <c r="AA12" s="149"/>
-      <c r="AB12" s="149"/>
-      <c r="AC12" s="149"/>
-      <c r="AD12" s="149"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="149"/>
-      <c r="AG12" s="149"/>
-      <c r="AH12" s="149"/>
-      <c r="AI12" s="149"/>
-      <c r="AJ12" s="149"/>
-      <c r="AK12" s="149"/>
-      <c r="AL12" s="149"/>
-      <c r="AM12" s="149"/>
-      <c r="AN12" s="149"/>
-      <c r="AO12" s="149"/>
-      <c r="AP12" s="149"/>
-      <c r="AQ12" s="149"/>
-      <c r="AR12" s="149"/>
-      <c r="AS12" s="149"/>
-      <c r="AT12" s="149"/>
-      <c r="AU12" s="149"/>
-      <c r="AV12" s="149"/>
-      <c r="AW12" s="149"/>
-      <c r="AX12" s="149"/>
-      <c r="AY12" s="149"/>
-      <c r="AZ12" s="149"/>
-      <c r="BA12" s="149"/>
-      <c r="BB12" s="149"/>
-      <c r="BC12" s="149"/>
-      <c r="BD12" s="149"/>
-      <c r="BE12" s="149"/>
-      <c r="BF12" s="149"/>
-      <c r="BG12" s="149"/>
-      <c r="BH12" s="149"/>
-      <c r="BI12" s="149"/>
-      <c r="BJ12" s="149"/>
-      <c r="BK12" s="149"/>
-      <c r="BL12" s="148" t="s">
+      <c r="E12" s="185"/>
+      <c r="F12" s="185"/>
+      <c r="G12" s="185"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="185"/>
+      <c r="J12" s="185"/>
+      <c r="K12" s="185"/>
+      <c r="L12" s="185"/>
+      <c r="M12" s="185"/>
+      <c r="N12" s="185"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="185"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="185"/>
+      <c r="T12" s="185"/>
+      <c r="U12" s="185"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="185"/>
+      <c r="Z12" s="185"/>
+      <c r="AA12" s="185"/>
+      <c r="AB12" s="185"/>
+      <c r="AC12" s="185"/>
+      <c r="AD12" s="185"/>
+      <c r="AE12" s="185"/>
+      <c r="AF12" s="185"/>
+      <c r="AG12" s="185"/>
+      <c r="AH12" s="185"/>
+      <c r="AI12" s="185"/>
+      <c r="AJ12" s="185"/>
+      <c r="AK12" s="185"/>
+      <c r="AL12" s="185"/>
+      <c r="AM12" s="185"/>
+      <c r="AN12" s="185"/>
+      <c r="AO12" s="185"/>
+      <c r="AP12" s="185"/>
+      <c r="AQ12" s="185"/>
+      <c r="AR12" s="185"/>
+      <c r="AS12" s="185"/>
+      <c r="AT12" s="185"/>
+      <c r="AU12" s="185"/>
+      <c r="AV12" s="185"/>
+      <c r="AW12" s="185"/>
+      <c r="AX12" s="185"/>
+      <c r="AY12" s="185"/>
+      <c r="AZ12" s="185"/>
+      <c r="BA12" s="185"/>
+      <c r="BB12" s="185"/>
+      <c r="BC12" s="185"/>
+      <c r="BD12" s="185"/>
+      <c r="BE12" s="185"/>
+      <c r="BF12" s="185"/>
+      <c r="BG12" s="185"/>
+      <c r="BH12" s="185"/>
+      <c r="BI12" s="185"/>
+      <c r="BJ12" s="185"/>
+      <c r="BK12" s="185"/>
+      <c r="BL12" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="BM12" s="149"/>
-      <c r="BN12" s="149"/>
-      <c r="BO12" s="149"/>
-      <c r="BP12" s="149"/>
-      <c r="BQ12" s="149"/>
-      <c r="BR12" s="149"/>
-      <c r="BS12" s="149"/>
-      <c r="BT12" s="149"/>
-      <c r="BU12" s="149"/>
-      <c r="BV12" s="149"/>
-      <c r="BW12" s="149"/>
-      <c r="BX12" s="149"/>
-      <c r="BY12" s="149"/>
-      <c r="BZ12" s="149"/>
-      <c r="CA12" s="149"/>
-      <c r="CB12" s="149"/>
-      <c r="CC12" s="149"/>
-      <c r="CD12" s="149"/>
-      <c r="CE12" s="149"/>
-      <c r="CF12" s="149"/>
-      <c r="CG12" s="149"/>
-      <c r="CH12" s="149"/>
-      <c r="CI12" s="149"/>
-      <c r="CJ12" s="149"/>
-      <c r="CK12" s="149"/>
-      <c r="CL12" s="149"/>
-      <c r="CM12" s="149"/>
-      <c r="CN12" s="149"/>
-      <c r="CO12" s="149"/>
-      <c r="CP12" s="149"/>
-      <c r="CQ12" s="149"/>
-      <c r="CR12" s="149"/>
-      <c r="CS12" s="149"/>
-      <c r="CT12" s="149"/>
-      <c r="CU12" s="149"/>
-      <c r="CV12" s="149"/>
-      <c r="CW12" s="149"/>
-      <c r="CX12" s="149"/>
-      <c r="CY12" s="149"/>
-      <c r="CZ12" s="149"/>
-      <c r="DA12" s="149"/>
-      <c r="DB12" s="149"/>
-      <c r="DC12" s="149"/>
-      <c r="DD12" s="149"/>
-      <c r="DE12" s="149"/>
-      <c r="DF12" s="149"/>
-      <c r="DG12" s="149"/>
-      <c r="DH12" s="149"/>
-      <c r="DI12" s="149"/>
-      <c r="DJ12" s="149"/>
-      <c r="DK12" s="149"/>
-      <c r="DL12" s="149"/>
-      <c r="DM12" s="149"/>
-      <c r="DN12" s="149"/>
-      <c r="DO12" s="149"/>
-      <c r="DP12" s="149"/>
-      <c r="DQ12" s="149"/>
-      <c r="DR12" s="149"/>
-      <c r="DS12" s="149"/>
-      <c r="DT12" s="149"/>
-      <c r="DU12" s="149"/>
-      <c r="DV12" s="149"/>
-      <c r="DW12" s="149"/>
-      <c r="DX12" s="149"/>
-      <c r="DY12" s="149"/>
-      <c r="DZ12" s="149"/>
-      <c r="EA12" s="149"/>
-      <c r="EB12" s="149"/>
-      <c r="EC12" s="149"/>
-      <c r="ED12" s="149"/>
-      <c r="EE12" s="149"/>
-      <c r="EF12" s="149"/>
-      <c r="EG12" s="149"/>
-      <c r="EH12" s="149"/>
-      <c r="EI12" s="149"/>
-      <c r="EJ12" s="149"/>
-      <c r="EK12" s="149"/>
-      <c r="EL12" s="149"/>
-      <c r="EM12" s="149"/>
-      <c r="EN12" s="149"/>
-      <c r="EO12" s="149"/>
-      <c r="EP12" s="149"/>
-      <c r="EQ12" s="149"/>
-      <c r="ER12" s="149"/>
-      <c r="ES12" s="149"/>
-      <c r="ET12" s="149"/>
-      <c r="EU12" s="149"/>
-      <c r="EV12" s="149"/>
-      <c r="EW12" s="149"/>
-      <c r="EX12" s="149"/>
-      <c r="EY12" s="149"/>
-      <c r="EZ12" s="149"/>
-      <c r="FA12" s="149"/>
-      <c r="FB12" s="149"/>
-      <c r="FC12" s="149"/>
-      <c r="FD12" s="149"/>
-      <c r="FE12" s="149"/>
-      <c r="FF12" s="149"/>
-      <c r="FG12" s="149"/>
-      <c r="FH12" s="149"/>
-      <c r="FI12" s="149"/>
-      <c r="FJ12" s="149"/>
-      <c r="FK12" s="149"/>
-      <c r="FL12" s="149"/>
-      <c r="FM12" s="149"/>
-      <c r="FN12" s="149"/>
-      <c r="FO12" s="149"/>
-      <c r="FP12" s="149"/>
-      <c r="FQ12" s="149"/>
-      <c r="FR12" s="149"/>
-      <c r="FS12" s="149"/>
-      <c r="FT12" s="149"/>
-      <c r="FU12" s="149"/>
-      <c r="FV12" s="149"/>
-      <c r="FW12" s="149"/>
-      <c r="FX12" s="149"/>
-      <c r="FY12" s="149"/>
-      <c r="FZ12" s="149"/>
-      <c r="GA12" s="149"/>
-      <c r="GB12" s="148" t="s">
+      <c r="BM12" s="185"/>
+      <c r="BN12" s="185"/>
+      <c r="BO12" s="185"/>
+      <c r="BP12" s="185"/>
+      <c r="BQ12" s="185"/>
+      <c r="BR12" s="185"/>
+      <c r="BS12" s="185"/>
+      <c r="BT12" s="185"/>
+      <c r="BU12" s="185"/>
+      <c r="BV12" s="185"/>
+      <c r="BW12" s="185"/>
+      <c r="BX12" s="185"/>
+      <c r="BY12" s="185"/>
+      <c r="BZ12" s="185"/>
+      <c r="CA12" s="185"/>
+      <c r="CB12" s="185"/>
+      <c r="CC12" s="185"/>
+      <c r="CD12" s="185"/>
+      <c r="CE12" s="185"/>
+      <c r="CF12" s="185"/>
+      <c r="CG12" s="185"/>
+      <c r="CH12" s="185"/>
+      <c r="CI12" s="185"/>
+      <c r="CJ12" s="185"/>
+      <c r="CK12" s="185"/>
+      <c r="CL12" s="185"/>
+      <c r="CM12" s="185"/>
+      <c r="CN12" s="185"/>
+      <c r="CO12" s="185"/>
+      <c r="CP12" s="185"/>
+      <c r="CQ12" s="185"/>
+      <c r="CR12" s="185"/>
+      <c r="CS12" s="185"/>
+      <c r="CT12" s="185"/>
+      <c r="CU12" s="185"/>
+      <c r="CV12" s="185"/>
+      <c r="CW12" s="185"/>
+      <c r="CX12" s="185"/>
+      <c r="CY12" s="185"/>
+      <c r="CZ12" s="185"/>
+      <c r="DA12" s="185"/>
+      <c r="DB12" s="185"/>
+      <c r="DC12" s="185"/>
+      <c r="DD12" s="185"/>
+      <c r="DE12" s="185"/>
+      <c r="DF12" s="185"/>
+      <c r="DG12" s="185"/>
+      <c r="DH12" s="185"/>
+      <c r="DI12" s="185"/>
+      <c r="DJ12" s="185"/>
+      <c r="DK12" s="185"/>
+      <c r="DL12" s="185"/>
+      <c r="DM12" s="185"/>
+      <c r="DN12" s="185"/>
+      <c r="DO12" s="185"/>
+      <c r="DP12" s="185"/>
+      <c r="DQ12" s="185"/>
+      <c r="DR12" s="185"/>
+      <c r="DS12" s="185"/>
+      <c r="DT12" s="185"/>
+      <c r="DU12" s="185"/>
+      <c r="DV12" s="185"/>
+      <c r="DW12" s="185"/>
+      <c r="DX12" s="185"/>
+      <c r="DY12" s="185"/>
+      <c r="DZ12" s="185"/>
+      <c r="EA12" s="185"/>
+      <c r="EB12" s="185"/>
+      <c r="EC12" s="185"/>
+      <c r="ED12" s="185"/>
+      <c r="EE12" s="185"/>
+      <c r="EF12" s="185"/>
+      <c r="EG12" s="185"/>
+      <c r="EH12" s="185"/>
+      <c r="EI12" s="185"/>
+      <c r="EJ12" s="185"/>
+      <c r="EK12" s="185"/>
+      <c r="EL12" s="185"/>
+      <c r="EM12" s="185"/>
+      <c r="EN12" s="185"/>
+      <c r="EO12" s="185"/>
+      <c r="EP12" s="185"/>
+      <c r="EQ12" s="185"/>
+      <c r="ER12" s="185"/>
+      <c r="ES12" s="185"/>
+      <c r="ET12" s="185"/>
+      <c r="EU12" s="185"/>
+      <c r="EV12" s="185"/>
+      <c r="EW12" s="185"/>
+      <c r="EX12" s="185"/>
+      <c r="EY12" s="185"/>
+      <c r="EZ12" s="185"/>
+      <c r="FA12" s="185"/>
+      <c r="FB12" s="185"/>
+      <c r="FC12" s="185"/>
+      <c r="FD12" s="185"/>
+      <c r="FE12" s="185"/>
+      <c r="FF12" s="185"/>
+      <c r="FG12" s="185"/>
+      <c r="FH12" s="185"/>
+      <c r="FI12" s="185"/>
+      <c r="FJ12" s="185"/>
+      <c r="FK12" s="185"/>
+      <c r="FL12" s="185"/>
+      <c r="FM12" s="185"/>
+      <c r="FN12" s="185"/>
+      <c r="FO12" s="185"/>
+      <c r="FP12" s="185"/>
+      <c r="FQ12" s="185"/>
+      <c r="FR12" s="185"/>
+      <c r="FS12" s="185"/>
+      <c r="FT12" s="185"/>
+      <c r="FU12" s="185"/>
+      <c r="FV12" s="185"/>
+      <c r="FW12" s="185"/>
+      <c r="FX12" s="185"/>
+      <c r="FY12" s="185"/>
+      <c r="FZ12" s="185"/>
+      <c r="GA12" s="185"/>
+      <c r="GB12" s="184" t="s">
         <v>13</v>
       </c>
-      <c r="GC12" s="149"/>
-      <c r="GD12" s="149"/>
-      <c r="GE12" s="149"/>
-      <c r="GF12" s="149"/>
-      <c r="GG12" s="149"/>
-      <c r="GH12" s="149"/>
-      <c r="GI12" s="149"/>
-      <c r="GJ12" s="149"/>
-      <c r="GK12" s="149"/>
-      <c r="GL12" s="149"/>
-      <c r="GM12" s="149"/>
-      <c r="GN12" s="149"/>
-      <c r="GO12" s="149"/>
-      <c r="GP12" s="149"/>
-      <c r="GQ12" s="149"/>
-      <c r="GR12" s="149"/>
-      <c r="GS12" s="149"/>
-      <c r="GT12" s="149"/>
-      <c r="GU12" s="149"/>
-      <c r="GV12" s="149"/>
-      <c r="GW12" s="149"/>
-      <c r="GX12" s="149"/>
-      <c r="GY12" s="149"/>
-      <c r="GZ12" s="149"/>
-      <c r="HA12" s="149"/>
-      <c r="HB12" s="149"/>
-      <c r="HC12" s="149"/>
-      <c r="HD12" s="149"/>
-      <c r="HE12" s="149"/>
-      <c r="HF12" s="149"/>
-      <c r="HG12" s="149"/>
-      <c r="HH12" s="149"/>
-      <c r="HI12" s="149"/>
-      <c r="HJ12" s="149"/>
-      <c r="HK12" s="149"/>
-      <c r="HL12" s="149"/>
-      <c r="HM12" s="149"/>
-      <c r="HN12" s="149"/>
-      <c r="HO12" s="149"/>
-      <c r="HP12" s="149"/>
-      <c r="HQ12" s="149"/>
-      <c r="HR12" s="149"/>
-      <c r="HS12" s="149"/>
-      <c r="HT12" s="149"/>
-      <c r="HU12" s="149"/>
-      <c r="HV12" s="149"/>
-      <c r="HW12" s="149"/>
-      <c r="HX12" s="149"/>
-      <c r="HY12" s="149"/>
-      <c r="HZ12" s="149"/>
-      <c r="IA12" s="149"/>
-      <c r="IB12" s="149"/>
-      <c r="IC12" s="149"/>
-      <c r="ID12" s="149"/>
-      <c r="IE12" s="149"/>
-      <c r="IF12" s="149"/>
-      <c r="IG12" s="149"/>
-      <c r="IH12" s="149"/>
-      <c r="II12" s="149"/>
-      <c r="IJ12" s="149"/>
-      <c r="IK12" s="149"/>
-      <c r="IL12" s="149"/>
-      <c r="IM12" s="149"/>
-      <c r="IN12" s="149"/>
-      <c r="IO12" s="149"/>
-      <c r="IP12" s="149"/>
-      <c r="IQ12" s="149"/>
-      <c r="IR12" s="149"/>
-      <c r="IS12" s="149"/>
-      <c r="IT12" s="149"/>
-      <c r="IU12" s="149"/>
-      <c r="IV12" s="149"/>
-      <c r="IW12" s="149"/>
-      <c r="IX12" s="149"/>
-      <c r="IY12" s="149"/>
-      <c r="IZ12" s="149"/>
-      <c r="JA12" s="149"/>
-      <c r="JB12" s="149"/>
-      <c r="JC12" s="149"/>
-      <c r="JD12" s="149"/>
-      <c r="JE12" s="149"/>
-      <c r="JF12" s="149"/>
-      <c r="JG12" s="149"/>
-      <c r="JH12" s="149"/>
-      <c r="JI12" s="149"/>
-      <c r="JJ12" s="149"/>
-      <c r="JK12" s="149"/>
-      <c r="JL12" s="149"/>
-      <c r="JM12" s="149"/>
-      <c r="JN12" s="149"/>
-      <c r="JO12" s="149"/>
-      <c r="JP12" s="149"/>
-      <c r="JQ12" s="149"/>
-      <c r="JR12" s="149"/>
-      <c r="JS12" s="149"/>
-      <c r="JT12" s="149"/>
-      <c r="JU12" s="149"/>
-      <c r="JV12" s="149"/>
-      <c r="JW12" s="149"/>
-      <c r="JX12" s="149"/>
-      <c r="JY12" s="149"/>
-      <c r="JZ12" s="149"/>
-      <c r="KA12" s="149"/>
-      <c r="KB12" s="149"/>
-      <c r="KC12" s="149"/>
-      <c r="KD12" s="149"/>
-      <c r="KE12" s="149"/>
-      <c r="KF12" s="149"/>
-      <c r="KG12" s="149"/>
-      <c r="KH12" s="149"/>
-      <c r="KI12" s="149"/>
-      <c r="KJ12" s="149"/>
-      <c r="KK12" s="149"/>
-      <c r="KL12" s="149"/>
-      <c r="KM12" s="149"/>
-      <c r="KN12" s="149"/>
-      <c r="KO12" s="149"/>
-      <c r="KP12" s="149"/>
-      <c r="KQ12" s="150"/>
-      <c r="KR12" s="146" t="s">
+      <c r="GC12" s="185"/>
+      <c r="GD12" s="185"/>
+      <c r="GE12" s="185"/>
+      <c r="GF12" s="185"/>
+      <c r="GG12" s="185"/>
+      <c r="GH12" s="185"/>
+      <c r="GI12" s="185"/>
+      <c r="GJ12" s="185"/>
+      <c r="GK12" s="185"/>
+      <c r="GL12" s="185"/>
+      <c r="GM12" s="185"/>
+      <c r="GN12" s="185"/>
+      <c r="GO12" s="185"/>
+      <c r="GP12" s="185"/>
+      <c r="GQ12" s="185"/>
+      <c r="GR12" s="185"/>
+      <c r="GS12" s="185"/>
+      <c r="GT12" s="185"/>
+      <c r="GU12" s="185"/>
+      <c r="GV12" s="185"/>
+      <c r="GW12" s="185"/>
+      <c r="GX12" s="185"/>
+      <c r="GY12" s="185"/>
+      <c r="GZ12" s="185"/>
+      <c r="HA12" s="185"/>
+      <c r="HB12" s="185"/>
+      <c r="HC12" s="185"/>
+      <c r="HD12" s="185"/>
+      <c r="HE12" s="185"/>
+      <c r="HF12" s="185"/>
+      <c r="HG12" s="185"/>
+      <c r="HH12" s="185"/>
+      <c r="HI12" s="185"/>
+      <c r="HJ12" s="185"/>
+      <c r="HK12" s="185"/>
+      <c r="HL12" s="185"/>
+      <c r="HM12" s="185"/>
+      <c r="HN12" s="185"/>
+      <c r="HO12" s="185"/>
+      <c r="HP12" s="185"/>
+      <c r="HQ12" s="185"/>
+      <c r="HR12" s="185"/>
+      <c r="HS12" s="185"/>
+      <c r="HT12" s="185"/>
+      <c r="HU12" s="185"/>
+      <c r="HV12" s="185"/>
+      <c r="HW12" s="185"/>
+      <c r="HX12" s="185"/>
+      <c r="HY12" s="185"/>
+      <c r="HZ12" s="185"/>
+      <c r="IA12" s="185"/>
+      <c r="IB12" s="185"/>
+      <c r="IC12" s="185"/>
+      <c r="ID12" s="185"/>
+      <c r="IE12" s="185"/>
+      <c r="IF12" s="185"/>
+      <c r="IG12" s="185"/>
+      <c r="IH12" s="185"/>
+      <c r="II12" s="185"/>
+      <c r="IJ12" s="185"/>
+      <c r="IK12" s="185"/>
+      <c r="IL12" s="185"/>
+      <c r="IM12" s="185"/>
+      <c r="IN12" s="185"/>
+      <c r="IO12" s="185"/>
+      <c r="IP12" s="185"/>
+      <c r="IQ12" s="185"/>
+      <c r="IR12" s="185"/>
+      <c r="IS12" s="185"/>
+      <c r="IT12" s="185"/>
+      <c r="IU12" s="185"/>
+      <c r="IV12" s="185"/>
+      <c r="IW12" s="185"/>
+      <c r="IX12" s="185"/>
+      <c r="IY12" s="185"/>
+      <c r="IZ12" s="185"/>
+      <c r="JA12" s="185"/>
+      <c r="JB12" s="185"/>
+      <c r="JC12" s="185"/>
+      <c r="JD12" s="185"/>
+      <c r="JE12" s="185"/>
+      <c r="JF12" s="185"/>
+      <c r="JG12" s="185"/>
+      <c r="JH12" s="185"/>
+      <c r="JI12" s="185"/>
+      <c r="JJ12" s="185"/>
+      <c r="JK12" s="185"/>
+      <c r="JL12" s="185"/>
+      <c r="JM12" s="185"/>
+      <c r="JN12" s="185"/>
+      <c r="JO12" s="185"/>
+      <c r="JP12" s="185"/>
+      <c r="JQ12" s="185"/>
+      <c r="JR12" s="185"/>
+      <c r="JS12" s="185"/>
+      <c r="JT12" s="185"/>
+      <c r="JU12" s="185"/>
+      <c r="JV12" s="185"/>
+      <c r="JW12" s="185"/>
+      <c r="JX12" s="185"/>
+      <c r="JY12" s="185"/>
+      <c r="JZ12" s="185"/>
+      <c r="KA12" s="185"/>
+      <c r="KB12" s="185"/>
+      <c r="KC12" s="185"/>
+      <c r="KD12" s="185"/>
+      <c r="KE12" s="185"/>
+      <c r="KF12" s="185"/>
+      <c r="KG12" s="185"/>
+      <c r="KH12" s="185"/>
+      <c r="KI12" s="185"/>
+      <c r="KJ12" s="185"/>
+      <c r="KK12" s="185"/>
+      <c r="KL12" s="185"/>
+      <c r="KM12" s="185"/>
+      <c r="KN12" s="185"/>
+      <c r="KO12" s="185"/>
+      <c r="KP12" s="185"/>
+      <c r="KQ12" s="186"/>
+      <c r="KR12" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="KS12" s="216"/>
-      <c r="KT12" s="148" t="s">
+      <c r="KS12" s="145"/>
+      <c r="KT12" s="184" t="s">
         <v>14</v>
       </c>
-      <c r="KU12" s="149"/>
-      <c r="KV12" s="149"/>
-      <c r="KW12" s="149"/>
-      <c r="KX12" s="149"/>
-      <c r="KY12" s="149"/>
-      <c r="KZ12" s="149"/>
-      <c r="LA12" s="149"/>
-      <c r="LB12" s="149"/>
-      <c r="LC12" s="149"/>
-      <c r="LD12" s="149"/>
-      <c r="LE12" s="149"/>
-      <c r="LF12" s="149"/>
-      <c r="LG12" s="149"/>
-      <c r="LH12" s="149"/>
-      <c r="LI12" s="149"/>
-      <c r="LJ12" s="149"/>
-      <c r="LK12" s="149"/>
-      <c r="LL12" s="149"/>
-      <c r="LM12" s="149"/>
-      <c r="LN12" s="149"/>
-      <c r="LO12" s="149"/>
-      <c r="LP12" s="149"/>
-      <c r="LQ12" s="149"/>
-      <c r="LR12" s="149"/>
-      <c r="LS12" s="149"/>
-      <c r="LT12" s="149"/>
-      <c r="LU12" s="149"/>
-      <c r="LV12" s="149"/>
-      <c r="LW12" s="149"/>
-      <c r="LX12" s="149"/>
-      <c r="LY12" s="149"/>
-      <c r="LZ12" s="149"/>
-      <c r="MA12" s="149"/>
-      <c r="MB12" s="149"/>
-      <c r="MC12" s="149"/>
-      <c r="MD12" s="149"/>
-      <c r="ME12" s="149"/>
-      <c r="MF12" s="149"/>
-      <c r="MG12" s="149"/>
-      <c r="MH12" s="149"/>
-      <c r="MI12" s="149"/>
-      <c r="MJ12" s="149"/>
-      <c r="MK12" s="149"/>
-      <c r="ML12" s="149"/>
-      <c r="MM12" s="149"/>
-      <c r="MN12" s="149"/>
-      <c r="MO12" s="149"/>
-      <c r="MP12" s="149"/>
-      <c r="MQ12" s="149"/>
-      <c r="MR12" s="149"/>
-      <c r="MS12" s="149"/>
-      <c r="MT12" s="149"/>
-      <c r="MU12" s="149"/>
-      <c r="MV12" s="149"/>
-      <c r="MW12" s="149"/>
-      <c r="MX12" s="149"/>
-      <c r="MY12" s="149"/>
-      <c r="MZ12" s="149"/>
-      <c r="NA12" s="149"/>
-      <c r="NB12" s="149"/>
-      <c r="NC12" s="149"/>
-      <c r="ND12" s="149"/>
-      <c r="NE12" s="149"/>
-      <c r="NF12" s="149"/>
-      <c r="NG12" s="149"/>
-      <c r="NH12" s="149"/>
-      <c r="NI12" s="149"/>
-      <c r="NJ12" s="149"/>
-      <c r="NK12" s="149"/>
-      <c r="NL12" s="149"/>
-      <c r="NM12" s="149"/>
-      <c r="NN12" s="149"/>
-      <c r="NO12" s="149"/>
-      <c r="NP12" s="149"/>
-      <c r="NQ12" s="149"/>
-      <c r="NR12" s="149"/>
-      <c r="NS12" s="149"/>
-      <c r="NT12" s="149"/>
-      <c r="NU12" s="149"/>
-      <c r="NV12" s="149"/>
-      <c r="NW12" s="149"/>
-      <c r="NX12" s="149"/>
-      <c r="NY12" s="149"/>
-      <c r="NZ12" s="149"/>
-      <c r="OA12" s="149"/>
-      <c r="OB12" s="149"/>
-      <c r="OC12" s="149"/>
-      <c r="OD12" s="149"/>
-      <c r="OE12" s="149"/>
-      <c r="OF12" s="149"/>
-      <c r="OG12" s="149"/>
-      <c r="OH12" s="149"/>
-      <c r="OI12" s="149"/>
-      <c r="OJ12" s="149"/>
-      <c r="OK12" s="149"/>
-      <c r="OL12" s="149"/>
-      <c r="OM12" s="149"/>
-      <c r="ON12" s="149"/>
-      <c r="OO12" s="149"/>
-      <c r="OP12" s="149"/>
-      <c r="OQ12" s="149"/>
-      <c r="OR12" s="149"/>
-      <c r="OS12" s="149"/>
-      <c r="OT12" s="149"/>
-      <c r="OU12" s="149"/>
-      <c r="OV12" s="149"/>
-      <c r="OW12" s="149"/>
-      <c r="OX12" s="149"/>
-      <c r="OY12" s="149"/>
-      <c r="OZ12" s="149"/>
-      <c r="PA12" s="149"/>
-      <c r="PB12" s="149"/>
-      <c r="PC12" s="149"/>
-      <c r="PD12" s="149"/>
-      <c r="PE12" s="149"/>
-      <c r="PF12" s="149"/>
-      <c r="PG12" s="149"/>
-      <c r="PH12" s="149"/>
-      <c r="PI12" s="150"/>
-      <c r="PJ12" s="148" t="s">
+      <c r="KU12" s="185"/>
+      <c r="KV12" s="185"/>
+      <c r="KW12" s="185"/>
+      <c r="KX12" s="185"/>
+      <c r="KY12" s="185"/>
+      <c r="KZ12" s="185"/>
+      <c r="LA12" s="185"/>
+      <c r="LB12" s="185"/>
+      <c r="LC12" s="185"/>
+      <c r="LD12" s="185"/>
+      <c r="LE12" s="185"/>
+      <c r="LF12" s="185"/>
+      <c r="LG12" s="185"/>
+      <c r="LH12" s="185"/>
+      <c r="LI12" s="185"/>
+      <c r="LJ12" s="185"/>
+      <c r="LK12" s="185"/>
+      <c r="LL12" s="185"/>
+      <c r="LM12" s="185"/>
+      <c r="LN12" s="185"/>
+      <c r="LO12" s="185"/>
+      <c r="LP12" s="185"/>
+      <c r="LQ12" s="185"/>
+      <c r="LR12" s="185"/>
+      <c r="LS12" s="185"/>
+      <c r="LT12" s="185"/>
+      <c r="LU12" s="185"/>
+      <c r="LV12" s="185"/>
+      <c r="LW12" s="185"/>
+      <c r="LX12" s="185"/>
+      <c r="LY12" s="185"/>
+      <c r="LZ12" s="185"/>
+      <c r="MA12" s="185"/>
+      <c r="MB12" s="185"/>
+      <c r="MC12" s="185"/>
+      <c r="MD12" s="185"/>
+      <c r="ME12" s="185"/>
+      <c r="MF12" s="185"/>
+      <c r="MG12" s="185"/>
+      <c r="MH12" s="185"/>
+      <c r="MI12" s="185"/>
+      <c r="MJ12" s="185"/>
+      <c r="MK12" s="185"/>
+      <c r="ML12" s="185"/>
+      <c r="MM12" s="185"/>
+      <c r="MN12" s="185"/>
+      <c r="MO12" s="185"/>
+      <c r="MP12" s="185"/>
+      <c r="MQ12" s="185"/>
+      <c r="MR12" s="185"/>
+      <c r="MS12" s="185"/>
+      <c r="MT12" s="185"/>
+      <c r="MU12" s="185"/>
+      <c r="MV12" s="185"/>
+      <c r="MW12" s="185"/>
+      <c r="MX12" s="185"/>
+      <c r="MY12" s="185"/>
+      <c r="MZ12" s="185"/>
+      <c r="NA12" s="185"/>
+      <c r="NB12" s="185"/>
+      <c r="NC12" s="185"/>
+      <c r="ND12" s="185"/>
+      <c r="NE12" s="185"/>
+      <c r="NF12" s="185"/>
+      <c r="NG12" s="185"/>
+      <c r="NH12" s="185"/>
+      <c r="NI12" s="185"/>
+      <c r="NJ12" s="185"/>
+      <c r="NK12" s="185"/>
+      <c r="NL12" s="185"/>
+      <c r="NM12" s="185"/>
+      <c r="NN12" s="185"/>
+      <c r="NO12" s="185"/>
+      <c r="NP12" s="185"/>
+      <c r="NQ12" s="185"/>
+      <c r="NR12" s="185"/>
+      <c r="NS12" s="185"/>
+      <c r="NT12" s="185"/>
+      <c r="NU12" s="185"/>
+      <c r="NV12" s="185"/>
+      <c r="NW12" s="185"/>
+      <c r="NX12" s="185"/>
+      <c r="NY12" s="185"/>
+      <c r="NZ12" s="185"/>
+      <c r="OA12" s="185"/>
+      <c r="OB12" s="185"/>
+      <c r="OC12" s="185"/>
+      <c r="OD12" s="185"/>
+      <c r="OE12" s="185"/>
+      <c r="OF12" s="185"/>
+      <c r="OG12" s="185"/>
+      <c r="OH12" s="185"/>
+      <c r="OI12" s="185"/>
+      <c r="OJ12" s="185"/>
+      <c r="OK12" s="185"/>
+      <c r="OL12" s="185"/>
+      <c r="OM12" s="185"/>
+      <c r="ON12" s="185"/>
+      <c r="OO12" s="185"/>
+      <c r="OP12" s="185"/>
+      <c r="OQ12" s="185"/>
+      <c r="OR12" s="185"/>
+      <c r="OS12" s="185"/>
+      <c r="OT12" s="185"/>
+      <c r="OU12" s="185"/>
+      <c r="OV12" s="185"/>
+      <c r="OW12" s="185"/>
+      <c r="OX12" s="185"/>
+      <c r="OY12" s="185"/>
+      <c r="OZ12" s="185"/>
+      <c r="PA12" s="185"/>
+      <c r="PB12" s="185"/>
+      <c r="PC12" s="185"/>
+      <c r="PD12" s="185"/>
+      <c r="PE12" s="185"/>
+      <c r="PF12" s="185"/>
+      <c r="PG12" s="185"/>
+      <c r="PH12" s="185"/>
+      <c r="PI12" s="186"/>
+      <c r="PJ12" s="184" t="s">
         <v>15</v>
       </c>
-      <c r="PK12" s="149"/>
-      <c r="PL12" s="149"/>
-      <c r="PM12" s="149"/>
-      <c r="PN12" s="149"/>
-      <c r="PO12" s="149"/>
-      <c r="PP12" s="149"/>
-      <c r="PQ12" s="149"/>
-      <c r="PR12" s="149"/>
-      <c r="PS12" s="149"/>
-      <c r="PT12" s="149"/>
-      <c r="PU12" s="149"/>
-      <c r="PV12" s="149"/>
-      <c r="PW12" s="149"/>
-      <c r="PX12" s="149"/>
-      <c r="PY12" s="149"/>
-      <c r="PZ12" s="149"/>
-      <c r="QA12" s="149"/>
-      <c r="QB12" s="149"/>
-      <c r="QC12" s="149"/>
-      <c r="QD12" s="149"/>
-      <c r="QE12" s="149"/>
-      <c r="QF12" s="149"/>
-      <c r="QG12" s="149"/>
-      <c r="QH12" s="149"/>
-      <c r="QI12" s="149"/>
-      <c r="QJ12" s="149"/>
-      <c r="QK12" s="149"/>
-      <c r="QL12" s="149"/>
-      <c r="QM12" s="149"/>
-      <c r="QN12" s="149"/>
-      <c r="QO12" s="149"/>
-      <c r="QP12" s="149"/>
-      <c r="QQ12" s="149"/>
-      <c r="QR12" s="149"/>
-      <c r="QS12" s="149"/>
-      <c r="QT12" s="149"/>
-      <c r="QU12" s="149"/>
-      <c r="QV12" s="149"/>
-      <c r="QW12" s="149"/>
-      <c r="QX12" s="149"/>
-      <c r="QY12" s="149"/>
-      <c r="QZ12" s="149"/>
-      <c r="RA12" s="149"/>
-      <c r="RB12" s="149"/>
-      <c r="RC12" s="149"/>
-      <c r="RD12" s="149"/>
-      <c r="RE12" s="149"/>
-      <c r="RF12" s="149"/>
-      <c r="RG12" s="149"/>
-      <c r="RH12" s="149"/>
-      <c r="RI12" s="149"/>
-      <c r="RJ12" s="149"/>
-      <c r="RK12" s="149"/>
-      <c r="RL12" s="149"/>
-      <c r="RM12" s="149"/>
-      <c r="RN12" s="149"/>
-      <c r="RO12" s="149"/>
-      <c r="RP12" s="149"/>
-      <c r="RQ12" s="149"/>
-      <c r="RR12" s="149"/>
-      <c r="RS12" s="149"/>
-      <c r="RT12" s="149"/>
-      <c r="RU12" s="149"/>
-      <c r="RV12" s="149"/>
-      <c r="RW12" s="149"/>
-      <c r="RX12" s="149"/>
-      <c r="RY12" s="149"/>
-      <c r="RZ12" s="149"/>
-      <c r="SA12" s="149"/>
-      <c r="SB12" s="149"/>
-      <c r="SC12" s="149"/>
-      <c r="SD12" s="149"/>
-      <c r="SE12" s="149"/>
-      <c r="SF12" s="149"/>
-      <c r="SG12" s="149"/>
-      <c r="SH12" s="149"/>
-      <c r="SI12" s="149"/>
-      <c r="SJ12" s="149"/>
-      <c r="SK12" s="149"/>
-      <c r="SL12" s="149"/>
-      <c r="SM12" s="149"/>
-      <c r="SN12" s="149"/>
-      <c r="SO12" s="149"/>
-      <c r="SP12" s="149"/>
-      <c r="SQ12" s="149"/>
-      <c r="SR12" s="149"/>
-      <c r="SS12" s="149"/>
-      <c r="ST12" s="149"/>
-      <c r="SU12" s="149"/>
-      <c r="SV12" s="149"/>
-      <c r="SW12" s="149"/>
-      <c r="SX12" s="149"/>
-      <c r="SY12" s="149"/>
-      <c r="SZ12" s="149"/>
-      <c r="TA12" s="149"/>
-      <c r="TB12" s="149"/>
-      <c r="TC12" s="149"/>
-      <c r="TD12" s="149"/>
-      <c r="TE12" s="149"/>
-      <c r="TF12" s="149"/>
-      <c r="TG12" s="149"/>
-      <c r="TH12" s="149"/>
-      <c r="TI12" s="149"/>
-      <c r="TJ12" s="149"/>
-      <c r="TK12" s="149"/>
-      <c r="TL12" s="149"/>
-      <c r="TM12" s="149"/>
-      <c r="TN12" s="149"/>
-      <c r="TO12" s="149"/>
-      <c r="TP12" s="149"/>
-      <c r="TQ12" s="149"/>
-      <c r="TR12" s="149"/>
-      <c r="TS12" s="149"/>
-      <c r="TT12" s="149"/>
-      <c r="TU12" s="149"/>
-      <c r="TV12" s="149"/>
-      <c r="TW12" s="149"/>
-      <c r="TX12" s="149"/>
-      <c r="TY12" s="150"/>
-      <c r="TZ12" s="148" t="s">
+      <c r="PK12" s="185"/>
+      <c r="PL12" s="185"/>
+      <c r="PM12" s="185"/>
+      <c r="PN12" s="185"/>
+      <c r="PO12" s="185"/>
+      <c r="PP12" s="185"/>
+      <c r="PQ12" s="185"/>
+      <c r="PR12" s="185"/>
+      <c r="PS12" s="185"/>
+      <c r="PT12" s="185"/>
+      <c r="PU12" s="185"/>
+      <c r="PV12" s="185"/>
+      <c r="PW12" s="185"/>
+      <c r="PX12" s="185"/>
+      <c r="PY12" s="185"/>
+      <c r="PZ12" s="185"/>
+      <c r="QA12" s="185"/>
+      <c r="QB12" s="185"/>
+      <c r="QC12" s="185"/>
+      <c r="QD12" s="185"/>
+      <c r="QE12" s="185"/>
+      <c r="QF12" s="185"/>
+      <c r="QG12" s="185"/>
+      <c r="QH12" s="185"/>
+      <c r="QI12" s="185"/>
+      <c r="QJ12" s="185"/>
+      <c r="QK12" s="185"/>
+      <c r="QL12" s="185"/>
+      <c r="QM12" s="185"/>
+      <c r="QN12" s="185"/>
+      <c r="QO12" s="185"/>
+      <c r="QP12" s="185"/>
+      <c r="QQ12" s="185"/>
+      <c r="QR12" s="185"/>
+      <c r="QS12" s="185"/>
+      <c r="QT12" s="185"/>
+      <c r="QU12" s="185"/>
+      <c r="QV12" s="185"/>
+      <c r="QW12" s="185"/>
+      <c r="QX12" s="185"/>
+      <c r="QY12" s="185"/>
+      <c r="QZ12" s="185"/>
+      <c r="RA12" s="185"/>
+      <c r="RB12" s="185"/>
+      <c r="RC12" s="185"/>
+      <c r="RD12" s="185"/>
+      <c r="RE12" s="185"/>
+      <c r="RF12" s="185"/>
+      <c r="RG12" s="185"/>
+      <c r="RH12" s="185"/>
+      <c r="RI12" s="185"/>
+      <c r="RJ12" s="185"/>
+      <c r="RK12" s="185"/>
+      <c r="RL12" s="185"/>
+      <c r="RM12" s="185"/>
+      <c r="RN12" s="185"/>
+      <c r="RO12" s="185"/>
+      <c r="RP12" s="185"/>
+      <c r="RQ12" s="185"/>
+      <c r="RR12" s="185"/>
+      <c r="RS12" s="185"/>
+      <c r="RT12" s="185"/>
+      <c r="RU12" s="185"/>
+      <c r="RV12" s="185"/>
+      <c r="RW12" s="185"/>
+      <c r="RX12" s="185"/>
+      <c r="RY12" s="185"/>
+      <c r="RZ12" s="185"/>
+      <c r="SA12" s="185"/>
+      <c r="SB12" s="185"/>
+      <c r="SC12" s="185"/>
+      <c r="SD12" s="185"/>
+      <c r="SE12" s="185"/>
+      <c r="SF12" s="185"/>
+      <c r="SG12" s="185"/>
+      <c r="SH12" s="185"/>
+      <c r="SI12" s="185"/>
+      <c r="SJ12" s="185"/>
+      <c r="SK12" s="185"/>
+      <c r="SL12" s="185"/>
+      <c r="SM12" s="185"/>
+      <c r="SN12" s="185"/>
+      <c r="SO12" s="185"/>
+      <c r="SP12" s="185"/>
+      <c r="SQ12" s="185"/>
+      <c r="SR12" s="185"/>
+      <c r="SS12" s="185"/>
+      <c r="ST12" s="185"/>
+      <c r="SU12" s="185"/>
+      <c r="SV12" s="185"/>
+      <c r="SW12" s="185"/>
+      <c r="SX12" s="185"/>
+      <c r="SY12" s="185"/>
+      <c r="SZ12" s="185"/>
+      <c r="TA12" s="185"/>
+      <c r="TB12" s="185"/>
+      <c r="TC12" s="185"/>
+      <c r="TD12" s="185"/>
+      <c r="TE12" s="185"/>
+      <c r="TF12" s="185"/>
+      <c r="TG12" s="185"/>
+      <c r="TH12" s="185"/>
+      <c r="TI12" s="185"/>
+      <c r="TJ12" s="185"/>
+      <c r="TK12" s="185"/>
+      <c r="TL12" s="185"/>
+      <c r="TM12" s="185"/>
+      <c r="TN12" s="185"/>
+      <c r="TO12" s="185"/>
+      <c r="TP12" s="185"/>
+      <c r="TQ12" s="185"/>
+      <c r="TR12" s="185"/>
+      <c r="TS12" s="185"/>
+      <c r="TT12" s="185"/>
+      <c r="TU12" s="185"/>
+      <c r="TV12" s="185"/>
+      <c r="TW12" s="185"/>
+      <c r="TX12" s="185"/>
+      <c r="TY12" s="186"/>
+      <c r="TZ12" s="184" t="s">
         <v>16</v>
       </c>
-      <c r="UA12" s="149"/>
-      <c r="UB12" s="149"/>
-      <c r="UC12" s="149"/>
-      <c r="UD12" s="149"/>
-      <c r="UE12" s="149"/>
-      <c r="UF12" s="149"/>
-      <c r="UG12" s="149"/>
-      <c r="UH12" s="149"/>
-      <c r="UI12" s="149"/>
-      <c r="UJ12" s="149"/>
-      <c r="UK12" s="149"/>
-      <c r="UL12" s="149"/>
-      <c r="UM12" s="149"/>
-      <c r="UN12" s="149"/>
-      <c r="UO12" s="149"/>
-      <c r="UP12" s="149"/>
-      <c r="UQ12" s="149"/>
-      <c r="UR12" s="149"/>
-      <c r="US12" s="149"/>
-      <c r="UT12" s="149"/>
-      <c r="UU12" s="149"/>
-      <c r="UV12" s="149"/>
-      <c r="UW12" s="149"/>
-      <c r="UX12" s="149"/>
-      <c r="UY12" s="149"/>
-      <c r="UZ12" s="149"/>
-      <c r="VA12" s="149"/>
-      <c r="VB12" s="149"/>
-      <c r="VC12" s="150"/>
+      <c r="UA12" s="185"/>
+      <c r="UB12" s="185"/>
+      <c r="UC12" s="185"/>
+      <c r="UD12" s="185"/>
+      <c r="UE12" s="185"/>
+      <c r="UF12" s="185"/>
+      <c r="UG12" s="185"/>
+      <c r="UH12" s="185"/>
+      <c r="UI12" s="185"/>
+      <c r="UJ12" s="185"/>
+      <c r="UK12" s="185"/>
+      <c r="UL12" s="185"/>
+      <c r="UM12" s="185"/>
+      <c r="UN12" s="185"/>
+      <c r="UO12" s="185"/>
+      <c r="UP12" s="185"/>
+      <c r="UQ12" s="185"/>
+      <c r="UR12" s="185"/>
+      <c r="US12" s="185"/>
+      <c r="UT12" s="185"/>
+      <c r="UU12" s="185"/>
+      <c r="UV12" s="185"/>
+      <c r="UW12" s="185"/>
+      <c r="UX12" s="185"/>
+      <c r="UY12" s="185"/>
+      <c r="UZ12" s="185"/>
+      <c r="VA12" s="185"/>
+      <c r="VB12" s="185"/>
+      <c r="VC12" s="186"/>
     </row>
     <row r="13" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="168" t="s">
+      <c r="B13" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="170" t="s">
+      <c r="C13" s="182"/>
+      <c r="D13" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="171"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="171"/>
-      <c r="M13" s="171"/>
-      <c r="N13" s="171"/>
-      <c r="O13" s="171"/>
-      <c r="P13" s="171"/>
-      <c r="Q13" s="171"/>
-      <c r="R13" s="171"/>
-      <c r="S13" s="171"/>
-      <c r="T13" s="171"/>
-      <c r="U13" s="171"/>
-      <c r="V13" s="171"/>
-      <c r="W13" s="171"/>
-      <c r="X13" s="171"/>
-      <c r="Y13" s="171"/>
-      <c r="Z13" s="171"/>
-      <c r="AA13" s="171"/>
-      <c r="AB13" s="171"/>
-      <c r="AC13" s="171"/>
-      <c r="AD13" s="171"/>
-      <c r="AE13" s="171"/>
-      <c r="AF13" s="171"/>
-      <c r="AG13" s="172"/>
-      <c r="AH13" s="173" t="s">
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="188"/>
+      <c r="I13" s="188"/>
+      <c r="J13" s="188"/>
+      <c r="K13" s="188"/>
+      <c r="L13" s="188"/>
+      <c r="M13" s="188"/>
+      <c r="N13" s="188"/>
+      <c r="O13" s="188"/>
+      <c r="P13" s="188"/>
+      <c r="Q13" s="188"/>
+      <c r="R13" s="188"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="188"/>
+      <c r="U13" s="188"/>
+      <c r="V13" s="188"/>
+      <c r="W13" s="188"/>
+      <c r="X13" s="188"/>
+      <c r="Y13" s="188"/>
+      <c r="Z13" s="188"/>
+      <c r="AA13" s="188"/>
+      <c r="AB13" s="188"/>
+      <c r="AC13" s="188"/>
+      <c r="AD13" s="188"/>
+      <c r="AE13" s="188"/>
+      <c r="AF13" s="188"/>
+      <c r="AG13" s="189"/>
+      <c r="AH13" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="AI13" s="171"/>
-      <c r="AJ13" s="171"/>
-      <c r="AK13" s="171"/>
-      <c r="AL13" s="171"/>
-      <c r="AM13" s="171"/>
-      <c r="AN13" s="171"/>
-      <c r="AO13" s="171"/>
-      <c r="AP13" s="171"/>
-      <c r="AQ13" s="171"/>
-      <c r="AR13" s="171"/>
-      <c r="AS13" s="171"/>
-      <c r="AT13" s="171"/>
-      <c r="AU13" s="171"/>
-      <c r="AV13" s="171"/>
-      <c r="AW13" s="171"/>
-      <c r="AX13" s="171"/>
-      <c r="AY13" s="171"/>
-      <c r="AZ13" s="171"/>
-      <c r="BA13" s="171"/>
-      <c r="BB13" s="171"/>
-      <c r="BC13" s="171"/>
-      <c r="BD13" s="171"/>
-      <c r="BE13" s="171"/>
-      <c r="BF13" s="171"/>
-      <c r="BG13" s="171"/>
-      <c r="BH13" s="171"/>
-      <c r="BI13" s="171"/>
-      <c r="BJ13" s="171"/>
-      <c r="BK13" s="174"/>
-      <c r="BL13" s="170" t="s">
+      <c r="AI13" s="188"/>
+      <c r="AJ13" s="188"/>
+      <c r="AK13" s="188"/>
+      <c r="AL13" s="188"/>
+      <c r="AM13" s="188"/>
+      <c r="AN13" s="188"/>
+      <c r="AO13" s="188"/>
+      <c r="AP13" s="188"/>
+      <c r="AQ13" s="188"/>
+      <c r="AR13" s="188"/>
+      <c r="AS13" s="188"/>
+      <c r="AT13" s="188"/>
+      <c r="AU13" s="188"/>
+      <c r="AV13" s="188"/>
+      <c r="AW13" s="188"/>
+      <c r="AX13" s="188"/>
+      <c r="AY13" s="188"/>
+      <c r="AZ13" s="188"/>
+      <c r="BA13" s="188"/>
+      <c r="BB13" s="188"/>
+      <c r="BC13" s="188"/>
+      <c r="BD13" s="188"/>
+      <c r="BE13" s="188"/>
+      <c r="BF13" s="188"/>
+      <c r="BG13" s="188"/>
+      <c r="BH13" s="188"/>
+      <c r="BI13" s="188"/>
+      <c r="BJ13" s="188"/>
+      <c r="BK13" s="191"/>
+      <c r="BL13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="BM13" s="171"/>
-      <c r="BN13" s="171"/>
-      <c r="BO13" s="171"/>
-      <c r="BP13" s="171"/>
-      <c r="BQ13" s="171"/>
-      <c r="BR13" s="171"/>
-      <c r="BS13" s="171"/>
-      <c r="BT13" s="171"/>
-      <c r="BU13" s="171"/>
-      <c r="BV13" s="171"/>
-      <c r="BW13" s="171"/>
-      <c r="BX13" s="171"/>
-      <c r="BY13" s="171"/>
-      <c r="BZ13" s="171"/>
-      <c r="CA13" s="171"/>
-      <c r="CB13" s="171"/>
-      <c r="CC13" s="171"/>
-      <c r="CD13" s="171"/>
-      <c r="CE13" s="171"/>
-      <c r="CF13" s="171"/>
-      <c r="CG13" s="171"/>
-      <c r="CH13" s="171"/>
-      <c r="CI13" s="171"/>
-      <c r="CJ13" s="171"/>
-      <c r="CK13" s="171"/>
-      <c r="CL13" s="171"/>
-      <c r="CM13" s="171"/>
-      <c r="CN13" s="171"/>
-      <c r="CO13" s="172"/>
-      <c r="CP13" s="173" t="s">
+      <c r="BM13" s="188"/>
+      <c r="BN13" s="188"/>
+      <c r="BO13" s="188"/>
+      <c r="BP13" s="188"/>
+      <c r="BQ13" s="188"/>
+      <c r="BR13" s="188"/>
+      <c r="BS13" s="188"/>
+      <c r="BT13" s="188"/>
+      <c r="BU13" s="188"/>
+      <c r="BV13" s="188"/>
+      <c r="BW13" s="188"/>
+      <c r="BX13" s="188"/>
+      <c r="BY13" s="188"/>
+      <c r="BZ13" s="188"/>
+      <c r="CA13" s="188"/>
+      <c r="CB13" s="188"/>
+      <c r="CC13" s="188"/>
+      <c r="CD13" s="188"/>
+      <c r="CE13" s="188"/>
+      <c r="CF13" s="188"/>
+      <c r="CG13" s="188"/>
+      <c r="CH13" s="188"/>
+      <c r="CI13" s="188"/>
+      <c r="CJ13" s="188"/>
+      <c r="CK13" s="188"/>
+      <c r="CL13" s="188"/>
+      <c r="CM13" s="188"/>
+      <c r="CN13" s="188"/>
+      <c r="CO13" s="189"/>
+      <c r="CP13" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="CQ13" s="171"/>
-      <c r="CR13" s="171"/>
-      <c r="CS13" s="171"/>
-      <c r="CT13" s="171"/>
-      <c r="CU13" s="171"/>
-      <c r="CV13" s="171"/>
-      <c r="CW13" s="171"/>
-      <c r="CX13" s="171"/>
-      <c r="CY13" s="171"/>
-      <c r="CZ13" s="171"/>
-      <c r="DA13" s="171"/>
-      <c r="DB13" s="171"/>
-      <c r="DC13" s="171"/>
-      <c r="DD13" s="171"/>
-      <c r="DE13" s="171"/>
-      <c r="DF13" s="171"/>
-      <c r="DG13" s="171"/>
-      <c r="DH13" s="171"/>
-      <c r="DI13" s="171"/>
-      <c r="DJ13" s="171"/>
-      <c r="DK13" s="171"/>
-      <c r="DL13" s="171"/>
-      <c r="DM13" s="171"/>
-      <c r="DN13" s="171"/>
-      <c r="DO13" s="171"/>
-      <c r="DP13" s="171"/>
-      <c r="DQ13" s="171"/>
-      <c r="DR13" s="171"/>
-      <c r="DS13" s="172"/>
-      <c r="DT13" s="173" t="s">
+      <c r="CQ13" s="188"/>
+      <c r="CR13" s="188"/>
+      <c r="CS13" s="188"/>
+      <c r="CT13" s="188"/>
+      <c r="CU13" s="188"/>
+      <c r="CV13" s="188"/>
+      <c r="CW13" s="188"/>
+      <c r="CX13" s="188"/>
+      <c r="CY13" s="188"/>
+      <c r="CZ13" s="188"/>
+      <c r="DA13" s="188"/>
+      <c r="DB13" s="188"/>
+      <c r="DC13" s="188"/>
+      <c r="DD13" s="188"/>
+      <c r="DE13" s="188"/>
+      <c r="DF13" s="188"/>
+      <c r="DG13" s="188"/>
+      <c r="DH13" s="188"/>
+      <c r="DI13" s="188"/>
+      <c r="DJ13" s="188"/>
+      <c r="DK13" s="188"/>
+      <c r="DL13" s="188"/>
+      <c r="DM13" s="188"/>
+      <c r="DN13" s="188"/>
+      <c r="DO13" s="188"/>
+      <c r="DP13" s="188"/>
+      <c r="DQ13" s="188"/>
+      <c r="DR13" s="188"/>
+      <c r="DS13" s="189"/>
+      <c r="DT13" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="DU13" s="171"/>
-      <c r="DV13" s="171"/>
-      <c r="DW13" s="171"/>
-      <c r="DX13" s="171"/>
-      <c r="DY13" s="171"/>
-      <c r="DZ13" s="171"/>
-      <c r="EA13" s="171"/>
-      <c r="EB13" s="171"/>
-      <c r="EC13" s="171"/>
-      <c r="ED13" s="171"/>
-      <c r="EE13" s="171"/>
-      <c r="EF13" s="171"/>
-      <c r="EG13" s="171"/>
-      <c r="EH13" s="171"/>
-      <c r="EI13" s="171"/>
-      <c r="EJ13" s="171"/>
-      <c r="EK13" s="171"/>
-      <c r="EL13" s="171"/>
-      <c r="EM13" s="171"/>
-      <c r="EN13" s="171"/>
-      <c r="EO13" s="171"/>
-      <c r="EP13" s="171"/>
-      <c r="EQ13" s="171"/>
-      <c r="ER13" s="171"/>
-      <c r="ES13" s="171"/>
-      <c r="ET13" s="171"/>
-      <c r="EU13" s="171"/>
-      <c r="EV13" s="171"/>
-      <c r="EW13" s="172"/>
-      <c r="EX13" s="173" t="s">
+      <c r="DU13" s="188"/>
+      <c r="DV13" s="188"/>
+      <c r="DW13" s="188"/>
+      <c r="DX13" s="188"/>
+      <c r="DY13" s="188"/>
+      <c r="DZ13" s="188"/>
+      <c r="EA13" s="188"/>
+      <c r="EB13" s="188"/>
+      <c r="EC13" s="188"/>
+      <c r="ED13" s="188"/>
+      <c r="EE13" s="188"/>
+      <c r="EF13" s="188"/>
+      <c r="EG13" s="188"/>
+      <c r="EH13" s="188"/>
+      <c r="EI13" s="188"/>
+      <c r="EJ13" s="188"/>
+      <c r="EK13" s="188"/>
+      <c r="EL13" s="188"/>
+      <c r="EM13" s="188"/>
+      <c r="EN13" s="188"/>
+      <c r="EO13" s="188"/>
+      <c r="EP13" s="188"/>
+      <c r="EQ13" s="188"/>
+      <c r="ER13" s="188"/>
+      <c r="ES13" s="188"/>
+      <c r="ET13" s="188"/>
+      <c r="EU13" s="188"/>
+      <c r="EV13" s="188"/>
+      <c r="EW13" s="189"/>
+      <c r="EX13" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="EY13" s="171"/>
-      <c r="EZ13" s="171"/>
-      <c r="FA13" s="171"/>
-      <c r="FB13" s="171"/>
-      <c r="FC13" s="171"/>
-      <c r="FD13" s="171"/>
-      <c r="FE13" s="171"/>
-      <c r="FF13" s="171"/>
-      <c r="FG13" s="171"/>
-      <c r="FH13" s="171"/>
-      <c r="FI13" s="171"/>
-      <c r="FJ13" s="171"/>
-      <c r="FK13" s="171"/>
-      <c r="FL13" s="171"/>
-      <c r="FM13" s="171"/>
-      <c r="FN13" s="171"/>
-      <c r="FO13" s="171"/>
-      <c r="FP13" s="171"/>
-      <c r="FQ13" s="171"/>
-      <c r="FR13" s="171"/>
-      <c r="FS13" s="171"/>
-      <c r="FT13" s="171"/>
-      <c r="FU13" s="171"/>
-      <c r="FV13" s="171"/>
-      <c r="FW13" s="171"/>
-      <c r="FX13" s="171"/>
-      <c r="FY13" s="171"/>
-      <c r="FZ13" s="171"/>
-      <c r="GA13" s="174"/>
-      <c r="GB13" s="170" t="s">
+      <c r="EY13" s="188"/>
+      <c r="EZ13" s="188"/>
+      <c r="FA13" s="188"/>
+      <c r="FB13" s="188"/>
+      <c r="FC13" s="188"/>
+      <c r="FD13" s="188"/>
+      <c r="FE13" s="188"/>
+      <c r="FF13" s="188"/>
+      <c r="FG13" s="188"/>
+      <c r="FH13" s="188"/>
+      <c r="FI13" s="188"/>
+      <c r="FJ13" s="188"/>
+      <c r="FK13" s="188"/>
+      <c r="FL13" s="188"/>
+      <c r="FM13" s="188"/>
+      <c r="FN13" s="188"/>
+      <c r="FO13" s="188"/>
+      <c r="FP13" s="188"/>
+      <c r="FQ13" s="188"/>
+      <c r="FR13" s="188"/>
+      <c r="FS13" s="188"/>
+      <c r="FT13" s="188"/>
+      <c r="FU13" s="188"/>
+      <c r="FV13" s="188"/>
+      <c r="FW13" s="188"/>
+      <c r="FX13" s="188"/>
+      <c r="FY13" s="188"/>
+      <c r="FZ13" s="188"/>
+      <c r="GA13" s="191"/>
+      <c r="GB13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="GC13" s="171"/>
-      <c r="GD13" s="171"/>
-      <c r="GE13" s="171"/>
-      <c r="GF13" s="171"/>
-      <c r="GG13" s="171"/>
-      <c r="GH13" s="171"/>
-      <c r="GI13" s="171"/>
-      <c r="GJ13" s="171"/>
-      <c r="GK13" s="171"/>
-      <c r="GL13" s="171"/>
-      <c r="GM13" s="171"/>
-      <c r="GN13" s="171"/>
-      <c r="GO13" s="171"/>
-      <c r="GP13" s="171"/>
-      <c r="GQ13" s="171"/>
-      <c r="GR13" s="171"/>
-      <c r="GS13" s="171"/>
-      <c r="GT13" s="171"/>
-      <c r="GU13" s="171"/>
-      <c r="GV13" s="171"/>
-      <c r="GW13" s="171"/>
-      <c r="GX13" s="171"/>
-      <c r="GY13" s="171"/>
-      <c r="GZ13" s="171"/>
-      <c r="HA13" s="171"/>
-      <c r="HB13" s="171"/>
-      <c r="HC13" s="171"/>
-      <c r="HD13" s="171"/>
-      <c r="HE13" s="172"/>
-      <c r="HF13" s="173" t="s">
+      <c r="GC13" s="188"/>
+      <c r="GD13" s="188"/>
+      <c r="GE13" s="188"/>
+      <c r="GF13" s="188"/>
+      <c r="GG13" s="188"/>
+      <c r="GH13" s="188"/>
+      <c r="GI13" s="188"/>
+      <c r="GJ13" s="188"/>
+      <c r="GK13" s="188"/>
+      <c r="GL13" s="188"/>
+      <c r="GM13" s="188"/>
+      <c r="GN13" s="188"/>
+      <c r="GO13" s="188"/>
+      <c r="GP13" s="188"/>
+      <c r="GQ13" s="188"/>
+      <c r="GR13" s="188"/>
+      <c r="GS13" s="188"/>
+      <c r="GT13" s="188"/>
+      <c r="GU13" s="188"/>
+      <c r="GV13" s="188"/>
+      <c r="GW13" s="188"/>
+      <c r="GX13" s="188"/>
+      <c r="GY13" s="188"/>
+      <c r="GZ13" s="188"/>
+      <c r="HA13" s="188"/>
+      <c r="HB13" s="188"/>
+      <c r="HC13" s="188"/>
+      <c r="HD13" s="188"/>
+      <c r="HE13" s="189"/>
+      <c r="HF13" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="HG13" s="171"/>
-      <c r="HH13" s="171"/>
-      <c r="HI13" s="171"/>
-      <c r="HJ13" s="171"/>
-      <c r="HK13" s="171"/>
-      <c r="HL13" s="171"/>
-      <c r="HM13" s="171"/>
-      <c r="HN13" s="171"/>
-      <c r="HO13" s="171"/>
-      <c r="HP13" s="171"/>
-      <c r="HQ13" s="171"/>
-      <c r="HR13" s="171"/>
-      <c r="HS13" s="171"/>
-      <c r="HT13" s="171"/>
-      <c r="HU13" s="171"/>
-      <c r="HV13" s="171"/>
-      <c r="HW13" s="171"/>
-      <c r="HX13" s="171"/>
-      <c r="HY13" s="171"/>
-      <c r="HZ13" s="171"/>
-      <c r="IA13" s="171"/>
-      <c r="IB13" s="171"/>
-      <c r="IC13" s="171"/>
-      <c r="ID13" s="171"/>
-      <c r="IE13" s="171"/>
-      <c r="IF13" s="171"/>
-      <c r="IG13" s="171"/>
-      <c r="IH13" s="171"/>
-      <c r="II13" s="172"/>
-      <c r="IJ13" s="173" t="s">
+      <c r="HG13" s="188"/>
+      <c r="HH13" s="188"/>
+      <c r="HI13" s="188"/>
+      <c r="HJ13" s="188"/>
+      <c r="HK13" s="188"/>
+      <c r="HL13" s="188"/>
+      <c r="HM13" s="188"/>
+      <c r="HN13" s="188"/>
+      <c r="HO13" s="188"/>
+      <c r="HP13" s="188"/>
+      <c r="HQ13" s="188"/>
+      <c r="HR13" s="188"/>
+      <c r="HS13" s="188"/>
+      <c r="HT13" s="188"/>
+      <c r="HU13" s="188"/>
+      <c r="HV13" s="188"/>
+      <c r="HW13" s="188"/>
+      <c r="HX13" s="188"/>
+      <c r="HY13" s="188"/>
+      <c r="HZ13" s="188"/>
+      <c r="IA13" s="188"/>
+      <c r="IB13" s="188"/>
+      <c r="IC13" s="188"/>
+      <c r="ID13" s="188"/>
+      <c r="IE13" s="188"/>
+      <c r="IF13" s="188"/>
+      <c r="IG13" s="188"/>
+      <c r="IH13" s="188"/>
+      <c r="II13" s="189"/>
+      <c r="IJ13" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="IK13" s="171"/>
-      <c r="IL13" s="171"/>
-      <c r="IM13" s="171"/>
-      <c r="IN13" s="171"/>
-      <c r="IO13" s="171"/>
-      <c r="IP13" s="171"/>
-      <c r="IQ13" s="171"/>
-      <c r="IR13" s="171"/>
-      <c r="IS13" s="171"/>
-      <c r="IT13" s="171"/>
-      <c r="IU13" s="171"/>
-      <c r="IV13" s="171"/>
-      <c r="IW13" s="171"/>
-      <c r="IX13" s="171"/>
-      <c r="IY13" s="171"/>
-      <c r="IZ13" s="171"/>
-      <c r="JA13" s="171"/>
-      <c r="JB13" s="171"/>
-      <c r="JC13" s="171"/>
-      <c r="JD13" s="171"/>
-      <c r="JE13" s="171"/>
-      <c r="JF13" s="171"/>
-      <c r="JG13" s="171"/>
-      <c r="JH13" s="171"/>
-      <c r="JI13" s="171"/>
-      <c r="JJ13" s="171"/>
-      <c r="JK13" s="171"/>
-      <c r="JL13" s="171"/>
-      <c r="JM13" s="172"/>
-      <c r="JN13" s="173" t="s">
+      <c r="IK13" s="188"/>
+      <c r="IL13" s="188"/>
+      <c r="IM13" s="188"/>
+      <c r="IN13" s="188"/>
+      <c r="IO13" s="188"/>
+      <c r="IP13" s="188"/>
+      <c r="IQ13" s="188"/>
+      <c r="IR13" s="188"/>
+      <c r="IS13" s="188"/>
+      <c r="IT13" s="188"/>
+      <c r="IU13" s="188"/>
+      <c r="IV13" s="188"/>
+      <c r="IW13" s="188"/>
+      <c r="IX13" s="188"/>
+      <c r="IY13" s="188"/>
+      <c r="IZ13" s="188"/>
+      <c r="JA13" s="188"/>
+      <c r="JB13" s="188"/>
+      <c r="JC13" s="188"/>
+      <c r="JD13" s="188"/>
+      <c r="JE13" s="188"/>
+      <c r="JF13" s="188"/>
+      <c r="JG13" s="188"/>
+      <c r="JH13" s="188"/>
+      <c r="JI13" s="188"/>
+      <c r="JJ13" s="188"/>
+      <c r="JK13" s="188"/>
+      <c r="JL13" s="188"/>
+      <c r="JM13" s="189"/>
+      <c r="JN13" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="JO13" s="171"/>
-      <c r="JP13" s="171"/>
-      <c r="JQ13" s="171"/>
-      <c r="JR13" s="171"/>
-      <c r="JS13" s="171"/>
-      <c r="JT13" s="171"/>
-      <c r="JU13" s="171"/>
-      <c r="JV13" s="171"/>
-      <c r="JW13" s="171"/>
-      <c r="JX13" s="171"/>
-      <c r="JY13" s="171"/>
-      <c r="JZ13" s="171"/>
-      <c r="KA13" s="171"/>
-      <c r="KB13" s="171"/>
-      <c r="KC13" s="171"/>
-      <c r="KD13" s="171"/>
-      <c r="KE13" s="171"/>
-      <c r="KF13" s="171"/>
-      <c r="KG13" s="171"/>
-      <c r="KH13" s="171"/>
-      <c r="KI13" s="171"/>
-      <c r="KJ13" s="171"/>
-      <c r="KK13" s="171"/>
-      <c r="KL13" s="171"/>
-      <c r="KM13" s="171"/>
-      <c r="KN13" s="171"/>
-      <c r="KO13" s="171"/>
-      <c r="KP13" s="171"/>
-      <c r="KQ13" s="175"/>
-      <c r="KR13" s="168" t="s">
+      <c r="JO13" s="188"/>
+      <c r="JP13" s="188"/>
+      <c r="JQ13" s="188"/>
+      <c r="JR13" s="188"/>
+      <c r="JS13" s="188"/>
+      <c r="JT13" s="188"/>
+      <c r="JU13" s="188"/>
+      <c r="JV13" s="188"/>
+      <c r="JW13" s="188"/>
+      <c r="JX13" s="188"/>
+      <c r="JY13" s="188"/>
+      <c r="JZ13" s="188"/>
+      <c r="KA13" s="188"/>
+      <c r="KB13" s="188"/>
+      <c r="KC13" s="188"/>
+      <c r="KD13" s="188"/>
+      <c r="KE13" s="188"/>
+      <c r="KF13" s="188"/>
+      <c r="KG13" s="188"/>
+      <c r="KH13" s="188"/>
+      <c r="KI13" s="188"/>
+      <c r="KJ13" s="188"/>
+      <c r="KK13" s="188"/>
+      <c r="KL13" s="188"/>
+      <c r="KM13" s="188"/>
+      <c r="KN13" s="188"/>
+      <c r="KO13" s="188"/>
+      <c r="KP13" s="188"/>
+      <c r="KQ13" s="192"/>
+      <c r="KR13" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="KS13" s="217"/>
-      <c r="KT13" s="170" t="s">
+      <c r="KS13" s="147"/>
+      <c r="KT13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="KU13" s="171"/>
-      <c r="KV13" s="171"/>
-      <c r="KW13" s="171"/>
-      <c r="KX13" s="171"/>
-      <c r="KY13" s="171"/>
-      <c r="KZ13" s="171"/>
-      <c r="LA13" s="171"/>
-      <c r="LB13" s="171"/>
-      <c r="LC13" s="171"/>
-      <c r="LD13" s="171"/>
-      <c r="LE13" s="171"/>
-      <c r="LF13" s="171"/>
-      <c r="LG13" s="171"/>
-      <c r="LH13" s="171"/>
-      <c r="LI13" s="171"/>
-      <c r="LJ13" s="171"/>
-      <c r="LK13" s="171"/>
-      <c r="LL13" s="171"/>
-      <c r="LM13" s="171"/>
-      <c r="LN13" s="171"/>
-      <c r="LO13" s="171"/>
-      <c r="LP13" s="171"/>
-      <c r="LQ13" s="171"/>
-      <c r="LR13" s="171"/>
-      <c r="LS13" s="171"/>
-      <c r="LT13" s="171"/>
-      <c r="LU13" s="171"/>
-      <c r="LV13" s="171"/>
-      <c r="LW13" s="172"/>
-      <c r="LX13" s="173" t="s">
+      <c r="KU13" s="188"/>
+      <c r="KV13" s="188"/>
+      <c r="KW13" s="188"/>
+      <c r="KX13" s="188"/>
+      <c r="KY13" s="188"/>
+      <c r="KZ13" s="188"/>
+      <c r="LA13" s="188"/>
+      <c r="LB13" s="188"/>
+      <c r="LC13" s="188"/>
+      <c r="LD13" s="188"/>
+      <c r="LE13" s="188"/>
+      <c r="LF13" s="188"/>
+      <c r="LG13" s="188"/>
+      <c r="LH13" s="188"/>
+      <c r="LI13" s="188"/>
+      <c r="LJ13" s="188"/>
+      <c r="LK13" s="188"/>
+      <c r="LL13" s="188"/>
+      <c r="LM13" s="188"/>
+      <c r="LN13" s="188"/>
+      <c r="LO13" s="188"/>
+      <c r="LP13" s="188"/>
+      <c r="LQ13" s="188"/>
+      <c r="LR13" s="188"/>
+      <c r="LS13" s="188"/>
+      <c r="LT13" s="188"/>
+      <c r="LU13" s="188"/>
+      <c r="LV13" s="188"/>
+      <c r="LW13" s="189"/>
+      <c r="LX13" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="LY13" s="171"/>
-      <c r="LZ13" s="171"/>
-      <c r="MA13" s="171"/>
-      <c r="MB13" s="171"/>
-      <c r="MC13" s="171"/>
-      <c r="MD13" s="171"/>
-      <c r="ME13" s="171"/>
-      <c r="MF13" s="171"/>
-      <c r="MG13" s="171"/>
-      <c r="MH13" s="171"/>
-      <c r="MI13" s="171"/>
-      <c r="MJ13" s="171"/>
-      <c r="MK13" s="171"/>
-      <c r="ML13" s="171"/>
-      <c r="MM13" s="171"/>
-      <c r="MN13" s="171"/>
-      <c r="MO13" s="171"/>
-      <c r="MP13" s="171"/>
-      <c r="MQ13" s="171"/>
-      <c r="MR13" s="171"/>
-      <c r="MS13" s="171"/>
-      <c r="MT13" s="171"/>
-      <c r="MU13" s="171"/>
-      <c r="MV13" s="171"/>
-      <c r="MW13" s="171"/>
-      <c r="MX13" s="171"/>
-      <c r="MY13" s="171"/>
-      <c r="MZ13" s="171"/>
-      <c r="NA13" s="172"/>
-      <c r="NB13" s="173" t="s">
+      <c r="LY13" s="188"/>
+      <c r="LZ13" s="188"/>
+      <c r="MA13" s="188"/>
+      <c r="MB13" s="188"/>
+      <c r="MC13" s="188"/>
+      <c r="MD13" s="188"/>
+      <c r="ME13" s="188"/>
+      <c r="MF13" s="188"/>
+      <c r="MG13" s="188"/>
+      <c r="MH13" s="188"/>
+      <c r="MI13" s="188"/>
+      <c r="MJ13" s="188"/>
+      <c r="MK13" s="188"/>
+      <c r="ML13" s="188"/>
+      <c r="MM13" s="188"/>
+      <c r="MN13" s="188"/>
+      <c r="MO13" s="188"/>
+      <c r="MP13" s="188"/>
+      <c r="MQ13" s="188"/>
+      <c r="MR13" s="188"/>
+      <c r="MS13" s="188"/>
+      <c r="MT13" s="188"/>
+      <c r="MU13" s="188"/>
+      <c r="MV13" s="188"/>
+      <c r="MW13" s="188"/>
+      <c r="MX13" s="188"/>
+      <c r="MY13" s="188"/>
+      <c r="MZ13" s="188"/>
+      <c r="NA13" s="189"/>
+      <c r="NB13" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="NC13" s="171"/>
-      <c r="ND13" s="171"/>
-      <c r="NE13" s="171"/>
-      <c r="NF13" s="171"/>
-      <c r="NG13" s="171"/>
-      <c r="NH13" s="171"/>
-      <c r="NI13" s="171"/>
-      <c r="NJ13" s="171"/>
-      <c r="NK13" s="171"/>
-      <c r="NL13" s="171"/>
-      <c r="NM13" s="171"/>
-      <c r="NN13" s="171"/>
-      <c r="NO13" s="171"/>
-      <c r="NP13" s="171"/>
-      <c r="NQ13" s="171"/>
-      <c r="NR13" s="171"/>
-      <c r="NS13" s="171"/>
-      <c r="NT13" s="171"/>
-      <c r="NU13" s="171"/>
-      <c r="NV13" s="171"/>
-      <c r="NW13" s="171"/>
-      <c r="NX13" s="171"/>
-      <c r="NY13" s="171"/>
-      <c r="NZ13" s="171"/>
-      <c r="OA13" s="171"/>
-      <c r="OB13" s="171"/>
-      <c r="OC13" s="171"/>
-      <c r="OD13" s="171"/>
-      <c r="OE13" s="172"/>
-      <c r="OF13" s="173" t="s">
+      <c r="NC13" s="188"/>
+      <c r="ND13" s="188"/>
+      <c r="NE13" s="188"/>
+      <c r="NF13" s="188"/>
+      <c r="NG13" s="188"/>
+      <c r="NH13" s="188"/>
+      <c r="NI13" s="188"/>
+      <c r="NJ13" s="188"/>
+      <c r="NK13" s="188"/>
+      <c r="NL13" s="188"/>
+      <c r="NM13" s="188"/>
+      <c r="NN13" s="188"/>
+      <c r="NO13" s="188"/>
+      <c r="NP13" s="188"/>
+      <c r="NQ13" s="188"/>
+      <c r="NR13" s="188"/>
+      <c r="NS13" s="188"/>
+      <c r="NT13" s="188"/>
+      <c r="NU13" s="188"/>
+      <c r="NV13" s="188"/>
+      <c r="NW13" s="188"/>
+      <c r="NX13" s="188"/>
+      <c r="NY13" s="188"/>
+      <c r="NZ13" s="188"/>
+      <c r="OA13" s="188"/>
+      <c r="OB13" s="188"/>
+      <c r="OC13" s="188"/>
+      <c r="OD13" s="188"/>
+      <c r="OE13" s="189"/>
+      <c r="OF13" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="OG13" s="171"/>
-      <c r="OH13" s="171"/>
-      <c r="OI13" s="171"/>
-      <c r="OJ13" s="171"/>
-      <c r="OK13" s="171"/>
-      <c r="OL13" s="171"/>
-      <c r="OM13" s="171"/>
-      <c r="ON13" s="171"/>
-      <c r="OO13" s="171"/>
-      <c r="OP13" s="171"/>
-      <c r="OQ13" s="171"/>
-      <c r="OR13" s="171"/>
-      <c r="OS13" s="171"/>
-      <c r="OT13" s="171"/>
-      <c r="OU13" s="171"/>
-      <c r="OV13" s="171"/>
-      <c r="OW13" s="171"/>
-      <c r="OX13" s="171"/>
-      <c r="OY13" s="171"/>
-      <c r="OZ13" s="171"/>
-      <c r="PA13" s="171"/>
-      <c r="PB13" s="171"/>
-      <c r="PC13" s="171"/>
-      <c r="PD13" s="171"/>
-      <c r="PE13" s="171"/>
-      <c r="PF13" s="171"/>
-      <c r="PG13" s="171"/>
-      <c r="PH13" s="171"/>
-      <c r="PI13" s="175"/>
-      <c r="PJ13" s="170" t="s">
+      <c r="OG13" s="188"/>
+      <c r="OH13" s="188"/>
+      <c r="OI13" s="188"/>
+      <c r="OJ13" s="188"/>
+      <c r="OK13" s="188"/>
+      <c r="OL13" s="188"/>
+      <c r="OM13" s="188"/>
+      <c r="ON13" s="188"/>
+      <c r="OO13" s="188"/>
+      <c r="OP13" s="188"/>
+      <c r="OQ13" s="188"/>
+      <c r="OR13" s="188"/>
+      <c r="OS13" s="188"/>
+      <c r="OT13" s="188"/>
+      <c r="OU13" s="188"/>
+      <c r="OV13" s="188"/>
+      <c r="OW13" s="188"/>
+      <c r="OX13" s="188"/>
+      <c r="OY13" s="188"/>
+      <c r="OZ13" s="188"/>
+      <c r="PA13" s="188"/>
+      <c r="PB13" s="188"/>
+      <c r="PC13" s="188"/>
+      <c r="PD13" s="188"/>
+      <c r="PE13" s="188"/>
+      <c r="PF13" s="188"/>
+      <c r="PG13" s="188"/>
+      <c r="PH13" s="188"/>
+      <c r="PI13" s="192"/>
+      <c r="PJ13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="PK13" s="171"/>
-      <c r="PL13" s="171"/>
-      <c r="PM13" s="171"/>
-      <c r="PN13" s="171"/>
-      <c r="PO13" s="171"/>
-      <c r="PP13" s="171"/>
-      <c r="PQ13" s="171"/>
-      <c r="PR13" s="171"/>
-      <c r="PS13" s="171"/>
-      <c r="PT13" s="171"/>
-      <c r="PU13" s="171"/>
-      <c r="PV13" s="171"/>
-      <c r="PW13" s="171"/>
-      <c r="PX13" s="171"/>
-      <c r="PY13" s="171"/>
-      <c r="PZ13" s="171"/>
-      <c r="QA13" s="171"/>
-      <c r="QB13" s="171"/>
-      <c r="QC13" s="171"/>
-      <c r="QD13" s="171"/>
-      <c r="QE13" s="171"/>
-      <c r="QF13" s="171"/>
-      <c r="QG13" s="171"/>
-      <c r="QH13" s="171"/>
-      <c r="QI13" s="171"/>
-      <c r="QJ13" s="171"/>
-      <c r="QK13" s="171"/>
-      <c r="QL13" s="171"/>
-      <c r="QM13" s="172"/>
-      <c r="QN13" s="173" t="s">
+      <c r="PK13" s="188"/>
+      <c r="PL13" s="188"/>
+      <c r="PM13" s="188"/>
+      <c r="PN13" s="188"/>
+      <c r="PO13" s="188"/>
+      <c r="PP13" s="188"/>
+      <c r="PQ13" s="188"/>
+      <c r="PR13" s="188"/>
+      <c r="PS13" s="188"/>
+      <c r="PT13" s="188"/>
+      <c r="PU13" s="188"/>
+      <c r="PV13" s="188"/>
+      <c r="PW13" s="188"/>
+      <c r="PX13" s="188"/>
+      <c r="PY13" s="188"/>
+      <c r="PZ13" s="188"/>
+      <c r="QA13" s="188"/>
+      <c r="QB13" s="188"/>
+      <c r="QC13" s="188"/>
+      <c r="QD13" s="188"/>
+      <c r="QE13" s="188"/>
+      <c r="QF13" s="188"/>
+      <c r="QG13" s="188"/>
+      <c r="QH13" s="188"/>
+      <c r="QI13" s="188"/>
+      <c r="QJ13" s="188"/>
+      <c r="QK13" s="188"/>
+      <c r="QL13" s="188"/>
+      <c r="QM13" s="189"/>
+      <c r="QN13" s="190" t="s">
         <v>21</v>
       </c>
-      <c r="QO13" s="171"/>
-      <c r="QP13" s="171"/>
-      <c r="QQ13" s="171"/>
-      <c r="QR13" s="171"/>
-      <c r="QS13" s="171"/>
-      <c r="QT13" s="171"/>
-      <c r="QU13" s="171"/>
-      <c r="QV13" s="171"/>
-      <c r="QW13" s="171"/>
-      <c r="QX13" s="171"/>
-      <c r="QY13" s="171"/>
-      <c r="QZ13" s="171"/>
-      <c r="RA13" s="171"/>
-      <c r="RB13" s="171"/>
-      <c r="RC13" s="171"/>
-      <c r="RD13" s="171"/>
-      <c r="RE13" s="171"/>
-      <c r="RF13" s="171"/>
-      <c r="RG13" s="171"/>
-      <c r="RH13" s="171"/>
-      <c r="RI13" s="171"/>
-      <c r="RJ13" s="171"/>
-      <c r="RK13" s="171"/>
-      <c r="RL13" s="171"/>
-      <c r="RM13" s="171"/>
-      <c r="RN13" s="171"/>
-      <c r="RO13" s="171"/>
-      <c r="RP13" s="171"/>
-      <c r="RQ13" s="172"/>
-      <c r="RR13" s="173" t="s">
+      <c r="QO13" s="188"/>
+      <c r="QP13" s="188"/>
+      <c r="QQ13" s="188"/>
+      <c r="QR13" s="188"/>
+      <c r="QS13" s="188"/>
+      <c r="QT13" s="188"/>
+      <c r="QU13" s="188"/>
+      <c r="QV13" s="188"/>
+      <c r="QW13" s="188"/>
+      <c r="QX13" s="188"/>
+      <c r="QY13" s="188"/>
+      <c r="QZ13" s="188"/>
+      <c r="RA13" s="188"/>
+      <c r="RB13" s="188"/>
+      <c r="RC13" s="188"/>
+      <c r="RD13" s="188"/>
+      <c r="RE13" s="188"/>
+      <c r="RF13" s="188"/>
+      <c r="RG13" s="188"/>
+      <c r="RH13" s="188"/>
+      <c r="RI13" s="188"/>
+      <c r="RJ13" s="188"/>
+      <c r="RK13" s="188"/>
+      <c r="RL13" s="188"/>
+      <c r="RM13" s="188"/>
+      <c r="RN13" s="188"/>
+      <c r="RO13" s="188"/>
+      <c r="RP13" s="188"/>
+      <c r="RQ13" s="189"/>
+      <c r="RR13" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="RS13" s="171"/>
-      <c r="RT13" s="171"/>
-      <c r="RU13" s="171"/>
-      <c r="RV13" s="171"/>
-      <c r="RW13" s="171"/>
-      <c r="RX13" s="171"/>
-      <c r="RY13" s="171"/>
-      <c r="RZ13" s="171"/>
-      <c r="SA13" s="171"/>
-      <c r="SB13" s="171"/>
-      <c r="SC13" s="171"/>
-      <c r="SD13" s="171"/>
-      <c r="SE13" s="171"/>
-      <c r="SF13" s="171"/>
-      <c r="SG13" s="171"/>
-      <c r="SH13" s="171"/>
-      <c r="SI13" s="171"/>
-      <c r="SJ13" s="171"/>
-      <c r="SK13" s="171"/>
-      <c r="SL13" s="171"/>
-      <c r="SM13" s="171"/>
-      <c r="SN13" s="171"/>
-      <c r="SO13" s="171"/>
-      <c r="SP13" s="171"/>
-      <c r="SQ13" s="171"/>
-      <c r="SR13" s="171"/>
-      <c r="SS13" s="171"/>
-      <c r="ST13" s="171"/>
-      <c r="SU13" s="172"/>
-      <c r="SV13" s="173" t="s">
+      <c r="RS13" s="188"/>
+      <c r="RT13" s="188"/>
+      <c r="RU13" s="188"/>
+      <c r="RV13" s="188"/>
+      <c r="RW13" s="188"/>
+      <c r="RX13" s="188"/>
+      <c r="RY13" s="188"/>
+      <c r="RZ13" s="188"/>
+      <c r="SA13" s="188"/>
+      <c r="SB13" s="188"/>
+      <c r="SC13" s="188"/>
+      <c r="SD13" s="188"/>
+      <c r="SE13" s="188"/>
+      <c r="SF13" s="188"/>
+      <c r="SG13" s="188"/>
+      <c r="SH13" s="188"/>
+      <c r="SI13" s="188"/>
+      <c r="SJ13" s="188"/>
+      <c r="SK13" s="188"/>
+      <c r="SL13" s="188"/>
+      <c r="SM13" s="188"/>
+      <c r="SN13" s="188"/>
+      <c r="SO13" s="188"/>
+      <c r="SP13" s="188"/>
+      <c r="SQ13" s="188"/>
+      <c r="SR13" s="188"/>
+      <c r="SS13" s="188"/>
+      <c r="ST13" s="188"/>
+      <c r="SU13" s="189"/>
+      <c r="SV13" s="190" t="s">
         <v>19</v>
       </c>
-      <c r="SW13" s="171"/>
-      <c r="SX13" s="171"/>
-      <c r="SY13" s="171"/>
-      <c r="SZ13" s="171"/>
-      <c r="TA13" s="171"/>
-      <c r="TB13" s="171"/>
-      <c r="TC13" s="171"/>
-      <c r="TD13" s="171"/>
-      <c r="TE13" s="171"/>
-      <c r="TF13" s="171"/>
-      <c r="TG13" s="171"/>
-      <c r="TH13" s="171"/>
-      <c r="TI13" s="171"/>
-      <c r="TJ13" s="171"/>
-      <c r="TK13" s="171"/>
-      <c r="TL13" s="171"/>
-      <c r="TM13" s="171"/>
-      <c r="TN13" s="171"/>
-      <c r="TO13" s="171"/>
-      <c r="TP13" s="171"/>
-      <c r="TQ13" s="171"/>
-      <c r="TR13" s="171"/>
-      <c r="TS13" s="171"/>
-      <c r="TT13" s="171"/>
-      <c r="TU13" s="171"/>
-      <c r="TV13" s="171"/>
-      <c r="TW13" s="171"/>
-      <c r="TX13" s="171"/>
-      <c r="TY13" s="175"/>
-      <c r="TZ13" s="170" t="s">
+      <c r="SW13" s="188"/>
+      <c r="SX13" s="188"/>
+      <c r="SY13" s="188"/>
+      <c r="SZ13" s="188"/>
+      <c r="TA13" s="188"/>
+      <c r="TB13" s="188"/>
+      <c r="TC13" s="188"/>
+      <c r="TD13" s="188"/>
+      <c r="TE13" s="188"/>
+      <c r="TF13" s="188"/>
+      <c r="TG13" s="188"/>
+      <c r="TH13" s="188"/>
+      <c r="TI13" s="188"/>
+      <c r="TJ13" s="188"/>
+      <c r="TK13" s="188"/>
+      <c r="TL13" s="188"/>
+      <c r="TM13" s="188"/>
+      <c r="TN13" s="188"/>
+      <c r="TO13" s="188"/>
+      <c r="TP13" s="188"/>
+      <c r="TQ13" s="188"/>
+      <c r="TR13" s="188"/>
+      <c r="TS13" s="188"/>
+      <c r="TT13" s="188"/>
+      <c r="TU13" s="188"/>
+      <c r="TV13" s="188"/>
+      <c r="TW13" s="188"/>
+      <c r="TX13" s="188"/>
+      <c r="TY13" s="192"/>
+      <c r="TZ13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="UA13" s="171"/>
-      <c r="UB13" s="171"/>
-      <c r="UC13" s="171"/>
-      <c r="UD13" s="171"/>
-      <c r="UE13" s="171"/>
-      <c r="UF13" s="171"/>
-      <c r="UG13" s="171"/>
-      <c r="UH13" s="171"/>
-      <c r="UI13" s="171"/>
-      <c r="UJ13" s="171"/>
-      <c r="UK13" s="171"/>
-      <c r="UL13" s="171"/>
-      <c r="UM13" s="171"/>
-      <c r="UN13" s="171"/>
-      <c r="UO13" s="171"/>
-      <c r="UP13" s="171"/>
-      <c r="UQ13" s="171"/>
-      <c r="UR13" s="171"/>
-      <c r="US13" s="171"/>
-      <c r="UT13" s="171"/>
-      <c r="UU13" s="171"/>
-      <c r="UV13" s="171"/>
-      <c r="UW13" s="171"/>
-      <c r="UX13" s="171"/>
-      <c r="UY13" s="171"/>
-      <c r="UZ13" s="171"/>
-      <c r="VA13" s="171"/>
-      <c r="VB13" s="171"/>
-      <c r="VC13" s="175"/>
+      <c r="UA13" s="188"/>
+      <c r="UB13" s="188"/>
+      <c r="UC13" s="188"/>
+      <c r="UD13" s="188"/>
+      <c r="UE13" s="188"/>
+      <c r="UF13" s="188"/>
+      <c r="UG13" s="188"/>
+      <c r="UH13" s="188"/>
+      <c r="UI13" s="188"/>
+      <c r="UJ13" s="188"/>
+      <c r="UK13" s="188"/>
+      <c r="UL13" s="188"/>
+      <c r="UM13" s="188"/>
+      <c r="UN13" s="188"/>
+      <c r="UO13" s="188"/>
+      <c r="UP13" s="188"/>
+      <c r="UQ13" s="188"/>
+      <c r="UR13" s="188"/>
+      <c r="US13" s="188"/>
+      <c r="UT13" s="188"/>
+      <c r="UU13" s="188"/>
+      <c r="UV13" s="188"/>
+      <c r="UW13" s="188"/>
+      <c r="UX13" s="188"/>
+      <c r="UY13" s="188"/>
+      <c r="UZ13" s="188"/>
+      <c r="VA13" s="188"/>
+      <c r="VB13" s="188"/>
+      <c r="VC13" s="192"/>
     </row>
     <row r="14" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="168" t="s">
+      <c r="B14" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="176">
+      <c r="C14" s="182"/>
+      <c r="D14" s="179">
         <v>45414</v>
       </c>
       <c r="E14" s="177"/>
@@ -9646,8 +9676,8 @@
       <c r="AD14" s="177"/>
       <c r="AE14" s="177"/>
       <c r="AF14" s="177"/>
-      <c r="AG14" s="178"/>
-      <c r="AH14" s="179">
+      <c r="AG14" s="181"/>
+      <c r="AH14" s="176">
         <v>45415</v>
       </c>
       <c r="AI14" s="177"/>
@@ -9678,8 +9708,8 @@
       <c r="BH14" s="177"/>
       <c r="BI14" s="177"/>
       <c r="BJ14" s="177"/>
-      <c r="BK14" s="180"/>
-      <c r="BL14" s="176">
+      <c r="BK14" s="183"/>
+      <c r="BL14" s="179">
         <v>45418</v>
       </c>
       <c r="BM14" s="177"/>
@@ -9710,8 +9740,8 @@
       <c r="CL14" s="177"/>
       <c r="CM14" s="177"/>
       <c r="CN14" s="177"/>
-      <c r="CO14" s="178"/>
-      <c r="CP14" s="179">
+      <c r="CO14" s="181"/>
+      <c r="CP14" s="176">
         <v>45420</v>
       </c>
       <c r="CQ14" s="177"/>
@@ -9742,8 +9772,8 @@
       <c r="DP14" s="177"/>
       <c r="DQ14" s="177"/>
       <c r="DR14" s="177"/>
-      <c r="DS14" s="178"/>
-      <c r="DT14" s="179">
+      <c r="DS14" s="181"/>
+      <c r="DT14" s="176">
         <v>45421</v>
       </c>
       <c r="DU14" s="177"/>
@@ -9774,8 +9804,8 @@
       <c r="ET14" s="177"/>
       <c r="EU14" s="177"/>
       <c r="EV14" s="177"/>
-      <c r="EW14" s="178"/>
-      <c r="EX14" s="179">
+      <c r="EW14" s="181"/>
+      <c r="EX14" s="176">
         <v>45422</v>
       </c>
       <c r="EY14" s="177"/>
@@ -9806,8 +9836,8 @@
       <c r="FX14" s="177"/>
       <c r="FY14" s="177"/>
       <c r="FZ14" s="177"/>
-      <c r="GA14" s="180"/>
-      <c r="GB14" s="176">
+      <c r="GA14" s="183"/>
+      <c r="GB14" s="179">
         <v>45425</v>
       </c>
       <c r="GC14" s="177"/>
@@ -9838,8 +9868,8 @@
       <c r="HB14" s="177"/>
       <c r="HC14" s="177"/>
       <c r="HD14" s="177"/>
-      <c r="HE14" s="178"/>
-      <c r="HF14" s="179">
+      <c r="HE14" s="181"/>
+      <c r="HF14" s="176">
         <v>45427</v>
       </c>
       <c r="HG14" s="177"/>
@@ -9870,8 +9900,8 @@
       <c r="IF14" s="177"/>
       <c r="IG14" s="177"/>
       <c r="IH14" s="177"/>
-      <c r="II14" s="178"/>
-      <c r="IJ14" s="179">
+      <c r="II14" s="181"/>
+      <c r="IJ14" s="176">
         <v>45428</v>
       </c>
       <c r="IK14" s="177"/>
@@ -9902,8 +9932,8 @@
       <c r="JJ14" s="177"/>
       <c r="JK14" s="177"/>
       <c r="JL14" s="177"/>
-      <c r="JM14" s="178"/>
-      <c r="JN14" s="179">
+      <c r="JM14" s="181"/>
+      <c r="JN14" s="176">
         <v>45429</v>
       </c>
       <c r="JO14" s="177"/>
@@ -9934,12 +9964,12 @@
       <c r="KN14" s="177"/>
       <c r="KO14" s="177"/>
       <c r="KP14" s="177"/>
-      <c r="KQ14" s="181"/>
-      <c r="KR14" s="168" t="s">
+      <c r="KQ14" s="178"/>
+      <c r="KR14" s="146" t="s">
         <v>22</v>
       </c>
-      <c r="KS14" s="217"/>
-      <c r="KT14" s="176">
+      <c r="KS14" s="147"/>
+      <c r="KT14" s="179">
         <v>45432</v>
       </c>
       <c r="KU14" s="177"/>
@@ -9970,8 +10000,8 @@
       <c r="LT14" s="177"/>
       <c r="LU14" s="177"/>
       <c r="LV14" s="177"/>
-      <c r="LW14" s="178"/>
-      <c r="LX14" s="179">
+      <c r="LW14" s="181"/>
+      <c r="LX14" s="176">
         <v>45434</v>
       </c>
       <c r="LY14" s="177"/>
@@ -10002,8 +10032,8 @@
       <c r="MX14" s="177"/>
       <c r="MY14" s="177"/>
       <c r="MZ14" s="177"/>
-      <c r="NA14" s="178"/>
-      <c r="NB14" s="179">
+      <c r="NA14" s="181"/>
+      <c r="NB14" s="176">
         <v>45435</v>
       </c>
       <c r="NC14" s="177"/>
@@ -10034,8 +10064,8 @@
       <c r="OB14" s="177"/>
       <c r="OC14" s="177"/>
       <c r="OD14" s="177"/>
-      <c r="OE14" s="178"/>
-      <c r="OF14" s="179">
+      <c r="OE14" s="181"/>
+      <c r="OF14" s="176">
         <v>45436</v>
       </c>
       <c r="OG14" s="177"/>
@@ -10066,8 +10096,8 @@
       <c r="PF14" s="177"/>
       <c r="PG14" s="177"/>
       <c r="PH14" s="177"/>
-      <c r="PI14" s="181"/>
-      <c r="PJ14" s="176">
+      <c r="PI14" s="178"/>
+      <c r="PJ14" s="179">
         <v>45439</v>
       </c>
       <c r="PK14" s="177"/>
@@ -10098,8 +10128,8 @@
       <c r="QJ14" s="177"/>
       <c r="QK14" s="177"/>
       <c r="QL14" s="177"/>
-      <c r="QM14" s="178"/>
-      <c r="QN14" s="179">
+      <c r="QM14" s="181"/>
+      <c r="QN14" s="176">
         <v>45441</v>
       </c>
       <c r="QO14" s="177"/>
@@ -10130,8 +10160,8 @@
       <c r="RN14" s="177"/>
       <c r="RO14" s="177"/>
       <c r="RP14" s="177"/>
-      <c r="RQ14" s="178"/>
-      <c r="RR14" s="179">
+      <c r="RQ14" s="181"/>
+      <c r="RR14" s="176">
         <v>45442</v>
       </c>
       <c r="RS14" s="177"/>
@@ -10162,8 +10192,8 @@
       <c r="SR14" s="177"/>
       <c r="SS14" s="177"/>
       <c r="ST14" s="177"/>
-      <c r="SU14" s="178"/>
-      <c r="SV14" s="179">
+      <c r="SU14" s="181"/>
+      <c r="SV14" s="176">
         <v>45443</v>
       </c>
       <c r="SW14" s="177"/>
@@ -10194,8 +10224,8 @@
       <c r="TV14" s="177"/>
       <c r="TW14" s="177"/>
       <c r="TX14" s="177"/>
-      <c r="TY14" s="181"/>
-      <c r="TZ14" s="176">
+      <c r="TY14" s="178"/>
+      <c r="TZ14" s="179">
         <v>45446</v>
       </c>
       <c r="UA14" s="177"/>
@@ -10226,664 +10256,664 @@
       <c r="UZ14" s="177"/>
       <c r="VA14" s="177"/>
       <c r="VB14" s="177"/>
-      <c r="VC14" s="181"/>
+      <c r="VC14" s="178"/>
     </row>
     <row r="15" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="182" t="s">
+      <c r="B15" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="183"/>
-      <c r="D15" s="184" t="s">
+      <c r="C15" s="180"/>
+      <c r="D15" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="185"/>
-      <c r="F15" s="185"/>
-      <c r="G15" s="185"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="185"/>
-      <c r="J15" s="185"/>
-      <c r="K15" s="185"/>
-      <c r="L15" s="185"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="185"/>
-      <c r="O15" s="185"/>
-      <c r="P15" s="185"/>
-      <c r="Q15" s="185"/>
-      <c r="R15" s="185"/>
-      <c r="S15" s="185" t="s">
+      <c r="E15" s="168"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="168"/>
+      <c r="K15" s="168"/>
+      <c r="L15" s="168"/>
+      <c r="M15" s="168"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="185"/>
-      <c r="U15" s="185"/>
-      <c r="V15" s="185"/>
-      <c r="W15" s="185"/>
-      <c r="X15" s="185"/>
-      <c r="Y15" s="185"/>
-      <c r="Z15" s="185"/>
-      <c r="AA15" s="185"/>
-      <c r="AB15" s="185"/>
-      <c r="AC15" s="185"/>
-      <c r="AD15" s="185"/>
-      <c r="AE15" s="185"/>
-      <c r="AF15" s="185"/>
-      <c r="AG15" s="186"/>
-      <c r="AH15" s="187" t="s">
+      <c r="T15" s="168"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="168"/>
+      <c r="Z15" s="168"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="168"/>
+      <c r="AE15" s="168"/>
+      <c r="AF15" s="168"/>
+      <c r="AG15" s="175"/>
+      <c r="AH15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="AI15" s="185"/>
-      <c r="AJ15" s="185"/>
-      <c r="AK15" s="185"/>
-      <c r="AL15" s="185"/>
-      <c r="AM15" s="185"/>
-      <c r="AN15" s="185"/>
-      <c r="AO15" s="185"/>
-      <c r="AP15" s="185"/>
-      <c r="AQ15" s="185"/>
-      <c r="AR15" s="185"/>
-      <c r="AS15" s="185"/>
-      <c r="AT15" s="185"/>
-      <c r="AU15" s="185"/>
-      <c r="AV15" s="185"/>
-      <c r="AW15" s="185" t="s">
+      <c r="AI15" s="168"/>
+      <c r="AJ15" s="168"/>
+      <c r="AK15" s="168"/>
+      <c r="AL15" s="168"/>
+      <c r="AM15" s="168"/>
+      <c r="AN15" s="168"/>
+      <c r="AO15" s="168"/>
+      <c r="AP15" s="168"/>
+      <c r="AQ15" s="168"/>
+      <c r="AR15" s="168"/>
+      <c r="AS15" s="168"/>
+      <c r="AT15" s="168"/>
+      <c r="AU15" s="168"/>
+      <c r="AV15" s="168"/>
+      <c r="AW15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="AX15" s="185"/>
-      <c r="AY15" s="185"/>
-      <c r="AZ15" s="185"/>
-      <c r="BA15" s="185"/>
-      <c r="BB15" s="185"/>
-      <c r="BC15" s="185"/>
-      <c r="BD15" s="185"/>
-      <c r="BE15" s="185"/>
-      <c r="BF15" s="185"/>
-      <c r="BG15" s="185"/>
-      <c r="BH15" s="185"/>
-      <c r="BI15" s="185"/>
-      <c r="BJ15" s="185"/>
-      <c r="BK15" s="188"/>
-      <c r="BL15" s="184" t="s">
+      <c r="AX15" s="168"/>
+      <c r="AY15" s="168"/>
+      <c r="AZ15" s="168"/>
+      <c r="BA15" s="168"/>
+      <c r="BB15" s="168"/>
+      <c r="BC15" s="168"/>
+      <c r="BD15" s="168"/>
+      <c r="BE15" s="168"/>
+      <c r="BF15" s="168"/>
+      <c r="BG15" s="168"/>
+      <c r="BH15" s="168"/>
+      <c r="BI15" s="168"/>
+      <c r="BJ15" s="168"/>
+      <c r="BK15" s="171"/>
+      <c r="BL15" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="BM15" s="185"/>
-      <c r="BN15" s="185"/>
-      <c r="BO15" s="185"/>
-      <c r="BP15" s="185"/>
-      <c r="BQ15" s="185"/>
-      <c r="BR15" s="185"/>
-      <c r="BS15" s="185"/>
-      <c r="BT15" s="185"/>
-      <c r="BU15" s="185"/>
-      <c r="BV15" s="185"/>
-      <c r="BW15" s="185"/>
-      <c r="BX15" s="185"/>
-      <c r="BY15" s="185"/>
-      <c r="BZ15" s="188"/>
-      <c r="CA15" s="185" t="s">
+      <c r="BM15" s="168"/>
+      <c r="BN15" s="168"/>
+      <c r="BO15" s="168"/>
+      <c r="BP15" s="168"/>
+      <c r="BQ15" s="168"/>
+      <c r="BR15" s="168"/>
+      <c r="BS15" s="168"/>
+      <c r="BT15" s="168"/>
+      <c r="BU15" s="168"/>
+      <c r="BV15" s="168"/>
+      <c r="BW15" s="168"/>
+      <c r="BX15" s="168"/>
+      <c r="BY15" s="168"/>
+      <c r="BZ15" s="171"/>
+      <c r="CA15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="CB15" s="185"/>
-      <c r="CC15" s="185"/>
-      <c r="CD15" s="185"/>
-      <c r="CE15" s="185"/>
-      <c r="CF15" s="185"/>
-      <c r="CG15" s="185"/>
-      <c r="CH15" s="185"/>
-      <c r="CI15" s="185"/>
-      <c r="CJ15" s="185"/>
-      <c r="CK15" s="185"/>
-      <c r="CL15" s="185"/>
-      <c r="CM15" s="185"/>
-      <c r="CN15" s="185"/>
-      <c r="CO15" s="186"/>
-      <c r="CP15" s="187" t="s">
+      <c r="CB15" s="168"/>
+      <c r="CC15" s="168"/>
+      <c r="CD15" s="168"/>
+      <c r="CE15" s="168"/>
+      <c r="CF15" s="168"/>
+      <c r="CG15" s="168"/>
+      <c r="CH15" s="168"/>
+      <c r="CI15" s="168"/>
+      <c r="CJ15" s="168"/>
+      <c r="CK15" s="168"/>
+      <c r="CL15" s="168"/>
+      <c r="CM15" s="168"/>
+      <c r="CN15" s="168"/>
+      <c r="CO15" s="175"/>
+      <c r="CP15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="CQ15" s="185"/>
-      <c r="CR15" s="185"/>
-      <c r="CS15" s="185"/>
-      <c r="CT15" s="185"/>
-      <c r="CU15" s="185"/>
-      <c r="CV15" s="185"/>
-      <c r="CW15" s="185"/>
-      <c r="CX15" s="185"/>
-      <c r="CY15" s="185"/>
-      <c r="CZ15" s="185"/>
-      <c r="DA15" s="185"/>
-      <c r="DB15" s="185"/>
-      <c r="DC15" s="185"/>
-      <c r="DD15" s="185"/>
-      <c r="DE15" s="185" t="s">
+      <c r="CQ15" s="168"/>
+      <c r="CR15" s="168"/>
+      <c r="CS15" s="168"/>
+      <c r="CT15" s="168"/>
+      <c r="CU15" s="168"/>
+      <c r="CV15" s="168"/>
+      <c r="CW15" s="168"/>
+      <c r="CX15" s="168"/>
+      <c r="CY15" s="168"/>
+      <c r="CZ15" s="168"/>
+      <c r="DA15" s="168"/>
+      <c r="DB15" s="168"/>
+      <c r="DC15" s="168"/>
+      <c r="DD15" s="168"/>
+      <c r="DE15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="DF15" s="185"/>
-      <c r="DG15" s="185"/>
-      <c r="DH15" s="185"/>
-      <c r="DI15" s="185"/>
-      <c r="DJ15" s="185"/>
-      <c r="DK15" s="185"/>
-      <c r="DL15" s="185"/>
-      <c r="DM15" s="185"/>
-      <c r="DN15" s="185"/>
-      <c r="DO15" s="185"/>
-      <c r="DP15" s="185"/>
-      <c r="DQ15" s="185"/>
-      <c r="DR15" s="185"/>
-      <c r="DS15" s="186"/>
-      <c r="DT15" s="187" t="s">
+      <c r="DF15" s="168"/>
+      <c r="DG15" s="168"/>
+      <c r="DH15" s="168"/>
+      <c r="DI15" s="168"/>
+      <c r="DJ15" s="168"/>
+      <c r="DK15" s="168"/>
+      <c r="DL15" s="168"/>
+      <c r="DM15" s="168"/>
+      <c r="DN15" s="168"/>
+      <c r="DO15" s="168"/>
+      <c r="DP15" s="168"/>
+      <c r="DQ15" s="168"/>
+      <c r="DR15" s="168"/>
+      <c r="DS15" s="175"/>
+      <c r="DT15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="DU15" s="185"/>
-      <c r="DV15" s="185"/>
-      <c r="DW15" s="185"/>
-      <c r="DX15" s="185"/>
-      <c r="DY15" s="185"/>
-      <c r="DZ15" s="185"/>
-      <c r="EA15" s="185"/>
-      <c r="EB15" s="185"/>
-      <c r="EC15" s="185"/>
-      <c r="ED15" s="185"/>
-      <c r="EE15" s="185"/>
-      <c r="EF15" s="185"/>
-      <c r="EG15" s="185"/>
-      <c r="EH15" s="185"/>
-      <c r="EI15" s="185" t="s">
+      <c r="DU15" s="168"/>
+      <c r="DV15" s="168"/>
+      <c r="DW15" s="168"/>
+      <c r="DX15" s="168"/>
+      <c r="DY15" s="168"/>
+      <c r="DZ15" s="168"/>
+      <c r="EA15" s="168"/>
+      <c r="EB15" s="168"/>
+      <c r="EC15" s="168"/>
+      <c r="ED15" s="168"/>
+      <c r="EE15" s="168"/>
+      <c r="EF15" s="168"/>
+      <c r="EG15" s="168"/>
+      <c r="EH15" s="168"/>
+      <c r="EI15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="EJ15" s="185"/>
-      <c r="EK15" s="185"/>
-      <c r="EL15" s="185"/>
-      <c r="EM15" s="185"/>
-      <c r="EN15" s="185"/>
-      <c r="EO15" s="185"/>
-      <c r="EP15" s="185"/>
-      <c r="EQ15" s="185"/>
-      <c r="ER15" s="185"/>
-      <c r="ES15" s="185"/>
-      <c r="ET15" s="185"/>
-      <c r="EU15" s="185"/>
-      <c r="EV15" s="185"/>
-      <c r="EW15" s="186"/>
-      <c r="EX15" s="187" t="s">
+      <c r="EJ15" s="168"/>
+      <c r="EK15" s="168"/>
+      <c r="EL15" s="168"/>
+      <c r="EM15" s="168"/>
+      <c r="EN15" s="168"/>
+      <c r="EO15" s="168"/>
+      <c r="EP15" s="168"/>
+      <c r="EQ15" s="168"/>
+      <c r="ER15" s="168"/>
+      <c r="ES15" s="168"/>
+      <c r="ET15" s="168"/>
+      <c r="EU15" s="168"/>
+      <c r="EV15" s="168"/>
+      <c r="EW15" s="175"/>
+      <c r="EX15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="EY15" s="185"/>
-      <c r="EZ15" s="185"/>
-      <c r="FA15" s="185"/>
-      <c r="FB15" s="185"/>
-      <c r="FC15" s="185"/>
-      <c r="FD15" s="185"/>
-      <c r="FE15" s="185"/>
-      <c r="FF15" s="185"/>
-      <c r="FG15" s="185"/>
-      <c r="FH15" s="185"/>
-      <c r="FI15" s="185"/>
-      <c r="FJ15" s="185"/>
-      <c r="FK15" s="185"/>
-      <c r="FL15" s="185"/>
-      <c r="FM15" s="185" t="s">
+      <c r="EY15" s="168"/>
+      <c r="EZ15" s="168"/>
+      <c r="FA15" s="168"/>
+      <c r="FB15" s="168"/>
+      <c r="FC15" s="168"/>
+      <c r="FD15" s="168"/>
+      <c r="FE15" s="168"/>
+      <c r="FF15" s="168"/>
+      <c r="FG15" s="168"/>
+      <c r="FH15" s="168"/>
+      <c r="FI15" s="168"/>
+      <c r="FJ15" s="168"/>
+      <c r="FK15" s="168"/>
+      <c r="FL15" s="168"/>
+      <c r="FM15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="FN15" s="185"/>
-      <c r="FO15" s="185"/>
-      <c r="FP15" s="185"/>
-      <c r="FQ15" s="185"/>
-      <c r="FR15" s="185"/>
-      <c r="FS15" s="185"/>
-      <c r="FT15" s="185"/>
-      <c r="FU15" s="185"/>
-      <c r="FV15" s="185"/>
-      <c r="FW15" s="185"/>
-      <c r="FX15" s="185"/>
-      <c r="FY15" s="185"/>
-      <c r="FZ15" s="185"/>
-      <c r="GA15" s="188"/>
-      <c r="GB15" s="184" t="s">
+      <c r="FN15" s="168"/>
+      <c r="FO15" s="168"/>
+      <c r="FP15" s="168"/>
+      <c r="FQ15" s="168"/>
+      <c r="FR15" s="168"/>
+      <c r="FS15" s="168"/>
+      <c r="FT15" s="168"/>
+      <c r="FU15" s="168"/>
+      <c r="FV15" s="168"/>
+      <c r="FW15" s="168"/>
+      <c r="FX15" s="168"/>
+      <c r="FY15" s="168"/>
+      <c r="FZ15" s="168"/>
+      <c r="GA15" s="171"/>
+      <c r="GB15" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="GC15" s="185"/>
-      <c r="GD15" s="185"/>
-      <c r="GE15" s="185"/>
-      <c r="GF15" s="185"/>
-      <c r="GG15" s="185"/>
-      <c r="GH15" s="185"/>
-      <c r="GI15" s="185"/>
-      <c r="GJ15" s="185"/>
-      <c r="GK15" s="185"/>
-      <c r="GL15" s="185"/>
-      <c r="GM15" s="185"/>
-      <c r="GN15" s="185"/>
-      <c r="GO15" s="185"/>
-      <c r="GP15" s="188"/>
-      <c r="GQ15" s="185" t="s">
+      <c r="GC15" s="168"/>
+      <c r="GD15" s="168"/>
+      <c r="GE15" s="168"/>
+      <c r="GF15" s="168"/>
+      <c r="GG15" s="168"/>
+      <c r="GH15" s="168"/>
+      <c r="GI15" s="168"/>
+      <c r="GJ15" s="168"/>
+      <c r="GK15" s="168"/>
+      <c r="GL15" s="168"/>
+      <c r="GM15" s="168"/>
+      <c r="GN15" s="168"/>
+      <c r="GO15" s="168"/>
+      <c r="GP15" s="171"/>
+      <c r="GQ15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="GR15" s="185"/>
-      <c r="GS15" s="185"/>
-      <c r="GT15" s="185"/>
-      <c r="GU15" s="185"/>
-      <c r="GV15" s="185"/>
-      <c r="GW15" s="185"/>
-      <c r="GX15" s="185"/>
-      <c r="GY15" s="185"/>
-      <c r="GZ15" s="185"/>
-      <c r="HA15" s="185"/>
-      <c r="HB15" s="185"/>
-      <c r="HC15" s="185"/>
-      <c r="HD15" s="185"/>
-      <c r="HE15" s="186"/>
-      <c r="HF15" s="187" t="s">
+      <c r="GR15" s="168"/>
+      <c r="GS15" s="168"/>
+      <c r="GT15" s="168"/>
+      <c r="GU15" s="168"/>
+      <c r="GV15" s="168"/>
+      <c r="GW15" s="168"/>
+      <c r="GX15" s="168"/>
+      <c r="GY15" s="168"/>
+      <c r="GZ15" s="168"/>
+      <c r="HA15" s="168"/>
+      <c r="HB15" s="168"/>
+      <c r="HC15" s="168"/>
+      <c r="HD15" s="168"/>
+      <c r="HE15" s="175"/>
+      <c r="HF15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="HG15" s="185"/>
-      <c r="HH15" s="185"/>
-      <c r="HI15" s="185"/>
-      <c r="HJ15" s="185"/>
-      <c r="HK15" s="185"/>
-      <c r="HL15" s="185"/>
-      <c r="HM15" s="185"/>
-      <c r="HN15" s="185"/>
-      <c r="HO15" s="185"/>
-      <c r="HP15" s="185"/>
-      <c r="HQ15" s="185"/>
-      <c r="HR15" s="185"/>
-      <c r="HS15" s="185"/>
-      <c r="HT15" s="185"/>
-      <c r="HU15" s="185" t="s">
+      <c r="HG15" s="168"/>
+      <c r="HH15" s="168"/>
+      <c r="HI15" s="168"/>
+      <c r="HJ15" s="168"/>
+      <c r="HK15" s="168"/>
+      <c r="HL15" s="168"/>
+      <c r="HM15" s="168"/>
+      <c r="HN15" s="168"/>
+      <c r="HO15" s="168"/>
+      <c r="HP15" s="168"/>
+      <c r="HQ15" s="168"/>
+      <c r="HR15" s="168"/>
+      <c r="HS15" s="168"/>
+      <c r="HT15" s="168"/>
+      <c r="HU15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="HV15" s="185"/>
-      <c r="HW15" s="185"/>
-      <c r="HX15" s="185"/>
-      <c r="HY15" s="185"/>
-      <c r="HZ15" s="185"/>
-      <c r="IA15" s="185"/>
-      <c r="IB15" s="185"/>
-      <c r="IC15" s="185"/>
-      <c r="ID15" s="185"/>
-      <c r="IE15" s="185"/>
-      <c r="IF15" s="185"/>
-      <c r="IG15" s="185"/>
-      <c r="IH15" s="185"/>
-      <c r="II15" s="186"/>
-      <c r="IJ15" s="187" t="s">
+      <c r="HV15" s="168"/>
+      <c r="HW15" s="168"/>
+      <c r="HX15" s="168"/>
+      <c r="HY15" s="168"/>
+      <c r="HZ15" s="168"/>
+      <c r="IA15" s="168"/>
+      <c r="IB15" s="168"/>
+      <c r="IC15" s="168"/>
+      <c r="ID15" s="168"/>
+      <c r="IE15" s="168"/>
+      <c r="IF15" s="168"/>
+      <c r="IG15" s="168"/>
+      <c r="IH15" s="168"/>
+      <c r="II15" s="175"/>
+      <c r="IJ15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="IK15" s="185"/>
-      <c r="IL15" s="185"/>
-      <c r="IM15" s="185"/>
-      <c r="IN15" s="185"/>
-      <c r="IO15" s="185"/>
-      <c r="IP15" s="185"/>
-      <c r="IQ15" s="185"/>
-      <c r="IR15" s="185"/>
-      <c r="IS15" s="185"/>
-      <c r="IT15" s="185"/>
-      <c r="IU15" s="185"/>
-      <c r="IV15" s="185"/>
-      <c r="IW15" s="185"/>
-      <c r="IX15" s="185"/>
-      <c r="IY15" s="185" t="s">
+      <c r="IK15" s="168"/>
+      <c r="IL15" s="168"/>
+      <c r="IM15" s="168"/>
+      <c r="IN15" s="168"/>
+      <c r="IO15" s="168"/>
+      <c r="IP15" s="168"/>
+      <c r="IQ15" s="168"/>
+      <c r="IR15" s="168"/>
+      <c r="IS15" s="168"/>
+      <c r="IT15" s="168"/>
+      <c r="IU15" s="168"/>
+      <c r="IV15" s="168"/>
+      <c r="IW15" s="168"/>
+      <c r="IX15" s="168"/>
+      <c r="IY15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="IZ15" s="185"/>
-      <c r="JA15" s="185"/>
-      <c r="JB15" s="185"/>
-      <c r="JC15" s="185"/>
-      <c r="JD15" s="185"/>
-      <c r="JE15" s="185"/>
-      <c r="JF15" s="185"/>
-      <c r="JG15" s="185"/>
-      <c r="JH15" s="185"/>
-      <c r="JI15" s="185"/>
-      <c r="JJ15" s="185"/>
-      <c r="JK15" s="185"/>
-      <c r="JL15" s="185"/>
-      <c r="JM15" s="186"/>
-      <c r="JN15" s="187" t="s">
+      <c r="IZ15" s="168"/>
+      <c r="JA15" s="168"/>
+      <c r="JB15" s="168"/>
+      <c r="JC15" s="168"/>
+      <c r="JD15" s="168"/>
+      <c r="JE15" s="168"/>
+      <c r="JF15" s="168"/>
+      <c r="JG15" s="168"/>
+      <c r="JH15" s="168"/>
+      <c r="JI15" s="168"/>
+      <c r="JJ15" s="168"/>
+      <c r="JK15" s="168"/>
+      <c r="JL15" s="168"/>
+      <c r="JM15" s="175"/>
+      <c r="JN15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="JO15" s="185"/>
-      <c r="JP15" s="185"/>
-      <c r="JQ15" s="185"/>
-      <c r="JR15" s="185"/>
-      <c r="JS15" s="185"/>
-      <c r="JT15" s="185"/>
-      <c r="JU15" s="185"/>
-      <c r="JV15" s="185"/>
-      <c r="JW15" s="185"/>
-      <c r="JX15" s="185"/>
-      <c r="JY15" s="185"/>
-      <c r="JZ15" s="185"/>
-      <c r="KA15" s="185"/>
-      <c r="KB15" s="185"/>
-      <c r="KC15" s="185" t="s">
+      <c r="JO15" s="168"/>
+      <c r="JP15" s="168"/>
+      <c r="JQ15" s="168"/>
+      <c r="JR15" s="168"/>
+      <c r="JS15" s="168"/>
+      <c r="JT15" s="168"/>
+      <c r="JU15" s="168"/>
+      <c r="JV15" s="168"/>
+      <c r="JW15" s="168"/>
+      <c r="JX15" s="168"/>
+      <c r="JY15" s="168"/>
+      <c r="JZ15" s="168"/>
+      <c r="KA15" s="168"/>
+      <c r="KB15" s="168"/>
+      <c r="KC15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="KD15" s="185"/>
-      <c r="KE15" s="185"/>
-      <c r="KF15" s="185"/>
-      <c r="KG15" s="185"/>
-      <c r="KH15" s="185"/>
-      <c r="KI15" s="185"/>
-      <c r="KJ15" s="185"/>
-      <c r="KK15" s="185"/>
-      <c r="KL15" s="185"/>
-      <c r="KM15" s="185"/>
-      <c r="KN15" s="185"/>
-      <c r="KO15" s="185"/>
-      <c r="KP15" s="185"/>
-      <c r="KQ15" s="189"/>
-      <c r="KR15" s="182" t="s">
+      <c r="KD15" s="168"/>
+      <c r="KE15" s="168"/>
+      <c r="KF15" s="168"/>
+      <c r="KG15" s="168"/>
+      <c r="KH15" s="168"/>
+      <c r="KI15" s="168"/>
+      <c r="KJ15" s="168"/>
+      <c r="KK15" s="168"/>
+      <c r="KL15" s="168"/>
+      <c r="KM15" s="168"/>
+      <c r="KN15" s="168"/>
+      <c r="KO15" s="168"/>
+      <c r="KP15" s="168"/>
+      <c r="KQ15" s="169"/>
+      <c r="KR15" s="148" t="s">
         <v>23</v>
       </c>
-      <c r="KS15" s="218"/>
-      <c r="KT15" s="184" t="s">
+      <c r="KS15" s="149"/>
+      <c r="KT15" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="KU15" s="185"/>
-      <c r="KV15" s="185"/>
-      <c r="KW15" s="185"/>
-      <c r="KX15" s="185"/>
-      <c r="KY15" s="185"/>
-      <c r="KZ15" s="185"/>
-      <c r="LA15" s="185"/>
-      <c r="LB15" s="185"/>
-      <c r="LC15" s="185"/>
-      <c r="LD15" s="185"/>
-      <c r="LE15" s="185"/>
-      <c r="LF15" s="185"/>
-      <c r="LG15" s="185"/>
-      <c r="LH15" s="188"/>
-      <c r="LI15" s="185" t="s">
+      <c r="KU15" s="168"/>
+      <c r="KV15" s="168"/>
+      <c r="KW15" s="168"/>
+      <c r="KX15" s="168"/>
+      <c r="KY15" s="168"/>
+      <c r="KZ15" s="168"/>
+      <c r="LA15" s="168"/>
+      <c r="LB15" s="168"/>
+      <c r="LC15" s="168"/>
+      <c r="LD15" s="168"/>
+      <c r="LE15" s="168"/>
+      <c r="LF15" s="168"/>
+      <c r="LG15" s="168"/>
+      <c r="LH15" s="171"/>
+      <c r="LI15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="LJ15" s="185"/>
-      <c r="LK15" s="185"/>
-      <c r="LL15" s="185"/>
-      <c r="LM15" s="185"/>
-      <c r="LN15" s="185"/>
-      <c r="LO15" s="185"/>
-      <c r="LP15" s="185"/>
-      <c r="LQ15" s="185"/>
-      <c r="LR15" s="185"/>
-      <c r="LS15" s="185"/>
-      <c r="LT15" s="185"/>
-      <c r="LU15" s="185"/>
-      <c r="LV15" s="185"/>
-      <c r="LW15" s="186"/>
-      <c r="LX15" s="187" t="s">
+      <c r="LJ15" s="168"/>
+      <c r="LK15" s="168"/>
+      <c r="LL15" s="168"/>
+      <c r="LM15" s="168"/>
+      <c r="LN15" s="168"/>
+      <c r="LO15" s="168"/>
+      <c r="LP15" s="168"/>
+      <c r="LQ15" s="168"/>
+      <c r="LR15" s="168"/>
+      <c r="LS15" s="168"/>
+      <c r="LT15" s="168"/>
+      <c r="LU15" s="168"/>
+      <c r="LV15" s="168"/>
+      <c r="LW15" s="175"/>
+      <c r="LX15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="LY15" s="185"/>
-      <c r="LZ15" s="185"/>
-      <c r="MA15" s="185"/>
-      <c r="MB15" s="185"/>
-      <c r="MC15" s="185"/>
-      <c r="MD15" s="185"/>
-      <c r="ME15" s="185"/>
-      <c r="MF15" s="185"/>
-      <c r="MG15" s="185"/>
-      <c r="MH15" s="185"/>
-      <c r="MI15" s="185"/>
-      <c r="MJ15" s="185"/>
-      <c r="MK15" s="185"/>
-      <c r="ML15" s="185"/>
-      <c r="MM15" s="185" t="s">
+      <c r="LY15" s="168"/>
+      <c r="LZ15" s="168"/>
+      <c r="MA15" s="168"/>
+      <c r="MB15" s="168"/>
+      <c r="MC15" s="168"/>
+      <c r="MD15" s="168"/>
+      <c r="ME15" s="168"/>
+      <c r="MF15" s="168"/>
+      <c r="MG15" s="168"/>
+      <c r="MH15" s="168"/>
+      <c r="MI15" s="168"/>
+      <c r="MJ15" s="168"/>
+      <c r="MK15" s="168"/>
+      <c r="ML15" s="168"/>
+      <c r="MM15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="MN15" s="185"/>
-      <c r="MO15" s="185"/>
-      <c r="MP15" s="185"/>
-      <c r="MQ15" s="185"/>
-      <c r="MR15" s="185"/>
-      <c r="MS15" s="185"/>
-      <c r="MT15" s="185"/>
-      <c r="MU15" s="185"/>
-      <c r="MV15" s="185"/>
-      <c r="MW15" s="185"/>
-      <c r="MX15" s="185"/>
-      <c r="MY15" s="185"/>
-      <c r="MZ15" s="185"/>
-      <c r="NA15" s="186"/>
-      <c r="NB15" s="187" t="s">
+      <c r="MN15" s="168"/>
+      <c r="MO15" s="168"/>
+      <c r="MP15" s="168"/>
+      <c r="MQ15" s="168"/>
+      <c r="MR15" s="168"/>
+      <c r="MS15" s="168"/>
+      <c r="MT15" s="168"/>
+      <c r="MU15" s="168"/>
+      <c r="MV15" s="168"/>
+      <c r="MW15" s="168"/>
+      <c r="MX15" s="168"/>
+      <c r="MY15" s="168"/>
+      <c r="MZ15" s="168"/>
+      <c r="NA15" s="175"/>
+      <c r="NB15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="NC15" s="185"/>
-      <c r="ND15" s="185"/>
-      <c r="NE15" s="185"/>
-      <c r="NF15" s="185"/>
-      <c r="NG15" s="185"/>
-      <c r="NH15" s="185"/>
-      <c r="NI15" s="185"/>
-      <c r="NJ15" s="185"/>
-      <c r="NK15" s="185"/>
-      <c r="NL15" s="185"/>
-      <c r="NM15" s="185"/>
-      <c r="NN15" s="185"/>
-      <c r="NO15" s="185"/>
-      <c r="NP15" s="185"/>
-      <c r="NQ15" s="185" t="s">
+      <c r="NC15" s="168"/>
+      <c r="ND15" s="168"/>
+      <c r="NE15" s="168"/>
+      <c r="NF15" s="168"/>
+      <c r="NG15" s="168"/>
+      <c r="NH15" s="168"/>
+      <c r="NI15" s="168"/>
+      <c r="NJ15" s="168"/>
+      <c r="NK15" s="168"/>
+      <c r="NL15" s="168"/>
+      <c r="NM15" s="168"/>
+      <c r="NN15" s="168"/>
+      <c r="NO15" s="168"/>
+      <c r="NP15" s="168"/>
+      <c r="NQ15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="NR15" s="185"/>
-      <c r="NS15" s="185"/>
-      <c r="NT15" s="185"/>
-      <c r="NU15" s="185"/>
-      <c r="NV15" s="185"/>
-      <c r="NW15" s="185"/>
-      <c r="NX15" s="185"/>
-      <c r="NY15" s="185"/>
-      <c r="NZ15" s="185"/>
-      <c r="OA15" s="185"/>
-      <c r="OB15" s="185"/>
-      <c r="OC15" s="185"/>
-      <c r="OD15" s="185"/>
-      <c r="OE15" s="186"/>
-      <c r="OF15" s="187" t="s">
+      <c r="NR15" s="168"/>
+      <c r="NS15" s="168"/>
+      <c r="NT15" s="168"/>
+      <c r="NU15" s="168"/>
+      <c r="NV15" s="168"/>
+      <c r="NW15" s="168"/>
+      <c r="NX15" s="168"/>
+      <c r="NY15" s="168"/>
+      <c r="NZ15" s="168"/>
+      <c r="OA15" s="168"/>
+      <c r="OB15" s="168"/>
+      <c r="OC15" s="168"/>
+      <c r="OD15" s="168"/>
+      <c r="OE15" s="175"/>
+      <c r="OF15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="OG15" s="185"/>
-      <c r="OH15" s="185"/>
-      <c r="OI15" s="185"/>
-      <c r="OJ15" s="185"/>
-      <c r="OK15" s="185"/>
-      <c r="OL15" s="185"/>
-      <c r="OM15" s="185"/>
-      <c r="ON15" s="185"/>
-      <c r="OO15" s="185"/>
-      <c r="OP15" s="185"/>
-      <c r="OQ15" s="185"/>
-      <c r="OR15" s="185"/>
-      <c r="OS15" s="185"/>
-      <c r="OT15" s="185"/>
-      <c r="OU15" s="185" t="s">
+      <c r="OG15" s="168"/>
+      <c r="OH15" s="168"/>
+      <c r="OI15" s="168"/>
+      <c r="OJ15" s="168"/>
+      <c r="OK15" s="168"/>
+      <c r="OL15" s="168"/>
+      <c r="OM15" s="168"/>
+      <c r="ON15" s="168"/>
+      <c r="OO15" s="168"/>
+      <c r="OP15" s="168"/>
+      <c r="OQ15" s="168"/>
+      <c r="OR15" s="168"/>
+      <c r="OS15" s="168"/>
+      <c r="OT15" s="168"/>
+      <c r="OU15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="OV15" s="185"/>
-      <c r="OW15" s="185"/>
-      <c r="OX15" s="185"/>
-      <c r="OY15" s="185"/>
-      <c r="OZ15" s="185"/>
-      <c r="PA15" s="185"/>
-      <c r="PB15" s="185"/>
-      <c r="PC15" s="185"/>
-      <c r="PD15" s="185"/>
-      <c r="PE15" s="185"/>
-      <c r="PF15" s="185"/>
-      <c r="PG15" s="185"/>
-      <c r="PH15" s="185"/>
-      <c r="PI15" s="189"/>
-      <c r="PJ15" s="184" t="s">
+      <c r="OV15" s="168"/>
+      <c r="OW15" s="168"/>
+      <c r="OX15" s="168"/>
+      <c r="OY15" s="168"/>
+      <c r="OZ15" s="168"/>
+      <c r="PA15" s="168"/>
+      <c r="PB15" s="168"/>
+      <c r="PC15" s="168"/>
+      <c r="PD15" s="168"/>
+      <c r="PE15" s="168"/>
+      <c r="PF15" s="168"/>
+      <c r="PG15" s="168"/>
+      <c r="PH15" s="168"/>
+      <c r="PI15" s="169"/>
+      <c r="PJ15" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="PK15" s="185"/>
-      <c r="PL15" s="185"/>
-      <c r="PM15" s="185"/>
-      <c r="PN15" s="185"/>
-      <c r="PO15" s="185"/>
-      <c r="PP15" s="185"/>
-      <c r="PQ15" s="185"/>
-      <c r="PR15" s="185"/>
-      <c r="PS15" s="185"/>
-      <c r="PT15" s="185"/>
-      <c r="PU15" s="185"/>
-      <c r="PV15" s="185"/>
-      <c r="PW15" s="185"/>
-      <c r="PX15" s="188"/>
-      <c r="PY15" s="185" t="s">
+      <c r="PK15" s="168"/>
+      <c r="PL15" s="168"/>
+      <c r="PM15" s="168"/>
+      <c r="PN15" s="168"/>
+      <c r="PO15" s="168"/>
+      <c r="PP15" s="168"/>
+      <c r="PQ15" s="168"/>
+      <c r="PR15" s="168"/>
+      <c r="PS15" s="168"/>
+      <c r="PT15" s="168"/>
+      <c r="PU15" s="168"/>
+      <c r="PV15" s="168"/>
+      <c r="PW15" s="168"/>
+      <c r="PX15" s="171"/>
+      <c r="PY15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="PZ15" s="185"/>
-      <c r="QA15" s="185"/>
-      <c r="QB15" s="185"/>
-      <c r="QC15" s="185"/>
-      <c r="QD15" s="185"/>
-      <c r="QE15" s="185"/>
-      <c r="QF15" s="185"/>
-      <c r="QG15" s="185"/>
-      <c r="QH15" s="185"/>
-      <c r="QI15" s="185"/>
-      <c r="QJ15" s="185"/>
-      <c r="QK15" s="185"/>
-      <c r="QL15" s="185"/>
-      <c r="QM15" s="186"/>
-      <c r="QN15" s="187" t="s">
+      <c r="PZ15" s="168"/>
+      <c r="QA15" s="168"/>
+      <c r="QB15" s="168"/>
+      <c r="QC15" s="168"/>
+      <c r="QD15" s="168"/>
+      <c r="QE15" s="168"/>
+      <c r="QF15" s="168"/>
+      <c r="QG15" s="168"/>
+      <c r="QH15" s="168"/>
+      <c r="QI15" s="168"/>
+      <c r="QJ15" s="168"/>
+      <c r="QK15" s="168"/>
+      <c r="QL15" s="168"/>
+      <c r="QM15" s="175"/>
+      <c r="QN15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="QO15" s="185"/>
-      <c r="QP15" s="185"/>
-      <c r="QQ15" s="185"/>
-      <c r="QR15" s="185"/>
-      <c r="QS15" s="185"/>
-      <c r="QT15" s="185"/>
-      <c r="QU15" s="185"/>
-      <c r="QV15" s="185"/>
-      <c r="QW15" s="185"/>
-      <c r="QX15" s="185"/>
-      <c r="QY15" s="185"/>
-      <c r="QZ15" s="185"/>
-      <c r="RA15" s="185"/>
-      <c r="RB15" s="185"/>
-      <c r="RC15" s="185" t="s">
+      <c r="QO15" s="168"/>
+      <c r="QP15" s="168"/>
+      <c r="QQ15" s="168"/>
+      <c r="QR15" s="168"/>
+      <c r="QS15" s="168"/>
+      <c r="QT15" s="168"/>
+      <c r="QU15" s="168"/>
+      <c r="QV15" s="168"/>
+      <c r="QW15" s="168"/>
+      <c r="QX15" s="168"/>
+      <c r="QY15" s="168"/>
+      <c r="QZ15" s="168"/>
+      <c r="RA15" s="168"/>
+      <c r="RB15" s="168"/>
+      <c r="RC15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="RD15" s="185"/>
-      <c r="RE15" s="185"/>
-      <c r="RF15" s="185"/>
-      <c r="RG15" s="185"/>
-      <c r="RH15" s="185"/>
-      <c r="RI15" s="185"/>
-      <c r="RJ15" s="185"/>
-      <c r="RK15" s="185"/>
-      <c r="RL15" s="185"/>
-      <c r="RM15" s="185"/>
-      <c r="RN15" s="185"/>
-      <c r="RO15" s="185"/>
-      <c r="RP15" s="185"/>
-      <c r="RQ15" s="186"/>
-      <c r="RR15" s="187" t="s">
+      <c r="RD15" s="168"/>
+      <c r="RE15" s="168"/>
+      <c r="RF15" s="168"/>
+      <c r="RG15" s="168"/>
+      <c r="RH15" s="168"/>
+      <c r="RI15" s="168"/>
+      <c r="RJ15" s="168"/>
+      <c r="RK15" s="168"/>
+      <c r="RL15" s="168"/>
+      <c r="RM15" s="168"/>
+      <c r="RN15" s="168"/>
+      <c r="RO15" s="168"/>
+      <c r="RP15" s="168"/>
+      <c r="RQ15" s="175"/>
+      <c r="RR15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="RS15" s="185"/>
-      <c r="RT15" s="185"/>
-      <c r="RU15" s="185"/>
-      <c r="RV15" s="185"/>
-      <c r="RW15" s="185"/>
-      <c r="RX15" s="185"/>
-      <c r="RY15" s="185"/>
-      <c r="RZ15" s="185"/>
-      <c r="SA15" s="185"/>
-      <c r="SB15" s="185"/>
-      <c r="SC15" s="185"/>
-      <c r="SD15" s="185"/>
-      <c r="SE15" s="185"/>
-      <c r="SF15" s="185"/>
-      <c r="SG15" s="185" t="s">
+      <c r="RS15" s="168"/>
+      <c r="RT15" s="168"/>
+      <c r="RU15" s="168"/>
+      <c r="RV15" s="168"/>
+      <c r="RW15" s="168"/>
+      <c r="RX15" s="168"/>
+      <c r="RY15" s="168"/>
+      <c r="RZ15" s="168"/>
+      <c r="SA15" s="168"/>
+      <c r="SB15" s="168"/>
+      <c r="SC15" s="168"/>
+      <c r="SD15" s="168"/>
+      <c r="SE15" s="168"/>
+      <c r="SF15" s="168"/>
+      <c r="SG15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="SH15" s="185"/>
-      <c r="SI15" s="185"/>
-      <c r="SJ15" s="185"/>
-      <c r="SK15" s="185"/>
-      <c r="SL15" s="185"/>
-      <c r="SM15" s="185"/>
-      <c r="SN15" s="185"/>
-      <c r="SO15" s="185"/>
-      <c r="SP15" s="185"/>
-      <c r="SQ15" s="185"/>
-      <c r="SR15" s="185"/>
-      <c r="SS15" s="185"/>
-      <c r="ST15" s="185"/>
-      <c r="SU15" s="186"/>
-      <c r="SV15" s="187" t="s">
+      <c r="SH15" s="168"/>
+      <c r="SI15" s="168"/>
+      <c r="SJ15" s="168"/>
+      <c r="SK15" s="168"/>
+      <c r="SL15" s="168"/>
+      <c r="SM15" s="168"/>
+      <c r="SN15" s="168"/>
+      <c r="SO15" s="168"/>
+      <c r="SP15" s="168"/>
+      <c r="SQ15" s="168"/>
+      <c r="SR15" s="168"/>
+      <c r="SS15" s="168"/>
+      <c r="ST15" s="168"/>
+      <c r="SU15" s="175"/>
+      <c r="SV15" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="SW15" s="185"/>
-      <c r="SX15" s="185"/>
-      <c r="SY15" s="185"/>
-      <c r="SZ15" s="185"/>
-      <c r="TA15" s="185"/>
-      <c r="TB15" s="185"/>
-      <c r="TC15" s="185"/>
-      <c r="TD15" s="185"/>
-      <c r="TE15" s="185"/>
-      <c r="TF15" s="185"/>
-      <c r="TG15" s="185"/>
-      <c r="TH15" s="185"/>
-      <c r="TI15" s="185"/>
-      <c r="TJ15" s="185"/>
-      <c r="TK15" s="185" t="s">
+      <c r="SW15" s="168"/>
+      <c r="SX15" s="168"/>
+      <c r="SY15" s="168"/>
+      <c r="SZ15" s="168"/>
+      <c r="TA15" s="168"/>
+      <c r="TB15" s="168"/>
+      <c r="TC15" s="168"/>
+      <c r="TD15" s="168"/>
+      <c r="TE15" s="168"/>
+      <c r="TF15" s="168"/>
+      <c r="TG15" s="168"/>
+      <c r="TH15" s="168"/>
+      <c r="TI15" s="168"/>
+      <c r="TJ15" s="168"/>
+      <c r="TK15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="TL15" s="185"/>
-      <c r="TM15" s="185"/>
-      <c r="TN15" s="185"/>
-      <c r="TO15" s="185"/>
-      <c r="TP15" s="185"/>
-      <c r="TQ15" s="185"/>
-      <c r="TR15" s="185"/>
-      <c r="TS15" s="185"/>
-      <c r="TT15" s="185"/>
-      <c r="TU15" s="185"/>
-      <c r="TV15" s="185"/>
-      <c r="TW15" s="185"/>
-      <c r="TX15" s="185"/>
-      <c r="TY15" s="189"/>
-      <c r="TZ15" s="184" t="s">
+      <c r="TL15" s="168"/>
+      <c r="TM15" s="168"/>
+      <c r="TN15" s="168"/>
+      <c r="TO15" s="168"/>
+      <c r="TP15" s="168"/>
+      <c r="TQ15" s="168"/>
+      <c r="TR15" s="168"/>
+      <c r="TS15" s="168"/>
+      <c r="TT15" s="168"/>
+      <c r="TU15" s="168"/>
+      <c r="TV15" s="168"/>
+      <c r="TW15" s="168"/>
+      <c r="TX15" s="168"/>
+      <c r="TY15" s="169"/>
+      <c r="TZ15" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="UA15" s="185"/>
-      <c r="UB15" s="185"/>
-      <c r="UC15" s="185"/>
-      <c r="UD15" s="185"/>
-      <c r="UE15" s="185"/>
-      <c r="UF15" s="185"/>
-      <c r="UG15" s="185"/>
-      <c r="UH15" s="185"/>
-      <c r="UI15" s="185"/>
-      <c r="UJ15" s="185"/>
-      <c r="UK15" s="185"/>
-      <c r="UL15" s="185"/>
-      <c r="UM15" s="185"/>
-      <c r="UN15" s="188"/>
-      <c r="UO15" s="185" t="s">
+      <c r="UA15" s="168"/>
+      <c r="UB15" s="168"/>
+      <c r="UC15" s="168"/>
+      <c r="UD15" s="168"/>
+      <c r="UE15" s="168"/>
+      <c r="UF15" s="168"/>
+      <c r="UG15" s="168"/>
+      <c r="UH15" s="168"/>
+      <c r="UI15" s="168"/>
+      <c r="UJ15" s="168"/>
+      <c r="UK15" s="168"/>
+      <c r="UL15" s="168"/>
+      <c r="UM15" s="168"/>
+      <c r="UN15" s="171"/>
+      <c r="UO15" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="UP15" s="185"/>
-      <c r="UQ15" s="185"/>
-      <c r="UR15" s="185"/>
-      <c r="US15" s="185"/>
-      <c r="UT15" s="185"/>
-      <c r="UU15" s="185"/>
-      <c r="UV15" s="185"/>
-      <c r="UW15" s="185"/>
-      <c r="UX15" s="185"/>
-      <c r="UY15" s="185"/>
-      <c r="UZ15" s="185"/>
-      <c r="VA15" s="185"/>
-      <c r="VB15" s="185"/>
-      <c r="VC15" s="189"/>
+      <c r="UP15" s="168"/>
+      <c r="UQ15" s="168"/>
+      <c r="UR15" s="168"/>
+      <c r="US15" s="168"/>
+      <c r="UT15" s="168"/>
+      <c r="UU15" s="168"/>
+      <c r="UV15" s="168"/>
+      <c r="UW15" s="168"/>
+      <c r="UX15" s="168"/>
+      <c r="UY15" s="168"/>
+      <c r="UZ15" s="168"/>
+      <c r="VA15" s="168"/>
+      <c r="VB15" s="168"/>
+      <c r="VC15" s="169"/>
     </row>
     <row r="16" spans="1:575" s="3" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -11435,40 +11465,40 @@
       <c r="TW16" s="15"/>
       <c r="TX16" s="15"/>
       <c r="TY16" s="14"/>
-      <c r="TZ16" s="201"/>
-      <c r="UA16" s="202"/>
-      <c r="UB16" s="202"/>
-      <c r="UC16" s="202"/>
-      <c r="UD16" s="202"/>
-      <c r="UE16" s="202"/>
-      <c r="UF16" s="202"/>
-      <c r="UG16" s="202"/>
-      <c r="UH16" s="202"/>
-      <c r="UI16" s="202"/>
-      <c r="UJ16" s="202"/>
-      <c r="UK16" s="202"/>
-      <c r="UL16" s="202"/>
-      <c r="UM16" s="202"/>
-      <c r="UN16" s="202"/>
-      <c r="UO16" s="202"/>
-      <c r="UP16" s="202"/>
-      <c r="UQ16" s="202"/>
-      <c r="UR16" s="202"/>
-      <c r="US16" s="202"/>
-      <c r="UT16" s="202"/>
-      <c r="UU16" s="202"/>
-      <c r="UV16" s="202"/>
-      <c r="UW16" s="202"/>
-      <c r="UX16" s="202"/>
-      <c r="UY16" s="202"/>
-      <c r="UZ16" s="202"/>
-      <c r="VA16" s="202"/>
-      <c r="VB16" s="202"/>
-      <c r="VC16" s="203"/>
+      <c r="TZ16" s="172"/>
+      <c r="UA16" s="173"/>
+      <c r="UB16" s="173"/>
+      <c r="UC16" s="173"/>
+      <c r="UD16" s="173"/>
+      <c r="UE16" s="173"/>
+      <c r="UF16" s="173"/>
+      <c r="UG16" s="173"/>
+      <c r="UH16" s="173"/>
+      <c r="UI16" s="173"/>
+      <c r="UJ16" s="173"/>
+      <c r="UK16" s="173"/>
+      <c r="UL16" s="173"/>
+      <c r="UM16" s="173"/>
+      <c r="UN16" s="173"/>
+      <c r="UO16" s="173"/>
+      <c r="UP16" s="173"/>
+      <c r="UQ16" s="173"/>
+      <c r="UR16" s="173"/>
+      <c r="US16" s="173"/>
+      <c r="UT16" s="173"/>
+      <c r="UU16" s="173"/>
+      <c r="UV16" s="173"/>
+      <c r="UW16" s="173"/>
+      <c r="UX16" s="173"/>
+      <c r="UY16" s="173"/>
+      <c r="UZ16" s="173"/>
+      <c r="VA16" s="173"/>
+      <c r="VB16" s="173"/>
+      <c r="VC16" s="174"/>
     </row>
     <row r="17" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="150" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -11774,7 +11804,7 @@
       <c r="KO17" s="18"/>
       <c r="KP17" s="18"/>
       <c r="KQ17" s="24"/>
-      <c r="KR17" s="192" t="s">
+      <c r="KR17" s="150" t="s">
         <v>27</v>
       </c>
       <c r="KS17" s="122" t="s">
@@ -12053,7 +12083,7 @@
     </row>
     <row r="18" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="191"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="64" t="s">
         <v>29</v>
       </c>
@@ -12357,7 +12387,7 @@
       <c r="KO18" s="27"/>
       <c r="KP18" s="27"/>
       <c r="KQ18" s="34"/>
-      <c r="KR18" s="191"/>
+      <c r="KR18" s="139"/>
       <c r="KS18" s="123" t="s">
         <v>29</v>
       </c>
@@ -12634,7 +12664,7 @@
     </row>
     <row r="19" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="140" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="65" t="s">
@@ -12940,7 +12970,7 @@
       <c r="KO19" s="37"/>
       <c r="KP19" s="37"/>
       <c r="KQ19" s="44"/>
-      <c r="KR19" s="190" t="s">
+      <c r="KR19" s="140" t="s">
         <v>30</v>
       </c>
       <c r="KS19" s="124" t="s">
@@ -13219,7 +13249,7 @@
     </row>
     <row r="20" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="191"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="64" t="s">
         <v>29</v>
       </c>
@@ -13523,7 +13553,7 @@
       <c r="KO20" s="27"/>
       <c r="KP20" s="27"/>
       <c r="KQ20" s="34"/>
-      <c r="KR20" s="191"/>
+      <c r="KR20" s="139"/>
       <c r="KS20" s="123" t="s">
         <v>29</v>
       </c>
@@ -13800,7 +13830,7 @@
     </row>
     <row r="21" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="190" t="s">
+      <c r="B21" s="140" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="65" t="s">
@@ -14106,7 +14136,7 @@
       <c r="KO21" s="37"/>
       <c r="KP21" s="37"/>
       <c r="KQ21" s="44"/>
-      <c r="KR21" s="190" t="s">
+      <c r="KR21" s="140" t="s">
         <v>35</v>
       </c>
       <c r="KS21" s="124" t="s">
@@ -14385,7 +14415,7 @@
     </row>
     <row r="22" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="191"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="64" t="s">
         <v>29</v>
       </c>
@@ -14689,7 +14719,7 @@
       <c r="KO22" s="27"/>
       <c r="KP22" s="27"/>
       <c r="KQ22" s="34"/>
-      <c r="KR22" s="191"/>
+      <c r="KR22" s="139"/>
       <c r="KS22" s="123" t="s">
         <v>29</v>
       </c>
@@ -14966,7 +14996,7 @@
     </row>
     <row r="23" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="192" t="s">
+      <c r="B23" s="150" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -15272,7 +15302,7 @@
       <c r="KO23" s="18"/>
       <c r="KP23" s="18"/>
       <c r="KQ23" s="24"/>
-      <c r="KR23" s="192" t="s">
+      <c r="KR23" s="150" t="s">
         <v>31</v>
       </c>
       <c r="KS23" s="122" t="s">
@@ -15551,7 +15581,7 @@
     </row>
     <row r="24" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="193"/>
+      <c r="B24" s="151"/>
       <c r="C24" s="66" t="s">
         <v>29</v>
       </c>
@@ -15855,7 +15885,7 @@
       <c r="KO24" s="18"/>
       <c r="KP24" s="18"/>
       <c r="KQ24" s="24"/>
-      <c r="KR24" s="193"/>
+      <c r="KR24" s="151"/>
       <c r="KS24" s="125" t="s">
         <v>29</v>
       </c>
@@ -16680,36 +16710,36 @@
       <c r="TW25" s="60"/>
       <c r="TX25" s="60"/>
       <c r="TY25" s="72"/>
-      <c r="TZ25" s="194"/>
-      <c r="UA25" s="195"/>
-      <c r="UB25" s="195"/>
-      <c r="UC25" s="195"/>
-      <c r="UD25" s="195"/>
-      <c r="UE25" s="195"/>
-      <c r="UF25" s="195"/>
-      <c r="UG25" s="195"/>
-      <c r="UH25" s="195"/>
-      <c r="UI25" s="195"/>
-      <c r="UJ25" s="195"/>
-      <c r="UK25" s="195"/>
-      <c r="UL25" s="195"/>
-      <c r="UM25" s="195"/>
-      <c r="UN25" s="195"/>
-      <c r="UO25" s="195"/>
-      <c r="UP25" s="195"/>
-      <c r="UQ25" s="195"/>
-      <c r="UR25" s="195"/>
-      <c r="US25" s="195"/>
-      <c r="UT25" s="195"/>
-      <c r="UU25" s="195"/>
-      <c r="UV25" s="195"/>
-      <c r="UW25" s="195"/>
-      <c r="UX25" s="195"/>
-      <c r="UY25" s="195"/>
-      <c r="UZ25" s="195"/>
-      <c r="VA25" s="195"/>
-      <c r="VB25" s="195"/>
-      <c r="VC25" s="196"/>
+      <c r="TZ25" s="161"/>
+      <c r="UA25" s="162"/>
+      <c r="UB25" s="162"/>
+      <c r="UC25" s="162"/>
+      <c r="UD25" s="162"/>
+      <c r="UE25" s="162"/>
+      <c r="UF25" s="162"/>
+      <c r="UG25" s="162"/>
+      <c r="UH25" s="162"/>
+      <c r="UI25" s="162"/>
+      <c r="UJ25" s="162"/>
+      <c r="UK25" s="162"/>
+      <c r="UL25" s="162"/>
+      <c r="UM25" s="162"/>
+      <c r="UN25" s="162"/>
+      <c r="UO25" s="162"/>
+      <c r="UP25" s="162"/>
+      <c r="UQ25" s="162"/>
+      <c r="UR25" s="162"/>
+      <c r="US25" s="162"/>
+      <c r="UT25" s="162"/>
+      <c r="UU25" s="162"/>
+      <c r="UV25" s="162"/>
+      <c r="UW25" s="162"/>
+      <c r="UX25" s="162"/>
+      <c r="UY25" s="162"/>
+      <c r="UZ25" s="162"/>
+      <c r="VA25" s="162"/>
+      <c r="VB25" s="162"/>
+      <c r="VC25" s="163"/>
     </row>
     <row r="26" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
@@ -17842,40 +17872,40 @@
       <c r="TW27" s="62"/>
       <c r="TX27" s="62"/>
       <c r="TY27" s="76"/>
-      <c r="TZ27" s="197"/>
-      <c r="UA27" s="198"/>
-      <c r="UB27" s="198"/>
-      <c r="UC27" s="198"/>
-      <c r="UD27" s="198"/>
-      <c r="UE27" s="198"/>
-      <c r="UF27" s="198"/>
-      <c r="UG27" s="198"/>
-      <c r="UH27" s="198"/>
-      <c r="UI27" s="198"/>
-      <c r="UJ27" s="198"/>
-      <c r="UK27" s="198"/>
-      <c r="UL27" s="198"/>
-      <c r="UM27" s="198"/>
-      <c r="UN27" s="198"/>
-      <c r="UO27" s="198"/>
-      <c r="UP27" s="198"/>
-      <c r="UQ27" s="198"/>
-      <c r="UR27" s="198"/>
-      <c r="US27" s="198"/>
-      <c r="UT27" s="198"/>
-      <c r="UU27" s="198"/>
-      <c r="UV27" s="198"/>
-      <c r="UW27" s="198"/>
-      <c r="UX27" s="198"/>
-      <c r="UY27" s="198"/>
-      <c r="UZ27" s="198"/>
-      <c r="VA27" s="198"/>
-      <c r="VB27" s="198"/>
-      <c r="VC27" s="199"/>
+      <c r="TZ27" s="164"/>
+      <c r="UA27" s="165"/>
+      <c r="UB27" s="165"/>
+      <c r="UC27" s="165"/>
+      <c r="UD27" s="165"/>
+      <c r="UE27" s="165"/>
+      <c r="UF27" s="165"/>
+      <c r="UG27" s="165"/>
+      <c r="UH27" s="165"/>
+      <c r="UI27" s="165"/>
+      <c r="UJ27" s="165"/>
+      <c r="UK27" s="165"/>
+      <c r="UL27" s="165"/>
+      <c r="UM27" s="165"/>
+      <c r="UN27" s="165"/>
+      <c r="UO27" s="165"/>
+      <c r="UP27" s="165"/>
+      <c r="UQ27" s="165"/>
+      <c r="UR27" s="165"/>
+      <c r="US27" s="165"/>
+      <c r="UT27" s="165"/>
+      <c r="UU27" s="165"/>
+      <c r="UV27" s="165"/>
+      <c r="UW27" s="165"/>
+      <c r="UX27" s="165"/>
+      <c r="UY27" s="165"/>
+      <c r="UZ27" s="165"/>
+      <c r="VA27" s="165"/>
+      <c r="VB27" s="165"/>
+      <c r="VC27" s="166"/>
     </row>
     <row r="28" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="200" t="s">
+      <c r="B28" s="138" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -18181,7 +18211,7 @@
       <c r="KO28" s="18"/>
       <c r="KP28" s="18"/>
       <c r="KQ28" s="24"/>
-      <c r="KR28" s="200" t="s">
+      <c r="KR28" s="138" t="s">
         <v>34</v>
       </c>
       <c r="KS28" s="128" t="s">
@@ -18460,7 +18490,7 @@
     </row>
     <row r="29" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="191"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="64" t="s">
         <v>29</v>
       </c>
@@ -18764,7 +18794,7 @@
       <c r="KO29" s="27"/>
       <c r="KP29" s="27"/>
       <c r="KQ29" s="34"/>
-      <c r="KR29" s="191"/>
+      <c r="KR29" s="139"/>
       <c r="KS29" s="123" t="s">
         <v>29</v>
       </c>
@@ -19589,36 +19619,36 @@
       <c r="TW30" s="60"/>
       <c r="TX30" s="60"/>
       <c r="TY30" s="72"/>
-      <c r="TZ30" s="194"/>
-      <c r="UA30" s="195"/>
-      <c r="UB30" s="195"/>
-      <c r="UC30" s="195"/>
-      <c r="UD30" s="195"/>
-      <c r="UE30" s="195"/>
-      <c r="UF30" s="195"/>
-      <c r="UG30" s="195"/>
-      <c r="UH30" s="195"/>
-      <c r="UI30" s="195"/>
-      <c r="UJ30" s="195"/>
-      <c r="UK30" s="195"/>
-      <c r="UL30" s="195"/>
-      <c r="UM30" s="195"/>
-      <c r="UN30" s="195"/>
-      <c r="UO30" s="195"/>
-      <c r="UP30" s="195"/>
-      <c r="UQ30" s="195"/>
-      <c r="UR30" s="195"/>
-      <c r="US30" s="195"/>
-      <c r="UT30" s="195"/>
-      <c r="UU30" s="195"/>
-      <c r="UV30" s="195"/>
-      <c r="UW30" s="195"/>
-      <c r="UX30" s="195"/>
-      <c r="UY30" s="195"/>
-      <c r="UZ30" s="195"/>
-      <c r="VA30" s="195"/>
-      <c r="VB30" s="195"/>
-      <c r="VC30" s="196"/>
+      <c r="TZ30" s="161"/>
+      <c r="UA30" s="162"/>
+      <c r="UB30" s="162"/>
+      <c r="UC30" s="162"/>
+      <c r="UD30" s="162"/>
+      <c r="UE30" s="162"/>
+      <c r="UF30" s="162"/>
+      <c r="UG30" s="162"/>
+      <c r="UH30" s="162"/>
+      <c r="UI30" s="162"/>
+      <c r="UJ30" s="162"/>
+      <c r="UK30" s="162"/>
+      <c r="UL30" s="162"/>
+      <c r="UM30" s="162"/>
+      <c r="UN30" s="162"/>
+      <c r="UO30" s="162"/>
+      <c r="UP30" s="162"/>
+      <c r="UQ30" s="162"/>
+      <c r="UR30" s="162"/>
+      <c r="US30" s="162"/>
+      <c r="UT30" s="162"/>
+      <c r="UU30" s="162"/>
+      <c r="UV30" s="162"/>
+      <c r="UW30" s="162"/>
+      <c r="UX30" s="162"/>
+      <c r="UY30" s="162"/>
+      <c r="UZ30" s="162"/>
+      <c r="VA30" s="162"/>
+      <c r="VB30" s="162"/>
+      <c r="VC30" s="163"/>
     </row>
     <row r="31" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
@@ -20751,40 +20781,40 @@
       <c r="TW32" s="61"/>
       <c r="TX32" s="61"/>
       <c r="TY32" s="78"/>
-      <c r="TZ32" s="204"/>
-      <c r="UA32" s="205"/>
-      <c r="UB32" s="205"/>
-      <c r="UC32" s="205"/>
-      <c r="UD32" s="205"/>
-      <c r="UE32" s="205"/>
-      <c r="UF32" s="205"/>
-      <c r="UG32" s="205"/>
-      <c r="UH32" s="205"/>
-      <c r="UI32" s="205"/>
-      <c r="UJ32" s="205"/>
-      <c r="UK32" s="205"/>
-      <c r="UL32" s="205"/>
-      <c r="UM32" s="205"/>
-      <c r="UN32" s="205"/>
-      <c r="UO32" s="205"/>
-      <c r="UP32" s="205"/>
-      <c r="UQ32" s="205"/>
-      <c r="UR32" s="205"/>
-      <c r="US32" s="205"/>
-      <c r="UT32" s="205"/>
-      <c r="UU32" s="205"/>
-      <c r="UV32" s="205"/>
-      <c r="UW32" s="205"/>
-      <c r="UX32" s="205"/>
-      <c r="UY32" s="205"/>
-      <c r="UZ32" s="205"/>
-      <c r="VA32" s="205"/>
-      <c r="VB32" s="205"/>
-      <c r="VC32" s="206"/>
+      <c r="TZ32" s="152"/>
+      <c r="UA32" s="153"/>
+      <c r="UB32" s="153"/>
+      <c r="UC32" s="153"/>
+      <c r="UD32" s="153"/>
+      <c r="UE32" s="153"/>
+      <c r="UF32" s="153"/>
+      <c r="UG32" s="153"/>
+      <c r="UH32" s="153"/>
+      <c r="UI32" s="153"/>
+      <c r="UJ32" s="153"/>
+      <c r="UK32" s="153"/>
+      <c r="UL32" s="153"/>
+      <c r="UM32" s="153"/>
+      <c r="UN32" s="153"/>
+      <c r="UO32" s="153"/>
+      <c r="UP32" s="153"/>
+      <c r="UQ32" s="153"/>
+      <c r="UR32" s="153"/>
+      <c r="US32" s="153"/>
+      <c r="UT32" s="153"/>
+      <c r="UU32" s="153"/>
+      <c r="UV32" s="153"/>
+      <c r="UW32" s="153"/>
+      <c r="UX32" s="153"/>
+      <c r="UY32" s="153"/>
+      <c r="UZ32" s="153"/>
+      <c r="VA32" s="153"/>
+      <c r="VB32" s="153"/>
+      <c r="VC32" s="154"/>
     </row>
     <row r="33" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="190" t="s">
+      <c r="B33" s="140" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="65" t="s">
@@ -21090,7 +21120,7 @@
       <c r="KO33" s="37"/>
       <c r="KP33" s="37"/>
       <c r="KQ33" s="44"/>
-      <c r="KR33" s="190" t="s">
+      <c r="KR33" s="140" t="s">
         <v>63</v>
       </c>
       <c r="KS33" s="124" t="s">
@@ -21369,7 +21399,7 @@
     </row>
     <row r="34" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="191"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="64" t="s">
         <v>29</v>
       </c>
@@ -21673,7 +21703,7 @@
       <c r="KO34" s="27"/>
       <c r="KP34" s="27"/>
       <c r="KQ34" s="34"/>
-      <c r="KR34" s="191"/>
+      <c r="KR34" s="139"/>
       <c r="KS34" s="123" t="s">
         <v>29</v>
       </c>
@@ -21950,7 +21980,7 @@
     </row>
     <row r="35" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="190" t="s">
+      <c r="B35" s="140" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -22256,7 +22286,7 @@
       <c r="KO35" s="37"/>
       <c r="KP35" s="37"/>
       <c r="KQ35" s="44"/>
-      <c r="KR35" s="190" t="s">
+      <c r="KR35" s="140" t="s">
         <v>71</v>
       </c>
       <c r="KS35" s="124" t="s">
@@ -22535,7 +22565,7 @@
     </row>
     <row r="36" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="191"/>
+      <c r="B36" s="139"/>
       <c r="C36" s="64" t="s">
         <v>29</v>
       </c>
@@ -22839,7 +22869,7 @@
       <c r="KO36" s="27"/>
       <c r="KP36" s="27"/>
       <c r="KQ36" s="34"/>
-      <c r="KR36" s="191"/>
+      <c r="KR36" s="139"/>
       <c r="KS36" s="123" t="s">
         <v>29</v>
       </c>
@@ -23116,7 +23146,7 @@
     </row>
     <row r="37" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="190" t="s">
+      <c r="B37" s="140" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="65" t="s">
@@ -23422,7 +23452,7 @@
       <c r="KO37" s="37"/>
       <c r="KP37" s="37"/>
       <c r="KQ37" s="44"/>
-      <c r="KR37" s="190" t="s">
+      <c r="KR37" s="140" t="s">
         <v>72</v>
       </c>
       <c r="KS37" s="124" t="s">
@@ -23701,7 +23731,7 @@
     </row>
     <row r="38" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="191"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="64" t="s">
         <v>29</v>
       </c>
@@ -24005,7 +24035,7 @@
       <c r="KO38" s="27"/>
       <c r="KP38" s="27"/>
       <c r="KQ38" s="34"/>
-      <c r="KR38" s="191"/>
+      <c r="KR38" s="139"/>
       <c r="KS38" s="123" t="s">
         <v>29</v>
       </c>
@@ -24282,7 +24312,7 @@
     </row>
     <row r="39" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="207" t="s">
+      <c r="B39" s="141" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="65" t="s">
@@ -24588,7 +24618,7 @@
       <c r="KO39" s="18"/>
       <c r="KP39" s="18"/>
       <c r="KQ39" s="24"/>
-      <c r="KR39" s="207" t="s">
+      <c r="KR39" s="141" t="s">
         <v>66</v>
       </c>
       <c r="KS39" s="124" t="s">
@@ -24867,7 +24897,7 @@
     </row>
     <row r="40" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="208"/>
+      <c r="B40" s="142"/>
       <c r="C40" s="66" t="s">
         <v>29</v>
       </c>
@@ -25171,7 +25201,7 @@
       <c r="KO40" s="18"/>
       <c r="KP40" s="18"/>
       <c r="KQ40" s="24"/>
-      <c r="KR40" s="208"/>
+      <c r="KR40" s="142"/>
       <c r="KS40" s="125" t="s">
         <v>29</v>
       </c>
@@ -25996,36 +26026,36 @@
       <c r="TW41" s="60"/>
       <c r="TX41" s="60"/>
       <c r="TY41" s="72"/>
-      <c r="TZ41" s="194"/>
-      <c r="UA41" s="195"/>
-      <c r="UB41" s="195"/>
-      <c r="UC41" s="195"/>
-      <c r="UD41" s="195"/>
-      <c r="UE41" s="195"/>
-      <c r="UF41" s="195"/>
-      <c r="UG41" s="195"/>
-      <c r="UH41" s="195"/>
-      <c r="UI41" s="195"/>
-      <c r="UJ41" s="195"/>
-      <c r="UK41" s="195"/>
-      <c r="UL41" s="195"/>
-      <c r="UM41" s="195"/>
-      <c r="UN41" s="195"/>
-      <c r="UO41" s="195"/>
-      <c r="UP41" s="195"/>
-      <c r="UQ41" s="195"/>
-      <c r="UR41" s="195"/>
-      <c r="US41" s="195"/>
-      <c r="UT41" s="195"/>
-      <c r="UU41" s="195"/>
-      <c r="UV41" s="195"/>
-      <c r="UW41" s="195"/>
-      <c r="UX41" s="195"/>
-      <c r="UY41" s="195"/>
-      <c r="UZ41" s="195"/>
-      <c r="VA41" s="195"/>
-      <c r="VB41" s="195"/>
-      <c r="VC41" s="196"/>
+      <c r="TZ41" s="161"/>
+      <c r="UA41" s="162"/>
+      <c r="UB41" s="162"/>
+      <c r="UC41" s="162"/>
+      <c r="UD41" s="162"/>
+      <c r="UE41" s="162"/>
+      <c r="UF41" s="162"/>
+      <c r="UG41" s="162"/>
+      <c r="UH41" s="162"/>
+      <c r="UI41" s="162"/>
+      <c r="UJ41" s="162"/>
+      <c r="UK41" s="162"/>
+      <c r="UL41" s="162"/>
+      <c r="UM41" s="162"/>
+      <c r="UN41" s="162"/>
+      <c r="UO41" s="162"/>
+      <c r="UP41" s="162"/>
+      <c r="UQ41" s="162"/>
+      <c r="UR41" s="162"/>
+      <c r="US41" s="162"/>
+      <c r="UT41" s="162"/>
+      <c r="UU41" s="162"/>
+      <c r="UV41" s="162"/>
+      <c r="UW41" s="162"/>
+      <c r="UX41" s="162"/>
+      <c r="UY41" s="162"/>
+      <c r="UZ41" s="162"/>
+      <c r="VA41" s="162"/>
+      <c r="VB41" s="162"/>
+      <c r="VC41" s="163"/>
     </row>
     <row r="42" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
@@ -27158,40 +27188,40 @@
       <c r="TW43" s="61"/>
       <c r="TX43" s="61"/>
       <c r="TY43" s="78"/>
-      <c r="TZ43" s="204"/>
-      <c r="UA43" s="205"/>
-      <c r="UB43" s="205"/>
-      <c r="UC43" s="205"/>
-      <c r="UD43" s="205"/>
-      <c r="UE43" s="205"/>
-      <c r="UF43" s="205"/>
-      <c r="UG43" s="205"/>
-      <c r="UH43" s="205"/>
-      <c r="UI43" s="205"/>
-      <c r="UJ43" s="205"/>
-      <c r="UK43" s="205"/>
-      <c r="UL43" s="205"/>
-      <c r="UM43" s="205"/>
-      <c r="UN43" s="205"/>
-      <c r="UO43" s="205"/>
-      <c r="UP43" s="205"/>
-      <c r="UQ43" s="205"/>
-      <c r="UR43" s="205"/>
-      <c r="US43" s="205"/>
-      <c r="UT43" s="205"/>
-      <c r="UU43" s="205"/>
-      <c r="UV43" s="205"/>
-      <c r="UW43" s="205"/>
-      <c r="UX43" s="205"/>
-      <c r="UY43" s="205"/>
-      <c r="UZ43" s="205"/>
-      <c r="VA43" s="205"/>
-      <c r="VB43" s="205"/>
-      <c r="VC43" s="206"/>
+      <c r="TZ43" s="152"/>
+      <c r="UA43" s="153"/>
+      <c r="UB43" s="153"/>
+      <c r="UC43" s="153"/>
+      <c r="UD43" s="153"/>
+      <c r="UE43" s="153"/>
+      <c r="UF43" s="153"/>
+      <c r="UG43" s="153"/>
+      <c r="UH43" s="153"/>
+      <c r="UI43" s="153"/>
+      <c r="UJ43" s="153"/>
+      <c r="UK43" s="153"/>
+      <c r="UL43" s="153"/>
+      <c r="UM43" s="153"/>
+      <c r="UN43" s="153"/>
+      <c r="UO43" s="153"/>
+      <c r="UP43" s="153"/>
+      <c r="UQ43" s="153"/>
+      <c r="UR43" s="153"/>
+      <c r="US43" s="153"/>
+      <c r="UT43" s="153"/>
+      <c r="UU43" s="153"/>
+      <c r="UV43" s="153"/>
+      <c r="UW43" s="153"/>
+      <c r="UX43" s="153"/>
+      <c r="UY43" s="153"/>
+      <c r="UZ43" s="153"/>
+      <c r="VA43" s="153"/>
+      <c r="VB43" s="153"/>
+      <c r="VC43" s="154"/>
     </row>
     <row r="44" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="190" t="s">
+      <c r="B44" s="140" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="65" t="s">
@@ -27497,7 +27527,7 @@
       <c r="KO44" s="37"/>
       <c r="KP44" s="37"/>
       <c r="KQ44" s="44"/>
-      <c r="KR44" s="190" t="s">
+      <c r="KR44" s="140" t="s">
         <v>61</v>
       </c>
       <c r="KS44" s="124" t="s">
@@ -27776,7 +27806,7 @@
     </row>
     <row r="45" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="191"/>
+      <c r="B45" s="139"/>
       <c r="C45" s="64" t="s">
         <v>29</v>
       </c>
@@ -28080,7 +28110,7 @@
       <c r="KO45" s="27"/>
       <c r="KP45" s="27"/>
       <c r="KQ45" s="34"/>
-      <c r="KR45" s="191"/>
+      <c r="KR45" s="139"/>
       <c r="KS45" s="123" t="s">
         <v>29</v>
       </c>
@@ -28357,7 +28387,7 @@
     </row>
     <row r="46" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="190" t="s">
+      <c r="B46" s="140" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="65" t="s">
@@ -28663,7 +28693,7 @@
       <c r="KO46" s="37"/>
       <c r="KP46" s="37"/>
       <c r="KQ46" s="44"/>
-      <c r="KR46" s="190" t="s">
+      <c r="KR46" s="140" t="s">
         <v>73</v>
       </c>
       <c r="KS46" s="124" t="s">
@@ -28942,7 +28972,7 @@
     </row>
     <row r="47" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="191"/>
+      <c r="B47" s="139"/>
       <c r="C47" s="64" t="s">
         <v>29</v>
       </c>
@@ -29246,7 +29276,7 @@
       <c r="KO47" s="27"/>
       <c r="KP47" s="27"/>
       <c r="KQ47" s="34"/>
-      <c r="KR47" s="191"/>
+      <c r="KR47" s="139"/>
       <c r="KS47" s="123" t="s">
         <v>29</v>
       </c>
@@ -29523,7 +29553,7 @@
     </row>
     <row r="48" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="190" t="s">
+      <c r="B48" s="140" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="65" t="s">
@@ -29829,7 +29859,7 @@
       <c r="KO48" s="37"/>
       <c r="KP48" s="37"/>
       <c r="KQ48" s="44"/>
-      <c r="KR48" s="190" t="s">
+      <c r="KR48" s="140" t="s">
         <v>64</v>
       </c>
       <c r="KS48" s="124" t="s">
@@ -30108,7 +30138,7 @@
     </row>
     <row r="49" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="191"/>
+      <c r="B49" s="139"/>
       <c r="C49" s="64" t="s">
         <v>29</v>
       </c>
@@ -30412,7 +30442,7 @@
       <c r="KO49" s="27"/>
       <c r="KP49" s="27"/>
       <c r="KQ49" s="34"/>
-      <c r="KR49" s="191"/>
+      <c r="KR49" s="139"/>
       <c r="KS49" s="123" t="s">
         <v>29</v>
       </c>
@@ -30689,7 +30719,7 @@
     </row>
     <row r="50" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="190" t="s">
+      <c r="B50" s="140" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="65" t="s">
@@ -30995,7 +31025,7 @@
       <c r="KO50" s="37"/>
       <c r="KP50" s="37"/>
       <c r="KQ50" s="44"/>
-      <c r="KR50" s="190" t="s">
+      <c r="KR50" s="140" t="s">
         <v>65</v>
       </c>
       <c r="KS50" s="124" t="s">
@@ -31274,7 +31304,7 @@
     </row>
     <row r="51" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="191"/>
+      <c r="B51" s="139"/>
       <c r="C51" s="64" t="s">
         <v>29</v>
       </c>
@@ -31578,7 +31608,7 @@
       <c r="KO51" s="27"/>
       <c r="KP51" s="27"/>
       <c r="KQ51" s="34"/>
-      <c r="KR51" s="191"/>
+      <c r="KR51" s="139"/>
       <c r="KS51" s="123" t="s">
         <v>29</v>
       </c>
@@ -31855,7 +31885,7 @@
     </row>
     <row r="52" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="192" t="s">
+      <c r="B52" s="150" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -32161,7 +32191,7 @@
       <c r="KO52" s="18"/>
       <c r="KP52" s="18"/>
       <c r="KQ52" s="24"/>
-      <c r="KR52" s="192" t="s">
+      <c r="KR52" s="150" t="s">
         <v>62</v>
       </c>
       <c r="KS52" s="122" t="s">
@@ -32440,7 +32470,7 @@
     </row>
     <row r="53" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="193"/>
+      <c r="B53" s="151"/>
       <c r="C53" s="66" t="s">
         <v>29</v>
       </c>
@@ -32744,7 +32774,7 @@
       <c r="KO53" s="18"/>
       <c r="KP53" s="18"/>
       <c r="KQ53" s="24"/>
-      <c r="KR53" s="193"/>
+      <c r="KR53" s="151"/>
       <c r="KS53" s="125" t="s">
         <v>29</v>
       </c>
@@ -33569,36 +33599,36 @@
       <c r="TW54" s="60"/>
       <c r="TX54" s="60"/>
       <c r="TY54" s="72"/>
-      <c r="TZ54" s="194"/>
-      <c r="UA54" s="195"/>
-      <c r="UB54" s="195"/>
-      <c r="UC54" s="195"/>
-      <c r="UD54" s="195"/>
-      <c r="UE54" s="195"/>
-      <c r="UF54" s="195"/>
-      <c r="UG54" s="195"/>
-      <c r="UH54" s="195"/>
-      <c r="UI54" s="195"/>
-      <c r="UJ54" s="195"/>
-      <c r="UK54" s="195"/>
-      <c r="UL54" s="195"/>
-      <c r="UM54" s="195"/>
-      <c r="UN54" s="195"/>
-      <c r="UO54" s="195"/>
-      <c r="UP54" s="195"/>
-      <c r="UQ54" s="195"/>
-      <c r="UR54" s="195"/>
-      <c r="US54" s="195"/>
-      <c r="UT54" s="195"/>
-      <c r="UU54" s="195"/>
-      <c r="UV54" s="195"/>
-      <c r="UW54" s="195"/>
-      <c r="UX54" s="195"/>
-      <c r="UY54" s="195"/>
-      <c r="UZ54" s="195"/>
-      <c r="VA54" s="195"/>
-      <c r="VB54" s="195"/>
-      <c r="VC54" s="196"/>
+      <c r="TZ54" s="161"/>
+      <c r="UA54" s="162"/>
+      <c r="UB54" s="162"/>
+      <c r="UC54" s="162"/>
+      <c r="UD54" s="162"/>
+      <c r="UE54" s="162"/>
+      <c r="UF54" s="162"/>
+      <c r="UG54" s="162"/>
+      <c r="UH54" s="162"/>
+      <c r="UI54" s="162"/>
+      <c r="UJ54" s="162"/>
+      <c r="UK54" s="162"/>
+      <c r="UL54" s="162"/>
+      <c r="UM54" s="162"/>
+      <c r="UN54" s="162"/>
+      <c r="UO54" s="162"/>
+      <c r="UP54" s="162"/>
+      <c r="UQ54" s="162"/>
+      <c r="UR54" s="162"/>
+      <c r="US54" s="162"/>
+      <c r="UT54" s="162"/>
+      <c r="UU54" s="162"/>
+      <c r="UV54" s="162"/>
+      <c r="UW54" s="162"/>
+      <c r="UX54" s="162"/>
+      <c r="UY54" s="162"/>
+      <c r="UZ54" s="162"/>
+      <c r="VA54" s="162"/>
+      <c r="VB54" s="162"/>
+      <c r="VC54" s="163"/>
     </row>
     <row r="55" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
@@ -34731,40 +34761,40 @@
       <c r="TW56" s="61"/>
       <c r="TX56" s="61"/>
       <c r="TY56" s="78"/>
-      <c r="TZ56" s="204"/>
-      <c r="UA56" s="205"/>
-      <c r="UB56" s="205"/>
-      <c r="UC56" s="205"/>
-      <c r="UD56" s="205"/>
-      <c r="UE56" s="205"/>
-      <c r="UF56" s="205"/>
-      <c r="UG56" s="205"/>
-      <c r="UH56" s="205"/>
-      <c r="UI56" s="205"/>
-      <c r="UJ56" s="205"/>
-      <c r="UK56" s="205"/>
-      <c r="UL56" s="205"/>
-      <c r="UM56" s="205"/>
-      <c r="UN56" s="205"/>
-      <c r="UO56" s="205"/>
-      <c r="UP56" s="205"/>
-      <c r="UQ56" s="205"/>
-      <c r="UR56" s="205"/>
-      <c r="US56" s="205"/>
-      <c r="UT56" s="205"/>
-      <c r="UU56" s="205"/>
-      <c r="UV56" s="205"/>
-      <c r="UW56" s="205"/>
-      <c r="UX56" s="205"/>
-      <c r="UY56" s="205"/>
-      <c r="UZ56" s="205"/>
-      <c r="VA56" s="205"/>
-      <c r="VB56" s="205"/>
-      <c r="VC56" s="206"/>
+      <c r="TZ56" s="152"/>
+      <c r="UA56" s="153"/>
+      <c r="UB56" s="153"/>
+      <c r="UC56" s="153"/>
+      <c r="UD56" s="153"/>
+      <c r="UE56" s="153"/>
+      <c r="UF56" s="153"/>
+      <c r="UG56" s="153"/>
+      <c r="UH56" s="153"/>
+      <c r="UI56" s="153"/>
+      <c r="UJ56" s="153"/>
+      <c r="UK56" s="153"/>
+      <c r="UL56" s="153"/>
+      <c r="UM56" s="153"/>
+      <c r="UN56" s="153"/>
+      <c r="UO56" s="153"/>
+      <c r="UP56" s="153"/>
+      <c r="UQ56" s="153"/>
+      <c r="UR56" s="153"/>
+      <c r="US56" s="153"/>
+      <c r="UT56" s="153"/>
+      <c r="UU56" s="153"/>
+      <c r="UV56" s="153"/>
+      <c r="UW56" s="153"/>
+      <c r="UX56" s="153"/>
+      <c r="UY56" s="153"/>
+      <c r="UZ56" s="153"/>
+      <c r="VA56" s="153"/>
+      <c r="VB56" s="153"/>
+      <c r="VC56" s="154"/>
     </row>
     <row r="57" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="200" t="s">
+      <c r="B57" s="138" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="67" t="s">
@@ -35070,7 +35100,7 @@
       <c r="KO57" s="18"/>
       <c r="KP57" s="18"/>
       <c r="KQ57" s="24"/>
-      <c r="KR57" s="200" t="s">
+      <c r="KR57" s="138" t="s">
         <v>70</v>
       </c>
       <c r="KS57" s="128" t="s">
@@ -35349,7 +35379,7 @@
     </row>
     <row r="58" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="191"/>
+      <c r="B58" s="139"/>
       <c r="C58" s="64" t="s">
         <v>29</v>
       </c>
@@ -35653,7 +35683,7 @@
       <c r="KO58" s="27"/>
       <c r="KP58" s="27"/>
       <c r="KQ58" s="34"/>
-      <c r="KR58" s="191"/>
+      <c r="KR58" s="139"/>
       <c r="KS58" s="123" t="s">
         <v>29</v>
       </c>
@@ -35930,7 +35960,7 @@
     </row>
     <row r="59" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="190" t="s">
+      <c r="B59" s="140" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="65" t="s">
@@ -36236,7 +36266,7 @@
       <c r="KO59" s="37"/>
       <c r="KP59" s="37"/>
       <c r="KQ59" s="44"/>
-      <c r="KR59" s="190" t="s">
+      <c r="KR59" s="140" t="s">
         <v>67</v>
       </c>
       <c r="KS59" s="124" t="s">
@@ -36515,7 +36545,7 @@
     </row>
     <row r="60" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="191"/>
+      <c r="B60" s="139"/>
       <c r="C60" s="64" t="s">
         <v>29</v>
       </c>
@@ -36819,7 +36849,7 @@
       <c r="KO60" s="27"/>
       <c r="KP60" s="27"/>
       <c r="KQ60" s="34"/>
-      <c r="KR60" s="191"/>
+      <c r="KR60" s="139"/>
       <c r="KS60" s="123" t="s">
         <v>29</v>
       </c>
@@ -37644,36 +37674,36 @@
       <c r="TW61" s="60"/>
       <c r="TX61" s="60"/>
       <c r="TY61" s="72"/>
-      <c r="TZ61" s="194"/>
-      <c r="UA61" s="195"/>
-      <c r="UB61" s="195"/>
-      <c r="UC61" s="195"/>
-      <c r="UD61" s="195"/>
-      <c r="UE61" s="195"/>
-      <c r="UF61" s="195"/>
-      <c r="UG61" s="195"/>
-      <c r="UH61" s="195"/>
-      <c r="UI61" s="195"/>
-      <c r="UJ61" s="195"/>
-      <c r="UK61" s="195"/>
-      <c r="UL61" s="195"/>
-      <c r="UM61" s="195"/>
-      <c r="UN61" s="195"/>
-      <c r="UO61" s="195"/>
-      <c r="UP61" s="195"/>
-      <c r="UQ61" s="195"/>
-      <c r="UR61" s="195"/>
-      <c r="US61" s="195"/>
-      <c r="UT61" s="195"/>
-      <c r="UU61" s="195"/>
-      <c r="UV61" s="195"/>
-      <c r="UW61" s="195"/>
-      <c r="UX61" s="195"/>
-      <c r="UY61" s="195"/>
-      <c r="UZ61" s="195"/>
-      <c r="VA61" s="195"/>
-      <c r="VB61" s="195"/>
-      <c r="VC61" s="196"/>
+      <c r="TZ61" s="161"/>
+      <c r="UA61" s="162"/>
+      <c r="UB61" s="162"/>
+      <c r="UC61" s="162"/>
+      <c r="UD61" s="162"/>
+      <c r="UE61" s="162"/>
+      <c r="UF61" s="162"/>
+      <c r="UG61" s="162"/>
+      <c r="UH61" s="162"/>
+      <c r="UI61" s="162"/>
+      <c r="UJ61" s="162"/>
+      <c r="UK61" s="162"/>
+      <c r="UL61" s="162"/>
+      <c r="UM61" s="162"/>
+      <c r="UN61" s="162"/>
+      <c r="UO61" s="162"/>
+      <c r="UP61" s="162"/>
+      <c r="UQ61" s="162"/>
+      <c r="UR61" s="162"/>
+      <c r="US61" s="162"/>
+      <c r="UT61" s="162"/>
+      <c r="UU61" s="162"/>
+      <c r="UV61" s="162"/>
+      <c r="UW61" s="162"/>
+      <c r="UX61" s="162"/>
+      <c r="UY61" s="162"/>
+      <c r="UZ61" s="162"/>
+      <c r="VA61" s="162"/>
+      <c r="VB61" s="162"/>
+      <c r="VC61" s="163"/>
     </row>
     <row r="62" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46"/>
@@ -38806,40 +38836,40 @@
       <c r="TW63" s="61"/>
       <c r="TX63" s="61"/>
       <c r="TY63" s="78"/>
-      <c r="TZ63" s="204"/>
-      <c r="UA63" s="205"/>
-      <c r="UB63" s="205"/>
-      <c r="UC63" s="205"/>
-      <c r="UD63" s="205"/>
-      <c r="UE63" s="205"/>
-      <c r="UF63" s="205"/>
-      <c r="UG63" s="205"/>
-      <c r="UH63" s="205"/>
-      <c r="UI63" s="205"/>
-      <c r="UJ63" s="205"/>
-      <c r="UK63" s="205"/>
-      <c r="UL63" s="205"/>
-      <c r="UM63" s="205"/>
-      <c r="UN63" s="205"/>
-      <c r="UO63" s="205"/>
-      <c r="UP63" s="205"/>
-      <c r="UQ63" s="205"/>
-      <c r="UR63" s="205"/>
-      <c r="US63" s="205"/>
-      <c r="UT63" s="205"/>
-      <c r="UU63" s="205"/>
-      <c r="UV63" s="205"/>
-      <c r="UW63" s="205"/>
-      <c r="UX63" s="205"/>
-      <c r="UY63" s="205"/>
-      <c r="UZ63" s="205"/>
-      <c r="VA63" s="205"/>
-      <c r="VB63" s="205"/>
-      <c r="VC63" s="206"/>
+      <c r="TZ63" s="152"/>
+      <c r="UA63" s="153"/>
+      <c r="UB63" s="153"/>
+      <c r="UC63" s="153"/>
+      <c r="UD63" s="153"/>
+      <c r="UE63" s="153"/>
+      <c r="UF63" s="153"/>
+      <c r="UG63" s="153"/>
+      <c r="UH63" s="153"/>
+      <c r="UI63" s="153"/>
+      <c r="UJ63" s="153"/>
+      <c r="UK63" s="153"/>
+      <c r="UL63" s="153"/>
+      <c r="UM63" s="153"/>
+      <c r="UN63" s="153"/>
+      <c r="UO63" s="153"/>
+      <c r="UP63" s="153"/>
+      <c r="UQ63" s="153"/>
+      <c r="UR63" s="153"/>
+      <c r="US63" s="153"/>
+      <c r="UT63" s="153"/>
+      <c r="UU63" s="153"/>
+      <c r="UV63" s="153"/>
+      <c r="UW63" s="153"/>
+      <c r="UX63" s="153"/>
+      <c r="UY63" s="153"/>
+      <c r="UZ63" s="153"/>
+      <c r="VA63" s="153"/>
+      <c r="VB63" s="153"/>
+      <c r="VC63" s="154"/>
     </row>
     <row r="64" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="200" t="s">
+      <c r="B64" s="138" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="67" t="s">
@@ -39145,7 +39175,7 @@
       <c r="KO64" s="105"/>
       <c r="KP64" s="105"/>
       <c r="KQ64" s="24"/>
-      <c r="KR64" s="200" t="s">
+      <c r="KR64" s="138" t="s">
         <v>69</v>
       </c>
       <c r="KS64" s="128" t="s">
@@ -39424,7 +39454,7 @@
     </row>
     <row r="65" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="191"/>
+      <c r="B65" s="139"/>
       <c r="C65" s="64" t="s">
         <v>29</v>
       </c>
@@ -39728,7 +39758,7 @@
       <c r="KO65" s="27"/>
       <c r="KP65" s="27"/>
       <c r="KQ65" s="34"/>
-      <c r="KR65" s="191"/>
+      <c r="KR65" s="139"/>
       <c r="KS65" s="123" t="s">
         <v>29</v>
       </c>
@@ -40553,36 +40583,36 @@
       <c r="TW66" s="107"/>
       <c r="TX66" s="107"/>
       <c r="TY66" s="74"/>
-      <c r="TZ66" s="209"/>
-      <c r="UA66" s="210"/>
-      <c r="UB66" s="210"/>
-      <c r="UC66" s="210"/>
-      <c r="UD66" s="210"/>
-      <c r="UE66" s="210"/>
-      <c r="UF66" s="210"/>
-      <c r="UG66" s="210"/>
-      <c r="UH66" s="210"/>
-      <c r="UI66" s="210"/>
-      <c r="UJ66" s="210"/>
-      <c r="UK66" s="210"/>
-      <c r="UL66" s="210"/>
-      <c r="UM66" s="210"/>
-      <c r="UN66" s="210"/>
-      <c r="UO66" s="210"/>
-      <c r="UP66" s="210"/>
-      <c r="UQ66" s="210"/>
-      <c r="UR66" s="210"/>
-      <c r="US66" s="210"/>
-      <c r="UT66" s="210"/>
-      <c r="UU66" s="210"/>
-      <c r="UV66" s="210"/>
-      <c r="UW66" s="210"/>
-      <c r="UX66" s="210"/>
-      <c r="UY66" s="210"/>
-      <c r="UZ66" s="210"/>
-      <c r="VA66" s="210"/>
-      <c r="VB66" s="210"/>
-      <c r="VC66" s="211"/>
+      <c r="TZ66" s="155"/>
+      <c r="UA66" s="156"/>
+      <c r="UB66" s="156"/>
+      <c r="UC66" s="156"/>
+      <c r="UD66" s="156"/>
+      <c r="UE66" s="156"/>
+      <c r="UF66" s="156"/>
+      <c r="UG66" s="156"/>
+      <c r="UH66" s="156"/>
+      <c r="UI66" s="156"/>
+      <c r="UJ66" s="156"/>
+      <c r="UK66" s="156"/>
+      <c r="UL66" s="156"/>
+      <c r="UM66" s="156"/>
+      <c r="UN66" s="156"/>
+      <c r="UO66" s="156"/>
+      <c r="UP66" s="156"/>
+      <c r="UQ66" s="156"/>
+      <c r="UR66" s="156"/>
+      <c r="US66" s="156"/>
+      <c r="UT66" s="156"/>
+      <c r="UU66" s="156"/>
+      <c r="UV66" s="156"/>
+      <c r="UW66" s="156"/>
+      <c r="UX66" s="156"/>
+      <c r="UY66" s="156"/>
+      <c r="UZ66" s="156"/>
+      <c r="VA66" s="156"/>
+      <c r="VB66" s="156"/>
+      <c r="VC66" s="157"/>
     </row>
     <row r="67" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46"/>
@@ -41134,36 +41164,36 @@
       <c r="TW67" s="54"/>
       <c r="TX67" s="54"/>
       <c r="TY67" s="53"/>
-      <c r="TZ67" s="212"/>
-      <c r="UA67" s="213"/>
-      <c r="UB67" s="213"/>
-      <c r="UC67" s="213"/>
-      <c r="UD67" s="213"/>
-      <c r="UE67" s="213"/>
-      <c r="UF67" s="213"/>
-      <c r="UG67" s="213"/>
-      <c r="UH67" s="213"/>
-      <c r="UI67" s="213"/>
-      <c r="UJ67" s="213"/>
-      <c r="UK67" s="213"/>
-      <c r="UL67" s="213"/>
-      <c r="UM67" s="213"/>
-      <c r="UN67" s="213"/>
-      <c r="UO67" s="213"/>
-      <c r="UP67" s="213"/>
-      <c r="UQ67" s="213"/>
-      <c r="UR67" s="213"/>
-      <c r="US67" s="213"/>
-      <c r="UT67" s="213"/>
-      <c r="UU67" s="213"/>
-      <c r="UV67" s="213"/>
-      <c r="UW67" s="213"/>
-      <c r="UX67" s="213"/>
-      <c r="UY67" s="213"/>
-      <c r="UZ67" s="213"/>
-      <c r="VA67" s="213"/>
-      <c r="VB67" s="213"/>
-      <c r="VC67" s="214"/>
+      <c r="TZ67" s="158"/>
+      <c r="UA67" s="159"/>
+      <c r="UB67" s="159"/>
+      <c r="UC67" s="159"/>
+      <c r="UD67" s="159"/>
+      <c r="UE67" s="159"/>
+      <c r="UF67" s="159"/>
+      <c r="UG67" s="159"/>
+      <c r="UH67" s="159"/>
+      <c r="UI67" s="159"/>
+      <c r="UJ67" s="159"/>
+      <c r="UK67" s="159"/>
+      <c r="UL67" s="159"/>
+      <c r="UM67" s="159"/>
+      <c r="UN67" s="159"/>
+      <c r="UO67" s="159"/>
+      <c r="UP67" s="159"/>
+      <c r="UQ67" s="159"/>
+      <c r="UR67" s="159"/>
+      <c r="US67" s="159"/>
+      <c r="UT67" s="159"/>
+      <c r="UU67" s="159"/>
+      <c r="UV67" s="159"/>
+      <c r="UW67" s="159"/>
+      <c r="UX67" s="159"/>
+      <c r="UY67" s="159"/>
+      <c r="UZ67" s="159"/>
+      <c r="VA67" s="159"/>
+      <c r="VB67" s="159"/>
+      <c r="VC67" s="160"/>
     </row>
     <row r="68" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
@@ -44624,50 +44654,88 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="KR28:KR29"/>
-    <mergeCell ref="KR33:KR34"/>
-    <mergeCell ref="KR35:KR36"/>
-    <mergeCell ref="KR37:KR38"/>
-    <mergeCell ref="KR39:KR40"/>
-    <mergeCell ref="KR44:KR45"/>
-    <mergeCell ref="KR46:KR47"/>
-    <mergeCell ref="KR48:KR49"/>
-    <mergeCell ref="KR50:KR51"/>
-    <mergeCell ref="KR4:KS6"/>
-    <mergeCell ref="KR12:KS12"/>
-    <mergeCell ref="KR13:KS13"/>
-    <mergeCell ref="KR14:KS14"/>
-    <mergeCell ref="KR15:KS15"/>
-    <mergeCell ref="KR17:KR18"/>
-    <mergeCell ref="KR19:KR20"/>
-    <mergeCell ref="KR21:KR22"/>
-    <mergeCell ref="KR23:KR24"/>
-    <mergeCell ref="TZ63:VC63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="TZ66:VC66"/>
-    <mergeCell ref="TZ67:VC67"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="TZ54:VC54"/>
-    <mergeCell ref="TZ56:VC56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="TZ61:VC61"/>
-    <mergeCell ref="KR52:KR53"/>
-    <mergeCell ref="KR57:KR58"/>
-    <mergeCell ref="KR59:KR60"/>
-    <mergeCell ref="KR64:KR65"/>
-    <mergeCell ref="TZ41:VC41"/>
-    <mergeCell ref="TZ43:VC43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="TZ30:VC30"/>
-    <mergeCell ref="TZ32:VC32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="AO6:BK6"/>
+    <mergeCell ref="B7:BK9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:BK12"/>
+    <mergeCell ref="BL12:GA12"/>
+    <mergeCell ref="GB12:KQ12"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="Q4:BK4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="AB5:AN5"/>
+    <mergeCell ref="AO5:BK5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="Q6:AA6"/>
+    <mergeCell ref="AB6:AN6"/>
+    <mergeCell ref="KT12:PI12"/>
+    <mergeCell ref="PJ12:TY12"/>
+    <mergeCell ref="TZ12:VC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:AG13"/>
+    <mergeCell ref="AH13:BK13"/>
+    <mergeCell ref="BL13:CO13"/>
+    <mergeCell ref="CP13:DS13"/>
+    <mergeCell ref="DT13:EW13"/>
+    <mergeCell ref="EX13:GA13"/>
+    <mergeCell ref="TZ13:VC13"/>
+    <mergeCell ref="NB13:OE13"/>
+    <mergeCell ref="OF13:PI13"/>
+    <mergeCell ref="PJ13:QM13"/>
+    <mergeCell ref="QN13:RQ13"/>
+    <mergeCell ref="RR13:SU13"/>
+    <mergeCell ref="SV13:TY13"/>
+    <mergeCell ref="GB13:HE13"/>
+    <mergeCell ref="HF13:II13"/>
+    <mergeCell ref="IJ13:JM13"/>
+    <mergeCell ref="JN13:KQ13"/>
+    <mergeCell ref="KT13:LW13"/>
+    <mergeCell ref="LX13:NA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:AG14"/>
+    <mergeCell ref="AH14:BK14"/>
+    <mergeCell ref="BL14:CO14"/>
+    <mergeCell ref="CP14:DS14"/>
+    <mergeCell ref="DT14:EW14"/>
+    <mergeCell ref="EX14:GA14"/>
+    <mergeCell ref="GB14:HE14"/>
+    <mergeCell ref="HF14:II14"/>
+    <mergeCell ref="SV14:TY14"/>
+    <mergeCell ref="TZ14:VC14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:R15"/>
+    <mergeCell ref="S15:AG15"/>
+    <mergeCell ref="AH15:AV15"/>
+    <mergeCell ref="AW15:BK15"/>
+    <mergeCell ref="IJ14:JM14"/>
+    <mergeCell ref="JN14:KQ14"/>
+    <mergeCell ref="KT14:LW14"/>
+    <mergeCell ref="LX14:NA14"/>
+    <mergeCell ref="NB14:OE14"/>
+    <mergeCell ref="OF14:PI14"/>
+    <mergeCell ref="BL15:BZ15"/>
+    <mergeCell ref="CA15:CO15"/>
+    <mergeCell ref="CP15:DD15"/>
+    <mergeCell ref="DE15:DS15"/>
+    <mergeCell ref="DT15:EH15"/>
+    <mergeCell ref="EI15:EW15"/>
+    <mergeCell ref="PJ14:QM14"/>
+    <mergeCell ref="QN14:RQ14"/>
+    <mergeCell ref="RR14:SU14"/>
+    <mergeCell ref="IJ15:IX15"/>
+    <mergeCell ref="IY15:JM15"/>
+    <mergeCell ref="JN15:KB15"/>
+    <mergeCell ref="KC15:KQ15"/>
+    <mergeCell ref="KT15:LH15"/>
+    <mergeCell ref="LI15:LW15"/>
+    <mergeCell ref="EX15:FL15"/>
+    <mergeCell ref="FM15:GA15"/>
+    <mergeCell ref="GB15:GP15"/>
+    <mergeCell ref="GQ15:HE15"/>
+    <mergeCell ref="HF15:HT15"/>
+    <mergeCell ref="HU15:II15"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
@@ -44692,88 +44760,50 @@
     <mergeCell ref="NQ15:OE15"/>
     <mergeCell ref="OF15:OT15"/>
     <mergeCell ref="OU15:PI15"/>
-    <mergeCell ref="JN15:KB15"/>
-    <mergeCell ref="KC15:KQ15"/>
-    <mergeCell ref="KT15:LH15"/>
-    <mergeCell ref="LI15:LW15"/>
-    <mergeCell ref="EX15:FL15"/>
-    <mergeCell ref="FM15:GA15"/>
-    <mergeCell ref="GB15:GP15"/>
-    <mergeCell ref="GQ15:HE15"/>
-    <mergeCell ref="HF15:HT15"/>
-    <mergeCell ref="HU15:II15"/>
-    <mergeCell ref="SV14:TY14"/>
-    <mergeCell ref="TZ14:VC14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:R15"/>
-    <mergeCell ref="S15:AG15"/>
-    <mergeCell ref="AH15:AV15"/>
-    <mergeCell ref="AW15:BK15"/>
-    <mergeCell ref="IJ14:JM14"/>
-    <mergeCell ref="JN14:KQ14"/>
-    <mergeCell ref="KT14:LW14"/>
-    <mergeCell ref="LX14:NA14"/>
-    <mergeCell ref="NB14:OE14"/>
-    <mergeCell ref="OF14:PI14"/>
-    <mergeCell ref="BL15:BZ15"/>
-    <mergeCell ref="CA15:CO15"/>
-    <mergeCell ref="CP15:DD15"/>
-    <mergeCell ref="DE15:DS15"/>
-    <mergeCell ref="DT15:EH15"/>
-    <mergeCell ref="EI15:EW15"/>
-    <mergeCell ref="PJ14:QM14"/>
-    <mergeCell ref="QN14:RQ14"/>
-    <mergeCell ref="RR14:SU14"/>
-    <mergeCell ref="IJ15:IX15"/>
-    <mergeCell ref="IY15:JM15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:AG14"/>
-    <mergeCell ref="AH14:BK14"/>
-    <mergeCell ref="BL14:CO14"/>
-    <mergeCell ref="CP14:DS14"/>
-    <mergeCell ref="DT14:EW14"/>
-    <mergeCell ref="EX14:GA14"/>
-    <mergeCell ref="GB14:HE14"/>
-    <mergeCell ref="HF14:II14"/>
-    <mergeCell ref="KT12:PI12"/>
-    <mergeCell ref="PJ12:TY12"/>
-    <mergeCell ref="TZ12:VC12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:AG13"/>
-    <mergeCell ref="AH13:BK13"/>
-    <mergeCell ref="BL13:CO13"/>
-    <mergeCell ref="CP13:DS13"/>
-    <mergeCell ref="DT13:EW13"/>
-    <mergeCell ref="EX13:GA13"/>
-    <mergeCell ref="TZ13:VC13"/>
-    <mergeCell ref="NB13:OE13"/>
-    <mergeCell ref="OF13:PI13"/>
-    <mergeCell ref="PJ13:QM13"/>
-    <mergeCell ref="QN13:RQ13"/>
-    <mergeCell ref="RR13:SU13"/>
-    <mergeCell ref="SV13:TY13"/>
-    <mergeCell ref="GB13:HE13"/>
-    <mergeCell ref="HF13:II13"/>
-    <mergeCell ref="IJ13:JM13"/>
-    <mergeCell ref="JN13:KQ13"/>
-    <mergeCell ref="KT13:LW13"/>
-    <mergeCell ref="LX13:NA13"/>
-    <mergeCell ref="AO6:BK6"/>
-    <mergeCell ref="B7:BK9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:BK12"/>
-    <mergeCell ref="BL12:GA12"/>
-    <mergeCell ref="GB12:KQ12"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="Q4:BK4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="AB5:AN5"/>
-    <mergeCell ref="AO5:BK5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="Q6:AA6"/>
-    <mergeCell ref="AB6:AN6"/>
+    <mergeCell ref="TZ41:VC41"/>
+    <mergeCell ref="TZ43:VC43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="TZ30:VC30"/>
+    <mergeCell ref="TZ32:VC32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="TZ63:VC63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="TZ66:VC66"/>
+    <mergeCell ref="TZ67:VC67"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="TZ54:VC54"/>
+    <mergeCell ref="TZ56:VC56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="TZ61:VC61"/>
+    <mergeCell ref="KR52:KR53"/>
+    <mergeCell ref="KR57:KR58"/>
+    <mergeCell ref="KR59:KR60"/>
+    <mergeCell ref="KR64:KR65"/>
+    <mergeCell ref="KR4:KS6"/>
+    <mergeCell ref="KR12:KS12"/>
+    <mergeCell ref="KR13:KS13"/>
+    <mergeCell ref="KR14:KS14"/>
+    <mergeCell ref="KR15:KS15"/>
+    <mergeCell ref="KR17:KR18"/>
+    <mergeCell ref="KR19:KR20"/>
+    <mergeCell ref="KR21:KR22"/>
+    <mergeCell ref="KR23:KR24"/>
+    <mergeCell ref="KR28:KR29"/>
+    <mergeCell ref="KR33:KR34"/>
+    <mergeCell ref="KR35:KR36"/>
+    <mergeCell ref="KR37:KR38"/>
+    <mergeCell ref="KR39:KR40"/>
+    <mergeCell ref="KR44:KR45"/>
+    <mergeCell ref="KR46:KR47"/>
+    <mergeCell ref="KR48:KR49"/>
+    <mergeCell ref="KR50:KR51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -44797,8 +44827,8 @@
   </sheetPr>
   <dimension ref="B4:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44809,7 +44839,7 @@
     <col min="4" max="4" width="5.7109375" style="50" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" style="50" customWidth="1"/>
     <col min="7" max="7" width="80.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="51.85546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="75" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
@@ -44819,11 +44849,11 @@
       <c r="C5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="228" t="s">
+      <c r="D5" s="255" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="228"/>
-      <c r="F5" s="229"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="256"/>
       <c r="G5" s="95" t="s">
         <v>38</v>
       </c>
@@ -44832,60 +44862,60 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="232" t="s">
+      <c r="B6" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="222">
+      <c r="C6" s="244">
         <v>45414</v>
       </c>
-      <c r="D6" s="224" t="s">
+      <c r="D6" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="226"/>
-      <c r="G6" s="230" t="s">
+      <c r="F6" s="224"/>
+      <c r="G6" s="219" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="97"/>
     </row>
     <row r="7" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="233"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="224"/>
-      <c r="E7" s="225" t="s">
+      <c r="B7" s="240"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="226"/>
-      <c r="G7" s="231"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="257"/>
       <c r="H7" s="97"/>
     </row>
     <row r="8" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="233"/>
-      <c r="C8" s="223"/>
-      <c r="D8" s="219" t="s">
+      <c r="B8" s="240"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="219"/>
-      <c r="F8" s="227" t="s">
+      <c r="E8" s="225"/>
+      <c r="F8" s="254" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="220"/>
-      <c r="H8" s="221"/>
+      <c r="G8" s="226"/>
+      <c r="H8" s="227"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="233"/>
-      <c r="C9" s="235">
+      <c r="B9" s="240"/>
+      <c r="C9" s="246">
         <v>45415</v>
       </c>
-      <c r="D9" s="224" t="s">
+      <c r="D9" s="230" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="236" t="s">
+      <c r="E9" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="237"/>
+      <c r="F9" s="232"/>
       <c r="G9" s="130" t="s">
         <v>84</v>
       </c>
@@ -44894,13 +44924,13 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="233"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="224"/>
-      <c r="E10" s="225" t="s">
+      <c r="B10" s="240"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="230"/>
+      <c r="E10" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="226"/>
+      <c r="F10" s="224"/>
       <c r="G10" s="130" t="s">
         <v>85</v>
       </c>
@@ -44909,13 +44939,13 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="233"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="224"/>
-      <c r="E11" s="225" t="s">
+      <c r="B11" s="240"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="230"/>
+      <c r="E11" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="226"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="130" t="s">
         <v>89</v>
       </c>
@@ -44924,13 +44954,13 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="233"/>
-      <c r="C12" s="222"/>
-      <c r="D12" s="224"/>
-      <c r="E12" s="225" t="s">
+      <c r="B12" s="240"/>
+      <c r="C12" s="244"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="226"/>
+      <c r="F12" s="224"/>
       <c r="G12" s="131" t="s">
         <v>86</v>
       </c>
@@ -44939,1048 +44969,997 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="234"/>
-      <c r="C13" s="223"/>
-      <c r="D13" s="219" t="s">
+      <c r="B13" s="241"/>
+      <c r="C13" s="245"/>
+      <c r="D13" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="219"/>
-      <c r="F13" s="220" t="s">
+      <c r="E13" s="225"/>
+      <c r="F13" s="226" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="220"/>
-      <c r="H13" s="221"/>
+      <c r="G13" s="226"/>
+      <c r="H13" s="227"/>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="232" t="s">
+      <c r="B14" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="222">
+      <c r="C14" s="244">
         <v>45418</v>
       </c>
-      <c r="D14" s="224" t="s">
+      <c r="D14" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="225" t="s">
+      <c r="E14" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="226"/>
-      <c r="G14" s="230" t="s">
+      <c r="F14" s="224"/>
+      <c r="G14" s="219" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="256" t="s">
+      <c r="H14" s="221" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="233"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="225" t="s">
+      <c r="B15" s="240"/>
+      <c r="C15" s="244"/>
+      <c r="D15" s="230"/>
+      <c r="E15" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="226"/>
-      <c r="G15" s="255"/>
-      <c r="H15" s="257"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="222"/>
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="233"/>
-      <c r="C16" s="222"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="225" t="s">
+      <c r="B16" s="240"/>
+      <c r="C16" s="244"/>
+      <c r="D16" s="230"/>
+      <c r="E16" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="226"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="97"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="220" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="222" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="233"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="224"/>
-      <c r="E17" s="225" t="s">
+      <c r="B17" s="240"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="230"/>
+      <c r="E17" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="226"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="97"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="258"/>
+      <c r="H17" s="259"/>
     </row>
-    <row r="18" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="233"/>
-      <c r="C18" s="223"/>
-      <c r="D18" s="219" t="s">
+    <row r="18" spans="2:8" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="240"/>
+      <c r="C18" s="245"/>
+      <c r="D18" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="219"/>
-      <c r="F18" s="220"/>
-      <c r="G18" s="220"/>
-      <c r="H18" s="221"/>
+      <c r="E18" s="225"/>
+      <c r="F18" s="254" t="s">
+        <v>98</v>
+      </c>
+      <c r="G18" s="226"/>
+      <c r="H18" s="227"/>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="233"/>
-      <c r="C19" s="235">
+      <c r="B19" s="240"/>
+      <c r="C19" s="246">
         <v>45420</v>
       </c>
-      <c r="D19" s="224" t="s">
+      <c r="D19" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="236" t="s">
+      <c r="E19" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="237"/>
+      <c r="F19" s="232"/>
       <c r="G19" s="98"/>
       <c r="H19" s="97"/>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="233"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="224"/>
-      <c r="E20" s="225" t="s">
+      <c r="B20" s="240"/>
+      <c r="C20" s="244"/>
+      <c r="D20" s="230"/>
+      <c r="E20" s="223" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="226"/>
+      <c r="F20" s="224"/>
       <c r="G20" s="98"/>
       <c r="H20" s="97"/>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="233"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="224"/>
-      <c r="E21" s="225" t="s">
+      <c r="B21" s="240"/>
+      <c r="C21" s="244"/>
+      <c r="D21" s="230"/>
+      <c r="E21" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="226"/>
+      <c r="F21" s="224"/>
       <c r="G21" s="99"/>
       <c r="H21" s="97"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="233"/>
-      <c r="C22" s="222"/>
-      <c r="D22" s="224"/>
-      <c r="E22" s="225" t="s">
+      <c r="B22" s="240"/>
+      <c r="C22" s="244"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="226"/>
+      <c r="F22" s="224"/>
       <c r="G22" s="99"/>
       <c r="H22" s="97"/>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="233"/>
-      <c r="C23" s="223"/>
-      <c r="D23" s="219" t="s">
+      <c r="B23" s="240"/>
+      <c r="C23" s="245"/>
+      <c r="D23" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="219"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="220"/>
-      <c r="H23" s="221"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="226"/>
+      <c r="G23" s="226"/>
+      <c r="H23" s="227"/>
     </row>
     <row r="24" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="233"/>
-      <c r="C24" s="238">
+      <c r="B24" s="240"/>
+      <c r="C24" s="242">
         <v>45421</v>
       </c>
-      <c r="D24" s="224" t="s">
+      <c r="D24" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="240" t="s">
+      <c r="E24" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="241"/>
-      <c r="G24" s="248" t="s">
+      <c r="F24" s="229"/>
+      <c r="G24" s="249" t="s">
         <v>57</v>
       </c>
       <c r="H24" s="100"/>
     </row>
     <row r="25" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="233"/>
-      <c r="C25" s="238"/>
-      <c r="D25" s="224"/>
-      <c r="E25" s="240" t="s">
+      <c r="B25" s="240"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="228" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="241"/>
-      <c r="G25" s="249"/>
+      <c r="F25" s="229"/>
+      <c r="G25" s="250"/>
       <c r="H25" s="100"/>
     </row>
     <row r="26" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="233"/>
-      <c r="C26" s="239"/>
-      <c r="D26" s="242" t="s">
+      <c r="B26" s="240"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="242"/>
-      <c r="F26" s="243"/>
-      <c r="G26" s="243"/>
-      <c r="H26" s="244"/>
+      <c r="E26" s="233"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="248"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="233"/>
-      <c r="C27" s="245">
+      <c r="B27" s="240"/>
+      <c r="C27" s="251">
         <v>45422</v>
       </c>
-      <c r="D27" s="224" t="s">
+      <c r="D27" s="230" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="246" t="s">
+      <c r="E27" s="252" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="247"/>
-      <c r="G27" s="250" t="s">
+      <c r="F27" s="253"/>
+      <c r="G27" s="236" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="100"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="233"/>
-      <c r="C28" s="238"/>
-      <c r="D28" s="224"/>
-      <c r="E28" s="240" t="s">
+      <c r="B28" s="240"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="241"/>
-      <c r="G28" s="251"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="237"/>
       <c r="H28" s="100"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="233"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="224"/>
-      <c r="E29" s="240" t="s">
+      <c r="B29" s="240"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="241"/>
-      <c r="G29" s="251"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="237"/>
       <c r="H29" s="100"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="233"/>
-      <c r="C30" s="238"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="240" t="s">
+      <c r="B30" s="240"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="230"/>
+      <c r="E30" s="228" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="241"/>
-      <c r="G30" s="252"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="238"/>
       <c r="H30" s="100"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="234"/>
-      <c r="C31" s="239"/>
-      <c r="D31" s="242" t="s">
+      <c r="B31" s="241"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="242"/>
-      <c r="F31" s="253"/>
-      <c r="G31" s="253"/>
-      <c r="H31" s="254"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="234"/>
+      <c r="G31" s="234"/>
+      <c r="H31" s="235"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="232" t="s">
+      <c r="B32" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="222">
+      <c r="C32" s="244">
         <v>45425</v>
       </c>
-      <c r="D32" s="224" t="s">
+      <c r="D32" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="225" t="s">
+      <c r="E32" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="226"/>
+      <c r="F32" s="224"/>
       <c r="G32" s="98"/>
       <c r="H32" s="97"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="233"/>
-      <c r="C33" s="222"/>
-      <c r="D33" s="224"/>
-      <c r="E33" s="225" t="s">
+      <c r="B33" s="240"/>
+      <c r="C33" s="244"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="226"/>
+      <c r="F33" s="224"/>
       <c r="G33" s="98"/>
       <c r="H33" s="97"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="233"/>
-      <c r="C34" s="222"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="225" t="s">
+      <c r="B34" s="240"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="226"/>
+      <c r="F34" s="224"/>
       <c r="G34" s="99"/>
       <c r="H34" s="97"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="233"/>
-      <c r="C35" s="222"/>
-      <c r="D35" s="224"/>
-      <c r="E35" s="225" t="s">
+      <c r="B35" s="240"/>
+      <c r="C35" s="244"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="226"/>
+      <c r="F35" s="224"/>
       <c r="G35" s="99"/>
       <c r="H35" s="97"/>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="233"/>
-      <c r="C36" s="223"/>
-      <c r="D36" s="219" t="s">
+      <c r="B36" s="240"/>
+      <c r="C36" s="245"/>
+      <c r="D36" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="219"/>
-      <c r="F36" s="220"/>
-      <c r="G36" s="220"/>
-      <c r="H36" s="221"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="227"/>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="233"/>
-      <c r="C37" s="235">
+      <c r="B37" s="240"/>
+      <c r="C37" s="246">
         <v>45427</v>
       </c>
-      <c r="D37" s="224" t="s">
+      <c r="D37" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="236" t="s">
+      <c r="E37" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="237"/>
+      <c r="F37" s="232"/>
       <c r="G37" s="98"/>
       <c r="H37" s="97"/>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="233"/>
-      <c r="C38" s="222"/>
-      <c r="D38" s="224"/>
-      <c r="E38" s="225" t="s">
+      <c r="B38" s="240"/>
+      <c r="C38" s="244"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="223" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="226"/>
+      <c r="F38" s="224"/>
       <c r="G38" s="98"/>
       <c r="H38" s="97"/>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="233"/>
-      <c r="C39" s="222"/>
-      <c r="D39" s="224"/>
-      <c r="E39" s="225" t="s">
+      <c r="B39" s="240"/>
+      <c r="C39" s="244"/>
+      <c r="D39" s="230"/>
+      <c r="E39" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="226"/>
+      <c r="F39" s="224"/>
       <c r="G39" s="99"/>
       <c r="H39" s="97"/>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="233"/>
-      <c r="C40" s="222"/>
-      <c r="D40" s="224"/>
-      <c r="E40" s="225" t="s">
+      <c r="B40" s="240"/>
+      <c r="C40" s="244"/>
+      <c r="D40" s="230"/>
+      <c r="E40" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="226"/>
+      <c r="F40" s="224"/>
       <c r="G40" s="99"/>
       <c r="H40" s="97"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="233"/>
-      <c r="C41" s="223"/>
-      <c r="D41" s="219" t="s">
+      <c r="B41" s="240"/>
+      <c r="C41" s="245"/>
+      <c r="D41" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="219"/>
-      <c r="F41" s="220"/>
-      <c r="G41" s="220"/>
-      <c r="H41" s="221"/>
+      <c r="E41" s="225"/>
+      <c r="F41" s="226"/>
+      <c r="G41" s="226"/>
+      <c r="H41" s="227"/>
     </row>
     <row r="42" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="233"/>
-      <c r="C42" s="222">
+      <c r="B42" s="240"/>
+      <c r="C42" s="244">
         <v>45428</v>
       </c>
-      <c r="D42" s="224" t="s">
+      <c r="D42" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="225" t="s">
+      <c r="E42" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="226"/>
+      <c r="F42" s="224"/>
       <c r="G42" s="99"/>
       <c r="H42" s="97"/>
     </row>
     <row r="43" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="233"/>
-      <c r="C43" s="222"/>
-      <c r="D43" s="224"/>
-      <c r="E43" s="225" t="s">
+      <c r="B43" s="240"/>
+      <c r="C43" s="244"/>
+      <c r="D43" s="230"/>
+      <c r="E43" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="226"/>
+      <c r="F43" s="224"/>
       <c r="G43" s="99"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="233"/>
-      <c r="C44" s="223"/>
-      <c r="D44" s="219" t="s">
+      <c r="B44" s="240"/>
+      <c r="C44" s="245"/>
+      <c r="D44" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="219"/>
-      <c r="F44" s="220"/>
-      <c r="G44" s="220"/>
-      <c r="H44" s="221"/>
+      <c r="E44" s="225"/>
+      <c r="F44" s="226"/>
+      <c r="G44" s="226"/>
+      <c r="H44" s="227"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="233"/>
-      <c r="C45" s="235">
+      <c r="B45" s="240"/>
+      <c r="C45" s="246">
         <v>45429</v>
       </c>
-      <c r="D45" s="224" t="s">
+      <c r="D45" s="230" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="236" t="s">
+      <c r="E45" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="237"/>
+      <c r="F45" s="232"/>
       <c r="G45" s="98"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="233"/>
-      <c r="C46" s="222"/>
-      <c r="D46" s="224"/>
-      <c r="E46" s="225" t="s">
+      <c r="B46" s="240"/>
+      <c r="C46" s="244"/>
+      <c r="D46" s="230"/>
+      <c r="E46" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="226"/>
+      <c r="F46" s="224"/>
       <c r="G46" s="98"/>
       <c r="H46" s="97"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="233"/>
-      <c r="C47" s="222"/>
-      <c r="D47" s="224"/>
-      <c r="E47" s="225" t="s">
+      <c r="B47" s="240"/>
+      <c r="C47" s="244"/>
+      <c r="D47" s="230"/>
+      <c r="E47" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="226"/>
+      <c r="F47" s="224"/>
       <c r="G47" s="99"/>
       <c r="H47" s="97"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="233"/>
-      <c r="C48" s="222"/>
-      <c r="D48" s="224"/>
-      <c r="E48" s="225" t="s">
+      <c r="B48" s="240"/>
+      <c r="C48" s="244"/>
+      <c r="D48" s="230"/>
+      <c r="E48" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="226"/>
+      <c r="F48" s="224"/>
       <c r="G48" s="99"/>
       <c r="H48" s="97"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="234"/>
-      <c r="C49" s="223"/>
-      <c r="D49" s="219" t="s">
+      <c r="B49" s="241"/>
+      <c r="C49" s="245"/>
+      <c r="D49" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="219"/>
-      <c r="F49" s="220"/>
-      <c r="G49" s="220"/>
-      <c r="H49" s="221"/>
+      <c r="E49" s="225"/>
+      <c r="F49" s="226"/>
+      <c r="G49" s="226"/>
+      <c r="H49" s="227"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="232" t="s">
+      <c r="B50" s="239" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="238">
+      <c r="C50" s="242">
         <v>45432</v>
       </c>
-      <c r="D50" s="224" t="s">
+      <c r="D50" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="240" t="s">
+      <c r="E50" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="241"/>
-      <c r="G50" s="250" t="s">
+      <c r="F50" s="229"/>
+      <c r="G50" s="236" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="233"/>
-      <c r="C51" s="238"/>
-      <c r="D51" s="224"/>
-      <c r="E51" s="240" t="s">
+      <c r="B51" s="240"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="230"/>
+      <c r="E51" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="241"/>
-      <c r="G51" s="251"/>
+      <c r="F51" s="229"/>
+      <c r="G51" s="237"/>
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="233"/>
-      <c r="C52" s="238"/>
-      <c r="D52" s="224"/>
-      <c r="E52" s="240" t="s">
+      <c r="B52" s="240"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="230"/>
+      <c r="E52" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="241"/>
-      <c r="G52" s="251"/>
+      <c r="F52" s="229"/>
+      <c r="G52" s="237"/>
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="233"/>
-      <c r="C53" s="238"/>
-      <c r="D53" s="224"/>
-      <c r="E53" s="240" t="s">
+      <c r="B53" s="240"/>
+      <c r="C53" s="242"/>
+      <c r="D53" s="230"/>
+      <c r="E53" s="228" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="241"/>
-      <c r="G53" s="252"/>
+      <c r="F53" s="229"/>
+      <c r="G53" s="238"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="233"/>
-      <c r="C54" s="239"/>
-      <c r="D54" s="242" t="s">
+      <c r="B54" s="240"/>
+      <c r="C54" s="243"/>
+      <c r="D54" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="242"/>
-      <c r="F54" s="243"/>
-      <c r="G54" s="243"/>
-      <c r="H54" s="244"/>
+      <c r="E54" s="233"/>
+      <c r="F54" s="247"/>
+      <c r="G54" s="247"/>
+      <c r="H54" s="248"/>
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="233"/>
-      <c r="C55" s="235">
+      <c r="B55" s="240"/>
+      <c r="C55" s="246">
         <v>45434</v>
       </c>
-      <c r="D55" s="224" t="s">
+      <c r="D55" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="236" t="s">
+      <c r="E55" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="237"/>
+      <c r="F55" s="232"/>
       <c r="G55" s="98"/>
       <c r="H55" s="97"/>
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="233"/>
-      <c r="C56" s="222"/>
-      <c r="D56" s="224"/>
-      <c r="E56" s="225" t="s">
+      <c r="B56" s="240"/>
+      <c r="C56" s="244"/>
+      <c r="D56" s="230"/>
+      <c r="E56" s="223" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="226"/>
+      <c r="F56" s="224"/>
       <c r="G56" s="98"/>
       <c r="H56" s="97"/>
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="233"/>
-      <c r="C57" s="222"/>
-      <c r="D57" s="224"/>
-      <c r="E57" s="225" t="s">
+      <c r="B57" s="240"/>
+      <c r="C57" s="244"/>
+      <c r="D57" s="230"/>
+      <c r="E57" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="226"/>
+      <c r="F57" s="224"/>
       <c r="G57" s="99"/>
       <c r="H57" s="97"/>
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="233"/>
-      <c r="C58" s="222"/>
-      <c r="D58" s="224"/>
-      <c r="E58" s="225" t="s">
+      <c r="B58" s="240"/>
+      <c r="C58" s="244"/>
+      <c r="D58" s="230"/>
+      <c r="E58" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="226"/>
+      <c r="F58" s="224"/>
       <c r="G58" s="99"/>
       <c r="H58" s="97"/>
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="233"/>
-      <c r="C59" s="223"/>
-      <c r="D59" s="219" t="s">
+      <c r="B59" s="240"/>
+      <c r="C59" s="245"/>
+      <c r="D59" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="219"/>
-      <c r="F59" s="220"/>
-      <c r="G59" s="220"/>
-      <c r="H59" s="221"/>
+      <c r="E59" s="225"/>
+      <c r="F59" s="226"/>
+      <c r="G59" s="226"/>
+      <c r="H59" s="227"/>
     </row>
     <row r="60" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="233"/>
-      <c r="C60" s="222">
+      <c r="B60" s="240"/>
+      <c r="C60" s="244">
         <v>45435</v>
       </c>
-      <c r="D60" s="224" t="s">
+      <c r="D60" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="225" t="s">
+      <c r="E60" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="226"/>
+      <c r="F60" s="224"/>
       <c r="G60" s="99"/>
       <c r="H60" s="97"/>
     </row>
     <row r="61" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="233"/>
-      <c r="C61" s="222"/>
-      <c r="D61" s="224"/>
-      <c r="E61" s="225" t="s">
+      <c r="B61" s="240"/>
+      <c r="C61" s="244"/>
+      <c r="D61" s="230"/>
+      <c r="E61" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="226"/>
+      <c r="F61" s="224"/>
       <c r="G61" s="99"/>
       <c r="H61" s="97"/>
     </row>
     <row r="62" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="233"/>
-      <c r="C62" s="223"/>
-      <c r="D62" s="219" t="s">
+      <c r="B62" s="240"/>
+      <c r="C62" s="245"/>
+      <c r="D62" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="219"/>
-      <c r="F62" s="220"/>
-      <c r="G62" s="220"/>
-      <c r="H62" s="221"/>
+      <c r="E62" s="225"/>
+      <c r="F62" s="226"/>
+      <c r="G62" s="226"/>
+      <c r="H62" s="227"/>
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="233"/>
-      <c r="C63" s="235">
+      <c r="B63" s="240"/>
+      <c r="C63" s="246">
         <v>45436</v>
       </c>
-      <c r="D63" s="224" t="s">
+      <c r="D63" s="230" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="236" t="s">
+      <c r="E63" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="237"/>
+      <c r="F63" s="232"/>
       <c r="G63" s="98"/>
       <c r="H63" s="97"/>
     </row>
     <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="233"/>
-      <c r="C64" s="222"/>
-      <c r="D64" s="224"/>
-      <c r="E64" s="225" t="s">
+      <c r="B64" s="240"/>
+      <c r="C64" s="244"/>
+      <c r="D64" s="230"/>
+      <c r="E64" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="226"/>
+      <c r="F64" s="224"/>
       <c r="G64" s="98"/>
       <c r="H64" s="97"/>
     </row>
     <row r="65" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="233"/>
-      <c r="C65" s="222"/>
-      <c r="D65" s="224"/>
-      <c r="E65" s="225" t="s">
+      <c r="B65" s="240"/>
+      <c r="C65" s="244"/>
+      <c r="D65" s="230"/>
+      <c r="E65" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="226"/>
+      <c r="F65" s="224"/>
       <c r="G65" s="99"/>
       <c r="H65" s="97"/>
     </row>
     <row r="66" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="233"/>
-      <c r="C66" s="222"/>
-      <c r="D66" s="224"/>
-      <c r="E66" s="225" t="s">
+      <c r="B66" s="240"/>
+      <c r="C66" s="244"/>
+      <c r="D66" s="230"/>
+      <c r="E66" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="226"/>
+      <c r="F66" s="224"/>
       <c r="G66" s="99"/>
       <c r="H66" s="97"/>
     </row>
     <row r="67" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="234"/>
-      <c r="C67" s="223"/>
-      <c r="D67" s="219" t="s">
+      <c r="B67" s="241"/>
+      <c r="C67" s="245"/>
+      <c r="D67" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="219"/>
-      <c r="F67" s="220"/>
-      <c r="G67" s="220"/>
-      <c r="H67" s="221"/>
+      <c r="E67" s="225"/>
+      <c r="F67" s="226"/>
+      <c r="G67" s="226"/>
+      <c r="H67" s="227"/>
     </row>
     <row r="68" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="232" t="s">
+      <c r="B68" s="239" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="238">
+      <c r="C68" s="242">
         <v>45439</v>
       </c>
-      <c r="D68" s="224" t="s">
+      <c r="D68" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="240" t="s">
+      <c r="E68" s="228" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="241"/>
-      <c r="G68" s="250" t="s">
+      <c r="F68" s="229"/>
+      <c r="G68" s="236" t="s">
         <v>81</v>
       </c>
       <c r="H68" s="100"/>
     </row>
     <row r="69" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="233"/>
-      <c r="C69" s="238"/>
-      <c r="D69" s="224"/>
-      <c r="E69" s="240" t="s">
+      <c r="B69" s="240"/>
+      <c r="C69" s="242"/>
+      <c r="D69" s="230"/>
+      <c r="E69" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="241"/>
-      <c r="G69" s="251"/>
+      <c r="F69" s="229"/>
+      <c r="G69" s="237"/>
       <c r="H69" s="100"/>
     </row>
     <row r="70" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="233"/>
-      <c r="C70" s="238"/>
-      <c r="D70" s="224"/>
-      <c r="E70" s="240" t="s">
+      <c r="B70" s="240"/>
+      <c r="C70" s="242"/>
+      <c r="D70" s="230"/>
+      <c r="E70" s="228" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="241"/>
-      <c r="G70" s="251"/>
+      <c r="F70" s="229"/>
+      <c r="G70" s="237"/>
       <c r="H70" s="100"/>
     </row>
     <row r="71" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="233"/>
-      <c r="C71" s="238"/>
-      <c r="D71" s="224"/>
-      <c r="E71" s="240" t="s">
+      <c r="B71" s="240"/>
+      <c r="C71" s="242"/>
+      <c r="D71" s="230"/>
+      <c r="E71" s="228" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="241"/>
-      <c r="G71" s="252"/>
+      <c r="F71" s="229"/>
+      <c r="G71" s="238"/>
       <c r="H71" s="100"/>
     </row>
     <row r="72" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="233"/>
-      <c r="C72" s="239"/>
-      <c r="D72" s="242" t="s">
+      <c r="B72" s="240"/>
+      <c r="C72" s="243"/>
+      <c r="D72" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="242"/>
-      <c r="F72" s="253"/>
-      <c r="G72" s="253"/>
-      <c r="H72" s="254"/>
+      <c r="E72" s="233"/>
+      <c r="F72" s="234"/>
+      <c r="G72" s="234"/>
+      <c r="H72" s="235"/>
     </row>
     <row r="73" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="233"/>
-      <c r="C73" s="235">
+      <c r="B73" s="240"/>
+      <c r="C73" s="246">
         <v>45441</v>
       </c>
-      <c r="D73" s="224" t="s">
+      <c r="D73" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="236" t="s">
+      <c r="E73" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="237"/>
+      <c r="F73" s="232"/>
       <c r="G73" s="98"/>
       <c r="H73" s="97"/>
     </row>
     <row r="74" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="233"/>
-      <c r="C74" s="222"/>
-      <c r="D74" s="224"/>
-      <c r="E74" s="225" t="s">
+      <c r="B74" s="240"/>
+      <c r="C74" s="244"/>
+      <c r="D74" s="230"/>
+      <c r="E74" s="223" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="226"/>
+      <c r="F74" s="224"/>
       <c r="G74" s="98"/>
       <c r="H74" s="97"/>
     </row>
     <row r="75" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="233"/>
-      <c r="C75" s="222"/>
-      <c r="D75" s="224"/>
-      <c r="E75" s="225" t="s">
+      <c r="B75" s="240"/>
+      <c r="C75" s="244"/>
+      <c r="D75" s="230"/>
+      <c r="E75" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="226"/>
+      <c r="F75" s="224"/>
       <c r="G75" s="99"/>
       <c r="H75" s="97"/>
     </row>
     <row r="76" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="233"/>
-      <c r="C76" s="222"/>
-      <c r="D76" s="224"/>
-      <c r="E76" s="225" t="s">
+      <c r="B76" s="240"/>
+      <c r="C76" s="244"/>
+      <c r="D76" s="230"/>
+      <c r="E76" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="226"/>
+      <c r="F76" s="224"/>
       <c r="G76" s="99"/>
       <c r="H76" s="97"/>
     </row>
     <row r="77" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="233"/>
-      <c r="C77" s="223"/>
-      <c r="D77" s="219" t="s">
+      <c r="B77" s="240"/>
+      <c r="C77" s="245"/>
+      <c r="D77" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="219"/>
-      <c r="F77" s="220"/>
-      <c r="G77" s="220"/>
-      <c r="H77" s="221"/>
+      <c r="E77" s="225"/>
+      <c r="F77" s="226"/>
+      <c r="G77" s="226"/>
+      <c r="H77" s="227"/>
     </row>
     <row r="78" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="233"/>
-      <c r="C78" s="222">
+      <c r="B78" s="240"/>
+      <c r="C78" s="244">
         <v>45442</v>
       </c>
-      <c r="D78" s="224" t="s">
+      <c r="D78" s="230" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="225" t="s">
+      <c r="E78" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="226"/>
+      <c r="F78" s="224"/>
       <c r="G78" s="99"/>
       <c r="H78" s="97"/>
     </row>
     <row r="79" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="233"/>
-      <c r="C79" s="222"/>
-      <c r="D79" s="224"/>
-      <c r="E79" s="225" t="s">
+      <c r="B79" s="240"/>
+      <c r="C79" s="244"/>
+      <c r="D79" s="230"/>
+      <c r="E79" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="226"/>
+      <c r="F79" s="224"/>
       <c r="G79" s="99"/>
       <c r="H79" s="97"/>
     </row>
     <row r="80" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="233"/>
-      <c r="C80" s="223"/>
-      <c r="D80" s="219" t="s">
+      <c r="B80" s="240"/>
+      <c r="C80" s="245"/>
+      <c r="D80" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="219"/>
-      <c r="F80" s="220"/>
-      <c r="G80" s="220"/>
-      <c r="H80" s="221"/>
+      <c r="E80" s="225"/>
+      <c r="F80" s="226"/>
+      <c r="G80" s="226"/>
+      <c r="H80" s="227"/>
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="233"/>
-      <c r="C81" s="235">
+      <c r="B81" s="240"/>
+      <c r="C81" s="246">
         <v>45443</v>
       </c>
-      <c r="D81" s="224" t="s">
+      <c r="D81" s="230" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="236" t="s">
+      <c r="E81" s="231" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="237"/>
+      <c r="F81" s="232"/>
       <c r="G81" s="98"/>
       <c r="H81" s="97"/>
     </row>
     <row r="82" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="233"/>
-      <c r="C82" s="222"/>
-      <c r="D82" s="224"/>
-      <c r="E82" s="225" t="s">
+      <c r="B82" s="240"/>
+      <c r="C82" s="244"/>
+      <c r="D82" s="230"/>
+      <c r="E82" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="226"/>
+      <c r="F82" s="224"/>
       <c r="G82" s="98"/>
       <c r="H82" s="97"/>
     </row>
     <row r="83" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="233"/>
-      <c r="C83" s="222"/>
-      <c r="D83" s="224"/>
-      <c r="E83" s="225" t="s">
+      <c r="B83" s="240"/>
+      <c r="C83" s="244"/>
+      <c r="D83" s="230"/>
+      <c r="E83" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="226"/>
+      <c r="F83" s="224"/>
       <c r="G83" s="99"/>
       <c r="H83" s="97"/>
     </row>
     <row r="84" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="233"/>
-      <c r="C84" s="222"/>
-      <c r="D84" s="224"/>
-      <c r="E84" s="225" t="s">
+      <c r="B84" s="240"/>
+      <c r="C84" s="244"/>
+      <c r="D84" s="230"/>
+      <c r="E84" s="223" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="226"/>
+      <c r="F84" s="224"/>
       <c r="G84" s="99"/>
       <c r="H84" s="97"/>
     </row>
     <row r="85" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="234"/>
-      <c r="C85" s="223"/>
-      <c r="D85" s="219" t="s">
+      <c r="B85" s="241"/>
+      <c r="C85" s="245"/>
+      <c r="D85" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="219"/>
-      <c r="F85" s="220"/>
-      <c r="G85" s="220"/>
-      <c r="H85" s="221"/>
+      <c r="E85" s="225"/>
+      <c r="F85" s="226"/>
+      <c r="G85" s="226"/>
+      <c r="H85" s="227"/>
     </row>
     <row r="86" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="232" t="s">
+      <c r="B86" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="222">
+      <c r="C86" s="244">
         <v>45446</v>
       </c>
-      <c r="D86" s="224" t="s">
+      <c r="D86" s="230" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="225" t="s">
+      <c r="E86" s="223" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="226"/>
+      <c r="F86" s="224"/>
       <c r="G86" s="98"/>
       <c r="H86" s="97"/>
     </row>
     <row r="87" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="233"/>
-      <c r="C87" s="222"/>
-      <c r="D87" s="224"/>
-      <c r="E87" s="225" t="s">
+      <c r="B87" s="240"/>
+      <c r="C87" s="244"/>
+      <c r="D87" s="230"/>
+      <c r="E87" s="223" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="226"/>
+      <c r="F87" s="224"/>
       <c r="G87" s="98"/>
       <c r="H87" s="97"/>
     </row>
     <row r="88" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="233"/>
-      <c r="C88" s="222"/>
-      <c r="D88" s="224"/>
-      <c r="E88" s="225" t="s">
+      <c r="B88" s="240"/>
+      <c r="C88" s="244"/>
+      <c r="D88" s="230"/>
+      <c r="E88" s="223" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="226"/>
+      <c r="F88" s="224"/>
       <c r="G88" s="99"/>
       <c r="H88" s="97"/>
     </row>
     <row r="89" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="233"/>
-      <c r="C89" s="222"/>
-      <c r="D89" s="224"/>
-      <c r="E89" s="225" t="s">
+      <c r="B89" s="240"/>
+      <c r="C89" s="244"/>
+      <c r="D89" s="230"/>
+      <c r="E89" s="223" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="226"/>
+      <c r="F89" s="224"/>
       <c r="G89" s="99"/>
       <c r="H89" s="97"/>
     </row>
     <row r="90" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="234"/>
-      <c r="C90" s="223"/>
-      <c r="D90" s="219" t="s">
+      <c r="B90" s="241"/>
+      <c r="C90" s="245"/>
+      <c r="D90" s="225" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="219"/>
-      <c r="F90" s="220"/>
-      <c r="G90" s="220"/>
-      <c r="H90" s="221"/>
+      <c r="E90" s="225"/>
+      <c r="F90" s="226"/>
+      <c r="G90" s="226"/>
+      <c r="H90" s="227"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="B68:B85"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="B32:B49"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
+  <mergeCells count="158">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B50:B67"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:F24"/>
@@ -46005,47 +45984,106 @@
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="B50:B67"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B32:B49"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="G50:G53"/>
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="C55:C59"/>
     <mergeCell ref="D55:D58"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="E57:F57"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B68:B85"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H12" r:id="rId1" xr:uid="{A2C1CB60-4940-405A-AF22-2260F5964F0A}"/>
@@ -46053,9 +46091,10 @@
     <hyperlink ref="H10" r:id="rId3" xr:uid="{618F8270-C5E0-4F55-B7AA-2FD75A1D5B20}"/>
     <hyperlink ref="H11" r:id="rId4" xr:uid="{5E44CE8F-9AF2-48AB-92D2-D4A0A6B3BE16}"/>
     <hyperlink ref="H14:H15" r:id="rId5" display="https://www.figma.com" xr:uid="{8E49F496-1765-4153-A76C-D8D361FDFECC}"/>
+    <hyperlink ref="H16:H17" r:id="rId6" display="https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/doc/Sources" xr:uid="{52F5E4AB-4BE3-4501-8816-D0BBC313A2FC}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="56" orientation="landscape" r:id="rId6"/>
+  <pageSetup scale="56" orientation="landscape" r:id="rId7"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="13" max="16383" man="1"/>
   </rowBreaks>

--- a/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
+++ b/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq34bsi\Desktop\TPI-GestionApiculture\doc\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249DDB25-BA44-4A11-A4CE-20D5D6F9B888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678ACFC9-2E86-4882-83D8-01A73AF71BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="101">
   <si>
     <t>Nom, Prénom</t>
   </si>
@@ -365,6 +365,12 @@
   <si>
     <t>J'ai pris de l'avance sur ma planification en terminant la maquette assé rapidement ce qui ma permis de pouvoir bien débuté mon rapport.
 Pour l'instant je suis satisfait de l'avancement de mon TPI</t>
+  </si>
+  <si>
+    <t>Modification de la maquette, ajout d'un footer sur toutes les pages sauf celle de login</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport (Base de données, Technologies du projet, Fonctionnalités, glossaire)</t>
   </si>
 </sst>
 </file>
@@ -1662,7 +1668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="260">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1957,170 +1963,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="15" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2146,8 +1993,20 @@
     <xf numFmtId="20" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2200,23 +2059,158 @@
     <xf numFmtId="20" fontId="8" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2227,13 +2221,37 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2241,24 +2259,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2275,14 +2275,14 @@
     <xf numFmtId="165" fontId="12" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2305,17 +2305,29 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3789,74 +3801,74 @@
     </row>
     <row r="4" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="202" t="s">
+      <c r="B4" s="153" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="203"/>
-      <c r="D4" s="208" t="s">
+      <c r="C4" s="154"/>
+      <c r="D4" s="159" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="209"/>
-      <c r="F4" s="209"/>
-      <c r="G4" s="209"/>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
-      <c r="J4" s="209"/>
-      <c r="K4" s="209"/>
-      <c r="L4" s="209"/>
-      <c r="M4" s="209"/>
-      <c r="N4" s="209"/>
-      <c r="O4" s="209"/>
-      <c r="P4" s="209"/>
-      <c r="Q4" s="210" t="s">
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="210"/>
-      <c r="S4" s="210"/>
-      <c r="T4" s="210"/>
-      <c r="U4" s="210"/>
-      <c r="V4" s="210"/>
-      <c r="W4" s="210"/>
-      <c r="X4" s="210"/>
-      <c r="Y4" s="210"/>
-      <c r="Z4" s="210"/>
-      <c r="AA4" s="210"/>
-      <c r="AB4" s="210"/>
-      <c r="AC4" s="210"/>
-      <c r="AD4" s="210"/>
-      <c r="AE4" s="210"/>
-      <c r="AF4" s="210"/>
-      <c r="AG4" s="210"/>
-      <c r="AH4" s="210"/>
-      <c r="AI4" s="210"/>
-      <c r="AJ4" s="210"/>
-      <c r="AK4" s="210"/>
-      <c r="AL4" s="210"/>
-      <c r="AM4" s="210"/>
-      <c r="AN4" s="210"/>
-      <c r="AO4" s="210"/>
-      <c r="AP4" s="210"/>
-      <c r="AQ4" s="210"/>
-      <c r="AR4" s="210"/>
-      <c r="AS4" s="210"/>
-      <c r="AT4" s="210"/>
-      <c r="AU4" s="210"/>
-      <c r="AV4" s="210"/>
-      <c r="AW4" s="210"/>
-      <c r="AX4" s="210"/>
-      <c r="AY4" s="210"/>
-      <c r="AZ4" s="210"/>
-      <c r="BA4" s="210"/>
-      <c r="BB4" s="210"/>
-      <c r="BC4" s="210"/>
-      <c r="BD4" s="210"/>
-      <c r="BE4" s="210"/>
-      <c r="BF4" s="210"/>
-      <c r="BG4" s="210"/>
-      <c r="BH4" s="210"/>
-      <c r="BI4" s="210"/>
-      <c r="BJ4" s="210"/>
-      <c r="BK4" s="211"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="161"/>
+      <c r="AE4" s="161"/>
+      <c r="AF4" s="161"/>
+      <c r="AG4" s="161"/>
+      <c r="AH4" s="161"/>
+      <c r="AI4" s="161"/>
+      <c r="AJ4" s="161"/>
+      <c r="AK4" s="161"/>
+      <c r="AL4" s="161"/>
+      <c r="AM4" s="161"/>
+      <c r="AN4" s="161"/>
+      <c r="AO4" s="161"/>
+      <c r="AP4" s="161"/>
+      <c r="AQ4" s="161"/>
+      <c r="AR4" s="161"/>
+      <c r="AS4" s="161"/>
+      <c r="AT4" s="161"/>
+      <c r="AU4" s="161"/>
+      <c r="AV4" s="161"/>
+      <c r="AW4" s="161"/>
+      <c r="AX4" s="161"/>
+      <c r="AY4" s="161"/>
+      <c r="AZ4" s="161"/>
+      <c r="BA4" s="161"/>
+      <c r="BB4" s="161"/>
+      <c r="BC4" s="161"/>
+      <c r="BD4" s="161"/>
+      <c r="BE4" s="161"/>
+      <c r="BF4" s="161"/>
+      <c r="BG4" s="161"/>
+      <c r="BH4" s="161"/>
+      <c r="BI4" s="161"/>
+      <c r="BJ4" s="161"/>
+      <c r="BK4" s="162"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
@@ -4097,8 +4109,8 @@
       <c r="KO4" s="6"/>
       <c r="KP4" s="6"/>
       <c r="KQ4" s="6"/>
-      <c r="KR4" s="143"/>
-      <c r="KS4" s="143"/>
+      <c r="KR4" s="217"/>
+      <c r="KS4" s="217"/>
       <c r="KT4" s="6"/>
       <c r="KU4" s="6"/>
       <c r="KV4" s="6"/>
@@ -4372,76 +4384,76 @@
     </row>
     <row r="5" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="204"/>
-      <c r="C5" s="205"/>
-      <c r="D5" s="212" t="s">
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="213"/>
-      <c r="F5" s="213"/>
-      <c r="G5" s="213"/>
-      <c r="H5" s="213"/>
-      <c r="I5" s="213"/>
-      <c r="J5" s="213"/>
-      <c r="K5" s="213"/>
-      <c r="L5" s="213"/>
-      <c r="M5" s="213"/>
-      <c r="N5" s="213"/>
-      <c r="O5" s="213"/>
-      <c r="P5" s="213"/>
-      <c r="Q5" s="214" t="s">
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="165" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="214"/>
-      <c r="S5" s="214"/>
-      <c r="T5" s="214"/>
-      <c r="U5" s="214"/>
-      <c r="V5" s="214"/>
-      <c r="W5" s="214"/>
-      <c r="X5" s="214"/>
-      <c r="Y5" s="214"/>
-      <c r="Z5" s="214"/>
-      <c r="AA5" s="214"/>
-      <c r="AB5" s="213" t="s">
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="165"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="165"/>
+      <c r="AB5" s="164" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="213"/>
-      <c r="AD5" s="213"/>
-      <c r="AE5" s="213"/>
-      <c r="AF5" s="213"/>
-      <c r="AG5" s="213"/>
-      <c r="AH5" s="213"/>
-      <c r="AI5" s="213"/>
-      <c r="AJ5" s="213"/>
-      <c r="AK5" s="213"/>
-      <c r="AL5" s="213"/>
-      <c r="AM5" s="213"/>
-      <c r="AN5" s="213"/>
-      <c r="AO5" s="214" t="s">
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="164"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="164"/>
+      <c r="AG5" s="164"/>
+      <c r="AH5" s="164"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="164"/>
+      <c r="AK5" s="164"/>
+      <c r="AL5" s="164"/>
+      <c r="AM5" s="164"/>
+      <c r="AN5" s="164"/>
+      <c r="AO5" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="AP5" s="214"/>
-      <c r="AQ5" s="214"/>
-      <c r="AR5" s="214"/>
-      <c r="AS5" s="214"/>
-      <c r="AT5" s="214"/>
-      <c r="AU5" s="214"/>
-      <c r="AV5" s="214"/>
-      <c r="AW5" s="214"/>
-      <c r="AX5" s="214"/>
-      <c r="AY5" s="214"/>
-      <c r="AZ5" s="214"/>
-      <c r="BA5" s="214"/>
-      <c r="BB5" s="214"/>
-      <c r="BC5" s="214"/>
-      <c r="BD5" s="214"/>
-      <c r="BE5" s="214"/>
-      <c r="BF5" s="214"/>
-      <c r="BG5" s="214"/>
-      <c r="BH5" s="214"/>
-      <c r="BI5" s="214"/>
-      <c r="BJ5" s="214"/>
-      <c r="BK5" s="215"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="165"/>
+      <c r="AR5" s="165"/>
+      <c r="AS5" s="165"/>
+      <c r="AT5" s="165"/>
+      <c r="AU5" s="165"/>
+      <c r="AV5" s="165"/>
+      <c r="AW5" s="165"/>
+      <c r="AX5" s="165"/>
+      <c r="AY5" s="165"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="165"/>
+      <c r="BB5" s="165"/>
+      <c r="BC5" s="165"/>
+      <c r="BD5" s="165"/>
+      <c r="BE5" s="165"/>
+      <c r="BF5" s="165"/>
+      <c r="BG5" s="165"/>
+      <c r="BH5" s="165"/>
+      <c r="BI5" s="165"/>
+      <c r="BJ5" s="165"/>
+      <c r="BK5" s="166"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
@@ -4682,8 +4694,8 @@
       <c r="KO5" s="6"/>
       <c r="KP5" s="6"/>
       <c r="KQ5" s="6"/>
-      <c r="KR5" s="143"/>
-      <c r="KS5" s="143"/>
+      <c r="KR5" s="217"/>
+      <c r="KS5" s="217"/>
       <c r="KT5" s="6"/>
       <c r="KU5" s="6"/>
       <c r="KV5" s="6"/>
@@ -4957,76 +4969,76 @@
     </row>
     <row r="6" spans="1:575" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="206"/>
-      <c r="C6" s="207"/>
-      <c r="D6" s="216" t="s">
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="217"/>
-      <c r="F6" s="217"/>
-      <c r="G6" s="217"/>
-      <c r="H6" s="217"/>
-      <c r="I6" s="217"/>
-      <c r="J6" s="217"/>
-      <c r="K6" s="217"/>
-      <c r="L6" s="217"/>
-      <c r="M6" s="217"/>
-      <c r="N6" s="217"/>
-      <c r="O6" s="217"/>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="218" t="s">
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="168"/>
+      <c r="K6" s="168"/>
+      <c r="L6" s="168"/>
+      <c r="M6" s="168"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="168"/>
+      <c r="P6" s="168"/>
+      <c r="Q6" s="169" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="218"/>
-      <c r="S6" s="218"/>
-      <c r="T6" s="218"/>
-      <c r="U6" s="218"/>
-      <c r="V6" s="218"/>
-      <c r="W6" s="218"/>
-      <c r="X6" s="218"/>
-      <c r="Y6" s="218"/>
-      <c r="Z6" s="218"/>
-      <c r="AA6" s="218"/>
-      <c r="AB6" s="217" t="s">
+      <c r="R6" s="169"/>
+      <c r="S6" s="169"/>
+      <c r="T6" s="169"/>
+      <c r="U6" s="169"/>
+      <c r="V6" s="169"/>
+      <c r="W6" s="169"/>
+      <c r="X6" s="169"/>
+      <c r="Y6" s="169"/>
+      <c r="Z6" s="169"/>
+      <c r="AA6" s="169"/>
+      <c r="AB6" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="217"/>
-      <c r="AD6" s="217"/>
-      <c r="AE6" s="217"/>
-      <c r="AF6" s="217"/>
-      <c r="AG6" s="217"/>
-      <c r="AH6" s="217"/>
-      <c r="AI6" s="217"/>
-      <c r="AJ6" s="217"/>
-      <c r="AK6" s="217"/>
-      <c r="AL6" s="217"/>
-      <c r="AM6" s="217"/>
-      <c r="AN6" s="217"/>
-      <c r="AO6" s="193" t="s">
+      <c r="AC6" s="168"/>
+      <c r="AD6" s="168"/>
+      <c r="AE6" s="168"/>
+      <c r="AF6" s="168"/>
+      <c r="AG6" s="168"/>
+      <c r="AH6" s="168"/>
+      <c r="AI6" s="168"/>
+      <c r="AJ6" s="168"/>
+      <c r="AK6" s="168"/>
+      <c r="AL6" s="168"/>
+      <c r="AM6" s="168"/>
+      <c r="AN6" s="168"/>
+      <c r="AO6" s="140" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="193"/>
-      <c r="AQ6" s="193"/>
-      <c r="AR6" s="193"/>
-      <c r="AS6" s="193"/>
-      <c r="AT6" s="193"/>
-      <c r="AU6" s="193"/>
-      <c r="AV6" s="193"/>
-      <c r="AW6" s="193"/>
-      <c r="AX6" s="193"/>
-      <c r="AY6" s="193"/>
-      <c r="AZ6" s="193"/>
-      <c r="BA6" s="193"/>
-      <c r="BB6" s="193"/>
-      <c r="BC6" s="193"/>
-      <c r="BD6" s="193"/>
-      <c r="BE6" s="193"/>
-      <c r="BF6" s="193"/>
-      <c r="BG6" s="193"/>
-      <c r="BH6" s="193"/>
-      <c r="BI6" s="193"/>
-      <c r="BJ6" s="193"/>
-      <c r="BK6" s="194"/>
+      <c r="AP6" s="140"/>
+      <c r="AQ6" s="140"/>
+      <c r="AR6" s="140"/>
+      <c r="AS6" s="140"/>
+      <c r="AT6" s="140"/>
+      <c r="AU6" s="140"/>
+      <c r="AV6" s="140"/>
+      <c r="AW6" s="140"/>
+      <c r="AX6" s="140"/>
+      <c r="AY6" s="140"/>
+      <c r="AZ6" s="140"/>
+      <c r="BA6" s="140"/>
+      <c r="BB6" s="140"/>
+      <c r="BC6" s="140"/>
+      <c r="BD6" s="140"/>
+      <c r="BE6" s="140"/>
+      <c r="BF6" s="140"/>
+      <c r="BG6" s="140"/>
+      <c r="BH6" s="140"/>
+      <c r="BI6" s="140"/>
+      <c r="BJ6" s="140"/>
+      <c r="BK6" s="141"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8"/>
@@ -5267,8 +5279,8 @@
       <c r="KO6" s="6"/>
       <c r="KP6" s="6"/>
       <c r="KQ6" s="6"/>
-      <c r="KR6" s="143"/>
-      <c r="KS6" s="143"/>
+      <c r="KR6" s="217"/>
+      <c r="KS6" s="217"/>
       <c r="KT6" s="6"/>
       <c r="KU6" s="6"/>
       <c r="KV6" s="6"/>
@@ -5542,70 +5554,70 @@
     </row>
     <row r="7" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="196"/>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
-      <c r="S7" s="196"/>
-      <c r="T7" s="196"/>
-      <c r="U7" s="196"/>
-      <c r="V7" s="196"/>
-      <c r="W7" s="196"/>
-      <c r="X7" s="196"/>
-      <c r="Y7" s="196"/>
-      <c r="Z7" s="196"/>
-      <c r="AA7" s="196"/>
-      <c r="AB7" s="196"/>
-      <c r="AC7" s="196"/>
-      <c r="AD7" s="196"/>
-      <c r="AE7" s="196"/>
-      <c r="AF7" s="196"/>
-      <c r="AG7" s="196"/>
-      <c r="AH7" s="196"/>
-      <c r="AI7" s="196"/>
-      <c r="AJ7" s="196"/>
-      <c r="AK7" s="196"/>
-      <c r="AL7" s="196"/>
-      <c r="AM7" s="196"/>
-      <c r="AN7" s="196"/>
-      <c r="AO7" s="196"/>
-      <c r="AP7" s="196"/>
-      <c r="AQ7" s="196"/>
-      <c r="AR7" s="196"/>
-      <c r="AS7" s="196"/>
-      <c r="AT7" s="196"/>
-      <c r="AU7" s="196"/>
-      <c r="AV7" s="196"/>
-      <c r="AW7" s="196"/>
-      <c r="AX7" s="196"/>
-      <c r="AY7" s="196"/>
-      <c r="AZ7" s="196"/>
-      <c r="BA7" s="196"/>
-      <c r="BB7" s="196"/>
-      <c r="BC7" s="196"/>
-      <c r="BD7" s="196"/>
-      <c r="BE7" s="196"/>
-      <c r="BF7" s="196"/>
-      <c r="BG7" s="196"/>
-      <c r="BH7" s="196"/>
-      <c r="BI7" s="196"/>
-      <c r="BJ7" s="196"/>
-      <c r="BK7" s="197"/>
+      <c r="C7" s="143"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="143"/>
+      <c r="K7" s="143"/>
+      <c r="L7" s="143"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="143"/>
+      <c r="O7" s="143"/>
+      <c r="P7" s="143"/>
+      <c r="Q7" s="143"/>
+      <c r="R7" s="143"/>
+      <c r="S7" s="143"/>
+      <c r="T7" s="143"/>
+      <c r="U7" s="143"/>
+      <c r="V7" s="143"/>
+      <c r="W7" s="143"/>
+      <c r="X7" s="143"/>
+      <c r="Y7" s="143"/>
+      <c r="Z7" s="143"/>
+      <c r="AA7" s="143"/>
+      <c r="AB7" s="143"/>
+      <c r="AC7" s="143"/>
+      <c r="AD7" s="143"/>
+      <c r="AE7" s="143"/>
+      <c r="AF7" s="143"/>
+      <c r="AG7" s="143"/>
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="143"/>
+      <c r="AJ7" s="143"/>
+      <c r="AK7" s="143"/>
+      <c r="AL7" s="143"/>
+      <c r="AM7" s="143"/>
+      <c r="AN7" s="143"/>
+      <c r="AO7" s="143"/>
+      <c r="AP7" s="143"/>
+      <c r="AQ7" s="143"/>
+      <c r="AR7" s="143"/>
+      <c r="AS7" s="143"/>
+      <c r="AT7" s="143"/>
+      <c r="AU7" s="143"/>
+      <c r="AV7" s="143"/>
+      <c r="AW7" s="143"/>
+      <c r="AX7" s="143"/>
+      <c r="AY7" s="143"/>
+      <c r="AZ7" s="143"/>
+      <c r="BA7" s="143"/>
+      <c r="BB7" s="143"/>
+      <c r="BC7" s="143"/>
+      <c r="BD7" s="143"/>
+      <c r="BE7" s="143"/>
+      <c r="BF7" s="143"/>
+      <c r="BG7" s="143"/>
+      <c r="BH7" s="143"/>
+      <c r="BI7" s="143"/>
+      <c r="BJ7" s="143"/>
+      <c r="BK7" s="144"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9"/>
@@ -6121,68 +6133,68 @@
     </row>
     <row r="8" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="195"/>
-      <c r="C8" s="196"/>
-      <c r="D8" s="196"/>
-      <c r="E8" s="196"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="196"/>
-      <c r="N8" s="196"/>
-      <c r="O8" s="196"/>
-      <c r="P8" s="196"/>
-      <c r="Q8" s="196"/>
-      <c r="R8" s="196"/>
-      <c r="S8" s="196"/>
-      <c r="T8" s="196"/>
-      <c r="U8" s="196"/>
-      <c r="V8" s="196"/>
-      <c r="W8" s="196"/>
-      <c r="X8" s="196"/>
-      <c r="Y8" s="196"/>
-      <c r="Z8" s="196"/>
-      <c r="AA8" s="196"/>
-      <c r="AB8" s="196"/>
-      <c r="AC8" s="196"/>
-      <c r="AD8" s="196"/>
-      <c r="AE8" s="196"/>
-      <c r="AF8" s="196"/>
-      <c r="AG8" s="196"/>
-      <c r="AH8" s="196"/>
-      <c r="AI8" s="196"/>
-      <c r="AJ8" s="196"/>
-      <c r="AK8" s="196"/>
-      <c r="AL8" s="196"/>
-      <c r="AM8" s="196"/>
-      <c r="AN8" s="196"/>
-      <c r="AO8" s="196"/>
-      <c r="AP8" s="196"/>
-      <c r="AQ8" s="196"/>
-      <c r="AR8" s="196"/>
-      <c r="AS8" s="196"/>
-      <c r="AT8" s="196"/>
-      <c r="AU8" s="196"/>
-      <c r="AV8" s="196"/>
-      <c r="AW8" s="196"/>
-      <c r="AX8" s="196"/>
-      <c r="AY8" s="196"/>
-      <c r="AZ8" s="196"/>
-      <c r="BA8" s="196"/>
-      <c r="BB8" s="196"/>
-      <c r="BC8" s="196"/>
-      <c r="BD8" s="196"/>
-      <c r="BE8" s="196"/>
-      <c r="BF8" s="196"/>
-      <c r="BG8" s="196"/>
-      <c r="BH8" s="196"/>
-      <c r="BI8" s="196"/>
-      <c r="BJ8" s="196"/>
-      <c r="BK8" s="197"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="143"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="143"/>
+      <c r="J8" s="143"/>
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="143"/>
+      <c r="Q8" s="143"/>
+      <c r="R8" s="143"/>
+      <c r="S8" s="143"/>
+      <c r="T8" s="143"/>
+      <c r="U8" s="143"/>
+      <c r="V8" s="143"/>
+      <c r="W8" s="143"/>
+      <c r="X8" s="143"/>
+      <c r="Y8" s="143"/>
+      <c r="Z8" s="143"/>
+      <c r="AA8" s="143"/>
+      <c r="AB8" s="143"/>
+      <c r="AC8" s="143"/>
+      <c r="AD8" s="143"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="143"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="143"/>
+      <c r="AI8" s="143"/>
+      <c r="AJ8" s="143"/>
+      <c r="AK8" s="143"/>
+      <c r="AL8" s="143"/>
+      <c r="AM8" s="143"/>
+      <c r="AN8" s="143"/>
+      <c r="AO8" s="143"/>
+      <c r="AP8" s="143"/>
+      <c r="AQ8" s="143"/>
+      <c r="AR8" s="143"/>
+      <c r="AS8" s="143"/>
+      <c r="AT8" s="143"/>
+      <c r="AU8" s="143"/>
+      <c r="AV8" s="143"/>
+      <c r="AW8" s="143"/>
+      <c r="AX8" s="143"/>
+      <c r="AY8" s="143"/>
+      <c r="AZ8" s="143"/>
+      <c r="BA8" s="143"/>
+      <c r="BB8" s="143"/>
+      <c r="BC8" s="143"/>
+      <c r="BD8" s="143"/>
+      <c r="BE8" s="143"/>
+      <c r="BF8" s="143"/>
+      <c r="BG8" s="143"/>
+      <c r="BH8" s="143"/>
+      <c r="BI8" s="143"/>
+      <c r="BJ8" s="143"/>
+      <c r="BK8" s="144"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
@@ -6698,68 +6710,68 @@
     </row>
     <row r="9" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
-      <c r="E9" s="199"/>
-      <c r="F9" s="199"/>
-      <c r="G9" s="199"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="199"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="199"/>
-      <c r="L9" s="199"/>
-      <c r="M9" s="199"/>
-      <c r="N9" s="199"/>
-      <c r="O9" s="199"/>
-      <c r="P9" s="199"/>
-      <c r="Q9" s="199"/>
-      <c r="R9" s="199"/>
-      <c r="S9" s="199"/>
-      <c r="T9" s="199"/>
-      <c r="U9" s="199"/>
-      <c r="V9" s="199"/>
-      <c r="W9" s="199"/>
-      <c r="X9" s="199"/>
-      <c r="Y9" s="199"/>
-      <c r="Z9" s="199"/>
-      <c r="AA9" s="199"/>
-      <c r="AB9" s="199"/>
-      <c r="AC9" s="199"/>
-      <c r="AD9" s="199"/>
-      <c r="AE9" s="199"/>
-      <c r="AF9" s="199"/>
-      <c r="AG9" s="199"/>
-      <c r="AH9" s="199"/>
-      <c r="AI9" s="199"/>
-      <c r="AJ9" s="199"/>
-      <c r="AK9" s="199"/>
-      <c r="AL9" s="199"/>
-      <c r="AM9" s="199"/>
-      <c r="AN9" s="199"/>
-      <c r="AO9" s="199"/>
-      <c r="AP9" s="199"/>
-      <c r="AQ9" s="199"/>
-      <c r="AR9" s="199"/>
-      <c r="AS9" s="199"/>
-      <c r="AT9" s="199"/>
-      <c r="AU9" s="199"/>
-      <c r="AV9" s="199"/>
-      <c r="AW9" s="199"/>
-      <c r="AX9" s="199"/>
-      <c r="AY9" s="199"/>
-      <c r="AZ9" s="199"/>
-      <c r="BA9" s="199"/>
-      <c r="BB9" s="199"/>
-      <c r="BC9" s="199"/>
-      <c r="BD9" s="199"/>
-      <c r="BE9" s="199"/>
-      <c r="BF9" s="199"/>
-      <c r="BG9" s="199"/>
-      <c r="BH9" s="199"/>
-      <c r="BI9" s="199"/>
-      <c r="BJ9" s="199"/>
-      <c r="BK9" s="200"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="146"/>
+      <c r="G9" s="146"/>
+      <c r="H9" s="146"/>
+      <c r="I9" s="146"/>
+      <c r="J9" s="146"/>
+      <c r="K9" s="146"/>
+      <c r="L9" s="146"/>
+      <c r="M9" s="146"/>
+      <c r="N9" s="146"/>
+      <c r="O9" s="146"/>
+      <c r="P9" s="146"/>
+      <c r="Q9" s="146"/>
+      <c r="R9" s="146"/>
+      <c r="S9" s="146"/>
+      <c r="T9" s="146"/>
+      <c r="U9" s="146"/>
+      <c r="V9" s="146"/>
+      <c r="W9" s="146"/>
+      <c r="X9" s="146"/>
+      <c r="Y9" s="146"/>
+      <c r="Z9" s="146"/>
+      <c r="AA9" s="146"/>
+      <c r="AB9" s="146"/>
+      <c r="AC9" s="146"/>
+      <c r="AD9" s="146"/>
+      <c r="AE9" s="146"/>
+      <c r="AF9" s="146"/>
+      <c r="AG9" s="146"/>
+      <c r="AH9" s="146"/>
+      <c r="AI9" s="146"/>
+      <c r="AJ9" s="146"/>
+      <c r="AK9" s="146"/>
+      <c r="AL9" s="146"/>
+      <c r="AM9" s="146"/>
+      <c r="AN9" s="146"/>
+      <c r="AO9" s="146"/>
+      <c r="AP9" s="146"/>
+      <c r="AQ9" s="146"/>
+      <c r="AR9" s="146"/>
+      <c r="AS9" s="146"/>
+      <c r="AT9" s="146"/>
+      <c r="AU9" s="146"/>
+      <c r="AV9" s="146"/>
+      <c r="AW9" s="146"/>
+      <c r="AX9" s="146"/>
+      <c r="AY9" s="146"/>
+      <c r="AZ9" s="146"/>
+      <c r="BA9" s="146"/>
+      <c r="BB9" s="146"/>
+      <c r="BC9" s="146"/>
+      <c r="BD9" s="146"/>
+      <c r="BE9" s="146"/>
+      <c r="BF9" s="146"/>
+      <c r="BG9" s="146"/>
+      <c r="BH9" s="146"/>
+      <c r="BI9" s="146"/>
+      <c r="BJ9" s="146"/>
+      <c r="BK9" s="147"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
@@ -8429,2491 +8441,2491 @@
     </row>
     <row r="12" spans="1:575" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="201"/>
-      <c r="D12" s="184" t="s">
+      <c r="C12" s="149"/>
+      <c r="D12" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="185"/>
-      <c r="F12" s="185"/>
-      <c r="G12" s="185"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="185"/>
-      <c r="J12" s="185"/>
-      <c r="K12" s="185"/>
-      <c r="L12" s="185"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="185"/>
-      <c r="O12" s="185"/>
-      <c r="P12" s="185"/>
-      <c r="Q12" s="185"/>
-      <c r="R12" s="185"/>
-      <c r="S12" s="185"/>
-      <c r="T12" s="185"/>
-      <c r="U12" s="185"/>
-      <c r="V12" s="185"/>
-      <c r="W12" s="185"/>
-      <c r="X12" s="185"/>
-      <c r="Y12" s="185"/>
-      <c r="Z12" s="185"/>
-      <c r="AA12" s="185"/>
-      <c r="AB12" s="185"/>
-      <c r="AC12" s="185"/>
-      <c r="AD12" s="185"/>
-      <c r="AE12" s="185"/>
-      <c r="AF12" s="185"/>
-      <c r="AG12" s="185"/>
-      <c r="AH12" s="185"/>
-      <c r="AI12" s="185"/>
-      <c r="AJ12" s="185"/>
-      <c r="AK12" s="185"/>
-      <c r="AL12" s="185"/>
-      <c r="AM12" s="185"/>
-      <c r="AN12" s="185"/>
-      <c r="AO12" s="185"/>
-      <c r="AP12" s="185"/>
-      <c r="AQ12" s="185"/>
-      <c r="AR12" s="185"/>
-      <c r="AS12" s="185"/>
-      <c r="AT12" s="185"/>
-      <c r="AU12" s="185"/>
-      <c r="AV12" s="185"/>
-      <c r="AW12" s="185"/>
-      <c r="AX12" s="185"/>
-      <c r="AY12" s="185"/>
-      <c r="AZ12" s="185"/>
-      <c r="BA12" s="185"/>
-      <c r="BB12" s="185"/>
-      <c r="BC12" s="185"/>
-      <c r="BD12" s="185"/>
-      <c r="BE12" s="185"/>
-      <c r="BF12" s="185"/>
-      <c r="BG12" s="185"/>
-      <c r="BH12" s="185"/>
-      <c r="BI12" s="185"/>
-      <c r="BJ12" s="185"/>
-      <c r="BK12" s="185"/>
-      <c r="BL12" s="184" t="s">
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
+      <c r="I12" s="151"/>
+      <c r="J12" s="151"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="151"/>
+      <c r="M12" s="151"/>
+      <c r="N12" s="151"/>
+      <c r="O12" s="151"/>
+      <c r="P12" s="151"/>
+      <c r="Q12" s="151"/>
+      <c r="R12" s="151"/>
+      <c r="S12" s="151"/>
+      <c r="T12" s="151"/>
+      <c r="U12" s="151"/>
+      <c r="V12" s="151"/>
+      <c r="W12" s="151"/>
+      <c r="X12" s="151"/>
+      <c r="Y12" s="151"/>
+      <c r="Z12" s="151"/>
+      <c r="AA12" s="151"/>
+      <c r="AB12" s="151"/>
+      <c r="AC12" s="151"/>
+      <c r="AD12" s="151"/>
+      <c r="AE12" s="151"/>
+      <c r="AF12" s="151"/>
+      <c r="AG12" s="151"/>
+      <c r="AH12" s="151"/>
+      <c r="AI12" s="151"/>
+      <c r="AJ12" s="151"/>
+      <c r="AK12" s="151"/>
+      <c r="AL12" s="151"/>
+      <c r="AM12" s="151"/>
+      <c r="AN12" s="151"/>
+      <c r="AO12" s="151"/>
+      <c r="AP12" s="151"/>
+      <c r="AQ12" s="151"/>
+      <c r="AR12" s="151"/>
+      <c r="AS12" s="151"/>
+      <c r="AT12" s="151"/>
+      <c r="AU12" s="151"/>
+      <c r="AV12" s="151"/>
+      <c r="AW12" s="151"/>
+      <c r="AX12" s="151"/>
+      <c r="AY12" s="151"/>
+      <c r="AZ12" s="151"/>
+      <c r="BA12" s="151"/>
+      <c r="BB12" s="151"/>
+      <c r="BC12" s="151"/>
+      <c r="BD12" s="151"/>
+      <c r="BE12" s="151"/>
+      <c r="BF12" s="151"/>
+      <c r="BG12" s="151"/>
+      <c r="BH12" s="151"/>
+      <c r="BI12" s="151"/>
+      <c r="BJ12" s="151"/>
+      <c r="BK12" s="151"/>
+      <c r="BL12" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="BM12" s="185"/>
-      <c r="BN12" s="185"/>
-      <c r="BO12" s="185"/>
-      <c r="BP12" s="185"/>
-      <c r="BQ12" s="185"/>
-      <c r="BR12" s="185"/>
-      <c r="BS12" s="185"/>
-      <c r="BT12" s="185"/>
-      <c r="BU12" s="185"/>
-      <c r="BV12" s="185"/>
-      <c r="BW12" s="185"/>
-      <c r="BX12" s="185"/>
-      <c r="BY12" s="185"/>
-      <c r="BZ12" s="185"/>
-      <c r="CA12" s="185"/>
-      <c r="CB12" s="185"/>
-      <c r="CC12" s="185"/>
-      <c r="CD12" s="185"/>
-      <c r="CE12" s="185"/>
-      <c r="CF12" s="185"/>
-      <c r="CG12" s="185"/>
-      <c r="CH12" s="185"/>
-      <c r="CI12" s="185"/>
-      <c r="CJ12" s="185"/>
-      <c r="CK12" s="185"/>
-      <c r="CL12" s="185"/>
-      <c r="CM12" s="185"/>
-      <c r="CN12" s="185"/>
-      <c r="CO12" s="185"/>
-      <c r="CP12" s="185"/>
-      <c r="CQ12" s="185"/>
-      <c r="CR12" s="185"/>
-      <c r="CS12" s="185"/>
-      <c r="CT12" s="185"/>
-      <c r="CU12" s="185"/>
-      <c r="CV12" s="185"/>
-      <c r="CW12" s="185"/>
-      <c r="CX12" s="185"/>
-      <c r="CY12" s="185"/>
-      <c r="CZ12" s="185"/>
-      <c r="DA12" s="185"/>
-      <c r="DB12" s="185"/>
-      <c r="DC12" s="185"/>
-      <c r="DD12" s="185"/>
-      <c r="DE12" s="185"/>
-      <c r="DF12" s="185"/>
-      <c r="DG12" s="185"/>
-      <c r="DH12" s="185"/>
-      <c r="DI12" s="185"/>
-      <c r="DJ12" s="185"/>
-      <c r="DK12" s="185"/>
-      <c r="DL12" s="185"/>
-      <c r="DM12" s="185"/>
-      <c r="DN12" s="185"/>
-      <c r="DO12" s="185"/>
-      <c r="DP12" s="185"/>
-      <c r="DQ12" s="185"/>
-      <c r="DR12" s="185"/>
-      <c r="DS12" s="185"/>
-      <c r="DT12" s="185"/>
-      <c r="DU12" s="185"/>
-      <c r="DV12" s="185"/>
-      <c r="DW12" s="185"/>
-      <c r="DX12" s="185"/>
-      <c r="DY12" s="185"/>
-      <c r="DZ12" s="185"/>
-      <c r="EA12" s="185"/>
-      <c r="EB12" s="185"/>
-      <c r="EC12" s="185"/>
-      <c r="ED12" s="185"/>
-      <c r="EE12" s="185"/>
-      <c r="EF12" s="185"/>
-      <c r="EG12" s="185"/>
-      <c r="EH12" s="185"/>
-      <c r="EI12" s="185"/>
-      <c r="EJ12" s="185"/>
-      <c r="EK12" s="185"/>
-      <c r="EL12" s="185"/>
-      <c r="EM12" s="185"/>
-      <c r="EN12" s="185"/>
-      <c r="EO12" s="185"/>
-      <c r="EP12" s="185"/>
-      <c r="EQ12" s="185"/>
-      <c r="ER12" s="185"/>
-      <c r="ES12" s="185"/>
-      <c r="ET12" s="185"/>
-      <c r="EU12" s="185"/>
-      <c r="EV12" s="185"/>
-      <c r="EW12" s="185"/>
-      <c r="EX12" s="185"/>
-      <c r="EY12" s="185"/>
-      <c r="EZ12" s="185"/>
-      <c r="FA12" s="185"/>
-      <c r="FB12" s="185"/>
-      <c r="FC12" s="185"/>
-      <c r="FD12" s="185"/>
-      <c r="FE12" s="185"/>
-      <c r="FF12" s="185"/>
-      <c r="FG12" s="185"/>
-      <c r="FH12" s="185"/>
-      <c r="FI12" s="185"/>
-      <c r="FJ12" s="185"/>
-      <c r="FK12" s="185"/>
-      <c r="FL12" s="185"/>
-      <c r="FM12" s="185"/>
-      <c r="FN12" s="185"/>
-      <c r="FO12" s="185"/>
-      <c r="FP12" s="185"/>
-      <c r="FQ12" s="185"/>
-      <c r="FR12" s="185"/>
-      <c r="FS12" s="185"/>
-      <c r="FT12" s="185"/>
-      <c r="FU12" s="185"/>
-      <c r="FV12" s="185"/>
-      <c r="FW12" s="185"/>
-      <c r="FX12" s="185"/>
-      <c r="FY12" s="185"/>
-      <c r="FZ12" s="185"/>
-      <c r="GA12" s="185"/>
-      <c r="GB12" s="184" t="s">
+      <c r="BM12" s="151"/>
+      <c r="BN12" s="151"/>
+      <c r="BO12" s="151"/>
+      <c r="BP12" s="151"/>
+      <c r="BQ12" s="151"/>
+      <c r="BR12" s="151"/>
+      <c r="BS12" s="151"/>
+      <c r="BT12" s="151"/>
+      <c r="BU12" s="151"/>
+      <c r="BV12" s="151"/>
+      <c r="BW12" s="151"/>
+      <c r="BX12" s="151"/>
+      <c r="BY12" s="151"/>
+      <c r="BZ12" s="151"/>
+      <c r="CA12" s="151"/>
+      <c r="CB12" s="151"/>
+      <c r="CC12" s="151"/>
+      <c r="CD12" s="151"/>
+      <c r="CE12" s="151"/>
+      <c r="CF12" s="151"/>
+      <c r="CG12" s="151"/>
+      <c r="CH12" s="151"/>
+      <c r="CI12" s="151"/>
+      <c r="CJ12" s="151"/>
+      <c r="CK12" s="151"/>
+      <c r="CL12" s="151"/>
+      <c r="CM12" s="151"/>
+      <c r="CN12" s="151"/>
+      <c r="CO12" s="151"/>
+      <c r="CP12" s="151"/>
+      <c r="CQ12" s="151"/>
+      <c r="CR12" s="151"/>
+      <c r="CS12" s="151"/>
+      <c r="CT12" s="151"/>
+      <c r="CU12" s="151"/>
+      <c r="CV12" s="151"/>
+      <c r="CW12" s="151"/>
+      <c r="CX12" s="151"/>
+      <c r="CY12" s="151"/>
+      <c r="CZ12" s="151"/>
+      <c r="DA12" s="151"/>
+      <c r="DB12" s="151"/>
+      <c r="DC12" s="151"/>
+      <c r="DD12" s="151"/>
+      <c r="DE12" s="151"/>
+      <c r="DF12" s="151"/>
+      <c r="DG12" s="151"/>
+      <c r="DH12" s="151"/>
+      <c r="DI12" s="151"/>
+      <c r="DJ12" s="151"/>
+      <c r="DK12" s="151"/>
+      <c r="DL12" s="151"/>
+      <c r="DM12" s="151"/>
+      <c r="DN12" s="151"/>
+      <c r="DO12" s="151"/>
+      <c r="DP12" s="151"/>
+      <c r="DQ12" s="151"/>
+      <c r="DR12" s="151"/>
+      <c r="DS12" s="151"/>
+      <c r="DT12" s="151"/>
+      <c r="DU12" s="151"/>
+      <c r="DV12" s="151"/>
+      <c r="DW12" s="151"/>
+      <c r="DX12" s="151"/>
+      <c r="DY12" s="151"/>
+      <c r="DZ12" s="151"/>
+      <c r="EA12" s="151"/>
+      <c r="EB12" s="151"/>
+      <c r="EC12" s="151"/>
+      <c r="ED12" s="151"/>
+      <c r="EE12" s="151"/>
+      <c r="EF12" s="151"/>
+      <c r="EG12" s="151"/>
+      <c r="EH12" s="151"/>
+      <c r="EI12" s="151"/>
+      <c r="EJ12" s="151"/>
+      <c r="EK12" s="151"/>
+      <c r="EL12" s="151"/>
+      <c r="EM12" s="151"/>
+      <c r="EN12" s="151"/>
+      <c r="EO12" s="151"/>
+      <c r="EP12" s="151"/>
+      <c r="EQ12" s="151"/>
+      <c r="ER12" s="151"/>
+      <c r="ES12" s="151"/>
+      <c r="ET12" s="151"/>
+      <c r="EU12" s="151"/>
+      <c r="EV12" s="151"/>
+      <c r="EW12" s="151"/>
+      <c r="EX12" s="151"/>
+      <c r="EY12" s="151"/>
+      <c r="EZ12" s="151"/>
+      <c r="FA12" s="151"/>
+      <c r="FB12" s="151"/>
+      <c r="FC12" s="151"/>
+      <c r="FD12" s="151"/>
+      <c r="FE12" s="151"/>
+      <c r="FF12" s="151"/>
+      <c r="FG12" s="151"/>
+      <c r="FH12" s="151"/>
+      <c r="FI12" s="151"/>
+      <c r="FJ12" s="151"/>
+      <c r="FK12" s="151"/>
+      <c r="FL12" s="151"/>
+      <c r="FM12" s="151"/>
+      <c r="FN12" s="151"/>
+      <c r="FO12" s="151"/>
+      <c r="FP12" s="151"/>
+      <c r="FQ12" s="151"/>
+      <c r="FR12" s="151"/>
+      <c r="FS12" s="151"/>
+      <c r="FT12" s="151"/>
+      <c r="FU12" s="151"/>
+      <c r="FV12" s="151"/>
+      <c r="FW12" s="151"/>
+      <c r="FX12" s="151"/>
+      <c r="FY12" s="151"/>
+      <c r="FZ12" s="151"/>
+      <c r="GA12" s="151"/>
+      <c r="GB12" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="GC12" s="185"/>
-      <c r="GD12" s="185"/>
-      <c r="GE12" s="185"/>
-      <c r="GF12" s="185"/>
-      <c r="GG12" s="185"/>
-      <c r="GH12" s="185"/>
-      <c r="GI12" s="185"/>
-      <c r="GJ12" s="185"/>
-      <c r="GK12" s="185"/>
-      <c r="GL12" s="185"/>
-      <c r="GM12" s="185"/>
-      <c r="GN12" s="185"/>
-      <c r="GO12" s="185"/>
-      <c r="GP12" s="185"/>
-      <c r="GQ12" s="185"/>
-      <c r="GR12" s="185"/>
-      <c r="GS12" s="185"/>
-      <c r="GT12" s="185"/>
-      <c r="GU12" s="185"/>
-      <c r="GV12" s="185"/>
-      <c r="GW12" s="185"/>
-      <c r="GX12" s="185"/>
-      <c r="GY12" s="185"/>
-      <c r="GZ12" s="185"/>
-      <c r="HA12" s="185"/>
-      <c r="HB12" s="185"/>
-      <c r="HC12" s="185"/>
-      <c r="HD12" s="185"/>
-      <c r="HE12" s="185"/>
-      <c r="HF12" s="185"/>
-      <c r="HG12" s="185"/>
-      <c r="HH12" s="185"/>
-      <c r="HI12" s="185"/>
-      <c r="HJ12" s="185"/>
-      <c r="HK12" s="185"/>
-      <c r="HL12" s="185"/>
-      <c r="HM12" s="185"/>
-      <c r="HN12" s="185"/>
-      <c r="HO12" s="185"/>
-      <c r="HP12" s="185"/>
-      <c r="HQ12" s="185"/>
-      <c r="HR12" s="185"/>
-      <c r="HS12" s="185"/>
-      <c r="HT12" s="185"/>
-      <c r="HU12" s="185"/>
-      <c r="HV12" s="185"/>
-      <c r="HW12" s="185"/>
-      <c r="HX12" s="185"/>
-      <c r="HY12" s="185"/>
-      <c r="HZ12" s="185"/>
-      <c r="IA12" s="185"/>
-      <c r="IB12" s="185"/>
-      <c r="IC12" s="185"/>
-      <c r="ID12" s="185"/>
-      <c r="IE12" s="185"/>
-      <c r="IF12" s="185"/>
-      <c r="IG12" s="185"/>
-      <c r="IH12" s="185"/>
-      <c r="II12" s="185"/>
-      <c r="IJ12" s="185"/>
-      <c r="IK12" s="185"/>
-      <c r="IL12" s="185"/>
-      <c r="IM12" s="185"/>
-      <c r="IN12" s="185"/>
-      <c r="IO12" s="185"/>
-      <c r="IP12" s="185"/>
-      <c r="IQ12" s="185"/>
-      <c r="IR12" s="185"/>
-      <c r="IS12" s="185"/>
-      <c r="IT12" s="185"/>
-      <c r="IU12" s="185"/>
-      <c r="IV12" s="185"/>
-      <c r="IW12" s="185"/>
-      <c r="IX12" s="185"/>
-      <c r="IY12" s="185"/>
-      <c r="IZ12" s="185"/>
-      <c r="JA12" s="185"/>
-      <c r="JB12" s="185"/>
-      <c r="JC12" s="185"/>
-      <c r="JD12" s="185"/>
-      <c r="JE12" s="185"/>
-      <c r="JF12" s="185"/>
-      <c r="JG12" s="185"/>
-      <c r="JH12" s="185"/>
-      <c r="JI12" s="185"/>
-      <c r="JJ12" s="185"/>
-      <c r="JK12" s="185"/>
-      <c r="JL12" s="185"/>
-      <c r="JM12" s="185"/>
-      <c r="JN12" s="185"/>
-      <c r="JO12" s="185"/>
-      <c r="JP12" s="185"/>
-      <c r="JQ12" s="185"/>
-      <c r="JR12" s="185"/>
-      <c r="JS12" s="185"/>
-      <c r="JT12" s="185"/>
-      <c r="JU12" s="185"/>
-      <c r="JV12" s="185"/>
-      <c r="JW12" s="185"/>
-      <c r="JX12" s="185"/>
-      <c r="JY12" s="185"/>
-      <c r="JZ12" s="185"/>
-      <c r="KA12" s="185"/>
-      <c r="KB12" s="185"/>
-      <c r="KC12" s="185"/>
-      <c r="KD12" s="185"/>
-      <c r="KE12" s="185"/>
-      <c r="KF12" s="185"/>
-      <c r="KG12" s="185"/>
-      <c r="KH12" s="185"/>
-      <c r="KI12" s="185"/>
-      <c r="KJ12" s="185"/>
-      <c r="KK12" s="185"/>
-      <c r="KL12" s="185"/>
-      <c r="KM12" s="185"/>
-      <c r="KN12" s="185"/>
-      <c r="KO12" s="185"/>
-      <c r="KP12" s="185"/>
-      <c r="KQ12" s="186"/>
-      <c r="KR12" s="144" t="s">
+      <c r="GC12" s="151"/>
+      <c r="GD12" s="151"/>
+      <c r="GE12" s="151"/>
+      <c r="GF12" s="151"/>
+      <c r="GG12" s="151"/>
+      <c r="GH12" s="151"/>
+      <c r="GI12" s="151"/>
+      <c r="GJ12" s="151"/>
+      <c r="GK12" s="151"/>
+      <c r="GL12" s="151"/>
+      <c r="GM12" s="151"/>
+      <c r="GN12" s="151"/>
+      <c r="GO12" s="151"/>
+      <c r="GP12" s="151"/>
+      <c r="GQ12" s="151"/>
+      <c r="GR12" s="151"/>
+      <c r="GS12" s="151"/>
+      <c r="GT12" s="151"/>
+      <c r="GU12" s="151"/>
+      <c r="GV12" s="151"/>
+      <c r="GW12" s="151"/>
+      <c r="GX12" s="151"/>
+      <c r="GY12" s="151"/>
+      <c r="GZ12" s="151"/>
+      <c r="HA12" s="151"/>
+      <c r="HB12" s="151"/>
+      <c r="HC12" s="151"/>
+      <c r="HD12" s="151"/>
+      <c r="HE12" s="151"/>
+      <c r="HF12" s="151"/>
+      <c r="HG12" s="151"/>
+      <c r="HH12" s="151"/>
+      <c r="HI12" s="151"/>
+      <c r="HJ12" s="151"/>
+      <c r="HK12" s="151"/>
+      <c r="HL12" s="151"/>
+      <c r="HM12" s="151"/>
+      <c r="HN12" s="151"/>
+      <c r="HO12" s="151"/>
+      <c r="HP12" s="151"/>
+      <c r="HQ12" s="151"/>
+      <c r="HR12" s="151"/>
+      <c r="HS12" s="151"/>
+      <c r="HT12" s="151"/>
+      <c r="HU12" s="151"/>
+      <c r="HV12" s="151"/>
+      <c r="HW12" s="151"/>
+      <c r="HX12" s="151"/>
+      <c r="HY12" s="151"/>
+      <c r="HZ12" s="151"/>
+      <c r="IA12" s="151"/>
+      <c r="IB12" s="151"/>
+      <c r="IC12" s="151"/>
+      <c r="ID12" s="151"/>
+      <c r="IE12" s="151"/>
+      <c r="IF12" s="151"/>
+      <c r="IG12" s="151"/>
+      <c r="IH12" s="151"/>
+      <c r="II12" s="151"/>
+      <c r="IJ12" s="151"/>
+      <c r="IK12" s="151"/>
+      <c r="IL12" s="151"/>
+      <c r="IM12" s="151"/>
+      <c r="IN12" s="151"/>
+      <c r="IO12" s="151"/>
+      <c r="IP12" s="151"/>
+      <c r="IQ12" s="151"/>
+      <c r="IR12" s="151"/>
+      <c r="IS12" s="151"/>
+      <c r="IT12" s="151"/>
+      <c r="IU12" s="151"/>
+      <c r="IV12" s="151"/>
+      <c r="IW12" s="151"/>
+      <c r="IX12" s="151"/>
+      <c r="IY12" s="151"/>
+      <c r="IZ12" s="151"/>
+      <c r="JA12" s="151"/>
+      <c r="JB12" s="151"/>
+      <c r="JC12" s="151"/>
+      <c r="JD12" s="151"/>
+      <c r="JE12" s="151"/>
+      <c r="JF12" s="151"/>
+      <c r="JG12" s="151"/>
+      <c r="JH12" s="151"/>
+      <c r="JI12" s="151"/>
+      <c r="JJ12" s="151"/>
+      <c r="JK12" s="151"/>
+      <c r="JL12" s="151"/>
+      <c r="JM12" s="151"/>
+      <c r="JN12" s="151"/>
+      <c r="JO12" s="151"/>
+      <c r="JP12" s="151"/>
+      <c r="JQ12" s="151"/>
+      <c r="JR12" s="151"/>
+      <c r="JS12" s="151"/>
+      <c r="JT12" s="151"/>
+      <c r="JU12" s="151"/>
+      <c r="JV12" s="151"/>
+      <c r="JW12" s="151"/>
+      <c r="JX12" s="151"/>
+      <c r="JY12" s="151"/>
+      <c r="JZ12" s="151"/>
+      <c r="KA12" s="151"/>
+      <c r="KB12" s="151"/>
+      <c r="KC12" s="151"/>
+      <c r="KD12" s="151"/>
+      <c r="KE12" s="151"/>
+      <c r="KF12" s="151"/>
+      <c r="KG12" s="151"/>
+      <c r="KH12" s="151"/>
+      <c r="KI12" s="151"/>
+      <c r="KJ12" s="151"/>
+      <c r="KK12" s="151"/>
+      <c r="KL12" s="151"/>
+      <c r="KM12" s="151"/>
+      <c r="KN12" s="151"/>
+      <c r="KO12" s="151"/>
+      <c r="KP12" s="151"/>
+      <c r="KQ12" s="152"/>
+      <c r="KR12" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="KS12" s="145"/>
-      <c r="KT12" s="184" t="s">
+      <c r="KS12" s="218"/>
+      <c r="KT12" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="KU12" s="185"/>
-      <c r="KV12" s="185"/>
-      <c r="KW12" s="185"/>
-      <c r="KX12" s="185"/>
-      <c r="KY12" s="185"/>
-      <c r="KZ12" s="185"/>
-      <c r="LA12" s="185"/>
-      <c r="LB12" s="185"/>
-      <c r="LC12" s="185"/>
-      <c r="LD12" s="185"/>
-      <c r="LE12" s="185"/>
-      <c r="LF12" s="185"/>
-      <c r="LG12" s="185"/>
-      <c r="LH12" s="185"/>
-      <c r="LI12" s="185"/>
-      <c r="LJ12" s="185"/>
-      <c r="LK12" s="185"/>
-      <c r="LL12" s="185"/>
-      <c r="LM12" s="185"/>
-      <c r="LN12" s="185"/>
-      <c r="LO12" s="185"/>
-      <c r="LP12" s="185"/>
-      <c r="LQ12" s="185"/>
-      <c r="LR12" s="185"/>
-      <c r="LS12" s="185"/>
-      <c r="LT12" s="185"/>
-      <c r="LU12" s="185"/>
-      <c r="LV12" s="185"/>
-      <c r="LW12" s="185"/>
-      <c r="LX12" s="185"/>
-      <c r="LY12" s="185"/>
-      <c r="LZ12" s="185"/>
-      <c r="MA12" s="185"/>
-      <c r="MB12" s="185"/>
-      <c r="MC12" s="185"/>
-      <c r="MD12" s="185"/>
-      <c r="ME12" s="185"/>
-      <c r="MF12" s="185"/>
-      <c r="MG12" s="185"/>
-      <c r="MH12" s="185"/>
-      <c r="MI12" s="185"/>
-      <c r="MJ12" s="185"/>
-      <c r="MK12" s="185"/>
-      <c r="ML12" s="185"/>
-      <c r="MM12" s="185"/>
-      <c r="MN12" s="185"/>
-      <c r="MO12" s="185"/>
-      <c r="MP12" s="185"/>
-      <c r="MQ12" s="185"/>
-      <c r="MR12" s="185"/>
-      <c r="MS12" s="185"/>
-      <c r="MT12" s="185"/>
-      <c r="MU12" s="185"/>
-      <c r="MV12" s="185"/>
-      <c r="MW12" s="185"/>
-      <c r="MX12" s="185"/>
-      <c r="MY12" s="185"/>
-      <c r="MZ12" s="185"/>
-      <c r="NA12" s="185"/>
-      <c r="NB12" s="185"/>
-      <c r="NC12" s="185"/>
-      <c r="ND12" s="185"/>
-      <c r="NE12" s="185"/>
-      <c r="NF12" s="185"/>
-      <c r="NG12" s="185"/>
-      <c r="NH12" s="185"/>
-      <c r="NI12" s="185"/>
-      <c r="NJ12" s="185"/>
-      <c r="NK12" s="185"/>
-      <c r="NL12" s="185"/>
-      <c r="NM12" s="185"/>
-      <c r="NN12" s="185"/>
-      <c r="NO12" s="185"/>
-      <c r="NP12" s="185"/>
-      <c r="NQ12" s="185"/>
-      <c r="NR12" s="185"/>
-      <c r="NS12" s="185"/>
-      <c r="NT12" s="185"/>
-      <c r="NU12" s="185"/>
-      <c r="NV12" s="185"/>
-      <c r="NW12" s="185"/>
-      <c r="NX12" s="185"/>
-      <c r="NY12" s="185"/>
-      <c r="NZ12" s="185"/>
-      <c r="OA12" s="185"/>
-      <c r="OB12" s="185"/>
-      <c r="OC12" s="185"/>
-      <c r="OD12" s="185"/>
-      <c r="OE12" s="185"/>
-      <c r="OF12" s="185"/>
-      <c r="OG12" s="185"/>
-      <c r="OH12" s="185"/>
-      <c r="OI12" s="185"/>
-      <c r="OJ12" s="185"/>
-      <c r="OK12" s="185"/>
-      <c r="OL12" s="185"/>
-      <c r="OM12" s="185"/>
-      <c r="ON12" s="185"/>
-      <c r="OO12" s="185"/>
-      <c r="OP12" s="185"/>
-      <c r="OQ12" s="185"/>
-      <c r="OR12" s="185"/>
-      <c r="OS12" s="185"/>
-      <c r="OT12" s="185"/>
-      <c r="OU12" s="185"/>
-      <c r="OV12" s="185"/>
-      <c r="OW12" s="185"/>
-      <c r="OX12" s="185"/>
-      <c r="OY12" s="185"/>
-      <c r="OZ12" s="185"/>
-      <c r="PA12" s="185"/>
-      <c r="PB12" s="185"/>
-      <c r="PC12" s="185"/>
-      <c r="PD12" s="185"/>
-      <c r="PE12" s="185"/>
-      <c r="PF12" s="185"/>
-      <c r="PG12" s="185"/>
-      <c r="PH12" s="185"/>
-      <c r="PI12" s="186"/>
-      <c r="PJ12" s="184" t="s">
+      <c r="KU12" s="151"/>
+      <c r="KV12" s="151"/>
+      <c r="KW12" s="151"/>
+      <c r="KX12" s="151"/>
+      <c r="KY12" s="151"/>
+      <c r="KZ12" s="151"/>
+      <c r="LA12" s="151"/>
+      <c r="LB12" s="151"/>
+      <c r="LC12" s="151"/>
+      <c r="LD12" s="151"/>
+      <c r="LE12" s="151"/>
+      <c r="LF12" s="151"/>
+      <c r="LG12" s="151"/>
+      <c r="LH12" s="151"/>
+      <c r="LI12" s="151"/>
+      <c r="LJ12" s="151"/>
+      <c r="LK12" s="151"/>
+      <c r="LL12" s="151"/>
+      <c r="LM12" s="151"/>
+      <c r="LN12" s="151"/>
+      <c r="LO12" s="151"/>
+      <c r="LP12" s="151"/>
+      <c r="LQ12" s="151"/>
+      <c r="LR12" s="151"/>
+      <c r="LS12" s="151"/>
+      <c r="LT12" s="151"/>
+      <c r="LU12" s="151"/>
+      <c r="LV12" s="151"/>
+      <c r="LW12" s="151"/>
+      <c r="LX12" s="151"/>
+      <c r="LY12" s="151"/>
+      <c r="LZ12" s="151"/>
+      <c r="MA12" s="151"/>
+      <c r="MB12" s="151"/>
+      <c r="MC12" s="151"/>
+      <c r="MD12" s="151"/>
+      <c r="ME12" s="151"/>
+      <c r="MF12" s="151"/>
+      <c r="MG12" s="151"/>
+      <c r="MH12" s="151"/>
+      <c r="MI12" s="151"/>
+      <c r="MJ12" s="151"/>
+      <c r="MK12" s="151"/>
+      <c r="ML12" s="151"/>
+      <c r="MM12" s="151"/>
+      <c r="MN12" s="151"/>
+      <c r="MO12" s="151"/>
+      <c r="MP12" s="151"/>
+      <c r="MQ12" s="151"/>
+      <c r="MR12" s="151"/>
+      <c r="MS12" s="151"/>
+      <c r="MT12" s="151"/>
+      <c r="MU12" s="151"/>
+      <c r="MV12" s="151"/>
+      <c r="MW12" s="151"/>
+      <c r="MX12" s="151"/>
+      <c r="MY12" s="151"/>
+      <c r="MZ12" s="151"/>
+      <c r="NA12" s="151"/>
+      <c r="NB12" s="151"/>
+      <c r="NC12" s="151"/>
+      <c r="ND12" s="151"/>
+      <c r="NE12" s="151"/>
+      <c r="NF12" s="151"/>
+      <c r="NG12" s="151"/>
+      <c r="NH12" s="151"/>
+      <c r="NI12" s="151"/>
+      <c r="NJ12" s="151"/>
+      <c r="NK12" s="151"/>
+      <c r="NL12" s="151"/>
+      <c r="NM12" s="151"/>
+      <c r="NN12" s="151"/>
+      <c r="NO12" s="151"/>
+      <c r="NP12" s="151"/>
+      <c r="NQ12" s="151"/>
+      <c r="NR12" s="151"/>
+      <c r="NS12" s="151"/>
+      <c r="NT12" s="151"/>
+      <c r="NU12" s="151"/>
+      <c r="NV12" s="151"/>
+      <c r="NW12" s="151"/>
+      <c r="NX12" s="151"/>
+      <c r="NY12" s="151"/>
+      <c r="NZ12" s="151"/>
+      <c r="OA12" s="151"/>
+      <c r="OB12" s="151"/>
+      <c r="OC12" s="151"/>
+      <c r="OD12" s="151"/>
+      <c r="OE12" s="151"/>
+      <c r="OF12" s="151"/>
+      <c r="OG12" s="151"/>
+      <c r="OH12" s="151"/>
+      <c r="OI12" s="151"/>
+      <c r="OJ12" s="151"/>
+      <c r="OK12" s="151"/>
+      <c r="OL12" s="151"/>
+      <c r="OM12" s="151"/>
+      <c r="ON12" s="151"/>
+      <c r="OO12" s="151"/>
+      <c r="OP12" s="151"/>
+      <c r="OQ12" s="151"/>
+      <c r="OR12" s="151"/>
+      <c r="OS12" s="151"/>
+      <c r="OT12" s="151"/>
+      <c r="OU12" s="151"/>
+      <c r="OV12" s="151"/>
+      <c r="OW12" s="151"/>
+      <c r="OX12" s="151"/>
+      <c r="OY12" s="151"/>
+      <c r="OZ12" s="151"/>
+      <c r="PA12" s="151"/>
+      <c r="PB12" s="151"/>
+      <c r="PC12" s="151"/>
+      <c r="PD12" s="151"/>
+      <c r="PE12" s="151"/>
+      <c r="PF12" s="151"/>
+      <c r="PG12" s="151"/>
+      <c r="PH12" s="151"/>
+      <c r="PI12" s="152"/>
+      <c r="PJ12" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="PK12" s="185"/>
-      <c r="PL12" s="185"/>
-      <c r="PM12" s="185"/>
-      <c r="PN12" s="185"/>
-      <c r="PO12" s="185"/>
-      <c r="PP12" s="185"/>
-      <c r="PQ12" s="185"/>
-      <c r="PR12" s="185"/>
-      <c r="PS12" s="185"/>
-      <c r="PT12" s="185"/>
-      <c r="PU12" s="185"/>
-      <c r="PV12" s="185"/>
-      <c r="PW12" s="185"/>
-      <c r="PX12" s="185"/>
-      <c r="PY12" s="185"/>
-      <c r="PZ12" s="185"/>
-      <c r="QA12" s="185"/>
-      <c r="QB12" s="185"/>
-      <c r="QC12" s="185"/>
-      <c r="QD12" s="185"/>
-      <c r="QE12" s="185"/>
-      <c r="QF12" s="185"/>
-      <c r="QG12" s="185"/>
-      <c r="QH12" s="185"/>
-      <c r="QI12" s="185"/>
-      <c r="QJ12" s="185"/>
-      <c r="QK12" s="185"/>
-      <c r="QL12" s="185"/>
-      <c r="QM12" s="185"/>
-      <c r="QN12" s="185"/>
-      <c r="QO12" s="185"/>
-      <c r="QP12" s="185"/>
-      <c r="QQ12" s="185"/>
-      <c r="QR12" s="185"/>
-      <c r="QS12" s="185"/>
-      <c r="QT12" s="185"/>
-      <c r="QU12" s="185"/>
-      <c r="QV12" s="185"/>
-      <c r="QW12" s="185"/>
-      <c r="QX12" s="185"/>
-      <c r="QY12" s="185"/>
-      <c r="QZ12" s="185"/>
-      <c r="RA12" s="185"/>
-      <c r="RB12" s="185"/>
-      <c r="RC12" s="185"/>
-      <c r="RD12" s="185"/>
-      <c r="RE12" s="185"/>
-      <c r="RF12" s="185"/>
-      <c r="RG12" s="185"/>
-      <c r="RH12" s="185"/>
-      <c r="RI12" s="185"/>
-      <c r="RJ12" s="185"/>
-      <c r="RK12" s="185"/>
-      <c r="RL12" s="185"/>
-      <c r="RM12" s="185"/>
-      <c r="RN12" s="185"/>
-      <c r="RO12" s="185"/>
-      <c r="RP12" s="185"/>
-      <c r="RQ12" s="185"/>
-      <c r="RR12" s="185"/>
-      <c r="RS12" s="185"/>
-      <c r="RT12" s="185"/>
-      <c r="RU12" s="185"/>
-      <c r="RV12" s="185"/>
-      <c r="RW12" s="185"/>
-      <c r="RX12" s="185"/>
-      <c r="RY12" s="185"/>
-      <c r="RZ12" s="185"/>
-      <c r="SA12" s="185"/>
-      <c r="SB12" s="185"/>
-      <c r="SC12" s="185"/>
-      <c r="SD12" s="185"/>
-      <c r="SE12" s="185"/>
-      <c r="SF12" s="185"/>
-      <c r="SG12" s="185"/>
-      <c r="SH12" s="185"/>
-      <c r="SI12" s="185"/>
-      <c r="SJ12" s="185"/>
-      <c r="SK12" s="185"/>
-      <c r="SL12" s="185"/>
-      <c r="SM12" s="185"/>
-      <c r="SN12" s="185"/>
-      <c r="SO12" s="185"/>
-      <c r="SP12" s="185"/>
-      <c r="SQ12" s="185"/>
-      <c r="SR12" s="185"/>
-      <c r="SS12" s="185"/>
-      <c r="ST12" s="185"/>
-      <c r="SU12" s="185"/>
-      <c r="SV12" s="185"/>
-      <c r="SW12" s="185"/>
-      <c r="SX12" s="185"/>
-      <c r="SY12" s="185"/>
-      <c r="SZ12" s="185"/>
-      <c r="TA12" s="185"/>
-      <c r="TB12" s="185"/>
-      <c r="TC12" s="185"/>
-      <c r="TD12" s="185"/>
-      <c r="TE12" s="185"/>
-      <c r="TF12" s="185"/>
-      <c r="TG12" s="185"/>
-      <c r="TH12" s="185"/>
-      <c r="TI12" s="185"/>
-      <c r="TJ12" s="185"/>
-      <c r="TK12" s="185"/>
-      <c r="TL12" s="185"/>
-      <c r="TM12" s="185"/>
-      <c r="TN12" s="185"/>
-      <c r="TO12" s="185"/>
-      <c r="TP12" s="185"/>
-      <c r="TQ12" s="185"/>
-      <c r="TR12" s="185"/>
-      <c r="TS12" s="185"/>
-      <c r="TT12" s="185"/>
-      <c r="TU12" s="185"/>
-      <c r="TV12" s="185"/>
-      <c r="TW12" s="185"/>
-      <c r="TX12" s="185"/>
-      <c r="TY12" s="186"/>
-      <c r="TZ12" s="184" t="s">
+      <c r="PK12" s="151"/>
+      <c r="PL12" s="151"/>
+      <c r="PM12" s="151"/>
+      <c r="PN12" s="151"/>
+      <c r="PO12" s="151"/>
+      <c r="PP12" s="151"/>
+      <c r="PQ12" s="151"/>
+      <c r="PR12" s="151"/>
+      <c r="PS12" s="151"/>
+      <c r="PT12" s="151"/>
+      <c r="PU12" s="151"/>
+      <c r="PV12" s="151"/>
+      <c r="PW12" s="151"/>
+      <c r="PX12" s="151"/>
+      <c r="PY12" s="151"/>
+      <c r="PZ12" s="151"/>
+      <c r="QA12" s="151"/>
+      <c r="QB12" s="151"/>
+      <c r="QC12" s="151"/>
+      <c r="QD12" s="151"/>
+      <c r="QE12" s="151"/>
+      <c r="QF12" s="151"/>
+      <c r="QG12" s="151"/>
+      <c r="QH12" s="151"/>
+      <c r="QI12" s="151"/>
+      <c r="QJ12" s="151"/>
+      <c r="QK12" s="151"/>
+      <c r="QL12" s="151"/>
+      <c r="QM12" s="151"/>
+      <c r="QN12" s="151"/>
+      <c r="QO12" s="151"/>
+      <c r="QP12" s="151"/>
+      <c r="QQ12" s="151"/>
+      <c r="QR12" s="151"/>
+      <c r="QS12" s="151"/>
+      <c r="QT12" s="151"/>
+      <c r="QU12" s="151"/>
+      <c r="QV12" s="151"/>
+      <c r="QW12" s="151"/>
+      <c r="QX12" s="151"/>
+      <c r="QY12" s="151"/>
+      <c r="QZ12" s="151"/>
+      <c r="RA12" s="151"/>
+      <c r="RB12" s="151"/>
+      <c r="RC12" s="151"/>
+      <c r="RD12" s="151"/>
+      <c r="RE12" s="151"/>
+      <c r="RF12" s="151"/>
+      <c r="RG12" s="151"/>
+      <c r="RH12" s="151"/>
+      <c r="RI12" s="151"/>
+      <c r="RJ12" s="151"/>
+      <c r="RK12" s="151"/>
+      <c r="RL12" s="151"/>
+      <c r="RM12" s="151"/>
+      <c r="RN12" s="151"/>
+      <c r="RO12" s="151"/>
+      <c r="RP12" s="151"/>
+      <c r="RQ12" s="151"/>
+      <c r="RR12" s="151"/>
+      <c r="RS12" s="151"/>
+      <c r="RT12" s="151"/>
+      <c r="RU12" s="151"/>
+      <c r="RV12" s="151"/>
+      <c r="RW12" s="151"/>
+      <c r="RX12" s="151"/>
+      <c r="RY12" s="151"/>
+      <c r="RZ12" s="151"/>
+      <c r="SA12" s="151"/>
+      <c r="SB12" s="151"/>
+      <c r="SC12" s="151"/>
+      <c r="SD12" s="151"/>
+      <c r="SE12" s="151"/>
+      <c r="SF12" s="151"/>
+      <c r="SG12" s="151"/>
+      <c r="SH12" s="151"/>
+      <c r="SI12" s="151"/>
+      <c r="SJ12" s="151"/>
+      <c r="SK12" s="151"/>
+      <c r="SL12" s="151"/>
+      <c r="SM12" s="151"/>
+      <c r="SN12" s="151"/>
+      <c r="SO12" s="151"/>
+      <c r="SP12" s="151"/>
+      <c r="SQ12" s="151"/>
+      <c r="SR12" s="151"/>
+      <c r="SS12" s="151"/>
+      <c r="ST12" s="151"/>
+      <c r="SU12" s="151"/>
+      <c r="SV12" s="151"/>
+      <c r="SW12" s="151"/>
+      <c r="SX12" s="151"/>
+      <c r="SY12" s="151"/>
+      <c r="SZ12" s="151"/>
+      <c r="TA12" s="151"/>
+      <c r="TB12" s="151"/>
+      <c r="TC12" s="151"/>
+      <c r="TD12" s="151"/>
+      <c r="TE12" s="151"/>
+      <c r="TF12" s="151"/>
+      <c r="TG12" s="151"/>
+      <c r="TH12" s="151"/>
+      <c r="TI12" s="151"/>
+      <c r="TJ12" s="151"/>
+      <c r="TK12" s="151"/>
+      <c r="TL12" s="151"/>
+      <c r="TM12" s="151"/>
+      <c r="TN12" s="151"/>
+      <c r="TO12" s="151"/>
+      <c r="TP12" s="151"/>
+      <c r="TQ12" s="151"/>
+      <c r="TR12" s="151"/>
+      <c r="TS12" s="151"/>
+      <c r="TT12" s="151"/>
+      <c r="TU12" s="151"/>
+      <c r="TV12" s="151"/>
+      <c r="TW12" s="151"/>
+      <c r="TX12" s="151"/>
+      <c r="TY12" s="152"/>
+      <c r="TZ12" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="UA12" s="185"/>
-      <c r="UB12" s="185"/>
-      <c r="UC12" s="185"/>
-      <c r="UD12" s="185"/>
-      <c r="UE12" s="185"/>
-      <c r="UF12" s="185"/>
-      <c r="UG12" s="185"/>
-      <c r="UH12" s="185"/>
-      <c r="UI12" s="185"/>
-      <c r="UJ12" s="185"/>
-      <c r="UK12" s="185"/>
-      <c r="UL12" s="185"/>
-      <c r="UM12" s="185"/>
-      <c r="UN12" s="185"/>
-      <c r="UO12" s="185"/>
-      <c r="UP12" s="185"/>
-      <c r="UQ12" s="185"/>
-      <c r="UR12" s="185"/>
-      <c r="US12" s="185"/>
-      <c r="UT12" s="185"/>
-      <c r="UU12" s="185"/>
-      <c r="UV12" s="185"/>
-      <c r="UW12" s="185"/>
-      <c r="UX12" s="185"/>
-      <c r="UY12" s="185"/>
-      <c r="UZ12" s="185"/>
-      <c r="VA12" s="185"/>
-      <c r="VB12" s="185"/>
-      <c r="VC12" s="186"/>
+      <c r="UA12" s="151"/>
+      <c r="UB12" s="151"/>
+      <c r="UC12" s="151"/>
+      <c r="UD12" s="151"/>
+      <c r="UE12" s="151"/>
+      <c r="UF12" s="151"/>
+      <c r="UG12" s="151"/>
+      <c r="UH12" s="151"/>
+      <c r="UI12" s="151"/>
+      <c r="UJ12" s="151"/>
+      <c r="UK12" s="151"/>
+      <c r="UL12" s="151"/>
+      <c r="UM12" s="151"/>
+      <c r="UN12" s="151"/>
+      <c r="UO12" s="151"/>
+      <c r="UP12" s="151"/>
+      <c r="UQ12" s="151"/>
+      <c r="UR12" s="151"/>
+      <c r="US12" s="151"/>
+      <c r="UT12" s="151"/>
+      <c r="UU12" s="151"/>
+      <c r="UV12" s="151"/>
+      <c r="UW12" s="151"/>
+      <c r="UX12" s="151"/>
+      <c r="UY12" s="151"/>
+      <c r="UZ12" s="151"/>
+      <c r="VA12" s="151"/>
+      <c r="VB12" s="151"/>
+      <c r="VC12" s="152"/>
     </row>
     <row r="13" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="146" t="s">
+      <c r="B13" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="187" t="s">
+      <c r="C13" s="171"/>
+      <c r="D13" s="172" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="188"/>
-      <c r="M13" s="188"/>
-      <c r="N13" s="188"/>
-      <c r="O13" s="188"/>
-      <c r="P13" s="188"/>
-      <c r="Q13" s="188"/>
-      <c r="R13" s="188"/>
-      <c r="S13" s="188"/>
-      <c r="T13" s="188"/>
-      <c r="U13" s="188"/>
-      <c r="V13" s="188"/>
-      <c r="W13" s="188"/>
-      <c r="X13" s="188"/>
-      <c r="Y13" s="188"/>
-      <c r="Z13" s="188"/>
-      <c r="AA13" s="188"/>
-      <c r="AB13" s="188"/>
-      <c r="AC13" s="188"/>
-      <c r="AD13" s="188"/>
-      <c r="AE13" s="188"/>
-      <c r="AF13" s="188"/>
-      <c r="AG13" s="189"/>
-      <c r="AH13" s="190" t="s">
+      <c r="E13" s="173"/>
+      <c r="F13" s="173"/>
+      <c r="G13" s="173"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="173"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="173"/>
+      <c r="S13" s="173"/>
+      <c r="T13" s="173"/>
+      <c r="U13" s="173"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="173"/>
+      <c r="X13" s="173"/>
+      <c r="Y13" s="173"/>
+      <c r="Z13" s="173"/>
+      <c r="AA13" s="173"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="173"/>
+      <c r="AD13" s="173"/>
+      <c r="AE13" s="173"/>
+      <c r="AF13" s="173"/>
+      <c r="AG13" s="174"/>
+      <c r="AH13" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="AI13" s="188"/>
-      <c r="AJ13" s="188"/>
-      <c r="AK13" s="188"/>
-      <c r="AL13" s="188"/>
-      <c r="AM13" s="188"/>
-      <c r="AN13" s="188"/>
-      <c r="AO13" s="188"/>
-      <c r="AP13" s="188"/>
-      <c r="AQ13" s="188"/>
-      <c r="AR13" s="188"/>
-      <c r="AS13" s="188"/>
-      <c r="AT13" s="188"/>
-      <c r="AU13" s="188"/>
-      <c r="AV13" s="188"/>
-      <c r="AW13" s="188"/>
-      <c r="AX13" s="188"/>
-      <c r="AY13" s="188"/>
-      <c r="AZ13" s="188"/>
-      <c r="BA13" s="188"/>
-      <c r="BB13" s="188"/>
-      <c r="BC13" s="188"/>
-      <c r="BD13" s="188"/>
-      <c r="BE13" s="188"/>
-      <c r="BF13" s="188"/>
-      <c r="BG13" s="188"/>
-      <c r="BH13" s="188"/>
-      <c r="BI13" s="188"/>
-      <c r="BJ13" s="188"/>
-      <c r="BK13" s="191"/>
-      <c r="BL13" s="187" t="s">
+      <c r="AI13" s="173"/>
+      <c r="AJ13" s="173"/>
+      <c r="AK13" s="173"/>
+      <c r="AL13" s="173"/>
+      <c r="AM13" s="173"/>
+      <c r="AN13" s="173"/>
+      <c r="AO13" s="173"/>
+      <c r="AP13" s="173"/>
+      <c r="AQ13" s="173"/>
+      <c r="AR13" s="173"/>
+      <c r="AS13" s="173"/>
+      <c r="AT13" s="173"/>
+      <c r="AU13" s="173"/>
+      <c r="AV13" s="173"/>
+      <c r="AW13" s="173"/>
+      <c r="AX13" s="173"/>
+      <c r="AY13" s="173"/>
+      <c r="AZ13" s="173"/>
+      <c r="BA13" s="173"/>
+      <c r="BB13" s="173"/>
+      <c r="BC13" s="173"/>
+      <c r="BD13" s="173"/>
+      <c r="BE13" s="173"/>
+      <c r="BF13" s="173"/>
+      <c r="BG13" s="173"/>
+      <c r="BH13" s="173"/>
+      <c r="BI13" s="173"/>
+      <c r="BJ13" s="173"/>
+      <c r="BK13" s="176"/>
+      <c r="BL13" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="BM13" s="188"/>
-      <c r="BN13" s="188"/>
-      <c r="BO13" s="188"/>
-      <c r="BP13" s="188"/>
-      <c r="BQ13" s="188"/>
-      <c r="BR13" s="188"/>
-      <c r="BS13" s="188"/>
-      <c r="BT13" s="188"/>
-      <c r="BU13" s="188"/>
-      <c r="BV13" s="188"/>
-      <c r="BW13" s="188"/>
-      <c r="BX13" s="188"/>
-      <c r="BY13" s="188"/>
-      <c r="BZ13" s="188"/>
-      <c r="CA13" s="188"/>
-      <c r="CB13" s="188"/>
-      <c r="CC13" s="188"/>
-      <c r="CD13" s="188"/>
-      <c r="CE13" s="188"/>
-      <c r="CF13" s="188"/>
-      <c r="CG13" s="188"/>
-      <c r="CH13" s="188"/>
-      <c r="CI13" s="188"/>
-      <c r="CJ13" s="188"/>
-      <c r="CK13" s="188"/>
-      <c r="CL13" s="188"/>
-      <c r="CM13" s="188"/>
-      <c r="CN13" s="188"/>
-      <c r="CO13" s="189"/>
-      <c r="CP13" s="190" t="s">
+      <c r="BM13" s="173"/>
+      <c r="BN13" s="173"/>
+      <c r="BO13" s="173"/>
+      <c r="BP13" s="173"/>
+      <c r="BQ13" s="173"/>
+      <c r="BR13" s="173"/>
+      <c r="BS13" s="173"/>
+      <c r="BT13" s="173"/>
+      <c r="BU13" s="173"/>
+      <c r="BV13" s="173"/>
+      <c r="BW13" s="173"/>
+      <c r="BX13" s="173"/>
+      <c r="BY13" s="173"/>
+      <c r="BZ13" s="173"/>
+      <c r="CA13" s="173"/>
+      <c r="CB13" s="173"/>
+      <c r="CC13" s="173"/>
+      <c r="CD13" s="173"/>
+      <c r="CE13" s="173"/>
+      <c r="CF13" s="173"/>
+      <c r="CG13" s="173"/>
+      <c r="CH13" s="173"/>
+      <c r="CI13" s="173"/>
+      <c r="CJ13" s="173"/>
+      <c r="CK13" s="173"/>
+      <c r="CL13" s="173"/>
+      <c r="CM13" s="173"/>
+      <c r="CN13" s="173"/>
+      <c r="CO13" s="174"/>
+      <c r="CP13" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="CQ13" s="188"/>
-      <c r="CR13" s="188"/>
-      <c r="CS13" s="188"/>
-      <c r="CT13" s="188"/>
-      <c r="CU13" s="188"/>
-      <c r="CV13" s="188"/>
-      <c r="CW13" s="188"/>
-      <c r="CX13" s="188"/>
-      <c r="CY13" s="188"/>
-      <c r="CZ13" s="188"/>
-      <c r="DA13" s="188"/>
-      <c r="DB13" s="188"/>
-      <c r="DC13" s="188"/>
-      <c r="DD13" s="188"/>
-      <c r="DE13" s="188"/>
-      <c r="DF13" s="188"/>
-      <c r="DG13" s="188"/>
-      <c r="DH13" s="188"/>
-      <c r="DI13" s="188"/>
-      <c r="DJ13" s="188"/>
-      <c r="DK13" s="188"/>
-      <c r="DL13" s="188"/>
-      <c r="DM13" s="188"/>
-      <c r="DN13" s="188"/>
-      <c r="DO13" s="188"/>
-      <c r="DP13" s="188"/>
-      <c r="DQ13" s="188"/>
-      <c r="DR13" s="188"/>
-      <c r="DS13" s="189"/>
-      <c r="DT13" s="190" t="s">
+      <c r="CQ13" s="173"/>
+      <c r="CR13" s="173"/>
+      <c r="CS13" s="173"/>
+      <c r="CT13" s="173"/>
+      <c r="CU13" s="173"/>
+      <c r="CV13" s="173"/>
+      <c r="CW13" s="173"/>
+      <c r="CX13" s="173"/>
+      <c r="CY13" s="173"/>
+      <c r="CZ13" s="173"/>
+      <c r="DA13" s="173"/>
+      <c r="DB13" s="173"/>
+      <c r="DC13" s="173"/>
+      <c r="DD13" s="173"/>
+      <c r="DE13" s="173"/>
+      <c r="DF13" s="173"/>
+      <c r="DG13" s="173"/>
+      <c r="DH13" s="173"/>
+      <c r="DI13" s="173"/>
+      <c r="DJ13" s="173"/>
+      <c r="DK13" s="173"/>
+      <c r="DL13" s="173"/>
+      <c r="DM13" s="173"/>
+      <c r="DN13" s="173"/>
+      <c r="DO13" s="173"/>
+      <c r="DP13" s="173"/>
+      <c r="DQ13" s="173"/>
+      <c r="DR13" s="173"/>
+      <c r="DS13" s="174"/>
+      <c r="DT13" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="DU13" s="188"/>
-      <c r="DV13" s="188"/>
-      <c r="DW13" s="188"/>
-      <c r="DX13" s="188"/>
-      <c r="DY13" s="188"/>
-      <c r="DZ13" s="188"/>
-      <c r="EA13" s="188"/>
-      <c r="EB13" s="188"/>
-      <c r="EC13" s="188"/>
-      <c r="ED13" s="188"/>
-      <c r="EE13" s="188"/>
-      <c r="EF13" s="188"/>
-      <c r="EG13" s="188"/>
-      <c r="EH13" s="188"/>
-      <c r="EI13" s="188"/>
-      <c r="EJ13" s="188"/>
-      <c r="EK13" s="188"/>
-      <c r="EL13" s="188"/>
-      <c r="EM13" s="188"/>
-      <c r="EN13" s="188"/>
-      <c r="EO13" s="188"/>
-      <c r="EP13" s="188"/>
-      <c r="EQ13" s="188"/>
-      <c r="ER13" s="188"/>
-      <c r="ES13" s="188"/>
-      <c r="ET13" s="188"/>
-      <c r="EU13" s="188"/>
-      <c r="EV13" s="188"/>
-      <c r="EW13" s="189"/>
-      <c r="EX13" s="190" t="s">
+      <c r="DU13" s="173"/>
+      <c r="DV13" s="173"/>
+      <c r="DW13" s="173"/>
+      <c r="DX13" s="173"/>
+      <c r="DY13" s="173"/>
+      <c r="DZ13" s="173"/>
+      <c r="EA13" s="173"/>
+      <c r="EB13" s="173"/>
+      <c r="EC13" s="173"/>
+      <c r="ED13" s="173"/>
+      <c r="EE13" s="173"/>
+      <c r="EF13" s="173"/>
+      <c r="EG13" s="173"/>
+      <c r="EH13" s="173"/>
+      <c r="EI13" s="173"/>
+      <c r="EJ13" s="173"/>
+      <c r="EK13" s="173"/>
+      <c r="EL13" s="173"/>
+      <c r="EM13" s="173"/>
+      <c r="EN13" s="173"/>
+      <c r="EO13" s="173"/>
+      <c r="EP13" s="173"/>
+      <c r="EQ13" s="173"/>
+      <c r="ER13" s="173"/>
+      <c r="ES13" s="173"/>
+      <c r="ET13" s="173"/>
+      <c r="EU13" s="173"/>
+      <c r="EV13" s="173"/>
+      <c r="EW13" s="174"/>
+      <c r="EX13" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="EY13" s="188"/>
-      <c r="EZ13" s="188"/>
-      <c r="FA13" s="188"/>
-      <c r="FB13" s="188"/>
-      <c r="FC13" s="188"/>
-      <c r="FD13" s="188"/>
-      <c r="FE13" s="188"/>
-      <c r="FF13" s="188"/>
-      <c r="FG13" s="188"/>
-      <c r="FH13" s="188"/>
-      <c r="FI13" s="188"/>
-      <c r="FJ13" s="188"/>
-      <c r="FK13" s="188"/>
-      <c r="FL13" s="188"/>
-      <c r="FM13" s="188"/>
-      <c r="FN13" s="188"/>
-      <c r="FO13" s="188"/>
-      <c r="FP13" s="188"/>
-      <c r="FQ13" s="188"/>
-      <c r="FR13" s="188"/>
-      <c r="FS13" s="188"/>
-      <c r="FT13" s="188"/>
-      <c r="FU13" s="188"/>
-      <c r="FV13" s="188"/>
-      <c r="FW13" s="188"/>
-      <c r="FX13" s="188"/>
-      <c r="FY13" s="188"/>
-      <c r="FZ13" s="188"/>
-      <c r="GA13" s="191"/>
-      <c r="GB13" s="187" t="s">
+      <c r="EY13" s="173"/>
+      <c r="EZ13" s="173"/>
+      <c r="FA13" s="173"/>
+      <c r="FB13" s="173"/>
+      <c r="FC13" s="173"/>
+      <c r="FD13" s="173"/>
+      <c r="FE13" s="173"/>
+      <c r="FF13" s="173"/>
+      <c r="FG13" s="173"/>
+      <c r="FH13" s="173"/>
+      <c r="FI13" s="173"/>
+      <c r="FJ13" s="173"/>
+      <c r="FK13" s="173"/>
+      <c r="FL13" s="173"/>
+      <c r="FM13" s="173"/>
+      <c r="FN13" s="173"/>
+      <c r="FO13" s="173"/>
+      <c r="FP13" s="173"/>
+      <c r="FQ13" s="173"/>
+      <c r="FR13" s="173"/>
+      <c r="FS13" s="173"/>
+      <c r="FT13" s="173"/>
+      <c r="FU13" s="173"/>
+      <c r="FV13" s="173"/>
+      <c r="FW13" s="173"/>
+      <c r="FX13" s="173"/>
+      <c r="FY13" s="173"/>
+      <c r="FZ13" s="173"/>
+      <c r="GA13" s="176"/>
+      <c r="GB13" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="GC13" s="188"/>
-      <c r="GD13" s="188"/>
-      <c r="GE13" s="188"/>
-      <c r="GF13" s="188"/>
-      <c r="GG13" s="188"/>
-      <c r="GH13" s="188"/>
-      <c r="GI13" s="188"/>
-      <c r="GJ13" s="188"/>
-      <c r="GK13" s="188"/>
-      <c r="GL13" s="188"/>
-      <c r="GM13" s="188"/>
-      <c r="GN13" s="188"/>
-      <c r="GO13" s="188"/>
-      <c r="GP13" s="188"/>
-      <c r="GQ13" s="188"/>
-      <c r="GR13" s="188"/>
-      <c r="GS13" s="188"/>
-      <c r="GT13" s="188"/>
-      <c r="GU13" s="188"/>
-      <c r="GV13" s="188"/>
-      <c r="GW13" s="188"/>
-      <c r="GX13" s="188"/>
-      <c r="GY13" s="188"/>
-      <c r="GZ13" s="188"/>
-      <c r="HA13" s="188"/>
-      <c r="HB13" s="188"/>
-      <c r="HC13" s="188"/>
-      <c r="HD13" s="188"/>
-      <c r="HE13" s="189"/>
-      <c r="HF13" s="190" t="s">
+      <c r="GC13" s="173"/>
+      <c r="GD13" s="173"/>
+      <c r="GE13" s="173"/>
+      <c r="GF13" s="173"/>
+      <c r="GG13" s="173"/>
+      <c r="GH13" s="173"/>
+      <c r="GI13" s="173"/>
+      <c r="GJ13" s="173"/>
+      <c r="GK13" s="173"/>
+      <c r="GL13" s="173"/>
+      <c r="GM13" s="173"/>
+      <c r="GN13" s="173"/>
+      <c r="GO13" s="173"/>
+      <c r="GP13" s="173"/>
+      <c r="GQ13" s="173"/>
+      <c r="GR13" s="173"/>
+      <c r="GS13" s="173"/>
+      <c r="GT13" s="173"/>
+      <c r="GU13" s="173"/>
+      <c r="GV13" s="173"/>
+      <c r="GW13" s="173"/>
+      <c r="GX13" s="173"/>
+      <c r="GY13" s="173"/>
+      <c r="GZ13" s="173"/>
+      <c r="HA13" s="173"/>
+      <c r="HB13" s="173"/>
+      <c r="HC13" s="173"/>
+      <c r="HD13" s="173"/>
+      <c r="HE13" s="174"/>
+      <c r="HF13" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="HG13" s="188"/>
-      <c r="HH13" s="188"/>
-      <c r="HI13" s="188"/>
-      <c r="HJ13" s="188"/>
-      <c r="HK13" s="188"/>
-      <c r="HL13" s="188"/>
-      <c r="HM13" s="188"/>
-      <c r="HN13" s="188"/>
-      <c r="HO13" s="188"/>
-      <c r="HP13" s="188"/>
-      <c r="HQ13" s="188"/>
-      <c r="HR13" s="188"/>
-      <c r="HS13" s="188"/>
-      <c r="HT13" s="188"/>
-      <c r="HU13" s="188"/>
-      <c r="HV13" s="188"/>
-      <c r="HW13" s="188"/>
-      <c r="HX13" s="188"/>
-      <c r="HY13" s="188"/>
-      <c r="HZ13" s="188"/>
-      <c r="IA13" s="188"/>
-      <c r="IB13" s="188"/>
-      <c r="IC13" s="188"/>
-      <c r="ID13" s="188"/>
-      <c r="IE13" s="188"/>
-      <c r="IF13" s="188"/>
-      <c r="IG13" s="188"/>
-      <c r="IH13" s="188"/>
-      <c r="II13" s="189"/>
-      <c r="IJ13" s="190" t="s">
+      <c r="HG13" s="173"/>
+      <c r="HH13" s="173"/>
+      <c r="HI13" s="173"/>
+      <c r="HJ13" s="173"/>
+      <c r="HK13" s="173"/>
+      <c r="HL13" s="173"/>
+      <c r="HM13" s="173"/>
+      <c r="HN13" s="173"/>
+      <c r="HO13" s="173"/>
+      <c r="HP13" s="173"/>
+      <c r="HQ13" s="173"/>
+      <c r="HR13" s="173"/>
+      <c r="HS13" s="173"/>
+      <c r="HT13" s="173"/>
+      <c r="HU13" s="173"/>
+      <c r="HV13" s="173"/>
+      <c r="HW13" s="173"/>
+      <c r="HX13" s="173"/>
+      <c r="HY13" s="173"/>
+      <c r="HZ13" s="173"/>
+      <c r="IA13" s="173"/>
+      <c r="IB13" s="173"/>
+      <c r="IC13" s="173"/>
+      <c r="ID13" s="173"/>
+      <c r="IE13" s="173"/>
+      <c r="IF13" s="173"/>
+      <c r="IG13" s="173"/>
+      <c r="IH13" s="173"/>
+      <c r="II13" s="174"/>
+      <c r="IJ13" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="IK13" s="188"/>
-      <c r="IL13" s="188"/>
-      <c r="IM13" s="188"/>
-      <c r="IN13" s="188"/>
-      <c r="IO13" s="188"/>
-      <c r="IP13" s="188"/>
-      <c r="IQ13" s="188"/>
-      <c r="IR13" s="188"/>
-      <c r="IS13" s="188"/>
-      <c r="IT13" s="188"/>
-      <c r="IU13" s="188"/>
-      <c r="IV13" s="188"/>
-      <c r="IW13" s="188"/>
-      <c r="IX13" s="188"/>
-      <c r="IY13" s="188"/>
-      <c r="IZ13" s="188"/>
-      <c r="JA13" s="188"/>
-      <c r="JB13" s="188"/>
-      <c r="JC13" s="188"/>
-      <c r="JD13" s="188"/>
-      <c r="JE13" s="188"/>
-      <c r="JF13" s="188"/>
-      <c r="JG13" s="188"/>
-      <c r="JH13" s="188"/>
-      <c r="JI13" s="188"/>
-      <c r="JJ13" s="188"/>
-      <c r="JK13" s="188"/>
-      <c r="JL13" s="188"/>
-      <c r="JM13" s="189"/>
-      <c r="JN13" s="190" t="s">
+      <c r="IK13" s="173"/>
+      <c r="IL13" s="173"/>
+      <c r="IM13" s="173"/>
+      <c r="IN13" s="173"/>
+      <c r="IO13" s="173"/>
+      <c r="IP13" s="173"/>
+      <c r="IQ13" s="173"/>
+      <c r="IR13" s="173"/>
+      <c r="IS13" s="173"/>
+      <c r="IT13" s="173"/>
+      <c r="IU13" s="173"/>
+      <c r="IV13" s="173"/>
+      <c r="IW13" s="173"/>
+      <c r="IX13" s="173"/>
+      <c r="IY13" s="173"/>
+      <c r="IZ13" s="173"/>
+      <c r="JA13" s="173"/>
+      <c r="JB13" s="173"/>
+      <c r="JC13" s="173"/>
+      <c r="JD13" s="173"/>
+      <c r="JE13" s="173"/>
+      <c r="JF13" s="173"/>
+      <c r="JG13" s="173"/>
+      <c r="JH13" s="173"/>
+      <c r="JI13" s="173"/>
+      <c r="JJ13" s="173"/>
+      <c r="JK13" s="173"/>
+      <c r="JL13" s="173"/>
+      <c r="JM13" s="174"/>
+      <c r="JN13" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="JO13" s="188"/>
-      <c r="JP13" s="188"/>
-      <c r="JQ13" s="188"/>
-      <c r="JR13" s="188"/>
-      <c r="JS13" s="188"/>
-      <c r="JT13" s="188"/>
-      <c r="JU13" s="188"/>
-      <c r="JV13" s="188"/>
-      <c r="JW13" s="188"/>
-      <c r="JX13" s="188"/>
-      <c r="JY13" s="188"/>
-      <c r="JZ13" s="188"/>
-      <c r="KA13" s="188"/>
-      <c r="KB13" s="188"/>
-      <c r="KC13" s="188"/>
-      <c r="KD13" s="188"/>
-      <c r="KE13" s="188"/>
-      <c r="KF13" s="188"/>
-      <c r="KG13" s="188"/>
-      <c r="KH13" s="188"/>
-      <c r="KI13" s="188"/>
-      <c r="KJ13" s="188"/>
-      <c r="KK13" s="188"/>
-      <c r="KL13" s="188"/>
-      <c r="KM13" s="188"/>
-      <c r="KN13" s="188"/>
-      <c r="KO13" s="188"/>
-      <c r="KP13" s="188"/>
-      <c r="KQ13" s="192"/>
-      <c r="KR13" s="146" t="s">
+      <c r="JO13" s="173"/>
+      <c r="JP13" s="173"/>
+      <c r="JQ13" s="173"/>
+      <c r="JR13" s="173"/>
+      <c r="JS13" s="173"/>
+      <c r="JT13" s="173"/>
+      <c r="JU13" s="173"/>
+      <c r="JV13" s="173"/>
+      <c r="JW13" s="173"/>
+      <c r="JX13" s="173"/>
+      <c r="JY13" s="173"/>
+      <c r="JZ13" s="173"/>
+      <c r="KA13" s="173"/>
+      <c r="KB13" s="173"/>
+      <c r="KC13" s="173"/>
+      <c r="KD13" s="173"/>
+      <c r="KE13" s="173"/>
+      <c r="KF13" s="173"/>
+      <c r="KG13" s="173"/>
+      <c r="KH13" s="173"/>
+      <c r="KI13" s="173"/>
+      <c r="KJ13" s="173"/>
+      <c r="KK13" s="173"/>
+      <c r="KL13" s="173"/>
+      <c r="KM13" s="173"/>
+      <c r="KN13" s="173"/>
+      <c r="KO13" s="173"/>
+      <c r="KP13" s="173"/>
+      <c r="KQ13" s="177"/>
+      <c r="KR13" s="170" t="s">
         <v>17</v>
       </c>
-      <c r="KS13" s="147"/>
-      <c r="KT13" s="187" t="s">
+      <c r="KS13" s="219"/>
+      <c r="KT13" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="KU13" s="188"/>
-      <c r="KV13" s="188"/>
-      <c r="KW13" s="188"/>
-      <c r="KX13" s="188"/>
-      <c r="KY13" s="188"/>
-      <c r="KZ13" s="188"/>
-      <c r="LA13" s="188"/>
-      <c r="LB13" s="188"/>
-      <c r="LC13" s="188"/>
-      <c r="LD13" s="188"/>
-      <c r="LE13" s="188"/>
-      <c r="LF13" s="188"/>
-      <c r="LG13" s="188"/>
-      <c r="LH13" s="188"/>
-      <c r="LI13" s="188"/>
-      <c r="LJ13" s="188"/>
-      <c r="LK13" s="188"/>
-      <c r="LL13" s="188"/>
-      <c r="LM13" s="188"/>
-      <c r="LN13" s="188"/>
-      <c r="LO13" s="188"/>
-      <c r="LP13" s="188"/>
-      <c r="LQ13" s="188"/>
-      <c r="LR13" s="188"/>
-      <c r="LS13" s="188"/>
-      <c r="LT13" s="188"/>
-      <c r="LU13" s="188"/>
-      <c r="LV13" s="188"/>
-      <c r="LW13" s="189"/>
-      <c r="LX13" s="190" t="s">
+      <c r="KU13" s="173"/>
+      <c r="KV13" s="173"/>
+      <c r="KW13" s="173"/>
+      <c r="KX13" s="173"/>
+      <c r="KY13" s="173"/>
+      <c r="KZ13" s="173"/>
+      <c r="LA13" s="173"/>
+      <c r="LB13" s="173"/>
+      <c r="LC13" s="173"/>
+      <c r="LD13" s="173"/>
+      <c r="LE13" s="173"/>
+      <c r="LF13" s="173"/>
+      <c r="LG13" s="173"/>
+      <c r="LH13" s="173"/>
+      <c r="LI13" s="173"/>
+      <c r="LJ13" s="173"/>
+      <c r="LK13" s="173"/>
+      <c r="LL13" s="173"/>
+      <c r="LM13" s="173"/>
+      <c r="LN13" s="173"/>
+      <c r="LO13" s="173"/>
+      <c r="LP13" s="173"/>
+      <c r="LQ13" s="173"/>
+      <c r="LR13" s="173"/>
+      <c r="LS13" s="173"/>
+      <c r="LT13" s="173"/>
+      <c r="LU13" s="173"/>
+      <c r="LV13" s="173"/>
+      <c r="LW13" s="174"/>
+      <c r="LX13" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="LY13" s="188"/>
-      <c r="LZ13" s="188"/>
-      <c r="MA13" s="188"/>
-      <c r="MB13" s="188"/>
-      <c r="MC13" s="188"/>
-      <c r="MD13" s="188"/>
-      <c r="ME13" s="188"/>
-      <c r="MF13" s="188"/>
-      <c r="MG13" s="188"/>
-      <c r="MH13" s="188"/>
-      <c r="MI13" s="188"/>
-      <c r="MJ13" s="188"/>
-      <c r="MK13" s="188"/>
-      <c r="ML13" s="188"/>
-      <c r="MM13" s="188"/>
-      <c r="MN13" s="188"/>
-      <c r="MO13" s="188"/>
-      <c r="MP13" s="188"/>
-      <c r="MQ13" s="188"/>
-      <c r="MR13" s="188"/>
-      <c r="MS13" s="188"/>
-      <c r="MT13" s="188"/>
-      <c r="MU13" s="188"/>
-      <c r="MV13" s="188"/>
-      <c r="MW13" s="188"/>
-      <c r="MX13" s="188"/>
-      <c r="MY13" s="188"/>
-      <c r="MZ13" s="188"/>
-      <c r="NA13" s="189"/>
-      <c r="NB13" s="190" t="s">
+      <c r="LY13" s="173"/>
+      <c r="LZ13" s="173"/>
+      <c r="MA13" s="173"/>
+      <c r="MB13" s="173"/>
+      <c r="MC13" s="173"/>
+      <c r="MD13" s="173"/>
+      <c r="ME13" s="173"/>
+      <c r="MF13" s="173"/>
+      <c r="MG13" s="173"/>
+      <c r="MH13" s="173"/>
+      <c r="MI13" s="173"/>
+      <c r="MJ13" s="173"/>
+      <c r="MK13" s="173"/>
+      <c r="ML13" s="173"/>
+      <c r="MM13" s="173"/>
+      <c r="MN13" s="173"/>
+      <c r="MO13" s="173"/>
+      <c r="MP13" s="173"/>
+      <c r="MQ13" s="173"/>
+      <c r="MR13" s="173"/>
+      <c r="MS13" s="173"/>
+      <c r="MT13" s="173"/>
+      <c r="MU13" s="173"/>
+      <c r="MV13" s="173"/>
+      <c r="MW13" s="173"/>
+      <c r="MX13" s="173"/>
+      <c r="MY13" s="173"/>
+      <c r="MZ13" s="173"/>
+      <c r="NA13" s="174"/>
+      <c r="NB13" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="NC13" s="188"/>
-      <c r="ND13" s="188"/>
-      <c r="NE13" s="188"/>
-      <c r="NF13" s="188"/>
-      <c r="NG13" s="188"/>
-      <c r="NH13" s="188"/>
-      <c r="NI13" s="188"/>
-      <c r="NJ13" s="188"/>
-      <c r="NK13" s="188"/>
-      <c r="NL13" s="188"/>
-      <c r="NM13" s="188"/>
-      <c r="NN13" s="188"/>
-      <c r="NO13" s="188"/>
-      <c r="NP13" s="188"/>
-      <c r="NQ13" s="188"/>
-      <c r="NR13" s="188"/>
-      <c r="NS13" s="188"/>
-      <c r="NT13" s="188"/>
-      <c r="NU13" s="188"/>
-      <c r="NV13" s="188"/>
-      <c r="NW13" s="188"/>
-      <c r="NX13" s="188"/>
-      <c r="NY13" s="188"/>
-      <c r="NZ13" s="188"/>
-      <c r="OA13" s="188"/>
-      <c r="OB13" s="188"/>
-      <c r="OC13" s="188"/>
-      <c r="OD13" s="188"/>
-      <c r="OE13" s="189"/>
-      <c r="OF13" s="190" t="s">
+      <c r="NC13" s="173"/>
+      <c r="ND13" s="173"/>
+      <c r="NE13" s="173"/>
+      <c r="NF13" s="173"/>
+      <c r="NG13" s="173"/>
+      <c r="NH13" s="173"/>
+      <c r="NI13" s="173"/>
+      <c r="NJ13" s="173"/>
+      <c r="NK13" s="173"/>
+      <c r="NL13" s="173"/>
+      <c r="NM13" s="173"/>
+      <c r="NN13" s="173"/>
+      <c r="NO13" s="173"/>
+      <c r="NP13" s="173"/>
+      <c r="NQ13" s="173"/>
+      <c r="NR13" s="173"/>
+      <c r="NS13" s="173"/>
+      <c r="NT13" s="173"/>
+      <c r="NU13" s="173"/>
+      <c r="NV13" s="173"/>
+      <c r="NW13" s="173"/>
+      <c r="NX13" s="173"/>
+      <c r="NY13" s="173"/>
+      <c r="NZ13" s="173"/>
+      <c r="OA13" s="173"/>
+      <c r="OB13" s="173"/>
+      <c r="OC13" s="173"/>
+      <c r="OD13" s="173"/>
+      <c r="OE13" s="174"/>
+      <c r="OF13" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="OG13" s="188"/>
-      <c r="OH13" s="188"/>
-      <c r="OI13" s="188"/>
-      <c r="OJ13" s="188"/>
-      <c r="OK13" s="188"/>
-      <c r="OL13" s="188"/>
-      <c r="OM13" s="188"/>
-      <c r="ON13" s="188"/>
-      <c r="OO13" s="188"/>
-      <c r="OP13" s="188"/>
-      <c r="OQ13" s="188"/>
-      <c r="OR13" s="188"/>
-      <c r="OS13" s="188"/>
-      <c r="OT13" s="188"/>
-      <c r="OU13" s="188"/>
-      <c r="OV13" s="188"/>
-      <c r="OW13" s="188"/>
-      <c r="OX13" s="188"/>
-      <c r="OY13" s="188"/>
-      <c r="OZ13" s="188"/>
-      <c r="PA13" s="188"/>
-      <c r="PB13" s="188"/>
-      <c r="PC13" s="188"/>
-      <c r="PD13" s="188"/>
-      <c r="PE13" s="188"/>
-      <c r="PF13" s="188"/>
-      <c r="PG13" s="188"/>
-      <c r="PH13" s="188"/>
-      <c r="PI13" s="192"/>
-      <c r="PJ13" s="187" t="s">
+      <c r="OG13" s="173"/>
+      <c r="OH13" s="173"/>
+      <c r="OI13" s="173"/>
+      <c r="OJ13" s="173"/>
+      <c r="OK13" s="173"/>
+      <c r="OL13" s="173"/>
+      <c r="OM13" s="173"/>
+      <c r="ON13" s="173"/>
+      <c r="OO13" s="173"/>
+      <c r="OP13" s="173"/>
+      <c r="OQ13" s="173"/>
+      <c r="OR13" s="173"/>
+      <c r="OS13" s="173"/>
+      <c r="OT13" s="173"/>
+      <c r="OU13" s="173"/>
+      <c r="OV13" s="173"/>
+      <c r="OW13" s="173"/>
+      <c r="OX13" s="173"/>
+      <c r="OY13" s="173"/>
+      <c r="OZ13" s="173"/>
+      <c r="PA13" s="173"/>
+      <c r="PB13" s="173"/>
+      <c r="PC13" s="173"/>
+      <c r="PD13" s="173"/>
+      <c r="PE13" s="173"/>
+      <c r="PF13" s="173"/>
+      <c r="PG13" s="173"/>
+      <c r="PH13" s="173"/>
+      <c r="PI13" s="177"/>
+      <c r="PJ13" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="PK13" s="188"/>
-      <c r="PL13" s="188"/>
-      <c r="PM13" s="188"/>
-      <c r="PN13" s="188"/>
-      <c r="PO13" s="188"/>
-      <c r="PP13" s="188"/>
-      <c r="PQ13" s="188"/>
-      <c r="PR13" s="188"/>
-      <c r="PS13" s="188"/>
-      <c r="PT13" s="188"/>
-      <c r="PU13" s="188"/>
-      <c r="PV13" s="188"/>
-      <c r="PW13" s="188"/>
-      <c r="PX13" s="188"/>
-      <c r="PY13" s="188"/>
-      <c r="PZ13" s="188"/>
-      <c r="QA13" s="188"/>
-      <c r="QB13" s="188"/>
-      <c r="QC13" s="188"/>
-      <c r="QD13" s="188"/>
-      <c r="QE13" s="188"/>
-      <c r="QF13" s="188"/>
-      <c r="QG13" s="188"/>
-      <c r="QH13" s="188"/>
-      <c r="QI13" s="188"/>
-      <c r="QJ13" s="188"/>
-      <c r="QK13" s="188"/>
-      <c r="QL13" s="188"/>
-      <c r="QM13" s="189"/>
-      <c r="QN13" s="190" t="s">
+      <c r="PK13" s="173"/>
+      <c r="PL13" s="173"/>
+      <c r="PM13" s="173"/>
+      <c r="PN13" s="173"/>
+      <c r="PO13" s="173"/>
+      <c r="PP13" s="173"/>
+      <c r="PQ13" s="173"/>
+      <c r="PR13" s="173"/>
+      <c r="PS13" s="173"/>
+      <c r="PT13" s="173"/>
+      <c r="PU13" s="173"/>
+      <c r="PV13" s="173"/>
+      <c r="PW13" s="173"/>
+      <c r="PX13" s="173"/>
+      <c r="PY13" s="173"/>
+      <c r="PZ13" s="173"/>
+      <c r="QA13" s="173"/>
+      <c r="QB13" s="173"/>
+      <c r="QC13" s="173"/>
+      <c r="QD13" s="173"/>
+      <c r="QE13" s="173"/>
+      <c r="QF13" s="173"/>
+      <c r="QG13" s="173"/>
+      <c r="QH13" s="173"/>
+      <c r="QI13" s="173"/>
+      <c r="QJ13" s="173"/>
+      <c r="QK13" s="173"/>
+      <c r="QL13" s="173"/>
+      <c r="QM13" s="174"/>
+      <c r="QN13" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="QO13" s="188"/>
-      <c r="QP13" s="188"/>
-      <c r="QQ13" s="188"/>
-      <c r="QR13" s="188"/>
-      <c r="QS13" s="188"/>
-      <c r="QT13" s="188"/>
-      <c r="QU13" s="188"/>
-      <c r="QV13" s="188"/>
-      <c r="QW13" s="188"/>
-      <c r="QX13" s="188"/>
-      <c r="QY13" s="188"/>
-      <c r="QZ13" s="188"/>
-      <c r="RA13" s="188"/>
-      <c r="RB13" s="188"/>
-      <c r="RC13" s="188"/>
-      <c r="RD13" s="188"/>
-      <c r="RE13" s="188"/>
-      <c r="RF13" s="188"/>
-      <c r="RG13" s="188"/>
-      <c r="RH13" s="188"/>
-      <c r="RI13" s="188"/>
-      <c r="RJ13" s="188"/>
-      <c r="RK13" s="188"/>
-      <c r="RL13" s="188"/>
-      <c r="RM13" s="188"/>
-      <c r="RN13" s="188"/>
-      <c r="RO13" s="188"/>
-      <c r="RP13" s="188"/>
-      <c r="RQ13" s="189"/>
-      <c r="RR13" s="190" t="s">
+      <c r="QO13" s="173"/>
+      <c r="QP13" s="173"/>
+      <c r="QQ13" s="173"/>
+      <c r="QR13" s="173"/>
+      <c r="QS13" s="173"/>
+      <c r="QT13" s="173"/>
+      <c r="QU13" s="173"/>
+      <c r="QV13" s="173"/>
+      <c r="QW13" s="173"/>
+      <c r="QX13" s="173"/>
+      <c r="QY13" s="173"/>
+      <c r="QZ13" s="173"/>
+      <c r="RA13" s="173"/>
+      <c r="RB13" s="173"/>
+      <c r="RC13" s="173"/>
+      <c r="RD13" s="173"/>
+      <c r="RE13" s="173"/>
+      <c r="RF13" s="173"/>
+      <c r="RG13" s="173"/>
+      <c r="RH13" s="173"/>
+      <c r="RI13" s="173"/>
+      <c r="RJ13" s="173"/>
+      <c r="RK13" s="173"/>
+      <c r="RL13" s="173"/>
+      <c r="RM13" s="173"/>
+      <c r="RN13" s="173"/>
+      <c r="RO13" s="173"/>
+      <c r="RP13" s="173"/>
+      <c r="RQ13" s="174"/>
+      <c r="RR13" s="175" t="s">
         <v>18</v>
       </c>
-      <c r="RS13" s="188"/>
-      <c r="RT13" s="188"/>
-      <c r="RU13" s="188"/>
-      <c r="RV13" s="188"/>
-      <c r="RW13" s="188"/>
-      <c r="RX13" s="188"/>
-      <c r="RY13" s="188"/>
-      <c r="RZ13" s="188"/>
-      <c r="SA13" s="188"/>
-      <c r="SB13" s="188"/>
-      <c r="SC13" s="188"/>
-      <c r="SD13" s="188"/>
-      <c r="SE13" s="188"/>
-      <c r="SF13" s="188"/>
-      <c r="SG13" s="188"/>
-      <c r="SH13" s="188"/>
-      <c r="SI13" s="188"/>
-      <c r="SJ13" s="188"/>
-      <c r="SK13" s="188"/>
-      <c r="SL13" s="188"/>
-      <c r="SM13" s="188"/>
-      <c r="SN13" s="188"/>
-      <c r="SO13" s="188"/>
-      <c r="SP13" s="188"/>
-      <c r="SQ13" s="188"/>
-      <c r="SR13" s="188"/>
-      <c r="SS13" s="188"/>
-      <c r="ST13" s="188"/>
-      <c r="SU13" s="189"/>
-      <c r="SV13" s="190" t="s">
+      <c r="RS13" s="173"/>
+      <c r="RT13" s="173"/>
+      <c r="RU13" s="173"/>
+      <c r="RV13" s="173"/>
+      <c r="RW13" s="173"/>
+      <c r="RX13" s="173"/>
+      <c r="RY13" s="173"/>
+      <c r="RZ13" s="173"/>
+      <c r="SA13" s="173"/>
+      <c r="SB13" s="173"/>
+      <c r="SC13" s="173"/>
+      <c r="SD13" s="173"/>
+      <c r="SE13" s="173"/>
+      <c r="SF13" s="173"/>
+      <c r="SG13" s="173"/>
+      <c r="SH13" s="173"/>
+      <c r="SI13" s="173"/>
+      <c r="SJ13" s="173"/>
+      <c r="SK13" s="173"/>
+      <c r="SL13" s="173"/>
+      <c r="SM13" s="173"/>
+      <c r="SN13" s="173"/>
+      <c r="SO13" s="173"/>
+      <c r="SP13" s="173"/>
+      <c r="SQ13" s="173"/>
+      <c r="SR13" s="173"/>
+      <c r="SS13" s="173"/>
+      <c r="ST13" s="173"/>
+      <c r="SU13" s="174"/>
+      <c r="SV13" s="175" t="s">
         <v>19</v>
       </c>
-      <c r="SW13" s="188"/>
-      <c r="SX13" s="188"/>
-      <c r="SY13" s="188"/>
-      <c r="SZ13" s="188"/>
-      <c r="TA13" s="188"/>
-      <c r="TB13" s="188"/>
-      <c r="TC13" s="188"/>
-      <c r="TD13" s="188"/>
-      <c r="TE13" s="188"/>
-      <c r="TF13" s="188"/>
-      <c r="TG13" s="188"/>
-      <c r="TH13" s="188"/>
-      <c r="TI13" s="188"/>
-      <c r="TJ13" s="188"/>
-      <c r="TK13" s="188"/>
-      <c r="TL13" s="188"/>
-      <c r="TM13" s="188"/>
-      <c r="TN13" s="188"/>
-      <c r="TO13" s="188"/>
-      <c r="TP13" s="188"/>
-      <c r="TQ13" s="188"/>
-      <c r="TR13" s="188"/>
-      <c r="TS13" s="188"/>
-      <c r="TT13" s="188"/>
-      <c r="TU13" s="188"/>
-      <c r="TV13" s="188"/>
-      <c r="TW13" s="188"/>
-      <c r="TX13" s="188"/>
-      <c r="TY13" s="192"/>
-      <c r="TZ13" s="187" t="s">
+      <c r="SW13" s="173"/>
+      <c r="SX13" s="173"/>
+      <c r="SY13" s="173"/>
+      <c r="SZ13" s="173"/>
+      <c r="TA13" s="173"/>
+      <c r="TB13" s="173"/>
+      <c r="TC13" s="173"/>
+      <c r="TD13" s="173"/>
+      <c r="TE13" s="173"/>
+      <c r="TF13" s="173"/>
+      <c r="TG13" s="173"/>
+      <c r="TH13" s="173"/>
+      <c r="TI13" s="173"/>
+      <c r="TJ13" s="173"/>
+      <c r="TK13" s="173"/>
+      <c r="TL13" s="173"/>
+      <c r="TM13" s="173"/>
+      <c r="TN13" s="173"/>
+      <c r="TO13" s="173"/>
+      <c r="TP13" s="173"/>
+      <c r="TQ13" s="173"/>
+      <c r="TR13" s="173"/>
+      <c r="TS13" s="173"/>
+      <c r="TT13" s="173"/>
+      <c r="TU13" s="173"/>
+      <c r="TV13" s="173"/>
+      <c r="TW13" s="173"/>
+      <c r="TX13" s="173"/>
+      <c r="TY13" s="177"/>
+      <c r="TZ13" s="172" t="s">
         <v>20</v>
       </c>
-      <c r="UA13" s="188"/>
-      <c r="UB13" s="188"/>
-      <c r="UC13" s="188"/>
-      <c r="UD13" s="188"/>
-      <c r="UE13" s="188"/>
-      <c r="UF13" s="188"/>
-      <c r="UG13" s="188"/>
-      <c r="UH13" s="188"/>
-      <c r="UI13" s="188"/>
-      <c r="UJ13" s="188"/>
-      <c r="UK13" s="188"/>
-      <c r="UL13" s="188"/>
-      <c r="UM13" s="188"/>
-      <c r="UN13" s="188"/>
-      <c r="UO13" s="188"/>
-      <c r="UP13" s="188"/>
-      <c r="UQ13" s="188"/>
-      <c r="UR13" s="188"/>
-      <c r="US13" s="188"/>
-      <c r="UT13" s="188"/>
-      <c r="UU13" s="188"/>
-      <c r="UV13" s="188"/>
-      <c r="UW13" s="188"/>
-      <c r="UX13" s="188"/>
-      <c r="UY13" s="188"/>
-      <c r="UZ13" s="188"/>
-      <c r="VA13" s="188"/>
-      <c r="VB13" s="188"/>
-      <c r="VC13" s="192"/>
+      <c r="UA13" s="173"/>
+      <c r="UB13" s="173"/>
+      <c r="UC13" s="173"/>
+      <c r="UD13" s="173"/>
+      <c r="UE13" s="173"/>
+      <c r="UF13" s="173"/>
+      <c r="UG13" s="173"/>
+      <c r="UH13" s="173"/>
+      <c r="UI13" s="173"/>
+      <c r="UJ13" s="173"/>
+      <c r="UK13" s="173"/>
+      <c r="UL13" s="173"/>
+      <c r="UM13" s="173"/>
+      <c r="UN13" s="173"/>
+      <c r="UO13" s="173"/>
+      <c r="UP13" s="173"/>
+      <c r="UQ13" s="173"/>
+      <c r="UR13" s="173"/>
+      <c r="US13" s="173"/>
+      <c r="UT13" s="173"/>
+      <c r="UU13" s="173"/>
+      <c r="UV13" s="173"/>
+      <c r="UW13" s="173"/>
+      <c r="UX13" s="173"/>
+      <c r="UY13" s="173"/>
+      <c r="UZ13" s="173"/>
+      <c r="VA13" s="173"/>
+      <c r="VB13" s="173"/>
+      <c r="VC13" s="177"/>
     </row>
     <row r="14" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="179">
+      <c r="C14" s="171"/>
+      <c r="D14" s="178">
         <v>45414</v>
       </c>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="177"/>
-      <c r="M14" s="177"/>
-      <c r="N14" s="177"/>
-      <c r="O14" s="177"/>
-      <c r="P14" s="177"/>
-      <c r="Q14" s="177"/>
-      <c r="R14" s="177"/>
-      <c r="S14" s="177"/>
-      <c r="T14" s="177"/>
-      <c r="U14" s="177"/>
-      <c r="V14" s="177"/>
-      <c r="W14" s="177"/>
-      <c r="X14" s="177"/>
-      <c r="Y14" s="177"/>
-      <c r="Z14" s="177"/>
-      <c r="AA14" s="177"/>
-      <c r="AB14" s="177"/>
-      <c r="AC14" s="177"/>
-      <c r="AD14" s="177"/>
-      <c r="AE14" s="177"/>
-      <c r="AF14" s="177"/>
-      <c r="AG14" s="181"/>
-      <c r="AH14" s="176">
+      <c r="E14" s="179"/>
+      <c r="F14" s="179"/>
+      <c r="G14" s="179"/>
+      <c r="H14" s="179"/>
+      <c r="I14" s="179"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="179"/>
+      <c r="O14" s="179"/>
+      <c r="P14" s="179"/>
+      <c r="Q14" s="179"/>
+      <c r="R14" s="179"/>
+      <c r="S14" s="179"/>
+      <c r="T14" s="179"/>
+      <c r="U14" s="179"/>
+      <c r="V14" s="179"/>
+      <c r="W14" s="179"/>
+      <c r="X14" s="179"/>
+      <c r="Y14" s="179"/>
+      <c r="Z14" s="179"/>
+      <c r="AA14" s="179"/>
+      <c r="AB14" s="179"/>
+      <c r="AC14" s="179"/>
+      <c r="AD14" s="179"/>
+      <c r="AE14" s="179"/>
+      <c r="AF14" s="179"/>
+      <c r="AG14" s="180"/>
+      <c r="AH14" s="181">
         <v>45415</v>
       </c>
-      <c r="AI14" s="177"/>
-      <c r="AJ14" s="177"/>
-      <c r="AK14" s="177"/>
-      <c r="AL14" s="177"/>
-      <c r="AM14" s="177"/>
-      <c r="AN14" s="177"/>
-      <c r="AO14" s="177"/>
-      <c r="AP14" s="177"/>
-      <c r="AQ14" s="177"/>
-      <c r="AR14" s="177"/>
-      <c r="AS14" s="177"/>
-      <c r="AT14" s="177"/>
-      <c r="AU14" s="177"/>
-      <c r="AV14" s="177"/>
-      <c r="AW14" s="177"/>
-      <c r="AX14" s="177"/>
-      <c r="AY14" s="177"/>
-      <c r="AZ14" s="177"/>
-      <c r="BA14" s="177"/>
-      <c r="BB14" s="177"/>
-      <c r="BC14" s="177"/>
-      <c r="BD14" s="177"/>
-      <c r="BE14" s="177"/>
-      <c r="BF14" s="177"/>
-      <c r="BG14" s="177"/>
-      <c r="BH14" s="177"/>
-      <c r="BI14" s="177"/>
-      <c r="BJ14" s="177"/>
-      <c r="BK14" s="183"/>
-      <c r="BL14" s="179">
+      <c r="AI14" s="179"/>
+      <c r="AJ14" s="179"/>
+      <c r="AK14" s="179"/>
+      <c r="AL14" s="179"/>
+      <c r="AM14" s="179"/>
+      <c r="AN14" s="179"/>
+      <c r="AO14" s="179"/>
+      <c r="AP14" s="179"/>
+      <c r="AQ14" s="179"/>
+      <c r="AR14" s="179"/>
+      <c r="AS14" s="179"/>
+      <c r="AT14" s="179"/>
+      <c r="AU14" s="179"/>
+      <c r="AV14" s="179"/>
+      <c r="AW14" s="179"/>
+      <c r="AX14" s="179"/>
+      <c r="AY14" s="179"/>
+      <c r="AZ14" s="179"/>
+      <c r="BA14" s="179"/>
+      <c r="BB14" s="179"/>
+      <c r="BC14" s="179"/>
+      <c r="BD14" s="179"/>
+      <c r="BE14" s="179"/>
+      <c r="BF14" s="179"/>
+      <c r="BG14" s="179"/>
+      <c r="BH14" s="179"/>
+      <c r="BI14" s="179"/>
+      <c r="BJ14" s="179"/>
+      <c r="BK14" s="182"/>
+      <c r="BL14" s="178">
         <v>45418</v>
       </c>
-      <c r="BM14" s="177"/>
-      <c r="BN14" s="177"/>
-      <c r="BO14" s="177"/>
-      <c r="BP14" s="177"/>
-      <c r="BQ14" s="177"/>
-      <c r="BR14" s="177"/>
-      <c r="BS14" s="177"/>
-      <c r="BT14" s="177"/>
-      <c r="BU14" s="177"/>
-      <c r="BV14" s="177"/>
-      <c r="BW14" s="177"/>
-      <c r="BX14" s="177"/>
-      <c r="BY14" s="177"/>
-      <c r="BZ14" s="177"/>
-      <c r="CA14" s="177"/>
-      <c r="CB14" s="177"/>
-      <c r="CC14" s="177"/>
-      <c r="CD14" s="177"/>
-      <c r="CE14" s="177"/>
-      <c r="CF14" s="177"/>
-      <c r="CG14" s="177"/>
-      <c r="CH14" s="177"/>
-      <c r="CI14" s="177"/>
-      <c r="CJ14" s="177"/>
-      <c r="CK14" s="177"/>
-      <c r="CL14" s="177"/>
-      <c r="CM14" s="177"/>
-      <c r="CN14" s="177"/>
-      <c r="CO14" s="181"/>
-      <c r="CP14" s="176">
+      <c r="BM14" s="179"/>
+      <c r="BN14" s="179"/>
+      <c r="BO14" s="179"/>
+      <c r="BP14" s="179"/>
+      <c r="BQ14" s="179"/>
+      <c r="BR14" s="179"/>
+      <c r="BS14" s="179"/>
+      <c r="BT14" s="179"/>
+      <c r="BU14" s="179"/>
+      <c r="BV14" s="179"/>
+      <c r="BW14" s="179"/>
+      <c r="BX14" s="179"/>
+      <c r="BY14" s="179"/>
+      <c r="BZ14" s="179"/>
+      <c r="CA14" s="179"/>
+      <c r="CB14" s="179"/>
+      <c r="CC14" s="179"/>
+      <c r="CD14" s="179"/>
+      <c r="CE14" s="179"/>
+      <c r="CF14" s="179"/>
+      <c r="CG14" s="179"/>
+      <c r="CH14" s="179"/>
+      <c r="CI14" s="179"/>
+      <c r="CJ14" s="179"/>
+      <c r="CK14" s="179"/>
+      <c r="CL14" s="179"/>
+      <c r="CM14" s="179"/>
+      <c r="CN14" s="179"/>
+      <c r="CO14" s="180"/>
+      <c r="CP14" s="181">
         <v>45420</v>
       </c>
-      <c r="CQ14" s="177"/>
-      <c r="CR14" s="177"/>
-      <c r="CS14" s="177"/>
-      <c r="CT14" s="177"/>
-      <c r="CU14" s="177"/>
-      <c r="CV14" s="177"/>
-      <c r="CW14" s="177"/>
-      <c r="CX14" s="177"/>
-      <c r="CY14" s="177"/>
-      <c r="CZ14" s="177"/>
-      <c r="DA14" s="177"/>
-      <c r="DB14" s="177"/>
-      <c r="DC14" s="177"/>
-      <c r="DD14" s="177"/>
-      <c r="DE14" s="177"/>
-      <c r="DF14" s="177"/>
-      <c r="DG14" s="177"/>
-      <c r="DH14" s="177"/>
-      <c r="DI14" s="177"/>
-      <c r="DJ14" s="177"/>
-      <c r="DK14" s="177"/>
-      <c r="DL14" s="177"/>
-      <c r="DM14" s="177"/>
-      <c r="DN14" s="177"/>
-      <c r="DO14" s="177"/>
-      <c r="DP14" s="177"/>
-      <c r="DQ14" s="177"/>
-      <c r="DR14" s="177"/>
-      <c r="DS14" s="181"/>
-      <c r="DT14" s="176">
+      <c r="CQ14" s="179"/>
+      <c r="CR14" s="179"/>
+      <c r="CS14" s="179"/>
+      <c r="CT14" s="179"/>
+      <c r="CU14" s="179"/>
+      <c r="CV14" s="179"/>
+      <c r="CW14" s="179"/>
+      <c r="CX14" s="179"/>
+      <c r="CY14" s="179"/>
+      <c r="CZ14" s="179"/>
+      <c r="DA14" s="179"/>
+      <c r="DB14" s="179"/>
+      <c r="DC14" s="179"/>
+      <c r="DD14" s="179"/>
+      <c r="DE14" s="179"/>
+      <c r="DF14" s="179"/>
+      <c r="DG14" s="179"/>
+      <c r="DH14" s="179"/>
+      <c r="DI14" s="179"/>
+      <c r="DJ14" s="179"/>
+      <c r="DK14" s="179"/>
+      <c r="DL14" s="179"/>
+      <c r="DM14" s="179"/>
+      <c r="DN14" s="179"/>
+      <c r="DO14" s="179"/>
+      <c r="DP14" s="179"/>
+      <c r="DQ14" s="179"/>
+      <c r="DR14" s="179"/>
+      <c r="DS14" s="180"/>
+      <c r="DT14" s="181">
         <v>45421</v>
       </c>
-      <c r="DU14" s="177"/>
-      <c r="DV14" s="177"/>
-      <c r="DW14" s="177"/>
-      <c r="DX14" s="177"/>
-      <c r="DY14" s="177"/>
-      <c r="DZ14" s="177"/>
-      <c r="EA14" s="177"/>
-      <c r="EB14" s="177"/>
-      <c r="EC14" s="177"/>
-      <c r="ED14" s="177"/>
-      <c r="EE14" s="177"/>
-      <c r="EF14" s="177"/>
-      <c r="EG14" s="177"/>
-      <c r="EH14" s="177"/>
-      <c r="EI14" s="177"/>
-      <c r="EJ14" s="177"/>
-      <c r="EK14" s="177"/>
-      <c r="EL14" s="177"/>
-      <c r="EM14" s="177"/>
-      <c r="EN14" s="177"/>
-      <c r="EO14" s="177"/>
-      <c r="EP14" s="177"/>
-      <c r="EQ14" s="177"/>
-      <c r="ER14" s="177"/>
-      <c r="ES14" s="177"/>
-      <c r="ET14" s="177"/>
-      <c r="EU14" s="177"/>
-      <c r="EV14" s="177"/>
-      <c r="EW14" s="181"/>
-      <c r="EX14" s="176">
+      <c r="DU14" s="179"/>
+      <c r="DV14" s="179"/>
+      <c r="DW14" s="179"/>
+      <c r="DX14" s="179"/>
+      <c r="DY14" s="179"/>
+      <c r="DZ14" s="179"/>
+      <c r="EA14" s="179"/>
+      <c r="EB14" s="179"/>
+      <c r="EC14" s="179"/>
+      <c r="ED14" s="179"/>
+      <c r="EE14" s="179"/>
+      <c r="EF14" s="179"/>
+      <c r="EG14" s="179"/>
+      <c r="EH14" s="179"/>
+      <c r="EI14" s="179"/>
+      <c r="EJ14" s="179"/>
+      <c r="EK14" s="179"/>
+      <c r="EL14" s="179"/>
+      <c r="EM14" s="179"/>
+      <c r="EN14" s="179"/>
+      <c r="EO14" s="179"/>
+      <c r="EP14" s="179"/>
+      <c r="EQ14" s="179"/>
+      <c r="ER14" s="179"/>
+      <c r="ES14" s="179"/>
+      <c r="ET14" s="179"/>
+      <c r="EU14" s="179"/>
+      <c r="EV14" s="179"/>
+      <c r="EW14" s="180"/>
+      <c r="EX14" s="181">
         <v>45422</v>
       </c>
-      <c r="EY14" s="177"/>
-      <c r="EZ14" s="177"/>
-      <c r="FA14" s="177"/>
-      <c r="FB14" s="177"/>
-      <c r="FC14" s="177"/>
-      <c r="FD14" s="177"/>
-      <c r="FE14" s="177"/>
-      <c r="FF14" s="177"/>
-      <c r="FG14" s="177"/>
-      <c r="FH14" s="177"/>
-      <c r="FI14" s="177"/>
-      <c r="FJ14" s="177"/>
-      <c r="FK14" s="177"/>
-      <c r="FL14" s="177"/>
-      <c r="FM14" s="177"/>
-      <c r="FN14" s="177"/>
-      <c r="FO14" s="177"/>
-      <c r="FP14" s="177"/>
-      <c r="FQ14" s="177"/>
-      <c r="FR14" s="177"/>
-      <c r="FS14" s="177"/>
-      <c r="FT14" s="177"/>
-      <c r="FU14" s="177"/>
-      <c r="FV14" s="177"/>
-      <c r="FW14" s="177"/>
-      <c r="FX14" s="177"/>
-      <c r="FY14" s="177"/>
-      <c r="FZ14" s="177"/>
-      <c r="GA14" s="183"/>
-      <c r="GB14" s="179">
+      <c r="EY14" s="179"/>
+      <c r="EZ14" s="179"/>
+      <c r="FA14" s="179"/>
+      <c r="FB14" s="179"/>
+      <c r="FC14" s="179"/>
+      <c r="FD14" s="179"/>
+      <c r="FE14" s="179"/>
+      <c r="FF14" s="179"/>
+      <c r="FG14" s="179"/>
+      <c r="FH14" s="179"/>
+      <c r="FI14" s="179"/>
+      <c r="FJ14" s="179"/>
+      <c r="FK14" s="179"/>
+      <c r="FL14" s="179"/>
+      <c r="FM14" s="179"/>
+      <c r="FN14" s="179"/>
+      <c r="FO14" s="179"/>
+      <c r="FP14" s="179"/>
+      <c r="FQ14" s="179"/>
+      <c r="FR14" s="179"/>
+      <c r="FS14" s="179"/>
+      <c r="FT14" s="179"/>
+      <c r="FU14" s="179"/>
+      <c r="FV14" s="179"/>
+      <c r="FW14" s="179"/>
+      <c r="FX14" s="179"/>
+      <c r="FY14" s="179"/>
+      <c r="FZ14" s="179"/>
+      <c r="GA14" s="182"/>
+      <c r="GB14" s="178">
         <v>45425</v>
       </c>
-      <c r="GC14" s="177"/>
-      <c r="GD14" s="177"/>
-      <c r="GE14" s="177"/>
-      <c r="GF14" s="177"/>
-      <c r="GG14" s="177"/>
-      <c r="GH14" s="177"/>
-      <c r="GI14" s="177"/>
-      <c r="GJ14" s="177"/>
-      <c r="GK14" s="177"/>
-      <c r="GL14" s="177"/>
-      <c r="GM14" s="177"/>
-      <c r="GN14" s="177"/>
-      <c r="GO14" s="177"/>
-      <c r="GP14" s="177"/>
-      <c r="GQ14" s="177"/>
-      <c r="GR14" s="177"/>
-      <c r="GS14" s="177"/>
-      <c r="GT14" s="177"/>
-      <c r="GU14" s="177"/>
-      <c r="GV14" s="177"/>
-      <c r="GW14" s="177"/>
-      <c r="GX14" s="177"/>
-      <c r="GY14" s="177"/>
-      <c r="GZ14" s="177"/>
-      <c r="HA14" s="177"/>
-      <c r="HB14" s="177"/>
-      <c r="HC14" s="177"/>
-      <c r="HD14" s="177"/>
-      <c r="HE14" s="181"/>
-      <c r="HF14" s="176">
+      <c r="GC14" s="179"/>
+      <c r="GD14" s="179"/>
+      <c r="GE14" s="179"/>
+      <c r="GF14" s="179"/>
+      <c r="GG14" s="179"/>
+      <c r="GH14" s="179"/>
+      <c r="GI14" s="179"/>
+      <c r="GJ14" s="179"/>
+      <c r="GK14" s="179"/>
+      <c r="GL14" s="179"/>
+      <c r="GM14" s="179"/>
+      <c r="GN14" s="179"/>
+      <c r="GO14" s="179"/>
+      <c r="GP14" s="179"/>
+      <c r="GQ14" s="179"/>
+      <c r="GR14" s="179"/>
+      <c r="GS14" s="179"/>
+      <c r="GT14" s="179"/>
+      <c r="GU14" s="179"/>
+      <c r="GV14" s="179"/>
+      <c r="GW14" s="179"/>
+      <c r="GX14" s="179"/>
+      <c r="GY14" s="179"/>
+      <c r="GZ14" s="179"/>
+      <c r="HA14" s="179"/>
+      <c r="HB14" s="179"/>
+      <c r="HC14" s="179"/>
+      <c r="HD14" s="179"/>
+      <c r="HE14" s="180"/>
+      <c r="HF14" s="181">
         <v>45427</v>
       </c>
-      <c r="HG14" s="177"/>
-      <c r="HH14" s="177"/>
-      <c r="HI14" s="177"/>
-      <c r="HJ14" s="177"/>
-      <c r="HK14" s="177"/>
-      <c r="HL14" s="177"/>
-      <c r="HM14" s="177"/>
-      <c r="HN14" s="177"/>
-      <c r="HO14" s="177"/>
-      <c r="HP14" s="177"/>
-      <c r="HQ14" s="177"/>
-      <c r="HR14" s="177"/>
-      <c r="HS14" s="177"/>
-      <c r="HT14" s="177"/>
-      <c r="HU14" s="177"/>
-      <c r="HV14" s="177"/>
-      <c r="HW14" s="177"/>
-      <c r="HX14" s="177"/>
-      <c r="HY14" s="177"/>
-      <c r="HZ14" s="177"/>
-      <c r="IA14" s="177"/>
-      <c r="IB14" s="177"/>
-      <c r="IC14" s="177"/>
-      <c r="ID14" s="177"/>
-      <c r="IE14" s="177"/>
-      <c r="IF14" s="177"/>
-      <c r="IG14" s="177"/>
-      <c r="IH14" s="177"/>
-      <c r="II14" s="181"/>
-      <c r="IJ14" s="176">
+      <c r="HG14" s="179"/>
+      <c r="HH14" s="179"/>
+      <c r="HI14" s="179"/>
+      <c r="HJ14" s="179"/>
+      <c r="HK14" s="179"/>
+      <c r="HL14" s="179"/>
+      <c r="HM14" s="179"/>
+      <c r="HN14" s="179"/>
+      <c r="HO14" s="179"/>
+      <c r="HP14" s="179"/>
+      <c r="HQ14" s="179"/>
+      <c r="HR14" s="179"/>
+      <c r="HS14" s="179"/>
+      <c r="HT14" s="179"/>
+      <c r="HU14" s="179"/>
+      <c r="HV14" s="179"/>
+      <c r="HW14" s="179"/>
+      <c r="HX14" s="179"/>
+      <c r="HY14" s="179"/>
+      <c r="HZ14" s="179"/>
+      <c r="IA14" s="179"/>
+      <c r="IB14" s="179"/>
+      <c r="IC14" s="179"/>
+      <c r="ID14" s="179"/>
+      <c r="IE14" s="179"/>
+      <c r="IF14" s="179"/>
+      <c r="IG14" s="179"/>
+      <c r="IH14" s="179"/>
+      <c r="II14" s="180"/>
+      <c r="IJ14" s="181">
         <v>45428</v>
       </c>
-      <c r="IK14" s="177"/>
-      <c r="IL14" s="177"/>
-      <c r="IM14" s="177"/>
-      <c r="IN14" s="177"/>
-      <c r="IO14" s="177"/>
-      <c r="IP14" s="177"/>
-      <c r="IQ14" s="177"/>
-      <c r="IR14" s="177"/>
-      <c r="IS14" s="177"/>
-      <c r="IT14" s="177"/>
-      <c r="IU14" s="177"/>
-      <c r="IV14" s="177"/>
-      <c r="IW14" s="177"/>
-      <c r="IX14" s="177"/>
-      <c r="IY14" s="177"/>
-      <c r="IZ14" s="177"/>
-      <c r="JA14" s="177"/>
-      <c r="JB14" s="177"/>
-      <c r="JC14" s="177"/>
-      <c r="JD14" s="177"/>
-      <c r="JE14" s="177"/>
-      <c r="JF14" s="177"/>
-      <c r="JG14" s="177"/>
-      <c r="JH14" s="177"/>
-      <c r="JI14" s="177"/>
-      <c r="JJ14" s="177"/>
-      <c r="JK14" s="177"/>
-      <c r="JL14" s="177"/>
-      <c r="JM14" s="181"/>
-      <c r="JN14" s="176">
+      <c r="IK14" s="179"/>
+      <c r="IL14" s="179"/>
+      <c r="IM14" s="179"/>
+      <c r="IN14" s="179"/>
+      <c r="IO14" s="179"/>
+      <c r="IP14" s="179"/>
+      <c r="IQ14" s="179"/>
+      <c r="IR14" s="179"/>
+      <c r="IS14" s="179"/>
+      <c r="IT14" s="179"/>
+      <c r="IU14" s="179"/>
+      <c r="IV14" s="179"/>
+      <c r="IW14" s="179"/>
+      <c r="IX14" s="179"/>
+      <c r="IY14" s="179"/>
+      <c r="IZ14" s="179"/>
+      <c r="JA14" s="179"/>
+      <c r="JB14" s="179"/>
+      <c r="JC14" s="179"/>
+      <c r="JD14" s="179"/>
+      <c r="JE14" s="179"/>
+      <c r="JF14" s="179"/>
+      <c r="JG14" s="179"/>
+      <c r="JH14" s="179"/>
+      <c r="JI14" s="179"/>
+      <c r="JJ14" s="179"/>
+      <c r="JK14" s="179"/>
+      <c r="JL14" s="179"/>
+      <c r="JM14" s="180"/>
+      <c r="JN14" s="181">
         <v>45429</v>
       </c>
-      <c r="JO14" s="177"/>
-      <c r="JP14" s="177"/>
-      <c r="JQ14" s="177"/>
-      <c r="JR14" s="177"/>
-      <c r="JS14" s="177"/>
-      <c r="JT14" s="177"/>
-      <c r="JU14" s="177"/>
-      <c r="JV14" s="177"/>
-      <c r="JW14" s="177"/>
-      <c r="JX14" s="177"/>
-      <c r="JY14" s="177"/>
-      <c r="JZ14" s="177"/>
-      <c r="KA14" s="177"/>
-      <c r="KB14" s="177"/>
-      <c r="KC14" s="177"/>
-      <c r="KD14" s="177"/>
-      <c r="KE14" s="177"/>
-      <c r="KF14" s="177"/>
-      <c r="KG14" s="177"/>
-      <c r="KH14" s="177"/>
-      <c r="KI14" s="177"/>
-      <c r="KJ14" s="177"/>
-      <c r="KK14" s="177"/>
-      <c r="KL14" s="177"/>
-      <c r="KM14" s="177"/>
-      <c r="KN14" s="177"/>
-      <c r="KO14" s="177"/>
-      <c r="KP14" s="177"/>
-      <c r="KQ14" s="178"/>
-      <c r="KR14" s="146" t="s">
+      <c r="JO14" s="179"/>
+      <c r="JP14" s="179"/>
+      <c r="JQ14" s="179"/>
+      <c r="JR14" s="179"/>
+      <c r="JS14" s="179"/>
+      <c r="JT14" s="179"/>
+      <c r="JU14" s="179"/>
+      <c r="JV14" s="179"/>
+      <c r="JW14" s="179"/>
+      <c r="JX14" s="179"/>
+      <c r="JY14" s="179"/>
+      <c r="JZ14" s="179"/>
+      <c r="KA14" s="179"/>
+      <c r="KB14" s="179"/>
+      <c r="KC14" s="179"/>
+      <c r="KD14" s="179"/>
+      <c r="KE14" s="179"/>
+      <c r="KF14" s="179"/>
+      <c r="KG14" s="179"/>
+      <c r="KH14" s="179"/>
+      <c r="KI14" s="179"/>
+      <c r="KJ14" s="179"/>
+      <c r="KK14" s="179"/>
+      <c r="KL14" s="179"/>
+      <c r="KM14" s="179"/>
+      <c r="KN14" s="179"/>
+      <c r="KO14" s="179"/>
+      <c r="KP14" s="179"/>
+      <c r="KQ14" s="183"/>
+      <c r="KR14" s="170" t="s">
         <v>22</v>
       </c>
-      <c r="KS14" s="147"/>
-      <c r="KT14" s="179">
+      <c r="KS14" s="219"/>
+      <c r="KT14" s="178">
         <v>45432</v>
       </c>
-      <c r="KU14" s="177"/>
-      <c r="KV14" s="177"/>
-      <c r="KW14" s="177"/>
-      <c r="KX14" s="177"/>
-      <c r="KY14" s="177"/>
-      <c r="KZ14" s="177"/>
-      <c r="LA14" s="177"/>
-      <c r="LB14" s="177"/>
-      <c r="LC14" s="177"/>
-      <c r="LD14" s="177"/>
-      <c r="LE14" s="177"/>
-      <c r="LF14" s="177"/>
-      <c r="LG14" s="177"/>
-      <c r="LH14" s="177"/>
-      <c r="LI14" s="177"/>
-      <c r="LJ14" s="177"/>
-      <c r="LK14" s="177"/>
-      <c r="LL14" s="177"/>
-      <c r="LM14" s="177"/>
-      <c r="LN14" s="177"/>
-      <c r="LO14" s="177"/>
-      <c r="LP14" s="177"/>
-      <c r="LQ14" s="177"/>
-      <c r="LR14" s="177"/>
-      <c r="LS14" s="177"/>
-      <c r="LT14" s="177"/>
-      <c r="LU14" s="177"/>
-      <c r="LV14" s="177"/>
-      <c r="LW14" s="181"/>
-      <c r="LX14" s="176">
+      <c r="KU14" s="179"/>
+      <c r="KV14" s="179"/>
+      <c r="KW14" s="179"/>
+      <c r="KX14" s="179"/>
+      <c r="KY14" s="179"/>
+      <c r="KZ14" s="179"/>
+      <c r="LA14" s="179"/>
+      <c r="LB14" s="179"/>
+      <c r="LC14" s="179"/>
+      <c r="LD14" s="179"/>
+      <c r="LE14" s="179"/>
+      <c r="LF14" s="179"/>
+      <c r="LG14" s="179"/>
+      <c r="LH14" s="179"/>
+      <c r="LI14" s="179"/>
+      <c r="LJ14" s="179"/>
+      <c r="LK14" s="179"/>
+      <c r="LL14" s="179"/>
+      <c r="LM14" s="179"/>
+      <c r="LN14" s="179"/>
+      <c r="LO14" s="179"/>
+      <c r="LP14" s="179"/>
+      <c r="LQ14" s="179"/>
+      <c r="LR14" s="179"/>
+      <c r="LS14" s="179"/>
+      <c r="LT14" s="179"/>
+      <c r="LU14" s="179"/>
+      <c r="LV14" s="179"/>
+      <c r="LW14" s="180"/>
+      <c r="LX14" s="181">
         <v>45434</v>
       </c>
-      <c r="LY14" s="177"/>
-      <c r="LZ14" s="177"/>
-      <c r="MA14" s="177"/>
-      <c r="MB14" s="177"/>
-      <c r="MC14" s="177"/>
-      <c r="MD14" s="177"/>
-      <c r="ME14" s="177"/>
-      <c r="MF14" s="177"/>
-      <c r="MG14" s="177"/>
-      <c r="MH14" s="177"/>
-      <c r="MI14" s="177"/>
-      <c r="MJ14" s="177"/>
-      <c r="MK14" s="177"/>
-      <c r="ML14" s="177"/>
-      <c r="MM14" s="177"/>
-      <c r="MN14" s="177"/>
-      <c r="MO14" s="177"/>
-      <c r="MP14" s="177"/>
-      <c r="MQ14" s="177"/>
-      <c r="MR14" s="177"/>
-      <c r="MS14" s="177"/>
-      <c r="MT14" s="177"/>
-      <c r="MU14" s="177"/>
-      <c r="MV14" s="177"/>
-      <c r="MW14" s="177"/>
-      <c r="MX14" s="177"/>
-      <c r="MY14" s="177"/>
-      <c r="MZ14" s="177"/>
-      <c r="NA14" s="181"/>
-      <c r="NB14" s="176">
+      <c r="LY14" s="179"/>
+      <c r="LZ14" s="179"/>
+      <c r="MA14" s="179"/>
+      <c r="MB14" s="179"/>
+      <c r="MC14" s="179"/>
+      <c r="MD14" s="179"/>
+      <c r="ME14" s="179"/>
+      <c r="MF14" s="179"/>
+      <c r="MG14" s="179"/>
+      <c r="MH14" s="179"/>
+      <c r="MI14" s="179"/>
+      <c r="MJ14" s="179"/>
+      <c r="MK14" s="179"/>
+      <c r="ML14" s="179"/>
+      <c r="MM14" s="179"/>
+      <c r="MN14" s="179"/>
+      <c r="MO14" s="179"/>
+      <c r="MP14" s="179"/>
+      <c r="MQ14" s="179"/>
+      <c r="MR14" s="179"/>
+      <c r="MS14" s="179"/>
+      <c r="MT14" s="179"/>
+      <c r="MU14" s="179"/>
+      <c r="MV14" s="179"/>
+      <c r="MW14" s="179"/>
+      <c r="MX14" s="179"/>
+      <c r="MY14" s="179"/>
+      <c r="MZ14" s="179"/>
+      <c r="NA14" s="180"/>
+      <c r="NB14" s="181">
         <v>45435</v>
       </c>
-      <c r="NC14" s="177"/>
-      <c r="ND14" s="177"/>
-      <c r="NE14" s="177"/>
-      <c r="NF14" s="177"/>
-      <c r="NG14" s="177"/>
-      <c r="NH14" s="177"/>
-      <c r="NI14" s="177"/>
-      <c r="NJ14" s="177"/>
-      <c r="NK14" s="177"/>
-      <c r="NL14" s="177"/>
-      <c r="NM14" s="177"/>
-      <c r="NN14" s="177"/>
-      <c r="NO14" s="177"/>
-      <c r="NP14" s="177"/>
-      <c r="NQ14" s="177"/>
-      <c r="NR14" s="177"/>
-      <c r="NS14" s="177"/>
-      <c r="NT14" s="177"/>
-      <c r="NU14" s="177"/>
-      <c r="NV14" s="177"/>
-      <c r="NW14" s="177"/>
-      <c r="NX14" s="177"/>
-      <c r="NY14" s="177"/>
-      <c r="NZ14" s="177"/>
-      <c r="OA14" s="177"/>
-      <c r="OB14" s="177"/>
-      <c r="OC14" s="177"/>
-      <c r="OD14" s="177"/>
-      <c r="OE14" s="181"/>
-      <c r="OF14" s="176">
+      <c r="NC14" s="179"/>
+      <c r="ND14" s="179"/>
+      <c r="NE14" s="179"/>
+      <c r="NF14" s="179"/>
+      <c r="NG14" s="179"/>
+      <c r="NH14" s="179"/>
+      <c r="NI14" s="179"/>
+      <c r="NJ14" s="179"/>
+      <c r="NK14" s="179"/>
+      <c r="NL14" s="179"/>
+      <c r="NM14" s="179"/>
+      <c r="NN14" s="179"/>
+      <c r="NO14" s="179"/>
+      <c r="NP14" s="179"/>
+      <c r="NQ14" s="179"/>
+      <c r="NR14" s="179"/>
+      <c r="NS14" s="179"/>
+      <c r="NT14" s="179"/>
+      <c r="NU14" s="179"/>
+      <c r="NV14" s="179"/>
+      <c r="NW14" s="179"/>
+      <c r="NX14" s="179"/>
+      <c r="NY14" s="179"/>
+      <c r="NZ14" s="179"/>
+      <c r="OA14" s="179"/>
+      <c r="OB14" s="179"/>
+      <c r="OC14" s="179"/>
+      <c r="OD14" s="179"/>
+      <c r="OE14" s="180"/>
+      <c r="OF14" s="181">
         <v>45436</v>
       </c>
-      <c r="OG14" s="177"/>
-      <c r="OH14" s="177"/>
-      <c r="OI14" s="177"/>
-      <c r="OJ14" s="177"/>
-      <c r="OK14" s="177"/>
-      <c r="OL14" s="177"/>
-      <c r="OM14" s="177"/>
-      <c r="ON14" s="177"/>
-      <c r="OO14" s="177"/>
-      <c r="OP14" s="177"/>
-      <c r="OQ14" s="177"/>
-      <c r="OR14" s="177"/>
-      <c r="OS14" s="177"/>
-      <c r="OT14" s="177"/>
-      <c r="OU14" s="177"/>
-      <c r="OV14" s="177"/>
-      <c r="OW14" s="177"/>
-      <c r="OX14" s="177"/>
-      <c r="OY14" s="177"/>
-      <c r="OZ14" s="177"/>
-      <c r="PA14" s="177"/>
-      <c r="PB14" s="177"/>
-      <c r="PC14" s="177"/>
-      <c r="PD14" s="177"/>
-      <c r="PE14" s="177"/>
-      <c r="PF14" s="177"/>
-      <c r="PG14" s="177"/>
-      <c r="PH14" s="177"/>
-      <c r="PI14" s="178"/>
-      <c r="PJ14" s="179">
+      <c r="OG14" s="179"/>
+      <c r="OH14" s="179"/>
+      <c r="OI14" s="179"/>
+      <c r="OJ14" s="179"/>
+      <c r="OK14" s="179"/>
+      <c r="OL14" s="179"/>
+      <c r="OM14" s="179"/>
+      <c r="ON14" s="179"/>
+      <c r="OO14" s="179"/>
+      <c r="OP14" s="179"/>
+      <c r="OQ14" s="179"/>
+      <c r="OR14" s="179"/>
+      <c r="OS14" s="179"/>
+      <c r="OT14" s="179"/>
+      <c r="OU14" s="179"/>
+      <c r="OV14" s="179"/>
+      <c r="OW14" s="179"/>
+      <c r="OX14" s="179"/>
+      <c r="OY14" s="179"/>
+      <c r="OZ14" s="179"/>
+      <c r="PA14" s="179"/>
+      <c r="PB14" s="179"/>
+      <c r="PC14" s="179"/>
+      <c r="PD14" s="179"/>
+      <c r="PE14" s="179"/>
+      <c r="PF14" s="179"/>
+      <c r="PG14" s="179"/>
+      <c r="PH14" s="179"/>
+      <c r="PI14" s="183"/>
+      <c r="PJ14" s="178">
         <v>45439</v>
       </c>
-      <c r="PK14" s="177"/>
-      <c r="PL14" s="177"/>
-      <c r="PM14" s="177"/>
-      <c r="PN14" s="177"/>
-      <c r="PO14" s="177"/>
-      <c r="PP14" s="177"/>
-      <c r="PQ14" s="177"/>
-      <c r="PR14" s="177"/>
-      <c r="PS14" s="177"/>
-      <c r="PT14" s="177"/>
-      <c r="PU14" s="177"/>
-      <c r="PV14" s="177"/>
-      <c r="PW14" s="177"/>
-      <c r="PX14" s="177"/>
-      <c r="PY14" s="177"/>
-      <c r="PZ14" s="177"/>
-      <c r="QA14" s="177"/>
-      <c r="QB14" s="177"/>
-      <c r="QC14" s="177"/>
-      <c r="QD14" s="177"/>
-      <c r="QE14" s="177"/>
-      <c r="QF14" s="177"/>
-      <c r="QG14" s="177"/>
-      <c r="QH14" s="177"/>
-      <c r="QI14" s="177"/>
-      <c r="QJ14" s="177"/>
-      <c r="QK14" s="177"/>
-      <c r="QL14" s="177"/>
-      <c r="QM14" s="181"/>
-      <c r="QN14" s="176">
+      <c r="PK14" s="179"/>
+      <c r="PL14" s="179"/>
+      <c r="PM14" s="179"/>
+      <c r="PN14" s="179"/>
+      <c r="PO14" s="179"/>
+      <c r="PP14" s="179"/>
+      <c r="PQ14" s="179"/>
+      <c r="PR14" s="179"/>
+      <c r="PS14" s="179"/>
+      <c r="PT14" s="179"/>
+      <c r="PU14" s="179"/>
+      <c r="PV14" s="179"/>
+      <c r="PW14" s="179"/>
+      <c r="PX14" s="179"/>
+      <c r="PY14" s="179"/>
+      <c r="PZ14" s="179"/>
+      <c r="QA14" s="179"/>
+      <c r="QB14" s="179"/>
+      <c r="QC14" s="179"/>
+      <c r="QD14" s="179"/>
+      <c r="QE14" s="179"/>
+      <c r="QF14" s="179"/>
+      <c r="QG14" s="179"/>
+      <c r="QH14" s="179"/>
+      <c r="QI14" s="179"/>
+      <c r="QJ14" s="179"/>
+      <c r="QK14" s="179"/>
+      <c r="QL14" s="179"/>
+      <c r="QM14" s="180"/>
+      <c r="QN14" s="181">
         <v>45441</v>
       </c>
-      <c r="QO14" s="177"/>
-      <c r="QP14" s="177"/>
-      <c r="QQ14" s="177"/>
-      <c r="QR14" s="177"/>
-      <c r="QS14" s="177"/>
-      <c r="QT14" s="177"/>
-      <c r="QU14" s="177"/>
-      <c r="QV14" s="177"/>
-      <c r="QW14" s="177"/>
-      <c r="QX14" s="177"/>
-      <c r="QY14" s="177"/>
-      <c r="QZ14" s="177"/>
-      <c r="RA14" s="177"/>
-      <c r="RB14" s="177"/>
-      <c r="RC14" s="177"/>
-      <c r="RD14" s="177"/>
-      <c r="RE14" s="177"/>
-      <c r="RF14" s="177"/>
-      <c r="RG14" s="177"/>
-      <c r="RH14" s="177"/>
-      <c r="RI14" s="177"/>
-      <c r="RJ14" s="177"/>
-      <c r="RK14" s="177"/>
-      <c r="RL14" s="177"/>
-      <c r="RM14" s="177"/>
-      <c r="RN14" s="177"/>
-      <c r="RO14" s="177"/>
-      <c r="RP14" s="177"/>
-      <c r="RQ14" s="181"/>
-      <c r="RR14" s="176">
+      <c r="QO14" s="179"/>
+      <c r="QP14" s="179"/>
+      <c r="QQ14" s="179"/>
+      <c r="QR14" s="179"/>
+      <c r="QS14" s="179"/>
+      <c r="QT14" s="179"/>
+      <c r="QU14" s="179"/>
+      <c r="QV14" s="179"/>
+      <c r="QW14" s="179"/>
+      <c r="QX14" s="179"/>
+      <c r="QY14" s="179"/>
+      <c r="QZ14" s="179"/>
+      <c r="RA14" s="179"/>
+      <c r="RB14" s="179"/>
+      <c r="RC14" s="179"/>
+      <c r="RD14" s="179"/>
+      <c r="RE14" s="179"/>
+      <c r="RF14" s="179"/>
+      <c r="RG14" s="179"/>
+      <c r="RH14" s="179"/>
+      <c r="RI14" s="179"/>
+      <c r="RJ14" s="179"/>
+      <c r="RK14" s="179"/>
+      <c r="RL14" s="179"/>
+      <c r="RM14" s="179"/>
+      <c r="RN14" s="179"/>
+      <c r="RO14" s="179"/>
+      <c r="RP14" s="179"/>
+      <c r="RQ14" s="180"/>
+      <c r="RR14" s="181">
         <v>45442</v>
       </c>
-      <c r="RS14" s="177"/>
-      <c r="RT14" s="177"/>
-      <c r="RU14" s="177"/>
-      <c r="RV14" s="177"/>
-      <c r="RW14" s="177"/>
-      <c r="RX14" s="177"/>
-      <c r="RY14" s="177"/>
-      <c r="RZ14" s="177"/>
-      <c r="SA14" s="177"/>
-      <c r="SB14" s="177"/>
-      <c r="SC14" s="177"/>
-      <c r="SD14" s="177"/>
-      <c r="SE14" s="177"/>
-      <c r="SF14" s="177"/>
-      <c r="SG14" s="177"/>
-      <c r="SH14" s="177"/>
-      <c r="SI14" s="177"/>
-      <c r="SJ14" s="177"/>
-      <c r="SK14" s="177"/>
-      <c r="SL14" s="177"/>
-      <c r="SM14" s="177"/>
-      <c r="SN14" s="177"/>
-      <c r="SO14" s="177"/>
-      <c r="SP14" s="177"/>
-      <c r="SQ14" s="177"/>
-      <c r="SR14" s="177"/>
-      <c r="SS14" s="177"/>
-      <c r="ST14" s="177"/>
-      <c r="SU14" s="181"/>
-      <c r="SV14" s="176">
+      <c r="RS14" s="179"/>
+      <c r="RT14" s="179"/>
+      <c r="RU14" s="179"/>
+      <c r="RV14" s="179"/>
+      <c r="RW14" s="179"/>
+      <c r="RX14" s="179"/>
+      <c r="RY14" s="179"/>
+      <c r="RZ14" s="179"/>
+      <c r="SA14" s="179"/>
+      <c r="SB14" s="179"/>
+      <c r="SC14" s="179"/>
+      <c r="SD14" s="179"/>
+      <c r="SE14" s="179"/>
+      <c r="SF14" s="179"/>
+      <c r="SG14" s="179"/>
+      <c r="SH14" s="179"/>
+      <c r="SI14" s="179"/>
+      <c r="SJ14" s="179"/>
+      <c r="SK14" s="179"/>
+      <c r="SL14" s="179"/>
+      <c r="SM14" s="179"/>
+      <c r="SN14" s="179"/>
+      <c r="SO14" s="179"/>
+      <c r="SP14" s="179"/>
+      <c r="SQ14" s="179"/>
+      <c r="SR14" s="179"/>
+      <c r="SS14" s="179"/>
+      <c r="ST14" s="179"/>
+      <c r="SU14" s="180"/>
+      <c r="SV14" s="181">
         <v>45443</v>
       </c>
-      <c r="SW14" s="177"/>
-      <c r="SX14" s="177"/>
-      <c r="SY14" s="177"/>
-      <c r="SZ14" s="177"/>
-      <c r="TA14" s="177"/>
-      <c r="TB14" s="177"/>
-      <c r="TC14" s="177"/>
-      <c r="TD14" s="177"/>
-      <c r="TE14" s="177"/>
-      <c r="TF14" s="177"/>
-      <c r="TG14" s="177"/>
-      <c r="TH14" s="177"/>
-      <c r="TI14" s="177"/>
-      <c r="TJ14" s="177"/>
-      <c r="TK14" s="177"/>
-      <c r="TL14" s="177"/>
-      <c r="TM14" s="177"/>
-      <c r="TN14" s="177"/>
-      <c r="TO14" s="177"/>
-      <c r="TP14" s="177"/>
-      <c r="TQ14" s="177"/>
-      <c r="TR14" s="177"/>
-      <c r="TS14" s="177"/>
-      <c r="TT14" s="177"/>
-      <c r="TU14" s="177"/>
-      <c r="TV14" s="177"/>
-      <c r="TW14" s="177"/>
-      <c r="TX14" s="177"/>
-      <c r="TY14" s="178"/>
-      <c r="TZ14" s="179">
+      <c r="SW14" s="179"/>
+      <c r="SX14" s="179"/>
+      <c r="SY14" s="179"/>
+      <c r="SZ14" s="179"/>
+      <c r="TA14" s="179"/>
+      <c r="TB14" s="179"/>
+      <c r="TC14" s="179"/>
+      <c r="TD14" s="179"/>
+      <c r="TE14" s="179"/>
+      <c r="TF14" s="179"/>
+      <c r="TG14" s="179"/>
+      <c r="TH14" s="179"/>
+      <c r="TI14" s="179"/>
+      <c r="TJ14" s="179"/>
+      <c r="TK14" s="179"/>
+      <c r="TL14" s="179"/>
+      <c r="TM14" s="179"/>
+      <c r="TN14" s="179"/>
+      <c r="TO14" s="179"/>
+      <c r="TP14" s="179"/>
+      <c r="TQ14" s="179"/>
+      <c r="TR14" s="179"/>
+      <c r="TS14" s="179"/>
+      <c r="TT14" s="179"/>
+      <c r="TU14" s="179"/>
+      <c r="TV14" s="179"/>
+      <c r="TW14" s="179"/>
+      <c r="TX14" s="179"/>
+      <c r="TY14" s="183"/>
+      <c r="TZ14" s="178">
         <v>45446</v>
       </c>
-      <c r="UA14" s="177"/>
-      <c r="UB14" s="177"/>
-      <c r="UC14" s="177"/>
-      <c r="UD14" s="177"/>
-      <c r="UE14" s="177"/>
-      <c r="UF14" s="177"/>
-      <c r="UG14" s="177"/>
-      <c r="UH14" s="177"/>
-      <c r="UI14" s="177"/>
-      <c r="UJ14" s="177"/>
-      <c r="UK14" s="177"/>
-      <c r="UL14" s="177"/>
-      <c r="UM14" s="177"/>
-      <c r="UN14" s="177"/>
-      <c r="UO14" s="177"/>
-      <c r="UP14" s="177"/>
-      <c r="UQ14" s="177"/>
-      <c r="UR14" s="177"/>
-      <c r="US14" s="177"/>
-      <c r="UT14" s="177"/>
-      <c r="UU14" s="177"/>
-      <c r="UV14" s="177"/>
-      <c r="UW14" s="177"/>
-      <c r="UX14" s="177"/>
-      <c r="UY14" s="177"/>
-      <c r="UZ14" s="177"/>
-      <c r="VA14" s="177"/>
-      <c r="VB14" s="177"/>
-      <c r="VC14" s="178"/>
+      <c r="UA14" s="179"/>
+      <c r="UB14" s="179"/>
+      <c r="UC14" s="179"/>
+      <c r="UD14" s="179"/>
+      <c r="UE14" s="179"/>
+      <c r="UF14" s="179"/>
+      <c r="UG14" s="179"/>
+      <c r="UH14" s="179"/>
+      <c r="UI14" s="179"/>
+      <c r="UJ14" s="179"/>
+      <c r="UK14" s="179"/>
+      <c r="UL14" s="179"/>
+      <c r="UM14" s="179"/>
+      <c r="UN14" s="179"/>
+      <c r="UO14" s="179"/>
+      <c r="UP14" s="179"/>
+      <c r="UQ14" s="179"/>
+      <c r="UR14" s="179"/>
+      <c r="US14" s="179"/>
+      <c r="UT14" s="179"/>
+      <c r="UU14" s="179"/>
+      <c r="UV14" s="179"/>
+      <c r="UW14" s="179"/>
+      <c r="UX14" s="179"/>
+      <c r="UY14" s="179"/>
+      <c r="UZ14" s="179"/>
+      <c r="VA14" s="179"/>
+      <c r="VB14" s="179"/>
+      <c r="VC14" s="183"/>
     </row>
     <row r="15" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="180"/>
-      <c r="D15" s="170" t="s">
+      <c r="C15" s="185"/>
+      <c r="D15" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="168"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="168"/>
-      <c r="K15" s="168"/>
-      <c r="L15" s="168"/>
-      <c r="M15" s="168"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="168" t="s">
+      <c r="E15" s="187"/>
+      <c r="F15" s="187"/>
+      <c r="G15" s="187"/>
+      <c r="H15" s="187"/>
+      <c r="I15" s="187"/>
+      <c r="J15" s="187"/>
+      <c r="K15" s="187"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="187"/>
+      <c r="O15" s="187"/>
+      <c r="P15" s="187"/>
+      <c r="Q15" s="187"/>
+      <c r="R15" s="187"/>
+      <c r="S15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="168"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="168"/>
-      <c r="Z15" s="168"/>
-      <c r="AA15" s="168"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="168"/>
-      <c r="AE15" s="168"/>
-      <c r="AF15" s="168"/>
-      <c r="AG15" s="175"/>
-      <c r="AH15" s="167" t="s">
+      <c r="T15" s="187"/>
+      <c r="U15" s="187"/>
+      <c r="V15" s="187"/>
+      <c r="W15" s="187"/>
+      <c r="X15" s="187"/>
+      <c r="Y15" s="187"/>
+      <c r="Z15" s="187"/>
+      <c r="AA15" s="187"/>
+      <c r="AB15" s="187"/>
+      <c r="AC15" s="187"/>
+      <c r="AD15" s="187"/>
+      <c r="AE15" s="187"/>
+      <c r="AF15" s="187"/>
+      <c r="AG15" s="188"/>
+      <c r="AH15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="AI15" s="168"/>
-      <c r="AJ15" s="168"/>
-      <c r="AK15" s="168"/>
-      <c r="AL15" s="168"/>
-      <c r="AM15" s="168"/>
-      <c r="AN15" s="168"/>
-      <c r="AO15" s="168"/>
-      <c r="AP15" s="168"/>
-      <c r="AQ15" s="168"/>
-      <c r="AR15" s="168"/>
-      <c r="AS15" s="168"/>
-      <c r="AT15" s="168"/>
-      <c r="AU15" s="168"/>
-      <c r="AV15" s="168"/>
-      <c r="AW15" s="168" t="s">
+      <c r="AI15" s="187"/>
+      <c r="AJ15" s="187"/>
+      <c r="AK15" s="187"/>
+      <c r="AL15" s="187"/>
+      <c r="AM15" s="187"/>
+      <c r="AN15" s="187"/>
+      <c r="AO15" s="187"/>
+      <c r="AP15" s="187"/>
+      <c r="AQ15" s="187"/>
+      <c r="AR15" s="187"/>
+      <c r="AS15" s="187"/>
+      <c r="AT15" s="187"/>
+      <c r="AU15" s="187"/>
+      <c r="AV15" s="187"/>
+      <c r="AW15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="AX15" s="168"/>
-      <c r="AY15" s="168"/>
-      <c r="AZ15" s="168"/>
-      <c r="BA15" s="168"/>
-      <c r="BB15" s="168"/>
-      <c r="BC15" s="168"/>
-      <c r="BD15" s="168"/>
-      <c r="BE15" s="168"/>
-      <c r="BF15" s="168"/>
-      <c r="BG15" s="168"/>
-      <c r="BH15" s="168"/>
-      <c r="BI15" s="168"/>
-      <c r="BJ15" s="168"/>
-      <c r="BK15" s="171"/>
-      <c r="BL15" s="170" t="s">
+      <c r="AX15" s="187"/>
+      <c r="AY15" s="187"/>
+      <c r="AZ15" s="187"/>
+      <c r="BA15" s="187"/>
+      <c r="BB15" s="187"/>
+      <c r="BC15" s="187"/>
+      <c r="BD15" s="187"/>
+      <c r="BE15" s="187"/>
+      <c r="BF15" s="187"/>
+      <c r="BG15" s="187"/>
+      <c r="BH15" s="187"/>
+      <c r="BI15" s="187"/>
+      <c r="BJ15" s="187"/>
+      <c r="BK15" s="190"/>
+      <c r="BL15" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="BM15" s="168"/>
-      <c r="BN15" s="168"/>
-      <c r="BO15" s="168"/>
-      <c r="BP15" s="168"/>
-      <c r="BQ15" s="168"/>
-      <c r="BR15" s="168"/>
-      <c r="BS15" s="168"/>
-      <c r="BT15" s="168"/>
-      <c r="BU15" s="168"/>
-      <c r="BV15" s="168"/>
-      <c r="BW15" s="168"/>
-      <c r="BX15" s="168"/>
-      <c r="BY15" s="168"/>
-      <c r="BZ15" s="171"/>
-      <c r="CA15" s="168" t="s">
+      <c r="BM15" s="187"/>
+      <c r="BN15" s="187"/>
+      <c r="BO15" s="187"/>
+      <c r="BP15" s="187"/>
+      <c r="BQ15" s="187"/>
+      <c r="BR15" s="187"/>
+      <c r="BS15" s="187"/>
+      <c r="BT15" s="187"/>
+      <c r="BU15" s="187"/>
+      <c r="BV15" s="187"/>
+      <c r="BW15" s="187"/>
+      <c r="BX15" s="187"/>
+      <c r="BY15" s="187"/>
+      <c r="BZ15" s="190"/>
+      <c r="CA15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="CB15" s="168"/>
-      <c r="CC15" s="168"/>
-      <c r="CD15" s="168"/>
-      <c r="CE15" s="168"/>
-      <c r="CF15" s="168"/>
-      <c r="CG15" s="168"/>
-      <c r="CH15" s="168"/>
-      <c r="CI15" s="168"/>
-      <c r="CJ15" s="168"/>
-      <c r="CK15" s="168"/>
-      <c r="CL15" s="168"/>
-      <c r="CM15" s="168"/>
-      <c r="CN15" s="168"/>
-      <c r="CO15" s="175"/>
-      <c r="CP15" s="167" t="s">
+      <c r="CB15" s="187"/>
+      <c r="CC15" s="187"/>
+      <c r="CD15" s="187"/>
+      <c r="CE15" s="187"/>
+      <c r="CF15" s="187"/>
+      <c r="CG15" s="187"/>
+      <c r="CH15" s="187"/>
+      <c r="CI15" s="187"/>
+      <c r="CJ15" s="187"/>
+      <c r="CK15" s="187"/>
+      <c r="CL15" s="187"/>
+      <c r="CM15" s="187"/>
+      <c r="CN15" s="187"/>
+      <c r="CO15" s="188"/>
+      <c r="CP15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="CQ15" s="168"/>
-      <c r="CR15" s="168"/>
-      <c r="CS15" s="168"/>
-      <c r="CT15" s="168"/>
-      <c r="CU15" s="168"/>
-      <c r="CV15" s="168"/>
-      <c r="CW15" s="168"/>
-      <c r="CX15" s="168"/>
-      <c r="CY15" s="168"/>
-      <c r="CZ15" s="168"/>
-      <c r="DA15" s="168"/>
-      <c r="DB15" s="168"/>
-      <c r="DC15" s="168"/>
-      <c r="DD15" s="168"/>
-      <c r="DE15" s="168" t="s">
+      <c r="CQ15" s="187"/>
+      <c r="CR15" s="187"/>
+      <c r="CS15" s="187"/>
+      <c r="CT15" s="187"/>
+      <c r="CU15" s="187"/>
+      <c r="CV15" s="187"/>
+      <c r="CW15" s="187"/>
+      <c r="CX15" s="187"/>
+      <c r="CY15" s="187"/>
+      <c r="CZ15" s="187"/>
+      <c r="DA15" s="187"/>
+      <c r="DB15" s="187"/>
+      <c r="DC15" s="187"/>
+      <c r="DD15" s="187"/>
+      <c r="DE15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="DF15" s="168"/>
-      <c r="DG15" s="168"/>
-      <c r="DH15" s="168"/>
-      <c r="DI15" s="168"/>
-      <c r="DJ15" s="168"/>
-      <c r="DK15" s="168"/>
-      <c r="DL15" s="168"/>
-      <c r="DM15" s="168"/>
-      <c r="DN15" s="168"/>
-      <c r="DO15" s="168"/>
-      <c r="DP15" s="168"/>
-      <c r="DQ15" s="168"/>
-      <c r="DR15" s="168"/>
-      <c r="DS15" s="175"/>
-      <c r="DT15" s="167" t="s">
+      <c r="DF15" s="187"/>
+      <c r="DG15" s="187"/>
+      <c r="DH15" s="187"/>
+      <c r="DI15" s="187"/>
+      <c r="DJ15" s="187"/>
+      <c r="DK15" s="187"/>
+      <c r="DL15" s="187"/>
+      <c r="DM15" s="187"/>
+      <c r="DN15" s="187"/>
+      <c r="DO15" s="187"/>
+      <c r="DP15" s="187"/>
+      <c r="DQ15" s="187"/>
+      <c r="DR15" s="187"/>
+      <c r="DS15" s="188"/>
+      <c r="DT15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="DU15" s="168"/>
-      <c r="DV15" s="168"/>
-      <c r="DW15" s="168"/>
-      <c r="DX15" s="168"/>
-      <c r="DY15" s="168"/>
-      <c r="DZ15" s="168"/>
-      <c r="EA15" s="168"/>
-      <c r="EB15" s="168"/>
-      <c r="EC15" s="168"/>
-      <c r="ED15" s="168"/>
-      <c r="EE15" s="168"/>
-      <c r="EF15" s="168"/>
-      <c r="EG15" s="168"/>
-      <c r="EH15" s="168"/>
-      <c r="EI15" s="168" t="s">
+      <c r="DU15" s="187"/>
+      <c r="DV15" s="187"/>
+      <c r="DW15" s="187"/>
+      <c r="DX15" s="187"/>
+      <c r="DY15" s="187"/>
+      <c r="DZ15" s="187"/>
+      <c r="EA15" s="187"/>
+      <c r="EB15" s="187"/>
+      <c r="EC15" s="187"/>
+      <c r="ED15" s="187"/>
+      <c r="EE15" s="187"/>
+      <c r="EF15" s="187"/>
+      <c r="EG15" s="187"/>
+      <c r="EH15" s="187"/>
+      <c r="EI15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="EJ15" s="168"/>
-      <c r="EK15" s="168"/>
-      <c r="EL15" s="168"/>
-      <c r="EM15" s="168"/>
-      <c r="EN15" s="168"/>
-      <c r="EO15" s="168"/>
-      <c r="EP15" s="168"/>
-      <c r="EQ15" s="168"/>
-      <c r="ER15" s="168"/>
-      <c r="ES15" s="168"/>
-      <c r="ET15" s="168"/>
-      <c r="EU15" s="168"/>
-      <c r="EV15" s="168"/>
-      <c r="EW15" s="175"/>
-      <c r="EX15" s="167" t="s">
+      <c r="EJ15" s="187"/>
+      <c r="EK15" s="187"/>
+      <c r="EL15" s="187"/>
+      <c r="EM15" s="187"/>
+      <c r="EN15" s="187"/>
+      <c r="EO15" s="187"/>
+      <c r="EP15" s="187"/>
+      <c r="EQ15" s="187"/>
+      <c r="ER15" s="187"/>
+      <c r="ES15" s="187"/>
+      <c r="ET15" s="187"/>
+      <c r="EU15" s="187"/>
+      <c r="EV15" s="187"/>
+      <c r="EW15" s="188"/>
+      <c r="EX15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="EY15" s="168"/>
-      <c r="EZ15" s="168"/>
-      <c r="FA15" s="168"/>
-      <c r="FB15" s="168"/>
-      <c r="FC15" s="168"/>
-      <c r="FD15" s="168"/>
-      <c r="FE15" s="168"/>
-      <c r="FF15" s="168"/>
-      <c r="FG15" s="168"/>
-      <c r="FH15" s="168"/>
-      <c r="FI15" s="168"/>
-      <c r="FJ15" s="168"/>
-      <c r="FK15" s="168"/>
-      <c r="FL15" s="168"/>
-      <c r="FM15" s="168" t="s">
+      <c r="EY15" s="187"/>
+      <c r="EZ15" s="187"/>
+      <c r="FA15" s="187"/>
+      <c r="FB15" s="187"/>
+      <c r="FC15" s="187"/>
+      <c r="FD15" s="187"/>
+      <c r="FE15" s="187"/>
+      <c r="FF15" s="187"/>
+      <c r="FG15" s="187"/>
+      <c r="FH15" s="187"/>
+      <c r="FI15" s="187"/>
+      <c r="FJ15" s="187"/>
+      <c r="FK15" s="187"/>
+      <c r="FL15" s="187"/>
+      <c r="FM15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="FN15" s="168"/>
-      <c r="FO15" s="168"/>
-      <c r="FP15" s="168"/>
-      <c r="FQ15" s="168"/>
-      <c r="FR15" s="168"/>
-      <c r="FS15" s="168"/>
-      <c r="FT15" s="168"/>
-      <c r="FU15" s="168"/>
-      <c r="FV15" s="168"/>
-      <c r="FW15" s="168"/>
-      <c r="FX15" s="168"/>
-      <c r="FY15" s="168"/>
-      <c r="FZ15" s="168"/>
-      <c r="GA15" s="171"/>
-      <c r="GB15" s="170" t="s">
+      <c r="FN15" s="187"/>
+      <c r="FO15" s="187"/>
+      <c r="FP15" s="187"/>
+      <c r="FQ15" s="187"/>
+      <c r="FR15" s="187"/>
+      <c r="FS15" s="187"/>
+      <c r="FT15" s="187"/>
+      <c r="FU15" s="187"/>
+      <c r="FV15" s="187"/>
+      <c r="FW15" s="187"/>
+      <c r="FX15" s="187"/>
+      <c r="FY15" s="187"/>
+      <c r="FZ15" s="187"/>
+      <c r="GA15" s="190"/>
+      <c r="GB15" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="GC15" s="168"/>
-      <c r="GD15" s="168"/>
-      <c r="GE15" s="168"/>
-      <c r="GF15" s="168"/>
-      <c r="GG15" s="168"/>
-      <c r="GH15" s="168"/>
-      <c r="GI15" s="168"/>
-      <c r="GJ15" s="168"/>
-      <c r="GK15" s="168"/>
-      <c r="GL15" s="168"/>
-      <c r="GM15" s="168"/>
-      <c r="GN15" s="168"/>
-      <c r="GO15" s="168"/>
-      <c r="GP15" s="171"/>
-      <c r="GQ15" s="168" t="s">
+      <c r="GC15" s="187"/>
+      <c r="GD15" s="187"/>
+      <c r="GE15" s="187"/>
+      <c r="GF15" s="187"/>
+      <c r="GG15" s="187"/>
+      <c r="GH15" s="187"/>
+      <c r="GI15" s="187"/>
+      <c r="GJ15" s="187"/>
+      <c r="GK15" s="187"/>
+      <c r="GL15" s="187"/>
+      <c r="GM15" s="187"/>
+      <c r="GN15" s="187"/>
+      <c r="GO15" s="187"/>
+      <c r="GP15" s="190"/>
+      <c r="GQ15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="GR15" s="168"/>
-      <c r="GS15" s="168"/>
-      <c r="GT15" s="168"/>
-      <c r="GU15" s="168"/>
-      <c r="GV15" s="168"/>
-      <c r="GW15" s="168"/>
-      <c r="GX15" s="168"/>
-      <c r="GY15" s="168"/>
-      <c r="GZ15" s="168"/>
-      <c r="HA15" s="168"/>
-      <c r="HB15" s="168"/>
-      <c r="HC15" s="168"/>
-      <c r="HD15" s="168"/>
-      <c r="HE15" s="175"/>
-      <c r="HF15" s="167" t="s">
+      <c r="GR15" s="187"/>
+      <c r="GS15" s="187"/>
+      <c r="GT15" s="187"/>
+      <c r="GU15" s="187"/>
+      <c r="GV15" s="187"/>
+      <c r="GW15" s="187"/>
+      <c r="GX15" s="187"/>
+      <c r="GY15" s="187"/>
+      <c r="GZ15" s="187"/>
+      <c r="HA15" s="187"/>
+      <c r="HB15" s="187"/>
+      <c r="HC15" s="187"/>
+      <c r="HD15" s="187"/>
+      <c r="HE15" s="188"/>
+      <c r="HF15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="HG15" s="168"/>
-      <c r="HH15" s="168"/>
-      <c r="HI15" s="168"/>
-      <c r="HJ15" s="168"/>
-      <c r="HK15" s="168"/>
-      <c r="HL15" s="168"/>
-      <c r="HM15" s="168"/>
-      <c r="HN15" s="168"/>
-      <c r="HO15" s="168"/>
-      <c r="HP15" s="168"/>
-      <c r="HQ15" s="168"/>
-      <c r="HR15" s="168"/>
-      <c r="HS15" s="168"/>
-      <c r="HT15" s="168"/>
-      <c r="HU15" s="168" t="s">
+      <c r="HG15" s="187"/>
+      <c r="HH15" s="187"/>
+      <c r="HI15" s="187"/>
+      <c r="HJ15" s="187"/>
+      <c r="HK15" s="187"/>
+      <c r="HL15" s="187"/>
+      <c r="HM15" s="187"/>
+      <c r="HN15" s="187"/>
+      <c r="HO15" s="187"/>
+      <c r="HP15" s="187"/>
+      <c r="HQ15" s="187"/>
+      <c r="HR15" s="187"/>
+      <c r="HS15" s="187"/>
+      <c r="HT15" s="187"/>
+      <c r="HU15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="HV15" s="168"/>
-      <c r="HW15" s="168"/>
-      <c r="HX15" s="168"/>
-      <c r="HY15" s="168"/>
-      <c r="HZ15" s="168"/>
-      <c r="IA15" s="168"/>
-      <c r="IB15" s="168"/>
-      <c r="IC15" s="168"/>
-      <c r="ID15" s="168"/>
-      <c r="IE15" s="168"/>
-      <c r="IF15" s="168"/>
-      <c r="IG15" s="168"/>
-      <c r="IH15" s="168"/>
-      <c r="II15" s="175"/>
-      <c r="IJ15" s="167" t="s">
+      <c r="HV15" s="187"/>
+      <c r="HW15" s="187"/>
+      <c r="HX15" s="187"/>
+      <c r="HY15" s="187"/>
+      <c r="HZ15" s="187"/>
+      <c r="IA15" s="187"/>
+      <c r="IB15" s="187"/>
+      <c r="IC15" s="187"/>
+      <c r="ID15" s="187"/>
+      <c r="IE15" s="187"/>
+      <c r="IF15" s="187"/>
+      <c r="IG15" s="187"/>
+      <c r="IH15" s="187"/>
+      <c r="II15" s="188"/>
+      <c r="IJ15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="IK15" s="168"/>
-      <c r="IL15" s="168"/>
-      <c r="IM15" s="168"/>
-      <c r="IN15" s="168"/>
-      <c r="IO15" s="168"/>
-      <c r="IP15" s="168"/>
-      <c r="IQ15" s="168"/>
-      <c r="IR15" s="168"/>
-      <c r="IS15" s="168"/>
-      <c r="IT15" s="168"/>
-      <c r="IU15" s="168"/>
-      <c r="IV15" s="168"/>
-      <c r="IW15" s="168"/>
-      <c r="IX15" s="168"/>
-      <c r="IY15" s="168" t="s">
+      <c r="IK15" s="187"/>
+      <c r="IL15" s="187"/>
+      <c r="IM15" s="187"/>
+      <c r="IN15" s="187"/>
+      <c r="IO15" s="187"/>
+      <c r="IP15" s="187"/>
+      <c r="IQ15" s="187"/>
+      <c r="IR15" s="187"/>
+      <c r="IS15" s="187"/>
+      <c r="IT15" s="187"/>
+      <c r="IU15" s="187"/>
+      <c r="IV15" s="187"/>
+      <c r="IW15" s="187"/>
+      <c r="IX15" s="187"/>
+      <c r="IY15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="IZ15" s="168"/>
-      <c r="JA15" s="168"/>
-      <c r="JB15" s="168"/>
-      <c r="JC15" s="168"/>
-      <c r="JD15" s="168"/>
-      <c r="JE15" s="168"/>
-      <c r="JF15" s="168"/>
-      <c r="JG15" s="168"/>
-      <c r="JH15" s="168"/>
-      <c r="JI15" s="168"/>
-      <c r="JJ15" s="168"/>
-      <c r="JK15" s="168"/>
-      <c r="JL15" s="168"/>
-      <c r="JM15" s="175"/>
-      <c r="JN15" s="167" t="s">
+      <c r="IZ15" s="187"/>
+      <c r="JA15" s="187"/>
+      <c r="JB15" s="187"/>
+      <c r="JC15" s="187"/>
+      <c r="JD15" s="187"/>
+      <c r="JE15" s="187"/>
+      <c r="JF15" s="187"/>
+      <c r="JG15" s="187"/>
+      <c r="JH15" s="187"/>
+      <c r="JI15" s="187"/>
+      <c r="JJ15" s="187"/>
+      <c r="JK15" s="187"/>
+      <c r="JL15" s="187"/>
+      <c r="JM15" s="188"/>
+      <c r="JN15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="JO15" s="168"/>
-      <c r="JP15" s="168"/>
-      <c r="JQ15" s="168"/>
-      <c r="JR15" s="168"/>
-      <c r="JS15" s="168"/>
-      <c r="JT15" s="168"/>
-      <c r="JU15" s="168"/>
-      <c r="JV15" s="168"/>
-      <c r="JW15" s="168"/>
-      <c r="JX15" s="168"/>
-      <c r="JY15" s="168"/>
-      <c r="JZ15" s="168"/>
-      <c r="KA15" s="168"/>
-      <c r="KB15" s="168"/>
-      <c r="KC15" s="168" t="s">
+      <c r="JO15" s="187"/>
+      <c r="JP15" s="187"/>
+      <c r="JQ15" s="187"/>
+      <c r="JR15" s="187"/>
+      <c r="JS15" s="187"/>
+      <c r="JT15" s="187"/>
+      <c r="JU15" s="187"/>
+      <c r="JV15" s="187"/>
+      <c r="JW15" s="187"/>
+      <c r="JX15" s="187"/>
+      <c r="JY15" s="187"/>
+      <c r="JZ15" s="187"/>
+      <c r="KA15" s="187"/>
+      <c r="KB15" s="187"/>
+      <c r="KC15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="KD15" s="168"/>
-      <c r="KE15" s="168"/>
-      <c r="KF15" s="168"/>
-      <c r="KG15" s="168"/>
-      <c r="KH15" s="168"/>
-      <c r="KI15" s="168"/>
-      <c r="KJ15" s="168"/>
-      <c r="KK15" s="168"/>
-      <c r="KL15" s="168"/>
-      <c r="KM15" s="168"/>
-      <c r="KN15" s="168"/>
-      <c r="KO15" s="168"/>
-      <c r="KP15" s="168"/>
-      <c r="KQ15" s="169"/>
-      <c r="KR15" s="148" t="s">
+      <c r="KD15" s="187"/>
+      <c r="KE15" s="187"/>
+      <c r="KF15" s="187"/>
+      <c r="KG15" s="187"/>
+      <c r="KH15" s="187"/>
+      <c r="KI15" s="187"/>
+      <c r="KJ15" s="187"/>
+      <c r="KK15" s="187"/>
+      <c r="KL15" s="187"/>
+      <c r="KM15" s="187"/>
+      <c r="KN15" s="187"/>
+      <c r="KO15" s="187"/>
+      <c r="KP15" s="187"/>
+      <c r="KQ15" s="191"/>
+      <c r="KR15" s="184" t="s">
         <v>23</v>
       </c>
-      <c r="KS15" s="149"/>
-      <c r="KT15" s="170" t="s">
+      <c r="KS15" s="220"/>
+      <c r="KT15" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="KU15" s="168"/>
-      <c r="KV15" s="168"/>
-      <c r="KW15" s="168"/>
-      <c r="KX15" s="168"/>
-      <c r="KY15" s="168"/>
-      <c r="KZ15" s="168"/>
-      <c r="LA15" s="168"/>
-      <c r="LB15" s="168"/>
-      <c r="LC15" s="168"/>
-      <c r="LD15" s="168"/>
-      <c r="LE15" s="168"/>
-      <c r="LF15" s="168"/>
-      <c r="LG15" s="168"/>
-      <c r="LH15" s="171"/>
-      <c r="LI15" s="168" t="s">
+      <c r="KU15" s="187"/>
+      <c r="KV15" s="187"/>
+      <c r="KW15" s="187"/>
+      <c r="KX15" s="187"/>
+      <c r="KY15" s="187"/>
+      <c r="KZ15" s="187"/>
+      <c r="LA15" s="187"/>
+      <c r="LB15" s="187"/>
+      <c r="LC15" s="187"/>
+      <c r="LD15" s="187"/>
+      <c r="LE15" s="187"/>
+      <c r="LF15" s="187"/>
+      <c r="LG15" s="187"/>
+      <c r="LH15" s="190"/>
+      <c r="LI15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="LJ15" s="168"/>
-      <c r="LK15" s="168"/>
-      <c r="LL15" s="168"/>
-      <c r="LM15" s="168"/>
-      <c r="LN15" s="168"/>
-      <c r="LO15" s="168"/>
-      <c r="LP15" s="168"/>
-      <c r="LQ15" s="168"/>
-      <c r="LR15" s="168"/>
-      <c r="LS15" s="168"/>
-      <c r="LT15" s="168"/>
-      <c r="LU15" s="168"/>
-      <c r="LV15" s="168"/>
-      <c r="LW15" s="175"/>
-      <c r="LX15" s="167" t="s">
+      <c r="LJ15" s="187"/>
+      <c r="LK15" s="187"/>
+      <c r="LL15" s="187"/>
+      <c r="LM15" s="187"/>
+      <c r="LN15" s="187"/>
+      <c r="LO15" s="187"/>
+      <c r="LP15" s="187"/>
+      <c r="LQ15" s="187"/>
+      <c r="LR15" s="187"/>
+      <c r="LS15" s="187"/>
+      <c r="LT15" s="187"/>
+      <c r="LU15" s="187"/>
+      <c r="LV15" s="187"/>
+      <c r="LW15" s="188"/>
+      <c r="LX15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="LY15" s="168"/>
-      <c r="LZ15" s="168"/>
-      <c r="MA15" s="168"/>
-      <c r="MB15" s="168"/>
-      <c r="MC15" s="168"/>
-      <c r="MD15" s="168"/>
-      <c r="ME15" s="168"/>
-      <c r="MF15" s="168"/>
-      <c r="MG15" s="168"/>
-      <c r="MH15" s="168"/>
-      <c r="MI15" s="168"/>
-      <c r="MJ15" s="168"/>
-      <c r="MK15" s="168"/>
-      <c r="ML15" s="168"/>
-      <c r="MM15" s="168" t="s">
+      <c r="LY15" s="187"/>
+      <c r="LZ15" s="187"/>
+      <c r="MA15" s="187"/>
+      <c r="MB15" s="187"/>
+      <c r="MC15" s="187"/>
+      <c r="MD15" s="187"/>
+      <c r="ME15" s="187"/>
+      <c r="MF15" s="187"/>
+      <c r="MG15" s="187"/>
+      <c r="MH15" s="187"/>
+      <c r="MI15" s="187"/>
+      <c r="MJ15" s="187"/>
+      <c r="MK15" s="187"/>
+      <c r="ML15" s="187"/>
+      <c r="MM15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="MN15" s="168"/>
-      <c r="MO15" s="168"/>
-      <c r="MP15" s="168"/>
-      <c r="MQ15" s="168"/>
-      <c r="MR15" s="168"/>
-      <c r="MS15" s="168"/>
-      <c r="MT15" s="168"/>
-      <c r="MU15" s="168"/>
-      <c r="MV15" s="168"/>
-      <c r="MW15" s="168"/>
-      <c r="MX15" s="168"/>
-      <c r="MY15" s="168"/>
-      <c r="MZ15" s="168"/>
-      <c r="NA15" s="175"/>
-      <c r="NB15" s="167" t="s">
+      <c r="MN15" s="187"/>
+      <c r="MO15" s="187"/>
+      <c r="MP15" s="187"/>
+      <c r="MQ15" s="187"/>
+      <c r="MR15" s="187"/>
+      <c r="MS15" s="187"/>
+      <c r="MT15" s="187"/>
+      <c r="MU15" s="187"/>
+      <c r="MV15" s="187"/>
+      <c r="MW15" s="187"/>
+      <c r="MX15" s="187"/>
+      <c r="MY15" s="187"/>
+      <c r="MZ15" s="187"/>
+      <c r="NA15" s="188"/>
+      <c r="NB15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="NC15" s="168"/>
-      <c r="ND15" s="168"/>
-      <c r="NE15" s="168"/>
-      <c r="NF15" s="168"/>
-      <c r="NG15" s="168"/>
-      <c r="NH15" s="168"/>
-      <c r="NI15" s="168"/>
-      <c r="NJ15" s="168"/>
-      <c r="NK15" s="168"/>
-      <c r="NL15" s="168"/>
-      <c r="NM15" s="168"/>
-      <c r="NN15" s="168"/>
-      <c r="NO15" s="168"/>
-      <c r="NP15" s="168"/>
-      <c r="NQ15" s="168" t="s">
+      <c r="NC15" s="187"/>
+      <c r="ND15" s="187"/>
+      <c r="NE15" s="187"/>
+      <c r="NF15" s="187"/>
+      <c r="NG15" s="187"/>
+      <c r="NH15" s="187"/>
+      <c r="NI15" s="187"/>
+      <c r="NJ15" s="187"/>
+      <c r="NK15" s="187"/>
+      <c r="NL15" s="187"/>
+      <c r="NM15" s="187"/>
+      <c r="NN15" s="187"/>
+      <c r="NO15" s="187"/>
+      <c r="NP15" s="187"/>
+      <c r="NQ15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="NR15" s="168"/>
-      <c r="NS15" s="168"/>
-      <c r="NT15" s="168"/>
-      <c r="NU15" s="168"/>
-      <c r="NV15" s="168"/>
-      <c r="NW15" s="168"/>
-      <c r="NX15" s="168"/>
-      <c r="NY15" s="168"/>
-      <c r="NZ15" s="168"/>
-      <c r="OA15" s="168"/>
-      <c r="OB15" s="168"/>
-      <c r="OC15" s="168"/>
-      <c r="OD15" s="168"/>
-      <c r="OE15" s="175"/>
-      <c r="OF15" s="167" t="s">
+      <c r="NR15" s="187"/>
+      <c r="NS15" s="187"/>
+      <c r="NT15" s="187"/>
+      <c r="NU15" s="187"/>
+      <c r="NV15" s="187"/>
+      <c r="NW15" s="187"/>
+      <c r="NX15" s="187"/>
+      <c r="NY15" s="187"/>
+      <c r="NZ15" s="187"/>
+      <c r="OA15" s="187"/>
+      <c r="OB15" s="187"/>
+      <c r="OC15" s="187"/>
+      <c r="OD15" s="187"/>
+      <c r="OE15" s="188"/>
+      <c r="OF15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="OG15" s="168"/>
-      <c r="OH15" s="168"/>
-      <c r="OI15" s="168"/>
-      <c r="OJ15" s="168"/>
-      <c r="OK15" s="168"/>
-      <c r="OL15" s="168"/>
-      <c r="OM15" s="168"/>
-      <c r="ON15" s="168"/>
-      <c r="OO15" s="168"/>
-      <c r="OP15" s="168"/>
-      <c r="OQ15" s="168"/>
-      <c r="OR15" s="168"/>
-      <c r="OS15" s="168"/>
-      <c r="OT15" s="168"/>
-      <c r="OU15" s="168" t="s">
+      <c r="OG15" s="187"/>
+      <c r="OH15" s="187"/>
+      <c r="OI15" s="187"/>
+      <c r="OJ15" s="187"/>
+      <c r="OK15" s="187"/>
+      <c r="OL15" s="187"/>
+      <c r="OM15" s="187"/>
+      <c r="ON15" s="187"/>
+      <c r="OO15" s="187"/>
+      <c r="OP15" s="187"/>
+      <c r="OQ15" s="187"/>
+      <c r="OR15" s="187"/>
+      <c r="OS15" s="187"/>
+      <c r="OT15" s="187"/>
+      <c r="OU15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="OV15" s="168"/>
-      <c r="OW15" s="168"/>
-      <c r="OX15" s="168"/>
-      <c r="OY15" s="168"/>
-      <c r="OZ15" s="168"/>
-      <c r="PA15" s="168"/>
-      <c r="PB15" s="168"/>
-      <c r="PC15" s="168"/>
-      <c r="PD15" s="168"/>
-      <c r="PE15" s="168"/>
-      <c r="PF15" s="168"/>
-      <c r="PG15" s="168"/>
-      <c r="PH15" s="168"/>
-      <c r="PI15" s="169"/>
-      <c r="PJ15" s="170" t="s">
+      <c r="OV15" s="187"/>
+      <c r="OW15" s="187"/>
+      <c r="OX15" s="187"/>
+      <c r="OY15" s="187"/>
+      <c r="OZ15" s="187"/>
+      <c r="PA15" s="187"/>
+      <c r="PB15" s="187"/>
+      <c r="PC15" s="187"/>
+      <c r="PD15" s="187"/>
+      <c r="PE15" s="187"/>
+      <c r="PF15" s="187"/>
+      <c r="PG15" s="187"/>
+      <c r="PH15" s="187"/>
+      <c r="PI15" s="191"/>
+      <c r="PJ15" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="PK15" s="168"/>
-      <c r="PL15" s="168"/>
-      <c r="PM15" s="168"/>
-      <c r="PN15" s="168"/>
-      <c r="PO15" s="168"/>
-      <c r="PP15" s="168"/>
-      <c r="PQ15" s="168"/>
-      <c r="PR15" s="168"/>
-      <c r="PS15" s="168"/>
-      <c r="PT15" s="168"/>
-      <c r="PU15" s="168"/>
-      <c r="PV15" s="168"/>
-      <c r="PW15" s="168"/>
-      <c r="PX15" s="171"/>
-      <c r="PY15" s="168" t="s">
+      <c r="PK15" s="187"/>
+      <c r="PL15" s="187"/>
+      <c r="PM15" s="187"/>
+      <c r="PN15" s="187"/>
+      <c r="PO15" s="187"/>
+      <c r="PP15" s="187"/>
+      <c r="PQ15" s="187"/>
+      <c r="PR15" s="187"/>
+      <c r="PS15" s="187"/>
+      <c r="PT15" s="187"/>
+      <c r="PU15" s="187"/>
+      <c r="PV15" s="187"/>
+      <c r="PW15" s="187"/>
+      <c r="PX15" s="190"/>
+      <c r="PY15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="PZ15" s="168"/>
-      <c r="QA15" s="168"/>
-      <c r="QB15" s="168"/>
-      <c r="QC15" s="168"/>
-      <c r="QD15" s="168"/>
-      <c r="QE15" s="168"/>
-      <c r="QF15" s="168"/>
-      <c r="QG15" s="168"/>
-      <c r="QH15" s="168"/>
-      <c r="QI15" s="168"/>
-      <c r="QJ15" s="168"/>
-      <c r="QK15" s="168"/>
-      <c r="QL15" s="168"/>
-      <c r="QM15" s="175"/>
-      <c r="QN15" s="167" t="s">
+      <c r="PZ15" s="187"/>
+      <c r="QA15" s="187"/>
+      <c r="QB15" s="187"/>
+      <c r="QC15" s="187"/>
+      <c r="QD15" s="187"/>
+      <c r="QE15" s="187"/>
+      <c r="QF15" s="187"/>
+      <c r="QG15" s="187"/>
+      <c r="QH15" s="187"/>
+      <c r="QI15" s="187"/>
+      <c r="QJ15" s="187"/>
+      <c r="QK15" s="187"/>
+      <c r="QL15" s="187"/>
+      <c r="QM15" s="188"/>
+      <c r="QN15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="QO15" s="168"/>
-      <c r="QP15" s="168"/>
-      <c r="QQ15" s="168"/>
-      <c r="QR15" s="168"/>
-      <c r="QS15" s="168"/>
-      <c r="QT15" s="168"/>
-      <c r="QU15" s="168"/>
-      <c r="QV15" s="168"/>
-      <c r="QW15" s="168"/>
-      <c r="QX15" s="168"/>
-      <c r="QY15" s="168"/>
-      <c r="QZ15" s="168"/>
-      <c r="RA15" s="168"/>
-      <c r="RB15" s="168"/>
-      <c r="RC15" s="168" t="s">
+      <c r="QO15" s="187"/>
+      <c r="QP15" s="187"/>
+      <c r="QQ15" s="187"/>
+      <c r="QR15" s="187"/>
+      <c r="QS15" s="187"/>
+      <c r="QT15" s="187"/>
+      <c r="QU15" s="187"/>
+      <c r="QV15" s="187"/>
+      <c r="QW15" s="187"/>
+      <c r="QX15" s="187"/>
+      <c r="QY15" s="187"/>
+      <c r="QZ15" s="187"/>
+      <c r="RA15" s="187"/>
+      <c r="RB15" s="187"/>
+      <c r="RC15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="RD15" s="168"/>
-      <c r="RE15" s="168"/>
-      <c r="RF15" s="168"/>
-      <c r="RG15" s="168"/>
-      <c r="RH15" s="168"/>
-      <c r="RI15" s="168"/>
-      <c r="RJ15" s="168"/>
-      <c r="RK15" s="168"/>
-      <c r="RL15" s="168"/>
-      <c r="RM15" s="168"/>
-      <c r="RN15" s="168"/>
-      <c r="RO15" s="168"/>
-      <c r="RP15" s="168"/>
-      <c r="RQ15" s="175"/>
-      <c r="RR15" s="167" t="s">
+      <c r="RD15" s="187"/>
+      <c r="RE15" s="187"/>
+      <c r="RF15" s="187"/>
+      <c r="RG15" s="187"/>
+      <c r="RH15" s="187"/>
+      <c r="RI15" s="187"/>
+      <c r="RJ15" s="187"/>
+      <c r="RK15" s="187"/>
+      <c r="RL15" s="187"/>
+      <c r="RM15" s="187"/>
+      <c r="RN15" s="187"/>
+      <c r="RO15" s="187"/>
+      <c r="RP15" s="187"/>
+      <c r="RQ15" s="188"/>
+      <c r="RR15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="RS15" s="168"/>
-      <c r="RT15" s="168"/>
-      <c r="RU15" s="168"/>
-      <c r="RV15" s="168"/>
-      <c r="RW15" s="168"/>
-      <c r="RX15" s="168"/>
-      <c r="RY15" s="168"/>
-      <c r="RZ15" s="168"/>
-      <c r="SA15" s="168"/>
-      <c r="SB15" s="168"/>
-      <c r="SC15" s="168"/>
-      <c r="SD15" s="168"/>
-      <c r="SE15" s="168"/>
-      <c r="SF15" s="168"/>
-      <c r="SG15" s="168" t="s">
+      <c r="RS15" s="187"/>
+      <c r="RT15" s="187"/>
+      <c r="RU15" s="187"/>
+      <c r="RV15" s="187"/>
+      <c r="RW15" s="187"/>
+      <c r="RX15" s="187"/>
+      <c r="RY15" s="187"/>
+      <c r="RZ15" s="187"/>
+      <c r="SA15" s="187"/>
+      <c r="SB15" s="187"/>
+      <c r="SC15" s="187"/>
+      <c r="SD15" s="187"/>
+      <c r="SE15" s="187"/>
+      <c r="SF15" s="187"/>
+      <c r="SG15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="SH15" s="168"/>
-      <c r="SI15" s="168"/>
-      <c r="SJ15" s="168"/>
-      <c r="SK15" s="168"/>
-      <c r="SL15" s="168"/>
-      <c r="SM15" s="168"/>
-      <c r="SN15" s="168"/>
-      <c r="SO15" s="168"/>
-      <c r="SP15" s="168"/>
-      <c r="SQ15" s="168"/>
-      <c r="SR15" s="168"/>
-      <c r="SS15" s="168"/>
-      <c r="ST15" s="168"/>
-      <c r="SU15" s="175"/>
-      <c r="SV15" s="167" t="s">
+      <c r="SH15" s="187"/>
+      <c r="SI15" s="187"/>
+      <c r="SJ15" s="187"/>
+      <c r="SK15" s="187"/>
+      <c r="SL15" s="187"/>
+      <c r="SM15" s="187"/>
+      <c r="SN15" s="187"/>
+      <c r="SO15" s="187"/>
+      <c r="SP15" s="187"/>
+      <c r="SQ15" s="187"/>
+      <c r="SR15" s="187"/>
+      <c r="SS15" s="187"/>
+      <c r="ST15" s="187"/>
+      <c r="SU15" s="188"/>
+      <c r="SV15" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="SW15" s="168"/>
-      <c r="SX15" s="168"/>
-      <c r="SY15" s="168"/>
-      <c r="SZ15" s="168"/>
-      <c r="TA15" s="168"/>
-      <c r="TB15" s="168"/>
-      <c r="TC15" s="168"/>
-      <c r="TD15" s="168"/>
-      <c r="TE15" s="168"/>
-      <c r="TF15" s="168"/>
-      <c r="TG15" s="168"/>
-      <c r="TH15" s="168"/>
-      <c r="TI15" s="168"/>
-      <c r="TJ15" s="168"/>
-      <c r="TK15" s="168" t="s">
+      <c r="SW15" s="187"/>
+      <c r="SX15" s="187"/>
+      <c r="SY15" s="187"/>
+      <c r="SZ15" s="187"/>
+      <c r="TA15" s="187"/>
+      <c r="TB15" s="187"/>
+      <c r="TC15" s="187"/>
+      <c r="TD15" s="187"/>
+      <c r="TE15" s="187"/>
+      <c r="TF15" s="187"/>
+      <c r="TG15" s="187"/>
+      <c r="TH15" s="187"/>
+      <c r="TI15" s="187"/>
+      <c r="TJ15" s="187"/>
+      <c r="TK15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="TL15" s="168"/>
-      <c r="TM15" s="168"/>
-      <c r="TN15" s="168"/>
-      <c r="TO15" s="168"/>
-      <c r="TP15" s="168"/>
-      <c r="TQ15" s="168"/>
-      <c r="TR15" s="168"/>
-      <c r="TS15" s="168"/>
-      <c r="TT15" s="168"/>
-      <c r="TU15" s="168"/>
-      <c r="TV15" s="168"/>
-      <c r="TW15" s="168"/>
-      <c r="TX15" s="168"/>
-      <c r="TY15" s="169"/>
-      <c r="TZ15" s="170" t="s">
+      <c r="TL15" s="187"/>
+      <c r="TM15" s="187"/>
+      <c r="TN15" s="187"/>
+      <c r="TO15" s="187"/>
+      <c r="TP15" s="187"/>
+      <c r="TQ15" s="187"/>
+      <c r="TR15" s="187"/>
+      <c r="TS15" s="187"/>
+      <c r="TT15" s="187"/>
+      <c r="TU15" s="187"/>
+      <c r="TV15" s="187"/>
+      <c r="TW15" s="187"/>
+      <c r="TX15" s="187"/>
+      <c r="TY15" s="191"/>
+      <c r="TZ15" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="UA15" s="168"/>
-      <c r="UB15" s="168"/>
-      <c r="UC15" s="168"/>
-      <c r="UD15" s="168"/>
-      <c r="UE15" s="168"/>
-      <c r="UF15" s="168"/>
-      <c r="UG15" s="168"/>
-      <c r="UH15" s="168"/>
-      <c r="UI15" s="168"/>
-      <c r="UJ15" s="168"/>
-      <c r="UK15" s="168"/>
-      <c r="UL15" s="168"/>
-      <c r="UM15" s="168"/>
-      <c r="UN15" s="171"/>
-      <c r="UO15" s="168" t="s">
+      <c r="UA15" s="187"/>
+      <c r="UB15" s="187"/>
+      <c r="UC15" s="187"/>
+      <c r="UD15" s="187"/>
+      <c r="UE15" s="187"/>
+      <c r="UF15" s="187"/>
+      <c r="UG15" s="187"/>
+      <c r="UH15" s="187"/>
+      <c r="UI15" s="187"/>
+      <c r="UJ15" s="187"/>
+      <c r="UK15" s="187"/>
+      <c r="UL15" s="187"/>
+      <c r="UM15" s="187"/>
+      <c r="UN15" s="190"/>
+      <c r="UO15" s="187" t="s">
         <v>25</v>
       </c>
-      <c r="UP15" s="168"/>
-      <c r="UQ15" s="168"/>
-      <c r="UR15" s="168"/>
-      <c r="US15" s="168"/>
-      <c r="UT15" s="168"/>
-      <c r="UU15" s="168"/>
-      <c r="UV15" s="168"/>
-      <c r="UW15" s="168"/>
-      <c r="UX15" s="168"/>
-      <c r="UY15" s="168"/>
-      <c r="UZ15" s="168"/>
-      <c r="VA15" s="168"/>
-      <c r="VB15" s="168"/>
-      <c r="VC15" s="169"/>
+      <c r="UP15" s="187"/>
+      <c r="UQ15" s="187"/>
+      <c r="UR15" s="187"/>
+      <c r="US15" s="187"/>
+      <c r="UT15" s="187"/>
+      <c r="UU15" s="187"/>
+      <c r="UV15" s="187"/>
+      <c r="UW15" s="187"/>
+      <c r="UX15" s="187"/>
+      <c r="UY15" s="187"/>
+      <c r="UZ15" s="187"/>
+      <c r="VA15" s="187"/>
+      <c r="VB15" s="187"/>
+      <c r="VC15" s="191"/>
     </row>
     <row r="16" spans="1:575" s="3" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -11465,40 +11477,40 @@
       <c r="TW16" s="15"/>
       <c r="TX16" s="15"/>
       <c r="TY16" s="14"/>
-      <c r="TZ16" s="172"/>
-      <c r="UA16" s="173"/>
-      <c r="UB16" s="173"/>
-      <c r="UC16" s="173"/>
-      <c r="UD16" s="173"/>
-      <c r="UE16" s="173"/>
-      <c r="UF16" s="173"/>
-      <c r="UG16" s="173"/>
-      <c r="UH16" s="173"/>
-      <c r="UI16" s="173"/>
-      <c r="UJ16" s="173"/>
-      <c r="UK16" s="173"/>
-      <c r="UL16" s="173"/>
-      <c r="UM16" s="173"/>
-      <c r="UN16" s="173"/>
-      <c r="UO16" s="173"/>
-      <c r="UP16" s="173"/>
-      <c r="UQ16" s="173"/>
-      <c r="UR16" s="173"/>
-      <c r="US16" s="173"/>
-      <c r="UT16" s="173"/>
-      <c r="UU16" s="173"/>
-      <c r="UV16" s="173"/>
-      <c r="UW16" s="173"/>
-      <c r="UX16" s="173"/>
-      <c r="UY16" s="173"/>
-      <c r="UZ16" s="173"/>
-      <c r="VA16" s="173"/>
-      <c r="VB16" s="173"/>
-      <c r="VC16" s="174"/>
+      <c r="TZ16" s="203"/>
+      <c r="UA16" s="204"/>
+      <c r="UB16" s="204"/>
+      <c r="UC16" s="204"/>
+      <c r="UD16" s="204"/>
+      <c r="UE16" s="204"/>
+      <c r="UF16" s="204"/>
+      <c r="UG16" s="204"/>
+      <c r="UH16" s="204"/>
+      <c r="UI16" s="204"/>
+      <c r="UJ16" s="204"/>
+      <c r="UK16" s="204"/>
+      <c r="UL16" s="204"/>
+      <c r="UM16" s="204"/>
+      <c r="UN16" s="204"/>
+      <c r="UO16" s="204"/>
+      <c r="UP16" s="204"/>
+      <c r="UQ16" s="204"/>
+      <c r="UR16" s="204"/>
+      <c r="US16" s="204"/>
+      <c r="UT16" s="204"/>
+      <c r="UU16" s="204"/>
+      <c r="UV16" s="204"/>
+      <c r="UW16" s="204"/>
+      <c r="UX16" s="204"/>
+      <c r="UY16" s="204"/>
+      <c r="UZ16" s="204"/>
+      <c r="VA16" s="204"/>
+      <c r="VB16" s="204"/>
+      <c r="VC16" s="205"/>
     </row>
     <row r="17" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="194" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -11804,7 +11816,7 @@
       <c r="KO17" s="18"/>
       <c r="KP17" s="18"/>
       <c r="KQ17" s="24"/>
-      <c r="KR17" s="150" t="s">
+      <c r="KR17" s="194" t="s">
         <v>27</v>
       </c>
       <c r="KS17" s="122" t="s">
@@ -12083,7 +12095,7 @@
     </row>
     <row r="18" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="139"/>
+      <c r="B18" s="193"/>
       <c r="C18" s="64" t="s">
         <v>29</v>
       </c>
@@ -12387,7 +12399,7 @@
       <c r="KO18" s="27"/>
       <c r="KP18" s="27"/>
       <c r="KQ18" s="34"/>
-      <c r="KR18" s="139"/>
+      <c r="KR18" s="193"/>
       <c r="KS18" s="123" t="s">
         <v>29</v>
       </c>
@@ -12664,7 +12676,7 @@
     </row>
     <row r="19" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="140" t="s">
+      <c r="B19" s="192" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="65" t="s">
@@ -12970,7 +12982,7 @@
       <c r="KO19" s="37"/>
       <c r="KP19" s="37"/>
       <c r="KQ19" s="44"/>
-      <c r="KR19" s="140" t="s">
+      <c r="KR19" s="192" t="s">
         <v>30</v>
       </c>
       <c r="KS19" s="124" t="s">
@@ -13249,7 +13261,7 @@
     </row>
     <row r="20" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="139"/>
+      <c r="B20" s="193"/>
       <c r="C20" s="64" t="s">
         <v>29</v>
       </c>
@@ -13553,7 +13565,7 @@
       <c r="KO20" s="27"/>
       <c r="KP20" s="27"/>
       <c r="KQ20" s="34"/>
-      <c r="KR20" s="139"/>
+      <c r="KR20" s="193"/>
       <c r="KS20" s="123" t="s">
         <v>29</v>
       </c>
@@ -13830,7 +13842,7 @@
     </row>
     <row r="21" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="140" t="s">
+      <c r="B21" s="192" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="65" t="s">
@@ -14136,7 +14148,7 @@
       <c r="KO21" s="37"/>
       <c r="KP21" s="37"/>
       <c r="KQ21" s="44"/>
-      <c r="KR21" s="140" t="s">
+      <c r="KR21" s="192" t="s">
         <v>35</v>
       </c>
       <c r="KS21" s="124" t="s">
@@ -14415,7 +14427,7 @@
     </row>
     <row r="22" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="139"/>
+      <c r="B22" s="193"/>
       <c r="C22" s="64" t="s">
         <v>29</v>
       </c>
@@ -14719,7 +14731,7 @@
       <c r="KO22" s="27"/>
       <c r="KP22" s="27"/>
       <c r="KQ22" s="34"/>
-      <c r="KR22" s="139"/>
+      <c r="KR22" s="193"/>
       <c r="KS22" s="123" t="s">
         <v>29</v>
       </c>
@@ -14996,7 +15008,7 @@
     </row>
     <row r="23" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="150" t="s">
+      <c r="B23" s="194" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -15302,7 +15314,7 @@
       <c r="KO23" s="18"/>
       <c r="KP23" s="18"/>
       <c r="KQ23" s="24"/>
-      <c r="KR23" s="150" t="s">
+      <c r="KR23" s="194" t="s">
         <v>31</v>
       </c>
       <c r="KS23" s="122" t="s">
@@ -15581,7 +15593,7 @@
     </row>
     <row r="24" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="151"/>
+      <c r="B24" s="195"/>
       <c r="C24" s="66" t="s">
         <v>29</v>
       </c>
@@ -15885,7 +15897,7 @@
       <c r="KO24" s="18"/>
       <c r="KP24" s="18"/>
       <c r="KQ24" s="24"/>
-      <c r="KR24" s="151"/>
+      <c r="KR24" s="195"/>
       <c r="KS24" s="125" t="s">
         <v>29</v>
       </c>
@@ -16710,36 +16722,36 @@
       <c r="TW25" s="60"/>
       <c r="TX25" s="60"/>
       <c r="TY25" s="72"/>
-      <c r="TZ25" s="161"/>
-      <c r="UA25" s="162"/>
-      <c r="UB25" s="162"/>
-      <c r="UC25" s="162"/>
-      <c r="UD25" s="162"/>
-      <c r="UE25" s="162"/>
-      <c r="UF25" s="162"/>
-      <c r="UG25" s="162"/>
-      <c r="UH25" s="162"/>
-      <c r="UI25" s="162"/>
-      <c r="UJ25" s="162"/>
-      <c r="UK25" s="162"/>
-      <c r="UL25" s="162"/>
-      <c r="UM25" s="162"/>
-      <c r="UN25" s="162"/>
-      <c r="UO25" s="162"/>
-      <c r="UP25" s="162"/>
-      <c r="UQ25" s="162"/>
-      <c r="UR25" s="162"/>
-      <c r="US25" s="162"/>
-      <c r="UT25" s="162"/>
-      <c r="UU25" s="162"/>
-      <c r="UV25" s="162"/>
-      <c r="UW25" s="162"/>
-      <c r="UX25" s="162"/>
-      <c r="UY25" s="162"/>
-      <c r="UZ25" s="162"/>
-      <c r="VA25" s="162"/>
-      <c r="VB25" s="162"/>
-      <c r="VC25" s="163"/>
+      <c r="TZ25" s="196"/>
+      <c r="UA25" s="197"/>
+      <c r="UB25" s="197"/>
+      <c r="UC25" s="197"/>
+      <c r="UD25" s="197"/>
+      <c r="UE25" s="197"/>
+      <c r="UF25" s="197"/>
+      <c r="UG25" s="197"/>
+      <c r="UH25" s="197"/>
+      <c r="UI25" s="197"/>
+      <c r="UJ25" s="197"/>
+      <c r="UK25" s="197"/>
+      <c r="UL25" s="197"/>
+      <c r="UM25" s="197"/>
+      <c r="UN25" s="197"/>
+      <c r="UO25" s="197"/>
+      <c r="UP25" s="197"/>
+      <c r="UQ25" s="197"/>
+      <c r="UR25" s="197"/>
+      <c r="US25" s="197"/>
+      <c r="UT25" s="197"/>
+      <c r="UU25" s="197"/>
+      <c r="UV25" s="197"/>
+      <c r="UW25" s="197"/>
+      <c r="UX25" s="197"/>
+      <c r="UY25" s="197"/>
+      <c r="UZ25" s="197"/>
+      <c r="VA25" s="197"/>
+      <c r="VB25" s="197"/>
+      <c r="VC25" s="198"/>
     </row>
     <row r="26" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
@@ -17872,40 +17884,40 @@
       <c r="TW27" s="62"/>
       <c r="TX27" s="62"/>
       <c r="TY27" s="76"/>
-      <c r="TZ27" s="164"/>
-      <c r="UA27" s="165"/>
-      <c r="UB27" s="165"/>
-      <c r="UC27" s="165"/>
-      <c r="UD27" s="165"/>
-      <c r="UE27" s="165"/>
-      <c r="UF27" s="165"/>
-      <c r="UG27" s="165"/>
-      <c r="UH27" s="165"/>
-      <c r="UI27" s="165"/>
-      <c r="UJ27" s="165"/>
-      <c r="UK27" s="165"/>
-      <c r="UL27" s="165"/>
-      <c r="UM27" s="165"/>
-      <c r="UN27" s="165"/>
-      <c r="UO27" s="165"/>
-      <c r="UP27" s="165"/>
-      <c r="UQ27" s="165"/>
-      <c r="UR27" s="165"/>
-      <c r="US27" s="165"/>
-      <c r="UT27" s="165"/>
-      <c r="UU27" s="165"/>
-      <c r="UV27" s="165"/>
-      <c r="UW27" s="165"/>
-      <c r="UX27" s="165"/>
-      <c r="UY27" s="165"/>
-      <c r="UZ27" s="165"/>
-      <c r="VA27" s="165"/>
-      <c r="VB27" s="165"/>
-      <c r="VC27" s="166"/>
+      <c r="TZ27" s="199"/>
+      <c r="UA27" s="200"/>
+      <c r="UB27" s="200"/>
+      <c r="UC27" s="200"/>
+      <c r="UD27" s="200"/>
+      <c r="UE27" s="200"/>
+      <c r="UF27" s="200"/>
+      <c r="UG27" s="200"/>
+      <c r="UH27" s="200"/>
+      <c r="UI27" s="200"/>
+      <c r="UJ27" s="200"/>
+      <c r="UK27" s="200"/>
+      <c r="UL27" s="200"/>
+      <c r="UM27" s="200"/>
+      <c r="UN27" s="200"/>
+      <c r="UO27" s="200"/>
+      <c r="UP27" s="200"/>
+      <c r="UQ27" s="200"/>
+      <c r="UR27" s="200"/>
+      <c r="US27" s="200"/>
+      <c r="UT27" s="200"/>
+      <c r="UU27" s="200"/>
+      <c r="UV27" s="200"/>
+      <c r="UW27" s="200"/>
+      <c r="UX27" s="200"/>
+      <c r="UY27" s="200"/>
+      <c r="UZ27" s="200"/>
+      <c r="VA27" s="200"/>
+      <c r="VB27" s="200"/>
+      <c r="VC27" s="201"/>
     </row>
     <row r="28" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="202" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -18211,7 +18223,7 @@
       <c r="KO28" s="18"/>
       <c r="KP28" s="18"/>
       <c r="KQ28" s="24"/>
-      <c r="KR28" s="138" t="s">
+      <c r="KR28" s="202" t="s">
         <v>34</v>
       </c>
       <c r="KS28" s="128" t="s">
@@ -18490,7 +18502,7 @@
     </row>
     <row r="29" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="139"/>
+      <c r="B29" s="193"/>
       <c r="C29" s="64" t="s">
         <v>29</v>
       </c>
@@ -18794,7 +18806,7 @@
       <c r="KO29" s="27"/>
       <c r="KP29" s="27"/>
       <c r="KQ29" s="34"/>
-      <c r="KR29" s="139"/>
+      <c r="KR29" s="193"/>
       <c r="KS29" s="123" t="s">
         <v>29</v>
       </c>
@@ -19619,36 +19631,36 @@
       <c r="TW30" s="60"/>
       <c r="TX30" s="60"/>
       <c r="TY30" s="72"/>
-      <c r="TZ30" s="161"/>
-      <c r="UA30" s="162"/>
-      <c r="UB30" s="162"/>
-      <c r="UC30" s="162"/>
-      <c r="UD30" s="162"/>
-      <c r="UE30" s="162"/>
-      <c r="UF30" s="162"/>
-      <c r="UG30" s="162"/>
-      <c r="UH30" s="162"/>
-      <c r="UI30" s="162"/>
-      <c r="UJ30" s="162"/>
-      <c r="UK30" s="162"/>
-      <c r="UL30" s="162"/>
-      <c r="UM30" s="162"/>
-      <c r="UN30" s="162"/>
-      <c r="UO30" s="162"/>
-      <c r="UP30" s="162"/>
-      <c r="UQ30" s="162"/>
-      <c r="UR30" s="162"/>
-      <c r="US30" s="162"/>
-      <c r="UT30" s="162"/>
-      <c r="UU30" s="162"/>
-      <c r="UV30" s="162"/>
-      <c r="UW30" s="162"/>
-      <c r="UX30" s="162"/>
-      <c r="UY30" s="162"/>
-      <c r="UZ30" s="162"/>
-      <c r="VA30" s="162"/>
-      <c r="VB30" s="162"/>
-      <c r="VC30" s="163"/>
+      <c r="TZ30" s="196"/>
+      <c r="UA30" s="197"/>
+      <c r="UB30" s="197"/>
+      <c r="UC30" s="197"/>
+      <c r="UD30" s="197"/>
+      <c r="UE30" s="197"/>
+      <c r="UF30" s="197"/>
+      <c r="UG30" s="197"/>
+      <c r="UH30" s="197"/>
+      <c r="UI30" s="197"/>
+      <c r="UJ30" s="197"/>
+      <c r="UK30" s="197"/>
+      <c r="UL30" s="197"/>
+      <c r="UM30" s="197"/>
+      <c r="UN30" s="197"/>
+      <c r="UO30" s="197"/>
+      <c r="UP30" s="197"/>
+      <c r="UQ30" s="197"/>
+      <c r="UR30" s="197"/>
+      <c r="US30" s="197"/>
+      <c r="UT30" s="197"/>
+      <c r="UU30" s="197"/>
+      <c r="UV30" s="197"/>
+      <c r="UW30" s="197"/>
+      <c r="UX30" s="197"/>
+      <c r="UY30" s="197"/>
+      <c r="UZ30" s="197"/>
+      <c r="VA30" s="197"/>
+      <c r="VB30" s="197"/>
+      <c r="VC30" s="198"/>
     </row>
     <row r="31" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
@@ -20781,40 +20793,40 @@
       <c r="TW32" s="61"/>
       <c r="TX32" s="61"/>
       <c r="TY32" s="78"/>
-      <c r="TZ32" s="152"/>
-      <c r="UA32" s="153"/>
-      <c r="UB32" s="153"/>
-      <c r="UC32" s="153"/>
-      <c r="UD32" s="153"/>
-      <c r="UE32" s="153"/>
-      <c r="UF32" s="153"/>
-      <c r="UG32" s="153"/>
-      <c r="UH32" s="153"/>
-      <c r="UI32" s="153"/>
-      <c r="UJ32" s="153"/>
-      <c r="UK32" s="153"/>
-      <c r="UL32" s="153"/>
-      <c r="UM32" s="153"/>
-      <c r="UN32" s="153"/>
-      <c r="UO32" s="153"/>
-      <c r="UP32" s="153"/>
-      <c r="UQ32" s="153"/>
-      <c r="UR32" s="153"/>
-      <c r="US32" s="153"/>
-      <c r="UT32" s="153"/>
-      <c r="UU32" s="153"/>
-      <c r="UV32" s="153"/>
-      <c r="UW32" s="153"/>
-      <c r="UX32" s="153"/>
-      <c r="UY32" s="153"/>
-      <c r="UZ32" s="153"/>
-      <c r="VA32" s="153"/>
-      <c r="VB32" s="153"/>
-      <c r="VC32" s="154"/>
+      <c r="TZ32" s="206"/>
+      <c r="UA32" s="207"/>
+      <c r="UB32" s="207"/>
+      <c r="UC32" s="207"/>
+      <c r="UD32" s="207"/>
+      <c r="UE32" s="207"/>
+      <c r="UF32" s="207"/>
+      <c r="UG32" s="207"/>
+      <c r="UH32" s="207"/>
+      <c r="UI32" s="207"/>
+      <c r="UJ32" s="207"/>
+      <c r="UK32" s="207"/>
+      <c r="UL32" s="207"/>
+      <c r="UM32" s="207"/>
+      <c r="UN32" s="207"/>
+      <c r="UO32" s="207"/>
+      <c r="UP32" s="207"/>
+      <c r="UQ32" s="207"/>
+      <c r="UR32" s="207"/>
+      <c r="US32" s="207"/>
+      <c r="UT32" s="207"/>
+      <c r="UU32" s="207"/>
+      <c r="UV32" s="207"/>
+      <c r="UW32" s="207"/>
+      <c r="UX32" s="207"/>
+      <c r="UY32" s="207"/>
+      <c r="UZ32" s="207"/>
+      <c r="VA32" s="207"/>
+      <c r="VB32" s="207"/>
+      <c r="VC32" s="208"/>
     </row>
     <row r="33" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="140" t="s">
+      <c r="B33" s="192" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="65" t="s">
@@ -21120,7 +21132,7 @@
       <c r="KO33" s="37"/>
       <c r="KP33" s="37"/>
       <c r="KQ33" s="44"/>
-      <c r="KR33" s="140" t="s">
+      <c r="KR33" s="192" t="s">
         <v>63</v>
       </c>
       <c r="KS33" s="124" t="s">
@@ -21399,7 +21411,7 @@
     </row>
     <row r="34" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="139"/>
+      <c r="B34" s="193"/>
       <c r="C34" s="64" t="s">
         <v>29</v>
       </c>
@@ -21703,7 +21715,7 @@
       <c r="KO34" s="27"/>
       <c r="KP34" s="27"/>
       <c r="KQ34" s="34"/>
-      <c r="KR34" s="139"/>
+      <c r="KR34" s="193"/>
       <c r="KS34" s="123" t="s">
         <v>29</v>
       </c>
@@ -21980,7 +21992,7 @@
     </row>
     <row r="35" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="140" t="s">
+      <c r="B35" s="192" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -22286,7 +22298,7 @@
       <c r="KO35" s="37"/>
       <c r="KP35" s="37"/>
       <c r="KQ35" s="44"/>
-      <c r="KR35" s="140" t="s">
+      <c r="KR35" s="192" t="s">
         <v>71</v>
       </c>
       <c r="KS35" s="124" t="s">
@@ -22565,7 +22577,7 @@
     </row>
     <row r="36" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="139"/>
+      <c r="B36" s="193"/>
       <c r="C36" s="64" t="s">
         <v>29</v>
       </c>
@@ -22869,7 +22881,7 @@
       <c r="KO36" s="27"/>
       <c r="KP36" s="27"/>
       <c r="KQ36" s="34"/>
-      <c r="KR36" s="139"/>
+      <c r="KR36" s="193"/>
       <c r="KS36" s="123" t="s">
         <v>29</v>
       </c>
@@ -23146,7 +23158,7 @@
     </row>
     <row r="37" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="140" t="s">
+      <c r="B37" s="192" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="65" t="s">
@@ -23452,7 +23464,7 @@
       <c r="KO37" s="37"/>
       <c r="KP37" s="37"/>
       <c r="KQ37" s="44"/>
-      <c r="KR37" s="140" t="s">
+      <c r="KR37" s="192" t="s">
         <v>72</v>
       </c>
       <c r="KS37" s="124" t="s">
@@ -23731,7 +23743,7 @@
     </row>
     <row r="38" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="139"/>
+      <c r="B38" s="193"/>
       <c r="C38" s="64" t="s">
         <v>29</v>
       </c>
@@ -24035,7 +24047,7 @@
       <c r="KO38" s="27"/>
       <c r="KP38" s="27"/>
       <c r="KQ38" s="34"/>
-      <c r="KR38" s="139"/>
+      <c r="KR38" s="193"/>
       <c r="KS38" s="123" t="s">
         <v>29</v>
       </c>
@@ -24312,7 +24324,7 @@
     </row>
     <row r="39" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="141" t="s">
+      <c r="B39" s="209" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="65" t="s">
@@ -24618,7 +24630,7 @@
       <c r="KO39" s="18"/>
       <c r="KP39" s="18"/>
       <c r="KQ39" s="24"/>
-      <c r="KR39" s="141" t="s">
+      <c r="KR39" s="209" t="s">
         <v>66</v>
       </c>
       <c r="KS39" s="124" t="s">
@@ -24897,7 +24909,7 @@
     </row>
     <row r="40" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="142"/>
+      <c r="B40" s="210"/>
       <c r="C40" s="66" t="s">
         <v>29</v>
       </c>
@@ -25201,7 +25213,7 @@
       <c r="KO40" s="18"/>
       <c r="KP40" s="18"/>
       <c r="KQ40" s="24"/>
-      <c r="KR40" s="142"/>
+      <c r="KR40" s="210"/>
       <c r="KS40" s="125" t="s">
         <v>29</v>
       </c>
@@ -26026,36 +26038,36 @@
       <c r="TW41" s="60"/>
       <c r="TX41" s="60"/>
       <c r="TY41" s="72"/>
-      <c r="TZ41" s="161"/>
-      <c r="UA41" s="162"/>
-      <c r="UB41" s="162"/>
-      <c r="UC41" s="162"/>
-      <c r="UD41" s="162"/>
-      <c r="UE41" s="162"/>
-      <c r="UF41" s="162"/>
-      <c r="UG41" s="162"/>
-      <c r="UH41" s="162"/>
-      <c r="UI41" s="162"/>
-      <c r="UJ41" s="162"/>
-      <c r="UK41" s="162"/>
-      <c r="UL41" s="162"/>
-      <c r="UM41" s="162"/>
-      <c r="UN41" s="162"/>
-      <c r="UO41" s="162"/>
-      <c r="UP41" s="162"/>
-      <c r="UQ41" s="162"/>
-      <c r="UR41" s="162"/>
-      <c r="US41" s="162"/>
-      <c r="UT41" s="162"/>
-      <c r="UU41" s="162"/>
-      <c r="UV41" s="162"/>
-      <c r="UW41" s="162"/>
-      <c r="UX41" s="162"/>
-      <c r="UY41" s="162"/>
-      <c r="UZ41" s="162"/>
-      <c r="VA41" s="162"/>
-      <c r="VB41" s="162"/>
-      <c r="VC41" s="163"/>
+      <c r="TZ41" s="196"/>
+      <c r="UA41" s="197"/>
+      <c r="UB41" s="197"/>
+      <c r="UC41" s="197"/>
+      <c r="UD41" s="197"/>
+      <c r="UE41" s="197"/>
+      <c r="UF41" s="197"/>
+      <c r="UG41" s="197"/>
+      <c r="UH41" s="197"/>
+      <c r="UI41" s="197"/>
+      <c r="UJ41" s="197"/>
+      <c r="UK41" s="197"/>
+      <c r="UL41" s="197"/>
+      <c r="UM41" s="197"/>
+      <c r="UN41" s="197"/>
+      <c r="UO41" s="197"/>
+      <c r="UP41" s="197"/>
+      <c r="UQ41" s="197"/>
+      <c r="UR41" s="197"/>
+      <c r="US41" s="197"/>
+      <c r="UT41" s="197"/>
+      <c r="UU41" s="197"/>
+      <c r="UV41" s="197"/>
+      <c r="UW41" s="197"/>
+      <c r="UX41" s="197"/>
+      <c r="UY41" s="197"/>
+      <c r="UZ41" s="197"/>
+      <c r="VA41" s="197"/>
+      <c r="VB41" s="197"/>
+      <c r="VC41" s="198"/>
     </row>
     <row r="42" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
@@ -27188,40 +27200,40 @@
       <c r="TW43" s="61"/>
       <c r="TX43" s="61"/>
       <c r="TY43" s="78"/>
-      <c r="TZ43" s="152"/>
-      <c r="UA43" s="153"/>
-      <c r="UB43" s="153"/>
-      <c r="UC43" s="153"/>
-      <c r="UD43" s="153"/>
-      <c r="UE43" s="153"/>
-      <c r="UF43" s="153"/>
-      <c r="UG43" s="153"/>
-      <c r="UH43" s="153"/>
-      <c r="UI43" s="153"/>
-      <c r="UJ43" s="153"/>
-      <c r="UK43" s="153"/>
-      <c r="UL43" s="153"/>
-      <c r="UM43" s="153"/>
-      <c r="UN43" s="153"/>
-      <c r="UO43" s="153"/>
-      <c r="UP43" s="153"/>
-      <c r="UQ43" s="153"/>
-      <c r="UR43" s="153"/>
-      <c r="US43" s="153"/>
-      <c r="UT43" s="153"/>
-      <c r="UU43" s="153"/>
-      <c r="UV43" s="153"/>
-      <c r="UW43" s="153"/>
-      <c r="UX43" s="153"/>
-      <c r="UY43" s="153"/>
-      <c r="UZ43" s="153"/>
-      <c r="VA43" s="153"/>
-      <c r="VB43" s="153"/>
-      <c r="VC43" s="154"/>
+      <c r="TZ43" s="206"/>
+      <c r="UA43" s="207"/>
+      <c r="UB43" s="207"/>
+      <c r="UC43" s="207"/>
+      <c r="UD43" s="207"/>
+      <c r="UE43" s="207"/>
+      <c r="UF43" s="207"/>
+      <c r="UG43" s="207"/>
+      <c r="UH43" s="207"/>
+      <c r="UI43" s="207"/>
+      <c r="UJ43" s="207"/>
+      <c r="UK43" s="207"/>
+      <c r="UL43" s="207"/>
+      <c r="UM43" s="207"/>
+      <c r="UN43" s="207"/>
+      <c r="UO43" s="207"/>
+      <c r="UP43" s="207"/>
+      <c r="UQ43" s="207"/>
+      <c r="UR43" s="207"/>
+      <c r="US43" s="207"/>
+      <c r="UT43" s="207"/>
+      <c r="UU43" s="207"/>
+      <c r="UV43" s="207"/>
+      <c r="UW43" s="207"/>
+      <c r="UX43" s="207"/>
+      <c r="UY43" s="207"/>
+      <c r="UZ43" s="207"/>
+      <c r="VA43" s="207"/>
+      <c r="VB43" s="207"/>
+      <c r="VC43" s="208"/>
     </row>
     <row r="44" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="192" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="65" t="s">
@@ -27527,7 +27539,7 @@
       <c r="KO44" s="37"/>
       <c r="KP44" s="37"/>
       <c r="KQ44" s="44"/>
-      <c r="KR44" s="140" t="s">
+      <c r="KR44" s="192" t="s">
         <v>61</v>
       </c>
       <c r="KS44" s="124" t="s">
@@ -27806,7 +27818,7 @@
     </row>
     <row r="45" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="139"/>
+      <c r="B45" s="193"/>
       <c r="C45" s="64" t="s">
         <v>29</v>
       </c>
@@ -28110,7 +28122,7 @@
       <c r="KO45" s="27"/>
       <c r="KP45" s="27"/>
       <c r="KQ45" s="34"/>
-      <c r="KR45" s="139"/>
+      <c r="KR45" s="193"/>
       <c r="KS45" s="123" t="s">
         <v>29</v>
       </c>
@@ -28387,7 +28399,7 @@
     </row>
     <row r="46" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="140" t="s">
+      <c r="B46" s="192" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="65" t="s">
@@ -28693,7 +28705,7 @@
       <c r="KO46" s="37"/>
       <c r="KP46" s="37"/>
       <c r="KQ46" s="44"/>
-      <c r="KR46" s="140" t="s">
+      <c r="KR46" s="192" t="s">
         <v>73</v>
       </c>
       <c r="KS46" s="124" t="s">
@@ -28972,7 +28984,7 @@
     </row>
     <row r="47" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="139"/>
+      <c r="B47" s="193"/>
       <c r="C47" s="64" t="s">
         <v>29</v>
       </c>
@@ -29276,7 +29288,7 @@
       <c r="KO47" s="27"/>
       <c r="KP47" s="27"/>
       <c r="KQ47" s="34"/>
-      <c r="KR47" s="139"/>
+      <c r="KR47" s="193"/>
       <c r="KS47" s="123" t="s">
         <v>29</v>
       </c>
@@ -29553,7 +29565,7 @@
     </row>
     <row r="48" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="140" t="s">
+      <c r="B48" s="192" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="65" t="s">
@@ -29859,7 +29871,7 @@
       <c r="KO48" s="37"/>
       <c r="KP48" s="37"/>
       <c r="KQ48" s="44"/>
-      <c r="KR48" s="140" t="s">
+      <c r="KR48" s="192" t="s">
         <v>64</v>
       </c>
       <c r="KS48" s="124" t="s">
@@ -30138,7 +30150,7 @@
     </row>
     <row r="49" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="139"/>
+      <c r="B49" s="193"/>
       <c r="C49" s="64" t="s">
         <v>29</v>
       </c>
@@ -30442,7 +30454,7 @@
       <c r="KO49" s="27"/>
       <c r="KP49" s="27"/>
       <c r="KQ49" s="34"/>
-      <c r="KR49" s="139"/>
+      <c r="KR49" s="193"/>
       <c r="KS49" s="123" t="s">
         <v>29</v>
       </c>
@@ -30719,7 +30731,7 @@
     </row>
     <row r="50" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="140" t="s">
+      <c r="B50" s="192" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="65" t="s">
@@ -31025,7 +31037,7 @@
       <c r="KO50" s="37"/>
       <c r="KP50" s="37"/>
       <c r="KQ50" s="44"/>
-      <c r="KR50" s="140" t="s">
+      <c r="KR50" s="192" t="s">
         <v>65</v>
       </c>
       <c r="KS50" s="124" t="s">
@@ -31304,7 +31316,7 @@
     </row>
     <row r="51" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="139"/>
+      <c r="B51" s="193"/>
       <c r="C51" s="64" t="s">
         <v>29</v>
       </c>
@@ -31608,7 +31620,7 @@
       <c r="KO51" s="27"/>
       <c r="KP51" s="27"/>
       <c r="KQ51" s="34"/>
-      <c r="KR51" s="139"/>
+      <c r="KR51" s="193"/>
       <c r="KS51" s="123" t="s">
         <v>29</v>
       </c>
@@ -31885,7 +31897,7 @@
     </row>
     <row r="52" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="150" t="s">
+      <c r="B52" s="194" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -32191,7 +32203,7 @@
       <c r="KO52" s="18"/>
       <c r="KP52" s="18"/>
       <c r="KQ52" s="24"/>
-      <c r="KR52" s="150" t="s">
+      <c r="KR52" s="194" t="s">
         <v>62</v>
       </c>
       <c r="KS52" s="122" t="s">
@@ -32470,7 +32482,7 @@
     </row>
     <row r="53" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="151"/>
+      <c r="B53" s="195"/>
       <c r="C53" s="66" t="s">
         <v>29</v>
       </c>
@@ -32774,7 +32786,7 @@
       <c r="KO53" s="18"/>
       <c r="KP53" s="18"/>
       <c r="KQ53" s="24"/>
-      <c r="KR53" s="151"/>
+      <c r="KR53" s="195"/>
       <c r="KS53" s="125" t="s">
         <v>29</v>
       </c>
@@ -33599,36 +33611,36 @@
       <c r="TW54" s="60"/>
       <c r="TX54" s="60"/>
       <c r="TY54" s="72"/>
-      <c r="TZ54" s="161"/>
-      <c r="UA54" s="162"/>
-      <c r="UB54" s="162"/>
-      <c r="UC54" s="162"/>
-      <c r="UD54" s="162"/>
-      <c r="UE54" s="162"/>
-      <c r="UF54" s="162"/>
-      <c r="UG54" s="162"/>
-      <c r="UH54" s="162"/>
-      <c r="UI54" s="162"/>
-      <c r="UJ54" s="162"/>
-      <c r="UK54" s="162"/>
-      <c r="UL54" s="162"/>
-      <c r="UM54" s="162"/>
-      <c r="UN54" s="162"/>
-      <c r="UO54" s="162"/>
-      <c r="UP54" s="162"/>
-      <c r="UQ54" s="162"/>
-      <c r="UR54" s="162"/>
-      <c r="US54" s="162"/>
-      <c r="UT54" s="162"/>
-      <c r="UU54" s="162"/>
-      <c r="UV54" s="162"/>
-      <c r="UW54" s="162"/>
-      <c r="UX54" s="162"/>
-      <c r="UY54" s="162"/>
-      <c r="UZ54" s="162"/>
-      <c r="VA54" s="162"/>
-      <c r="VB54" s="162"/>
-      <c r="VC54" s="163"/>
+      <c r="TZ54" s="196"/>
+      <c r="UA54" s="197"/>
+      <c r="UB54" s="197"/>
+      <c r="UC54" s="197"/>
+      <c r="UD54" s="197"/>
+      <c r="UE54" s="197"/>
+      <c r="UF54" s="197"/>
+      <c r="UG54" s="197"/>
+      <c r="UH54" s="197"/>
+      <c r="UI54" s="197"/>
+      <c r="UJ54" s="197"/>
+      <c r="UK54" s="197"/>
+      <c r="UL54" s="197"/>
+      <c r="UM54" s="197"/>
+      <c r="UN54" s="197"/>
+      <c r="UO54" s="197"/>
+      <c r="UP54" s="197"/>
+      <c r="UQ54" s="197"/>
+      <c r="UR54" s="197"/>
+      <c r="US54" s="197"/>
+      <c r="UT54" s="197"/>
+      <c r="UU54" s="197"/>
+      <c r="UV54" s="197"/>
+      <c r="UW54" s="197"/>
+      <c r="UX54" s="197"/>
+      <c r="UY54" s="197"/>
+      <c r="UZ54" s="197"/>
+      <c r="VA54" s="197"/>
+      <c r="VB54" s="197"/>
+      <c r="VC54" s="198"/>
     </row>
     <row r="55" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
@@ -34761,40 +34773,40 @@
       <c r="TW56" s="61"/>
       <c r="TX56" s="61"/>
       <c r="TY56" s="78"/>
-      <c r="TZ56" s="152"/>
-      <c r="UA56" s="153"/>
-      <c r="UB56" s="153"/>
-      <c r="UC56" s="153"/>
-      <c r="UD56" s="153"/>
-      <c r="UE56" s="153"/>
-      <c r="UF56" s="153"/>
-      <c r="UG56" s="153"/>
-      <c r="UH56" s="153"/>
-      <c r="UI56" s="153"/>
-      <c r="UJ56" s="153"/>
-      <c r="UK56" s="153"/>
-      <c r="UL56" s="153"/>
-      <c r="UM56" s="153"/>
-      <c r="UN56" s="153"/>
-      <c r="UO56" s="153"/>
-      <c r="UP56" s="153"/>
-      <c r="UQ56" s="153"/>
-      <c r="UR56" s="153"/>
-      <c r="US56" s="153"/>
-      <c r="UT56" s="153"/>
-      <c r="UU56" s="153"/>
-      <c r="UV56" s="153"/>
-      <c r="UW56" s="153"/>
-      <c r="UX56" s="153"/>
-      <c r="UY56" s="153"/>
-      <c r="UZ56" s="153"/>
-      <c r="VA56" s="153"/>
-      <c r="VB56" s="153"/>
-      <c r="VC56" s="154"/>
+      <c r="TZ56" s="206"/>
+      <c r="UA56" s="207"/>
+      <c r="UB56" s="207"/>
+      <c r="UC56" s="207"/>
+      <c r="UD56" s="207"/>
+      <c r="UE56" s="207"/>
+      <c r="UF56" s="207"/>
+      <c r="UG56" s="207"/>
+      <c r="UH56" s="207"/>
+      <c r="UI56" s="207"/>
+      <c r="UJ56" s="207"/>
+      <c r="UK56" s="207"/>
+      <c r="UL56" s="207"/>
+      <c r="UM56" s="207"/>
+      <c r="UN56" s="207"/>
+      <c r="UO56" s="207"/>
+      <c r="UP56" s="207"/>
+      <c r="UQ56" s="207"/>
+      <c r="UR56" s="207"/>
+      <c r="US56" s="207"/>
+      <c r="UT56" s="207"/>
+      <c r="UU56" s="207"/>
+      <c r="UV56" s="207"/>
+      <c r="UW56" s="207"/>
+      <c r="UX56" s="207"/>
+      <c r="UY56" s="207"/>
+      <c r="UZ56" s="207"/>
+      <c r="VA56" s="207"/>
+      <c r="VB56" s="207"/>
+      <c r="VC56" s="208"/>
     </row>
     <row r="57" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="138" t="s">
+      <c r="B57" s="202" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="67" t="s">
@@ -35100,7 +35112,7 @@
       <c r="KO57" s="18"/>
       <c r="KP57" s="18"/>
       <c r="KQ57" s="24"/>
-      <c r="KR57" s="138" t="s">
+      <c r="KR57" s="202" t="s">
         <v>70</v>
       </c>
       <c r="KS57" s="128" t="s">
@@ -35379,7 +35391,7 @@
     </row>
     <row r="58" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="139"/>
+      <c r="B58" s="193"/>
       <c r="C58" s="64" t="s">
         <v>29</v>
       </c>
@@ -35683,7 +35695,7 @@
       <c r="KO58" s="27"/>
       <c r="KP58" s="27"/>
       <c r="KQ58" s="34"/>
-      <c r="KR58" s="139"/>
+      <c r="KR58" s="193"/>
       <c r="KS58" s="123" t="s">
         <v>29</v>
       </c>
@@ -35960,7 +35972,7 @@
     </row>
     <row r="59" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="140" t="s">
+      <c r="B59" s="192" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="65" t="s">
@@ -36266,7 +36278,7 @@
       <c r="KO59" s="37"/>
       <c r="KP59" s="37"/>
       <c r="KQ59" s="44"/>
-      <c r="KR59" s="140" t="s">
+      <c r="KR59" s="192" t="s">
         <v>67</v>
       </c>
       <c r="KS59" s="124" t="s">
@@ -36545,7 +36557,7 @@
     </row>
     <row r="60" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="139"/>
+      <c r="B60" s="193"/>
       <c r="C60" s="64" t="s">
         <v>29</v>
       </c>
@@ -36849,7 +36861,7 @@
       <c r="KO60" s="27"/>
       <c r="KP60" s="27"/>
       <c r="KQ60" s="34"/>
-      <c r="KR60" s="139"/>
+      <c r="KR60" s="193"/>
       <c r="KS60" s="123" t="s">
         <v>29</v>
       </c>
@@ -37674,36 +37686,36 @@
       <c r="TW61" s="60"/>
       <c r="TX61" s="60"/>
       <c r="TY61" s="72"/>
-      <c r="TZ61" s="161"/>
-      <c r="UA61" s="162"/>
-      <c r="UB61" s="162"/>
-      <c r="UC61" s="162"/>
-      <c r="UD61" s="162"/>
-      <c r="UE61" s="162"/>
-      <c r="UF61" s="162"/>
-      <c r="UG61" s="162"/>
-      <c r="UH61" s="162"/>
-      <c r="UI61" s="162"/>
-      <c r="UJ61" s="162"/>
-      <c r="UK61" s="162"/>
-      <c r="UL61" s="162"/>
-      <c r="UM61" s="162"/>
-      <c r="UN61" s="162"/>
-      <c r="UO61" s="162"/>
-      <c r="UP61" s="162"/>
-      <c r="UQ61" s="162"/>
-      <c r="UR61" s="162"/>
-      <c r="US61" s="162"/>
-      <c r="UT61" s="162"/>
-      <c r="UU61" s="162"/>
-      <c r="UV61" s="162"/>
-      <c r="UW61" s="162"/>
-      <c r="UX61" s="162"/>
-      <c r="UY61" s="162"/>
-      <c r="UZ61" s="162"/>
-      <c r="VA61" s="162"/>
-      <c r="VB61" s="162"/>
-      <c r="VC61" s="163"/>
+      <c r="TZ61" s="196"/>
+      <c r="UA61" s="197"/>
+      <c r="UB61" s="197"/>
+      <c r="UC61" s="197"/>
+      <c r="UD61" s="197"/>
+      <c r="UE61" s="197"/>
+      <c r="UF61" s="197"/>
+      <c r="UG61" s="197"/>
+      <c r="UH61" s="197"/>
+      <c r="UI61" s="197"/>
+      <c r="UJ61" s="197"/>
+      <c r="UK61" s="197"/>
+      <c r="UL61" s="197"/>
+      <c r="UM61" s="197"/>
+      <c r="UN61" s="197"/>
+      <c r="UO61" s="197"/>
+      <c r="UP61" s="197"/>
+      <c r="UQ61" s="197"/>
+      <c r="UR61" s="197"/>
+      <c r="US61" s="197"/>
+      <c r="UT61" s="197"/>
+      <c r="UU61" s="197"/>
+      <c r="UV61" s="197"/>
+      <c r="UW61" s="197"/>
+      <c r="UX61" s="197"/>
+      <c r="UY61" s="197"/>
+      <c r="UZ61" s="197"/>
+      <c r="VA61" s="197"/>
+      <c r="VB61" s="197"/>
+      <c r="VC61" s="198"/>
     </row>
     <row r="62" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46"/>
@@ -38836,40 +38848,40 @@
       <c r="TW63" s="61"/>
       <c r="TX63" s="61"/>
       <c r="TY63" s="78"/>
-      <c r="TZ63" s="152"/>
-      <c r="UA63" s="153"/>
-      <c r="UB63" s="153"/>
-      <c r="UC63" s="153"/>
-      <c r="UD63" s="153"/>
-      <c r="UE63" s="153"/>
-      <c r="UF63" s="153"/>
-      <c r="UG63" s="153"/>
-      <c r="UH63" s="153"/>
-      <c r="UI63" s="153"/>
-      <c r="UJ63" s="153"/>
-      <c r="UK63" s="153"/>
-      <c r="UL63" s="153"/>
-      <c r="UM63" s="153"/>
-      <c r="UN63" s="153"/>
-      <c r="UO63" s="153"/>
-      <c r="UP63" s="153"/>
-      <c r="UQ63" s="153"/>
-      <c r="UR63" s="153"/>
-      <c r="US63" s="153"/>
-      <c r="UT63" s="153"/>
-      <c r="UU63" s="153"/>
-      <c r="UV63" s="153"/>
-      <c r="UW63" s="153"/>
-      <c r="UX63" s="153"/>
-      <c r="UY63" s="153"/>
-      <c r="UZ63" s="153"/>
-      <c r="VA63" s="153"/>
-      <c r="VB63" s="153"/>
-      <c r="VC63" s="154"/>
+      <c r="TZ63" s="206"/>
+      <c r="UA63" s="207"/>
+      <c r="UB63" s="207"/>
+      <c r="UC63" s="207"/>
+      <c r="UD63" s="207"/>
+      <c r="UE63" s="207"/>
+      <c r="UF63" s="207"/>
+      <c r="UG63" s="207"/>
+      <c r="UH63" s="207"/>
+      <c r="UI63" s="207"/>
+      <c r="UJ63" s="207"/>
+      <c r="UK63" s="207"/>
+      <c r="UL63" s="207"/>
+      <c r="UM63" s="207"/>
+      <c r="UN63" s="207"/>
+      <c r="UO63" s="207"/>
+      <c r="UP63" s="207"/>
+      <c r="UQ63" s="207"/>
+      <c r="UR63" s="207"/>
+      <c r="US63" s="207"/>
+      <c r="UT63" s="207"/>
+      <c r="UU63" s="207"/>
+      <c r="UV63" s="207"/>
+      <c r="UW63" s="207"/>
+      <c r="UX63" s="207"/>
+      <c r="UY63" s="207"/>
+      <c r="UZ63" s="207"/>
+      <c r="VA63" s="207"/>
+      <c r="VB63" s="207"/>
+      <c r="VC63" s="208"/>
     </row>
     <row r="64" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="138" t="s">
+      <c r="B64" s="202" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="67" t="s">
@@ -39175,7 +39187,7 @@
       <c r="KO64" s="105"/>
       <c r="KP64" s="105"/>
       <c r="KQ64" s="24"/>
-      <c r="KR64" s="138" t="s">
+      <c r="KR64" s="202" t="s">
         <v>69</v>
       </c>
       <c r="KS64" s="128" t="s">
@@ -39454,7 +39466,7 @@
     </row>
     <row r="65" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="139"/>
+      <c r="B65" s="193"/>
       <c r="C65" s="64" t="s">
         <v>29</v>
       </c>
@@ -39758,7 +39770,7 @@
       <c r="KO65" s="27"/>
       <c r="KP65" s="27"/>
       <c r="KQ65" s="34"/>
-      <c r="KR65" s="139"/>
+      <c r="KR65" s="193"/>
       <c r="KS65" s="123" t="s">
         <v>29</v>
       </c>
@@ -40583,36 +40595,36 @@
       <c r="TW66" s="107"/>
       <c r="TX66" s="107"/>
       <c r="TY66" s="74"/>
-      <c r="TZ66" s="155"/>
-      <c r="UA66" s="156"/>
-      <c r="UB66" s="156"/>
-      <c r="UC66" s="156"/>
-      <c r="UD66" s="156"/>
-      <c r="UE66" s="156"/>
-      <c r="UF66" s="156"/>
-      <c r="UG66" s="156"/>
-      <c r="UH66" s="156"/>
-      <c r="UI66" s="156"/>
-      <c r="UJ66" s="156"/>
-      <c r="UK66" s="156"/>
-      <c r="UL66" s="156"/>
-      <c r="UM66" s="156"/>
-      <c r="UN66" s="156"/>
-      <c r="UO66" s="156"/>
-      <c r="UP66" s="156"/>
-      <c r="UQ66" s="156"/>
-      <c r="UR66" s="156"/>
-      <c r="US66" s="156"/>
-      <c r="UT66" s="156"/>
-      <c r="UU66" s="156"/>
-      <c r="UV66" s="156"/>
-      <c r="UW66" s="156"/>
-      <c r="UX66" s="156"/>
-      <c r="UY66" s="156"/>
-      <c r="UZ66" s="156"/>
-      <c r="VA66" s="156"/>
-      <c r="VB66" s="156"/>
-      <c r="VC66" s="157"/>
+      <c r="TZ66" s="211"/>
+      <c r="UA66" s="212"/>
+      <c r="UB66" s="212"/>
+      <c r="UC66" s="212"/>
+      <c r="UD66" s="212"/>
+      <c r="UE66" s="212"/>
+      <c r="UF66" s="212"/>
+      <c r="UG66" s="212"/>
+      <c r="UH66" s="212"/>
+      <c r="UI66" s="212"/>
+      <c r="UJ66" s="212"/>
+      <c r="UK66" s="212"/>
+      <c r="UL66" s="212"/>
+      <c r="UM66" s="212"/>
+      <c r="UN66" s="212"/>
+      <c r="UO66" s="212"/>
+      <c r="UP66" s="212"/>
+      <c r="UQ66" s="212"/>
+      <c r="UR66" s="212"/>
+      <c r="US66" s="212"/>
+      <c r="UT66" s="212"/>
+      <c r="UU66" s="212"/>
+      <c r="UV66" s="212"/>
+      <c r="UW66" s="212"/>
+      <c r="UX66" s="212"/>
+      <c r="UY66" s="212"/>
+      <c r="UZ66" s="212"/>
+      <c r="VA66" s="212"/>
+      <c r="VB66" s="212"/>
+      <c r="VC66" s="213"/>
     </row>
     <row r="67" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46"/>
@@ -41164,36 +41176,36 @@
       <c r="TW67" s="54"/>
       <c r="TX67" s="54"/>
       <c r="TY67" s="53"/>
-      <c r="TZ67" s="158"/>
-      <c r="UA67" s="159"/>
-      <c r="UB67" s="159"/>
-      <c r="UC67" s="159"/>
-      <c r="UD67" s="159"/>
-      <c r="UE67" s="159"/>
-      <c r="UF67" s="159"/>
-      <c r="UG67" s="159"/>
-      <c r="UH67" s="159"/>
-      <c r="UI67" s="159"/>
-      <c r="UJ67" s="159"/>
-      <c r="UK67" s="159"/>
-      <c r="UL67" s="159"/>
-      <c r="UM67" s="159"/>
-      <c r="UN67" s="159"/>
-      <c r="UO67" s="159"/>
-      <c r="UP67" s="159"/>
-      <c r="UQ67" s="159"/>
-      <c r="UR67" s="159"/>
-      <c r="US67" s="159"/>
-      <c r="UT67" s="159"/>
-      <c r="UU67" s="159"/>
-      <c r="UV67" s="159"/>
-      <c r="UW67" s="159"/>
-      <c r="UX67" s="159"/>
-      <c r="UY67" s="159"/>
-      <c r="UZ67" s="159"/>
-      <c r="VA67" s="159"/>
-      <c r="VB67" s="159"/>
-      <c r="VC67" s="160"/>
+      <c r="TZ67" s="214"/>
+      <c r="UA67" s="215"/>
+      <c r="UB67" s="215"/>
+      <c r="UC67" s="215"/>
+      <c r="UD67" s="215"/>
+      <c r="UE67" s="215"/>
+      <c r="UF67" s="215"/>
+      <c r="UG67" s="215"/>
+      <c r="UH67" s="215"/>
+      <c r="UI67" s="215"/>
+      <c r="UJ67" s="215"/>
+      <c r="UK67" s="215"/>
+      <c r="UL67" s="215"/>
+      <c r="UM67" s="215"/>
+      <c r="UN67" s="215"/>
+      <c r="UO67" s="215"/>
+      <c r="UP67" s="215"/>
+      <c r="UQ67" s="215"/>
+      <c r="UR67" s="215"/>
+      <c r="US67" s="215"/>
+      <c r="UT67" s="215"/>
+      <c r="UU67" s="215"/>
+      <c r="UV67" s="215"/>
+      <c r="UW67" s="215"/>
+      <c r="UX67" s="215"/>
+      <c r="UY67" s="215"/>
+      <c r="UZ67" s="215"/>
+      <c r="VA67" s="215"/>
+      <c r="VB67" s="215"/>
+      <c r="VC67" s="216"/>
     </row>
     <row r="68" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
@@ -44654,54 +44666,84 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="AO6:BK6"/>
-    <mergeCell ref="B7:BK9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:BK12"/>
-    <mergeCell ref="BL12:GA12"/>
-    <mergeCell ref="GB12:KQ12"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="Q4:BK4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="AB5:AN5"/>
-    <mergeCell ref="AO5:BK5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="Q6:AA6"/>
-    <mergeCell ref="AB6:AN6"/>
-    <mergeCell ref="KT12:PI12"/>
-    <mergeCell ref="PJ12:TY12"/>
-    <mergeCell ref="TZ12:VC12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:AG13"/>
-    <mergeCell ref="AH13:BK13"/>
-    <mergeCell ref="BL13:CO13"/>
-    <mergeCell ref="CP13:DS13"/>
-    <mergeCell ref="DT13:EW13"/>
-    <mergeCell ref="EX13:GA13"/>
-    <mergeCell ref="TZ13:VC13"/>
-    <mergeCell ref="NB13:OE13"/>
-    <mergeCell ref="OF13:PI13"/>
-    <mergeCell ref="PJ13:QM13"/>
-    <mergeCell ref="QN13:RQ13"/>
-    <mergeCell ref="RR13:SU13"/>
-    <mergeCell ref="SV13:TY13"/>
-    <mergeCell ref="GB13:HE13"/>
-    <mergeCell ref="HF13:II13"/>
-    <mergeCell ref="IJ13:JM13"/>
-    <mergeCell ref="JN13:KQ13"/>
-    <mergeCell ref="KT13:LW13"/>
-    <mergeCell ref="LX13:NA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:AG14"/>
-    <mergeCell ref="AH14:BK14"/>
-    <mergeCell ref="BL14:CO14"/>
-    <mergeCell ref="CP14:DS14"/>
-    <mergeCell ref="DT14:EW14"/>
-    <mergeCell ref="EX14:GA14"/>
-    <mergeCell ref="GB14:HE14"/>
-    <mergeCell ref="HF14:II14"/>
+    <mergeCell ref="KR28:KR29"/>
+    <mergeCell ref="KR33:KR34"/>
+    <mergeCell ref="KR35:KR36"/>
+    <mergeCell ref="KR37:KR38"/>
+    <mergeCell ref="KR39:KR40"/>
+    <mergeCell ref="KR44:KR45"/>
+    <mergeCell ref="KR46:KR47"/>
+    <mergeCell ref="KR48:KR49"/>
+    <mergeCell ref="KR50:KR51"/>
+    <mergeCell ref="KR4:KS6"/>
+    <mergeCell ref="KR12:KS12"/>
+    <mergeCell ref="KR13:KS13"/>
+    <mergeCell ref="KR14:KS14"/>
+    <mergeCell ref="KR15:KS15"/>
+    <mergeCell ref="KR17:KR18"/>
+    <mergeCell ref="KR19:KR20"/>
+    <mergeCell ref="KR21:KR22"/>
+    <mergeCell ref="KR23:KR24"/>
+    <mergeCell ref="TZ63:VC63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="TZ66:VC66"/>
+    <mergeCell ref="TZ67:VC67"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="TZ54:VC54"/>
+    <mergeCell ref="TZ56:VC56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="TZ61:VC61"/>
+    <mergeCell ref="KR52:KR53"/>
+    <mergeCell ref="KR57:KR58"/>
+    <mergeCell ref="KR59:KR60"/>
+    <mergeCell ref="KR64:KR65"/>
+    <mergeCell ref="TZ41:VC41"/>
+    <mergeCell ref="TZ43:VC43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="TZ30:VC30"/>
+    <mergeCell ref="TZ32:VC32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="TZ25:VC25"/>
+    <mergeCell ref="TZ27:VC27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="SV15:TJ15"/>
+    <mergeCell ref="TK15:TY15"/>
+    <mergeCell ref="TZ15:UN15"/>
+    <mergeCell ref="UO15:VC15"/>
+    <mergeCell ref="TZ16:VC16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="PJ15:PX15"/>
+    <mergeCell ref="PY15:QM15"/>
+    <mergeCell ref="QN15:RB15"/>
+    <mergeCell ref="RC15:RQ15"/>
+    <mergeCell ref="RR15:SF15"/>
+    <mergeCell ref="SG15:SU15"/>
+    <mergeCell ref="LX15:ML15"/>
+    <mergeCell ref="MM15:NA15"/>
+    <mergeCell ref="NB15:NP15"/>
+    <mergeCell ref="NQ15:OE15"/>
+    <mergeCell ref="OF15:OT15"/>
+    <mergeCell ref="OU15:PI15"/>
+    <mergeCell ref="JN15:KB15"/>
+    <mergeCell ref="KC15:KQ15"/>
+    <mergeCell ref="KT15:LH15"/>
+    <mergeCell ref="LI15:LW15"/>
+    <mergeCell ref="EX15:FL15"/>
+    <mergeCell ref="FM15:GA15"/>
+    <mergeCell ref="GB15:GP15"/>
+    <mergeCell ref="GQ15:HE15"/>
+    <mergeCell ref="HF15:HT15"/>
+    <mergeCell ref="HU15:II15"/>
     <mergeCell ref="SV14:TY14"/>
     <mergeCell ref="TZ14:VC14"/>
     <mergeCell ref="B15:C15"/>
@@ -44726,84 +44768,54 @@
     <mergeCell ref="RR14:SU14"/>
     <mergeCell ref="IJ15:IX15"/>
     <mergeCell ref="IY15:JM15"/>
-    <mergeCell ref="JN15:KB15"/>
-    <mergeCell ref="KC15:KQ15"/>
-    <mergeCell ref="KT15:LH15"/>
-    <mergeCell ref="LI15:LW15"/>
-    <mergeCell ref="EX15:FL15"/>
-    <mergeCell ref="FM15:GA15"/>
-    <mergeCell ref="GB15:GP15"/>
-    <mergeCell ref="GQ15:HE15"/>
-    <mergeCell ref="HF15:HT15"/>
-    <mergeCell ref="HU15:II15"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="TZ25:VC25"/>
-    <mergeCell ref="TZ27:VC27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="SV15:TJ15"/>
-    <mergeCell ref="TK15:TY15"/>
-    <mergeCell ref="TZ15:UN15"/>
-    <mergeCell ref="UO15:VC15"/>
-    <mergeCell ref="TZ16:VC16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="PJ15:PX15"/>
-    <mergeCell ref="PY15:QM15"/>
-    <mergeCell ref="QN15:RB15"/>
-    <mergeCell ref="RC15:RQ15"/>
-    <mergeCell ref="RR15:SF15"/>
-    <mergeCell ref="SG15:SU15"/>
-    <mergeCell ref="LX15:ML15"/>
-    <mergeCell ref="MM15:NA15"/>
-    <mergeCell ref="NB15:NP15"/>
-    <mergeCell ref="NQ15:OE15"/>
-    <mergeCell ref="OF15:OT15"/>
-    <mergeCell ref="OU15:PI15"/>
-    <mergeCell ref="TZ41:VC41"/>
-    <mergeCell ref="TZ43:VC43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="TZ30:VC30"/>
-    <mergeCell ref="TZ32:VC32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="TZ63:VC63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="TZ66:VC66"/>
-    <mergeCell ref="TZ67:VC67"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="TZ54:VC54"/>
-    <mergeCell ref="TZ56:VC56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="TZ61:VC61"/>
-    <mergeCell ref="KR52:KR53"/>
-    <mergeCell ref="KR57:KR58"/>
-    <mergeCell ref="KR59:KR60"/>
-    <mergeCell ref="KR64:KR65"/>
-    <mergeCell ref="KR4:KS6"/>
-    <mergeCell ref="KR12:KS12"/>
-    <mergeCell ref="KR13:KS13"/>
-    <mergeCell ref="KR14:KS14"/>
-    <mergeCell ref="KR15:KS15"/>
-    <mergeCell ref="KR17:KR18"/>
-    <mergeCell ref="KR19:KR20"/>
-    <mergeCell ref="KR21:KR22"/>
-    <mergeCell ref="KR23:KR24"/>
-    <mergeCell ref="KR28:KR29"/>
-    <mergeCell ref="KR33:KR34"/>
-    <mergeCell ref="KR35:KR36"/>
-    <mergeCell ref="KR37:KR38"/>
-    <mergeCell ref="KR39:KR40"/>
-    <mergeCell ref="KR44:KR45"/>
-    <mergeCell ref="KR46:KR47"/>
-    <mergeCell ref="KR48:KR49"/>
-    <mergeCell ref="KR50:KR51"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:AG14"/>
+    <mergeCell ref="AH14:BK14"/>
+    <mergeCell ref="BL14:CO14"/>
+    <mergeCell ref="CP14:DS14"/>
+    <mergeCell ref="DT14:EW14"/>
+    <mergeCell ref="EX14:GA14"/>
+    <mergeCell ref="GB14:HE14"/>
+    <mergeCell ref="HF14:II14"/>
+    <mergeCell ref="KT12:PI12"/>
+    <mergeCell ref="PJ12:TY12"/>
+    <mergeCell ref="TZ12:VC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:AG13"/>
+    <mergeCell ref="AH13:BK13"/>
+    <mergeCell ref="BL13:CO13"/>
+    <mergeCell ref="CP13:DS13"/>
+    <mergeCell ref="DT13:EW13"/>
+    <mergeCell ref="EX13:GA13"/>
+    <mergeCell ref="TZ13:VC13"/>
+    <mergeCell ref="NB13:OE13"/>
+    <mergeCell ref="OF13:PI13"/>
+    <mergeCell ref="PJ13:QM13"/>
+    <mergeCell ref="QN13:RQ13"/>
+    <mergeCell ref="RR13:SU13"/>
+    <mergeCell ref="SV13:TY13"/>
+    <mergeCell ref="GB13:HE13"/>
+    <mergeCell ref="HF13:II13"/>
+    <mergeCell ref="IJ13:JM13"/>
+    <mergeCell ref="JN13:KQ13"/>
+    <mergeCell ref="KT13:LW13"/>
+    <mergeCell ref="LX13:NA13"/>
+    <mergeCell ref="AO6:BK6"/>
+    <mergeCell ref="B7:BK9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:BK12"/>
+    <mergeCell ref="BL12:GA12"/>
+    <mergeCell ref="GB12:KQ12"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="Q4:BK4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="AB5:AN5"/>
+    <mergeCell ref="AO5:BK5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="Q6:AA6"/>
+    <mergeCell ref="AB6:AN6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -44827,8 +44839,8 @@
   </sheetPr>
   <dimension ref="B4:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44849,11 +44861,11 @@
       <c r="C5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="255" t="s">
+      <c r="D5" s="230" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="255"/>
-      <c r="F5" s="256"/>
+      <c r="E5" s="230"/>
+      <c r="F5" s="231"/>
       <c r="G5" s="95" t="s">
         <v>38</v>
       </c>
@@ -44862,60 +44874,60 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="239" t="s">
+      <c r="B6" s="237" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="244">
+      <c r="C6" s="224">
         <v>45414</v>
       </c>
-      <c r="D6" s="230" t="s">
+      <c r="D6" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="223" t="s">
+      <c r="E6" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="219" t="s">
+      <c r="F6" s="228"/>
+      <c r="G6" s="232" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="97"/>
     </row>
     <row r="7" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="240"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="230"/>
-      <c r="E7" s="223" t="s">
+      <c r="B7" s="238"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="224"/>
-      <c r="G7" s="257"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="233"/>
       <c r="H7" s="97"/>
     </row>
     <row r="8" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="240"/>
-      <c r="C8" s="245"/>
-      <c r="D8" s="225" t="s">
+      <c r="B8" s="238"/>
+      <c r="C8" s="225"/>
+      <c r="D8" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="225"/>
-      <c r="F8" s="254" t="s">
+      <c r="E8" s="221"/>
+      <c r="F8" s="229" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="226"/>
-      <c r="H8" s="227"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="223"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="240"/>
-      <c r="C9" s="246">
+      <c r="B9" s="238"/>
+      <c r="C9" s="234">
         <v>45415</v>
       </c>
-      <c r="D9" s="230" t="s">
+      <c r="D9" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="231" t="s">
+      <c r="E9" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="232"/>
+      <c r="F9" s="236"/>
       <c r="G9" s="130" t="s">
         <v>84</v>
       </c>
@@ -44924,13 +44936,13 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="240"/>
-      <c r="C10" s="244"/>
-      <c r="D10" s="230"/>
-      <c r="E10" s="223" t="s">
+      <c r="B10" s="238"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="224"/>
+      <c r="F10" s="228"/>
       <c r="G10" s="130" t="s">
         <v>85</v>
       </c>
@@ -44939,13 +44951,13 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="240"/>
-      <c r="C11" s="244"/>
-      <c r="D11" s="230"/>
-      <c r="E11" s="223" t="s">
+      <c r="B11" s="238"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="224"/>
+      <c r="F11" s="228"/>
       <c r="G11" s="130" t="s">
         <v>89</v>
       </c>
@@ -44954,13 +44966,13 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="240"/>
-      <c r="C12" s="244"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="223" t="s">
+      <c r="B12" s="238"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="224"/>
+      <c r="F12" s="228"/>
       <c r="G12" s="131" t="s">
         <v>86</v>
       </c>
@@ -44969,997 +44981,1067 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="241"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="225" t="s">
+      <c r="B13" s="239"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="225"/>
-      <c r="F13" s="226" t="s">
+      <c r="E13" s="221"/>
+      <c r="F13" s="222" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="226"/>
-      <c r="H13" s="227"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="223"/>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="239" t="s">
+      <c r="B14" s="237" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="244">
+      <c r="C14" s="224">
         <v>45418</v>
       </c>
-      <c r="D14" s="230" t="s">
+      <c r="D14" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="223" t="s">
+      <c r="E14" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="224"/>
-      <c r="G14" s="219" t="s">
+      <c r="F14" s="228"/>
+      <c r="G14" s="232" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="221" t="s">
+      <c r="H14" s="258" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="240"/>
-      <c r="C15" s="244"/>
-      <c r="D15" s="230"/>
-      <c r="E15" s="223" t="s">
+      <c r="B15" s="238"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="226"/>
+      <c r="E15" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="224"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="222"/>
+      <c r="F15" s="228"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="259"/>
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="240"/>
-      <c r="C16" s="244"/>
-      <c r="D16" s="230"/>
-      <c r="E16" s="223" t="s">
+      <c r="B16" s="238"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="226"/>
+      <c r="E16" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="224"/>
-      <c r="G16" s="220" t="s">
+      <c r="F16" s="228"/>
+      <c r="G16" s="257" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="222" t="s">
+      <c r="H16" s="259" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="240"/>
-      <c r="C17" s="244"/>
-      <c r="D17" s="230"/>
-      <c r="E17" s="223" t="s">
+      <c r="B17" s="238"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="226"/>
+      <c r="E17" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="224"/>
-      <c r="G17" s="258"/>
-      <c r="H17" s="259"/>
+      <c r="F17" s="228"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="261"/>
     </row>
     <row r="18" spans="2:8" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="240"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="225" t="s">
+      <c r="B18" s="238"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="225"/>
-      <c r="F18" s="254" t="s">
+      <c r="E18" s="221"/>
+      <c r="F18" s="229" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="226"/>
-      <c r="H18" s="227"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="223"/>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="240"/>
-      <c r="C19" s="246">
+      <c r="B19" s="238"/>
+      <c r="C19" s="234">
         <v>45420</v>
       </c>
-      <c r="D19" s="230" t="s">
+      <c r="D19" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="231" t="s">
+      <c r="E19" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="232"/>
-      <c r="G19" s="98"/>
-      <c r="H19" s="97"/>
+      <c r="F19" s="236"/>
+      <c r="G19" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="139" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="240"/>
-      <c r="C20" s="244"/>
-      <c r="D20" s="230"/>
-      <c r="E20" s="223" t="s">
+      <c r="B20" s="238"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="226"/>
+      <c r="E20" s="227" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="224"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="97"/>
+      <c r="F20" s="228"/>
+      <c r="G20" s="257" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="259" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="240"/>
-      <c r="C21" s="244"/>
-      <c r="D21" s="230"/>
-      <c r="E21" s="223" t="s">
+      <c r="B21" s="238"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="226"/>
+      <c r="E21" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="224"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="97"/>
+      <c r="F21" s="228"/>
+      <c r="G21" s="257"/>
+      <c r="H21" s="259"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="240"/>
-      <c r="C22" s="244"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="223" t="s">
+      <c r="B22" s="238"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="226"/>
+      <c r="E22" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="224"/>
+      <c r="F22" s="228"/>
       <c r="G22" s="99"/>
       <c r="H22" s="97"/>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="240"/>
-      <c r="C23" s="245"/>
-      <c r="D23" s="225" t="s">
+      <c r="B23" s="238"/>
+      <c r="C23" s="225"/>
+      <c r="D23" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="225"/>
-      <c r="F23" s="226"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="227"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="222"/>
+      <c r="G23" s="222"/>
+      <c r="H23" s="223"/>
     </row>
     <row r="24" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="240"/>
-      <c r="C24" s="242">
+      <c r="B24" s="238"/>
+      <c r="C24" s="240">
         <v>45421</v>
       </c>
-      <c r="D24" s="230" t="s">
+      <c r="D24" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="228" t="s">
+      <c r="E24" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="229"/>
-      <c r="G24" s="249" t="s">
+      <c r="F24" s="243"/>
+      <c r="G24" s="247" t="s">
         <v>57</v>
       </c>
       <c r="H24" s="100"/>
     </row>
     <row r="25" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="240"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="230"/>
-      <c r="E25" s="228" t="s">
+      <c r="B25" s="238"/>
+      <c r="C25" s="240"/>
+      <c r="D25" s="226"/>
+      <c r="E25" s="242" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="229"/>
-      <c r="G25" s="250"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="248"/>
       <c r="H25" s="100"/>
     </row>
     <row r="26" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="240"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="233" t="s">
+      <c r="B26" s="238"/>
+      <c r="C26" s="241"/>
+      <c r="D26" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="233"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="248"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="245"/>
+      <c r="G26" s="245"/>
+      <c r="H26" s="246"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="240"/>
-      <c r="C27" s="251">
+      <c r="B27" s="238"/>
+      <c r="C27" s="249">
         <v>45422</v>
       </c>
-      <c r="D27" s="230" t="s">
+      <c r="D27" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="252" t="s">
+      <c r="E27" s="250" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="236" t="s">
+      <c r="F27" s="251"/>
+      <c r="G27" s="252" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="100"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="240"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="228" t="s">
+      <c r="B28" s="238"/>
+      <c r="C28" s="240"/>
+      <c r="D28" s="226"/>
+      <c r="E28" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="229"/>
-      <c r="G28" s="237"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="253"/>
       <c r="H28" s="100"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="240"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="230"/>
-      <c r="E29" s="228" t="s">
+      <c r="B29" s="238"/>
+      <c r="C29" s="240"/>
+      <c r="D29" s="226"/>
+      <c r="E29" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="229"/>
-      <c r="G29" s="237"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="253"/>
       <c r="H29" s="100"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="240"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="230"/>
-      <c r="E30" s="228" t="s">
+      <c r="B30" s="238"/>
+      <c r="C30" s="240"/>
+      <c r="D30" s="226"/>
+      <c r="E30" s="242" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="229"/>
-      <c r="G30" s="238"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="254"/>
       <c r="H30" s="100"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="241"/>
-      <c r="C31" s="243"/>
-      <c r="D31" s="233" t="s">
+      <c r="B31" s="239"/>
+      <c r="C31" s="241"/>
+      <c r="D31" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="233"/>
-      <c r="F31" s="234"/>
-      <c r="G31" s="234"/>
-      <c r="H31" s="235"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="255"/>
+      <c r="G31" s="255"/>
+      <c r="H31" s="256"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="239" t="s">
+      <c r="B32" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="244">
+      <c r="C32" s="224">
         <v>45425</v>
       </c>
-      <c r="D32" s="230" t="s">
+      <c r="D32" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="223" t="s">
+      <c r="E32" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="224"/>
+      <c r="F32" s="228"/>
       <c r="G32" s="98"/>
       <c r="H32" s="97"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="240"/>
-      <c r="C33" s="244"/>
-      <c r="D33" s="230"/>
-      <c r="E33" s="223" t="s">
+      <c r="B33" s="238"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="226"/>
+      <c r="E33" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="224"/>
+      <c r="F33" s="228"/>
       <c r="G33" s="98"/>
       <c r="H33" s="97"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="240"/>
-      <c r="C34" s="244"/>
-      <c r="D34" s="230"/>
-      <c r="E34" s="223" t="s">
+      <c r="B34" s="238"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="224"/>
+      <c r="F34" s="228"/>
       <c r="G34" s="99"/>
       <c r="H34" s="97"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="240"/>
-      <c r="C35" s="244"/>
-      <c r="D35" s="230"/>
-      <c r="E35" s="223" t="s">
+      <c r="B35" s="238"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="224"/>
+      <c r="F35" s="228"/>
       <c r="G35" s="99"/>
       <c r="H35" s="97"/>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="240"/>
-      <c r="C36" s="245"/>
-      <c r="D36" s="225" t="s">
+      <c r="B36" s="238"/>
+      <c r="C36" s="225"/>
+      <c r="D36" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="225"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="227"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="222"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="223"/>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="240"/>
-      <c r="C37" s="246">
+      <c r="B37" s="238"/>
+      <c r="C37" s="234">
         <v>45427</v>
       </c>
-      <c r="D37" s="230" t="s">
+      <c r="D37" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="231" t="s">
+      <c r="E37" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="232"/>
+      <c r="F37" s="236"/>
       <c r="G37" s="98"/>
       <c r="H37" s="97"/>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="240"/>
-      <c r="C38" s="244"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="223" t="s">
+      <c r="B38" s="238"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="226"/>
+      <c r="E38" s="227" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="224"/>
+      <c r="F38" s="228"/>
       <c r="G38" s="98"/>
       <c r="H38" s="97"/>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="240"/>
-      <c r="C39" s="244"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="223" t="s">
+      <c r="B39" s="238"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="226"/>
+      <c r="E39" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="224"/>
+      <c r="F39" s="228"/>
       <c r="G39" s="99"/>
       <c r="H39" s="97"/>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="240"/>
-      <c r="C40" s="244"/>
-      <c r="D40" s="230"/>
-      <c r="E40" s="223" t="s">
+      <c r="B40" s="238"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="226"/>
+      <c r="E40" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="224"/>
+      <c r="F40" s="228"/>
       <c r="G40" s="99"/>
       <c r="H40" s="97"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="240"/>
-      <c r="C41" s="245"/>
-      <c r="D41" s="225" t="s">
+      <c r="B41" s="238"/>
+      <c r="C41" s="225"/>
+      <c r="D41" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="225"/>
-      <c r="F41" s="226"/>
-      <c r="G41" s="226"/>
-      <c r="H41" s="227"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="222"/>
+      <c r="H41" s="223"/>
     </row>
     <row r="42" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="240"/>
-      <c r="C42" s="244">
+      <c r="B42" s="238"/>
+      <c r="C42" s="224">
         <v>45428</v>
       </c>
-      <c r="D42" s="230" t="s">
+      <c r="D42" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="223" t="s">
+      <c r="E42" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="224"/>
+      <c r="F42" s="228"/>
       <c r="G42" s="99"/>
       <c r="H42" s="97"/>
     </row>
     <row r="43" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="240"/>
-      <c r="C43" s="244"/>
-      <c r="D43" s="230"/>
-      <c r="E43" s="223" t="s">
+      <c r="B43" s="238"/>
+      <c r="C43" s="224"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="224"/>
+      <c r="F43" s="228"/>
       <c r="G43" s="99"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="240"/>
-      <c r="C44" s="245"/>
-      <c r="D44" s="225" t="s">
+      <c r="B44" s="238"/>
+      <c r="C44" s="225"/>
+      <c r="D44" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="225"/>
-      <c r="F44" s="226"/>
-      <c r="G44" s="226"/>
-      <c r="H44" s="227"/>
+      <c r="E44" s="221"/>
+      <c r="F44" s="222"/>
+      <c r="G44" s="222"/>
+      <c r="H44" s="223"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="240"/>
-      <c r="C45" s="246">
+      <c r="B45" s="238"/>
+      <c r="C45" s="234">
         <v>45429</v>
       </c>
-      <c r="D45" s="230" t="s">
+      <c r="D45" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="231" t="s">
+      <c r="E45" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="232"/>
+      <c r="F45" s="236"/>
       <c r="G45" s="98"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="240"/>
-      <c r="C46" s="244"/>
-      <c r="D46" s="230"/>
-      <c r="E46" s="223" t="s">
+      <c r="B46" s="238"/>
+      <c r="C46" s="224"/>
+      <c r="D46" s="226"/>
+      <c r="E46" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="224"/>
+      <c r="F46" s="228"/>
       <c r="G46" s="98"/>
       <c r="H46" s="97"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="240"/>
-      <c r="C47" s="244"/>
-      <c r="D47" s="230"/>
-      <c r="E47" s="223" t="s">
+      <c r="B47" s="238"/>
+      <c r="C47" s="224"/>
+      <c r="D47" s="226"/>
+      <c r="E47" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="224"/>
+      <c r="F47" s="228"/>
       <c r="G47" s="99"/>
       <c r="H47" s="97"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="240"/>
-      <c r="C48" s="244"/>
-      <c r="D48" s="230"/>
-      <c r="E48" s="223" t="s">
+      <c r="B48" s="238"/>
+      <c r="C48" s="224"/>
+      <c r="D48" s="226"/>
+      <c r="E48" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="224"/>
+      <c r="F48" s="228"/>
       <c r="G48" s="99"/>
       <c r="H48" s="97"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="241"/>
-      <c r="C49" s="245"/>
-      <c r="D49" s="225" t="s">
+      <c r="B49" s="239"/>
+      <c r="C49" s="225"/>
+      <c r="D49" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="225"/>
-      <c r="F49" s="226"/>
-      <c r="G49" s="226"/>
-      <c r="H49" s="227"/>
+      <c r="E49" s="221"/>
+      <c r="F49" s="222"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="223"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="239" t="s">
+      <c r="B50" s="237" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="242">
+      <c r="C50" s="240">
         <v>45432</v>
       </c>
-      <c r="D50" s="230" t="s">
+      <c r="D50" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="228" t="s">
+      <c r="E50" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="229"/>
-      <c r="G50" s="236" t="s">
+      <c r="F50" s="243"/>
+      <c r="G50" s="252" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="240"/>
-      <c r="C51" s="242"/>
-      <c r="D51" s="230"/>
-      <c r="E51" s="228" t="s">
+      <c r="B51" s="238"/>
+      <c r="C51" s="240"/>
+      <c r="D51" s="226"/>
+      <c r="E51" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="229"/>
-      <c r="G51" s="237"/>
+      <c r="F51" s="243"/>
+      <c r="G51" s="253"/>
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="240"/>
-      <c r="C52" s="242"/>
-      <c r="D52" s="230"/>
-      <c r="E52" s="228" t="s">
+      <c r="B52" s="238"/>
+      <c r="C52" s="240"/>
+      <c r="D52" s="226"/>
+      <c r="E52" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="229"/>
-      <c r="G52" s="237"/>
+      <c r="F52" s="243"/>
+      <c r="G52" s="253"/>
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="240"/>
-      <c r="C53" s="242"/>
-      <c r="D53" s="230"/>
-      <c r="E53" s="228" t="s">
+      <c r="B53" s="238"/>
+      <c r="C53" s="240"/>
+      <c r="D53" s="226"/>
+      <c r="E53" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="229"/>
-      <c r="G53" s="238"/>
+      <c r="F53" s="243"/>
+      <c r="G53" s="254"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="240"/>
-      <c r="C54" s="243"/>
-      <c r="D54" s="233" t="s">
+      <c r="B54" s="238"/>
+      <c r="C54" s="241"/>
+      <c r="D54" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="233"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="247"/>
-      <c r="H54" s="248"/>
+      <c r="E54" s="244"/>
+      <c r="F54" s="245"/>
+      <c r="G54" s="245"/>
+      <c r="H54" s="246"/>
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="240"/>
-      <c r="C55" s="246">
+      <c r="B55" s="238"/>
+      <c r="C55" s="234">
         <v>45434</v>
       </c>
-      <c r="D55" s="230" t="s">
+      <c r="D55" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="231" t="s">
+      <c r="E55" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="232"/>
+      <c r="F55" s="236"/>
       <c r="G55" s="98"/>
       <c r="H55" s="97"/>
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="240"/>
-      <c r="C56" s="244"/>
-      <c r="D56" s="230"/>
-      <c r="E56" s="223" t="s">
+      <c r="B56" s="238"/>
+      <c r="C56" s="224"/>
+      <c r="D56" s="226"/>
+      <c r="E56" s="227" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="224"/>
+      <c r="F56" s="228"/>
       <c r="G56" s="98"/>
       <c r="H56" s="97"/>
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="240"/>
-      <c r="C57" s="244"/>
-      <c r="D57" s="230"/>
-      <c r="E57" s="223" t="s">
+      <c r="B57" s="238"/>
+      <c r="C57" s="224"/>
+      <c r="D57" s="226"/>
+      <c r="E57" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="224"/>
+      <c r="F57" s="228"/>
       <c r="G57" s="99"/>
       <c r="H57" s="97"/>
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="240"/>
-      <c r="C58" s="244"/>
-      <c r="D58" s="230"/>
-      <c r="E58" s="223" t="s">
+      <c r="B58" s="238"/>
+      <c r="C58" s="224"/>
+      <c r="D58" s="226"/>
+      <c r="E58" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="224"/>
+      <c r="F58" s="228"/>
       <c r="G58" s="99"/>
       <c r="H58" s="97"/>
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="240"/>
-      <c r="C59" s="245"/>
-      <c r="D59" s="225" t="s">
+      <c r="B59" s="238"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="225"/>
-      <c r="F59" s="226"/>
-      <c r="G59" s="226"/>
-      <c r="H59" s="227"/>
+      <c r="E59" s="221"/>
+      <c r="F59" s="222"/>
+      <c r="G59" s="222"/>
+      <c r="H59" s="223"/>
     </row>
     <row r="60" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="240"/>
-      <c r="C60" s="244">
+      <c r="B60" s="238"/>
+      <c r="C60" s="224">
         <v>45435</v>
       </c>
-      <c r="D60" s="230" t="s">
+      <c r="D60" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="223" t="s">
+      <c r="E60" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="224"/>
+      <c r="F60" s="228"/>
       <c r="G60" s="99"/>
       <c r="H60" s="97"/>
     </row>
     <row r="61" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="240"/>
-      <c r="C61" s="244"/>
-      <c r="D61" s="230"/>
-      <c r="E61" s="223" t="s">
+      <c r="B61" s="238"/>
+      <c r="C61" s="224"/>
+      <c r="D61" s="226"/>
+      <c r="E61" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="224"/>
+      <c r="F61" s="228"/>
       <c r="G61" s="99"/>
       <c r="H61" s="97"/>
     </row>
     <row r="62" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="240"/>
-      <c r="C62" s="245"/>
-      <c r="D62" s="225" t="s">
+      <c r="B62" s="238"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="225"/>
-      <c r="F62" s="226"/>
-      <c r="G62" s="226"/>
-      <c r="H62" s="227"/>
+      <c r="E62" s="221"/>
+      <c r="F62" s="222"/>
+      <c r="G62" s="222"/>
+      <c r="H62" s="223"/>
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="240"/>
-      <c r="C63" s="246">
+      <c r="B63" s="238"/>
+      <c r="C63" s="234">
         <v>45436</v>
       </c>
-      <c r="D63" s="230" t="s">
+      <c r="D63" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="231" t="s">
+      <c r="E63" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="232"/>
+      <c r="F63" s="236"/>
       <c r="G63" s="98"/>
       <c r="H63" s="97"/>
     </row>
     <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="240"/>
-      <c r="C64" s="244"/>
-      <c r="D64" s="230"/>
-      <c r="E64" s="223" t="s">
+      <c r="B64" s="238"/>
+      <c r="C64" s="224"/>
+      <c r="D64" s="226"/>
+      <c r="E64" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="224"/>
+      <c r="F64" s="228"/>
       <c r="G64" s="98"/>
       <c r="H64" s="97"/>
     </row>
     <row r="65" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="240"/>
-      <c r="C65" s="244"/>
-      <c r="D65" s="230"/>
-      <c r="E65" s="223" t="s">
+      <c r="B65" s="238"/>
+      <c r="C65" s="224"/>
+      <c r="D65" s="226"/>
+      <c r="E65" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="224"/>
+      <c r="F65" s="228"/>
       <c r="G65" s="99"/>
       <c r="H65" s="97"/>
     </row>
     <row r="66" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="240"/>
-      <c r="C66" s="244"/>
-      <c r="D66" s="230"/>
-      <c r="E66" s="223" t="s">
+      <c r="B66" s="238"/>
+      <c r="C66" s="224"/>
+      <c r="D66" s="226"/>
+      <c r="E66" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="224"/>
+      <c r="F66" s="228"/>
       <c r="G66" s="99"/>
       <c r="H66" s="97"/>
     </row>
     <row r="67" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="241"/>
-      <c r="C67" s="245"/>
-      <c r="D67" s="225" t="s">
+      <c r="B67" s="239"/>
+      <c r="C67" s="225"/>
+      <c r="D67" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="225"/>
-      <c r="F67" s="226"/>
-      <c r="G67" s="226"/>
-      <c r="H67" s="227"/>
+      <c r="E67" s="221"/>
+      <c r="F67" s="222"/>
+      <c r="G67" s="222"/>
+      <c r="H67" s="223"/>
     </row>
     <row r="68" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="239" t="s">
+      <c r="B68" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="242">
+      <c r="C68" s="240">
         <v>45439</v>
       </c>
-      <c r="D68" s="230" t="s">
+      <c r="D68" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="228" t="s">
+      <c r="E68" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="229"/>
-      <c r="G68" s="236" t="s">
+      <c r="F68" s="243"/>
+      <c r="G68" s="252" t="s">
         <v>81</v>
       </c>
       <c r="H68" s="100"/>
     </row>
     <row r="69" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="240"/>
-      <c r="C69" s="242"/>
-      <c r="D69" s="230"/>
-      <c r="E69" s="228" t="s">
+      <c r="B69" s="238"/>
+      <c r="C69" s="240"/>
+      <c r="D69" s="226"/>
+      <c r="E69" s="242" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="229"/>
-      <c r="G69" s="237"/>
+      <c r="F69" s="243"/>
+      <c r="G69" s="253"/>
       <c r="H69" s="100"/>
     </row>
     <row r="70" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="240"/>
-      <c r="C70" s="242"/>
-      <c r="D70" s="230"/>
-      <c r="E70" s="228" t="s">
+      <c r="B70" s="238"/>
+      <c r="C70" s="240"/>
+      <c r="D70" s="226"/>
+      <c r="E70" s="242" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="229"/>
-      <c r="G70" s="237"/>
+      <c r="F70" s="243"/>
+      <c r="G70" s="253"/>
       <c r="H70" s="100"/>
     </row>
     <row r="71" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="240"/>
-      <c r="C71" s="242"/>
-      <c r="D71" s="230"/>
-      <c r="E71" s="228" t="s">
+      <c r="B71" s="238"/>
+      <c r="C71" s="240"/>
+      <c r="D71" s="226"/>
+      <c r="E71" s="242" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="229"/>
-      <c r="G71" s="238"/>
+      <c r="F71" s="243"/>
+      <c r="G71" s="254"/>
       <c r="H71" s="100"/>
     </row>
     <row r="72" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="240"/>
-      <c r="C72" s="243"/>
-      <c r="D72" s="233" t="s">
+      <c r="B72" s="238"/>
+      <c r="C72" s="241"/>
+      <c r="D72" s="244" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="233"/>
-      <c r="F72" s="234"/>
-      <c r="G72" s="234"/>
-      <c r="H72" s="235"/>
+      <c r="E72" s="244"/>
+      <c r="F72" s="255"/>
+      <c r="G72" s="255"/>
+      <c r="H72" s="256"/>
     </row>
     <row r="73" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="240"/>
-      <c r="C73" s="246">
+      <c r="B73" s="238"/>
+      <c r="C73" s="234">
         <v>45441</v>
       </c>
-      <c r="D73" s="230" t="s">
+      <c r="D73" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="231" t="s">
+      <c r="E73" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="232"/>
+      <c r="F73" s="236"/>
       <c r="G73" s="98"/>
       <c r="H73" s="97"/>
     </row>
     <row r="74" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="240"/>
-      <c r="C74" s="244"/>
-      <c r="D74" s="230"/>
-      <c r="E74" s="223" t="s">
+      <c r="B74" s="238"/>
+      <c r="C74" s="224"/>
+      <c r="D74" s="226"/>
+      <c r="E74" s="227" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="224"/>
+      <c r="F74" s="228"/>
       <c r="G74" s="98"/>
       <c r="H74" s="97"/>
     </row>
     <row r="75" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="240"/>
-      <c r="C75" s="244"/>
-      <c r="D75" s="230"/>
-      <c r="E75" s="223" t="s">
+      <c r="B75" s="238"/>
+      <c r="C75" s="224"/>
+      <c r="D75" s="226"/>
+      <c r="E75" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="224"/>
+      <c r="F75" s="228"/>
       <c r="G75" s="99"/>
       <c r="H75" s="97"/>
     </row>
     <row r="76" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="240"/>
-      <c r="C76" s="244"/>
-      <c r="D76" s="230"/>
-      <c r="E76" s="223" t="s">
+      <c r="B76" s="238"/>
+      <c r="C76" s="224"/>
+      <c r="D76" s="226"/>
+      <c r="E76" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="224"/>
+      <c r="F76" s="228"/>
       <c r="G76" s="99"/>
       <c r="H76" s="97"/>
     </row>
     <row r="77" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="240"/>
-      <c r="C77" s="245"/>
-      <c r="D77" s="225" t="s">
+      <c r="B77" s="238"/>
+      <c r="C77" s="225"/>
+      <c r="D77" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="225"/>
-      <c r="F77" s="226"/>
-      <c r="G77" s="226"/>
-      <c r="H77" s="227"/>
+      <c r="E77" s="221"/>
+      <c r="F77" s="222"/>
+      <c r="G77" s="222"/>
+      <c r="H77" s="223"/>
     </row>
     <row r="78" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="240"/>
-      <c r="C78" s="244">
+      <c r="B78" s="238"/>
+      <c r="C78" s="224">
         <v>45442</v>
       </c>
-      <c r="D78" s="230" t="s">
+      <c r="D78" s="226" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="223" t="s">
+      <c r="E78" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="224"/>
+      <c r="F78" s="228"/>
       <c r="G78" s="99"/>
       <c r="H78" s="97"/>
     </row>
     <row r="79" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="240"/>
-      <c r="C79" s="244"/>
-      <c r="D79" s="230"/>
-      <c r="E79" s="223" t="s">
+      <c r="B79" s="238"/>
+      <c r="C79" s="224"/>
+      <c r="D79" s="226"/>
+      <c r="E79" s="227" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="224"/>
+      <c r="F79" s="228"/>
       <c r="G79" s="99"/>
       <c r="H79" s="97"/>
     </row>
     <row r="80" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="240"/>
-      <c r="C80" s="245"/>
-      <c r="D80" s="225" t="s">
+      <c r="B80" s="238"/>
+      <c r="C80" s="225"/>
+      <c r="D80" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="225"/>
-      <c r="F80" s="226"/>
-      <c r="G80" s="226"/>
-      <c r="H80" s="227"/>
+      <c r="E80" s="221"/>
+      <c r="F80" s="222"/>
+      <c r="G80" s="222"/>
+      <c r="H80" s="223"/>
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="240"/>
-      <c r="C81" s="246">
+      <c r="B81" s="238"/>
+      <c r="C81" s="234">
         <v>45443</v>
       </c>
-      <c r="D81" s="230" t="s">
+      <c r="D81" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="231" t="s">
+      <c r="E81" s="235" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="232"/>
+      <c r="F81" s="236"/>
       <c r="G81" s="98"/>
       <c r="H81" s="97"/>
     </row>
     <row r="82" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="240"/>
-      <c r="C82" s="244"/>
-      <c r="D82" s="230"/>
-      <c r="E82" s="223" t="s">
+      <c r="B82" s="238"/>
+      <c r="C82" s="224"/>
+      <c r="D82" s="226"/>
+      <c r="E82" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="224"/>
+      <c r="F82" s="228"/>
       <c r="G82" s="98"/>
       <c r="H82" s="97"/>
     </row>
     <row r="83" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="240"/>
-      <c r="C83" s="244"/>
-      <c r="D83" s="230"/>
-      <c r="E83" s="223" t="s">
+      <c r="B83" s="238"/>
+      <c r="C83" s="224"/>
+      <c r="D83" s="226"/>
+      <c r="E83" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="224"/>
+      <c r="F83" s="228"/>
       <c r="G83" s="99"/>
       <c r="H83" s="97"/>
     </row>
     <row r="84" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="240"/>
-      <c r="C84" s="244"/>
-      <c r="D84" s="230"/>
-      <c r="E84" s="223" t="s">
+      <c r="B84" s="238"/>
+      <c r="C84" s="224"/>
+      <c r="D84" s="226"/>
+      <c r="E84" s="227" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="224"/>
+      <c r="F84" s="228"/>
       <c r="G84" s="99"/>
       <c r="H84" s="97"/>
     </row>
     <row r="85" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="241"/>
-      <c r="C85" s="245"/>
-      <c r="D85" s="225" t="s">
+      <c r="B85" s="239"/>
+      <c r="C85" s="225"/>
+      <c r="D85" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="225"/>
-      <c r="F85" s="226"/>
-      <c r="G85" s="226"/>
-      <c r="H85" s="227"/>
+      <c r="E85" s="221"/>
+      <c r="F85" s="222"/>
+      <c r="G85" s="222"/>
+      <c r="H85" s="223"/>
     </row>
     <row r="86" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="239" t="s">
+      <c r="B86" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="244">
+      <c r="C86" s="224">
         <v>45446</v>
       </c>
-      <c r="D86" s="230" t="s">
+      <c r="D86" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="223" t="s">
+      <c r="E86" s="227" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="224"/>
+      <c r="F86" s="228"/>
       <c r="G86" s="98"/>
       <c r="H86" s="97"/>
     </row>
     <row r="87" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="240"/>
-      <c r="C87" s="244"/>
-      <c r="D87" s="230"/>
-      <c r="E87" s="223" t="s">
+      <c r="B87" s="238"/>
+      <c r="C87" s="224"/>
+      <c r="D87" s="226"/>
+      <c r="E87" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="224"/>
+      <c r="F87" s="228"/>
       <c r="G87" s="98"/>
       <c r="H87" s="97"/>
     </row>
     <row r="88" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="240"/>
-      <c r="C88" s="244"/>
-      <c r="D88" s="230"/>
-      <c r="E88" s="223" t="s">
+      <c r="B88" s="238"/>
+      <c r="C88" s="224"/>
+      <c r="D88" s="226"/>
+      <c r="E88" s="227" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="224"/>
+      <c r="F88" s="228"/>
       <c r="G88" s="99"/>
       <c r="H88" s="97"/>
     </row>
     <row r="89" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="240"/>
-      <c r="C89" s="244"/>
-      <c r="D89" s="230"/>
-      <c r="E89" s="223" t="s">
+      <c r="B89" s="238"/>
+      <c r="C89" s="224"/>
+      <c r="D89" s="226"/>
+      <c r="E89" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="224"/>
+      <c r="F89" s="228"/>
       <c r="G89" s="99"/>
       <c r="H89" s="97"/>
     </row>
     <row r="90" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="241"/>
-      <c r="C90" s="245"/>
-      <c r="D90" s="225" t="s">
+      <c r="B90" s="239"/>
+      <c r="C90" s="225"/>
+      <c r="D90" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="225"/>
-      <c r="F90" s="226"/>
-      <c r="G90" s="226"/>
-      <c r="H90" s="227"/>
+      <c r="E90" s="221"/>
+      <c r="F90" s="222"/>
+      <c r="G90" s="222"/>
+      <c r="H90" s="223"/>
     </row>
   </sheetData>
-  <mergeCells count="158">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="B50:B67"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D54:E54"/>
+  <mergeCells count="160">
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B68:B85"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="B32:B49"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="C24:C26"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:F24"/>
@@ -45984,106 +46066,46 @@
     <mergeCell ref="C19:C23"/>
     <mergeCell ref="D19:D22"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B32:B49"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B50:B67"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D54:E54"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="E60:F60"/>
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="E64:F64"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B68:B85"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H12" r:id="rId1" xr:uid="{A2C1CB60-4940-405A-AF22-2260F5964F0A}"/>
@@ -46092,9 +46114,11 @@
     <hyperlink ref="H11" r:id="rId4" xr:uid="{5E44CE8F-9AF2-48AB-92D2-D4A0A6B3BE16}"/>
     <hyperlink ref="H14:H15" r:id="rId5" display="https://www.figma.com" xr:uid="{8E49F496-1765-4153-A76C-D8D361FDFECC}"/>
     <hyperlink ref="H16:H17" r:id="rId6" display="https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/doc/Sources" xr:uid="{52F5E4AB-4BE3-4501-8816-D0BBC313A2FC}"/>
+    <hyperlink ref="H16" r:id="rId7" xr:uid="{027566B6-9D9E-48B6-9539-BEF48FF3ACB4}"/>
+    <hyperlink ref="H20" r:id="rId8" xr:uid="{B6BD1FE7-DE89-4250-ABBB-D349D21F1535}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="56" orientation="landscape" r:id="rId7"/>
+  <pageSetup scale="56" orientation="landscape" r:id="rId9"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="13" max="16383" man="1"/>
   </rowBreaks>

--- a/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
+++ b/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq34bsi\Desktop\TPI-GestionApiculture\doc\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678ACFC9-2E86-4882-83D8-01A73AF71BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC3ADEB-B01B-4F61-A051-E616E079F65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="1470" windowWidth="21600" windowHeight="11385" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="104">
   <si>
     <t>Nom, Prénom</t>
   </si>
@@ -371,6 +371,16 @@
   </si>
   <si>
     <t>Rédaction du rapport (Base de données, Technologies du projet, Fonctionnalités, glossaire)</t>
+  </si>
+  <si>
+    <t>Commencement de l'implémentation des CRUD (création de function utils pour le backend
+et création des routes d'authentification)</t>
+  </si>
+  <si>
+    <t>J'ai encore de l'avance sur le projet, j'ai bien pu complété mon rapport et même commencer le code du backend. Tout se passe bien</t>
+  </si>
+  <si>
+    <t>https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/sourceCode/server</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="262">
+  <cellXfs count="264">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1969,6 +1979,177 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1993,20 +2174,8 @@
     <xf numFmtId="20" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2059,158 +2228,23 @@
     <xf numFmtId="20" fontId="8" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2221,44 +2255,53 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2275,15 +2318,6 @@
     <xf numFmtId="165" fontId="12" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2296,6 +2330,9 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2305,35 +2342,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3801,74 +3817,74 @@
     </row>
     <row r="4" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="154"/>
-      <c r="D4" s="159" t="s">
+      <c r="C4" s="207"/>
+      <c r="D4" s="212" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="160"/>
-      <c r="H4" s="160"/>
-      <c r="I4" s="160"/>
-      <c r="J4" s="160"/>
-      <c r="K4" s="160"/>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="161" t="s">
+      <c r="E4" s="213"/>
+      <c r="F4" s="213"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="213"/>
+      <c r="I4" s="213"/>
+      <c r="J4" s="213"/>
+      <c r="K4" s="213"/>
+      <c r="L4" s="213"/>
+      <c r="M4" s="213"/>
+      <c r="N4" s="213"/>
+      <c r="O4" s="213"/>
+      <c r="P4" s="213"/>
+      <c r="Q4" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="161"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="161"/>
-      <c r="AG4" s="161"/>
-      <c r="AH4" s="161"/>
-      <c r="AI4" s="161"/>
-      <c r="AJ4" s="161"/>
-      <c r="AK4" s="161"/>
-      <c r="AL4" s="161"/>
-      <c r="AM4" s="161"/>
-      <c r="AN4" s="161"/>
-      <c r="AO4" s="161"/>
-      <c r="AP4" s="161"/>
-      <c r="AQ4" s="161"/>
-      <c r="AR4" s="161"/>
-      <c r="AS4" s="161"/>
-      <c r="AT4" s="161"/>
-      <c r="AU4" s="161"/>
-      <c r="AV4" s="161"/>
-      <c r="AW4" s="161"/>
-      <c r="AX4" s="161"/>
-      <c r="AY4" s="161"/>
-      <c r="AZ4" s="161"/>
-      <c r="BA4" s="161"/>
-      <c r="BB4" s="161"/>
-      <c r="BC4" s="161"/>
-      <c r="BD4" s="161"/>
-      <c r="BE4" s="161"/>
-      <c r="BF4" s="161"/>
-      <c r="BG4" s="161"/>
-      <c r="BH4" s="161"/>
-      <c r="BI4" s="161"/>
-      <c r="BJ4" s="161"/>
-      <c r="BK4" s="162"/>
+      <c r="R4" s="214"/>
+      <c r="S4" s="214"/>
+      <c r="T4" s="214"/>
+      <c r="U4" s="214"/>
+      <c r="V4" s="214"/>
+      <c r="W4" s="214"/>
+      <c r="X4" s="214"/>
+      <c r="Y4" s="214"/>
+      <c r="Z4" s="214"/>
+      <c r="AA4" s="214"/>
+      <c r="AB4" s="214"/>
+      <c r="AC4" s="214"/>
+      <c r="AD4" s="214"/>
+      <c r="AE4" s="214"/>
+      <c r="AF4" s="214"/>
+      <c r="AG4" s="214"/>
+      <c r="AH4" s="214"/>
+      <c r="AI4" s="214"/>
+      <c r="AJ4" s="214"/>
+      <c r="AK4" s="214"/>
+      <c r="AL4" s="214"/>
+      <c r="AM4" s="214"/>
+      <c r="AN4" s="214"/>
+      <c r="AO4" s="214"/>
+      <c r="AP4" s="214"/>
+      <c r="AQ4" s="214"/>
+      <c r="AR4" s="214"/>
+      <c r="AS4" s="214"/>
+      <c r="AT4" s="214"/>
+      <c r="AU4" s="214"/>
+      <c r="AV4" s="214"/>
+      <c r="AW4" s="214"/>
+      <c r="AX4" s="214"/>
+      <c r="AY4" s="214"/>
+      <c r="AZ4" s="214"/>
+      <c r="BA4" s="214"/>
+      <c r="BB4" s="214"/>
+      <c r="BC4" s="214"/>
+      <c r="BD4" s="214"/>
+      <c r="BE4" s="214"/>
+      <c r="BF4" s="214"/>
+      <c r="BG4" s="214"/>
+      <c r="BH4" s="214"/>
+      <c r="BI4" s="214"/>
+      <c r="BJ4" s="214"/>
+      <c r="BK4" s="215"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
@@ -4109,8 +4125,8 @@
       <c r="KO4" s="6"/>
       <c r="KP4" s="6"/>
       <c r="KQ4" s="6"/>
-      <c r="KR4" s="217"/>
-      <c r="KS4" s="217"/>
+      <c r="KR4" s="147"/>
+      <c r="KS4" s="147"/>
       <c r="KT4" s="6"/>
       <c r="KU4" s="6"/>
       <c r="KV4" s="6"/>
@@ -4384,76 +4400,76 @@
     </row>
     <row r="5" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156"/>
-      <c r="D5" s="163" t="s">
+      <c r="B5" s="208"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="164"/>
-      <c r="F5" s="164"/>
-      <c r="G5" s="164"/>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="165" t="s">
+      <c r="E5" s="217"/>
+      <c r="F5" s="217"/>
+      <c r="G5" s="217"/>
+      <c r="H5" s="217"/>
+      <c r="I5" s="217"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="217"/>
+      <c r="N5" s="217"/>
+      <c r="O5" s="217"/>
+      <c r="P5" s="217"/>
+      <c r="Q5" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="165"/>
-      <c r="S5" s="165"/>
-      <c r="T5" s="165"/>
-      <c r="U5" s="165"/>
-      <c r="V5" s="165"/>
-      <c r="W5" s="165"/>
-      <c r="X5" s="165"/>
-      <c r="Y5" s="165"/>
-      <c r="Z5" s="165"/>
-      <c r="AA5" s="165"/>
-      <c r="AB5" s="164" t="s">
+      <c r="R5" s="218"/>
+      <c r="S5" s="218"/>
+      <c r="T5" s="218"/>
+      <c r="U5" s="218"/>
+      <c r="V5" s="218"/>
+      <c r="W5" s="218"/>
+      <c r="X5" s="218"/>
+      <c r="Y5" s="218"/>
+      <c r="Z5" s="218"/>
+      <c r="AA5" s="218"/>
+      <c r="AB5" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="164"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="164"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="164"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="165" t="s">
+      <c r="AC5" s="217"/>
+      <c r="AD5" s="217"/>
+      <c r="AE5" s="217"/>
+      <c r="AF5" s="217"/>
+      <c r="AG5" s="217"/>
+      <c r="AH5" s="217"/>
+      <c r="AI5" s="217"/>
+      <c r="AJ5" s="217"/>
+      <c r="AK5" s="217"/>
+      <c r="AL5" s="217"/>
+      <c r="AM5" s="217"/>
+      <c r="AN5" s="217"/>
+      <c r="AO5" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="AP5" s="165"/>
-      <c r="AQ5" s="165"/>
-      <c r="AR5" s="165"/>
-      <c r="AS5" s="165"/>
-      <c r="AT5" s="165"/>
-      <c r="AU5" s="165"/>
-      <c r="AV5" s="165"/>
-      <c r="AW5" s="165"/>
-      <c r="AX5" s="165"/>
-      <c r="AY5" s="165"/>
-      <c r="AZ5" s="165"/>
-      <c r="BA5" s="165"/>
-      <c r="BB5" s="165"/>
-      <c r="BC5" s="165"/>
-      <c r="BD5" s="165"/>
-      <c r="BE5" s="165"/>
-      <c r="BF5" s="165"/>
-      <c r="BG5" s="165"/>
-      <c r="BH5" s="165"/>
-      <c r="BI5" s="165"/>
-      <c r="BJ5" s="165"/>
-      <c r="BK5" s="166"/>
+      <c r="AP5" s="218"/>
+      <c r="AQ5" s="218"/>
+      <c r="AR5" s="218"/>
+      <c r="AS5" s="218"/>
+      <c r="AT5" s="218"/>
+      <c r="AU5" s="218"/>
+      <c r="AV5" s="218"/>
+      <c r="AW5" s="218"/>
+      <c r="AX5" s="218"/>
+      <c r="AY5" s="218"/>
+      <c r="AZ5" s="218"/>
+      <c r="BA5" s="218"/>
+      <c r="BB5" s="218"/>
+      <c r="BC5" s="218"/>
+      <c r="BD5" s="218"/>
+      <c r="BE5" s="218"/>
+      <c r="BF5" s="218"/>
+      <c r="BG5" s="218"/>
+      <c r="BH5" s="218"/>
+      <c r="BI5" s="218"/>
+      <c r="BJ5" s="218"/>
+      <c r="BK5" s="219"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
@@ -4694,8 +4710,8 @@
       <c r="KO5" s="6"/>
       <c r="KP5" s="6"/>
       <c r="KQ5" s="6"/>
-      <c r="KR5" s="217"/>
-      <c r="KS5" s="217"/>
+      <c r="KR5" s="147"/>
+      <c r="KS5" s="147"/>
       <c r="KT5" s="6"/>
       <c r="KU5" s="6"/>
       <c r="KV5" s="6"/>
@@ -4969,76 +4985,76 @@
     </row>
     <row r="6" spans="1:575" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="167" t="s">
+      <c r="B6" s="210"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="168"/>
-      <c r="Q6" s="169" t="s">
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="221"/>
+      <c r="K6" s="221"/>
+      <c r="L6" s="221"/>
+      <c r="M6" s="221"/>
+      <c r="N6" s="221"/>
+      <c r="O6" s="221"/>
+      <c r="P6" s="221"/>
+      <c r="Q6" s="222" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="169"/>
-      <c r="S6" s="169"/>
-      <c r="T6" s="169"/>
-      <c r="U6" s="169"/>
-      <c r="V6" s="169"/>
-      <c r="W6" s="169"/>
-      <c r="X6" s="169"/>
-      <c r="Y6" s="169"/>
-      <c r="Z6" s="169"/>
-      <c r="AA6" s="169"/>
-      <c r="AB6" s="168" t="s">
+      <c r="R6" s="222"/>
+      <c r="S6" s="222"/>
+      <c r="T6" s="222"/>
+      <c r="U6" s="222"/>
+      <c r="V6" s="222"/>
+      <c r="W6" s="222"/>
+      <c r="X6" s="222"/>
+      <c r="Y6" s="222"/>
+      <c r="Z6" s="222"/>
+      <c r="AA6" s="222"/>
+      <c r="AB6" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="168"/>
-      <c r="AD6" s="168"/>
-      <c r="AE6" s="168"/>
-      <c r="AF6" s="168"/>
-      <c r="AG6" s="168"/>
-      <c r="AH6" s="168"/>
-      <c r="AI6" s="168"/>
-      <c r="AJ6" s="168"/>
-      <c r="AK6" s="168"/>
-      <c r="AL6" s="168"/>
-      <c r="AM6" s="168"/>
-      <c r="AN6" s="168"/>
-      <c r="AO6" s="140" t="s">
+      <c r="AC6" s="221"/>
+      <c r="AD6" s="221"/>
+      <c r="AE6" s="221"/>
+      <c r="AF6" s="221"/>
+      <c r="AG6" s="221"/>
+      <c r="AH6" s="221"/>
+      <c r="AI6" s="221"/>
+      <c r="AJ6" s="221"/>
+      <c r="AK6" s="221"/>
+      <c r="AL6" s="221"/>
+      <c r="AM6" s="221"/>
+      <c r="AN6" s="221"/>
+      <c r="AO6" s="197" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="140"/>
-      <c r="AQ6" s="140"/>
-      <c r="AR6" s="140"/>
-      <c r="AS6" s="140"/>
-      <c r="AT6" s="140"/>
-      <c r="AU6" s="140"/>
-      <c r="AV6" s="140"/>
-      <c r="AW6" s="140"/>
-      <c r="AX6" s="140"/>
-      <c r="AY6" s="140"/>
-      <c r="AZ6" s="140"/>
-      <c r="BA6" s="140"/>
-      <c r="BB6" s="140"/>
-      <c r="BC6" s="140"/>
-      <c r="BD6" s="140"/>
-      <c r="BE6" s="140"/>
-      <c r="BF6" s="140"/>
-      <c r="BG6" s="140"/>
-      <c r="BH6" s="140"/>
-      <c r="BI6" s="140"/>
-      <c r="BJ6" s="140"/>
-      <c r="BK6" s="141"/>
+      <c r="AP6" s="197"/>
+      <c r="AQ6" s="197"/>
+      <c r="AR6" s="197"/>
+      <c r="AS6" s="197"/>
+      <c r="AT6" s="197"/>
+      <c r="AU6" s="197"/>
+      <c r="AV6" s="197"/>
+      <c r="AW6" s="197"/>
+      <c r="AX6" s="197"/>
+      <c r="AY6" s="197"/>
+      <c r="AZ6" s="197"/>
+      <c r="BA6" s="197"/>
+      <c r="BB6" s="197"/>
+      <c r="BC6" s="197"/>
+      <c r="BD6" s="197"/>
+      <c r="BE6" s="197"/>
+      <c r="BF6" s="197"/>
+      <c r="BG6" s="197"/>
+      <c r="BH6" s="197"/>
+      <c r="BI6" s="197"/>
+      <c r="BJ6" s="197"/>
+      <c r="BK6" s="198"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8"/>
@@ -5279,8 +5295,8 @@
       <c r="KO6" s="6"/>
       <c r="KP6" s="6"/>
       <c r="KQ6" s="6"/>
-      <c r="KR6" s="217"/>
-      <c r="KS6" s="217"/>
+      <c r="KR6" s="147"/>
+      <c r="KS6" s="147"/>
       <c r="KT6" s="6"/>
       <c r="KU6" s="6"/>
       <c r="KV6" s="6"/>
@@ -5554,70 +5570,70 @@
     </row>
     <row r="7" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="199" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
-      <c r="L7" s="143"/>
-      <c r="M7" s="143"/>
-      <c r="N7" s="143"/>
-      <c r="O7" s="143"/>
-      <c r="P7" s="143"/>
-      <c r="Q7" s="143"/>
-      <c r="R7" s="143"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="143"/>
-      <c r="W7" s="143"/>
-      <c r="X7" s="143"/>
-      <c r="Y7" s="143"/>
-      <c r="Z7" s="143"/>
-      <c r="AA7" s="143"/>
-      <c r="AB7" s="143"/>
-      <c r="AC7" s="143"/>
-      <c r="AD7" s="143"/>
-      <c r="AE7" s="143"/>
-      <c r="AF7" s="143"/>
-      <c r="AG7" s="143"/>
-      <c r="AH7" s="143"/>
-      <c r="AI7" s="143"/>
-      <c r="AJ7" s="143"/>
-      <c r="AK7" s="143"/>
-      <c r="AL7" s="143"/>
-      <c r="AM7" s="143"/>
-      <c r="AN7" s="143"/>
-      <c r="AO7" s="143"/>
-      <c r="AP7" s="143"/>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="143"/>
-      <c r="AV7" s="143"/>
-      <c r="AW7" s="143"/>
-      <c r="AX7" s="143"/>
-      <c r="AY7" s="143"/>
-      <c r="AZ7" s="143"/>
-      <c r="BA7" s="143"/>
-      <c r="BB7" s="143"/>
-      <c r="BC7" s="143"/>
-      <c r="BD7" s="143"/>
-      <c r="BE7" s="143"/>
-      <c r="BF7" s="143"/>
-      <c r="BG7" s="143"/>
-      <c r="BH7" s="143"/>
-      <c r="BI7" s="143"/>
-      <c r="BJ7" s="143"/>
-      <c r="BK7" s="144"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="200"/>
+      <c r="E7" s="200"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="200"/>
+      <c r="L7" s="200"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="200"/>
+      <c r="Q7" s="200"/>
+      <c r="R7" s="200"/>
+      <c r="S7" s="200"/>
+      <c r="T7" s="200"/>
+      <c r="U7" s="200"/>
+      <c r="V7" s="200"/>
+      <c r="W7" s="200"/>
+      <c r="X7" s="200"/>
+      <c r="Y7" s="200"/>
+      <c r="Z7" s="200"/>
+      <c r="AA7" s="200"/>
+      <c r="AB7" s="200"/>
+      <c r="AC7" s="200"/>
+      <c r="AD7" s="200"/>
+      <c r="AE7" s="200"/>
+      <c r="AF7" s="200"/>
+      <c r="AG7" s="200"/>
+      <c r="AH7" s="200"/>
+      <c r="AI7" s="200"/>
+      <c r="AJ7" s="200"/>
+      <c r="AK7" s="200"/>
+      <c r="AL7" s="200"/>
+      <c r="AM7" s="200"/>
+      <c r="AN7" s="200"/>
+      <c r="AO7" s="200"/>
+      <c r="AP7" s="200"/>
+      <c r="AQ7" s="200"/>
+      <c r="AR7" s="200"/>
+      <c r="AS7" s="200"/>
+      <c r="AT7" s="200"/>
+      <c r="AU7" s="200"/>
+      <c r="AV7" s="200"/>
+      <c r="AW7" s="200"/>
+      <c r="AX7" s="200"/>
+      <c r="AY7" s="200"/>
+      <c r="AZ7" s="200"/>
+      <c r="BA7" s="200"/>
+      <c r="BB7" s="200"/>
+      <c r="BC7" s="200"/>
+      <c r="BD7" s="200"/>
+      <c r="BE7" s="200"/>
+      <c r="BF7" s="200"/>
+      <c r="BG7" s="200"/>
+      <c r="BH7" s="200"/>
+      <c r="BI7" s="200"/>
+      <c r="BJ7" s="200"/>
+      <c r="BK7" s="201"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9"/>
@@ -6133,68 +6149,68 @@
     </row>
     <row r="8" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="143"/>
-      <c r="J8" s="143"/>
-      <c r="K8" s="143"/>
-      <c r="L8" s="143"/>
-      <c r="M8" s="143"/>
-      <c r="N8" s="143"/>
-      <c r="O8" s="143"/>
-      <c r="P8" s="143"/>
-      <c r="Q8" s="143"/>
-      <c r="R8" s="143"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="143"/>
-      <c r="W8" s="143"/>
-      <c r="X8" s="143"/>
-      <c r="Y8" s="143"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="143"/>
-      <c r="AB8" s="143"/>
-      <c r="AC8" s="143"/>
-      <c r="AD8" s="143"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="143"/>
-      <c r="AG8" s="143"/>
-      <c r="AH8" s="143"/>
-      <c r="AI8" s="143"/>
-      <c r="AJ8" s="143"/>
-      <c r="AK8" s="143"/>
-      <c r="AL8" s="143"/>
-      <c r="AM8" s="143"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="143"/>
-      <c r="AV8" s="143"/>
-      <c r="AW8" s="143"/>
-      <c r="AX8" s="143"/>
-      <c r="AY8" s="143"/>
-      <c r="AZ8" s="143"/>
-      <c r="BA8" s="143"/>
-      <c r="BB8" s="143"/>
-      <c r="BC8" s="143"/>
-      <c r="BD8" s="143"/>
-      <c r="BE8" s="143"/>
-      <c r="BF8" s="143"/>
-      <c r="BG8" s="143"/>
-      <c r="BH8" s="143"/>
-      <c r="BI8" s="143"/>
-      <c r="BJ8" s="143"/>
-      <c r="BK8" s="144"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="200"/>
+      <c r="E8" s="200"/>
+      <c r="F8" s="200"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="200"/>
+      <c r="I8" s="200"/>
+      <c r="J8" s="200"/>
+      <c r="K8" s="200"/>
+      <c r="L8" s="200"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="200"/>
+      <c r="Q8" s="200"/>
+      <c r="R8" s="200"/>
+      <c r="S8" s="200"/>
+      <c r="T8" s="200"/>
+      <c r="U8" s="200"/>
+      <c r="V8" s="200"/>
+      <c r="W8" s="200"/>
+      <c r="X8" s="200"/>
+      <c r="Y8" s="200"/>
+      <c r="Z8" s="200"/>
+      <c r="AA8" s="200"/>
+      <c r="AB8" s="200"/>
+      <c r="AC8" s="200"/>
+      <c r="AD8" s="200"/>
+      <c r="AE8" s="200"/>
+      <c r="AF8" s="200"/>
+      <c r="AG8" s="200"/>
+      <c r="AH8" s="200"/>
+      <c r="AI8" s="200"/>
+      <c r="AJ8" s="200"/>
+      <c r="AK8" s="200"/>
+      <c r="AL8" s="200"/>
+      <c r="AM8" s="200"/>
+      <c r="AN8" s="200"/>
+      <c r="AO8" s="200"/>
+      <c r="AP8" s="200"/>
+      <c r="AQ8" s="200"/>
+      <c r="AR8" s="200"/>
+      <c r="AS8" s="200"/>
+      <c r="AT8" s="200"/>
+      <c r="AU8" s="200"/>
+      <c r="AV8" s="200"/>
+      <c r="AW8" s="200"/>
+      <c r="AX8" s="200"/>
+      <c r="AY8" s="200"/>
+      <c r="AZ8" s="200"/>
+      <c r="BA8" s="200"/>
+      <c r="BB8" s="200"/>
+      <c r="BC8" s="200"/>
+      <c r="BD8" s="200"/>
+      <c r="BE8" s="200"/>
+      <c r="BF8" s="200"/>
+      <c r="BG8" s="200"/>
+      <c r="BH8" s="200"/>
+      <c r="BI8" s="200"/>
+      <c r="BJ8" s="200"/>
+      <c r="BK8" s="201"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
@@ -6710,68 +6726,68 @@
     </row>
     <row r="9" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="146"/>
-      <c r="R9" s="146"/>
-      <c r="S9" s="146"/>
-      <c r="T9" s="146"/>
-      <c r="U9" s="146"/>
-      <c r="V9" s="146"/>
-      <c r="W9" s="146"/>
-      <c r="X9" s="146"/>
-      <c r="Y9" s="146"/>
-      <c r="Z9" s="146"/>
-      <c r="AA9" s="146"/>
-      <c r="AB9" s="146"/>
-      <c r="AC9" s="146"/>
-      <c r="AD9" s="146"/>
-      <c r="AE9" s="146"/>
-      <c r="AF9" s="146"/>
-      <c r="AG9" s="146"/>
-      <c r="AH9" s="146"/>
-      <c r="AI9" s="146"/>
-      <c r="AJ9" s="146"/>
-      <c r="AK9" s="146"/>
-      <c r="AL9" s="146"/>
-      <c r="AM9" s="146"/>
-      <c r="AN9" s="146"/>
-      <c r="AO9" s="146"/>
-      <c r="AP9" s="146"/>
-      <c r="AQ9" s="146"/>
-      <c r="AR9" s="146"/>
-      <c r="AS9" s="146"/>
-      <c r="AT9" s="146"/>
-      <c r="AU9" s="146"/>
-      <c r="AV9" s="146"/>
-      <c r="AW9" s="146"/>
-      <c r="AX9" s="146"/>
-      <c r="AY9" s="146"/>
-      <c r="AZ9" s="146"/>
-      <c r="BA9" s="146"/>
-      <c r="BB9" s="146"/>
-      <c r="BC9" s="146"/>
-      <c r="BD9" s="146"/>
-      <c r="BE9" s="146"/>
-      <c r="BF9" s="146"/>
-      <c r="BG9" s="146"/>
-      <c r="BH9" s="146"/>
-      <c r="BI9" s="146"/>
-      <c r="BJ9" s="146"/>
-      <c r="BK9" s="147"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
+      <c r="O9" s="203"/>
+      <c r="P9" s="203"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="203"/>
+      <c r="S9" s="203"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="203"/>
+      <c r="W9" s="203"/>
+      <c r="X9" s="203"/>
+      <c r="Y9" s="203"/>
+      <c r="Z9" s="203"/>
+      <c r="AA9" s="203"/>
+      <c r="AB9" s="203"/>
+      <c r="AC9" s="203"/>
+      <c r="AD9" s="203"/>
+      <c r="AE9" s="203"/>
+      <c r="AF9" s="203"/>
+      <c r="AG9" s="203"/>
+      <c r="AH9" s="203"/>
+      <c r="AI9" s="203"/>
+      <c r="AJ9" s="203"/>
+      <c r="AK9" s="203"/>
+      <c r="AL9" s="203"/>
+      <c r="AM9" s="203"/>
+      <c r="AN9" s="203"/>
+      <c r="AO9" s="203"/>
+      <c r="AP9" s="203"/>
+      <c r="AQ9" s="203"/>
+      <c r="AR9" s="203"/>
+      <c r="AS9" s="203"/>
+      <c r="AT9" s="203"/>
+      <c r="AU9" s="203"/>
+      <c r="AV9" s="203"/>
+      <c r="AW9" s="203"/>
+      <c r="AX9" s="203"/>
+      <c r="AY9" s="203"/>
+      <c r="AZ9" s="203"/>
+      <c r="BA9" s="203"/>
+      <c r="BB9" s="203"/>
+      <c r="BC9" s="203"/>
+      <c r="BD9" s="203"/>
+      <c r="BE9" s="203"/>
+      <c r="BF9" s="203"/>
+      <c r="BG9" s="203"/>
+      <c r="BH9" s="203"/>
+      <c r="BI9" s="203"/>
+      <c r="BJ9" s="203"/>
+      <c r="BK9" s="204"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
@@ -8444,2488 +8460,2488 @@
       <c r="B12" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="149"/>
-      <c r="D12" s="150" t="s">
+      <c r="C12" s="205"/>
+      <c r="D12" s="188" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="151"/>
-      <c r="R12" s="151"/>
-      <c r="S12" s="151"/>
-      <c r="T12" s="151"/>
-      <c r="U12" s="151"/>
-      <c r="V12" s="151"/>
-      <c r="W12" s="151"/>
-      <c r="X12" s="151"/>
-      <c r="Y12" s="151"/>
-      <c r="Z12" s="151"/>
-      <c r="AA12" s="151"/>
-      <c r="AB12" s="151"/>
-      <c r="AC12" s="151"/>
-      <c r="AD12" s="151"/>
-      <c r="AE12" s="151"/>
-      <c r="AF12" s="151"/>
-      <c r="AG12" s="151"/>
-      <c r="AH12" s="151"/>
-      <c r="AI12" s="151"/>
-      <c r="AJ12" s="151"/>
-      <c r="AK12" s="151"/>
-      <c r="AL12" s="151"/>
-      <c r="AM12" s="151"/>
-      <c r="AN12" s="151"/>
-      <c r="AO12" s="151"/>
-      <c r="AP12" s="151"/>
-      <c r="AQ12" s="151"/>
-      <c r="AR12" s="151"/>
-      <c r="AS12" s="151"/>
-      <c r="AT12" s="151"/>
-      <c r="AU12" s="151"/>
-      <c r="AV12" s="151"/>
-      <c r="AW12" s="151"/>
-      <c r="AX12" s="151"/>
-      <c r="AY12" s="151"/>
-      <c r="AZ12" s="151"/>
-      <c r="BA12" s="151"/>
-      <c r="BB12" s="151"/>
-      <c r="BC12" s="151"/>
-      <c r="BD12" s="151"/>
-      <c r="BE12" s="151"/>
-      <c r="BF12" s="151"/>
-      <c r="BG12" s="151"/>
-      <c r="BH12" s="151"/>
-      <c r="BI12" s="151"/>
-      <c r="BJ12" s="151"/>
-      <c r="BK12" s="151"/>
-      <c r="BL12" s="150" t="s">
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
+      <c r="P12" s="189"/>
+      <c r="Q12" s="189"/>
+      <c r="R12" s="189"/>
+      <c r="S12" s="189"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="189"/>
+      <c r="V12" s="189"/>
+      <c r="W12" s="189"/>
+      <c r="X12" s="189"/>
+      <c r="Y12" s="189"/>
+      <c r="Z12" s="189"/>
+      <c r="AA12" s="189"/>
+      <c r="AB12" s="189"/>
+      <c r="AC12" s="189"/>
+      <c r="AD12" s="189"/>
+      <c r="AE12" s="189"/>
+      <c r="AF12" s="189"/>
+      <c r="AG12" s="189"/>
+      <c r="AH12" s="189"/>
+      <c r="AI12" s="189"/>
+      <c r="AJ12" s="189"/>
+      <c r="AK12" s="189"/>
+      <c r="AL12" s="189"/>
+      <c r="AM12" s="189"/>
+      <c r="AN12" s="189"/>
+      <c r="AO12" s="189"/>
+      <c r="AP12" s="189"/>
+      <c r="AQ12" s="189"/>
+      <c r="AR12" s="189"/>
+      <c r="AS12" s="189"/>
+      <c r="AT12" s="189"/>
+      <c r="AU12" s="189"/>
+      <c r="AV12" s="189"/>
+      <c r="AW12" s="189"/>
+      <c r="AX12" s="189"/>
+      <c r="AY12" s="189"/>
+      <c r="AZ12" s="189"/>
+      <c r="BA12" s="189"/>
+      <c r="BB12" s="189"/>
+      <c r="BC12" s="189"/>
+      <c r="BD12" s="189"/>
+      <c r="BE12" s="189"/>
+      <c r="BF12" s="189"/>
+      <c r="BG12" s="189"/>
+      <c r="BH12" s="189"/>
+      <c r="BI12" s="189"/>
+      <c r="BJ12" s="189"/>
+      <c r="BK12" s="189"/>
+      <c r="BL12" s="188" t="s">
         <v>12</v>
       </c>
-      <c r="BM12" s="151"/>
-      <c r="BN12" s="151"/>
-      <c r="BO12" s="151"/>
-      <c r="BP12" s="151"/>
-      <c r="BQ12" s="151"/>
-      <c r="BR12" s="151"/>
-      <c r="BS12" s="151"/>
-      <c r="BT12" s="151"/>
-      <c r="BU12" s="151"/>
-      <c r="BV12" s="151"/>
-      <c r="BW12" s="151"/>
-      <c r="BX12" s="151"/>
-      <c r="BY12" s="151"/>
-      <c r="BZ12" s="151"/>
-      <c r="CA12" s="151"/>
-      <c r="CB12" s="151"/>
-      <c r="CC12" s="151"/>
-      <c r="CD12" s="151"/>
-      <c r="CE12" s="151"/>
-      <c r="CF12" s="151"/>
-      <c r="CG12" s="151"/>
-      <c r="CH12" s="151"/>
-      <c r="CI12" s="151"/>
-      <c r="CJ12" s="151"/>
-      <c r="CK12" s="151"/>
-      <c r="CL12" s="151"/>
-      <c r="CM12" s="151"/>
-      <c r="CN12" s="151"/>
-      <c r="CO12" s="151"/>
-      <c r="CP12" s="151"/>
-      <c r="CQ12" s="151"/>
-      <c r="CR12" s="151"/>
-      <c r="CS12" s="151"/>
-      <c r="CT12" s="151"/>
-      <c r="CU12" s="151"/>
-      <c r="CV12" s="151"/>
-      <c r="CW12" s="151"/>
-      <c r="CX12" s="151"/>
-      <c r="CY12" s="151"/>
-      <c r="CZ12" s="151"/>
-      <c r="DA12" s="151"/>
-      <c r="DB12" s="151"/>
-      <c r="DC12" s="151"/>
-      <c r="DD12" s="151"/>
-      <c r="DE12" s="151"/>
-      <c r="DF12" s="151"/>
-      <c r="DG12" s="151"/>
-      <c r="DH12" s="151"/>
-      <c r="DI12" s="151"/>
-      <c r="DJ12" s="151"/>
-      <c r="DK12" s="151"/>
-      <c r="DL12" s="151"/>
-      <c r="DM12" s="151"/>
-      <c r="DN12" s="151"/>
-      <c r="DO12" s="151"/>
-      <c r="DP12" s="151"/>
-      <c r="DQ12" s="151"/>
-      <c r="DR12" s="151"/>
-      <c r="DS12" s="151"/>
-      <c r="DT12" s="151"/>
-      <c r="DU12" s="151"/>
-      <c r="DV12" s="151"/>
-      <c r="DW12" s="151"/>
-      <c r="DX12" s="151"/>
-      <c r="DY12" s="151"/>
-      <c r="DZ12" s="151"/>
-      <c r="EA12" s="151"/>
-      <c r="EB12" s="151"/>
-      <c r="EC12" s="151"/>
-      <c r="ED12" s="151"/>
-      <c r="EE12" s="151"/>
-      <c r="EF12" s="151"/>
-      <c r="EG12" s="151"/>
-      <c r="EH12" s="151"/>
-      <c r="EI12" s="151"/>
-      <c r="EJ12" s="151"/>
-      <c r="EK12" s="151"/>
-      <c r="EL12" s="151"/>
-      <c r="EM12" s="151"/>
-      <c r="EN12" s="151"/>
-      <c r="EO12" s="151"/>
-      <c r="EP12" s="151"/>
-      <c r="EQ12" s="151"/>
-      <c r="ER12" s="151"/>
-      <c r="ES12" s="151"/>
-      <c r="ET12" s="151"/>
-      <c r="EU12" s="151"/>
-      <c r="EV12" s="151"/>
-      <c r="EW12" s="151"/>
-      <c r="EX12" s="151"/>
-      <c r="EY12" s="151"/>
-      <c r="EZ12" s="151"/>
-      <c r="FA12" s="151"/>
-      <c r="FB12" s="151"/>
-      <c r="FC12" s="151"/>
-      <c r="FD12" s="151"/>
-      <c r="FE12" s="151"/>
-      <c r="FF12" s="151"/>
-      <c r="FG12" s="151"/>
-      <c r="FH12" s="151"/>
-      <c r="FI12" s="151"/>
-      <c r="FJ12" s="151"/>
-      <c r="FK12" s="151"/>
-      <c r="FL12" s="151"/>
-      <c r="FM12" s="151"/>
-      <c r="FN12" s="151"/>
-      <c r="FO12" s="151"/>
-      <c r="FP12" s="151"/>
-      <c r="FQ12" s="151"/>
-      <c r="FR12" s="151"/>
-      <c r="FS12" s="151"/>
-      <c r="FT12" s="151"/>
-      <c r="FU12" s="151"/>
-      <c r="FV12" s="151"/>
-      <c r="FW12" s="151"/>
-      <c r="FX12" s="151"/>
-      <c r="FY12" s="151"/>
-      <c r="FZ12" s="151"/>
-      <c r="GA12" s="151"/>
-      <c r="GB12" s="150" t="s">
+      <c r="BM12" s="189"/>
+      <c r="BN12" s="189"/>
+      <c r="BO12" s="189"/>
+      <c r="BP12" s="189"/>
+      <c r="BQ12" s="189"/>
+      <c r="BR12" s="189"/>
+      <c r="BS12" s="189"/>
+      <c r="BT12" s="189"/>
+      <c r="BU12" s="189"/>
+      <c r="BV12" s="189"/>
+      <c r="BW12" s="189"/>
+      <c r="BX12" s="189"/>
+      <c r="BY12" s="189"/>
+      <c r="BZ12" s="189"/>
+      <c r="CA12" s="189"/>
+      <c r="CB12" s="189"/>
+      <c r="CC12" s="189"/>
+      <c r="CD12" s="189"/>
+      <c r="CE12" s="189"/>
+      <c r="CF12" s="189"/>
+      <c r="CG12" s="189"/>
+      <c r="CH12" s="189"/>
+      <c r="CI12" s="189"/>
+      <c r="CJ12" s="189"/>
+      <c r="CK12" s="189"/>
+      <c r="CL12" s="189"/>
+      <c r="CM12" s="189"/>
+      <c r="CN12" s="189"/>
+      <c r="CO12" s="189"/>
+      <c r="CP12" s="189"/>
+      <c r="CQ12" s="189"/>
+      <c r="CR12" s="189"/>
+      <c r="CS12" s="189"/>
+      <c r="CT12" s="189"/>
+      <c r="CU12" s="189"/>
+      <c r="CV12" s="189"/>
+      <c r="CW12" s="189"/>
+      <c r="CX12" s="189"/>
+      <c r="CY12" s="189"/>
+      <c r="CZ12" s="189"/>
+      <c r="DA12" s="189"/>
+      <c r="DB12" s="189"/>
+      <c r="DC12" s="189"/>
+      <c r="DD12" s="189"/>
+      <c r="DE12" s="189"/>
+      <c r="DF12" s="189"/>
+      <c r="DG12" s="189"/>
+      <c r="DH12" s="189"/>
+      <c r="DI12" s="189"/>
+      <c r="DJ12" s="189"/>
+      <c r="DK12" s="189"/>
+      <c r="DL12" s="189"/>
+      <c r="DM12" s="189"/>
+      <c r="DN12" s="189"/>
+      <c r="DO12" s="189"/>
+      <c r="DP12" s="189"/>
+      <c r="DQ12" s="189"/>
+      <c r="DR12" s="189"/>
+      <c r="DS12" s="189"/>
+      <c r="DT12" s="189"/>
+      <c r="DU12" s="189"/>
+      <c r="DV12" s="189"/>
+      <c r="DW12" s="189"/>
+      <c r="DX12" s="189"/>
+      <c r="DY12" s="189"/>
+      <c r="DZ12" s="189"/>
+      <c r="EA12" s="189"/>
+      <c r="EB12" s="189"/>
+      <c r="EC12" s="189"/>
+      <c r="ED12" s="189"/>
+      <c r="EE12" s="189"/>
+      <c r="EF12" s="189"/>
+      <c r="EG12" s="189"/>
+      <c r="EH12" s="189"/>
+      <c r="EI12" s="189"/>
+      <c r="EJ12" s="189"/>
+      <c r="EK12" s="189"/>
+      <c r="EL12" s="189"/>
+      <c r="EM12" s="189"/>
+      <c r="EN12" s="189"/>
+      <c r="EO12" s="189"/>
+      <c r="EP12" s="189"/>
+      <c r="EQ12" s="189"/>
+      <c r="ER12" s="189"/>
+      <c r="ES12" s="189"/>
+      <c r="ET12" s="189"/>
+      <c r="EU12" s="189"/>
+      <c r="EV12" s="189"/>
+      <c r="EW12" s="189"/>
+      <c r="EX12" s="189"/>
+      <c r="EY12" s="189"/>
+      <c r="EZ12" s="189"/>
+      <c r="FA12" s="189"/>
+      <c r="FB12" s="189"/>
+      <c r="FC12" s="189"/>
+      <c r="FD12" s="189"/>
+      <c r="FE12" s="189"/>
+      <c r="FF12" s="189"/>
+      <c r="FG12" s="189"/>
+      <c r="FH12" s="189"/>
+      <c r="FI12" s="189"/>
+      <c r="FJ12" s="189"/>
+      <c r="FK12" s="189"/>
+      <c r="FL12" s="189"/>
+      <c r="FM12" s="189"/>
+      <c r="FN12" s="189"/>
+      <c r="FO12" s="189"/>
+      <c r="FP12" s="189"/>
+      <c r="FQ12" s="189"/>
+      <c r="FR12" s="189"/>
+      <c r="FS12" s="189"/>
+      <c r="FT12" s="189"/>
+      <c r="FU12" s="189"/>
+      <c r="FV12" s="189"/>
+      <c r="FW12" s="189"/>
+      <c r="FX12" s="189"/>
+      <c r="FY12" s="189"/>
+      <c r="FZ12" s="189"/>
+      <c r="GA12" s="189"/>
+      <c r="GB12" s="188" t="s">
         <v>13</v>
       </c>
-      <c r="GC12" s="151"/>
-      <c r="GD12" s="151"/>
-      <c r="GE12" s="151"/>
-      <c r="GF12" s="151"/>
-      <c r="GG12" s="151"/>
-      <c r="GH12" s="151"/>
-      <c r="GI12" s="151"/>
-      <c r="GJ12" s="151"/>
-      <c r="GK12" s="151"/>
-      <c r="GL12" s="151"/>
-      <c r="GM12" s="151"/>
-      <c r="GN12" s="151"/>
-      <c r="GO12" s="151"/>
-      <c r="GP12" s="151"/>
-      <c r="GQ12" s="151"/>
-      <c r="GR12" s="151"/>
-      <c r="GS12" s="151"/>
-      <c r="GT12" s="151"/>
-      <c r="GU12" s="151"/>
-      <c r="GV12" s="151"/>
-      <c r="GW12" s="151"/>
-      <c r="GX12" s="151"/>
-      <c r="GY12" s="151"/>
-      <c r="GZ12" s="151"/>
-      <c r="HA12" s="151"/>
-      <c r="HB12" s="151"/>
-      <c r="HC12" s="151"/>
-      <c r="HD12" s="151"/>
-      <c r="HE12" s="151"/>
-      <c r="HF12" s="151"/>
-      <c r="HG12" s="151"/>
-      <c r="HH12" s="151"/>
-      <c r="HI12" s="151"/>
-      <c r="HJ12" s="151"/>
-      <c r="HK12" s="151"/>
-      <c r="HL12" s="151"/>
-      <c r="HM12" s="151"/>
-      <c r="HN12" s="151"/>
-      <c r="HO12" s="151"/>
-      <c r="HP12" s="151"/>
-      <c r="HQ12" s="151"/>
-      <c r="HR12" s="151"/>
-      <c r="HS12" s="151"/>
-      <c r="HT12" s="151"/>
-      <c r="HU12" s="151"/>
-      <c r="HV12" s="151"/>
-      <c r="HW12" s="151"/>
-      <c r="HX12" s="151"/>
-      <c r="HY12" s="151"/>
-      <c r="HZ12" s="151"/>
-      <c r="IA12" s="151"/>
-      <c r="IB12" s="151"/>
-      <c r="IC12" s="151"/>
-      <c r="ID12" s="151"/>
-      <c r="IE12" s="151"/>
-      <c r="IF12" s="151"/>
-      <c r="IG12" s="151"/>
-      <c r="IH12" s="151"/>
-      <c r="II12" s="151"/>
-      <c r="IJ12" s="151"/>
-      <c r="IK12" s="151"/>
-      <c r="IL12" s="151"/>
-      <c r="IM12" s="151"/>
-      <c r="IN12" s="151"/>
-      <c r="IO12" s="151"/>
-      <c r="IP12" s="151"/>
-      <c r="IQ12" s="151"/>
-      <c r="IR12" s="151"/>
-      <c r="IS12" s="151"/>
-      <c r="IT12" s="151"/>
-      <c r="IU12" s="151"/>
-      <c r="IV12" s="151"/>
-      <c r="IW12" s="151"/>
-      <c r="IX12" s="151"/>
-      <c r="IY12" s="151"/>
-      <c r="IZ12" s="151"/>
-      <c r="JA12" s="151"/>
-      <c r="JB12" s="151"/>
-      <c r="JC12" s="151"/>
-      <c r="JD12" s="151"/>
-      <c r="JE12" s="151"/>
-      <c r="JF12" s="151"/>
-      <c r="JG12" s="151"/>
-      <c r="JH12" s="151"/>
-      <c r="JI12" s="151"/>
-      <c r="JJ12" s="151"/>
-      <c r="JK12" s="151"/>
-      <c r="JL12" s="151"/>
-      <c r="JM12" s="151"/>
-      <c r="JN12" s="151"/>
-      <c r="JO12" s="151"/>
-      <c r="JP12" s="151"/>
-      <c r="JQ12" s="151"/>
-      <c r="JR12" s="151"/>
-      <c r="JS12" s="151"/>
-      <c r="JT12" s="151"/>
-      <c r="JU12" s="151"/>
-      <c r="JV12" s="151"/>
-      <c r="JW12" s="151"/>
-      <c r="JX12" s="151"/>
-      <c r="JY12" s="151"/>
-      <c r="JZ12" s="151"/>
-      <c r="KA12" s="151"/>
-      <c r="KB12" s="151"/>
-      <c r="KC12" s="151"/>
-      <c r="KD12" s="151"/>
-      <c r="KE12" s="151"/>
-      <c r="KF12" s="151"/>
-      <c r="KG12" s="151"/>
-      <c r="KH12" s="151"/>
-      <c r="KI12" s="151"/>
-      <c r="KJ12" s="151"/>
-      <c r="KK12" s="151"/>
-      <c r="KL12" s="151"/>
-      <c r="KM12" s="151"/>
-      <c r="KN12" s="151"/>
-      <c r="KO12" s="151"/>
-      <c r="KP12" s="151"/>
-      <c r="KQ12" s="152"/>
+      <c r="GC12" s="189"/>
+      <c r="GD12" s="189"/>
+      <c r="GE12" s="189"/>
+      <c r="GF12" s="189"/>
+      <c r="GG12" s="189"/>
+      <c r="GH12" s="189"/>
+      <c r="GI12" s="189"/>
+      <c r="GJ12" s="189"/>
+      <c r="GK12" s="189"/>
+      <c r="GL12" s="189"/>
+      <c r="GM12" s="189"/>
+      <c r="GN12" s="189"/>
+      <c r="GO12" s="189"/>
+      <c r="GP12" s="189"/>
+      <c r="GQ12" s="189"/>
+      <c r="GR12" s="189"/>
+      <c r="GS12" s="189"/>
+      <c r="GT12" s="189"/>
+      <c r="GU12" s="189"/>
+      <c r="GV12" s="189"/>
+      <c r="GW12" s="189"/>
+      <c r="GX12" s="189"/>
+      <c r="GY12" s="189"/>
+      <c r="GZ12" s="189"/>
+      <c r="HA12" s="189"/>
+      <c r="HB12" s="189"/>
+      <c r="HC12" s="189"/>
+      <c r="HD12" s="189"/>
+      <c r="HE12" s="189"/>
+      <c r="HF12" s="189"/>
+      <c r="HG12" s="189"/>
+      <c r="HH12" s="189"/>
+      <c r="HI12" s="189"/>
+      <c r="HJ12" s="189"/>
+      <c r="HK12" s="189"/>
+      <c r="HL12" s="189"/>
+      <c r="HM12" s="189"/>
+      <c r="HN12" s="189"/>
+      <c r="HO12" s="189"/>
+      <c r="HP12" s="189"/>
+      <c r="HQ12" s="189"/>
+      <c r="HR12" s="189"/>
+      <c r="HS12" s="189"/>
+      <c r="HT12" s="189"/>
+      <c r="HU12" s="189"/>
+      <c r="HV12" s="189"/>
+      <c r="HW12" s="189"/>
+      <c r="HX12" s="189"/>
+      <c r="HY12" s="189"/>
+      <c r="HZ12" s="189"/>
+      <c r="IA12" s="189"/>
+      <c r="IB12" s="189"/>
+      <c r="IC12" s="189"/>
+      <c r="ID12" s="189"/>
+      <c r="IE12" s="189"/>
+      <c r="IF12" s="189"/>
+      <c r="IG12" s="189"/>
+      <c r="IH12" s="189"/>
+      <c r="II12" s="189"/>
+      <c r="IJ12" s="189"/>
+      <c r="IK12" s="189"/>
+      <c r="IL12" s="189"/>
+      <c r="IM12" s="189"/>
+      <c r="IN12" s="189"/>
+      <c r="IO12" s="189"/>
+      <c r="IP12" s="189"/>
+      <c r="IQ12" s="189"/>
+      <c r="IR12" s="189"/>
+      <c r="IS12" s="189"/>
+      <c r="IT12" s="189"/>
+      <c r="IU12" s="189"/>
+      <c r="IV12" s="189"/>
+      <c r="IW12" s="189"/>
+      <c r="IX12" s="189"/>
+      <c r="IY12" s="189"/>
+      <c r="IZ12" s="189"/>
+      <c r="JA12" s="189"/>
+      <c r="JB12" s="189"/>
+      <c r="JC12" s="189"/>
+      <c r="JD12" s="189"/>
+      <c r="JE12" s="189"/>
+      <c r="JF12" s="189"/>
+      <c r="JG12" s="189"/>
+      <c r="JH12" s="189"/>
+      <c r="JI12" s="189"/>
+      <c r="JJ12" s="189"/>
+      <c r="JK12" s="189"/>
+      <c r="JL12" s="189"/>
+      <c r="JM12" s="189"/>
+      <c r="JN12" s="189"/>
+      <c r="JO12" s="189"/>
+      <c r="JP12" s="189"/>
+      <c r="JQ12" s="189"/>
+      <c r="JR12" s="189"/>
+      <c r="JS12" s="189"/>
+      <c r="JT12" s="189"/>
+      <c r="JU12" s="189"/>
+      <c r="JV12" s="189"/>
+      <c r="JW12" s="189"/>
+      <c r="JX12" s="189"/>
+      <c r="JY12" s="189"/>
+      <c r="JZ12" s="189"/>
+      <c r="KA12" s="189"/>
+      <c r="KB12" s="189"/>
+      <c r="KC12" s="189"/>
+      <c r="KD12" s="189"/>
+      <c r="KE12" s="189"/>
+      <c r="KF12" s="189"/>
+      <c r="KG12" s="189"/>
+      <c r="KH12" s="189"/>
+      <c r="KI12" s="189"/>
+      <c r="KJ12" s="189"/>
+      <c r="KK12" s="189"/>
+      <c r="KL12" s="189"/>
+      <c r="KM12" s="189"/>
+      <c r="KN12" s="189"/>
+      <c r="KO12" s="189"/>
+      <c r="KP12" s="189"/>
+      <c r="KQ12" s="190"/>
       <c r="KR12" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="KS12" s="218"/>
-      <c r="KT12" s="150" t="s">
+      <c r="KS12" s="149"/>
+      <c r="KT12" s="188" t="s">
         <v>14</v>
       </c>
-      <c r="KU12" s="151"/>
-      <c r="KV12" s="151"/>
-      <c r="KW12" s="151"/>
-      <c r="KX12" s="151"/>
-      <c r="KY12" s="151"/>
-      <c r="KZ12" s="151"/>
-      <c r="LA12" s="151"/>
-      <c r="LB12" s="151"/>
-      <c r="LC12" s="151"/>
-      <c r="LD12" s="151"/>
-      <c r="LE12" s="151"/>
-      <c r="LF12" s="151"/>
-      <c r="LG12" s="151"/>
-      <c r="LH12" s="151"/>
-      <c r="LI12" s="151"/>
-      <c r="LJ12" s="151"/>
-      <c r="LK12" s="151"/>
-      <c r="LL12" s="151"/>
-      <c r="LM12" s="151"/>
-      <c r="LN12" s="151"/>
-      <c r="LO12" s="151"/>
-      <c r="LP12" s="151"/>
-      <c r="LQ12" s="151"/>
-      <c r="LR12" s="151"/>
-      <c r="LS12" s="151"/>
-      <c r="LT12" s="151"/>
-      <c r="LU12" s="151"/>
-      <c r="LV12" s="151"/>
-      <c r="LW12" s="151"/>
-      <c r="LX12" s="151"/>
-      <c r="LY12" s="151"/>
-      <c r="LZ12" s="151"/>
-      <c r="MA12" s="151"/>
-      <c r="MB12" s="151"/>
-      <c r="MC12" s="151"/>
-      <c r="MD12" s="151"/>
-      <c r="ME12" s="151"/>
-      <c r="MF12" s="151"/>
-      <c r="MG12" s="151"/>
-      <c r="MH12" s="151"/>
-      <c r="MI12" s="151"/>
-      <c r="MJ12" s="151"/>
-      <c r="MK12" s="151"/>
-      <c r="ML12" s="151"/>
-      <c r="MM12" s="151"/>
-      <c r="MN12" s="151"/>
-      <c r="MO12" s="151"/>
-      <c r="MP12" s="151"/>
-      <c r="MQ12" s="151"/>
-      <c r="MR12" s="151"/>
-      <c r="MS12" s="151"/>
-      <c r="MT12" s="151"/>
-      <c r="MU12" s="151"/>
-      <c r="MV12" s="151"/>
-      <c r="MW12" s="151"/>
-      <c r="MX12" s="151"/>
-      <c r="MY12" s="151"/>
-      <c r="MZ12" s="151"/>
-      <c r="NA12" s="151"/>
-      <c r="NB12" s="151"/>
-      <c r="NC12" s="151"/>
-      <c r="ND12" s="151"/>
-      <c r="NE12" s="151"/>
-      <c r="NF12" s="151"/>
-      <c r="NG12" s="151"/>
-      <c r="NH12" s="151"/>
-      <c r="NI12" s="151"/>
-      <c r="NJ12" s="151"/>
-      <c r="NK12" s="151"/>
-      <c r="NL12" s="151"/>
-      <c r="NM12" s="151"/>
-      <c r="NN12" s="151"/>
-      <c r="NO12" s="151"/>
-      <c r="NP12" s="151"/>
-      <c r="NQ12" s="151"/>
-      <c r="NR12" s="151"/>
-      <c r="NS12" s="151"/>
-      <c r="NT12" s="151"/>
-      <c r="NU12" s="151"/>
-      <c r="NV12" s="151"/>
-      <c r="NW12" s="151"/>
-      <c r="NX12" s="151"/>
-      <c r="NY12" s="151"/>
-      <c r="NZ12" s="151"/>
-      <c r="OA12" s="151"/>
-      <c r="OB12" s="151"/>
-      <c r="OC12" s="151"/>
-      <c r="OD12" s="151"/>
-      <c r="OE12" s="151"/>
-      <c r="OF12" s="151"/>
-      <c r="OG12" s="151"/>
-      <c r="OH12" s="151"/>
-      <c r="OI12" s="151"/>
-      <c r="OJ12" s="151"/>
-      <c r="OK12" s="151"/>
-      <c r="OL12" s="151"/>
-      <c r="OM12" s="151"/>
-      <c r="ON12" s="151"/>
-      <c r="OO12" s="151"/>
-      <c r="OP12" s="151"/>
-      <c r="OQ12" s="151"/>
-      <c r="OR12" s="151"/>
-      <c r="OS12" s="151"/>
-      <c r="OT12" s="151"/>
-      <c r="OU12" s="151"/>
-      <c r="OV12" s="151"/>
-      <c r="OW12" s="151"/>
-      <c r="OX12" s="151"/>
-      <c r="OY12" s="151"/>
-      <c r="OZ12" s="151"/>
-      <c r="PA12" s="151"/>
-      <c r="PB12" s="151"/>
-      <c r="PC12" s="151"/>
-      <c r="PD12" s="151"/>
-      <c r="PE12" s="151"/>
-      <c r="PF12" s="151"/>
-      <c r="PG12" s="151"/>
-      <c r="PH12" s="151"/>
-      <c r="PI12" s="152"/>
-      <c r="PJ12" s="150" t="s">
+      <c r="KU12" s="189"/>
+      <c r="KV12" s="189"/>
+      <c r="KW12" s="189"/>
+      <c r="KX12" s="189"/>
+      <c r="KY12" s="189"/>
+      <c r="KZ12" s="189"/>
+      <c r="LA12" s="189"/>
+      <c r="LB12" s="189"/>
+      <c r="LC12" s="189"/>
+      <c r="LD12" s="189"/>
+      <c r="LE12" s="189"/>
+      <c r="LF12" s="189"/>
+      <c r="LG12" s="189"/>
+      <c r="LH12" s="189"/>
+      <c r="LI12" s="189"/>
+      <c r="LJ12" s="189"/>
+      <c r="LK12" s="189"/>
+      <c r="LL12" s="189"/>
+      <c r="LM12" s="189"/>
+      <c r="LN12" s="189"/>
+      <c r="LO12" s="189"/>
+      <c r="LP12" s="189"/>
+      <c r="LQ12" s="189"/>
+      <c r="LR12" s="189"/>
+      <c r="LS12" s="189"/>
+      <c r="LT12" s="189"/>
+      <c r="LU12" s="189"/>
+      <c r="LV12" s="189"/>
+      <c r="LW12" s="189"/>
+      <c r="LX12" s="189"/>
+      <c r="LY12" s="189"/>
+      <c r="LZ12" s="189"/>
+      <c r="MA12" s="189"/>
+      <c r="MB12" s="189"/>
+      <c r="MC12" s="189"/>
+      <c r="MD12" s="189"/>
+      <c r="ME12" s="189"/>
+      <c r="MF12" s="189"/>
+      <c r="MG12" s="189"/>
+      <c r="MH12" s="189"/>
+      <c r="MI12" s="189"/>
+      <c r="MJ12" s="189"/>
+      <c r="MK12" s="189"/>
+      <c r="ML12" s="189"/>
+      <c r="MM12" s="189"/>
+      <c r="MN12" s="189"/>
+      <c r="MO12" s="189"/>
+      <c r="MP12" s="189"/>
+      <c r="MQ12" s="189"/>
+      <c r="MR12" s="189"/>
+      <c r="MS12" s="189"/>
+      <c r="MT12" s="189"/>
+      <c r="MU12" s="189"/>
+      <c r="MV12" s="189"/>
+      <c r="MW12" s="189"/>
+      <c r="MX12" s="189"/>
+      <c r="MY12" s="189"/>
+      <c r="MZ12" s="189"/>
+      <c r="NA12" s="189"/>
+      <c r="NB12" s="189"/>
+      <c r="NC12" s="189"/>
+      <c r="ND12" s="189"/>
+      <c r="NE12" s="189"/>
+      <c r="NF12" s="189"/>
+      <c r="NG12" s="189"/>
+      <c r="NH12" s="189"/>
+      <c r="NI12" s="189"/>
+      <c r="NJ12" s="189"/>
+      <c r="NK12" s="189"/>
+      <c r="NL12" s="189"/>
+      <c r="NM12" s="189"/>
+      <c r="NN12" s="189"/>
+      <c r="NO12" s="189"/>
+      <c r="NP12" s="189"/>
+      <c r="NQ12" s="189"/>
+      <c r="NR12" s="189"/>
+      <c r="NS12" s="189"/>
+      <c r="NT12" s="189"/>
+      <c r="NU12" s="189"/>
+      <c r="NV12" s="189"/>
+      <c r="NW12" s="189"/>
+      <c r="NX12" s="189"/>
+      <c r="NY12" s="189"/>
+      <c r="NZ12" s="189"/>
+      <c r="OA12" s="189"/>
+      <c r="OB12" s="189"/>
+      <c r="OC12" s="189"/>
+      <c r="OD12" s="189"/>
+      <c r="OE12" s="189"/>
+      <c r="OF12" s="189"/>
+      <c r="OG12" s="189"/>
+      <c r="OH12" s="189"/>
+      <c r="OI12" s="189"/>
+      <c r="OJ12" s="189"/>
+      <c r="OK12" s="189"/>
+      <c r="OL12" s="189"/>
+      <c r="OM12" s="189"/>
+      <c r="ON12" s="189"/>
+      <c r="OO12" s="189"/>
+      <c r="OP12" s="189"/>
+      <c r="OQ12" s="189"/>
+      <c r="OR12" s="189"/>
+      <c r="OS12" s="189"/>
+      <c r="OT12" s="189"/>
+      <c r="OU12" s="189"/>
+      <c r="OV12" s="189"/>
+      <c r="OW12" s="189"/>
+      <c r="OX12" s="189"/>
+      <c r="OY12" s="189"/>
+      <c r="OZ12" s="189"/>
+      <c r="PA12" s="189"/>
+      <c r="PB12" s="189"/>
+      <c r="PC12" s="189"/>
+      <c r="PD12" s="189"/>
+      <c r="PE12" s="189"/>
+      <c r="PF12" s="189"/>
+      <c r="PG12" s="189"/>
+      <c r="PH12" s="189"/>
+      <c r="PI12" s="190"/>
+      <c r="PJ12" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="PK12" s="151"/>
-      <c r="PL12" s="151"/>
-      <c r="PM12" s="151"/>
-      <c r="PN12" s="151"/>
-      <c r="PO12" s="151"/>
-      <c r="PP12" s="151"/>
-      <c r="PQ12" s="151"/>
-      <c r="PR12" s="151"/>
-      <c r="PS12" s="151"/>
-      <c r="PT12" s="151"/>
-      <c r="PU12" s="151"/>
-      <c r="PV12" s="151"/>
-      <c r="PW12" s="151"/>
-      <c r="PX12" s="151"/>
-      <c r="PY12" s="151"/>
-      <c r="PZ12" s="151"/>
-      <c r="QA12" s="151"/>
-      <c r="QB12" s="151"/>
-      <c r="QC12" s="151"/>
-      <c r="QD12" s="151"/>
-      <c r="QE12" s="151"/>
-      <c r="QF12" s="151"/>
-      <c r="QG12" s="151"/>
-      <c r="QH12" s="151"/>
-      <c r="QI12" s="151"/>
-      <c r="QJ12" s="151"/>
-      <c r="QK12" s="151"/>
-      <c r="QL12" s="151"/>
-      <c r="QM12" s="151"/>
-      <c r="QN12" s="151"/>
-      <c r="QO12" s="151"/>
-      <c r="QP12" s="151"/>
-      <c r="QQ12" s="151"/>
-      <c r="QR12" s="151"/>
-      <c r="QS12" s="151"/>
-      <c r="QT12" s="151"/>
-      <c r="QU12" s="151"/>
-      <c r="QV12" s="151"/>
-      <c r="QW12" s="151"/>
-      <c r="QX12" s="151"/>
-      <c r="QY12" s="151"/>
-      <c r="QZ12" s="151"/>
-      <c r="RA12" s="151"/>
-      <c r="RB12" s="151"/>
-      <c r="RC12" s="151"/>
-      <c r="RD12" s="151"/>
-      <c r="RE12" s="151"/>
-      <c r="RF12" s="151"/>
-      <c r="RG12" s="151"/>
-      <c r="RH12" s="151"/>
-      <c r="RI12" s="151"/>
-      <c r="RJ12" s="151"/>
-      <c r="RK12" s="151"/>
-      <c r="RL12" s="151"/>
-      <c r="RM12" s="151"/>
-      <c r="RN12" s="151"/>
-      <c r="RO12" s="151"/>
-      <c r="RP12" s="151"/>
-      <c r="RQ12" s="151"/>
-      <c r="RR12" s="151"/>
-      <c r="RS12" s="151"/>
-      <c r="RT12" s="151"/>
-      <c r="RU12" s="151"/>
-      <c r="RV12" s="151"/>
-      <c r="RW12" s="151"/>
-      <c r="RX12" s="151"/>
-      <c r="RY12" s="151"/>
-      <c r="RZ12" s="151"/>
-      <c r="SA12" s="151"/>
-      <c r="SB12" s="151"/>
-      <c r="SC12" s="151"/>
-      <c r="SD12" s="151"/>
-      <c r="SE12" s="151"/>
-      <c r="SF12" s="151"/>
-      <c r="SG12" s="151"/>
-      <c r="SH12" s="151"/>
-      <c r="SI12" s="151"/>
-      <c r="SJ12" s="151"/>
-      <c r="SK12" s="151"/>
-      <c r="SL12" s="151"/>
-      <c r="SM12" s="151"/>
-      <c r="SN12" s="151"/>
-      <c r="SO12" s="151"/>
-      <c r="SP12" s="151"/>
-      <c r="SQ12" s="151"/>
-      <c r="SR12" s="151"/>
-      <c r="SS12" s="151"/>
-      <c r="ST12" s="151"/>
-      <c r="SU12" s="151"/>
-      <c r="SV12" s="151"/>
-      <c r="SW12" s="151"/>
-      <c r="SX12" s="151"/>
-      <c r="SY12" s="151"/>
-      <c r="SZ12" s="151"/>
-      <c r="TA12" s="151"/>
-      <c r="TB12" s="151"/>
-      <c r="TC12" s="151"/>
-      <c r="TD12" s="151"/>
-      <c r="TE12" s="151"/>
-      <c r="TF12" s="151"/>
-      <c r="TG12" s="151"/>
-      <c r="TH12" s="151"/>
-      <c r="TI12" s="151"/>
-      <c r="TJ12" s="151"/>
-      <c r="TK12" s="151"/>
-      <c r="TL12" s="151"/>
-      <c r="TM12" s="151"/>
-      <c r="TN12" s="151"/>
-      <c r="TO12" s="151"/>
-      <c r="TP12" s="151"/>
-      <c r="TQ12" s="151"/>
-      <c r="TR12" s="151"/>
-      <c r="TS12" s="151"/>
-      <c r="TT12" s="151"/>
-      <c r="TU12" s="151"/>
-      <c r="TV12" s="151"/>
-      <c r="TW12" s="151"/>
-      <c r="TX12" s="151"/>
-      <c r="TY12" s="152"/>
-      <c r="TZ12" s="150" t="s">
+      <c r="PK12" s="189"/>
+      <c r="PL12" s="189"/>
+      <c r="PM12" s="189"/>
+      <c r="PN12" s="189"/>
+      <c r="PO12" s="189"/>
+      <c r="PP12" s="189"/>
+      <c r="PQ12" s="189"/>
+      <c r="PR12" s="189"/>
+      <c r="PS12" s="189"/>
+      <c r="PT12" s="189"/>
+      <c r="PU12" s="189"/>
+      <c r="PV12" s="189"/>
+      <c r="PW12" s="189"/>
+      <c r="PX12" s="189"/>
+      <c r="PY12" s="189"/>
+      <c r="PZ12" s="189"/>
+      <c r="QA12" s="189"/>
+      <c r="QB12" s="189"/>
+      <c r="QC12" s="189"/>
+      <c r="QD12" s="189"/>
+      <c r="QE12" s="189"/>
+      <c r="QF12" s="189"/>
+      <c r="QG12" s="189"/>
+      <c r="QH12" s="189"/>
+      <c r="QI12" s="189"/>
+      <c r="QJ12" s="189"/>
+      <c r="QK12" s="189"/>
+      <c r="QL12" s="189"/>
+      <c r="QM12" s="189"/>
+      <c r="QN12" s="189"/>
+      <c r="QO12" s="189"/>
+      <c r="QP12" s="189"/>
+      <c r="QQ12" s="189"/>
+      <c r="QR12" s="189"/>
+      <c r="QS12" s="189"/>
+      <c r="QT12" s="189"/>
+      <c r="QU12" s="189"/>
+      <c r="QV12" s="189"/>
+      <c r="QW12" s="189"/>
+      <c r="QX12" s="189"/>
+      <c r="QY12" s="189"/>
+      <c r="QZ12" s="189"/>
+      <c r="RA12" s="189"/>
+      <c r="RB12" s="189"/>
+      <c r="RC12" s="189"/>
+      <c r="RD12" s="189"/>
+      <c r="RE12" s="189"/>
+      <c r="RF12" s="189"/>
+      <c r="RG12" s="189"/>
+      <c r="RH12" s="189"/>
+      <c r="RI12" s="189"/>
+      <c r="RJ12" s="189"/>
+      <c r="RK12" s="189"/>
+      <c r="RL12" s="189"/>
+      <c r="RM12" s="189"/>
+      <c r="RN12" s="189"/>
+      <c r="RO12" s="189"/>
+      <c r="RP12" s="189"/>
+      <c r="RQ12" s="189"/>
+      <c r="RR12" s="189"/>
+      <c r="RS12" s="189"/>
+      <c r="RT12" s="189"/>
+      <c r="RU12" s="189"/>
+      <c r="RV12" s="189"/>
+      <c r="RW12" s="189"/>
+      <c r="RX12" s="189"/>
+      <c r="RY12" s="189"/>
+      <c r="RZ12" s="189"/>
+      <c r="SA12" s="189"/>
+      <c r="SB12" s="189"/>
+      <c r="SC12" s="189"/>
+      <c r="SD12" s="189"/>
+      <c r="SE12" s="189"/>
+      <c r="SF12" s="189"/>
+      <c r="SG12" s="189"/>
+      <c r="SH12" s="189"/>
+      <c r="SI12" s="189"/>
+      <c r="SJ12" s="189"/>
+      <c r="SK12" s="189"/>
+      <c r="SL12" s="189"/>
+      <c r="SM12" s="189"/>
+      <c r="SN12" s="189"/>
+      <c r="SO12" s="189"/>
+      <c r="SP12" s="189"/>
+      <c r="SQ12" s="189"/>
+      <c r="SR12" s="189"/>
+      <c r="SS12" s="189"/>
+      <c r="ST12" s="189"/>
+      <c r="SU12" s="189"/>
+      <c r="SV12" s="189"/>
+      <c r="SW12" s="189"/>
+      <c r="SX12" s="189"/>
+      <c r="SY12" s="189"/>
+      <c r="SZ12" s="189"/>
+      <c r="TA12" s="189"/>
+      <c r="TB12" s="189"/>
+      <c r="TC12" s="189"/>
+      <c r="TD12" s="189"/>
+      <c r="TE12" s="189"/>
+      <c r="TF12" s="189"/>
+      <c r="TG12" s="189"/>
+      <c r="TH12" s="189"/>
+      <c r="TI12" s="189"/>
+      <c r="TJ12" s="189"/>
+      <c r="TK12" s="189"/>
+      <c r="TL12" s="189"/>
+      <c r="TM12" s="189"/>
+      <c r="TN12" s="189"/>
+      <c r="TO12" s="189"/>
+      <c r="TP12" s="189"/>
+      <c r="TQ12" s="189"/>
+      <c r="TR12" s="189"/>
+      <c r="TS12" s="189"/>
+      <c r="TT12" s="189"/>
+      <c r="TU12" s="189"/>
+      <c r="TV12" s="189"/>
+      <c r="TW12" s="189"/>
+      <c r="TX12" s="189"/>
+      <c r="TY12" s="190"/>
+      <c r="TZ12" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="UA12" s="151"/>
-      <c r="UB12" s="151"/>
-      <c r="UC12" s="151"/>
-      <c r="UD12" s="151"/>
-      <c r="UE12" s="151"/>
-      <c r="UF12" s="151"/>
-      <c r="UG12" s="151"/>
-      <c r="UH12" s="151"/>
-      <c r="UI12" s="151"/>
-      <c r="UJ12" s="151"/>
-      <c r="UK12" s="151"/>
-      <c r="UL12" s="151"/>
-      <c r="UM12" s="151"/>
-      <c r="UN12" s="151"/>
-      <c r="UO12" s="151"/>
-      <c r="UP12" s="151"/>
-      <c r="UQ12" s="151"/>
-      <c r="UR12" s="151"/>
-      <c r="US12" s="151"/>
-      <c r="UT12" s="151"/>
-      <c r="UU12" s="151"/>
-      <c r="UV12" s="151"/>
-      <c r="UW12" s="151"/>
-      <c r="UX12" s="151"/>
-      <c r="UY12" s="151"/>
-      <c r="UZ12" s="151"/>
-      <c r="VA12" s="151"/>
-      <c r="VB12" s="151"/>
-      <c r="VC12" s="152"/>
+      <c r="UA12" s="189"/>
+      <c r="UB12" s="189"/>
+      <c r="UC12" s="189"/>
+      <c r="UD12" s="189"/>
+      <c r="UE12" s="189"/>
+      <c r="UF12" s="189"/>
+      <c r="UG12" s="189"/>
+      <c r="UH12" s="189"/>
+      <c r="UI12" s="189"/>
+      <c r="UJ12" s="189"/>
+      <c r="UK12" s="189"/>
+      <c r="UL12" s="189"/>
+      <c r="UM12" s="189"/>
+      <c r="UN12" s="189"/>
+      <c r="UO12" s="189"/>
+      <c r="UP12" s="189"/>
+      <c r="UQ12" s="189"/>
+      <c r="UR12" s="189"/>
+      <c r="US12" s="189"/>
+      <c r="UT12" s="189"/>
+      <c r="UU12" s="189"/>
+      <c r="UV12" s="189"/>
+      <c r="UW12" s="189"/>
+      <c r="UX12" s="189"/>
+      <c r="UY12" s="189"/>
+      <c r="UZ12" s="189"/>
+      <c r="VA12" s="189"/>
+      <c r="VB12" s="189"/>
+      <c r="VC12" s="190"/>
     </row>
     <row r="13" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="170" t="s">
+      <c r="B13" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="172" t="s">
+      <c r="C13" s="186"/>
+      <c r="D13" s="191" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="173"/>
-      <c r="M13" s="173"/>
-      <c r="N13" s="173"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="173"/>
-      <c r="Q13" s="173"/>
-      <c r="R13" s="173"/>
-      <c r="S13" s="173"/>
-      <c r="T13" s="173"/>
-      <c r="U13" s="173"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="173"/>
-      <c r="X13" s="173"/>
-      <c r="Y13" s="173"/>
-      <c r="Z13" s="173"/>
-      <c r="AA13" s="173"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="173"/>
-      <c r="AD13" s="173"/>
-      <c r="AE13" s="173"/>
-      <c r="AF13" s="173"/>
-      <c r="AG13" s="174"/>
-      <c r="AH13" s="175" t="s">
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="192"/>
+      <c r="N13" s="192"/>
+      <c r="O13" s="192"/>
+      <c r="P13" s="192"/>
+      <c r="Q13" s="192"/>
+      <c r="R13" s="192"/>
+      <c r="S13" s="192"/>
+      <c r="T13" s="192"/>
+      <c r="U13" s="192"/>
+      <c r="V13" s="192"/>
+      <c r="W13" s="192"/>
+      <c r="X13" s="192"/>
+      <c r="Y13" s="192"/>
+      <c r="Z13" s="192"/>
+      <c r="AA13" s="192"/>
+      <c r="AB13" s="192"/>
+      <c r="AC13" s="192"/>
+      <c r="AD13" s="192"/>
+      <c r="AE13" s="192"/>
+      <c r="AF13" s="192"/>
+      <c r="AG13" s="193"/>
+      <c r="AH13" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="AI13" s="173"/>
-      <c r="AJ13" s="173"/>
-      <c r="AK13" s="173"/>
-      <c r="AL13" s="173"/>
-      <c r="AM13" s="173"/>
-      <c r="AN13" s="173"/>
-      <c r="AO13" s="173"/>
-      <c r="AP13" s="173"/>
-      <c r="AQ13" s="173"/>
-      <c r="AR13" s="173"/>
-      <c r="AS13" s="173"/>
-      <c r="AT13" s="173"/>
-      <c r="AU13" s="173"/>
-      <c r="AV13" s="173"/>
-      <c r="AW13" s="173"/>
-      <c r="AX13" s="173"/>
-      <c r="AY13" s="173"/>
-      <c r="AZ13" s="173"/>
-      <c r="BA13" s="173"/>
-      <c r="BB13" s="173"/>
-      <c r="BC13" s="173"/>
-      <c r="BD13" s="173"/>
-      <c r="BE13" s="173"/>
-      <c r="BF13" s="173"/>
-      <c r="BG13" s="173"/>
-      <c r="BH13" s="173"/>
-      <c r="BI13" s="173"/>
-      <c r="BJ13" s="173"/>
-      <c r="BK13" s="176"/>
-      <c r="BL13" s="172" t="s">
+      <c r="AI13" s="192"/>
+      <c r="AJ13" s="192"/>
+      <c r="AK13" s="192"/>
+      <c r="AL13" s="192"/>
+      <c r="AM13" s="192"/>
+      <c r="AN13" s="192"/>
+      <c r="AO13" s="192"/>
+      <c r="AP13" s="192"/>
+      <c r="AQ13" s="192"/>
+      <c r="AR13" s="192"/>
+      <c r="AS13" s="192"/>
+      <c r="AT13" s="192"/>
+      <c r="AU13" s="192"/>
+      <c r="AV13" s="192"/>
+      <c r="AW13" s="192"/>
+      <c r="AX13" s="192"/>
+      <c r="AY13" s="192"/>
+      <c r="AZ13" s="192"/>
+      <c r="BA13" s="192"/>
+      <c r="BB13" s="192"/>
+      <c r="BC13" s="192"/>
+      <c r="BD13" s="192"/>
+      <c r="BE13" s="192"/>
+      <c r="BF13" s="192"/>
+      <c r="BG13" s="192"/>
+      <c r="BH13" s="192"/>
+      <c r="BI13" s="192"/>
+      <c r="BJ13" s="192"/>
+      <c r="BK13" s="195"/>
+      <c r="BL13" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="BM13" s="173"/>
-      <c r="BN13" s="173"/>
-      <c r="BO13" s="173"/>
-      <c r="BP13" s="173"/>
-      <c r="BQ13" s="173"/>
-      <c r="BR13" s="173"/>
-      <c r="BS13" s="173"/>
-      <c r="BT13" s="173"/>
-      <c r="BU13" s="173"/>
-      <c r="BV13" s="173"/>
-      <c r="BW13" s="173"/>
-      <c r="BX13" s="173"/>
-      <c r="BY13" s="173"/>
-      <c r="BZ13" s="173"/>
-      <c r="CA13" s="173"/>
-      <c r="CB13" s="173"/>
-      <c r="CC13" s="173"/>
-      <c r="CD13" s="173"/>
-      <c r="CE13" s="173"/>
-      <c r="CF13" s="173"/>
-      <c r="CG13" s="173"/>
-      <c r="CH13" s="173"/>
-      <c r="CI13" s="173"/>
-      <c r="CJ13" s="173"/>
-      <c r="CK13" s="173"/>
-      <c r="CL13" s="173"/>
-      <c r="CM13" s="173"/>
-      <c r="CN13" s="173"/>
-      <c r="CO13" s="174"/>
-      <c r="CP13" s="175" t="s">
+      <c r="BM13" s="192"/>
+      <c r="BN13" s="192"/>
+      <c r="BO13" s="192"/>
+      <c r="BP13" s="192"/>
+      <c r="BQ13" s="192"/>
+      <c r="BR13" s="192"/>
+      <c r="BS13" s="192"/>
+      <c r="BT13" s="192"/>
+      <c r="BU13" s="192"/>
+      <c r="BV13" s="192"/>
+      <c r="BW13" s="192"/>
+      <c r="BX13" s="192"/>
+      <c r="BY13" s="192"/>
+      <c r="BZ13" s="192"/>
+      <c r="CA13" s="192"/>
+      <c r="CB13" s="192"/>
+      <c r="CC13" s="192"/>
+      <c r="CD13" s="192"/>
+      <c r="CE13" s="192"/>
+      <c r="CF13" s="192"/>
+      <c r="CG13" s="192"/>
+      <c r="CH13" s="192"/>
+      <c r="CI13" s="192"/>
+      <c r="CJ13" s="192"/>
+      <c r="CK13" s="192"/>
+      <c r="CL13" s="192"/>
+      <c r="CM13" s="192"/>
+      <c r="CN13" s="192"/>
+      <c r="CO13" s="193"/>
+      <c r="CP13" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="CQ13" s="173"/>
-      <c r="CR13" s="173"/>
-      <c r="CS13" s="173"/>
-      <c r="CT13" s="173"/>
-      <c r="CU13" s="173"/>
-      <c r="CV13" s="173"/>
-      <c r="CW13" s="173"/>
-      <c r="CX13" s="173"/>
-      <c r="CY13" s="173"/>
-      <c r="CZ13" s="173"/>
-      <c r="DA13" s="173"/>
-      <c r="DB13" s="173"/>
-      <c r="DC13" s="173"/>
-      <c r="DD13" s="173"/>
-      <c r="DE13" s="173"/>
-      <c r="DF13" s="173"/>
-      <c r="DG13" s="173"/>
-      <c r="DH13" s="173"/>
-      <c r="DI13" s="173"/>
-      <c r="DJ13" s="173"/>
-      <c r="DK13" s="173"/>
-      <c r="DL13" s="173"/>
-      <c r="DM13" s="173"/>
-      <c r="DN13" s="173"/>
-      <c r="DO13" s="173"/>
-      <c r="DP13" s="173"/>
-      <c r="DQ13" s="173"/>
-      <c r="DR13" s="173"/>
-      <c r="DS13" s="174"/>
-      <c r="DT13" s="175" t="s">
+      <c r="CQ13" s="192"/>
+      <c r="CR13" s="192"/>
+      <c r="CS13" s="192"/>
+      <c r="CT13" s="192"/>
+      <c r="CU13" s="192"/>
+      <c r="CV13" s="192"/>
+      <c r="CW13" s="192"/>
+      <c r="CX13" s="192"/>
+      <c r="CY13" s="192"/>
+      <c r="CZ13" s="192"/>
+      <c r="DA13" s="192"/>
+      <c r="DB13" s="192"/>
+      <c r="DC13" s="192"/>
+      <c r="DD13" s="192"/>
+      <c r="DE13" s="192"/>
+      <c r="DF13" s="192"/>
+      <c r="DG13" s="192"/>
+      <c r="DH13" s="192"/>
+      <c r="DI13" s="192"/>
+      <c r="DJ13" s="192"/>
+      <c r="DK13" s="192"/>
+      <c r="DL13" s="192"/>
+      <c r="DM13" s="192"/>
+      <c r="DN13" s="192"/>
+      <c r="DO13" s="192"/>
+      <c r="DP13" s="192"/>
+      <c r="DQ13" s="192"/>
+      <c r="DR13" s="192"/>
+      <c r="DS13" s="193"/>
+      <c r="DT13" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="DU13" s="173"/>
-      <c r="DV13" s="173"/>
-      <c r="DW13" s="173"/>
-      <c r="DX13" s="173"/>
-      <c r="DY13" s="173"/>
-      <c r="DZ13" s="173"/>
-      <c r="EA13" s="173"/>
-      <c r="EB13" s="173"/>
-      <c r="EC13" s="173"/>
-      <c r="ED13" s="173"/>
-      <c r="EE13" s="173"/>
-      <c r="EF13" s="173"/>
-      <c r="EG13" s="173"/>
-      <c r="EH13" s="173"/>
-      <c r="EI13" s="173"/>
-      <c r="EJ13" s="173"/>
-      <c r="EK13" s="173"/>
-      <c r="EL13" s="173"/>
-      <c r="EM13" s="173"/>
-      <c r="EN13" s="173"/>
-      <c r="EO13" s="173"/>
-      <c r="EP13" s="173"/>
-      <c r="EQ13" s="173"/>
-      <c r="ER13" s="173"/>
-      <c r="ES13" s="173"/>
-      <c r="ET13" s="173"/>
-      <c r="EU13" s="173"/>
-      <c r="EV13" s="173"/>
-      <c r="EW13" s="174"/>
-      <c r="EX13" s="175" t="s">
+      <c r="DU13" s="192"/>
+      <c r="DV13" s="192"/>
+      <c r="DW13" s="192"/>
+      <c r="DX13" s="192"/>
+      <c r="DY13" s="192"/>
+      <c r="DZ13" s="192"/>
+      <c r="EA13" s="192"/>
+      <c r="EB13" s="192"/>
+      <c r="EC13" s="192"/>
+      <c r="ED13" s="192"/>
+      <c r="EE13" s="192"/>
+      <c r="EF13" s="192"/>
+      <c r="EG13" s="192"/>
+      <c r="EH13" s="192"/>
+      <c r="EI13" s="192"/>
+      <c r="EJ13" s="192"/>
+      <c r="EK13" s="192"/>
+      <c r="EL13" s="192"/>
+      <c r="EM13" s="192"/>
+      <c r="EN13" s="192"/>
+      <c r="EO13" s="192"/>
+      <c r="EP13" s="192"/>
+      <c r="EQ13" s="192"/>
+      <c r="ER13" s="192"/>
+      <c r="ES13" s="192"/>
+      <c r="ET13" s="192"/>
+      <c r="EU13" s="192"/>
+      <c r="EV13" s="192"/>
+      <c r="EW13" s="193"/>
+      <c r="EX13" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="EY13" s="173"/>
-      <c r="EZ13" s="173"/>
-      <c r="FA13" s="173"/>
-      <c r="FB13" s="173"/>
-      <c r="FC13" s="173"/>
-      <c r="FD13" s="173"/>
-      <c r="FE13" s="173"/>
-      <c r="FF13" s="173"/>
-      <c r="FG13" s="173"/>
-      <c r="FH13" s="173"/>
-      <c r="FI13" s="173"/>
-      <c r="FJ13" s="173"/>
-      <c r="FK13" s="173"/>
-      <c r="FL13" s="173"/>
-      <c r="FM13" s="173"/>
-      <c r="FN13" s="173"/>
-      <c r="FO13" s="173"/>
-      <c r="FP13" s="173"/>
-      <c r="FQ13" s="173"/>
-      <c r="FR13" s="173"/>
-      <c r="FS13" s="173"/>
-      <c r="FT13" s="173"/>
-      <c r="FU13" s="173"/>
-      <c r="FV13" s="173"/>
-      <c r="FW13" s="173"/>
-      <c r="FX13" s="173"/>
-      <c r="FY13" s="173"/>
-      <c r="FZ13" s="173"/>
-      <c r="GA13" s="176"/>
-      <c r="GB13" s="172" t="s">
+      <c r="EY13" s="192"/>
+      <c r="EZ13" s="192"/>
+      <c r="FA13" s="192"/>
+      <c r="FB13" s="192"/>
+      <c r="FC13" s="192"/>
+      <c r="FD13" s="192"/>
+      <c r="FE13" s="192"/>
+      <c r="FF13" s="192"/>
+      <c r="FG13" s="192"/>
+      <c r="FH13" s="192"/>
+      <c r="FI13" s="192"/>
+      <c r="FJ13" s="192"/>
+      <c r="FK13" s="192"/>
+      <c r="FL13" s="192"/>
+      <c r="FM13" s="192"/>
+      <c r="FN13" s="192"/>
+      <c r="FO13" s="192"/>
+      <c r="FP13" s="192"/>
+      <c r="FQ13" s="192"/>
+      <c r="FR13" s="192"/>
+      <c r="FS13" s="192"/>
+      <c r="FT13" s="192"/>
+      <c r="FU13" s="192"/>
+      <c r="FV13" s="192"/>
+      <c r="FW13" s="192"/>
+      <c r="FX13" s="192"/>
+      <c r="FY13" s="192"/>
+      <c r="FZ13" s="192"/>
+      <c r="GA13" s="195"/>
+      <c r="GB13" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="GC13" s="173"/>
-      <c r="GD13" s="173"/>
-      <c r="GE13" s="173"/>
-      <c r="GF13" s="173"/>
-      <c r="GG13" s="173"/>
-      <c r="GH13" s="173"/>
-      <c r="GI13" s="173"/>
-      <c r="GJ13" s="173"/>
-      <c r="GK13" s="173"/>
-      <c r="GL13" s="173"/>
-      <c r="GM13" s="173"/>
-      <c r="GN13" s="173"/>
-      <c r="GO13" s="173"/>
-      <c r="GP13" s="173"/>
-      <c r="GQ13" s="173"/>
-      <c r="GR13" s="173"/>
-      <c r="GS13" s="173"/>
-      <c r="GT13" s="173"/>
-      <c r="GU13" s="173"/>
-      <c r="GV13" s="173"/>
-      <c r="GW13" s="173"/>
-      <c r="GX13" s="173"/>
-      <c r="GY13" s="173"/>
-      <c r="GZ13" s="173"/>
-      <c r="HA13" s="173"/>
-      <c r="HB13" s="173"/>
-      <c r="HC13" s="173"/>
-      <c r="HD13" s="173"/>
-      <c r="HE13" s="174"/>
-      <c r="HF13" s="175" t="s">
+      <c r="GC13" s="192"/>
+      <c r="GD13" s="192"/>
+      <c r="GE13" s="192"/>
+      <c r="GF13" s="192"/>
+      <c r="GG13" s="192"/>
+      <c r="GH13" s="192"/>
+      <c r="GI13" s="192"/>
+      <c r="GJ13" s="192"/>
+      <c r="GK13" s="192"/>
+      <c r="GL13" s="192"/>
+      <c r="GM13" s="192"/>
+      <c r="GN13" s="192"/>
+      <c r="GO13" s="192"/>
+      <c r="GP13" s="192"/>
+      <c r="GQ13" s="192"/>
+      <c r="GR13" s="192"/>
+      <c r="GS13" s="192"/>
+      <c r="GT13" s="192"/>
+      <c r="GU13" s="192"/>
+      <c r="GV13" s="192"/>
+      <c r="GW13" s="192"/>
+      <c r="GX13" s="192"/>
+      <c r="GY13" s="192"/>
+      <c r="GZ13" s="192"/>
+      <c r="HA13" s="192"/>
+      <c r="HB13" s="192"/>
+      <c r="HC13" s="192"/>
+      <c r="HD13" s="192"/>
+      <c r="HE13" s="193"/>
+      <c r="HF13" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="HG13" s="173"/>
-      <c r="HH13" s="173"/>
-      <c r="HI13" s="173"/>
-      <c r="HJ13" s="173"/>
-      <c r="HK13" s="173"/>
-      <c r="HL13" s="173"/>
-      <c r="HM13" s="173"/>
-      <c r="HN13" s="173"/>
-      <c r="HO13" s="173"/>
-      <c r="HP13" s="173"/>
-      <c r="HQ13" s="173"/>
-      <c r="HR13" s="173"/>
-      <c r="HS13" s="173"/>
-      <c r="HT13" s="173"/>
-      <c r="HU13" s="173"/>
-      <c r="HV13" s="173"/>
-      <c r="HW13" s="173"/>
-      <c r="HX13" s="173"/>
-      <c r="HY13" s="173"/>
-      <c r="HZ13" s="173"/>
-      <c r="IA13" s="173"/>
-      <c r="IB13" s="173"/>
-      <c r="IC13" s="173"/>
-      <c r="ID13" s="173"/>
-      <c r="IE13" s="173"/>
-      <c r="IF13" s="173"/>
-      <c r="IG13" s="173"/>
-      <c r="IH13" s="173"/>
-      <c r="II13" s="174"/>
-      <c r="IJ13" s="175" t="s">
+      <c r="HG13" s="192"/>
+      <c r="HH13" s="192"/>
+      <c r="HI13" s="192"/>
+      <c r="HJ13" s="192"/>
+      <c r="HK13" s="192"/>
+      <c r="HL13" s="192"/>
+      <c r="HM13" s="192"/>
+      <c r="HN13" s="192"/>
+      <c r="HO13" s="192"/>
+      <c r="HP13" s="192"/>
+      <c r="HQ13" s="192"/>
+      <c r="HR13" s="192"/>
+      <c r="HS13" s="192"/>
+      <c r="HT13" s="192"/>
+      <c r="HU13" s="192"/>
+      <c r="HV13" s="192"/>
+      <c r="HW13" s="192"/>
+      <c r="HX13" s="192"/>
+      <c r="HY13" s="192"/>
+      <c r="HZ13" s="192"/>
+      <c r="IA13" s="192"/>
+      <c r="IB13" s="192"/>
+      <c r="IC13" s="192"/>
+      <c r="ID13" s="192"/>
+      <c r="IE13" s="192"/>
+      <c r="IF13" s="192"/>
+      <c r="IG13" s="192"/>
+      <c r="IH13" s="192"/>
+      <c r="II13" s="193"/>
+      <c r="IJ13" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="IK13" s="173"/>
-      <c r="IL13" s="173"/>
-      <c r="IM13" s="173"/>
-      <c r="IN13" s="173"/>
-      <c r="IO13" s="173"/>
-      <c r="IP13" s="173"/>
-      <c r="IQ13" s="173"/>
-      <c r="IR13" s="173"/>
-      <c r="IS13" s="173"/>
-      <c r="IT13" s="173"/>
-      <c r="IU13" s="173"/>
-      <c r="IV13" s="173"/>
-      <c r="IW13" s="173"/>
-      <c r="IX13" s="173"/>
-      <c r="IY13" s="173"/>
-      <c r="IZ13" s="173"/>
-      <c r="JA13" s="173"/>
-      <c r="JB13" s="173"/>
-      <c r="JC13" s="173"/>
-      <c r="JD13" s="173"/>
-      <c r="JE13" s="173"/>
-      <c r="JF13" s="173"/>
-      <c r="JG13" s="173"/>
-      <c r="JH13" s="173"/>
-      <c r="JI13" s="173"/>
-      <c r="JJ13" s="173"/>
-      <c r="JK13" s="173"/>
-      <c r="JL13" s="173"/>
-      <c r="JM13" s="174"/>
-      <c r="JN13" s="175" t="s">
+      <c r="IK13" s="192"/>
+      <c r="IL13" s="192"/>
+      <c r="IM13" s="192"/>
+      <c r="IN13" s="192"/>
+      <c r="IO13" s="192"/>
+      <c r="IP13" s="192"/>
+      <c r="IQ13" s="192"/>
+      <c r="IR13" s="192"/>
+      <c r="IS13" s="192"/>
+      <c r="IT13" s="192"/>
+      <c r="IU13" s="192"/>
+      <c r="IV13" s="192"/>
+      <c r="IW13" s="192"/>
+      <c r="IX13" s="192"/>
+      <c r="IY13" s="192"/>
+      <c r="IZ13" s="192"/>
+      <c r="JA13" s="192"/>
+      <c r="JB13" s="192"/>
+      <c r="JC13" s="192"/>
+      <c r="JD13" s="192"/>
+      <c r="JE13" s="192"/>
+      <c r="JF13" s="192"/>
+      <c r="JG13" s="192"/>
+      <c r="JH13" s="192"/>
+      <c r="JI13" s="192"/>
+      <c r="JJ13" s="192"/>
+      <c r="JK13" s="192"/>
+      <c r="JL13" s="192"/>
+      <c r="JM13" s="193"/>
+      <c r="JN13" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="JO13" s="173"/>
-      <c r="JP13" s="173"/>
-      <c r="JQ13" s="173"/>
-      <c r="JR13" s="173"/>
-      <c r="JS13" s="173"/>
-      <c r="JT13" s="173"/>
-      <c r="JU13" s="173"/>
-      <c r="JV13" s="173"/>
-      <c r="JW13" s="173"/>
-      <c r="JX13" s="173"/>
-      <c r="JY13" s="173"/>
-      <c r="JZ13" s="173"/>
-      <c r="KA13" s="173"/>
-      <c r="KB13" s="173"/>
-      <c r="KC13" s="173"/>
-      <c r="KD13" s="173"/>
-      <c r="KE13" s="173"/>
-      <c r="KF13" s="173"/>
-      <c r="KG13" s="173"/>
-      <c r="KH13" s="173"/>
-      <c r="KI13" s="173"/>
-      <c r="KJ13" s="173"/>
-      <c r="KK13" s="173"/>
-      <c r="KL13" s="173"/>
-      <c r="KM13" s="173"/>
-      <c r="KN13" s="173"/>
-      <c r="KO13" s="173"/>
-      <c r="KP13" s="173"/>
-      <c r="KQ13" s="177"/>
-      <c r="KR13" s="170" t="s">
+      <c r="JO13" s="192"/>
+      <c r="JP13" s="192"/>
+      <c r="JQ13" s="192"/>
+      <c r="JR13" s="192"/>
+      <c r="JS13" s="192"/>
+      <c r="JT13" s="192"/>
+      <c r="JU13" s="192"/>
+      <c r="JV13" s="192"/>
+      <c r="JW13" s="192"/>
+      <c r="JX13" s="192"/>
+      <c r="JY13" s="192"/>
+      <c r="JZ13" s="192"/>
+      <c r="KA13" s="192"/>
+      <c r="KB13" s="192"/>
+      <c r="KC13" s="192"/>
+      <c r="KD13" s="192"/>
+      <c r="KE13" s="192"/>
+      <c r="KF13" s="192"/>
+      <c r="KG13" s="192"/>
+      <c r="KH13" s="192"/>
+      <c r="KI13" s="192"/>
+      <c r="KJ13" s="192"/>
+      <c r="KK13" s="192"/>
+      <c r="KL13" s="192"/>
+      <c r="KM13" s="192"/>
+      <c r="KN13" s="192"/>
+      <c r="KO13" s="192"/>
+      <c r="KP13" s="192"/>
+      <c r="KQ13" s="196"/>
+      <c r="KR13" s="150" t="s">
         <v>17</v>
       </c>
-      <c r="KS13" s="219"/>
-      <c r="KT13" s="172" t="s">
+      <c r="KS13" s="151"/>
+      <c r="KT13" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="KU13" s="173"/>
-      <c r="KV13" s="173"/>
-      <c r="KW13" s="173"/>
-      <c r="KX13" s="173"/>
-      <c r="KY13" s="173"/>
-      <c r="KZ13" s="173"/>
-      <c r="LA13" s="173"/>
-      <c r="LB13" s="173"/>
-      <c r="LC13" s="173"/>
-      <c r="LD13" s="173"/>
-      <c r="LE13" s="173"/>
-      <c r="LF13" s="173"/>
-      <c r="LG13" s="173"/>
-      <c r="LH13" s="173"/>
-      <c r="LI13" s="173"/>
-      <c r="LJ13" s="173"/>
-      <c r="LK13" s="173"/>
-      <c r="LL13" s="173"/>
-      <c r="LM13" s="173"/>
-      <c r="LN13" s="173"/>
-      <c r="LO13" s="173"/>
-      <c r="LP13" s="173"/>
-      <c r="LQ13" s="173"/>
-      <c r="LR13" s="173"/>
-      <c r="LS13" s="173"/>
-      <c r="LT13" s="173"/>
-      <c r="LU13" s="173"/>
-      <c r="LV13" s="173"/>
-      <c r="LW13" s="174"/>
-      <c r="LX13" s="175" t="s">
+      <c r="KU13" s="192"/>
+      <c r="KV13" s="192"/>
+      <c r="KW13" s="192"/>
+      <c r="KX13" s="192"/>
+      <c r="KY13" s="192"/>
+      <c r="KZ13" s="192"/>
+      <c r="LA13" s="192"/>
+      <c r="LB13" s="192"/>
+      <c r="LC13" s="192"/>
+      <c r="LD13" s="192"/>
+      <c r="LE13" s="192"/>
+      <c r="LF13" s="192"/>
+      <c r="LG13" s="192"/>
+      <c r="LH13" s="192"/>
+      <c r="LI13" s="192"/>
+      <c r="LJ13" s="192"/>
+      <c r="LK13" s="192"/>
+      <c r="LL13" s="192"/>
+      <c r="LM13" s="192"/>
+      <c r="LN13" s="192"/>
+      <c r="LO13" s="192"/>
+      <c r="LP13" s="192"/>
+      <c r="LQ13" s="192"/>
+      <c r="LR13" s="192"/>
+      <c r="LS13" s="192"/>
+      <c r="LT13" s="192"/>
+      <c r="LU13" s="192"/>
+      <c r="LV13" s="192"/>
+      <c r="LW13" s="193"/>
+      <c r="LX13" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="LY13" s="173"/>
-      <c r="LZ13" s="173"/>
-      <c r="MA13" s="173"/>
-      <c r="MB13" s="173"/>
-      <c r="MC13" s="173"/>
-      <c r="MD13" s="173"/>
-      <c r="ME13" s="173"/>
-      <c r="MF13" s="173"/>
-      <c r="MG13" s="173"/>
-      <c r="MH13" s="173"/>
-      <c r="MI13" s="173"/>
-      <c r="MJ13" s="173"/>
-      <c r="MK13" s="173"/>
-      <c r="ML13" s="173"/>
-      <c r="MM13" s="173"/>
-      <c r="MN13" s="173"/>
-      <c r="MO13" s="173"/>
-      <c r="MP13" s="173"/>
-      <c r="MQ13" s="173"/>
-      <c r="MR13" s="173"/>
-      <c r="MS13" s="173"/>
-      <c r="MT13" s="173"/>
-      <c r="MU13" s="173"/>
-      <c r="MV13" s="173"/>
-      <c r="MW13" s="173"/>
-      <c r="MX13" s="173"/>
-      <c r="MY13" s="173"/>
-      <c r="MZ13" s="173"/>
-      <c r="NA13" s="174"/>
-      <c r="NB13" s="175" t="s">
+      <c r="LY13" s="192"/>
+      <c r="LZ13" s="192"/>
+      <c r="MA13" s="192"/>
+      <c r="MB13" s="192"/>
+      <c r="MC13" s="192"/>
+      <c r="MD13" s="192"/>
+      <c r="ME13" s="192"/>
+      <c r="MF13" s="192"/>
+      <c r="MG13" s="192"/>
+      <c r="MH13" s="192"/>
+      <c r="MI13" s="192"/>
+      <c r="MJ13" s="192"/>
+      <c r="MK13" s="192"/>
+      <c r="ML13" s="192"/>
+      <c r="MM13" s="192"/>
+      <c r="MN13" s="192"/>
+      <c r="MO13" s="192"/>
+      <c r="MP13" s="192"/>
+      <c r="MQ13" s="192"/>
+      <c r="MR13" s="192"/>
+      <c r="MS13" s="192"/>
+      <c r="MT13" s="192"/>
+      <c r="MU13" s="192"/>
+      <c r="MV13" s="192"/>
+      <c r="MW13" s="192"/>
+      <c r="MX13" s="192"/>
+      <c r="MY13" s="192"/>
+      <c r="MZ13" s="192"/>
+      <c r="NA13" s="193"/>
+      <c r="NB13" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="NC13" s="173"/>
-      <c r="ND13" s="173"/>
-      <c r="NE13" s="173"/>
-      <c r="NF13" s="173"/>
-      <c r="NG13" s="173"/>
-      <c r="NH13" s="173"/>
-      <c r="NI13" s="173"/>
-      <c r="NJ13" s="173"/>
-      <c r="NK13" s="173"/>
-      <c r="NL13" s="173"/>
-      <c r="NM13" s="173"/>
-      <c r="NN13" s="173"/>
-      <c r="NO13" s="173"/>
-      <c r="NP13" s="173"/>
-      <c r="NQ13" s="173"/>
-      <c r="NR13" s="173"/>
-      <c r="NS13" s="173"/>
-      <c r="NT13" s="173"/>
-      <c r="NU13" s="173"/>
-      <c r="NV13" s="173"/>
-      <c r="NW13" s="173"/>
-      <c r="NX13" s="173"/>
-      <c r="NY13" s="173"/>
-      <c r="NZ13" s="173"/>
-      <c r="OA13" s="173"/>
-      <c r="OB13" s="173"/>
-      <c r="OC13" s="173"/>
-      <c r="OD13" s="173"/>
-      <c r="OE13" s="174"/>
-      <c r="OF13" s="175" t="s">
+      <c r="NC13" s="192"/>
+      <c r="ND13" s="192"/>
+      <c r="NE13" s="192"/>
+      <c r="NF13" s="192"/>
+      <c r="NG13" s="192"/>
+      <c r="NH13" s="192"/>
+      <c r="NI13" s="192"/>
+      <c r="NJ13" s="192"/>
+      <c r="NK13" s="192"/>
+      <c r="NL13" s="192"/>
+      <c r="NM13" s="192"/>
+      <c r="NN13" s="192"/>
+      <c r="NO13" s="192"/>
+      <c r="NP13" s="192"/>
+      <c r="NQ13" s="192"/>
+      <c r="NR13" s="192"/>
+      <c r="NS13" s="192"/>
+      <c r="NT13" s="192"/>
+      <c r="NU13" s="192"/>
+      <c r="NV13" s="192"/>
+      <c r="NW13" s="192"/>
+      <c r="NX13" s="192"/>
+      <c r="NY13" s="192"/>
+      <c r="NZ13" s="192"/>
+      <c r="OA13" s="192"/>
+      <c r="OB13" s="192"/>
+      <c r="OC13" s="192"/>
+      <c r="OD13" s="192"/>
+      <c r="OE13" s="193"/>
+      <c r="OF13" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="OG13" s="173"/>
-      <c r="OH13" s="173"/>
-      <c r="OI13" s="173"/>
-      <c r="OJ13" s="173"/>
-      <c r="OK13" s="173"/>
-      <c r="OL13" s="173"/>
-      <c r="OM13" s="173"/>
-      <c r="ON13" s="173"/>
-      <c r="OO13" s="173"/>
-      <c r="OP13" s="173"/>
-      <c r="OQ13" s="173"/>
-      <c r="OR13" s="173"/>
-      <c r="OS13" s="173"/>
-      <c r="OT13" s="173"/>
-      <c r="OU13" s="173"/>
-      <c r="OV13" s="173"/>
-      <c r="OW13" s="173"/>
-      <c r="OX13" s="173"/>
-      <c r="OY13" s="173"/>
-      <c r="OZ13" s="173"/>
-      <c r="PA13" s="173"/>
-      <c r="PB13" s="173"/>
-      <c r="PC13" s="173"/>
-      <c r="PD13" s="173"/>
-      <c r="PE13" s="173"/>
-      <c r="PF13" s="173"/>
-      <c r="PG13" s="173"/>
-      <c r="PH13" s="173"/>
-      <c r="PI13" s="177"/>
-      <c r="PJ13" s="172" t="s">
+      <c r="OG13" s="192"/>
+      <c r="OH13" s="192"/>
+      <c r="OI13" s="192"/>
+      <c r="OJ13" s="192"/>
+      <c r="OK13" s="192"/>
+      <c r="OL13" s="192"/>
+      <c r="OM13" s="192"/>
+      <c r="ON13" s="192"/>
+      <c r="OO13" s="192"/>
+      <c r="OP13" s="192"/>
+      <c r="OQ13" s="192"/>
+      <c r="OR13" s="192"/>
+      <c r="OS13" s="192"/>
+      <c r="OT13" s="192"/>
+      <c r="OU13" s="192"/>
+      <c r="OV13" s="192"/>
+      <c r="OW13" s="192"/>
+      <c r="OX13" s="192"/>
+      <c r="OY13" s="192"/>
+      <c r="OZ13" s="192"/>
+      <c r="PA13" s="192"/>
+      <c r="PB13" s="192"/>
+      <c r="PC13" s="192"/>
+      <c r="PD13" s="192"/>
+      <c r="PE13" s="192"/>
+      <c r="PF13" s="192"/>
+      <c r="PG13" s="192"/>
+      <c r="PH13" s="192"/>
+      <c r="PI13" s="196"/>
+      <c r="PJ13" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="PK13" s="173"/>
-      <c r="PL13" s="173"/>
-      <c r="PM13" s="173"/>
-      <c r="PN13" s="173"/>
-      <c r="PO13" s="173"/>
-      <c r="PP13" s="173"/>
-      <c r="PQ13" s="173"/>
-      <c r="PR13" s="173"/>
-      <c r="PS13" s="173"/>
-      <c r="PT13" s="173"/>
-      <c r="PU13" s="173"/>
-      <c r="PV13" s="173"/>
-      <c r="PW13" s="173"/>
-      <c r="PX13" s="173"/>
-      <c r="PY13" s="173"/>
-      <c r="PZ13" s="173"/>
-      <c r="QA13" s="173"/>
-      <c r="QB13" s="173"/>
-      <c r="QC13" s="173"/>
-      <c r="QD13" s="173"/>
-      <c r="QE13" s="173"/>
-      <c r="QF13" s="173"/>
-      <c r="QG13" s="173"/>
-      <c r="QH13" s="173"/>
-      <c r="QI13" s="173"/>
-      <c r="QJ13" s="173"/>
-      <c r="QK13" s="173"/>
-      <c r="QL13" s="173"/>
-      <c r="QM13" s="174"/>
-      <c r="QN13" s="175" t="s">
+      <c r="PK13" s="192"/>
+      <c r="PL13" s="192"/>
+      <c r="PM13" s="192"/>
+      <c r="PN13" s="192"/>
+      <c r="PO13" s="192"/>
+      <c r="PP13" s="192"/>
+      <c r="PQ13" s="192"/>
+      <c r="PR13" s="192"/>
+      <c r="PS13" s="192"/>
+      <c r="PT13" s="192"/>
+      <c r="PU13" s="192"/>
+      <c r="PV13" s="192"/>
+      <c r="PW13" s="192"/>
+      <c r="PX13" s="192"/>
+      <c r="PY13" s="192"/>
+      <c r="PZ13" s="192"/>
+      <c r="QA13" s="192"/>
+      <c r="QB13" s="192"/>
+      <c r="QC13" s="192"/>
+      <c r="QD13" s="192"/>
+      <c r="QE13" s="192"/>
+      <c r="QF13" s="192"/>
+      <c r="QG13" s="192"/>
+      <c r="QH13" s="192"/>
+      <c r="QI13" s="192"/>
+      <c r="QJ13" s="192"/>
+      <c r="QK13" s="192"/>
+      <c r="QL13" s="192"/>
+      <c r="QM13" s="193"/>
+      <c r="QN13" s="194" t="s">
         <v>21</v>
       </c>
-      <c r="QO13" s="173"/>
-      <c r="QP13" s="173"/>
-      <c r="QQ13" s="173"/>
-      <c r="QR13" s="173"/>
-      <c r="QS13" s="173"/>
-      <c r="QT13" s="173"/>
-      <c r="QU13" s="173"/>
-      <c r="QV13" s="173"/>
-      <c r="QW13" s="173"/>
-      <c r="QX13" s="173"/>
-      <c r="QY13" s="173"/>
-      <c r="QZ13" s="173"/>
-      <c r="RA13" s="173"/>
-      <c r="RB13" s="173"/>
-      <c r="RC13" s="173"/>
-      <c r="RD13" s="173"/>
-      <c r="RE13" s="173"/>
-      <c r="RF13" s="173"/>
-      <c r="RG13" s="173"/>
-      <c r="RH13" s="173"/>
-      <c r="RI13" s="173"/>
-      <c r="RJ13" s="173"/>
-      <c r="RK13" s="173"/>
-      <c r="RL13" s="173"/>
-      <c r="RM13" s="173"/>
-      <c r="RN13" s="173"/>
-      <c r="RO13" s="173"/>
-      <c r="RP13" s="173"/>
-      <c r="RQ13" s="174"/>
-      <c r="RR13" s="175" t="s">
+      <c r="QO13" s="192"/>
+      <c r="QP13" s="192"/>
+      <c r="QQ13" s="192"/>
+      <c r="QR13" s="192"/>
+      <c r="QS13" s="192"/>
+      <c r="QT13" s="192"/>
+      <c r="QU13" s="192"/>
+      <c r="QV13" s="192"/>
+      <c r="QW13" s="192"/>
+      <c r="QX13" s="192"/>
+      <c r="QY13" s="192"/>
+      <c r="QZ13" s="192"/>
+      <c r="RA13" s="192"/>
+      <c r="RB13" s="192"/>
+      <c r="RC13" s="192"/>
+      <c r="RD13" s="192"/>
+      <c r="RE13" s="192"/>
+      <c r="RF13" s="192"/>
+      <c r="RG13" s="192"/>
+      <c r="RH13" s="192"/>
+      <c r="RI13" s="192"/>
+      <c r="RJ13" s="192"/>
+      <c r="RK13" s="192"/>
+      <c r="RL13" s="192"/>
+      <c r="RM13" s="192"/>
+      <c r="RN13" s="192"/>
+      <c r="RO13" s="192"/>
+      <c r="RP13" s="192"/>
+      <c r="RQ13" s="193"/>
+      <c r="RR13" s="194" t="s">
         <v>18</v>
       </c>
-      <c r="RS13" s="173"/>
-      <c r="RT13" s="173"/>
-      <c r="RU13" s="173"/>
-      <c r="RV13" s="173"/>
-      <c r="RW13" s="173"/>
-      <c r="RX13" s="173"/>
-      <c r="RY13" s="173"/>
-      <c r="RZ13" s="173"/>
-      <c r="SA13" s="173"/>
-      <c r="SB13" s="173"/>
-      <c r="SC13" s="173"/>
-      <c r="SD13" s="173"/>
-      <c r="SE13" s="173"/>
-      <c r="SF13" s="173"/>
-      <c r="SG13" s="173"/>
-      <c r="SH13" s="173"/>
-      <c r="SI13" s="173"/>
-      <c r="SJ13" s="173"/>
-      <c r="SK13" s="173"/>
-      <c r="SL13" s="173"/>
-      <c r="SM13" s="173"/>
-      <c r="SN13" s="173"/>
-      <c r="SO13" s="173"/>
-      <c r="SP13" s="173"/>
-      <c r="SQ13" s="173"/>
-      <c r="SR13" s="173"/>
-      <c r="SS13" s="173"/>
-      <c r="ST13" s="173"/>
-      <c r="SU13" s="174"/>
-      <c r="SV13" s="175" t="s">
+      <c r="RS13" s="192"/>
+      <c r="RT13" s="192"/>
+      <c r="RU13" s="192"/>
+      <c r="RV13" s="192"/>
+      <c r="RW13" s="192"/>
+      <c r="RX13" s="192"/>
+      <c r="RY13" s="192"/>
+      <c r="RZ13" s="192"/>
+      <c r="SA13" s="192"/>
+      <c r="SB13" s="192"/>
+      <c r="SC13" s="192"/>
+      <c r="SD13" s="192"/>
+      <c r="SE13" s="192"/>
+      <c r="SF13" s="192"/>
+      <c r="SG13" s="192"/>
+      <c r="SH13" s="192"/>
+      <c r="SI13" s="192"/>
+      <c r="SJ13" s="192"/>
+      <c r="SK13" s="192"/>
+      <c r="SL13" s="192"/>
+      <c r="SM13" s="192"/>
+      <c r="SN13" s="192"/>
+      <c r="SO13" s="192"/>
+      <c r="SP13" s="192"/>
+      <c r="SQ13" s="192"/>
+      <c r="SR13" s="192"/>
+      <c r="SS13" s="192"/>
+      <c r="ST13" s="192"/>
+      <c r="SU13" s="193"/>
+      <c r="SV13" s="194" t="s">
         <v>19</v>
       </c>
-      <c r="SW13" s="173"/>
-      <c r="SX13" s="173"/>
-      <c r="SY13" s="173"/>
-      <c r="SZ13" s="173"/>
-      <c r="TA13" s="173"/>
-      <c r="TB13" s="173"/>
-      <c r="TC13" s="173"/>
-      <c r="TD13" s="173"/>
-      <c r="TE13" s="173"/>
-      <c r="TF13" s="173"/>
-      <c r="TG13" s="173"/>
-      <c r="TH13" s="173"/>
-      <c r="TI13" s="173"/>
-      <c r="TJ13" s="173"/>
-      <c r="TK13" s="173"/>
-      <c r="TL13" s="173"/>
-      <c r="TM13" s="173"/>
-      <c r="TN13" s="173"/>
-      <c r="TO13" s="173"/>
-      <c r="TP13" s="173"/>
-      <c r="TQ13" s="173"/>
-      <c r="TR13" s="173"/>
-      <c r="TS13" s="173"/>
-      <c r="TT13" s="173"/>
-      <c r="TU13" s="173"/>
-      <c r="TV13" s="173"/>
-      <c r="TW13" s="173"/>
-      <c r="TX13" s="173"/>
-      <c r="TY13" s="177"/>
-      <c r="TZ13" s="172" t="s">
+      <c r="SW13" s="192"/>
+      <c r="SX13" s="192"/>
+      <c r="SY13" s="192"/>
+      <c r="SZ13" s="192"/>
+      <c r="TA13" s="192"/>
+      <c r="TB13" s="192"/>
+      <c r="TC13" s="192"/>
+      <c r="TD13" s="192"/>
+      <c r="TE13" s="192"/>
+      <c r="TF13" s="192"/>
+      <c r="TG13" s="192"/>
+      <c r="TH13" s="192"/>
+      <c r="TI13" s="192"/>
+      <c r="TJ13" s="192"/>
+      <c r="TK13" s="192"/>
+      <c r="TL13" s="192"/>
+      <c r="TM13" s="192"/>
+      <c r="TN13" s="192"/>
+      <c r="TO13" s="192"/>
+      <c r="TP13" s="192"/>
+      <c r="TQ13" s="192"/>
+      <c r="TR13" s="192"/>
+      <c r="TS13" s="192"/>
+      <c r="TT13" s="192"/>
+      <c r="TU13" s="192"/>
+      <c r="TV13" s="192"/>
+      <c r="TW13" s="192"/>
+      <c r="TX13" s="192"/>
+      <c r="TY13" s="196"/>
+      <c r="TZ13" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="UA13" s="173"/>
-      <c r="UB13" s="173"/>
-      <c r="UC13" s="173"/>
-      <c r="UD13" s="173"/>
-      <c r="UE13" s="173"/>
-      <c r="UF13" s="173"/>
-      <c r="UG13" s="173"/>
-      <c r="UH13" s="173"/>
-      <c r="UI13" s="173"/>
-      <c r="UJ13" s="173"/>
-      <c r="UK13" s="173"/>
-      <c r="UL13" s="173"/>
-      <c r="UM13" s="173"/>
-      <c r="UN13" s="173"/>
-      <c r="UO13" s="173"/>
-      <c r="UP13" s="173"/>
-      <c r="UQ13" s="173"/>
-      <c r="UR13" s="173"/>
-      <c r="US13" s="173"/>
-      <c r="UT13" s="173"/>
-      <c r="UU13" s="173"/>
-      <c r="UV13" s="173"/>
-      <c r="UW13" s="173"/>
-      <c r="UX13" s="173"/>
-      <c r="UY13" s="173"/>
-      <c r="UZ13" s="173"/>
-      <c r="VA13" s="173"/>
-      <c r="VB13" s="173"/>
-      <c r="VC13" s="177"/>
+      <c r="UA13" s="192"/>
+      <c r="UB13" s="192"/>
+      <c r="UC13" s="192"/>
+      <c r="UD13" s="192"/>
+      <c r="UE13" s="192"/>
+      <c r="UF13" s="192"/>
+      <c r="UG13" s="192"/>
+      <c r="UH13" s="192"/>
+      <c r="UI13" s="192"/>
+      <c r="UJ13" s="192"/>
+      <c r="UK13" s="192"/>
+      <c r="UL13" s="192"/>
+      <c r="UM13" s="192"/>
+      <c r="UN13" s="192"/>
+      <c r="UO13" s="192"/>
+      <c r="UP13" s="192"/>
+      <c r="UQ13" s="192"/>
+      <c r="UR13" s="192"/>
+      <c r="US13" s="192"/>
+      <c r="UT13" s="192"/>
+      <c r="UU13" s="192"/>
+      <c r="UV13" s="192"/>
+      <c r="UW13" s="192"/>
+      <c r="UX13" s="192"/>
+      <c r="UY13" s="192"/>
+      <c r="UZ13" s="192"/>
+      <c r="VA13" s="192"/>
+      <c r="VB13" s="192"/>
+      <c r="VC13" s="196"/>
     </row>
     <row r="14" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="178">
+      <c r="C14" s="186"/>
+      <c r="D14" s="183">
         <v>45414</v>
       </c>
-      <c r="E14" s="179"/>
-      <c r="F14" s="179"/>
-      <c r="G14" s="179"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="179"/>
-      <c r="J14" s="179"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="179"/>
-      <c r="Q14" s="179"/>
-      <c r="R14" s="179"/>
-      <c r="S14" s="179"/>
-      <c r="T14" s="179"/>
-      <c r="U14" s="179"/>
-      <c r="V14" s="179"/>
-      <c r="W14" s="179"/>
-      <c r="X14" s="179"/>
-      <c r="Y14" s="179"/>
-      <c r="Z14" s="179"/>
-      <c r="AA14" s="179"/>
-      <c r="AB14" s="179"/>
-      <c r="AC14" s="179"/>
-      <c r="AD14" s="179"/>
-      <c r="AE14" s="179"/>
-      <c r="AF14" s="179"/>
-      <c r="AG14" s="180"/>
-      <c r="AH14" s="181">
+      <c r="E14" s="181"/>
+      <c r="F14" s="181"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="181"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="181"/>
+      <c r="S14" s="181"/>
+      <c r="T14" s="181"/>
+      <c r="U14" s="181"/>
+      <c r="V14" s="181"/>
+      <c r="W14" s="181"/>
+      <c r="X14" s="181"/>
+      <c r="Y14" s="181"/>
+      <c r="Z14" s="181"/>
+      <c r="AA14" s="181"/>
+      <c r="AB14" s="181"/>
+      <c r="AC14" s="181"/>
+      <c r="AD14" s="181"/>
+      <c r="AE14" s="181"/>
+      <c r="AF14" s="181"/>
+      <c r="AG14" s="185"/>
+      <c r="AH14" s="180">
         <v>45415</v>
       </c>
-      <c r="AI14" s="179"/>
-      <c r="AJ14" s="179"/>
-      <c r="AK14" s="179"/>
-      <c r="AL14" s="179"/>
-      <c r="AM14" s="179"/>
-      <c r="AN14" s="179"/>
-      <c r="AO14" s="179"/>
-      <c r="AP14" s="179"/>
-      <c r="AQ14" s="179"/>
-      <c r="AR14" s="179"/>
-      <c r="AS14" s="179"/>
-      <c r="AT14" s="179"/>
-      <c r="AU14" s="179"/>
-      <c r="AV14" s="179"/>
-      <c r="AW14" s="179"/>
-      <c r="AX14" s="179"/>
-      <c r="AY14" s="179"/>
-      <c r="AZ14" s="179"/>
-      <c r="BA14" s="179"/>
-      <c r="BB14" s="179"/>
-      <c r="BC14" s="179"/>
-      <c r="BD14" s="179"/>
-      <c r="BE14" s="179"/>
-      <c r="BF14" s="179"/>
-      <c r="BG14" s="179"/>
-      <c r="BH14" s="179"/>
-      <c r="BI14" s="179"/>
-      <c r="BJ14" s="179"/>
-      <c r="BK14" s="182"/>
-      <c r="BL14" s="178">
+      <c r="AI14" s="181"/>
+      <c r="AJ14" s="181"/>
+      <c r="AK14" s="181"/>
+      <c r="AL14" s="181"/>
+      <c r="AM14" s="181"/>
+      <c r="AN14" s="181"/>
+      <c r="AO14" s="181"/>
+      <c r="AP14" s="181"/>
+      <c r="AQ14" s="181"/>
+      <c r="AR14" s="181"/>
+      <c r="AS14" s="181"/>
+      <c r="AT14" s="181"/>
+      <c r="AU14" s="181"/>
+      <c r="AV14" s="181"/>
+      <c r="AW14" s="181"/>
+      <c r="AX14" s="181"/>
+      <c r="AY14" s="181"/>
+      <c r="AZ14" s="181"/>
+      <c r="BA14" s="181"/>
+      <c r="BB14" s="181"/>
+      <c r="BC14" s="181"/>
+      <c r="BD14" s="181"/>
+      <c r="BE14" s="181"/>
+      <c r="BF14" s="181"/>
+      <c r="BG14" s="181"/>
+      <c r="BH14" s="181"/>
+      <c r="BI14" s="181"/>
+      <c r="BJ14" s="181"/>
+      <c r="BK14" s="187"/>
+      <c r="BL14" s="183">
         <v>45418</v>
       </c>
-      <c r="BM14" s="179"/>
-      <c r="BN14" s="179"/>
-      <c r="BO14" s="179"/>
-      <c r="BP14" s="179"/>
-      <c r="BQ14" s="179"/>
-      <c r="BR14" s="179"/>
-      <c r="BS14" s="179"/>
-      <c r="BT14" s="179"/>
-      <c r="BU14" s="179"/>
-      <c r="BV14" s="179"/>
-      <c r="BW14" s="179"/>
-      <c r="BX14" s="179"/>
-      <c r="BY14" s="179"/>
-      <c r="BZ14" s="179"/>
-      <c r="CA14" s="179"/>
-      <c r="CB14" s="179"/>
-      <c r="CC14" s="179"/>
-      <c r="CD14" s="179"/>
-      <c r="CE14" s="179"/>
-      <c r="CF14" s="179"/>
-      <c r="CG14" s="179"/>
-      <c r="CH14" s="179"/>
-      <c r="CI14" s="179"/>
-      <c r="CJ14" s="179"/>
-      <c r="CK14" s="179"/>
-      <c r="CL14" s="179"/>
-      <c r="CM14" s="179"/>
-      <c r="CN14" s="179"/>
-      <c r="CO14" s="180"/>
-      <c r="CP14" s="181">
+      <c r="BM14" s="181"/>
+      <c r="BN14" s="181"/>
+      <c r="BO14" s="181"/>
+      <c r="BP14" s="181"/>
+      <c r="BQ14" s="181"/>
+      <c r="BR14" s="181"/>
+      <c r="BS14" s="181"/>
+      <c r="BT14" s="181"/>
+      <c r="BU14" s="181"/>
+      <c r="BV14" s="181"/>
+      <c r="BW14" s="181"/>
+      <c r="BX14" s="181"/>
+      <c r="BY14" s="181"/>
+      <c r="BZ14" s="181"/>
+      <c r="CA14" s="181"/>
+      <c r="CB14" s="181"/>
+      <c r="CC14" s="181"/>
+      <c r="CD14" s="181"/>
+      <c r="CE14" s="181"/>
+      <c r="CF14" s="181"/>
+      <c r="CG14" s="181"/>
+      <c r="CH14" s="181"/>
+      <c r="CI14" s="181"/>
+      <c r="CJ14" s="181"/>
+      <c r="CK14" s="181"/>
+      <c r="CL14" s="181"/>
+      <c r="CM14" s="181"/>
+      <c r="CN14" s="181"/>
+      <c r="CO14" s="185"/>
+      <c r="CP14" s="180">
         <v>45420</v>
       </c>
-      <c r="CQ14" s="179"/>
-      <c r="CR14" s="179"/>
-      <c r="CS14" s="179"/>
-      <c r="CT14" s="179"/>
-      <c r="CU14" s="179"/>
-      <c r="CV14" s="179"/>
-      <c r="CW14" s="179"/>
-      <c r="CX14" s="179"/>
-      <c r="CY14" s="179"/>
-      <c r="CZ14" s="179"/>
-      <c r="DA14" s="179"/>
-      <c r="DB14" s="179"/>
-      <c r="DC14" s="179"/>
-      <c r="DD14" s="179"/>
-      <c r="DE14" s="179"/>
-      <c r="DF14" s="179"/>
-      <c r="DG14" s="179"/>
-      <c r="DH14" s="179"/>
-      <c r="DI14" s="179"/>
-      <c r="DJ14" s="179"/>
-      <c r="DK14" s="179"/>
-      <c r="DL14" s="179"/>
-      <c r="DM14" s="179"/>
-      <c r="DN14" s="179"/>
-      <c r="DO14" s="179"/>
-      <c r="DP14" s="179"/>
-      <c r="DQ14" s="179"/>
-      <c r="DR14" s="179"/>
-      <c r="DS14" s="180"/>
-      <c r="DT14" s="181">
+      <c r="CQ14" s="181"/>
+      <c r="CR14" s="181"/>
+      <c r="CS14" s="181"/>
+      <c r="CT14" s="181"/>
+      <c r="CU14" s="181"/>
+      <c r="CV14" s="181"/>
+      <c r="CW14" s="181"/>
+      <c r="CX14" s="181"/>
+      <c r="CY14" s="181"/>
+      <c r="CZ14" s="181"/>
+      <c r="DA14" s="181"/>
+      <c r="DB14" s="181"/>
+      <c r="DC14" s="181"/>
+      <c r="DD14" s="181"/>
+      <c r="DE14" s="181"/>
+      <c r="DF14" s="181"/>
+      <c r="DG14" s="181"/>
+      <c r="DH14" s="181"/>
+      <c r="DI14" s="181"/>
+      <c r="DJ14" s="181"/>
+      <c r="DK14" s="181"/>
+      <c r="DL14" s="181"/>
+      <c r="DM14" s="181"/>
+      <c r="DN14" s="181"/>
+      <c r="DO14" s="181"/>
+      <c r="DP14" s="181"/>
+      <c r="DQ14" s="181"/>
+      <c r="DR14" s="181"/>
+      <c r="DS14" s="185"/>
+      <c r="DT14" s="180">
         <v>45421</v>
       </c>
-      <c r="DU14" s="179"/>
-      <c r="DV14" s="179"/>
-      <c r="DW14" s="179"/>
-      <c r="DX14" s="179"/>
-      <c r="DY14" s="179"/>
-      <c r="DZ14" s="179"/>
-      <c r="EA14" s="179"/>
-      <c r="EB14" s="179"/>
-      <c r="EC14" s="179"/>
-      <c r="ED14" s="179"/>
-      <c r="EE14" s="179"/>
-      <c r="EF14" s="179"/>
-      <c r="EG14" s="179"/>
-      <c r="EH14" s="179"/>
-      <c r="EI14" s="179"/>
-      <c r="EJ14" s="179"/>
-      <c r="EK14" s="179"/>
-      <c r="EL14" s="179"/>
-      <c r="EM14" s="179"/>
-      <c r="EN14" s="179"/>
-      <c r="EO14" s="179"/>
-      <c r="EP14" s="179"/>
-      <c r="EQ14" s="179"/>
-      <c r="ER14" s="179"/>
-      <c r="ES14" s="179"/>
-      <c r="ET14" s="179"/>
-      <c r="EU14" s="179"/>
-      <c r="EV14" s="179"/>
-      <c r="EW14" s="180"/>
-      <c r="EX14" s="181">
+      <c r="DU14" s="181"/>
+      <c r="DV14" s="181"/>
+      <c r="DW14" s="181"/>
+      <c r="DX14" s="181"/>
+      <c r="DY14" s="181"/>
+      <c r="DZ14" s="181"/>
+      <c r="EA14" s="181"/>
+      <c r="EB14" s="181"/>
+      <c r="EC14" s="181"/>
+      <c r="ED14" s="181"/>
+      <c r="EE14" s="181"/>
+      <c r="EF14" s="181"/>
+      <c r="EG14" s="181"/>
+      <c r="EH14" s="181"/>
+      <c r="EI14" s="181"/>
+      <c r="EJ14" s="181"/>
+      <c r="EK14" s="181"/>
+      <c r="EL14" s="181"/>
+      <c r="EM14" s="181"/>
+      <c r="EN14" s="181"/>
+      <c r="EO14" s="181"/>
+      <c r="EP14" s="181"/>
+      <c r="EQ14" s="181"/>
+      <c r="ER14" s="181"/>
+      <c r="ES14" s="181"/>
+      <c r="ET14" s="181"/>
+      <c r="EU14" s="181"/>
+      <c r="EV14" s="181"/>
+      <c r="EW14" s="185"/>
+      <c r="EX14" s="180">
         <v>45422</v>
       </c>
-      <c r="EY14" s="179"/>
-      <c r="EZ14" s="179"/>
-      <c r="FA14" s="179"/>
-      <c r="FB14" s="179"/>
-      <c r="FC14" s="179"/>
-      <c r="FD14" s="179"/>
-      <c r="FE14" s="179"/>
-      <c r="FF14" s="179"/>
-      <c r="FG14" s="179"/>
-      <c r="FH14" s="179"/>
-      <c r="FI14" s="179"/>
-      <c r="FJ14" s="179"/>
-      <c r="FK14" s="179"/>
-      <c r="FL14" s="179"/>
-      <c r="FM14" s="179"/>
-      <c r="FN14" s="179"/>
-      <c r="FO14" s="179"/>
-      <c r="FP14" s="179"/>
-      <c r="FQ14" s="179"/>
-      <c r="FR14" s="179"/>
-      <c r="FS14" s="179"/>
-      <c r="FT14" s="179"/>
-      <c r="FU14" s="179"/>
-      <c r="FV14" s="179"/>
-      <c r="FW14" s="179"/>
-      <c r="FX14" s="179"/>
-      <c r="FY14" s="179"/>
-      <c r="FZ14" s="179"/>
-      <c r="GA14" s="182"/>
-      <c r="GB14" s="178">
+      <c r="EY14" s="181"/>
+      <c r="EZ14" s="181"/>
+      <c r="FA14" s="181"/>
+      <c r="FB14" s="181"/>
+      <c r="FC14" s="181"/>
+      <c r="FD14" s="181"/>
+      <c r="FE14" s="181"/>
+      <c r="FF14" s="181"/>
+      <c r="FG14" s="181"/>
+      <c r="FH14" s="181"/>
+      <c r="FI14" s="181"/>
+      <c r="FJ14" s="181"/>
+      <c r="FK14" s="181"/>
+      <c r="FL14" s="181"/>
+      <c r="FM14" s="181"/>
+      <c r="FN14" s="181"/>
+      <c r="FO14" s="181"/>
+      <c r="FP14" s="181"/>
+      <c r="FQ14" s="181"/>
+      <c r="FR14" s="181"/>
+      <c r="FS14" s="181"/>
+      <c r="FT14" s="181"/>
+      <c r="FU14" s="181"/>
+      <c r="FV14" s="181"/>
+      <c r="FW14" s="181"/>
+      <c r="FX14" s="181"/>
+      <c r="FY14" s="181"/>
+      <c r="FZ14" s="181"/>
+      <c r="GA14" s="187"/>
+      <c r="GB14" s="183">
         <v>45425</v>
       </c>
-      <c r="GC14" s="179"/>
-      <c r="GD14" s="179"/>
-      <c r="GE14" s="179"/>
-      <c r="GF14" s="179"/>
-      <c r="GG14" s="179"/>
-      <c r="GH14" s="179"/>
-      <c r="GI14" s="179"/>
-      <c r="GJ14" s="179"/>
-      <c r="GK14" s="179"/>
-      <c r="GL14" s="179"/>
-      <c r="GM14" s="179"/>
-      <c r="GN14" s="179"/>
-      <c r="GO14" s="179"/>
-      <c r="GP14" s="179"/>
-      <c r="GQ14" s="179"/>
-      <c r="GR14" s="179"/>
-      <c r="GS14" s="179"/>
-      <c r="GT14" s="179"/>
-      <c r="GU14" s="179"/>
-      <c r="GV14" s="179"/>
-      <c r="GW14" s="179"/>
-      <c r="GX14" s="179"/>
-      <c r="GY14" s="179"/>
-      <c r="GZ14" s="179"/>
-      <c r="HA14" s="179"/>
-      <c r="HB14" s="179"/>
-      <c r="HC14" s="179"/>
-      <c r="HD14" s="179"/>
-      <c r="HE14" s="180"/>
-      <c r="HF14" s="181">
+      <c r="GC14" s="181"/>
+      <c r="GD14" s="181"/>
+      <c r="GE14" s="181"/>
+      <c r="GF14" s="181"/>
+      <c r="GG14" s="181"/>
+      <c r="GH14" s="181"/>
+      <c r="GI14" s="181"/>
+      <c r="GJ14" s="181"/>
+      <c r="GK14" s="181"/>
+      <c r="GL14" s="181"/>
+      <c r="GM14" s="181"/>
+      <c r="GN14" s="181"/>
+      <c r="GO14" s="181"/>
+      <c r="GP14" s="181"/>
+      <c r="GQ14" s="181"/>
+      <c r="GR14" s="181"/>
+      <c r="GS14" s="181"/>
+      <c r="GT14" s="181"/>
+      <c r="GU14" s="181"/>
+      <c r="GV14" s="181"/>
+      <c r="GW14" s="181"/>
+      <c r="GX14" s="181"/>
+      <c r="GY14" s="181"/>
+      <c r="GZ14" s="181"/>
+      <c r="HA14" s="181"/>
+      <c r="HB14" s="181"/>
+      <c r="HC14" s="181"/>
+      <c r="HD14" s="181"/>
+      <c r="HE14" s="185"/>
+      <c r="HF14" s="180">
         <v>45427</v>
       </c>
-      <c r="HG14" s="179"/>
-      <c r="HH14" s="179"/>
-      <c r="HI14" s="179"/>
-      <c r="HJ14" s="179"/>
-      <c r="HK14" s="179"/>
-      <c r="HL14" s="179"/>
-      <c r="HM14" s="179"/>
-      <c r="HN14" s="179"/>
-      <c r="HO14" s="179"/>
-      <c r="HP14" s="179"/>
-      <c r="HQ14" s="179"/>
-      <c r="HR14" s="179"/>
-      <c r="HS14" s="179"/>
-      <c r="HT14" s="179"/>
-      <c r="HU14" s="179"/>
-      <c r="HV14" s="179"/>
-      <c r="HW14" s="179"/>
-      <c r="HX14" s="179"/>
-      <c r="HY14" s="179"/>
-      <c r="HZ14" s="179"/>
-      <c r="IA14" s="179"/>
-      <c r="IB14" s="179"/>
-      <c r="IC14" s="179"/>
-      <c r="ID14" s="179"/>
-      <c r="IE14" s="179"/>
-      <c r="IF14" s="179"/>
-      <c r="IG14" s="179"/>
-      <c r="IH14" s="179"/>
-      <c r="II14" s="180"/>
-      <c r="IJ14" s="181">
+      <c r="HG14" s="181"/>
+      <c r="HH14" s="181"/>
+      <c r="HI14" s="181"/>
+      <c r="HJ14" s="181"/>
+      <c r="HK14" s="181"/>
+      <c r="HL14" s="181"/>
+      <c r="HM14" s="181"/>
+      <c r="HN14" s="181"/>
+      <c r="HO14" s="181"/>
+      <c r="HP14" s="181"/>
+      <c r="HQ14" s="181"/>
+      <c r="HR14" s="181"/>
+      <c r="HS14" s="181"/>
+      <c r="HT14" s="181"/>
+      <c r="HU14" s="181"/>
+      <c r="HV14" s="181"/>
+      <c r="HW14" s="181"/>
+      <c r="HX14" s="181"/>
+      <c r="HY14" s="181"/>
+      <c r="HZ14" s="181"/>
+      <c r="IA14" s="181"/>
+      <c r="IB14" s="181"/>
+      <c r="IC14" s="181"/>
+      <c r="ID14" s="181"/>
+      <c r="IE14" s="181"/>
+      <c r="IF14" s="181"/>
+      <c r="IG14" s="181"/>
+      <c r="IH14" s="181"/>
+      <c r="II14" s="185"/>
+      <c r="IJ14" s="180">
         <v>45428</v>
       </c>
-      <c r="IK14" s="179"/>
-      <c r="IL14" s="179"/>
-      <c r="IM14" s="179"/>
-      <c r="IN14" s="179"/>
-      <c r="IO14" s="179"/>
-      <c r="IP14" s="179"/>
-      <c r="IQ14" s="179"/>
-      <c r="IR14" s="179"/>
-      <c r="IS14" s="179"/>
-      <c r="IT14" s="179"/>
-      <c r="IU14" s="179"/>
-      <c r="IV14" s="179"/>
-      <c r="IW14" s="179"/>
-      <c r="IX14" s="179"/>
-      <c r="IY14" s="179"/>
-      <c r="IZ14" s="179"/>
-      <c r="JA14" s="179"/>
-      <c r="JB14" s="179"/>
-      <c r="JC14" s="179"/>
-      <c r="JD14" s="179"/>
-      <c r="JE14" s="179"/>
-      <c r="JF14" s="179"/>
-      <c r="JG14" s="179"/>
-      <c r="JH14" s="179"/>
-      <c r="JI14" s="179"/>
-      <c r="JJ14" s="179"/>
-      <c r="JK14" s="179"/>
-      <c r="JL14" s="179"/>
-      <c r="JM14" s="180"/>
-      <c r="JN14" s="181">
+      <c r="IK14" s="181"/>
+      <c r="IL14" s="181"/>
+      <c r="IM14" s="181"/>
+      <c r="IN14" s="181"/>
+      <c r="IO14" s="181"/>
+      <c r="IP14" s="181"/>
+      <c r="IQ14" s="181"/>
+      <c r="IR14" s="181"/>
+      <c r="IS14" s="181"/>
+      <c r="IT14" s="181"/>
+      <c r="IU14" s="181"/>
+      <c r="IV14" s="181"/>
+      <c r="IW14" s="181"/>
+      <c r="IX14" s="181"/>
+      <c r="IY14" s="181"/>
+      <c r="IZ14" s="181"/>
+      <c r="JA14" s="181"/>
+      <c r="JB14" s="181"/>
+      <c r="JC14" s="181"/>
+      <c r="JD14" s="181"/>
+      <c r="JE14" s="181"/>
+      <c r="JF14" s="181"/>
+      <c r="JG14" s="181"/>
+      <c r="JH14" s="181"/>
+      <c r="JI14" s="181"/>
+      <c r="JJ14" s="181"/>
+      <c r="JK14" s="181"/>
+      <c r="JL14" s="181"/>
+      <c r="JM14" s="185"/>
+      <c r="JN14" s="180">
         <v>45429</v>
       </c>
-      <c r="JO14" s="179"/>
-      <c r="JP14" s="179"/>
-      <c r="JQ14" s="179"/>
-      <c r="JR14" s="179"/>
-      <c r="JS14" s="179"/>
-      <c r="JT14" s="179"/>
-      <c r="JU14" s="179"/>
-      <c r="JV14" s="179"/>
-      <c r="JW14" s="179"/>
-      <c r="JX14" s="179"/>
-      <c r="JY14" s="179"/>
-      <c r="JZ14" s="179"/>
-      <c r="KA14" s="179"/>
-      <c r="KB14" s="179"/>
-      <c r="KC14" s="179"/>
-      <c r="KD14" s="179"/>
-      <c r="KE14" s="179"/>
-      <c r="KF14" s="179"/>
-      <c r="KG14" s="179"/>
-      <c r="KH14" s="179"/>
-      <c r="KI14" s="179"/>
-      <c r="KJ14" s="179"/>
-      <c r="KK14" s="179"/>
-      <c r="KL14" s="179"/>
-      <c r="KM14" s="179"/>
-      <c r="KN14" s="179"/>
-      <c r="KO14" s="179"/>
-      <c r="KP14" s="179"/>
-      <c r="KQ14" s="183"/>
-      <c r="KR14" s="170" t="s">
+      <c r="JO14" s="181"/>
+      <c r="JP14" s="181"/>
+      <c r="JQ14" s="181"/>
+      <c r="JR14" s="181"/>
+      <c r="JS14" s="181"/>
+      <c r="JT14" s="181"/>
+      <c r="JU14" s="181"/>
+      <c r="JV14" s="181"/>
+      <c r="JW14" s="181"/>
+      <c r="JX14" s="181"/>
+      <c r="JY14" s="181"/>
+      <c r="JZ14" s="181"/>
+      <c r="KA14" s="181"/>
+      <c r="KB14" s="181"/>
+      <c r="KC14" s="181"/>
+      <c r="KD14" s="181"/>
+      <c r="KE14" s="181"/>
+      <c r="KF14" s="181"/>
+      <c r="KG14" s="181"/>
+      <c r="KH14" s="181"/>
+      <c r="KI14" s="181"/>
+      <c r="KJ14" s="181"/>
+      <c r="KK14" s="181"/>
+      <c r="KL14" s="181"/>
+      <c r="KM14" s="181"/>
+      <c r="KN14" s="181"/>
+      <c r="KO14" s="181"/>
+      <c r="KP14" s="181"/>
+      <c r="KQ14" s="182"/>
+      <c r="KR14" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="KS14" s="219"/>
-      <c r="KT14" s="178">
+      <c r="KS14" s="151"/>
+      <c r="KT14" s="183">
         <v>45432</v>
       </c>
-      <c r="KU14" s="179"/>
-      <c r="KV14" s="179"/>
-      <c r="KW14" s="179"/>
-      <c r="KX14" s="179"/>
-      <c r="KY14" s="179"/>
-      <c r="KZ14" s="179"/>
-      <c r="LA14" s="179"/>
-      <c r="LB14" s="179"/>
-      <c r="LC14" s="179"/>
-      <c r="LD14" s="179"/>
-      <c r="LE14" s="179"/>
-      <c r="LF14" s="179"/>
-      <c r="LG14" s="179"/>
-      <c r="LH14" s="179"/>
-      <c r="LI14" s="179"/>
-      <c r="LJ14" s="179"/>
-      <c r="LK14" s="179"/>
-      <c r="LL14" s="179"/>
-      <c r="LM14" s="179"/>
-      <c r="LN14" s="179"/>
-      <c r="LO14" s="179"/>
-      <c r="LP14" s="179"/>
-      <c r="LQ14" s="179"/>
-      <c r="LR14" s="179"/>
-      <c r="LS14" s="179"/>
-      <c r="LT14" s="179"/>
-      <c r="LU14" s="179"/>
-      <c r="LV14" s="179"/>
-      <c r="LW14" s="180"/>
-      <c r="LX14" s="181">
+      <c r="KU14" s="181"/>
+      <c r="KV14" s="181"/>
+      <c r="KW14" s="181"/>
+      <c r="KX14" s="181"/>
+      <c r="KY14" s="181"/>
+      <c r="KZ14" s="181"/>
+      <c r="LA14" s="181"/>
+      <c r="LB14" s="181"/>
+      <c r="LC14" s="181"/>
+      <c r="LD14" s="181"/>
+      <c r="LE14" s="181"/>
+      <c r="LF14" s="181"/>
+      <c r="LG14" s="181"/>
+      <c r="LH14" s="181"/>
+      <c r="LI14" s="181"/>
+      <c r="LJ14" s="181"/>
+      <c r="LK14" s="181"/>
+      <c r="LL14" s="181"/>
+      <c r="LM14" s="181"/>
+      <c r="LN14" s="181"/>
+      <c r="LO14" s="181"/>
+      <c r="LP14" s="181"/>
+      <c r="LQ14" s="181"/>
+      <c r="LR14" s="181"/>
+      <c r="LS14" s="181"/>
+      <c r="LT14" s="181"/>
+      <c r="LU14" s="181"/>
+      <c r="LV14" s="181"/>
+      <c r="LW14" s="185"/>
+      <c r="LX14" s="180">
         <v>45434</v>
       </c>
-      <c r="LY14" s="179"/>
-      <c r="LZ14" s="179"/>
-      <c r="MA14" s="179"/>
-      <c r="MB14" s="179"/>
-      <c r="MC14" s="179"/>
-      <c r="MD14" s="179"/>
-      <c r="ME14" s="179"/>
-      <c r="MF14" s="179"/>
-      <c r="MG14" s="179"/>
-      <c r="MH14" s="179"/>
-      <c r="MI14" s="179"/>
-      <c r="MJ14" s="179"/>
-      <c r="MK14" s="179"/>
-      <c r="ML14" s="179"/>
-      <c r="MM14" s="179"/>
-      <c r="MN14" s="179"/>
-      <c r="MO14" s="179"/>
-      <c r="MP14" s="179"/>
-      <c r="MQ14" s="179"/>
-      <c r="MR14" s="179"/>
-      <c r="MS14" s="179"/>
-      <c r="MT14" s="179"/>
-      <c r="MU14" s="179"/>
-      <c r="MV14" s="179"/>
-      <c r="MW14" s="179"/>
-      <c r="MX14" s="179"/>
-      <c r="MY14" s="179"/>
-      <c r="MZ14" s="179"/>
-      <c r="NA14" s="180"/>
-      <c r="NB14" s="181">
+      <c r="LY14" s="181"/>
+      <c r="LZ14" s="181"/>
+      <c r="MA14" s="181"/>
+      <c r="MB14" s="181"/>
+      <c r="MC14" s="181"/>
+      <c r="MD14" s="181"/>
+      <c r="ME14" s="181"/>
+      <c r="MF14" s="181"/>
+      <c r="MG14" s="181"/>
+      <c r="MH14" s="181"/>
+      <c r="MI14" s="181"/>
+      <c r="MJ14" s="181"/>
+      <c r="MK14" s="181"/>
+      <c r="ML14" s="181"/>
+      <c r="MM14" s="181"/>
+      <c r="MN14" s="181"/>
+      <c r="MO14" s="181"/>
+      <c r="MP14" s="181"/>
+      <c r="MQ14" s="181"/>
+      <c r="MR14" s="181"/>
+      <c r="MS14" s="181"/>
+      <c r="MT14" s="181"/>
+      <c r="MU14" s="181"/>
+      <c r="MV14" s="181"/>
+      <c r="MW14" s="181"/>
+      <c r="MX14" s="181"/>
+      <c r="MY14" s="181"/>
+      <c r="MZ14" s="181"/>
+      <c r="NA14" s="185"/>
+      <c r="NB14" s="180">
         <v>45435</v>
       </c>
-      <c r="NC14" s="179"/>
-      <c r="ND14" s="179"/>
-      <c r="NE14" s="179"/>
-      <c r="NF14" s="179"/>
-      <c r="NG14" s="179"/>
-      <c r="NH14" s="179"/>
-      <c r="NI14" s="179"/>
-      <c r="NJ14" s="179"/>
-      <c r="NK14" s="179"/>
-      <c r="NL14" s="179"/>
-      <c r="NM14" s="179"/>
-      <c r="NN14" s="179"/>
-      <c r="NO14" s="179"/>
-      <c r="NP14" s="179"/>
-      <c r="NQ14" s="179"/>
-      <c r="NR14" s="179"/>
-      <c r="NS14" s="179"/>
-      <c r="NT14" s="179"/>
-      <c r="NU14" s="179"/>
-      <c r="NV14" s="179"/>
-      <c r="NW14" s="179"/>
-      <c r="NX14" s="179"/>
-      <c r="NY14" s="179"/>
-      <c r="NZ14" s="179"/>
-      <c r="OA14" s="179"/>
-      <c r="OB14" s="179"/>
-      <c r="OC14" s="179"/>
-      <c r="OD14" s="179"/>
-      <c r="OE14" s="180"/>
-      <c r="OF14" s="181">
+      <c r="NC14" s="181"/>
+      <c r="ND14" s="181"/>
+      <c r="NE14" s="181"/>
+      <c r="NF14" s="181"/>
+      <c r="NG14" s="181"/>
+      <c r="NH14" s="181"/>
+      <c r="NI14" s="181"/>
+      <c r="NJ14" s="181"/>
+      <c r="NK14" s="181"/>
+      <c r="NL14" s="181"/>
+      <c r="NM14" s="181"/>
+      <c r="NN14" s="181"/>
+      <c r="NO14" s="181"/>
+      <c r="NP14" s="181"/>
+      <c r="NQ14" s="181"/>
+      <c r="NR14" s="181"/>
+      <c r="NS14" s="181"/>
+      <c r="NT14" s="181"/>
+      <c r="NU14" s="181"/>
+      <c r="NV14" s="181"/>
+      <c r="NW14" s="181"/>
+      <c r="NX14" s="181"/>
+      <c r="NY14" s="181"/>
+      <c r="NZ14" s="181"/>
+      <c r="OA14" s="181"/>
+      <c r="OB14" s="181"/>
+      <c r="OC14" s="181"/>
+      <c r="OD14" s="181"/>
+      <c r="OE14" s="185"/>
+      <c r="OF14" s="180">
         <v>45436</v>
       </c>
-      <c r="OG14" s="179"/>
-      <c r="OH14" s="179"/>
-      <c r="OI14" s="179"/>
-      <c r="OJ14" s="179"/>
-      <c r="OK14" s="179"/>
-      <c r="OL14" s="179"/>
-      <c r="OM14" s="179"/>
-      <c r="ON14" s="179"/>
-      <c r="OO14" s="179"/>
-      <c r="OP14" s="179"/>
-      <c r="OQ14" s="179"/>
-      <c r="OR14" s="179"/>
-      <c r="OS14" s="179"/>
-      <c r="OT14" s="179"/>
-      <c r="OU14" s="179"/>
-      <c r="OV14" s="179"/>
-      <c r="OW14" s="179"/>
-      <c r="OX14" s="179"/>
-      <c r="OY14" s="179"/>
-      <c r="OZ14" s="179"/>
-      <c r="PA14" s="179"/>
-      <c r="PB14" s="179"/>
-      <c r="PC14" s="179"/>
-      <c r="PD14" s="179"/>
-      <c r="PE14" s="179"/>
-      <c r="PF14" s="179"/>
-      <c r="PG14" s="179"/>
-      <c r="PH14" s="179"/>
-      <c r="PI14" s="183"/>
-      <c r="PJ14" s="178">
+      <c r="OG14" s="181"/>
+      <c r="OH14" s="181"/>
+      <c r="OI14" s="181"/>
+      <c r="OJ14" s="181"/>
+      <c r="OK14" s="181"/>
+      <c r="OL14" s="181"/>
+      <c r="OM14" s="181"/>
+      <c r="ON14" s="181"/>
+      <c r="OO14" s="181"/>
+      <c r="OP14" s="181"/>
+      <c r="OQ14" s="181"/>
+      <c r="OR14" s="181"/>
+      <c r="OS14" s="181"/>
+      <c r="OT14" s="181"/>
+      <c r="OU14" s="181"/>
+      <c r="OV14" s="181"/>
+      <c r="OW14" s="181"/>
+      <c r="OX14" s="181"/>
+      <c r="OY14" s="181"/>
+      <c r="OZ14" s="181"/>
+      <c r="PA14" s="181"/>
+      <c r="PB14" s="181"/>
+      <c r="PC14" s="181"/>
+      <c r="PD14" s="181"/>
+      <c r="PE14" s="181"/>
+      <c r="PF14" s="181"/>
+      <c r="PG14" s="181"/>
+      <c r="PH14" s="181"/>
+      <c r="PI14" s="182"/>
+      <c r="PJ14" s="183">
         <v>45439</v>
       </c>
-      <c r="PK14" s="179"/>
-      <c r="PL14" s="179"/>
-      <c r="PM14" s="179"/>
-      <c r="PN14" s="179"/>
-      <c r="PO14" s="179"/>
-      <c r="PP14" s="179"/>
-      <c r="PQ14" s="179"/>
-      <c r="PR14" s="179"/>
-      <c r="PS14" s="179"/>
-      <c r="PT14" s="179"/>
-      <c r="PU14" s="179"/>
-      <c r="PV14" s="179"/>
-      <c r="PW14" s="179"/>
-      <c r="PX14" s="179"/>
-      <c r="PY14" s="179"/>
-      <c r="PZ14" s="179"/>
-      <c r="QA14" s="179"/>
-      <c r="QB14" s="179"/>
-      <c r="QC14" s="179"/>
-      <c r="QD14" s="179"/>
-      <c r="QE14" s="179"/>
-      <c r="QF14" s="179"/>
-      <c r="QG14" s="179"/>
-      <c r="QH14" s="179"/>
-      <c r="QI14" s="179"/>
-      <c r="QJ14" s="179"/>
-      <c r="QK14" s="179"/>
-      <c r="QL14" s="179"/>
-      <c r="QM14" s="180"/>
-      <c r="QN14" s="181">
+      <c r="PK14" s="181"/>
+      <c r="PL14" s="181"/>
+      <c r="PM14" s="181"/>
+      <c r="PN14" s="181"/>
+      <c r="PO14" s="181"/>
+      <c r="PP14" s="181"/>
+      <c r="PQ14" s="181"/>
+      <c r="PR14" s="181"/>
+      <c r="PS14" s="181"/>
+      <c r="PT14" s="181"/>
+      <c r="PU14" s="181"/>
+      <c r="PV14" s="181"/>
+      <c r="PW14" s="181"/>
+      <c r="PX14" s="181"/>
+      <c r="PY14" s="181"/>
+      <c r="PZ14" s="181"/>
+      <c r="QA14" s="181"/>
+      <c r="QB14" s="181"/>
+      <c r="QC14" s="181"/>
+      <c r="QD14" s="181"/>
+      <c r="QE14" s="181"/>
+      <c r="QF14" s="181"/>
+      <c r="QG14" s="181"/>
+      <c r="QH14" s="181"/>
+      <c r="QI14" s="181"/>
+      <c r="QJ14" s="181"/>
+      <c r="QK14" s="181"/>
+      <c r="QL14" s="181"/>
+      <c r="QM14" s="185"/>
+      <c r="QN14" s="180">
         <v>45441</v>
       </c>
-      <c r="QO14" s="179"/>
-      <c r="QP14" s="179"/>
-      <c r="QQ14" s="179"/>
-      <c r="QR14" s="179"/>
-      <c r="QS14" s="179"/>
-      <c r="QT14" s="179"/>
-      <c r="QU14" s="179"/>
-      <c r="QV14" s="179"/>
-      <c r="QW14" s="179"/>
-      <c r="QX14" s="179"/>
-      <c r="QY14" s="179"/>
-      <c r="QZ14" s="179"/>
-      <c r="RA14" s="179"/>
-      <c r="RB14" s="179"/>
-      <c r="RC14" s="179"/>
-      <c r="RD14" s="179"/>
-      <c r="RE14" s="179"/>
-      <c r="RF14" s="179"/>
-      <c r="RG14" s="179"/>
-      <c r="RH14" s="179"/>
-      <c r="RI14" s="179"/>
-      <c r="RJ14" s="179"/>
-      <c r="RK14" s="179"/>
-      <c r="RL14" s="179"/>
-      <c r="RM14" s="179"/>
-      <c r="RN14" s="179"/>
-      <c r="RO14" s="179"/>
-      <c r="RP14" s="179"/>
-      <c r="RQ14" s="180"/>
-      <c r="RR14" s="181">
+      <c r="QO14" s="181"/>
+      <c r="QP14" s="181"/>
+      <c r="QQ14" s="181"/>
+      <c r="QR14" s="181"/>
+      <c r="QS14" s="181"/>
+      <c r="QT14" s="181"/>
+      <c r="QU14" s="181"/>
+      <c r="QV14" s="181"/>
+      <c r="QW14" s="181"/>
+      <c r="QX14" s="181"/>
+      <c r="QY14" s="181"/>
+      <c r="QZ14" s="181"/>
+      <c r="RA14" s="181"/>
+      <c r="RB14" s="181"/>
+      <c r="RC14" s="181"/>
+      <c r="RD14" s="181"/>
+      <c r="RE14" s="181"/>
+      <c r="RF14" s="181"/>
+      <c r="RG14" s="181"/>
+      <c r="RH14" s="181"/>
+      <c r="RI14" s="181"/>
+      <c r="RJ14" s="181"/>
+      <c r="RK14" s="181"/>
+      <c r="RL14" s="181"/>
+      <c r="RM14" s="181"/>
+      <c r="RN14" s="181"/>
+      <c r="RO14" s="181"/>
+      <c r="RP14" s="181"/>
+      <c r="RQ14" s="185"/>
+      <c r="RR14" s="180">
         <v>45442</v>
       </c>
-      <c r="RS14" s="179"/>
-      <c r="RT14" s="179"/>
-      <c r="RU14" s="179"/>
-      <c r="RV14" s="179"/>
-      <c r="RW14" s="179"/>
-      <c r="RX14" s="179"/>
-      <c r="RY14" s="179"/>
-      <c r="RZ14" s="179"/>
-      <c r="SA14" s="179"/>
-      <c r="SB14" s="179"/>
-      <c r="SC14" s="179"/>
-      <c r="SD14" s="179"/>
-      <c r="SE14" s="179"/>
-      <c r="SF14" s="179"/>
-      <c r="SG14" s="179"/>
-      <c r="SH14" s="179"/>
-      <c r="SI14" s="179"/>
-      <c r="SJ14" s="179"/>
-      <c r="SK14" s="179"/>
-      <c r="SL14" s="179"/>
-      <c r="SM14" s="179"/>
-      <c r="SN14" s="179"/>
-      <c r="SO14" s="179"/>
-      <c r="SP14" s="179"/>
-      <c r="SQ14" s="179"/>
-      <c r="SR14" s="179"/>
-      <c r="SS14" s="179"/>
-      <c r="ST14" s="179"/>
-      <c r="SU14" s="180"/>
-      <c r="SV14" s="181">
+      <c r="RS14" s="181"/>
+      <c r="RT14" s="181"/>
+      <c r="RU14" s="181"/>
+      <c r="RV14" s="181"/>
+      <c r="RW14" s="181"/>
+      <c r="RX14" s="181"/>
+      <c r="RY14" s="181"/>
+      <c r="RZ14" s="181"/>
+      <c r="SA14" s="181"/>
+      <c r="SB14" s="181"/>
+      <c r="SC14" s="181"/>
+      <c r="SD14" s="181"/>
+      <c r="SE14" s="181"/>
+      <c r="SF14" s="181"/>
+      <c r="SG14" s="181"/>
+      <c r="SH14" s="181"/>
+      <c r="SI14" s="181"/>
+      <c r="SJ14" s="181"/>
+      <c r="SK14" s="181"/>
+      <c r="SL14" s="181"/>
+      <c r="SM14" s="181"/>
+      <c r="SN14" s="181"/>
+      <c r="SO14" s="181"/>
+      <c r="SP14" s="181"/>
+      <c r="SQ14" s="181"/>
+      <c r="SR14" s="181"/>
+      <c r="SS14" s="181"/>
+      <c r="ST14" s="181"/>
+      <c r="SU14" s="185"/>
+      <c r="SV14" s="180">
         <v>45443</v>
       </c>
-      <c r="SW14" s="179"/>
-      <c r="SX14" s="179"/>
-      <c r="SY14" s="179"/>
-      <c r="SZ14" s="179"/>
-      <c r="TA14" s="179"/>
-      <c r="TB14" s="179"/>
-      <c r="TC14" s="179"/>
-      <c r="TD14" s="179"/>
-      <c r="TE14" s="179"/>
-      <c r="TF14" s="179"/>
-      <c r="TG14" s="179"/>
-      <c r="TH14" s="179"/>
-      <c r="TI14" s="179"/>
-      <c r="TJ14" s="179"/>
-      <c r="TK14" s="179"/>
-      <c r="TL14" s="179"/>
-      <c r="TM14" s="179"/>
-      <c r="TN14" s="179"/>
-      <c r="TO14" s="179"/>
-      <c r="TP14" s="179"/>
-      <c r="TQ14" s="179"/>
-      <c r="TR14" s="179"/>
-      <c r="TS14" s="179"/>
-      <c r="TT14" s="179"/>
-      <c r="TU14" s="179"/>
-      <c r="TV14" s="179"/>
-      <c r="TW14" s="179"/>
-      <c r="TX14" s="179"/>
-      <c r="TY14" s="183"/>
-      <c r="TZ14" s="178">
+      <c r="SW14" s="181"/>
+      <c r="SX14" s="181"/>
+      <c r="SY14" s="181"/>
+      <c r="SZ14" s="181"/>
+      <c r="TA14" s="181"/>
+      <c r="TB14" s="181"/>
+      <c r="TC14" s="181"/>
+      <c r="TD14" s="181"/>
+      <c r="TE14" s="181"/>
+      <c r="TF14" s="181"/>
+      <c r="TG14" s="181"/>
+      <c r="TH14" s="181"/>
+      <c r="TI14" s="181"/>
+      <c r="TJ14" s="181"/>
+      <c r="TK14" s="181"/>
+      <c r="TL14" s="181"/>
+      <c r="TM14" s="181"/>
+      <c r="TN14" s="181"/>
+      <c r="TO14" s="181"/>
+      <c r="TP14" s="181"/>
+      <c r="TQ14" s="181"/>
+      <c r="TR14" s="181"/>
+      <c r="TS14" s="181"/>
+      <c r="TT14" s="181"/>
+      <c r="TU14" s="181"/>
+      <c r="TV14" s="181"/>
+      <c r="TW14" s="181"/>
+      <c r="TX14" s="181"/>
+      <c r="TY14" s="182"/>
+      <c r="TZ14" s="183">
         <v>45446</v>
       </c>
-      <c r="UA14" s="179"/>
-      <c r="UB14" s="179"/>
-      <c r="UC14" s="179"/>
-      <c r="UD14" s="179"/>
-      <c r="UE14" s="179"/>
-      <c r="UF14" s="179"/>
-      <c r="UG14" s="179"/>
-      <c r="UH14" s="179"/>
-      <c r="UI14" s="179"/>
-      <c r="UJ14" s="179"/>
-      <c r="UK14" s="179"/>
-      <c r="UL14" s="179"/>
-      <c r="UM14" s="179"/>
-      <c r="UN14" s="179"/>
-      <c r="UO14" s="179"/>
-      <c r="UP14" s="179"/>
-      <c r="UQ14" s="179"/>
-      <c r="UR14" s="179"/>
-      <c r="US14" s="179"/>
-      <c r="UT14" s="179"/>
-      <c r="UU14" s="179"/>
-      <c r="UV14" s="179"/>
-      <c r="UW14" s="179"/>
-      <c r="UX14" s="179"/>
-      <c r="UY14" s="179"/>
-      <c r="UZ14" s="179"/>
-      <c r="VA14" s="179"/>
-      <c r="VB14" s="179"/>
-      <c r="VC14" s="183"/>
+      <c r="UA14" s="181"/>
+      <c r="UB14" s="181"/>
+      <c r="UC14" s="181"/>
+      <c r="UD14" s="181"/>
+      <c r="UE14" s="181"/>
+      <c r="UF14" s="181"/>
+      <c r="UG14" s="181"/>
+      <c r="UH14" s="181"/>
+      <c r="UI14" s="181"/>
+      <c r="UJ14" s="181"/>
+      <c r="UK14" s="181"/>
+      <c r="UL14" s="181"/>
+      <c r="UM14" s="181"/>
+      <c r="UN14" s="181"/>
+      <c r="UO14" s="181"/>
+      <c r="UP14" s="181"/>
+      <c r="UQ14" s="181"/>
+      <c r="UR14" s="181"/>
+      <c r="US14" s="181"/>
+      <c r="UT14" s="181"/>
+      <c r="UU14" s="181"/>
+      <c r="UV14" s="181"/>
+      <c r="UW14" s="181"/>
+      <c r="UX14" s="181"/>
+      <c r="UY14" s="181"/>
+      <c r="UZ14" s="181"/>
+      <c r="VA14" s="181"/>
+      <c r="VB14" s="181"/>
+      <c r="VC14" s="182"/>
     </row>
     <row r="15" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="184" t="s">
+      <c r="B15" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="186" t="s">
+      <c r="C15" s="184"/>
+      <c r="D15" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="187"/>
-      <c r="P15" s="187"/>
-      <c r="Q15" s="187"/>
-      <c r="R15" s="187"/>
-      <c r="S15" s="187" t="s">
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="172"/>
+      <c r="R15" s="172"/>
+      <c r="S15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="187"/>
-      <c r="U15" s="187"/>
-      <c r="V15" s="187"/>
-      <c r="W15" s="187"/>
-      <c r="X15" s="187"/>
-      <c r="Y15" s="187"/>
-      <c r="Z15" s="187"/>
-      <c r="AA15" s="187"/>
-      <c r="AB15" s="187"/>
-      <c r="AC15" s="187"/>
-      <c r="AD15" s="187"/>
-      <c r="AE15" s="187"/>
-      <c r="AF15" s="187"/>
-      <c r="AG15" s="188"/>
-      <c r="AH15" s="189" t="s">
+      <c r="T15" s="172"/>
+      <c r="U15" s="172"/>
+      <c r="V15" s="172"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="172"/>
+      <c r="Y15" s="172"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="172"/>
+      <c r="AC15" s="172"/>
+      <c r="AD15" s="172"/>
+      <c r="AE15" s="172"/>
+      <c r="AF15" s="172"/>
+      <c r="AG15" s="179"/>
+      <c r="AH15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="AI15" s="187"/>
-      <c r="AJ15" s="187"/>
-      <c r="AK15" s="187"/>
-      <c r="AL15" s="187"/>
-      <c r="AM15" s="187"/>
-      <c r="AN15" s="187"/>
-      <c r="AO15" s="187"/>
-      <c r="AP15" s="187"/>
-      <c r="AQ15" s="187"/>
-      <c r="AR15" s="187"/>
-      <c r="AS15" s="187"/>
-      <c r="AT15" s="187"/>
-      <c r="AU15" s="187"/>
-      <c r="AV15" s="187"/>
-      <c r="AW15" s="187" t="s">
+      <c r="AI15" s="172"/>
+      <c r="AJ15" s="172"/>
+      <c r="AK15" s="172"/>
+      <c r="AL15" s="172"/>
+      <c r="AM15" s="172"/>
+      <c r="AN15" s="172"/>
+      <c r="AO15" s="172"/>
+      <c r="AP15" s="172"/>
+      <c r="AQ15" s="172"/>
+      <c r="AR15" s="172"/>
+      <c r="AS15" s="172"/>
+      <c r="AT15" s="172"/>
+      <c r="AU15" s="172"/>
+      <c r="AV15" s="172"/>
+      <c r="AW15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="AX15" s="187"/>
-      <c r="AY15" s="187"/>
-      <c r="AZ15" s="187"/>
-      <c r="BA15" s="187"/>
-      <c r="BB15" s="187"/>
-      <c r="BC15" s="187"/>
-      <c r="BD15" s="187"/>
-      <c r="BE15" s="187"/>
-      <c r="BF15" s="187"/>
-      <c r="BG15" s="187"/>
-      <c r="BH15" s="187"/>
-      <c r="BI15" s="187"/>
-      <c r="BJ15" s="187"/>
-      <c r="BK15" s="190"/>
-      <c r="BL15" s="186" t="s">
+      <c r="AX15" s="172"/>
+      <c r="AY15" s="172"/>
+      <c r="AZ15" s="172"/>
+      <c r="BA15" s="172"/>
+      <c r="BB15" s="172"/>
+      <c r="BC15" s="172"/>
+      <c r="BD15" s="172"/>
+      <c r="BE15" s="172"/>
+      <c r="BF15" s="172"/>
+      <c r="BG15" s="172"/>
+      <c r="BH15" s="172"/>
+      <c r="BI15" s="172"/>
+      <c r="BJ15" s="172"/>
+      <c r="BK15" s="175"/>
+      <c r="BL15" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="BM15" s="187"/>
-      <c r="BN15" s="187"/>
-      <c r="BO15" s="187"/>
-      <c r="BP15" s="187"/>
-      <c r="BQ15" s="187"/>
-      <c r="BR15" s="187"/>
-      <c r="BS15" s="187"/>
-      <c r="BT15" s="187"/>
-      <c r="BU15" s="187"/>
-      <c r="BV15" s="187"/>
-      <c r="BW15" s="187"/>
-      <c r="BX15" s="187"/>
-      <c r="BY15" s="187"/>
-      <c r="BZ15" s="190"/>
-      <c r="CA15" s="187" t="s">
+      <c r="BM15" s="172"/>
+      <c r="BN15" s="172"/>
+      <c r="BO15" s="172"/>
+      <c r="BP15" s="172"/>
+      <c r="BQ15" s="172"/>
+      <c r="BR15" s="172"/>
+      <c r="BS15" s="172"/>
+      <c r="BT15" s="172"/>
+      <c r="BU15" s="172"/>
+      <c r="BV15" s="172"/>
+      <c r="BW15" s="172"/>
+      <c r="BX15" s="172"/>
+      <c r="BY15" s="172"/>
+      <c r="BZ15" s="175"/>
+      <c r="CA15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="CB15" s="187"/>
-      <c r="CC15" s="187"/>
-      <c r="CD15" s="187"/>
-      <c r="CE15" s="187"/>
-      <c r="CF15" s="187"/>
-      <c r="CG15" s="187"/>
-      <c r="CH15" s="187"/>
-      <c r="CI15" s="187"/>
-      <c r="CJ15" s="187"/>
-      <c r="CK15" s="187"/>
-      <c r="CL15" s="187"/>
-      <c r="CM15" s="187"/>
-      <c r="CN15" s="187"/>
-      <c r="CO15" s="188"/>
-      <c r="CP15" s="189" t="s">
+      <c r="CB15" s="172"/>
+      <c r="CC15" s="172"/>
+      <c r="CD15" s="172"/>
+      <c r="CE15" s="172"/>
+      <c r="CF15" s="172"/>
+      <c r="CG15" s="172"/>
+      <c r="CH15" s="172"/>
+      <c r="CI15" s="172"/>
+      <c r="CJ15" s="172"/>
+      <c r="CK15" s="172"/>
+      <c r="CL15" s="172"/>
+      <c r="CM15" s="172"/>
+      <c r="CN15" s="172"/>
+      <c r="CO15" s="179"/>
+      <c r="CP15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="CQ15" s="187"/>
-      <c r="CR15" s="187"/>
-      <c r="CS15" s="187"/>
-      <c r="CT15" s="187"/>
-      <c r="CU15" s="187"/>
-      <c r="CV15" s="187"/>
-      <c r="CW15" s="187"/>
-      <c r="CX15" s="187"/>
-      <c r="CY15" s="187"/>
-      <c r="CZ15" s="187"/>
-      <c r="DA15" s="187"/>
-      <c r="DB15" s="187"/>
-      <c r="DC15" s="187"/>
-      <c r="DD15" s="187"/>
-      <c r="DE15" s="187" t="s">
+      <c r="CQ15" s="172"/>
+      <c r="CR15" s="172"/>
+      <c r="CS15" s="172"/>
+      <c r="CT15" s="172"/>
+      <c r="CU15" s="172"/>
+      <c r="CV15" s="172"/>
+      <c r="CW15" s="172"/>
+      <c r="CX15" s="172"/>
+      <c r="CY15" s="172"/>
+      <c r="CZ15" s="172"/>
+      <c r="DA15" s="172"/>
+      <c r="DB15" s="172"/>
+      <c r="DC15" s="172"/>
+      <c r="DD15" s="172"/>
+      <c r="DE15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="DF15" s="187"/>
-      <c r="DG15" s="187"/>
-      <c r="DH15" s="187"/>
-      <c r="DI15" s="187"/>
-      <c r="DJ15" s="187"/>
-      <c r="DK15" s="187"/>
-      <c r="DL15" s="187"/>
-      <c r="DM15" s="187"/>
-      <c r="DN15" s="187"/>
-      <c r="DO15" s="187"/>
-      <c r="DP15" s="187"/>
-      <c r="DQ15" s="187"/>
-      <c r="DR15" s="187"/>
-      <c r="DS15" s="188"/>
-      <c r="DT15" s="189" t="s">
+      <c r="DF15" s="172"/>
+      <c r="DG15" s="172"/>
+      <c r="DH15" s="172"/>
+      <c r="DI15" s="172"/>
+      <c r="DJ15" s="172"/>
+      <c r="DK15" s="172"/>
+      <c r="DL15" s="172"/>
+      <c r="DM15" s="172"/>
+      <c r="DN15" s="172"/>
+      <c r="DO15" s="172"/>
+      <c r="DP15" s="172"/>
+      <c r="DQ15" s="172"/>
+      <c r="DR15" s="172"/>
+      <c r="DS15" s="179"/>
+      <c r="DT15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="DU15" s="187"/>
-      <c r="DV15" s="187"/>
-      <c r="DW15" s="187"/>
-      <c r="DX15" s="187"/>
-      <c r="DY15" s="187"/>
-      <c r="DZ15" s="187"/>
-      <c r="EA15" s="187"/>
-      <c r="EB15" s="187"/>
-      <c r="EC15" s="187"/>
-      <c r="ED15" s="187"/>
-      <c r="EE15" s="187"/>
-      <c r="EF15" s="187"/>
-      <c r="EG15" s="187"/>
-      <c r="EH15" s="187"/>
-      <c r="EI15" s="187" t="s">
+      <c r="DU15" s="172"/>
+      <c r="DV15" s="172"/>
+      <c r="DW15" s="172"/>
+      <c r="DX15" s="172"/>
+      <c r="DY15" s="172"/>
+      <c r="DZ15" s="172"/>
+      <c r="EA15" s="172"/>
+      <c r="EB15" s="172"/>
+      <c r="EC15" s="172"/>
+      <c r="ED15" s="172"/>
+      <c r="EE15" s="172"/>
+      <c r="EF15" s="172"/>
+      <c r="EG15" s="172"/>
+      <c r="EH15" s="172"/>
+      <c r="EI15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="EJ15" s="187"/>
-      <c r="EK15" s="187"/>
-      <c r="EL15" s="187"/>
-      <c r="EM15" s="187"/>
-      <c r="EN15" s="187"/>
-      <c r="EO15" s="187"/>
-      <c r="EP15" s="187"/>
-      <c r="EQ15" s="187"/>
-      <c r="ER15" s="187"/>
-      <c r="ES15" s="187"/>
-      <c r="ET15" s="187"/>
-      <c r="EU15" s="187"/>
-      <c r="EV15" s="187"/>
-      <c r="EW15" s="188"/>
-      <c r="EX15" s="189" t="s">
+      <c r="EJ15" s="172"/>
+      <c r="EK15" s="172"/>
+      <c r="EL15" s="172"/>
+      <c r="EM15" s="172"/>
+      <c r="EN15" s="172"/>
+      <c r="EO15" s="172"/>
+      <c r="EP15" s="172"/>
+      <c r="EQ15" s="172"/>
+      <c r="ER15" s="172"/>
+      <c r="ES15" s="172"/>
+      <c r="ET15" s="172"/>
+      <c r="EU15" s="172"/>
+      <c r="EV15" s="172"/>
+      <c r="EW15" s="179"/>
+      <c r="EX15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="EY15" s="187"/>
-      <c r="EZ15" s="187"/>
-      <c r="FA15" s="187"/>
-      <c r="FB15" s="187"/>
-      <c r="FC15" s="187"/>
-      <c r="FD15" s="187"/>
-      <c r="FE15" s="187"/>
-      <c r="FF15" s="187"/>
-      <c r="FG15" s="187"/>
-      <c r="FH15" s="187"/>
-      <c r="FI15" s="187"/>
-      <c r="FJ15" s="187"/>
-      <c r="FK15" s="187"/>
-      <c r="FL15" s="187"/>
-      <c r="FM15" s="187" t="s">
+      <c r="EY15" s="172"/>
+      <c r="EZ15" s="172"/>
+      <c r="FA15" s="172"/>
+      <c r="FB15" s="172"/>
+      <c r="FC15" s="172"/>
+      <c r="FD15" s="172"/>
+      <c r="FE15" s="172"/>
+      <c r="FF15" s="172"/>
+      <c r="FG15" s="172"/>
+      <c r="FH15" s="172"/>
+      <c r="FI15" s="172"/>
+      <c r="FJ15" s="172"/>
+      <c r="FK15" s="172"/>
+      <c r="FL15" s="172"/>
+      <c r="FM15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="FN15" s="187"/>
-      <c r="FO15" s="187"/>
-      <c r="FP15" s="187"/>
-      <c r="FQ15" s="187"/>
-      <c r="FR15" s="187"/>
-      <c r="FS15" s="187"/>
-      <c r="FT15" s="187"/>
-      <c r="FU15" s="187"/>
-      <c r="FV15" s="187"/>
-      <c r="FW15" s="187"/>
-      <c r="FX15" s="187"/>
-      <c r="FY15" s="187"/>
-      <c r="FZ15" s="187"/>
-      <c r="GA15" s="190"/>
-      <c r="GB15" s="186" t="s">
+      <c r="FN15" s="172"/>
+      <c r="FO15" s="172"/>
+      <c r="FP15" s="172"/>
+      <c r="FQ15" s="172"/>
+      <c r="FR15" s="172"/>
+      <c r="FS15" s="172"/>
+      <c r="FT15" s="172"/>
+      <c r="FU15" s="172"/>
+      <c r="FV15" s="172"/>
+      <c r="FW15" s="172"/>
+      <c r="FX15" s="172"/>
+      <c r="FY15" s="172"/>
+      <c r="FZ15" s="172"/>
+      <c r="GA15" s="175"/>
+      <c r="GB15" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="GC15" s="187"/>
-      <c r="GD15" s="187"/>
-      <c r="GE15" s="187"/>
-      <c r="GF15" s="187"/>
-      <c r="GG15" s="187"/>
-      <c r="GH15" s="187"/>
-      <c r="GI15" s="187"/>
-      <c r="GJ15" s="187"/>
-      <c r="GK15" s="187"/>
-      <c r="GL15" s="187"/>
-      <c r="GM15" s="187"/>
-      <c r="GN15" s="187"/>
-      <c r="GO15" s="187"/>
-      <c r="GP15" s="190"/>
-      <c r="GQ15" s="187" t="s">
+      <c r="GC15" s="172"/>
+      <c r="GD15" s="172"/>
+      <c r="GE15" s="172"/>
+      <c r="GF15" s="172"/>
+      <c r="GG15" s="172"/>
+      <c r="GH15" s="172"/>
+      <c r="GI15" s="172"/>
+      <c r="GJ15" s="172"/>
+      <c r="GK15" s="172"/>
+      <c r="GL15" s="172"/>
+      <c r="GM15" s="172"/>
+      <c r="GN15" s="172"/>
+      <c r="GO15" s="172"/>
+      <c r="GP15" s="175"/>
+      <c r="GQ15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="GR15" s="187"/>
-      <c r="GS15" s="187"/>
-      <c r="GT15" s="187"/>
-      <c r="GU15" s="187"/>
-      <c r="GV15" s="187"/>
-      <c r="GW15" s="187"/>
-      <c r="GX15" s="187"/>
-      <c r="GY15" s="187"/>
-      <c r="GZ15" s="187"/>
-      <c r="HA15" s="187"/>
-      <c r="HB15" s="187"/>
-      <c r="HC15" s="187"/>
-      <c r="HD15" s="187"/>
-      <c r="HE15" s="188"/>
-      <c r="HF15" s="189" t="s">
+      <c r="GR15" s="172"/>
+      <c r="GS15" s="172"/>
+      <c r="GT15" s="172"/>
+      <c r="GU15" s="172"/>
+      <c r="GV15" s="172"/>
+      <c r="GW15" s="172"/>
+      <c r="GX15" s="172"/>
+      <c r="GY15" s="172"/>
+      <c r="GZ15" s="172"/>
+      <c r="HA15" s="172"/>
+      <c r="HB15" s="172"/>
+      <c r="HC15" s="172"/>
+      <c r="HD15" s="172"/>
+      <c r="HE15" s="179"/>
+      <c r="HF15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="HG15" s="187"/>
-      <c r="HH15" s="187"/>
-      <c r="HI15" s="187"/>
-      <c r="HJ15" s="187"/>
-      <c r="HK15" s="187"/>
-      <c r="HL15" s="187"/>
-      <c r="HM15" s="187"/>
-      <c r="HN15" s="187"/>
-      <c r="HO15" s="187"/>
-      <c r="HP15" s="187"/>
-      <c r="HQ15" s="187"/>
-      <c r="HR15" s="187"/>
-      <c r="HS15" s="187"/>
-      <c r="HT15" s="187"/>
-      <c r="HU15" s="187" t="s">
+      <c r="HG15" s="172"/>
+      <c r="HH15" s="172"/>
+      <c r="HI15" s="172"/>
+      <c r="HJ15" s="172"/>
+      <c r="HK15" s="172"/>
+      <c r="HL15" s="172"/>
+      <c r="HM15" s="172"/>
+      <c r="HN15" s="172"/>
+      <c r="HO15" s="172"/>
+      <c r="HP15" s="172"/>
+      <c r="HQ15" s="172"/>
+      <c r="HR15" s="172"/>
+      <c r="HS15" s="172"/>
+      <c r="HT15" s="172"/>
+      <c r="HU15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="HV15" s="187"/>
-      <c r="HW15" s="187"/>
-      <c r="HX15" s="187"/>
-      <c r="HY15" s="187"/>
-      <c r="HZ15" s="187"/>
-      <c r="IA15" s="187"/>
-      <c r="IB15" s="187"/>
-      <c r="IC15" s="187"/>
-      <c r="ID15" s="187"/>
-      <c r="IE15" s="187"/>
-      <c r="IF15" s="187"/>
-      <c r="IG15" s="187"/>
-      <c r="IH15" s="187"/>
-      <c r="II15" s="188"/>
-      <c r="IJ15" s="189" t="s">
+      <c r="HV15" s="172"/>
+      <c r="HW15" s="172"/>
+      <c r="HX15" s="172"/>
+      <c r="HY15" s="172"/>
+      <c r="HZ15" s="172"/>
+      <c r="IA15" s="172"/>
+      <c r="IB15" s="172"/>
+      <c r="IC15" s="172"/>
+      <c r="ID15" s="172"/>
+      <c r="IE15" s="172"/>
+      <c r="IF15" s="172"/>
+      <c r="IG15" s="172"/>
+      <c r="IH15" s="172"/>
+      <c r="II15" s="179"/>
+      <c r="IJ15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="IK15" s="187"/>
-      <c r="IL15" s="187"/>
-      <c r="IM15" s="187"/>
-      <c r="IN15" s="187"/>
-      <c r="IO15" s="187"/>
-      <c r="IP15" s="187"/>
-      <c r="IQ15" s="187"/>
-      <c r="IR15" s="187"/>
-      <c r="IS15" s="187"/>
-      <c r="IT15" s="187"/>
-      <c r="IU15" s="187"/>
-      <c r="IV15" s="187"/>
-      <c r="IW15" s="187"/>
-      <c r="IX15" s="187"/>
-      <c r="IY15" s="187" t="s">
+      <c r="IK15" s="172"/>
+      <c r="IL15" s="172"/>
+      <c r="IM15" s="172"/>
+      <c r="IN15" s="172"/>
+      <c r="IO15" s="172"/>
+      <c r="IP15" s="172"/>
+      <c r="IQ15" s="172"/>
+      <c r="IR15" s="172"/>
+      <c r="IS15" s="172"/>
+      <c r="IT15" s="172"/>
+      <c r="IU15" s="172"/>
+      <c r="IV15" s="172"/>
+      <c r="IW15" s="172"/>
+      <c r="IX15" s="172"/>
+      <c r="IY15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="IZ15" s="187"/>
-      <c r="JA15" s="187"/>
-      <c r="JB15" s="187"/>
-      <c r="JC15" s="187"/>
-      <c r="JD15" s="187"/>
-      <c r="JE15" s="187"/>
-      <c r="JF15" s="187"/>
-      <c r="JG15" s="187"/>
-      <c r="JH15" s="187"/>
-      <c r="JI15" s="187"/>
-      <c r="JJ15" s="187"/>
-      <c r="JK15" s="187"/>
-      <c r="JL15" s="187"/>
-      <c r="JM15" s="188"/>
-      <c r="JN15" s="189" t="s">
+      <c r="IZ15" s="172"/>
+      <c r="JA15" s="172"/>
+      <c r="JB15" s="172"/>
+      <c r="JC15" s="172"/>
+      <c r="JD15" s="172"/>
+      <c r="JE15" s="172"/>
+      <c r="JF15" s="172"/>
+      <c r="JG15" s="172"/>
+      <c r="JH15" s="172"/>
+      <c r="JI15" s="172"/>
+      <c r="JJ15" s="172"/>
+      <c r="JK15" s="172"/>
+      <c r="JL15" s="172"/>
+      <c r="JM15" s="179"/>
+      <c r="JN15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="JO15" s="187"/>
-      <c r="JP15" s="187"/>
-      <c r="JQ15" s="187"/>
-      <c r="JR15" s="187"/>
-      <c r="JS15" s="187"/>
-      <c r="JT15" s="187"/>
-      <c r="JU15" s="187"/>
-      <c r="JV15" s="187"/>
-      <c r="JW15" s="187"/>
-      <c r="JX15" s="187"/>
-      <c r="JY15" s="187"/>
-      <c r="JZ15" s="187"/>
-      <c r="KA15" s="187"/>
-      <c r="KB15" s="187"/>
-      <c r="KC15" s="187" t="s">
+      <c r="JO15" s="172"/>
+      <c r="JP15" s="172"/>
+      <c r="JQ15" s="172"/>
+      <c r="JR15" s="172"/>
+      <c r="JS15" s="172"/>
+      <c r="JT15" s="172"/>
+      <c r="JU15" s="172"/>
+      <c r="JV15" s="172"/>
+      <c r="JW15" s="172"/>
+      <c r="JX15" s="172"/>
+      <c r="JY15" s="172"/>
+      <c r="JZ15" s="172"/>
+      <c r="KA15" s="172"/>
+      <c r="KB15" s="172"/>
+      <c r="KC15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="KD15" s="187"/>
-      <c r="KE15" s="187"/>
-      <c r="KF15" s="187"/>
-      <c r="KG15" s="187"/>
-      <c r="KH15" s="187"/>
-      <c r="KI15" s="187"/>
-      <c r="KJ15" s="187"/>
-      <c r="KK15" s="187"/>
-      <c r="KL15" s="187"/>
-      <c r="KM15" s="187"/>
-      <c r="KN15" s="187"/>
-      <c r="KO15" s="187"/>
-      <c r="KP15" s="187"/>
-      <c r="KQ15" s="191"/>
-      <c r="KR15" s="184" t="s">
+      <c r="KD15" s="172"/>
+      <c r="KE15" s="172"/>
+      <c r="KF15" s="172"/>
+      <c r="KG15" s="172"/>
+      <c r="KH15" s="172"/>
+      <c r="KI15" s="172"/>
+      <c r="KJ15" s="172"/>
+      <c r="KK15" s="172"/>
+      <c r="KL15" s="172"/>
+      <c r="KM15" s="172"/>
+      <c r="KN15" s="172"/>
+      <c r="KO15" s="172"/>
+      <c r="KP15" s="172"/>
+      <c r="KQ15" s="173"/>
+      <c r="KR15" s="152" t="s">
         <v>23</v>
       </c>
-      <c r="KS15" s="220"/>
-      <c r="KT15" s="186" t="s">
+      <c r="KS15" s="153"/>
+      <c r="KT15" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="KU15" s="187"/>
-      <c r="KV15" s="187"/>
-      <c r="KW15" s="187"/>
-      <c r="KX15" s="187"/>
-      <c r="KY15" s="187"/>
-      <c r="KZ15" s="187"/>
-      <c r="LA15" s="187"/>
-      <c r="LB15" s="187"/>
-      <c r="LC15" s="187"/>
-      <c r="LD15" s="187"/>
-      <c r="LE15" s="187"/>
-      <c r="LF15" s="187"/>
-      <c r="LG15" s="187"/>
-      <c r="LH15" s="190"/>
-      <c r="LI15" s="187" t="s">
+      <c r="KU15" s="172"/>
+      <c r="KV15" s="172"/>
+      <c r="KW15" s="172"/>
+      <c r="KX15" s="172"/>
+      <c r="KY15" s="172"/>
+      <c r="KZ15" s="172"/>
+      <c r="LA15" s="172"/>
+      <c r="LB15" s="172"/>
+      <c r="LC15" s="172"/>
+      <c r="LD15" s="172"/>
+      <c r="LE15" s="172"/>
+      <c r="LF15" s="172"/>
+      <c r="LG15" s="172"/>
+      <c r="LH15" s="175"/>
+      <c r="LI15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="LJ15" s="187"/>
-      <c r="LK15" s="187"/>
-      <c r="LL15" s="187"/>
-      <c r="LM15" s="187"/>
-      <c r="LN15" s="187"/>
-      <c r="LO15" s="187"/>
-      <c r="LP15" s="187"/>
-      <c r="LQ15" s="187"/>
-      <c r="LR15" s="187"/>
-      <c r="LS15" s="187"/>
-      <c r="LT15" s="187"/>
-      <c r="LU15" s="187"/>
-      <c r="LV15" s="187"/>
-      <c r="LW15" s="188"/>
-      <c r="LX15" s="189" t="s">
+      <c r="LJ15" s="172"/>
+      <c r="LK15" s="172"/>
+      <c r="LL15" s="172"/>
+      <c r="LM15" s="172"/>
+      <c r="LN15" s="172"/>
+      <c r="LO15" s="172"/>
+      <c r="LP15" s="172"/>
+      <c r="LQ15" s="172"/>
+      <c r="LR15" s="172"/>
+      <c r="LS15" s="172"/>
+      <c r="LT15" s="172"/>
+      <c r="LU15" s="172"/>
+      <c r="LV15" s="172"/>
+      <c r="LW15" s="179"/>
+      <c r="LX15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="LY15" s="187"/>
-      <c r="LZ15" s="187"/>
-      <c r="MA15" s="187"/>
-      <c r="MB15" s="187"/>
-      <c r="MC15" s="187"/>
-      <c r="MD15" s="187"/>
-      <c r="ME15" s="187"/>
-      <c r="MF15" s="187"/>
-      <c r="MG15" s="187"/>
-      <c r="MH15" s="187"/>
-      <c r="MI15" s="187"/>
-      <c r="MJ15" s="187"/>
-      <c r="MK15" s="187"/>
-      <c r="ML15" s="187"/>
-      <c r="MM15" s="187" t="s">
+      <c r="LY15" s="172"/>
+      <c r="LZ15" s="172"/>
+      <c r="MA15" s="172"/>
+      <c r="MB15" s="172"/>
+      <c r="MC15" s="172"/>
+      <c r="MD15" s="172"/>
+      <c r="ME15" s="172"/>
+      <c r="MF15" s="172"/>
+      <c r="MG15" s="172"/>
+      <c r="MH15" s="172"/>
+      <c r="MI15" s="172"/>
+      <c r="MJ15" s="172"/>
+      <c r="MK15" s="172"/>
+      <c r="ML15" s="172"/>
+      <c r="MM15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="MN15" s="187"/>
-      <c r="MO15" s="187"/>
-      <c r="MP15" s="187"/>
-      <c r="MQ15" s="187"/>
-      <c r="MR15" s="187"/>
-      <c r="MS15" s="187"/>
-      <c r="MT15" s="187"/>
-      <c r="MU15" s="187"/>
-      <c r="MV15" s="187"/>
-      <c r="MW15" s="187"/>
-      <c r="MX15" s="187"/>
-      <c r="MY15" s="187"/>
-      <c r="MZ15" s="187"/>
-      <c r="NA15" s="188"/>
-      <c r="NB15" s="189" t="s">
+      <c r="MN15" s="172"/>
+      <c r="MO15" s="172"/>
+      <c r="MP15" s="172"/>
+      <c r="MQ15" s="172"/>
+      <c r="MR15" s="172"/>
+      <c r="MS15" s="172"/>
+      <c r="MT15" s="172"/>
+      <c r="MU15" s="172"/>
+      <c r="MV15" s="172"/>
+      <c r="MW15" s="172"/>
+      <c r="MX15" s="172"/>
+      <c r="MY15" s="172"/>
+      <c r="MZ15" s="172"/>
+      <c r="NA15" s="179"/>
+      <c r="NB15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="NC15" s="187"/>
-      <c r="ND15" s="187"/>
-      <c r="NE15" s="187"/>
-      <c r="NF15" s="187"/>
-      <c r="NG15" s="187"/>
-      <c r="NH15" s="187"/>
-      <c r="NI15" s="187"/>
-      <c r="NJ15" s="187"/>
-      <c r="NK15" s="187"/>
-      <c r="NL15" s="187"/>
-      <c r="NM15" s="187"/>
-      <c r="NN15" s="187"/>
-      <c r="NO15" s="187"/>
-      <c r="NP15" s="187"/>
-      <c r="NQ15" s="187" t="s">
+      <c r="NC15" s="172"/>
+      <c r="ND15" s="172"/>
+      <c r="NE15" s="172"/>
+      <c r="NF15" s="172"/>
+      <c r="NG15" s="172"/>
+      <c r="NH15" s="172"/>
+      <c r="NI15" s="172"/>
+      <c r="NJ15" s="172"/>
+      <c r="NK15" s="172"/>
+      <c r="NL15" s="172"/>
+      <c r="NM15" s="172"/>
+      <c r="NN15" s="172"/>
+      <c r="NO15" s="172"/>
+      <c r="NP15" s="172"/>
+      <c r="NQ15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="NR15" s="187"/>
-      <c r="NS15" s="187"/>
-      <c r="NT15" s="187"/>
-      <c r="NU15" s="187"/>
-      <c r="NV15" s="187"/>
-      <c r="NW15" s="187"/>
-      <c r="NX15" s="187"/>
-      <c r="NY15" s="187"/>
-      <c r="NZ15" s="187"/>
-      <c r="OA15" s="187"/>
-      <c r="OB15" s="187"/>
-      <c r="OC15" s="187"/>
-      <c r="OD15" s="187"/>
-      <c r="OE15" s="188"/>
-      <c r="OF15" s="189" t="s">
+      <c r="NR15" s="172"/>
+      <c r="NS15" s="172"/>
+      <c r="NT15" s="172"/>
+      <c r="NU15" s="172"/>
+      <c r="NV15" s="172"/>
+      <c r="NW15" s="172"/>
+      <c r="NX15" s="172"/>
+      <c r="NY15" s="172"/>
+      <c r="NZ15" s="172"/>
+      <c r="OA15" s="172"/>
+      <c r="OB15" s="172"/>
+      <c r="OC15" s="172"/>
+      <c r="OD15" s="172"/>
+      <c r="OE15" s="179"/>
+      <c r="OF15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="OG15" s="187"/>
-      <c r="OH15" s="187"/>
-      <c r="OI15" s="187"/>
-      <c r="OJ15" s="187"/>
-      <c r="OK15" s="187"/>
-      <c r="OL15" s="187"/>
-      <c r="OM15" s="187"/>
-      <c r="ON15" s="187"/>
-      <c r="OO15" s="187"/>
-      <c r="OP15" s="187"/>
-      <c r="OQ15" s="187"/>
-      <c r="OR15" s="187"/>
-      <c r="OS15" s="187"/>
-      <c r="OT15" s="187"/>
-      <c r="OU15" s="187" t="s">
+      <c r="OG15" s="172"/>
+      <c r="OH15" s="172"/>
+      <c r="OI15" s="172"/>
+      <c r="OJ15" s="172"/>
+      <c r="OK15" s="172"/>
+      <c r="OL15" s="172"/>
+      <c r="OM15" s="172"/>
+      <c r="ON15" s="172"/>
+      <c r="OO15" s="172"/>
+      <c r="OP15" s="172"/>
+      <c r="OQ15" s="172"/>
+      <c r="OR15" s="172"/>
+      <c r="OS15" s="172"/>
+      <c r="OT15" s="172"/>
+      <c r="OU15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="OV15" s="187"/>
-      <c r="OW15" s="187"/>
-      <c r="OX15" s="187"/>
-      <c r="OY15" s="187"/>
-      <c r="OZ15" s="187"/>
-      <c r="PA15" s="187"/>
-      <c r="PB15" s="187"/>
-      <c r="PC15" s="187"/>
-      <c r="PD15" s="187"/>
-      <c r="PE15" s="187"/>
-      <c r="PF15" s="187"/>
-      <c r="PG15" s="187"/>
-      <c r="PH15" s="187"/>
-      <c r="PI15" s="191"/>
-      <c r="PJ15" s="186" t="s">
+      <c r="OV15" s="172"/>
+      <c r="OW15" s="172"/>
+      <c r="OX15" s="172"/>
+      <c r="OY15" s="172"/>
+      <c r="OZ15" s="172"/>
+      <c r="PA15" s="172"/>
+      <c r="PB15" s="172"/>
+      <c r="PC15" s="172"/>
+      <c r="PD15" s="172"/>
+      <c r="PE15" s="172"/>
+      <c r="PF15" s="172"/>
+      <c r="PG15" s="172"/>
+      <c r="PH15" s="172"/>
+      <c r="PI15" s="173"/>
+      <c r="PJ15" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="PK15" s="187"/>
-      <c r="PL15" s="187"/>
-      <c r="PM15" s="187"/>
-      <c r="PN15" s="187"/>
-      <c r="PO15" s="187"/>
-      <c r="PP15" s="187"/>
-      <c r="PQ15" s="187"/>
-      <c r="PR15" s="187"/>
-      <c r="PS15" s="187"/>
-      <c r="PT15" s="187"/>
-      <c r="PU15" s="187"/>
-      <c r="PV15" s="187"/>
-      <c r="PW15" s="187"/>
-      <c r="PX15" s="190"/>
-      <c r="PY15" s="187" t="s">
+      <c r="PK15" s="172"/>
+      <c r="PL15" s="172"/>
+      <c r="PM15" s="172"/>
+      <c r="PN15" s="172"/>
+      <c r="PO15" s="172"/>
+      <c r="PP15" s="172"/>
+      <c r="PQ15" s="172"/>
+      <c r="PR15" s="172"/>
+      <c r="PS15" s="172"/>
+      <c r="PT15" s="172"/>
+      <c r="PU15" s="172"/>
+      <c r="PV15" s="172"/>
+      <c r="PW15" s="172"/>
+      <c r="PX15" s="175"/>
+      <c r="PY15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="PZ15" s="187"/>
-      <c r="QA15" s="187"/>
-      <c r="QB15" s="187"/>
-      <c r="QC15" s="187"/>
-      <c r="QD15" s="187"/>
-      <c r="QE15" s="187"/>
-      <c r="QF15" s="187"/>
-      <c r="QG15" s="187"/>
-      <c r="QH15" s="187"/>
-      <c r="QI15" s="187"/>
-      <c r="QJ15" s="187"/>
-      <c r="QK15" s="187"/>
-      <c r="QL15" s="187"/>
-      <c r="QM15" s="188"/>
-      <c r="QN15" s="189" t="s">
+      <c r="PZ15" s="172"/>
+      <c r="QA15" s="172"/>
+      <c r="QB15" s="172"/>
+      <c r="QC15" s="172"/>
+      <c r="QD15" s="172"/>
+      <c r="QE15" s="172"/>
+      <c r="QF15" s="172"/>
+      <c r="QG15" s="172"/>
+      <c r="QH15" s="172"/>
+      <c r="QI15" s="172"/>
+      <c r="QJ15" s="172"/>
+      <c r="QK15" s="172"/>
+      <c r="QL15" s="172"/>
+      <c r="QM15" s="179"/>
+      <c r="QN15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="QO15" s="187"/>
-      <c r="QP15" s="187"/>
-      <c r="QQ15" s="187"/>
-      <c r="QR15" s="187"/>
-      <c r="QS15" s="187"/>
-      <c r="QT15" s="187"/>
-      <c r="QU15" s="187"/>
-      <c r="QV15" s="187"/>
-      <c r="QW15" s="187"/>
-      <c r="QX15" s="187"/>
-      <c r="QY15" s="187"/>
-      <c r="QZ15" s="187"/>
-      <c r="RA15" s="187"/>
-      <c r="RB15" s="187"/>
-      <c r="RC15" s="187" t="s">
+      <c r="QO15" s="172"/>
+      <c r="QP15" s="172"/>
+      <c r="QQ15" s="172"/>
+      <c r="QR15" s="172"/>
+      <c r="QS15" s="172"/>
+      <c r="QT15" s="172"/>
+      <c r="QU15" s="172"/>
+      <c r="QV15" s="172"/>
+      <c r="QW15" s="172"/>
+      <c r="QX15" s="172"/>
+      <c r="QY15" s="172"/>
+      <c r="QZ15" s="172"/>
+      <c r="RA15" s="172"/>
+      <c r="RB15" s="172"/>
+      <c r="RC15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="RD15" s="187"/>
-      <c r="RE15" s="187"/>
-      <c r="RF15" s="187"/>
-      <c r="RG15" s="187"/>
-      <c r="RH15" s="187"/>
-      <c r="RI15" s="187"/>
-      <c r="RJ15" s="187"/>
-      <c r="RK15" s="187"/>
-      <c r="RL15" s="187"/>
-      <c r="RM15" s="187"/>
-      <c r="RN15" s="187"/>
-      <c r="RO15" s="187"/>
-      <c r="RP15" s="187"/>
-      <c r="RQ15" s="188"/>
-      <c r="RR15" s="189" t="s">
+      <c r="RD15" s="172"/>
+      <c r="RE15" s="172"/>
+      <c r="RF15" s="172"/>
+      <c r="RG15" s="172"/>
+      <c r="RH15" s="172"/>
+      <c r="RI15" s="172"/>
+      <c r="RJ15" s="172"/>
+      <c r="RK15" s="172"/>
+      <c r="RL15" s="172"/>
+      <c r="RM15" s="172"/>
+      <c r="RN15" s="172"/>
+      <c r="RO15" s="172"/>
+      <c r="RP15" s="172"/>
+      <c r="RQ15" s="179"/>
+      <c r="RR15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="RS15" s="187"/>
-      <c r="RT15" s="187"/>
-      <c r="RU15" s="187"/>
-      <c r="RV15" s="187"/>
-      <c r="RW15" s="187"/>
-      <c r="RX15" s="187"/>
-      <c r="RY15" s="187"/>
-      <c r="RZ15" s="187"/>
-      <c r="SA15" s="187"/>
-      <c r="SB15" s="187"/>
-      <c r="SC15" s="187"/>
-      <c r="SD15" s="187"/>
-      <c r="SE15" s="187"/>
-      <c r="SF15" s="187"/>
-      <c r="SG15" s="187" t="s">
+      <c r="RS15" s="172"/>
+      <c r="RT15" s="172"/>
+      <c r="RU15" s="172"/>
+      <c r="RV15" s="172"/>
+      <c r="RW15" s="172"/>
+      <c r="RX15" s="172"/>
+      <c r="RY15" s="172"/>
+      <c r="RZ15" s="172"/>
+      <c r="SA15" s="172"/>
+      <c r="SB15" s="172"/>
+      <c r="SC15" s="172"/>
+      <c r="SD15" s="172"/>
+      <c r="SE15" s="172"/>
+      <c r="SF15" s="172"/>
+      <c r="SG15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="SH15" s="187"/>
-      <c r="SI15" s="187"/>
-      <c r="SJ15" s="187"/>
-      <c r="SK15" s="187"/>
-      <c r="SL15" s="187"/>
-      <c r="SM15" s="187"/>
-      <c r="SN15" s="187"/>
-      <c r="SO15" s="187"/>
-      <c r="SP15" s="187"/>
-      <c r="SQ15" s="187"/>
-      <c r="SR15" s="187"/>
-      <c r="SS15" s="187"/>
-      <c r="ST15" s="187"/>
-      <c r="SU15" s="188"/>
-      <c r="SV15" s="189" t="s">
+      <c r="SH15" s="172"/>
+      <c r="SI15" s="172"/>
+      <c r="SJ15" s="172"/>
+      <c r="SK15" s="172"/>
+      <c r="SL15" s="172"/>
+      <c r="SM15" s="172"/>
+      <c r="SN15" s="172"/>
+      <c r="SO15" s="172"/>
+      <c r="SP15" s="172"/>
+      <c r="SQ15" s="172"/>
+      <c r="SR15" s="172"/>
+      <c r="SS15" s="172"/>
+      <c r="ST15" s="172"/>
+      <c r="SU15" s="179"/>
+      <c r="SV15" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="SW15" s="187"/>
-      <c r="SX15" s="187"/>
-      <c r="SY15" s="187"/>
-      <c r="SZ15" s="187"/>
-      <c r="TA15" s="187"/>
-      <c r="TB15" s="187"/>
-      <c r="TC15" s="187"/>
-      <c r="TD15" s="187"/>
-      <c r="TE15" s="187"/>
-      <c r="TF15" s="187"/>
-      <c r="TG15" s="187"/>
-      <c r="TH15" s="187"/>
-      <c r="TI15" s="187"/>
-      <c r="TJ15" s="187"/>
-      <c r="TK15" s="187" t="s">
+      <c r="SW15" s="172"/>
+      <c r="SX15" s="172"/>
+      <c r="SY15" s="172"/>
+      <c r="SZ15" s="172"/>
+      <c r="TA15" s="172"/>
+      <c r="TB15" s="172"/>
+      <c r="TC15" s="172"/>
+      <c r="TD15" s="172"/>
+      <c r="TE15" s="172"/>
+      <c r="TF15" s="172"/>
+      <c r="TG15" s="172"/>
+      <c r="TH15" s="172"/>
+      <c r="TI15" s="172"/>
+      <c r="TJ15" s="172"/>
+      <c r="TK15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="TL15" s="187"/>
-      <c r="TM15" s="187"/>
-      <c r="TN15" s="187"/>
-      <c r="TO15" s="187"/>
-      <c r="TP15" s="187"/>
-      <c r="TQ15" s="187"/>
-      <c r="TR15" s="187"/>
-      <c r="TS15" s="187"/>
-      <c r="TT15" s="187"/>
-      <c r="TU15" s="187"/>
-      <c r="TV15" s="187"/>
-      <c r="TW15" s="187"/>
-      <c r="TX15" s="187"/>
-      <c r="TY15" s="191"/>
-      <c r="TZ15" s="186" t="s">
+      <c r="TL15" s="172"/>
+      <c r="TM15" s="172"/>
+      <c r="TN15" s="172"/>
+      <c r="TO15" s="172"/>
+      <c r="TP15" s="172"/>
+      <c r="TQ15" s="172"/>
+      <c r="TR15" s="172"/>
+      <c r="TS15" s="172"/>
+      <c r="TT15" s="172"/>
+      <c r="TU15" s="172"/>
+      <c r="TV15" s="172"/>
+      <c r="TW15" s="172"/>
+      <c r="TX15" s="172"/>
+      <c r="TY15" s="173"/>
+      <c r="TZ15" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="UA15" s="187"/>
-      <c r="UB15" s="187"/>
-      <c r="UC15" s="187"/>
-      <c r="UD15" s="187"/>
-      <c r="UE15" s="187"/>
-      <c r="UF15" s="187"/>
-      <c r="UG15" s="187"/>
-      <c r="UH15" s="187"/>
-      <c r="UI15" s="187"/>
-      <c r="UJ15" s="187"/>
-      <c r="UK15" s="187"/>
-      <c r="UL15" s="187"/>
-      <c r="UM15" s="187"/>
-      <c r="UN15" s="190"/>
-      <c r="UO15" s="187" t="s">
+      <c r="UA15" s="172"/>
+      <c r="UB15" s="172"/>
+      <c r="UC15" s="172"/>
+      <c r="UD15" s="172"/>
+      <c r="UE15" s="172"/>
+      <c r="UF15" s="172"/>
+      <c r="UG15" s="172"/>
+      <c r="UH15" s="172"/>
+      <c r="UI15" s="172"/>
+      <c r="UJ15" s="172"/>
+      <c r="UK15" s="172"/>
+      <c r="UL15" s="172"/>
+      <c r="UM15" s="172"/>
+      <c r="UN15" s="175"/>
+      <c r="UO15" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="UP15" s="187"/>
-      <c r="UQ15" s="187"/>
-      <c r="UR15" s="187"/>
-      <c r="US15" s="187"/>
-      <c r="UT15" s="187"/>
-      <c r="UU15" s="187"/>
-      <c r="UV15" s="187"/>
-      <c r="UW15" s="187"/>
-      <c r="UX15" s="187"/>
-      <c r="UY15" s="187"/>
-      <c r="UZ15" s="187"/>
-      <c r="VA15" s="187"/>
-      <c r="VB15" s="187"/>
-      <c r="VC15" s="191"/>
+      <c r="UP15" s="172"/>
+      <c r="UQ15" s="172"/>
+      <c r="UR15" s="172"/>
+      <c r="US15" s="172"/>
+      <c r="UT15" s="172"/>
+      <c r="UU15" s="172"/>
+      <c r="UV15" s="172"/>
+      <c r="UW15" s="172"/>
+      <c r="UX15" s="172"/>
+      <c r="UY15" s="172"/>
+      <c r="UZ15" s="172"/>
+      <c r="VA15" s="172"/>
+      <c r="VB15" s="172"/>
+      <c r="VC15" s="173"/>
     </row>
     <row r="16" spans="1:575" s="3" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -11477,40 +11493,40 @@
       <c r="TW16" s="15"/>
       <c r="TX16" s="15"/>
       <c r="TY16" s="14"/>
-      <c r="TZ16" s="203"/>
-      <c r="UA16" s="204"/>
-      <c r="UB16" s="204"/>
-      <c r="UC16" s="204"/>
-      <c r="UD16" s="204"/>
-      <c r="UE16" s="204"/>
-      <c r="UF16" s="204"/>
-      <c r="UG16" s="204"/>
-      <c r="UH16" s="204"/>
-      <c r="UI16" s="204"/>
-      <c r="UJ16" s="204"/>
-      <c r="UK16" s="204"/>
-      <c r="UL16" s="204"/>
-      <c r="UM16" s="204"/>
-      <c r="UN16" s="204"/>
-      <c r="UO16" s="204"/>
-      <c r="UP16" s="204"/>
-      <c r="UQ16" s="204"/>
-      <c r="UR16" s="204"/>
-      <c r="US16" s="204"/>
-      <c r="UT16" s="204"/>
-      <c r="UU16" s="204"/>
-      <c r="UV16" s="204"/>
-      <c r="UW16" s="204"/>
-      <c r="UX16" s="204"/>
-      <c r="UY16" s="204"/>
-      <c r="UZ16" s="204"/>
-      <c r="VA16" s="204"/>
-      <c r="VB16" s="204"/>
-      <c r="VC16" s="205"/>
+      <c r="TZ16" s="176"/>
+      <c r="UA16" s="177"/>
+      <c r="UB16" s="177"/>
+      <c r="UC16" s="177"/>
+      <c r="UD16" s="177"/>
+      <c r="UE16" s="177"/>
+      <c r="UF16" s="177"/>
+      <c r="UG16" s="177"/>
+      <c r="UH16" s="177"/>
+      <c r="UI16" s="177"/>
+      <c r="UJ16" s="177"/>
+      <c r="UK16" s="177"/>
+      <c r="UL16" s="177"/>
+      <c r="UM16" s="177"/>
+      <c r="UN16" s="177"/>
+      <c r="UO16" s="177"/>
+      <c r="UP16" s="177"/>
+      <c r="UQ16" s="177"/>
+      <c r="UR16" s="177"/>
+      <c r="US16" s="177"/>
+      <c r="UT16" s="177"/>
+      <c r="UU16" s="177"/>
+      <c r="UV16" s="177"/>
+      <c r="UW16" s="177"/>
+      <c r="UX16" s="177"/>
+      <c r="UY16" s="177"/>
+      <c r="UZ16" s="177"/>
+      <c r="VA16" s="177"/>
+      <c r="VB16" s="177"/>
+      <c r="VC16" s="178"/>
     </row>
     <row r="17" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="194" t="s">
+      <c r="B17" s="154" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -11816,7 +11832,7 @@
       <c r="KO17" s="18"/>
       <c r="KP17" s="18"/>
       <c r="KQ17" s="24"/>
-      <c r="KR17" s="194" t="s">
+      <c r="KR17" s="154" t="s">
         <v>27</v>
       </c>
       <c r="KS17" s="122" t="s">
@@ -12095,7 +12111,7 @@
     </row>
     <row r="18" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="193"/>
+      <c r="B18" s="143"/>
       <c r="C18" s="64" t="s">
         <v>29</v>
       </c>
@@ -12399,7 +12415,7 @@
       <c r="KO18" s="27"/>
       <c r="KP18" s="27"/>
       <c r="KQ18" s="34"/>
-      <c r="KR18" s="193"/>
+      <c r="KR18" s="143"/>
       <c r="KS18" s="123" t="s">
         <v>29</v>
       </c>
@@ -12676,7 +12692,7 @@
     </row>
     <row r="19" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="192" t="s">
+      <c r="B19" s="144" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="65" t="s">
@@ -12982,7 +12998,7 @@
       <c r="KO19" s="37"/>
       <c r="KP19" s="37"/>
       <c r="KQ19" s="44"/>
-      <c r="KR19" s="192" t="s">
+      <c r="KR19" s="144" t="s">
         <v>30</v>
       </c>
       <c r="KS19" s="124" t="s">
@@ -13261,7 +13277,7 @@
     </row>
     <row r="20" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="193"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="64" t="s">
         <v>29</v>
       </c>
@@ -13565,7 +13581,7 @@
       <c r="KO20" s="27"/>
       <c r="KP20" s="27"/>
       <c r="KQ20" s="34"/>
-      <c r="KR20" s="193"/>
+      <c r="KR20" s="143"/>
       <c r="KS20" s="123" t="s">
         <v>29</v>
       </c>
@@ -13842,7 +13858,7 @@
     </row>
     <row r="21" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="192" t="s">
+      <c r="B21" s="144" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="65" t="s">
@@ -14148,7 +14164,7 @@
       <c r="KO21" s="37"/>
       <c r="KP21" s="37"/>
       <c r="KQ21" s="44"/>
-      <c r="KR21" s="192" t="s">
+      <c r="KR21" s="144" t="s">
         <v>35</v>
       </c>
       <c r="KS21" s="124" t="s">
@@ -14427,7 +14443,7 @@
     </row>
     <row r="22" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="193"/>
+      <c r="B22" s="143"/>
       <c r="C22" s="64" t="s">
         <v>29</v>
       </c>
@@ -14731,7 +14747,7 @@
       <c r="KO22" s="27"/>
       <c r="KP22" s="27"/>
       <c r="KQ22" s="34"/>
-      <c r="KR22" s="193"/>
+      <c r="KR22" s="143"/>
       <c r="KS22" s="123" t="s">
         <v>29</v>
       </c>
@@ -15008,7 +15024,7 @@
     </row>
     <row r="23" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="194" t="s">
+      <c r="B23" s="154" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -15314,7 +15330,7 @@
       <c r="KO23" s="18"/>
       <c r="KP23" s="18"/>
       <c r="KQ23" s="24"/>
-      <c r="KR23" s="194" t="s">
+      <c r="KR23" s="154" t="s">
         <v>31</v>
       </c>
       <c r="KS23" s="122" t="s">
@@ -15593,7 +15609,7 @@
     </row>
     <row r="24" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="195"/>
+      <c r="B24" s="155"/>
       <c r="C24" s="66" t="s">
         <v>29</v>
       </c>
@@ -15897,7 +15913,7 @@
       <c r="KO24" s="18"/>
       <c r="KP24" s="18"/>
       <c r="KQ24" s="24"/>
-      <c r="KR24" s="195"/>
+      <c r="KR24" s="155"/>
       <c r="KS24" s="125" t="s">
         <v>29</v>
       </c>
@@ -16722,36 +16738,36 @@
       <c r="TW25" s="60"/>
       <c r="TX25" s="60"/>
       <c r="TY25" s="72"/>
-      <c r="TZ25" s="196"/>
-      <c r="UA25" s="197"/>
-      <c r="UB25" s="197"/>
-      <c r="UC25" s="197"/>
-      <c r="UD25" s="197"/>
-      <c r="UE25" s="197"/>
-      <c r="UF25" s="197"/>
-      <c r="UG25" s="197"/>
-      <c r="UH25" s="197"/>
-      <c r="UI25" s="197"/>
-      <c r="UJ25" s="197"/>
-      <c r="UK25" s="197"/>
-      <c r="UL25" s="197"/>
-      <c r="UM25" s="197"/>
-      <c r="UN25" s="197"/>
-      <c r="UO25" s="197"/>
-      <c r="UP25" s="197"/>
-      <c r="UQ25" s="197"/>
-      <c r="UR25" s="197"/>
-      <c r="US25" s="197"/>
-      <c r="UT25" s="197"/>
-      <c r="UU25" s="197"/>
-      <c r="UV25" s="197"/>
-      <c r="UW25" s="197"/>
-      <c r="UX25" s="197"/>
-      <c r="UY25" s="197"/>
-      <c r="UZ25" s="197"/>
-      <c r="VA25" s="197"/>
-      <c r="VB25" s="197"/>
-      <c r="VC25" s="198"/>
+      <c r="TZ25" s="165"/>
+      <c r="UA25" s="166"/>
+      <c r="UB25" s="166"/>
+      <c r="UC25" s="166"/>
+      <c r="UD25" s="166"/>
+      <c r="UE25" s="166"/>
+      <c r="UF25" s="166"/>
+      <c r="UG25" s="166"/>
+      <c r="UH25" s="166"/>
+      <c r="UI25" s="166"/>
+      <c r="UJ25" s="166"/>
+      <c r="UK25" s="166"/>
+      <c r="UL25" s="166"/>
+      <c r="UM25" s="166"/>
+      <c r="UN25" s="166"/>
+      <c r="UO25" s="166"/>
+      <c r="UP25" s="166"/>
+      <c r="UQ25" s="166"/>
+      <c r="UR25" s="166"/>
+      <c r="US25" s="166"/>
+      <c r="UT25" s="166"/>
+      <c r="UU25" s="166"/>
+      <c r="UV25" s="166"/>
+      <c r="UW25" s="166"/>
+      <c r="UX25" s="166"/>
+      <c r="UY25" s="166"/>
+      <c r="UZ25" s="166"/>
+      <c r="VA25" s="166"/>
+      <c r="VB25" s="166"/>
+      <c r="VC25" s="167"/>
     </row>
     <row r="26" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
@@ -17884,40 +17900,40 @@
       <c r="TW27" s="62"/>
       <c r="TX27" s="62"/>
       <c r="TY27" s="76"/>
-      <c r="TZ27" s="199"/>
-      <c r="UA27" s="200"/>
-      <c r="UB27" s="200"/>
-      <c r="UC27" s="200"/>
-      <c r="UD27" s="200"/>
-      <c r="UE27" s="200"/>
-      <c r="UF27" s="200"/>
-      <c r="UG27" s="200"/>
-      <c r="UH27" s="200"/>
-      <c r="UI27" s="200"/>
-      <c r="UJ27" s="200"/>
-      <c r="UK27" s="200"/>
-      <c r="UL27" s="200"/>
-      <c r="UM27" s="200"/>
-      <c r="UN27" s="200"/>
-      <c r="UO27" s="200"/>
-      <c r="UP27" s="200"/>
-      <c r="UQ27" s="200"/>
-      <c r="UR27" s="200"/>
-      <c r="US27" s="200"/>
-      <c r="UT27" s="200"/>
-      <c r="UU27" s="200"/>
-      <c r="UV27" s="200"/>
-      <c r="UW27" s="200"/>
-      <c r="UX27" s="200"/>
-      <c r="UY27" s="200"/>
-      <c r="UZ27" s="200"/>
-      <c r="VA27" s="200"/>
-      <c r="VB27" s="200"/>
-      <c r="VC27" s="201"/>
+      <c r="TZ27" s="168"/>
+      <c r="UA27" s="169"/>
+      <c r="UB27" s="169"/>
+      <c r="UC27" s="169"/>
+      <c r="UD27" s="169"/>
+      <c r="UE27" s="169"/>
+      <c r="UF27" s="169"/>
+      <c r="UG27" s="169"/>
+      <c r="UH27" s="169"/>
+      <c r="UI27" s="169"/>
+      <c r="UJ27" s="169"/>
+      <c r="UK27" s="169"/>
+      <c r="UL27" s="169"/>
+      <c r="UM27" s="169"/>
+      <c r="UN27" s="169"/>
+      <c r="UO27" s="169"/>
+      <c r="UP27" s="169"/>
+      <c r="UQ27" s="169"/>
+      <c r="UR27" s="169"/>
+      <c r="US27" s="169"/>
+      <c r="UT27" s="169"/>
+      <c r="UU27" s="169"/>
+      <c r="UV27" s="169"/>
+      <c r="UW27" s="169"/>
+      <c r="UX27" s="169"/>
+      <c r="UY27" s="169"/>
+      <c r="UZ27" s="169"/>
+      <c r="VA27" s="169"/>
+      <c r="VB27" s="169"/>
+      <c r="VC27" s="170"/>
     </row>
     <row r="28" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="202" t="s">
+      <c r="B28" s="142" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -18223,7 +18239,7 @@
       <c r="KO28" s="18"/>
       <c r="KP28" s="18"/>
       <c r="KQ28" s="24"/>
-      <c r="KR28" s="202" t="s">
+      <c r="KR28" s="142" t="s">
         <v>34</v>
       </c>
       <c r="KS28" s="128" t="s">
@@ -18502,7 +18518,7 @@
     </row>
     <row r="29" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="193"/>
+      <c r="B29" s="143"/>
       <c r="C29" s="64" t="s">
         <v>29</v>
       </c>
@@ -18806,7 +18822,7 @@
       <c r="KO29" s="27"/>
       <c r="KP29" s="27"/>
       <c r="KQ29" s="34"/>
-      <c r="KR29" s="193"/>
+      <c r="KR29" s="143"/>
       <c r="KS29" s="123" t="s">
         <v>29</v>
       </c>
@@ -19631,36 +19647,36 @@
       <c r="TW30" s="60"/>
       <c r="TX30" s="60"/>
       <c r="TY30" s="72"/>
-      <c r="TZ30" s="196"/>
-      <c r="UA30" s="197"/>
-      <c r="UB30" s="197"/>
-      <c r="UC30" s="197"/>
-      <c r="UD30" s="197"/>
-      <c r="UE30" s="197"/>
-      <c r="UF30" s="197"/>
-      <c r="UG30" s="197"/>
-      <c r="UH30" s="197"/>
-      <c r="UI30" s="197"/>
-      <c r="UJ30" s="197"/>
-      <c r="UK30" s="197"/>
-      <c r="UL30" s="197"/>
-      <c r="UM30" s="197"/>
-      <c r="UN30" s="197"/>
-      <c r="UO30" s="197"/>
-      <c r="UP30" s="197"/>
-      <c r="UQ30" s="197"/>
-      <c r="UR30" s="197"/>
-      <c r="US30" s="197"/>
-      <c r="UT30" s="197"/>
-      <c r="UU30" s="197"/>
-      <c r="UV30" s="197"/>
-      <c r="UW30" s="197"/>
-      <c r="UX30" s="197"/>
-      <c r="UY30" s="197"/>
-      <c r="UZ30" s="197"/>
-      <c r="VA30" s="197"/>
-      <c r="VB30" s="197"/>
-      <c r="VC30" s="198"/>
+      <c r="TZ30" s="165"/>
+      <c r="UA30" s="166"/>
+      <c r="UB30" s="166"/>
+      <c r="UC30" s="166"/>
+      <c r="UD30" s="166"/>
+      <c r="UE30" s="166"/>
+      <c r="UF30" s="166"/>
+      <c r="UG30" s="166"/>
+      <c r="UH30" s="166"/>
+      <c r="UI30" s="166"/>
+      <c r="UJ30" s="166"/>
+      <c r="UK30" s="166"/>
+      <c r="UL30" s="166"/>
+      <c r="UM30" s="166"/>
+      <c r="UN30" s="166"/>
+      <c r="UO30" s="166"/>
+      <c r="UP30" s="166"/>
+      <c r="UQ30" s="166"/>
+      <c r="UR30" s="166"/>
+      <c r="US30" s="166"/>
+      <c r="UT30" s="166"/>
+      <c r="UU30" s="166"/>
+      <c r="UV30" s="166"/>
+      <c r="UW30" s="166"/>
+      <c r="UX30" s="166"/>
+      <c r="UY30" s="166"/>
+      <c r="UZ30" s="166"/>
+      <c r="VA30" s="166"/>
+      <c r="VB30" s="166"/>
+      <c r="VC30" s="167"/>
     </row>
     <row r="31" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
@@ -20793,40 +20809,40 @@
       <c r="TW32" s="61"/>
       <c r="TX32" s="61"/>
       <c r="TY32" s="78"/>
-      <c r="TZ32" s="206"/>
-      <c r="UA32" s="207"/>
-      <c r="UB32" s="207"/>
-      <c r="UC32" s="207"/>
-      <c r="UD32" s="207"/>
-      <c r="UE32" s="207"/>
-      <c r="UF32" s="207"/>
-      <c r="UG32" s="207"/>
-      <c r="UH32" s="207"/>
-      <c r="UI32" s="207"/>
-      <c r="UJ32" s="207"/>
-      <c r="UK32" s="207"/>
-      <c r="UL32" s="207"/>
-      <c r="UM32" s="207"/>
-      <c r="UN32" s="207"/>
-      <c r="UO32" s="207"/>
-      <c r="UP32" s="207"/>
-      <c r="UQ32" s="207"/>
-      <c r="UR32" s="207"/>
-      <c r="US32" s="207"/>
-      <c r="UT32" s="207"/>
-      <c r="UU32" s="207"/>
-      <c r="UV32" s="207"/>
-      <c r="UW32" s="207"/>
-      <c r="UX32" s="207"/>
-      <c r="UY32" s="207"/>
-      <c r="UZ32" s="207"/>
-      <c r="VA32" s="207"/>
-      <c r="VB32" s="207"/>
-      <c r="VC32" s="208"/>
+      <c r="TZ32" s="156"/>
+      <c r="UA32" s="157"/>
+      <c r="UB32" s="157"/>
+      <c r="UC32" s="157"/>
+      <c r="UD32" s="157"/>
+      <c r="UE32" s="157"/>
+      <c r="UF32" s="157"/>
+      <c r="UG32" s="157"/>
+      <c r="UH32" s="157"/>
+      <c r="UI32" s="157"/>
+      <c r="UJ32" s="157"/>
+      <c r="UK32" s="157"/>
+      <c r="UL32" s="157"/>
+      <c r="UM32" s="157"/>
+      <c r="UN32" s="157"/>
+      <c r="UO32" s="157"/>
+      <c r="UP32" s="157"/>
+      <c r="UQ32" s="157"/>
+      <c r="UR32" s="157"/>
+      <c r="US32" s="157"/>
+      <c r="UT32" s="157"/>
+      <c r="UU32" s="157"/>
+      <c r="UV32" s="157"/>
+      <c r="UW32" s="157"/>
+      <c r="UX32" s="157"/>
+      <c r="UY32" s="157"/>
+      <c r="UZ32" s="157"/>
+      <c r="VA32" s="157"/>
+      <c r="VB32" s="157"/>
+      <c r="VC32" s="158"/>
     </row>
     <row r="33" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="192" t="s">
+      <c r="B33" s="144" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="65" t="s">
@@ -21132,7 +21148,7 @@
       <c r="KO33" s="37"/>
       <c r="KP33" s="37"/>
       <c r="KQ33" s="44"/>
-      <c r="KR33" s="192" t="s">
+      <c r="KR33" s="144" t="s">
         <v>63</v>
       </c>
       <c r="KS33" s="124" t="s">
@@ -21411,7 +21427,7 @@
     </row>
     <row r="34" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="193"/>
+      <c r="B34" s="143"/>
       <c r="C34" s="64" t="s">
         <v>29</v>
       </c>
@@ -21715,7 +21731,7 @@
       <c r="KO34" s="27"/>
       <c r="KP34" s="27"/>
       <c r="KQ34" s="34"/>
-      <c r="KR34" s="193"/>
+      <c r="KR34" s="143"/>
       <c r="KS34" s="123" t="s">
         <v>29</v>
       </c>
@@ -21992,7 +22008,7 @@
     </row>
     <row r="35" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="192" t="s">
+      <c r="B35" s="144" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -22298,7 +22314,7 @@
       <c r="KO35" s="37"/>
       <c r="KP35" s="37"/>
       <c r="KQ35" s="44"/>
-      <c r="KR35" s="192" t="s">
+      <c r="KR35" s="144" t="s">
         <v>71</v>
       </c>
       <c r="KS35" s="124" t="s">
@@ -22577,7 +22593,7 @@
     </row>
     <row r="36" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="193"/>
+      <c r="B36" s="143"/>
       <c r="C36" s="64" t="s">
         <v>29</v>
       </c>
@@ -22881,7 +22897,7 @@
       <c r="KO36" s="27"/>
       <c r="KP36" s="27"/>
       <c r="KQ36" s="34"/>
-      <c r="KR36" s="193"/>
+      <c r="KR36" s="143"/>
       <c r="KS36" s="123" t="s">
         <v>29</v>
       </c>
@@ -23158,7 +23174,7 @@
     </row>
     <row r="37" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="192" t="s">
+      <c r="B37" s="144" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="65" t="s">
@@ -23464,7 +23480,7 @@
       <c r="KO37" s="37"/>
       <c r="KP37" s="37"/>
       <c r="KQ37" s="44"/>
-      <c r="KR37" s="192" t="s">
+      <c r="KR37" s="144" t="s">
         <v>72</v>
       </c>
       <c r="KS37" s="124" t="s">
@@ -23743,7 +23759,7 @@
     </row>
     <row r="38" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="193"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="64" t="s">
         <v>29</v>
       </c>
@@ -24047,7 +24063,7 @@
       <c r="KO38" s="27"/>
       <c r="KP38" s="27"/>
       <c r="KQ38" s="34"/>
-      <c r="KR38" s="193"/>
+      <c r="KR38" s="143"/>
       <c r="KS38" s="123" t="s">
         <v>29</v>
       </c>
@@ -24324,7 +24340,7 @@
     </row>
     <row r="39" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="209" t="s">
+      <c r="B39" s="145" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="65" t="s">
@@ -24630,7 +24646,7 @@
       <c r="KO39" s="18"/>
       <c r="KP39" s="18"/>
       <c r="KQ39" s="24"/>
-      <c r="KR39" s="209" t="s">
+      <c r="KR39" s="145" t="s">
         <v>66</v>
       </c>
       <c r="KS39" s="124" t="s">
@@ -24909,7 +24925,7 @@
     </row>
     <row r="40" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="210"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="66" t="s">
         <v>29</v>
       </c>
@@ -25213,7 +25229,7 @@
       <c r="KO40" s="18"/>
       <c r="KP40" s="18"/>
       <c r="KQ40" s="24"/>
-      <c r="KR40" s="210"/>
+      <c r="KR40" s="146"/>
       <c r="KS40" s="125" t="s">
         <v>29</v>
       </c>
@@ -26038,36 +26054,36 @@
       <c r="TW41" s="60"/>
       <c r="TX41" s="60"/>
       <c r="TY41" s="72"/>
-      <c r="TZ41" s="196"/>
-      <c r="UA41" s="197"/>
-      <c r="UB41" s="197"/>
-      <c r="UC41" s="197"/>
-      <c r="UD41" s="197"/>
-      <c r="UE41" s="197"/>
-      <c r="UF41" s="197"/>
-      <c r="UG41" s="197"/>
-      <c r="UH41" s="197"/>
-      <c r="UI41" s="197"/>
-      <c r="UJ41" s="197"/>
-      <c r="UK41" s="197"/>
-      <c r="UL41" s="197"/>
-      <c r="UM41" s="197"/>
-      <c r="UN41" s="197"/>
-      <c r="UO41" s="197"/>
-      <c r="UP41" s="197"/>
-      <c r="UQ41" s="197"/>
-      <c r="UR41" s="197"/>
-      <c r="US41" s="197"/>
-      <c r="UT41" s="197"/>
-      <c r="UU41" s="197"/>
-      <c r="UV41" s="197"/>
-      <c r="UW41" s="197"/>
-      <c r="UX41" s="197"/>
-      <c r="UY41" s="197"/>
-      <c r="UZ41" s="197"/>
-      <c r="VA41" s="197"/>
-      <c r="VB41" s="197"/>
-      <c r="VC41" s="198"/>
+      <c r="TZ41" s="165"/>
+      <c r="UA41" s="166"/>
+      <c r="UB41" s="166"/>
+      <c r="UC41" s="166"/>
+      <c r="UD41" s="166"/>
+      <c r="UE41" s="166"/>
+      <c r="UF41" s="166"/>
+      <c r="UG41" s="166"/>
+      <c r="UH41" s="166"/>
+      <c r="UI41" s="166"/>
+      <c r="UJ41" s="166"/>
+      <c r="UK41" s="166"/>
+      <c r="UL41" s="166"/>
+      <c r="UM41" s="166"/>
+      <c r="UN41" s="166"/>
+      <c r="UO41" s="166"/>
+      <c r="UP41" s="166"/>
+      <c r="UQ41" s="166"/>
+      <c r="UR41" s="166"/>
+      <c r="US41" s="166"/>
+      <c r="UT41" s="166"/>
+      <c r="UU41" s="166"/>
+      <c r="UV41" s="166"/>
+      <c r="UW41" s="166"/>
+      <c r="UX41" s="166"/>
+      <c r="UY41" s="166"/>
+      <c r="UZ41" s="166"/>
+      <c r="VA41" s="166"/>
+      <c r="VB41" s="166"/>
+      <c r="VC41" s="167"/>
     </row>
     <row r="42" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
@@ -27200,40 +27216,40 @@
       <c r="TW43" s="61"/>
       <c r="TX43" s="61"/>
       <c r="TY43" s="78"/>
-      <c r="TZ43" s="206"/>
-      <c r="UA43" s="207"/>
-      <c r="UB43" s="207"/>
-      <c r="UC43" s="207"/>
-      <c r="UD43" s="207"/>
-      <c r="UE43" s="207"/>
-      <c r="UF43" s="207"/>
-      <c r="UG43" s="207"/>
-      <c r="UH43" s="207"/>
-      <c r="UI43" s="207"/>
-      <c r="UJ43" s="207"/>
-      <c r="UK43" s="207"/>
-      <c r="UL43" s="207"/>
-      <c r="UM43" s="207"/>
-      <c r="UN43" s="207"/>
-      <c r="UO43" s="207"/>
-      <c r="UP43" s="207"/>
-      <c r="UQ43" s="207"/>
-      <c r="UR43" s="207"/>
-      <c r="US43" s="207"/>
-      <c r="UT43" s="207"/>
-      <c r="UU43" s="207"/>
-      <c r="UV43" s="207"/>
-      <c r="UW43" s="207"/>
-      <c r="UX43" s="207"/>
-      <c r="UY43" s="207"/>
-      <c r="UZ43" s="207"/>
-      <c r="VA43" s="207"/>
-      <c r="VB43" s="207"/>
-      <c r="VC43" s="208"/>
+      <c r="TZ43" s="156"/>
+      <c r="UA43" s="157"/>
+      <c r="UB43" s="157"/>
+      <c r="UC43" s="157"/>
+      <c r="UD43" s="157"/>
+      <c r="UE43" s="157"/>
+      <c r="UF43" s="157"/>
+      <c r="UG43" s="157"/>
+      <c r="UH43" s="157"/>
+      <c r="UI43" s="157"/>
+      <c r="UJ43" s="157"/>
+      <c r="UK43" s="157"/>
+      <c r="UL43" s="157"/>
+      <c r="UM43" s="157"/>
+      <c r="UN43" s="157"/>
+      <c r="UO43" s="157"/>
+      <c r="UP43" s="157"/>
+      <c r="UQ43" s="157"/>
+      <c r="UR43" s="157"/>
+      <c r="US43" s="157"/>
+      <c r="UT43" s="157"/>
+      <c r="UU43" s="157"/>
+      <c r="UV43" s="157"/>
+      <c r="UW43" s="157"/>
+      <c r="UX43" s="157"/>
+      <c r="UY43" s="157"/>
+      <c r="UZ43" s="157"/>
+      <c r="VA43" s="157"/>
+      <c r="VB43" s="157"/>
+      <c r="VC43" s="158"/>
     </row>
     <row r="44" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="192" t="s">
+      <c r="B44" s="144" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="65" t="s">
@@ -27539,7 +27555,7 @@
       <c r="KO44" s="37"/>
       <c r="KP44" s="37"/>
       <c r="KQ44" s="44"/>
-      <c r="KR44" s="192" t="s">
+      <c r="KR44" s="144" t="s">
         <v>61</v>
       </c>
       <c r="KS44" s="124" t="s">
@@ -27818,7 +27834,7 @@
     </row>
     <row r="45" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="193"/>
+      <c r="B45" s="143"/>
       <c r="C45" s="64" t="s">
         <v>29</v>
       </c>
@@ -28122,7 +28138,7 @@
       <c r="KO45" s="27"/>
       <c r="KP45" s="27"/>
       <c r="KQ45" s="34"/>
-      <c r="KR45" s="193"/>
+      <c r="KR45" s="143"/>
       <c r="KS45" s="123" t="s">
         <v>29</v>
       </c>
@@ -28399,7 +28415,7 @@
     </row>
     <row r="46" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="192" t="s">
+      <c r="B46" s="144" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="65" t="s">
@@ -28705,7 +28721,7 @@
       <c r="KO46" s="37"/>
       <c r="KP46" s="37"/>
       <c r="KQ46" s="44"/>
-      <c r="KR46" s="192" t="s">
+      <c r="KR46" s="144" t="s">
         <v>73</v>
       </c>
       <c r="KS46" s="124" t="s">
@@ -28984,7 +29000,7 @@
     </row>
     <row r="47" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="193"/>
+      <c r="B47" s="143"/>
       <c r="C47" s="64" t="s">
         <v>29</v>
       </c>
@@ -29288,7 +29304,7 @@
       <c r="KO47" s="27"/>
       <c r="KP47" s="27"/>
       <c r="KQ47" s="34"/>
-      <c r="KR47" s="193"/>
+      <c r="KR47" s="143"/>
       <c r="KS47" s="123" t="s">
         <v>29</v>
       </c>
@@ -29565,7 +29581,7 @@
     </row>
     <row r="48" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="192" t="s">
+      <c r="B48" s="144" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="65" t="s">
@@ -29871,7 +29887,7 @@
       <c r="KO48" s="37"/>
       <c r="KP48" s="37"/>
       <c r="KQ48" s="44"/>
-      <c r="KR48" s="192" t="s">
+      <c r="KR48" s="144" t="s">
         <v>64</v>
       </c>
       <c r="KS48" s="124" t="s">
@@ -30150,7 +30166,7 @@
     </row>
     <row r="49" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="193"/>
+      <c r="B49" s="143"/>
       <c r="C49" s="64" t="s">
         <v>29</v>
       </c>
@@ -30454,7 +30470,7 @@
       <c r="KO49" s="27"/>
       <c r="KP49" s="27"/>
       <c r="KQ49" s="34"/>
-      <c r="KR49" s="193"/>
+      <c r="KR49" s="143"/>
       <c r="KS49" s="123" t="s">
         <v>29</v>
       </c>
@@ -30731,7 +30747,7 @@
     </row>
     <row r="50" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="192" t="s">
+      <c r="B50" s="144" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="65" t="s">
@@ -31037,7 +31053,7 @@
       <c r="KO50" s="37"/>
       <c r="KP50" s="37"/>
       <c r="KQ50" s="44"/>
-      <c r="KR50" s="192" t="s">
+      <c r="KR50" s="144" t="s">
         <v>65</v>
       </c>
       <c r="KS50" s="124" t="s">
@@ -31316,7 +31332,7 @@
     </row>
     <row r="51" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="193"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="64" t="s">
         <v>29</v>
       </c>
@@ -31620,7 +31636,7 @@
       <c r="KO51" s="27"/>
       <c r="KP51" s="27"/>
       <c r="KQ51" s="34"/>
-      <c r="KR51" s="193"/>
+      <c r="KR51" s="143"/>
       <c r="KS51" s="123" t="s">
         <v>29</v>
       </c>
@@ -31897,7 +31913,7 @@
     </row>
     <row r="52" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="194" t="s">
+      <c r="B52" s="154" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -32203,7 +32219,7 @@
       <c r="KO52" s="18"/>
       <c r="KP52" s="18"/>
       <c r="KQ52" s="24"/>
-      <c r="KR52" s="194" t="s">
+      <c r="KR52" s="154" t="s">
         <v>62</v>
       </c>
       <c r="KS52" s="122" t="s">
@@ -32482,7 +32498,7 @@
     </row>
     <row r="53" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="195"/>
+      <c r="B53" s="155"/>
       <c r="C53" s="66" t="s">
         <v>29</v>
       </c>
@@ -32786,7 +32802,7 @@
       <c r="KO53" s="18"/>
       <c r="KP53" s="18"/>
       <c r="KQ53" s="24"/>
-      <c r="KR53" s="195"/>
+      <c r="KR53" s="155"/>
       <c r="KS53" s="125" t="s">
         <v>29</v>
       </c>
@@ -33611,36 +33627,36 @@
       <c r="TW54" s="60"/>
       <c r="TX54" s="60"/>
       <c r="TY54" s="72"/>
-      <c r="TZ54" s="196"/>
-      <c r="UA54" s="197"/>
-      <c r="UB54" s="197"/>
-      <c r="UC54" s="197"/>
-      <c r="UD54" s="197"/>
-      <c r="UE54" s="197"/>
-      <c r="UF54" s="197"/>
-      <c r="UG54" s="197"/>
-      <c r="UH54" s="197"/>
-      <c r="UI54" s="197"/>
-      <c r="UJ54" s="197"/>
-      <c r="UK54" s="197"/>
-      <c r="UL54" s="197"/>
-      <c r="UM54" s="197"/>
-      <c r="UN54" s="197"/>
-      <c r="UO54" s="197"/>
-      <c r="UP54" s="197"/>
-      <c r="UQ54" s="197"/>
-      <c r="UR54" s="197"/>
-      <c r="US54" s="197"/>
-      <c r="UT54" s="197"/>
-      <c r="UU54" s="197"/>
-      <c r="UV54" s="197"/>
-      <c r="UW54" s="197"/>
-      <c r="UX54" s="197"/>
-      <c r="UY54" s="197"/>
-      <c r="UZ54" s="197"/>
-      <c r="VA54" s="197"/>
-      <c r="VB54" s="197"/>
-      <c r="VC54" s="198"/>
+      <c r="TZ54" s="165"/>
+      <c r="UA54" s="166"/>
+      <c r="UB54" s="166"/>
+      <c r="UC54" s="166"/>
+      <c r="UD54" s="166"/>
+      <c r="UE54" s="166"/>
+      <c r="UF54" s="166"/>
+      <c r="UG54" s="166"/>
+      <c r="UH54" s="166"/>
+      <c r="UI54" s="166"/>
+      <c r="UJ54" s="166"/>
+      <c r="UK54" s="166"/>
+      <c r="UL54" s="166"/>
+      <c r="UM54" s="166"/>
+      <c r="UN54" s="166"/>
+      <c r="UO54" s="166"/>
+      <c r="UP54" s="166"/>
+      <c r="UQ54" s="166"/>
+      <c r="UR54" s="166"/>
+      <c r="US54" s="166"/>
+      <c r="UT54" s="166"/>
+      <c r="UU54" s="166"/>
+      <c r="UV54" s="166"/>
+      <c r="UW54" s="166"/>
+      <c r="UX54" s="166"/>
+      <c r="UY54" s="166"/>
+      <c r="UZ54" s="166"/>
+      <c r="VA54" s="166"/>
+      <c r="VB54" s="166"/>
+      <c r="VC54" s="167"/>
     </row>
     <row r="55" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
@@ -34773,40 +34789,40 @@
       <c r="TW56" s="61"/>
       <c r="TX56" s="61"/>
       <c r="TY56" s="78"/>
-      <c r="TZ56" s="206"/>
-      <c r="UA56" s="207"/>
-      <c r="UB56" s="207"/>
-      <c r="UC56" s="207"/>
-      <c r="UD56" s="207"/>
-      <c r="UE56" s="207"/>
-      <c r="UF56" s="207"/>
-      <c r="UG56" s="207"/>
-      <c r="UH56" s="207"/>
-      <c r="UI56" s="207"/>
-      <c r="UJ56" s="207"/>
-      <c r="UK56" s="207"/>
-      <c r="UL56" s="207"/>
-      <c r="UM56" s="207"/>
-      <c r="UN56" s="207"/>
-      <c r="UO56" s="207"/>
-      <c r="UP56" s="207"/>
-      <c r="UQ56" s="207"/>
-      <c r="UR56" s="207"/>
-      <c r="US56" s="207"/>
-      <c r="UT56" s="207"/>
-      <c r="UU56" s="207"/>
-      <c r="UV56" s="207"/>
-      <c r="UW56" s="207"/>
-      <c r="UX56" s="207"/>
-      <c r="UY56" s="207"/>
-      <c r="UZ56" s="207"/>
-      <c r="VA56" s="207"/>
-      <c r="VB56" s="207"/>
-      <c r="VC56" s="208"/>
+      <c r="TZ56" s="156"/>
+      <c r="UA56" s="157"/>
+      <c r="UB56" s="157"/>
+      <c r="UC56" s="157"/>
+      <c r="UD56" s="157"/>
+      <c r="UE56" s="157"/>
+      <c r="UF56" s="157"/>
+      <c r="UG56" s="157"/>
+      <c r="UH56" s="157"/>
+      <c r="UI56" s="157"/>
+      <c r="UJ56" s="157"/>
+      <c r="UK56" s="157"/>
+      <c r="UL56" s="157"/>
+      <c r="UM56" s="157"/>
+      <c r="UN56" s="157"/>
+      <c r="UO56" s="157"/>
+      <c r="UP56" s="157"/>
+      <c r="UQ56" s="157"/>
+      <c r="UR56" s="157"/>
+      <c r="US56" s="157"/>
+      <c r="UT56" s="157"/>
+      <c r="UU56" s="157"/>
+      <c r="UV56" s="157"/>
+      <c r="UW56" s="157"/>
+      <c r="UX56" s="157"/>
+      <c r="UY56" s="157"/>
+      <c r="UZ56" s="157"/>
+      <c r="VA56" s="157"/>
+      <c r="VB56" s="157"/>
+      <c r="VC56" s="158"/>
     </row>
     <row r="57" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="202" t="s">
+      <c r="B57" s="142" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="67" t="s">
@@ -35112,7 +35128,7 @@
       <c r="KO57" s="18"/>
       <c r="KP57" s="18"/>
       <c r="KQ57" s="24"/>
-      <c r="KR57" s="202" t="s">
+      <c r="KR57" s="142" t="s">
         <v>70</v>
       </c>
       <c r="KS57" s="128" t="s">
@@ -35391,7 +35407,7 @@
     </row>
     <row r="58" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="193"/>
+      <c r="B58" s="143"/>
       <c r="C58" s="64" t="s">
         <v>29</v>
       </c>
@@ -35695,7 +35711,7 @@
       <c r="KO58" s="27"/>
       <c r="KP58" s="27"/>
       <c r="KQ58" s="34"/>
-      <c r="KR58" s="193"/>
+      <c r="KR58" s="143"/>
       <c r="KS58" s="123" t="s">
         <v>29</v>
       </c>
@@ -35972,7 +35988,7 @@
     </row>
     <row r="59" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="192" t="s">
+      <c r="B59" s="144" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="65" t="s">
@@ -36278,7 +36294,7 @@
       <c r="KO59" s="37"/>
       <c r="KP59" s="37"/>
       <c r="KQ59" s="44"/>
-      <c r="KR59" s="192" t="s">
+      <c r="KR59" s="144" t="s">
         <v>67</v>
       </c>
       <c r="KS59" s="124" t="s">
@@ -36557,7 +36573,7 @@
     </row>
     <row r="60" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="193"/>
+      <c r="B60" s="143"/>
       <c r="C60" s="64" t="s">
         <v>29</v>
       </c>
@@ -36861,7 +36877,7 @@
       <c r="KO60" s="27"/>
       <c r="KP60" s="27"/>
       <c r="KQ60" s="34"/>
-      <c r="KR60" s="193"/>
+      <c r="KR60" s="143"/>
       <c r="KS60" s="123" t="s">
         <v>29</v>
       </c>
@@ -37686,36 +37702,36 @@
       <c r="TW61" s="60"/>
       <c r="TX61" s="60"/>
       <c r="TY61" s="72"/>
-      <c r="TZ61" s="196"/>
-      <c r="UA61" s="197"/>
-      <c r="UB61" s="197"/>
-      <c r="UC61" s="197"/>
-      <c r="UD61" s="197"/>
-      <c r="UE61" s="197"/>
-      <c r="UF61" s="197"/>
-      <c r="UG61" s="197"/>
-      <c r="UH61" s="197"/>
-      <c r="UI61" s="197"/>
-      <c r="UJ61" s="197"/>
-      <c r="UK61" s="197"/>
-      <c r="UL61" s="197"/>
-      <c r="UM61" s="197"/>
-      <c r="UN61" s="197"/>
-      <c r="UO61" s="197"/>
-      <c r="UP61" s="197"/>
-      <c r="UQ61" s="197"/>
-      <c r="UR61" s="197"/>
-      <c r="US61" s="197"/>
-      <c r="UT61" s="197"/>
-      <c r="UU61" s="197"/>
-      <c r="UV61" s="197"/>
-      <c r="UW61" s="197"/>
-      <c r="UX61" s="197"/>
-      <c r="UY61" s="197"/>
-      <c r="UZ61" s="197"/>
-      <c r="VA61" s="197"/>
-      <c r="VB61" s="197"/>
-      <c r="VC61" s="198"/>
+      <c r="TZ61" s="165"/>
+      <c r="UA61" s="166"/>
+      <c r="UB61" s="166"/>
+      <c r="UC61" s="166"/>
+      <c r="UD61" s="166"/>
+      <c r="UE61" s="166"/>
+      <c r="UF61" s="166"/>
+      <c r="UG61" s="166"/>
+      <c r="UH61" s="166"/>
+      <c r="UI61" s="166"/>
+      <c r="UJ61" s="166"/>
+      <c r="UK61" s="166"/>
+      <c r="UL61" s="166"/>
+      <c r="UM61" s="166"/>
+      <c r="UN61" s="166"/>
+      <c r="UO61" s="166"/>
+      <c r="UP61" s="166"/>
+      <c r="UQ61" s="166"/>
+      <c r="UR61" s="166"/>
+      <c r="US61" s="166"/>
+      <c r="UT61" s="166"/>
+      <c r="UU61" s="166"/>
+      <c r="UV61" s="166"/>
+      <c r="UW61" s="166"/>
+      <c r="UX61" s="166"/>
+      <c r="UY61" s="166"/>
+      <c r="UZ61" s="166"/>
+      <c r="VA61" s="166"/>
+      <c r="VB61" s="166"/>
+      <c r="VC61" s="167"/>
     </row>
     <row r="62" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46"/>
@@ -38848,40 +38864,40 @@
       <c r="TW63" s="61"/>
       <c r="TX63" s="61"/>
       <c r="TY63" s="78"/>
-      <c r="TZ63" s="206"/>
-      <c r="UA63" s="207"/>
-      <c r="UB63" s="207"/>
-      <c r="UC63" s="207"/>
-      <c r="UD63" s="207"/>
-      <c r="UE63" s="207"/>
-      <c r="UF63" s="207"/>
-      <c r="UG63" s="207"/>
-      <c r="UH63" s="207"/>
-      <c r="UI63" s="207"/>
-      <c r="UJ63" s="207"/>
-      <c r="UK63" s="207"/>
-      <c r="UL63" s="207"/>
-      <c r="UM63" s="207"/>
-      <c r="UN63" s="207"/>
-      <c r="UO63" s="207"/>
-      <c r="UP63" s="207"/>
-      <c r="UQ63" s="207"/>
-      <c r="UR63" s="207"/>
-      <c r="US63" s="207"/>
-      <c r="UT63" s="207"/>
-      <c r="UU63" s="207"/>
-      <c r="UV63" s="207"/>
-      <c r="UW63" s="207"/>
-      <c r="UX63" s="207"/>
-      <c r="UY63" s="207"/>
-      <c r="UZ63" s="207"/>
-      <c r="VA63" s="207"/>
-      <c r="VB63" s="207"/>
-      <c r="VC63" s="208"/>
+      <c r="TZ63" s="156"/>
+      <c r="UA63" s="157"/>
+      <c r="UB63" s="157"/>
+      <c r="UC63" s="157"/>
+      <c r="UD63" s="157"/>
+      <c r="UE63" s="157"/>
+      <c r="UF63" s="157"/>
+      <c r="UG63" s="157"/>
+      <c r="UH63" s="157"/>
+      <c r="UI63" s="157"/>
+      <c r="UJ63" s="157"/>
+      <c r="UK63" s="157"/>
+      <c r="UL63" s="157"/>
+      <c r="UM63" s="157"/>
+      <c r="UN63" s="157"/>
+      <c r="UO63" s="157"/>
+      <c r="UP63" s="157"/>
+      <c r="UQ63" s="157"/>
+      <c r="UR63" s="157"/>
+      <c r="US63" s="157"/>
+      <c r="UT63" s="157"/>
+      <c r="UU63" s="157"/>
+      <c r="UV63" s="157"/>
+      <c r="UW63" s="157"/>
+      <c r="UX63" s="157"/>
+      <c r="UY63" s="157"/>
+      <c r="UZ63" s="157"/>
+      <c r="VA63" s="157"/>
+      <c r="VB63" s="157"/>
+      <c r="VC63" s="158"/>
     </row>
     <row r="64" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="202" t="s">
+      <c r="B64" s="142" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="67" t="s">
@@ -39187,7 +39203,7 @@
       <c r="KO64" s="105"/>
       <c r="KP64" s="105"/>
       <c r="KQ64" s="24"/>
-      <c r="KR64" s="202" t="s">
+      <c r="KR64" s="142" t="s">
         <v>69</v>
       </c>
       <c r="KS64" s="128" t="s">
@@ -39466,7 +39482,7 @@
     </row>
     <row r="65" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="193"/>
+      <c r="B65" s="143"/>
       <c r="C65" s="64" t="s">
         <v>29</v>
       </c>
@@ -39770,7 +39786,7 @@
       <c r="KO65" s="27"/>
       <c r="KP65" s="27"/>
       <c r="KQ65" s="34"/>
-      <c r="KR65" s="193"/>
+      <c r="KR65" s="143"/>
       <c r="KS65" s="123" t="s">
         <v>29</v>
       </c>
@@ -40595,36 +40611,36 @@
       <c r="TW66" s="107"/>
       <c r="TX66" s="107"/>
       <c r="TY66" s="74"/>
-      <c r="TZ66" s="211"/>
-      <c r="UA66" s="212"/>
-      <c r="UB66" s="212"/>
-      <c r="UC66" s="212"/>
-      <c r="UD66" s="212"/>
-      <c r="UE66" s="212"/>
-      <c r="UF66" s="212"/>
-      <c r="UG66" s="212"/>
-      <c r="UH66" s="212"/>
-      <c r="UI66" s="212"/>
-      <c r="UJ66" s="212"/>
-      <c r="UK66" s="212"/>
-      <c r="UL66" s="212"/>
-      <c r="UM66" s="212"/>
-      <c r="UN66" s="212"/>
-      <c r="UO66" s="212"/>
-      <c r="UP66" s="212"/>
-      <c r="UQ66" s="212"/>
-      <c r="UR66" s="212"/>
-      <c r="US66" s="212"/>
-      <c r="UT66" s="212"/>
-      <c r="UU66" s="212"/>
-      <c r="UV66" s="212"/>
-      <c r="UW66" s="212"/>
-      <c r="UX66" s="212"/>
-      <c r="UY66" s="212"/>
-      <c r="UZ66" s="212"/>
-      <c r="VA66" s="212"/>
-      <c r="VB66" s="212"/>
-      <c r="VC66" s="213"/>
+      <c r="TZ66" s="159"/>
+      <c r="UA66" s="160"/>
+      <c r="UB66" s="160"/>
+      <c r="UC66" s="160"/>
+      <c r="UD66" s="160"/>
+      <c r="UE66" s="160"/>
+      <c r="UF66" s="160"/>
+      <c r="UG66" s="160"/>
+      <c r="UH66" s="160"/>
+      <c r="UI66" s="160"/>
+      <c r="UJ66" s="160"/>
+      <c r="UK66" s="160"/>
+      <c r="UL66" s="160"/>
+      <c r="UM66" s="160"/>
+      <c r="UN66" s="160"/>
+      <c r="UO66" s="160"/>
+      <c r="UP66" s="160"/>
+      <c r="UQ66" s="160"/>
+      <c r="UR66" s="160"/>
+      <c r="US66" s="160"/>
+      <c r="UT66" s="160"/>
+      <c r="UU66" s="160"/>
+      <c r="UV66" s="160"/>
+      <c r="UW66" s="160"/>
+      <c r="UX66" s="160"/>
+      <c r="UY66" s="160"/>
+      <c r="UZ66" s="160"/>
+      <c r="VA66" s="160"/>
+      <c r="VB66" s="160"/>
+      <c r="VC66" s="161"/>
     </row>
     <row r="67" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46"/>
@@ -41176,36 +41192,36 @@
       <c r="TW67" s="54"/>
       <c r="TX67" s="54"/>
       <c r="TY67" s="53"/>
-      <c r="TZ67" s="214"/>
-      <c r="UA67" s="215"/>
-      <c r="UB67" s="215"/>
-      <c r="UC67" s="215"/>
-      <c r="UD67" s="215"/>
-      <c r="UE67" s="215"/>
-      <c r="UF67" s="215"/>
-      <c r="UG67" s="215"/>
-      <c r="UH67" s="215"/>
-      <c r="UI67" s="215"/>
-      <c r="UJ67" s="215"/>
-      <c r="UK67" s="215"/>
-      <c r="UL67" s="215"/>
-      <c r="UM67" s="215"/>
-      <c r="UN67" s="215"/>
-      <c r="UO67" s="215"/>
-      <c r="UP67" s="215"/>
-      <c r="UQ67" s="215"/>
-      <c r="UR67" s="215"/>
-      <c r="US67" s="215"/>
-      <c r="UT67" s="215"/>
-      <c r="UU67" s="215"/>
-      <c r="UV67" s="215"/>
-      <c r="UW67" s="215"/>
-      <c r="UX67" s="215"/>
-      <c r="UY67" s="215"/>
-      <c r="UZ67" s="215"/>
-      <c r="VA67" s="215"/>
-      <c r="VB67" s="215"/>
-      <c r="VC67" s="216"/>
+      <c r="TZ67" s="162"/>
+      <c r="UA67" s="163"/>
+      <c r="UB67" s="163"/>
+      <c r="UC67" s="163"/>
+      <c r="UD67" s="163"/>
+      <c r="UE67" s="163"/>
+      <c r="UF67" s="163"/>
+      <c r="UG67" s="163"/>
+      <c r="UH67" s="163"/>
+      <c r="UI67" s="163"/>
+      <c r="UJ67" s="163"/>
+      <c r="UK67" s="163"/>
+      <c r="UL67" s="163"/>
+      <c r="UM67" s="163"/>
+      <c r="UN67" s="163"/>
+      <c r="UO67" s="163"/>
+      <c r="UP67" s="163"/>
+      <c r="UQ67" s="163"/>
+      <c r="UR67" s="163"/>
+      <c r="US67" s="163"/>
+      <c r="UT67" s="163"/>
+      <c r="UU67" s="163"/>
+      <c r="UV67" s="163"/>
+      <c r="UW67" s="163"/>
+      <c r="UX67" s="163"/>
+      <c r="UY67" s="163"/>
+      <c r="UZ67" s="163"/>
+      <c r="VA67" s="163"/>
+      <c r="VB67" s="163"/>
+      <c r="VC67" s="164"/>
     </row>
     <row r="68" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
@@ -44666,50 +44682,88 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="KR28:KR29"/>
-    <mergeCell ref="KR33:KR34"/>
-    <mergeCell ref="KR35:KR36"/>
-    <mergeCell ref="KR37:KR38"/>
-    <mergeCell ref="KR39:KR40"/>
-    <mergeCell ref="KR44:KR45"/>
-    <mergeCell ref="KR46:KR47"/>
-    <mergeCell ref="KR48:KR49"/>
-    <mergeCell ref="KR50:KR51"/>
-    <mergeCell ref="KR4:KS6"/>
-    <mergeCell ref="KR12:KS12"/>
-    <mergeCell ref="KR13:KS13"/>
-    <mergeCell ref="KR14:KS14"/>
-    <mergeCell ref="KR15:KS15"/>
-    <mergeCell ref="KR17:KR18"/>
-    <mergeCell ref="KR19:KR20"/>
-    <mergeCell ref="KR21:KR22"/>
-    <mergeCell ref="KR23:KR24"/>
-    <mergeCell ref="TZ63:VC63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="TZ66:VC66"/>
-    <mergeCell ref="TZ67:VC67"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="TZ54:VC54"/>
-    <mergeCell ref="TZ56:VC56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="TZ61:VC61"/>
-    <mergeCell ref="KR52:KR53"/>
-    <mergeCell ref="KR57:KR58"/>
-    <mergeCell ref="KR59:KR60"/>
-    <mergeCell ref="KR64:KR65"/>
-    <mergeCell ref="TZ41:VC41"/>
-    <mergeCell ref="TZ43:VC43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="TZ30:VC30"/>
-    <mergeCell ref="TZ32:VC32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="AO6:BK6"/>
+    <mergeCell ref="B7:BK9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:BK12"/>
+    <mergeCell ref="BL12:GA12"/>
+    <mergeCell ref="GB12:KQ12"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="Q4:BK4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="AB5:AN5"/>
+    <mergeCell ref="AO5:BK5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="Q6:AA6"/>
+    <mergeCell ref="AB6:AN6"/>
+    <mergeCell ref="KT12:PI12"/>
+    <mergeCell ref="PJ12:TY12"/>
+    <mergeCell ref="TZ12:VC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:AG13"/>
+    <mergeCell ref="AH13:BK13"/>
+    <mergeCell ref="BL13:CO13"/>
+    <mergeCell ref="CP13:DS13"/>
+    <mergeCell ref="DT13:EW13"/>
+    <mergeCell ref="EX13:GA13"/>
+    <mergeCell ref="TZ13:VC13"/>
+    <mergeCell ref="NB13:OE13"/>
+    <mergeCell ref="OF13:PI13"/>
+    <mergeCell ref="PJ13:QM13"/>
+    <mergeCell ref="QN13:RQ13"/>
+    <mergeCell ref="RR13:SU13"/>
+    <mergeCell ref="SV13:TY13"/>
+    <mergeCell ref="GB13:HE13"/>
+    <mergeCell ref="HF13:II13"/>
+    <mergeCell ref="IJ13:JM13"/>
+    <mergeCell ref="JN13:KQ13"/>
+    <mergeCell ref="KT13:LW13"/>
+    <mergeCell ref="LX13:NA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:AG14"/>
+    <mergeCell ref="AH14:BK14"/>
+    <mergeCell ref="BL14:CO14"/>
+    <mergeCell ref="CP14:DS14"/>
+    <mergeCell ref="DT14:EW14"/>
+    <mergeCell ref="EX14:GA14"/>
+    <mergeCell ref="GB14:HE14"/>
+    <mergeCell ref="HF14:II14"/>
+    <mergeCell ref="SV14:TY14"/>
+    <mergeCell ref="TZ14:VC14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:R15"/>
+    <mergeCell ref="S15:AG15"/>
+    <mergeCell ref="AH15:AV15"/>
+    <mergeCell ref="AW15:BK15"/>
+    <mergeCell ref="IJ14:JM14"/>
+    <mergeCell ref="JN14:KQ14"/>
+    <mergeCell ref="KT14:LW14"/>
+    <mergeCell ref="LX14:NA14"/>
+    <mergeCell ref="NB14:OE14"/>
+    <mergeCell ref="OF14:PI14"/>
+    <mergeCell ref="BL15:BZ15"/>
+    <mergeCell ref="CA15:CO15"/>
+    <mergeCell ref="CP15:DD15"/>
+    <mergeCell ref="DE15:DS15"/>
+    <mergeCell ref="DT15:EH15"/>
+    <mergeCell ref="EI15:EW15"/>
+    <mergeCell ref="PJ14:QM14"/>
+    <mergeCell ref="QN14:RQ14"/>
+    <mergeCell ref="RR14:SU14"/>
+    <mergeCell ref="IJ15:IX15"/>
+    <mergeCell ref="IY15:JM15"/>
+    <mergeCell ref="JN15:KB15"/>
+    <mergeCell ref="KC15:KQ15"/>
+    <mergeCell ref="KT15:LH15"/>
+    <mergeCell ref="LI15:LW15"/>
+    <mergeCell ref="EX15:FL15"/>
+    <mergeCell ref="FM15:GA15"/>
+    <mergeCell ref="GB15:GP15"/>
+    <mergeCell ref="GQ15:HE15"/>
+    <mergeCell ref="HF15:HT15"/>
+    <mergeCell ref="HU15:II15"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
@@ -44734,88 +44788,50 @@
     <mergeCell ref="NQ15:OE15"/>
     <mergeCell ref="OF15:OT15"/>
     <mergeCell ref="OU15:PI15"/>
-    <mergeCell ref="JN15:KB15"/>
-    <mergeCell ref="KC15:KQ15"/>
-    <mergeCell ref="KT15:LH15"/>
-    <mergeCell ref="LI15:LW15"/>
-    <mergeCell ref="EX15:FL15"/>
-    <mergeCell ref="FM15:GA15"/>
-    <mergeCell ref="GB15:GP15"/>
-    <mergeCell ref="GQ15:HE15"/>
-    <mergeCell ref="HF15:HT15"/>
-    <mergeCell ref="HU15:II15"/>
-    <mergeCell ref="SV14:TY14"/>
-    <mergeCell ref="TZ14:VC14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:R15"/>
-    <mergeCell ref="S15:AG15"/>
-    <mergeCell ref="AH15:AV15"/>
-    <mergeCell ref="AW15:BK15"/>
-    <mergeCell ref="IJ14:JM14"/>
-    <mergeCell ref="JN14:KQ14"/>
-    <mergeCell ref="KT14:LW14"/>
-    <mergeCell ref="LX14:NA14"/>
-    <mergeCell ref="NB14:OE14"/>
-    <mergeCell ref="OF14:PI14"/>
-    <mergeCell ref="BL15:BZ15"/>
-    <mergeCell ref="CA15:CO15"/>
-    <mergeCell ref="CP15:DD15"/>
-    <mergeCell ref="DE15:DS15"/>
-    <mergeCell ref="DT15:EH15"/>
-    <mergeCell ref="EI15:EW15"/>
-    <mergeCell ref="PJ14:QM14"/>
-    <mergeCell ref="QN14:RQ14"/>
-    <mergeCell ref="RR14:SU14"/>
-    <mergeCell ref="IJ15:IX15"/>
-    <mergeCell ref="IY15:JM15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:AG14"/>
-    <mergeCell ref="AH14:BK14"/>
-    <mergeCell ref="BL14:CO14"/>
-    <mergeCell ref="CP14:DS14"/>
-    <mergeCell ref="DT14:EW14"/>
-    <mergeCell ref="EX14:GA14"/>
-    <mergeCell ref="GB14:HE14"/>
-    <mergeCell ref="HF14:II14"/>
-    <mergeCell ref="KT12:PI12"/>
-    <mergeCell ref="PJ12:TY12"/>
-    <mergeCell ref="TZ12:VC12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:AG13"/>
-    <mergeCell ref="AH13:BK13"/>
-    <mergeCell ref="BL13:CO13"/>
-    <mergeCell ref="CP13:DS13"/>
-    <mergeCell ref="DT13:EW13"/>
-    <mergeCell ref="EX13:GA13"/>
-    <mergeCell ref="TZ13:VC13"/>
-    <mergeCell ref="NB13:OE13"/>
-    <mergeCell ref="OF13:PI13"/>
-    <mergeCell ref="PJ13:QM13"/>
-    <mergeCell ref="QN13:RQ13"/>
-    <mergeCell ref="RR13:SU13"/>
-    <mergeCell ref="SV13:TY13"/>
-    <mergeCell ref="GB13:HE13"/>
-    <mergeCell ref="HF13:II13"/>
-    <mergeCell ref="IJ13:JM13"/>
-    <mergeCell ref="JN13:KQ13"/>
-    <mergeCell ref="KT13:LW13"/>
-    <mergeCell ref="LX13:NA13"/>
-    <mergeCell ref="AO6:BK6"/>
-    <mergeCell ref="B7:BK9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:BK12"/>
-    <mergeCell ref="BL12:GA12"/>
-    <mergeCell ref="GB12:KQ12"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="Q4:BK4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="AB5:AN5"/>
-    <mergeCell ref="AO5:BK5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="Q6:AA6"/>
-    <mergeCell ref="AB6:AN6"/>
+    <mergeCell ref="TZ41:VC41"/>
+    <mergeCell ref="TZ43:VC43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="TZ30:VC30"/>
+    <mergeCell ref="TZ32:VC32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="TZ63:VC63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="TZ66:VC66"/>
+    <mergeCell ref="TZ67:VC67"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="TZ54:VC54"/>
+    <mergeCell ref="TZ56:VC56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="TZ61:VC61"/>
+    <mergeCell ref="KR52:KR53"/>
+    <mergeCell ref="KR57:KR58"/>
+    <mergeCell ref="KR59:KR60"/>
+    <mergeCell ref="KR64:KR65"/>
+    <mergeCell ref="KR4:KS6"/>
+    <mergeCell ref="KR12:KS12"/>
+    <mergeCell ref="KR13:KS13"/>
+    <mergeCell ref="KR14:KS14"/>
+    <mergeCell ref="KR15:KS15"/>
+    <mergeCell ref="KR17:KR18"/>
+    <mergeCell ref="KR19:KR20"/>
+    <mergeCell ref="KR21:KR22"/>
+    <mergeCell ref="KR23:KR24"/>
+    <mergeCell ref="KR28:KR29"/>
+    <mergeCell ref="KR33:KR34"/>
+    <mergeCell ref="KR35:KR36"/>
+    <mergeCell ref="KR37:KR38"/>
+    <mergeCell ref="KR39:KR40"/>
+    <mergeCell ref="KR44:KR45"/>
+    <mergeCell ref="KR46:KR47"/>
+    <mergeCell ref="KR48:KR49"/>
+    <mergeCell ref="KR50:KR51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -44839,8 +44855,8 @@
   </sheetPr>
   <dimension ref="B4:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44851,7 +44867,7 @@
     <col min="4" max="4" width="5.7109375" style="50" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" style="50" customWidth="1"/>
     <col min="7" max="7" width="80.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="75" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
@@ -44861,11 +44877,11 @@
       <c r="C5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="230" t="s">
+      <c r="D5" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="230"/>
-      <c r="F5" s="231"/>
+      <c r="E5" s="261"/>
+      <c r="F5" s="262"/>
       <c r="G5" s="95" t="s">
         <v>38</v>
       </c>
@@ -44874,60 +44890,60 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="237" t="s">
+      <c r="B6" s="248" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="224">
+      <c r="C6" s="246">
         <v>45414</v>
       </c>
-      <c r="D6" s="226" t="s">
+      <c r="D6" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="227" t="s">
+      <c r="E6" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="228"/>
-      <c r="G6" s="232" t="s">
+      <c r="F6" s="226"/>
+      <c r="G6" s="227" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="97"/>
     </row>
     <row r="7" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="238"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="226"/>
-      <c r="E7" s="227" t="s">
+      <c r="B7" s="249"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="228"/>
-      <c r="G7" s="233"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="263"/>
       <c r="H7" s="97"/>
     </row>
     <row r="8" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="238"/>
-      <c r="C8" s="225"/>
-      <c r="D8" s="221" t="s">
+      <c r="B8" s="249"/>
+      <c r="C8" s="247"/>
+      <c r="D8" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="221"/>
-      <c r="F8" s="229" t="s">
+      <c r="E8" s="229"/>
+      <c r="F8" s="257" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="222"/>
-      <c r="H8" s="223"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="231"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="238"/>
-      <c r="C9" s="234">
+      <c r="B9" s="249"/>
+      <c r="C9" s="245">
         <v>45415</v>
       </c>
-      <c r="D9" s="226" t="s">
+      <c r="D9" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="235" t="s">
+      <c r="E9" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="236"/>
+      <c r="F9" s="243"/>
       <c r="G9" s="130" t="s">
         <v>84</v>
       </c>
@@ -44936,13 +44952,13 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="238"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="227" t="s">
+      <c r="B10" s="249"/>
+      <c r="C10" s="246"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="228"/>
+      <c r="F10" s="226"/>
       <c r="G10" s="130" t="s">
         <v>85</v>
       </c>
@@ -44951,13 +44967,13 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="238"/>
-      <c r="C11" s="224"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="227" t="s">
+      <c r="B11" s="249"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="228"/>
+      <c r="F11" s="226"/>
       <c r="G11" s="130" t="s">
         <v>89</v>
       </c>
@@ -44966,13 +44982,13 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="238"/>
-      <c r="C12" s="224"/>
-      <c r="D12" s="226"/>
-      <c r="E12" s="227" t="s">
+      <c r="B12" s="249"/>
+      <c r="C12" s="246"/>
+      <c r="D12" s="244"/>
+      <c r="E12" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="228"/>
+      <c r="F12" s="226"/>
       <c r="G12" s="131" t="s">
         <v>86</v>
       </c>
@@ -44981,101 +44997,101 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="239"/>
-      <c r="C13" s="225"/>
-      <c r="D13" s="221" t="s">
+      <c r="B13" s="250"/>
+      <c r="C13" s="247"/>
+      <c r="D13" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="221"/>
-      <c r="F13" s="222" t="s">
+      <c r="E13" s="229"/>
+      <c r="F13" s="230" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="222"/>
-      <c r="H13" s="223"/>
+      <c r="G13" s="230"/>
+      <c r="H13" s="231"/>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="237" t="s">
+      <c r="B14" s="248" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="224">
+      <c r="C14" s="246">
         <v>45418</v>
       </c>
-      <c r="D14" s="226" t="s">
+      <c r="D14" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="227" t="s">
+      <c r="E14" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="228"/>
-      <c r="G14" s="232" t="s">
+      <c r="F14" s="226"/>
+      <c r="G14" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="258" t="s">
+      <c r="H14" s="228" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="238"/>
-      <c r="C15" s="224"/>
-      <c r="D15" s="226"/>
-      <c r="E15" s="227" t="s">
+      <c r="B15" s="249"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="244"/>
+      <c r="E15" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="228"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="259"/>
+      <c r="F15" s="226"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="224"/>
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="238"/>
-      <c r="C16" s="224"/>
-      <c r="D16" s="226"/>
-      <c r="E16" s="227" t="s">
+      <c r="B16" s="249"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="244"/>
+      <c r="E16" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="228"/>
-      <c r="G16" s="257" t="s">
+      <c r="F16" s="226"/>
+      <c r="G16" s="223" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="259" t="s">
+      <c r="H16" s="224" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="238"/>
-      <c r="C17" s="224"/>
-      <c r="D17" s="226"/>
-      <c r="E17" s="227" t="s">
+      <c r="B17" s="249"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="228"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="261"/>
+      <c r="F17" s="226"/>
+      <c r="G17" s="240"/>
+      <c r="H17" s="241"/>
     </row>
     <row r="18" spans="2:8" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="238"/>
-      <c r="C18" s="225"/>
-      <c r="D18" s="221" t="s">
+      <c r="B18" s="249"/>
+      <c r="C18" s="247"/>
+      <c r="D18" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="221"/>
-      <c r="F18" s="229" t="s">
+      <c r="E18" s="229"/>
+      <c r="F18" s="257" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="222"/>
-      <c r="H18" s="223"/>
+      <c r="G18" s="230"/>
+      <c r="H18" s="231"/>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="238"/>
-      <c r="C19" s="234">
+      <c r="B19" s="249"/>
+      <c r="C19" s="245">
         <v>45420</v>
       </c>
-      <c r="D19" s="226" t="s">
+      <c r="D19" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="235" t="s">
+      <c r="E19" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="236"/>
+      <c r="F19" s="243"/>
       <c r="G19" s="138" t="s">
         <v>99</v>
       </c>
@@ -45084,868 +45100,1010 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="238"/>
-      <c r="C20" s="224"/>
-      <c r="D20" s="226"/>
-      <c r="E20" s="227" t="s">
+      <c r="B20" s="249"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="228"/>
-      <c r="G20" s="257" t="s">
+      <c r="F20" s="226"/>
+      <c r="G20" s="223" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="259" t="s">
+      <c r="H20" s="224" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="238"/>
-      <c r="C21" s="224"/>
-      <c r="D21" s="226"/>
-      <c r="E21" s="227" t="s">
+      <c r="B21" s="249"/>
+      <c r="C21" s="246"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="228"/>
-      <c r="G21" s="257"/>
-      <c r="H21" s="259"/>
+      <c r="F21" s="226"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="224"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="238"/>
-      <c r="C22" s="224"/>
-      <c r="D22" s="226"/>
-      <c r="E22" s="227" t="s">
+      <c r="B22" s="249"/>
+      <c r="C22" s="246"/>
+      <c r="D22" s="244"/>
+      <c r="E22" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="228"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="97"/>
+      <c r="F22" s="226"/>
+      <c r="G22" s="140" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="141" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="238"/>
-      <c r="C23" s="225"/>
-      <c r="D23" s="221" t="s">
+      <c r="B23" s="249"/>
+      <c r="C23" s="247"/>
+      <c r="D23" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="221"/>
-      <c r="F23" s="222"/>
-      <c r="G23" s="222"/>
-      <c r="H23" s="223"/>
+      <c r="E23" s="229"/>
+      <c r="F23" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" s="230"/>
+      <c r="H23" s="231"/>
     </row>
     <row r="24" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="238"/>
-      <c r="C24" s="240">
+      <c r="B24" s="249"/>
+      <c r="C24" s="251">
         <v>45421</v>
       </c>
-      <c r="D24" s="226" t="s">
+      <c r="D24" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="242" t="s">
+      <c r="E24" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="243"/>
-      <c r="G24" s="247" t="s">
+      <c r="F24" s="233"/>
+      <c r="G24" s="255" t="s">
         <v>57</v>
       </c>
       <c r="H24" s="100"/>
     </row>
     <row r="25" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="238"/>
-      <c r="C25" s="240"/>
-      <c r="D25" s="226"/>
-      <c r="E25" s="242" t="s">
+      <c r="B25" s="249"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="244"/>
+      <c r="E25" s="232" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="243"/>
-      <c r="G25" s="248"/>
+      <c r="F25" s="233"/>
+      <c r="G25" s="256"/>
       <c r="H25" s="100"/>
     </row>
     <row r="26" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="238"/>
-      <c r="C26" s="241"/>
-      <c r="D26" s="244" t="s">
+      <c r="B26" s="249"/>
+      <c r="C26" s="252"/>
+      <c r="D26" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="244"/>
-      <c r="F26" s="245"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="246"/>
+      <c r="E26" s="234"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="253"/>
+      <c r="H26" s="254"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="238"/>
-      <c r="C27" s="249">
+      <c r="B27" s="249"/>
+      <c r="C27" s="258">
         <v>45422</v>
       </c>
-      <c r="D27" s="226" t="s">
+      <c r="D27" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="250" t="s">
+      <c r="E27" s="259" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="251"/>
-      <c r="G27" s="252" t="s">
+      <c r="F27" s="260"/>
+      <c r="G27" s="237" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="100"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="238"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="226"/>
-      <c r="E28" s="242" t="s">
+      <c r="B28" s="249"/>
+      <c r="C28" s="251"/>
+      <c r="D28" s="244"/>
+      <c r="E28" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="243"/>
-      <c r="G28" s="253"/>
+      <c r="F28" s="233"/>
+      <c r="G28" s="238"/>
       <c r="H28" s="100"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="238"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="226"/>
-      <c r="E29" s="242" t="s">
+      <c r="B29" s="249"/>
+      <c r="C29" s="251"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="243"/>
-      <c r="G29" s="253"/>
+      <c r="F29" s="233"/>
+      <c r="G29" s="238"/>
       <c r="H29" s="100"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="238"/>
-      <c r="C30" s="240"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="242" t="s">
+      <c r="B30" s="249"/>
+      <c r="C30" s="251"/>
+      <c r="D30" s="244"/>
+      <c r="E30" s="232" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="243"/>
-      <c r="G30" s="254"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="239"/>
       <c r="H30" s="100"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="239"/>
-      <c r="C31" s="241"/>
-      <c r="D31" s="244" t="s">
+      <c r="B31" s="250"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="244"/>
-      <c r="F31" s="255"/>
-      <c r="G31" s="255"/>
-      <c r="H31" s="256"/>
+      <c r="E31" s="234"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="236"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="237" t="s">
+      <c r="B32" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="224">
+      <c r="C32" s="246">
         <v>45425</v>
       </c>
-      <c r="D32" s="226" t="s">
+      <c r="D32" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="227" t="s">
+      <c r="E32" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="228"/>
+      <c r="F32" s="226"/>
       <c r="G32" s="98"/>
       <c r="H32" s="97"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="238"/>
-      <c r="C33" s="224"/>
-      <c r="D33" s="226"/>
-      <c r="E33" s="227" t="s">
+      <c r="B33" s="249"/>
+      <c r="C33" s="246"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="228"/>
+      <c r="F33" s="226"/>
       <c r="G33" s="98"/>
       <c r="H33" s="97"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="238"/>
-      <c r="C34" s="224"/>
-      <c r="D34" s="226"/>
-      <c r="E34" s="227" t="s">
+      <c r="B34" s="249"/>
+      <c r="C34" s="246"/>
+      <c r="D34" s="244"/>
+      <c r="E34" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="228"/>
+      <c r="F34" s="226"/>
       <c r="G34" s="99"/>
       <c r="H34" s="97"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="238"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="226"/>
-      <c r="E35" s="227" t="s">
+      <c r="B35" s="249"/>
+      <c r="C35" s="246"/>
+      <c r="D35" s="244"/>
+      <c r="E35" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="228"/>
+      <c r="F35" s="226"/>
       <c r="G35" s="99"/>
       <c r="H35" s="97"/>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="238"/>
-      <c r="C36" s="225"/>
-      <c r="D36" s="221" t="s">
+      <c r="B36" s="249"/>
+      <c r="C36" s="247"/>
+      <c r="D36" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="221"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="223"/>
+      <c r="E36" s="229"/>
+      <c r="F36" s="230"/>
+      <c r="G36" s="230"/>
+      <c r="H36" s="231"/>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="238"/>
-      <c r="C37" s="234">
+      <c r="B37" s="249"/>
+      <c r="C37" s="245">
         <v>45427</v>
       </c>
-      <c r="D37" s="226" t="s">
+      <c r="D37" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="235" t="s">
+      <c r="E37" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="236"/>
+      <c r="F37" s="243"/>
       <c r="G37" s="98"/>
       <c r="H37" s="97"/>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="238"/>
-      <c r="C38" s="224"/>
-      <c r="D38" s="226"/>
-      <c r="E38" s="227" t="s">
+      <c r="B38" s="249"/>
+      <c r="C38" s="246"/>
+      <c r="D38" s="244"/>
+      <c r="E38" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="228"/>
+      <c r="F38" s="226"/>
       <c r="G38" s="98"/>
       <c r="H38" s="97"/>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="238"/>
-      <c r="C39" s="224"/>
-      <c r="D39" s="226"/>
-      <c r="E39" s="227" t="s">
+      <c r="B39" s="249"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="244"/>
+      <c r="E39" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="228"/>
+      <c r="F39" s="226"/>
       <c r="G39" s="99"/>
       <c r="H39" s="97"/>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="238"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="226"/>
-      <c r="E40" s="227" t="s">
+      <c r="B40" s="249"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="244"/>
+      <c r="E40" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="228"/>
+      <c r="F40" s="226"/>
       <c r="G40" s="99"/>
       <c r="H40" s="97"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="238"/>
-      <c r="C41" s="225"/>
-      <c r="D41" s="221" t="s">
+      <c r="B41" s="249"/>
+      <c r="C41" s="247"/>
+      <c r="D41" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="221"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="223"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="230"/>
+      <c r="G41" s="230"/>
+      <c r="H41" s="231"/>
     </row>
     <row r="42" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="238"/>
-      <c r="C42" s="224">
+      <c r="B42" s="249"/>
+      <c r="C42" s="246">
         <v>45428</v>
       </c>
-      <c r="D42" s="226" t="s">
+      <c r="D42" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="227" t="s">
+      <c r="E42" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="228"/>
+      <c r="F42" s="226"/>
       <c r="G42" s="99"/>
       <c r="H42" s="97"/>
     </row>
     <row r="43" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="238"/>
-      <c r="C43" s="224"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227" t="s">
+      <c r="B43" s="249"/>
+      <c r="C43" s="246"/>
+      <c r="D43" s="244"/>
+      <c r="E43" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="228"/>
+      <c r="F43" s="226"/>
       <c r="G43" s="99"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="238"/>
-      <c r="C44" s="225"/>
-      <c r="D44" s="221" t="s">
+      <c r="B44" s="249"/>
+      <c r="C44" s="247"/>
+      <c r="D44" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="221"/>
-      <c r="F44" s="222"/>
-      <c r="G44" s="222"/>
-      <c r="H44" s="223"/>
+      <c r="E44" s="229"/>
+      <c r="F44" s="230"/>
+      <c r="G44" s="230"/>
+      <c r="H44" s="231"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="238"/>
-      <c r="C45" s="234">
+      <c r="B45" s="249"/>
+      <c r="C45" s="245">
         <v>45429</v>
       </c>
-      <c r="D45" s="226" t="s">
+      <c r="D45" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="235" t="s">
+      <c r="E45" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="236"/>
+      <c r="F45" s="243"/>
       <c r="G45" s="98"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="238"/>
-      <c r="C46" s="224"/>
-      <c r="D46" s="226"/>
-      <c r="E46" s="227" t="s">
+      <c r="B46" s="249"/>
+      <c r="C46" s="246"/>
+      <c r="D46" s="244"/>
+      <c r="E46" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="228"/>
+      <c r="F46" s="226"/>
       <c r="G46" s="98"/>
       <c r="H46" s="97"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="238"/>
-      <c r="C47" s="224"/>
-      <c r="D47" s="226"/>
-      <c r="E47" s="227" t="s">
+      <c r="B47" s="249"/>
+      <c r="C47" s="246"/>
+      <c r="D47" s="244"/>
+      <c r="E47" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="228"/>
+      <c r="F47" s="226"/>
       <c r="G47" s="99"/>
       <c r="H47" s="97"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="238"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="226"/>
-      <c r="E48" s="227" t="s">
+      <c r="B48" s="249"/>
+      <c r="C48" s="246"/>
+      <c r="D48" s="244"/>
+      <c r="E48" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="228"/>
+      <c r="F48" s="226"/>
       <c r="G48" s="99"/>
       <c r="H48" s="97"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="239"/>
-      <c r="C49" s="225"/>
-      <c r="D49" s="221" t="s">
+      <c r="B49" s="250"/>
+      <c r="C49" s="247"/>
+      <c r="D49" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="221"/>
-      <c r="F49" s="222"/>
-      <c r="G49" s="222"/>
-      <c r="H49" s="223"/>
+      <c r="E49" s="229"/>
+      <c r="F49" s="230"/>
+      <c r="G49" s="230"/>
+      <c r="H49" s="231"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="237" t="s">
+      <c r="B50" s="248" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="240">
+      <c r="C50" s="251">
         <v>45432</v>
       </c>
-      <c r="D50" s="226" t="s">
+      <c r="D50" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="242" t="s">
+      <c r="E50" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="243"/>
-      <c r="G50" s="252" t="s">
+      <c r="F50" s="233"/>
+      <c r="G50" s="237" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="238"/>
-      <c r="C51" s="240"/>
-      <c r="D51" s="226"/>
-      <c r="E51" s="242" t="s">
+      <c r="B51" s="249"/>
+      <c r="C51" s="251"/>
+      <c r="D51" s="244"/>
+      <c r="E51" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="243"/>
-      <c r="G51" s="253"/>
+      <c r="F51" s="233"/>
+      <c r="G51" s="238"/>
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="238"/>
-      <c r="C52" s="240"/>
-      <c r="D52" s="226"/>
-      <c r="E52" s="242" t="s">
+      <c r="B52" s="249"/>
+      <c r="C52" s="251"/>
+      <c r="D52" s="244"/>
+      <c r="E52" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="243"/>
-      <c r="G52" s="253"/>
+      <c r="F52" s="233"/>
+      <c r="G52" s="238"/>
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="238"/>
-      <c r="C53" s="240"/>
-      <c r="D53" s="226"/>
-      <c r="E53" s="242" t="s">
+      <c r="B53" s="249"/>
+      <c r="C53" s="251"/>
+      <c r="D53" s="244"/>
+      <c r="E53" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="243"/>
-      <c r="G53" s="254"/>
+      <c r="F53" s="233"/>
+      <c r="G53" s="239"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="238"/>
-      <c r="C54" s="241"/>
-      <c r="D54" s="244" t="s">
+      <c r="B54" s="249"/>
+      <c r="C54" s="252"/>
+      <c r="D54" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="244"/>
-      <c r="F54" s="245"/>
-      <c r="G54" s="245"/>
-      <c r="H54" s="246"/>
+      <c r="E54" s="234"/>
+      <c r="F54" s="253"/>
+      <c r="G54" s="253"/>
+      <c r="H54" s="254"/>
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="238"/>
-      <c r="C55" s="234">
+      <c r="B55" s="249"/>
+      <c r="C55" s="245">
         <v>45434</v>
       </c>
-      <c r="D55" s="226" t="s">
+      <c r="D55" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="235" t="s">
+      <c r="E55" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="236"/>
+      <c r="F55" s="243"/>
       <c r="G55" s="98"/>
       <c r="H55" s="97"/>
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="238"/>
-      <c r="C56" s="224"/>
-      <c r="D56" s="226"/>
-      <c r="E56" s="227" t="s">
+      <c r="B56" s="249"/>
+      <c r="C56" s="246"/>
+      <c r="D56" s="244"/>
+      <c r="E56" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="228"/>
+      <c r="F56" s="226"/>
       <c r="G56" s="98"/>
       <c r="H56" s="97"/>
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="238"/>
-      <c r="C57" s="224"/>
-      <c r="D57" s="226"/>
-      <c r="E57" s="227" t="s">
+      <c r="B57" s="249"/>
+      <c r="C57" s="246"/>
+      <c r="D57" s="244"/>
+      <c r="E57" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="228"/>
+      <c r="F57" s="226"/>
       <c r="G57" s="99"/>
       <c r="H57" s="97"/>
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="238"/>
-      <c r="C58" s="224"/>
-      <c r="D58" s="226"/>
-      <c r="E58" s="227" t="s">
+      <c r="B58" s="249"/>
+      <c r="C58" s="246"/>
+      <c r="D58" s="244"/>
+      <c r="E58" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="228"/>
+      <c r="F58" s="226"/>
       <c r="G58" s="99"/>
       <c r="H58" s="97"/>
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="238"/>
-      <c r="C59" s="225"/>
-      <c r="D59" s="221" t="s">
+      <c r="B59" s="249"/>
+      <c r="C59" s="247"/>
+      <c r="D59" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="221"/>
-      <c r="F59" s="222"/>
-      <c r="G59" s="222"/>
-      <c r="H59" s="223"/>
+      <c r="E59" s="229"/>
+      <c r="F59" s="230"/>
+      <c r="G59" s="230"/>
+      <c r="H59" s="231"/>
     </row>
     <row r="60" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="238"/>
-      <c r="C60" s="224">
+      <c r="B60" s="249"/>
+      <c r="C60" s="246">
         <v>45435</v>
       </c>
-      <c r="D60" s="226" t="s">
+      <c r="D60" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="227" t="s">
+      <c r="E60" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="228"/>
+      <c r="F60" s="226"/>
       <c r="G60" s="99"/>
       <c r="H60" s="97"/>
     </row>
     <row r="61" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="238"/>
-      <c r="C61" s="224"/>
-      <c r="D61" s="226"/>
-      <c r="E61" s="227" t="s">
+      <c r="B61" s="249"/>
+      <c r="C61" s="246"/>
+      <c r="D61" s="244"/>
+      <c r="E61" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="228"/>
+      <c r="F61" s="226"/>
       <c r="G61" s="99"/>
       <c r="H61" s="97"/>
     </row>
     <row r="62" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="238"/>
-      <c r="C62" s="225"/>
-      <c r="D62" s="221" t="s">
+      <c r="B62" s="249"/>
+      <c r="C62" s="247"/>
+      <c r="D62" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="221"/>
-      <c r="F62" s="222"/>
-      <c r="G62" s="222"/>
-      <c r="H62" s="223"/>
+      <c r="E62" s="229"/>
+      <c r="F62" s="230"/>
+      <c r="G62" s="230"/>
+      <c r="H62" s="231"/>
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="238"/>
-      <c r="C63" s="234">
+      <c r="B63" s="249"/>
+      <c r="C63" s="245">
         <v>45436</v>
       </c>
-      <c r="D63" s="226" t="s">
+      <c r="D63" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="235" t="s">
+      <c r="E63" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="236"/>
+      <c r="F63" s="243"/>
       <c r="G63" s="98"/>
       <c r="H63" s="97"/>
     </row>
     <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="238"/>
-      <c r="C64" s="224"/>
-      <c r="D64" s="226"/>
-      <c r="E64" s="227" t="s">
+      <c r="B64" s="249"/>
+      <c r="C64" s="246"/>
+      <c r="D64" s="244"/>
+      <c r="E64" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="228"/>
+      <c r="F64" s="226"/>
       <c r="G64" s="98"/>
       <c r="H64" s="97"/>
     </row>
     <row r="65" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="238"/>
-      <c r="C65" s="224"/>
-      <c r="D65" s="226"/>
-      <c r="E65" s="227" t="s">
+      <c r="B65" s="249"/>
+      <c r="C65" s="246"/>
+      <c r="D65" s="244"/>
+      <c r="E65" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="228"/>
+      <c r="F65" s="226"/>
       <c r="G65" s="99"/>
       <c r="H65" s="97"/>
     </row>
     <row r="66" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="238"/>
-      <c r="C66" s="224"/>
-      <c r="D66" s="226"/>
-      <c r="E66" s="227" t="s">
+      <c r="B66" s="249"/>
+      <c r="C66" s="246"/>
+      <c r="D66" s="244"/>
+      <c r="E66" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="228"/>
+      <c r="F66" s="226"/>
       <c r="G66" s="99"/>
       <c r="H66" s="97"/>
     </row>
     <row r="67" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="239"/>
-      <c r="C67" s="225"/>
-      <c r="D67" s="221" t="s">
+      <c r="B67" s="250"/>
+      <c r="C67" s="247"/>
+      <c r="D67" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="221"/>
-      <c r="F67" s="222"/>
-      <c r="G67" s="222"/>
-      <c r="H67" s="223"/>
+      <c r="E67" s="229"/>
+      <c r="F67" s="230"/>
+      <c r="G67" s="230"/>
+      <c r="H67" s="231"/>
     </row>
     <row r="68" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="237" t="s">
+      <c r="B68" s="248" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="240">
+      <c r="C68" s="251">
         <v>45439</v>
       </c>
-      <c r="D68" s="226" t="s">
+      <c r="D68" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="242" t="s">
+      <c r="E68" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="243"/>
-      <c r="G68" s="252" t="s">
+      <c r="F68" s="233"/>
+      <c r="G68" s="237" t="s">
         <v>81</v>
       </c>
       <c r="H68" s="100"/>
     </row>
     <row r="69" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="238"/>
-      <c r="C69" s="240"/>
-      <c r="D69" s="226"/>
-      <c r="E69" s="242" t="s">
+      <c r="B69" s="249"/>
+      <c r="C69" s="251"/>
+      <c r="D69" s="244"/>
+      <c r="E69" s="232" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="243"/>
-      <c r="G69" s="253"/>
+      <c r="F69" s="233"/>
+      <c r="G69" s="238"/>
       <c r="H69" s="100"/>
     </row>
     <row r="70" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="238"/>
-      <c r="C70" s="240"/>
-      <c r="D70" s="226"/>
-      <c r="E70" s="242" t="s">
+      <c r="B70" s="249"/>
+      <c r="C70" s="251"/>
+      <c r="D70" s="244"/>
+      <c r="E70" s="232" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="243"/>
-      <c r="G70" s="253"/>
+      <c r="F70" s="233"/>
+      <c r="G70" s="238"/>
       <c r="H70" s="100"/>
     </row>
     <row r="71" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="238"/>
-      <c r="C71" s="240"/>
-      <c r="D71" s="226"/>
-      <c r="E71" s="242" t="s">
+      <c r="B71" s="249"/>
+      <c r="C71" s="251"/>
+      <c r="D71" s="244"/>
+      <c r="E71" s="232" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="243"/>
-      <c r="G71" s="254"/>
+      <c r="F71" s="233"/>
+      <c r="G71" s="239"/>
       <c r="H71" s="100"/>
     </row>
     <row r="72" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="238"/>
-      <c r="C72" s="241"/>
-      <c r="D72" s="244" t="s">
+      <c r="B72" s="249"/>
+      <c r="C72" s="252"/>
+      <c r="D72" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="244"/>
-      <c r="F72" s="255"/>
-      <c r="G72" s="255"/>
-      <c r="H72" s="256"/>
+      <c r="E72" s="234"/>
+      <c r="F72" s="235"/>
+      <c r="G72" s="235"/>
+      <c r="H72" s="236"/>
     </row>
     <row r="73" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="238"/>
-      <c r="C73" s="234">
+      <c r="B73" s="249"/>
+      <c r="C73" s="245">
         <v>45441</v>
       </c>
-      <c r="D73" s="226" t="s">
+      <c r="D73" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="235" t="s">
+      <c r="E73" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="236"/>
+      <c r="F73" s="243"/>
       <c r="G73" s="98"/>
       <c r="H73" s="97"/>
     </row>
     <row r="74" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="238"/>
-      <c r="C74" s="224"/>
-      <c r="D74" s="226"/>
-      <c r="E74" s="227" t="s">
+      <c r="B74" s="249"/>
+      <c r="C74" s="246"/>
+      <c r="D74" s="244"/>
+      <c r="E74" s="225" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="228"/>
+      <c r="F74" s="226"/>
       <c r="G74" s="98"/>
       <c r="H74" s="97"/>
     </row>
     <row r="75" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="238"/>
-      <c r="C75" s="224"/>
-      <c r="D75" s="226"/>
-      <c r="E75" s="227" t="s">
+      <c r="B75" s="249"/>
+      <c r="C75" s="246"/>
+      <c r="D75" s="244"/>
+      <c r="E75" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="228"/>
+      <c r="F75" s="226"/>
       <c r="G75" s="99"/>
       <c r="H75" s="97"/>
     </row>
     <row r="76" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="238"/>
-      <c r="C76" s="224"/>
-      <c r="D76" s="226"/>
-      <c r="E76" s="227" t="s">
+      <c r="B76" s="249"/>
+      <c r="C76" s="246"/>
+      <c r="D76" s="244"/>
+      <c r="E76" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="228"/>
+      <c r="F76" s="226"/>
       <c r="G76" s="99"/>
       <c r="H76" s="97"/>
     </row>
     <row r="77" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="238"/>
-      <c r="C77" s="225"/>
-      <c r="D77" s="221" t="s">
+      <c r="B77" s="249"/>
+      <c r="C77" s="247"/>
+      <c r="D77" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="221"/>
-      <c r="F77" s="222"/>
-      <c r="G77" s="222"/>
-      <c r="H77" s="223"/>
+      <c r="E77" s="229"/>
+      <c r="F77" s="230"/>
+      <c r="G77" s="230"/>
+      <c r="H77" s="231"/>
     </row>
     <row r="78" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="238"/>
-      <c r="C78" s="224">
+      <c r="B78" s="249"/>
+      <c r="C78" s="246">
         <v>45442</v>
       </c>
-      <c r="D78" s="226" t="s">
+      <c r="D78" s="244" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="227" t="s">
+      <c r="E78" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="228"/>
+      <c r="F78" s="226"/>
       <c r="G78" s="99"/>
       <c r="H78" s="97"/>
     </row>
     <row r="79" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="238"/>
-      <c r="C79" s="224"/>
-      <c r="D79" s="226"/>
-      <c r="E79" s="227" t="s">
+      <c r="B79" s="249"/>
+      <c r="C79" s="246"/>
+      <c r="D79" s="244"/>
+      <c r="E79" s="225" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="228"/>
+      <c r="F79" s="226"/>
       <c r="G79" s="99"/>
       <c r="H79" s="97"/>
     </row>
     <row r="80" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="238"/>
-      <c r="C80" s="225"/>
-      <c r="D80" s="221" t="s">
+      <c r="B80" s="249"/>
+      <c r="C80" s="247"/>
+      <c r="D80" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="221"/>
-      <c r="F80" s="222"/>
-      <c r="G80" s="222"/>
-      <c r="H80" s="223"/>
+      <c r="E80" s="229"/>
+      <c r="F80" s="230"/>
+      <c r="G80" s="230"/>
+      <c r="H80" s="231"/>
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="238"/>
-      <c r="C81" s="234">
+      <c r="B81" s="249"/>
+      <c r="C81" s="245">
         <v>45443</v>
       </c>
-      <c r="D81" s="226" t="s">
+      <c r="D81" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="235" t="s">
+      <c r="E81" s="242" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="236"/>
+      <c r="F81" s="243"/>
       <c r="G81" s="98"/>
       <c r="H81" s="97"/>
     </row>
     <row r="82" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="238"/>
-      <c r="C82" s="224"/>
-      <c r="D82" s="226"/>
-      <c r="E82" s="227" t="s">
+      <c r="B82" s="249"/>
+      <c r="C82" s="246"/>
+      <c r="D82" s="244"/>
+      <c r="E82" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="228"/>
+      <c r="F82" s="226"/>
       <c r="G82" s="98"/>
       <c r="H82" s="97"/>
     </row>
     <row r="83" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="238"/>
-      <c r="C83" s="224"/>
-      <c r="D83" s="226"/>
-      <c r="E83" s="227" t="s">
+      <c r="B83" s="249"/>
+      <c r="C83" s="246"/>
+      <c r="D83" s="244"/>
+      <c r="E83" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="228"/>
+      <c r="F83" s="226"/>
       <c r="G83" s="99"/>
       <c r="H83" s="97"/>
     </row>
     <row r="84" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="238"/>
-      <c r="C84" s="224"/>
-      <c r="D84" s="226"/>
-      <c r="E84" s="227" t="s">
+      <c r="B84" s="249"/>
+      <c r="C84" s="246"/>
+      <c r="D84" s="244"/>
+      <c r="E84" s="225" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="228"/>
+      <c r="F84" s="226"/>
       <c r="G84" s="99"/>
       <c r="H84" s="97"/>
     </row>
     <row r="85" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="239"/>
-      <c r="C85" s="225"/>
-      <c r="D85" s="221" t="s">
+      <c r="B85" s="250"/>
+      <c r="C85" s="247"/>
+      <c r="D85" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="221"/>
-      <c r="F85" s="222"/>
-      <c r="G85" s="222"/>
-      <c r="H85" s="223"/>
+      <c r="E85" s="229"/>
+      <c r="F85" s="230"/>
+      <c r="G85" s="230"/>
+      <c r="H85" s="231"/>
     </row>
     <row r="86" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="237" t="s">
+      <c r="B86" s="248" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="224">
+      <c r="C86" s="246">
         <v>45446</v>
       </c>
-      <c r="D86" s="226" t="s">
+      <c r="D86" s="244" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="227" t="s">
+      <c r="E86" s="225" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="228"/>
+      <c r="F86" s="226"/>
       <c r="G86" s="98"/>
       <c r="H86" s="97"/>
     </row>
     <row r="87" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="238"/>
-      <c r="C87" s="224"/>
-      <c r="D87" s="226"/>
-      <c r="E87" s="227" t="s">
+      <c r="B87" s="249"/>
+      <c r="C87" s="246"/>
+      <c r="D87" s="244"/>
+      <c r="E87" s="225" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="228"/>
+      <c r="F87" s="226"/>
       <c r="G87" s="98"/>
       <c r="H87" s="97"/>
     </row>
     <row r="88" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="238"/>
-      <c r="C88" s="224"/>
-      <c r="D88" s="226"/>
-      <c r="E88" s="227" t="s">
+      <c r="B88" s="249"/>
+      <c r="C88" s="246"/>
+      <c r="D88" s="244"/>
+      <c r="E88" s="225" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="228"/>
+      <c r="F88" s="226"/>
       <c r="G88" s="99"/>
       <c r="H88" s="97"/>
     </row>
     <row r="89" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="238"/>
-      <c r="C89" s="224"/>
-      <c r="D89" s="226"/>
-      <c r="E89" s="227" t="s">
+      <c r="B89" s="249"/>
+      <c r="C89" s="246"/>
+      <c r="D89" s="244"/>
+      <c r="E89" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="228"/>
+      <c r="F89" s="226"/>
       <c r="G89" s="99"/>
       <c r="H89" s="97"/>
     </row>
     <row r="90" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="239"/>
-      <c r="C90" s="225"/>
-      <c r="D90" s="221" t="s">
+      <c r="B90" s="250"/>
+      <c r="C90" s="247"/>
+      <c r="D90" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="221"/>
-      <c r="F90" s="222"/>
-      <c r="G90" s="222"/>
-      <c r="H90" s="223"/>
+      <c r="E90" s="229"/>
+      <c r="F90" s="230"/>
+      <c r="G90" s="230"/>
+      <c r="H90" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B50:B67"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B31"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="B32:B49"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B68:B85"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="D44:E44"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="E74:F74"/>
@@ -45970,142 +46128,6 @@
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B68:B85"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B32:B49"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B31"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="B50:B67"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H12" r:id="rId1" xr:uid="{A2C1CB60-4940-405A-AF22-2260F5964F0A}"/>
@@ -46116,9 +46138,10 @@
     <hyperlink ref="H16:H17" r:id="rId6" display="https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/doc/Sources" xr:uid="{52F5E4AB-4BE3-4501-8816-D0BBC313A2FC}"/>
     <hyperlink ref="H16" r:id="rId7" xr:uid="{027566B6-9D9E-48B6-9539-BEF48FF3ACB4}"/>
     <hyperlink ref="H20" r:id="rId8" xr:uid="{B6BD1FE7-DE89-4250-ABBB-D349D21F1535}"/>
+    <hyperlink ref="H22" r:id="rId9" xr:uid="{B23A84E0-733B-46F3-8303-19629AF56B16}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="56" orientation="landscape" r:id="rId9"/>
+  <pageSetup scale="54" orientation="landscape" r:id="rId10"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="13" max="16383" man="1"/>
   </rowBreaks>

--- a/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
+++ b/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq34bsi\Desktop\TPI-GestionApiculture\doc\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC3ADEB-B01B-4F61-A051-E616E079F65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527B911-60A7-4E41-8C9F-533E8BB721B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1470" windowWidth="21600" windowHeight="11385" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4350" yWindow="420" windowWidth="21600" windowHeight="11385" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="16" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="109">
   <si>
     <t>Nom, Prénom</t>
   </si>
@@ -381,6 +381,22 @@
   </si>
   <si>
     <t>https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/sourceCode/server</t>
+  </si>
+  <si>
+    <t>Implémentation des CRUD pour l'API (CRUD pour rucher) + Implémentation de l'authentification (avec JWT)</t>
+  </si>
+  <si>
+    <t>discution avec le chef de projet (10min)
+Implémentation des CRUD pour l'API (CRUD pour  activité, catégorie, reine, couleur, ruche)</t>
+  </si>
+  <si>
+    <t>Réalisation de tests de tout les Endpoints de l'API et Remplissage de la base de données avec des données test</t>
+  </si>
+  <si>
+    <t>Implémentation d'endpoint qui permettent: Obtenire toutes les activité par ruche/rucher et obtenire toutes les ruches par rucher</t>
+  </si>
+  <si>
+    <t>Tests des différents endpoints de l'API</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1985,171 +2001,6 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="15" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2174,8 +2025,20 @@
     <xf numFmtId="20" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2228,23 +2091,158 @@
     <xf numFmtId="20" fontId="8" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2255,53 +2253,44 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2318,6 +2307,15 @@
     <xf numFmtId="165" fontId="12" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2330,9 +2328,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2342,14 +2337,44 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3817,74 +3842,74 @@
     </row>
     <row r="4" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="206" t="s">
+      <c r="B4" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="207"/>
-      <c r="D4" s="212" t="s">
+      <c r="C4" s="156"/>
+      <c r="D4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
-      <c r="G4" s="213"/>
-      <c r="H4" s="213"/>
-      <c r="I4" s="213"/>
-      <c r="J4" s="213"/>
-      <c r="K4" s="213"/>
-      <c r="L4" s="213"/>
-      <c r="M4" s="213"/>
-      <c r="N4" s="213"/>
-      <c r="O4" s="213"/>
-      <c r="P4" s="213"/>
-      <c r="Q4" s="214" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="162"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="162"/>
+      <c r="N4" s="162"/>
+      <c r="O4" s="162"/>
+      <c r="P4" s="162"/>
+      <c r="Q4" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="214"/>
-      <c r="S4" s="214"/>
-      <c r="T4" s="214"/>
-      <c r="U4" s="214"/>
-      <c r="V4" s="214"/>
-      <c r="W4" s="214"/>
-      <c r="X4" s="214"/>
-      <c r="Y4" s="214"/>
-      <c r="Z4" s="214"/>
-      <c r="AA4" s="214"/>
-      <c r="AB4" s="214"/>
-      <c r="AC4" s="214"/>
-      <c r="AD4" s="214"/>
-      <c r="AE4" s="214"/>
-      <c r="AF4" s="214"/>
-      <c r="AG4" s="214"/>
-      <c r="AH4" s="214"/>
-      <c r="AI4" s="214"/>
-      <c r="AJ4" s="214"/>
-      <c r="AK4" s="214"/>
-      <c r="AL4" s="214"/>
-      <c r="AM4" s="214"/>
-      <c r="AN4" s="214"/>
-      <c r="AO4" s="214"/>
-      <c r="AP4" s="214"/>
-      <c r="AQ4" s="214"/>
-      <c r="AR4" s="214"/>
-      <c r="AS4" s="214"/>
-      <c r="AT4" s="214"/>
-      <c r="AU4" s="214"/>
-      <c r="AV4" s="214"/>
-      <c r="AW4" s="214"/>
-      <c r="AX4" s="214"/>
-      <c r="AY4" s="214"/>
-      <c r="AZ4" s="214"/>
-      <c r="BA4" s="214"/>
-      <c r="BB4" s="214"/>
-      <c r="BC4" s="214"/>
-      <c r="BD4" s="214"/>
-      <c r="BE4" s="214"/>
-      <c r="BF4" s="214"/>
-      <c r="BG4" s="214"/>
-      <c r="BH4" s="214"/>
-      <c r="BI4" s="214"/>
-      <c r="BJ4" s="214"/>
-      <c r="BK4" s="215"/>
+      <c r="R4" s="163"/>
+      <c r="S4" s="163"/>
+      <c r="T4" s="163"/>
+      <c r="U4" s="163"/>
+      <c r="V4" s="163"/>
+      <c r="W4" s="163"/>
+      <c r="X4" s="163"/>
+      <c r="Y4" s="163"/>
+      <c r="Z4" s="163"/>
+      <c r="AA4" s="163"/>
+      <c r="AB4" s="163"/>
+      <c r="AC4" s="163"/>
+      <c r="AD4" s="163"/>
+      <c r="AE4" s="163"/>
+      <c r="AF4" s="163"/>
+      <c r="AG4" s="163"/>
+      <c r="AH4" s="163"/>
+      <c r="AI4" s="163"/>
+      <c r="AJ4" s="163"/>
+      <c r="AK4" s="163"/>
+      <c r="AL4" s="163"/>
+      <c r="AM4" s="163"/>
+      <c r="AN4" s="163"/>
+      <c r="AO4" s="163"/>
+      <c r="AP4" s="163"/>
+      <c r="AQ4" s="163"/>
+      <c r="AR4" s="163"/>
+      <c r="AS4" s="163"/>
+      <c r="AT4" s="163"/>
+      <c r="AU4" s="163"/>
+      <c r="AV4" s="163"/>
+      <c r="AW4" s="163"/>
+      <c r="AX4" s="163"/>
+      <c r="AY4" s="163"/>
+      <c r="AZ4" s="163"/>
+      <c r="BA4" s="163"/>
+      <c r="BB4" s="163"/>
+      <c r="BC4" s="163"/>
+      <c r="BD4" s="163"/>
+      <c r="BE4" s="163"/>
+      <c r="BF4" s="163"/>
+      <c r="BG4" s="163"/>
+      <c r="BH4" s="163"/>
+      <c r="BI4" s="163"/>
+      <c r="BJ4" s="163"/>
+      <c r="BK4" s="164"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
@@ -4125,8 +4150,8 @@
       <c r="KO4" s="6"/>
       <c r="KP4" s="6"/>
       <c r="KQ4" s="6"/>
-      <c r="KR4" s="147"/>
-      <c r="KS4" s="147"/>
+      <c r="KR4" s="219"/>
+      <c r="KS4" s="219"/>
       <c r="KT4" s="6"/>
       <c r="KU4" s="6"/>
       <c r="KV4" s="6"/>
@@ -4400,76 +4425,76 @@
     </row>
     <row r="5" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="208"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="216" t="s">
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="217"/>
-      <c r="F5" s="217"/>
-      <c r="G5" s="217"/>
-      <c r="H5" s="217"/>
-      <c r="I5" s="217"/>
-      <c r="J5" s="217"/>
-      <c r="K5" s="217"/>
-      <c r="L5" s="217"/>
-      <c r="M5" s="217"/>
-      <c r="N5" s="217"/>
-      <c r="O5" s="217"/>
-      <c r="P5" s="217"/>
-      <c r="Q5" s="218" t="s">
+      <c r="E5" s="166"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+      <c r="N5" s="166"/>
+      <c r="O5" s="166"/>
+      <c r="P5" s="166"/>
+      <c r="Q5" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="218"/>
-      <c r="S5" s="218"/>
-      <c r="T5" s="218"/>
-      <c r="U5" s="218"/>
-      <c r="V5" s="218"/>
-      <c r="W5" s="218"/>
-      <c r="X5" s="218"/>
-      <c r="Y5" s="218"/>
-      <c r="Z5" s="218"/>
-      <c r="AA5" s="218"/>
-      <c r="AB5" s="217" t="s">
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+      <c r="V5" s="167"/>
+      <c r="W5" s="167"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="217"/>
-      <c r="AD5" s="217"/>
-      <c r="AE5" s="217"/>
-      <c r="AF5" s="217"/>
-      <c r="AG5" s="217"/>
-      <c r="AH5" s="217"/>
-      <c r="AI5" s="217"/>
-      <c r="AJ5" s="217"/>
-      <c r="AK5" s="217"/>
-      <c r="AL5" s="217"/>
-      <c r="AM5" s="217"/>
-      <c r="AN5" s="217"/>
-      <c r="AO5" s="218" t="s">
+      <c r="AC5" s="166"/>
+      <c r="AD5" s="166"/>
+      <c r="AE5" s="166"/>
+      <c r="AF5" s="166"/>
+      <c r="AG5" s="166"/>
+      <c r="AH5" s="166"/>
+      <c r="AI5" s="166"/>
+      <c r="AJ5" s="166"/>
+      <c r="AK5" s="166"/>
+      <c r="AL5" s="166"/>
+      <c r="AM5" s="166"/>
+      <c r="AN5" s="166"/>
+      <c r="AO5" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="AP5" s="218"/>
-      <c r="AQ5" s="218"/>
-      <c r="AR5" s="218"/>
-      <c r="AS5" s="218"/>
-      <c r="AT5" s="218"/>
-      <c r="AU5" s="218"/>
-      <c r="AV5" s="218"/>
-      <c r="AW5" s="218"/>
-      <c r="AX5" s="218"/>
-      <c r="AY5" s="218"/>
-      <c r="AZ5" s="218"/>
-      <c r="BA5" s="218"/>
-      <c r="BB5" s="218"/>
-      <c r="BC5" s="218"/>
-      <c r="BD5" s="218"/>
-      <c r="BE5" s="218"/>
-      <c r="BF5" s="218"/>
-      <c r="BG5" s="218"/>
-      <c r="BH5" s="218"/>
-      <c r="BI5" s="218"/>
-      <c r="BJ5" s="218"/>
-      <c r="BK5" s="219"/>
+      <c r="AP5" s="167"/>
+      <c r="AQ5" s="167"/>
+      <c r="AR5" s="167"/>
+      <c r="AS5" s="167"/>
+      <c r="AT5" s="167"/>
+      <c r="AU5" s="167"/>
+      <c r="AV5" s="167"/>
+      <c r="AW5" s="167"/>
+      <c r="AX5" s="167"/>
+      <c r="AY5" s="167"/>
+      <c r="AZ5" s="167"/>
+      <c r="BA5" s="167"/>
+      <c r="BB5" s="167"/>
+      <c r="BC5" s="167"/>
+      <c r="BD5" s="167"/>
+      <c r="BE5" s="167"/>
+      <c r="BF5" s="167"/>
+      <c r="BG5" s="167"/>
+      <c r="BH5" s="167"/>
+      <c r="BI5" s="167"/>
+      <c r="BJ5" s="167"/>
+      <c r="BK5" s="168"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
@@ -4710,8 +4735,8 @@
       <c r="KO5" s="6"/>
       <c r="KP5" s="6"/>
       <c r="KQ5" s="6"/>
-      <c r="KR5" s="147"/>
-      <c r="KS5" s="147"/>
+      <c r="KR5" s="219"/>
+      <c r="KS5" s="219"/>
       <c r="KT5" s="6"/>
       <c r="KU5" s="6"/>
       <c r="KV5" s="6"/>
@@ -4985,76 +5010,76 @@
     </row>
     <row r="6" spans="1:575" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="220" t="s">
+      <c r="B6" s="159"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="221"/>
-      <c r="F6" s="221"/>
-      <c r="G6" s="221"/>
-      <c r="H6" s="221"/>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
-      <c r="K6" s="221"/>
-      <c r="L6" s="221"/>
-      <c r="M6" s="221"/>
-      <c r="N6" s="221"/>
-      <c r="O6" s="221"/>
-      <c r="P6" s="221"/>
-      <c r="Q6" s="222" t="s">
+      <c r="E6" s="170"/>
+      <c r="F6" s="170"/>
+      <c r="G6" s="170"/>
+      <c r="H6" s="170"/>
+      <c r="I6" s="170"/>
+      <c r="J6" s="170"/>
+      <c r="K6" s="170"/>
+      <c r="L6" s="170"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+      <c r="O6" s="170"/>
+      <c r="P6" s="170"/>
+      <c r="Q6" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="222"/>
-      <c r="S6" s="222"/>
-      <c r="T6" s="222"/>
-      <c r="U6" s="222"/>
-      <c r="V6" s="222"/>
-      <c r="W6" s="222"/>
-      <c r="X6" s="222"/>
-      <c r="Y6" s="222"/>
-      <c r="Z6" s="222"/>
-      <c r="AA6" s="222"/>
-      <c r="AB6" s="221" t="s">
+      <c r="R6" s="171"/>
+      <c r="S6" s="171"/>
+      <c r="T6" s="171"/>
+      <c r="U6" s="171"/>
+      <c r="V6" s="171"/>
+      <c r="W6" s="171"/>
+      <c r="X6" s="171"/>
+      <c r="Y6" s="171"/>
+      <c r="Z6" s="171"/>
+      <c r="AA6" s="171"/>
+      <c r="AB6" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="221"/>
-      <c r="AD6" s="221"/>
-      <c r="AE6" s="221"/>
-      <c r="AF6" s="221"/>
-      <c r="AG6" s="221"/>
-      <c r="AH6" s="221"/>
-      <c r="AI6" s="221"/>
-      <c r="AJ6" s="221"/>
-      <c r="AK6" s="221"/>
-      <c r="AL6" s="221"/>
-      <c r="AM6" s="221"/>
-      <c r="AN6" s="221"/>
-      <c r="AO6" s="197" t="s">
+      <c r="AC6" s="170"/>
+      <c r="AD6" s="170"/>
+      <c r="AE6" s="170"/>
+      <c r="AF6" s="170"/>
+      <c r="AG6" s="170"/>
+      <c r="AH6" s="170"/>
+      <c r="AI6" s="170"/>
+      <c r="AJ6" s="170"/>
+      <c r="AK6" s="170"/>
+      <c r="AL6" s="170"/>
+      <c r="AM6" s="170"/>
+      <c r="AN6" s="170"/>
+      <c r="AO6" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="197"/>
-      <c r="AQ6" s="197"/>
-      <c r="AR6" s="197"/>
-      <c r="AS6" s="197"/>
-      <c r="AT6" s="197"/>
-      <c r="AU6" s="197"/>
-      <c r="AV6" s="197"/>
-      <c r="AW6" s="197"/>
-      <c r="AX6" s="197"/>
-      <c r="AY6" s="197"/>
-      <c r="AZ6" s="197"/>
-      <c r="BA6" s="197"/>
-      <c r="BB6" s="197"/>
-      <c r="BC6" s="197"/>
-      <c r="BD6" s="197"/>
-      <c r="BE6" s="197"/>
-      <c r="BF6" s="197"/>
-      <c r="BG6" s="197"/>
-      <c r="BH6" s="197"/>
-      <c r="BI6" s="197"/>
-      <c r="BJ6" s="197"/>
-      <c r="BK6" s="198"/>
+      <c r="AP6" s="142"/>
+      <c r="AQ6" s="142"/>
+      <c r="AR6" s="142"/>
+      <c r="AS6" s="142"/>
+      <c r="AT6" s="142"/>
+      <c r="AU6" s="142"/>
+      <c r="AV6" s="142"/>
+      <c r="AW6" s="142"/>
+      <c r="AX6" s="142"/>
+      <c r="AY6" s="142"/>
+      <c r="AZ6" s="142"/>
+      <c r="BA6" s="142"/>
+      <c r="BB6" s="142"/>
+      <c r="BC6" s="142"/>
+      <c r="BD6" s="142"/>
+      <c r="BE6" s="142"/>
+      <c r="BF6" s="142"/>
+      <c r="BG6" s="142"/>
+      <c r="BH6" s="142"/>
+      <c r="BI6" s="142"/>
+      <c r="BJ6" s="142"/>
+      <c r="BK6" s="143"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8"/>
@@ -5295,8 +5320,8 @@
       <c r="KO6" s="6"/>
       <c r="KP6" s="6"/>
       <c r="KQ6" s="6"/>
-      <c r="KR6" s="147"/>
-      <c r="KS6" s="147"/>
+      <c r="KR6" s="219"/>
+      <c r="KS6" s="219"/>
       <c r="KT6" s="6"/>
       <c r="KU6" s="6"/>
       <c r="KV6" s="6"/>
@@ -5570,70 +5595,70 @@
     </row>
     <row r="7" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
-      <c r="E7" s="200"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
-      <c r="J7" s="200"/>
-      <c r="K7" s="200"/>
-      <c r="L7" s="200"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
-      <c r="P7" s="200"/>
-      <c r="Q7" s="200"/>
-      <c r="R7" s="200"/>
-      <c r="S7" s="200"/>
-      <c r="T7" s="200"/>
-      <c r="U7" s="200"/>
-      <c r="V7" s="200"/>
-      <c r="W7" s="200"/>
-      <c r="X7" s="200"/>
-      <c r="Y7" s="200"/>
-      <c r="Z7" s="200"/>
-      <c r="AA7" s="200"/>
-      <c r="AB7" s="200"/>
-      <c r="AC7" s="200"/>
-      <c r="AD7" s="200"/>
-      <c r="AE7" s="200"/>
-      <c r="AF7" s="200"/>
-      <c r="AG7" s="200"/>
-      <c r="AH7" s="200"/>
-      <c r="AI7" s="200"/>
-      <c r="AJ7" s="200"/>
-      <c r="AK7" s="200"/>
-      <c r="AL7" s="200"/>
-      <c r="AM7" s="200"/>
-      <c r="AN7" s="200"/>
-      <c r="AO7" s="200"/>
-      <c r="AP7" s="200"/>
-      <c r="AQ7" s="200"/>
-      <c r="AR7" s="200"/>
-      <c r="AS7" s="200"/>
-      <c r="AT7" s="200"/>
-      <c r="AU7" s="200"/>
-      <c r="AV7" s="200"/>
-      <c r="AW7" s="200"/>
-      <c r="AX7" s="200"/>
-      <c r="AY7" s="200"/>
-      <c r="AZ7" s="200"/>
-      <c r="BA7" s="200"/>
-      <c r="BB7" s="200"/>
-      <c r="BC7" s="200"/>
-      <c r="BD7" s="200"/>
-      <c r="BE7" s="200"/>
-      <c r="BF7" s="200"/>
-      <c r="BG7" s="200"/>
-      <c r="BH7" s="200"/>
-      <c r="BI7" s="200"/>
-      <c r="BJ7" s="200"/>
-      <c r="BK7" s="201"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
+      <c r="M7" s="145"/>
+      <c r="N7" s="145"/>
+      <c r="O7" s="145"/>
+      <c r="P7" s="145"/>
+      <c r="Q7" s="145"/>
+      <c r="R7" s="145"/>
+      <c r="S7" s="145"/>
+      <c r="T7" s="145"/>
+      <c r="U7" s="145"/>
+      <c r="V7" s="145"/>
+      <c r="W7" s="145"/>
+      <c r="X7" s="145"/>
+      <c r="Y7" s="145"/>
+      <c r="Z7" s="145"/>
+      <c r="AA7" s="145"/>
+      <c r="AB7" s="145"/>
+      <c r="AC7" s="145"/>
+      <c r="AD7" s="145"/>
+      <c r="AE7" s="145"/>
+      <c r="AF7" s="145"/>
+      <c r="AG7" s="145"/>
+      <c r="AH7" s="145"/>
+      <c r="AI7" s="145"/>
+      <c r="AJ7" s="145"/>
+      <c r="AK7" s="145"/>
+      <c r="AL7" s="145"/>
+      <c r="AM7" s="145"/>
+      <c r="AN7" s="145"/>
+      <c r="AO7" s="145"/>
+      <c r="AP7" s="145"/>
+      <c r="AQ7" s="145"/>
+      <c r="AR7" s="145"/>
+      <c r="AS7" s="145"/>
+      <c r="AT7" s="145"/>
+      <c r="AU7" s="145"/>
+      <c r="AV7" s="145"/>
+      <c r="AW7" s="145"/>
+      <c r="AX7" s="145"/>
+      <c r="AY7" s="145"/>
+      <c r="AZ7" s="145"/>
+      <c r="BA7" s="145"/>
+      <c r="BB7" s="145"/>
+      <c r="BC7" s="145"/>
+      <c r="BD7" s="145"/>
+      <c r="BE7" s="145"/>
+      <c r="BF7" s="145"/>
+      <c r="BG7" s="145"/>
+      <c r="BH7" s="145"/>
+      <c r="BI7" s="145"/>
+      <c r="BJ7" s="145"/>
+      <c r="BK7" s="146"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9"/>
@@ -6149,68 +6174,68 @@
     </row>
     <row r="8" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="200"/>
-      <c r="D8" s="200"/>
-      <c r="E8" s="200"/>
-      <c r="F8" s="200"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="200"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="200"/>
-      <c r="K8" s="200"/>
-      <c r="L8" s="200"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
-      <c r="P8" s="200"/>
-      <c r="Q8" s="200"/>
-      <c r="R8" s="200"/>
-      <c r="S8" s="200"/>
-      <c r="T8" s="200"/>
-      <c r="U8" s="200"/>
-      <c r="V8" s="200"/>
-      <c r="W8" s="200"/>
-      <c r="X8" s="200"/>
-      <c r="Y8" s="200"/>
-      <c r="Z8" s="200"/>
-      <c r="AA8" s="200"/>
-      <c r="AB8" s="200"/>
-      <c r="AC8" s="200"/>
-      <c r="AD8" s="200"/>
-      <c r="AE8" s="200"/>
-      <c r="AF8" s="200"/>
-      <c r="AG8" s="200"/>
-      <c r="AH8" s="200"/>
-      <c r="AI8" s="200"/>
-      <c r="AJ8" s="200"/>
-      <c r="AK8" s="200"/>
-      <c r="AL8" s="200"/>
-      <c r="AM8" s="200"/>
-      <c r="AN8" s="200"/>
-      <c r="AO8" s="200"/>
-      <c r="AP8" s="200"/>
-      <c r="AQ8" s="200"/>
-      <c r="AR8" s="200"/>
-      <c r="AS8" s="200"/>
-      <c r="AT8" s="200"/>
-      <c r="AU8" s="200"/>
-      <c r="AV8" s="200"/>
-      <c r="AW8" s="200"/>
-      <c r="AX8" s="200"/>
-      <c r="AY8" s="200"/>
-      <c r="AZ8" s="200"/>
-      <c r="BA8" s="200"/>
-      <c r="BB8" s="200"/>
-      <c r="BC8" s="200"/>
-      <c r="BD8" s="200"/>
-      <c r="BE8" s="200"/>
-      <c r="BF8" s="200"/>
-      <c r="BG8" s="200"/>
-      <c r="BH8" s="200"/>
-      <c r="BI8" s="200"/>
-      <c r="BJ8" s="200"/>
-      <c r="BK8" s="201"/>
+      <c r="B8" s="144"/>
+      <c r="C8" s="145"/>
+      <c r="D8" s="145"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="145"/>
+      <c r="G8" s="145"/>
+      <c r="H8" s="145"/>
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="145"/>
+      <c r="R8" s="145"/>
+      <c r="S8" s="145"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
+      <c r="W8" s="145"/>
+      <c r="X8" s="145"/>
+      <c r="Y8" s="145"/>
+      <c r="Z8" s="145"/>
+      <c r="AA8" s="145"/>
+      <c r="AB8" s="145"/>
+      <c r="AC8" s="145"/>
+      <c r="AD8" s="145"/>
+      <c r="AE8" s="145"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="145"/>
+      <c r="AJ8" s="145"/>
+      <c r="AK8" s="145"/>
+      <c r="AL8" s="145"/>
+      <c r="AM8" s="145"/>
+      <c r="AN8" s="145"/>
+      <c r="AO8" s="145"/>
+      <c r="AP8" s="145"/>
+      <c r="AQ8" s="145"/>
+      <c r="AR8" s="145"/>
+      <c r="AS8" s="145"/>
+      <c r="AT8" s="145"/>
+      <c r="AU8" s="145"/>
+      <c r="AV8" s="145"/>
+      <c r="AW8" s="145"/>
+      <c r="AX8" s="145"/>
+      <c r="AY8" s="145"/>
+      <c r="AZ8" s="145"/>
+      <c r="BA8" s="145"/>
+      <c r="BB8" s="145"/>
+      <c r="BC8" s="145"/>
+      <c r="BD8" s="145"/>
+      <c r="BE8" s="145"/>
+      <c r="BF8" s="145"/>
+      <c r="BG8" s="145"/>
+      <c r="BH8" s="145"/>
+      <c r="BI8" s="145"/>
+      <c r="BJ8" s="145"/>
+      <c r="BK8" s="146"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
@@ -6726,68 +6751,68 @@
     </row>
     <row r="9" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
-      <c r="G9" s="203"/>
-      <c r="H9" s="203"/>
-      <c r="I9" s="203"/>
-      <c r="J9" s="203"/>
-      <c r="K9" s="203"/>
-      <c r="L9" s="203"/>
-      <c r="M9" s="203"/>
-      <c r="N9" s="203"/>
-      <c r="O9" s="203"/>
-      <c r="P9" s="203"/>
-      <c r="Q9" s="203"/>
-      <c r="R9" s="203"/>
-      <c r="S9" s="203"/>
-      <c r="T9" s="203"/>
-      <c r="U9" s="203"/>
-      <c r="V9" s="203"/>
-      <c r="W9" s="203"/>
-      <c r="X9" s="203"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="203"/>
-      <c r="AA9" s="203"/>
-      <c r="AB9" s="203"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="203"/>
-      <c r="AE9" s="203"/>
-      <c r="AF9" s="203"/>
-      <c r="AG9" s="203"/>
-      <c r="AH9" s="203"/>
-      <c r="AI9" s="203"/>
-      <c r="AJ9" s="203"/>
-      <c r="AK9" s="203"/>
-      <c r="AL9" s="203"/>
-      <c r="AM9" s="203"/>
-      <c r="AN9" s="203"/>
-      <c r="AO9" s="203"/>
-      <c r="AP9" s="203"/>
-      <c r="AQ9" s="203"/>
-      <c r="AR9" s="203"/>
-      <c r="AS9" s="203"/>
-      <c r="AT9" s="203"/>
-      <c r="AU9" s="203"/>
-      <c r="AV9" s="203"/>
-      <c r="AW9" s="203"/>
-      <c r="AX9" s="203"/>
-      <c r="AY9" s="203"/>
-      <c r="AZ9" s="203"/>
-      <c r="BA9" s="203"/>
-      <c r="BB9" s="203"/>
-      <c r="BC9" s="203"/>
-      <c r="BD9" s="203"/>
-      <c r="BE9" s="203"/>
-      <c r="BF9" s="203"/>
-      <c r="BG9" s="203"/>
-      <c r="BH9" s="203"/>
-      <c r="BI9" s="203"/>
-      <c r="BJ9" s="203"/>
-      <c r="BK9" s="204"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="148"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="148"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="148"/>
+      <c r="M9" s="148"/>
+      <c r="N9" s="148"/>
+      <c r="O9" s="148"/>
+      <c r="P9" s="148"/>
+      <c r="Q9" s="148"/>
+      <c r="R9" s="148"/>
+      <c r="S9" s="148"/>
+      <c r="T9" s="148"/>
+      <c r="U9" s="148"/>
+      <c r="V9" s="148"/>
+      <c r="W9" s="148"/>
+      <c r="X9" s="148"/>
+      <c r="Y9" s="148"/>
+      <c r="Z9" s="148"/>
+      <c r="AA9" s="148"/>
+      <c r="AB9" s="148"/>
+      <c r="AC9" s="148"/>
+      <c r="AD9" s="148"/>
+      <c r="AE9" s="148"/>
+      <c r="AF9" s="148"/>
+      <c r="AG9" s="148"/>
+      <c r="AH9" s="148"/>
+      <c r="AI9" s="148"/>
+      <c r="AJ9" s="148"/>
+      <c r="AK9" s="148"/>
+      <c r="AL9" s="148"/>
+      <c r="AM9" s="148"/>
+      <c r="AN9" s="148"/>
+      <c r="AO9" s="148"/>
+      <c r="AP9" s="148"/>
+      <c r="AQ9" s="148"/>
+      <c r="AR9" s="148"/>
+      <c r="AS9" s="148"/>
+      <c r="AT9" s="148"/>
+      <c r="AU9" s="148"/>
+      <c r="AV9" s="148"/>
+      <c r="AW9" s="148"/>
+      <c r="AX9" s="148"/>
+      <c r="AY9" s="148"/>
+      <c r="AZ9" s="148"/>
+      <c r="BA9" s="148"/>
+      <c r="BB9" s="148"/>
+      <c r="BC9" s="148"/>
+      <c r="BD9" s="148"/>
+      <c r="BE9" s="148"/>
+      <c r="BF9" s="148"/>
+      <c r="BG9" s="148"/>
+      <c r="BH9" s="148"/>
+      <c r="BI9" s="148"/>
+      <c r="BJ9" s="148"/>
+      <c r="BK9" s="149"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
@@ -8457,1223 +8482,1223 @@
     </row>
     <row r="12" spans="1:575" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="148" t="s">
+      <c r="B12" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="205"/>
-      <c r="D12" s="188" t="s">
+      <c r="C12" s="151"/>
+      <c r="D12" s="152" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="189"/>
-      <c r="J12" s="189"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="189"/>
-      <c r="M12" s="189"/>
-      <c r="N12" s="189"/>
-      <c r="O12" s="189"/>
-      <c r="P12" s="189"/>
-      <c r="Q12" s="189"/>
-      <c r="R12" s="189"/>
-      <c r="S12" s="189"/>
-      <c r="T12" s="189"/>
-      <c r="U12" s="189"/>
-      <c r="V12" s="189"/>
-      <c r="W12" s="189"/>
-      <c r="X12" s="189"/>
-      <c r="Y12" s="189"/>
-      <c r="Z12" s="189"/>
-      <c r="AA12" s="189"/>
-      <c r="AB12" s="189"/>
-      <c r="AC12" s="189"/>
-      <c r="AD12" s="189"/>
-      <c r="AE12" s="189"/>
-      <c r="AF12" s="189"/>
-      <c r="AG12" s="189"/>
-      <c r="AH12" s="189"/>
-      <c r="AI12" s="189"/>
-      <c r="AJ12" s="189"/>
-      <c r="AK12" s="189"/>
-      <c r="AL12" s="189"/>
-      <c r="AM12" s="189"/>
-      <c r="AN12" s="189"/>
-      <c r="AO12" s="189"/>
-      <c r="AP12" s="189"/>
-      <c r="AQ12" s="189"/>
-      <c r="AR12" s="189"/>
-      <c r="AS12" s="189"/>
-      <c r="AT12" s="189"/>
-      <c r="AU12" s="189"/>
-      <c r="AV12" s="189"/>
-      <c r="AW12" s="189"/>
-      <c r="AX12" s="189"/>
-      <c r="AY12" s="189"/>
-      <c r="AZ12" s="189"/>
-      <c r="BA12" s="189"/>
-      <c r="BB12" s="189"/>
-      <c r="BC12" s="189"/>
-      <c r="BD12" s="189"/>
-      <c r="BE12" s="189"/>
-      <c r="BF12" s="189"/>
-      <c r="BG12" s="189"/>
-      <c r="BH12" s="189"/>
-      <c r="BI12" s="189"/>
-      <c r="BJ12" s="189"/>
-      <c r="BK12" s="189"/>
-      <c r="BL12" s="188" t="s">
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="153"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="153"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="153"/>
+      <c r="Q12" s="153"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="153"/>
+      <c r="Z12" s="153"/>
+      <c r="AA12" s="153"/>
+      <c r="AB12" s="153"/>
+      <c r="AC12" s="153"/>
+      <c r="AD12" s="153"/>
+      <c r="AE12" s="153"/>
+      <c r="AF12" s="153"/>
+      <c r="AG12" s="153"/>
+      <c r="AH12" s="153"/>
+      <c r="AI12" s="153"/>
+      <c r="AJ12" s="153"/>
+      <c r="AK12" s="153"/>
+      <c r="AL12" s="153"/>
+      <c r="AM12" s="153"/>
+      <c r="AN12" s="153"/>
+      <c r="AO12" s="153"/>
+      <c r="AP12" s="153"/>
+      <c r="AQ12" s="153"/>
+      <c r="AR12" s="153"/>
+      <c r="AS12" s="153"/>
+      <c r="AT12" s="153"/>
+      <c r="AU12" s="153"/>
+      <c r="AV12" s="153"/>
+      <c r="AW12" s="153"/>
+      <c r="AX12" s="153"/>
+      <c r="AY12" s="153"/>
+      <c r="AZ12" s="153"/>
+      <c r="BA12" s="153"/>
+      <c r="BB12" s="153"/>
+      <c r="BC12" s="153"/>
+      <c r="BD12" s="153"/>
+      <c r="BE12" s="153"/>
+      <c r="BF12" s="153"/>
+      <c r="BG12" s="153"/>
+      <c r="BH12" s="153"/>
+      <c r="BI12" s="153"/>
+      <c r="BJ12" s="153"/>
+      <c r="BK12" s="153"/>
+      <c r="BL12" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="BM12" s="189"/>
-      <c r="BN12" s="189"/>
-      <c r="BO12" s="189"/>
-      <c r="BP12" s="189"/>
-      <c r="BQ12" s="189"/>
-      <c r="BR12" s="189"/>
-      <c r="BS12" s="189"/>
-      <c r="BT12" s="189"/>
-      <c r="BU12" s="189"/>
-      <c r="BV12" s="189"/>
-      <c r="BW12" s="189"/>
-      <c r="BX12" s="189"/>
-      <c r="BY12" s="189"/>
-      <c r="BZ12" s="189"/>
-      <c r="CA12" s="189"/>
-      <c r="CB12" s="189"/>
-      <c r="CC12" s="189"/>
-      <c r="CD12" s="189"/>
-      <c r="CE12" s="189"/>
-      <c r="CF12" s="189"/>
-      <c r="CG12" s="189"/>
-      <c r="CH12" s="189"/>
-      <c r="CI12" s="189"/>
-      <c r="CJ12" s="189"/>
-      <c r="CK12" s="189"/>
-      <c r="CL12" s="189"/>
-      <c r="CM12" s="189"/>
-      <c r="CN12" s="189"/>
-      <c r="CO12" s="189"/>
-      <c r="CP12" s="189"/>
-      <c r="CQ12" s="189"/>
-      <c r="CR12" s="189"/>
-      <c r="CS12" s="189"/>
-      <c r="CT12" s="189"/>
-      <c r="CU12" s="189"/>
-      <c r="CV12" s="189"/>
-      <c r="CW12" s="189"/>
-      <c r="CX12" s="189"/>
-      <c r="CY12" s="189"/>
-      <c r="CZ12" s="189"/>
-      <c r="DA12" s="189"/>
-      <c r="DB12" s="189"/>
-      <c r="DC12" s="189"/>
-      <c r="DD12" s="189"/>
-      <c r="DE12" s="189"/>
-      <c r="DF12" s="189"/>
-      <c r="DG12" s="189"/>
-      <c r="DH12" s="189"/>
-      <c r="DI12" s="189"/>
-      <c r="DJ12" s="189"/>
-      <c r="DK12" s="189"/>
-      <c r="DL12" s="189"/>
-      <c r="DM12" s="189"/>
-      <c r="DN12" s="189"/>
-      <c r="DO12" s="189"/>
-      <c r="DP12" s="189"/>
-      <c r="DQ12" s="189"/>
-      <c r="DR12" s="189"/>
-      <c r="DS12" s="189"/>
-      <c r="DT12" s="189"/>
-      <c r="DU12" s="189"/>
-      <c r="DV12" s="189"/>
-      <c r="DW12" s="189"/>
-      <c r="DX12" s="189"/>
-      <c r="DY12" s="189"/>
-      <c r="DZ12" s="189"/>
-      <c r="EA12" s="189"/>
-      <c r="EB12" s="189"/>
-      <c r="EC12" s="189"/>
-      <c r="ED12" s="189"/>
-      <c r="EE12" s="189"/>
-      <c r="EF12" s="189"/>
-      <c r="EG12" s="189"/>
-      <c r="EH12" s="189"/>
-      <c r="EI12" s="189"/>
-      <c r="EJ12" s="189"/>
-      <c r="EK12" s="189"/>
-      <c r="EL12" s="189"/>
-      <c r="EM12" s="189"/>
-      <c r="EN12" s="189"/>
-      <c r="EO12" s="189"/>
-      <c r="EP12" s="189"/>
-      <c r="EQ12" s="189"/>
-      <c r="ER12" s="189"/>
-      <c r="ES12" s="189"/>
-      <c r="ET12" s="189"/>
-      <c r="EU12" s="189"/>
-      <c r="EV12" s="189"/>
-      <c r="EW12" s="189"/>
-      <c r="EX12" s="189"/>
-      <c r="EY12" s="189"/>
-      <c r="EZ12" s="189"/>
-      <c r="FA12" s="189"/>
-      <c r="FB12" s="189"/>
-      <c r="FC12" s="189"/>
-      <c r="FD12" s="189"/>
-      <c r="FE12" s="189"/>
-      <c r="FF12" s="189"/>
-      <c r="FG12" s="189"/>
-      <c r="FH12" s="189"/>
-      <c r="FI12" s="189"/>
-      <c r="FJ12" s="189"/>
-      <c r="FK12" s="189"/>
-      <c r="FL12" s="189"/>
-      <c r="FM12" s="189"/>
-      <c r="FN12" s="189"/>
-      <c r="FO12" s="189"/>
-      <c r="FP12" s="189"/>
-      <c r="FQ12" s="189"/>
-      <c r="FR12" s="189"/>
-      <c r="FS12" s="189"/>
-      <c r="FT12" s="189"/>
-      <c r="FU12" s="189"/>
-      <c r="FV12" s="189"/>
-      <c r="FW12" s="189"/>
-      <c r="FX12" s="189"/>
-      <c r="FY12" s="189"/>
-      <c r="FZ12" s="189"/>
-      <c r="GA12" s="189"/>
-      <c r="GB12" s="188" t="s">
+      <c r="BM12" s="153"/>
+      <c r="BN12" s="153"/>
+      <c r="BO12" s="153"/>
+      <c r="BP12" s="153"/>
+      <c r="BQ12" s="153"/>
+      <c r="BR12" s="153"/>
+      <c r="BS12" s="153"/>
+      <c r="BT12" s="153"/>
+      <c r="BU12" s="153"/>
+      <c r="BV12" s="153"/>
+      <c r="BW12" s="153"/>
+      <c r="BX12" s="153"/>
+      <c r="BY12" s="153"/>
+      <c r="BZ12" s="153"/>
+      <c r="CA12" s="153"/>
+      <c r="CB12" s="153"/>
+      <c r="CC12" s="153"/>
+      <c r="CD12" s="153"/>
+      <c r="CE12" s="153"/>
+      <c r="CF12" s="153"/>
+      <c r="CG12" s="153"/>
+      <c r="CH12" s="153"/>
+      <c r="CI12" s="153"/>
+      <c r="CJ12" s="153"/>
+      <c r="CK12" s="153"/>
+      <c r="CL12" s="153"/>
+      <c r="CM12" s="153"/>
+      <c r="CN12" s="153"/>
+      <c r="CO12" s="153"/>
+      <c r="CP12" s="153"/>
+      <c r="CQ12" s="153"/>
+      <c r="CR12" s="153"/>
+      <c r="CS12" s="153"/>
+      <c r="CT12" s="153"/>
+      <c r="CU12" s="153"/>
+      <c r="CV12" s="153"/>
+      <c r="CW12" s="153"/>
+      <c r="CX12" s="153"/>
+      <c r="CY12" s="153"/>
+      <c r="CZ12" s="153"/>
+      <c r="DA12" s="153"/>
+      <c r="DB12" s="153"/>
+      <c r="DC12" s="153"/>
+      <c r="DD12" s="153"/>
+      <c r="DE12" s="153"/>
+      <c r="DF12" s="153"/>
+      <c r="DG12" s="153"/>
+      <c r="DH12" s="153"/>
+      <c r="DI12" s="153"/>
+      <c r="DJ12" s="153"/>
+      <c r="DK12" s="153"/>
+      <c r="DL12" s="153"/>
+      <c r="DM12" s="153"/>
+      <c r="DN12" s="153"/>
+      <c r="DO12" s="153"/>
+      <c r="DP12" s="153"/>
+      <c r="DQ12" s="153"/>
+      <c r="DR12" s="153"/>
+      <c r="DS12" s="153"/>
+      <c r="DT12" s="153"/>
+      <c r="DU12" s="153"/>
+      <c r="DV12" s="153"/>
+      <c r="DW12" s="153"/>
+      <c r="DX12" s="153"/>
+      <c r="DY12" s="153"/>
+      <c r="DZ12" s="153"/>
+      <c r="EA12" s="153"/>
+      <c r="EB12" s="153"/>
+      <c r="EC12" s="153"/>
+      <c r="ED12" s="153"/>
+      <c r="EE12" s="153"/>
+      <c r="EF12" s="153"/>
+      <c r="EG12" s="153"/>
+      <c r="EH12" s="153"/>
+      <c r="EI12" s="153"/>
+      <c r="EJ12" s="153"/>
+      <c r="EK12" s="153"/>
+      <c r="EL12" s="153"/>
+      <c r="EM12" s="153"/>
+      <c r="EN12" s="153"/>
+      <c r="EO12" s="153"/>
+      <c r="EP12" s="153"/>
+      <c r="EQ12" s="153"/>
+      <c r="ER12" s="153"/>
+      <c r="ES12" s="153"/>
+      <c r="ET12" s="153"/>
+      <c r="EU12" s="153"/>
+      <c r="EV12" s="153"/>
+      <c r="EW12" s="153"/>
+      <c r="EX12" s="153"/>
+      <c r="EY12" s="153"/>
+      <c r="EZ12" s="153"/>
+      <c r="FA12" s="153"/>
+      <c r="FB12" s="153"/>
+      <c r="FC12" s="153"/>
+      <c r="FD12" s="153"/>
+      <c r="FE12" s="153"/>
+      <c r="FF12" s="153"/>
+      <c r="FG12" s="153"/>
+      <c r="FH12" s="153"/>
+      <c r="FI12" s="153"/>
+      <c r="FJ12" s="153"/>
+      <c r="FK12" s="153"/>
+      <c r="FL12" s="153"/>
+      <c r="FM12" s="153"/>
+      <c r="FN12" s="153"/>
+      <c r="FO12" s="153"/>
+      <c r="FP12" s="153"/>
+      <c r="FQ12" s="153"/>
+      <c r="FR12" s="153"/>
+      <c r="FS12" s="153"/>
+      <c r="FT12" s="153"/>
+      <c r="FU12" s="153"/>
+      <c r="FV12" s="153"/>
+      <c r="FW12" s="153"/>
+      <c r="FX12" s="153"/>
+      <c r="FY12" s="153"/>
+      <c r="FZ12" s="153"/>
+      <c r="GA12" s="153"/>
+      <c r="GB12" s="152" t="s">
         <v>13</v>
       </c>
-      <c r="GC12" s="189"/>
-      <c r="GD12" s="189"/>
-      <c r="GE12" s="189"/>
-      <c r="GF12" s="189"/>
-      <c r="GG12" s="189"/>
-      <c r="GH12" s="189"/>
-      <c r="GI12" s="189"/>
-      <c r="GJ12" s="189"/>
-      <c r="GK12" s="189"/>
-      <c r="GL12" s="189"/>
-      <c r="GM12" s="189"/>
-      <c r="GN12" s="189"/>
-      <c r="GO12" s="189"/>
-      <c r="GP12" s="189"/>
-      <c r="GQ12" s="189"/>
-      <c r="GR12" s="189"/>
-      <c r="GS12" s="189"/>
-      <c r="GT12" s="189"/>
-      <c r="GU12" s="189"/>
-      <c r="GV12" s="189"/>
-      <c r="GW12" s="189"/>
-      <c r="GX12" s="189"/>
-      <c r="GY12" s="189"/>
-      <c r="GZ12" s="189"/>
-      <c r="HA12" s="189"/>
-      <c r="HB12" s="189"/>
-      <c r="HC12" s="189"/>
-      <c r="HD12" s="189"/>
-      <c r="HE12" s="189"/>
-      <c r="HF12" s="189"/>
-      <c r="HG12" s="189"/>
-      <c r="HH12" s="189"/>
-      <c r="HI12" s="189"/>
-      <c r="HJ12" s="189"/>
-      <c r="HK12" s="189"/>
-      <c r="HL12" s="189"/>
-      <c r="HM12" s="189"/>
-      <c r="HN12" s="189"/>
-      <c r="HO12" s="189"/>
-      <c r="HP12" s="189"/>
-      <c r="HQ12" s="189"/>
-      <c r="HR12" s="189"/>
-      <c r="HS12" s="189"/>
-      <c r="HT12" s="189"/>
-      <c r="HU12" s="189"/>
-      <c r="HV12" s="189"/>
-      <c r="HW12" s="189"/>
-      <c r="HX12" s="189"/>
-      <c r="HY12" s="189"/>
-      <c r="HZ12" s="189"/>
-      <c r="IA12" s="189"/>
-      <c r="IB12" s="189"/>
-      <c r="IC12" s="189"/>
-      <c r="ID12" s="189"/>
-      <c r="IE12" s="189"/>
-      <c r="IF12" s="189"/>
-      <c r="IG12" s="189"/>
-      <c r="IH12" s="189"/>
-      <c r="II12" s="189"/>
-      <c r="IJ12" s="189"/>
-      <c r="IK12" s="189"/>
-      <c r="IL12" s="189"/>
-      <c r="IM12" s="189"/>
-      <c r="IN12" s="189"/>
-      <c r="IO12" s="189"/>
-      <c r="IP12" s="189"/>
-      <c r="IQ12" s="189"/>
-      <c r="IR12" s="189"/>
-      <c r="IS12" s="189"/>
-      <c r="IT12" s="189"/>
-      <c r="IU12" s="189"/>
-      <c r="IV12" s="189"/>
-      <c r="IW12" s="189"/>
-      <c r="IX12" s="189"/>
-      <c r="IY12" s="189"/>
-      <c r="IZ12" s="189"/>
-      <c r="JA12" s="189"/>
-      <c r="JB12" s="189"/>
-      <c r="JC12" s="189"/>
-      <c r="JD12" s="189"/>
-      <c r="JE12" s="189"/>
-      <c r="JF12" s="189"/>
-      <c r="JG12" s="189"/>
-      <c r="JH12" s="189"/>
-      <c r="JI12" s="189"/>
-      <c r="JJ12" s="189"/>
-      <c r="JK12" s="189"/>
-      <c r="JL12" s="189"/>
-      <c r="JM12" s="189"/>
-      <c r="JN12" s="189"/>
-      <c r="JO12" s="189"/>
-      <c r="JP12" s="189"/>
-      <c r="JQ12" s="189"/>
-      <c r="JR12" s="189"/>
-      <c r="JS12" s="189"/>
-      <c r="JT12" s="189"/>
-      <c r="JU12" s="189"/>
-      <c r="JV12" s="189"/>
-      <c r="JW12" s="189"/>
-      <c r="JX12" s="189"/>
-      <c r="JY12" s="189"/>
-      <c r="JZ12" s="189"/>
-      <c r="KA12" s="189"/>
-      <c r="KB12" s="189"/>
-      <c r="KC12" s="189"/>
-      <c r="KD12" s="189"/>
-      <c r="KE12" s="189"/>
-      <c r="KF12" s="189"/>
-      <c r="KG12" s="189"/>
-      <c r="KH12" s="189"/>
-      <c r="KI12" s="189"/>
-      <c r="KJ12" s="189"/>
-      <c r="KK12" s="189"/>
-      <c r="KL12" s="189"/>
-      <c r="KM12" s="189"/>
-      <c r="KN12" s="189"/>
-      <c r="KO12" s="189"/>
-      <c r="KP12" s="189"/>
-      <c r="KQ12" s="190"/>
-      <c r="KR12" s="148" t="s">
+      <c r="GC12" s="153"/>
+      <c r="GD12" s="153"/>
+      <c r="GE12" s="153"/>
+      <c r="GF12" s="153"/>
+      <c r="GG12" s="153"/>
+      <c r="GH12" s="153"/>
+      <c r="GI12" s="153"/>
+      <c r="GJ12" s="153"/>
+      <c r="GK12" s="153"/>
+      <c r="GL12" s="153"/>
+      <c r="GM12" s="153"/>
+      <c r="GN12" s="153"/>
+      <c r="GO12" s="153"/>
+      <c r="GP12" s="153"/>
+      <c r="GQ12" s="153"/>
+      <c r="GR12" s="153"/>
+      <c r="GS12" s="153"/>
+      <c r="GT12" s="153"/>
+      <c r="GU12" s="153"/>
+      <c r="GV12" s="153"/>
+      <c r="GW12" s="153"/>
+      <c r="GX12" s="153"/>
+      <c r="GY12" s="153"/>
+      <c r="GZ12" s="153"/>
+      <c r="HA12" s="153"/>
+      <c r="HB12" s="153"/>
+      <c r="HC12" s="153"/>
+      <c r="HD12" s="153"/>
+      <c r="HE12" s="153"/>
+      <c r="HF12" s="153"/>
+      <c r="HG12" s="153"/>
+      <c r="HH12" s="153"/>
+      <c r="HI12" s="153"/>
+      <c r="HJ12" s="153"/>
+      <c r="HK12" s="153"/>
+      <c r="HL12" s="153"/>
+      <c r="HM12" s="153"/>
+      <c r="HN12" s="153"/>
+      <c r="HO12" s="153"/>
+      <c r="HP12" s="153"/>
+      <c r="HQ12" s="153"/>
+      <c r="HR12" s="153"/>
+      <c r="HS12" s="153"/>
+      <c r="HT12" s="153"/>
+      <c r="HU12" s="153"/>
+      <c r="HV12" s="153"/>
+      <c r="HW12" s="153"/>
+      <c r="HX12" s="153"/>
+      <c r="HY12" s="153"/>
+      <c r="HZ12" s="153"/>
+      <c r="IA12" s="153"/>
+      <c r="IB12" s="153"/>
+      <c r="IC12" s="153"/>
+      <c r="ID12" s="153"/>
+      <c r="IE12" s="153"/>
+      <c r="IF12" s="153"/>
+      <c r="IG12" s="153"/>
+      <c r="IH12" s="153"/>
+      <c r="II12" s="153"/>
+      <c r="IJ12" s="153"/>
+      <c r="IK12" s="153"/>
+      <c r="IL12" s="153"/>
+      <c r="IM12" s="153"/>
+      <c r="IN12" s="153"/>
+      <c r="IO12" s="153"/>
+      <c r="IP12" s="153"/>
+      <c r="IQ12" s="153"/>
+      <c r="IR12" s="153"/>
+      <c r="IS12" s="153"/>
+      <c r="IT12" s="153"/>
+      <c r="IU12" s="153"/>
+      <c r="IV12" s="153"/>
+      <c r="IW12" s="153"/>
+      <c r="IX12" s="153"/>
+      <c r="IY12" s="153"/>
+      <c r="IZ12" s="153"/>
+      <c r="JA12" s="153"/>
+      <c r="JB12" s="153"/>
+      <c r="JC12" s="153"/>
+      <c r="JD12" s="153"/>
+      <c r="JE12" s="153"/>
+      <c r="JF12" s="153"/>
+      <c r="JG12" s="153"/>
+      <c r="JH12" s="153"/>
+      <c r="JI12" s="153"/>
+      <c r="JJ12" s="153"/>
+      <c r="JK12" s="153"/>
+      <c r="JL12" s="153"/>
+      <c r="JM12" s="153"/>
+      <c r="JN12" s="153"/>
+      <c r="JO12" s="153"/>
+      <c r="JP12" s="153"/>
+      <c r="JQ12" s="153"/>
+      <c r="JR12" s="153"/>
+      <c r="JS12" s="153"/>
+      <c r="JT12" s="153"/>
+      <c r="JU12" s="153"/>
+      <c r="JV12" s="153"/>
+      <c r="JW12" s="153"/>
+      <c r="JX12" s="153"/>
+      <c r="JY12" s="153"/>
+      <c r="JZ12" s="153"/>
+      <c r="KA12" s="153"/>
+      <c r="KB12" s="153"/>
+      <c r="KC12" s="153"/>
+      <c r="KD12" s="153"/>
+      <c r="KE12" s="153"/>
+      <c r="KF12" s="153"/>
+      <c r="KG12" s="153"/>
+      <c r="KH12" s="153"/>
+      <c r="KI12" s="153"/>
+      <c r="KJ12" s="153"/>
+      <c r="KK12" s="153"/>
+      <c r="KL12" s="153"/>
+      <c r="KM12" s="153"/>
+      <c r="KN12" s="153"/>
+      <c r="KO12" s="153"/>
+      <c r="KP12" s="153"/>
+      <c r="KQ12" s="154"/>
+      <c r="KR12" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="KS12" s="149"/>
-      <c r="KT12" s="188" t="s">
+      <c r="KS12" s="220"/>
+      <c r="KT12" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="KU12" s="189"/>
-      <c r="KV12" s="189"/>
-      <c r="KW12" s="189"/>
-      <c r="KX12" s="189"/>
-      <c r="KY12" s="189"/>
-      <c r="KZ12" s="189"/>
-      <c r="LA12" s="189"/>
-      <c r="LB12" s="189"/>
-      <c r="LC12" s="189"/>
-      <c r="LD12" s="189"/>
-      <c r="LE12" s="189"/>
-      <c r="LF12" s="189"/>
-      <c r="LG12" s="189"/>
-      <c r="LH12" s="189"/>
-      <c r="LI12" s="189"/>
-      <c r="LJ12" s="189"/>
-      <c r="LK12" s="189"/>
-      <c r="LL12" s="189"/>
-      <c r="LM12" s="189"/>
-      <c r="LN12" s="189"/>
-      <c r="LO12" s="189"/>
-      <c r="LP12" s="189"/>
-      <c r="LQ12" s="189"/>
-      <c r="LR12" s="189"/>
-      <c r="LS12" s="189"/>
-      <c r="LT12" s="189"/>
-      <c r="LU12" s="189"/>
-      <c r="LV12" s="189"/>
-      <c r="LW12" s="189"/>
-      <c r="LX12" s="189"/>
-      <c r="LY12" s="189"/>
-      <c r="LZ12" s="189"/>
-      <c r="MA12" s="189"/>
-      <c r="MB12" s="189"/>
-      <c r="MC12" s="189"/>
-      <c r="MD12" s="189"/>
-      <c r="ME12" s="189"/>
-      <c r="MF12" s="189"/>
-      <c r="MG12" s="189"/>
-      <c r="MH12" s="189"/>
-      <c r="MI12" s="189"/>
-      <c r="MJ12" s="189"/>
-      <c r="MK12" s="189"/>
-      <c r="ML12" s="189"/>
-      <c r="MM12" s="189"/>
-      <c r="MN12" s="189"/>
-      <c r="MO12" s="189"/>
-      <c r="MP12" s="189"/>
-      <c r="MQ12" s="189"/>
-      <c r="MR12" s="189"/>
-      <c r="MS12" s="189"/>
-      <c r="MT12" s="189"/>
-      <c r="MU12" s="189"/>
-      <c r="MV12" s="189"/>
-      <c r="MW12" s="189"/>
-      <c r="MX12" s="189"/>
-      <c r="MY12" s="189"/>
-      <c r="MZ12" s="189"/>
-      <c r="NA12" s="189"/>
-      <c r="NB12" s="189"/>
-      <c r="NC12" s="189"/>
-      <c r="ND12" s="189"/>
-      <c r="NE12" s="189"/>
-      <c r="NF12" s="189"/>
-      <c r="NG12" s="189"/>
-      <c r="NH12" s="189"/>
-      <c r="NI12" s="189"/>
-      <c r="NJ12" s="189"/>
-      <c r="NK12" s="189"/>
-      <c r="NL12" s="189"/>
-      <c r="NM12" s="189"/>
-      <c r="NN12" s="189"/>
-      <c r="NO12" s="189"/>
-      <c r="NP12" s="189"/>
-      <c r="NQ12" s="189"/>
-      <c r="NR12" s="189"/>
-      <c r="NS12" s="189"/>
-      <c r="NT12" s="189"/>
-      <c r="NU12" s="189"/>
-      <c r="NV12" s="189"/>
-      <c r="NW12" s="189"/>
-      <c r="NX12" s="189"/>
-      <c r="NY12" s="189"/>
-      <c r="NZ12" s="189"/>
-      <c r="OA12" s="189"/>
-      <c r="OB12" s="189"/>
-      <c r="OC12" s="189"/>
-      <c r="OD12" s="189"/>
-      <c r="OE12" s="189"/>
-      <c r="OF12" s="189"/>
-      <c r="OG12" s="189"/>
-      <c r="OH12" s="189"/>
-      <c r="OI12" s="189"/>
-      <c r="OJ12" s="189"/>
-      <c r="OK12" s="189"/>
-      <c r="OL12" s="189"/>
-      <c r="OM12" s="189"/>
-      <c r="ON12" s="189"/>
-      <c r="OO12" s="189"/>
-      <c r="OP12" s="189"/>
-      <c r="OQ12" s="189"/>
-      <c r="OR12" s="189"/>
-      <c r="OS12" s="189"/>
-      <c r="OT12" s="189"/>
-      <c r="OU12" s="189"/>
-      <c r="OV12" s="189"/>
-      <c r="OW12" s="189"/>
-      <c r="OX12" s="189"/>
-      <c r="OY12" s="189"/>
-      <c r="OZ12" s="189"/>
-      <c r="PA12" s="189"/>
-      <c r="PB12" s="189"/>
-      <c r="PC12" s="189"/>
-      <c r="PD12" s="189"/>
-      <c r="PE12" s="189"/>
-      <c r="PF12" s="189"/>
-      <c r="PG12" s="189"/>
-      <c r="PH12" s="189"/>
-      <c r="PI12" s="190"/>
-      <c r="PJ12" s="188" t="s">
+      <c r="KU12" s="153"/>
+      <c r="KV12" s="153"/>
+      <c r="KW12" s="153"/>
+      <c r="KX12" s="153"/>
+      <c r="KY12" s="153"/>
+      <c r="KZ12" s="153"/>
+      <c r="LA12" s="153"/>
+      <c r="LB12" s="153"/>
+      <c r="LC12" s="153"/>
+      <c r="LD12" s="153"/>
+      <c r="LE12" s="153"/>
+      <c r="LF12" s="153"/>
+      <c r="LG12" s="153"/>
+      <c r="LH12" s="153"/>
+      <c r="LI12" s="153"/>
+      <c r="LJ12" s="153"/>
+      <c r="LK12" s="153"/>
+      <c r="LL12" s="153"/>
+      <c r="LM12" s="153"/>
+      <c r="LN12" s="153"/>
+      <c r="LO12" s="153"/>
+      <c r="LP12" s="153"/>
+      <c r="LQ12" s="153"/>
+      <c r="LR12" s="153"/>
+      <c r="LS12" s="153"/>
+      <c r="LT12" s="153"/>
+      <c r="LU12" s="153"/>
+      <c r="LV12" s="153"/>
+      <c r="LW12" s="153"/>
+      <c r="LX12" s="153"/>
+      <c r="LY12" s="153"/>
+      <c r="LZ12" s="153"/>
+      <c r="MA12" s="153"/>
+      <c r="MB12" s="153"/>
+      <c r="MC12" s="153"/>
+      <c r="MD12" s="153"/>
+      <c r="ME12" s="153"/>
+      <c r="MF12" s="153"/>
+      <c r="MG12" s="153"/>
+      <c r="MH12" s="153"/>
+      <c r="MI12" s="153"/>
+      <c r="MJ12" s="153"/>
+      <c r="MK12" s="153"/>
+      <c r="ML12" s="153"/>
+      <c r="MM12" s="153"/>
+      <c r="MN12" s="153"/>
+      <c r="MO12" s="153"/>
+      <c r="MP12" s="153"/>
+      <c r="MQ12" s="153"/>
+      <c r="MR12" s="153"/>
+      <c r="MS12" s="153"/>
+      <c r="MT12" s="153"/>
+      <c r="MU12" s="153"/>
+      <c r="MV12" s="153"/>
+      <c r="MW12" s="153"/>
+      <c r="MX12" s="153"/>
+      <c r="MY12" s="153"/>
+      <c r="MZ12" s="153"/>
+      <c r="NA12" s="153"/>
+      <c r="NB12" s="153"/>
+      <c r="NC12" s="153"/>
+      <c r="ND12" s="153"/>
+      <c r="NE12" s="153"/>
+      <c r="NF12" s="153"/>
+      <c r="NG12" s="153"/>
+      <c r="NH12" s="153"/>
+      <c r="NI12" s="153"/>
+      <c r="NJ12" s="153"/>
+      <c r="NK12" s="153"/>
+      <c r="NL12" s="153"/>
+      <c r="NM12" s="153"/>
+      <c r="NN12" s="153"/>
+      <c r="NO12" s="153"/>
+      <c r="NP12" s="153"/>
+      <c r="NQ12" s="153"/>
+      <c r="NR12" s="153"/>
+      <c r="NS12" s="153"/>
+      <c r="NT12" s="153"/>
+      <c r="NU12" s="153"/>
+      <c r="NV12" s="153"/>
+      <c r="NW12" s="153"/>
+      <c r="NX12" s="153"/>
+      <c r="NY12" s="153"/>
+      <c r="NZ12" s="153"/>
+      <c r="OA12" s="153"/>
+      <c r="OB12" s="153"/>
+      <c r="OC12" s="153"/>
+      <c r="OD12" s="153"/>
+      <c r="OE12" s="153"/>
+      <c r="OF12" s="153"/>
+      <c r="OG12" s="153"/>
+      <c r="OH12" s="153"/>
+      <c r="OI12" s="153"/>
+      <c r="OJ12" s="153"/>
+      <c r="OK12" s="153"/>
+      <c r="OL12" s="153"/>
+      <c r="OM12" s="153"/>
+      <c r="ON12" s="153"/>
+      <c r="OO12" s="153"/>
+      <c r="OP12" s="153"/>
+      <c r="OQ12" s="153"/>
+      <c r="OR12" s="153"/>
+      <c r="OS12" s="153"/>
+      <c r="OT12" s="153"/>
+      <c r="OU12" s="153"/>
+      <c r="OV12" s="153"/>
+      <c r="OW12" s="153"/>
+      <c r="OX12" s="153"/>
+      <c r="OY12" s="153"/>
+      <c r="OZ12" s="153"/>
+      <c r="PA12" s="153"/>
+      <c r="PB12" s="153"/>
+      <c r="PC12" s="153"/>
+      <c r="PD12" s="153"/>
+      <c r="PE12" s="153"/>
+      <c r="PF12" s="153"/>
+      <c r="PG12" s="153"/>
+      <c r="PH12" s="153"/>
+      <c r="PI12" s="154"/>
+      <c r="PJ12" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="PK12" s="189"/>
-      <c r="PL12" s="189"/>
-      <c r="PM12" s="189"/>
-      <c r="PN12" s="189"/>
-      <c r="PO12" s="189"/>
-      <c r="PP12" s="189"/>
-      <c r="PQ12" s="189"/>
-      <c r="PR12" s="189"/>
-      <c r="PS12" s="189"/>
-      <c r="PT12" s="189"/>
-      <c r="PU12" s="189"/>
-      <c r="PV12" s="189"/>
-      <c r="PW12" s="189"/>
-      <c r="PX12" s="189"/>
-      <c r="PY12" s="189"/>
-      <c r="PZ12" s="189"/>
-      <c r="QA12" s="189"/>
-      <c r="QB12" s="189"/>
-      <c r="QC12" s="189"/>
-      <c r="QD12" s="189"/>
-      <c r="QE12" s="189"/>
-      <c r="QF12" s="189"/>
-      <c r="QG12" s="189"/>
-      <c r="QH12" s="189"/>
-      <c r="QI12" s="189"/>
-      <c r="QJ12" s="189"/>
-      <c r="QK12" s="189"/>
-      <c r="QL12" s="189"/>
-      <c r="QM12" s="189"/>
-      <c r="QN12" s="189"/>
-      <c r="QO12" s="189"/>
-      <c r="QP12" s="189"/>
-      <c r="QQ12" s="189"/>
-      <c r="QR12" s="189"/>
-      <c r="QS12" s="189"/>
-      <c r="QT12" s="189"/>
-      <c r="QU12" s="189"/>
-      <c r="QV12" s="189"/>
-      <c r="QW12" s="189"/>
-      <c r="QX12" s="189"/>
-      <c r="QY12" s="189"/>
-      <c r="QZ12" s="189"/>
-      <c r="RA12" s="189"/>
-      <c r="RB12" s="189"/>
-      <c r="RC12" s="189"/>
-      <c r="RD12" s="189"/>
-      <c r="RE12" s="189"/>
-      <c r="RF12" s="189"/>
-      <c r="RG12" s="189"/>
-      <c r="RH12" s="189"/>
-      <c r="RI12" s="189"/>
-      <c r="RJ12" s="189"/>
-      <c r="RK12" s="189"/>
-      <c r="RL12" s="189"/>
-      <c r="RM12" s="189"/>
-      <c r="RN12" s="189"/>
-      <c r="RO12" s="189"/>
-      <c r="RP12" s="189"/>
-      <c r="RQ12" s="189"/>
-      <c r="RR12" s="189"/>
-      <c r="RS12" s="189"/>
-      <c r="RT12" s="189"/>
-      <c r="RU12" s="189"/>
-      <c r="RV12" s="189"/>
-      <c r="RW12" s="189"/>
-      <c r="RX12" s="189"/>
-      <c r="RY12" s="189"/>
-      <c r="RZ12" s="189"/>
-      <c r="SA12" s="189"/>
-      <c r="SB12" s="189"/>
-      <c r="SC12" s="189"/>
-      <c r="SD12" s="189"/>
-      <c r="SE12" s="189"/>
-      <c r="SF12" s="189"/>
-      <c r="SG12" s="189"/>
-      <c r="SH12" s="189"/>
-      <c r="SI12" s="189"/>
-      <c r="SJ12" s="189"/>
-      <c r="SK12" s="189"/>
-      <c r="SL12" s="189"/>
-      <c r="SM12" s="189"/>
-      <c r="SN12" s="189"/>
-      <c r="SO12" s="189"/>
-      <c r="SP12" s="189"/>
-      <c r="SQ12" s="189"/>
-      <c r="SR12" s="189"/>
-      <c r="SS12" s="189"/>
-      <c r="ST12" s="189"/>
-      <c r="SU12" s="189"/>
-      <c r="SV12" s="189"/>
-      <c r="SW12" s="189"/>
-      <c r="SX12" s="189"/>
-      <c r="SY12" s="189"/>
-      <c r="SZ12" s="189"/>
-      <c r="TA12" s="189"/>
-      <c r="TB12" s="189"/>
-      <c r="TC12" s="189"/>
-      <c r="TD12" s="189"/>
-      <c r="TE12" s="189"/>
-      <c r="TF12" s="189"/>
-      <c r="TG12" s="189"/>
-      <c r="TH12" s="189"/>
-      <c r="TI12" s="189"/>
-      <c r="TJ12" s="189"/>
-      <c r="TK12" s="189"/>
-      <c r="TL12" s="189"/>
-      <c r="TM12" s="189"/>
-      <c r="TN12" s="189"/>
-      <c r="TO12" s="189"/>
-      <c r="TP12" s="189"/>
-      <c r="TQ12" s="189"/>
-      <c r="TR12" s="189"/>
-      <c r="TS12" s="189"/>
-      <c r="TT12" s="189"/>
-      <c r="TU12" s="189"/>
-      <c r="TV12" s="189"/>
-      <c r="TW12" s="189"/>
-      <c r="TX12" s="189"/>
-      <c r="TY12" s="190"/>
-      <c r="TZ12" s="188" t="s">
+      <c r="PK12" s="153"/>
+      <c r="PL12" s="153"/>
+      <c r="PM12" s="153"/>
+      <c r="PN12" s="153"/>
+      <c r="PO12" s="153"/>
+      <c r="PP12" s="153"/>
+      <c r="PQ12" s="153"/>
+      <c r="PR12" s="153"/>
+      <c r="PS12" s="153"/>
+      <c r="PT12" s="153"/>
+      <c r="PU12" s="153"/>
+      <c r="PV12" s="153"/>
+      <c r="PW12" s="153"/>
+      <c r="PX12" s="153"/>
+      <c r="PY12" s="153"/>
+      <c r="PZ12" s="153"/>
+      <c r="QA12" s="153"/>
+      <c r="QB12" s="153"/>
+      <c r="QC12" s="153"/>
+      <c r="QD12" s="153"/>
+      <c r="QE12" s="153"/>
+      <c r="QF12" s="153"/>
+      <c r="QG12" s="153"/>
+      <c r="QH12" s="153"/>
+      <c r="QI12" s="153"/>
+      <c r="QJ12" s="153"/>
+      <c r="QK12" s="153"/>
+      <c r="QL12" s="153"/>
+      <c r="QM12" s="153"/>
+      <c r="QN12" s="153"/>
+      <c r="QO12" s="153"/>
+      <c r="QP12" s="153"/>
+      <c r="QQ12" s="153"/>
+      <c r="QR12" s="153"/>
+      <c r="QS12" s="153"/>
+      <c r="QT12" s="153"/>
+      <c r="QU12" s="153"/>
+      <c r="QV12" s="153"/>
+      <c r="QW12" s="153"/>
+      <c r="QX12" s="153"/>
+      <c r="QY12" s="153"/>
+      <c r="QZ12" s="153"/>
+      <c r="RA12" s="153"/>
+      <c r="RB12" s="153"/>
+      <c r="RC12" s="153"/>
+      <c r="RD12" s="153"/>
+      <c r="RE12" s="153"/>
+      <c r="RF12" s="153"/>
+      <c r="RG12" s="153"/>
+      <c r="RH12" s="153"/>
+      <c r="RI12" s="153"/>
+      <c r="RJ12" s="153"/>
+      <c r="RK12" s="153"/>
+      <c r="RL12" s="153"/>
+      <c r="RM12" s="153"/>
+      <c r="RN12" s="153"/>
+      <c r="RO12" s="153"/>
+      <c r="RP12" s="153"/>
+      <c r="RQ12" s="153"/>
+      <c r="RR12" s="153"/>
+      <c r="RS12" s="153"/>
+      <c r="RT12" s="153"/>
+      <c r="RU12" s="153"/>
+      <c r="RV12" s="153"/>
+      <c r="RW12" s="153"/>
+      <c r="RX12" s="153"/>
+      <c r="RY12" s="153"/>
+      <c r="RZ12" s="153"/>
+      <c r="SA12" s="153"/>
+      <c r="SB12" s="153"/>
+      <c r="SC12" s="153"/>
+      <c r="SD12" s="153"/>
+      <c r="SE12" s="153"/>
+      <c r="SF12" s="153"/>
+      <c r="SG12" s="153"/>
+      <c r="SH12" s="153"/>
+      <c r="SI12" s="153"/>
+      <c r="SJ12" s="153"/>
+      <c r="SK12" s="153"/>
+      <c r="SL12" s="153"/>
+      <c r="SM12" s="153"/>
+      <c r="SN12" s="153"/>
+      <c r="SO12" s="153"/>
+      <c r="SP12" s="153"/>
+      <c r="SQ12" s="153"/>
+      <c r="SR12" s="153"/>
+      <c r="SS12" s="153"/>
+      <c r="ST12" s="153"/>
+      <c r="SU12" s="153"/>
+      <c r="SV12" s="153"/>
+      <c r="SW12" s="153"/>
+      <c r="SX12" s="153"/>
+      <c r="SY12" s="153"/>
+      <c r="SZ12" s="153"/>
+      <c r="TA12" s="153"/>
+      <c r="TB12" s="153"/>
+      <c r="TC12" s="153"/>
+      <c r="TD12" s="153"/>
+      <c r="TE12" s="153"/>
+      <c r="TF12" s="153"/>
+      <c r="TG12" s="153"/>
+      <c r="TH12" s="153"/>
+      <c r="TI12" s="153"/>
+      <c r="TJ12" s="153"/>
+      <c r="TK12" s="153"/>
+      <c r="TL12" s="153"/>
+      <c r="TM12" s="153"/>
+      <c r="TN12" s="153"/>
+      <c r="TO12" s="153"/>
+      <c r="TP12" s="153"/>
+      <c r="TQ12" s="153"/>
+      <c r="TR12" s="153"/>
+      <c r="TS12" s="153"/>
+      <c r="TT12" s="153"/>
+      <c r="TU12" s="153"/>
+      <c r="TV12" s="153"/>
+      <c r="TW12" s="153"/>
+      <c r="TX12" s="153"/>
+      <c r="TY12" s="154"/>
+      <c r="TZ12" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="UA12" s="189"/>
-      <c r="UB12" s="189"/>
-      <c r="UC12" s="189"/>
-      <c r="UD12" s="189"/>
-      <c r="UE12" s="189"/>
-      <c r="UF12" s="189"/>
-      <c r="UG12" s="189"/>
-      <c r="UH12" s="189"/>
-      <c r="UI12" s="189"/>
-      <c r="UJ12" s="189"/>
-      <c r="UK12" s="189"/>
-      <c r="UL12" s="189"/>
-      <c r="UM12" s="189"/>
-      <c r="UN12" s="189"/>
-      <c r="UO12" s="189"/>
-      <c r="UP12" s="189"/>
-      <c r="UQ12" s="189"/>
-      <c r="UR12" s="189"/>
-      <c r="US12" s="189"/>
-      <c r="UT12" s="189"/>
-      <c r="UU12" s="189"/>
-      <c r="UV12" s="189"/>
-      <c r="UW12" s="189"/>
-      <c r="UX12" s="189"/>
-      <c r="UY12" s="189"/>
-      <c r="UZ12" s="189"/>
-      <c r="VA12" s="189"/>
-      <c r="VB12" s="189"/>
-      <c r="VC12" s="190"/>
+      <c r="UA12" s="153"/>
+      <c r="UB12" s="153"/>
+      <c r="UC12" s="153"/>
+      <c r="UD12" s="153"/>
+      <c r="UE12" s="153"/>
+      <c r="UF12" s="153"/>
+      <c r="UG12" s="153"/>
+      <c r="UH12" s="153"/>
+      <c r="UI12" s="153"/>
+      <c r="UJ12" s="153"/>
+      <c r="UK12" s="153"/>
+      <c r="UL12" s="153"/>
+      <c r="UM12" s="153"/>
+      <c r="UN12" s="153"/>
+      <c r="UO12" s="153"/>
+      <c r="UP12" s="153"/>
+      <c r="UQ12" s="153"/>
+      <c r="UR12" s="153"/>
+      <c r="US12" s="153"/>
+      <c r="UT12" s="153"/>
+      <c r="UU12" s="153"/>
+      <c r="UV12" s="153"/>
+      <c r="UW12" s="153"/>
+      <c r="UX12" s="153"/>
+      <c r="UY12" s="153"/>
+      <c r="UZ12" s="153"/>
+      <c r="VA12" s="153"/>
+      <c r="VB12" s="153"/>
+      <c r="VC12" s="154"/>
     </row>
     <row r="13" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="150" t="s">
+      <c r="B13" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="186"/>
-      <c r="D13" s="191" t="s">
+      <c r="C13" s="173"/>
+      <c r="D13" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="192"/>
-      <c r="N13" s="192"/>
-      <c r="O13" s="192"/>
-      <c r="P13" s="192"/>
-      <c r="Q13" s="192"/>
-      <c r="R13" s="192"/>
-      <c r="S13" s="192"/>
-      <c r="T13" s="192"/>
-      <c r="U13" s="192"/>
-      <c r="V13" s="192"/>
-      <c r="W13" s="192"/>
-      <c r="X13" s="192"/>
-      <c r="Y13" s="192"/>
-      <c r="Z13" s="192"/>
-      <c r="AA13" s="192"/>
-      <c r="AB13" s="192"/>
-      <c r="AC13" s="192"/>
-      <c r="AD13" s="192"/>
-      <c r="AE13" s="192"/>
-      <c r="AF13" s="192"/>
-      <c r="AG13" s="193"/>
-      <c r="AH13" s="194" t="s">
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
+      <c r="H13" s="175"/>
+      <c r="I13" s="175"/>
+      <c r="J13" s="175"/>
+      <c r="K13" s="175"/>
+      <c r="L13" s="175"/>
+      <c r="M13" s="175"/>
+      <c r="N13" s="175"/>
+      <c r="O13" s="175"/>
+      <c r="P13" s="175"/>
+      <c r="Q13" s="175"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="175"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="175"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="175"/>
+      <c r="AB13" s="175"/>
+      <c r="AC13" s="175"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="175"/>
+      <c r="AF13" s="175"/>
+      <c r="AG13" s="176"/>
+      <c r="AH13" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="AI13" s="192"/>
-      <c r="AJ13" s="192"/>
-      <c r="AK13" s="192"/>
-      <c r="AL13" s="192"/>
-      <c r="AM13" s="192"/>
-      <c r="AN13" s="192"/>
-      <c r="AO13" s="192"/>
-      <c r="AP13" s="192"/>
-      <c r="AQ13" s="192"/>
-      <c r="AR13" s="192"/>
-      <c r="AS13" s="192"/>
-      <c r="AT13" s="192"/>
-      <c r="AU13" s="192"/>
-      <c r="AV13" s="192"/>
-      <c r="AW13" s="192"/>
-      <c r="AX13" s="192"/>
-      <c r="AY13" s="192"/>
-      <c r="AZ13" s="192"/>
-      <c r="BA13" s="192"/>
-      <c r="BB13" s="192"/>
-      <c r="BC13" s="192"/>
-      <c r="BD13" s="192"/>
-      <c r="BE13" s="192"/>
-      <c r="BF13" s="192"/>
-      <c r="BG13" s="192"/>
-      <c r="BH13" s="192"/>
-      <c r="BI13" s="192"/>
-      <c r="BJ13" s="192"/>
-      <c r="BK13" s="195"/>
-      <c r="BL13" s="191" t="s">
+      <c r="AI13" s="175"/>
+      <c r="AJ13" s="175"/>
+      <c r="AK13" s="175"/>
+      <c r="AL13" s="175"/>
+      <c r="AM13" s="175"/>
+      <c r="AN13" s="175"/>
+      <c r="AO13" s="175"/>
+      <c r="AP13" s="175"/>
+      <c r="AQ13" s="175"/>
+      <c r="AR13" s="175"/>
+      <c r="AS13" s="175"/>
+      <c r="AT13" s="175"/>
+      <c r="AU13" s="175"/>
+      <c r="AV13" s="175"/>
+      <c r="AW13" s="175"/>
+      <c r="AX13" s="175"/>
+      <c r="AY13" s="175"/>
+      <c r="AZ13" s="175"/>
+      <c r="BA13" s="175"/>
+      <c r="BB13" s="175"/>
+      <c r="BC13" s="175"/>
+      <c r="BD13" s="175"/>
+      <c r="BE13" s="175"/>
+      <c r="BF13" s="175"/>
+      <c r="BG13" s="175"/>
+      <c r="BH13" s="175"/>
+      <c r="BI13" s="175"/>
+      <c r="BJ13" s="175"/>
+      <c r="BK13" s="178"/>
+      <c r="BL13" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="BM13" s="192"/>
-      <c r="BN13" s="192"/>
-      <c r="BO13" s="192"/>
-      <c r="BP13" s="192"/>
-      <c r="BQ13" s="192"/>
-      <c r="BR13" s="192"/>
-      <c r="BS13" s="192"/>
-      <c r="BT13" s="192"/>
-      <c r="BU13" s="192"/>
-      <c r="BV13" s="192"/>
-      <c r="BW13" s="192"/>
-      <c r="BX13" s="192"/>
-      <c r="BY13" s="192"/>
-      <c r="BZ13" s="192"/>
-      <c r="CA13" s="192"/>
-      <c r="CB13" s="192"/>
-      <c r="CC13" s="192"/>
-      <c r="CD13" s="192"/>
-      <c r="CE13" s="192"/>
-      <c r="CF13" s="192"/>
-      <c r="CG13" s="192"/>
-      <c r="CH13" s="192"/>
-      <c r="CI13" s="192"/>
-      <c r="CJ13" s="192"/>
-      <c r="CK13" s="192"/>
-      <c r="CL13" s="192"/>
-      <c r="CM13" s="192"/>
-      <c r="CN13" s="192"/>
-      <c r="CO13" s="193"/>
-      <c r="CP13" s="194" t="s">
+      <c r="BM13" s="175"/>
+      <c r="BN13" s="175"/>
+      <c r="BO13" s="175"/>
+      <c r="BP13" s="175"/>
+      <c r="BQ13" s="175"/>
+      <c r="BR13" s="175"/>
+      <c r="BS13" s="175"/>
+      <c r="BT13" s="175"/>
+      <c r="BU13" s="175"/>
+      <c r="BV13" s="175"/>
+      <c r="BW13" s="175"/>
+      <c r="BX13" s="175"/>
+      <c r="BY13" s="175"/>
+      <c r="BZ13" s="175"/>
+      <c r="CA13" s="175"/>
+      <c r="CB13" s="175"/>
+      <c r="CC13" s="175"/>
+      <c r="CD13" s="175"/>
+      <c r="CE13" s="175"/>
+      <c r="CF13" s="175"/>
+      <c r="CG13" s="175"/>
+      <c r="CH13" s="175"/>
+      <c r="CI13" s="175"/>
+      <c r="CJ13" s="175"/>
+      <c r="CK13" s="175"/>
+      <c r="CL13" s="175"/>
+      <c r="CM13" s="175"/>
+      <c r="CN13" s="175"/>
+      <c r="CO13" s="176"/>
+      <c r="CP13" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="CQ13" s="192"/>
-      <c r="CR13" s="192"/>
-      <c r="CS13" s="192"/>
-      <c r="CT13" s="192"/>
-      <c r="CU13" s="192"/>
-      <c r="CV13" s="192"/>
-      <c r="CW13" s="192"/>
-      <c r="CX13" s="192"/>
-      <c r="CY13" s="192"/>
-      <c r="CZ13" s="192"/>
-      <c r="DA13" s="192"/>
-      <c r="DB13" s="192"/>
-      <c r="DC13" s="192"/>
-      <c r="DD13" s="192"/>
-      <c r="DE13" s="192"/>
-      <c r="DF13" s="192"/>
-      <c r="DG13" s="192"/>
-      <c r="DH13" s="192"/>
-      <c r="DI13" s="192"/>
-      <c r="DJ13" s="192"/>
-      <c r="DK13" s="192"/>
-      <c r="DL13" s="192"/>
-      <c r="DM13" s="192"/>
-      <c r="DN13" s="192"/>
-      <c r="DO13" s="192"/>
-      <c r="DP13" s="192"/>
-      <c r="DQ13" s="192"/>
-      <c r="DR13" s="192"/>
-      <c r="DS13" s="193"/>
-      <c r="DT13" s="194" t="s">
+      <c r="CQ13" s="175"/>
+      <c r="CR13" s="175"/>
+      <c r="CS13" s="175"/>
+      <c r="CT13" s="175"/>
+      <c r="CU13" s="175"/>
+      <c r="CV13" s="175"/>
+      <c r="CW13" s="175"/>
+      <c r="CX13" s="175"/>
+      <c r="CY13" s="175"/>
+      <c r="CZ13" s="175"/>
+      <c r="DA13" s="175"/>
+      <c r="DB13" s="175"/>
+      <c r="DC13" s="175"/>
+      <c r="DD13" s="175"/>
+      <c r="DE13" s="175"/>
+      <c r="DF13" s="175"/>
+      <c r="DG13" s="175"/>
+      <c r="DH13" s="175"/>
+      <c r="DI13" s="175"/>
+      <c r="DJ13" s="175"/>
+      <c r="DK13" s="175"/>
+      <c r="DL13" s="175"/>
+      <c r="DM13" s="175"/>
+      <c r="DN13" s="175"/>
+      <c r="DO13" s="175"/>
+      <c r="DP13" s="175"/>
+      <c r="DQ13" s="175"/>
+      <c r="DR13" s="175"/>
+      <c r="DS13" s="176"/>
+      <c r="DT13" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="DU13" s="192"/>
-      <c r="DV13" s="192"/>
-      <c r="DW13" s="192"/>
-      <c r="DX13" s="192"/>
-      <c r="DY13" s="192"/>
-      <c r="DZ13" s="192"/>
-      <c r="EA13" s="192"/>
-      <c r="EB13" s="192"/>
-      <c r="EC13" s="192"/>
-      <c r="ED13" s="192"/>
-      <c r="EE13" s="192"/>
-      <c r="EF13" s="192"/>
-      <c r="EG13" s="192"/>
-      <c r="EH13" s="192"/>
-      <c r="EI13" s="192"/>
-      <c r="EJ13" s="192"/>
-      <c r="EK13" s="192"/>
-      <c r="EL13" s="192"/>
-      <c r="EM13" s="192"/>
-      <c r="EN13" s="192"/>
-      <c r="EO13" s="192"/>
-      <c r="EP13" s="192"/>
-      <c r="EQ13" s="192"/>
-      <c r="ER13" s="192"/>
-      <c r="ES13" s="192"/>
-      <c r="ET13" s="192"/>
-      <c r="EU13" s="192"/>
-      <c r="EV13" s="192"/>
-      <c r="EW13" s="193"/>
-      <c r="EX13" s="194" t="s">
+      <c r="DU13" s="175"/>
+      <c r="DV13" s="175"/>
+      <c r="DW13" s="175"/>
+      <c r="DX13" s="175"/>
+      <c r="DY13" s="175"/>
+      <c r="DZ13" s="175"/>
+      <c r="EA13" s="175"/>
+      <c r="EB13" s="175"/>
+      <c r="EC13" s="175"/>
+      <c r="ED13" s="175"/>
+      <c r="EE13" s="175"/>
+      <c r="EF13" s="175"/>
+      <c r="EG13" s="175"/>
+      <c r="EH13" s="175"/>
+      <c r="EI13" s="175"/>
+      <c r="EJ13" s="175"/>
+      <c r="EK13" s="175"/>
+      <c r="EL13" s="175"/>
+      <c r="EM13" s="175"/>
+      <c r="EN13" s="175"/>
+      <c r="EO13" s="175"/>
+      <c r="EP13" s="175"/>
+      <c r="EQ13" s="175"/>
+      <c r="ER13" s="175"/>
+      <c r="ES13" s="175"/>
+      <c r="ET13" s="175"/>
+      <c r="EU13" s="175"/>
+      <c r="EV13" s="175"/>
+      <c r="EW13" s="176"/>
+      <c r="EX13" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="EY13" s="192"/>
-      <c r="EZ13" s="192"/>
-      <c r="FA13" s="192"/>
-      <c r="FB13" s="192"/>
-      <c r="FC13" s="192"/>
-      <c r="FD13" s="192"/>
-      <c r="FE13" s="192"/>
-      <c r="FF13" s="192"/>
-      <c r="FG13" s="192"/>
-      <c r="FH13" s="192"/>
-      <c r="FI13" s="192"/>
-      <c r="FJ13" s="192"/>
-      <c r="FK13" s="192"/>
-      <c r="FL13" s="192"/>
-      <c r="FM13" s="192"/>
-      <c r="FN13" s="192"/>
-      <c r="FO13" s="192"/>
-      <c r="FP13" s="192"/>
-      <c r="FQ13" s="192"/>
-      <c r="FR13" s="192"/>
-      <c r="FS13" s="192"/>
-      <c r="FT13" s="192"/>
-      <c r="FU13" s="192"/>
-      <c r="FV13" s="192"/>
-      <c r="FW13" s="192"/>
-      <c r="FX13" s="192"/>
-      <c r="FY13" s="192"/>
-      <c r="FZ13" s="192"/>
-      <c r="GA13" s="195"/>
-      <c r="GB13" s="191" t="s">
+      <c r="EY13" s="175"/>
+      <c r="EZ13" s="175"/>
+      <c r="FA13" s="175"/>
+      <c r="FB13" s="175"/>
+      <c r="FC13" s="175"/>
+      <c r="FD13" s="175"/>
+      <c r="FE13" s="175"/>
+      <c r="FF13" s="175"/>
+      <c r="FG13" s="175"/>
+      <c r="FH13" s="175"/>
+      <c r="FI13" s="175"/>
+      <c r="FJ13" s="175"/>
+      <c r="FK13" s="175"/>
+      <c r="FL13" s="175"/>
+      <c r="FM13" s="175"/>
+      <c r="FN13" s="175"/>
+      <c r="FO13" s="175"/>
+      <c r="FP13" s="175"/>
+      <c r="FQ13" s="175"/>
+      <c r="FR13" s="175"/>
+      <c r="FS13" s="175"/>
+      <c r="FT13" s="175"/>
+      <c r="FU13" s="175"/>
+      <c r="FV13" s="175"/>
+      <c r="FW13" s="175"/>
+      <c r="FX13" s="175"/>
+      <c r="FY13" s="175"/>
+      <c r="FZ13" s="175"/>
+      <c r="GA13" s="178"/>
+      <c r="GB13" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="GC13" s="192"/>
-      <c r="GD13" s="192"/>
-      <c r="GE13" s="192"/>
-      <c r="GF13" s="192"/>
-      <c r="GG13" s="192"/>
-      <c r="GH13" s="192"/>
-      <c r="GI13" s="192"/>
-      <c r="GJ13" s="192"/>
-      <c r="GK13" s="192"/>
-      <c r="GL13" s="192"/>
-      <c r="GM13" s="192"/>
-      <c r="GN13" s="192"/>
-      <c r="GO13" s="192"/>
-      <c r="GP13" s="192"/>
-      <c r="GQ13" s="192"/>
-      <c r="GR13" s="192"/>
-      <c r="GS13" s="192"/>
-      <c r="GT13" s="192"/>
-      <c r="GU13" s="192"/>
-      <c r="GV13" s="192"/>
-      <c r="GW13" s="192"/>
-      <c r="GX13" s="192"/>
-      <c r="GY13" s="192"/>
-      <c r="GZ13" s="192"/>
-      <c r="HA13" s="192"/>
-      <c r="HB13" s="192"/>
-      <c r="HC13" s="192"/>
-      <c r="HD13" s="192"/>
-      <c r="HE13" s="193"/>
-      <c r="HF13" s="194" t="s">
+      <c r="GC13" s="175"/>
+      <c r="GD13" s="175"/>
+      <c r="GE13" s="175"/>
+      <c r="GF13" s="175"/>
+      <c r="GG13" s="175"/>
+      <c r="GH13" s="175"/>
+      <c r="GI13" s="175"/>
+      <c r="GJ13" s="175"/>
+      <c r="GK13" s="175"/>
+      <c r="GL13" s="175"/>
+      <c r="GM13" s="175"/>
+      <c r="GN13" s="175"/>
+      <c r="GO13" s="175"/>
+      <c r="GP13" s="175"/>
+      <c r="GQ13" s="175"/>
+      <c r="GR13" s="175"/>
+      <c r="GS13" s="175"/>
+      <c r="GT13" s="175"/>
+      <c r="GU13" s="175"/>
+      <c r="GV13" s="175"/>
+      <c r="GW13" s="175"/>
+      <c r="GX13" s="175"/>
+      <c r="GY13" s="175"/>
+      <c r="GZ13" s="175"/>
+      <c r="HA13" s="175"/>
+      <c r="HB13" s="175"/>
+      <c r="HC13" s="175"/>
+      <c r="HD13" s="175"/>
+      <c r="HE13" s="176"/>
+      <c r="HF13" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="HG13" s="192"/>
-      <c r="HH13" s="192"/>
-      <c r="HI13" s="192"/>
-      <c r="HJ13" s="192"/>
-      <c r="HK13" s="192"/>
-      <c r="HL13" s="192"/>
-      <c r="HM13" s="192"/>
-      <c r="HN13" s="192"/>
-      <c r="HO13" s="192"/>
-      <c r="HP13" s="192"/>
-      <c r="HQ13" s="192"/>
-      <c r="HR13" s="192"/>
-      <c r="HS13" s="192"/>
-      <c r="HT13" s="192"/>
-      <c r="HU13" s="192"/>
-      <c r="HV13" s="192"/>
-      <c r="HW13" s="192"/>
-      <c r="HX13" s="192"/>
-      <c r="HY13" s="192"/>
-      <c r="HZ13" s="192"/>
-      <c r="IA13" s="192"/>
-      <c r="IB13" s="192"/>
-      <c r="IC13" s="192"/>
-      <c r="ID13" s="192"/>
-      <c r="IE13" s="192"/>
-      <c r="IF13" s="192"/>
-      <c r="IG13" s="192"/>
-      <c r="IH13" s="192"/>
-      <c r="II13" s="193"/>
-      <c r="IJ13" s="194" t="s">
+      <c r="HG13" s="175"/>
+      <c r="HH13" s="175"/>
+      <c r="HI13" s="175"/>
+      <c r="HJ13" s="175"/>
+      <c r="HK13" s="175"/>
+      <c r="HL13" s="175"/>
+      <c r="HM13" s="175"/>
+      <c r="HN13" s="175"/>
+      <c r="HO13" s="175"/>
+      <c r="HP13" s="175"/>
+      <c r="HQ13" s="175"/>
+      <c r="HR13" s="175"/>
+      <c r="HS13" s="175"/>
+      <c r="HT13" s="175"/>
+      <c r="HU13" s="175"/>
+      <c r="HV13" s="175"/>
+      <c r="HW13" s="175"/>
+      <c r="HX13" s="175"/>
+      <c r="HY13" s="175"/>
+      <c r="HZ13" s="175"/>
+      <c r="IA13" s="175"/>
+      <c r="IB13" s="175"/>
+      <c r="IC13" s="175"/>
+      <c r="ID13" s="175"/>
+      <c r="IE13" s="175"/>
+      <c r="IF13" s="175"/>
+      <c r="IG13" s="175"/>
+      <c r="IH13" s="175"/>
+      <c r="II13" s="176"/>
+      <c r="IJ13" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="IK13" s="192"/>
-      <c r="IL13" s="192"/>
-      <c r="IM13" s="192"/>
-      <c r="IN13" s="192"/>
-      <c r="IO13" s="192"/>
-      <c r="IP13" s="192"/>
-      <c r="IQ13" s="192"/>
-      <c r="IR13" s="192"/>
-      <c r="IS13" s="192"/>
-      <c r="IT13" s="192"/>
-      <c r="IU13" s="192"/>
-      <c r="IV13" s="192"/>
-      <c r="IW13" s="192"/>
-      <c r="IX13" s="192"/>
-      <c r="IY13" s="192"/>
-      <c r="IZ13" s="192"/>
-      <c r="JA13" s="192"/>
-      <c r="JB13" s="192"/>
-      <c r="JC13" s="192"/>
-      <c r="JD13" s="192"/>
-      <c r="JE13" s="192"/>
-      <c r="JF13" s="192"/>
-      <c r="JG13" s="192"/>
-      <c r="JH13" s="192"/>
-      <c r="JI13" s="192"/>
-      <c r="JJ13" s="192"/>
-      <c r="JK13" s="192"/>
-      <c r="JL13" s="192"/>
-      <c r="JM13" s="193"/>
-      <c r="JN13" s="194" t="s">
+      <c r="IK13" s="175"/>
+      <c r="IL13" s="175"/>
+      <c r="IM13" s="175"/>
+      <c r="IN13" s="175"/>
+      <c r="IO13" s="175"/>
+      <c r="IP13" s="175"/>
+      <c r="IQ13" s="175"/>
+      <c r="IR13" s="175"/>
+      <c r="IS13" s="175"/>
+      <c r="IT13" s="175"/>
+      <c r="IU13" s="175"/>
+      <c r="IV13" s="175"/>
+      <c r="IW13" s="175"/>
+      <c r="IX13" s="175"/>
+      <c r="IY13" s="175"/>
+      <c r="IZ13" s="175"/>
+      <c r="JA13" s="175"/>
+      <c r="JB13" s="175"/>
+      <c r="JC13" s="175"/>
+      <c r="JD13" s="175"/>
+      <c r="JE13" s="175"/>
+      <c r="JF13" s="175"/>
+      <c r="JG13" s="175"/>
+      <c r="JH13" s="175"/>
+      <c r="JI13" s="175"/>
+      <c r="JJ13" s="175"/>
+      <c r="JK13" s="175"/>
+      <c r="JL13" s="175"/>
+      <c r="JM13" s="176"/>
+      <c r="JN13" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="JO13" s="192"/>
-      <c r="JP13" s="192"/>
-      <c r="JQ13" s="192"/>
-      <c r="JR13" s="192"/>
-      <c r="JS13" s="192"/>
-      <c r="JT13" s="192"/>
-      <c r="JU13" s="192"/>
-      <c r="JV13" s="192"/>
-      <c r="JW13" s="192"/>
-      <c r="JX13" s="192"/>
-      <c r="JY13" s="192"/>
-      <c r="JZ13" s="192"/>
-      <c r="KA13" s="192"/>
-      <c r="KB13" s="192"/>
-      <c r="KC13" s="192"/>
-      <c r="KD13" s="192"/>
-      <c r="KE13" s="192"/>
-      <c r="KF13" s="192"/>
-      <c r="KG13" s="192"/>
-      <c r="KH13" s="192"/>
-      <c r="KI13" s="192"/>
-      <c r="KJ13" s="192"/>
-      <c r="KK13" s="192"/>
-      <c r="KL13" s="192"/>
-      <c r="KM13" s="192"/>
-      <c r="KN13" s="192"/>
-      <c r="KO13" s="192"/>
-      <c r="KP13" s="192"/>
-      <c r="KQ13" s="196"/>
-      <c r="KR13" s="150" t="s">
+      <c r="JO13" s="175"/>
+      <c r="JP13" s="175"/>
+      <c r="JQ13" s="175"/>
+      <c r="JR13" s="175"/>
+      <c r="JS13" s="175"/>
+      <c r="JT13" s="175"/>
+      <c r="JU13" s="175"/>
+      <c r="JV13" s="175"/>
+      <c r="JW13" s="175"/>
+      <c r="JX13" s="175"/>
+      <c r="JY13" s="175"/>
+      <c r="JZ13" s="175"/>
+      <c r="KA13" s="175"/>
+      <c r="KB13" s="175"/>
+      <c r="KC13" s="175"/>
+      <c r="KD13" s="175"/>
+      <c r="KE13" s="175"/>
+      <c r="KF13" s="175"/>
+      <c r="KG13" s="175"/>
+      <c r="KH13" s="175"/>
+      <c r="KI13" s="175"/>
+      <c r="KJ13" s="175"/>
+      <c r="KK13" s="175"/>
+      <c r="KL13" s="175"/>
+      <c r="KM13" s="175"/>
+      <c r="KN13" s="175"/>
+      <c r="KO13" s="175"/>
+      <c r="KP13" s="175"/>
+      <c r="KQ13" s="179"/>
+      <c r="KR13" s="172" t="s">
         <v>17</v>
       </c>
-      <c r="KS13" s="151"/>
-      <c r="KT13" s="191" t="s">
+      <c r="KS13" s="221"/>
+      <c r="KT13" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="KU13" s="192"/>
-      <c r="KV13" s="192"/>
-      <c r="KW13" s="192"/>
-      <c r="KX13" s="192"/>
-      <c r="KY13" s="192"/>
-      <c r="KZ13" s="192"/>
-      <c r="LA13" s="192"/>
-      <c r="LB13" s="192"/>
-      <c r="LC13" s="192"/>
-      <c r="LD13" s="192"/>
-      <c r="LE13" s="192"/>
-      <c r="LF13" s="192"/>
-      <c r="LG13" s="192"/>
-      <c r="LH13" s="192"/>
-      <c r="LI13" s="192"/>
-      <c r="LJ13" s="192"/>
-      <c r="LK13" s="192"/>
-      <c r="LL13" s="192"/>
-      <c r="LM13" s="192"/>
-      <c r="LN13" s="192"/>
-      <c r="LO13" s="192"/>
-      <c r="LP13" s="192"/>
-      <c r="LQ13" s="192"/>
-      <c r="LR13" s="192"/>
-      <c r="LS13" s="192"/>
-      <c r="LT13" s="192"/>
-      <c r="LU13" s="192"/>
-      <c r="LV13" s="192"/>
-      <c r="LW13" s="193"/>
-      <c r="LX13" s="194" t="s">
+      <c r="KU13" s="175"/>
+      <c r="KV13" s="175"/>
+      <c r="KW13" s="175"/>
+      <c r="KX13" s="175"/>
+      <c r="KY13" s="175"/>
+      <c r="KZ13" s="175"/>
+      <c r="LA13" s="175"/>
+      <c r="LB13" s="175"/>
+      <c r="LC13" s="175"/>
+      <c r="LD13" s="175"/>
+      <c r="LE13" s="175"/>
+      <c r="LF13" s="175"/>
+      <c r="LG13" s="175"/>
+      <c r="LH13" s="175"/>
+      <c r="LI13" s="175"/>
+      <c r="LJ13" s="175"/>
+      <c r="LK13" s="175"/>
+      <c r="LL13" s="175"/>
+      <c r="LM13" s="175"/>
+      <c r="LN13" s="175"/>
+      <c r="LO13" s="175"/>
+      <c r="LP13" s="175"/>
+      <c r="LQ13" s="175"/>
+      <c r="LR13" s="175"/>
+      <c r="LS13" s="175"/>
+      <c r="LT13" s="175"/>
+      <c r="LU13" s="175"/>
+      <c r="LV13" s="175"/>
+      <c r="LW13" s="176"/>
+      <c r="LX13" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="LY13" s="192"/>
-      <c r="LZ13" s="192"/>
-      <c r="MA13" s="192"/>
-      <c r="MB13" s="192"/>
-      <c r="MC13" s="192"/>
-      <c r="MD13" s="192"/>
-      <c r="ME13" s="192"/>
-      <c r="MF13" s="192"/>
-      <c r="MG13" s="192"/>
-      <c r="MH13" s="192"/>
-      <c r="MI13" s="192"/>
-      <c r="MJ13" s="192"/>
-      <c r="MK13" s="192"/>
-      <c r="ML13" s="192"/>
-      <c r="MM13" s="192"/>
-      <c r="MN13" s="192"/>
-      <c r="MO13" s="192"/>
-      <c r="MP13" s="192"/>
-      <c r="MQ13" s="192"/>
-      <c r="MR13" s="192"/>
-      <c r="MS13" s="192"/>
-      <c r="MT13" s="192"/>
-      <c r="MU13" s="192"/>
-      <c r="MV13" s="192"/>
-      <c r="MW13" s="192"/>
-      <c r="MX13" s="192"/>
-      <c r="MY13" s="192"/>
-      <c r="MZ13" s="192"/>
-      <c r="NA13" s="193"/>
-      <c r="NB13" s="194" t="s">
+      <c r="LY13" s="175"/>
+      <c r="LZ13" s="175"/>
+      <c r="MA13" s="175"/>
+      <c r="MB13" s="175"/>
+      <c r="MC13" s="175"/>
+      <c r="MD13" s="175"/>
+      <c r="ME13" s="175"/>
+      <c r="MF13" s="175"/>
+      <c r="MG13" s="175"/>
+      <c r="MH13" s="175"/>
+      <c r="MI13" s="175"/>
+      <c r="MJ13" s="175"/>
+      <c r="MK13" s="175"/>
+      <c r="ML13" s="175"/>
+      <c r="MM13" s="175"/>
+      <c r="MN13" s="175"/>
+      <c r="MO13" s="175"/>
+      <c r="MP13" s="175"/>
+      <c r="MQ13" s="175"/>
+      <c r="MR13" s="175"/>
+      <c r="MS13" s="175"/>
+      <c r="MT13" s="175"/>
+      <c r="MU13" s="175"/>
+      <c r="MV13" s="175"/>
+      <c r="MW13" s="175"/>
+      <c r="MX13" s="175"/>
+      <c r="MY13" s="175"/>
+      <c r="MZ13" s="175"/>
+      <c r="NA13" s="176"/>
+      <c r="NB13" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="NC13" s="192"/>
-      <c r="ND13" s="192"/>
-      <c r="NE13" s="192"/>
-      <c r="NF13" s="192"/>
-      <c r="NG13" s="192"/>
-      <c r="NH13" s="192"/>
-      <c r="NI13" s="192"/>
-      <c r="NJ13" s="192"/>
-      <c r="NK13" s="192"/>
-      <c r="NL13" s="192"/>
-      <c r="NM13" s="192"/>
-      <c r="NN13" s="192"/>
-      <c r="NO13" s="192"/>
-      <c r="NP13" s="192"/>
-      <c r="NQ13" s="192"/>
-      <c r="NR13" s="192"/>
-      <c r="NS13" s="192"/>
-      <c r="NT13" s="192"/>
-      <c r="NU13" s="192"/>
-      <c r="NV13" s="192"/>
-      <c r="NW13" s="192"/>
-      <c r="NX13" s="192"/>
-      <c r="NY13" s="192"/>
-      <c r="NZ13" s="192"/>
-      <c r="OA13" s="192"/>
-      <c r="OB13" s="192"/>
-      <c r="OC13" s="192"/>
-      <c r="OD13" s="192"/>
-      <c r="OE13" s="193"/>
-      <c r="OF13" s="194" t="s">
+      <c r="NC13" s="175"/>
+      <c r="ND13" s="175"/>
+      <c r="NE13" s="175"/>
+      <c r="NF13" s="175"/>
+      <c r="NG13" s="175"/>
+      <c r="NH13" s="175"/>
+      <c r="NI13" s="175"/>
+      <c r="NJ13" s="175"/>
+      <c r="NK13" s="175"/>
+      <c r="NL13" s="175"/>
+      <c r="NM13" s="175"/>
+      <c r="NN13" s="175"/>
+      <c r="NO13" s="175"/>
+      <c r="NP13" s="175"/>
+      <c r="NQ13" s="175"/>
+      <c r="NR13" s="175"/>
+      <c r="NS13" s="175"/>
+      <c r="NT13" s="175"/>
+      <c r="NU13" s="175"/>
+      <c r="NV13" s="175"/>
+      <c r="NW13" s="175"/>
+      <c r="NX13" s="175"/>
+      <c r="NY13" s="175"/>
+      <c r="NZ13" s="175"/>
+      <c r="OA13" s="175"/>
+      <c r="OB13" s="175"/>
+      <c r="OC13" s="175"/>
+      <c r="OD13" s="175"/>
+      <c r="OE13" s="176"/>
+      <c r="OF13" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="OG13" s="192"/>
-      <c r="OH13" s="192"/>
-      <c r="OI13" s="192"/>
-      <c r="OJ13" s="192"/>
-      <c r="OK13" s="192"/>
-      <c r="OL13" s="192"/>
-      <c r="OM13" s="192"/>
-      <c r="ON13" s="192"/>
-      <c r="OO13" s="192"/>
-      <c r="OP13" s="192"/>
-      <c r="OQ13" s="192"/>
-      <c r="OR13" s="192"/>
-      <c r="OS13" s="192"/>
-      <c r="OT13" s="192"/>
-      <c r="OU13" s="192"/>
-      <c r="OV13" s="192"/>
-      <c r="OW13" s="192"/>
-      <c r="OX13" s="192"/>
-      <c r="OY13" s="192"/>
-      <c r="OZ13" s="192"/>
-      <c r="PA13" s="192"/>
-      <c r="PB13" s="192"/>
-      <c r="PC13" s="192"/>
-      <c r="PD13" s="192"/>
-      <c r="PE13" s="192"/>
-      <c r="PF13" s="192"/>
-      <c r="PG13" s="192"/>
-      <c r="PH13" s="192"/>
-      <c r="PI13" s="196"/>
-      <c r="PJ13" s="191" t="s">
+      <c r="OG13" s="175"/>
+      <c r="OH13" s="175"/>
+      <c r="OI13" s="175"/>
+      <c r="OJ13" s="175"/>
+      <c r="OK13" s="175"/>
+      <c r="OL13" s="175"/>
+      <c r="OM13" s="175"/>
+      <c r="ON13" s="175"/>
+      <c r="OO13" s="175"/>
+      <c r="OP13" s="175"/>
+      <c r="OQ13" s="175"/>
+      <c r="OR13" s="175"/>
+      <c r="OS13" s="175"/>
+      <c r="OT13" s="175"/>
+      <c r="OU13" s="175"/>
+      <c r="OV13" s="175"/>
+      <c r="OW13" s="175"/>
+      <c r="OX13" s="175"/>
+      <c r="OY13" s="175"/>
+      <c r="OZ13" s="175"/>
+      <c r="PA13" s="175"/>
+      <c r="PB13" s="175"/>
+      <c r="PC13" s="175"/>
+      <c r="PD13" s="175"/>
+      <c r="PE13" s="175"/>
+      <c r="PF13" s="175"/>
+      <c r="PG13" s="175"/>
+      <c r="PH13" s="175"/>
+      <c r="PI13" s="179"/>
+      <c r="PJ13" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="PK13" s="192"/>
-      <c r="PL13" s="192"/>
-      <c r="PM13" s="192"/>
-      <c r="PN13" s="192"/>
-      <c r="PO13" s="192"/>
-      <c r="PP13" s="192"/>
-      <c r="PQ13" s="192"/>
-      <c r="PR13" s="192"/>
-      <c r="PS13" s="192"/>
-      <c r="PT13" s="192"/>
-      <c r="PU13" s="192"/>
-      <c r="PV13" s="192"/>
-      <c r="PW13" s="192"/>
-      <c r="PX13" s="192"/>
-      <c r="PY13" s="192"/>
-      <c r="PZ13" s="192"/>
-      <c r="QA13" s="192"/>
-      <c r="QB13" s="192"/>
-      <c r="QC13" s="192"/>
-      <c r="QD13" s="192"/>
-      <c r="QE13" s="192"/>
-      <c r="QF13" s="192"/>
-      <c r="QG13" s="192"/>
-      <c r="QH13" s="192"/>
-      <c r="QI13" s="192"/>
-      <c r="QJ13" s="192"/>
-      <c r="QK13" s="192"/>
-      <c r="QL13" s="192"/>
-      <c r="QM13" s="193"/>
-      <c r="QN13" s="194" t="s">
+      <c r="PK13" s="175"/>
+      <c r="PL13" s="175"/>
+      <c r="PM13" s="175"/>
+      <c r="PN13" s="175"/>
+      <c r="PO13" s="175"/>
+      <c r="PP13" s="175"/>
+      <c r="PQ13" s="175"/>
+      <c r="PR13" s="175"/>
+      <c r="PS13" s="175"/>
+      <c r="PT13" s="175"/>
+      <c r="PU13" s="175"/>
+      <c r="PV13" s="175"/>
+      <c r="PW13" s="175"/>
+      <c r="PX13" s="175"/>
+      <c r="PY13" s="175"/>
+      <c r="PZ13" s="175"/>
+      <c r="QA13" s="175"/>
+      <c r="QB13" s="175"/>
+      <c r="QC13" s="175"/>
+      <c r="QD13" s="175"/>
+      <c r="QE13" s="175"/>
+      <c r="QF13" s="175"/>
+      <c r="QG13" s="175"/>
+      <c r="QH13" s="175"/>
+      <c r="QI13" s="175"/>
+      <c r="QJ13" s="175"/>
+      <c r="QK13" s="175"/>
+      <c r="QL13" s="175"/>
+      <c r="QM13" s="176"/>
+      <c r="QN13" s="177" t="s">
         <v>21</v>
       </c>
-      <c r="QO13" s="192"/>
-      <c r="QP13" s="192"/>
-      <c r="QQ13" s="192"/>
-      <c r="QR13" s="192"/>
-      <c r="QS13" s="192"/>
-      <c r="QT13" s="192"/>
-      <c r="QU13" s="192"/>
-      <c r="QV13" s="192"/>
-      <c r="QW13" s="192"/>
-      <c r="QX13" s="192"/>
-      <c r="QY13" s="192"/>
-      <c r="QZ13" s="192"/>
-      <c r="RA13" s="192"/>
-      <c r="RB13" s="192"/>
-      <c r="RC13" s="192"/>
-      <c r="RD13" s="192"/>
-      <c r="RE13" s="192"/>
-      <c r="RF13" s="192"/>
-      <c r="RG13" s="192"/>
-      <c r="RH13" s="192"/>
-      <c r="RI13" s="192"/>
-      <c r="RJ13" s="192"/>
-      <c r="RK13" s="192"/>
-      <c r="RL13" s="192"/>
-      <c r="RM13" s="192"/>
-      <c r="RN13" s="192"/>
-      <c r="RO13" s="192"/>
-      <c r="RP13" s="192"/>
-      <c r="RQ13" s="193"/>
-      <c r="RR13" s="194" t="s">
+      <c r="QO13" s="175"/>
+      <c r="QP13" s="175"/>
+      <c r="QQ13" s="175"/>
+      <c r="QR13" s="175"/>
+      <c r="QS13" s="175"/>
+      <c r="QT13" s="175"/>
+      <c r="QU13" s="175"/>
+      <c r="QV13" s="175"/>
+      <c r="QW13" s="175"/>
+      <c r="QX13" s="175"/>
+      <c r="QY13" s="175"/>
+      <c r="QZ13" s="175"/>
+      <c r="RA13" s="175"/>
+      <c r="RB13" s="175"/>
+      <c r="RC13" s="175"/>
+      <c r="RD13" s="175"/>
+      <c r="RE13" s="175"/>
+      <c r="RF13" s="175"/>
+      <c r="RG13" s="175"/>
+      <c r="RH13" s="175"/>
+      <c r="RI13" s="175"/>
+      <c r="RJ13" s="175"/>
+      <c r="RK13" s="175"/>
+      <c r="RL13" s="175"/>
+      <c r="RM13" s="175"/>
+      <c r="RN13" s="175"/>
+      <c r="RO13" s="175"/>
+      <c r="RP13" s="175"/>
+      <c r="RQ13" s="176"/>
+      <c r="RR13" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="RS13" s="192"/>
-      <c r="RT13" s="192"/>
-      <c r="RU13" s="192"/>
-      <c r="RV13" s="192"/>
-      <c r="RW13" s="192"/>
-      <c r="RX13" s="192"/>
-      <c r="RY13" s="192"/>
-      <c r="RZ13" s="192"/>
-      <c r="SA13" s="192"/>
-      <c r="SB13" s="192"/>
-      <c r="SC13" s="192"/>
-      <c r="SD13" s="192"/>
-      <c r="SE13" s="192"/>
-      <c r="SF13" s="192"/>
-      <c r="SG13" s="192"/>
-      <c r="SH13" s="192"/>
-      <c r="SI13" s="192"/>
-      <c r="SJ13" s="192"/>
-      <c r="SK13" s="192"/>
-      <c r="SL13" s="192"/>
-      <c r="SM13" s="192"/>
-      <c r="SN13" s="192"/>
-      <c r="SO13" s="192"/>
-      <c r="SP13" s="192"/>
-      <c r="SQ13" s="192"/>
-      <c r="SR13" s="192"/>
-      <c r="SS13" s="192"/>
-      <c r="ST13" s="192"/>
-      <c r="SU13" s="193"/>
-      <c r="SV13" s="194" t="s">
+      <c r="RS13" s="175"/>
+      <c r="RT13" s="175"/>
+      <c r="RU13" s="175"/>
+      <c r="RV13" s="175"/>
+      <c r="RW13" s="175"/>
+      <c r="RX13" s="175"/>
+      <c r="RY13" s="175"/>
+      <c r="RZ13" s="175"/>
+      <c r="SA13" s="175"/>
+      <c r="SB13" s="175"/>
+      <c r="SC13" s="175"/>
+      <c r="SD13" s="175"/>
+      <c r="SE13" s="175"/>
+      <c r="SF13" s="175"/>
+      <c r="SG13" s="175"/>
+      <c r="SH13" s="175"/>
+      <c r="SI13" s="175"/>
+      <c r="SJ13" s="175"/>
+      <c r="SK13" s="175"/>
+      <c r="SL13" s="175"/>
+      <c r="SM13" s="175"/>
+      <c r="SN13" s="175"/>
+      <c r="SO13" s="175"/>
+      <c r="SP13" s="175"/>
+      <c r="SQ13" s="175"/>
+      <c r="SR13" s="175"/>
+      <c r="SS13" s="175"/>
+      <c r="ST13" s="175"/>
+      <c r="SU13" s="176"/>
+      <c r="SV13" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="SW13" s="192"/>
-      <c r="SX13" s="192"/>
-      <c r="SY13" s="192"/>
-      <c r="SZ13" s="192"/>
-      <c r="TA13" s="192"/>
-      <c r="TB13" s="192"/>
-      <c r="TC13" s="192"/>
-      <c r="TD13" s="192"/>
-      <c r="TE13" s="192"/>
-      <c r="TF13" s="192"/>
-      <c r="TG13" s="192"/>
-      <c r="TH13" s="192"/>
-      <c r="TI13" s="192"/>
-      <c r="TJ13" s="192"/>
-      <c r="TK13" s="192"/>
-      <c r="TL13" s="192"/>
-      <c r="TM13" s="192"/>
-      <c r="TN13" s="192"/>
-      <c r="TO13" s="192"/>
-      <c r="TP13" s="192"/>
-      <c r="TQ13" s="192"/>
-      <c r="TR13" s="192"/>
-      <c r="TS13" s="192"/>
-      <c r="TT13" s="192"/>
-      <c r="TU13" s="192"/>
-      <c r="TV13" s="192"/>
-      <c r="TW13" s="192"/>
-      <c r="TX13" s="192"/>
-      <c r="TY13" s="196"/>
-      <c r="TZ13" s="191" t="s">
+      <c r="SW13" s="175"/>
+      <c r="SX13" s="175"/>
+      <c r="SY13" s="175"/>
+      <c r="SZ13" s="175"/>
+      <c r="TA13" s="175"/>
+      <c r="TB13" s="175"/>
+      <c r="TC13" s="175"/>
+      <c r="TD13" s="175"/>
+      <c r="TE13" s="175"/>
+      <c r="TF13" s="175"/>
+      <c r="TG13" s="175"/>
+      <c r="TH13" s="175"/>
+      <c r="TI13" s="175"/>
+      <c r="TJ13" s="175"/>
+      <c r="TK13" s="175"/>
+      <c r="TL13" s="175"/>
+      <c r="TM13" s="175"/>
+      <c r="TN13" s="175"/>
+      <c r="TO13" s="175"/>
+      <c r="TP13" s="175"/>
+      <c r="TQ13" s="175"/>
+      <c r="TR13" s="175"/>
+      <c r="TS13" s="175"/>
+      <c r="TT13" s="175"/>
+      <c r="TU13" s="175"/>
+      <c r="TV13" s="175"/>
+      <c r="TW13" s="175"/>
+      <c r="TX13" s="175"/>
+      <c r="TY13" s="179"/>
+      <c r="TZ13" s="174" t="s">
         <v>20</v>
       </c>
-      <c r="UA13" s="192"/>
-      <c r="UB13" s="192"/>
-      <c r="UC13" s="192"/>
-      <c r="UD13" s="192"/>
-      <c r="UE13" s="192"/>
-      <c r="UF13" s="192"/>
-      <c r="UG13" s="192"/>
-      <c r="UH13" s="192"/>
-      <c r="UI13" s="192"/>
-      <c r="UJ13" s="192"/>
-      <c r="UK13" s="192"/>
-      <c r="UL13" s="192"/>
-      <c r="UM13" s="192"/>
-      <c r="UN13" s="192"/>
-      <c r="UO13" s="192"/>
-      <c r="UP13" s="192"/>
-      <c r="UQ13" s="192"/>
-      <c r="UR13" s="192"/>
-      <c r="US13" s="192"/>
-      <c r="UT13" s="192"/>
-      <c r="UU13" s="192"/>
-      <c r="UV13" s="192"/>
-      <c r="UW13" s="192"/>
-      <c r="UX13" s="192"/>
-      <c r="UY13" s="192"/>
-      <c r="UZ13" s="192"/>
-      <c r="VA13" s="192"/>
-      <c r="VB13" s="192"/>
-      <c r="VC13" s="196"/>
+      <c r="UA13" s="175"/>
+      <c r="UB13" s="175"/>
+      <c r="UC13" s="175"/>
+      <c r="UD13" s="175"/>
+      <c r="UE13" s="175"/>
+      <c r="UF13" s="175"/>
+      <c r="UG13" s="175"/>
+      <c r="UH13" s="175"/>
+      <c r="UI13" s="175"/>
+      <c r="UJ13" s="175"/>
+      <c r="UK13" s="175"/>
+      <c r="UL13" s="175"/>
+      <c r="UM13" s="175"/>
+      <c r="UN13" s="175"/>
+      <c r="UO13" s="175"/>
+      <c r="UP13" s="175"/>
+      <c r="UQ13" s="175"/>
+      <c r="UR13" s="175"/>
+      <c r="US13" s="175"/>
+      <c r="UT13" s="175"/>
+      <c r="UU13" s="175"/>
+      <c r="UV13" s="175"/>
+      <c r="UW13" s="175"/>
+      <c r="UX13" s="175"/>
+      <c r="UY13" s="175"/>
+      <c r="UZ13" s="175"/>
+      <c r="VA13" s="175"/>
+      <c r="VB13" s="175"/>
+      <c r="VC13" s="179"/>
     </row>
     <row r="14" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="150" t="s">
+      <c r="B14" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="186"/>
-      <c r="D14" s="183">
+      <c r="C14" s="173"/>
+      <c r="D14" s="180">
         <v>45414</v>
       </c>
       <c r="E14" s="181"/>
@@ -9704,8 +9729,8 @@
       <c r="AD14" s="181"/>
       <c r="AE14" s="181"/>
       <c r="AF14" s="181"/>
-      <c r="AG14" s="185"/>
-      <c r="AH14" s="180">
+      <c r="AG14" s="182"/>
+      <c r="AH14" s="183">
         <v>45415</v>
       </c>
       <c r="AI14" s="181"/>
@@ -9736,8 +9761,8 @@
       <c r="BH14" s="181"/>
       <c r="BI14" s="181"/>
       <c r="BJ14" s="181"/>
-      <c r="BK14" s="187"/>
-      <c r="BL14" s="183">
+      <c r="BK14" s="184"/>
+      <c r="BL14" s="180">
         <v>45418</v>
       </c>
       <c r="BM14" s="181"/>
@@ -9768,8 +9793,8 @@
       <c r="CL14" s="181"/>
       <c r="CM14" s="181"/>
       <c r="CN14" s="181"/>
-      <c r="CO14" s="185"/>
-      <c r="CP14" s="180">
+      <c r="CO14" s="182"/>
+      <c r="CP14" s="183">
         <v>45420</v>
       </c>
       <c r="CQ14" s="181"/>
@@ -9800,8 +9825,8 @@
       <c r="DP14" s="181"/>
       <c r="DQ14" s="181"/>
       <c r="DR14" s="181"/>
-      <c r="DS14" s="185"/>
-      <c r="DT14" s="180">
+      <c r="DS14" s="182"/>
+      <c r="DT14" s="183">
         <v>45421</v>
       </c>
       <c r="DU14" s="181"/>
@@ -9832,8 +9857,8 @@
       <c r="ET14" s="181"/>
       <c r="EU14" s="181"/>
       <c r="EV14" s="181"/>
-      <c r="EW14" s="185"/>
-      <c r="EX14" s="180">
+      <c r="EW14" s="182"/>
+      <c r="EX14" s="183">
         <v>45422</v>
       </c>
       <c r="EY14" s="181"/>
@@ -9864,8 +9889,8 @@
       <c r="FX14" s="181"/>
       <c r="FY14" s="181"/>
       <c r="FZ14" s="181"/>
-      <c r="GA14" s="187"/>
-      <c r="GB14" s="183">
+      <c r="GA14" s="184"/>
+      <c r="GB14" s="180">
         <v>45425</v>
       </c>
       <c r="GC14" s="181"/>
@@ -9896,8 +9921,8 @@
       <c r="HB14" s="181"/>
       <c r="HC14" s="181"/>
       <c r="HD14" s="181"/>
-      <c r="HE14" s="185"/>
-      <c r="HF14" s="180">
+      <c r="HE14" s="182"/>
+      <c r="HF14" s="183">
         <v>45427</v>
       </c>
       <c r="HG14" s="181"/>
@@ -9928,8 +9953,8 @@
       <c r="IF14" s="181"/>
       <c r="IG14" s="181"/>
       <c r="IH14" s="181"/>
-      <c r="II14" s="185"/>
-      <c r="IJ14" s="180">
+      <c r="II14" s="182"/>
+      <c r="IJ14" s="183">
         <v>45428</v>
       </c>
       <c r="IK14" s="181"/>
@@ -9960,8 +9985,8 @@
       <c r="JJ14" s="181"/>
       <c r="JK14" s="181"/>
       <c r="JL14" s="181"/>
-      <c r="JM14" s="185"/>
-      <c r="JN14" s="180">
+      <c r="JM14" s="182"/>
+      <c r="JN14" s="183">
         <v>45429</v>
       </c>
       <c r="JO14" s="181"/>
@@ -9992,12 +10017,12 @@
       <c r="KN14" s="181"/>
       <c r="KO14" s="181"/>
       <c r="KP14" s="181"/>
-      <c r="KQ14" s="182"/>
-      <c r="KR14" s="150" t="s">
+      <c r="KQ14" s="185"/>
+      <c r="KR14" s="172" t="s">
         <v>22</v>
       </c>
-      <c r="KS14" s="151"/>
-      <c r="KT14" s="183">
+      <c r="KS14" s="221"/>
+      <c r="KT14" s="180">
         <v>45432</v>
       </c>
       <c r="KU14" s="181"/>
@@ -10028,8 +10053,8 @@
       <c r="LT14" s="181"/>
       <c r="LU14" s="181"/>
       <c r="LV14" s="181"/>
-      <c r="LW14" s="185"/>
-      <c r="LX14" s="180">
+      <c r="LW14" s="182"/>
+      <c r="LX14" s="183">
         <v>45434</v>
       </c>
       <c r="LY14" s="181"/>
@@ -10060,8 +10085,8 @@
       <c r="MX14" s="181"/>
       <c r="MY14" s="181"/>
       <c r="MZ14" s="181"/>
-      <c r="NA14" s="185"/>
-      <c r="NB14" s="180">
+      <c r="NA14" s="182"/>
+      <c r="NB14" s="183">
         <v>45435</v>
       </c>
       <c r="NC14" s="181"/>
@@ -10092,8 +10117,8 @@
       <c r="OB14" s="181"/>
       <c r="OC14" s="181"/>
       <c r="OD14" s="181"/>
-      <c r="OE14" s="185"/>
-      <c r="OF14" s="180">
+      <c r="OE14" s="182"/>
+      <c r="OF14" s="183">
         <v>45436</v>
       </c>
       <c r="OG14" s="181"/>
@@ -10124,8 +10149,8 @@
       <c r="PF14" s="181"/>
       <c r="PG14" s="181"/>
       <c r="PH14" s="181"/>
-      <c r="PI14" s="182"/>
-      <c r="PJ14" s="183">
+      <c r="PI14" s="185"/>
+      <c r="PJ14" s="180">
         <v>45439</v>
       </c>
       <c r="PK14" s="181"/>
@@ -10156,8 +10181,8 @@
       <c r="QJ14" s="181"/>
       <c r="QK14" s="181"/>
       <c r="QL14" s="181"/>
-      <c r="QM14" s="185"/>
-      <c r="QN14" s="180">
+      <c r="QM14" s="182"/>
+      <c r="QN14" s="183">
         <v>45441</v>
       </c>
       <c r="QO14" s="181"/>
@@ -10188,8 +10213,8 @@
       <c r="RN14" s="181"/>
       <c r="RO14" s="181"/>
       <c r="RP14" s="181"/>
-      <c r="RQ14" s="185"/>
-      <c r="RR14" s="180">
+      <c r="RQ14" s="182"/>
+      <c r="RR14" s="183">
         <v>45442</v>
       </c>
       <c r="RS14" s="181"/>
@@ -10220,8 +10245,8 @@
       <c r="SR14" s="181"/>
       <c r="SS14" s="181"/>
       <c r="ST14" s="181"/>
-      <c r="SU14" s="185"/>
-      <c r="SV14" s="180">
+      <c r="SU14" s="182"/>
+      <c r="SV14" s="183">
         <v>45443</v>
       </c>
       <c r="SW14" s="181"/>
@@ -10252,8 +10277,8 @@
       <c r="TV14" s="181"/>
       <c r="TW14" s="181"/>
       <c r="TX14" s="181"/>
-      <c r="TY14" s="182"/>
-      <c r="TZ14" s="183">
+      <c r="TY14" s="185"/>
+      <c r="TZ14" s="180">
         <v>45446</v>
       </c>
       <c r="UA14" s="181"/>
@@ -10284,664 +10309,664 @@
       <c r="UZ14" s="181"/>
       <c r="VA14" s="181"/>
       <c r="VB14" s="181"/>
-      <c r="VC14" s="182"/>
+      <c r="VC14" s="185"/>
     </row>
     <row r="15" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="152" t="s">
+      <c r="B15" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="174" t="s">
+      <c r="C15" s="187"/>
+      <c r="D15" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
-      <c r="M15" s="172"/>
-      <c r="N15" s="172"/>
-      <c r="O15" s="172"/>
-      <c r="P15" s="172"/>
-      <c r="Q15" s="172"/>
-      <c r="R15" s="172"/>
-      <c r="S15" s="172" t="s">
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
+      <c r="K15" s="189"/>
+      <c r="L15" s="189"/>
+      <c r="M15" s="189"/>
+      <c r="N15" s="189"/>
+      <c r="O15" s="189"/>
+      <c r="P15" s="189"/>
+      <c r="Q15" s="189"/>
+      <c r="R15" s="189"/>
+      <c r="S15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="172"/>
-      <c r="U15" s="172"/>
-      <c r="V15" s="172"/>
-      <c r="W15" s="172"/>
-      <c r="X15" s="172"/>
-      <c r="Y15" s="172"/>
-      <c r="Z15" s="172"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="172"/>
-      <c r="AC15" s="172"/>
-      <c r="AD15" s="172"/>
-      <c r="AE15" s="172"/>
-      <c r="AF15" s="172"/>
-      <c r="AG15" s="179"/>
-      <c r="AH15" s="171" t="s">
+      <c r="T15" s="189"/>
+      <c r="U15" s="189"/>
+      <c r="V15" s="189"/>
+      <c r="W15" s="189"/>
+      <c r="X15" s="189"/>
+      <c r="Y15" s="189"/>
+      <c r="Z15" s="189"/>
+      <c r="AA15" s="189"/>
+      <c r="AB15" s="189"/>
+      <c r="AC15" s="189"/>
+      <c r="AD15" s="189"/>
+      <c r="AE15" s="189"/>
+      <c r="AF15" s="189"/>
+      <c r="AG15" s="190"/>
+      <c r="AH15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="AI15" s="172"/>
-      <c r="AJ15" s="172"/>
-      <c r="AK15" s="172"/>
-      <c r="AL15" s="172"/>
-      <c r="AM15" s="172"/>
-      <c r="AN15" s="172"/>
-      <c r="AO15" s="172"/>
-      <c r="AP15" s="172"/>
-      <c r="AQ15" s="172"/>
-      <c r="AR15" s="172"/>
-      <c r="AS15" s="172"/>
-      <c r="AT15" s="172"/>
-      <c r="AU15" s="172"/>
-      <c r="AV15" s="172"/>
-      <c r="AW15" s="172" t="s">
+      <c r="AI15" s="189"/>
+      <c r="AJ15" s="189"/>
+      <c r="AK15" s="189"/>
+      <c r="AL15" s="189"/>
+      <c r="AM15" s="189"/>
+      <c r="AN15" s="189"/>
+      <c r="AO15" s="189"/>
+      <c r="AP15" s="189"/>
+      <c r="AQ15" s="189"/>
+      <c r="AR15" s="189"/>
+      <c r="AS15" s="189"/>
+      <c r="AT15" s="189"/>
+      <c r="AU15" s="189"/>
+      <c r="AV15" s="189"/>
+      <c r="AW15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="AX15" s="172"/>
-      <c r="AY15" s="172"/>
-      <c r="AZ15" s="172"/>
-      <c r="BA15" s="172"/>
-      <c r="BB15" s="172"/>
-      <c r="BC15" s="172"/>
-      <c r="BD15" s="172"/>
-      <c r="BE15" s="172"/>
-      <c r="BF15" s="172"/>
-      <c r="BG15" s="172"/>
-      <c r="BH15" s="172"/>
-      <c r="BI15" s="172"/>
-      <c r="BJ15" s="172"/>
-      <c r="BK15" s="175"/>
-      <c r="BL15" s="174" t="s">
+      <c r="AX15" s="189"/>
+      <c r="AY15" s="189"/>
+      <c r="AZ15" s="189"/>
+      <c r="BA15" s="189"/>
+      <c r="BB15" s="189"/>
+      <c r="BC15" s="189"/>
+      <c r="BD15" s="189"/>
+      <c r="BE15" s="189"/>
+      <c r="BF15" s="189"/>
+      <c r="BG15" s="189"/>
+      <c r="BH15" s="189"/>
+      <c r="BI15" s="189"/>
+      <c r="BJ15" s="189"/>
+      <c r="BK15" s="192"/>
+      <c r="BL15" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="BM15" s="172"/>
-      <c r="BN15" s="172"/>
-      <c r="BO15" s="172"/>
-      <c r="BP15" s="172"/>
-      <c r="BQ15" s="172"/>
-      <c r="BR15" s="172"/>
-      <c r="BS15" s="172"/>
-      <c r="BT15" s="172"/>
-      <c r="BU15" s="172"/>
-      <c r="BV15" s="172"/>
-      <c r="BW15" s="172"/>
-      <c r="BX15" s="172"/>
-      <c r="BY15" s="172"/>
-      <c r="BZ15" s="175"/>
-      <c r="CA15" s="172" t="s">
+      <c r="BM15" s="189"/>
+      <c r="BN15" s="189"/>
+      <c r="BO15" s="189"/>
+      <c r="BP15" s="189"/>
+      <c r="BQ15" s="189"/>
+      <c r="BR15" s="189"/>
+      <c r="BS15" s="189"/>
+      <c r="BT15" s="189"/>
+      <c r="BU15" s="189"/>
+      <c r="BV15" s="189"/>
+      <c r="BW15" s="189"/>
+      <c r="BX15" s="189"/>
+      <c r="BY15" s="189"/>
+      <c r="BZ15" s="192"/>
+      <c r="CA15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="CB15" s="172"/>
-      <c r="CC15" s="172"/>
-      <c r="CD15" s="172"/>
-      <c r="CE15" s="172"/>
-      <c r="CF15" s="172"/>
-      <c r="CG15" s="172"/>
-      <c r="CH15" s="172"/>
-      <c r="CI15" s="172"/>
-      <c r="CJ15" s="172"/>
-      <c r="CK15" s="172"/>
-      <c r="CL15" s="172"/>
-      <c r="CM15" s="172"/>
-      <c r="CN15" s="172"/>
-      <c r="CO15" s="179"/>
-      <c r="CP15" s="171" t="s">
+      <c r="CB15" s="189"/>
+      <c r="CC15" s="189"/>
+      <c r="CD15" s="189"/>
+      <c r="CE15" s="189"/>
+      <c r="CF15" s="189"/>
+      <c r="CG15" s="189"/>
+      <c r="CH15" s="189"/>
+      <c r="CI15" s="189"/>
+      <c r="CJ15" s="189"/>
+      <c r="CK15" s="189"/>
+      <c r="CL15" s="189"/>
+      <c r="CM15" s="189"/>
+      <c r="CN15" s="189"/>
+      <c r="CO15" s="190"/>
+      <c r="CP15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="CQ15" s="172"/>
-      <c r="CR15" s="172"/>
-      <c r="CS15" s="172"/>
-      <c r="CT15" s="172"/>
-      <c r="CU15" s="172"/>
-      <c r="CV15" s="172"/>
-      <c r="CW15" s="172"/>
-      <c r="CX15" s="172"/>
-      <c r="CY15" s="172"/>
-      <c r="CZ15" s="172"/>
-      <c r="DA15" s="172"/>
-      <c r="DB15" s="172"/>
-      <c r="DC15" s="172"/>
-      <c r="DD15" s="172"/>
-      <c r="DE15" s="172" t="s">
+      <c r="CQ15" s="189"/>
+      <c r="CR15" s="189"/>
+      <c r="CS15" s="189"/>
+      <c r="CT15" s="189"/>
+      <c r="CU15" s="189"/>
+      <c r="CV15" s="189"/>
+      <c r="CW15" s="189"/>
+      <c r="CX15" s="189"/>
+      <c r="CY15" s="189"/>
+      <c r="CZ15" s="189"/>
+      <c r="DA15" s="189"/>
+      <c r="DB15" s="189"/>
+      <c r="DC15" s="189"/>
+      <c r="DD15" s="189"/>
+      <c r="DE15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="DF15" s="172"/>
-      <c r="DG15" s="172"/>
-      <c r="DH15" s="172"/>
-      <c r="DI15" s="172"/>
-      <c r="DJ15" s="172"/>
-      <c r="DK15" s="172"/>
-      <c r="DL15" s="172"/>
-      <c r="DM15" s="172"/>
-      <c r="DN15" s="172"/>
-      <c r="DO15" s="172"/>
-      <c r="DP15" s="172"/>
-      <c r="DQ15" s="172"/>
-      <c r="DR15" s="172"/>
-      <c r="DS15" s="179"/>
-      <c r="DT15" s="171" t="s">
+      <c r="DF15" s="189"/>
+      <c r="DG15" s="189"/>
+      <c r="DH15" s="189"/>
+      <c r="DI15" s="189"/>
+      <c r="DJ15" s="189"/>
+      <c r="DK15" s="189"/>
+      <c r="DL15" s="189"/>
+      <c r="DM15" s="189"/>
+      <c r="DN15" s="189"/>
+      <c r="DO15" s="189"/>
+      <c r="DP15" s="189"/>
+      <c r="DQ15" s="189"/>
+      <c r="DR15" s="189"/>
+      <c r="DS15" s="190"/>
+      <c r="DT15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="DU15" s="172"/>
-      <c r="DV15" s="172"/>
-      <c r="DW15" s="172"/>
-      <c r="DX15" s="172"/>
-      <c r="DY15" s="172"/>
-      <c r="DZ15" s="172"/>
-      <c r="EA15" s="172"/>
-      <c r="EB15" s="172"/>
-      <c r="EC15" s="172"/>
-      <c r="ED15" s="172"/>
-      <c r="EE15" s="172"/>
-      <c r="EF15" s="172"/>
-      <c r="EG15" s="172"/>
-      <c r="EH15" s="172"/>
-      <c r="EI15" s="172" t="s">
+      <c r="DU15" s="189"/>
+      <c r="DV15" s="189"/>
+      <c r="DW15" s="189"/>
+      <c r="DX15" s="189"/>
+      <c r="DY15" s="189"/>
+      <c r="DZ15" s="189"/>
+      <c r="EA15" s="189"/>
+      <c r="EB15" s="189"/>
+      <c r="EC15" s="189"/>
+      <c r="ED15" s="189"/>
+      <c r="EE15" s="189"/>
+      <c r="EF15" s="189"/>
+      <c r="EG15" s="189"/>
+      <c r="EH15" s="189"/>
+      <c r="EI15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="EJ15" s="172"/>
-      <c r="EK15" s="172"/>
-      <c r="EL15" s="172"/>
-      <c r="EM15" s="172"/>
-      <c r="EN15" s="172"/>
-      <c r="EO15" s="172"/>
-      <c r="EP15" s="172"/>
-      <c r="EQ15" s="172"/>
-      <c r="ER15" s="172"/>
-      <c r="ES15" s="172"/>
-      <c r="ET15" s="172"/>
-      <c r="EU15" s="172"/>
-      <c r="EV15" s="172"/>
-      <c r="EW15" s="179"/>
-      <c r="EX15" s="171" t="s">
+      <c r="EJ15" s="189"/>
+      <c r="EK15" s="189"/>
+      <c r="EL15" s="189"/>
+      <c r="EM15" s="189"/>
+      <c r="EN15" s="189"/>
+      <c r="EO15" s="189"/>
+      <c r="EP15" s="189"/>
+      <c r="EQ15" s="189"/>
+      <c r="ER15" s="189"/>
+      <c r="ES15" s="189"/>
+      <c r="ET15" s="189"/>
+      <c r="EU15" s="189"/>
+      <c r="EV15" s="189"/>
+      <c r="EW15" s="190"/>
+      <c r="EX15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="EY15" s="172"/>
-      <c r="EZ15" s="172"/>
-      <c r="FA15" s="172"/>
-      <c r="FB15" s="172"/>
-      <c r="FC15" s="172"/>
-      <c r="FD15" s="172"/>
-      <c r="FE15" s="172"/>
-      <c r="FF15" s="172"/>
-      <c r="FG15" s="172"/>
-      <c r="FH15" s="172"/>
-      <c r="FI15" s="172"/>
-      <c r="FJ15" s="172"/>
-      <c r="FK15" s="172"/>
-      <c r="FL15" s="172"/>
-      <c r="FM15" s="172" t="s">
+      <c r="EY15" s="189"/>
+      <c r="EZ15" s="189"/>
+      <c r="FA15" s="189"/>
+      <c r="FB15" s="189"/>
+      <c r="FC15" s="189"/>
+      <c r="FD15" s="189"/>
+      <c r="FE15" s="189"/>
+      <c r="FF15" s="189"/>
+      <c r="FG15" s="189"/>
+      <c r="FH15" s="189"/>
+      <c r="FI15" s="189"/>
+      <c r="FJ15" s="189"/>
+      <c r="FK15" s="189"/>
+      <c r="FL15" s="189"/>
+      <c r="FM15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="FN15" s="172"/>
-      <c r="FO15" s="172"/>
-      <c r="FP15" s="172"/>
-      <c r="FQ15" s="172"/>
-      <c r="FR15" s="172"/>
-      <c r="FS15" s="172"/>
-      <c r="FT15" s="172"/>
-      <c r="FU15" s="172"/>
-      <c r="FV15" s="172"/>
-      <c r="FW15" s="172"/>
-      <c r="FX15" s="172"/>
-      <c r="FY15" s="172"/>
-      <c r="FZ15" s="172"/>
-      <c r="GA15" s="175"/>
-      <c r="GB15" s="174" t="s">
+      <c r="FN15" s="189"/>
+      <c r="FO15" s="189"/>
+      <c r="FP15" s="189"/>
+      <c r="FQ15" s="189"/>
+      <c r="FR15" s="189"/>
+      <c r="FS15" s="189"/>
+      <c r="FT15" s="189"/>
+      <c r="FU15" s="189"/>
+      <c r="FV15" s="189"/>
+      <c r="FW15" s="189"/>
+      <c r="FX15" s="189"/>
+      <c r="FY15" s="189"/>
+      <c r="FZ15" s="189"/>
+      <c r="GA15" s="192"/>
+      <c r="GB15" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="GC15" s="172"/>
-      <c r="GD15" s="172"/>
-      <c r="GE15" s="172"/>
-      <c r="GF15" s="172"/>
-      <c r="GG15" s="172"/>
-      <c r="GH15" s="172"/>
-      <c r="GI15" s="172"/>
-      <c r="GJ15" s="172"/>
-      <c r="GK15" s="172"/>
-      <c r="GL15" s="172"/>
-      <c r="GM15" s="172"/>
-      <c r="GN15" s="172"/>
-      <c r="GO15" s="172"/>
-      <c r="GP15" s="175"/>
-      <c r="GQ15" s="172" t="s">
+      <c r="GC15" s="189"/>
+      <c r="GD15" s="189"/>
+      <c r="GE15" s="189"/>
+      <c r="GF15" s="189"/>
+      <c r="GG15" s="189"/>
+      <c r="GH15" s="189"/>
+      <c r="GI15" s="189"/>
+      <c r="GJ15" s="189"/>
+      <c r="GK15" s="189"/>
+      <c r="GL15" s="189"/>
+      <c r="GM15" s="189"/>
+      <c r="GN15" s="189"/>
+      <c r="GO15" s="189"/>
+      <c r="GP15" s="192"/>
+      <c r="GQ15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="GR15" s="172"/>
-      <c r="GS15" s="172"/>
-      <c r="GT15" s="172"/>
-      <c r="GU15" s="172"/>
-      <c r="GV15" s="172"/>
-      <c r="GW15" s="172"/>
-      <c r="GX15" s="172"/>
-      <c r="GY15" s="172"/>
-      <c r="GZ15" s="172"/>
-      <c r="HA15" s="172"/>
-      <c r="HB15" s="172"/>
-      <c r="HC15" s="172"/>
-      <c r="HD15" s="172"/>
-      <c r="HE15" s="179"/>
-      <c r="HF15" s="171" t="s">
+      <c r="GR15" s="189"/>
+      <c r="GS15" s="189"/>
+      <c r="GT15" s="189"/>
+      <c r="GU15" s="189"/>
+      <c r="GV15" s="189"/>
+      <c r="GW15" s="189"/>
+      <c r="GX15" s="189"/>
+      <c r="GY15" s="189"/>
+      <c r="GZ15" s="189"/>
+      <c r="HA15" s="189"/>
+      <c r="HB15" s="189"/>
+      <c r="HC15" s="189"/>
+      <c r="HD15" s="189"/>
+      <c r="HE15" s="190"/>
+      <c r="HF15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="HG15" s="172"/>
-      <c r="HH15" s="172"/>
-      <c r="HI15" s="172"/>
-      <c r="HJ15" s="172"/>
-      <c r="HK15" s="172"/>
-      <c r="HL15" s="172"/>
-      <c r="HM15" s="172"/>
-      <c r="HN15" s="172"/>
-      <c r="HO15" s="172"/>
-      <c r="HP15" s="172"/>
-      <c r="HQ15" s="172"/>
-      <c r="HR15" s="172"/>
-      <c r="HS15" s="172"/>
-      <c r="HT15" s="172"/>
-      <c r="HU15" s="172" t="s">
+      <c r="HG15" s="189"/>
+      <c r="HH15" s="189"/>
+      <c r="HI15" s="189"/>
+      <c r="HJ15" s="189"/>
+      <c r="HK15" s="189"/>
+      <c r="HL15" s="189"/>
+      <c r="HM15" s="189"/>
+      <c r="HN15" s="189"/>
+      <c r="HO15" s="189"/>
+      <c r="HP15" s="189"/>
+      <c r="HQ15" s="189"/>
+      <c r="HR15" s="189"/>
+      <c r="HS15" s="189"/>
+      <c r="HT15" s="189"/>
+      <c r="HU15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="HV15" s="172"/>
-      <c r="HW15" s="172"/>
-      <c r="HX15" s="172"/>
-      <c r="HY15" s="172"/>
-      <c r="HZ15" s="172"/>
-      <c r="IA15" s="172"/>
-      <c r="IB15" s="172"/>
-      <c r="IC15" s="172"/>
-      <c r="ID15" s="172"/>
-      <c r="IE15" s="172"/>
-      <c r="IF15" s="172"/>
-      <c r="IG15" s="172"/>
-      <c r="IH15" s="172"/>
-      <c r="II15" s="179"/>
-      <c r="IJ15" s="171" t="s">
+      <c r="HV15" s="189"/>
+      <c r="HW15" s="189"/>
+      <c r="HX15" s="189"/>
+      <c r="HY15" s="189"/>
+      <c r="HZ15" s="189"/>
+      <c r="IA15" s="189"/>
+      <c r="IB15" s="189"/>
+      <c r="IC15" s="189"/>
+      <c r="ID15" s="189"/>
+      <c r="IE15" s="189"/>
+      <c r="IF15" s="189"/>
+      <c r="IG15" s="189"/>
+      <c r="IH15" s="189"/>
+      <c r="II15" s="190"/>
+      <c r="IJ15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="IK15" s="172"/>
-      <c r="IL15" s="172"/>
-      <c r="IM15" s="172"/>
-      <c r="IN15" s="172"/>
-      <c r="IO15" s="172"/>
-      <c r="IP15" s="172"/>
-      <c r="IQ15" s="172"/>
-      <c r="IR15" s="172"/>
-      <c r="IS15" s="172"/>
-      <c r="IT15" s="172"/>
-      <c r="IU15" s="172"/>
-      <c r="IV15" s="172"/>
-      <c r="IW15" s="172"/>
-      <c r="IX15" s="172"/>
-      <c r="IY15" s="172" t="s">
+      <c r="IK15" s="189"/>
+      <c r="IL15" s="189"/>
+      <c r="IM15" s="189"/>
+      <c r="IN15" s="189"/>
+      <c r="IO15" s="189"/>
+      <c r="IP15" s="189"/>
+      <c r="IQ15" s="189"/>
+      <c r="IR15" s="189"/>
+      <c r="IS15" s="189"/>
+      <c r="IT15" s="189"/>
+      <c r="IU15" s="189"/>
+      <c r="IV15" s="189"/>
+      <c r="IW15" s="189"/>
+      <c r="IX15" s="189"/>
+      <c r="IY15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="IZ15" s="172"/>
-      <c r="JA15" s="172"/>
-      <c r="JB15" s="172"/>
-      <c r="JC15" s="172"/>
-      <c r="JD15" s="172"/>
-      <c r="JE15" s="172"/>
-      <c r="JF15" s="172"/>
-      <c r="JG15" s="172"/>
-      <c r="JH15" s="172"/>
-      <c r="JI15" s="172"/>
-      <c r="JJ15" s="172"/>
-      <c r="JK15" s="172"/>
-      <c r="JL15" s="172"/>
-      <c r="JM15" s="179"/>
-      <c r="JN15" s="171" t="s">
+      <c r="IZ15" s="189"/>
+      <c r="JA15" s="189"/>
+      <c r="JB15" s="189"/>
+      <c r="JC15" s="189"/>
+      <c r="JD15" s="189"/>
+      <c r="JE15" s="189"/>
+      <c r="JF15" s="189"/>
+      <c r="JG15" s="189"/>
+      <c r="JH15" s="189"/>
+      <c r="JI15" s="189"/>
+      <c r="JJ15" s="189"/>
+      <c r="JK15" s="189"/>
+      <c r="JL15" s="189"/>
+      <c r="JM15" s="190"/>
+      <c r="JN15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="JO15" s="172"/>
-      <c r="JP15" s="172"/>
-      <c r="JQ15" s="172"/>
-      <c r="JR15" s="172"/>
-      <c r="JS15" s="172"/>
-      <c r="JT15" s="172"/>
-      <c r="JU15" s="172"/>
-      <c r="JV15" s="172"/>
-      <c r="JW15" s="172"/>
-      <c r="JX15" s="172"/>
-      <c r="JY15" s="172"/>
-      <c r="JZ15" s="172"/>
-      <c r="KA15" s="172"/>
-      <c r="KB15" s="172"/>
-      <c r="KC15" s="172" t="s">
+      <c r="JO15" s="189"/>
+      <c r="JP15" s="189"/>
+      <c r="JQ15" s="189"/>
+      <c r="JR15" s="189"/>
+      <c r="JS15" s="189"/>
+      <c r="JT15" s="189"/>
+      <c r="JU15" s="189"/>
+      <c r="JV15" s="189"/>
+      <c r="JW15" s="189"/>
+      <c r="JX15" s="189"/>
+      <c r="JY15" s="189"/>
+      <c r="JZ15" s="189"/>
+      <c r="KA15" s="189"/>
+      <c r="KB15" s="189"/>
+      <c r="KC15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="KD15" s="172"/>
-      <c r="KE15" s="172"/>
-      <c r="KF15" s="172"/>
-      <c r="KG15" s="172"/>
-      <c r="KH15" s="172"/>
-      <c r="KI15" s="172"/>
-      <c r="KJ15" s="172"/>
-      <c r="KK15" s="172"/>
-      <c r="KL15" s="172"/>
-      <c r="KM15" s="172"/>
-      <c r="KN15" s="172"/>
-      <c r="KO15" s="172"/>
-      <c r="KP15" s="172"/>
-      <c r="KQ15" s="173"/>
-      <c r="KR15" s="152" t="s">
+      <c r="KD15" s="189"/>
+      <c r="KE15" s="189"/>
+      <c r="KF15" s="189"/>
+      <c r="KG15" s="189"/>
+      <c r="KH15" s="189"/>
+      <c r="KI15" s="189"/>
+      <c r="KJ15" s="189"/>
+      <c r="KK15" s="189"/>
+      <c r="KL15" s="189"/>
+      <c r="KM15" s="189"/>
+      <c r="KN15" s="189"/>
+      <c r="KO15" s="189"/>
+      <c r="KP15" s="189"/>
+      <c r="KQ15" s="193"/>
+      <c r="KR15" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="KS15" s="153"/>
-      <c r="KT15" s="174" t="s">
+      <c r="KS15" s="222"/>
+      <c r="KT15" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="KU15" s="172"/>
-      <c r="KV15" s="172"/>
-      <c r="KW15" s="172"/>
-      <c r="KX15" s="172"/>
-      <c r="KY15" s="172"/>
-      <c r="KZ15" s="172"/>
-      <c r="LA15" s="172"/>
-      <c r="LB15" s="172"/>
-      <c r="LC15" s="172"/>
-      <c r="LD15" s="172"/>
-      <c r="LE15" s="172"/>
-      <c r="LF15" s="172"/>
-      <c r="LG15" s="172"/>
-      <c r="LH15" s="175"/>
-      <c r="LI15" s="172" t="s">
+      <c r="KU15" s="189"/>
+      <c r="KV15" s="189"/>
+      <c r="KW15" s="189"/>
+      <c r="KX15" s="189"/>
+      <c r="KY15" s="189"/>
+      <c r="KZ15" s="189"/>
+      <c r="LA15" s="189"/>
+      <c r="LB15" s="189"/>
+      <c r="LC15" s="189"/>
+      <c r="LD15" s="189"/>
+      <c r="LE15" s="189"/>
+      <c r="LF15" s="189"/>
+      <c r="LG15" s="189"/>
+      <c r="LH15" s="192"/>
+      <c r="LI15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="LJ15" s="172"/>
-      <c r="LK15" s="172"/>
-      <c r="LL15" s="172"/>
-      <c r="LM15" s="172"/>
-      <c r="LN15" s="172"/>
-      <c r="LO15" s="172"/>
-      <c r="LP15" s="172"/>
-      <c r="LQ15" s="172"/>
-      <c r="LR15" s="172"/>
-      <c r="LS15" s="172"/>
-      <c r="LT15" s="172"/>
-      <c r="LU15" s="172"/>
-      <c r="LV15" s="172"/>
-      <c r="LW15" s="179"/>
-      <c r="LX15" s="171" t="s">
+      <c r="LJ15" s="189"/>
+      <c r="LK15" s="189"/>
+      <c r="LL15" s="189"/>
+      <c r="LM15" s="189"/>
+      <c r="LN15" s="189"/>
+      <c r="LO15" s="189"/>
+      <c r="LP15" s="189"/>
+      <c r="LQ15" s="189"/>
+      <c r="LR15" s="189"/>
+      <c r="LS15" s="189"/>
+      <c r="LT15" s="189"/>
+      <c r="LU15" s="189"/>
+      <c r="LV15" s="189"/>
+      <c r="LW15" s="190"/>
+      <c r="LX15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="LY15" s="172"/>
-      <c r="LZ15" s="172"/>
-      <c r="MA15" s="172"/>
-      <c r="MB15" s="172"/>
-      <c r="MC15" s="172"/>
-      <c r="MD15" s="172"/>
-      <c r="ME15" s="172"/>
-      <c r="MF15" s="172"/>
-      <c r="MG15" s="172"/>
-      <c r="MH15" s="172"/>
-      <c r="MI15" s="172"/>
-      <c r="MJ15" s="172"/>
-      <c r="MK15" s="172"/>
-      <c r="ML15" s="172"/>
-      <c r="MM15" s="172" t="s">
+      <c r="LY15" s="189"/>
+      <c r="LZ15" s="189"/>
+      <c r="MA15" s="189"/>
+      <c r="MB15" s="189"/>
+      <c r="MC15" s="189"/>
+      <c r="MD15" s="189"/>
+      <c r="ME15" s="189"/>
+      <c r="MF15" s="189"/>
+      <c r="MG15" s="189"/>
+      <c r="MH15" s="189"/>
+      <c r="MI15" s="189"/>
+      <c r="MJ15" s="189"/>
+      <c r="MK15" s="189"/>
+      <c r="ML15" s="189"/>
+      <c r="MM15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="MN15" s="172"/>
-      <c r="MO15" s="172"/>
-      <c r="MP15" s="172"/>
-      <c r="MQ15" s="172"/>
-      <c r="MR15" s="172"/>
-      <c r="MS15" s="172"/>
-      <c r="MT15" s="172"/>
-      <c r="MU15" s="172"/>
-      <c r="MV15" s="172"/>
-      <c r="MW15" s="172"/>
-      <c r="MX15" s="172"/>
-      <c r="MY15" s="172"/>
-      <c r="MZ15" s="172"/>
-      <c r="NA15" s="179"/>
-      <c r="NB15" s="171" t="s">
+      <c r="MN15" s="189"/>
+      <c r="MO15" s="189"/>
+      <c r="MP15" s="189"/>
+      <c r="MQ15" s="189"/>
+      <c r="MR15" s="189"/>
+      <c r="MS15" s="189"/>
+      <c r="MT15" s="189"/>
+      <c r="MU15" s="189"/>
+      <c r="MV15" s="189"/>
+      <c r="MW15" s="189"/>
+      <c r="MX15" s="189"/>
+      <c r="MY15" s="189"/>
+      <c r="MZ15" s="189"/>
+      <c r="NA15" s="190"/>
+      <c r="NB15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="NC15" s="172"/>
-      <c r="ND15" s="172"/>
-      <c r="NE15" s="172"/>
-      <c r="NF15" s="172"/>
-      <c r="NG15" s="172"/>
-      <c r="NH15" s="172"/>
-      <c r="NI15" s="172"/>
-      <c r="NJ15" s="172"/>
-      <c r="NK15" s="172"/>
-      <c r="NL15" s="172"/>
-      <c r="NM15" s="172"/>
-      <c r="NN15" s="172"/>
-      <c r="NO15" s="172"/>
-      <c r="NP15" s="172"/>
-      <c r="NQ15" s="172" t="s">
+      <c r="NC15" s="189"/>
+      <c r="ND15" s="189"/>
+      <c r="NE15" s="189"/>
+      <c r="NF15" s="189"/>
+      <c r="NG15" s="189"/>
+      <c r="NH15" s="189"/>
+      <c r="NI15" s="189"/>
+      <c r="NJ15" s="189"/>
+      <c r="NK15" s="189"/>
+      <c r="NL15" s="189"/>
+      <c r="NM15" s="189"/>
+      <c r="NN15" s="189"/>
+      <c r="NO15" s="189"/>
+      <c r="NP15" s="189"/>
+      <c r="NQ15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="NR15" s="172"/>
-      <c r="NS15" s="172"/>
-      <c r="NT15" s="172"/>
-      <c r="NU15" s="172"/>
-      <c r="NV15" s="172"/>
-      <c r="NW15" s="172"/>
-      <c r="NX15" s="172"/>
-      <c r="NY15" s="172"/>
-      <c r="NZ15" s="172"/>
-      <c r="OA15" s="172"/>
-      <c r="OB15" s="172"/>
-      <c r="OC15" s="172"/>
-      <c r="OD15" s="172"/>
-      <c r="OE15" s="179"/>
-      <c r="OF15" s="171" t="s">
+      <c r="NR15" s="189"/>
+      <c r="NS15" s="189"/>
+      <c r="NT15" s="189"/>
+      <c r="NU15" s="189"/>
+      <c r="NV15" s="189"/>
+      <c r="NW15" s="189"/>
+      <c r="NX15" s="189"/>
+      <c r="NY15" s="189"/>
+      <c r="NZ15" s="189"/>
+      <c r="OA15" s="189"/>
+      <c r="OB15" s="189"/>
+      <c r="OC15" s="189"/>
+      <c r="OD15" s="189"/>
+      <c r="OE15" s="190"/>
+      <c r="OF15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="OG15" s="172"/>
-      <c r="OH15" s="172"/>
-      <c r="OI15" s="172"/>
-      <c r="OJ15" s="172"/>
-      <c r="OK15" s="172"/>
-      <c r="OL15" s="172"/>
-      <c r="OM15" s="172"/>
-      <c r="ON15" s="172"/>
-      <c r="OO15" s="172"/>
-      <c r="OP15" s="172"/>
-      <c r="OQ15" s="172"/>
-      <c r="OR15" s="172"/>
-      <c r="OS15" s="172"/>
-      <c r="OT15" s="172"/>
-      <c r="OU15" s="172" t="s">
+      <c r="OG15" s="189"/>
+      <c r="OH15" s="189"/>
+      <c r="OI15" s="189"/>
+      <c r="OJ15" s="189"/>
+      <c r="OK15" s="189"/>
+      <c r="OL15" s="189"/>
+      <c r="OM15" s="189"/>
+      <c r="ON15" s="189"/>
+      <c r="OO15" s="189"/>
+      <c r="OP15" s="189"/>
+      <c r="OQ15" s="189"/>
+      <c r="OR15" s="189"/>
+      <c r="OS15" s="189"/>
+      <c r="OT15" s="189"/>
+      <c r="OU15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="OV15" s="172"/>
-      <c r="OW15" s="172"/>
-      <c r="OX15" s="172"/>
-      <c r="OY15" s="172"/>
-      <c r="OZ15" s="172"/>
-      <c r="PA15" s="172"/>
-      <c r="PB15" s="172"/>
-      <c r="PC15" s="172"/>
-      <c r="PD15" s="172"/>
-      <c r="PE15" s="172"/>
-      <c r="PF15" s="172"/>
-      <c r="PG15" s="172"/>
-      <c r="PH15" s="172"/>
-      <c r="PI15" s="173"/>
-      <c r="PJ15" s="174" t="s">
+      <c r="OV15" s="189"/>
+      <c r="OW15" s="189"/>
+      <c r="OX15" s="189"/>
+      <c r="OY15" s="189"/>
+      <c r="OZ15" s="189"/>
+      <c r="PA15" s="189"/>
+      <c r="PB15" s="189"/>
+      <c r="PC15" s="189"/>
+      <c r="PD15" s="189"/>
+      <c r="PE15" s="189"/>
+      <c r="PF15" s="189"/>
+      <c r="PG15" s="189"/>
+      <c r="PH15" s="189"/>
+      <c r="PI15" s="193"/>
+      <c r="PJ15" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="PK15" s="172"/>
-      <c r="PL15" s="172"/>
-      <c r="PM15" s="172"/>
-      <c r="PN15" s="172"/>
-      <c r="PO15" s="172"/>
-      <c r="PP15" s="172"/>
-      <c r="PQ15" s="172"/>
-      <c r="PR15" s="172"/>
-      <c r="PS15" s="172"/>
-      <c r="PT15" s="172"/>
-      <c r="PU15" s="172"/>
-      <c r="PV15" s="172"/>
-      <c r="PW15" s="172"/>
-      <c r="PX15" s="175"/>
-      <c r="PY15" s="172" t="s">
+      <c r="PK15" s="189"/>
+      <c r="PL15" s="189"/>
+      <c r="PM15" s="189"/>
+      <c r="PN15" s="189"/>
+      <c r="PO15" s="189"/>
+      <c r="PP15" s="189"/>
+      <c r="PQ15" s="189"/>
+      <c r="PR15" s="189"/>
+      <c r="PS15" s="189"/>
+      <c r="PT15" s="189"/>
+      <c r="PU15" s="189"/>
+      <c r="PV15" s="189"/>
+      <c r="PW15" s="189"/>
+      <c r="PX15" s="192"/>
+      <c r="PY15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="PZ15" s="172"/>
-      <c r="QA15" s="172"/>
-      <c r="QB15" s="172"/>
-      <c r="QC15" s="172"/>
-      <c r="QD15" s="172"/>
-      <c r="QE15" s="172"/>
-      <c r="QF15" s="172"/>
-      <c r="QG15" s="172"/>
-      <c r="QH15" s="172"/>
-      <c r="QI15" s="172"/>
-      <c r="QJ15" s="172"/>
-      <c r="QK15" s="172"/>
-      <c r="QL15" s="172"/>
-      <c r="QM15" s="179"/>
-      <c r="QN15" s="171" t="s">
+      <c r="PZ15" s="189"/>
+      <c r="QA15" s="189"/>
+      <c r="QB15" s="189"/>
+      <c r="QC15" s="189"/>
+      <c r="QD15" s="189"/>
+      <c r="QE15" s="189"/>
+      <c r="QF15" s="189"/>
+      <c r="QG15" s="189"/>
+      <c r="QH15" s="189"/>
+      <c r="QI15" s="189"/>
+      <c r="QJ15" s="189"/>
+      <c r="QK15" s="189"/>
+      <c r="QL15" s="189"/>
+      <c r="QM15" s="190"/>
+      <c r="QN15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="QO15" s="172"/>
-      <c r="QP15" s="172"/>
-      <c r="QQ15" s="172"/>
-      <c r="QR15" s="172"/>
-      <c r="QS15" s="172"/>
-      <c r="QT15" s="172"/>
-      <c r="QU15" s="172"/>
-      <c r="QV15" s="172"/>
-      <c r="QW15" s="172"/>
-      <c r="QX15" s="172"/>
-      <c r="QY15" s="172"/>
-      <c r="QZ15" s="172"/>
-      <c r="RA15" s="172"/>
-      <c r="RB15" s="172"/>
-      <c r="RC15" s="172" t="s">
+      <c r="QO15" s="189"/>
+      <c r="QP15" s="189"/>
+      <c r="QQ15" s="189"/>
+      <c r="QR15" s="189"/>
+      <c r="QS15" s="189"/>
+      <c r="QT15" s="189"/>
+      <c r="QU15" s="189"/>
+      <c r="QV15" s="189"/>
+      <c r="QW15" s="189"/>
+      <c r="QX15" s="189"/>
+      <c r="QY15" s="189"/>
+      <c r="QZ15" s="189"/>
+      <c r="RA15" s="189"/>
+      <c r="RB15" s="189"/>
+      <c r="RC15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="RD15" s="172"/>
-      <c r="RE15" s="172"/>
-      <c r="RF15" s="172"/>
-      <c r="RG15" s="172"/>
-      <c r="RH15" s="172"/>
-      <c r="RI15" s="172"/>
-      <c r="RJ15" s="172"/>
-      <c r="RK15" s="172"/>
-      <c r="RL15" s="172"/>
-      <c r="RM15" s="172"/>
-      <c r="RN15" s="172"/>
-      <c r="RO15" s="172"/>
-      <c r="RP15" s="172"/>
-      <c r="RQ15" s="179"/>
-      <c r="RR15" s="171" t="s">
+      <c r="RD15" s="189"/>
+      <c r="RE15" s="189"/>
+      <c r="RF15" s="189"/>
+      <c r="RG15" s="189"/>
+      <c r="RH15" s="189"/>
+      <c r="RI15" s="189"/>
+      <c r="RJ15" s="189"/>
+      <c r="RK15" s="189"/>
+      <c r="RL15" s="189"/>
+      <c r="RM15" s="189"/>
+      <c r="RN15" s="189"/>
+      <c r="RO15" s="189"/>
+      <c r="RP15" s="189"/>
+      <c r="RQ15" s="190"/>
+      <c r="RR15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="RS15" s="172"/>
-      <c r="RT15" s="172"/>
-      <c r="RU15" s="172"/>
-      <c r="RV15" s="172"/>
-      <c r="RW15" s="172"/>
-      <c r="RX15" s="172"/>
-      <c r="RY15" s="172"/>
-      <c r="RZ15" s="172"/>
-      <c r="SA15" s="172"/>
-      <c r="SB15" s="172"/>
-      <c r="SC15" s="172"/>
-      <c r="SD15" s="172"/>
-      <c r="SE15" s="172"/>
-      <c r="SF15" s="172"/>
-      <c r="SG15" s="172" t="s">
+      <c r="RS15" s="189"/>
+      <c r="RT15" s="189"/>
+      <c r="RU15" s="189"/>
+      <c r="RV15" s="189"/>
+      <c r="RW15" s="189"/>
+      <c r="RX15" s="189"/>
+      <c r="RY15" s="189"/>
+      <c r="RZ15" s="189"/>
+      <c r="SA15" s="189"/>
+      <c r="SB15" s="189"/>
+      <c r="SC15" s="189"/>
+      <c r="SD15" s="189"/>
+      <c r="SE15" s="189"/>
+      <c r="SF15" s="189"/>
+      <c r="SG15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="SH15" s="172"/>
-      <c r="SI15" s="172"/>
-      <c r="SJ15" s="172"/>
-      <c r="SK15" s="172"/>
-      <c r="SL15" s="172"/>
-      <c r="SM15" s="172"/>
-      <c r="SN15" s="172"/>
-      <c r="SO15" s="172"/>
-      <c r="SP15" s="172"/>
-      <c r="SQ15" s="172"/>
-      <c r="SR15" s="172"/>
-      <c r="SS15" s="172"/>
-      <c r="ST15" s="172"/>
-      <c r="SU15" s="179"/>
-      <c r="SV15" s="171" t="s">
+      <c r="SH15" s="189"/>
+      <c r="SI15" s="189"/>
+      <c r="SJ15" s="189"/>
+      <c r="SK15" s="189"/>
+      <c r="SL15" s="189"/>
+      <c r="SM15" s="189"/>
+      <c r="SN15" s="189"/>
+      <c r="SO15" s="189"/>
+      <c r="SP15" s="189"/>
+      <c r="SQ15" s="189"/>
+      <c r="SR15" s="189"/>
+      <c r="SS15" s="189"/>
+      <c r="ST15" s="189"/>
+      <c r="SU15" s="190"/>
+      <c r="SV15" s="191" t="s">
         <v>24</v>
       </c>
-      <c r="SW15" s="172"/>
-      <c r="SX15" s="172"/>
-      <c r="SY15" s="172"/>
-      <c r="SZ15" s="172"/>
-      <c r="TA15" s="172"/>
-      <c r="TB15" s="172"/>
-      <c r="TC15" s="172"/>
-      <c r="TD15" s="172"/>
-      <c r="TE15" s="172"/>
-      <c r="TF15" s="172"/>
-      <c r="TG15" s="172"/>
-      <c r="TH15" s="172"/>
-      <c r="TI15" s="172"/>
-      <c r="TJ15" s="172"/>
-      <c r="TK15" s="172" t="s">
+      <c r="SW15" s="189"/>
+      <c r="SX15" s="189"/>
+      <c r="SY15" s="189"/>
+      <c r="SZ15" s="189"/>
+      <c r="TA15" s="189"/>
+      <c r="TB15" s="189"/>
+      <c r="TC15" s="189"/>
+      <c r="TD15" s="189"/>
+      <c r="TE15" s="189"/>
+      <c r="TF15" s="189"/>
+      <c r="TG15" s="189"/>
+      <c r="TH15" s="189"/>
+      <c r="TI15" s="189"/>
+      <c r="TJ15" s="189"/>
+      <c r="TK15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="TL15" s="172"/>
-      <c r="TM15" s="172"/>
-      <c r="TN15" s="172"/>
-      <c r="TO15" s="172"/>
-      <c r="TP15" s="172"/>
-      <c r="TQ15" s="172"/>
-      <c r="TR15" s="172"/>
-      <c r="TS15" s="172"/>
-      <c r="TT15" s="172"/>
-      <c r="TU15" s="172"/>
-      <c r="TV15" s="172"/>
-      <c r="TW15" s="172"/>
-      <c r="TX15" s="172"/>
-      <c r="TY15" s="173"/>
-      <c r="TZ15" s="174" t="s">
+      <c r="TL15" s="189"/>
+      <c r="TM15" s="189"/>
+      <c r="TN15" s="189"/>
+      <c r="TO15" s="189"/>
+      <c r="TP15" s="189"/>
+      <c r="TQ15" s="189"/>
+      <c r="TR15" s="189"/>
+      <c r="TS15" s="189"/>
+      <c r="TT15" s="189"/>
+      <c r="TU15" s="189"/>
+      <c r="TV15" s="189"/>
+      <c r="TW15" s="189"/>
+      <c r="TX15" s="189"/>
+      <c r="TY15" s="193"/>
+      <c r="TZ15" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="UA15" s="172"/>
-      <c r="UB15" s="172"/>
-      <c r="UC15" s="172"/>
-      <c r="UD15" s="172"/>
-      <c r="UE15" s="172"/>
-      <c r="UF15" s="172"/>
-      <c r="UG15" s="172"/>
-      <c r="UH15" s="172"/>
-      <c r="UI15" s="172"/>
-      <c r="UJ15" s="172"/>
-      <c r="UK15" s="172"/>
-      <c r="UL15" s="172"/>
-      <c r="UM15" s="172"/>
-      <c r="UN15" s="175"/>
-      <c r="UO15" s="172" t="s">
+      <c r="UA15" s="189"/>
+      <c r="UB15" s="189"/>
+      <c r="UC15" s="189"/>
+      <c r="UD15" s="189"/>
+      <c r="UE15" s="189"/>
+      <c r="UF15" s="189"/>
+      <c r="UG15" s="189"/>
+      <c r="UH15" s="189"/>
+      <c r="UI15" s="189"/>
+      <c r="UJ15" s="189"/>
+      <c r="UK15" s="189"/>
+      <c r="UL15" s="189"/>
+      <c r="UM15" s="189"/>
+      <c r="UN15" s="192"/>
+      <c r="UO15" s="189" t="s">
         <v>25</v>
       </c>
-      <c r="UP15" s="172"/>
-      <c r="UQ15" s="172"/>
-      <c r="UR15" s="172"/>
-      <c r="US15" s="172"/>
-      <c r="UT15" s="172"/>
-      <c r="UU15" s="172"/>
-      <c r="UV15" s="172"/>
-      <c r="UW15" s="172"/>
-      <c r="UX15" s="172"/>
-      <c r="UY15" s="172"/>
-      <c r="UZ15" s="172"/>
-      <c r="VA15" s="172"/>
-      <c r="VB15" s="172"/>
-      <c r="VC15" s="173"/>
+      <c r="UP15" s="189"/>
+      <c r="UQ15" s="189"/>
+      <c r="UR15" s="189"/>
+      <c r="US15" s="189"/>
+      <c r="UT15" s="189"/>
+      <c r="UU15" s="189"/>
+      <c r="UV15" s="189"/>
+      <c r="UW15" s="189"/>
+      <c r="UX15" s="189"/>
+      <c r="UY15" s="189"/>
+      <c r="UZ15" s="189"/>
+      <c r="VA15" s="189"/>
+      <c r="VB15" s="189"/>
+      <c r="VC15" s="193"/>
     </row>
     <row r="16" spans="1:575" s="3" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -11493,40 +11518,40 @@
       <c r="TW16" s="15"/>
       <c r="TX16" s="15"/>
       <c r="TY16" s="14"/>
-      <c r="TZ16" s="176"/>
-      <c r="UA16" s="177"/>
-      <c r="UB16" s="177"/>
-      <c r="UC16" s="177"/>
-      <c r="UD16" s="177"/>
-      <c r="UE16" s="177"/>
-      <c r="UF16" s="177"/>
-      <c r="UG16" s="177"/>
-      <c r="UH16" s="177"/>
-      <c r="UI16" s="177"/>
-      <c r="UJ16" s="177"/>
-      <c r="UK16" s="177"/>
-      <c r="UL16" s="177"/>
-      <c r="UM16" s="177"/>
-      <c r="UN16" s="177"/>
-      <c r="UO16" s="177"/>
-      <c r="UP16" s="177"/>
-      <c r="UQ16" s="177"/>
-      <c r="UR16" s="177"/>
-      <c r="US16" s="177"/>
-      <c r="UT16" s="177"/>
-      <c r="UU16" s="177"/>
-      <c r="UV16" s="177"/>
-      <c r="UW16" s="177"/>
-      <c r="UX16" s="177"/>
-      <c r="UY16" s="177"/>
-      <c r="UZ16" s="177"/>
-      <c r="VA16" s="177"/>
-      <c r="VB16" s="177"/>
-      <c r="VC16" s="178"/>
+      <c r="TZ16" s="205"/>
+      <c r="UA16" s="206"/>
+      <c r="UB16" s="206"/>
+      <c r="UC16" s="206"/>
+      <c r="UD16" s="206"/>
+      <c r="UE16" s="206"/>
+      <c r="UF16" s="206"/>
+      <c r="UG16" s="206"/>
+      <c r="UH16" s="206"/>
+      <c r="UI16" s="206"/>
+      <c r="UJ16" s="206"/>
+      <c r="UK16" s="206"/>
+      <c r="UL16" s="206"/>
+      <c r="UM16" s="206"/>
+      <c r="UN16" s="206"/>
+      <c r="UO16" s="206"/>
+      <c r="UP16" s="206"/>
+      <c r="UQ16" s="206"/>
+      <c r="UR16" s="206"/>
+      <c r="US16" s="206"/>
+      <c r="UT16" s="206"/>
+      <c r="UU16" s="206"/>
+      <c r="UV16" s="206"/>
+      <c r="UW16" s="206"/>
+      <c r="UX16" s="206"/>
+      <c r="UY16" s="206"/>
+      <c r="UZ16" s="206"/>
+      <c r="VA16" s="206"/>
+      <c r="VB16" s="206"/>
+      <c r="VC16" s="207"/>
     </row>
     <row r="17" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="154" t="s">
+      <c r="B17" s="196" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -11832,7 +11857,7 @@
       <c r="KO17" s="18"/>
       <c r="KP17" s="18"/>
       <c r="KQ17" s="24"/>
-      <c r="KR17" s="154" t="s">
+      <c r="KR17" s="196" t="s">
         <v>27</v>
       </c>
       <c r="KS17" s="122" t="s">
@@ -12111,7 +12136,7 @@
     </row>
     <row r="18" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="143"/>
+      <c r="B18" s="195"/>
       <c r="C18" s="64" t="s">
         <v>29</v>
       </c>
@@ -12415,7 +12440,7 @@
       <c r="KO18" s="27"/>
       <c r="KP18" s="27"/>
       <c r="KQ18" s="34"/>
-      <c r="KR18" s="143"/>
+      <c r="KR18" s="195"/>
       <c r="KS18" s="123" t="s">
         <v>29</v>
       </c>
@@ -12692,7 +12717,7 @@
     </row>
     <row r="19" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="194" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="65" t="s">
@@ -12998,7 +13023,7 @@
       <c r="KO19" s="37"/>
       <c r="KP19" s="37"/>
       <c r="KQ19" s="44"/>
-      <c r="KR19" s="144" t="s">
+      <c r="KR19" s="194" t="s">
         <v>30</v>
       </c>
       <c r="KS19" s="124" t="s">
@@ -13277,7 +13302,7 @@
     </row>
     <row r="20" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="143"/>
+      <c r="B20" s="195"/>
       <c r="C20" s="64" t="s">
         <v>29</v>
       </c>
@@ -13581,7 +13606,7 @@
       <c r="KO20" s="27"/>
       <c r="KP20" s="27"/>
       <c r="KQ20" s="34"/>
-      <c r="KR20" s="143"/>
+      <c r="KR20" s="195"/>
       <c r="KS20" s="123" t="s">
         <v>29</v>
       </c>
@@ -13858,7 +13883,7 @@
     </row>
     <row r="21" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="144" t="s">
+      <c r="B21" s="194" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="65" t="s">
@@ -14164,7 +14189,7 @@
       <c r="KO21" s="37"/>
       <c r="KP21" s="37"/>
       <c r="KQ21" s="44"/>
-      <c r="KR21" s="144" t="s">
+      <c r="KR21" s="194" t="s">
         <v>35</v>
       </c>
       <c r="KS21" s="124" t="s">
@@ -14443,7 +14468,7 @@
     </row>
     <row r="22" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="143"/>
+      <c r="B22" s="195"/>
       <c r="C22" s="64" t="s">
         <v>29</v>
       </c>
@@ -14747,7 +14772,7 @@
       <c r="KO22" s="27"/>
       <c r="KP22" s="27"/>
       <c r="KQ22" s="34"/>
-      <c r="KR22" s="143"/>
+      <c r="KR22" s="195"/>
       <c r="KS22" s="123" t="s">
         <v>29</v>
       </c>
@@ -15024,7 +15049,7 @@
     </row>
     <row r="23" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="154" t="s">
+      <c r="B23" s="196" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -15330,7 +15355,7 @@
       <c r="KO23" s="18"/>
       <c r="KP23" s="18"/>
       <c r="KQ23" s="24"/>
-      <c r="KR23" s="154" t="s">
+      <c r="KR23" s="196" t="s">
         <v>31</v>
       </c>
       <c r="KS23" s="122" t="s">
@@ -15609,7 +15634,7 @@
     </row>
     <row r="24" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="155"/>
+      <c r="B24" s="197"/>
       <c r="C24" s="66" t="s">
         <v>29</v>
       </c>
@@ -15913,7 +15938,7 @@
       <c r="KO24" s="18"/>
       <c r="KP24" s="18"/>
       <c r="KQ24" s="24"/>
-      <c r="KR24" s="155"/>
+      <c r="KR24" s="197"/>
       <c r="KS24" s="125" t="s">
         <v>29</v>
       </c>
@@ -16738,36 +16763,36 @@
       <c r="TW25" s="60"/>
       <c r="TX25" s="60"/>
       <c r="TY25" s="72"/>
-      <c r="TZ25" s="165"/>
-      <c r="UA25" s="166"/>
-      <c r="UB25" s="166"/>
-      <c r="UC25" s="166"/>
-      <c r="UD25" s="166"/>
-      <c r="UE25" s="166"/>
-      <c r="UF25" s="166"/>
-      <c r="UG25" s="166"/>
-      <c r="UH25" s="166"/>
-      <c r="UI25" s="166"/>
-      <c r="UJ25" s="166"/>
-      <c r="UK25" s="166"/>
-      <c r="UL25" s="166"/>
-      <c r="UM25" s="166"/>
-      <c r="UN25" s="166"/>
-      <c r="UO25" s="166"/>
-      <c r="UP25" s="166"/>
-      <c r="UQ25" s="166"/>
-      <c r="UR25" s="166"/>
-      <c r="US25" s="166"/>
-      <c r="UT25" s="166"/>
-      <c r="UU25" s="166"/>
-      <c r="UV25" s="166"/>
-      <c r="UW25" s="166"/>
-      <c r="UX25" s="166"/>
-      <c r="UY25" s="166"/>
-      <c r="UZ25" s="166"/>
-      <c r="VA25" s="166"/>
-      <c r="VB25" s="166"/>
-      <c r="VC25" s="167"/>
+      <c r="TZ25" s="198"/>
+      <c r="UA25" s="199"/>
+      <c r="UB25" s="199"/>
+      <c r="UC25" s="199"/>
+      <c r="UD25" s="199"/>
+      <c r="UE25" s="199"/>
+      <c r="UF25" s="199"/>
+      <c r="UG25" s="199"/>
+      <c r="UH25" s="199"/>
+      <c r="UI25" s="199"/>
+      <c r="UJ25" s="199"/>
+      <c r="UK25" s="199"/>
+      <c r="UL25" s="199"/>
+      <c r="UM25" s="199"/>
+      <c r="UN25" s="199"/>
+      <c r="UO25" s="199"/>
+      <c r="UP25" s="199"/>
+      <c r="UQ25" s="199"/>
+      <c r="UR25" s="199"/>
+      <c r="US25" s="199"/>
+      <c r="UT25" s="199"/>
+      <c r="UU25" s="199"/>
+      <c r="UV25" s="199"/>
+      <c r="UW25" s="199"/>
+      <c r="UX25" s="199"/>
+      <c r="UY25" s="199"/>
+      <c r="UZ25" s="199"/>
+      <c r="VA25" s="199"/>
+      <c r="VB25" s="199"/>
+      <c r="VC25" s="200"/>
     </row>
     <row r="26" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
@@ -17900,40 +17925,40 @@
       <c r="TW27" s="62"/>
       <c r="TX27" s="62"/>
       <c r="TY27" s="76"/>
-      <c r="TZ27" s="168"/>
-      <c r="UA27" s="169"/>
-      <c r="UB27" s="169"/>
-      <c r="UC27" s="169"/>
-      <c r="UD27" s="169"/>
-      <c r="UE27" s="169"/>
-      <c r="UF27" s="169"/>
-      <c r="UG27" s="169"/>
-      <c r="UH27" s="169"/>
-      <c r="UI27" s="169"/>
-      <c r="UJ27" s="169"/>
-      <c r="UK27" s="169"/>
-      <c r="UL27" s="169"/>
-      <c r="UM27" s="169"/>
-      <c r="UN27" s="169"/>
-      <c r="UO27" s="169"/>
-      <c r="UP27" s="169"/>
-      <c r="UQ27" s="169"/>
-      <c r="UR27" s="169"/>
-      <c r="US27" s="169"/>
-      <c r="UT27" s="169"/>
-      <c r="UU27" s="169"/>
-      <c r="UV27" s="169"/>
-      <c r="UW27" s="169"/>
-      <c r="UX27" s="169"/>
-      <c r="UY27" s="169"/>
-      <c r="UZ27" s="169"/>
-      <c r="VA27" s="169"/>
-      <c r="VB27" s="169"/>
-      <c r="VC27" s="170"/>
+      <c r="TZ27" s="201"/>
+      <c r="UA27" s="202"/>
+      <c r="UB27" s="202"/>
+      <c r="UC27" s="202"/>
+      <c r="UD27" s="202"/>
+      <c r="UE27" s="202"/>
+      <c r="UF27" s="202"/>
+      <c r="UG27" s="202"/>
+      <c r="UH27" s="202"/>
+      <c r="UI27" s="202"/>
+      <c r="UJ27" s="202"/>
+      <c r="UK27" s="202"/>
+      <c r="UL27" s="202"/>
+      <c r="UM27" s="202"/>
+      <c r="UN27" s="202"/>
+      <c r="UO27" s="202"/>
+      <c r="UP27" s="202"/>
+      <c r="UQ27" s="202"/>
+      <c r="UR27" s="202"/>
+      <c r="US27" s="202"/>
+      <c r="UT27" s="202"/>
+      <c r="UU27" s="202"/>
+      <c r="UV27" s="202"/>
+      <c r="UW27" s="202"/>
+      <c r="UX27" s="202"/>
+      <c r="UY27" s="202"/>
+      <c r="UZ27" s="202"/>
+      <c r="VA27" s="202"/>
+      <c r="VB27" s="202"/>
+      <c r="VC27" s="203"/>
     </row>
     <row r="28" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="142" t="s">
+      <c r="B28" s="204" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -18239,7 +18264,7 @@
       <c r="KO28" s="18"/>
       <c r="KP28" s="18"/>
       <c r="KQ28" s="24"/>
-      <c r="KR28" s="142" t="s">
+      <c r="KR28" s="204" t="s">
         <v>34</v>
       </c>
       <c r="KS28" s="128" t="s">
@@ -18518,7 +18543,7 @@
     </row>
     <row r="29" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="143"/>
+      <c r="B29" s="195"/>
       <c r="C29" s="64" t="s">
         <v>29</v>
       </c>
@@ -18822,7 +18847,7 @@
       <c r="KO29" s="27"/>
       <c r="KP29" s="27"/>
       <c r="KQ29" s="34"/>
-      <c r="KR29" s="143"/>
+      <c r="KR29" s="195"/>
       <c r="KS29" s="123" t="s">
         <v>29</v>
       </c>
@@ -19647,36 +19672,36 @@
       <c r="TW30" s="60"/>
       <c r="TX30" s="60"/>
       <c r="TY30" s="72"/>
-      <c r="TZ30" s="165"/>
-      <c r="UA30" s="166"/>
-      <c r="UB30" s="166"/>
-      <c r="UC30" s="166"/>
-      <c r="UD30" s="166"/>
-      <c r="UE30" s="166"/>
-      <c r="UF30" s="166"/>
-      <c r="UG30" s="166"/>
-      <c r="UH30" s="166"/>
-      <c r="UI30" s="166"/>
-      <c r="UJ30" s="166"/>
-      <c r="UK30" s="166"/>
-      <c r="UL30" s="166"/>
-      <c r="UM30" s="166"/>
-      <c r="UN30" s="166"/>
-      <c r="UO30" s="166"/>
-      <c r="UP30" s="166"/>
-      <c r="UQ30" s="166"/>
-      <c r="UR30" s="166"/>
-      <c r="US30" s="166"/>
-      <c r="UT30" s="166"/>
-      <c r="UU30" s="166"/>
-      <c r="UV30" s="166"/>
-      <c r="UW30" s="166"/>
-      <c r="UX30" s="166"/>
-      <c r="UY30" s="166"/>
-      <c r="UZ30" s="166"/>
-      <c r="VA30" s="166"/>
-      <c r="VB30" s="166"/>
-      <c r="VC30" s="167"/>
+      <c r="TZ30" s="198"/>
+      <c r="UA30" s="199"/>
+      <c r="UB30" s="199"/>
+      <c r="UC30" s="199"/>
+      <c r="UD30" s="199"/>
+      <c r="UE30" s="199"/>
+      <c r="UF30" s="199"/>
+      <c r="UG30" s="199"/>
+      <c r="UH30" s="199"/>
+      <c r="UI30" s="199"/>
+      <c r="UJ30" s="199"/>
+      <c r="UK30" s="199"/>
+      <c r="UL30" s="199"/>
+      <c r="UM30" s="199"/>
+      <c r="UN30" s="199"/>
+      <c r="UO30" s="199"/>
+      <c r="UP30" s="199"/>
+      <c r="UQ30" s="199"/>
+      <c r="UR30" s="199"/>
+      <c r="US30" s="199"/>
+      <c r="UT30" s="199"/>
+      <c r="UU30" s="199"/>
+      <c r="UV30" s="199"/>
+      <c r="UW30" s="199"/>
+      <c r="UX30" s="199"/>
+      <c r="UY30" s="199"/>
+      <c r="UZ30" s="199"/>
+      <c r="VA30" s="199"/>
+      <c r="VB30" s="199"/>
+      <c r="VC30" s="200"/>
     </row>
     <row r="31" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
@@ -20809,40 +20834,40 @@
       <c r="TW32" s="61"/>
       <c r="TX32" s="61"/>
       <c r="TY32" s="78"/>
-      <c r="TZ32" s="156"/>
-      <c r="UA32" s="157"/>
-      <c r="UB32" s="157"/>
-      <c r="UC32" s="157"/>
-      <c r="UD32" s="157"/>
-      <c r="UE32" s="157"/>
-      <c r="UF32" s="157"/>
-      <c r="UG32" s="157"/>
-      <c r="UH32" s="157"/>
-      <c r="UI32" s="157"/>
-      <c r="UJ32" s="157"/>
-      <c r="UK32" s="157"/>
-      <c r="UL32" s="157"/>
-      <c r="UM32" s="157"/>
-      <c r="UN32" s="157"/>
-      <c r="UO32" s="157"/>
-      <c r="UP32" s="157"/>
-      <c r="UQ32" s="157"/>
-      <c r="UR32" s="157"/>
-      <c r="US32" s="157"/>
-      <c r="UT32" s="157"/>
-      <c r="UU32" s="157"/>
-      <c r="UV32" s="157"/>
-      <c r="UW32" s="157"/>
-      <c r="UX32" s="157"/>
-      <c r="UY32" s="157"/>
-      <c r="UZ32" s="157"/>
-      <c r="VA32" s="157"/>
-      <c r="VB32" s="157"/>
-      <c r="VC32" s="158"/>
+      <c r="TZ32" s="208"/>
+      <c r="UA32" s="209"/>
+      <c r="UB32" s="209"/>
+      <c r="UC32" s="209"/>
+      <c r="UD32" s="209"/>
+      <c r="UE32" s="209"/>
+      <c r="UF32" s="209"/>
+      <c r="UG32" s="209"/>
+      <c r="UH32" s="209"/>
+      <c r="UI32" s="209"/>
+      <c r="UJ32" s="209"/>
+      <c r="UK32" s="209"/>
+      <c r="UL32" s="209"/>
+      <c r="UM32" s="209"/>
+      <c r="UN32" s="209"/>
+      <c r="UO32" s="209"/>
+      <c r="UP32" s="209"/>
+      <c r="UQ32" s="209"/>
+      <c r="UR32" s="209"/>
+      <c r="US32" s="209"/>
+      <c r="UT32" s="209"/>
+      <c r="UU32" s="209"/>
+      <c r="UV32" s="209"/>
+      <c r="UW32" s="209"/>
+      <c r="UX32" s="209"/>
+      <c r="UY32" s="209"/>
+      <c r="UZ32" s="209"/>
+      <c r="VA32" s="209"/>
+      <c r="VB32" s="209"/>
+      <c r="VC32" s="210"/>
     </row>
     <row r="33" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="144" t="s">
+      <c r="B33" s="194" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="65" t="s">
@@ -21148,7 +21173,7 @@
       <c r="KO33" s="37"/>
       <c r="KP33" s="37"/>
       <c r="KQ33" s="44"/>
-      <c r="KR33" s="144" t="s">
+      <c r="KR33" s="194" t="s">
         <v>63</v>
       </c>
       <c r="KS33" s="124" t="s">
@@ -21427,7 +21452,7 @@
     </row>
     <row r="34" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="143"/>
+      <c r="B34" s="195"/>
       <c r="C34" s="64" t="s">
         <v>29</v>
       </c>
@@ -21731,7 +21756,7 @@
       <c r="KO34" s="27"/>
       <c r="KP34" s="27"/>
       <c r="KQ34" s="34"/>
-      <c r="KR34" s="143"/>
+      <c r="KR34" s="195"/>
       <c r="KS34" s="123" t="s">
         <v>29</v>
       </c>
@@ -22008,7 +22033,7 @@
     </row>
     <row r="35" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="144" t="s">
+      <c r="B35" s="194" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -22314,7 +22339,7 @@
       <c r="KO35" s="37"/>
       <c r="KP35" s="37"/>
       <c r="KQ35" s="44"/>
-      <c r="KR35" s="144" t="s">
+      <c r="KR35" s="194" t="s">
         <v>71</v>
       </c>
       <c r="KS35" s="124" t="s">
@@ -22593,7 +22618,7 @@
     </row>
     <row r="36" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="143"/>
+      <c r="B36" s="195"/>
       <c r="C36" s="64" t="s">
         <v>29</v>
       </c>
@@ -22897,7 +22922,7 @@
       <c r="KO36" s="27"/>
       <c r="KP36" s="27"/>
       <c r="KQ36" s="34"/>
-      <c r="KR36" s="143"/>
+      <c r="KR36" s="195"/>
       <c r="KS36" s="123" t="s">
         <v>29</v>
       </c>
@@ -23174,7 +23199,7 @@
     </row>
     <row r="37" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="144" t="s">
+      <c r="B37" s="194" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="65" t="s">
@@ -23480,7 +23505,7 @@
       <c r="KO37" s="37"/>
       <c r="KP37" s="37"/>
       <c r="KQ37" s="44"/>
-      <c r="KR37" s="144" t="s">
+      <c r="KR37" s="194" t="s">
         <v>72</v>
       </c>
       <c r="KS37" s="124" t="s">
@@ -23759,7 +23784,7 @@
     </row>
     <row r="38" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="143"/>
+      <c r="B38" s="195"/>
       <c r="C38" s="64" t="s">
         <v>29</v>
       </c>
@@ -24063,7 +24088,7 @@
       <c r="KO38" s="27"/>
       <c r="KP38" s="27"/>
       <c r="KQ38" s="34"/>
-      <c r="KR38" s="143"/>
+      <c r="KR38" s="195"/>
       <c r="KS38" s="123" t="s">
         <v>29</v>
       </c>
@@ -24340,7 +24365,7 @@
     </row>
     <row r="39" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="211" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="65" t="s">
@@ -24646,7 +24671,7 @@
       <c r="KO39" s="18"/>
       <c r="KP39" s="18"/>
       <c r="KQ39" s="24"/>
-      <c r="KR39" s="145" t="s">
+      <c r="KR39" s="211" t="s">
         <v>66</v>
       </c>
       <c r="KS39" s="124" t="s">
@@ -24925,7 +24950,7 @@
     </row>
     <row r="40" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="146"/>
+      <c r="B40" s="212"/>
       <c r="C40" s="66" t="s">
         <v>29</v>
       </c>
@@ -25229,7 +25254,7 @@
       <c r="KO40" s="18"/>
       <c r="KP40" s="18"/>
       <c r="KQ40" s="24"/>
-      <c r="KR40" s="146"/>
+      <c r="KR40" s="212"/>
       <c r="KS40" s="125" t="s">
         <v>29</v>
       </c>
@@ -26054,36 +26079,36 @@
       <c r="TW41" s="60"/>
       <c r="TX41" s="60"/>
       <c r="TY41" s="72"/>
-      <c r="TZ41" s="165"/>
-      <c r="UA41" s="166"/>
-      <c r="UB41" s="166"/>
-      <c r="UC41" s="166"/>
-      <c r="UD41" s="166"/>
-      <c r="UE41" s="166"/>
-      <c r="UF41" s="166"/>
-      <c r="UG41" s="166"/>
-      <c r="UH41" s="166"/>
-      <c r="UI41" s="166"/>
-      <c r="UJ41" s="166"/>
-      <c r="UK41" s="166"/>
-      <c r="UL41" s="166"/>
-      <c r="UM41" s="166"/>
-      <c r="UN41" s="166"/>
-      <c r="UO41" s="166"/>
-      <c r="UP41" s="166"/>
-      <c r="UQ41" s="166"/>
-      <c r="UR41" s="166"/>
-      <c r="US41" s="166"/>
-      <c r="UT41" s="166"/>
-      <c r="UU41" s="166"/>
-      <c r="UV41" s="166"/>
-      <c r="UW41" s="166"/>
-      <c r="UX41" s="166"/>
-      <c r="UY41" s="166"/>
-      <c r="UZ41" s="166"/>
-      <c r="VA41" s="166"/>
-      <c r="VB41" s="166"/>
-      <c r="VC41" s="167"/>
+      <c r="TZ41" s="198"/>
+      <c r="UA41" s="199"/>
+      <c r="UB41" s="199"/>
+      <c r="UC41" s="199"/>
+      <c r="UD41" s="199"/>
+      <c r="UE41" s="199"/>
+      <c r="UF41" s="199"/>
+      <c r="UG41" s="199"/>
+      <c r="UH41" s="199"/>
+      <c r="UI41" s="199"/>
+      <c r="UJ41" s="199"/>
+      <c r="UK41" s="199"/>
+      <c r="UL41" s="199"/>
+      <c r="UM41" s="199"/>
+      <c r="UN41" s="199"/>
+      <c r="UO41" s="199"/>
+      <c r="UP41" s="199"/>
+      <c r="UQ41" s="199"/>
+      <c r="UR41" s="199"/>
+      <c r="US41" s="199"/>
+      <c r="UT41" s="199"/>
+      <c r="UU41" s="199"/>
+      <c r="UV41" s="199"/>
+      <c r="UW41" s="199"/>
+      <c r="UX41" s="199"/>
+      <c r="UY41" s="199"/>
+      <c r="UZ41" s="199"/>
+      <c r="VA41" s="199"/>
+      <c r="VB41" s="199"/>
+      <c r="VC41" s="200"/>
     </row>
     <row r="42" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
@@ -27216,40 +27241,40 @@
       <c r="TW43" s="61"/>
       <c r="TX43" s="61"/>
       <c r="TY43" s="78"/>
-      <c r="TZ43" s="156"/>
-      <c r="UA43" s="157"/>
-      <c r="UB43" s="157"/>
-      <c r="UC43" s="157"/>
-      <c r="UD43" s="157"/>
-      <c r="UE43" s="157"/>
-      <c r="UF43" s="157"/>
-      <c r="UG43" s="157"/>
-      <c r="UH43" s="157"/>
-      <c r="UI43" s="157"/>
-      <c r="UJ43" s="157"/>
-      <c r="UK43" s="157"/>
-      <c r="UL43" s="157"/>
-      <c r="UM43" s="157"/>
-      <c r="UN43" s="157"/>
-      <c r="UO43" s="157"/>
-      <c r="UP43" s="157"/>
-      <c r="UQ43" s="157"/>
-      <c r="UR43" s="157"/>
-      <c r="US43" s="157"/>
-      <c r="UT43" s="157"/>
-      <c r="UU43" s="157"/>
-      <c r="UV43" s="157"/>
-      <c r="UW43" s="157"/>
-      <c r="UX43" s="157"/>
-      <c r="UY43" s="157"/>
-      <c r="UZ43" s="157"/>
-      <c r="VA43" s="157"/>
-      <c r="VB43" s="157"/>
-      <c r="VC43" s="158"/>
+      <c r="TZ43" s="208"/>
+      <c r="UA43" s="209"/>
+      <c r="UB43" s="209"/>
+      <c r="UC43" s="209"/>
+      <c r="UD43" s="209"/>
+      <c r="UE43" s="209"/>
+      <c r="UF43" s="209"/>
+      <c r="UG43" s="209"/>
+      <c r="UH43" s="209"/>
+      <c r="UI43" s="209"/>
+      <c r="UJ43" s="209"/>
+      <c r="UK43" s="209"/>
+      <c r="UL43" s="209"/>
+      <c r="UM43" s="209"/>
+      <c r="UN43" s="209"/>
+      <c r="UO43" s="209"/>
+      <c r="UP43" s="209"/>
+      <c r="UQ43" s="209"/>
+      <c r="UR43" s="209"/>
+      <c r="US43" s="209"/>
+      <c r="UT43" s="209"/>
+      <c r="UU43" s="209"/>
+      <c r="UV43" s="209"/>
+      <c r="UW43" s="209"/>
+      <c r="UX43" s="209"/>
+      <c r="UY43" s="209"/>
+      <c r="UZ43" s="209"/>
+      <c r="VA43" s="209"/>
+      <c r="VB43" s="209"/>
+      <c r="VC43" s="210"/>
     </row>
     <row r="44" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="144" t="s">
+      <c r="B44" s="194" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="65" t="s">
@@ -27555,7 +27580,7 @@
       <c r="KO44" s="37"/>
       <c r="KP44" s="37"/>
       <c r="KQ44" s="44"/>
-      <c r="KR44" s="144" t="s">
+      <c r="KR44" s="194" t="s">
         <v>61</v>
       </c>
       <c r="KS44" s="124" t="s">
@@ -27834,7 +27859,7 @@
     </row>
     <row r="45" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="143"/>
+      <c r="B45" s="195"/>
       <c r="C45" s="64" t="s">
         <v>29</v>
       </c>
@@ -28138,7 +28163,7 @@
       <c r="KO45" s="27"/>
       <c r="KP45" s="27"/>
       <c r="KQ45" s="34"/>
-      <c r="KR45" s="143"/>
+      <c r="KR45" s="195"/>
       <c r="KS45" s="123" t="s">
         <v>29</v>
       </c>
@@ -28415,7 +28440,7 @@
     </row>
     <row r="46" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="144" t="s">
+      <c r="B46" s="194" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="65" t="s">
@@ -28721,7 +28746,7 @@
       <c r="KO46" s="37"/>
       <c r="KP46" s="37"/>
       <c r="KQ46" s="44"/>
-      <c r="KR46" s="144" t="s">
+      <c r="KR46" s="194" t="s">
         <v>73</v>
       </c>
       <c r="KS46" s="124" t="s">
@@ -29000,7 +29025,7 @@
     </row>
     <row r="47" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="143"/>
+      <c r="B47" s="195"/>
       <c r="C47" s="64" t="s">
         <v>29</v>
       </c>
@@ -29304,7 +29329,7 @@
       <c r="KO47" s="27"/>
       <c r="KP47" s="27"/>
       <c r="KQ47" s="34"/>
-      <c r="KR47" s="143"/>
+      <c r="KR47" s="195"/>
       <c r="KS47" s="123" t="s">
         <v>29</v>
       </c>
@@ -29581,7 +29606,7 @@
     </row>
     <row r="48" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="144" t="s">
+      <c r="B48" s="194" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="65" t="s">
@@ -29887,7 +29912,7 @@
       <c r="KO48" s="37"/>
       <c r="KP48" s="37"/>
       <c r="KQ48" s="44"/>
-      <c r="KR48" s="144" t="s">
+      <c r="KR48" s="194" t="s">
         <v>64</v>
       </c>
       <c r="KS48" s="124" t="s">
@@ -30166,7 +30191,7 @@
     </row>
     <row r="49" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="143"/>
+      <c r="B49" s="195"/>
       <c r="C49" s="64" t="s">
         <v>29</v>
       </c>
@@ -30470,7 +30495,7 @@
       <c r="KO49" s="27"/>
       <c r="KP49" s="27"/>
       <c r="KQ49" s="34"/>
-      <c r="KR49" s="143"/>
+      <c r="KR49" s="195"/>
       <c r="KS49" s="123" t="s">
         <v>29</v>
       </c>
@@ -30747,7 +30772,7 @@
     </row>
     <row r="50" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="144" t="s">
+      <c r="B50" s="194" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="65" t="s">
@@ -31053,7 +31078,7 @@
       <c r="KO50" s="37"/>
       <c r="KP50" s="37"/>
       <c r="KQ50" s="44"/>
-      <c r="KR50" s="144" t="s">
+      <c r="KR50" s="194" t="s">
         <v>65</v>
       </c>
       <c r="KS50" s="124" t="s">
@@ -31332,7 +31357,7 @@
     </row>
     <row r="51" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="143"/>
+      <c r="B51" s="195"/>
       <c r="C51" s="64" t="s">
         <v>29</v>
       </c>
@@ -31636,7 +31661,7 @@
       <c r="KO51" s="27"/>
       <c r="KP51" s="27"/>
       <c r="KQ51" s="34"/>
-      <c r="KR51" s="143"/>
+      <c r="KR51" s="195"/>
       <c r="KS51" s="123" t="s">
         <v>29</v>
       </c>
@@ -31913,7 +31938,7 @@
     </row>
     <row r="52" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="154" t="s">
+      <c r="B52" s="196" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -32219,7 +32244,7 @@
       <c r="KO52" s="18"/>
       <c r="KP52" s="18"/>
       <c r="KQ52" s="24"/>
-      <c r="KR52" s="154" t="s">
+      <c r="KR52" s="196" t="s">
         <v>62</v>
       </c>
       <c r="KS52" s="122" t="s">
@@ -32498,7 +32523,7 @@
     </row>
     <row r="53" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="155"/>
+      <c r="B53" s="197"/>
       <c r="C53" s="66" t="s">
         <v>29</v>
       </c>
@@ -32802,7 +32827,7 @@
       <c r="KO53" s="18"/>
       <c r="KP53" s="18"/>
       <c r="KQ53" s="24"/>
-      <c r="KR53" s="155"/>
+      <c r="KR53" s="197"/>
       <c r="KS53" s="125" t="s">
         <v>29</v>
       </c>
@@ -33627,36 +33652,36 @@
       <c r="TW54" s="60"/>
       <c r="TX54" s="60"/>
       <c r="TY54" s="72"/>
-      <c r="TZ54" s="165"/>
-      <c r="UA54" s="166"/>
-      <c r="UB54" s="166"/>
-      <c r="UC54" s="166"/>
-      <c r="UD54" s="166"/>
-      <c r="UE54" s="166"/>
-      <c r="UF54" s="166"/>
-      <c r="UG54" s="166"/>
-      <c r="UH54" s="166"/>
-      <c r="UI54" s="166"/>
-      <c r="UJ54" s="166"/>
-      <c r="UK54" s="166"/>
-      <c r="UL54" s="166"/>
-      <c r="UM54" s="166"/>
-      <c r="UN54" s="166"/>
-      <c r="UO54" s="166"/>
-      <c r="UP54" s="166"/>
-      <c r="UQ54" s="166"/>
-      <c r="UR54" s="166"/>
-      <c r="US54" s="166"/>
-      <c r="UT54" s="166"/>
-      <c r="UU54" s="166"/>
-      <c r="UV54" s="166"/>
-      <c r="UW54" s="166"/>
-      <c r="UX54" s="166"/>
-      <c r="UY54" s="166"/>
-      <c r="UZ54" s="166"/>
-      <c r="VA54" s="166"/>
-      <c r="VB54" s="166"/>
-      <c r="VC54" s="167"/>
+      <c r="TZ54" s="198"/>
+      <c r="UA54" s="199"/>
+      <c r="UB54" s="199"/>
+      <c r="UC54" s="199"/>
+      <c r="UD54" s="199"/>
+      <c r="UE54" s="199"/>
+      <c r="UF54" s="199"/>
+      <c r="UG54" s="199"/>
+      <c r="UH54" s="199"/>
+      <c r="UI54" s="199"/>
+      <c r="UJ54" s="199"/>
+      <c r="UK54" s="199"/>
+      <c r="UL54" s="199"/>
+      <c r="UM54" s="199"/>
+      <c r="UN54" s="199"/>
+      <c r="UO54" s="199"/>
+      <c r="UP54" s="199"/>
+      <c r="UQ54" s="199"/>
+      <c r="UR54" s="199"/>
+      <c r="US54" s="199"/>
+      <c r="UT54" s="199"/>
+      <c r="UU54" s="199"/>
+      <c r="UV54" s="199"/>
+      <c r="UW54" s="199"/>
+      <c r="UX54" s="199"/>
+      <c r="UY54" s="199"/>
+      <c r="UZ54" s="199"/>
+      <c r="VA54" s="199"/>
+      <c r="VB54" s="199"/>
+      <c r="VC54" s="200"/>
     </row>
     <row r="55" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
@@ -34789,40 +34814,40 @@
       <c r="TW56" s="61"/>
       <c r="TX56" s="61"/>
       <c r="TY56" s="78"/>
-      <c r="TZ56" s="156"/>
-      <c r="UA56" s="157"/>
-      <c r="UB56" s="157"/>
-      <c r="UC56" s="157"/>
-      <c r="UD56" s="157"/>
-      <c r="UE56" s="157"/>
-      <c r="UF56" s="157"/>
-      <c r="UG56" s="157"/>
-      <c r="UH56" s="157"/>
-      <c r="UI56" s="157"/>
-      <c r="UJ56" s="157"/>
-      <c r="UK56" s="157"/>
-      <c r="UL56" s="157"/>
-      <c r="UM56" s="157"/>
-      <c r="UN56" s="157"/>
-      <c r="UO56" s="157"/>
-      <c r="UP56" s="157"/>
-      <c r="UQ56" s="157"/>
-      <c r="UR56" s="157"/>
-      <c r="US56" s="157"/>
-      <c r="UT56" s="157"/>
-      <c r="UU56" s="157"/>
-      <c r="UV56" s="157"/>
-      <c r="UW56" s="157"/>
-      <c r="UX56" s="157"/>
-      <c r="UY56" s="157"/>
-      <c r="UZ56" s="157"/>
-      <c r="VA56" s="157"/>
-      <c r="VB56" s="157"/>
-      <c r="VC56" s="158"/>
+      <c r="TZ56" s="208"/>
+      <c r="UA56" s="209"/>
+      <c r="UB56" s="209"/>
+      <c r="UC56" s="209"/>
+      <c r="UD56" s="209"/>
+      <c r="UE56" s="209"/>
+      <c r="UF56" s="209"/>
+      <c r="UG56" s="209"/>
+      <c r="UH56" s="209"/>
+      <c r="UI56" s="209"/>
+      <c r="UJ56" s="209"/>
+      <c r="UK56" s="209"/>
+      <c r="UL56" s="209"/>
+      <c r="UM56" s="209"/>
+      <c r="UN56" s="209"/>
+      <c r="UO56" s="209"/>
+      <c r="UP56" s="209"/>
+      <c r="UQ56" s="209"/>
+      <c r="UR56" s="209"/>
+      <c r="US56" s="209"/>
+      <c r="UT56" s="209"/>
+      <c r="UU56" s="209"/>
+      <c r="UV56" s="209"/>
+      <c r="UW56" s="209"/>
+      <c r="UX56" s="209"/>
+      <c r="UY56" s="209"/>
+      <c r="UZ56" s="209"/>
+      <c r="VA56" s="209"/>
+      <c r="VB56" s="209"/>
+      <c r="VC56" s="210"/>
     </row>
     <row r="57" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="142" t="s">
+      <c r="B57" s="204" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="67" t="s">
@@ -35128,7 +35153,7 @@
       <c r="KO57" s="18"/>
       <c r="KP57" s="18"/>
       <c r="KQ57" s="24"/>
-      <c r="KR57" s="142" t="s">
+      <c r="KR57" s="204" t="s">
         <v>70</v>
       </c>
       <c r="KS57" s="128" t="s">
@@ -35407,7 +35432,7 @@
     </row>
     <row r="58" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="143"/>
+      <c r="B58" s="195"/>
       <c r="C58" s="64" t="s">
         <v>29</v>
       </c>
@@ -35711,7 +35736,7 @@
       <c r="KO58" s="27"/>
       <c r="KP58" s="27"/>
       <c r="KQ58" s="34"/>
-      <c r="KR58" s="143"/>
+      <c r="KR58" s="195"/>
       <c r="KS58" s="123" t="s">
         <v>29</v>
       </c>
@@ -35988,7 +36013,7 @@
     </row>
     <row r="59" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="144" t="s">
+      <c r="B59" s="194" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="65" t="s">
@@ -36294,7 +36319,7 @@
       <c r="KO59" s="37"/>
       <c r="KP59" s="37"/>
       <c r="KQ59" s="44"/>
-      <c r="KR59" s="144" t="s">
+      <c r="KR59" s="194" t="s">
         <v>67</v>
       </c>
       <c r="KS59" s="124" t="s">
@@ -36573,7 +36598,7 @@
     </row>
     <row r="60" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="143"/>
+      <c r="B60" s="195"/>
       <c r="C60" s="64" t="s">
         <v>29</v>
       </c>
@@ -36877,7 +36902,7 @@
       <c r="KO60" s="27"/>
       <c r="KP60" s="27"/>
       <c r="KQ60" s="34"/>
-      <c r="KR60" s="143"/>
+      <c r="KR60" s="195"/>
       <c r="KS60" s="123" t="s">
         <v>29</v>
       </c>
@@ -37702,36 +37727,36 @@
       <c r="TW61" s="60"/>
       <c r="TX61" s="60"/>
       <c r="TY61" s="72"/>
-      <c r="TZ61" s="165"/>
-      <c r="UA61" s="166"/>
-      <c r="UB61" s="166"/>
-      <c r="UC61" s="166"/>
-      <c r="UD61" s="166"/>
-      <c r="UE61" s="166"/>
-      <c r="UF61" s="166"/>
-      <c r="UG61" s="166"/>
-      <c r="UH61" s="166"/>
-      <c r="UI61" s="166"/>
-      <c r="UJ61" s="166"/>
-      <c r="UK61" s="166"/>
-      <c r="UL61" s="166"/>
-      <c r="UM61" s="166"/>
-      <c r="UN61" s="166"/>
-      <c r="UO61" s="166"/>
-      <c r="UP61" s="166"/>
-      <c r="UQ61" s="166"/>
-      <c r="UR61" s="166"/>
-      <c r="US61" s="166"/>
-      <c r="UT61" s="166"/>
-      <c r="UU61" s="166"/>
-      <c r="UV61" s="166"/>
-      <c r="UW61" s="166"/>
-      <c r="UX61" s="166"/>
-      <c r="UY61" s="166"/>
-      <c r="UZ61" s="166"/>
-      <c r="VA61" s="166"/>
-      <c r="VB61" s="166"/>
-      <c r="VC61" s="167"/>
+      <c r="TZ61" s="198"/>
+      <c r="UA61" s="199"/>
+      <c r="UB61" s="199"/>
+      <c r="UC61" s="199"/>
+      <c r="UD61" s="199"/>
+      <c r="UE61" s="199"/>
+      <c r="UF61" s="199"/>
+      <c r="UG61" s="199"/>
+      <c r="UH61" s="199"/>
+      <c r="UI61" s="199"/>
+      <c r="UJ61" s="199"/>
+      <c r="UK61" s="199"/>
+      <c r="UL61" s="199"/>
+      <c r="UM61" s="199"/>
+      <c r="UN61" s="199"/>
+      <c r="UO61" s="199"/>
+      <c r="UP61" s="199"/>
+      <c r="UQ61" s="199"/>
+      <c r="UR61" s="199"/>
+      <c r="US61" s="199"/>
+      <c r="UT61" s="199"/>
+      <c r="UU61" s="199"/>
+      <c r="UV61" s="199"/>
+      <c r="UW61" s="199"/>
+      <c r="UX61" s="199"/>
+      <c r="UY61" s="199"/>
+      <c r="UZ61" s="199"/>
+      <c r="VA61" s="199"/>
+      <c r="VB61" s="199"/>
+      <c r="VC61" s="200"/>
     </row>
     <row r="62" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46"/>
@@ -38864,40 +38889,40 @@
       <c r="TW63" s="61"/>
       <c r="TX63" s="61"/>
       <c r="TY63" s="78"/>
-      <c r="TZ63" s="156"/>
-      <c r="UA63" s="157"/>
-      <c r="UB63" s="157"/>
-      <c r="UC63" s="157"/>
-      <c r="UD63" s="157"/>
-      <c r="UE63" s="157"/>
-      <c r="UF63" s="157"/>
-      <c r="UG63" s="157"/>
-      <c r="UH63" s="157"/>
-      <c r="UI63" s="157"/>
-      <c r="UJ63" s="157"/>
-      <c r="UK63" s="157"/>
-      <c r="UL63" s="157"/>
-      <c r="UM63" s="157"/>
-      <c r="UN63" s="157"/>
-      <c r="UO63" s="157"/>
-      <c r="UP63" s="157"/>
-      <c r="UQ63" s="157"/>
-      <c r="UR63" s="157"/>
-      <c r="US63" s="157"/>
-      <c r="UT63" s="157"/>
-      <c r="UU63" s="157"/>
-      <c r="UV63" s="157"/>
-      <c r="UW63" s="157"/>
-      <c r="UX63" s="157"/>
-      <c r="UY63" s="157"/>
-      <c r="UZ63" s="157"/>
-      <c r="VA63" s="157"/>
-      <c r="VB63" s="157"/>
-      <c r="VC63" s="158"/>
+      <c r="TZ63" s="208"/>
+      <c r="UA63" s="209"/>
+      <c r="UB63" s="209"/>
+      <c r="UC63" s="209"/>
+      <c r="UD63" s="209"/>
+      <c r="UE63" s="209"/>
+      <c r="UF63" s="209"/>
+      <c r="UG63" s="209"/>
+      <c r="UH63" s="209"/>
+      <c r="UI63" s="209"/>
+      <c r="UJ63" s="209"/>
+      <c r="UK63" s="209"/>
+      <c r="UL63" s="209"/>
+      <c r="UM63" s="209"/>
+      <c r="UN63" s="209"/>
+      <c r="UO63" s="209"/>
+      <c r="UP63" s="209"/>
+      <c r="UQ63" s="209"/>
+      <c r="UR63" s="209"/>
+      <c r="US63" s="209"/>
+      <c r="UT63" s="209"/>
+      <c r="UU63" s="209"/>
+      <c r="UV63" s="209"/>
+      <c r="UW63" s="209"/>
+      <c r="UX63" s="209"/>
+      <c r="UY63" s="209"/>
+      <c r="UZ63" s="209"/>
+      <c r="VA63" s="209"/>
+      <c r="VB63" s="209"/>
+      <c r="VC63" s="210"/>
     </row>
     <row r="64" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="142" t="s">
+      <c r="B64" s="204" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="67" t="s">
@@ -39203,7 +39228,7 @@
       <c r="KO64" s="105"/>
       <c r="KP64" s="105"/>
       <c r="KQ64" s="24"/>
-      <c r="KR64" s="142" t="s">
+      <c r="KR64" s="204" t="s">
         <v>69</v>
       </c>
       <c r="KS64" s="128" t="s">
@@ -39482,7 +39507,7 @@
     </row>
     <row r="65" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="143"/>
+      <c r="B65" s="195"/>
       <c r="C65" s="64" t="s">
         <v>29</v>
       </c>
@@ -39786,7 +39811,7 @@
       <c r="KO65" s="27"/>
       <c r="KP65" s="27"/>
       <c r="KQ65" s="34"/>
-      <c r="KR65" s="143"/>
+      <c r="KR65" s="195"/>
       <c r="KS65" s="123" t="s">
         <v>29</v>
       </c>
@@ -40611,36 +40636,36 @@
       <c r="TW66" s="107"/>
       <c r="TX66" s="107"/>
       <c r="TY66" s="74"/>
-      <c r="TZ66" s="159"/>
-      <c r="UA66" s="160"/>
-      <c r="UB66" s="160"/>
-      <c r="UC66" s="160"/>
-      <c r="UD66" s="160"/>
-      <c r="UE66" s="160"/>
-      <c r="UF66" s="160"/>
-      <c r="UG66" s="160"/>
-      <c r="UH66" s="160"/>
-      <c r="UI66" s="160"/>
-      <c r="UJ66" s="160"/>
-      <c r="UK66" s="160"/>
-      <c r="UL66" s="160"/>
-      <c r="UM66" s="160"/>
-      <c r="UN66" s="160"/>
-      <c r="UO66" s="160"/>
-      <c r="UP66" s="160"/>
-      <c r="UQ66" s="160"/>
-      <c r="UR66" s="160"/>
-      <c r="US66" s="160"/>
-      <c r="UT66" s="160"/>
-      <c r="UU66" s="160"/>
-      <c r="UV66" s="160"/>
-      <c r="UW66" s="160"/>
-      <c r="UX66" s="160"/>
-      <c r="UY66" s="160"/>
-      <c r="UZ66" s="160"/>
-      <c r="VA66" s="160"/>
-      <c r="VB66" s="160"/>
-      <c r="VC66" s="161"/>
+      <c r="TZ66" s="213"/>
+      <c r="UA66" s="214"/>
+      <c r="UB66" s="214"/>
+      <c r="UC66" s="214"/>
+      <c r="UD66" s="214"/>
+      <c r="UE66" s="214"/>
+      <c r="UF66" s="214"/>
+      <c r="UG66" s="214"/>
+      <c r="UH66" s="214"/>
+      <c r="UI66" s="214"/>
+      <c r="UJ66" s="214"/>
+      <c r="UK66" s="214"/>
+      <c r="UL66" s="214"/>
+      <c r="UM66" s="214"/>
+      <c r="UN66" s="214"/>
+      <c r="UO66" s="214"/>
+      <c r="UP66" s="214"/>
+      <c r="UQ66" s="214"/>
+      <c r="UR66" s="214"/>
+      <c r="US66" s="214"/>
+      <c r="UT66" s="214"/>
+      <c r="UU66" s="214"/>
+      <c r="UV66" s="214"/>
+      <c r="UW66" s="214"/>
+      <c r="UX66" s="214"/>
+      <c r="UY66" s="214"/>
+      <c r="UZ66" s="214"/>
+      <c r="VA66" s="214"/>
+      <c r="VB66" s="214"/>
+      <c r="VC66" s="215"/>
     </row>
     <row r="67" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46"/>
@@ -41192,36 +41217,36 @@
       <c r="TW67" s="54"/>
       <c r="TX67" s="54"/>
       <c r="TY67" s="53"/>
-      <c r="TZ67" s="162"/>
-      <c r="UA67" s="163"/>
-      <c r="UB67" s="163"/>
-      <c r="UC67" s="163"/>
-      <c r="UD67" s="163"/>
-      <c r="UE67" s="163"/>
-      <c r="UF67" s="163"/>
-      <c r="UG67" s="163"/>
-      <c r="UH67" s="163"/>
-      <c r="UI67" s="163"/>
-      <c r="UJ67" s="163"/>
-      <c r="UK67" s="163"/>
-      <c r="UL67" s="163"/>
-      <c r="UM67" s="163"/>
-      <c r="UN67" s="163"/>
-      <c r="UO67" s="163"/>
-      <c r="UP67" s="163"/>
-      <c r="UQ67" s="163"/>
-      <c r="UR67" s="163"/>
-      <c r="US67" s="163"/>
-      <c r="UT67" s="163"/>
-      <c r="UU67" s="163"/>
-      <c r="UV67" s="163"/>
-      <c r="UW67" s="163"/>
-      <c r="UX67" s="163"/>
-      <c r="UY67" s="163"/>
-      <c r="UZ67" s="163"/>
-      <c r="VA67" s="163"/>
-      <c r="VB67" s="163"/>
-      <c r="VC67" s="164"/>
+      <c r="TZ67" s="216"/>
+      <c r="UA67" s="217"/>
+      <c r="UB67" s="217"/>
+      <c r="UC67" s="217"/>
+      <c r="UD67" s="217"/>
+      <c r="UE67" s="217"/>
+      <c r="UF67" s="217"/>
+      <c r="UG67" s="217"/>
+      <c r="UH67" s="217"/>
+      <c r="UI67" s="217"/>
+      <c r="UJ67" s="217"/>
+      <c r="UK67" s="217"/>
+      <c r="UL67" s="217"/>
+      <c r="UM67" s="217"/>
+      <c r="UN67" s="217"/>
+      <c r="UO67" s="217"/>
+      <c r="UP67" s="217"/>
+      <c r="UQ67" s="217"/>
+      <c r="UR67" s="217"/>
+      <c r="US67" s="217"/>
+      <c r="UT67" s="217"/>
+      <c r="UU67" s="217"/>
+      <c r="UV67" s="217"/>
+      <c r="UW67" s="217"/>
+      <c r="UX67" s="217"/>
+      <c r="UY67" s="217"/>
+      <c r="UZ67" s="217"/>
+      <c r="VA67" s="217"/>
+      <c r="VB67" s="217"/>
+      <c r="VC67" s="218"/>
     </row>
     <row r="68" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
@@ -44682,54 +44707,84 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="AO6:BK6"/>
-    <mergeCell ref="B7:BK9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:BK12"/>
-    <mergeCell ref="BL12:GA12"/>
-    <mergeCell ref="GB12:KQ12"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="Q4:BK4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="AB5:AN5"/>
-    <mergeCell ref="AO5:BK5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="Q6:AA6"/>
-    <mergeCell ref="AB6:AN6"/>
-    <mergeCell ref="KT12:PI12"/>
-    <mergeCell ref="PJ12:TY12"/>
-    <mergeCell ref="TZ12:VC12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:AG13"/>
-    <mergeCell ref="AH13:BK13"/>
-    <mergeCell ref="BL13:CO13"/>
-    <mergeCell ref="CP13:DS13"/>
-    <mergeCell ref="DT13:EW13"/>
-    <mergeCell ref="EX13:GA13"/>
-    <mergeCell ref="TZ13:VC13"/>
-    <mergeCell ref="NB13:OE13"/>
-    <mergeCell ref="OF13:PI13"/>
-    <mergeCell ref="PJ13:QM13"/>
-    <mergeCell ref="QN13:RQ13"/>
-    <mergeCell ref="RR13:SU13"/>
-    <mergeCell ref="SV13:TY13"/>
-    <mergeCell ref="GB13:HE13"/>
-    <mergeCell ref="HF13:II13"/>
-    <mergeCell ref="IJ13:JM13"/>
-    <mergeCell ref="JN13:KQ13"/>
-    <mergeCell ref="KT13:LW13"/>
-    <mergeCell ref="LX13:NA13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:AG14"/>
-    <mergeCell ref="AH14:BK14"/>
-    <mergeCell ref="BL14:CO14"/>
-    <mergeCell ref="CP14:DS14"/>
-    <mergeCell ref="DT14:EW14"/>
-    <mergeCell ref="EX14:GA14"/>
-    <mergeCell ref="GB14:HE14"/>
-    <mergeCell ref="HF14:II14"/>
+    <mergeCell ref="KR28:KR29"/>
+    <mergeCell ref="KR33:KR34"/>
+    <mergeCell ref="KR35:KR36"/>
+    <mergeCell ref="KR37:KR38"/>
+    <mergeCell ref="KR39:KR40"/>
+    <mergeCell ref="KR44:KR45"/>
+    <mergeCell ref="KR46:KR47"/>
+    <mergeCell ref="KR48:KR49"/>
+    <mergeCell ref="KR50:KR51"/>
+    <mergeCell ref="KR4:KS6"/>
+    <mergeCell ref="KR12:KS12"/>
+    <mergeCell ref="KR13:KS13"/>
+    <mergeCell ref="KR14:KS14"/>
+    <mergeCell ref="KR15:KS15"/>
+    <mergeCell ref="KR17:KR18"/>
+    <mergeCell ref="KR19:KR20"/>
+    <mergeCell ref="KR21:KR22"/>
+    <mergeCell ref="KR23:KR24"/>
+    <mergeCell ref="TZ63:VC63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="TZ66:VC66"/>
+    <mergeCell ref="TZ67:VC67"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="TZ54:VC54"/>
+    <mergeCell ref="TZ56:VC56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="TZ61:VC61"/>
+    <mergeCell ref="KR52:KR53"/>
+    <mergeCell ref="KR57:KR58"/>
+    <mergeCell ref="KR59:KR60"/>
+    <mergeCell ref="KR64:KR65"/>
+    <mergeCell ref="TZ41:VC41"/>
+    <mergeCell ref="TZ43:VC43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="TZ30:VC30"/>
+    <mergeCell ref="TZ32:VC32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="TZ25:VC25"/>
+    <mergeCell ref="TZ27:VC27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="SV15:TJ15"/>
+    <mergeCell ref="TK15:TY15"/>
+    <mergeCell ref="TZ15:UN15"/>
+    <mergeCell ref="UO15:VC15"/>
+    <mergeCell ref="TZ16:VC16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="PJ15:PX15"/>
+    <mergeCell ref="PY15:QM15"/>
+    <mergeCell ref="QN15:RB15"/>
+    <mergeCell ref="RC15:RQ15"/>
+    <mergeCell ref="RR15:SF15"/>
+    <mergeCell ref="SG15:SU15"/>
+    <mergeCell ref="LX15:ML15"/>
+    <mergeCell ref="MM15:NA15"/>
+    <mergeCell ref="NB15:NP15"/>
+    <mergeCell ref="NQ15:OE15"/>
+    <mergeCell ref="OF15:OT15"/>
+    <mergeCell ref="OU15:PI15"/>
+    <mergeCell ref="JN15:KB15"/>
+    <mergeCell ref="KC15:KQ15"/>
+    <mergeCell ref="KT15:LH15"/>
+    <mergeCell ref="LI15:LW15"/>
+    <mergeCell ref="EX15:FL15"/>
+    <mergeCell ref="FM15:GA15"/>
+    <mergeCell ref="GB15:GP15"/>
+    <mergeCell ref="GQ15:HE15"/>
+    <mergeCell ref="HF15:HT15"/>
+    <mergeCell ref="HU15:II15"/>
     <mergeCell ref="SV14:TY14"/>
     <mergeCell ref="TZ14:VC14"/>
     <mergeCell ref="B15:C15"/>
@@ -44754,84 +44809,54 @@
     <mergeCell ref="RR14:SU14"/>
     <mergeCell ref="IJ15:IX15"/>
     <mergeCell ref="IY15:JM15"/>
-    <mergeCell ref="JN15:KB15"/>
-    <mergeCell ref="KC15:KQ15"/>
-    <mergeCell ref="KT15:LH15"/>
-    <mergeCell ref="LI15:LW15"/>
-    <mergeCell ref="EX15:FL15"/>
-    <mergeCell ref="FM15:GA15"/>
-    <mergeCell ref="GB15:GP15"/>
-    <mergeCell ref="GQ15:HE15"/>
-    <mergeCell ref="HF15:HT15"/>
-    <mergeCell ref="HU15:II15"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="TZ25:VC25"/>
-    <mergeCell ref="TZ27:VC27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="SV15:TJ15"/>
-    <mergeCell ref="TK15:TY15"/>
-    <mergeCell ref="TZ15:UN15"/>
-    <mergeCell ref="UO15:VC15"/>
-    <mergeCell ref="TZ16:VC16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="PJ15:PX15"/>
-    <mergeCell ref="PY15:QM15"/>
-    <mergeCell ref="QN15:RB15"/>
-    <mergeCell ref="RC15:RQ15"/>
-    <mergeCell ref="RR15:SF15"/>
-    <mergeCell ref="SG15:SU15"/>
-    <mergeCell ref="LX15:ML15"/>
-    <mergeCell ref="MM15:NA15"/>
-    <mergeCell ref="NB15:NP15"/>
-    <mergeCell ref="NQ15:OE15"/>
-    <mergeCell ref="OF15:OT15"/>
-    <mergeCell ref="OU15:PI15"/>
-    <mergeCell ref="TZ41:VC41"/>
-    <mergeCell ref="TZ43:VC43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="TZ30:VC30"/>
-    <mergeCell ref="TZ32:VC32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="TZ63:VC63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="TZ66:VC66"/>
-    <mergeCell ref="TZ67:VC67"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="TZ54:VC54"/>
-    <mergeCell ref="TZ56:VC56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="TZ61:VC61"/>
-    <mergeCell ref="KR52:KR53"/>
-    <mergeCell ref="KR57:KR58"/>
-    <mergeCell ref="KR59:KR60"/>
-    <mergeCell ref="KR64:KR65"/>
-    <mergeCell ref="KR4:KS6"/>
-    <mergeCell ref="KR12:KS12"/>
-    <mergeCell ref="KR13:KS13"/>
-    <mergeCell ref="KR14:KS14"/>
-    <mergeCell ref="KR15:KS15"/>
-    <mergeCell ref="KR17:KR18"/>
-    <mergeCell ref="KR19:KR20"/>
-    <mergeCell ref="KR21:KR22"/>
-    <mergeCell ref="KR23:KR24"/>
-    <mergeCell ref="KR28:KR29"/>
-    <mergeCell ref="KR33:KR34"/>
-    <mergeCell ref="KR35:KR36"/>
-    <mergeCell ref="KR37:KR38"/>
-    <mergeCell ref="KR39:KR40"/>
-    <mergeCell ref="KR44:KR45"/>
-    <mergeCell ref="KR46:KR47"/>
-    <mergeCell ref="KR48:KR49"/>
-    <mergeCell ref="KR50:KR51"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:AG14"/>
+    <mergeCell ref="AH14:BK14"/>
+    <mergeCell ref="BL14:CO14"/>
+    <mergeCell ref="CP14:DS14"/>
+    <mergeCell ref="DT14:EW14"/>
+    <mergeCell ref="EX14:GA14"/>
+    <mergeCell ref="GB14:HE14"/>
+    <mergeCell ref="HF14:II14"/>
+    <mergeCell ref="KT12:PI12"/>
+    <mergeCell ref="PJ12:TY12"/>
+    <mergeCell ref="TZ12:VC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:AG13"/>
+    <mergeCell ref="AH13:BK13"/>
+    <mergeCell ref="BL13:CO13"/>
+    <mergeCell ref="CP13:DS13"/>
+    <mergeCell ref="DT13:EW13"/>
+    <mergeCell ref="EX13:GA13"/>
+    <mergeCell ref="TZ13:VC13"/>
+    <mergeCell ref="NB13:OE13"/>
+    <mergeCell ref="OF13:PI13"/>
+    <mergeCell ref="PJ13:QM13"/>
+    <mergeCell ref="QN13:RQ13"/>
+    <mergeCell ref="RR13:SU13"/>
+    <mergeCell ref="SV13:TY13"/>
+    <mergeCell ref="GB13:HE13"/>
+    <mergeCell ref="HF13:II13"/>
+    <mergeCell ref="IJ13:JM13"/>
+    <mergeCell ref="JN13:KQ13"/>
+    <mergeCell ref="KT13:LW13"/>
+    <mergeCell ref="LX13:NA13"/>
+    <mergeCell ref="AO6:BK6"/>
+    <mergeCell ref="B7:BK9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:BK12"/>
+    <mergeCell ref="BL12:GA12"/>
+    <mergeCell ref="GB12:KQ12"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="Q4:BK4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="AB5:AN5"/>
+    <mergeCell ref="AO5:BK5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="Q6:AA6"/>
+    <mergeCell ref="AB6:AN6"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -44855,8 +44880,8 @@
   </sheetPr>
   <dimension ref="B4:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44877,11 +44902,11 @@
       <c r="C5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="261" t="s">
+      <c r="D5" s="232" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="261"/>
-      <c r="F5" s="262"/>
+      <c r="E5" s="232"/>
+      <c r="F5" s="233"/>
       <c r="G5" s="95" t="s">
         <v>38</v>
       </c>
@@ -44890,60 +44915,60 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="248" t="s">
+      <c r="B6" s="239" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="246">
+      <c r="C6" s="226">
         <v>45414</v>
       </c>
-      <c r="D6" s="244" t="s">
+      <c r="D6" s="228" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="226"/>
-      <c r="G6" s="227" t="s">
+      <c r="F6" s="230"/>
+      <c r="G6" s="234" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="97"/>
     </row>
     <row r="7" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="249"/>
-      <c r="C7" s="246"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="225" t="s">
+      <c r="B7" s="240"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="226"/>
-      <c r="G7" s="263"/>
+      <c r="F7" s="230"/>
+      <c r="G7" s="235"/>
       <c r="H7" s="97"/>
     </row>
     <row r="8" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="249"/>
-      <c r="C8" s="247"/>
-      <c r="D8" s="229" t="s">
+      <c r="B8" s="240"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="229"/>
-      <c r="F8" s="257" t="s">
+      <c r="E8" s="223"/>
+      <c r="F8" s="231" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="230"/>
-      <c r="H8" s="231"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="225"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="249"/>
-      <c r="C9" s="245">
+      <c r="B9" s="240"/>
+      <c r="C9" s="236">
         <v>45415</v>
       </c>
-      <c r="D9" s="244" t="s">
+      <c r="D9" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="242" t="s">
+      <c r="E9" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="243"/>
+      <c r="F9" s="238"/>
       <c r="G9" s="130" t="s">
         <v>84</v>
       </c>
@@ -44952,13 +44977,13 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="249"/>
-      <c r="C10" s="246"/>
-      <c r="D10" s="244"/>
-      <c r="E10" s="225" t="s">
+      <c r="B10" s="240"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="226"/>
+      <c r="F10" s="230"/>
       <c r="G10" s="130" t="s">
         <v>85</v>
       </c>
@@ -44967,13 +44992,13 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="249"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="244"/>
-      <c r="E11" s="225" t="s">
+      <c r="B11" s="240"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="226"/>
+      <c r="F11" s="230"/>
       <c r="G11" s="130" t="s">
         <v>89</v>
       </c>
@@ -44982,13 +45007,13 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="249"/>
-      <c r="C12" s="246"/>
-      <c r="D12" s="244"/>
-      <c r="E12" s="225" t="s">
+      <c r="B12" s="240"/>
+      <c r="C12" s="226"/>
+      <c r="D12" s="228"/>
+      <c r="E12" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="226"/>
+      <c r="F12" s="230"/>
       <c r="G12" s="131" t="s">
         <v>86</v>
       </c>
@@ -44997,101 +45022,101 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="250"/>
-      <c r="C13" s="247"/>
-      <c r="D13" s="229" t="s">
+      <c r="B13" s="241"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="229"/>
-      <c r="F13" s="230" t="s">
+      <c r="E13" s="223"/>
+      <c r="F13" s="224" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="230"/>
-      <c r="H13" s="231"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="225"/>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="248" t="s">
+      <c r="B14" s="239" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="246">
+      <c r="C14" s="226">
         <v>45418</v>
       </c>
-      <c r="D14" s="244" t="s">
+      <c r="D14" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="225" t="s">
+      <c r="E14" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="226"/>
-      <c r="G14" s="227" t="s">
+      <c r="F14" s="230"/>
+      <c r="G14" s="234" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="228" t="s">
+      <c r="H14" s="263" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="249"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="244"/>
-      <c r="E15" s="225" t="s">
+      <c r="B15" s="240"/>
+      <c r="C15" s="226"/>
+      <c r="D15" s="228"/>
+      <c r="E15" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="226"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="224"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="259"/>
+      <c r="H15" s="261"/>
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="249"/>
-      <c r="C16" s="246"/>
-      <c r="D16" s="244"/>
-      <c r="E16" s="225" t="s">
+      <c r="B16" s="240"/>
+      <c r="C16" s="226"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="226"/>
-      <c r="G16" s="223" t="s">
+      <c r="F16" s="230"/>
+      <c r="G16" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="224" t="s">
+      <c r="H16" s="261" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="249"/>
-      <c r="C17" s="246"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="225" t="s">
+      <c r="B17" s="240"/>
+      <c r="C17" s="226"/>
+      <c r="D17" s="228"/>
+      <c r="E17" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="226"/>
-      <c r="G17" s="240"/>
-      <c r="H17" s="241"/>
+      <c r="F17" s="230"/>
+      <c r="G17" s="260"/>
+      <c r="H17" s="262"/>
     </row>
     <row r="18" spans="2:8" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="249"/>
-      <c r="C18" s="247"/>
-      <c r="D18" s="229" t="s">
+      <c r="B18" s="240"/>
+      <c r="C18" s="227"/>
+      <c r="D18" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="229"/>
-      <c r="F18" s="257" t="s">
+      <c r="E18" s="223"/>
+      <c r="F18" s="231" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="230"/>
-      <c r="H18" s="231"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="225"/>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="249"/>
-      <c r="C19" s="245">
+      <c r="B19" s="240"/>
+      <c r="C19" s="236">
         <v>45420</v>
       </c>
-      <c r="D19" s="244" t="s">
+      <c r="D19" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="242" t="s">
+      <c r="E19" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="243"/>
+      <c r="F19" s="238"/>
       <c r="G19" s="138" t="s">
         <v>99</v>
       </c>
@@ -45100,39 +45125,39 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="249"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="225" t="s">
+      <c r="B20" s="240"/>
+      <c r="C20" s="226"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="226"/>
-      <c r="G20" s="223" t="s">
+      <c r="F20" s="230"/>
+      <c r="G20" s="259" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="224" t="s">
+      <c r="H20" s="261" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="249"/>
-      <c r="C21" s="246"/>
-      <c r="D21" s="244"/>
-      <c r="E21" s="225" t="s">
+      <c r="B21" s="240"/>
+      <c r="C21" s="226"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="226"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="224"/>
+      <c r="F21" s="230"/>
+      <c r="G21" s="259"/>
+      <c r="H21" s="261"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="249"/>
-      <c r="C22" s="246"/>
-      <c r="D22" s="244"/>
-      <c r="E22" s="225" t="s">
+      <c r="B22" s="240"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="228"/>
+      <c r="E22" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="226"/>
+      <c r="F22" s="230"/>
       <c r="G22" s="140" t="s">
         <v>101</v>
       </c>
@@ -45141,849 +45166,964 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="249"/>
-      <c r="C23" s="247"/>
-      <c r="D23" s="229" t="s">
+      <c r="B23" s="240"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="229"/>
-      <c r="F23" s="230" t="s">
+      <c r="E23" s="223"/>
+      <c r="F23" s="224" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="230"/>
-      <c r="H23" s="231"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="225"/>
     </row>
     <row r="24" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="249"/>
-      <c r="C24" s="251">
+      <c r="B24" s="240"/>
+      <c r="C24" s="242">
         <v>45421</v>
       </c>
-      <c r="D24" s="244" t="s">
+      <c r="D24" s="228" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="232" t="s">
+      <c r="E24" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="233"/>
-      <c r="G24" s="255" t="s">
+      <c r="F24" s="245"/>
+      <c r="G24" s="249" t="s">
         <v>57</v>
       </c>
       <c r="H24" s="100"/>
     </row>
     <row r="25" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="249"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="244"/>
-      <c r="E25" s="232" t="s">
+      <c r="B25" s="240"/>
+      <c r="C25" s="242"/>
+      <c r="D25" s="228"/>
+      <c r="E25" s="244" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="233"/>
-      <c r="G25" s="256"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="250"/>
       <c r="H25" s="100"/>
     </row>
     <row r="26" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="249"/>
-      <c r="C26" s="252"/>
-      <c r="D26" s="234" t="s">
+      <c r="B26" s="240"/>
+      <c r="C26" s="243"/>
+      <c r="D26" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="234"/>
-      <c r="F26" s="253"/>
-      <c r="G26" s="253"/>
-      <c r="H26" s="254"/>
+      <c r="E26" s="246"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="248"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="249"/>
-      <c r="C27" s="258">
+      <c r="B27" s="240"/>
+      <c r="C27" s="251">
         <v>45422</v>
       </c>
-      <c r="D27" s="244" t="s">
+      <c r="D27" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="259" t="s">
+      <c r="E27" s="252" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="260"/>
-      <c r="G27" s="237" t="s">
+      <c r="F27" s="253"/>
+      <c r="G27" s="254" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="100"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="249"/>
-      <c r="C28" s="251"/>
-      <c r="D28" s="244"/>
-      <c r="E28" s="232" t="s">
+      <c r="B28" s="240"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="233"/>
-      <c r="G28" s="238"/>
+      <c r="F28" s="245"/>
+      <c r="G28" s="255"/>
       <c r="H28" s="100"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="249"/>
-      <c r="C29" s="251"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="232" t="s">
+      <c r="B29" s="240"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="233"/>
-      <c r="G29" s="238"/>
+      <c r="F29" s="245"/>
+      <c r="G29" s="255"/>
       <c r="H29" s="100"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="249"/>
-      <c r="C30" s="251"/>
-      <c r="D30" s="244"/>
-      <c r="E30" s="232" t="s">
+      <c r="B30" s="240"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="244" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="233"/>
-      <c r="G30" s="239"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="256"/>
       <c r="H30" s="100"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="250"/>
-      <c r="C31" s="252"/>
-      <c r="D31" s="234" t="s">
+      <c r="B31" s="241"/>
+      <c r="C31" s="243"/>
+      <c r="D31" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="234"/>
-      <c r="F31" s="235"/>
-      <c r="G31" s="235"/>
-      <c r="H31" s="236"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="257"/>
+      <c r="G31" s="257"/>
+      <c r="H31" s="258"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="248" t="s">
+      <c r="B32" s="239" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="246">
+      <c r="C32" s="226">
         <v>45425</v>
       </c>
-      <c r="D32" s="244" t="s">
+      <c r="D32" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="225" t="s">
+      <c r="E32" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="226"/>
-      <c r="G32" s="98"/>
+      <c r="F32" s="230"/>
+      <c r="G32" s="264" t="s">
+        <v>104</v>
+      </c>
       <c r="H32" s="97"/>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="249"/>
-      <c r="C33" s="246"/>
-      <c r="D33" s="244"/>
-      <c r="E33" s="225" t="s">
+      <c r="B33" s="240"/>
+      <c r="C33" s="226"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="226"/>
-      <c r="G33" s="98"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="265" t="s">
+        <v>105</v>
+      </c>
       <c r="H33" s="97"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="249"/>
-      <c r="C34" s="246"/>
-      <c r="D34" s="244"/>
-      <c r="E34" s="225" t="s">
+      <c r="B34" s="240"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="226"/>
-      <c r="G34" s="99"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="265" t="s">
+        <v>107</v>
+      </c>
       <c r="H34" s="97"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="249"/>
-      <c r="C35" s="246"/>
-      <c r="D35" s="244"/>
-      <c r="E35" s="225" t="s">
+      <c r="B35" s="240"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="226"/>
-      <c r="G35" s="99"/>
+      <c r="F35" s="230"/>
+      <c r="G35" s="266" t="s">
+        <v>108</v>
+      </c>
       <c r="H35" s="97"/>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="249"/>
-      <c r="C36" s="247"/>
-      <c r="D36" s="229" t="s">
+      <c r="B36" s="240"/>
+      <c r="C36" s="227"/>
+      <c r="D36" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="229"/>
-      <c r="F36" s="230"/>
-      <c r="G36" s="230"/>
-      <c r="H36" s="231"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="224"/>
+      <c r="G36" s="224"/>
+      <c r="H36" s="225"/>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="249"/>
-      <c r="C37" s="245">
+      <c r="B37" s="240"/>
+      <c r="C37" s="236">
         <v>45427</v>
       </c>
-      <c r="D37" s="244" t="s">
+      <c r="D37" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="242" t="s">
+      <c r="E37" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="243"/>
-      <c r="G37" s="98"/>
+      <c r="F37" s="238"/>
+      <c r="G37" s="234" t="s">
+        <v>106</v>
+      </c>
       <c r="H37" s="97"/>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="249"/>
-      <c r="C38" s="246"/>
-      <c r="D38" s="244"/>
-      <c r="E38" s="225" t="s">
+      <c r="B38" s="240"/>
+      <c r="C38" s="226"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="226"/>
-      <c r="G38" s="98"/>
+      <c r="F38" s="230"/>
+      <c r="G38" s="259"/>
       <c r="H38" s="97"/>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="249"/>
-      <c r="C39" s="246"/>
-      <c r="D39" s="244"/>
-      <c r="E39" s="225" t="s">
+      <c r="B39" s="240"/>
+      <c r="C39" s="226"/>
+      <c r="D39" s="228"/>
+      <c r="E39" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="226"/>
+      <c r="F39" s="230"/>
       <c r="G39" s="99"/>
       <c r="H39" s="97"/>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="249"/>
-      <c r="C40" s="246"/>
-      <c r="D40" s="244"/>
-      <c r="E40" s="225" t="s">
+      <c r="B40" s="240"/>
+      <c r="C40" s="226"/>
+      <c r="D40" s="228"/>
+      <c r="E40" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="226"/>
+      <c r="F40" s="230"/>
       <c r="G40" s="99"/>
       <c r="H40" s="97"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="249"/>
-      <c r="C41" s="247"/>
-      <c r="D41" s="229" t="s">
+      <c r="B41" s="240"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="229"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="230"/>
-      <c r="H41" s="231"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="225"/>
     </row>
     <row r="42" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="249"/>
-      <c r="C42" s="246">
+      <c r="B42" s="240"/>
+      <c r="C42" s="226">
         <v>45428</v>
       </c>
-      <c r="D42" s="244" t="s">
+      <c r="D42" s="228" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="225" t="s">
+      <c r="E42" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="226"/>
+      <c r="F42" s="230"/>
       <c r="G42" s="99"/>
       <c r="H42" s="97"/>
     </row>
     <row r="43" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="249"/>
-      <c r="C43" s="246"/>
-      <c r="D43" s="244"/>
-      <c r="E43" s="225" t="s">
+      <c r="B43" s="240"/>
+      <c r="C43" s="226"/>
+      <c r="D43" s="228"/>
+      <c r="E43" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="226"/>
+      <c r="F43" s="230"/>
       <c r="G43" s="99"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="249"/>
-      <c r="C44" s="247"/>
-      <c r="D44" s="229" t="s">
+      <c r="B44" s="240"/>
+      <c r="C44" s="227"/>
+      <c r="D44" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="229"/>
-      <c r="F44" s="230"/>
-      <c r="G44" s="230"/>
-      <c r="H44" s="231"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="224"/>
+      <c r="G44" s="224"/>
+      <c r="H44" s="225"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="249"/>
-      <c r="C45" s="245">
+      <c r="B45" s="240"/>
+      <c r="C45" s="236">
         <v>45429</v>
       </c>
-      <c r="D45" s="244" t="s">
+      <c r="D45" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="242" t="s">
+      <c r="E45" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="243"/>
+      <c r="F45" s="238"/>
       <c r="G45" s="98"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="249"/>
-      <c r="C46" s="246"/>
-      <c r="D46" s="244"/>
-      <c r="E46" s="225" t="s">
+      <c r="B46" s="240"/>
+      <c r="C46" s="226"/>
+      <c r="D46" s="228"/>
+      <c r="E46" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="226"/>
+      <c r="F46" s="230"/>
       <c r="G46" s="98"/>
       <c r="H46" s="97"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="249"/>
-      <c r="C47" s="246"/>
-      <c r="D47" s="244"/>
-      <c r="E47" s="225" t="s">
+      <c r="B47" s="240"/>
+      <c r="C47" s="226"/>
+      <c r="D47" s="228"/>
+      <c r="E47" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="226"/>
+      <c r="F47" s="230"/>
       <c r="G47" s="99"/>
       <c r="H47" s="97"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="249"/>
-      <c r="C48" s="246"/>
-      <c r="D48" s="244"/>
-      <c r="E48" s="225" t="s">
+      <c r="B48" s="240"/>
+      <c r="C48" s="226"/>
+      <c r="D48" s="228"/>
+      <c r="E48" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="226"/>
+      <c r="F48" s="230"/>
       <c r="G48" s="99"/>
       <c r="H48" s="97"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="250"/>
-      <c r="C49" s="247"/>
-      <c r="D49" s="229" t="s">
+      <c r="B49" s="241"/>
+      <c r="C49" s="227"/>
+      <c r="D49" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="229"/>
-      <c r="F49" s="230"/>
-      <c r="G49" s="230"/>
-      <c r="H49" s="231"/>
+      <c r="E49" s="223"/>
+      <c r="F49" s="224"/>
+      <c r="G49" s="224"/>
+      <c r="H49" s="225"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="248" t="s">
+      <c r="B50" s="239" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="251">
+      <c r="C50" s="242">
         <v>45432</v>
       </c>
-      <c r="D50" s="244" t="s">
+      <c r="D50" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="232" t="s">
+      <c r="E50" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="233"/>
-      <c r="G50" s="237" t="s">
+      <c r="F50" s="245"/>
+      <c r="G50" s="254" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="249"/>
-      <c r="C51" s="251"/>
-      <c r="D51" s="244"/>
-      <c r="E51" s="232" t="s">
+      <c r="B51" s="240"/>
+      <c r="C51" s="242"/>
+      <c r="D51" s="228"/>
+      <c r="E51" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="233"/>
-      <c r="G51" s="238"/>
+      <c r="F51" s="245"/>
+      <c r="G51" s="255"/>
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="249"/>
-      <c r="C52" s="251"/>
-      <c r="D52" s="244"/>
-      <c r="E52" s="232" t="s">
+      <c r="B52" s="240"/>
+      <c r="C52" s="242"/>
+      <c r="D52" s="228"/>
+      <c r="E52" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="233"/>
-      <c r="G52" s="238"/>
+      <c r="F52" s="245"/>
+      <c r="G52" s="255"/>
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="249"/>
-      <c r="C53" s="251"/>
-      <c r="D53" s="244"/>
-      <c r="E53" s="232" t="s">
+      <c r="B53" s="240"/>
+      <c r="C53" s="242"/>
+      <c r="D53" s="228"/>
+      <c r="E53" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="233"/>
-      <c r="G53" s="239"/>
+      <c r="F53" s="245"/>
+      <c r="G53" s="256"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="249"/>
-      <c r="C54" s="252"/>
-      <c r="D54" s="234" t="s">
+      <c r="B54" s="240"/>
+      <c r="C54" s="243"/>
+      <c r="D54" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="234"/>
-      <c r="F54" s="253"/>
-      <c r="G54" s="253"/>
-      <c r="H54" s="254"/>
+      <c r="E54" s="246"/>
+      <c r="F54" s="247"/>
+      <c r="G54" s="247"/>
+      <c r="H54" s="248"/>
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="249"/>
-      <c r="C55" s="245">
+      <c r="B55" s="240"/>
+      <c r="C55" s="236">
         <v>45434</v>
       </c>
-      <c r="D55" s="244" t="s">
+      <c r="D55" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="242" t="s">
+      <c r="E55" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="243"/>
+      <c r="F55" s="238"/>
       <c r="G55" s="98"/>
       <c r="H55" s="97"/>
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="249"/>
-      <c r="C56" s="246"/>
-      <c r="D56" s="244"/>
-      <c r="E56" s="225" t="s">
+      <c r="B56" s="240"/>
+      <c r="C56" s="226"/>
+      <c r="D56" s="228"/>
+      <c r="E56" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="226"/>
+      <c r="F56" s="230"/>
       <c r="G56" s="98"/>
       <c r="H56" s="97"/>
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="249"/>
-      <c r="C57" s="246"/>
-      <c r="D57" s="244"/>
-      <c r="E57" s="225" t="s">
+      <c r="B57" s="240"/>
+      <c r="C57" s="226"/>
+      <c r="D57" s="228"/>
+      <c r="E57" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="226"/>
+      <c r="F57" s="230"/>
       <c r="G57" s="99"/>
       <c r="H57" s="97"/>
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="249"/>
-      <c r="C58" s="246"/>
-      <c r="D58" s="244"/>
-      <c r="E58" s="225" t="s">
+      <c r="B58" s="240"/>
+      <c r="C58" s="226"/>
+      <c r="D58" s="228"/>
+      <c r="E58" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="226"/>
+      <c r="F58" s="230"/>
       <c r="G58" s="99"/>
       <c r="H58" s="97"/>
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="249"/>
-      <c r="C59" s="247"/>
-      <c r="D59" s="229" t="s">
+      <c r="B59" s="240"/>
+      <c r="C59" s="227"/>
+      <c r="D59" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="229"/>
-      <c r="F59" s="230"/>
-      <c r="G59" s="230"/>
-      <c r="H59" s="231"/>
+      <c r="E59" s="223"/>
+      <c r="F59" s="224"/>
+      <c r="G59" s="224"/>
+      <c r="H59" s="225"/>
     </row>
     <row r="60" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="249"/>
-      <c r="C60" s="246">
+      <c r="B60" s="240"/>
+      <c r="C60" s="226">
         <v>45435</v>
       </c>
-      <c r="D60" s="244" t="s">
+      <c r="D60" s="228" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="225" t="s">
+      <c r="E60" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="226"/>
+      <c r="F60" s="230"/>
       <c r="G60" s="99"/>
       <c r="H60" s="97"/>
     </row>
     <row r="61" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="249"/>
-      <c r="C61" s="246"/>
-      <c r="D61" s="244"/>
-      <c r="E61" s="225" t="s">
+      <c r="B61" s="240"/>
+      <c r="C61" s="226"/>
+      <c r="D61" s="228"/>
+      <c r="E61" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="226"/>
+      <c r="F61" s="230"/>
       <c r="G61" s="99"/>
       <c r="H61" s="97"/>
     </row>
     <row r="62" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="249"/>
-      <c r="C62" s="247"/>
-      <c r="D62" s="229" t="s">
+      <c r="B62" s="240"/>
+      <c r="C62" s="227"/>
+      <c r="D62" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="229"/>
-      <c r="F62" s="230"/>
-      <c r="G62" s="230"/>
-      <c r="H62" s="231"/>
+      <c r="E62" s="223"/>
+      <c r="F62" s="224"/>
+      <c r="G62" s="224"/>
+      <c r="H62" s="225"/>
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="249"/>
-      <c r="C63" s="245">
+      <c r="B63" s="240"/>
+      <c r="C63" s="236">
         <v>45436</v>
       </c>
-      <c r="D63" s="244" t="s">
+      <c r="D63" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="242" t="s">
+      <c r="E63" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="243"/>
+      <c r="F63" s="238"/>
       <c r="G63" s="98"/>
       <c r="H63" s="97"/>
     </row>
     <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="249"/>
-      <c r="C64" s="246"/>
-      <c r="D64" s="244"/>
-      <c r="E64" s="225" t="s">
+      <c r="B64" s="240"/>
+      <c r="C64" s="226"/>
+      <c r="D64" s="228"/>
+      <c r="E64" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="226"/>
+      <c r="F64" s="230"/>
       <c r="G64" s="98"/>
       <c r="H64" s="97"/>
     </row>
     <row r="65" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="249"/>
-      <c r="C65" s="246"/>
-      <c r="D65" s="244"/>
-      <c r="E65" s="225" t="s">
+      <c r="B65" s="240"/>
+      <c r="C65" s="226"/>
+      <c r="D65" s="228"/>
+      <c r="E65" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="226"/>
+      <c r="F65" s="230"/>
       <c r="G65" s="99"/>
       <c r="H65" s="97"/>
     </row>
     <row r="66" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="249"/>
-      <c r="C66" s="246"/>
-      <c r="D66" s="244"/>
-      <c r="E66" s="225" t="s">
+      <c r="B66" s="240"/>
+      <c r="C66" s="226"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="226"/>
+      <c r="F66" s="230"/>
       <c r="G66" s="99"/>
       <c r="H66" s="97"/>
     </row>
     <row r="67" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="250"/>
-      <c r="C67" s="247"/>
-      <c r="D67" s="229" t="s">
+      <c r="B67" s="241"/>
+      <c r="C67" s="227"/>
+      <c r="D67" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="229"/>
-      <c r="F67" s="230"/>
-      <c r="G67" s="230"/>
-      <c r="H67" s="231"/>
+      <c r="E67" s="223"/>
+      <c r="F67" s="224"/>
+      <c r="G67" s="224"/>
+      <c r="H67" s="225"/>
     </row>
     <row r="68" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="248" t="s">
+      <c r="B68" s="239" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="251">
+      <c r="C68" s="242">
         <v>45439</v>
       </c>
-      <c r="D68" s="244" t="s">
+      <c r="D68" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="232" t="s">
+      <c r="E68" s="244" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="233"/>
-      <c r="G68" s="237" t="s">
+      <c r="F68" s="245"/>
+      <c r="G68" s="254" t="s">
         <v>81</v>
       </c>
       <c r="H68" s="100"/>
     </row>
     <row r="69" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="249"/>
-      <c r="C69" s="251"/>
-      <c r="D69" s="244"/>
-      <c r="E69" s="232" t="s">
+      <c r="B69" s="240"/>
+      <c r="C69" s="242"/>
+      <c r="D69" s="228"/>
+      <c r="E69" s="244" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="233"/>
-      <c r="G69" s="238"/>
+      <c r="F69" s="245"/>
+      <c r="G69" s="255"/>
       <c r="H69" s="100"/>
     </row>
     <row r="70" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="249"/>
-      <c r="C70" s="251"/>
-      <c r="D70" s="244"/>
-      <c r="E70" s="232" t="s">
+      <c r="B70" s="240"/>
+      <c r="C70" s="242"/>
+      <c r="D70" s="228"/>
+      <c r="E70" s="244" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="233"/>
-      <c r="G70" s="238"/>
+      <c r="F70" s="245"/>
+      <c r="G70" s="255"/>
       <c r="H70" s="100"/>
     </row>
     <row r="71" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="249"/>
-      <c r="C71" s="251"/>
-      <c r="D71" s="244"/>
-      <c r="E71" s="232" t="s">
+      <c r="B71" s="240"/>
+      <c r="C71" s="242"/>
+      <c r="D71" s="228"/>
+      <c r="E71" s="244" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="233"/>
-      <c r="G71" s="239"/>
+      <c r="F71" s="245"/>
+      <c r="G71" s="256"/>
       <c r="H71" s="100"/>
     </row>
     <row r="72" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="249"/>
-      <c r="C72" s="252"/>
-      <c r="D72" s="234" t="s">
+      <c r="B72" s="240"/>
+      <c r="C72" s="243"/>
+      <c r="D72" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="234"/>
-      <c r="F72" s="235"/>
-      <c r="G72" s="235"/>
-      <c r="H72" s="236"/>
+      <c r="E72" s="246"/>
+      <c r="F72" s="257"/>
+      <c r="G72" s="257"/>
+      <c r="H72" s="258"/>
     </row>
     <row r="73" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="249"/>
-      <c r="C73" s="245">
+      <c r="B73" s="240"/>
+      <c r="C73" s="236">
         <v>45441</v>
       </c>
-      <c r="D73" s="244" t="s">
+      <c r="D73" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="242" t="s">
+      <c r="E73" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="243"/>
+      <c r="F73" s="238"/>
       <c r="G73" s="98"/>
       <c r="H73" s="97"/>
     </row>
     <row r="74" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="249"/>
-      <c r="C74" s="246"/>
-      <c r="D74" s="244"/>
-      <c r="E74" s="225" t="s">
+      <c r="B74" s="240"/>
+      <c r="C74" s="226"/>
+      <c r="D74" s="228"/>
+      <c r="E74" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="226"/>
+      <c r="F74" s="230"/>
       <c r="G74" s="98"/>
       <c r="H74" s="97"/>
     </row>
     <row r="75" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="249"/>
-      <c r="C75" s="246"/>
-      <c r="D75" s="244"/>
-      <c r="E75" s="225" t="s">
+      <c r="B75" s="240"/>
+      <c r="C75" s="226"/>
+      <c r="D75" s="228"/>
+      <c r="E75" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="226"/>
+      <c r="F75" s="230"/>
       <c r="G75" s="99"/>
       <c r="H75" s="97"/>
     </row>
     <row r="76" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="249"/>
-      <c r="C76" s="246"/>
-      <c r="D76" s="244"/>
-      <c r="E76" s="225" t="s">
+      <c r="B76" s="240"/>
+      <c r="C76" s="226"/>
+      <c r="D76" s="228"/>
+      <c r="E76" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="226"/>
+      <c r="F76" s="230"/>
       <c r="G76" s="99"/>
       <c r="H76" s="97"/>
     </row>
     <row r="77" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="249"/>
-      <c r="C77" s="247"/>
-      <c r="D77" s="229" t="s">
+      <c r="B77" s="240"/>
+      <c r="C77" s="227"/>
+      <c r="D77" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="229"/>
-      <c r="F77" s="230"/>
-      <c r="G77" s="230"/>
-      <c r="H77" s="231"/>
+      <c r="E77" s="223"/>
+      <c r="F77" s="224"/>
+      <c r="G77" s="224"/>
+      <c r="H77" s="225"/>
     </row>
     <row r="78" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="249"/>
-      <c r="C78" s="246">
+      <c r="B78" s="240"/>
+      <c r="C78" s="226">
         <v>45442</v>
       </c>
-      <c r="D78" s="244" t="s">
+      <c r="D78" s="228" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="225" t="s">
+      <c r="E78" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="226"/>
+      <c r="F78" s="230"/>
       <c r="G78" s="99"/>
       <c r="H78" s="97"/>
     </row>
     <row r="79" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="249"/>
-      <c r="C79" s="246"/>
-      <c r="D79" s="244"/>
-      <c r="E79" s="225" t="s">
+      <c r="B79" s="240"/>
+      <c r="C79" s="226"/>
+      <c r="D79" s="228"/>
+      <c r="E79" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="226"/>
+      <c r="F79" s="230"/>
       <c r="G79" s="99"/>
       <c r="H79" s="97"/>
     </row>
     <row r="80" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="249"/>
-      <c r="C80" s="247"/>
-      <c r="D80" s="229" t="s">
+      <c r="B80" s="240"/>
+      <c r="C80" s="227"/>
+      <c r="D80" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="229"/>
-      <c r="F80" s="230"/>
-      <c r="G80" s="230"/>
-      <c r="H80" s="231"/>
+      <c r="E80" s="223"/>
+      <c r="F80" s="224"/>
+      <c r="G80" s="224"/>
+      <c r="H80" s="225"/>
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="249"/>
-      <c r="C81" s="245">
+      <c r="B81" s="240"/>
+      <c r="C81" s="236">
         <v>45443</v>
       </c>
-      <c r="D81" s="244" t="s">
+      <c r="D81" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="242" t="s">
+      <c r="E81" s="237" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="243"/>
+      <c r="F81" s="238"/>
       <c r="G81" s="98"/>
       <c r="H81" s="97"/>
     </row>
     <row r="82" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="249"/>
-      <c r="C82" s="246"/>
-      <c r="D82" s="244"/>
-      <c r="E82" s="225" t="s">
+      <c r="B82" s="240"/>
+      <c r="C82" s="226"/>
+      <c r="D82" s="228"/>
+      <c r="E82" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="226"/>
+      <c r="F82" s="230"/>
       <c r="G82" s="98"/>
       <c r="H82" s="97"/>
     </row>
     <row r="83" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="249"/>
-      <c r="C83" s="246"/>
-      <c r="D83" s="244"/>
-      <c r="E83" s="225" t="s">
+      <c r="B83" s="240"/>
+      <c r="C83" s="226"/>
+      <c r="D83" s="228"/>
+      <c r="E83" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="226"/>
+      <c r="F83" s="230"/>
       <c r="G83" s="99"/>
       <c r="H83" s="97"/>
     </row>
     <row r="84" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="249"/>
-      <c r="C84" s="246"/>
-      <c r="D84" s="244"/>
-      <c r="E84" s="225" t="s">
+      <c r="B84" s="240"/>
+      <c r="C84" s="226"/>
+      <c r="D84" s="228"/>
+      <c r="E84" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="226"/>
+      <c r="F84" s="230"/>
       <c r="G84" s="99"/>
       <c r="H84" s="97"/>
     </row>
     <row r="85" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="250"/>
-      <c r="C85" s="247"/>
-      <c r="D85" s="229" t="s">
+      <c r="B85" s="241"/>
+      <c r="C85" s="227"/>
+      <c r="D85" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="229"/>
-      <c r="F85" s="230"/>
-      <c r="G85" s="230"/>
-      <c r="H85" s="231"/>
+      <c r="E85" s="223"/>
+      <c r="F85" s="224"/>
+      <c r="G85" s="224"/>
+      <c r="H85" s="225"/>
     </row>
     <row r="86" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="248" t="s">
+      <c r="B86" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="246">
+      <c r="C86" s="226">
         <v>45446</v>
       </c>
-      <c r="D86" s="244" t="s">
+      <c r="D86" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="225" t="s">
+      <c r="E86" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="226"/>
+      <c r="F86" s="230"/>
       <c r="G86" s="98"/>
       <c r="H86" s="97"/>
     </row>
     <row r="87" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="249"/>
-      <c r="C87" s="246"/>
-      <c r="D87" s="244"/>
-      <c r="E87" s="225" t="s">
+      <c r="B87" s="240"/>
+      <c r="C87" s="226"/>
+      <c r="D87" s="228"/>
+      <c r="E87" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="226"/>
+      <c r="F87" s="230"/>
       <c r="G87" s="98"/>
       <c r="H87" s="97"/>
     </row>
     <row r="88" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="249"/>
-      <c r="C88" s="246"/>
-      <c r="D88" s="244"/>
-      <c r="E88" s="225" t="s">
+      <c r="B88" s="240"/>
+      <c r="C88" s="226"/>
+      <c r="D88" s="228"/>
+      <c r="E88" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="226"/>
+      <c r="F88" s="230"/>
       <c r="G88" s="99"/>
       <c r="H88" s="97"/>
     </row>
     <row r="89" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="249"/>
-      <c r="C89" s="246"/>
-      <c r="D89" s="244"/>
-      <c r="E89" s="225" t="s">
+      <c r="B89" s="240"/>
+      <c r="C89" s="226"/>
+      <c r="D89" s="228"/>
+      <c r="E89" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="226"/>
+      <c r="F89" s="230"/>
       <c r="G89" s="99"/>
       <c r="H89" s="97"/>
     </row>
     <row r="90" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="250"/>
-      <c r="C90" s="247"/>
-      <c r="D90" s="229" t="s">
+      <c r="B90" s="241"/>
+      <c r="C90" s="227"/>
+      <c r="D90" s="223" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="229"/>
-      <c r="F90" s="230"/>
-      <c r="G90" s="230"/>
-      <c r="H90" s="231"/>
+      <c r="E90" s="223"/>
+      <c r="F90" s="224"/>
+      <c r="G90" s="224"/>
+      <c r="H90" s="225"/>
     </row>
   </sheetData>
-  <mergeCells count="160">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+  <mergeCells count="161">
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B68:B85"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="B32:B49"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B31"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="B86:B90"/>
     <mergeCell ref="C86:C90"/>
     <mergeCell ref="C81:C85"/>
@@ -46008,126 +46148,22 @@
     <mergeCell ref="E61:F61"/>
     <mergeCell ref="D62:E62"/>
     <mergeCell ref="E64:F64"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B31"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B32:B49"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B68:B85"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="G27:G30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H12" r:id="rId1" xr:uid="{A2C1CB60-4940-405A-AF22-2260F5964F0A}"/>

--- a/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
+++ b/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq34bsi\Desktop\TPI-GestionApiculture\doc\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1527B911-60A7-4E41-8C9F-533E8BB721B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E0CFF3-DE72-4640-9407-9039F77E3C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="420" windowWidth="21600" windowHeight="11385" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planification" sheetId="16" r:id="rId1"/>
     <sheet name="JournalDeTravail" sheetId="13" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">JournalDeTravail!$B$5:$H$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">JournalDeTravail!$B$5:$H$49</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Planification!$B$4:$VC$67</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="113">
   <si>
     <t>Nom, Prénom</t>
   </si>
@@ -397,6 +397,19 @@
   </si>
   <si>
     <t>Tests des différents endpoints de l'API</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport (Maquettes, API)
++ Réalisation de schémas du fonctionnement de l'API sur Figma pour le rapport</t>
+  </si>
+  <si>
+    <t>https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/sourceCode/server/api</t>
+  </si>
+  <si>
+    <t>J'ai pu terminer les CRUD plus tôt que prévu, je suis satisfais de mon travail</t>
+  </si>
+  <si>
+    <t>Avec l'avance prise sur la plannification, j'ai pu prendre le temps de créer un schémas pour mon rapport et le remplir un peu plus. Tout va pour le mieu</t>
   </si>
 </sst>
 </file>
@@ -1694,7 +1707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2001,6 +2014,183 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="20" fontId="15" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2025,20 +2215,8 @@
     <xf numFmtId="20" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2091,158 +2269,23 @@
     <xf numFmtId="20" fontId="8" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2253,44 +2296,53 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2307,15 +2359,6 @@
     <xf numFmtId="165" fontId="12" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2328,6 +2371,9 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="12" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2337,44 +2383,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3842,74 +3861,74 @@
     </row>
     <row r="4" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="155" t="s">
+      <c r="B4" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="156"/>
-      <c r="D4" s="161" t="s">
+      <c r="C4" s="211"/>
+      <c r="D4" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
-      <c r="I4" s="162"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="162"/>
-      <c r="L4" s="162"/>
-      <c r="M4" s="162"/>
-      <c r="N4" s="162"/>
-      <c r="O4" s="162"/>
-      <c r="P4" s="162"/>
-      <c r="Q4" s="163" t="s">
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="G4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+      <c r="J4" s="217"/>
+      <c r="K4" s="217"/>
+      <c r="L4" s="217"/>
+      <c r="M4" s="217"/>
+      <c r="N4" s="217"/>
+      <c r="O4" s="217"/>
+      <c r="P4" s="217"/>
+      <c r="Q4" s="218" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="163"/>
-      <c r="S4" s="163"/>
-      <c r="T4" s="163"/>
-      <c r="U4" s="163"/>
-      <c r="V4" s="163"/>
-      <c r="W4" s="163"/>
-      <c r="X4" s="163"/>
-      <c r="Y4" s="163"/>
-      <c r="Z4" s="163"/>
-      <c r="AA4" s="163"/>
-      <c r="AB4" s="163"/>
-      <c r="AC4" s="163"/>
-      <c r="AD4" s="163"/>
-      <c r="AE4" s="163"/>
-      <c r="AF4" s="163"/>
-      <c r="AG4" s="163"/>
-      <c r="AH4" s="163"/>
-      <c r="AI4" s="163"/>
-      <c r="AJ4" s="163"/>
-      <c r="AK4" s="163"/>
-      <c r="AL4" s="163"/>
-      <c r="AM4" s="163"/>
-      <c r="AN4" s="163"/>
-      <c r="AO4" s="163"/>
-      <c r="AP4" s="163"/>
-      <c r="AQ4" s="163"/>
-      <c r="AR4" s="163"/>
-      <c r="AS4" s="163"/>
-      <c r="AT4" s="163"/>
-      <c r="AU4" s="163"/>
-      <c r="AV4" s="163"/>
-      <c r="AW4" s="163"/>
-      <c r="AX4" s="163"/>
-      <c r="AY4" s="163"/>
-      <c r="AZ4" s="163"/>
-      <c r="BA4" s="163"/>
-      <c r="BB4" s="163"/>
-      <c r="BC4" s="163"/>
-      <c r="BD4" s="163"/>
-      <c r="BE4" s="163"/>
-      <c r="BF4" s="163"/>
-      <c r="BG4" s="163"/>
-      <c r="BH4" s="163"/>
-      <c r="BI4" s="163"/>
-      <c r="BJ4" s="163"/>
-      <c r="BK4" s="164"/>
+      <c r="R4" s="218"/>
+      <c r="S4" s="218"/>
+      <c r="T4" s="218"/>
+      <c r="U4" s="218"/>
+      <c r="V4" s="218"/>
+      <c r="W4" s="218"/>
+      <c r="X4" s="218"/>
+      <c r="Y4" s="218"/>
+      <c r="Z4" s="218"/>
+      <c r="AA4" s="218"/>
+      <c r="AB4" s="218"/>
+      <c r="AC4" s="218"/>
+      <c r="AD4" s="218"/>
+      <c r="AE4" s="218"/>
+      <c r="AF4" s="218"/>
+      <c r="AG4" s="218"/>
+      <c r="AH4" s="218"/>
+      <c r="AI4" s="218"/>
+      <c r="AJ4" s="218"/>
+      <c r="AK4" s="218"/>
+      <c r="AL4" s="218"/>
+      <c r="AM4" s="218"/>
+      <c r="AN4" s="218"/>
+      <c r="AO4" s="218"/>
+      <c r="AP4" s="218"/>
+      <c r="AQ4" s="218"/>
+      <c r="AR4" s="218"/>
+      <c r="AS4" s="218"/>
+      <c r="AT4" s="218"/>
+      <c r="AU4" s="218"/>
+      <c r="AV4" s="218"/>
+      <c r="AW4" s="218"/>
+      <c r="AX4" s="218"/>
+      <c r="AY4" s="218"/>
+      <c r="AZ4" s="218"/>
+      <c r="BA4" s="218"/>
+      <c r="BB4" s="218"/>
+      <c r="BC4" s="218"/>
+      <c r="BD4" s="218"/>
+      <c r="BE4" s="218"/>
+      <c r="BF4" s="218"/>
+      <c r="BG4" s="218"/>
+      <c r="BH4" s="218"/>
+      <c r="BI4" s="218"/>
+      <c r="BJ4" s="218"/>
+      <c r="BK4" s="219"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
@@ -4150,8 +4169,8 @@
       <c r="KO4" s="6"/>
       <c r="KP4" s="6"/>
       <c r="KQ4" s="6"/>
-      <c r="KR4" s="219"/>
-      <c r="KS4" s="219"/>
+      <c r="KR4" s="151"/>
+      <c r="KS4" s="151"/>
       <c r="KT4" s="6"/>
       <c r="KU4" s="6"/>
       <c r="KV4" s="6"/>
@@ -4425,76 +4444,76 @@
     </row>
     <row r="5" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="165" t="s">
+      <c r="B5" s="212"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="220" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="166"/>
-      <c r="Q5" s="167" t="s">
+      <c r="E5" s="221"/>
+      <c r="F5" s="221"/>
+      <c r="G5" s="221"/>
+      <c r="H5" s="221"/>
+      <c r="I5" s="221"/>
+      <c r="J5" s="221"/>
+      <c r="K5" s="221"/>
+      <c r="L5" s="221"/>
+      <c r="M5" s="221"/>
+      <c r="N5" s="221"/>
+      <c r="O5" s="221"/>
+      <c r="P5" s="221"/>
+      <c r="Q5" s="222" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="167"/>
-      <c r="S5" s="167"/>
-      <c r="T5" s="167"/>
-      <c r="U5" s="167"/>
-      <c r="V5" s="167"/>
-      <c r="W5" s="167"/>
-      <c r="X5" s="167"/>
-      <c r="Y5" s="167"/>
-      <c r="Z5" s="167"/>
-      <c r="AA5" s="167"/>
-      <c r="AB5" s="166" t="s">
+      <c r="R5" s="222"/>
+      <c r="S5" s="222"/>
+      <c r="T5" s="222"/>
+      <c r="U5" s="222"/>
+      <c r="V5" s="222"/>
+      <c r="W5" s="222"/>
+      <c r="X5" s="222"/>
+      <c r="Y5" s="222"/>
+      <c r="Z5" s="222"/>
+      <c r="AA5" s="222"/>
+      <c r="AB5" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="166"/>
-      <c r="AD5" s="166"/>
-      <c r="AE5" s="166"/>
-      <c r="AF5" s="166"/>
-      <c r="AG5" s="166"/>
-      <c r="AH5" s="166"/>
-      <c r="AI5" s="166"/>
-      <c r="AJ5" s="166"/>
-      <c r="AK5" s="166"/>
-      <c r="AL5" s="166"/>
-      <c r="AM5" s="166"/>
-      <c r="AN5" s="166"/>
-      <c r="AO5" s="167" t="s">
+      <c r="AC5" s="221"/>
+      <c r="AD5" s="221"/>
+      <c r="AE5" s="221"/>
+      <c r="AF5" s="221"/>
+      <c r="AG5" s="221"/>
+      <c r="AH5" s="221"/>
+      <c r="AI5" s="221"/>
+      <c r="AJ5" s="221"/>
+      <c r="AK5" s="221"/>
+      <c r="AL5" s="221"/>
+      <c r="AM5" s="221"/>
+      <c r="AN5" s="221"/>
+      <c r="AO5" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="AP5" s="167"/>
-      <c r="AQ5" s="167"/>
-      <c r="AR5" s="167"/>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="167"/>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="167"/>
-      <c r="AW5" s="167"/>
-      <c r="AX5" s="167"/>
-      <c r="AY5" s="167"/>
-      <c r="AZ5" s="167"/>
-      <c r="BA5" s="167"/>
-      <c r="BB5" s="167"/>
-      <c r="BC5" s="167"/>
-      <c r="BD5" s="167"/>
-      <c r="BE5" s="167"/>
-      <c r="BF5" s="167"/>
-      <c r="BG5" s="167"/>
-      <c r="BH5" s="167"/>
-      <c r="BI5" s="167"/>
-      <c r="BJ5" s="167"/>
-      <c r="BK5" s="168"/>
+      <c r="AP5" s="222"/>
+      <c r="AQ5" s="222"/>
+      <c r="AR5" s="222"/>
+      <c r="AS5" s="222"/>
+      <c r="AT5" s="222"/>
+      <c r="AU5" s="222"/>
+      <c r="AV5" s="222"/>
+      <c r="AW5" s="222"/>
+      <c r="AX5" s="222"/>
+      <c r="AY5" s="222"/>
+      <c r="AZ5" s="222"/>
+      <c r="BA5" s="222"/>
+      <c r="BB5" s="222"/>
+      <c r="BC5" s="222"/>
+      <c r="BD5" s="222"/>
+      <c r="BE5" s="222"/>
+      <c r="BF5" s="222"/>
+      <c r="BG5" s="222"/>
+      <c r="BH5" s="222"/>
+      <c r="BI5" s="222"/>
+      <c r="BJ5" s="222"/>
+      <c r="BK5" s="223"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
@@ -4735,8 +4754,8 @@
       <c r="KO5" s="6"/>
       <c r="KP5" s="6"/>
       <c r="KQ5" s="6"/>
-      <c r="KR5" s="219"/>
-      <c r="KS5" s="219"/>
+      <c r="KR5" s="151"/>
+      <c r="KS5" s="151"/>
       <c r="KT5" s="6"/>
       <c r="KU5" s="6"/>
       <c r="KV5" s="6"/>
@@ -5010,76 +5029,76 @@
     </row>
     <row r="6" spans="1:575" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="159"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="169" t="s">
+      <c r="B6" s="214"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="224" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="171" t="s">
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="225"/>
+      <c r="P6" s="225"/>
+      <c r="Q6" s="226" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="170" t="s">
+      <c r="R6" s="226"/>
+      <c r="S6" s="226"/>
+      <c r="T6" s="226"/>
+      <c r="U6" s="226"/>
+      <c r="V6" s="226"/>
+      <c r="W6" s="226"/>
+      <c r="X6" s="226"/>
+      <c r="Y6" s="226"/>
+      <c r="Z6" s="226"/>
+      <c r="AA6" s="226"/>
+      <c r="AB6" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="170"/>
-      <c r="AD6" s="170"/>
-      <c r="AE6" s="170"/>
-      <c r="AF6" s="170"/>
-      <c r="AG6" s="170"/>
-      <c r="AH6" s="170"/>
-      <c r="AI6" s="170"/>
-      <c r="AJ6" s="170"/>
-      <c r="AK6" s="170"/>
-      <c r="AL6" s="170"/>
-      <c r="AM6" s="170"/>
-      <c r="AN6" s="170"/>
-      <c r="AO6" s="142" t="s">
+      <c r="AC6" s="225"/>
+      <c r="AD6" s="225"/>
+      <c r="AE6" s="225"/>
+      <c r="AF6" s="225"/>
+      <c r="AG6" s="225"/>
+      <c r="AH6" s="225"/>
+      <c r="AI6" s="225"/>
+      <c r="AJ6" s="225"/>
+      <c r="AK6" s="225"/>
+      <c r="AL6" s="225"/>
+      <c r="AM6" s="225"/>
+      <c r="AN6" s="225"/>
+      <c r="AO6" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="142"/>
-      <c r="AQ6" s="142"/>
-      <c r="AR6" s="142"/>
-      <c r="AS6" s="142"/>
-      <c r="AT6" s="142"/>
-      <c r="AU6" s="142"/>
-      <c r="AV6" s="142"/>
-      <c r="AW6" s="142"/>
-      <c r="AX6" s="142"/>
-      <c r="AY6" s="142"/>
-      <c r="AZ6" s="142"/>
-      <c r="BA6" s="142"/>
-      <c r="BB6" s="142"/>
-      <c r="BC6" s="142"/>
-      <c r="BD6" s="142"/>
-      <c r="BE6" s="142"/>
-      <c r="BF6" s="142"/>
-      <c r="BG6" s="142"/>
-      <c r="BH6" s="142"/>
-      <c r="BI6" s="142"/>
-      <c r="BJ6" s="142"/>
-      <c r="BK6" s="143"/>
+      <c r="AP6" s="201"/>
+      <c r="AQ6" s="201"/>
+      <c r="AR6" s="201"/>
+      <c r="AS6" s="201"/>
+      <c r="AT6" s="201"/>
+      <c r="AU6" s="201"/>
+      <c r="AV6" s="201"/>
+      <c r="AW6" s="201"/>
+      <c r="AX6" s="201"/>
+      <c r="AY6" s="201"/>
+      <c r="AZ6" s="201"/>
+      <c r="BA6" s="201"/>
+      <c r="BB6" s="201"/>
+      <c r="BC6" s="201"/>
+      <c r="BD6" s="201"/>
+      <c r="BE6" s="201"/>
+      <c r="BF6" s="201"/>
+      <c r="BG6" s="201"/>
+      <c r="BH6" s="201"/>
+      <c r="BI6" s="201"/>
+      <c r="BJ6" s="201"/>
+      <c r="BK6" s="202"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8"/>
@@ -5320,8 +5339,8 @@
       <c r="KO6" s="6"/>
       <c r="KP6" s="6"/>
       <c r="KQ6" s="6"/>
-      <c r="KR6" s="219"/>
-      <c r="KS6" s="219"/>
+      <c r="KR6" s="151"/>
+      <c r="KS6" s="151"/>
       <c r="KT6" s="6"/>
       <c r="KU6" s="6"/>
       <c r="KV6" s="6"/>
@@ -5595,70 +5614,70 @@
     </row>
     <row r="7" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="145"/>
-      <c r="R7" s="145"/>
-      <c r="S7" s="145"/>
-      <c r="T7" s="145"/>
-      <c r="U7" s="145"/>
-      <c r="V7" s="145"/>
-      <c r="W7" s="145"/>
-      <c r="X7" s="145"/>
-      <c r="Y7" s="145"/>
-      <c r="Z7" s="145"/>
-      <c r="AA7" s="145"/>
-      <c r="AB7" s="145"/>
-      <c r="AC7" s="145"/>
-      <c r="AD7" s="145"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="145"/>
-      <c r="AG7" s="145"/>
-      <c r="AH7" s="145"/>
-      <c r="AI7" s="145"/>
-      <c r="AJ7" s="145"/>
-      <c r="AK7" s="145"/>
-      <c r="AL7" s="145"/>
-      <c r="AM7" s="145"/>
-      <c r="AN7" s="145"/>
-      <c r="AO7" s="145"/>
-      <c r="AP7" s="145"/>
-      <c r="AQ7" s="145"/>
-      <c r="AR7" s="145"/>
-      <c r="AS7" s="145"/>
-      <c r="AT7" s="145"/>
-      <c r="AU7" s="145"/>
-      <c r="AV7" s="145"/>
-      <c r="AW7" s="145"/>
-      <c r="AX7" s="145"/>
-      <c r="AY7" s="145"/>
-      <c r="AZ7" s="145"/>
-      <c r="BA7" s="145"/>
-      <c r="BB7" s="145"/>
-      <c r="BC7" s="145"/>
-      <c r="BD7" s="145"/>
-      <c r="BE7" s="145"/>
-      <c r="BF7" s="145"/>
-      <c r="BG7" s="145"/>
-      <c r="BH7" s="145"/>
-      <c r="BI7" s="145"/>
-      <c r="BJ7" s="145"/>
-      <c r="BK7" s="146"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="204"/>
+      <c r="Q7" s="204"/>
+      <c r="R7" s="204"/>
+      <c r="S7" s="204"/>
+      <c r="T7" s="204"/>
+      <c r="U7" s="204"/>
+      <c r="V7" s="204"/>
+      <c r="W7" s="204"/>
+      <c r="X7" s="204"/>
+      <c r="Y7" s="204"/>
+      <c r="Z7" s="204"/>
+      <c r="AA7" s="204"/>
+      <c r="AB7" s="204"/>
+      <c r="AC7" s="204"/>
+      <c r="AD7" s="204"/>
+      <c r="AE7" s="204"/>
+      <c r="AF7" s="204"/>
+      <c r="AG7" s="204"/>
+      <c r="AH7" s="204"/>
+      <c r="AI7" s="204"/>
+      <c r="AJ7" s="204"/>
+      <c r="AK7" s="204"/>
+      <c r="AL7" s="204"/>
+      <c r="AM7" s="204"/>
+      <c r="AN7" s="204"/>
+      <c r="AO7" s="204"/>
+      <c r="AP7" s="204"/>
+      <c r="AQ7" s="204"/>
+      <c r="AR7" s="204"/>
+      <c r="AS7" s="204"/>
+      <c r="AT7" s="204"/>
+      <c r="AU7" s="204"/>
+      <c r="AV7" s="204"/>
+      <c r="AW7" s="204"/>
+      <c r="AX7" s="204"/>
+      <c r="AY7" s="204"/>
+      <c r="AZ7" s="204"/>
+      <c r="BA7" s="204"/>
+      <c r="BB7" s="204"/>
+      <c r="BC7" s="204"/>
+      <c r="BD7" s="204"/>
+      <c r="BE7" s="204"/>
+      <c r="BF7" s="204"/>
+      <c r="BG7" s="204"/>
+      <c r="BH7" s="204"/>
+      <c r="BI7" s="204"/>
+      <c r="BJ7" s="204"/>
+      <c r="BK7" s="205"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9"/>
@@ -6174,68 +6193,68 @@
     </row>
     <row r="8" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="145"/>
-      <c r="D8" s="145"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="145"/>
-      <c r="Q8" s="145"/>
-      <c r="R8" s="145"/>
-      <c r="S8" s="145"/>
-      <c r="T8" s="145"/>
-      <c r="U8" s="145"/>
-      <c r="V8" s="145"/>
-      <c r="W8" s="145"/>
-      <c r="X8" s="145"/>
-      <c r="Y8" s="145"/>
-      <c r="Z8" s="145"/>
-      <c r="AA8" s="145"/>
-      <c r="AB8" s="145"/>
-      <c r="AC8" s="145"/>
-      <c r="AD8" s="145"/>
-      <c r="AE8" s="145"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="145"/>
-      <c r="AJ8" s="145"/>
-      <c r="AK8" s="145"/>
-      <c r="AL8" s="145"/>
-      <c r="AM8" s="145"/>
-      <c r="AN8" s="145"/>
-      <c r="AO8" s="145"/>
-      <c r="AP8" s="145"/>
-      <c r="AQ8" s="145"/>
-      <c r="AR8" s="145"/>
-      <c r="AS8" s="145"/>
-      <c r="AT8" s="145"/>
-      <c r="AU8" s="145"/>
-      <c r="AV8" s="145"/>
-      <c r="AW8" s="145"/>
-      <c r="AX8" s="145"/>
-      <c r="AY8" s="145"/>
-      <c r="AZ8" s="145"/>
-      <c r="BA8" s="145"/>
-      <c r="BB8" s="145"/>
-      <c r="BC8" s="145"/>
-      <c r="BD8" s="145"/>
-      <c r="BE8" s="145"/>
-      <c r="BF8" s="145"/>
-      <c r="BG8" s="145"/>
-      <c r="BH8" s="145"/>
-      <c r="BI8" s="145"/>
-      <c r="BJ8" s="145"/>
-      <c r="BK8" s="146"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="204"/>
+      <c r="E8" s="204"/>
+      <c r="F8" s="204"/>
+      <c r="G8" s="204"/>
+      <c r="H8" s="204"/>
+      <c r="I8" s="204"/>
+      <c r="J8" s="204"/>
+      <c r="K8" s="204"/>
+      <c r="L8" s="204"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="204"/>
+      <c r="Q8" s="204"/>
+      <c r="R8" s="204"/>
+      <c r="S8" s="204"/>
+      <c r="T8" s="204"/>
+      <c r="U8" s="204"/>
+      <c r="V8" s="204"/>
+      <c r="W8" s="204"/>
+      <c r="X8" s="204"/>
+      <c r="Y8" s="204"/>
+      <c r="Z8" s="204"/>
+      <c r="AA8" s="204"/>
+      <c r="AB8" s="204"/>
+      <c r="AC8" s="204"/>
+      <c r="AD8" s="204"/>
+      <c r="AE8" s="204"/>
+      <c r="AF8" s="204"/>
+      <c r="AG8" s="204"/>
+      <c r="AH8" s="204"/>
+      <c r="AI8" s="204"/>
+      <c r="AJ8" s="204"/>
+      <c r="AK8" s="204"/>
+      <c r="AL8" s="204"/>
+      <c r="AM8" s="204"/>
+      <c r="AN8" s="204"/>
+      <c r="AO8" s="204"/>
+      <c r="AP8" s="204"/>
+      <c r="AQ8" s="204"/>
+      <c r="AR8" s="204"/>
+      <c r="AS8" s="204"/>
+      <c r="AT8" s="204"/>
+      <c r="AU8" s="204"/>
+      <c r="AV8" s="204"/>
+      <c r="AW8" s="204"/>
+      <c r="AX8" s="204"/>
+      <c r="AY8" s="204"/>
+      <c r="AZ8" s="204"/>
+      <c r="BA8" s="204"/>
+      <c r="BB8" s="204"/>
+      <c r="BC8" s="204"/>
+      <c r="BD8" s="204"/>
+      <c r="BE8" s="204"/>
+      <c r="BF8" s="204"/>
+      <c r="BG8" s="204"/>
+      <c r="BH8" s="204"/>
+      <c r="BI8" s="204"/>
+      <c r="BJ8" s="204"/>
+      <c r="BK8" s="205"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
@@ -6751,68 +6770,68 @@
     </row>
     <row r="9" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="147"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="148"/>
-      <c r="F9" s="148"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="148"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="148"/>
-      <c r="N9" s="148"/>
-      <c r="O9" s="148"/>
-      <c r="P9" s="148"/>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="148"/>
-      <c r="AI9" s="148"/>
-      <c r="AJ9" s="148"/>
-      <c r="AK9" s="148"/>
-      <c r="AL9" s="148"/>
-      <c r="AM9" s="148"/>
-      <c r="AN9" s="148"/>
-      <c r="AO9" s="148"/>
-      <c r="AP9" s="148"/>
-      <c r="AQ9" s="148"/>
-      <c r="AR9" s="148"/>
-      <c r="AS9" s="148"/>
-      <c r="AT9" s="148"/>
-      <c r="AU9" s="148"/>
-      <c r="AV9" s="148"/>
-      <c r="AW9" s="148"/>
-      <c r="AX9" s="148"/>
-      <c r="AY9" s="148"/>
-      <c r="AZ9" s="148"/>
-      <c r="BA9" s="148"/>
-      <c r="BB9" s="148"/>
-      <c r="BC9" s="148"/>
-      <c r="BD9" s="148"/>
-      <c r="BE9" s="148"/>
-      <c r="BF9" s="148"/>
-      <c r="BG9" s="148"/>
-      <c r="BH9" s="148"/>
-      <c r="BI9" s="148"/>
-      <c r="BJ9" s="148"/>
-      <c r="BK9" s="149"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="207"/>
+      <c r="D9" s="207"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="207"/>
+      <c r="Q9" s="207"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="207"/>
+      <c r="U9" s="207"/>
+      <c r="V9" s="207"/>
+      <c r="W9" s="207"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="207"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="207"/>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207"/>
+      <c r="AE9" s="207"/>
+      <c r="AF9" s="207"/>
+      <c r="AG9" s="207"/>
+      <c r="AH9" s="207"/>
+      <c r="AI9" s="207"/>
+      <c r="AJ9" s="207"/>
+      <c r="AK9" s="207"/>
+      <c r="AL9" s="207"/>
+      <c r="AM9" s="207"/>
+      <c r="AN9" s="207"/>
+      <c r="AO9" s="207"/>
+      <c r="AP9" s="207"/>
+      <c r="AQ9" s="207"/>
+      <c r="AR9" s="207"/>
+      <c r="AS9" s="207"/>
+      <c r="AT9" s="207"/>
+      <c r="AU9" s="207"/>
+      <c r="AV9" s="207"/>
+      <c r="AW9" s="207"/>
+      <c r="AX9" s="207"/>
+      <c r="AY9" s="207"/>
+      <c r="AZ9" s="207"/>
+      <c r="BA9" s="207"/>
+      <c r="BB9" s="207"/>
+      <c r="BC9" s="207"/>
+      <c r="BD9" s="207"/>
+      <c r="BE9" s="207"/>
+      <c r="BF9" s="207"/>
+      <c r="BG9" s="207"/>
+      <c r="BH9" s="207"/>
+      <c r="BI9" s="207"/>
+      <c r="BJ9" s="207"/>
+      <c r="BK9" s="208"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
@@ -8482,2491 +8501,2491 @@
     </row>
     <row r="12" spans="1:575" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="150" t="s">
+      <c r="B12" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="151"/>
-      <c r="D12" s="152" t="s">
+      <c r="C12" s="209"/>
+      <c r="D12" s="192" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="153"/>
-      <c r="Q12" s="153"/>
-      <c r="R12" s="153"/>
-      <c r="S12" s="153"/>
-      <c r="T12" s="153"/>
-      <c r="U12" s="153"/>
-      <c r="V12" s="153"/>
-      <c r="W12" s="153"/>
-      <c r="X12" s="153"/>
-      <c r="Y12" s="153"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="153"/>
-      <c r="AB12" s="153"/>
-      <c r="AC12" s="153"/>
-      <c r="AD12" s="153"/>
-      <c r="AE12" s="153"/>
-      <c r="AF12" s="153"/>
-      <c r="AG12" s="153"/>
-      <c r="AH12" s="153"/>
-      <c r="AI12" s="153"/>
-      <c r="AJ12" s="153"/>
-      <c r="AK12" s="153"/>
-      <c r="AL12" s="153"/>
-      <c r="AM12" s="153"/>
-      <c r="AN12" s="153"/>
-      <c r="AO12" s="153"/>
-      <c r="AP12" s="153"/>
-      <c r="AQ12" s="153"/>
-      <c r="AR12" s="153"/>
-      <c r="AS12" s="153"/>
-      <c r="AT12" s="153"/>
-      <c r="AU12" s="153"/>
-      <c r="AV12" s="153"/>
-      <c r="AW12" s="153"/>
-      <c r="AX12" s="153"/>
-      <c r="AY12" s="153"/>
-      <c r="AZ12" s="153"/>
-      <c r="BA12" s="153"/>
-      <c r="BB12" s="153"/>
-      <c r="BC12" s="153"/>
-      <c r="BD12" s="153"/>
-      <c r="BE12" s="153"/>
-      <c r="BF12" s="153"/>
-      <c r="BG12" s="153"/>
-      <c r="BH12" s="153"/>
-      <c r="BI12" s="153"/>
-      <c r="BJ12" s="153"/>
-      <c r="BK12" s="153"/>
-      <c r="BL12" s="152" t="s">
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="193"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="193"/>
+      <c r="R12" s="193"/>
+      <c r="S12" s="193"/>
+      <c r="T12" s="193"/>
+      <c r="U12" s="193"/>
+      <c r="V12" s="193"/>
+      <c r="W12" s="193"/>
+      <c r="X12" s="193"/>
+      <c r="Y12" s="193"/>
+      <c r="Z12" s="193"/>
+      <c r="AA12" s="193"/>
+      <c r="AB12" s="193"/>
+      <c r="AC12" s="193"/>
+      <c r="AD12" s="193"/>
+      <c r="AE12" s="193"/>
+      <c r="AF12" s="193"/>
+      <c r="AG12" s="193"/>
+      <c r="AH12" s="193"/>
+      <c r="AI12" s="193"/>
+      <c r="AJ12" s="193"/>
+      <c r="AK12" s="193"/>
+      <c r="AL12" s="193"/>
+      <c r="AM12" s="193"/>
+      <c r="AN12" s="193"/>
+      <c r="AO12" s="193"/>
+      <c r="AP12" s="193"/>
+      <c r="AQ12" s="193"/>
+      <c r="AR12" s="193"/>
+      <c r="AS12" s="193"/>
+      <c r="AT12" s="193"/>
+      <c r="AU12" s="193"/>
+      <c r="AV12" s="193"/>
+      <c r="AW12" s="193"/>
+      <c r="AX12" s="193"/>
+      <c r="AY12" s="193"/>
+      <c r="AZ12" s="193"/>
+      <c r="BA12" s="193"/>
+      <c r="BB12" s="193"/>
+      <c r="BC12" s="193"/>
+      <c r="BD12" s="193"/>
+      <c r="BE12" s="193"/>
+      <c r="BF12" s="193"/>
+      <c r="BG12" s="193"/>
+      <c r="BH12" s="193"/>
+      <c r="BI12" s="193"/>
+      <c r="BJ12" s="193"/>
+      <c r="BK12" s="193"/>
+      <c r="BL12" s="192" t="s">
         <v>12</v>
       </c>
-      <c r="BM12" s="153"/>
-      <c r="BN12" s="153"/>
-      <c r="BO12" s="153"/>
-      <c r="BP12" s="153"/>
-      <c r="BQ12" s="153"/>
-      <c r="BR12" s="153"/>
-      <c r="BS12" s="153"/>
-      <c r="BT12" s="153"/>
-      <c r="BU12" s="153"/>
-      <c r="BV12" s="153"/>
-      <c r="BW12" s="153"/>
-      <c r="BX12" s="153"/>
-      <c r="BY12" s="153"/>
-      <c r="BZ12" s="153"/>
-      <c r="CA12" s="153"/>
-      <c r="CB12" s="153"/>
-      <c r="CC12" s="153"/>
-      <c r="CD12" s="153"/>
-      <c r="CE12" s="153"/>
-      <c r="CF12" s="153"/>
-      <c r="CG12" s="153"/>
-      <c r="CH12" s="153"/>
-      <c r="CI12" s="153"/>
-      <c r="CJ12" s="153"/>
-      <c r="CK12" s="153"/>
-      <c r="CL12" s="153"/>
-      <c r="CM12" s="153"/>
-      <c r="CN12" s="153"/>
-      <c r="CO12" s="153"/>
-      <c r="CP12" s="153"/>
-      <c r="CQ12" s="153"/>
-      <c r="CR12" s="153"/>
-      <c r="CS12" s="153"/>
-      <c r="CT12" s="153"/>
-      <c r="CU12" s="153"/>
-      <c r="CV12" s="153"/>
-      <c r="CW12" s="153"/>
-      <c r="CX12" s="153"/>
-      <c r="CY12" s="153"/>
-      <c r="CZ12" s="153"/>
-      <c r="DA12" s="153"/>
-      <c r="DB12" s="153"/>
-      <c r="DC12" s="153"/>
-      <c r="DD12" s="153"/>
-      <c r="DE12" s="153"/>
-      <c r="DF12" s="153"/>
-      <c r="DG12" s="153"/>
-      <c r="DH12" s="153"/>
-      <c r="DI12" s="153"/>
-      <c r="DJ12" s="153"/>
-      <c r="DK12" s="153"/>
-      <c r="DL12" s="153"/>
-      <c r="DM12" s="153"/>
-      <c r="DN12" s="153"/>
-      <c r="DO12" s="153"/>
-      <c r="DP12" s="153"/>
-      <c r="DQ12" s="153"/>
-      <c r="DR12" s="153"/>
-      <c r="DS12" s="153"/>
-      <c r="DT12" s="153"/>
-      <c r="DU12" s="153"/>
-      <c r="DV12" s="153"/>
-      <c r="DW12" s="153"/>
-      <c r="DX12" s="153"/>
-      <c r="DY12" s="153"/>
-      <c r="DZ12" s="153"/>
-      <c r="EA12" s="153"/>
-      <c r="EB12" s="153"/>
-      <c r="EC12" s="153"/>
-      <c r="ED12" s="153"/>
-      <c r="EE12" s="153"/>
-      <c r="EF12" s="153"/>
-      <c r="EG12" s="153"/>
-      <c r="EH12" s="153"/>
-      <c r="EI12" s="153"/>
-      <c r="EJ12" s="153"/>
-      <c r="EK12" s="153"/>
-      <c r="EL12" s="153"/>
-      <c r="EM12" s="153"/>
-      <c r="EN12" s="153"/>
-      <c r="EO12" s="153"/>
-      <c r="EP12" s="153"/>
-      <c r="EQ12" s="153"/>
-      <c r="ER12" s="153"/>
-      <c r="ES12" s="153"/>
-      <c r="ET12" s="153"/>
-      <c r="EU12" s="153"/>
-      <c r="EV12" s="153"/>
-      <c r="EW12" s="153"/>
-      <c r="EX12" s="153"/>
-      <c r="EY12" s="153"/>
-      <c r="EZ12" s="153"/>
-      <c r="FA12" s="153"/>
-      <c r="FB12" s="153"/>
-      <c r="FC12" s="153"/>
-      <c r="FD12" s="153"/>
-      <c r="FE12" s="153"/>
-      <c r="FF12" s="153"/>
-      <c r="FG12" s="153"/>
-      <c r="FH12" s="153"/>
-      <c r="FI12" s="153"/>
-      <c r="FJ12" s="153"/>
-      <c r="FK12" s="153"/>
-      <c r="FL12" s="153"/>
-      <c r="FM12" s="153"/>
-      <c r="FN12" s="153"/>
-      <c r="FO12" s="153"/>
-      <c r="FP12" s="153"/>
-      <c r="FQ12" s="153"/>
-      <c r="FR12" s="153"/>
-      <c r="FS12" s="153"/>
-      <c r="FT12" s="153"/>
-      <c r="FU12" s="153"/>
-      <c r="FV12" s="153"/>
-      <c r="FW12" s="153"/>
-      <c r="FX12" s="153"/>
-      <c r="FY12" s="153"/>
-      <c r="FZ12" s="153"/>
-      <c r="GA12" s="153"/>
-      <c r="GB12" s="152" t="s">
+      <c r="BM12" s="193"/>
+      <c r="BN12" s="193"/>
+      <c r="BO12" s="193"/>
+      <c r="BP12" s="193"/>
+      <c r="BQ12" s="193"/>
+      <c r="BR12" s="193"/>
+      <c r="BS12" s="193"/>
+      <c r="BT12" s="193"/>
+      <c r="BU12" s="193"/>
+      <c r="BV12" s="193"/>
+      <c r="BW12" s="193"/>
+      <c r="BX12" s="193"/>
+      <c r="BY12" s="193"/>
+      <c r="BZ12" s="193"/>
+      <c r="CA12" s="193"/>
+      <c r="CB12" s="193"/>
+      <c r="CC12" s="193"/>
+      <c r="CD12" s="193"/>
+      <c r="CE12" s="193"/>
+      <c r="CF12" s="193"/>
+      <c r="CG12" s="193"/>
+      <c r="CH12" s="193"/>
+      <c r="CI12" s="193"/>
+      <c r="CJ12" s="193"/>
+      <c r="CK12" s="193"/>
+      <c r="CL12" s="193"/>
+      <c r="CM12" s="193"/>
+      <c r="CN12" s="193"/>
+      <c r="CO12" s="193"/>
+      <c r="CP12" s="193"/>
+      <c r="CQ12" s="193"/>
+      <c r="CR12" s="193"/>
+      <c r="CS12" s="193"/>
+      <c r="CT12" s="193"/>
+      <c r="CU12" s="193"/>
+      <c r="CV12" s="193"/>
+      <c r="CW12" s="193"/>
+      <c r="CX12" s="193"/>
+      <c r="CY12" s="193"/>
+      <c r="CZ12" s="193"/>
+      <c r="DA12" s="193"/>
+      <c r="DB12" s="193"/>
+      <c r="DC12" s="193"/>
+      <c r="DD12" s="193"/>
+      <c r="DE12" s="193"/>
+      <c r="DF12" s="193"/>
+      <c r="DG12" s="193"/>
+      <c r="DH12" s="193"/>
+      <c r="DI12" s="193"/>
+      <c r="DJ12" s="193"/>
+      <c r="DK12" s="193"/>
+      <c r="DL12" s="193"/>
+      <c r="DM12" s="193"/>
+      <c r="DN12" s="193"/>
+      <c r="DO12" s="193"/>
+      <c r="DP12" s="193"/>
+      <c r="DQ12" s="193"/>
+      <c r="DR12" s="193"/>
+      <c r="DS12" s="193"/>
+      <c r="DT12" s="193"/>
+      <c r="DU12" s="193"/>
+      <c r="DV12" s="193"/>
+      <c r="DW12" s="193"/>
+      <c r="DX12" s="193"/>
+      <c r="DY12" s="193"/>
+      <c r="DZ12" s="193"/>
+      <c r="EA12" s="193"/>
+      <c r="EB12" s="193"/>
+      <c r="EC12" s="193"/>
+      <c r="ED12" s="193"/>
+      <c r="EE12" s="193"/>
+      <c r="EF12" s="193"/>
+      <c r="EG12" s="193"/>
+      <c r="EH12" s="193"/>
+      <c r="EI12" s="193"/>
+      <c r="EJ12" s="193"/>
+      <c r="EK12" s="193"/>
+      <c r="EL12" s="193"/>
+      <c r="EM12" s="193"/>
+      <c r="EN12" s="193"/>
+      <c r="EO12" s="193"/>
+      <c r="EP12" s="193"/>
+      <c r="EQ12" s="193"/>
+      <c r="ER12" s="193"/>
+      <c r="ES12" s="193"/>
+      <c r="ET12" s="193"/>
+      <c r="EU12" s="193"/>
+      <c r="EV12" s="193"/>
+      <c r="EW12" s="193"/>
+      <c r="EX12" s="193"/>
+      <c r="EY12" s="193"/>
+      <c r="EZ12" s="193"/>
+      <c r="FA12" s="193"/>
+      <c r="FB12" s="193"/>
+      <c r="FC12" s="193"/>
+      <c r="FD12" s="193"/>
+      <c r="FE12" s="193"/>
+      <c r="FF12" s="193"/>
+      <c r="FG12" s="193"/>
+      <c r="FH12" s="193"/>
+      <c r="FI12" s="193"/>
+      <c r="FJ12" s="193"/>
+      <c r="FK12" s="193"/>
+      <c r="FL12" s="193"/>
+      <c r="FM12" s="193"/>
+      <c r="FN12" s="193"/>
+      <c r="FO12" s="193"/>
+      <c r="FP12" s="193"/>
+      <c r="FQ12" s="193"/>
+      <c r="FR12" s="193"/>
+      <c r="FS12" s="193"/>
+      <c r="FT12" s="193"/>
+      <c r="FU12" s="193"/>
+      <c r="FV12" s="193"/>
+      <c r="FW12" s="193"/>
+      <c r="FX12" s="193"/>
+      <c r="FY12" s="193"/>
+      <c r="FZ12" s="193"/>
+      <c r="GA12" s="193"/>
+      <c r="GB12" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="GC12" s="153"/>
-      <c r="GD12" s="153"/>
-      <c r="GE12" s="153"/>
-      <c r="GF12" s="153"/>
-      <c r="GG12" s="153"/>
-      <c r="GH12" s="153"/>
-      <c r="GI12" s="153"/>
-      <c r="GJ12" s="153"/>
-      <c r="GK12" s="153"/>
-      <c r="GL12" s="153"/>
-      <c r="GM12" s="153"/>
-      <c r="GN12" s="153"/>
-      <c r="GO12" s="153"/>
-      <c r="GP12" s="153"/>
-      <c r="GQ12" s="153"/>
-      <c r="GR12" s="153"/>
-      <c r="GS12" s="153"/>
-      <c r="GT12" s="153"/>
-      <c r="GU12" s="153"/>
-      <c r="GV12" s="153"/>
-      <c r="GW12" s="153"/>
-      <c r="GX12" s="153"/>
-      <c r="GY12" s="153"/>
-      <c r="GZ12" s="153"/>
-      <c r="HA12" s="153"/>
-      <c r="HB12" s="153"/>
-      <c r="HC12" s="153"/>
-      <c r="HD12" s="153"/>
-      <c r="HE12" s="153"/>
-      <c r="HF12" s="153"/>
-      <c r="HG12" s="153"/>
-      <c r="HH12" s="153"/>
-      <c r="HI12" s="153"/>
-      <c r="HJ12" s="153"/>
-      <c r="HK12" s="153"/>
-      <c r="HL12" s="153"/>
-      <c r="HM12" s="153"/>
-      <c r="HN12" s="153"/>
-      <c r="HO12" s="153"/>
-      <c r="HP12" s="153"/>
-      <c r="HQ12" s="153"/>
-      <c r="HR12" s="153"/>
-      <c r="HS12" s="153"/>
-      <c r="HT12" s="153"/>
-      <c r="HU12" s="153"/>
-      <c r="HV12" s="153"/>
-      <c r="HW12" s="153"/>
-      <c r="HX12" s="153"/>
-      <c r="HY12" s="153"/>
-      <c r="HZ12" s="153"/>
-      <c r="IA12" s="153"/>
-      <c r="IB12" s="153"/>
-      <c r="IC12" s="153"/>
-      <c r="ID12" s="153"/>
-      <c r="IE12" s="153"/>
-      <c r="IF12" s="153"/>
-      <c r="IG12" s="153"/>
-      <c r="IH12" s="153"/>
-      <c r="II12" s="153"/>
-      <c r="IJ12" s="153"/>
-      <c r="IK12" s="153"/>
-      <c r="IL12" s="153"/>
-      <c r="IM12" s="153"/>
-      <c r="IN12" s="153"/>
-      <c r="IO12" s="153"/>
-      <c r="IP12" s="153"/>
-      <c r="IQ12" s="153"/>
-      <c r="IR12" s="153"/>
-      <c r="IS12" s="153"/>
-      <c r="IT12" s="153"/>
-      <c r="IU12" s="153"/>
-      <c r="IV12" s="153"/>
-      <c r="IW12" s="153"/>
-      <c r="IX12" s="153"/>
-      <c r="IY12" s="153"/>
-      <c r="IZ12" s="153"/>
-      <c r="JA12" s="153"/>
-      <c r="JB12" s="153"/>
-      <c r="JC12" s="153"/>
-      <c r="JD12" s="153"/>
-      <c r="JE12" s="153"/>
-      <c r="JF12" s="153"/>
-      <c r="JG12" s="153"/>
-      <c r="JH12" s="153"/>
-      <c r="JI12" s="153"/>
-      <c r="JJ12" s="153"/>
-      <c r="JK12" s="153"/>
-      <c r="JL12" s="153"/>
-      <c r="JM12" s="153"/>
-      <c r="JN12" s="153"/>
-      <c r="JO12" s="153"/>
-      <c r="JP12" s="153"/>
-      <c r="JQ12" s="153"/>
-      <c r="JR12" s="153"/>
-      <c r="JS12" s="153"/>
-      <c r="JT12" s="153"/>
-      <c r="JU12" s="153"/>
-      <c r="JV12" s="153"/>
-      <c r="JW12" s="153"/>
-      <c r="JX12" s="153"/>
-      <c r="JY12" s="153"/>
-      <c r="JZ12" s="153"/>
-      <c r="KA12" s="153"/>
-      <c r="KB12" s="153"/>
-      <c r="KC12" s="153"/>
-      <c r="KD12" s="153"/>
-      <c r="KE12" s="153"/>
-      <c r="KF12" s="153"/>
-      <c r="KG12" s="153"/>
-      <c r="KH12" s="153"/>
-      <c r="KI12" s="153"/>
-      <c r="KJ12" s="153"/>
-      <c r="KK12" s="153"/>
-      <c r="KL12" s="153"/>
-      <c r="KM12" s="153"/>
-      <c r="KN12" s="153"/>
-      <c r="KO12" s="153"/>
-      <c r="KP12" s="153"/>
-      <c r="KQ12" s="154"/>
-      <c r="KR12" s="150" t="s">
+      <c r="GC12" s="193"/>
+      <c r="GD12" s="193"/>
+      <c r="GE12" s="193"/>
+      <c r="GF12" s="193"/>
+      <c r="GG12" s="193"/>
+      <c r="GH12" s="193"/>
+      <c r="GI12" s="193"/>
+      <c r="GJ12" s="193"/>
+      <c r="GK12" s="193"/>
+      <c r="GL12" s="193"/>
+      <c r="GM12" s="193"/>
+      <c r="GN12" s="193"/>
+      <c r="GO12" s="193"/>
+      <c r="GP12" s="193"/>
+      <c r="GQ12" s="193"/>
+      <c r="GR12" s="193"/>
+      <c r="GS12" s="193"/>
+      <c r="GT12" s="193"/>
+      <c r="GU12" s="193"/>
+      <c r="GV12" s="193"/>
+      <c r="GW12" s="193"/>
+      <c r="GX12" s="193"/>
+      <c r="GY12" s="193"/>
+      <c r="GZ12" s="193"/>
+      <c r="HA12" s="193"/>
+      <c r="HB12" s="193"/>
+      <c r="HC12" s="193"/>
+      <c r="HD12" s="193"/>
+      <c r="HE12" s="193"/>
+      <c r="HF12" s="193"/>
+      <c r="HG12" s="193"/>
+      <c r="HH12" s="193"/>
+      <c r="HI12" s="193"/>
+      <c r="HJ12" s="193"/>
+      <c r="HK12" s="193"/>
+      <c r="HL12" s="193"/>
+      <c r="HM12" s="193"/>
+      <c r="HN12" s="193"/>
+      <c r="HO12" s="193"/>
+      <c r="HP12" s="193"/>
+      <c r="HQ12" s="193"/>
+      <c r="HR12" s="193"/>
+      <c r="HS12" s="193"/>
+      <c r="HT12" s="193"/>
+      <c r="HU12" s="193"/>
+      <c r="HV12" s="193"/>
+      <c r="HW12" s="193"/>
+      <c r="HX12" s="193"/>
+      <c r="HY12" s="193"/>
+      <c r="HZ12" s="193"/>
+      <c r="IA12" s="193"/>
+      <c r="IB12" s="193"/>
+      <c r="IC12" s="193"/>
+      <c r="ID12" s="193"/>
+      <c r="IE12" s="193"/>
+      <c r="IF12" s="193"/>
+      <c r="IG12" s="193"/>
+      <c r="IH12" s="193"/>
+      <c r="II12" s="193"/>
+      <c r="IJ12" s="193"/>
+      <c r="IK12" s="193"/>
+      <c r="IL12" s="193"/>
+      <c r="IM12" s="193"/>
+      <c r="IN12" s="193"/>
+      <c r="IO12" s="193"/>
+      <c r="IP12" s="193"/>
+      <c r="IQ12" s="193"/>
+      <c r="IR12" s="193"/>
+      <c r="IS12" s="193"/>
+      <c r="IT12" s="193"/>
+      <c r="IU12" s="193"/>
+      <c r="IV12" s="193"/>
+      <c r="IW12" s="193"/>
+      <c r="IX12" s="193"/>
+      <c r="IY12" s="193"/>
+      <c r="IZ12" s="193"/>
+      <c r="JA12" s="193"/>
+      <c r="JB12" s="193"/>
+      <c r="JC12" s="193"/>
+      <c r="JD12" s="193"/>
+      <c r="JE12" s="193"/>
+      <c r="JF12" s="193"/>
+      <c r="JG12" s="193"/>
+      <c r="JH12" s="193"/>
+      <c r="JI12" s="193"/>
+      <c r="JJ12" s="193"/>
+      <c r="JK12" s="193"/>
+      <c r="JL12" s="193"/>
+      <c r="JM12" s="193"/>
+      <c r="JN12" s="193"/>
+      <c r="JO12" s="193"/>
+      <c r="JP12" s="193"/>
+      <c r="JQ12" s="193"/>
+      <c r="JR12" s="193"/>
+      <c r="JS12" s="193"/>
+      <c r="JT12" s="193"/>
+      <c r="JU12" s="193"/>
+      <c r="JV12" s="193"/>
+      <c r="JW12" s="193"/>
+      <c r="JX12" s="193"/>
+      <c r="JY12" s="193"/>
+      <c r="JZ12" s="193"/>
+      <c r="KA12" s="193"/>
+      <c r="KB12" s="193"/>
+      <c r="KC12" s="193"/>
+      <c r="KD12" s="193"/>
+      <c r="KE12" s="193"/>
+      <c r="KF12" s="193"/>
+      <c r="KG12" s="193"/>
+      <c r="KH12" s="193"/>
+      <c r="KI12" s="193"/>
+      <c r="KJ12" s="193"/>
+      <c r="KK12" s="193"/>
+      <c r="KL12" s="193"/>
+      <c r="KM12" s="193"/>
+      <c r="KN12" s="193"/>
+      <c r="KO12" s="193"/>
+      <c r="KP12" s="193"/>
+      <c r="KQ12" s="194"/>
+      <c r="KR12" s="152" t="s">
         <v>10</v>
       </c>
-      <c r="KS12" s="220"/>
-      <c r="KT12" s="152" t="s">
+      <c r="KS12" s="153"/>
+      <c r="KT12" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="KU12" s="153"/>
-      <c r="KV12" s="153"/>
-      <c r="KW12" s="153"/>
-      <c r="KX12" s="153"/>
-      <c r="KY12" s="153"/>
-      <c r="KZ12" s="153"/>
-      <c r="LA12" s="153"/>
-      <c r="LB12" s="153"/>
-      <c r="LC12" s="153"/>
-      <c r="LD12" s="153"/>
-      <c r="LE12" s="153"/>
-      <c r="LF12" s="153"/>
-      <c r="LG12" s="153"/>
-      <c r="LH12" s="153"/>
-      <c r="LI12" s="153"/>
-      <c r="LJ12" s="153"/>
-      <c r="LK12" s="153"/>
-      <c r="LL12" s="153"/>
-      <c r="LM12" s="153"/>
-      <c r="LN12" s="153"/>
-      <c r="LO12" s="153"/>
-      <c r="LP12" s="153"/>
-      <c r="LQ12" s="153"/>
-      <c r="LR12" s="153"/>
-      <c r="LS12" s="153"/>
-      <c r="LT12" s="153"/>
-      <c r="LU12" s="153"/>
-      <c r="LV12" s="153"/>
-      <c r="LW12" s="153"/>
-      <c r="LX12" s="153"/>
-      <c r="LY12" s="153"/>
-      <c r="LZ12" s="153"/>
-      <c r="MA12" s="153"/>
-      <c r="MB12" s="153"/>
-      <c r="MC12" s="153"/>
-      <c r="MD12" s="153"/>
-      <c r="ME12" s="153"/>
-      <c r="MF12" s="153"/>
-      <c r="MG12" s="153"/>
-      <c r="MH12" s="153"/>
-      <c r="MI12" s="153"/>
-      <c r="MJ12" s="153"/>
-      <c r="MK12" s="153"/>
-      <c r="ML12" s="153"/>
-      <c r="MM12" s="153"/>
-      <c r="MN12" s="153"/>
-      <c r="MO12" s="153"/>
-      <c r="MP12" s="153"/>
-      <c r="MQ12" s="153"/>
-      <c r="MR12" s="153"/>
-      <c r="MS12" s="153"/>
-      <c r="MT12" s="153"/>
-      <c r="MU12" s="153"/>
-      <c r="MV12" s="153"/>
-      <c r="MW12" s="153"/>
-      <c r="MX12" s="153"/>
-      <c r="MY12" s="153"/>
-      <c r="MZ12" s="153"/>
-      <c r="NA12" s="153"/>
-      <c r="NB12" s="153"/>
-      <c r="NC12" s="153"/>
-      <c r="ND12" s="153"/>
-      <c r="NE12" s="153"/>
-      <c r="NF12" s="153"/>
-      <c r="NG12" s="153"/>
-      <c r="NH12" s="153"/>
-      <c r="NI12" s="153"/>
-      <c r="NJ12" s="153"/>
-      <c r="NK12" s="153"/>
-      <c r="NL12" s="153"/>
-      <c r="NM12" s="153"/>
-      <c r="NN12" s="153"/>
-      <c r="NO12" s="153"/>
-      <c r="NP12" s="153"/>
-      <c r="NQ12" s="153"/>
-      <c r="NR12" s="153"/>
-      <c r="NS12" s="153"/>
-      <c r="NT12" s="153"/>
-      <c r="NU12" s="153"/>
-      <c r="NV12" s="153"/>
-      <c r="NW12" s="153"/>
-      <c r="NX12" s="153"/>
-      <c r="NY12" s="153"/>
-      <c r="NZ12" s="153"/>
-      <c r="OA12" s="153"/>
-      <c r="OB12" s="153"/>
-      <c r="OC12" s="153"/>
-      <c r="OD12" s="153"/>
-      <c r="OE12" s="153"/>
-      <c r="OF12" s="153"/>
-      <c r="OG12" s="153"/>
-      <c r="OH12" s="153"/>
-      <c r="OI12" s="153"/>
-      <c r="OJ12" s="153"/>
-      <c r="OK12" s="153"/>
-      <c r="OL12" s="153"/>
-      <c r="OM12" s="153"/>
-      <c r="ON12" s="153"/>
-      <c r="OO12" s="153"/>
-      <c r="OP12" s="153"/>
-      <c r="OQ12" s="153"/>
-      <c r="OR12" s="153"/>
-      <c r="OS12" s="153"/>
-      <c r="OT12" s="153"/>
-      <c r="OU12" s="153"/>
-      <c r="OV12" s="153"/>
-      <c r="OW12" s="153"/>
-      <c r="OX12" s="153"/>
-      <c r="OY12" s="153"/>
-      <c r="OZ12" s="153"/>
-      <c r="PA12" s="153"/>
-      <c r="PB12" s="153"/>
-      <c r="PC12" s="153"/>
-      <c r="PD12" s="153"/>
-      <c r="PE12" s="153"/>
-      <c r="PF12" s="153"/>
-      <c r="PG12" s="153"/>
-      <c r="PH12" s="153"/>
-      <c r="PI12" s="154"/>
-      <c r="PJ12" s="152" t="s">
+      <c r="KU12" s="193"/>
+      <c r="KV12" s="193"/>
+      <c r="KW12" s="193"/>
+      <c r="KX12" s="193"/>
+      <c r="KY12" s="193"/>
+      <c r="KZ12" s="193"/>
+      <c r="LA12" s="193"/>
+      <c r="LB12" s="193"/>
+      <c r="LC12" s="193"/>
+      <c r="LD12" s="193"/>
+      <c r="LE12" s="193"/>
+      <c r="LF12" s="193"/>
+      <c r="LG12" s="193"/>
+      <c r="LH12" s="193"/>
+      <c r="LI12" s="193"/>
+      <c r="LJ12" s="193"/>
+      <c r="LK12" s="193"/>
+      <c r="LL12" s="193"/>
+      <c r="LM12" s="193"/>
+      <c r="LN12" s="193"/>
+      <c r="LO12" s="193"/>
+      <c r="LP12" s="193"/>
+      <c r="LQ12" s="193"/>
+      <c r="LR12" s="193"/>
+      <c r="LS12" s="193"/>
+      <c r="LT12" s="193"/>
+      <c r="LU12" s="193"/>
+      <c r="LV12" s="193"/>
+      <c r="LW12" s="193"/>
+      <c r="LX12" s="193"/>
+      <c r="LY12" s="193"/>
+      <c r="LZ12" s="193"/>
+      <c r="MA12" s="193"/>
+      <c r="MB12" s="193"/>
+      <c r="MC12" s="193"/>
+      <c r="MD12" s="193"/>
+      <c r="ME12" s="193"/>
+      <c r="MF12" s="193"/>
+      <c r="MG12" s="193"/>
+      <c r="MH12" s="193"/>
+      <c r="MI12" s="193"/>
+      <c r="MJ12" s="193"/>
+      <c r="MK12" s="193"/>
+      <c r="ML12" s="193"/>
+      <c r="MM12" s="193"/>
+      <c r="MN12" s="193"/>
+      <c r="MO12" s="193"/>
+      <c r="MP12" s="193"/>
+      <c r="MQ12" s="193"/>
+      <c r="MR12" s="193"/>
+      <c r="MS12" s="193"/>
+      <c r="MT12" s="193"/>
+      <c r="MU12" s="193"/>
+      <c r="MV12" s="193"/>
+      <c r="MW12" s="193"/>
+      <c r="MX12" s="193"/>
+      <c r="MY12" s="193"/>
+      <c r="MZ12" s="193"/>
+      <c r="NA12" s="193"/>
+      <c r="NB12" s="193"/>
+      <c r="NC12" s="193"/>
+      <c r="ND12" s="193"/>
+      <c r="NE12" s="193"/>
+      <c r="NF12" s="193"/>
+      <c r="NG12" s="193"/>
+      <c r="NH12" s="193"/>
+      <c r="NI12" s="193"/>
+      <c r="NJ12" s="193"/>
+      <c r="NK12" s="193"/>
+      <c r="NL12" s="193"/>
+      <c r="NM12" s="193"/>
+      <c r="NN12" s="193"/>
+      <c r="NO12" s="193"/>
+      <c r="NP12" s="193"/>
+      <c r="NQ12" s="193"/>
+      <c r="NR12" s="193"/>
+      <c r="NS12" s="193"/>
+      <c r="NT12" s="193"/>
+      <c r="NU12" s="193"/>
+      <c r="NV12" s="193"/>
+      <c r="NW12" s="193"/>
+      <c r="NX12" s="193"/>
+      <c r="NY12" s="193"/>
+      <c r="NZ12" s="193"/>
+      <c r="OA12" s="193"/>
+      <c r="OB12" s="193"/>
+      <c r="OC12" s="193"/>
+      <c r="OD12" s="193"/>
+      <c r="OE12" s="193"/>
+      <c r="OF12" s="193"/>
+      <c r="OG12" s="193"/>
+      <c r="OH12" s="193"/>
+      <c r="OI12" s="193"/>
+      <c r="OJ12" s="193"/>
+      <c r="OK12" s="193"/>
+      <c r="OL12" s="193"/>
+      <c r="OM12" s="193"/>
+      <c r="ON12" s="193"/>
+      <c r="OO12" s="193"/>
+      <c r="OP12" s="193"/>
+      <c r="OQ12" s="193"/>
+      <c r="OR12" s="193"/>
+      <c r="OS12" s="193"/>
+      <c r="OT12" s="193"/>
+      <c r="OU12" s="193"/>
+      <c r="OV12" s="193"/>
+      <c r="OW12" s="193"/>
+      <c r="OX12" s="193"/>
+      <c r="OY12" s="193"/>
+      <c r="OZ12" s="193"/>
+      <c r="PA12" s="193"/>
+      <c r="PB12" s="193"/>
+      <c r="PC12" s="193"/>
+      <c r="PD12" s="193"/>
+      <c r="PE12" s="193"/>
+      <c r="PF12" s="193"/>
+      <c r="PG12" s="193"/>
+      <c r="PH12" s="193"/>
+      <c r="PI12" s="194"/>
+      <c r="PJ12" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="PK12" s="153"/>
-      <c r="PL12" s="153"/>
-      <c r="PM12" s="153"/>
-      <c r="PN12" s="153"/>
-      <c r="PO12" s="153"/>
-      <c r="PP12" s="153"/>
-      <c r="PQ12" s="153"/>
-      <c r="PR12" s="153"/>
-      <c r="PS12" s="153"/>
-      <c r="PT12" s="153"/>
-      <c r="PU12" s="153"/>
-      <c r="PV12" s="153"/>
-      <c r="PW12" s="153"/>
-      <c r="PX12" s="153"/>
-      <c r="PY12" s="153"/>
-      <c r="PZ12" s="153"/>
-      <c r="QA12" s="153"/>
-      <c r="QB12" s="153"/>
-      <c r="QC12" s="153"/>
-      <c r="QD12" s="153"/>
-      <c r="QE12" s="153"/>
-      <c r="QF12" s="153"/>
-      <c r="QG12" s="153"/>
-      <c r="QH12" s="153"/>
-      <c r="QI12" s="153"/>
-      <c r="QJ12" s="153"/>
-      <c r="QK12" s="153"/>
-      <c r="QL12" s="153"/>
-      <c r="QM12" s="153"/>
-      <c r="QN12" s="153"/>
-      <c r="QO12" s="153"/>
-      <c r="QP12" s="153"/>
-      <c r="QQ12" s="153"/>
-      <c r="QR12" s="153"/>
-      <c r="QS12" s="153"/>
-      <c r="QT12" s="153"/>
-      <c r="QU12" s="153"/>
-      <c r="QV12" s="153"/>
-      <c r="QW12" s="153"/>
-      <c r="QX12" s="153"/>
-      <c r="QY12" s="153"/>
-      <c r="QZ12" s="153"/>
-      <c r="RA12" s="153"/>
-      <c r="RB12" s="153"/>
-      <c r="RC12" s="153"/>
-      <c r="RD12" s="153"/>
-      <c r="RE12" s="153"/>
-      <c r="RF12" s="153"/>
-      <c r="RG12" s="153"/>
-      <c r="RH12" s="153"/>
-      <c r="RI12" s="153"/>
-      <c r="RJ12" s="153"/>
-      <c r="RK12" s="153"/>
-      <c r="RL12" s="153"/>
-      <c r="RM12" s="153"/>
-      <c r="RN12" s="153"/>
-      <c r="RO12" s="153"/>
-      <c r="RP12" s="153"/>
-      <c r="RQ12" s="153"/>
-      <c r="RR12" s="153"/>
-      <c r="RS12" s="153"/>
-      <c r="RT12" s="153"/>
-      <c r="RU12" s="153"/>
-      <c r="RV12" s="153"/>
-      <c r="RW12" s="153"/>
-      <c r="RX12" s="153"/>
-      <c r="RY12" s="153"/>
-      <c r="RZ12" s="153"/>
-      <c r="SA12" s="153"/>
-      <c r="SB12" s="153"/>
-      <c r="SC12" s="153"/>
-      <c r="SD12" s="153"/>
-      <c r="SE12" s="153"/>
-      <c r="SF12" s="153"/>
-      <c r="SG12" s="153"/>
-      <c r="SH12" s="153"/>
-      <c r="SI12" s="153"/>
-      <c r="SJ12" s="153"/>
-      <c r="SK12" s="153"/>
-      <c r="SL12" s="153"/>
-      <c r="SM12" s="153"/>
-      <c r="SN12" s="153"/>
-      <c r="SO12" s="153"/>
-      <c r="SP12" s="153"/>
-      <c r="SQ12" s="153"/>
-      <c r="SR12" s="153"/>
-      <c r="SS12" s="153"/>
-      <c r="ST12" s="153"/>
-      <c r="SU12" s="153"/>
-      <c r="SV12" s="153"/>
-      <c r="SW12" s="153"/>
-      <c r="SX12" s="153"/>
-      <c r="SY12" s="153"/>
-      <c r="SZ12" s="153"/>
-      <c r="TA12" s="153"/>
-      <c r="TB12" s="153"/>
-      <c r="TC12" s="153"/>
-      <c r="TD12" s="153"/>
-      <c r="TE12" s="153"/>
-      <c r="TF12" s="153"/>
-      <c r="TG12" s="153"/>
-      <c r="TH12" s="153"/>
-      <c r="TI12" s="153"/>
-      <c r="TJ12" s="153"/>
-      <c r="TK12" s="153"/>
-      <c r="TL12" s="153"/>
-      <c r="TM12" s="153"/>
-      <c r="TN12" s="153"/>
-      <c r="TO12" s="153"/>
-      <c r="TP12" s="153"/>
-      <c r="TQ12" s="153"/>
-      <c r="TR12" s="153"/>
-      <c r="TS12" s="153"/>
-      <c r="TT12" s="153"/>
-      <c r="TU12" s="153"/>
-      <c r="TV12" s="153"/>
-      <c r="TW12" s="153"/>
-      <c r="TX12" s="153"/>
-      <c r="TY12" s="154"/>
-      <c r="TZ12" s="152" t="s">
+      <c r="PK12" s="193"/>
+      <c r="PL12" s="193"/>
+      <c r="PM12" s="193"/>
+      <c r="PN12" s="193"/>
+      <c r="PO12" s="193"/>
+      <c r="PP12" s="193"/>
+      <c r="PQ12" s="193"/>
+      <c r="PR12" s="193"/>
+      <c r="PS12" s="193"/>
+      <c r="PT12" s="193"/>
+      <c r="PU12" s="193"/>
+      <c r="PV12" s="193"/>
+      <c r="PW12" s="193"/>
+      <c r="PX12" s="193"/>
+      <c r="PY12" s="193"/>
+      <c r="PZ12" s="193"/>
+      <c r="QA12" s="193"/>
+      <c r="QB12" s="193"/>
+      <c r="QC12" s="193"/>
+      <c r="QD12" s="193"/>
+      <c r="QE12" s="193"/>
+      <c r="QF12" s="193"/>
+      <c r="QG12" s="193"/>
+      <c r="QH12" s="193"/>
+      <c r="QI12" s="193"/>
+      <c r="QJ12" s="193"/>
+      <c r="QK12" s="193"/>
+      <c r="QL12" s="193"/>
+      <c r="QM12" s="193"/>
+      <c r="QN12" s="193"/>
+      <c r="QO12" s="193"/>
+      <c r="QP12" s="193"/>
+      <c r="QQ12" s="193"/>
+      <c r="QR12" s="193"/>
+      <c r="QS12" s="193"/>
+      <c r="QT12" s="193"/>
+      <c r="QU12" s="193"/>
+      <c r="QV12" s="193"/>
+      <c r="QW12" s="193"/>
+      <c r="QX12" s="193"/>
+      <c r="QY12" s="193"/>
+      <c r="QZ12" s="193"/>
+      <c r="RA12" s="193"/>
+      <c r="RB12" s="193"/>
+      <c r="RC12" s="193"/>
+      <c r="RD12" s="193"/>
+      <c r="RE12" s="193"/>
+      <c r="RF12" s="193"/>
+      <c r="RG12" s="193"/>
+      <c r="RH12" s="193"/>
+      <c r="RI12" s="193"/>
+      <c r="RJ12" s="193"/>
+      <c r="RK12" s="193"/>
+      <c r="RL12" s="193"/>
+      <c r="RM12" s="193"/>
+      <c r="RN12" s="193"/>
+      <c r="RO12" s="193"/>
+      <c r="RP12" s="193"/>
+      <c r="RQ12" s="193"/>
+      <c r="RR12" s="193"/>
+      <c r="RS12" s="193"/>
+      <c r="RT12" s="193"/>
+      <c r="RU12" s="193"/>
+      <c r="RV12" s="193"/>
+      <c r="RW12" s="193"/>
+      <c r="RX12" s="193"/>
+      <c r="RY12" s="193"/>
+      <c r="RZ12" s="193"/>
+      <c r="SA12" s="193"/>
+      <c r="SB12" s="193"/>
+      <c r="SC12" s="193"/>
+      <c r="SD12" s="193"/>
+      <c r="SE12" s="193"/>
+      <c r="SF12" s="193"/>
+      <c r="SG12" s="193"/>
+      <c r="SH12" s="193"/>
+      <c r="SI12" s="193"/>
+      <c r="SJ12" s="193"/>
+      <c r="SK12" s="193"/>
+      <c r="SL12" s="193"/>
+      <c r="SM12" s="193"/>
+      <c r="SN12" s="193"/>
+      <c r="SO12" s="193"/>
+      <c r="SP12" s="193"/>
+      <c r="SQ12" s="193"/>
+      <c r="SR12" s="193"/>
+      <c r="SS12" s="193"/>
+      <c r="ST12" s="193"/>
+      <c r="SU12" s="193"/>
+      <c r="SV12" s="193"/>
+      <c r="SW12" s="193"/>
+      <c r="SX12" s="193"/>
+      <c r="SY12" s="193"/>
+      <c r="SZ12" s="193"/>
+      <c r="TA12" s="193"/>
+      <c r="TB12" s="193"/>
+      <c r="TC12" s="193"/>
+      <c r="TD12" s="193"/>
+      <c r="TE12" s="193"/>
+      <c r="TF12" s="193"/>
+      <c r="TG12" s="193"/>
+      <c r="TH12" s="193"/>
+      <c r="TI12" s="193"/>
+      <c r="TJ12" s="193"/>
+      <c r="TK12" s="193"/>
+      <c r="TL12" s="193"/>
+      <c r="TM12" s="193"/>
+      <c r="TN12" s="193"/>
+      <c r="TO12" s="193"/>
+      <c r="TP12" s="193"/>
+      <c r="TQ12" s="193"/>
+      <c r="TR12" s="193"/>
+      <c r="TS12" s="193"/>
+      <c r="TT12" s="193"/>
+      <c r="TU12" s="193"/>
+      <c r="TV12" s="193"/>
+      <c r="TW12" s="193"/>
+      <c r="TX12" s="193"/>
+      <c r="TY12" s="194"/>
+      <c r="TZ12" s="192" t="s">
         <v>16</v>
       </c>
-      <c r="UA12" s="153"/>
-      <c r="UB12" s="153"/>
-      <c r="UC12" s="153"/>
-      <c r="UD12" s="153"/>
-      <c r="UE12" s="153"/>
-      <c r="UF12" s="153"/>
-      <c r="UG12" s="153"/>
-      <c r="UH12" s="153"/>
-      <c r="UI12" s="153"/>
-      <c r="UJ12" s="153"/>
-      <c r="UK12" s="153"/>
-      <c r="UL12" s="153"/>
-      <c r="UM12" s="153"/>
-      <c r="UN12" s="153"/>
-      <c r="UO12" s="153"/>
-      <c r="UP12" s="153"/>
-      <c r="UQ12" s="153"/>
-      <c r="UR12" s="153"/>
-      <c r="US12" s="153"/>
-      <c r="UT12" s="153"/>
-      <c r="UU12" s="153"/>
-      <c r="UV12" s="153"/>
-      <c r="UW12" s="153"/>
-      <c r="UX12" s="153"/>
-      <c r="UY12" s="153"/>
-      <c r="UZ12" s="153"/>
-      <c r="VA12" s="153"/>
-      <c r="VB12" s="153"/>
-      <c r="VC12" s="154"/>
+      <c r="UA12" s="193"/>
+      <c r="UB12" s="193"/>
+      <c r="UC12" s="193"/>
+      <c r="UD12" s="193"/>
+      <c r="UE12" s="193"/>
+      <c r="UF12" s="193"/>
+      <c r="UG12" s="193"/>
+      <c r="UH12" s="193"/>
+      <c r="UI12" s="193"/>
+      <c r="UJ12" s="193"/>
+      <c r="UK12" s="193"/>
+      <c r="UL12" s="193"/>
+      <c r="UM12" s="193"/>
+      <c r="UN12" s="193"/>
+      <c r="UO12" s="193"/>
+      <c r="UP12" s="193"/>
+      <c r="UQ12" s="193"/>
+      <c r="UR12" s="193"/>
+      <c r="US12" s="193"/>
+      <c r="UT12" s="193"/>
+      <c r="UU12" s="193"/>
+      <c r="UV12" s="193"/>
+      <c r="UW12" s="193"/>
+      <c r="UX12" s="193"/>
+      <c r="UY12" s="193"/>
+      <c r="UZ12" s="193"/>
+      <c r="VA12" s="193"/>
+      <c r="VB12" s="193"/>
+      <c r="VC12" s="194"/>
     </row>
     <row r="13" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="172" t="s">
+      <c r="B13" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174" t="s">
+      <c r="C13" s="190"/>
+      <c r="D13" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
-      <c r="H13" s="175"/>
-      <c r="I13" s="175"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="175"/>
-      <c r="L13" s="175"/>
-      <c r="M13" s="175"/>
-      <c r="N13" s="175"/>
-      <c r="O13" s="175"/>
-      <c r="P13" s="175"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="175"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="175"/>
-      <c r="U13" s="175"/>
-      <c r="V13" s="175"/>
-      <c r="W13" s="175"/>
-      <c r="X13" s="175"/>
-      <c r="Y13" s="175"/>
-      <c r="Z13" s="175"/>
-      <c r="AA13" s="175"/>
-      <c r="AB13" s="175"/>
-      <c r="AC13" s="175"/>
-      <c r="AD13" s="175"/>
-      <c r="AE13" s="175"/>
-      <c r="AF13" s="175"/>
-      <c r="AG13" s="176"/>
-      <c r="AH13" s="177" t="s">
+      <c r="E13" s="196"/>
+      <c r="F13" s="196"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="196"/>
+      <c r="J13" s="196"/>
+      <c r="K13" s="196"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="196"/>
+      <c r="N13" s="196"/>
+      <c r="O13" s="196"/>
+      <c r="P13" s="196"/>
+      <c r="Q13" s="196"/>
+      <c r="R13" s="196"/>
+      <c r="S13" s="196"/>
+      <c r="T13" s="196"/>
+      <c r="U13" s="196"/>
+      <c r="V13" s="196"/>
+      <c r="W13" s="196"/>
+      <c r="X13" s="196"/>
+      <c r="Y13" s="196"/>
+      <c r="Z13" s="196"/>
+      <c r="AA13" s="196"/>
+      <c r="AB13" s="196"/>
+      <c r="AC13" s="196"/>
+      <c r="AD13" s="196"/>
+      <c r="AE13" s="196"/>
+      <c r="AF13" s="196"/>
+      <c r="AG13" s="197"/>
+      <c r="AH13" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="AI13" s="175"/>
-      <c r="AJ13" s="175"/>
-      <c r="AK13" s="175"/>
-      <c r="AL13" s="175"/>
-      <c r="AM13" s="175"/>
-      <c r="AN13" s="175"/>
-      <c r="AO13" s="175"/>
-      <c r="AP13" s="175"/>
-      <c r="AQ13" s="175"/>
-      <c r="AR13" s="175"/>
-      <c r="AS13" s="175"/>
-      <c r="AT13" s="175"/>
-      <c r="AU13" s="175"/>
-      <c r="AV13" s="175"/>
-      <c r="AW13" s="175"/>
-      <c r="AX13" s="175"/>
-      <c r="AY13" s="175"/>
-      <c r="AZ13" s="175"/>
-      <c r="BA13" s="175"/>
-      <c r="BB13" s="175"/>
-      <c r="BC13" s="175"/>
-      <c r="BD13" s="175"/>
-      <c r="BE13" s="175"/>
-      <c r="BF13" s="175"/>
-      <c r="BG13" s="175"/>
-      <c r="BH13" s="175"/>
-      <c r="BI13" s="175"/>
-      <c r="BJ13" s="175"/>
-      <c r="BK13" s="178"/>
-      <c r="BL13" s="174" t="s">
+      <c r="AI13" s="196"/>
+      <c r="AJ13" s="196"/>
+      <c r="AK13" s="196"/>
+      <c r="AL13" s="196"/>
+      <c r="AM13" s="196"/>
+      <c r="AN13" s="196"/>
+      <c r="AO13" s="196"/>
+      <c r="AP13" s="196"/>
+      <c r="AQ13" s="196"/>
+      <c r="AR13" s="196"/>
+      <c r="AS13" s="196"/>
+      <c r="AT13" s="196"/>
+      <c r="AU13" s="196"/>
+      <c r="AV13" s="196"/>
+      <c r="AW13" s="196"/>
+      <c r="AX13" s="196"/>
+      <c r="AY13" s="196"/>
+      <c r="AZ13" s="196"/>
+      <c r="BA13" s="196"/>
+      <c r="BB13" s="196"/>
+      <c r="BC13" s="196"/>
+      <c r="BD13" s="196"/>
+      <c r="BE13" s="196"/>
+      <c r="BF13" s="196"/>
+      <c r="BG13" s="196"/>
+      <c r="BH13" s="196"/>
+      <c r="BI13" s="196"/>
+      <c r="BJ13" s="196"/>
+      <c r="BK13" s="199"/>
+      <c r="BL13" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="BM13" s="175"/>
-      <c r="BN13" s="175"/>
-      <c r="BO13" s="175"/>
-      <c r="BP13" s="175"/>
-      <c r="BQ13" s="175"/>
-      <c r="BR13" s="175"/>
-      <c r="BS13" s="175"/>
-      <c r="BT13" s="175"/>
-      <c r="BU13" s="175"/>
-      <c r="BV13" s="175"/>
-      <c r="BW13" s="175"/>
-      <c r="BX13" s="175"/>
-      <c r="BY13" s="175"/>
-      <c r="BZ13" s="175"/>
-      <c r="CA13" s="175"/>
-      <c r="CB13" s="175"/>
-      <c r="CC13" s="175"/>
-      <c r="CD13" s="175"/>
-      <c r="CE13" s="175"/>
-      <c r="CF13" s="175"/>
-      <c r="CG13" s="175"/>
-      <c r="CH13" s="175"/>
-      <c r="CI13" s="175"/>
-      <c r="CJ13" s="175"/>
-      <c r="CK13" s="175"/>
-      <c r="CL13" s="175"/>
-      <c r="CM13" s="175"/>
-      <c r="CN13" s="175"/>
-      <c r="CO13" s="176"/>
-      <c r="CP13" s="177" t="s">
+      <c r="BM13" s="196"/>
+      <c r="BN13" s="196"/>
+      <c r="BO13" s="196"/>
+      <c r="BP13" s="196"/>
+      <c r="BQ13" s="196"/>
+      <c r="BR13" s="196"/>
+      <c r="BS13" s="196"/>
+      <c r="BT13" s="196"/>
+      <c r="BU13" s="196"/>
+      <c r="BV13" s="196"/>
+      <c r="BW13" s="196"/>
+      <c r="BX13" s="196"/>
+      <c r="BY13" s="196"/>
+      <c r="BZ13" s="196"/>
+      <c r="CA13" s="196"/>
+      <c r="CB13" s="196"/>
+      <c r="CC13" s="196"/>
+      <c r="CD13" s="196"/>
+      <c r="CE13" s="196"/>
+      <c r="CF13" s="196"/>
+      <c r="CG13" s="196"/>
+      <c r="CH13" s="196"/>
+      <c r="CI13" s="196"/>
+      <c r="CJ13" s="196"/>
+      <c r="CK13" s="196"/>
+      <c r="CL13" s="196"/>
+      <c r="CM13" s="196"/>
+      <c r="CN13" s="196"/>
+      <c r="CO13" s="197"/>
+      <c r="CP13" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="CQ13" s="175"/>
-      <c r="CR13" s="175"/>
-      <c r="CS13" s="175"/>
-      <c r="CT13" s="175"/>
-      <c r="CU13" s="175"/>
-      <c r="CV13" s="175"/>
-      <c r="CW13" s="175"/>
-      <c r="CX13" s="175"/>
-      <c r="CY13" s="175"/>
-      <c r="CZ13" s="175"/>
-      <c r="DA13" s="175"/>
-      <c r="DB13" s="175"/>
-      <c r="DC13" s="175"/>
-      <c r="DD13" s="175"/>
-      <c r="DE13" s="175"/>
-      <c r="DF13" s="175"/>
-      <c r="DG13" s="175"/>
-      <c r="DH13" s="175"/>
-      <c r="DI13" s="175"/>
-      <c r="DJ13" s="175"/>
-      <c r="DK13" s="175"/>
-      <c r="DL13" s="175"/>
-      <c r="DM13" s="175"/>
-      <c r="DN13" s="175"/>
-      <c r="DO13" s="175"/>
-      <c r="DP13" s="175"/>
-      <c r="DQ13" s="175"/>
-      <c r="DR13" s="175"/>
-      <c r="DS13" s="176"/>
-      <c r="DT13" s="177" t="s">
+      <c r="CQ13" s="196"/>
+      <c r="CR13" s="196"/>
+      <c r="CS13" s="196"/>
+      <c r="CT13" s="196"/>
+      <c r="CU13" s="196"/>
+      <c r="CV13" s="196"/>
+      <c r="CW13" s="196"/>
+      <c r="CX13" s="196"/>
+      <c r="CY13" s="196"/>
+      <c r="CZ13" s="196"/>
+      <c r="DA13" s="196"/>
+      <c r="DB13" s="196"/>
+      <c r="DC13" s="196"/>
+      <c r="DD13" s="196"/>
+      <c r="DE13" s="196"/>
+      <c r="DF13" s="196"/>
+      <c r="DG13" s="196"/>
+      <c r="DH13" s="196"/>
+      <c r="DI13" s="196"/>
+      <c r="DJ13" s="196"/>
+      <c r="DK13" s="196"/>
+      <c r="DL13" s="196"/>
+      <c r="DM13" s="196"/>
+      <c r="DN13" s="196"/>
+      <c r="DO13" s="196"/>
+      <c r="DP13" s="196"/>
+      <c r="DQ13" s="196"/>
+      <c r="DR13" s="196"/>
+      <c r="DS13" s="197"/>
+      <c r="DT13" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="DU13" s="175"/>
-      <c r="DV13" s="175"/>
-      <c r="DW13" s="175"/>
-      <c r="DX13" s="175"/>
-      <c r="DY13" s="175"/>
-      <c r="DZ13" s="175"/>
-      <c r="EA13" s="175"/>
-      <c r="EB13" s="175"/>
-      <c r="EC13" s="175"/>
-      <c r="ED13" s="175"/>
-      <c r="EE13" s="175"/>
-      <c r="EF13" s="175"/>
-      <c r="EG13" s="175"/>
-      <c r="EH13" s="175"/>
-      <c r="EI13" s="175"/>
-      <c r="EJ13" s="175"/>
-      <c r="EK13" s="175"/>
-      <c r="EL13" s="175"/>
-      <c r="EM13" s="175"/>
-      <c r="EN13" s="175"/>
-      <c r="EO13" s="175"/>
-      <c r="EP13" s="175"/>
-      <c r="EQ13" s="175"/>
-      <c r="ER13" s="175"/>
-      <c r="ES13" s="175"/>
-      <c r="ET13" s="175"/>
-      <c r="EU13" s="175"/>
-      <c r="EV13" s="175"/>
-      <c r="EW13" s="176"/>
-      <c r="EX13" s="177" t="s">
+      <c r="DU13" s="196"/>
+      <c r="DV13" s="196"/>
+      <c r="DW13" s="196"/>
+      <c r="DX13" s="196"/>
+      <c r="DY13" s="196"/>
+      <c r="DZ13" s="196"/>
+      <c r="EA13" s="196"/>
+      <c r="EB13" s="196"/>
+      <c r="EC13" s="196"/>
+      <c r="ED13" s="196"/>
+      <c r="EE13" s="196"/>
+      <c r="EF13" s="196"/>
+      <c r="EG13" s="196"/>
+      <c r="EH13" s="196"/>
+      <c r="EI13" s="196"/>
+      <c r="EJ13" s="196"/>
+      <c r="EK13" s="196"/>
+      <c r="EL13" s="196"/>
+      <c r="EM13" s="196"/>
+      <c r="EN13" s="196"/>
+      <c r="EO13" s="196"/>
+      <c r="EP13" s="196"/>
+      <c r="EQ13" s="196"/>
+      <c r="ER13" s="196"/>
+      <c r="ES13" s="196"/>
+      <c r="ET13" s="196"/>
+      <c r="EU13" s="196"/>
+      <c r="EV13" s="196"/>
+      <c r="EW13" s="197"/>
+      <c r="EX13" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="EY13" s="175"/>
-      <c r="EZ13" s="175"/>
-      <c r="FA13" s="175"/>
-      <c r="FB13" s="175"/>
-      <c r="FC13" s="175"/>
-      <c r="FD13" s="175"/>
-      <c r="FE13" s="175"/>
-      <c r="FF13" s="175"/>
-      <c r="FG13" s="175"/>
-      <c r="FH13" s="175"/>
-      <c r="FI13" s="175"/>
-      <c r="FJ13" s="175"/>
-      <c r="FK13" s="175"/>
-      <c r="FL13" s="175"/>
-      <c r="FM13" s="175"/>
-      <c r="FN13" s="175"/>
-      <c r="FO13" s="175"/>
-      <c r="FP13" s="175"/>
-      <c r="FQ13" s="175"/>
-      <c r="FR13" s="175"/>
-      <c r="FS13" s="175"/>
-      <c r="FT13" s="175"/>
-      <c r="FU13" s="175"/>
-      <c r="FV13" s="175"/>
-      <c r="FW13" s="175"/>
-      <c r="FX13" s="175"/>
-      <c r="FY13" s="175"/>
-      <c r="FZ13" s="175"/>
-      <c r="GA13" s="178"/>
-      <c r="GB13" s="174" t="s">
+      <c r="EY13" s="196"/>
+      <c r="EZ13" s="196"/>
+      <c r="FA13" s="196"/>
+      <c r="FB13" s="196"/>
+      <c r="FC13" s="196"/>
+      <c r="FD13" s="196"/>
+      <c r="FE13" s="196"/>
+      <c r="FF13" s="196"/>
+      <c r="FG13" s="196"/>
+      <c r="FH13" s="196"/>
+      <c r="FI13" s="196"/>
+      <c r="FJ13" s="196"/>
+      <c r="FK13" s="196"/>
+      <c r="FL13" s="196"/>
+      <c r="FM13" s="196"/>
+      <c r="FN13" s="196"/>
+      <c r="FO13" s="196"/>
+      <c r="FP13" s="196"/>
+      <c r="FQ13" s="196"/>
+      <c r="FR13" s="196"/>
+      <c r="FS13" s="196"/>
+      <c r="FT13" s="196"/>
+      <c r="FU13" s="196"/>
+      <c r="FV13" s="196"/>
+      <c r="FW13" s="196"/>
+      <c r="FX13" s="196"/>
+      <c r="FY13" s="196"/>
+      <c r="FZ13" s="196"/>
+      <c r="GA13" s="199"/>
+      <c r="GB13" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="GC13" s="175"/>
-      <c r="GD13" s="175"/>
-      <c r="GE13" s="175"/>
-      <c r="GF13" s="175"/>
-      <c r="GG13" s="175"/>
-      <c r="GH13" s="175"/>
-      <c r="GI13" s="175"/>
-      <c r="GJ13" s="175"/>
-      <c r="GK13" s="175"/>
-      <c r="GL13" s="175"/>
-      <c r="GM13" s="175"/>
-      <c r="GN13" s="175"/>
-      <c r="GO13" s="175"/>
-      <c r="GP13" s="175"/>
-      <c r="GQ13" s="175"/>
-      <c r="GR13" s="175"/>
-      <c r="GS13" s="175"/>
-      <c r="GT13" s="175"/>
-      <c r="GU13" s="175"/>
-      <c r="GV13" s="175"/>
-      <c r="GW13" s="175"/>
-      <c r="GX13" s="175"/>
-      <c r="GY13" s="175"/>
-      <c r="GZ13" s="175"/>
-      <c r="HA13" s="175"/>
-      <c r="HB13" s="175"/>
-      <c r="HC13" s="175"/>
-      <c r="HD13" s="175"/>
-      <c r="HE13" s="176"/>
-      <c r="HF13" s="177" t="s">
+      <c r="GC13" s="196"/>
+      <c r="GD13" s="196"/>
+      <c r="GE13" s="196"/>
+      <c r="GF13" s="196"/>
+      <c r="GG13" s="196"/>
+      <c r="GH13" s="196"/>
+      <c r="GI13" s="196"/>
+      <c r="GJ13" s="196"/>
+      <c r="GK13" s="196"/>
+      <c r="GL13" s="196"/>
+      <c r="GM13" s="196"/>
+      <c r="GN13" s="196"/>
+      <c r="GO13" s="196"/>
+      <c r="GP13" s="196"/>
+      <c r="GQ13" s="196"/>
+      <c r="GR13" s="196"/>
+      <c r="GS13" s="196"/>
+      <c r="GT13" s="196"/>
+      <c r="GU13" s="196"/>
+      <c r="GV13" s="196"/>
+      <c r="GW13" s="196"/>
+      <c r="GX13" s="196"/>
+      <c r="GY13" s="196"/>
+      <c r="GZ13" s="196"/>
+      <c r="HA13" s="196"/>
+      <c r="HB13" s="196"/>
+      <c r="HC13" s="196"/>
+      <c r="HD13" s="196"/>
+      <c r="HE13" s="197"/>
+      <c r="HF13" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="HG13" s="175"/>
-      <c r="HH13" s="175"/>
-      <c r="HI13" s="175"/>
-      <c r="HJ13" s="175"/>
-      <c r="HK13" s="175"/>
-      <c r="HL13" s="175"/>
-      <c r="HM13" s="175"/>
-      <c r="HN13" s="175"/>
-      <c r="HO13" s="175"/>
-      <c r="HP13" s="175"/>
-      <c r="HQ13" s="175"/>
-      <c r="HR13" s="175"/>
-      <c r="HS13" s="175"/>
-      <c r="HT13" s="175"/>
-      <c r="HU13" s="175"/>
-      <c r="HV13" s="175"/>
-      <c r="HW13" s="175"/>
-      <c r="HX13" s="175"/>
-      <c r="HY13" s="175"/>
-      <c r="HZ13" s="175"/>
-      <c r="IA13" s="175"/>
-      <c r="IB13" s="175"/>
-      <c r="IC13" s="175"/>
-      <c r="ID13" s="175"/>
-      <c r="IE13" s="175"/>
-      <c r="IF13" s="175"/>
-      <c r="IG13" s="175"/>
-      <c r="IH13" s="175"/>
-      <c r="II13" s="176"/>
-      <c r="IJ13" s="177" t="s">
+      <c r="HG13" s="196"/>
+      <c r="HH13" s="196"/>
+      <c r="HI13" s="196"/>
+      <c r="HJ13" s="196"/>
+      <c r="HK13" s="196"/>
+      <c r="HL13" s="196"/>
+      <c r="HM13" s="196"/>
+      <c r="HN13" s="196"/>
+      <c r="HO13" s="196"/>
+      <c r="HP13" s="196"/>
+      <c r="HQ13" s="196"/>
+      <c r="HR13" s="196"/>
+      <c r="HS13" s="196"/>
+      <c r="HT13" s="196"/>
+      <c r="HU13" s="196"/>
+      <c r="HV13" s="196"/>
+      <c r="HW13" s="196"/>
+      <c r="HX13" s="196"/>
+      <c r="HY13" s="196"/>
+      <c r="HZ13" s="196"/>
+      <c r="IA13" s="196"/>
+      <c r="IB13" s="196"/>
+      <c r="IC13" s="196"/>
+      <c r="ID13" s="196"/>
+      <c r="IE13" s="196"/>
+      <c r="IF13" s="196"/>
+      <c r="IG13" s="196"/>
+      <c r="IH13" s="196"/>
+      <c r="II13" s="197"/>
+      <c r="IJ13" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="IK13" s="175"/>
-      <c r="IL13" s="175"/>
-      <c r="IM13" s="175"/>
-      <c r="IN13" s="175"/>
-      <c r="IO13" s="175"/>
-      <c r="IP13" s="175"/>
-      <c r="IQ13" s="175"/>
-      <c r="IR13" s="175"/>
-      <c r="IS13" s="175"/>
-      <c r="IT13" s="175"/>
-      <c r="IU13" s="175"/>
-      <c r="IV13" s="175"/>
-      <c r="IW13" s="175"/>
-      <c r="IX13" s="175"/>
-      <c r="IY13" s="175"/>
-      <c r="IZ13" s="175"/>
-      <c r="JA13" s="175"/>
-      <c r="JB13" s="175"/>
-      <c r="JC13" s="175"/>
-      <c r="JD13" s="175"/>
-      <c r="JE13" s="175"/>
-      <c r="JF13" s="175"/>
-      <c r="JG13" s="175"/>
-      <c r="JH13" s="175"/>
-      <c r="JI13" s="175"/>
-      <c r="JJ13" s="175"/>
-      <c r="JK13" s="175"/>
-      <c r="JL13" s="175"/>
-      <c r="JM13" s="176"/>
-      <c r="JN13" s="177" t="s">
+      <c r="IK13" s="196"/>
+      <c r="IL13" s="196"/>
+      <c r="IM13" s="196"/>
+      <c r="IN13" s="196"/>
+      <c r="IO13" s="196"/>
+      <c r="IP13" s="196"/>
+      <c r="IQ13" s="196"/>
+      <c r="IR13" s="196"/>
+      <c r="IS13" s="196"/>
+      <c r="IT13" s="196"/>
+      <c r="IU13" s="196"/>
+      <c r="IV13" s="196"/>
+      <c r="IW13" s="196"/>
+      <c r="IX13" s="196"/>
+      <c r="IY13" s="196"/>
+      <c r="IZ13" s="196"/>
+      <c r="JA13" s="196"/>
+      <c r="JB13" s="196"/>
+      <c r="JC13" s="196"/>
+      <c r="JD13" s="196"/>
+      <c r="JE13" s="196"/>
+      <c r="JF13" s="196"/>
+      <c r="JG13" s="196"/>
+      <c r="JH13" s="196"/>
+      <c r="JI13" s="196"/>
+      <c r="JJ13" s="196"/>
+      <c r="JK13" s="196"/>
+      <c r="JL13" s="196"/>
+      <c r="JM13" s="197"/>
+      <c r="JN13" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="JO13" s="175"/>
-      <c r="JP13" s="175"/>
-      <c r="JQ13" s="175"/>
-      <c r="JR13" s="175"/>
-      <c r="JS13" s="175"/>
-      <c r="JT13" s="175"/>
-      <c r="JU13" s="175"/>
-      <c r="JV13" s="175"/>
-      <c r="JW13" s="175"/>
-      <c r="JX13" s="175"/>
-      <c r="JY13" s="175"/>
-      <c r="JZ13" s="175"/>
-      <c r="KA13" s="175"/>
-      <c r="KB13" s="175"/>
-      <c r="KC13" s="175"/>
-      <c r="KD13" s="175"/>
-      <c r="KE13" s="175"/>
-      <c r="KF13" s="175"/>
-      <c r="KG13" s="175"/>
-      <c r="KH13" s="175"/>
-      <c r="KI13" s="175"/>
-      <c r="KJ13" s="175"/>
-      <c r="KK13" s="175"/>
-      <c r="KL13" s="175"/>
-      <c r="KM13" s="175"/>
-      <c r="KN13" s="175"/>
-      <c r="KO13" s="175"/>
-      <c r="KP13" s="175"/>
-      <c r="KQ13" s="179"/>
-      <c r="KR13" s="172" t="s">
+      <c r="JO13" s="196"/>
+      <c r="JP13" s="196"/>
+      <c r="JQ13" s="196"/>
+      <c r="JR13" s="196"/>
+      <c r="JS13" s="196"/>
+      <c r="JT13" s="196"/>
+      <c r="JU13" s="196"/>
+      <c r="JV13" s="196"/>
+      <c r="JW13" s="196"/>
+      <c r="JX13" s="196"/>
+      <c r="JY13" s="196"/>
+      <c r="JZ13" s="196"/>
+      <c r="KA13" s="196"/>
+      <c r="KB13" s="196"/>
+      <c r="KC13" s="196"/>
+      <c r="KD13" s="196"/>
+      <c r="KE13" s="196"/>
+      <c r="KF13" s="196"/>
+      <c r="KG13" s="196"/>
+      <c r="KH13" s="196"/>
+      <c r="KI13" s="196"/>
+      <c r="KJ13" s="196"/>
+      <c r="KK13" s="196"/>
+      <c r="KL13" s="196"/>
+      <c r="KM13" s="196"/>
+      <c r="KN13" s="196"/>
+      <c r="KO13" s="196"/>
+      <c r="KP13" s="196"/>
+      <c r="KQ13" s="200"/>
+      <c r="KR13" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="KS13" s="221"/>
-      <c r="KT13" s="174" t="s">
+      <c r="KS13" s="155"/>
+      <c r="KT13" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="KU13" s="175"/>
-      <c r="KV13" s="175"/>
-      <c r="KW13" s="175"/>
-      <c r="KX13" s="175"/>
-      <c r="KY13" s="175"/>
-      <c r="KZ13" s="175"/>
-      <c r="LA13" s="175"/>
-      <c r="LB13" s="175"/>
-      <c r="LC13" s="175"/>
-      <c r="LD13" s="175"/>
-      <c r="LE13" s="175"/>
-      <c r="LF13" s="175"/>
-      <c r="LG13" s="175"/>
-      <c r="LH13" s="175"/>
-      <c r="LI13" s="175"/>
-      <c r="LJ13" s="175"/>
-      <c r="LK13" s="175"/>
-      <c r="LL13" s="175"/>
-      <c r="LM13" s="175"/>
-      <c r="LN13" s="175"/>
-      <c r="LO13" s="175"/>
-      <c r="LP13" s="175"/>
-      <c r="LQ13" s="175"/>
-      <c r="LR13" s="175"/>
-      <c r="LS13" s="175"/>
-      <c r="LT13" s="175"/>
-      <c r="LU13" s="175"/>
-      <c r="LV13" s="175"/>
-      <c r="LW13" s="176"/>
-      <c r="LX13" s="177" t="s">
+      <c r="KU13" s="196"/>
+      <c r="KV13" s="196"/>
+      <c r="KW13" s="196"/>
+      <c r="KX13" s="196"/>
+      <c r="KY13" s="196"/>
+      <c r="KZ13" s="196"/>
+      <c r="LA13" s="196"/>
+      <c r="LB13" s="196"/>
+      <c r="LC13" s="196"/>
+      <c r="LD13" s="196"/>
+      <c r="LE13" s="196"/>
+      <c r="LF13" s="196"/>
+      <c r="LG13" s="196"/>
+      <c r="LH13" s="196"/>
+      <c r="LI13" s="196"/>
+      <c r="LJ13" s="196"/>
+      <c r="LK13" s="196"/>
+      <c r="LL13" s="196"/>
+      <c r="LM13" s="196"/>
+      <c r="LN13" s="196"/>
+      <c r="LO13" s="196"/>
+      <c r="LP13" s="196"/>
+      <c r="LQ13" s="196"/>
+      <c r="LR13" s="196"/>
+      <c r="LS13" s="196"/>
+      <c r="LT13" s="196"/>
+      <c r="LU13" s="196"/>
+      <c r="LV13" s="196"/>
+      <c r="LW13" s="197"/>
+      <c r="LX13" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="LY13" s="175"/>
-      <c r="LZ13" s="175"/>
-      <c r="MA13" s="175"/>
-      <c r="MB13" s="175"/>
-      <c r="MC13" s="175"/>
-      <c r="MD13" s="175"/>
-      <c r="ME13" s="175"/>
-      <c r="MF13" s="175"/>
-      <c r="MG13" s="175"/>
-      <c r="MH13" s="175"/>
-      <c r="MI13" s="175"/>
-      <c r="MJ13" s="175"/>
-      <c r="MK13" s="175"/>
-      <c r="ML13" s="175"/>
-      <c r="MM13" s="175"/>
-      <c r="MN13" s="175"/>
-      <c r="MO13" s="175"/>
-      <c r="MP13" s="175"/>
-      <c r="MQ13" s="175"/>
-      <c r="MR13" s="175"/>
-      <c r="MS13" s="175"/>
-      <c r="MT13" s="175"/>
-      <c r="MU13" s="175"/>
-      <c r="MV13" s="175"/>
-      <c r="MW13" s="175"/>
-      <c r="MX13" s="175"/>
-      <c r="MY13" s="175"/>
-      <c r="MZ13" s="175"/>
-      <c r="NA13" s="176"/>
-      <c r="NB13" s="177" t="s">
+      <c r="LY13" s="196"/>
+      <c r="LZ13" s="196"/>
+      <c r="MA13" s="196"/>
+      <c r="MB13" s="196"/>
+      <c r="MC13" s="196"/>
+      <c r="MD13" s="196"/>
+      <c r="ME13" s="196"/>
+      <c r="MF13" s="196"/>
+      <c r="MG13" s="196"/>
+      <c r="MH13" s="196"/>
+      <c r="MI13" s="196"/>
+      <c r="MJ13" s="196"/>
+      <c r="MK13" s="196"/>
+      <c r="ML13" s="196"/>
+      <c r="MM13" s="196"/>
+      <c r="MN13" s="196"/>
+      <c r="MO13" s="196"/>
+      <c r="MP13" s="196"/>
+      <c r="MQ13" s="196"/>
+      <c r="MR13" s="196"/>
+      <c r="MS13" s="196"/>
+      <c r="MT13" s="196"/>
+      <c r="MU13" s="196"/>
+      <c r="MV13" s="196"/>
+      <c r="MW13" s="196"/>
+      <c r="MX13" s="196"/>
+      <c r="MY13" s="196"/>
+      <c r="MZ13" s="196"/>
+      <c r="NA13" s="197"/>
+      <c r="NB13" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="NC13" s="175"/>
-      <c r="ND13" s="175"/>
-      <c r="NE13" s="175"/>
-      <c r="NF13" s="175"/>
-      <c r="NG13" s="175"/>
-      <c r="NH13" s="175"/>
-      <c r="NI13" s="175"/>
-      <c r="NJ13" s="175"/>
-      <c r="NK13" s="175"/>
-      <c r="NL13" s="175"/>
-      <c r="NM13" s="175"/>
-      <c r="NN13" s="175"/>
-      <c r="NO13" s="175"/>
-      <c r="NP13" s="175"/>
-      <c r="NQ13" s="175"/>
-      <c r="NR13" s="175"/>
-      <c r="NS13" s="175"/>
-      <c r="NT13" s="175"/>
-      <c r="NU13" s="175"/>
-      <c r="NV13" s="175"/>
-      <c r="NW13" s="175"/>
-      <c r="NX13" s="175"/>
-      <c r="NY13" s="175"/>
-      <c r="NZ13" s="175"/>
-      <c r="OA13" s="175"/>
-      <c r="OB13" s="175"/>
-      <c r="OC13" s="175"/>
-      <c r="OD13" s="175"/>
-      <c r="OE13" s="176"/>
-      <c r="OF13" s="177" t="s">
+      <c r="NC13" s="196"/>
+      <c r="ND13" s="196"/>
+      <c r="NE13" s="196"/>
+      <c r="NF13" s="196"/>
+      <c r="NG13" s="196"/>
+      <c r="NH13" s="196"/>
+      <c r="NI13" s="196"/>
+      <c r="NJ13" s="196"/>
+      <c r="NK13" s="196"/>
+      <c r="NL13" s="196"/>
+      <c r="NM13" s="196"/>
+      <c r="NN13" s="196"/>
+      <c r="NO13" s="196"/>
+      <c r="NP13" s="196"/>
+      <c r="NQ13" s="196"/>
+      <c r="NR13" s="196"/>
+      <c r="NS13" s="196"/>
+      <c r="NT13" s="196"/>
+      <c r="NU13" s="196"/>
+      <c r="NV13" s="196"/>
+      <c r="NW13" s="196"/>
+      <c r="NX13" s="196"/>
+      <c r="NY13" s="196"/>
+      <c r="NZ13" s="196"/>
+      <c r="OA13" s="196"/>
+      <c r="OB13" s="196"/>
+      <c r="OC13" s="196"/>
+      <c r="OD13" s="196"/>
+      <c r="OE13" s="197"/>
+      <c r="OF13" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="OG13" s="175"/>
-      <c r="OH13" s="175"/>
-      <c r="OI13" s="175"/>
-      <c r="OJ13" s="175"/>
-      <c r="OK13" s="175"/>
-      <c r="OL13" s="175"/>
-      <c r="OM13" s="175"/>
-      <c r="ON13" s="175"/>
-      <c r="OO13" s="175"/>
-      <c r="OP13" s="175"/>
-      <c r="OQ13" s="175"/>
-      <c r="OR13" s="175"/>
-      <c r="OS13" s="175"/>
-      <c r="OT13" s="175"/>
-      <c r="OU13" s="175"/>
-      <c r="OV13" s="175"/>
-      <c r="OW13" s="175"/>
-      <c r="OX13" s="175"/>
-      <c r="OY13" s="175"/>
-      <c r="OZ13" s="175"/>
-      <c r="PA13" s="175"/>
-      <c r="PB13" s="175"/>
-      <c r="PC13" s="175"/>
-      <c r="PD13" s="175"/>
-      <c r="PE13" s="175"/>
-      <c r="PF13" s="175"/>
-      <c r="PG13" s="175"/>
-      <c r="PH13" s="175"/>
-      <c r="PI13" s="179"/>
-      <c r="PJ13" s="174" t="s">
+      <c r="OG13" s="196"/>
+      <c r="OH13" s="196"/>
+      <c r="OI13" s="196"/>
+      <c r="OJ13" s="196"/>
+      <c r="OK13" s="196"/>
+      <c r="OL13" s="196"/>
+      <c r="OM13" s="196"/>
+      <c r="ON13" s="196"/>
+      <c r="OO13" s="196"/>
+      <c r="OP13" s="196"/>
+      <c r="OQ13" s="196"/>
+      <c r="OR13" s="196"/>
+      <c r="OS13" s="196"/>
+      <c r="OT13" s="196"/>
+      <c r="OU13" s="196"/>
+      <c r="OV13" s="196"/>
+      <c r="OW13" s="196"/>
+      <c r="OX13" s="196"/>
+      <c r="OY13" s="196"/>
+      <c r="OZ13" s="196"/>
+      <c r="PA13" s="196"/>
+      <c r="PB13" s="196"/>
+      <c r="PC13" s="196"/>
+      <c r="PD13" s="196"/>
+      <c r="PE13" s="196"/>
+      <c r="PF13" s="196"/>
+      <c r="PG13" s="196"/>
+      <c r="PH13" s="196"/>
+      <c r="PI13" s="200"/>
+      <c r="PJ13" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="PK13" s="175"/>
-      <c r="PL13" s="175"/>
-      <c r="PM13" s="175"/>
-      <c r="PN13" s="175"/>
-      <c r="PO13" s="175"/>
-      <c r="PP13" s="175"/>
-      <c r="PQ13" s="175"/>
-      <c r="PR13" s="175"/>
-      <c r="PS13" s="175"/>
-      <c r="PT13" s="175"/>
-      <c r="PU13" s="175"/>
-      <c r="PV13" s="175"/>
-      <c r="PW13" s="175"/>
-      <c r="PX13" s="175"/>
-      <c r="PY13" s="175"/>
-      <c r="PZ13" s="175"/>
-      <c r="QA13" s="175"/>
-      <c r="QB13" s="175"/>
-      <c r="QC13" s="175"/>
-      <c r="QD13" s="175"/>
-      <c r="QE13" s="175"/>
-      <c r="QF13" s="175"/>
-      <c r="QG13" s="175"/>
-      <c r="QH13" s="175"/>
-      <c r="QI13" s="175"/>
-      <c r="QJ13" s="175"/>
-      <c r="QK13" s="175"/>
-      <c r="QL13" s="175"/>
-      <c r="QM13" s="176"/>
-      <c r="QN13" s="177" t="s">
+      <c r="PK13" s="196"/>
+      <c r="PL13" s="196"/>
+      <c r="PM13" s="196"/>
+      <c r="PN13" s="196"/>
+      <c r="PO13" s="196"/>
+      <c r="PP13" s="196"/>
+      <c r="PQ13" s="196"/>
+      <c r="PR13" s="196"/>
+      <c r="PS13" s="196"/>
+      <c r="PT13" s="196"/>
+      <c r="PU13" s="196"/>
+      <c r="PV13" s="196"/>
+      <c r="PW13" s="196"/>
+      <c r="PX13" s="196"/>
+      <c r="PY13" s="196"/>
+      <c r="PZ13" s="196"/>
+      <c r="QA13" s="196"/>
+      <c r="QB13" s="196"/>
+      <c r="QC13" s="196"/>
+      <c r="QD13" s="196"/>
+      <c r="QE13" s="196"/>
+      <c r="QF13" s="196"/>
+      <c r="QG13" s="196"/>
+      <c r="QH13" s="196"/>
+      <c r="QI13" s="196"/>
+      <c r="QJ13" s="196"/>
+      <c r="QK13" s="196"/>
+      <c r="QL13" s="196"/>
+      <c r="QM13" s="197"/>
+      <c r="QN13" s="198" t="s">
         <v>21</v>
       </c>
-      <c r="QO13" s="175"/>
-      <c r="QP13" s="175"/>
-      <c r="QQ13" s="175"/>
-      <c r="QR13" s="175"/>
-      <c r="QS13" s="175"/>
-      <c r="QT13" s="175"/>
-      <c r="QU13" s="175"/>
-      <c r="QV13" s="175"/>
-      <c r="QW13" s="175"/>
-      <c r="QX13" s="175"/>
-      <c r="QY13" s="175"/>
-      <c r="QZ13" s="175"/>
-      <c r="RA13" s="175"/>
-      <c r="RB13" s="175"/>
-      <c r="RC13" s="175"/>
-      <c r="RD13" s="175"/>
-      <c r="RE13" s="175"/>
-      <c r="RF13" s="175"/>
-      <c r="RG13" s="175"/>
-      <c r="RH13" s="175"/>
-      <c r="RI13" s="175"/>
-      <c r="RJ13" s="175"/>
-      <c r="RK13" s="175"/>
-      <c r="RL13" s="175"/>
-      <c r="RM13" s="175"/>
-      <c r="RN13" s="175"/>
-      <c r="RO13" s="175"/>
-      <c r="RP13" s="175"/>
-      <c r="RQ13" s="176"/>
-      <c r="RR13" s="177" t="s">
+      <c r="QO13" s="196"/>
+      <c r="QP13" s="196"/>
+      <c r="QQ13" s="196"/>
+      <c r="QR13" s="196"/>
+      <c r="QS13" s="196"/>
+      <c r="QT13" s="196"/>
+      <c r="QU13" s="196"/>
+      <c r="QV13" s="196"/>
+      <c r="QW13" s="196"/>
+      <c r="QX13" s="196"/>
+      <c r="QY13" s="196"/>
+      <c r="QZ13" s="196"/>
+      <c r="RA13" s="196"/>
+      <c r="RB13" s="196"/>
+      <c r="RC13" s="196"/>
+      <c r="RD13" s="196"/>
+      <c r="RE13" s="196"/>
+      <c r="RF13" s="196"/>
+      <c r="RG13" s="196"/>
+      <c r="RH13" s="196"/>
+      <c r="RI13" s="196"/>
+      <c r="RJ13" s="196"/>
+      <c r="RK13" s="196"/>
+      <c r="RL13" s="196"/>
+      <c r="RM13" s="196"/>
+      <c r="RN13" s="196"/>
+      <c r="RO13" s="196"/>
+      <c r="RP13" s="196"/>
+      <c r="RQ13" s="197"/>
+      <c r="RR13" s="198" t="s">
         <v>18</v>
       </c>
-      <c r="RS13" s="175"/>
-      <c r="RT13" s="175"/>
-      <c r="RU13" s="175"/>
-      <c r="RV13" s="175"/>
-      <c r="RW13" s="175"/>
-      <c r="RX13" s="175"/>
-      <c r="RY13" s="175"/>
-      <c r="RZ13" s="175"/>
-      <c r="SA13" s="175"/>
-      <c r="SB13" s="175"/>
-      <c r="SC13" s="175"/>
-      <c r="SD13" s="175"/>
-      <c r="SE13" s="175"/>
-      <c r="SF13" s="175"/>
-      <c r="SG13" s="175"/>
-      <c r="SH13" s="175"/>
-      <c r="SI13" s="175"/>
-      <c r="SJ13" s="175"/>
-      <c r="SK13" s="175"/>
-      <c r="SL13" s="175"/>
-      <c r="SM13" s="175"/>
-      <c r="SN13" s="175"/>
-      <c r="SO13" s="175"/>
-      <c r="SP13" s="175"/>
-      <c r="SQ13" s="175"/>
-      <c r="SR13" s="175"/>
-      <c r="SS13" s="175"/>
-      <c r="ST13" s="175"/>
-      <c r="SU13" s="176"/>
-      <c r="SV13" s="177" t="s">
+      <c r="RS13" s="196"/>
+      <c r="RT13" s="196"/>
+      <c r="RU13" s="196"/>
+      <c r="RV13" s="196"/>
+      <c r="RW13" s="196"/>
+      <c r="RX13" s="196"/>
+      <c r="RY13" s="196"/>
+      <c r="RZ13" s="196"/>
+      <c r="SA13" s="196"/>
+      <c r="SB13" s="196"/>
+      <c r="SC13" s="196"/>
+      <c r="SD13" s="196"/>
+      <c r="SE13" s="196"/>
+      <c r="SF13" s="196"/>
+      <c r="SG13" s="196"/>
+      <c r="SH13" s="196"/>
+      <c r="SI13" s="196"/>
+      <c r="SJ13" s="196"/>
+      <c r="SK13" s="196"/>
+      <c r="SL13" s="196"/>
+      <c r="SM13" s="196"/>
+      <c r="SN13" s="196"/>
+      <c r="SO13" s="196"/>
+      <c r="SP13" s="196"/>
+      <c r="SQ13" s="196"/>
+      <c r="SR13" s="196"/>
+      <c r="SS13" s="196"/>
+      <c r="ST13" s="196"/>
+      <c r="SU13" s="197"/>
+      <c r="SV13" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="SW13" s="175"/>
-      <c r="SX13" s="175"/>
-      <c r="SY13" s="175"/>
-      <c r="SZ13" s="175"/>
-      <c r="TA13" s="175"/>
-      <c r="TB13" s="175"/>
-      <c r="TC13" s="175"/>
-      <c r="TD13" s="175"/>
-      <c r="TE13" s="175"/>
-      <c r="TF13" s="175"/>
-      <c r="TG13" s="175"/>
-      <c r="TH13" s="175"/>
-      <c r="TI13" s="175"/>
-      <c r="TJ13" s="175"/>
-      <c r="TK13" s="175"/>
-      <c r="TL13" s="175"/>
-      <c r="TM13" s="175"/>
-      <c r="TN13" s="175"/>
-      <c r="TO13" s="175"/>
-      <c r="TP13" s="175"/>
-      <c r="TQ13" s="175"/>
-      <c r="TR13" s="175"/>
-      <c r="TS13" s="175"/>
-      <c r="TT13" s="175"/>
-      <c r="TU13" s="175"/>
-      <c r="TV13" s="175"/>
-      <c r="TW13" s="175"/>
-      <c r="TX13" s="175"/>
-      <c r="TY13" s="179"/>
-      <c r="TZ13" s="174" t="s">
+      <c r="SW13" s="196"/>
+      <c r="SX13" s="196"/>
+      <c r="SY13" s="196"/>
+      <c r="SZ13" s="196"/>
+      <c r="TA13" s="196"/>
+      <c r="TB13" s="196"/>
+      <c r="TC13" s="196"/>
+      <c r="TD13" s="196"/>
+      <c r="TE13" s="196"/>
+      <c r="TF13" s="196"/>
+      <c r="TG13" s="196"/>
+      <c r="TH13" s="196"/>
+      <c r="TI13" s="196"/>
+      <c r="TJ13" s="196"/>
+      <c r="TK13" s="196"/>
+      <c r="TL13" s="196"/>
+      <c r="TM13" s="196"/>
+      <c r="TN13" s="196"/>
+      <c r="TO13" s="196"/>
+      <c r="TP13" s="196"/>
+      <c r="TQ13" s="196"/>
+      <c r="TR13" s="196"/>
+      <c r="TS13" s="196"/>
+      <c r="TT13" s="196"/>
+      <c r="TU13" s="196"/>
+      <c r="TV13" s="196"/>
+      <c r="TW13" s="196"/>
+      <c r="TX13" s="196"/>
+      <c r="TY13" s="200"/>
+      <c r="TZ13" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="UA13" s="175"/>
-      <c r="UB13" s="175"/>
-      <c r="UC13" s="175"/>
-      <c r="UD13" s="175"/>
-      <c r="UE13" s="175"/>
-      <c r="UF13" s="175"/>
-      <c r="UG13" s="175"/>
-      <c r="UH13" s="175"/>
-      <c r="UI13" s="175"/>
-      <c r="UJ13" s="175"/>
-      <c r="UK13" s="175"/>
-      <c r="UL13" s="175"/>
-      <c r="UM13" s="175"/>
-      <c r="UN13" s="175"/>
-      <c r="UO13" s="175"/>
-      <c r="UP13" s="175"/>
-      <c r="UQ13" s="175"/>
-      <c r="UR13" s="175"/>
-      <c r="US13" s="175"/>
-      <c r="UT13" s="175"/>
-      <c r="UU13" s="175"/>
-      <c r="UV13" s="175"/>
-      <c r="UW13" s="175"/>
-      <c r="UX13" s="175"/>
-      <c r="UY13" s="175"/>
-      <c r="UZ13" s="175"/>
-      <c r="VA13" s="175"/>
-      <c r="VB13" s="175"/>
-      <c r="VC13" s="179"/>
+      <c r="UA13" s="196"/>
+      <c r="UB13" s="196"/>
+      <c r="UC13" s="196"/>
+      <c r="UD13" s="196"/>
+      <c r="UE13" s="196"/>
+      <c r="UF13" s="196"/>
+      <c r="UG13" s="196"/>
+      <c r="UH13" s="196"/>
+      <c r="UI13" s="196"/>
+      <c r="UJ13" s="196"/>
+      <c r="UK13" s="196"/>
+      <c r="UL13" s="196"/>
+      <c r="UM13" s="196"/>
+      <c r="UN13" s="196"/>
+      <c r="UO13" s="196"/>
+      <c r="UP13" s="196"/>
+      <c r="UQ13" s="196"/>
+      <c r="UR13" s="196"/>
+      <c r="US13" s="196"/>
+      <c r="UT13" s="196"/>
+      <c r="UU13" s="196"/>
+      <c r="UV13" s="196"/>
+      <c r="UW13" s="196"/>
+      <c r="UX13" s="196"/>
+      <c r="UY13" s="196"/>
+      <c r="UZ13" s="196"/>
+      <c r="VA13" s="196"/>
+      <c r="VB13" s="196"/>
+      <c r="VC13" s="200"/>
     </row>
     <row r="14" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="172" t="s">
+      <c r="B14" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="173"/>
-      <c r="D14" s="180">
+      <c r="C14" s="190"/>
+      <c r="D14" s="187">
         <v>45414</v>
       </c>
-      <c r="E14" s="181"/>
-      <c r="F14" s="181"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="181"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="181"/>
-      <c r="S14" s="181"/>
-      <c r="T14" s="181"/>
-      <c r="U14" s="181"/>
-      <c r="V14" s="181"/>
-      <c r="W14" s="181"/>
-      <c r="X14" s="181"/>
-      <c r="Y14" s="181"/>
-      <c r="Z14" s="181"/>
-      <c r="AA14" s="181"/>
-      <c r="AB14" s="181"/>
-      <c r="AC14" s="181"/>
-      <c r="AD14" s="181"/>
-      <c r="AE14" s="181"/>
-      <c r="AF14" s="181"/>
-      <c r="AG14" s="182"/>
-      <c r="AH14" s="183">
+      <c r="E14" s="185"/>
+      <c r="F14" s="185"/>
+      <c r="G14" s="185"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="185"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="185"/>
+      <c r="L14" s="185"/>
+      <c r="M14" s="185"/>
+      <c r="N14" s="185"/>
+      <c r="O14" s="185"/>
+      <c r="P14" s="185"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="185"/>
+      <c r="T14" s="185"/>
+      <c r="U14" s="185"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="185"/>
+      <c r="Y14" s="185"/>
+      <c r="Z14" s="185"/>
+      <c r="AA14" s="185"/>
+      <c r="AB14" s="185"/>
+      <c r="AC14" s="185"/>
+      <c r="AD14" s="185"/>
+      <c r="AE14" s="185"/>
+      <c r="AF14" s="185"/>
+      <c r="AG14" s="189"/>
+      <c r="AH14" s="184">
         <v>45415</v>
       </c>
-      <c r="AI14" s="181"/>
-      <c r="AJ14" s="181"/>
-      <c r="AK14" s="181"/>
-      <c r="AL14" s="181"/>
-      <c r="AM14" s="181"/>
-      <c r="AN14" s="181"/>
-      <c r="AO14" s="181"/>
-      <c r="AP14" s="181"/>
-      <c r="AQ14" s="181"/>
-      <c r="AR14" s="181"/>
-      <c r="AS14" s="181"/>
-      <c r="AT14" s="181"/>
-      <c r="AU14" s="181"/>
-      <c r="AV14" s="181"/>
-      <c r="AW14" s="181"/>
-      <c r="AX14" s="181"/>
-      <c r="AY14" s="181"/>
-      <c r="AZ14" s="181"/>
-      <c r="BA14" s="181"/>
-      <c r="BB14" s="181"/>
-      <c r="BC14" s="181"/>
-      <c r="BD14" s="181"/>
-      <c r="BE14" s="181"/>
-      <c r="BF14" s="181"/>
-      <c r="BG14" s="181"/>
-      <c r="BH14" s="181"/>
-      <c r="BI14" s="181"/>
-      <c r="BJ14" s="181"/>
-      <c r="BK14" s="184"/>
-      <c r="BL14" s="180">
+      <c r="AI14" s="185"/>
+      <c r="AJ14" s="185"/>
+      <c r="AK14" s="185"/>
+      <c r="AL14" s="185"/>
+      <c r="AM14" s="185"/>
+      <c r="AN14" s="185"/>
+      <c r="AO14" s="185"/>
+      <c r="AP14" s="185"/>
+      <c r="AQ14" s="185"/>
+      <c r="AR14" s="185"/>
+      <c r="AS14" s="185"/>
+      <c r="AT14" s="185"/>
+      <c r="AU14" s="185"/>
+      <c r="AV14" s="185"/>
+      <c r="AW14" s="185"/>
+      <c r="AX14" s="185"/>
+      <c r="AY14" s="185"/>
+      <c r="AZ14" s="185"/>
+      <c r="BA14" s="185"/>
+      <c r="BB14" s="185"/>
+      <c r="BC14" s="185"/>
+      <c r="BD14" s="185"/>
+      <c r="BE14" s="185"/>
+      <c r="BF14" s="185"/>
+      <c r="BG14" s="185"/>
+      <c r="BH14" s="185"/>
+      <c r="BI14" s="185"/>
+      <c r="BJ14" s="185"/>
+      <c r="BK14" s="191"/>
+      <c r="BL14" s="187">
         <v>45418</v>
       </c>
-      <c r="BM14" s="181"/>
-      <c r="BN14" s="181"/>
-      <c r="BO14" s="181"/>
-      <c r="BP14" s="181"/>
-      <c r="BQ14" s="181"/>
-      <c r="BR14" s="181"/>
-      <c r="BS14" s="181"/>
-      <c r="BT14" s="181"/>
-      <c r="BU14" s="181"/>
-      <c r="BV14" s="181"/>
-      <c r="BW14" s="181"/>
-      <c r="BX14" s="181"/>
-      <c r="BY14" s="181"/>
-      <c r="BZ14" s="181"/>
-      <c r="CA14" s="181"/>
-      <c r="CB14" s="181"/>
-      <c r="CC14" s="181"/>
-      <c r="CD14" s="181"/>
-      <c r="CE14" s="181"/>
-      <c r="CF14" s="181"/>
-      <c r="CG14" s="181"/>
-      <c r="CH14" s="181"/>
-      <c r="CI14" s="181"/>
-      <c r="CJ14" s="181"/>
-      <c r="CK14" s="181"/>
-      <c r="CL14" s="181"/>
-      <c r="CM14" s="181"/>
-      <c r="CN14" s="181"/>
-      <c r="CO14" s="182"/>
-      <c r="CP14" s="183">
+      <c r="BM14" s="185"/>
+      <c r="BN14" s="185"/>
+      <c r="BO14" s="185"/>
+      <c r="BP14" s="185"/>
+      <c r="BQ14" s="185"/>
+      <c r="BR14" s="185"/>
+      <c r="BS14" s="185"/>
+      <c r="BT14" s="185"/>
+      <c r="BU14" s="185"/>
+      <c r="BV14" s="185"/>
+      <c r="BW14" s="185"/>
+      <c r="BX14" s="185"/>
+      <c r="BY14" s="185"/>
+      <c r="BZ14" s="185"/>
+      <c r="CA14" s="185"/>
+      <c r="CB14" s="185"/>
+      <c r="CC14" s="185"/>
+      <c r="CD14" s="185"/>
+      <c r="CE14" s="185"/>
+      <c r="CF14" s="185"/>
+      <c r="CG14" s="185"/>
+      <c r="CH14" s="185"/>
+      <c r="CI14" s="185"/>
+      <c r="CJ14" s="185"/>
+      <c r="CK14" s="185"/>
+      <c r="CL14" s="185"/>
+      <c r="CM14" s="185"/>
+      <c r="CN14" s="185"/>
+      <c r="CO14" s="189"/>
+      <c r="CP14" s="184">
         <v>45420</v>
       </c>
-      <c r="CQ14" s="181"/>
-      <c r="CR14" s="181"/>
-      <c r="CS14" s="181"/>
-      <c r="CT14" s="181"/>
-      <c r="CU14" s="181"/>
-      <c r="CV14" s="181"/>
-      <c r="CW14" s="181"/>
-      <c r="CX14" s="181"/>
-      <c r="CY14" s="181"/>
-      <c r="CZ14" s="181"/>
-      <c r="DA14" s="181"/>
-      <c r="DB14" s="181"/>
-      <c r="DC14" s="181"/>
-      <c r="DD14" s="181"/>
-      <c r="DE14" s="181"/>
-      <c r="DF14" s="181"/>
-      <c r="DG14" s="181"/>
-      <c r="DH14" s="181"/>
-      <c r="DI14" s="181"/>
-      <c r="DJ14" s="181"/>
-      <c r="DK14" s="181"/>
-      <c r="DL14" s="181"/>
-      <c r="DM14" s="181"/>
-      <c r="DN14" s="181"/>
-      <c r="DO14" s="181"/>
-      <c r="DP14" s="181"/>
-      <c r="DQ14" s="181"/>
-      <c r="DR14" s="181"/>
-      <c r="DS14" s="182"/>
-      <c r="DT14" s="183">
+      <c r="CQ14" s="185"/>
+      <c r="CR14" s="185"/>
+      <c r="CS14" s="185"/>
+      <c r="CT14" s="185"/>
+      <c r="CU14" s="185"/>
+      <c r="CV14" s="185"/>
+      <c r="CW14" s="185"/>
+      <c r="CX14" s="185"/>
+      <c r="CY14" s="185"/>
+      <c r="CZ14" s="185"/>
+      <c r="DA14" s="185"/>
+      <c r="DB14" s="185"/>
+      <c r="DC14" s="185"/>
+      <c r="DD14" s="185"/>
+      <c r="DE14" s="185"/>
+      <c r="DF14" s="185"/>
+      <c r="DG14" s="185"/>
+      <c r="DH14" s="185"/>
+      <c r="DI14" s="185"/>
+      <c r="DJ14" s="185"/>
+      <c r="DK14" s="185"/>
+      <c r="DL14" s="185"/>
+      <c r="DM14" s="185"/>
+      <c r="DN14" s="185"/>
+      <c r="DO14" s="185"/>
+      <c r="DP14" s="185"/>
+      <c r="DQ14" s="185"/>
+      <c r="DR14" s="185"/>
+      <c r="DS14" s="189"/>
+      <c r="DT14" s="184">
         <v>45421</v>
       </c>
-      <c r="DU14" s="181"/>
-      <c r="DV14" s="181"/>
-      <c r="DW14" s="181"/>
-      <c r="DX14" s="181"/>
-      <c r="DY14" s="181"/>
-      <c r="DZ14" s="181"/>
-      <c r="EA14" s="181"/>
-      <c r="EB14" s="181"/>
-      <c r="EC14" s="181"/>
-      <c r="ED14" s="181"/>
-      <c r="EE14" s="181"/>
-      <c r="EF14" s="181"/>
-      <c r="EG14" s="181"/>
-      <c r="EH14" s="181"/>
-      <c r="EI14" s="181"/>
-      <c r="EJ14" s="181"/>
-      <c r="EK14" s="181"/>
-      <c r="EL14" s="181"/>
-      <c r="EM14" s="181"/>
-      <c r="EN14" s="181"/>
-      <c r="EO14" s="181"/>
-      <c r="EP14" s="181"/>
-      <c r="EQ14" s="181"/>
-      <c r="ER14" s="181"/>
-      <c r="ES14" s="181"/>
-      <c r="ET14" s="181"/>
-      <c r="EU14" s="181"/>
-      <c r="EV14" s="181"/>
-      <c r="EW14" s="182"/>
-      <c r="EX14" s="183">
+      <c r="DU14" s="185"/>
+      <c r="DV14" s="185"/>
+      <c r="DW14" s="185"/>
+      <c r="DX14" s="185"/>
+      <c r="DY14" s="185"/>
+      <c r="DZ14" s="185"/>
+      <c r="EA14" s="185"/>
+      <c r="EB14" s="185"/>
+      <c r="EC14" s="185"/>
+      <c r="ED14" s="185"/>
+      <c r="EE14" s="185"/>
+      <c r="EF14" s="185"/>
+      <c r="EG14" s="185"/>
+      <c r="EH14" s="185"/>
+      <c r="EI14" s="185"/>
+      <c r="EJ14" s="185"/>
+      <c r="EK14" s="185"/>
+      <c r="EL14" s="185"/>
+      <c r="EM14" s="185"/>
+      <c r="EN14" s="185"/>
+      <c r="EO14" s="185"/>
+      <c r="EP14" s="185"/>
+      <c r="EQ14" s="185"/>
+      <c r="ER14" s="185"/>
+      <c r="ES14" s="185"/>
+      <c r="ET14" s="185"/>
+      <c r="EU14" s="185"/>
+      <c r="EV14" s="185"/>
+      <c r="EW14" s="189"/>
+      <c r="EX14" s="184">
         <v>45422</v>
       </c>
-      <c r="EY14" s="181"/>
-      <c r="EZ14" s="181"/>
-      <c r="FA14" s="181"/>
-      <c r="FB14" s="181"/>
-      <c r="FC14" s="181"/>
-      <c r="FD14" s="181"/>
-      <c r="FE14" s="181"/>
-      <c r="FF14" s="181"/>
-      <c r="FG14" s="181"/>
-      <c r="FH14" s="181"/>
-      <c r="FI14" s="181"/>
-      <c r="FJ14" s="181"/>
-      <c r="FK14" s="181"/>
-      <c r="FL14" s="181"/>
-      <c r="FM14" s="181"/>
-      <c r="FN14" s="181"/>
-      <c r="FO14" s="181"/>
-      <c r="FP14" s="181"/>
-      <c r="FQ14" s="181"/>
-      <c r="FR14" s="181"/>
-      <c r="FS14" s="181"/>
-      <c r="FT14" s="181"/>
-      <c r="FU14" s="181"/>
-      <c r="FV14" s="181"/>
-      <c r="FW14" s="181"/>
-      <c r="FX14" s="181"/>
-      <c r="FY14" s="181"/>
-      <c r="FZ14" s="181"/>
-      <c r="GA14" s="184"/>
-      <c r="GB14" s="180">
+      <c r="EY14" s="185"/>
+      <c r="EZ14" s="185"/>
+      <c r="FA14" s="185"/>
+      <c r="FB14" s="185"/>
+      <c r="FC14" s="185"/>
+      <c r="FD14" s="185"/>
+      <c r="FE14" s="185"/>
+      <c r="FF14" s="185"/>
+      <c r="FG14" s="185"/>
+      <c r="FH14" s="185"/>
+      <c r="FI14" s="185"/>
+      <c r="FJ14" s="185"/>
+      <c r="FK14" s="185"/>
+      <c r="FL14" s="185"/>
+      <c r="FM14" s="185"/>
+      <c r="FN14" s="185"/>
+      <c r="FO14" s="185"/>
+      <c r="FP14" s="185"/>
+      <c r="FQ14" s="185"/>
+      <c r="FR14" s="185"/>
+      <c r="FS14" s="185"/>
+      <c r="FT14" s="185"/>
+      <c r="FU14" s="185"/>
+      <c r="FV14" s="185"/>
+      <c r="FW14" s="185"/>
+      <c r="FX14" s="185"/>
+      <c r="FY14" s="185"/>
+      <c r="FZ14" s="185"/>
+      <c r="GA14" s="191"/>
+      <c r="GB14" s="187">
         <v>45425</v>
       </c>
-      <c r="GC14" s="181"/>
-      <c r="GD14" s="181"/>
-      <c r="GE14" s="181"/>
-      <c r="GF14" s="181"/>
-      <c r="GG14" s="181"/>
-      <c r="GH14" s="181"/>
-      <c r="GI14" s="181"/>
-      <c r="GJ14" s="181"/>
-      <c r="GK14" s="181"/>
-      <c r="GL14" s="181"/>
-      <c r="GM14" s="181"/>
-      <c r="GN14" s="181"/>
-      <c r="GO14" s="181"/>
-      <c r="GP14" s="181"/>
-      <c r="GQ14" s="181"/>
-      <c r="GR14" s="181"/>
-      <c r="GS14" s="181"/>
-      <c r="GT14" s="181"/>
-      <c r="GU14" s="181"/>
-      <c r="GV14" s="181"/>
-      <c r="GW14" s="181"/>
-      <c r="GX14" s="181"/>
-      <c r="GY14" s="181"/>
-      <c r="GZ14" s="181"/>
-      <c r="HA14" s="181"/>
-      <c r="HB14" s="181"/>
-      <c r="HC14" s="181"/>
-      <c r="HD14" s="181"/>
-      <c r="HE14" s="182"/>
-      <c r="HF14" s="183">
+      <c r="GC14" s="185"/>
+      <c r="GD14" s="185"/>
+      <c r="GE14" s="185"/>
+      <c r="GF14" s="185"/>
+      <c r="GG14" s="185"/>
+      <c r="GH14" s="185"/>
+      <c r="GI14" s="185"/>
+      <c r="GJ14" s="185"/>
+      <c r="GK14" s="185"/>
+      <c r="GL14" s="185"/>
+      <c r="GM14" s="185"/>
+      <c r="GN14" s="185"/>
+      <c r="GO14" s="185"/>
+      <c r="GP14" s="185"/>
+      <c r="GQ14" s="185"/>
+      <c r="GR14" s="185"/>
+      <c r="GS14" s="185"/>
+      <c r="GT14" s="185"/>
+      <c r="GU14" s="185"/>
+      <c r="GV14" s="185"/>
+      <c r="GW14" s="185"/>
+      <c r="GX14" s="185"/>
+      <c r="GY14" s="185"/>
+      <c r="GZ14" s="185"/>
+      <c r="HA14" s="185"/>
+      <c r="HB14" s="185"/>
+      <c r="HC14" s="185"/>
+      <c r="HD14" s="185"/>
+      <c r="HE14" s="189"/>
+      <c r="HF14" s="184">
         <v>45427</v>
       </c>
-      <c r="HG14" s="181"/>
-      <c r="HH14" s="181"/>
-      <c r="HI14" s="181"/>
-      <c r="HJ14" s="181"/>
-      <c r="HK14" s="181"/>
-      <c r="HL14" s="181"/>
-      <c r="HM14" s="181"/>
-      <c r="HN14" s="181"/>
-      <c r="HO14" s="181"/>
-      <c r="HP14" s="181"/>
-      <c r="HQ14" s="181"/>
-      <c r="HR14" s="181"/>
-      <c r="HS14" s="181"/>
-      <c r="HT14" s="181"/>
-      <c r="HU14" s="181"/>
-      <c r="HV14" s="181"/>
-      <c r="HW14" s="181"/>
-      <c r="HX14" s="181"/>
-      <c r="HY14" s="181"/>
-      <c r="HZ14" s="181"/>
-      <c r="IA14" s="181"/>
-      <c r="IB14" s="181"/>
-      <c r="IC14" s="181"/>
-      <c r="ID14" s="181"/>
-      <c r="IE14" s="181"/>
-      <c r="IF14" s="181"/>
-      <c r="IG14" s="181"/>
-      <c r="IH14" s="181"/>
-      <c r="II14" s="182"/>
-      <c r="IJ14" s="183">
+      <c r="HG14" s="185"/>
+      <c r="HH14" s="185"/>
+      <c r="HI14" s="185"/>
+      <c r="HJ14" s="185"/>
+      <c r="HK14" s="185"/>
+      <c r="HL14" s="185"/>
+      <c r="HM14" s="185"/>
+      <c r="HN14" s="185"/>
+      <c r="HO14" s="185"/>
+      <c r="HP14" s="185"/>
+      <c r="HQ14" s="185"/>
+      <c r="HR14" s="185"/>
+      <c r="HS14" s="185"/>
+      <c r="HT14" s="185"/>
+      <c r="HU14" s="185"/>
+      <c r="HV14" s="185"/>
+      <c r="HW14" s="185"/>
+      <c r="HX14" s="185"/>
+      <c r="HY14" s="185"/>
+      <c r="HZ14" s="185"/>
+      <c r="IA14" s="185"/>
+      <c r="IB14" s="185"/>
+      <c r="IC14" s="185"/>
+      <c r="ID14" s="185"/>
+      <c r="IE14" s="185"/>
+      <c r="IF14" s="185"/>
+      <c r="IG14" s="185"/>
+      <c r="IH14" s="185"/>
+      <c r="II14" s="189"/>
+      <c r="IJ14" s="184">
         <v>45428</v>
       </c>
-      <c r="IK14" s="181"/>
-      <c r="IL14" s="181"/>
-      <c r="IM14" s="181"/>
-      <c r="IN14" s="181"/>
-      <c r="IO14" s="181"/>
-      <c r="IP14" s="181"/>
-      <c r="IQ14" s="181"/>
-      <c r="IR14" s="181"/>
-      <c r="IS14" s="181"/>
-      <c r="IT14" s="181"/>
-      <c r="IU14" s="181"/>
-      <c r="IV14" s="181"/>
-      <c r="IW14" s="181"/>
-      <c r="IX14" s="181"/>
-      <c r="IY14" s="181"/>
-      <c r="IZ14" s="181"/>
-      <c r="JA14" s="181"/>
-      <c r="JB14" s="181"/>
-      <c r="JC14" s="181"/>
-      <c r="JD14" s="181"/>
-      <c r="JE14" s="181"/>
-      <c r="JF14" s="181"/>
-      <c r="JG14" s="181"/>
-      <c r="JH14" s="181"/>
-      <c r="JI14" s="181"/>
-      <c r="JJ14" s="181"/>
-      <c r="JK14" s="181"/>
-      <c r="JL14" s="181"/>
-      <c r="JM14" s="182"/>
-      <c r="JN14" s="183">
+      <c r="IK14" s="185"/>
+      <c r="IL14" s="185"/>
+      <c r="IM14" s="185"/>
+      <c r="IN14" s="185"/>
+      <c r="IO14" s="185"/>
+      <c r="IP14" s="185"/>
+      <c r="IQ14" s="185"/>
+      <c r="IR14" s="185"/>
+      <c r="IS14" s="185"/>
+      <c r="IT14" s="185"/>
+      <c r="IU14" s="185"/>
+      <c r="IV14" s="185"/>
+      <c r="IW14" s="185"/>
+      <c r="IX14" s="185"/>
+      <c r="IY14" s="185"/>
+      <c r="IZ14" s="185"/>
+      <c r="JA14" s="185"/>
+      <c r="JB14" s="185"/>
+      <c r="JC14" s="185"/>
+      <c r="JD14" s="185"/>
+      <c r="JE14" s="185"/>
+      <c r="JF14" s="185"/>
+      <c r="JG14" s="185"/>
+      <c r="JH14" s="185"/>
+      <c r="JI14" s="185"/>
+      <c r="JJ14" s="185"/>
+      <c r="JK14" s="185"/>
+      <c r="JL14" s="185"/>
+      <c r="JM14" s="189"/>
+      <c r="JN14" s="184">
         <v>45429</v>
       </c>
-      <c r="JO14" s="181"/>
-      <c r="JP14" s="181"/>
-      <c r="JQ14" s="181"/>
-      <c r="JR14" s="181"/>
-      <c r="JS14" s="181"/>
-      <c r="JT14" s="181"/>
-      <c r="JU14" s="181"/>
-      <c r="JV14" s="181"/>
-      <c r="JW14" s="181"/>
-      <c r="JX14" s="181"/>
-      <c r="JY14" s="181"/>
-      <c r="JZ14" s="181"/>
-      <c r="KA14" s="181"/>
-      <c r="KB14" s="181"/>
-      <c r="KC14" s="181"/>
-      <c r="KD14" s="181"/>
-      <c r="KE14" s="181"/>
-      <c r="KF14" s="181"/>
-      <c r="KG14" s="181"/>
-      <c r="KH14" s="181"/>
-      <c r="KI14" s="181"/>
-      <c r="KJ14" s="181"/>
-      <c r="KK14" s="181"/>
-      <c r="KL14" s="181"/>
-      <c r="KM14" s="181"/>
-      <c r="KN14" s="181"/>
-      <c r="KO14" s="181"/>
-      <c r="KP14" s="181"/>
-      <c r="KQ14" s="185"/>
-      <c r="KR14" s="172" t="s">
+      <c r="JO14" s="185"/>
+      <c r="JP14" s="185"/>
+      <c r="JQ14" s="185"/>
+      <c r="JR14" s="185"/>
+      <c r="JS14" s="185"/>
+      <c r="JT14" s="185"/>
+      <c r="JU14" s="185"/>
+      <c r="JV14" s="185"/>
+      <c r="JW14" s="185"/>
+      <c r="JX14" s="185"/>
+      <c r="JY14" s="185"/>
+      <c r="JZ14" s="185"/>
+      <c r="KA14" s="185"/>
+      <c r="KB14" s="185"/>
+      <c r="KC14" s="185"/>
+      <c r="KD14" s="185"/>
+      <c r="KE14" s="185"/>
+      <c r="KF14" s="185"/>
+      <c r="KG14" s="185"/>
+      <c r="KH14" s="185"/>
+      <c r="KI14" s="185"/>
+      <c r="KJ14" s="185"/>
+      <c r="KK14" s="185"/>
+      <c r="KL14" s="185"/>
+      <c r="KM14" s="185"/>
+      <c r="KN14" s="185"/>
+      <c r="KO14" s="185"/>
+      <c r="KP14" s="185"/>
+      <c r="KQ14" s="186"/>
+      <c r="KR14" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="KS14" s="221"/>
-      <c r="KT14" s="180">
+      <c r="KS14" s="155"/>
+      <c r="KT14" s="187">
         <v>45432</v>
       </c>
-      <c r="KU14" s="181"/>
-      <c r="KV14" s="181"/>
-      <c r="KW14" s="181"/>
-      <c r="KX14" s="181"/>
-      <c r="KY14" s="181"/>
-      <c r="KZ14" s="181"/>
-      <c r="LA14" s="181"/>
-      <c r="LB14" s="181"/>
-      <c r="LC14" s="181"/>
-      <c r="LD14" s="181"/>
-      <c r="LE14" s="181"/>
-      <c r="LF14" s="181"/>
-      <c r="LG14" s="181"/>
-      <c r="LH14" s="181"/>
-      <c r="LI14" s="181"/>
-      <c r="LJ14" s="181"/>
-      <c r="LK14" s="181"/>
-      <c r="LL14" s="181"/>
-      <c r="LM14" s="181"/>
-      <c r="LN14" s="181"/>
-      <c r="LO14" s="181"/>
-      <c r="LP14" s="181"/>
-      <c r="LQ14" s="181"/>
-      <c r="LR14" s="181"/>
-      <c r="LS14" s="181"/>
-      <c r="LT14" s="181"/>
-      <c r="LU14" s="181"/>
-      <c r="LV14" s="181"/>
-      <c r="LW14" s="182"/>
-      <c r="LX14" s="183">
+      <c r="KU14" s="185"/>
+      <c r="KV14" s="185"/>
+      <c r="KW14" s="185"/>
+      <c r="KX14" s="185"/>
+      <c r="KY14" s="185"/>
+      <c r="KZ14" s="185"/>
+      <c r="LA14" s="185"/>
+      <c r="LB14" s="185"/>
+      <c r="LC14" s="185"/>
+      <c r="LD14" s="185"/>
+      <c r="LE14" s="185"/>
+      <c r="LF14" s="185"/>
+      <c r="LG14" s="185"/>
+      <c r="LH14" s="185"/>
+      <c r="LI14" s="185"/>
+      <c r="LJ14" s="185"/>
+      <c r="LK14" s="185"/>
+      <c r="LL14" s="185"/>
+      <c r="LM14" s="185"/>
+      <c r="LN14" s="185"/>
+      <c r="LO14" s="185"/>
+      <c r="LP14" s="185"/>
+      <c r="LQ14" s="185"/>
+      <c r="LR14" s="185"/>
+      <c r="LS14" s="185"/>
+      <c r="LT14" s="185"/>
+      <c r="LU14" s="185"/>
+      <c r="LV14" s="185"/>
+      <c r="LW14" s="189"/>
+      <c r="LX14" s="184">
         <v>45434</v>
       </c>
-      <c r="LY14" s="181"/>
-      <c r="LZ14" s="181"/>
-      <c r="MA14" s="181"/>
-      <c r="MB14" s="181"/>
-      <c r="MC14" s="181"/>
-      <c r="MD14" s="181"/>
-      <c r="ME14" s="181"/>
-      <c r="MF14" s="181"/>
-      <c r="MG14" s="181"/>
-      <c r="MH14" s="181"/>
-      <c r="MI14" s="181"/>
-      <c r="MJ14" s="181"/>
-      <c r="MK14" s="181"/>
-      <c r="ML14" s="181"/>
-      <c r="MM14" s="181"/>
-      <c r="MN14" s="181"/>
-      <c r="MO14" s="181"/>
-      <c r="MP14" s="181"/>
-      <c r="MQ14" s="181"/>
-      <c r="MR14" s="181"/>
-      <c r="MS14" s="181"/>
-      <c r="MT14" s="181"/>
-      <c r="MU14" s="181"/>
-      <c r="MV14" s="181"/>
-      <c r="MW14" s="181"/>
-      <c r="MX14" s="181"/>
-      <c r="MY14" s="181"/>
-      <c r="MZ14" s="181"/>
-      <c r="NA14" s="182"/>
-      <c r="NB14" s="183">
+      <c r="LY14" s="185"/>
+      <c r="LZ14" s="185"/>
+      <c r="MA14" s="185"/>
+      <c r="MB14" s="185"/>
+      <c r="MC14" s="185"/>
+      <c r="MD14" s="185"/>
+      <c r="ME14" s="185"/>
+      <c r="MF14" s="185"/>
+      <c r="MG14" s="185"/>
+      <c r="MH14" s="185"/>
+      <c r="MI14" s="185"/>
+      <c r="MJ14" s="185"/>
+      <c r="MK14" s="185"/>
+      <c r="ML14" s="185"/>
+      <c r="MM14" s="185"/>
+      <c r="MN14" s="185"/>
+      <c r="MO14" s="185"/>
+      <c r="MP14" s="185"/>
+      <c r="MQ14" s="185"/>
+      <c r="MR14" s="185"/>
+      <c r="MS14" s="185"/>
+      <c r="MT14" s="185"/>
+      <c r="MU14" s="185"/>
+      <c r="MV14" s="185"/>
+      <c r="MW14" s="185"/>
+      <c r="MX14" s="185"/>
+      <c r="MY14" s="185"/>
+      <c r="MZ14" s="185"/>
+      <c r="NA14" s="189"/>
+      <c r="NB14" s="184">
         <v>45435</v>
       </c>
-      <c r="NC14" s="181"/>
-      <c r="ND14" s="181"/>
-      <c r="NE14" s="181"/>
-      <c r="NF14" s="181"/>
-      <c r="NG14" s="181"/>
-      <c r="NH14" s="181"/>
-      <c r="NI14" s="181"/>
-      <c r="NJ14" s="181"/>
-      <c r="NK14" s="181"/>
-      <c r="NL14" s="181"/>
-      <c r="NM14" s="181"/>
-      <c r="NN14" s="181"/>
-      <c r="NO14" s="181"/>
-      <c r="NP14" s="181"/>
-      <c r="NQ14" s="181"/>
-      <c r="NR14" s="181"/>
-      <c r="NS14" s="181"/>
-      <c r="NT14" s="181"/>
-      <c r="NU14" s="181"/>
-      <c r="NV14" s="181"/>
-      <c r="NW14" s="181"/>
-      <c r="NX14" s="181"/>
-      <c r="NY14" s="181"/>
-      <c r="NZ14" s="181"/>
-      <c r="OA14" s="181"/>
-      <c r="OB14" s="181"/>
-      <c r="OC14" s="181"/>
-      <c r="OD14" s="181"/>
-      <c r="OE14" s="182"/>
-      <c r="OF14" s="183">
+      <c r="NC14" s="185"/>
+      <c r="ND14" s="185"/>
+      <c r="NE14" s="185"/>
+      <c r="NF14" s="185"/>
+      <c r="NG14" s="185"/>
+      <c r="NH14" s="185"/>
+      <c r="NI14" s="185"/>
+      <c r="NJ14" s="185"/>
+      <c r="NK14" s="185"/>
+      <c r="NL14" s="185"/>
+      <c r="NM14" s="185"/>
+      <c r="NN14" s="185"/>
+      <c r="NO14" s="185"/>
+      <c r="NP14" s="185"/>
+      <c r="NQ14" s="185"/>
+      <c r="NR14" s="185"/>
+      <c r="NS14" s="185"/>
+      <c r="NT14" s="185"/>
+      <c r="NU14" s="185"/>
+      <c r="NV14" s="185"/>
+      <c r="NW14" s="185"/>
+      <c r="NX14" s="185"/>
+      <c r="NY14" s="185"/>
+      <c r="NZ14" s="185"/>
+      <c r="OA14" s="185"/>
+      <c r="OB14" s="185"/>
+      <c r="OC14" s="185"/>
+      <c r="OD14" s="185"/>
+      <c r="OE14" s="189"/>
+      <c r="OF14" s="184">
         <v>45436</v>
       </c>
-      <c r="OG14" s="181"/>
-      <c r="OH14" s="181"/>
-      <c r="OI14" s="181"/>
-      <c r="OJ14" s="181"/>
-      <c r="OK14" s="181"/>
-      <c r="OL14" s="181"/>
-      <c r="OM14" s="181"/>
-      <c r="ON14" s="181"/>
-      <c r="OO14" s="181"/>
-      <c r="OP14" s="181"/>
-      <c r="OQ14" s="181"/>
-      <c r="OR14" s="181"/>
-      <c r="OS14" s="181"/>
-      <c r="OT14" s="181"/>
-      <c r="OU14" s="181"/>
-      <c r="OV14" s="181"/>
-      <c r="OW14" s="181"/>
-      <c r="OX14" s="181"/>
-      <c r="OY14" s="181"/>
-      <c r="OZ14" s="181"/>
-      <c r="PA14" s="181"/>
-      <c r="PB14" s="181"/>
-      <c r="PC14" s="181"/>
-      <c r="PD14" s="181"/>
-      <c r="PE14" s="181"/>
-      <c r="PF14" s="181"/>
-      <c r="PG14" s="181"/>
-      <c r="PH14" s="181"/>
-      <c r="PI14" s="185"/>
-      <c r="PJ14" s="180">
+      <c r="OG14" s="185"/>
+      <c r="OH14" s="185"/>
+      <c r="OI14" s="185"/>
+      <c r="OJ14" s="185"/>
+      <c r="OK14" s="185"/>
+      <c r="OL14" s="185"/>
+      <c r="OM14" s="185"/>
+      <c r="ON14" s="185"/>
+      <c r="OO14" s="185"/>
+      <c r="OP14" s="185"/>
+      <c r="OQ14" s="185"/>
+      <c r="OR14" s="185"/>
+      <c r="OS14" s="185"/>
+      <c r="OT14" s="185"/>
+      <c r="OU14" s="185"/>
+      <c r="OV14" s="185"/>
+      <c r="OW14" s="185"/>
+      <c r="OX14" s="185"/>
+      <c r="OY14" s="185"/>
+      <c r="OZ14" s="185"/>
+      <c r="PA14" s="185"/>
+      <c r="PB14" s="185"/>
+      <c r="PC14" s="185"/>
+      <c r="PD14" s="185"/>
+      <c r="PE14" s="185"/>
+      <c r="PF14" s="185"/>
+      <c r="PG14" s="185"/>
+      <c r="PH14" s="185"/>
+      <c r="PI14" s="186"/>
+      <c r="PJ14" s="187">
         <v>45439</v>
       </c>
-      <c r="PK14" s="181"/>
-      <c r="PL14" s="181"/>
-      <c r="PM14" s="181"/>
-      <c r="PN14" s="181"/>
-      <c r="PO14" s="181"/>
-      <c r="PP14" s="181"/>
-      <c r="PQ14" s="181"/>
-      <c r="PR14" s="181"/>
-      <c r="PS14" s="181"/>
-      <c r="PT14" s="181"/>
-      <c r="PU14" s="181"/>
-      <c r="PV14" s="181"/>
-      <c r="PW14" s="181"/>
-      <c r="PX14" s="181"/>
-      <c r="PY14" s="181"/>
-      <c r="PZ14" s="181"/>
-      <c r="QA14" s="181"/>
-      <c r="QB14" s="181"/>
-      <c r="QC14" s="181"/>
-      <c r="QD14" s="181"/>
-      <c r="QE14" s="181"/>
-      <c r="QF14" s="181"/>
-      <c r="QG14" s="181"/>
-      <c r="QH14" s="181"/>
-      <c r="QI14" s="181"/>
-      <c r="QJ14" s="181"/>
-      <c r="QK14" s="181"/>
-      <c r="QL14" s="181"/>
-      <c r="QM14" s="182"/>
-      <c r="QN14" s="183">
+      <c r="PK14" s="185"/>
+      <c r="PL14" s="185"/>
+      <c r="PM14" s="185"/>
+      <c r="PN14" s="185"/>
+      <c r="PO14" s="185"/>
+      <c r="PP14" s="185"/>
+      <c r="PQ14" s="185"/>
+      <c r="PR14" s="185"/>
+      <c r="PS14" s="185"/>
+      <c r="PT14" s="185"/>
+      <c r="PU14" s="185"/>
+      <c r="PV14" s="185"/>
+      <c r="PW14" s="185"/>
+      <c r="PX14" s="185"/>
+      <c r="PY14" s="185"/>
+      <c r="PZ14" s="185"/>
+      <c r="QA14" s="185"/>
+      <c r="QB14" s="185"/>
+      <c r="QC14" s="185"/>
+      <c r="QD14" s="185"/>
+      <c r="QE14" s="185"/>
+      <c r="QF14" s="185"/>
+      <c r="QG14" s="185"/>
+      <c r="QH14" s="185"/>
+      <c r="QI14" s="185"/>
+      <c r="QJ14" s="185"/>
+      <c r="QK14" s="185"/>
+      <c r="QL14" s="185"/>
+      <c r="QM14" s="189"/>
+      <c r="QN14" s="184">
         <v>45441</v>
       </c>
-      <c r="QO14" s="181"/>
-      <c r="QP14" s="181"/>
-      <c r="QQ14" s="181"/>
-      <c r="QR14" s="181"/>
-      <c r="QS14" s="181"/>
-      <c r="QT14" s="181"/>
-      <c r="QU14" s="181"/>
-      <c r="QV14" s="181"/>
-      <c r="QW14" s="181"/>
-      <c r="QX14" s="181"/>
-      <c r="QY14" s="181"/>
-      <c r="QZ14" s="181"/>
-      <c r="RA14" s="181"/>
-      <c r="RB14" s="181"/>
-      <c r="RC14" s="181"/>
-      <c r="RD14" s="181"/>
-      <c r="RE14" s="181"/>
-      <c r="RF14" s="181"/>
-      <c r="RG14" s="181"/>
-      <c r="RH14" s="181"/>
-      <c r="RI14" s="181"/>
-      <c r="RJ14" s="181"/>
-      <c r="RK14" s="181"/>
-      <c r="RL14" s="181"/>
-      <c r="RM14" s="181"/>
-      <c r="RN14" s="181"/>
-      <c r="RO14" s="181"/>
-      <c r="RP14" s="181"/>
-      <c r="RQ14" s="182"/>
-      <c r="RR14" s="183">
+      <c r="QO14" s="185"/>
+      <c r="QP14" s="185"/>
+      <c r="QQ14" s="185"/>
+      <c r="QR14" s="185"/>
+      <c r="QS14" s="185"/>
+      <c r="QT14" s="185"/>
+      <c r="QU14" s="185"/>
+      <c r="QV14" s="185"/>
+      <c r="QW14" s="185"/>
+      <c r="QX14" s="185"/>
+      <c r="QY14" s="185"/>
+      <c r="QZ14" s="185"/>
+      <c r="RA14" s="185"/>
+      <c r="RB14" s="185"/>
+      <c r="RC14" s="185"/>
+      <c r="RD14" s="185"/>
+      <c r="RE14" s="185"/>
+      <c r="RF14" s="185"/>
+      <c r="RG14" s="185"/>
+      <c r="RH14" s="185"/>
+      <c r="RI14" s="185"/>
+      <c r="RJ14" s="185"/>
+      <c r="RK14" s="185"/>
+      <c r="RL14" s="185"/>
+      <c r="RM14" s="185"/>
+      <c r="RN14" s="185"/>
+      <c r="RO14" s="185"/>
+      <c r="RP14" s="185"/>
+      <c r="RQ14" s="189"/>
+      <c r="RR14" s="184">
         <v>45442</v>
       </c>
-      <c r="RS14" s="181"/>
-      <c r="RT14" s="181"/>
-      <c r="RU14" s="181"/>
-      <c r="RV14" s="181"/>
-      <c r="RW14" s="181"/>
-      <c r="RX14" s="181"/>
-      <c r="RY14" s="181"/>
-      <c r="RZ14" s="181"/>
-      <c r="SA14" s="181"/>
-      <c r="SB14" s="181"/>
-      <c r="SC14" s="181"/>
-      <c r="SD14" s="181"/>
-      <c r="SE14" s="181"/>
-      <c r="SF14" s="181"/>
-      <c r="SG14" s="181"/>
-      <c r="SH14" s="181"/>
-      <c r="SI14" s="181"/>
-      <c r="SJ14" s="181"/>
-      <c r="SK14" s="181"/>
-      <c r="SL14" s="181"/>
-      <c r="SM14" s="181"/>
-      <c r="SN14" s="181"/>
-      <c r="SO14" s="181"/>
-      <c r="SP14" s="181"/>
-      <c r="SQ14" s="181"/>
-      <c r="SR14" s="181"/>
-      <c r="SS14" s="181"/>
-      <c r="ST14" s="181"/>
-      <c r="SU14" s="182"/>
-      <c r="SV14" s="183">
+      <c r="RS14" s="185"/>
+      <c r="RT14" s="185"/>
+      <c r="RU14" s="185"/>
+      <c r="RV14" s="185"/>
+      <c r="RW14" s="185"/>
+      <c r="RX14" s="185"/>
+      <c r="RY14" s="185"/>
+      <c r="RZ14" s="185"/>
+      <c r="SA14" s="185"/>
+      <c r="SB14" s="185"/>
+      <c r="SC14" s="185"/>
+      <c r="SD14" s="185"/>
+      <c r="SE14" s="185"/>
+      <c r="SF14" s="185"/>
+      <c r="SG14" s="185"/>
+      <c r="SH14" s="185"/>
+      <c r="SI14" s="185"/>
+      <c r="SJ14" s="185"/>
+      <c r="SK14" s="185"/>
+      <c r="SL14" s="185"/>
+      <c r="SM14" s="185"/>
+      <c r="SN14" s="185"/>
+      <c r="SO14" s="185"/>
+      <c r="SP14" s="185"/>
+      <c r="SQ14" s="185"/>
+      <c r="SR14" s="185"/>
+      <c r="SS14" s="185"/>
+      <c r="ST14" s="185"/>
+      <c r="SU14" s="189"/>
+      <c r="SV14" s="184">
         <v>45443</v>
       </c>
-      <c r="SW14" s="181"/>
-      <c r="SX14" s="181"/>
-      <c r="SY14" s="181"/>
-      <c r="SZ14" s="181"/>
-      <c r="TA14" s="181"/>
-      <c r="TB14" s="181"/>
-      <c r="TC14" s="181"/>
-      <c r="TD14" s="181"/>
-      <c r="TE14" s="181"/>
-      <c r="TF14" s="181"/>
-      <c r="TG14" s="181"/>
-      <c r="TH14" s="181"/>
-      <c r="TI14" s="181"/>
-      <c r="TJ14" s="181"/>
-      <c r="TK14" s="181"/>
-      <c r="TL14" s="181"/>
-      <c r="TM14" s="181"/>
-      <c r="TN14" s="181"/>
-      <c r="TO14" s="181"/>
-      <c r="TP14" s="181"/>
-      <c r="TQ14" s="181"/>
-      <c r="TR14" s="181"/>
-      <c r="TS14" s="181"/>
-      <c r="TT14" s="181"/>
-      <c r="TU14" s="181"/>
-      <c r="TV14" s="181"/>
-      <c r="TW14" s="181"/>
-      <c r="TX14" s="181"/>
-      <c r="TY14" s="185"/>
-      <c r="TZ14" s="180">
+      <c r="SW14" s="185"/>
+      <c r="SX14" s="185"/>
+      <c r="SY14" s="185"/>
+      <c r="SZ14" s="185"/>
+      <c r="TA14" s="185"/>
+      <c r="TB14" s="185"/>
+      <c r="TC14" s="185"/>
+      <c r="TD14" s="185"/>
+      <c r="TE14" s="185"/>
+      <c r="TF14" s="185"/>
+      <c r="TG14" s="185"/>
+      <c r="TH14" s="185"/>
+      <c r="TI14" s="185"/>
+      <c r="TJ14" s="185"/>
+      <c r="TK14" s="185"/>
+      <c r="TL14" s="185"/>
+      <c r="TM14" s="185"/>
+      <c r="TN14" s="185"/>
+      <c r="TO14" s="185"/>
+      <c r="TP14" s="185"/>
+      <c r="TQ14" s="185"/>
+      <c r="TR14" s="185"/>
+      <c r="TS14" s="185"/>
+      <c r="TT14" s="185"/>
+      <c r="TU14" s="185"/>
+      <c r="TV14" s="185"/>
+      <c r="TW14" s="185"/>
+      <c r="TX14" s="185"/>
+      <c r="TY14" s="186"/>
+      <c r="TZ14" s="187">
         <v>45446</v>
       </c>
-      <c r="UA14" s="181"/>
-      <c r="UB14" s="181"/>
-      <c r="UC14" s="181"/>
-      <c r="UD14" s="181"/>
-      <c r="UE14" s="181"/>
-      <c r="UF14" s="181"/>
-      <c r="UG14" s="181"/>
-      <c r="UH14" s="181"/>
-      <c r="UI14" s="181"/>
-      <c r="UJ14" s="181"/>
-      <c r="UK14" s="181"/>
-      <c r="UL14" s="181"/>
-      <c r="UM14" s="181"/>
-      <c r="UN14" s="181"/>
-      <c r="UO14" s="181"/>
-      <c r="UP14" s="181"/>
-      <c r="UQ14" s="181"/>
-      <c r="UR14" s="181"/>
-      <c r="US14" s="181"/>
-      <c r="UT14" s="181"/>
-      <c r="UU14" s="181"/>
-      <c r="UV14" s="181"/>
-      <c r="UW14" s="181"/>
-      <c r="UX14" s="181"/>
-      <c r="UY14" s="181"/>
-      <c r="UZ14" s="181"/>
-      <c r="VA14" s="181"/>
-      <c r="VB14" s="181"/>
-      <c r="VC14" s="185"/>
+      <c r="UA14" s="185"/>
+      <c r="UB14" s="185"/>
+      <c r="UC14" s="185"/>
+      <c r="UD14" s="185"/>
+      <c r="UE14" s="185"/>
+      <c r="UF14" s="185"/>
+      <c r="UG14" s="185"/>
+      <c r="UH14" s="185"/>
+      <c r="UI14" s="185"/>
+      <c r="UJ14" s="185"/>
+      <c r="UK14" s="185"/>
+      <c r="UL14" s="185"/>
+      <c r="UM14" s="185"/>
+      <c r="UN14" s="185"/>
+      <c r="UO14" s="185"/>
+      <c r="UP14" s="185"/>
+      <c r="UQ14" s="185"/>
+      <c r="UR14" s="185"/>
+      <c r="US14" s="185"/>
+      <c r="UT14" s="185"/>
+      <c r="UU14" s="185"/>
+      <c r="UV14" s="185"/>
+      <c r="UW14" s="185"/>
+      <c r="UX14" s="185"/>
+      <c r="UY14" s="185"/>
+      <c r="UZ14" s="185"/>
+      <c r="VA14" s="185"/>
+      <c r="VB14" s="185"/>
+      <c r="VC14" s="186"/>
     </row>
     <row r="15" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="186" t="s">
+      <c r="B15" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="187"/>
-      <c r="D15" s="188" t="s">
+      <c r="C15" s="188"/>
+      <c r="D15" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="189"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
-      <c r="J15" s="189"/>
-      <c r="K15" s="189"/>
-      <c r="L15" s="189"/>
-      <c r="M15" s="189"/>
-      <c r="N15" s="189"/>
-      <c r="O15" s="189"/>
-      <c r="P15" s="189"/>
-      <c r="Q15" s="189"/>
-      <c r="R15" s="189"/>
-      <c r="S15" s="189" t="s">
+      <c r="E15" s="176"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="176"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="176"/>
+      <c r="M15" s="176"/>
+      <c r="N15" s="176"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="176"/>
+      <c r="S15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="189"/>
-      <c r="U15" s="189"/>
-      <c r="V15" s="189"/>
-      <c r="W15" s="189"/>
-      <c r="X15" s="189"/>
-      <c r="Y15" s="189"/>
-      <c r="Z15" s="189"/>
-      <c r="AA15" s="189"/>
-      <c r="AB15" s="189"/>
-      <c r="AC15" s="189"/>
-      <c r="AD15" s="189"/>
-      <c r="AE15" s="189"/>
-      <c r="AF15" s="189"/>
-      <c r="AG15" s="190"/>
-      <c r="AH15" s="191" t="s">
+      <c r="T15" s="176"/>
+      <c r="U15" s="176"/>
+      <c r="V15" s="176"/>
+      <c r="W15" s="176"/>
+      <c r="X15" s="176"/>
+      <c r="Y15" s="176"/>
+      <c r="Z15" s="176"/>
+      <c r="AA15" s="176"/>
+      <c r="AB15" s="176"/>
+      <c r="AC15" s="176"/>
+      <c r="AD15" s="176"/>
+      <c r="AE15" s="176"/>
+      <c r="AF15" s="176"/>
+      <c r="AG15" s="183"/>
+      <c r="AH15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="AI15" s="189"/>
-      <c r="AJ15" s="189"/>
-      <c r="AK15" s="189"/>
-      <c r="AL15" s="189"/>
-      <c r="AM15" s="189"/>
-      <c r="AN15" s="189"/>
-      <c r="AO15" s="189"/>
-      <c r="AP15" s="189"/>
-      <c r="AQ15" s="189"/>
-      <c r="AR15" s="189"/>
-      <c r="AS15" s="189"/>
-      <c r="AT15" s="189"/>
-      <c r="AU15" s="189"/>
-      <c r="AV15" s="189"/>
-      <c r="AW15" s="189" t="s">
+      <c r="AI15" s="176"/>
+      <c r="AJ15" s="176"/>
+      <c r="AK15" s="176"/>
+      <c r="AL15" s="176"/>
+      <c r="AM15" s="176"/>
+      <c r="AN15" s="176"/>
+      <c r="AO15" s="176"/>
+      <c r="AP15" s="176"/>
+      <c r="AQ15" s="176"/>
+      <c r="AR15" s="176"/>
+      <c r="AS15" s="176"/>
+      <c r="AT15" s="176"/>
+      <c r="AU15" s="176"/>
+      <c r="AV15" s="176"/>
+      <c r="AW15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="AX15" s="189"/>
-      <c r="AY15" s="189"/>
-      <c r="AZ15" s="189"/>
-      <c r="BA15" s="189"/>
-      <c r="BB15" s="189"/>
-      <c r="BC15" s="189"/>
-      <c r="BD15" s="189"/>
-      <c r="BE15" s="189"/>
-      <c r="BF15" s="189"/>
-      <c r="BG15" s="189"/>
-      <c r="BH15" s="189"/>
-      <c r="BI15" s="189"/>
-      <c r="BJ15" s="189"/>
-      <c r="BK15" s="192"/>
-      <c r="BL15" s="188" t="s">
+      <c r="AX15" s="176"/>
+      <c r="AY15" s="176"/>
+      <c r="AZ15" s="176"/>
+      <c r="BA15" s="176"/>
+      <c r="BB15" s="176"/>
+      <c r="BC15" s="176"/>
+      <c r="BD15" s="176"/>
+      <c r="BE15" s="176"/>
+      <c r="BF15" s="176"/>
+      <c r="BG15" s="176"/>
+      <c r="BH15" s="176"/>
+      <c r="BI15" s="176"/>
+      <c r="BJ15" s="176"/>
+      <c r="BK15" s="179"/>
+      <c r="BL15" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="BM15" s="189"/>
-      <c r="BN15" s="189"/>
-      <c r="BO15" s="189"/>
-      <c r="BP15" s="189"/>
-      <c r="BQ15" s="189"/>
-      <c r="BR15" s="189"/>
-      <c r="BS15" s="189"/>
-      <c r="BT15" s="189"/>
-      <c r="BU15" s="189"/>
-      <c r="BV15" s="189"/>
-      <c r="BW15" s="189"/>
-      <c r="BX15" s="189"/>
-      <c r="BY15" s="189"/>
-      <c r="BZ15" s="192"/>
-      <c r="CA15" s="189" t="s">
+      <c r="BM15" s="176"/>
+      <c r="BN15" s="176"/>
+      <c r="BO15" s="176"/>
+      <c r="BP15" s="176"/>
+      <c r="BQ15" s="176"/>
+      <c r="BR15" s="176"/>
+      <c r="BS15" s="176"/>
+      <c r="BT15" s="176"/>
+      <c r="BU15" s="176"/>
+      <c r="BV15" s="176"/>
+      <c r="BW15" s="176"/>
+      <c r="BX15" s="176"/>
+      <c r="BY15" s="176"/>
+      <c r="BZ15" s="179"/>
+      <c r="CA15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="CB15" s="189"/>
-      <c r="CC15" s="189"/>
-      <c r="CD15" s="189"/>
-      <c r="CE15" s="189"/>
-      <c r="CF15" s="189"/>
-      <c r="CG15" s="189"/>
-      <c r="CH15" s="189"/>
-      <c r="CI15" s="189"/>
-      <c r="CJ15" s="189"/>
-      <c r="CK15" s="189"/>
-      <c r="CL15" s="189"/>
-      <c r="CM15" s="189"/>
-      <c r="CN15" s="189"/>
-      <c r="CO15" s="190"/>
-      <c r="CP15" s="191" t="s">
+      <c r="CB15" s="176"/>
+      <c r="CC15" s="176"/>
+      <c r="CD15" s="176"/>
+      <c r="CE15" s="176"/>
+      <c r="CF15" s="176"/>
+      <c r="CG15" s="176"/>
+      <c r="CH15" s="176"/>
+      <c r="CI15" s="176"/>
+      <c r="CJ15" s="176"/>
+      <c r="CK15" s="176"/>
+      <c r="CL15" s="176"/>
+      <c r="CM15" s="176"/>
+      <c r="CN15" s="176"/>
+      <c r="CO15" s="183"/>
+      <c r="CP15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="CQ15" s="189"/>
-      <c r="CR15" s="189"/>
-      <c r="CS15" s="189"/>
-      <c r="CT15" s="189"/>
-      <c r="CU15" s="189"/>
-      <c r="CV15" s="189"/>
-      <c r="CW15" s="189"/>
-      <c r="CX15" s="189"/>
-      <c r="CY15" s="189"/>
-      <c r="CZ15" s="189"/>
-      <c r="DA15" s="189"/>
-      <c r="DB15" s="189"/>
-      <c r="DC15" s="189"/>
-      <c r="DD15" s="189"/>
-      <c r="DE15" s="189" t="s">
+      <c r="CQ15" s="176"/>
+      <c r="CR15" s="176"/>
+      <c r="CS15" s="176"/>
+      <c r="CT15" s="176"/>
+      <c r="CU15" s="176"/>
+      <c r="CV15" s="176"/>
+      <c r="CW15" s="176"/>
+      <c r="CX15" s="176"/>
+      <c r="CY15" s="176"/>
+      <c r="CZ15" s="176"/>
+      <c r="DA15" s="176"/>
+      <c r="DB15" s="176"/>
+      <c r="DC15" s="176"/>
+      <c r="DD15" s="176"/>
+      <c r="DE15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="DF15" s="189"/>
-      <c r="DG15" s="189"/>
-      <c r="DH15" s="189"/>
-      <c r="DI15" s="189"/>
-      <c r="DJ15" s="189"/>
-      <c r="DK15" s="189"/>
-      <c r="DL15" s="189"/>
-      <c r="DM15" s="189"/>
-      <c r="DN15" s="189"/>
-      <c r="DO15" s="189"/>
-      <c r="DP15" s="189"/>
-      <c r="DQ15" s="189"/>
-      <c r="DR15" s="189"/>
-      <c r="DS15" s="190"/>
-      <c r="DT15" s="191" t="s">
+      <c r="DF15" s="176"/>
+      <c r="DG15" s="176"/>
+      <c r="DH15" s="176"/>
+      <c r="DI15" s="176"/>
+      <c r="DJ15" s="176"/>
+      <c r="DK15" s="176"/>
+      <c r="DL15" s="176"/>
+      <c r="DM15" s="176"/>
+      <c r="DN15" s="176"/>
+      <c r="DO15" s="176"/>
+      <c r="DP15" s="176"/>
+      <c r="DQ15" s="176"/>
+      <c r="DR15" s="176"/>
+      <c r="DS15" s="183"/>
+      <c r="DT15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="DU15" s="189"/>
-      <c r="DV15" s="189"/>
-      <c r="DW15" s="189"/>
-      <c r="DX15" s="189"/>
-      <c r="DY15" s="189"/>
-      <c r="DZ15" s="189"/>
-      <c r="EA15" s="189"/>
-      <c r="EB15" s="189"/>
-      <c r="EC15" s="189"/>
-      <c r="ED15" s="189"/>
-      <c r="EE15" s="189"/>
-      <c r="EF15" s="189"/>
-      <c r="EG15" s="189"/>
-      <c r="EH15" s="189"/>
-      <c r="EI15" s="189" t="s">
+      <c r="DU15" s="176"/>
+      <c r="DV15" s="176"/>
+      <c r="DW15" s="176"/>
+      <c r="DX15" s="176"/>
+      <c r="DY15" s="176"/>
+      <c r="DZ15" s="176"/>
+      <c r="EA15" s="176"/>
+      <c r="EB15" s="176"/>
+      <c r="EC15" s="176"/>
+      <c r="ED15" s="176"/>
+      <c r="EE15" s="176"/>
+      <c r="EF15" s="176"/>
+      <c r="EG15" s="176"/>
+      <c r="EH15" s="176"/>
+      <c r="EI15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="EJ15" s="189"/>
-      <c r="EK15" s="189"/>
-      <c r="EL15" s="189"/>
-      <c r="EM15" s="189"/>
-      <c r="EN15" s="189"/>
-      <c r="EO15" s="189"/>
-      <c r="EP15" s="189"/>
-      <c r="EQ15" s="189"/>
-      <c r="ER15" s="189"/>
-      <c r="ES15" s="189"/>
-      <c r="ET15" s="189"/>
-      <c r="EU15" s="189"/>
-      <c r="EV15" s="189"/>
-      <c r="EW15" s="190"/>
-      <c r="EX15" s="191" t="s">
+      <c r="EJ15" s="176"/>
+      <c r="EK15" s="176"/>
+      <c r="EL15" s="176"/>
+      <c r="EM15" s="176"/>
+      <c r="EN15" s="176"/>
+      <c r="EO15" s="176"/>
+      <c r="EP15" s="176"/>
+      <c r="EQ15" s="176"/>
+      <c r="ER15" s="176"/>
+      <c r="ES15" s="176"/>
+      <c r="ET15" s="176"/>
+      <c r="EU15" s="176"/>
+      <c r="EV15" s="176"/>
+      <c r="EW15" s="183"/>
+      <c r="EX15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="EY15" s="189"/>
-      <c r="EZ15" s="189"/>
-      <c r="FA15" s="189"/>
-      <c r="FB15" s="189"/>
-      <c r="FC15" s="189"/>
-      <c r="FD15" s="189"/>
-      <c r="FE15" s="189"/>
-      <c r="FF15" s="189"/>
-      <c r="FG15" s="189"/>
-      <c r="FH15" s="189"/>
-      <c r="FI15" s="189"/>
-      <c r="FJ15" s="189"/>
-      <c r="FK15" s="189"/>
-      <c r="FL15" s="189"/>
-      <c r="FM15" s="189" t="s">
+      <c r="EY15" s="176"/>
+      <c r="EZ15" s="176"/>
+      <c r="FA15" s="176"/>
+      <c r="FB15" s="176"/>
+      <c r="FC15" s="176"/>
+      <c r="FD15" s="176"/>
+      <c r="FE15" s="176"/>
+      <c r="FF15" s="176"/>
+      <c r="FG15" s="176"/>
+      <c r="FH15" s="176"/>
+      <c r="FI15" s="176"/>
+      <c r="FJ15" s="176"/>
+      <c r="FK15" s="176"/>
+      <c r="FL15" s="176"/>
+      <c r="FM15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="FN15" s="189"/>
-      <c r="FO15" s="189"/>
-      <c r="FP15" s="189"/>
-      <c r="FQ15" s="189"/>
-      <c r="FR15" s="189"/>
-      <c r="FS15" s="189"/>
-      <c r="FT15" s="189"/>
-      <c r="FU15" s="189"/>
-      <c r="FV15" s="189"/>
-      <c r="FW15" s="189"/>
-      <c r="FX15" s="189"/>
-      <c r="FY15" s="189"/>
-      <c r="FZ15" s="189"/>
-      <c r="GA15" s="192"/>
-      <c r="GB15" s="188" t="s">
+      <c r="FN15" s="176"/>
+      <c r="FO15" s="176"/>
+      <c r="FP15" s="176"/>
+      <c r="FQ15" s="176"/>
+      <c r="FR15" s="176"/>
+      <c r="FS15" s="176"/>
+      <c r="FT15" s="176"/>
+      <c r="FU15" s="176"/>
+      <c r="FV15" s="176"/>
+      <c r="FW15" s="176"/>
+      <c r="FX15" s="176"/>
+      <c r="FY15" s="176"/>
+      <c r="FZ15" s="176"/>
+      <c r="GA15" s="179"/>
+      <c r="GB15" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="GC15" s="189"/>
-      <c r="GD15" s="189"/>
-      <c r="GE15" s="189"/>
-      <c r="GF15" s="189"/>
-      <c r="GG15" s="189"/>
-      <c r="GH15" s="189"/>
-      <c r="GI15" s="189"/>
-      <c r="GJ15" s="189"/>
-      <c r="GK15" s="189"/>
-      <c r="GL15" s="189"/>
-      <c r="GM15" s="189"/>
-      <c r="GN15" s="189"/>
-      <c r="GO15" s="189"/>
-      <c r="GP15" s="192"/>
-      <c r="GQ15" s="189" t="s">
+      <c r="GC15" s="176"/>
+      <c r="GD15" s="176"/>
+      <c r="GE15" s="176"/>
+      <c r="GF15" s="176"/>
+      <c r="GG15" s="176"/>
+      <c r="GH15" s="176"/>
+      <c r="GI15" s="176"/>
+      <c r="GJ15" s="176"/>
+      <c r="GK15" s="176"/>
+      <c r="GL15" s="176"/>
+      <c r="GM15" s="176"/>
+      <c r="GN15" s="176"/>
+      <c r="GO15" s="176"/>
+      <c r="GP15" s="179"/>
+      <c r="GQ15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="GR15" s="189"/>
-      <c r="GS15" s="189"/>
-      <c r="GT15" s="189"/>
-      <c r="GU15" s="189"/>
-      <c r="GV15" s="189"/>
-      <c r="GW15" s="189"/>
-      <c r="GX15" s="189"/>
-      <c r="GY15" s="189"/>
-      <c r="GZ15" s="189"/>
-      <c r="HA15" s="189"/>
-      <c r="HB15" s="189"/>
-      <c r="HC15" s="189"/>
-      <c r="HD15" s="189"/>
-      <c r="HE15" s="190"/>
-      <c r="HF15" s="191" t="s">
+      <c r="GR15" s="176"/>
+      <c r="GS15" s="176"/>
+      <c r="GT15" s="176"/>
+      <c r="GU15" s="176"/>
+      <c r="GV15" s="176"/>
+      <c r="GW15" s="176"/>
+      <c r="GX15" s="176"/>
+      <c r="GY15" s="176"/>
+      <c r="GZ15" s="176"/>
+      <c r="HA15" s="176"/>
+      <c r="HB15" s="176"/>
+      <c r="HC15" s="176"/>
+      <c r="HD15" s="176"/>
+      <c r="HE15" s="183"/>
+      <c r="HF15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="HG15" s="189"/>
-      <c r="HH15" s="189"/>
-      <c r="HI15" s="189"/>
-      <c r="HJ15" s="189"/>
-      <c r="HK15" s="189"/>
-      <c r="HL15" s="189"/>
-      <c r="HM15" s="189"/>
-      <c r="HN15" s="189"/>
-      <c r="HO15" s="189"/>
-      <c r="HP15" s="189"/>
-      <c r="HQ15" s="189"/>
-      <c r="HR15" s="189"/>
-      <c r="HS15" s="189"/>
-      <c r="HT15" s="189"/>
-      <c r="HU15" s="189" t="s">
+      <c r="HG15" s="176"/>
+      <c r="HH15" s="176"/>
+      <c r="HI15" s="176"/>
+      <c r="HJ15" s="176"/>
+      <c r="HK15" s="176"/>
+      <c r="HL15" s="176"/>
+      <c r="HM15" s="176"/>
+      <c r="HN15" s="176"/>
+      <c r="HO15" s="176"/>
+      <c r="HP15" s="176"/>
+      <c r="HQ15" s="176"/>
+      <c r="HR15" s="176"/>
+      <c r="HS15" s="176"/>
+      <c r="HT15" s="176"/>
+      <c r="HU15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="HV15" s="189"/>
-      <c r="HW15" s="189"/>
-      <c r="HX15" s="189"/>
-      <c r="HY15" s="189"/>
-      <c r="HZ15" s="189"/>
-      <c r="IA15" s="189"/>
-      <c r="IB15" s="189"/>
-      <c r="IC15" s="189"/>
-      <c r="ID15" s="189"/>
-      <c r="IE15" s="189"/>
-      <c r="IF15" s="189"/>
-      <c r="IG15" s="189"/>
-      <c r="IH15" s="189"/>
-      <c r="II15" s="190"/>
-      <c r="IJ15" s="191" t="s">
+      <c r="HV15" s="176"/>
+      <c r="HW15" s="176"/>
+      <c r="HX15" s="176"/>
+      <c r="HY15" s="176"/>
+      <c r="HZ15" s="176"/>
+      <c r="IA15" s="176"/>
+      <c r="IB15" s="176"/>
+      <c r="IC15" s="176"/>
+      <c r="ID15" s="176"/>
+      <c r="IE15" s="176"/>
+      <c r="IF15" s="176"/>
+      <c r="IG15" s="176"/>
+      <c r="IH15" s="176"/>
+      <c r="II15" s="183"/>
+      <c r="IJ15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="IK15" s="189"/>
-      <c r="IL15" s="189"/>
-      <c r="IM15" s="189"/>
-      <c r="IN15" s="189"/>
-      <c r="IO15" s="189"/>
-      <c r="IP15" s="189"/>
-      <c r="IQ15" s="189"/>
-      <c r="IR15" s="189"/>
-      <c r="IS15" s="189"/>
-      <c r="IT15" s="189"/>
-      <c r="IU15" s="189"/>
-      <c r="IV15" s="189"/>
-      <c r="IW15" s="189"/>
-      <c r="IX15" s="189"/>
-      <c r="IY15" s="189" t="s">
+      <c r="IK15" s="176"/>
+      <c r="IL15" s="176"/>
+      <c r="IM15" s="176"/>
+      <c r="IN15" s="176"/>
+      <c r="IO15" s="176"/>
+      <c r="IP15" s="176"/>
+      <c r="IQ15" s="176"/>
+      <c r="IR15" s="176"/>
+      <c r="IS15" s="176"/>
+      <c r="IT15" s="176"/>
+      <c r="IU15" s="176"/>
+      <c r="IV15" s="176"/>
+      <c r="IW15" s="176"/>
+      <c r="IX15" s="176"/>
+      <c r="IY15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="IZ15" s="189"/>
-      <c r="JA15" s="189"/>
-      <c r="JB15" s="189"/>
-      <c r="JC15" s="189"/>
-      <c r="JD15" s="189"/>
-      <c r="JE15" s="189"/>
-      <c r="JF15" s="189"/>
-      <c r="JG15" s="189"/>
-      <c r="JH15" s="189"/>
-      <c r="JI15" s="189"/>
-      <c r="JJ15" s="189"/>
-      <c r="JK15" s="189"/>
-      <c r="JL15" s="189"/>
-      <c r="JM15" s="190"/>
-      <c r="JN15" s="191" t="s">
+      <c r="IZ15" s="176"/>
+      <c r="JA15" s="176"/>
+      <c r="JB15" s="176"/>
+      <c r="JC15" s="176"/>
+      <c r="JD15" s="176"/>
+      <c r="JE15" s="176"/>
+      <c r="JF15" s="176"/>
+      <c r="JG15" s="176"/>
+      <c r="JH15" s="176"/>
+      <c r="JI15" s="176"/>
+      <c r="JJ15" s="176"/>
+      <c r="JK15" s="176"/>
+      <c r="JL15" s="176"/>
+      <c r="JM15" s="183"/>
+      <c r="JN15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="JO15" s="189"/>
-      <c r="JP15" s="189"/>
-      <c r="JQ15" s="189"/>
-      <c r="JR15" s="189"/>
-      <c r="JS15" s="189"/>
-      <c r="JT15" s="189"/>
-      <c r="JU15" s="189"/>
-      <c r="JV15" s="189"/>
-      <c r="JW15" s="189"/>
-      <c r="JX15" s="189"/>
-      <c r="JY15" s="189"/>
-      <c r="JZ15" s="189"/>
-      <c r="KA15" s="189"/>
-      <c r="KB15" s="189"/>
-      <c r="KC15" s="189" t="s">
+      <c r="JO15" s="176"/>
+      <c r="JP15" s="176"/>
+      <c r="JQ15" s="176"/>
+      <c r="JR15" s="176"/>
+      <c r="JS15" s="176"/>
+      <c r="JT15" s="176"/>
+      <c r="JU15" s="176"/>
+      <c r="JV15" s="176"/>
+      <c r="JW15" s="176"/>
+      <c r="JX15" s="176"/>
+      <c r="JY15" s="176"/>
+      <c r="JZ15" s="176"/>
+      <c r="KA15" s="176"/>
+      <c r="KB15" s="176"/>
+      <c r="KC15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="KD15" s="189"/>
-      <c r="KE15" s="189"/>
-      <c r="KF15" s="189"/>
-      <c r="KG15" s="189"/>
-      <c r="KH15" s="189"/>
-      <c r="KI15" s="189"/>
-      <c r="KJ15" s="189"/>
-      <c r="KK15" s="189"/>
-      <c r="KL15" s="189"/>
-      <c r="KM15" s="189"/>
-      <c r="KN15" s="189"/>
-      <c r="KO15" s="189"/>
-      <c r="KP15" s="189"/>
-      <c r="KQ15" s="193"/>
-      <c r="KR15" s="186" t="s">
+      <c r="KD15" s="176"/>
+      <c r="KE15" s="176"/>
+      <c r="KF15" s="176"/>
+      <c r="KG15" s="176"/>
+      <c r="KH15" s="176"/>
+      <c r="KI15" s="176"/>
+      <c r="KJ15" s="176"/>
+      <c r="KK15" s="176"/>
+      <c r="KL15" s="176"/>
+      <c r="KM15" s="176"/>
+      <c r="KN15" s="176"/>
+      <c r="KO15" s="176"/>
+      <c r="KP15" s="176"/>
+      <c r="KQ15" s="177"/>
+      <c r="KR15" s="156" t="s">
         <v>23</v>
       </c>
-      <c r="KS15" s="222"/>
-      <c r="KT15" s="188" t="s">
+      <c r="KS15" s="157"/>
+      <c r="KT15" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="KU15" s="189"/>
-      <c r="KV15" s="189"/>
-      <c r="KW15" s="189"/>
-      <c r="KX15" s="189"/>
-      <c r="KY15" s="189"/>
-      <c r="KZ15" s="189"/>
-      <c r="LA15" s="189"/>
-      <c r="LB15" s="189"/>
-      <c r="LC15" s="189"/>
-      <c r="LD15" s="189"/>
-      <c r="LE15" s="189"/>
-      <c r="LF15" s="189"/>
-      <c r="LG15" s="189"/>
-      <c r="LH15" s="192"/>
-      <c r="LI15" s="189" t="s">
+      <c r="KU15" s="176"/>
+      <c r="KV15" s="176"/>
+      <c r="KW15" s="176"/>
+      <c r="KX15" s="176"/>
+      <c r="KY15" s="176"/>
+      <c r="KZ15" s="176"/>
+      <c r="LA15" s="176"/>
+      <c r="LB15" s="176"/>
+      <c r="LC15" s="176"/>
+      <c r="LD15" s="176"/>
+      <c r="LE15" s="176"/>
+      <c r="LF15" s="176"/>
+      <c r="LG15" s="176"/>
+      <c r="LH15" s="179"/>
+      <c r="LI15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="LJ15" s="189"/>
-      <c r="LK15" s="189"/>
-      <c r="LL15" s="189"/>
-      <c r="LM15" s="189"/>
-      <c r="LN15" s="189"/>
-      <c r="LO15" s="189"/>
-      <c r="LP15" s="189"/>
-      <c r="LQ15" s="189"/>
-      <c r="LR15" s="189"/>
-      <c r="LS15" s="189"/>
-      <c r="LT15" s="189"/>
-      <c r="LU15" s="189"/>
-      <c r="LV15" s="189"/>
-      <c r="LW15" s="190"/>
-      <c r="LX15" s="191" t="s">
+      <c r="LJ15" s="176"/>
+      <c r="LK15" s="176"/>
+      <c r="LL15" s="176"/>
+      <c r="LM15" s="176"/>
+      <c r="LN15" s="176"/>
+      <c r="LO15" s="176"/>
+      <c r="LP15" s="176"/>
+      <c r="LQ15" s="176"/>
+      <c r="LR15" s="176"/>
+      <c r="LS15" s="176"/>
+      <c r="LT15" s="176"/>
+      <c r="LU15" s="176"/>
+      <c r="LV15" s="176"/>
+      <c r="LW15" s="183"/>
+      <c r="LX15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="LY15" s="189"/>
-      <c r="LZ15" s="189"/>
-      <c r="MA15" s="189"/>
-      <c r="MB15" s="189"/>
-      <c r="MC15" s="189"/>
-      <c r="MD15" s="189"/>
-      <c r="ME15" s="189"/>
-      <c r="MF15" s="189"/>
-      <c r="MG15" s="189"/>
-      <c r="MH15" s="189"/>
-      <c r="MI15" s="189"/>
-      <c r="MJ15" s="189"/>
-      <c r="MK15" s="189"/>
-      <c r="ML15" s="189"/>
-      <c r="MM15" s="189" t="s">
+      <c r="LY15" s="176"/>
+      <c r="LZ15" s="176"/>
+      <c r="MA15" s="176"/>
+      <c r="MB15" s="176"/>
+      <c r="MC15" s="176"/>
+      <c r="MD15" s="176"/>
+      <c r="ME15" s="176"/>
+      <c r="MF15" s="176"/>
+      <c r="MG15" s="176"/>
+      <c r="MH15" s="176"/>
+      <c r="MI15" s="176"/>
+      <c r="MJ15" s="176"/>
+      <c r="MK15" s="176"/>
+      <c r="ML15" s="176"/>
+      <c r="MM15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="MN15" s="189"/>
-      <c r="MO15" s="189"/>
-      <c r="MP15" s="189"/>
-      <c r="MQ15" s="189"/>
-      <c r="MR15" s="189"/>
-      <c r="MS15" s="189"/>
-      <c r="MT15" s="189"/>
-      <c r="MU15" s="189"/>
-      <c r="MV15" s="189"/>
-      <c r="MW15" s="189"/>
-      <c r="MX15" s="189"/>
-      <c r="MY15" s="189"/>
-      <c r="MZ15" s="189"/>
-      <c r="NA15" s="190"/>
-      <c r="NB15" s="191" t="s">
+      <c r="MN15" s="176"/>
+      <c r="MO15" s="176"/>
+      <c r="MP15" s="176"/>
+      <c r="MQ15" s="176"/>
+      <c r="MR15" s="176"/>
+      <c r="MS15" s="176"/>
+      <c r="MT15" s="176"/>
+      <c r="MU15" s="176"/>
+      <c r="MV15" s="176"/>
+      <c r="MW15" s="176"/>
+      <c r="MX15" s="176"/>
+      <c r="MY15" s="176"/>
+      <c r="MZ15" s="176"/>
+      <c r="NA15" s="183"/>
+      <c r="NB15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="NC15" s="189"/>
-      <c r="ND15" s="189"/>
-      <c r="NE15" s="189"/>
-      <c r="NF15" s="189"/>
-      <c r="NG15" s="189"/>
-      <c r="NH15" s="189"/>
-      <c r="NI15" s="189"/>
-      <c r="NJ15" s="189"/>
-      <c r="NK15" s="189"/>
-      <c r="NL15" s="189"/>
-      <c r="NM15" s="189"/>
-      <c r="NN15" s="189"/>
-      <c r="NO15" s="189"/>
-      <c r="NP15" s="189"/>
-      <c r="NQ15" s="189" t="s">
+      <c r="NC15" s="176"/>
+      <c r="ND15" s="176"/>
+      <c r="NE15" s="176"/>
+      <c r="NF15" s="176"/>
+      <c r="NG15" s="176"/>
+      <c r="NH15" s="176"/>
+      <c r="NI15" s="176"/>
+      <c r="NJ15" s="176"/>
+      <c r="NK15" s="176"/>
+      <c r="NL15" s="176"/>
+      <c r="NM15" s="176"/>
+      <c r="NN15" s="176"/>
+      <c r="NO15" s="176"/>
+      <c r="NP15" s="176"/>
+      <c r="NQ15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="NR15" s="189"/>
-      <c r="NS15" s="189"/>
-      <c r="NT15" s="189"/>
-      <c r="NU15" s="189"/>
-      <c r="NV15" s="189"/>
-      <c r="NW15" s="189"/>
-      <c r="NX15" s="189"/>
-      <c r="NY15" s="189"/>
-      <c r="NZ15" s="189"/>
-      <c r="OA15" s="189"/>
-      <c r="OB15" s="189"/>
-      <c r="OC15" s="189"/>
-      <c r="OD15" s="189"/>
-      <c r="OE15" s="190"/>
-      <c r="OF15" s="191" t="s">
+      <c r="NR15" s="176"/>
+      <c r="NS15" s="176"/>
+      <c r="NT15" s="176"/>
+      <c r="NU15" s="176"/>
+      <c r="NV15" s="176"/>
+      <c r="NW15" s="176"/>
+      <c r="NX15" s="176"/>
+      <c r="NY15" s="176"/>
+      <c r="NZ15" s="176"/>
+      <c r="OA15" s="176"/>
+      <c r="OB15" s="176"/>
+      <c r="OC15" s="176"/>
+      <c r="OD15" s="176"/>
+      <c r="OE15" s="183"/>
+      <c r="OF15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="OG15" s="189"/>
-      <c r="OH15" s="189"/>
-      <c r="OI15" s="189"/>
-      <c r="OJ15" s="189"/>
-      <c r="OK15" s="189"/>
-      <c r="OL15" s="189"/>
-      <c r="OM15" s="189"/>
-      <c r="ON15" s="189"/>
-      <c r="OO15" s="189"/>
-      <c r="OP15" s="189"/>
-      <c r="OQ15" s="189"/>
-      <c r="OR15" s="189"/>
-      <c r="OS15" s="189"/>
-      <c r="OT15" s="189"/>
-      <c r="OU15" s="189" t="s">
+      <c r="OG15" s="176"/>
+      <c r="OH15" s="176"/>
+      <c r="OI15" s="176"/>
+      <c r="OJ15" s="176"/>
+      <c r="OK15" s="176"/>
+      <c r="OL15" s="176"/>
+      <c r="OM15" s="176"/>
+      <c r="ON15" s="176"/>
+      <c r="OO15" s="176"/>
+      <c r="OP15" s="176"/>
+      <c r="OQ15" s="176"/>
+      <c r="OR15" s="176"/>
+      <c r="OS15" s="176"/>
+      <c r="OT15" s="176"/>
+      <c r="OU15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="OV15" s="189"/>
-      <c r="OW15" s="189"/>
-      <c r="OX15" s="189"/>
-      <c r="OY15" s="189"/>
-      <c r="OZ15" s="189"/>
-      <c r="PA15" s="189"/>
-      <c r="PB15" s="189"/>
-      <c r="PC15" s="189"/>
-      <c r="PD15" s="189"/>
-      <c r="PE15" s="189"/>
-      <c r="PF15" s="189"/>
-      <c r="PG15" s="189"/>
-      <c r="PH15" s="189"/>
-      <c r="PI15" s="193"/>
-      <c r="PJ15" s="188" t="s">
+      <c r="OV15" s="176"/>
+      <c r="OW15" s="176"/>
+      <c r="OX15" s="176"/>
+      <c r="OY15" s="176"/>
+      <c r="OZ15" s="176"/>
+      <c r="PA15" s="176"/>
+      <c r="PB15" s="176"/>
+      <c r="PC15" s="176"/>
+      <c r="PD15" s="176"/>
+      <c r="PE15" s="176"/>
+      <c r="PF15" s="176"/>
+      <c r="PG15" s="176"/>
+      <c r="PH15" s="176"/>
+      <c r="PI15" s="177"/>
+      <c r="PJ15" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="PK15" s="189"/>
-      <c r="PL15" s="189"/>
-      <c r="PM15" s="189"/>
-      <c r="PN15" s="189"/>
-      <c r="PO15" s="189"/>
-      <c r="PP15" s="189"/>
-      <c r="PQ15" s="189"/>
-      <c r="PR15" s="189"/>
-      <c r="PS15" s="189"/>
-      <c r="PT15" s="189"/>
-      <c r="PU15" s="189"/>
-      <c r="PV15" s="189"/>
-      <c r="PW15" s="189"/>
-      <c r="PX15" s="192"/>
-      <c r="PY15" s="189" t="s">
+      <c r="PK15" s="176"/>
+      <c r="PL15" s="176"/>
+      <c r="PM15" s="176"/>
+      <c r="PN15" s="176"/>
+      <c r="PO15" s="176"/>
+      <c r="PP15" s="176"/>
+      <c r="PQ15" s="176"/>
+      <c r="PR15" s="176"/>
+      <c r="PS15" s="176"/>
+      <c r="PT15" s="176"/>
+      <c r="PU15" s="176"/>
+      <c r="PV15" s="176"/>
+      <c r="PW15" s="176"/>
+      <c r="PX15" s="179"/>
+      <c r="PY15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="PZ15" s="189"/>
-      <c r="QA15" s="189"/>
-      <c r="QB15" s="189"/>
-      <c r="QC15" s="189"/>
-      <c r="QD15" s="189"/>
-      <c r="QE15" s="189"/>
-      <c r="QF15" s="189"/>
-      <c r="QG15" s="189"/>
-      <c r="QH15" s="189"/>
-      <c r="QI15" s="189"/>
-      <c r="QJ15" s="189"/>
-      <c r="QK15" s="189"/>
-      <c r="QL15" s="189"/>
-      <c r="QM15" s="190"/>
-      <c r="QN15" s="191" t="s">
+      <c r="PZ15" s="176"/>
+      <c r="QA15" s="176"/>
+      <c r="QB15" s="176"/>
+      <c r="QC15" s="176"/>
+      <c r="QD15" s="176"/>
+      <c r="QE15" s="176"/>
+      <c r="QF15" s="176"/>
+      <c r="QG15" s="176"/>
+      <c r="QH15" s="176"/>
+      <c r="QI15" s="176"/>
+      <c r="QJ15" s="176"/>
+      <c r="QK15" s="176"/>
+      <c r="QL15" s="176"/>
+      <c r="QM15" s="183"/>
+      <c r="QN15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="QO15" s="189"/>
-      <c r="QP15" s="189"/>
-      <c r="QQ15" s="189"/>
-      <c r="QR15" s="189"/>
-      <c r="QS15" s="189"/>
-      <c r="QT15" s="189"/>
-      <c r="QU15" s="189"/>
-      <c r="QV15" s="189"/>
-      <c r="QW15" s="189"/>
-      <c r="QX15" s="189"/>
-      <c r="QY15" s="189"/>
-      <c r="QZ15" s="189"/>
-      <c r="RA15" s="189"/>
-      <c r="RB15" s="189"/>
-      <c r="RC15" s="189" t="s">
+      <c r="QO15" s="176"/>
+      <c r="QP15" s="176"/>
+      <c r="QQ15" s="176"/>
+      <c r="QR15" s="176"/>
+      <c r="QS15" s="176"/>
+      <c r="QT15" s="176"/>
+      <c r="QU15" s="176"/>
+      <c r="QV15" s="176"/>
+      <c r="QW15" s="176"/>
+      <c r="QX15" s="176"/>
+      <c r="QY15" s="176"/>
+      <c r="QZ15" s="176"/>
+      <c r="RA15" s="176"/>
+      <c r="RB15" s="176"/>
+      <c r="RC15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="RD15" s="189"/>
-      <c r="RE15" s="189"/>
-      <c r="RF15" s="189"/>
-      <c r="RG15" s="189"/>
-      <c r="RH15" s="189"/>
-      <c r="RI15" s="189"/>
-      <c r="RJ15" s="189"/>
-      <c r="RK15" s="189"/>
-      <c r="RL15" s="189"/>
-      <c r="RM15" s="189"/>
-      <c r="RN15" s="189"/>
-      <c r="RO15" s="189"/>
-      <c r="RP15" s="189"/>
-      <c r="RQ15" s="190"/>
-      <c r="RR15" s="191" t="s">
+      <c r="RD15" s="176"/>
+      <c r="RE15" s="176"/>
+      <c r="RF15" s="176"/>
+      <c r="RG15" s="176"/>
+      <c r="RH15" s="176"/>
+      <c r="RI15" s="176"/>
+      <c r="RJ15" s="176"/>
+      <c r="RK15" s="176"/>
+      <c r="RL15" s="176"/>
+      <c r="RM15" s="176"/>
+      <c r="RN15" s="176"/>
+      <c r="RO15" s="176"/>
+      <c r="RP15" s="176"/>
+      <c r="RQ15" s="183"/>
+      <c r="RR15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="RS15" s="189"/>
-      <c r="RT15" s="189"/>
-      <c r="RU15" s="189"/>
-      <c r="RV15" s="189"/>
-      <c r="RW15" s="189"/>
-      <c r="RX15" s="189"/>
-      <c r="RY15" s="189"/>
-      <c r="RZ15" s="189"/>
-      <c r="SA15" s="189"/>
-      <c r="SB15" s="189"/>
-      <c r="SC15" s="189"/>
-      <c r="SD15" s="189"/>
-      <c r="SE15" s="189"/>
-      <c r="SF15" s="189"/>
-      <c r="SG15" s="189" t="s">
+      <c r="RS15" s="176"/>
+      <c r="RT15" s="176"/>
+      <c r="RU15" s="176"/>
+      <c r="RV15" s="176"/>
+      <c r="RW15" s="176"/>
+      <c r="RX15" s="176"/>
+      <c r="RY15" s="176"/>
+      <c r="RZ15" s="176"/>
+      <c r="SA15" s="176"/>
+      <c r="SB15" s="176"/>
+      <c r="SC15" s="176"/>
+      <c r="SD15" s="176"/>
+      <c r="SE15" s="176"/>
+      <c r="SF15" s="176"/>
+      <c r="SG15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="SH15" s="189"/>
-      <c r="SI15" s="189"/>
-      <c r="SJ15" s="189"/>
-      <c r="SK15" s="189"/>
-      <c r="SL15" s="189"/>
-      <c r="SM15" s="189"/>
-      <c r="SN15" s="189"/>
-      <c r="SO15" s="189"/>
-      <c r="SP15" s="189"/>
-      <c r="SQ15" s="189"/>
-      <c r="SR15" s="189"/>
-      <c r="SS15" s="189"/>
-      <c r="ST15" s="189"/>
-      <c r="SU15" s="190"/>
-      <c r="SV15" s="191" t="s">
+      <c r="SH15" s="176"/>
+      <c r="SI15" s="176"/>
+      <c r="SJ15" s="176"/>
+      <c r="SK15" s="176"/>
+      <c r="SL15" s="176"/>
+      <c r="SM15" s="176"/>
+      <c r="SN15" s="176"/>
+      <c r="SO15" s="176"/>
+      <c r="SP15" s="176"/>
+      <c r="SQ15" s="176"/>
+      <c r="SR15" s="176"/>
+      <c r="SS15" s="176"/>
+      <c r="ST15" s="176"/>
+      <c r="SU15" s="183"/>
+      <c r="SV15" s="175" t="s">
         <v>24</v>
       </c>
-      <c r="SW15" s="189"/>
-      <c r="SX15" s="189"/>
-      <c r="SY15" s="189"/>
-      <c r="SZ15" s="189"/>
-      <c r="TA15" s="189"/>
-      <c r="TB15" s="189"/>
-      <c r="TC15" s="189"/>
-      <c r="TD15" s="189"/>
-      <c r="TE15" s="189"/>
-      <c r="TF15" s="189"/>
-      <c r="TG15" s="189"/>
-      <c r="TH15" s="189"/>
-      <c r="TI15" s="189"/>
-      <c r="TJ15" s="189"/>
-      <c r="TK15" s="189" t="s">
+      <c r="SW15" s="176"/>
+      <c r="SX15" s="176"/>
+      <c r="SY15" s="176"/>
+      <c r="SZ15" s="176"/>
+      <c r="TA15" s="176"/>
+      <c r="TB15" s="176"/>
+      <c r="TC15" s="176"/>
+      <c r="TD15" s="176"/>
+      <c r="TE15" s="176"/>
+      <c r="TF15" s="176"/>
+      <c r="TG15" s="176"/>
+      <c r="TH15" s="176"/>
+      <c r="TI15" s="176"/>
+      <c r="TJ15" s="176"/>
+      <c r="TK15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="TL15" s="189"/>
-      <c r="TM15" s="189"/>
-      <c r="TN15" s="189"/>
-      <c r="TO15" s="189"/>
-      <c r="TP15" s="189"/>
-      <c r="TQ15" s="189"/>
-      <c r="TR15" s="189"/>
-      <c r="TS15" s="189"/>
-      <c r="TT15" s="189"/>
-      <c r="TU15" s="189"/>
-      <c r="TV15" s="189"/>
-      <c r="TW15" s="189"/>
-      <c r="TX15" s="189"/>
-      <c r="TY15" s="193"/>
-      <c r="TZ15" s="188" t="s">
+      <c r="TL15" s="176"/>
+      <c r="TM15" s="176"/>
+      <c r="TN15" s="176"/>
+      <c r="TO15" s="176"/>
+      <c r="TP15" s="176"/>
+      <c r="TQ15" s="176"/>
+      <c r="TR15" s="176"/>
+      <c r="TS15" s="176"/>
+      <c r="TT15" s="176"/>
+      <c r="TU15" s="176"/>
+      <c r="TV15" s="176"/>
+      <c r="TW15" s="176"/>
+      <c r="TX15" s="176"/>
+      <c r="TY15" s="177"/>
+      <c r="TZ15" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="UA15" s="189"/>
-      <c r="UB15" s="189"/>
-      <c r="UC15" s="189"/>
-      <c r="UD15" s="189"/>
-      <c r="UE15" s="189"/>
-      <c r="UF15" s="189"/>
-      <c r="UG15" s="189"/>
-      <c r="UH15" s="189"/>
-      <c r="UI15" s="189"/>
-      <c r="UJ15" s="189"/>
-      <c r="UK15" s="189"/>
-      <c r="UL15" s="189"/>
-      <c r="UM15" s="189"/>
-      <c r="UN15" s="192"/>
-      <c r="UO15" s="189" t="s">
+      <c r="UA15" s="176"/>
+      <c r="UB15" s="176"/>
+      <c r="UC15" s="176"/>
+      <c r="UD15" s="176"/>
+      <c r="UE15" s="176"/>
+      <c r="UF15" s="176"/>
+      <c r="UG15" s="176"/>
+      <c r="UH15" s="176"/>
+      <c r="UI15" s="176"/>
+      <c r="UJ15" s="176"/>
+      <c r="UK15" s="176"/>
+      <c r="UL15" s="176"/>
+      <c r="UM15" s="176"/>
+      <c r="UN15" s="179"/>
+      <c r="UO15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="UP15" s="189"/>
-      <c r="UQ15" s="189"/>
-      <c r="UR15" s="189"/>
-      <c r="US15" s="189"/>
-      <c r="UT15" s="189"/>
-      <c r="UU15" s="189"/>
-      <c r="UV15" s="189"/>
-      <c r="UW15" s="189"/>
-      <c r="UX15" s="189"/>
-      <c r="UY15" s="189"/>
-      <c r="UZ15" s="189"/>
-      <c r="VA15" s="189"/>
-      <c r="VB15" s="189"/>
-      <c r="VC15" s="193"/>
+      <c r="UP15" s="176"/>
+      <c r="UQ15" s="176"/>
+      <c r="UR15" s="176"/>
+      <c r="US15" s="176"/>
+      <c r="UT15" s="176"/>
+      <c r="UU15" s="176"/>
+      <c r="UV15" s="176"/>
+      <c r="UW15" s="176"/>
+      <c r="UX15" s="176"/>
+      <c r="UY15" s="176"/>
+      <c r="UZ15" s="176"/>
+      <c r="VA15" s="176"/>
+      <c r="VB15" s="176"/>
+      <c r="VC15" s="177"/>
     </row>
     <row r="16" spans="1:575" s="3" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -11518,40 +11537,40 @@
       <c r="TW16" s="15"/>
       <c r="TX16" s="15"/>
       <c r="TY16" s="14"/>
-      <c r="TZ16" s="205"/>
-      <c r="UA16" s="206"/>
-      <c r="UB16" s="206"/>
-      <c r="UC16" s="206"/>
-      <c r="UD16" s="206"/>
-      <c r="UE16" s="206"/>
-      <c r="UF16" s="206"/>
-      <c r="UG16" s="206"/>
-      <c r="UH16" s="206"/>
-      <c r="UI16" s="206"/>
-      <c r="UJ16" s="206"/>
-      <c r="UK16" s="206"/>
-      <c r="UL16" s="206"/>
-      <c r="UM16" s="206"/>
-      <c r="UN16" s="206"/>
-      <c r="UO16" s="206"/>
-      <c r="UP16" s="206"/>
-      <c r="UQ16" s="206"/>
-      <c r="UR16" s="206"/>
-      <c r="US16" s="206"/>
-      <c r="UT16" s="206"/>
-      <c r="UU16" s="206"/>
-      <c r="UV16" s="206"/>
-      <c r="UW16" s="206"/>
-      <c r="UX16" s="206"/>
-      <c r="UY16" s="206"/>
-      <c r="UZ16" s="206"/>
-      <c r="VA16" s="206"/>
-      <c r="VB16" s="206"/>
-      <c r="VC16" s="207"/>
+      <c r="TZ16" s="180"/>
+      <c r="UA16" s="181"/>
+      <c r="UB16" s="181"/>
+      <c r="UC16" s="181"/>
+      <c r="UD16" s="181"/>
+      <c r="UE16" s="181"/>
+      <c r="UF16" s="181"/>
+      <c r="UG16" s="181"/>
+      <c r="UH16" s="181"/>
+      <c r="UI16" s="181"/>
+      <c r="UJ16" s="181"/>
+      <c r="UK16" s="181"/>
+      <c r="UL16" s="181"/>
+      <c r="UM16" s="181"/>
+      <c r="UN16" s="181"/>
+      <c r="UO16" s="181"/>
+      <c r="UP16" s="181"/>
+      <c r="UQ16" s="181"/>
+      <c r="UR16" s="181"/>
+      <c r="US16" s="181"/>
+      <c r="UT16" s="181"/>
+      <c r="UU16" s="181"/>
+      <c r="UV16" s="181"/>
+      <c r="UW16" s="181"/>
+      <c r="UX16" s="181"/>
+      <c r="UY16" s="181"/>
+      <c r="UZ16" s="181"/>
+      <c r="VA16" s="181"/>
+      <c r="VB16" s="181"/>
+      <c r="VC16" s="182"/>
     </row>
     <row r="17" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="158" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -11857,7 +11876,7 @@
       <c r="KO17" s="18"/>
       <c r="KP17" s="18"/>
       <c r="KQ17" s="24"/>
-      <c r="KR17" s="196" t="s">
+      <c r="KR17" s="158" t="s">
         <v>27</v>
       </c>
       <c r="KS17" s="122" t="s">
@@ -12136,7 +12155,7 @@
     </row>
     <row r="18" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="195"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="64" t="s">
         <v>29</v>
       </c>
@@ -12440,7 +12459,7 @@
       <c r="KO18" s="27"/>
       <c r="KP18" s="27"/>
       <c r="KQ18" s="34"/>
-      <c r="KR18" s="195"/>
+      <c r="KR18" s="147"/>
       <c r="KS18" s="123" t="s">
         <v>29</v>
       </c>
@@ -12717,7 +12736,7 @@
     </row>
     <row r="19" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="194" t="s">
+      <c r="B19" s="148" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="65" t="s">
@@ -13023,7 +13042,7 @@
       <c r="KO19" s="37"/>
       <c r="KP19" s="37"/>
       <c r="KQ19" s="44"/>
-      <c r="KR19" s="194" t="s">
+      <c r="KR19" s="148" t="s">
         <v>30</v>
       </c>
       <c r="KS19" s="124" t="s">
@@ -13302,7 +13321,7 @@
     </row>
     <row r="20" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="195"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="64" t="s">
         <v>29</v>
       </c>
@@ -13606,7 +13625,7 @@
       <c r="KO20" s="27"/>
       <c r="KP20" s="27"/>
       <c r="KQ20" s="34"/>
-      <c r="KR20" s="195"/>
+      <c r="KR20" s="147"/>
       <c r="KS20" s="123" t="s">
         <v>29</v>
       </c>
@@ -13883,7 +13902,7 @@
     </row>
     <row r="21" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="194" t="s">
+      <c r="B21" s="148" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="65" t="s">
@@ -14189,7 +14208,7 @@
       <c r="KO21" s="37"/>
       <c r="KP21" s="37"/>
       <c r="KQ21" s="44"/>
-      <c r="KR21" s="194" t="s">
+      <c r="KR21" s="148" t="s">
         <v>35</v>
       </c>
       <c r="KS21" s="124" t="s">
@@ -14468,7 +14487,7 @@
     </row>
     <row r="22" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="195"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="64" t="s">
         <v>29</v>
       </c>
@@ -14772,7 +14791,7 @@
       <c r="KO22" s="27"/>
       <c r="KP22" s="27"/>
       <c r="KQ22" s="34"/>
-      <c r="KR22" s="195"/>
+      <c r="KR22" s="147"/>
       <c r="KS22" s="123" t="s">
         <v>29</v>
       </c>
@@ -15049,7 +15068,7 @@
     </row>
     <row r="23" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="196" t="s">
+      <c r="B23" s="158" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -15355,7 +15374,7 @@
       <c r="KO23" s="18"/>
       <c r="KP23" s="18"/>
       <c r="KQ23" s="24"/>
-      <c r="KR23" s="196" t="s">
+      <c r="KR23" s="158" t="s">
         <v>31</v>
       </c>
       <c r="KS23" s="122" t="s">
@@ -15634,7 +15653,7 @@
     </row>
     <row r="24" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="197"/>
+      <c r="B24" s="159"/>
       <c r="C24" s="66" t="s">
         <v>29</v>
       </c>
@@ -15938,7 +15957,7 @@
       <c r="KO24" s="18"/>
       <c r="KP24" s="18"/>
       <c r="KQ24" s="24"/>
-      <c r="KR24" s="197"/>
+      <c r="KR24" s="159"/>
       <c r="KS24" s="125" t="s">
         <v>29</v>
       </c>
@@ -16763,36 +16782,36 @@
       <c r="TW25" s="60"/>
       <c r="TX25" s="60"/>
       <c r="TY25" s="72"/>
-      <c r="TZ25" s="198"/>
-      <c r="UA25" s="199"/>
-      <c r="UB25" s="199"/>
-      <c r="UC25" s="199"/>
-      <c r="UD25" s="199"/>
-      <c r="UE25" s="199"/>
-      <c r="UF25" s="199"/>
-      <c r="UG25" s="199"/>
-      <c r="UH25" s="199"/>
-      <c r="UI25" s="199"/>
-      <c r="UJ25" s="199"/>
-      <c r="UK25" s="199"/>
-      <c r="UL25" s="199"/>
-      <c r="UM25" s="199"/>
-      <c r="UN25" s="199"/>
-      <c r="UO25" s="199"/>
-      <c r="UP25" s="199"/>
-      <c r="UQ25" s="199"/>
-      <c r="UR25" s="199"/>
-      <c r="US25" s="199"/>
-      <c r="UT25" s="199"/>
-      <c r="UU25" s="199"/>
-      <c r="UV25" s="199"/>
-      <c r="UW25" s="199"/>
-      <c r="UX25" s="199"/>
-      <c r="UY25" s="199"/>
-      <c r="UZ25" s="199"/>
-      <c r="VA25" s="199"/>
-      <c r="VB25" s="199"/>
-      <c r="VC25" s="200"/>
+      <c r="TZ25" s="169"/>
+      <c r="UA25" s="170"/>
+      <c r="UB25" s="170"/>
+      <c r="UC25" s="170"/>
+      <c r="UD25" s="170"/>
+      <c r="UE25" s="170"/>
+      <c r="UF25" s="170"/>
+      <c r="UG25" s="170"/>
+      <c r="UH25" s="170"/>
+      <c r="UI25" s="170"/>
+      <c r="UJ25" s="170"/>
+      <c r="UK25" s="170"/>
+      <c r="UL25" s="170"/>
+      <c r="UM25" s="170"/>
+      <c r="UN25" s="170"/>
+      <c r="UO25" s="170"/>
+      <c r="UP25" s="170"/>
+      <c r="UQ25" s="170"/>
+      <c r="UR25" s="170"/>
+      <c r="US25" s="170"/>
+      <c r="UT25" s="170"/>
+      <c r="UU25" s="170"/>
+      <c r="UV25" s="170"/>
+      <c r="UW25" s="170"/>
+      <c r="UX25" s="170"/>
+      <c r="UY25" s="170"/>
+      <c r="UZ25" s="170"/>
+      <c r="VA25" s="170"/>
+      <c r="VB25" s="170"/>
+      <c r="VC25" s="171"/>
     </row>
     <row r="26" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="46"/>
@@ -17925,40 +17944,40 @@
       <c r="TW27" s="62"/>
       <c r="TX27" s="62"/>
       <c r="TY27" s="76"/>
-      <c r="TZ27" s="201"/>
-      <c r="UA27" s="202"/>
-      <c r="UB27" s="202"/>
-      <c r="UC27" s="202"/>
-      <c r="UD27" s="202"/>
-      <c r="UE27" s="202"/>
-      <c r="UF27" s="202"/>
-      <c r="UG27" s="202"/>
-      <c r="UH27" s="202"/>
-      <c r="UI27" s="202"/>
-      <c r="UJ27" s="202"/>
-      <c r="UK27" s="202"/>
-      <c r="UL27" s="202"/>
-      <c r="UM27" s="202"/>
-      <c r="UN27" s="202"/>
-      <c r="UO27" s="202"/>
-      <c r="UP27" s="202"/>
-      <c r="UQ27" s="202"/>
-      <c r="UR27" s="202"/>
-      <c r="US27" s="202"/>
-      <c r="UT27" s="202"/>
-      <c r="UU27" s="202"/>
-      <c r="UV27" s="202"/>
-      <c r="UW27" s="202"/>
-      <c r="UX27" s="202"/>
-      <c r="UY27" s="202"/>
-      <c r="UZ27" s="202"/>
-      <c r="VA27" s="202"/>
-      <c r="VB27" s="202"/>
-      <c r="VC27" s="203"/>
+      <c r="TZ27" s="172"/>
+      <c r="UA27" s="173"/>
+      <c r="UB27" s="173"/>
+      <c r="UC27" s="173"/>
+      <c r="UD27" s="173"/>
+      <c r="UE27" s="173"/>
+      <c r="UF27" s="173"/>
+      <c r="UG27" s="173"/>
+      <c r="UH27" s="173"/>
+      <c r="UI27" s="173"/>
+      <c r="UJ27" s="173"/>
+      <c r="UK27" s="173"/>
+      <c r="UL27" s="173"/>
+      <c r="UM27" s="173"/>
+      <c r="UN27" s="173"/>
+      <c r="UO27" s="173"/>
+      <c r="UP27" s="173"/>
+      <c r="UQ27" s="173"/>
+      <c r="UR27" s="173"/>
+      <c r="US27" s="173"/>
+      <c r="UT27" s="173"/>
+      <c r="UU27" s="173"/>
+      <c r="UV27" s="173"/>
+      <c r="UW27" s="173"/>
+      <c r="UX27" s="173"/>
+      <c r="UY27" s="173"/>
+      <c r="UZ27" s="173"/>
+      <c r="VA27" s="173"/>
+      <c r="VB27" s="173"/>
+      <c r="VC27" s="174"/>
     </row>
     <row r="28" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="204" t="s">
+      <c r="B28" s="146" t="s">
         <v>34</v>
       </c>
       <c r="C28" s="67" t="s">
@@ -18264,7 +18283,7 @@
       <c r="KO28" s="18"/>
       <c r="KP28" s="18"/>
       <c r="KQ28" s="24"/>
-      <c r="KR28" s="204" t="s">
+      <c r="KR28" s="146" t="s">
         <v>34</v>
       </c>
       <c r="KS28" s="128" t="s">
@@ -18543,7 +18562,7 @@
     </row>
     <row r="29" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="195"/>
+      <c r="B29" s="147"/>
       <c r="C29" s="64" t="s">
         <v>29</v>
       </c>
@@ -18847,7 +18866,7 @@
       <c r="KO29" s="27"/>
       <c r="KP29" s="27"/>
       <c r="KQ29" s="34"/>
-      <c r="KR29" s="195"/>
+      <c r="KR29" s="147"/>
       <c r="KS29" s="123" t="s">
         <v>29</v>
       </c>
@@ -19672,36 +19691,36 @@
       <c r="TW30" s="60"/>
       <c r="TX30" s="60"/>
       <c r="TY30" s="72"/>
-      <c r="TZ30" s="198"/>
-      <c r="UA30" s="199"/>
-      <c r="UB30" s="199"/>
-      <c r="UC30" s="199"/>
-      <c r="UD30" s="199"/>
-      <c r="UE30" s="199"/>
-      <c r="UF30" s="199"/>
-      <c r="UG30" s="199"/>
-      <c r="UH30" s="199"/>
-      <c r="UI30" s="199"/>
-      <c r="UJ30" s="199"/>
-      <c r="UK30" s="199"/>
-      <c r="UL30" s="199"/>
-      <c r="UM30" s="199"/>
-      <c r="UN30" s="199"/>
-      <c r="UO30" s="199"/>
-      <c r="UP30" s="199"/>
-      <c r="UQ30" s="199"/>
-      <c r="UR30" s="199"/>
-      <c r="US30" s="199"/>
-      <c r="UT30" s="199"/>
-      <c r="UU30" s="199"/>
-      <c r="UV30" s="199"/>
-      <c r="UW30" s="199"/>
-      <c r="UX30" s="199"/>
-      <c r="UY30" s="199"/>
-      <c r="UZ30" s="199"/>
-      <c r="VA30" s="199"/>
-      <c r="VB30" s="199"/>
-      <c r="VC30" s="200"/>
+      <c r="TZ30" s="169"/>
+      <c r="UA30" s="170"/>
+      <c r="UB30" s="170"/>
+      <c r="UC30" s="170"/>
+      <c r="UD30" s="170"/>
+      <c r="UE30" s="170"/>
+      <c r="UF30" s="170"/>
+      <c r="UG30" s="170"/>
+      <c r="UH30" s="170"/>
+      <c r="UI30" s="170"/>
+      <c r="UJ30" s="170"/>
+      <c r="UK30" s="170"/>
+      <c r="UL30" s="170"/>
+      <c r="UM30" s="170"/>
+      <c r="UN30" s="170"/>
+      <c r="UO30" s="170"/>
+      <c r="UP30" s="170"/>
+      <c r="UQ30" s="170"/>
+      <c r="UR30" s="170"/>
+      <c r="US30" s="170"/>
+      <c r="UT30" s="170"/>
+      <c r="UU30" s="170"/>
+      <c r="UV30" s="170"/>
+      <c r="UW30" s="170"/>
+      <c r="UX30" s="170"/>
+      <c r="UY30" s="170"/>
+      <c r="UZ30" s="170"/>
+      <c r="VA30" s="170"/>
+      <c r="VB30" s="170"/>
+      <c r="VC30" s="171"/>
     </row>
     <row r="31" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="46"/>
@@ -20834,40 +20853,40 @@
       <c r="TW32" s="61"/>
       <c r="TX32" s="61"/>
       <c r="TY32" s="78"/>
-      <c r="TZ32" s="208"/>
-      <c r="UA32" s="209"/>
-      <c r="UB32" s="209"/>
-      <c r="UC32" s="209"/>
-      <c r="UD32" s="209"/>
-      <c r="UE32" s="209"/>
-      <c r="UF32" s="209"/>
-      <c r="UG32" s="209"/>
-      <c r="UH32" s="209"/>
-      <c r="UI32" s="209"/>
-      <c r="UJ32" s="209"/>
-      <c r="UK32" s="209"/>
-      <c r="UL32" s="209"/>
-      <c r="UM32" s="209"/>
-      <c r="UN32" s="209"/>
-      <c r="UO32" s="209"/>
-      <c r="UP32" s="209"/>
-      <c r="UQ32" s="209"/>
-      <c r="UR32" s="209"/>
-      <c r="US32" s="209"/>
-      <c r="UT32" s="209"/>
-      <c r="UU32" s="209"/>
-      <c r="UV32" s="209"/>
-      <c r="UW32" s="209"/>
-      <c r="UX32" s="209"/>
-      <c r="UY32" s="209"/>
-      <c r="UZ32" s="209"/>
-      <c r="VA32" s="209"/>
-      <c r="VB32" s="209"/>
-      <c r="VC32" s="210"/>
+      <c r="TZ32" s="160"/>
+      <c r="UA32" s="161"/>
+      <c r="UB32" s="161"/>
+      <c r="UC32" s="161"/>
+      <c r="UD32" s="161"/>
+      <c r="UE32" s="161"/>
+      <c r="UF32" s="161"/>
+      <c r="UG32" s="161"/>
+      <c r="UH32" s="161"/>
+      <c r="UI32" s="161"/>
+      <c r="UJ32" s="161"/>
+      <c r="UK32" s="161"/>
+      <c r="UL32" s="161"/>
+      <c r="UM32" s="161"/>
+      <c r="UN32" s="161"/>
+      <c r="UO32" s="161"/>
+      <c r="UP32" s="161"/>
+      <c r="UQ32" s="161"/>
+      <c r="UR32" s="161"/>
+      <c r="US32" s="161"/>
+      <c r="UT32" s="161"/>
+      <c r="UU32" s="161"/>
+      <c r="UV32" s="161"/>
+      <c r="UW32" s="161"/>
+      <c r="UX32" s="161"/>
+      <c r="UY32" s="161"/>
+      <c r="UZ32" s="161"/>
+      <c r="VA32" s="161"/>
+      <c r="VB32" s="161"/>
+      <c r="VC32" s="162"/>
     </row>
     <row r="33" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="194" t="s">
+      <c r="B33" s="148" t="s">
         <v>63</v>
       </c>
       <c r="C33" s="65" t="s">
@@ -21173,7 +21192,7 @@
       <c r="KO33" s="37"/>
       <c r="KP33" s="37"/>
       <c r="KQ33" s="44"/>
-      <c r="KR33" s="194" t="s">
+      <c r="KR33" s="148" t="s">
         <v>63</v>
       </c>
       <c r="KS33" s="124" t="s">
@@ -21452,7 +21471,7 @@
     </row>
     <row r="34" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="195"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="64" t="s">
         <v>29</v>
       </c>
@@ -21756,7 +21775,7 @@
       <c r="KO34" s="27"/>
       <c r="KP34" s="27"/>
       <c r="KQ34" s="34"/>
-      <c r="KR34" s="195"/>
+      <c r="KR34" s="147"/>
       <c r="KS34" s="123" t="s">
         <v>29</v>
       </c>
@@ -22033,7 +22052,7 @@
     </row>
     <row r="35" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="194" t="s">
+      <c r="B35" s="148" t="s">
         <v>71</v>
       </c>
       <c r="C35" s="65" t="s">
@@ -22339,7 +22358,7 @@
       <c r="KO35" s="37"/>
       <c r="KP35" s="37"/>
       <c r="KQ35" s="44"/>
-      <c r="KR35" s="194" t="s">
+      <c r="KR35" s="148" t="s">
         <v>71</v>
       </c>
       <c r="KS35" s="124" t="s">
@@ -22618,7 +22637,7 @@
     </row>
     <row r="36" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="195"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="64" t="s">
         <v>29</v>
       </c>
@@ -22922,7 +22941,7 @@
       <c r="KO36" s="27"/>
       <c r="KP36" s="27"/>
       <c r="KQ36" s="34"/>
-      <c r="KR36" s="195"/>
+      <c r="KR36" s="147"/>
       <c r="KS36" s="123" t="s">
         <v>29</v>
       </c>
@@ -23199,7 +23218,7 @@
     </row>
     <row r="37" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="194" t="s">
+      <c r="B37" s="148" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="65" t="s">
@@ -23505,7 +23524,7 @@
       <c r="KO37" s="37"/>
       <c r="KP37" s="37"/>
       <c r="KQ37" s="44"/>
-      <c r="KR37" s="194" t="s">
+      <c r="KR37" s="148" t="s">
         <v>72</v>
       </c>
       <c r="KS37" s="124" t="s">
@@ -23784,7 +23803,7 @@
     </row>
     <row r="38" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="195"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="64" t="s">
         <v>29</v>
       </c>
@@ -24088,7 +24107,7 @@
       <c r="KO38" s="27"/>
       <c r="KP38" s="27"/>
       <c r="KQ38" s="34"/>
-      <c r="KR38" s="195"/>
+      <c r="KR38" s="147"/>
       <c r="KS38" s="123" t="s">
         <v>29</v>
       </c>
@@ -24365,7 +24384,7 @@
     </row>
     <row r="39" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="211" t="s">
+      <c r="B39" s="149" t="s">
         <v>66</v>
       </c>
       <c r="C39" s="65" t="s">
@@ -24671,7 +24690,7 @@
       <c r="KO39" s="18"/>
       <c r="KP39" s="18"/>
       <c r="KQ39" s="24"/>
-      <c r="KR39" s="211" t="s">
+      <c r="KR39" s="149" t="s">
         <v>66</v>
       </c>
       <c r="KS39" s="124" t="s">
@@ -24950,7 +24969,7 @@
     </row>
     <row r="40" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="212"/>
+      <c r="B40" s="150"/>
       <c r="C40" s="66" t="s">
         <v>29</v>
       </c>
@@ -25254,7 +25273,7 @@
       <c r="KO40" s="18"/>
       <c r="KP40" s="18"/>
       <c r="KQ40" s="24"/>
-      <c r="KR40" s="212"/>
+      <c r="KR40" s="150"/>
       <c r="KS40" s="125" t="s">
         <v>29</v>
       </c>
@@ -26079,36 +26098,36 @@
       <c r="TW41" s="60"/>
       <c r="TX41" s="60"/>
       <c r="TY41" s="72"/>
-      <c r="TZ41" s="198"/>
-      <c r="UA41" s="199"/>
-      <c r="UB41" s="199"/>
-      <c r="UC41" s="199"/>
-      <c r="UD41" s="199"/>
-      <c r="UE41" s="199"/>
-      <c r="UF41" s="199"/>
-      <c r="UG41" s="199"/>
-      <c r="UH41" s="199"/>
-      <c r="UI41" s="199"/>
-      <c r="UJ41" s="199"/>
-      <c r="UK41" s="199"/>
-      <c r="UL41" s="199"/>
-      <c r="UM41" s="199"/>
-      <c r="UN41" s="199"/>
-      <c r="UO41" s="199"/>
-      <c r="UP41" s="199"/>
-      <c r="UQ41" s="199"/>
-      <c r="UR41" s="199"/>
-      <c r="US41" s="199"/>
-      <c r="UT41" s="199"/>
-      <c r="UU41" s="199"/>
-      <c r="UV41" s="199"/>
-      <c r="UW41" s="199"/>
-      <c r="UX41" s="199"/>
-      <c r="UY41" s="199"/>
-      <c r="UZ41" s="199"/>
-      <c r="VA41" s="199"/>
-      <c r="VB41" s="199"/>
-      <c r="VC41" s="200"/>
+      <c r="TZ41" s="169"/>
+      <c r="UA41" s="170"/>
+      <c r="UB41" s="170"/>
+      <c r="UC41" s="170"/>
+      <c r="UD41" s="170"/>
+      <c r="UE41" s="170"/>
+      <c r="UF41" s="170"/>
+      <c r="UG41" s="170"/>
+      <c r="UH41" s="170"/>
+      <c r="UI41" s="170"/>
+      <c r="UJ41" s="170"/>
+      <c r="UK41" s="170"/>
+      <c r="UL41" s="170"/>
+      <c r="UM41" s="170"/>
+      <c r="UN41" s="170"/>
+      <c r="UO41" s="170"/>
+      <c r="UP41" s="170"/>
+      <c r="UQ41" s="170"/>
+      <c r="UR41" s="170"/>
+      <c r="US41" s="170"/>
+      <c r="UT41" s="170"/>
+      <c r="UU41" s="170"/>
+      <c r="UV41" s="170"/>
+      <c r="UW41" s="170"/>
+      <c r="UX41" s="170"/>
+      <c r="UY41" s="170"/>
+      <c r="UZ41" s="170"/>
+      <c r="VA41" s="170"/>
+      <c r="VB41" s="170"/>
+      <c r="VC41" s="171"/>
     </row>
     <row r="42" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
@@ -27241,40 +27260,40 @@
       <c r="TW43" s="61"/>
       <c r="TX43" s="61"/>
       <c r="TY43" s="78"/>
-      <c r="TZ43" s="208"/>
-      <c r="UA43" s="209"/>
-      <c r="UB43" s="209"/>
-      <c r="UC43" s="209"/>
-      <c r="UD43" s="209"/>
-      <c r="UE43" s="209"/>
-      <c r="UF43" s="209"/>
-      <c r="UG43" s="209"/>
-      <c r="UH43" s="209"/>
-      <c r="UI43" s="209"/>
-      <c r="UJ43" s="209"/>
-      <c r="UK43" s="209"/>
-      <c r="UL43" s="209"/>
-      <c r="UM43" s="209"/>
-      <c r="UN43" s="209"/>
-      <c r="UO43" s="209"/>
-      <c r="UP43" s="209"/>
-      <c r="UQ43" s="209"/>
-      <c r="UR43" s="209"/>
-      <c r="US43" s="209"/>
-      <c r="UT43" s="209"/>
-      <c r="UU43" s="209"/>
-      <c r="UV43" s="209"/>
-      <c r="UW43" s="209"/>
-      <c r="UX43" s="209"/>
-      <c r="UY43" s="209"/>
-      <c r="UZ43" s="209"/>
-      <c r="VA43" s="209"/>
-      <c r="VB43" s="209"/>
-      <c r="VC43" s="210"/>
+      <c r="TZ43" s="160"/>
+      <c r="UA43" s="161"/>
+      <c r="UB43" s="161"/>
+      <c r="UC43" s="161"/>
+      <c r="UD43" s="161"/>
+      <c r="UE43" s="161"/>
+      <c r="UF43" s="161"/>
+      <c r="UG43" s="161"/>
+      <c r="UH43" s="161"/>
+      <c r="UI43" s="161"/>
+      <c r="UJ43" s="161"/>
+      <c r="UK43" s="161"/>
+      <c r="UL43" s="161"/>
+      <c r="UM43" s="161"/>
+      <c r="UN43" s="161"/>
+      <c r="UO43" s="161"/>
+      <c r="UP43" s="161"/>
+      <c r="UQ43" s="161"/>
+      <c r="UR43" s="161"/>
+      <c r="US43" s="161"/>
+      <c r="UT43" s="161"/>
+      <c r="UU43" s="161"/>
+      <c r="UV43" s="161"/>
+      <c r="UW43" s="161"/>
+      <c r="UX43" s="161"/>
+      <c r="UY43" s="161"/>
+      <c r="UZ43" s="161"/>
+      <c r="VA43" s="161"/>
+      <c r="VB43" s="161"/>
+      <c r="VC43" s="162"/>
     </row>
     <row r="44" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="194" t="s">
+      <c r="B44" s="148" t="s">
         <v>61</v>
       </c>
       <c r="C44" s="65" t="s">
@@ -27580,7 +27599,7 @@
       <c r="KO44" s="37"/>
       <c r="KP44" s="37"/>
       <c r="KQ44" s="44"/>
-      <c r="KR44" s="194" t="s">
+      <c r="KR44" s="148" t="s">
         <v>61</v>
       </c>
       <c r="KS44" s="124" t="s">
@@ -27859,7 +27878,7 @@
     </row>
     <row r="45" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="195"/>
+      <c r="B45" s="147"/>
       <c r="C45" s="64" t="s">
         <v>29</v>
       </c>
@@ -28163,7 +28182,7 @@
       <c r="KO45" s="27"/>
       <c r="KP45" s="27"/>
       <c r="KQ45" s="34"/>
-      <c r="KR45" s="195"/>
+      <c r="KR45" s="147"/>
       <c r="KS45" s="123" t="s">
         <v>29</v>
       </c>
@@ -28440,7 +28459,7 @@
     </row>
     <row r="46" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="194" t="s">
+      <c r="B46" s="148" t="s">
         <v>73</v>
       </c>
       <c r="C46" s="65" t="s">
@@ -28746,7 +28765,7 @@
       <c r="KO46" s="37"/>
       <c r="KP46" s="37"/>
       <c r="KQ46" s="44"/>
-      <c r="KR46" s="194" t="s">
+      <c r="KR46" s="148" t="s">
         <v>73</v>
       </c>
       <c r="KS46" s="124" t="s">
@@ -29025,7 +29044,7 @@
     </row>
     <row r="47" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="195"/>
+      <c r="B47" s="147"/>
       <c r="C47" s="64" t="s">
         <v>29</v>
       </c>
@@ -29329,7 +29348,7 @@
       <c r="KO47" s="27"/>
       <c r="KP47" s="27"/>
       <c r="KQ47" s="34"/>
-      <c r="KR47" s="195"/>
+      <c r="KR47" s="147"/>
       <c r="KS47" s="123" t="s">
         <v>29</v>
       </c>
@@ -29606,7 +29625,7 @@
     </row>
     <row r="48" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="194" t="s">
+      <c r="B48" s="148" t="s">
         <v>64</v>
       </c>
       <c r="C48" s="65" t="s">
@@ -29912,7 +29931,7 @@
       <c r="KO48" s="37"/>
       <c r="KP48" s="37"/>
       <c r="KQ48" s="44"/>
-      <c r="KR48" s="194" t="s">
+      <c r="KR48" s="148" t="s">
         <v>64</v>
       </c>
       <c r="KS48" s="124" t="s">
@@ -30191,7 +30210,7 @@
     </row>
     <row r="49" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="195"/>
+      <c r="B49" s="147"/>
       <c r="C49" s="64" t="s">
         <v>29</v>
       </c>
@@ -30495,7 +30514,7 @@
       <c r="KO49" s="27"/>
       <c r="KP49" s="27"/>
       <c r="KQ49" s="34"/>
-      <c r="KR49" s="195"/>
+      <c r="KR49" s="147"/>
       <c r="KS49" s="123" t="s">
         <v>29</v>
       </c>
@@ -30772,7 +30791,7 @@
     </row>
     <row r="50" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="194" t="s">
+      <c r="B50" s="148" t="s">
         <v>65</v>
       </c>
       <c r="C50" s="65" t="s">
@@ -31078,7 +31097,7 @@
       <c r="KO50" s="37"/>
       <c r="KP50" s="37"/>
       <c r="KQ50" s="44"/>
-      <c r="KR50" s="194" t="s">
+      <c r="KR50" s="148" t="s">
         <v>65</v>
       </c>
       <c r="KS50" s="124" t="s">
@@ -31357,7 +31376,7 @@
     </row>
     <row r="51" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="195"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="64" t="s">
         <v>29</v>
       </c>
@@ -31661,7 +31680,7 @@
       <c r="KO51" s="27"/>
       <c r="KP51" s="27"/>
       <c r="KQ51" s="34"/>
-      <c r="KR51" s="195"/>
+      <c r="KR51" s="147"/>
       <c r="KS51" s="123" t="s">
         <v>29</v>
       </c>
@@ -31938,7 +31957,7 @@
     </row>
     <row r="52" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="196" t="s">
+      <c r="B52" s="158" t="s">
         <v>62</v>
       </c>
       <c r="C52" s="63" t="s">
@@ -32244,7 +32263,7 @@
       <c r="KO52" s="18"/>
       <c r="KP52" s="18"/>
       <c r="KQ52" s="24"/>
-      <c r="KR52" s="196" t="s">
+      <c r="KR52" s="158" t="s">
         <v>62</v>
       </c>
       <c r="KS52" s="122" t="s">
@@ -32523,7 +32542,7 @@
     </row>
     <row r="53" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="197"/>
+      <c r="B53" s="159"/>
       <c r="C53" s="66" t="s">
         <v>29</v>
       </c>
@@ -32827,7 +32846,7 @@
       <c r="KO53" s="18"/>
       <c r="KP53" s="18"/>
       <c r="KQ53" s="24"/>
-      <c r="KR53" s="197"/>
+      <c r="KR53" s="159"/>
       <c r="KS53" s="125" t="s">
         <v>29</v>
       </c>
@@ -33652,36 +33671,36 @@
       <c r="TW54" s="60"/>
       <c r="TX54" s="60"/>
       <c r="TY54" s="72"/>
-      <c r="TZ54" s="198"/>
-      <c r="UA54" s="199"/>
-      <c r="UB54" s="199"/>
-      <c r="UC54" s="199"/>
-      <c r="UD54" s="199"/>
-      <c r="UE54" s="199"/>
-      <c r="UF54" s="199"/>
-      <c r="UG54" s="199"/>
-      <c r="UH54" s="199"/>
-      <c r="UI54" s="199"/>
-      <c r="UJ54" s="199"/>
-      <c r="UK54" s="199"/>
-      <c r="UL54" s="199"/>
-      <c r="UM54" s="199"/>
-      <c r="UN54" s="199"/>
-      <c r="UO54" s="199"/>
-      <c r="UP54" s="199"/>
-      <c r="UQ54" s="199"/>
-      <c r="UR54" s="199"/>
-      <c r="US54" s="199"/>
-      <c r="UT54" s="199"/>
-      <c r="UU54" s="199"/>
-      <c r="UV54" s="199"/>
-      <c r="UW54" s="199"/>
-      <c r="UX54" s="199"/>
-      <c r="UY54" s="199"/>
-      <c r="UZ54" s="199"/>
-      <c r="VA54" s="199"/>
-      <c r="VB54" s="199"/>
-      <c r="VC54" s="200"/>
+      <c r="TZ54" s="169"/>
+      <c r="UA54" s="170"/>
+      <c r="UB54" s="170"/>
+      <c r="UC54" s="170"/>
+      <c r="UD54" s="170"/>
+      <c r="UE54" s="170"/>
+      <c r="UF54" s="170"/>
+      <c r="UG54" s="170"/>
+      <c r="UH54" s="170"/>
+      <c r="UI54" s="170"/>
+      <c r="UJ54" s="170"/>
+      <c r="UK54" s="170"/>
+      <c r="UL54" s="170"/>
+      <c r="UM54" s="170"/>
+      <c r="UN54" s="170"/>
+      <c r="UO54" s="170"/>
+      <c r="UP54" s="170"/>
+      <c r="UQ54" s="170"/>
+      <c r="UR54" s="170"/>
+      <c r="US54" s="170"/>
+      <c r="UT54" s="170"/>
+      <c r="UU54" s="170"/>
+      <c r="UV54" s="170"/>
+      <c r="UW54" s="170"/>
+      <c r="UX54" s="170"/>
+      <c r="UY54" s="170"/>
+      <c r="UZ54" s="170"/>
+      <c r="VA54" s="170"/>
+      <c r="VB54" s="170"/>
+      <c r="VC54" s="171"/>
     </row>
     <row r="55" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="46"/>
@@ -34814,40 +34833,40 @@
       <c r="TW56" s="61"/>
       <c r="TX56" s="61"/>
       <c r="TY56" s="78"/>
-      <c r="TZ56" s="208"/>
-      <c r="UA56" s="209"/>
-      <c r="UB56" s="209"/>
-      <c r="UC56" s="209"/>
-      <c r="UD56" s="209"/>
-      <c r="UE56" s="209"/>
-      <c r="UF56" s="209"/>
-      <c r="UG56" s="209"/>
-      <c r="UH56" s="209"/>
-      <c r="UI56" s="209"/>
-      <c r="UJ56" s="209"/>
-      <c r="UK56" s="209"/>
-      <c r="UL56" s="209"/>
-      <c r="UM56" s="209"/>
-      <c r="UN56" s="209"/>
-      <c r="UO56" s="209"/>
-      <c r="UP56" s="209"/>
-      <c r="UQ56" s="209"/>
-      <c r="UR56" s="209"/>
-      <c r="US56" s="209"/>
-      <c r="UT56" s="209"/>
-      <c r="UU56" s="209"/>
-      <c r="UV56" s="209"/>
-      <c r="UW56" s="209"/>
-      <c r="UX56" s="209"/>
-      <c r="UY56" s="209"/>
-      <c r="UZ56" s="209"/>
-      <c r="VA56" s="209"/>
-      <c r="VB56" s="209"/>
-      <c r="VC56" s="210"/>
+      <c r="TZ56" s="160"/>
+      <c r="UA56" s="161"/>
+      <c r="UB56" s="161"/>
+      <c r="UC56" s="161"/>
+      <c r="UD56" s="161"/>
+      <c r="UE56" s="161"/>
+      <c r="UF56" s="161"/>
+      <c r="UG56" s="161"/>
+      <c r="UH56" s="161"/>
+      <c r="UI56" s="161"/>
+      <c r="UJ56" s="161"/>
+      <c r="UK56" s="161"/>
+      <c r="UL56" s="161"/>
+      <c r="UM56" s="161"/>
+      <c r="UN56" s="161"/>
+      <c r="UO56" s="161"/>
+      <c r="UP56" s="161"/>
+      <c r="UQ56" s="161"/>
+      <c r="UR56" s="161"/>
+      <c r="US56" s="161"/>
+      <c r="UT56" s="161"/>
+      <c r="UU56" s="161"/>
+      <c r="UV56" s="161"/>
+      <c r="UW56" s="161"/>
+      <c r="UX56" s="161"/>
+      <c r="UY56" s="161"/>
+      <c r="UZ56" s="161"/>
+      <c r="VA56" s="161"/>
+      <c r="VB56" s="161"/>
+      <c r="VC56" s="162"/>
     </row>
     <row r="57" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="204" t="s">
+      <c r="B57" s="146" t="s">
         <v>70</v>
       </c>
       <c r="C57" s="67" t="s">
@@ -35153,7 +35172,7 @@
       <c r="KO57" s="18"/>
       <c r="KP57" s="18"/>
       <c r="KQ57" s="24"/>
-      <c r="KR57" s="204" t="s">
+      <c r="KR57" s="146" t="s">
         <v>70</v>
       </c>
       <c r="KS57" s="128" t="s">
@@ -35432,7 +35451,7 @@
     </row>
     <row r="58" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="195"/>
+      <c r="B58" s="147"/>
       <c r="C58" s="64" t="s">
         <v>29</v>
       </c>
@@ -35736,7 +35755,7 @@
       <c r="KO58" s="27"/>
       <c r="KP58" s="27"/>
       <c r="KQ58" s="34"/>
-      <c r="KR58" s="195"/>
+      <c r="KR58" s="147"/>
       <c r="KS58" s="123" t="s">
         <v>29</v>
       </c>
@@ -36013,7 +36032,7 @@
     </row>
     <row r="59" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="194" t="s">
+      <c r="B59" s="148" t="s">
         <v>67</v>
       </c>
       <c r="C59" s="65" t="s">
@@ -36319,7 +36338,7 @@
       <c r="KO59" s="37"/>
       <c r="KP59" s="37"/>
       <c r="KQ59" s="44"/>
-      <c r="KR59" s="194" t="s">
+      <c r="KR59" s="148" t="s">
         <v>67</v>
       </c>
       <c r="KS59" s="124" t="s">
@@ -36598,7 +36617,7 @@
     </row>
     <row r="60" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="195"/>
+      <c r="B60" s="147"/>
       <c r="C60" s="64" t="s">
         <v>29</v>
       </c>
@@ -36902,7 +36921,7 @@
       <c r="KO60" s="27"/>
       <c r="KP60" s="27"/>
       <c r="KQ60" s="34"/>
-      <c r="KR60" s="195"/>
+      <c r="KR60" s="147"/>
       <c r="KS60" s="123" t="s">
         <v>29</v>
       </c>
@@ -37727,36 +37746,36 @@
       <c r="TW61" s="60"/>
       <c r="TX61" s="60"/>
       <c r="TY61" s="72"/>
-      <c r="TZ61" s="198"/>
-      <c r="UA61" s="199"/>
-      <c r="UB61" s="199"/>
-      <c r="UC61" s="199"/>
-      <c r="UD61" s="199"/>
-      <c r="UE61" s="199"/>
-      <c r="UF61" s="199"/>
-      <c r="UG61" s="199"/>
-      <c r="UH61" s="199"/>
-      <c r="UI61" s="199"/>
-      <c r="UJ61" s="199"/>
-      <c r="UK61" s="199"/>
-      <c r="UL61" s="199"/>
-      <c r="UM61" s="199"/>
-      <c r="UN61" s="199"/>
-      <c r="UO61" s="199"/>
-      <c r="UP61" s="199"/>
-      <c r="UQ61" s="199"/>
-      <c r="UR61" s="199"/>
-      <c r="US61" s="199"/>
-      <c r="UT61" s="199"/>
-      <c r="UU61" s="199"/>
-      <c r="UV61" s="199"/>
-      <c r="UW61" s="199"/>
-      <c r="UX61" s="199"/>
-      <c r="UY61" s="199"/>
-      <c r="UZ61" s="199"/>
-      <c r="VA61" s="199"/>
-      <c r="VB61" s="199"/>
-      <c r="VC61" s="200"/>
+      <c r="TZ61" s="169"/>
+      <c r="UA61" s="170"/>
+      <c r="UB61" s="170"/>
+      <c r="UC61" s="170"/>
+      <c r="UD61" s="170"/>
+      <c r="UE61" s="170"/>
+      <c r="UF61" s="170"/>
+      <c r="UG61" s="170"/>
+      <c r="UH61" s="170"/>
+      <c r="UI61" s="170"/>
+      <c r="UJ61" s="170"/>
+      <c r="UK61" s="170"/>
+      <c r="UL61" s="170"/>
+      <c r="UM61" s="170"/>
+      <c r="UN61" s="170"/>
+      <c r="UO61" s="170"/>
+      <c r="UP61" s="170"/>
+      <c r="UQ61" s="170"/>
+      <c r="UR61" s="170"/>
+      <c r="US61" s="170"/>
+      <c r="UT61" s="170"/>
+      <c r="UU61" s="170"/>
+      <c r="UV61" s="170"/>
+      <c r="UW61" s="170"/>
+      <c r="UX61" s="170"/>
+      <c r="UY61" s="170"/>
+      <c r="UZ61" s="170"/>
+      <c r="VA61" s="170"/>
+      <c r="VB61" s="170"/>
+      <c r="VC61" s="171"/>
     </row>
     <row r="62" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="46"/>
@@ -38889,40 +38908,40 @@
       <c r="TW63" s="61"/>
       <c r="TX63" s="61"/>
       <c r="TY63" s="78"/>
-      <c r="TZ63" s="208"/>
-      <c r="UA63" s="209"/>
-      <c r="UB63" s="209"/>
-      <c r="UC63" s="209"/>
-      <c r="UD63" s="209"/>
-      <c r="UE63" s="209"/>
-      <c r="UF63" s="209"/>
-      <c r="UG63" s="209"/>
-      <c r="UH63" s="209"/>
-      <c r="UI63" s="209"/>
-      <c r="UJ63" s="209"/>
-      <c r="UK63" s="209"/>
-      <c r="UL63" s="209"/>
-      <c r="UM63" s="209"/>
-      <c r="UN63" s="209"/>
-      <c r="UO63" s="209"/>
-      <c r="UP63" s="209"/>
-      <c r="UQ63" s="209"/>
-      <c r="UR63" s="209"/>
-      <c r="US63" s="209"/>
-      <c r="UT63" s="209"/>
-      <c r="UU63" s="209"/>
-      <c r="UV63" s="209"/>
-      <c r="UW63" s="209"/>
-      <c r="UX63" s="209"/>
-      <c r="UY63" s="209"/>
-      <c r="UZ63" s="209"/>
-      <c r="VA63" s="209"/>
-      <c r="VB63" s="209"/>
-      <c r="VC63" s="210"/>
+      <c r="TZ63" s="160"/>
+      <c r="UA63" s="161"/>
+      <c r="UB63" s="161"/>
+      <c r="UC63" s="161"/>
+      <c r="UD63" s="161"/>
+      <c r="UE63" s="161"/>
+      <c r="UF63" s="161"/>
+      <c r="UG63" s="161"/>
+      <c r="UH63" s="161"/>
+      <c r="UI63" s="161"/>
+      <c r="UJ63" s="161"/>
+      <c r="UK63" s="161"/>
+      <c r="UL63" s="161"/>
+      <c r="UM63" s="161"/>
+      <c r="UN63" s="161"/>
+      <c r="UO63" s="161"/>
+      <c r="UP63" s="161"/>
+      <c r="UQ63" s="161"/>
+      <c r="UR63" s="161"/>
+      <c r="US63" s="161"/>
+      <c r="UT63" s="161"/>
+      <c r="UU63" s="161"/>
+      <c r="UV63" s="161"/>
+      <c r="UW63" s="161"/>
+      <c r="UX63" s="161"/>
+      <c r="UY63" s="161"/>
+      <c r="UZ63" s="161"/>
+      <c r="VA63" s="161"/>
+      <c r="VB63" s="161"/>
+      <c r="VC63" s="162"/>
     </row>
     <row r="64" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
-      <c r="B64" s="204" t="s">
+      <c r="B64" s="146" t="s">
         <v>69</v>
       </c>
       <c r="C64" s="67" t="s">
@@ -39228,7 +39247,7 @@
       <c r="KO64" s="105"/>
       <c r="KP64" s="105"/>
       <c r="KQ64" s="24"/>
-      <c r="KR64" s="204" t="s">
+      <c r="KR64" s="146" t="s">
         <v>69</v>
       </c>
       <c r="KS64" s="128" t="s">
@@ -39507,7 +39526,7 @@
     </row>
     <row r="65" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
-      <c r="B65" s="195"/>
+      <c r="B65" s="147"/>
       <c r="C65" s="64" t="s">
         <v>29</v>
       </c>
@@ -39811,7 +39830,7 @@
       <c r="KO65" s="27"/>
       <c r="KP65" s="27"/>
       <c r="KQ65" s="34"/>
-      <c r="KR65" s="195"/>
+      <c r="KR65" s="147"/>
       <c r="KS65" s="123" t="s">
         <v>29</v>
       </c>
@@ -40636,36 +40655,36 @@
       <c r="TW66" s="107"/>
       <c r="TX66" s="107"/>
       <c r="TY66" s="74"/>
-      <c r="TZ66" s="213"/>
-      <c r="UA66" s="214"/>
-      <c r="UB66" s="214"/>
-      <c r="UC66" s="214"/>
-      <c r="UD66" s="214"/>
-      <c r="UE66" s="214"/>
-      <c r="UF66" s="214"/>
-      <c r="UG66" s="214"/>
-      <c r="UH66" s="214"/>
-      <c r="UI66" s="214"/>
-      <c r="UJ66" s="214"/>
-      <c r="UK66" s="214"/>
-      <c r="UL66" s="214"/>
-      <c r="UM66" s="214"/>
-      <c r="UN66" s="214"/>
-      <c r="UO66" s="214"/>
-      <c r="UP66" s="214"/>
-      <c r="UQ66" s="214"/>
-      <c r="UR66" s="214"/>
-      <c r="US66" s="214"/>
-      <c r="UT66" s="214"/>
-      <c r="UU66" s="214"/>
-      <c r="UV66" s="214"/>
-      <c r="UW66" s="214"/>
-      <c r="UX66" s="214"/>
-      <c r="UY66" s="214"/>
-      <c r="UZ66" s="214"/>
-      <c r="VA66" s="214"/>
-      <c r="VB66" s="214"/>
-      <c r="VC66" s="215"/>
+      <c r="TZ66" s="163"/>
+      <c r="UA66" s="164"/>
+      <c r="UB66" s="164"/>
+      <c r="UC66" s="164"/>
+      <c r="UD66" s="164"/>
+      <c r="UE66" s="164"/>
+      <c r="UF66" s="164"/>
+      <c r="UG66" s="164"/>
+      <c r="UH66" s="164"/>
+      <c r="UI66" s="164"/>
+      <c r="UJ66" s="164"/>
+      <c r="UK66" s="164"/>
+      <c r="UL66" s="164"/>
+      <c r="UM66" s="164"/>
+      <c r="UN66" s="164"/>
+      <c r="UO66" s="164"/>
+      <c r="UP66" s="164"/>
+      <c r="UQ66" s="164"/>
+      <c r="UR66" s="164"/>
+      <c r="US66" s="164"/>
+      <c r="UT66" s="164"/>
+      <c r="UU66" s="164"/>
+      <c r="UV66" s="164"/>
+      <c r="UW66" s="164"/>
+      <c r="UX66" s="164"/>
+      <c r="UY66" s="164"/>
+      <c r="UZ66" s="164"/>
+      <c r="VA66" s="164"/>
+      <c r="VB66" s="164"/>
+      <c r="VC66" s="165"/>
     </row>
     <row r="67" spans="1:575" s="4" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="46"/>
@@ -41217,36 +41236,36 @@
       <c r="TW67" s="54"/>
       <c r="TX67" s="54"/>
       <c r="TY67" s="53"/>
-      <c r="TZ67" s="216"/>
-      <c r="UA67" s="217"/>
-      <c r="UB67" s="217"/>
-      <c r="UC67" s="217"/>
-      <c r="UD67" s="217"/>
-      <c r="UE67" s="217"/>
-      <c r="UF67" s="217"/>
-      <c r="UG67" s="217"/>
-      <c r="UH67" s="217"/>
-      <c r="UI67" s="217"/>
-      <c r="UJ67" s="217"/>
-      <c r="UK67" s="217"/>
-      <c r="UL67" s="217"/>
-      <c r="UM67" s="217"/>
-      <c r="UN67" s="217"/>
-      <c r="UO67" s="217"/>
-      <c r="UP67" s="217"/>
-      <c r="UQ67" s="217"/>
-      <c r="UR67" s="217"/>
-      <c r="US67" s="217"/>
-      <c r="UT67" s="217"/>
-      <c r="UU67" s="217"/>
-      <c r="UV67" s="217"/>
-      <c r="UW67" s="217"/>
-      <c r="UX67" s="217"/>
-      <c r="UY67" s="217"/>
-      <c r="UZ67" s="217"/>
-      <c r="VA67" s="217"/>
-      <c r="VB67" s="217"/>
-      <c r="VC67" s="218"/>
+      <c r="TZ67" s="166"/>
+      <c r="UA67" s="167"/>
+      <c r="UB67" s="167"/>
+      <c r="UC67" s="167"/>
+      <c r="UD67" s="167"/>
+      <c r="UE67" s="167"/>
+      <c r="UF67" s="167"/>
+      <c r="UG67" s="167"/>
+      <c r="UH67" s="167"/>
+      <c r="UI67" s="167"/>
+      <c r="UJ67" s="167"/>
+      <c r="UK67" s="167"/>
+      <c r="UL67" s="167"/>
+      <c r="UM67" s="167"/>
+      <c r="UN67" s="167"/>
+      <c r="UO67" s="167"/>
+      <c r="UP67" s="167"/>
+      <c r="UQ67" s="167"/>
+      <c r="UR67" s="167"/>
+      <c r="US67" s="167"/>
+      <c r="UT67" s="167"/>
+      <c r="UU67" s="167"/>
+      <c r="UV67" s="167"/>
+      <c r="UW67" s="167"/>
+      <c r="UX67" s="167"/>
+      <c r="UY67" s="167"/>
+      <c r="UZ67" s="167"/>
+      <c r="VA67" s="167"/>
+      <c r="VB67" s="167"/>
+      <c r="VC67" s="168"/>
     </row>
     <row r="68" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
@@ -44707,50 +44726,88 @@
     </row>
   </sheetData>
   <mergeCells count="150">
-    <mergeCell ref="KR28:KR29"/>
-    <mergeCell ref="KR33:KR34"/>
-    <mergeCell ref="KR35:KR36"/>
-    <mergeCell ref="KR37:KR38"/>
-    <mergeCell ref="KR39:KR40"/>
-    <mergeCell ref="KR44:KR45"/>
-    <mergeCell ref="KR46:KR47"/>
-    <mergeCell ref="KR48:KR49"/>
-    <mergeCell ref="KR50:KR51"/>
-    <mergeCell ref="KR4:KS6"/>
-    <mergeCell ref="KR12:KS12"/>
-    <mergeCell ref="KR13:KS13"/>
-    <mergeCell ref="KR14:KS14"/>
-    <mergeCell ref="KR15:KS15"/>
-    <mergeCell ref="KR17:KR18"/>
-    <mergeCell ref="KR19:KR20"/>
-    <mergeCell ref="KR21:KR22"/>
-    <mergeCell ref="KR23:KR24"/>
-    <mergeCell ref="TZ63:VC63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="TZ66:VC66"/>
-    <mergeCell ref="TZ67:VC67"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="TZ54:VC54"/>
-    <mergeCell ref="TZ56:VC56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="TZ61:VC61"/>
-    <mergeCell ref="KR52:KR53"/>
-    <mergeCell ref="KR57:KR58"/>
-    <mergeCell ref="KR59:KR60"/>
-    <mergeCell ref="KR64:KR65"/>
-    <mergeCell ref="TZ41:VC41"/>
-    <mergeCell ref="TZ43:VC43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="TZ30:VC30"/>
-    <mergeCell ref="TZ32:VC32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="AO6:BK6"/>
+    <mergeCell ref="B7:BK9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:BK12"/>
+    <mergeCell ref="BL12:GA12"/>
+    <mergeCell ref="GB12:KQ12"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="Q4:BK4"/>
+    <mergeCell ref="D5:P5"/>
+    <mergeCell ref="Q5:AA5"/>
+    <mergeCell ref="AB5:AN5"/>
+    <mergeCell ref="AO5:BK5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="Q6:AA6"/>
+    <mergeCell ref="AB6:AN6"/>
+    <mergeCell ref="KT12:PI12"/>
+    <mergeCell ref="PJ12:TY12"/>
+    <mergeCell ref="TZ12:VC12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:AG13"/>
+    <mergeCell ref="AH13:BK13"/>
+    <mergeCell ref="BL13:CO13"/>
+    <mergeCell ref="CP13:DS13"/>
+    <mergeCell ref="DT13:EW13"/>
+    <mergeCell ref="EX13:GA13"/>
+    <mergeCell ref="TZ13:VC13"/>
+    <mergeCell ref="NB13:OE13"/>
+    <mergeCell ref="OF13:PI13"/>
+    <mergeCell ref="PJ13:QM13"/>
+    <mergeCell ref="QN13:RQ13"/>
+    <mergeCell ref="RR13:SU13"/>
+    <mergeCell ref="SV13:TY13"/>
+    <mergeCell ref="GB13:HE13"/>
+    <mergeCell ref="HF13:II13"/>
+    <mergeCell ref="IJ13:JM13"/>
+    <mergeCell ref="JN13:KQ13"/>
+    <mergeCell ref="KT13:LW13"/>
+    <mergeCell ref="LX13:NA13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:AG14"/>
+    <mergeCell ref="AH14:BK14"/>
+    <mergeCell ref="BL14:CO14"/>
+    <mergeCell ref="CP14:DS14"/>
+    <mergeCell ref="DT14:EW14"/>
+    <mergeCell ref="EX14:GA14"/>
+    <mergeCell ref="GB14:HE14"/>
+    <mergeCell ref="HF14:II14"/>
+    <mergeCell ref="SV14:TY14"/>
+    <mergeCell ref="TZ14:VC14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:R15"/>
+    <mergeCell ref="S15:AG15"/>
+    <mergeCell ref="AH15:AV15"/>
+    <mergeCell ref="AW15:BK15"/>
+    <mergeCell ref="IJ14:JM14"/>
+    <mergeCell ref="JN14:KQ14"/>
+    <mergeCell ref="KT14:LW14"/>
+    <mergeCell ref="LX14:NA14"/>
+    <mergeCell ref="NB14:OE14"/>
+    <mergeCell ref="OF14:PI14"/>
+    <mergeCell ref="BL15:BZ15"/>
+    <mergeCell ref="CA15:CO15"/>
+    <mergeCell ref="CP15:DD15"/>
+    <mergeCell ref="DE15:DS15"/>
+    <mergeCell ref="DT15:EH15"/>
+    <mergeCell ref="EI15:EW15"/>
+    <mergeCell ref="PJ14:QM14"/>
+    <mergeCell ref="QN14:RQ14"/>
+    <mergeCell ref="RR14:SU14"/>
+    <mergeCell ref="IJ15:IX15"/>
+    <mergeCell ref="IY15:JM15"/>
+    <mergeCell ref="JN15:KB15"/>
+    <mergeCell ref="KC15:KQ15"/>
+    <mergeCell ref="KT15:LH15"/>
+    <mergeCell ref="LI15:LW15"/>
+    <mergeCell ref="EX15:FL15"/>
+    <mergeCell ref="FM15:GA15"/>
+    <mergeCell ref="GB15:GP15"/>
+    <mergeCell ref="GQ15:HE15"/>
+    <mergeCell ref="HF15:HT15"/>
+    <mergeCell ref="HU15:II15"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
@@ -44775,88 +44832,50 @@
     <mergeCell ref="NQ15:OE15"/>
     <mergeCell ref="OF15:OT15"/>
     <mergeCell ref="OU15:PI15"/>
-    <mergeCell ref="JN15:KB15"/>
-    <mergeCell ref="KC15:KQ15"/>
-    <mergeCell ref="KT15:LH15"/>
-    <mergeCell ref="LI15:LW15"/>
-    <mergeCell ref="EX15:FL15"/>
-    <mergeCell ref="FM15:GA15"/>
-    <mergeCell ref="GB15:GP15"/>
-    <mergeCell ref="GQ15:HE15"/>
-    <mergeCell ref="HF15:HT15"/>
-    <mergeCell ref="HU15:II15"/>
-    <mergeCell ref="SV14:TY14"/>
-    <mergeCell ref="TZ14:VC14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:R15"/>
-    <mergeCell ref="S15:AG15"/>
-    <mergeCell ref="AH15:AV15"/>
-    <mergeCell ref="AW15:BK15"/>
-    <mergeCell ref="IJ14:JM14"/>
-    <mergeCell ref="JN14:KQ14"/>
-    <mergeCell ref="KT14:LW14"/>
-    <mergeCell ref="LX14:NA14"/>
-    <mergeCell ref="NB14:OE14"/>
-    <mergeCell ref="OF14:PI14"/>
-    <mergeCell ref="BL15:BZ15"/>
-    <mergeCell ref="CA15:CO15"/>
-    <mergeCell ref="CP15:DD15"/>
-    <mergeCell ref="DE15:DS15"/>
-    <mergeCell ref="DT15:EH15"/>
-    <mergeCell ref="EI15:EW15"/>
-    <mergeCell ref="PJ14:QM14"/>
-    <mergeCell ref="QN14:RQ14"/>
-    <mergeCell ref="RR14:SU14"/>
-    <mergeCell ref="IJ15:IX15"/>
-    <mergeCell ref="IY15:JM15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:AG14"/>
-    <mergeCell ref="AH14:BK14"/>
-    <mergeCell ref="BL14:CO14"/>
-    <mergeCell ref="CP14:DS14"/>
-    <mergeCell ref="DT14:EW14"/>
-    <mergeCell ref="EX14:GA14"/>
-    <mergeCell ref="GB14:HE14"/>
-    <mergeCell ref="HF14:II14"/>
-    <mergeCell ref="KT12:PI12"/>
-    <mergeCell ref="PJ12:TY12"/>
-    <mergeCell ref="TZ12:VC12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:AG13"/>
-    <mergeCell ref="AH13:BK13"/>
-    <mergeCell ref="BL13:CO13"/>
-    <mergeCell ref="CP13:DS13"/>
-    <mergeCell ref="DT13:EW13"/>
-    <mergeCell ref="EX13:GA13"/>
-    <mergeCell ref="TZ13:VC13"/>
-    <mergeCell ref="NB13:OE13"/>
-    <mergeCell ref="OF13:PI13"/>
-    <mergeCell ref="PJ13:QM13"/>
-    <mergeCell ref="QN13:RQ13"/>
-    <mergeCell ref="RR13:SU13"/>
-    <mergeCell ref="SV13:TY13"/>
-    <mergeCell ref="GB13:HE13"/>
-    <mergeCell ref="HF13:II13"/>
-    <mergeCell ref="IJ13:JM13"/>
-    <mergeCell ref="JN13:KQ13"/>
-    <mergeCell ref="KT13:LW13"/>
-    <mergeCell ref="LX13:NA13"/>
-    <mergeCell ref="AO6:BK6"/>
-    <mergeCell ref="B7:BK9"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:BK12"/>
-    <mergeCell ref="BL12:GA12"/>
-    <mergeCell ref="GB12:KQ12"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="D4:P4"/>
-    <mergeCell ref="Q4:BK4"/>
-    <mergeCell ref="D5:P5"/>
-    <mergeCell ref="Q5:AA5"/>
-    <mergeCell ref="AB5:AN5"/>
-    <mergeCell ref="AO5:BK5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="Q6:AA6"/>
-    <mergeCell ref="AB6:AN6"/>
+    <mergeCell ref="TZ41:VC41"/>
+    <mergeCell ref="TZ43:VC43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="TZ30:VC30"/>
+    <mergeCell ref="TZ32:VC32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="TZ63:VC63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="TZ66:VC66"/>
+    <mergeCell ref="TZ67:VC67"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="TZ54:VC54"/>
+    <mergeCell ref="TZ56:VC56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="TZ61:VC61"/>
+    <mergeCell ref="KR52:KR53"/>
+    <mergeCell ref="KR57:KR58"/>
+    <mergeCell ref="KR59:KR60"/>
+    <mergeCell ref="KR64:KR65"/>
+    <mergeCell ref="KR4:KS6"/>
+    <mergeCell ref="KR12:KS12"/>
+    <mergeCell ref="KR13:KS13"/>
+    <mergeCell ref="KR14:KS14"/>
+    <mergeCell ref="KR15:KS15"/>
+    <mergeCell ref="KR17:KR18"/>
+    <mergeCell ref="KR19:KR20"/>
+    <mergeCell ref="KR21:KR22"/>
+    <mergeCell ref="KR23:KR24"/>
+    <mergeCell ref="KR28:KR29"/>
+    <mergeCell ref="KR33:KR34"/>
+    <mergeCell ref="KR35:KR36"/>
+    <mergeCell ref="KR37:KR38"/>
+    <mergeCell ref="KR39:KR40"/>
+    <mergeCell ref="KR44:KR45"/>
+    <mergeCell ref="KR46:KR47"/>
+    <mergeCell ref="KR48:KR49"/>
+    <mergeCell ref="KR50:KR51"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.86614173228346458" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -44880,8 +44899,8 @@
   </sheetPr>
   <dimension ref="B4:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44892,7 +44911,7 @@
     <col min="4" max="4" width="5.7109375" style="50" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" style="50" customWidth="1"/>
     <col min="7" max="7" width="80.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="85" style="50" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
@@ -44902,11 +44921,11 @@
       <c r="C5" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="232" t="s">
+      <c r="D5" s="265" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="232"/>
-      <c r="F5" s="233"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="266"/>
       <c r="G5" s="95" t="s">
         <v>38</v>
       </c>
@@ -44915,60 +44934,60 @@
       </c>
     </row>
     <row r="6" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="239" t="s">
+      <c r="B6" s="252" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="226">
+      <c r="C6" s="250">
         <v>45414</v>
       </c>
-      <c r="D6" s="228" t="s">
+      <c r="D6" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="229" t="s">
+      <c r="E6" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="230"/>
-      <c r="G6" s="234" t="s">
+      <c r="F6" s="231"/>
+      <c r="G6" s="227" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="97"/>
     </row>
     <row r="7" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="240"/>
-      <c r="C7" s="226"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="229" t="s">
+      <c r="B7" s="253"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="248"/>
+      <c r="E7" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="230"/>
-      <c r="G7" s="235"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="267"/>
       <c r="H7" s="97"/>
     </row>
     <row r="8" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="240"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="223" t="s">
+      <c r="B8" s="253"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="223"/>
-      <c r="F8" s="231" t="s">
+      <c r="E8" s="233"/>
+      <c r="F8" s="261" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="224"/>
-      <c r="H8" s="225"/>
+      <c r="G8" s="234"/>
+      <c r="H8" s="235"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="240"/>
-      <c r="C9" s="236">
+      <c r="B9" s="253"/>
+      <c r="C9" s="249">
         <v>45415</v>
       </c>
-      <c r="D9" s="228" t="s">
+      <c r="D9" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="237" t="s">
+      <c r="E9" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="238"/>
+      <c r="F9" s="247"/>
       <c r="G9" s="130" t="s">
         <v>84</v>
       </c>
@@ -44977,13 +44996,13 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="240"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="229" t="s">
+      <c r="B10" s="253"/>
+      <c r="C10" s="250"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="230"/>
+      <c r="F10" s="231"/>
       <c r="G10" s="130" t="s">
         <v>85</v>
       </c>
@@ -44992,13 +45011,13 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="240"/>
-      <c r="C11" s="226"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="229" t="s">
+      <c r="B11" s="253"/>
+      <c r="C11" s="250"/>
+      <c r="D11" s="248"/>
+      <c r="E11" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="230"/>
+      <c r="F11" s="231"/>
       <c r="G11" s="130" t="s">
         <v>89</v>
       </c>
@@ -45007,13 +45026,13 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="240"/>
-      <c r="C12" s="226"/>
-      <c r="D12" s="228"/>
-      <c r="E12" s="229" t="s">
+      <c r="B12" s="253"/>
+      <c r="C12" s="250"/>
+      <c r="D12" s="248"/>
+      <c r="E12" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="230"/>
+      <c r="F12" s="231"/>
       <c r="G12" s="131" t="s">
         <v>86</v>
       </c>
@@ -45022,101 +45041,101 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="241"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="223" t="s">
+      <c r="B13" s="254"/>
+      <c r="C13" s="251"/>
+      <c r="D13" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="223"/>
-      <c r="F13" s="224" t="s">
+      <c r="E13" s="233"/>
+      <c r="F13" s="234" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="224"/>
-      <c r="H13" s="225"/>
+      <c r="G13" s="234"/>
+      <c r="H13" s="235"/>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="239" t="s">
+      <c r="B14" s="252" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="226">
+      <c r="C14" s="250">
         <v>45418</v>
       </c>
-      <c r="D14" s="228" t="s">
+      <c r="D14" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="229" t="s">
+      <c r="E14" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="F14" s="230"/>
-      <c r="G14" s="234" t="s">
+      <c r="F14" s="231"/>
+      <c r="G14" s="227" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="263" t="s">
+      <c r="H14" s="232" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="240"/>
-      <c r="C15" s="226"/>
-      <c r="D15" s="228"/>
-      <c r="E15" s="229" t="s">
+      <c r="B15" s="253"/>
+      <c r="C15" s="250"/>
+      <c r="D15" s="248"/>
+      <c r="E15" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="F15" s="230"/>
-      <c r="G15" s="259"/>
-      <c r="H15" s="261"/>
+      <c r="F15" s="231"/>
+      <c r="G15" s="228"/>
+      <c r="H15" s="229"/>
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="240"/>
-      <c r="C16" s="226"/>
-      <c r="D16" s="228"/>
-      <c r="E16" s="229" t="s">
+      <c r="B16" s="253"/>
+      <c r="C16" s="250"/>
+      <c r="D16" s="248"/>
+      <c r="E16" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="230"/>
-      <c r="G16" s="259" t="s">
+      <c r="F16" s="231"/>
+      <c r="G16" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="H16" s="261" t="s">
+      <c r="H16" s="229" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="240"/>
-      <c r="C17" s="226"/>
-      <c r="D17" s="228"/>
-      <c r="E17" s="229" t="s">
+      <c r="B17" s="253"/>
+      <c r="C17" s="250"/>
+      <c r="D17" s="248"/>
+      <c r="E17" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="230"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="262"/>
+      <c r="F17" s="231"/>
+      <c r="G17" s="244"/>
+      <c r="H17" s="245"/>
     </row>
     <row r="18" spans="2:8" ht="53.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="240"/>
-      <c r="C18" s="227"/>
-      <c r="D18" s="223" t="s">
+      <c r="B18" s="253"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="223"/>
-      <c r="F18" s="231" t="s">
+      <c r="E18" s="233"/>
+      <c r="F18" s="261" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="224"/>
-      <c r="H18" s="225"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="235"/>
     </row>
     <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="240"/>
-      <c r="C19" s="236">
+      <c r="B19" s="253"/>
+      <c r="C19" s="249">
         <v>45420</v>
       </c>
-      <c r="D19" s="228" t="s">
+      <c r="D19" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="237" t="s">
+      <c r="E19" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="238"/>
+      <c r="F19" s="247"/>
       <c r="G19" s="138" t="s">
         <v>99</v>
       </c>
@@ -45125,39 +45144,39 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="240"/>
-      <c r="C20" s="226"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="229" t="s">
+      <c r="B20" s="253"/>
+      <c r="C20" s="250"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="230"/>
-      <c r="G20" s="259" t="s">
+      <c r="F20" s="231"/>
+      <c r="G20" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="261" t="s">
+      <c r="H20" s="229" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="240"/>
-      <c r="C21" s="226"/>
-      <c r="D21" s="228"/>
-      <c r="E21" s="229" t="s">
+      <c r="B21" s="253"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="248"/>
+      <c r="E21" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="230"/>
-      <c r="G21" s="259"/>
-      <c r="H21" s="261"/>
+      <c r="F21" s="231"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="229"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="240"/>
-      <c r="C22" s="226"/>
-      <c r="D22" s="228"/>
-      <c r="E22" s="229" t="s">
+      <c r="B22" s="253"/>
+      <c r="C22" s="250"/>
+      <c r="D22" s="248"/>
+      <c r="E22" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="230"/>
+      <c r="F22" s="231"/>
       <c r="G22" s="140" t="s">
         <v>101</v>
       </c>
@@ -45166,843 +45185,999 @@
       </c>
     </row>
     <row r="23" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="240"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="223" t="s">
+      <c r="B23" s="253"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="223"/>
-      <c r="F23" s="224" t="s">
+      <c r="E23" s="233"/>
+      <c r="F23" s="234" t="s">
         <v>102</v>
       </c>
-      <c r="G23" s="224"/>
-      <c r="H23" s="225"/>
+      <c r="G23" s="234"/>
+      <c r="H23" s="235"/>
     </row>
     <row r="24" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="240"/>
-      <c r="C24" s="242">
+      <c r="B24" s="253"/>
+      <c r="C24" s="255">
         <v>45421</v>
       </c>
-      <c r="D24" s="228" t="s">
+      <c r="D24" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="244" t="s">
+      <c r="E24" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="245"/>
-      <c r="G24" s="249" t="s">
+      <c r="F24" s="237"/>
+      <c r="G24" s="259" t="s">
         <v>57</v>
       </c>
       <c r="H24" s="100"/>
     </row>
     <row r="25" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="240"/>
-      <c r="C25" s="242"/>
-      <c r="D25" s="228"/>
-      <c r="E25" s="244" t="s">
+      <c r="B25" s="253"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="248"/>
+      <c r="E25" s="236" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="245"/>
-      <c r="G25" s="250"/>
+      <c r="F25" s="237"/>
+      <c r="G25" s="260"/>
       <c r="H25" s="100"/>
     </row>
     <row r="26" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="240"/>
-      <c r="C26" s="243"/>
-      <c r="D26" s="246" t="s">
+      <c r="B26" s="253"/>
+      <c r="C26" s="256"/>
+      <c r="D26" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="246"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="248"/>
+      <c r="E26" s="238"/>
+      <c r="F26" s="257"/>
+      <c r="G26" s="257"/>
+      <c r="H26" s="258"/>
     </row>
     <row r="27" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="240"/>
-      <c r="C27" s="251">
+      <c r="B27" s="253"/>
+      <c r="C27" s="262">
         <v>45422</v>
       </c>
-      <c r="D27" s="228" t="s">
+      <c r="D27" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="252" t="s">
+      <c r="E27" s="263" t="s">
         <v>45</v>
       </c>
-      <c r="F27" s="253"/>
-      <c r="G27" s="254" t="s">
+      <c r="F27" s="264"/>
+      <c r="G27" s="241" t="s">
         <v>57</v>
       </c>
       <c r="H27" s="100"/>
     </row>
     <row r="28" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="240"/>
-      <c r="C28" s="242"/>
-      <c r="D28" s="228"/>
-      <c r="E28" s="244" t="s">
+      <c r="B28" s="253"/>
+      <c r="C28" s="255"/>
+      <c r="D28" s="248"/>
+      <c r="E28" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="245"/>
-      <c r="G28" s="255"/>
+      <c r="F28" s="237"/>
+      <c r="G28" s="242"/>
       <c r="H28" s="100"/>
     </row>
     <row r="29" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="240"/>
-      <c r="C29" s="242"/>
-      <c r="D29" s="228"/>
-      <c r="E29" s="244" t="s">
+      <c r="B29" s="253"/>
+      <c r="C29" s="255"/>
+      <c r="D29" s="248"/>
+      <c r="E29" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="245"/>
-      <c r="G29" s="255"/>
+      <c r="F29" s="237"/>
+      <c r="G29" s="242"/>
       <c r="H29" s="100"/>
     </row>
     <row r="30" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="240"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="244" t="s">
+      <c r="B30" s="253"/>
+      <c r="C30" s="255"/>
+      <c r="D30" s="248"/>
+      <c r="E30" s="236" t="s">
         <v>47</v>
       </c>
-      <c r="F30" s="245"/>
-      <c r="G30" s="256"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="243"/>
       <c r="H30" s="100"/>
     </row>
     <row r="31" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="241"/>
-      <c r="C31" s="243"/>
-      <c r="D31" s="246" t="s">
+      <c r="B31" s="254"/>
+      <c r="C31" s="256"/>
+      <c r="D31" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="246"/>
-      <c r="F31" s="257"/>
-      <c r="G31" s="257"/>
-      <c r="H31" s="258"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="239"/>
+      <c r="G31" s="239"/>
+      <c r="H31" s="240"/>
     </row>
     <row r="32" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="239" t="s">
+      <c r="B32" s="252" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="226">
+      <c r="C32" s="250">
         <v>45425</v>
       </c>
-      <c r="D32" s="228" t="s">
+      <c r="D32" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="229" t="s">
+      <c r="E32" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="F32" s="230"/>
-      <c r="G32" s="264" t="s">
+      <c r="F32" s="231"/>
+      <c r="G32" s="143" t="s">
         <v>104</v>
       </c>
-      <c r="H32" s="97"/>
+      <c r="H32" s="232" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="33" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="240"/>
-      <c r="C33" s="226"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="229" t="s">
+      <c r="B33" s="253"/>
+      <c r="C33" s="250"/>
+      <c r="D33" s="248"/>
+      <c r="E33" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="230"/>
-      <c r="G33" s="265" t="s">
+      <c r="F33" s="231"/>
+      <c r="G33" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="H33" s="97"/>
+      <c r="H33" s="229"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="240"/>
-      <c r="C34" s="226"/>
-      <c r="D34" s="228"/>
-      <c r="E34" s="229" t="s">
+      <c r="B34" s="253"/>
+      <c r="C34" s="250"/>
+      <c r="D34" s="248"/>
+      <c r="E34" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="230"/>
-      <c r="G34" s="265" t="s">
+      <c r="F34" s="231"/>
+      <c r="G34" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="H34" s="97"/>
+      <c r="H34" s="229"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="240"/>
-      <c r="C35" s="226"/>
-      <c r="D35" s="228"/>
-      <c r="E35" s="229" t="s">
+      <c r="B35" s="253"/>
+      <c r="C35" s="250"/>
+      <c r="D35" s="248"/>
+      <c r="E35" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="230"/>
-      <c r="G35" s="266" t="s">
+      <c r="F35" s="231"/>
+      <c r="G35" s="145" t="s">
         <v>108</v>
       </c>
-      <c r="H35" s="97"/>
+      <c r="H35" s="268" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="36" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="240"/>
-      <c r="C36" s="227"/>
-      <c r="D36" s="223" t="s">
+      <c r="B36" s="253"/>
+      <c r="C36" s="251"/>
+      <c r="D36" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E36" s="223"/>
-      <c r="F36" s="224"/>
-      <c r="G36" s="224"/>
-      <c r="H36" s="225"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="234" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="234"/>
+      <c r="H36" s="235"/>
     </row>
     <row r="37" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="240"/>
-      <c r="C37" s="236">
+      <c r="B37" s="253"/>
+      <c r="C37" s="249">
         <v>45427</v>
       </c>
-      <c r="D37" s="228" t="s">
+      <c r="D37" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="237" t="s">
+      <c r="E37" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="238"/>
-      <c r="G37" s="234" t="s">
+      <c r="F37" s="247"/>
+      <c r="G37" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="97"/>
+      <c r="H37" s="232" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="240"/>
-      <c r="C38" s="226"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="229" t="s">
+      <c r="B38" s="253"/>
+      <c r="C38" s="250"/>
+      <c r="D38" s="248"/>
+      <c r="E38" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="230"/>
-      <c r="G38" s="259"/>
-      <c r="H38" s="97"/>
+      <c r="F38" s="231"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="229"/>
     </row>
     <row r="39" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="240"/>
-      <c r="C39" s="226"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="229" t="s">
+      <c r="B39" s="253"/>
+      <c r="C39" s="250"/>
+      <c r="D39" s="248"/>
+      <c r="E39" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F39" s="230"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="97"/>
+      <c r="F39" s="231"/>
+      <c r="G39" s="228" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="142" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="40" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="240"/>
-      <c r="C40" s="226"/>
-      <c r="D40" s="228"/>
-      <c r="E40" s="229" t="s">
+      <c r="B40" s="253"/>
+      <c r="C40" s="250"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="F40" s="230"/>
-      <c r="G40" s="99"/>
-      <c r="H40" s="97"/>
+      <c r="F40" s="231"/>
+      <c r="G40" s="244"/>
+      <c r="H40" s="142" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="240"/>
-      <c r="C41" s="227"/>
-      <c r="D41" s="223" t="s">
+      <c r="B41" s="253"/>
+      <c r="C41" s="251"/>
+      <c r="D41" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="223"/>
-      <c r="F41" s="224"/>
-      <c r="G41" s="224"/>
-      <c r="H41" s="225"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="234" t="s">
+        <v>112</v>
+      </c>
+      <c r="G41" s="234"/>
+      <c r="H41" s="235"/>
     </row>
     <row r="42" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="240"/>
-      <c r="C42" s="226">
+      <c r="B42" s="253"/>
+      <c r="C42" s="250">
         <v>45428</v>
       </c>
-      <c r="D42" s="228" t="s">
+      <c r="D42" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="E42" s="229" t="s">
+      <c r="E42" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F42" s="230"/>
+      <c r="F42" s="231"/>
       <c r="G42" s="99"/>
       <c r="H42" s="97"/>
     </row>
     <row r="43" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="240"/>
-      <c r="C43" s="226"/>
-      <c r="D43" s="228"/>
-      <c r="E43" s="229" t="s">
+      <c r="B43" s="253"/>
+      <c r="C43" s="250"/>
+      <c r="D43" s="248"/>
+      <c r="E43" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="F43" s="230"/>
+      <c r="F43" s="231"/>
       <c r="G43" s="99"/>
       <c r="H43" s="97"/>
     </row>
     <row r="44" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="240"/>
-      <c r="C44" s="227"/>
-      <c r="D44" s="223" t="s">
+      <c r="B44" s="253"/>
+      <c r="C44" s="251"/>
+      <c r="D44" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E44" s="223"/>
-      <c r="F44" s="224"/>
-      <c r="G44" s="224"/>
-      <c r="H44" s="225"/>
+      <c r="E44" s="233"/>
+      <c r="F44" s="234"/>
+      <c r="G44" s="234"/>
+      <c r="H44" s="235"/>
     </row>
     <row r="45" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="240"/>
-      <c r="C45" s="236">
+      <c r="B45" s="253"/>
+      <c r="C45" s="249">
         <v>45429</v>
       </c>
-      <c r="D45" s="228" t="s">
+      <c r="D45" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="237" t="s">
+      <c r="E45" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="238"/>
+      <c r="F45" s="247"/>
       <c r="G45" s="98"/>
       <c r="H45" s="97"/>
     </row>
     <row r="46" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="240"/>
-      <c r="C46" s="226"/>
-      <c r="D46" s="228"/>
-      <c r="E46" s="229" t="s">
+      <c r="B46" s="253"/>
+      <c r="C46" s="250"/>
+      <c r="D46" s="248"/>
+      <c r="E46" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="F46" s="230"/>
+      <c r="F46" s="231"/>
       <c r="G46" s="98"/>
       <c r="H46" s="97"/>
     </row>
     <row r="47" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="240"/>
-      <c r="C47" s="226"/>
-      <c r="D47" s="228"/>
-      <c r="E47" s="229" t="s">
+      <c r="B47" s="253"/>
+      <c r="C47" s="250"/>
+      <c r="D47" s="248"/>
+      <c r="E47" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F47" s="230"/>
+      <c r="F47" s="231"/>
       <c r="G47" s="99"/>
       <c r="H47" s="97"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="240"/>
-      <c r="C48" s="226"/>
-      <c r="D48" s="228"/>
-      <c r="E48" s="229" t="s">
+      <c r="B48" s="253"/>
+      <c r="C48" s="250"/>
+      <c r="D48" s="248"/>
+      <c r="E48" s="230" t="s">
         <v>47</v>
       </c>
-      <c r="F48" s="230"/>
+      <c r="F48" s="231"/>
       <c r="G48" s="99"/>
       <c r="H48" s="97"/>
     </row>
     <row r="49" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="241"/>
-      <c r="C49" s="227"/>
-      <c r="D49" s="223" t="s">
+      <c r="B49" s="254"/>
+      <c r="C49" s="251"/>
+      <c r="D49" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E49" s="223"/>
-      <c r="F49" s="224"/>
-      <c r="G49" s="224"/>
-      <c r="H49" s="225"/>
+      <c r="E49" s="233"/>
+      <c r="F49" s="234"/>
+      <c r="G49" s="234"/>
+      <c r="H49" s="235"/>
     </row>
     <row r="50" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="239" t="s">
+      <c r="B50" s="252" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="242">
+      <c r="C50" s="255">
         <v>45432</v>
       </c>
-      <c r="D50" s="228" t="s">
+      <c r="D50" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E50" s="244" t="s">
+      <c r="E50" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F50" s="245"/>
-      <c r="G50" s="254" t="s">
+      <c r="F50" s="237"/>
+      <c r="G50" s="241" t="s">
         <v>57</v>
       </c>
       <c r="H50" s="100"/>
     </row>
     <row r="51" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="240"/>
-      <c r="C51" s="242"/>
-      <c r="D51" s="228"/>
-      <c r="E51" s="244" t="s">
+      <c r="B51" s="253"/>
+      <c r="C51" s="255"/>
+      <c r="D51" s="248"/>
+      <c r="E51" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="245"/>
-      <c r="G51" s="255"/>
+      <c r="F51" s="237"/>
+      <c r="G51" s="242"/>
       <c r="H51" s="100"/>
     </row>
     <row r="52" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="240"/>
-      <c r="C52" s="242"/>
-      <c r="D52" s="228"/>
-      <c r="E52" s="244" t="s">
+      <c r="B52" s="253"/>
+      <c r="C52" s="255"/>
+      <c r="D52" s="248"/>
+      <c r="E52" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="F52" s="245"/>
-      <c r="G52" s="255"/>
+      <c r="F52" s="237"/>
+      <c r="G52" s="242"/>
       <c r="H52" s="100"/>
     </row>
     <row r="53" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="240"/>
-      <c r="C53" s="242"/>
-      <c r="D53" s="228"/>
-      <c r="E53" s="244" t="s">
+      <c r="B53" s="253"/>
+      <c r="C53" s="255"/>
+      <c r="D53" s="248"/>
+      <c r="E53" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="245"/>
-      <c r="G53" s="256"/>
+      <c r="F53" s="237"/>
+      <c r="G53" s="243"/>
       <c r="H53" s="100"/>
     </row>
     <row r="54" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="240"/>
-      <c r="C54" s="243"/>
-      <c r="D54" s="246" t="s">
+      <c r="B54" s="253"/>
+      <c r="C54" s="256"/>
+      <c r="D54" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="246"/>
-      <c r="F54" s="247"/>
-      <c r="G54" s="247"/>
-      <c r="H54" s="248"/>
+      <c r="E54" s="238"/>
+      <c r="F54" s="257"/>
+      <c r="G54" s="257"/>
+      <c r="H54" s="258"/>
     </row>
     <row r="55" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="240"/>
-      <c r="C55" s="236">
+      <c r="B55" s="253"/>
+      <c r="C55" s="249">
         <v>45434</v>
       </c>
-      <c r="D55" s="228" t="s">
+      <c r="D55" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="237" t="s">
+      <c r="E55" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="238"/>
+      <c r="F55" s="247"/>
       <c r="G55" s="98"/>
       <c r="H55" s="97"/>
     </row>
     <row r="56" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="240"/>
-      <c r="C56" s="226"/>
-      <c r="D56" s="228"/>
-      <c r="E56" s="229" t="s">
+      <c r="B56" s="253"/>
+      <c r="C56" s="250"/>
+      <c r="D56" s="248"/>
+      <c r="E56" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="F56" s="230"/>
+      <c r="F56" s="231"/>
       <c r="G56" s="98"/>
       <c r="H56" s="97"/>
     </row>
     <row r="57" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="240"/>
-      <c r="C57" s="226"/>
-      <c r="D57" s="228"/>
-      <c r="E57" s="229" t="s">
+      <c r="B57" s="253"/>
+      <c r="C57" s="250"/>
+      <c r="D57" s="248"/>
+      <c r="E57" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F57" s="230"/>
+      <c r="F57" s="231"/>
       <c r="G57" s="99"/>
       <c r="H57" s="97"/>
     </row>
     <row r="58" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="240"/>
-      <c r="C58" s="226"/>
-      <c r="D58" s="228"/>
-      <c r="E58" s="229" t="s">
+      <c r="B58" s="253"/>
+      <c r="C58" s="250"/>
+      <c r="D58" s="248"/>
+      <c r="E58" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="F58" s="230"/>
+      <c r="F58" s="231"/>
       <c r="G58" s="99"/>
       <c r="H58" s="97"/>
     </row>
     <row r="59" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="240"/>
-      <c r="C59" s="227"/>
-      <c r="D59" s="223" t="s">
+      <c r="B59" s="253"/>
+      <c r="C59" s="251"/>
+      <c r="D59" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E59" s="223"/>
-      <c r="F59" s="224"/>
-      <c r="G59" s="224"/>
-      <c r="H59" s="225"/>
+      <c r="E59" s="233"/>
+      <c r="F59" s="234"/>
+      <c r="G59" s="234"/>
+      <c r="H59" s="235"/>
     </row>
     <row r="60" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="240"/>
-      <c r="C60" s="226">
+      <c r="B60" s="253"/>
+      <c r="C60" s="250">
         <v>45435</v>
       </c>
-      <c r="D60" s="228" t="s">
+      <c r="D60" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="E60" s="229" t="s">
+      <c r="E60" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="230"/>
+      <c r="F60" s="231"/>
       <c r="G60" s="99"/>
       <c r="H60" s="97"/>
     </row>
     <row r="61" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="240"/>
-      <c r="C61" s="226"/>
-      <c r="D61" s="228"/>
-      <c r="E61" s="229" t="s">
+      <c r="B61" s="253"/>
+      <c r="C61" s="250"/>
+      <c r="D61" s="248"/>
+      <c r="E61" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="F61" s="230"/>
+      <c r="F61" s="231"/>
       <c r="G61" s="99"/>
       <c r="H61" s="97"/>
     </row>
     <row r="62" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="240"/>
-      <c r="C62" s="227"/>
-      <c r="D62" s="223" t="s">
+      <c r="B62" s="253"/>
+      <c r="C62" s="251"/>
+      <c r="D62" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E62" s="223"/>
-      <c r="F62" s="224"/>
-      <c r="G62" s="224"/>
-      <c r="H62" s="225"/>
+      <c r="E62" s="233"/>
+      <c r="F62" s="234"/>
+      <c r="G62" s="234"/>
+      <c r="H62" s="235"/>
     </row>
     <row r="63" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="240"/>
-      <c r="C63" s="236">
+      <c r="B63" s="253"/>
+      <c r="C63" s="249">
         <v>45436</v>
       </c>
-      <c r="D63" s="228" t="s">
+      <c r="D63" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="E63" s="237" t="s">
+      <c r="E63" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="F63" s="238"/>
+      <c r="F63" s="247"/>
       <c r="G63" s="98"/>
       <c r="H63" s="97"/>
     </row>
     <row r="64" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="240"/>
-      <c r="C64" s="226"/>
-      <c r="D64" s="228"/>
-      <c r="E64" s="229" t="s">
+      <c r="B64" s="253"/>
+      <c r="C64" s="250"/>
+      <c r="D64" s="248"/>
+      <c r="E64" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="F64" s="230"/>
+      <c r="F64" s="231"/>
       <c r="G64" s="98"/>
       <c r="H64" s="97"/>
     </row>
     <row r="65" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="240"/>
-      <c r="C65" s="226"/>
-      <c r="D65" s="228"/>
-      <c r="E65" s="229" t="s">
+      <c r="B65" s="253"/>
+      <c r="C65" s="250"/>
+      <c r="D65" s="248"/>
+      <c r="E65" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F65" s="230"/>
+      <c r="F65" s="231"/>
       <c r="G65" s="99"/>
       <c r="H65" s="97"/>
     </row>
     <row r="66" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="240"/>
-      <c r="C66" s="226"/>
-      <c r="D66" s="228"/>
-      <c r="E66" s="229" t="s">
+      <c r="B66" s="253"/>
+      <c r="C66" s="250"/>
+      <c r="D66" s="248"/>
+      <c r="E66" s="230" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="230"/>
+      <c r="F66" s="231"/>
       <c r="G66" s="99"/>
       <c r="H66" s="97"/>
     </row>
     <row r="67" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="241"/>
-      <c r="C67" s="227"/>
-      <c r="D67" s="223" t="s">
+      <c r="B67" s="254"/>
+      <c r="C67" s="251"/>
+      <c r="D67" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="223"/>
-      <c r="F67" s="224"/>
-      <c r="G67" s="224"/>
-      <c r="H67" s="225"/>
+      <c r="E67" s="233"/>
+      <c r="F67" s="234"/>
+      <c r="G67" s="234"/>
+      <c r="H67" s="235"/>
     </row>
     <row r="68" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="239" t="s">
+      <c r="B68" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="242">
+      <c r="C68" s="255">
         <v>45439</v>
       </c>
-      <c r="D68" s="228" t="s">
+      <c r="D68" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E68" s="244" t="s">
+      <c r="E68" s="236" t="s">
         <v>45</v>
       </c>
-      <c r="F68" s="245"/>
-      <c r="G68" s="254" t="s">
+      <c r="F68" s="237"/>
+      <c r="G68" s="241" t="s">
         <v>81</v>
       </c>
       <c r="H68" s="100"/>
     </row>
     <row r="69" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="240"/>
-      <c r="C69" s="242"/>
-      <c r="D69" s="228"/>
-      <c r="E69" s="244" t="s">
+      <c r="B69" s="253"/>
+      <c r="C69" s="255"/>
+      <c r="D69" s="248"/>
+      <c r="E69" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="F69" s="245"/>
-      <c r="G69" s="255"/>
+      <c r="F69" s="237"/>
+      <c r="G69" s="242"/>
       <c r="H69" s="100"/>
     </row>
     <row r="70" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="240"/>
-      <c r="C70" s="242"/>
-      <c r="D70" s="228"/>
-      <c r="E70" s="244" t="s">
+      <c r="B70" s="253"/>
+      <c r="C70" s="255"/>
+      <c r="D70" s="248"/>
+      <c r="E70" s="236" t="s">
         <v>42</v>
       </c>
-      <c r="F70" s="245"/>
-      <c r="G70" s="255"/>
+      <c r="F70" s="237"/>
+      <c r="G70" s="242"/>
       <c r="H70" s="100"/>
     </row>
     <row r="71" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="240"/>
-      <c r="C71" s="242"/>
-      <c r="D71" s="228"/>
-      <c r="E71" s="244" t="s">
+      <c r="B71" s="253"/>
+      <c r="C71" s="255"/>
+      <c r="D71" s="248"/>
+      <c r="E71" s="236" t="s">
         <v>49</v>
       </c>
-      <c r="F71" s="245"/>
-      <c r="G71" s="256"/>
+      <c r="F71" s="237"/>
+      <c r="G71" s="243"/>
       <c r="H71" s="100"/>
     </row>
     <row r="72" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="240"/>
-      <c r="C72" s="243"/>
-      <c r="D72" s="246" t="s">
+      <c r="B72" s="253"/>
+      <c r="C72" s="256"/>
+      <c r="D72" s="238" t="s">
         <v>44</v>
       </c>
-      <c r="E72" s="246"/>
-      <c r="F72" s="257"/>
-      <c r="G72" s="257"/>
-      <c r="H72" s="258"/>
+      <c r="E72" s="238"/>
+      <c r="F72" s="239"/>
+      <c r="G72" s="239"/>
+      <c r="H72" s="240"/>
     </row>
     <row r="73" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="240"/>
-      <c r="C73" s="236">
+      <c r="B73" s="253"/>
+      <c r="C73" s="249">
         <v>45441</v>
       </c>
-      <c r="D73" s="228" t="s">
+      <c r="D73" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E73" s="237" t="s">
+      <c r="E73" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="F73" s="238"/>
+      <c r="F73" s="247"/>
       <c r="G73" s="98"/>
       <c r="H73" s="97"/>
     </row>
     <row r="74" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="240"/>
-      <c r="C74" s="226"/>
-      <c r="D74" s="228"/>
-      <c r="E74" s="229" t="s">
+      <c r="B74" s="253"/>
+      <c r="C74" s="250"/>
+      <c r="D74" s="248"/>
+      <c r="E74" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="F74" s="230"/>
+      <c r="F74" s="231"/>
       <c r="G74" s="98"/>
       <c r="H74" s="97"/>
     </row>
     <row r="75" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="240"/>
-      <c r="C75" s="226"/>
-      <c r="D75" s="228"/>
-      <c r="E75" s="229" t="s">
+      <c r="B75" s="253"/>
+      <c r="C75" s="250"/>
+      <c r="D75" s="248"/>
+      <c r="E75" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F75" s="230"/>
+      <c r="F75" s="231"/>
       <c r="G75" s="99"/>
       <c r="H75" s="97"/>
     </row>
     <row r="76" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="240"/>
-      <c r="C76" s="226"/>
-      <c r="D76" s="228"/>
-      <c r="E76" s="229" t="s">
+      <c r="B76" s="253"/>
+      <c r="C76" s="250"/>
+      <c r="D76" s="248"/>
+      <c r="E76" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="F76" s="230"/>
+      <c r="F76" s="231"/>
       <c r="G76" s="99"/>
       <c r="H76" s="97"/>
     </row>
     <row r="77" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="240"/>
-      <c r="C77" s="227"/>
-      <c r="D77" s="223" t="s">
+      <c r="B77" s="253"/>
+      <c r="C77" s="251"/>
+      <c r="D77" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E77" s="223"/>
-      <c r="F77" s="224"/>
-      <c r="G77" s="224"/>
-      <c r="H77" s="225"/>
+      <c r="E77" s="233"/>
+      <c r="F77" s="234"/>
+      <c r="G77" s="234"/>
+      <c r="H77" s="235"/>
     </row>
     <row r="78" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="240"/>
-      <c r="C78" s="226">
+      <c r="B78" s="253"/>
+      <c r="C78" s="250">
         <v>45442</v>
       </c>
-      <c r="D78" s="228" t="s">
+      <c r="D78" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="E78" s="229" t="s">
+      <c r="E78" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F78" s="230"/>
+      <c r="F78" s="231"/>
       <c r="G78" s="99"/>
       <c r="H78" s="97"/>
     </row>
     <row r="79" spans="2:8" ht="50.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="240"/>
-      <c r="C79" s="226"/>
-      <c r="D79" s="228"/>
-      <c r="E79" s="229" t="s">
+      <c r="B79" s="253"/>
+      <c r="C79" s="250"/>
+      <c r="D79" s="248"/>
+      <c r="E79" s="230" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="230"/>
+      <c r="F79" s="231"/>
       <c r="G79" s="99"/>
       <c r="H79" s="97"/>
     </row>
     <row r="80" spans="2:8" ht="50.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="240"/>
-      <c r="C80" s="227"/>
-      <c r="D80" s="223" t="s">
+      <c r="B80" s="253"/>
+      <c r="C80" s="251"/>
+      <c r="D80" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E80" s="223"/>
-      <c r="F80" s="224"/>
-      <c r="G80" s="224"/>
-      <c r="H80" s="225"/>
+      <c r="E80" s="233"/>
+      <c r="F80" s="234"/>
+      <c r="G80" s="234"/>
+      <c r="H80" s="235"/>
     </row>
     <row r="81" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="240"/>
-      <c r="C81" s="236">
+      <c r="B81" s="253"/>
+      <c r="C81" s="249">
         <v>45443</v>
       </c>
-      <c r="D81" s="228" t="s">
+      <c r="D81" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="E81" s="237" t="s">
+      <c r="E81" s="246" t="s">
         <v>45</v>
       </c>
-      <c r="F81" s="238"/>
+      <c r="F81" s="247"/>
       <c r="G81" s="98"/>
       <c r="H81" s="97"/>
     </row>
     <row r="82" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="240"/>
-      <c r="C82" s="226"/>
-      <c r="D82" s="228"/>
-      <c r="E82" s="229" t="s">
+      <c r="B82" s="253"/>
+      <c r="C82" s="250"/>
+      <c r="D82" s="248"/>
+      <c r="E82" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="F82" s="230"/>
+      <c r="F82" s="231"/>
       <c r="G82" s="98"/>
       <c r="H82" s="97"/>
     </row>
     <row r="83" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="240"/>
-      <c r="C83" s="226"/>
-      <c r="D83" s="228"/>
-      <c r="E83" s="229" t="s">
+      <c r="B83" s="253"/>
+      <c r="C83" s="250"/>
+      <c r="D83" s="248"/>
+      <c r="E83" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F83" s="230"/>
+      <c r="F83" s="231"/>
       <c r="G83" s="99"/>
       <c r="H83" s="97"/>
     </row>
     <row r="84" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="240"/>
-      <c r="C84" s="226"/>
-      <c r="D84" s="228"/>
-      <c r="E84" s="229" t="s">
+      <c r="B84" s="253"/>
+      <c r="C84" s="250"/>
+      <c r="D84" s="248"/>
+      <c r="E84" s="230" t="s">
         <v>47</v>
       </c>
-      <c r="F84" s="230"/>
+      <c r="F84" s="231"/>
       <c r="G84" s="99"/>
       <c r="H84" s="97"/>
     </row>
     <row r="85" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="241"/>
-      <c r="C85" s="227"/>
-      <c r="D85" s="223" t="s">
+      <c r="B85" s="254"/>
+      <c r="C85" s="251"/>
+      <c r="D85" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E85" s="223"/>
-      <c r="F85" s="224"/>
-      <c r="G85" s="224"/>
-      <c r="H85" s="225"/>
+      <c r="E85" s="233"/>
+      <c r="F85" s="234"/>
+      <c r="G85" s="234"/>
+      <c r="H85" s="235"/>
     </row>
     <row r="86" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="239" t="s">
+      <c r="B86" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="C86" s="226">
+      <c r="C86" s="250">
         <v>45446</v>
       </c>
-      <c r="D86" s="228" t="s">
+      <c r="D86" s="248" t="s">
         <v>56</v>
       </c>
-      <c r="E86" s="229" t="s">
+      <c r="E86" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="F86" s="230"/>
+      <c r="F86" s="231"/>
       <c r="G86" s="98"/>
       <c r="H86" s="97"/>
     </row>
     <row r="87" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="240"/>
-      <c r="C87" s="226"/>
-      <c r="D87" s="228"/>
-      <c r="E87" s="229" t="s">
+      <c r="B87" s="253"/>
+      <c r="C87" s="250"/>
+      <c r="D87" s="248"/>
+      <c r="E87" s="230" t="s">
         <v>46</v>
       </c>
-      <c r="F87" s="230"/>
+      <c r="F87" s="231"/>
       <c r="G87" s="98"/>
       <c r="H87" s="97"/>
     </row>
     <row r="88" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="240"/>
-      <c r="C88" s="226"/>
-      <c r="D88" s="228"/>
-      <c r="E88" s="229" t="s">
+      <c r="B88" s="253"/>
+      <c r="C88" s="250"/>
+      <c r="D88" s="248"/>
+      <c r="E88" s="230" t="s">
         <v>42</v>
       </c>
-      <c r="F88" s="230"/>
+      <c r="F88" s="231"/>
       <c r="G88" s="99"/>
       <c r="H88" s="97"/>
     </row>
     <row r="89" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="240"/>
-      <c r="C89" s="226"/>
-      <c r="D89" s="228"/>
-      <c r="E89" s="229" t="s">
+      <c r="B89" s="253"/>
+      <c r="C89" s="250"/>
+      <c r="D89" s="248"/>
+      <c r="E89" s="230" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="230"/>
+      <c r="F89" s="231"/>
       <c r="G89" s="99"/>
       <c r="H89" s="97"/>
     </row>
     <row r="90" spans="2:8" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="241"/>
-      <c r="C90" s="227"/>
-      <c r="D90" s="223" t="s">
+      <c r="B90" s="254"/>
+      <c r="C90" s="251"/>
+      <c r="D90" s="233" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="223"/>
-      <c r="F90" s="224"/>
-      <c r="G90" s="224"/>
-      <c r="H90" s="225"/>
+      <c r="E90" s="233"/>
+      <c r="F90" s="234"/>
+      <c r="G90" s="234"/>
+      <c r="H90" s="235"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="164">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B86:B90"/>
+    <mergeCell ref="C86:C90"/>
+    <mergeCell ref="C81:C85"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="D63:D66"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="B50:B67"/>
+    <mergeCell ref="C50:C54"/>
+    <mergeCell ref="D50:D53"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B14:B31"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C19:C23"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="B32:B49"/>
+    <mergeCell ref="C32:C36"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H32:H34"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="C45:C49"/>
+    <mergeCell ref="D45:D48"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="F54:H54"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D55:D58"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="B68:B85"/>
+    <mergeCell ref="C68:C72"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:F78"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:H80"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="C73:C77"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="D73:D76"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:H90"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E84:F84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:H85"/>
+    <mergeCell ref="D86:D89"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="G20:G21"/>
     <mergeCell ref="H20:H21"/>
@@ -46027,143 +46202,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:H90"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E84:F84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:H85"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D55:D58"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="B68:B85"/>
-    <mergeCell ref="C68:C72"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="C73:C77"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="D73:D76"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="C45:C49"/>
-    <mergeCell ref="D45:D48"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="F54:H54"/>
-    <mergeCell ref="B32:B49"/>
-    <mergeCell ref="C32:C36"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="C37:C41"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="B14:B31"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C19:C23"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="B86:B90"/>
-    <mergeCell ref="C86:C90"/>
-    <mergeCell ref="C81:C85"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="D63:D66"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="B50:B67"/>
-    <mergeCell ref="C50:C54"/>
-    <mergeCell ref="D50:D53"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="C9:C13"/>
-    <mergeCell ref="D9:D12"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H12" r:id="rId1" xr:uid="{A2C1CB60-4940-405A-AF22-2260F5964F0A}"/>
@@ -46175,9 +46213,14 @@
     <hyperlink ref="H16" r:id="rId7" xr:uid="{027566B6-9D9E-48B6-9539-BEF48FF3ACB4}"/>
     <hyperlink ref="H20" r:id="rId8" xr:uid="{B6BD1FE7-DE89-4250-ABBB-D349D21F1535}"/>
     <hyperlink ref="H22" r:id="rId9" xr:uid="{B23A84E0-733B-46F3-8303-19629AF56B16}"/>
+    <hyperlink ref="H39" r:id="rId10" xr:uid="{D4C99D94-F089-43CE-81F4-5046A2E33309}"/>
+    <hyperlink ref="H40" r:id="rId11" xr:uid="{9E8FAF71-75A0-43A0-98A3-877EB13E4E07}"/>
+    <hyperlink ref="H37:H38" r:id="rId12" display="https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/sourceCode/server/api" xr:uid="{2082CA4F-C1BA-4962-A2A8-31C0976ACDE4}"/>
+    <hyperlink ref="H35" r:id="rId13" xr:uid="{28F45FB8-EF15-4E78-A1BF-CDF369F79A57}"/>
+    <hyperlink ref="H32:H34" r:id="rId14" display="https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/sourceCode/server/api" xr:uid="{46A7C6D9-3DC1-49FC-AC85-23D36138618C}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="54" orientation="landscape" r:id="rId10"/>
+  <pageSetup scale="33" orientation="landscape" r:id="rId15"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="13" max="16383" man="1"/>
   </rowBreaks>

--- a/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
+++ b/doc/Sources/X-TPI-KevinAvdylaj-JDT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pq34bsi\Desktop\TPI-GestionApiculture\doc\Sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E0CFF3-DE72-4640-9407-9039F77E3C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A135E6-72CB-4E91-A14A-27EA688EDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="523" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="120">
   <si>
     <t>Nom, Prénom</t>
   </si>
@@ -410,6 +410,31 @@
   </si>
   <si>
     <t>Avec l'avance prise sur la plannification, j'ai pu prendre le temps de créer un schémas pour mon rapport et le remplir un peu plus. Tout va pour le mieu</t>
+  </si>
+  <si>
+    <t>Commencement de l'intégration de la maquette en Vue.JS
+Implémentation de l'interface de la page login et de la navbar
+Correction d'un bug lors de la requête pour obtenire des données depuis l'API</t>
+  </si>
+  <si>
+    <t>https://forum.freecodecamp.org/t/solved-trouble-with-post-method-in-fetch/82949</t>
+  </si>
+  <si>
+    <t>Résolution du bug sur la requête à l'API (J'avais oublié le 'Content-Type': 'application/json'</t>
+  </si>
+  <si>
+    <t>https://github.com/Exy-lophone/TPI-GestionApiculture/tree/main/sourceCode/app</t>
+  </si>
+  <si>
+    <t>Intégration de la maquette en Vue JS
+Création des composants vue (ActivityItem, ArrowIcon, RucheItem, RucherItem, TrashIcon) pour pouvoir les utiliser sur les différentes pages du site
+Implémentation des pages Home, Login et Détails ruche/ruchers + connection des éléments réactifs à l'API</t>
+  </si>
+  <si>
+    <t>Le bug sur la requête ma fait perdre en vitesse, mais rien de bien grave.</t>
+  </si>
+  <si>
+    <t>tout est ok, j'ai pu implémenter les pages comme je le voulais</t>
   </si>
 </sst>
 </file>
@@ -1707,7 +1732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2026,170 +2051,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="15" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2215,8 +2084,20 @@
     <xf numFmtId="20" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2269,23 +2150,158 @@
     <xf numFmtId="20" fontId="8" fillId="3" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2296,53 +2312,44 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -2359,6 +2366,15 @@
     <xf numFmtId="165" fontId="12" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2371,9 +2387,6 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="12" fillId="4" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2383,17 +2396,47 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="88" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="89" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3861,74 +3904,74 @@
     </row>
     <row r="4" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="210" t="s">
+      <c r="B4" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="211"/>
-      <c r="D4" s="216" t="s">
+      <c r="C4" s="163"/>
+      <c r="D4" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-      <c r="J4" s="217"/>
-      <c r="K4" s="217"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="217"/>
-      <c r="N4" s="217"/>
-      <c r="O4" s="217"/>
-      <c r="P4" s="217"/>
-      <c r="Q4" s="218" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="169"/>
+      <c r="G4" s="169"/>
+      <c r="H4" s="169"/>
+      <c r="I4" s="169"/>
+      <c r="J4" s="169"/>
+      <c r="K4" s="169"/>
+      <c r="L4" s="169"/>
+      <c r="M4" s="169"/>
+      <c r="N4" s="169"/>
+      <c r="O4" s="169"/>
+      <c r="P4" s="169"/>
+      <c r="Q4" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="218"/>
-      <c r="S4" s="218"/>
-      <c r="T4" s="218"/>
-      <c r="U4" s="218"/>
-      <c r="V4" s="218"/>
-      <c r="W4" s="218"/>
-      <c r="X4" s="218"/>
-      <c r="Y4" s="218"/>
-      <c r="Z4" s="218"/>
-      <c r="AA4" s="218"/>
-      <c r="AB4" s="218"/>
-      <c r="AC4" s="218"/>
-      <c r="AD4" s="218"/>
-      <c r="AE4" s="218"/>
-      <c r="AF4" s="218"/>
-      <c r="AG4" s="218"/>
-      <c r="AH4" s="218"/>
-      <c r="AI4" s="218"/>
-      <c r="AJ4" s="218"/>
-      <c r="AK4" s="218"/>
-      <c r="AL4" s="218"/>
-      <c r="AM4" s="218"/>
-      <c r="AN4" s="218"/>
-      <c r="AO4" s="218"/>
-      <c r="AP4" s="218"/>
-      <c r="AQ4" s="218"/>
-      <c r="AR4" s="218"/>
-      <c r="AS4" s="218"/>
-      <c r="AT4" s="218"/>
-      <c r="AU4" s="218"/>
-      <c r="AV4" s="218"/>
-      <c r="AW4" s="218"/>
-      <c r="AX4" s="218"/>
-      <c r="AY4" s="218"/>
-      <c r="AZ4" s="218"/>
-      <c r="BA4" s="218"/>
-      <c r="BB4" s="218"/>
-      <c r="BC4" s="218"/>
-      <c r="BD4" s="218"/>
-      <c r="BE4" s="218"/>
-      <c r="BF4" s="218"/>
-      <c r="BG4" s="218"/>
-      <c r="BH4" s="218"/>
-      <c r="BI4" s="218"/>
-      <c r="BJ4" s="218"/>
-      <c r="BK4" s="219"/>
+      <c r="R4" s="170"/>
+      <c r="S4" s="170"/>
+      <c r="T4" s="170"/>
+      <c r="U4" s="170"/>
+      <c r="V4" s="170"/>
+      <c r="W4" s="170"/>
+      <c r="X4" s="170"/>
+      <c r="Y4" s="170"/>
+      <c r="Z4" s="170"/>
+      <c r="AA4" s="170"/>
+      <c r="AB4" s="170"/>
+      <c r="AC4" s="170"/>
+      <c r="AD4" s="170"/>
+      <c r="AE4" s="170"/>
+      <c r="AF4" s="170"/>
+      <c r="AG4" s="170"/>
+      <c r="AH4" s="170"/>
+      <c r="AI4" s="170"/>
+      <c r="AJ4" s="170"/>
+      <c r="AK4" s="170"/>
+      <c r="AL4" s="170"/>
+      <c r="AM4" s="170"/>
+      <c r="AN4" s="170"/>
+      <c r="AO4" s="170"/>
+      <c r="AP4" s="170"/>
+      <c r="AQ4" s="170"/>
+      <c r="AR4" s="170"/>
+      <c r="AS4" s="170"/>
+      <c r="AT4" s="170"/>
+      <c r="AU4" s="170"/>
+      <c r="AV4" s="170"/>
+      <c r="AW4" s="170"/>
+      <c r="AX4" s="170"/>
+      <c r="AY4" s="170"/>
+      <c r="AZ4" s="170"/>
+      <c r="BA4" s="170"/>
+      <c r="BB4" s="170"/>
+      <c r="BC4" s="170"/>
+      <c r="BD4" s="170"/>
+      <c r="BE4" s="170"/>
+      <c r="BF4" s="170"/>
+      <c r="BG4" s="170"/>
+      <c r="BH4" s="170"/>
+      <c r="BI4" s="170"/>
+      <c r="BJ4" s="170"/>
+      <c r="BK4" s="171"/>
       <c r="BL4" s="7"/>
       <c r="BM4" s="7"/>
       <c r="BN4" s="7"/>
@@ -4169,8 +4212,8 @@
       <c r="KO4" s="6"/>
       <c r="KP4" s="6"/>
       <c r="KQ4" s="6"/>
-      <c r="KR4" s="151"/>
-      <c r="KS4" s="151"/>
+      <c r="KR4" s="226"/>
+      <c r="KS4" s="226"/>
       <c r="KT4" s="6"/>
       <c r="KU4" s="6"/>
       <c r="KV4" s="6"/>
@@ -4444,76 +4487,76 @@
     </row>
     <row r="5" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="212"/>
-      <c r="C5" s="213"/>
-      <c r="D5" s="220" t="s">
+      <c r="B5" s="164"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="221"/>
-      <c r="N5" s="221"/>
-      <c r="O5" s="221"/>
-      <c r="P5" s="221"/>
-      <c r="Q5" s="222" t="s">
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="R5" s="222"/>
-      <c r="S5" s="222"/>
-      <c r="T5" s="222"/>
-      <c r="U5" s="222"/>
-      <c r="V5" s="222"/>
-      <c r="W5" s="222"/>
-      <c r="X5" s="222"/>
-      <c r="Y5" s="222"/>
-      <c r="Z5" s="222"/>
-      <c r="AA5" s="222"/>
-      <c r="AB5" s="221" t="s">
+      <c r="R5" s="174"/>
+      <c r="S5" s="174"/>
+      <c r="T5" s="174"/>
+      <c r="U5" s="174"/>
+      <c r="V5" s="174"/>
+      <c r="W5" s="174"/>
+      <c r="X5" s="174"/>
+      <c r="Y5" s="174"/>
+      <c r="Z5" s="174"/>
+      <c r="AA5" s="174"/>
+      <c r="AB5" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="AC5" s="221"/>
-      <c r="AD5" s="221"/>
-      <c r="AE5" s="221"/>
-      <c r="AF5" s="221"/>
-      <c r="AG5" s="221"/>
-      <c r="AH5" s="221"/>
-      <c r="AI5" s="221"/>
-      <c r="AJ5" s="221"/>
-      <c r="AK5" s="221"/>
-      <c r="AL5" s="221"/>
-      <c r="AM5" s="221"/>
-      <c r="AN5" s="221"/>
-      <c r="AO5" s="222" t="s">
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
+      <c r="AI5" s="173"/>
+      <c r="AJ5" s="173"/>
+      <c r="AK5" s="173"/>
+      <c r="AL5" s="173"/>
+      <c r="AM5" s="173"/>
+      <c r="AN5" s="173"/>
+      <c r="AO5" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="AP5" s="222"/>
-      <c r="AQ5" s="222"/>
-      <c r="AR5" s="222"/>
-      <c r="AS5" s="222"/>
-      <c r="AT5" s="222"/>
-      <c r="AU5" s="222"/>
-      <c r="AV5" s="222"/>
-      <c r="AW5" s="222"/>
-      <c r="AX5" s="222"/>
-      <c r="AY5" s="222"/>
-      <c r="AZ5" s="222"/>
-      <c r="BA5" s="222"/>
-      <c r="BB5" s="222"/>
-      <c r="BC5" s="222"/>
-      <c r="BD5" s="222"/>
-      <c r="BE5" s="222"/>
-      <c r="BF5" s="222"/>
-      <c r="BG5" s="222"/>
-      <c r="BH5" s="222"/>
-      <c r="BI5" s="222"/>
-      <c r="BJ5" s="222"/>
-      <c r="BK5" s="223"/>
+      <c r="AP5" s="174"/>
+      <c r="AQ5" s="174"/>
+      <c r="AR5" s="174"/>
+      <c r="AS5" s="174"/>
+      <c r="AT5" s="174"/>
+      <c r="AU5" s="174"/>
+      <c r="AV5" s="174"/>
+      <c r="AW5" s="174"/>
+      <c r="AX5" s="174"/>
+      <c r="AY5" s="174"/>
+      <c r="AZ5" s="174"/>
+      <c r="BA5" s="174"/>
+      <c r="BB5" s="174"/>
+      <c r="BC5" s="174"/>
+      <c r="BD5" s="174"/>
+      <c r="BE5" s="174"/>
+      <c r="BF5" s="174"/>
+      <c r="BG5" s="174"/>
+      <c r="BH5" s="174"/>
+      <c r="BI5" s="174"/>
+      <c r="BJ5" s="174"/>
+      <c r="BK5" s="175"/>
       <c r="BL5" s="7"/>
       <c r="BM5" s="7"/>
       <c r="BN5" s="7"/>
@@ -4754,8 +4797,8 @@
       <c r="KO5" s="6"/>
       <c r="KP5" s="6"/>
       <c r="KQ5" s="6"/>
-      <c r="KR5" s="151"/>
-      <c r="KS5" s="151"/>
+      <c r="KR5" s="226"/>
+      <c r="KS5" s="226"/>
       <c r="KT5" s="6"/>
       <c r="KU5" s="6"/>
       <c r="KV5" s="6"/>
@@ -5029,76 +5072,76 @@
     </row>
     <row r="6" spans="1:575" s="2" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="214"/>
-      <c r="C6" s="215"/>
-      <c r="D6" s="224" t="s">
+      <c r="B6" s="166"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="225"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="225"/>
-      <c r="P6" s="225"/>
-      <c r="Q6" s="226" t="s">
+      <c r="E6" s="177"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="177"/>
+      <c r="L6" s="177"/>
+      <c r="M6" s="177"/>
+      <c r="N6" s="177"/>
+      <c r="O6" s="177"/>
+      <c r="P6" s="177"/>
+      <c r="Q6" s="178" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="226"/>
-      <c r="S6" s="226"/>
-      <c r="T6" s="226"/>
-      <c r="U6" s="226"/>
-      <c r="V6" s="226"/>
-      <c r="W6" s="226"/>
-      <c r="X6" s="226"/>
-      <c r="Y6" s="226"/>
-      <c r="Z6" s="226"/>
-      <c r="AA6" s="226"/>
-      <c r="AB6" s="225" t="s">
+      <c r="R6" s="178"/>
+      <c r="S6" s="178"/>
+      <c r="T6" s="178"/>
+      <c r="U6" s="178"/>
+      <c r="V6" s="178"/>
+      <c r="W6" s="178"/>
+      <c r="X6" s="178"/>
+      <c r="Y6" s="178"/>
+      <c r="Z6" s="178"/>
+      <c r="AA6" s="178"/>
+      <c r="AB6" s="177" t="s">
         <v>8</v>
       </c>
-      <c r="AC6" s="225"/>
-      <c r="AD6" s="225"/>
-      <c r="AE6" s="225"/>
-      <c r="AF6" s="225"/>
-      <c r="AG6" s="225"/>
-      <c r="AH6" s="225"/>
-      <c r="AI6" s="225"/>
-      <c r="AJ6" s="225"/>
-      <c r="AK6" s="225"/>
-      <c r="AL6" s="225"/>
-      <c r="AM6" s="225"/>
-      <c r="AN6" s="225"/>
-      <c r="AO6" s="201" t="s">
+      <c r="AC6" s="177"/>
+      <c r="AD6" s="177"/>
+      <c r="AE6" s="177"/>
+      <c r="AF6" s="177"/>
+      <c r="AG6" s="177"/>
+      <c r="AH6" s="177"/>
+      <c r="AI6" s="177"/>
+      <c r="AJ6" s="177"/>
+      <c r="AK6" s="177"/>
+      <c r="AL6" s="177"/>
+      <c r="AM6" s="177"/>
+      <c r="AN6" s="177"/>
+      <c r="AO6" s="149" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="201"/>
-      <c r="AQ6" s="201"/>
-      <c r="AR6" s="201"/>
-      <c r="AS6" s="201"/>
-      <c r="AT6" s="201"/>
-      <c r="AU6" s="201"/>
-      <c r="AV6" s="201"/>
-      <c r="AW6" s="201"/>
-      <c r="AX6" s="201"/>
-      <c r="AY6" s="201"/>
-      <c r="AZ6" s="201"/>
-      <c r="BA6" s="201"/>
-      <c r="BB6" s="201"/>
-      <c r="BC6" s="201"/>
-      <c r="BD6" s="201"/>
-      <c r="BE6" s="201"/>
-      <c r="BF6" s="201"/>
-      <c r="BG6" s="201"/>
-      <c r="BH6" s="201"/>
-      <c r="BI6" s="201"/>
-      <c r="BJ6" s="201"/>
-      <c r="BK6" s="202"/>
+      <c r="AP6" s="149"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="149"/>
+      <c r="AZ6" s="149"/>
+      <c r="BA6" s="149"/>
+      <c r="BB6" s="149"/>
+      <c r="BC6" s="149"/>
+      <c r="BD6" s="149"/>
+      <c r="BE6" s="149"/>
+      <c r="BF6" s="149"/>
+      <c r="BG6" s="149"/>
+      <c r="BH6" s="149"/>
+      <c r="BI6" s="149"/>
+      <c r="BJ6" s="149"/>
+      <c r="BK6" s="150"/>
       <c r="BL6" s="8"/>
       <c r="BM6" s="8"/>
       <c r="BN6" s="8"/>
@@ -5339,8 +5382,8 @@
       <c r="KO6" s="6"/>
       <c r="KP6" s="6"/>
       <c r="KQ6" s="6"/>
-      <c r="KR6" s="151"/>
-      <c r="KS6" s="151"/>
+      <c r="KR6" s="226"/>
+      <c r="KS6" s="226"/>
       <c r="KT6" s="6"/>
       <c r="KU6" s="6"/>
       <c r="KV6" s="6"/>
@@ -5614,70 +5657,70 @@
     </row>
     <row r="7" spans="1:575" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
-      <c r="P7" s="204"/>
-      <c r="Q7" s="204"/>
-      <c r="R7" s="204"/>
-      <c r="S7" s="204"/>
-      <c r="T7" s="204"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="204"/>
-      <c r="W7" s="204"/>
-      <c r="X7" s="204"/>
-      <c r="Y7" s="204"/>
-      <c r="Z7" s="204"/>
-      <c r="AA7" s="204"/>
-      <c r="AB7" s="204"/>
-      <c r="AC7" s="204"/>
-      <c r="AD7" s="204"/>
-      <c r="AE7" s="204"/>
-      <c r="AF7" s="204"/>
-      <c r="AG7" s="204"/>
-      <c r="AH7" s="204"/>
-      <c r="AI7" s="204"/>
-      <c r="AJ7" s="204"/>
-      <c r="AK7" s="204"/>
-      <c r="AL7" s="204"/>
-      <c r="AM7" s="204"/>
-      <c r="AN7" s="204"/>
-      <c r="AO7" s="204"/>
-      <c r="AP7" s="204"/>
-      <c r="AQ7" s="204"/>
-      <c r="AR7" s="204"/>
-      <c r="AS7" s="204"/>
-      <c r="AT7" s="204"/>
-      <c r="AU7" s="204"/>
-      <c r="AV7" s="204"/>
-      <c r="AW7" s="204"/>
-      <c r="AX7" s="204"/>
-      <c r="AY7" s="204"/>
-      <c r="AZ7" s="204"/>
-      <c r="BA7" s="204"/>
-      <c r="BB7" s="204"/>
-      <c r="BC7" s="204"/>
-      <c r="BD7" s="204"/>
-      <c r="BE7" s="204"/>
-      <c r="BF7" s="204"/>
-      <c r="BG7" s="204"/>
-      <c r="BH7" s="204"/>
-      <c r="BI7" s="204"/>
-      <c r="BJ7" s="204"/>
-      <c r="BK7" s="205"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="152"/>
+      <c r="E7" s="152"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="152"/>
+      <c r="H7" s="152"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="152"/>
+      <c r="K7" s="152"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="152"/>
+      <c r="N7" s="152"/>
+      <c r="O7" s="152"/>
+      <c r="P7" s="152"/>
+      <c r="Q7" s="152"/>
+      <c r="R7" s="152"/>
+      <c r="S7" s="152"/>
+      <c r="T7" s="152"/>
+      <c r="U7" s="152"/>
+      <c r="V7" s="152"/>
+      <c r="W7" s="152"/>
+      <c r="X7" s="152"/>
+      <c r="Y7" s="152"/>
+      <c r="Z7" s="152"/>
+      <c r="AA7" s="152"/>
+      <c r="AB7" s="152"/>
+      <c r="AC7" s="152"/>
+      <c r="AD7" s="152"/>
+      <c r="AE7" s="152"/>
+      <c r="AF7" s="152"/>
+      <c r="AG7" s="152"/>
+      <c r="AH7" s="152"/>
+      <c r="AI7" s="152"/>
+      <c r="AJ7" s="152"/>
+      <c r="AK7" s="152"/>
+      <c r="AL7" s="152"/>
+      <c r="AM7" s="152"/>
+      <c r="AN7" s="152"/>
+      <c r="AO7" s="152"/>
+      <c r="AP7" s="152"/>
+      <c r="AQ7" s="152"/>
+      <c r="AR7" s="152"/>
+      <c r="AS7" s="152"/>
+      <c r="AT7" s="152"/>
+      <c r="AU7" s="152"/>
+      <c r="AV7" s="152"/>
+      <c r="AW7" s="152"/>
+      <c r="AX7" s="152"/>
+      <c r="AY7" s="152"/>
+      <c r="AZ7" s="152"/>
+      <c r="BA7" s="152"/>
+      <c r="BB7" s="152"/>
+      <c r="BC7" s="152"/>
+      <c r="BD7" s="152"/>
+      <c r="BE7" s="152"/>
+      <c r="BF7" s="152"/>
+      <c r="BG7" s="152"/>
+      <c r="BH7" s="152"/>
+      <c r="BI7" s="152"/>
+      <c r="BJ7" s="152"/>
+      <c r="BK7" s="153"/>
       <c r="BL7" s="9"/>
       <c r="BM7" s="9"/>
       <c r="BN7" s="9"/>
@@ -6193,68 +6236,68 @@
     </row>
     <row r="8" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="203"/>
-      <c r="C8" s="204"/>
-      <c r="D8" s="204"/>
-      <c r="E8" s="204"/>
-      <c r="F8" s="204"/>
-      <c r="G8" s="204"/>
-      <c r="H8" s="204"/>
-      <c r="I8" s="204"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204"/>
-      <c r="L8" s="204"/>
-      <c r="M8" s="204"/>
-      <c r="N8" s="204"/>
-      <c r="O8" s="204"/>
-      <c r="P8" s="204"/>
-      <c r="Q8" s="204"/>
-      <c r="R8" s="204"/>
-      <c r="S8" s="204"/>
-      <c r="T8" s="204"/>
-      <c r="U8" s="204"/>
-      <c r="V8" s="204"/>
-      <c r="W8" s="204"/>
-      <c r="X8" s="204"/>
-      <c r="Y8" s="204"/>
-      <c r="Z8" s="204"/>
-      <c r="AA8" s="204"/>
-      <c r="AB8" s="204"/>
-      <c r="AC8" s="204"/>
-      <c r="AD8" s="204"/>
-      <c r="AE8" s="204"/>
-      <c r="AF8" s="204"/>
-      <c r="AG8" s="204"/>
-      <c r="AH8" s="204"/>
-      <c r="AI8" s="204"/>
-      <c r="AJ8" s="204"/>
-      <c r="AK8" s="204"/>
-      <c r="AL8" s="204"/>
-      <c r="AM8" s="204"/>
-      <c r="AN8" s="204"/>
-      <c r="AO8" s="204"/>
-      <c r="AP8" s="204"/>
-      <c r="AQ8" s="204"/>
-      <c r="AR8" s="204"/>
-      <c r="AS8" s="204"/>
-      <c r="AT8" s="204"/>
-      <c r="AU8" s="204"/>
-      <c r="AV8" s="204"/>
-      <c r="AW8" s="204"/>
-      <c r="AX8" s="204"/>
-      <c r="AY8" s="204"/>
-      <c r="AZ8" s="204"/>
-      <c r="BA8" s="204"/>
-      <c r="BB8" s="204"/>
-      <c r="BC8" s="204"/>
-      <c r="BD8" s="204"/>
-      <c r="BE8" s="204"/>
-      <c r="BF8" s="204"/>
-      <c r="BG8" s="204"/>
-      <c r="BH8" s="204"/>
-      <c r="BI8" s="204"/>
-      <c r="BJ8" s="204"/>
-      <c r="BK8" s="205"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="152"/>
+      <c r="H8" s="152"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="152"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="152"/>
+      <c r="O8" s="152"/>
+      <c r="P8" s="152"/>
+      <c r="Q8" s="152"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="152"/>
+      <c r="T8" s="152"/>
+      <c r="U8" s="152"/>
+      <c r="V8" s="152"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="152"/>
+      <c r="Y8" s="152"/>
+      <c r="Z8" s="152"/>
+      <c r="AA8" s="152"/>
+      <c r="AB8" s="152"/>
+      <c r="AC8" s="152"/>
+      <c r="AD8" s="152"/>
+      <c r="AE8" s="152"/>
+      <c r="AF8" s="152"/>
+      <c r="AG8" s="152"/>
+      <c r="AH8" s="152"/>
+      <c r="AI8" s="152"/>
+      <c r="AJ8" s="152"/>
+      <c r="AK8" s="152"/>
+      <c r="AL8" s="152"/>
+      <c r="AM8" s="152"/>
+      <c r="AN8" s="152"/>
+      <c r="AO8" s="152"/>
+      <c r="AP8" s="152"/>
+      <c r="AQ8" s="152"/>
+      <c r="AR8" s="152"/>
+      <c r="AS8" s="152"/>
+      <c r="AT8" s="152"/>
+      <c r="AU8" s="152"/>
+      <c r="AV8" s="152"/>
+      <c r="AW8" s="152"/>
+      <c r="AX8" s="152"/>
+      <c r="AY8" s="152"/>
+      <c r="AZ8" s="152"/>
+      <c r="BA8" s="152"/>
+      <c r="BB8" s="152"/>
+      <c r="BC8" s="152"/>
+      <c r="BD8" s="152"/>
+      <c r="BE8" s="152"/>
+      <c r="BF8" s="152"/>
+      <c r="BG8" s="152"/>
+      <c r="BH8" s="152"/>
+      <c r="BI8" s="152"/>
+      <c r="BJ8" s="152"/>
+      <c r="BK8" s="153"/>
       <c r="BL8" s="9"/>
       <c r="BM8" s="9"/>
       <c r="BN8" s="9"/>
@@ -6770,68 +6813,68 @@
     </row>
     <row r="9" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="207"/>
-      <c r="D9" s="207"/>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
-      <c r="L9" s="207"/>
-      <c r="M9" s="207"/>
-      <c r="N9" s="207"/>
-      <c r="O9" s="207"/>
-      <c r="P9" s="207"/>
-      <c r="Q9" s="207"/>
-      <c r="R9" s="207"/>
-      <c r="S9" s="207"/>
-      <c r="T9" s="207"/>
-      <c r="U9" s="207"/>
-      <c r="V9" s="207"/>
-      <c r="W9" s="207"/>
-      <c r="X9" s="207"/>
-      <c r="Y9" s="207"/>
-      <c r="Z9" s="207"/>
-      <c r="AA9" s="207"/>
-      <c r="AB9" s="207"/>
-      <c r="AC9" s="207"/>
-      <c r="AD9" s="207"/>
-      <c r="AE9" s="207"/>
-      <c r="AF9" s="207"/>
-      <c r="AG9" s="207"/>
-      <c r="AH9" s="207"/>
-      <c r="AI9" s="207"/>
-      <c r="AJ9" s="207"/>
-      <c r="AK9" s="207"/>
-      <c r="AL9" s="207"/>
-      <c r="AM9" s="207"/>
-      <c r="AN9" s="207"/>
-      <c r="AO9" s="207"/>
-      <c r="AP9" s="207"/>
-      <c r="AQ9" s="207"/>
-      <c r="AR9" s="207"/>
-      <c r="AS9" s="207"/>
-      <c r="AT9" s="207"/>
-      <c r="AU9" s="207"/>
-      <c r="AV9" s="207"/>
-      <c r="AW9" s="207"/>
-      <c r="AX9" s="207"/>
-      <c r="AY9" s="207"/>
-      <c r="AZ9" s="207"/>
-      <c r="BA9" s="207"/>
-      <c r="BB9" s="207"/>
-      <c r="BC9" s="207"/>
-      <c r="BD9" s="207"/>
-      <c r="BE9" s="207"/>
-      <c r="BF9" s="207"/>
-      <c r="BG9" s="207"/>
-      <c r="BH9" s="207"/>
-      <c r="BI9" s="207"/>
-      <c r="BJ9" s="207"/>
-      <c r="BK9" s="208"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="155"/>
+      <c r="F9" s="155"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="155"/>
+      <c r="AF9" s="155"/>
+      <c r="AG9" s="155"/>
+      <c r="AH9" s="155"/>
+      <c r="AI9" s="155"/>
+      <c r="AJ9" s="155"/>
+      <c r="AK9" s="155"/>
+      <c r="AL9" s="155"/>
+      <c r="AM9" s="155"/>
+      <c r="AN9" s="155"/>
+      <c r="AO9" s="155"/>
+      <c r="AP9" s="155"/>
+      <c r="AQ9" s="155"/>
+      <c r="AR9" s="155"/>
+      <c r="AS9" s="155"/>
+      <c r="AT9" s="155"/>
+      <c r="AU9" s="155"/>
+      <c r="AV9" s="155"/>
+      <c r="AW9" s="155"/>
+      <c r="AX9" s="155"/>
+      <c r="AY9" s="155"/>
+      <c r="AZ9" s="155"/>
+      <c r="BA9" s="155"/>
+      <c r="BB9" s="155"/>
+      <c r="BC9" s="155"/>
+      <c r="BD9" s="155"/>
+      <c r="BE9" s="155"/>
+      <c r="BF9" s="155"/>
+      <c r="BG9" s="155"/>
+      <c r="BH9" s="155"/>
+      <c r="BI9" s="155"/>
+      <c r="BJ9" s="155"/>
+      <c r="BK9" s="156"/>
       <c r="BL9" s="9"/>
       <c r="BM9" s="9"/>
       <c r="BN9" s="9"/>
@@ -8501,2491 +8544,2491 @@
     </row>
     <row r="12" spans="1:575" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="209"/>
-      <c r="D12" s="192" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="193"/>
-      <c r="M12" s="193"/>
-      <c r="N12" s="193"/>
-      <c r="O12" s="193"/>
-      <c r="P12" s="193"/>
-      <c r="Q12" s="193"/>
-      <c r="R12" s="193"/>
-      <c r="S12" s="193"/>
-      <c r="T12" s="193"/>
-      <c r="U12" s="193"/>
-      <c r="V12" s="193"/>
-      <c r="W12" s="193"/>
-      <c r="X12" s="193"/>
-      <c r="Y12" s="193"/>
-      <c r="Z12" s="193"/>
-      <c r="AA12" s="193"/>
-      <c r="AB12" s="193"/>
-      <c r="AC12" s="193"/>
-      <c r="AD12" s="193"/>
-      <c r="AE12" s="193"/>
-      <c r="AF12" s="193"/>
-      <c r="AG12" s="193"/>
-      <c r="AH12" s="193"/>
-      <c r="AI12" s="193"/>
-      <c r="AJ12" s="193"/>
-      <c r="AK12" s="193"/>
-      <c r="AL12" s="193"/>
-      <c r="AM12" s="193"/>
-      <c r="AN12" s="193"/>
-      <c r="AO12" s="193"/>
-      <c r="AP12" s="193"/>
-      <c r="AQ12" s="193"/>
-      <c r="AR12" s="193"/>
-      <c r="AS12" s="193"/>
-      <c r="AT12" s="193"/>
-      <c r="AU12" s="193"/>
-      <c r="AV12" s="193"/>
-      <c r="AW12" s="193"/>
-      <c r="AX12" s="193"/>
-      <c r="AY12" s="193"/>
-      <c r="AZ12" s="193"/>
-      <c r="BA12" s="193"/>
-      <c r="BB12" s="193"/>
-      <c r="BC12" s="193"/>
-      <c r="BD12" s="193"/>
-      <c r="BE12" s="193"/>
-      <c r="BF12" s="193"/>
-      <c r="BG12" s="193"/>
-      <c r="BH12" s="193"/>
-      <c r="BI12" s="193"/>
-      <c r="BJ12" s="193"/>
-      <c r="BK12" s="193"/>
-      <c r="BL12" s="192" t="s">
+      <c r="E12" s="160"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160"/>
+      <c r="R12" s="160"/>
+      <c r="S12" s="160"/>
+      <c r="T12" s="160"/>
+      <c r="U12" s="160"/>
+      <c r="V12" s="160"/>
+      <c r="W12" s="160"/>
+      <c r="X12" s="160"/>
+      <c r="Y12" s="160"/>
+      <c r="Z12" s="160"/>
+      <c r="AA12" s="160"/>
+      <c r="AB12" s="160"/>
+      <c r="AC12" s="160"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="160"/>
+      <c r="AF12" s="160"/>
+      <c r="AG12" s="160"/>
+      <c r="AH12" s="160"/>
+      <c r="AI12" s="160"/>
+      <c r="AJ12" s="160"/>
+      <c r="AK12" s="160"/>
+      <c r="AL12" s="160"/>
+      <c r="AM12" s="160"/>
+      <c r="AN12" s="160"/>
+      <c r="AO12" s="160"/>
+      <c r="AP12" s="160"/>
+      <c r="AQ12" s="160"/>
+      <c r="AR12" s="160"/>
+      <c r="AS12" s="160"/>
+      <c r="AT12" s="160"/>
+      <c r="AU12" s="160"/>
+      <c r="AV12" s="160"/>
+      <c r="AW12" s="160"/>
+      <c r="AX12" s="160"/>
+      <c r="AY12" s="160"/>
+      <c r="AZ12" s="160"/>
+      <c r="BA12" s="160"/>
+      <c r="BB12" s="160"/>
+      <c r="BC12" s="160"/>
+      <c r="BD12" s="160"/>
+      <c r="BE12" s="160"/>
+      <c r="BF12" s="160"/>
+      <c r="BG12" s="160"/>
+      <c r="BH12" s="160"/>
+      <c r="BI12" s="160"/>
+      <c r="BJ12" s="160"/>
+      <c r="BK12" s="160"/>
+      <c r="BL12" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="BM12" s="193"/>
-      <c r="BN12" s="193"/>
-      <c r="BO12" s="193"/>
-      <c r="BP12" s="193"/>
-      <c r="BQ12" s="193"/>
-      <c r="BR12" s="193"/>
-      <c r="BS12" s="193"/>
-      <c r="BT12" s="193"/>
-      <c r="BU12" s="193"/>
-      <c r="BV12" s="193"/>
-      <c r="BW12" s="193"/>
-      <c r="BX12" s="193"/>
-      <c r="BY12" s="193"/>
-      <c r="BZ12" s="193"/>
-      <c r="CA12" s="193"/>
-      <c r="CB12" s="193"/>
-      <c r="CC12" s="193"/>
-      <c r="CD12" s="193"/>
-      <c r="CE12" s="193"/>
-      <c r="CF12" s="193"/>
-      <c r="CG12" s="193"/>
-      <c r="CH12" s="193"/>
-      <c r="CI12" s="193"/>
-      <c r="CJ12" s="193"/>
-      <c r="CK12" s="193"/>
-      <c r="CL12" s="193"/>
-      <c r="CM12" s="193"/>
-      <c r="CN12" s="193"/>
-      <c r="CO12" s="193"/>
-      <c r="CP12" s="193"/>
-      <c r="CQ12" s="193"/>
-      <c r="CR12" s="193"/>
-      <c r="CS12" s="193"/>
-      <c r="CT12" s="193"/>
-      <c r="CU12" s="193"/>
-      <c r="CV12" s="193"/>
-      <c r="CW12" s="193"/>
-      <c r="CX12" s="193"/>
-      <c r="CY12" s="193"/>
-      <c r="CZ12" s="193"/>
-      <c r="DA12" s="193"/>
-      <c r="DB12" s="193"/>
-      <c r="DC12" s="193"/>
-      <c r="DD12" s="193"/>
-      <c r="DE12" s="193"/>
-      <c r="DF12" s="193"/>
-      <c r="DG12" s="193"/>
-      <c r="DH12" s="193"/>
-      <c r="DI12" s="193"/>
-      <c r="DJ12" s="193"/>
-      <c r="DK12" s="193"/>
-      <c r="DL12" s="193"/>
-      <c r="DM12" s="193"/>
-      <c r="DN12" s="193"/>
-      <c r="DO12" s="193"/>
-      <c r="DP12" s="193"/>
-      <c r="DQ12" s="193"/>
-      <c r="DR12" s="193"/>
-      <c r="DS12" s="193"/>
-      <c r="DT12" s="193"/>
-      <c r="DU12" s="193"/>
-      <c r="DV12" s="193"/>
-      <c r="DW12" s="193"/>
-      <c r="DX12" s="193"/>
-      <c r="DY12" s="193"/>
-      <c r="DZ12" s="193"/>
-      <c r="EA12" s="193"/>
-      <c r="EB12" s="193"/>
-      <c r="EC12" s="193"/>
-      <c r="ED12" s="193"/>
-      <c r="EE12" s="193"/>
-      <c r="EF12" s="193"/>
-      <c r="EG12" s="193"/>
-      <c r="EH12" s="193"/>
-      <c r="EI12" s="193"/>
-      <c r="EJ12" s="193"/>
-      <c r="EK12" s="193"/>
-      <c r="EL12" s="193"/>
-      <c r="EM12" s="193"/>
-      <c r="EN12" s="193"/>
-      <c r="EO12" s="193"/>
-      <c r="EP12" s="193"/>
-      <c r="EQ12" s="193"/>
-      <c r="ER12" s="193"/>
-      <c r="ES12" s="193"/>
-      <c r="ET12" s="193"/>
-      <c r="EU12" s="193"/>
-      <c r="EV12" s="193"/>
-      <c r="EW12" s="193"/>
-      <c r="EX12" s="193"/>
-      <c r="EY12" s="193"/>
-      <c r="EZ12" s="193"/>
-      <c r="FA12" s="193"/>
-      <c r="FB12" s="193"/>
-      <c r="FC12" s="193"/>
-      <c r="FD12" s="193"/>
-      <c r="FE12" s="193"/>
-      <c r="FF12" s="193"/>
-      <c r="FG12" s="193"/>
-      <c r="FH12" s="193"/>
-      <c r="FI12" s="193"/>
-      <c r="FJ12" s="193"/>
-      <c r="FK12" s="193"/>
-      <c r="FL12" s="193"/>
-      <c r="FM12" s="193"/>
-      <c r="FN12" s="193"/>
-      <c r="FO12" s="193"/>
-      <c r="FP12" s="193"/>
-      <c r="FQ12" s="193"/>
-      <c r="FR12" s="193"/>
-      <c r="FS12" s="193"/>
-      <c r="FT12" s="193"/>
-      <c r="FU12" s="193"/>
-      <c r="FV12" s="193"/>
-      <c r="FW12" s="193"/>
-      <c r="FX12" s="193"/>
-      <c r="FY12" s="193"/>
-      <c r="FZ12" s="193"/>
-      <c r="GA12" s="193"/>
-      <c r="GB12" s="192" t="s">
+      <c r="BM12" s="160"/>
+      <c r="BN12" s="160"/>
+      <c r="BO12" s="160"/>
+      <c r="BP12" s="160"/>
+      <c r="BQ12" s="160"/>
+      <c r="BR12" s="160"/>
+      <c r="BS12" s="160"/>
+      <c r="BT12" s="160"/>
+      <c r="BU12" s="160"/>
+      <c r="BV12" s="160"/>
+      <c r="BW12" s="160"/>
+      <c r="BX12" s="160"/>
+      <c r="BY12" s="160"/>
+      <c r="BZ12" s="160"/>
+      <c r="CA12" s="160"/>
+      <c r="CB12" s="160"/>
+      <c r="CC12" s="160"/>
+      <c r="CD12" s="160"/>
+      <c r="CE12" s="160"/>
+      <c r="CF12" s="160"/>
+      <c r="CG12" s="160"/>
+      <c r="CH12" s="160"/>
+      <c r="CI12" s="160"/>
+      <c r="CJ12" s="160"/>
+      <c r="CK12" s="160"/>
+      <c r="CL12" s="160"/>
+      <c r="CM12" s="160"/>
+      <c r="CN12" s="160"/>
+      <c r="CO12" s="160"/>
+      <c r="CP12" s="160"/>
+      <c r="CQ12" s="160"/>
+      <c r="CR12" s="160"/>
+      <c r="CS12" s="160"/>
+      <c r="CT12" s="160"/>
+      <c r="CU12" s="160"/>
+      <c r="CV12" s="160"/>
+      <c r="CW12" s="160"/>
+      <c r="CX12" s="160"/>
+      <c r="CY12" s="160"/>
+      <c r="CZ12" s="160"/>
+      <c r="DA12" s="160"/>
+      <c r="DB12" s="160"/>
+      <c r="DC12" s="160"/>
+      <c r="DD12" s="160"/>
+      <c r="DE12" s="160"/>
+      <c r="DF12" s="160"/>
+      <c r="DG12" s="160"/>
+      <c r="DH12" s="160"/>
+      <c r="DI12" s="160"/>
+      <c r="DJ12" s="160"/>
+      <c r="DK12" s="160"/>
+      <c r="DL12" s="160"/>
+      <c r="DM12" s="160"/>
+      <c r="DN12" s="160"/>
+      <c r="DO12" s="160"/>
+      <c r="DP12" s="160"/>
+      <c r="DQ12" s="160"/>
+      <c r="DR12" s="160"/>
+      <c r="DS12" s="160"/>
+      <c r="DT12" s="160"/>
+      <c r="DU12" s="160"/>
+      <c r="DV12" s="160"/>
+      <c r="DW12" s="160"/>
+      <c r="DX12" s="160"/>
+      <c r="DY12" s="160"/>
+      <c r="DZ12" s="160"/>
+      <c r="EA12" s="160"/>
+      <c r="EB12" s="160"/>
+      <c r="EC12" s="160"/>
+      <c r="ED12" s="160"/>
+      <c r="EE12" s="160"/>
+      <c r="EF12" s="160"/>
+      <c r="EG12" s="160"/>
+      <c r="EH12" s="160"/>
+      <c r="EI12" s="160"/>
+      <c r="EJ12" s="160"/>
+      <c r="EK12" s="160"/>
+      <c r="EL12" s="160"/>
+      <c r="EM12" s="160"/>
+      <c r="EN12" s="160"/>
+      <c r="EO12" s="160"/>
+      <c r="EP12" s="160"/>
+      <c r="EQ12" s="160"/>
+      <c r="ER12" s="160"/>
+      <c r="ES12" s="160"/>
+      <c r="ET12" s="160"/>
+      <c r="EU12" s="160"/>
+      <c r="EV12" s="160"/>
+      <c r="EW12" s="160"/>
+      <c r="EX12" s="160"/>
+      <c r="EY12" s="160"/>
+      <c r="EZ12" s="160"/>
+      <c r="FA12" s="160"/>
+      <c r="FB12" s="160"/>
+      <c r="FC12" s="160"/>
+      <c r="FD12" s="160"/>
+      <c r="FE12" s="160"/>
+      <c r="FF12" s="160"/>
+      <c r="FG12" s="160"/>
+      <c r="FH12" s="160"/>
+      <c r="FI12" s="160"/>
+      <c r="FJ12" s="160"/>
+      <c r="FK12" s="160"/>
+      <c r="FL12" s="160"/>
+      <c r="FM12" s="160"/>
+      <c r="FN12" s="160"/>
+      <c r="FO12" s="160"/>
+      <c r="FP12" s="160"/>
+      <c r="FQ12" s="160"/>
+      <c r="FR12" s="160"/>
+      <c r="FS12" s="160"/>
+      <c r="FT12" s="160"/>
+      <c r="FU12" s="160"/>
+      <c r="FV12" s="160"/>
+      <c r="FW12" s="160"/>
+      <c r="FX12" s="160"/>
+      <c r="FY12" s="160"/>
+      <c r="FZ12" s="160"/>
+      <c r="GA12" s="160"/>
+      <c r="GB12" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="GC12" s="193"/>
-      <c r="GD12" s="193"/>
-      <c r="GE12" s="193"/>
-      <c r="GF12" s="193"/>
-      <c r="GG12" s="193"/>
-      <c r="GH12" s="193"/>
-      <c r="GI12" s="193"/>
-      <c r="GJ12" s="193"/>
-      <c r="GK12" s="193"/>
-      <c r="GL12" s="193"/>
-      <c r="GM12" s="193"/>
-      <c r="GN12" s="193"/>
-      <c r="GO12" s="193"/>
-      <c r="GP12" s="193"/>
-      <c r="GQ12" s="193"/>
-      <c r="GR12" s="193"/>
-      <c r="GS12" s="193"/>
-      <c r="GT12" s="193"/>
-      <c r="GU12" s="193"/>
-      <c r="GV12" s="193"/>
-      <c r="GW12" s="193"/>
-      <c r="GX12" s="193"/>
-      <c r="GY12" s="193"/>
-      <c r="GZ12" s="193"/>
-      <c r="HA12" s="193"/>
-      <c r="HB12" s="193"/>
-      <c r="HC12" s="193"/>
-      <c r="HD12" s="193"/>
-      <c r="HE12" s="193"/>
-      <c r="HF12" s="193"/>
-      <c r="HG12" s="193"/>
-      <c r="HH12" s="193"/>
-      <c r="HI12" s="193"/>
-      <c r="HJ12" s="193"/>
-      <c r="HK12" s="193"/>
-      <c r="HL12" s="193"/>
-      <c r="HM12" s="193"/>
-      <c r="HN12" s="193"/>
-      <c r="HO12" s="193"/>
-      <c r="HP12" s="193"/>
-      <c r="HQ12" s="193"/>
-      <c r="HR12" s="193"/>
-      <c r="HS12" s="193"/>
-      <c r="HT12" s="193"/>
-      <c r="HU12" s="193"/>
-      <c r="HV12" s="193"/>
-      <c r="HW12" s="193"/>
-      <c r="HX12" s="193"/>
-      <c r="HY12" s="193"/>
-      <c r="HZ12" s="193"/>
-      <c r="IA12" s="193"/>
-      <c r="IB12" s="193"/>
-      <c r="IC12" s="193"/>
-      <c r="ID12" s="193"/>
-      <c r="IE12" s="193"/>
-      <c r="IF12" s="193"/>
-      <c r="IG12" s="193"/>
-      <c r="IH12" s="193"/>
-      <c r="II12" s="193"/>
-      <c r="IJ12" s="193"/>
-      <c r="IK12" s="193"/>
-      <c r="IL12" s="193"/>
-      <c r="IM12" s="193"/>
-      <c r="IN12" s="193"/>
-      <c r="IO12" s="193"/>
-      <c r="IP12" s="193"/>
-      <c r="IQ12" s="193"/>
-      <c r="IR12" s="193"/>
-      <c r="IS12" s="193"/>
-      <c r="IT12" s="193"/>
-      <c r="IU12" s="193"/>
-      <c r="IV12" s="193"/>
-      <c r="IW12" s="193"/>
-      <c r="IX12" s="193"/>
-      <c r="IY12" s="193"/>
-      <c r="IZ12" s="193"/>
-      <c r="JA12" s="193"/>
-      <c r="JB12" s="193"/>
-      <c r="JC12" s="193"/>
-      <c r="JD12" s="193"/>
-      <c r="JE12" s="193"/>
-      <c r="JF12" s="193"/>
-      <c r="JG12" s="193"/>
-      <c r="JH12" s="193"/>
-      <c r="JI12" s="193"/>
-      <c r="JJ12" s="193"/>
-      <c r="JK12" s="193"/>
-      <c r="JL12" s="193"/>
-      <c r="JM12" s="193"/>
-      <c r="JN12" s="193"/>
-      <c r="JO12" s="193"/>
-      <c r="JP12" s="193"/>
-      <c r="JQ12" s="193"/>
-      <c r="JR12" s="193"/>
-      <c r="JS12" s="193"/>
-      <c r="JT12" s="193"/>
-      <c r="JU12" s="193"/>
-      <c r="JV12" s="193"/>
-      <c r="JW12" s="193"/>
-      <c r="JX12" s="193"/>
-      <c r="JY12" s="193"/>
-      <c r="JZ12" s="193"/>
-      <c r="KA12" s="193"/>
-      <c r="KB12" s="193"/>
-      <c r="KC12" s="193"/>
-      <c r="KD12" s="193"/>
-      <c r="KE12" s="193"/>
-      <c r="KF12" s="193"/>
-      <c r="KG12" s="193"/>
-      <c r="KH12" s="193"/>
-      <c r="KI12" s="193"/>
-      <c r="KJ12" s="193"/>
-      <c r="KK12" s="193"/>
-      <c r="KL12" s="193"/>
-      <c r="KM12" s="193"/>
-      <c r="KN12" s="193"/>
-      <c r="KO12" s="193"/>
-      <c r="KP12" s="193"/>
-      <c r="KQ12" s="194"/>
-      <c r="KR12" s="152" t="s">
+      <c r="GC12" s="160"/>
+      <c r="GD12" s="160"/>
+      <c r="GE12" s="160"/>
+      <c r="GF12" s="160"/>
+      <c r="GG12" s="160"/>
+      <c r="GH12" s="160"/>
+      <c r="GI12" s="160"/>
+      <c r="GJ12" s="160"/>
+      <c r="GK12" s="160"/>
+      <c r="GL12" s="160"/>
+      <c r="GM12" s="160"/>
+      <c r="GN12" s="160"/>
+      <c r="GO12" s="160"/>
+      <c r="GP12" s="160"/>
+      <c r="GQ12" s="160"/>
+      <c r="GR12" s="160"/>
+      <c r="GS12" s="160"/>
+      <c r="GT12" s="160"/>
+      <c r="GU12" s="160"/>
+      <c r="GV12" s="160"/>
+      <c r="GW12" s="160"/>
+      <c r="GX12" s="160"/>
+      <c r="GY12" s="160"/>
+      <c r="GZ12" s="160"/>
+      <c r="HA12" s="160"/>
+      <c r="HB12" s="160"/>
+      <c r="HC12" s="160"/>
+      <c r="HD12" s="160"/>
+      <c r="HE12" s="160"/>
+      <c r="HF12" s="160"/>
+      <c r="HG12" s="160"/>
+      <c r="HH12" s="160"/>
+      <c r="HI12" s="160"/>
+      <c r="HJ12" s="160"/>
+      <c r="HK12" s="160"/>
+      <c r="HL12" s="160"/>
+      <c r="HM12" s="160"/>
+      <c r="HN12" s="160"/>
+      <c r="HO12" s="160"/>
+      <c r="HP12" s="160"/>
+      <c r="HQ12" s="160"/>
+      <c r="HR12" s="160"/>
+      <c r="HS12" s="160"/>
+      <c r="HT12" s="160"/>
+      <c r="HU12" s="160"/>
+      <c r="HV12" s="160"/>
+      <c r="HW12" s="160"/>
+      <c r="HX12" s="160"/>
+      <c r="HY12" s="160"/>
+      <c r="HZ12" s="160"/>
+      <c r="IA12" s="160"/>
+      <c r="IB12" s="160"/>
+      <c r="IC12" s="160"/>
+      <c r="ID12" s="160"/>
+      <c r="IE12" s="160"/>
+      <c r="IF12" s="160"/>
+      <c r="IG12" s="160"/>
+      <c r="IH12" s="160"/>
+      <c r="II12" s="160"/>
+      <c r="IJ12" s="160"/>
+      <c r="IK12" s="160"/>
+      <c r="IL12" s="160"/>
+      <c r="IM12" s="160"/>
+      <c r="IN12" s="160"/>
+      <c r="IO12" s="160"/>
+      <c r="IP12" s="160"/>
+      <c r="IQ12" s="160"/>
+      <c r="IR12" s="160"/>
+      <c r="IS12" s="160"/>
+      <c r="IT12" s="160"/>
+      <c r="IU12" s="160"/>
+      <c r="IV12" s="160"/>
+      <c r="IW12" s="160"/>
+      <c r="IX12" s="160"/>
+      <c r="IY12" s="160"/>
+      <c r="IZ12" s="160"/>
+      <c r="JA12" s="160"/>
+      <c r="JB12" s="160"/>
+      <c r="JC12" s="160"/>
+      <c r="JD12" s="160"/>
+      <c r="JE12" s="160"/>
+      <c r="JF12" s="160"/>
+      <c r="JG12" s="160"/>
+      <c r="JH12" s="160"/>
+      <c r="JI12" s="160"/>
+      <c r="JJ12" s="160"/>
+      <c r="JK12" s="160"/>
+      <c r="JL12" s="160"/>
+      <c r="JM12" s="160"/>
+      <c r="JN12" s="160"/>
+      <c r="JO12" s="160"/>
+      <c r="JP12" s="160"/>
+      <c r="JQ12" s="160"/>
+      <c r="JR12" s="160"/>
+      <c r="JS12" s="160"/>
+      <c r="JT12" s="160"/>
+      <c r="JU12" s="160"/>
+      <c r="JV12" s="160"/>
+      <c r="JW12" s="160"/>
+      <c r="JX12" s="160"/>
+      <c r="JY12" s="160"/>
+      <c r="JZ12" s="160"/>
+      <c r="KA12" s="160"/>
+      <c r="KB12" s="160"/>
+      <c r="KC12" s="160"/>
+      <c r="KD12" s="160"/>
+      <c r="KE12" s="160"/>
+      <c r="KF12" s="160"/>
+      <c r="KG12" s="160"/>
+      <c r="KH12" s="160"/>
+      <c r="KI12" s="160"/>
+      <c r="KJ12" s="160"/>
+      <c r="KK12" s="160"/>
+      <c r="KL12" s="160"/>
+      <c r="KM12" s="160"/>
+      <c r="KN12" s="160"/>
+      <c r="KO12" s="160"/>
+      <c r="KP12" s="160"/>
+      <c r="KQ12" s="161"/>
+      <c r="KR12" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="KS12" s="153"/>
-      <c r="KT12" s="192" t="s">
+      <c r="KS12" s="227"/>
+      <c r="KT12" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="KU12" s="193"/>
-      <c r="KV12" s="193"/>
-      <c r="KW12" s="193"/>
-      <c r="KX12" s="193"/>
-      <c r="KY12" s="193"/>
-      <c r="KZ12" s="193"/>
-      <c r="LA12" s="193"/>
-      <c r="LB12" s="193"/>
-      <c r="LC12" s="193"/>
-      <c r="LD12" s="193"/>
-      <c r="LE12" s="193"/>
-      <c r="LF12" s="193"/>
-      <c r="LG12" s="193"/>
-      <c r="LH12" s="193"/>
-      <c r="LI12" s="193"/>
-      <c r="LJ12" s="193"/>
-      <c r="LK12" s="193"/>
-      <c r="LL12" s="193"/>
-      <c r="LM12" s="193"/>
-      <c r="LN12" s="193"/>
-      <c r="LO12" s="193"/>
-      <c r="LP12" s="193"/>
-      <c r="LQ12" s="193"/>
-      <c r="LR12" s="193"/>
-      <c r="LS12" s="193"/>
-      <c r="LT12" s="193"/>
-      <c r="LU12" s="193"/>
-      <c r="LV12" s="193"/>
-      <c r="LW12" s="193"/>
-      <c r="LX12" s="193"/>
-      <c r="LY12" s="193"/>
-      <c r="LZ12" s="193"/>
-      <c r="MA12" s="193"/>
-      <c r="MB12" s="193"/>
-      <c r="MC12" s="193"/>
-      <c r="MD12" s="193"/>
-      <c r="ME12" s="193"/>
-      <c r="MF12" s="193"/>
-      <c r="MG12" s="193"/>
-      <c r="MH12" s="193"/>
-      <c r="MI12" s="193"/>
-      <c r="MJ12" s="193"/>
-      <c r="MK12" s="193"/>
-      <c r="ML12" s="193"/>
-      <c r="MM12" s="193"/>
-      <c r="MN12" s="193"/>
-      <c r="MO12" s="193"/>
-      <c r="MP12" s="193"/>
-      <c r="MQ12" s="193"/>
-      <c r="MR12" s="193"/>
-      <c r="MS12" s="193"/>
-      <c r="MT12" s="193"/>
-      <c r="MU12" s="193"/>
-      <c r="MV12" s="193"/>
-      <c r="MW12" s="193"/>
-      <c r="MX12" s="193"/>
-      <c r="MY12" s="193"/>
-      <c r="MZ12" s="193"/>
-      <c r="NA12" s="193"/>
-      <c r="NB12" s="193"/>
-      <c r="NC12" s="193"/>
-      <c r="ND12" s="193"/>
-      <c r="NE12" s="193"/>
-      <c r="NF12" s="193"/>
-      <c r="NG12" s="193"/>
-      <c r="NH12" s="193"/>
-      <c r="NI12" s="193"/>
-      <c r="NJ12" s="193"/>
-      <c r="NK12" s="193"/>
-      <c r="NL12" s="193"/>
-      <c r="NM12" s="193"/>
-      <c r="NN12" s="193"/>
-      <c r="NO12" s="193"/>
-      <c r="NP12" s="193"/>
-      <c r="NQ12" s="193"/>
-      <c r="NR12" s="193"/>
-      <c r="NS12" s="193"/>
-      <c r="NT12" s="193"/>
-      <c r="NU12" s="193"/>
-      <c r="NV12" s="193"/>
-      <c r="NW12" s="193"/>
-      <c r="NX12" s="193"/>
-      <c r="NY12" s="193"/>
-      <c r="NZ12" s="193"/>
-      <c r="OA12" s="193"/>
-      <c r="OB12" s="193"/>
-      <c r="OC12" s="193"/>
-      <c r="OD12" s="193"/>
-      <c r="OE12" s="193"/>
-      <c r="OF12" s="193"/>
-      <c r="OG12" s="193"/>
-      <c r="OH12" s="193"/>
-      <c r="OI12" s="193"/>
-      <c r="OJ12" s="193"/>
-      <c r="OK12" s="193"/>
-      <c r="OL12" s="193"/>
-      <c r="OM12" s="193"/>
-      <c r="ON12" s="193"/>
-      <c r="OO12" s="193"/>
-      <c r="OP12" s="193"/>
-      <c r="OQ12" s="193"/>
-      <c r="OR12" s="193"/>
-      <c r="OS12" s="193"/>
-      <c r="OT12" s="193"/>
-      <c r="OU12" s="193"/>
-      <c r="OV12" s="193"/>
-      <c r="OW12" s="193"/>
-      <c r="OX12" s="193"/>
-      <c r="OY12" s="193"/>
-      <c r="OZ12" s="193"/>
-      <c r="PA12" s="193"/>
-      <c r="PB12" s="193"/>
-      <c r="PC12" s="193"/>
-      <c r="PD12" s="193"/>
-      <c r="PE12" s="193"/>
-      <c r="PF12" s="193"/>
-      <c r="PG12" s="193"/>
-      <c r="PH12" s="193"/>
-      <c r="PI12" s="194"/>
-      <c r="PJ12" s="192" t="s">
+      <c r="KU12" s="160"/>
+      <c r="KV12" s="160"/>
+      <c r="KW12" s="160"/>
+      <c r="KX12" s="160"/>
+      <c r="KY12" s="160"/>
+      <c r="KZ12" s="160"/>
+      <c r="LA12" s="160"/>
+      <c r="LB12" s="160"/>
+      <c r="LC12" s="160"/>
+      <c r="LD12" s="160"/>
+      <c r="LE12" s="160"/>
+      <c r="LF12" s="160"/>
+      <c r="LG12" s="160"/>
+      <c r="LH12" s="160"/>
+      <c r="LI12" s="160"/>
+      <c r="LJ12" s="160"/>
+      <c r="LK12" s="160"/>
+      <c r="LL12" s="160"/>
+      <c r="LM12" s="160"/>
+      <c r="LN12" s="160"/>
+      <c r="LO12" s="160"/>
+      <c r="LP12" s="160"/>
+      <c r="LQ12" s="160"/>
+      <c r="LR12" s="160"/>
+      <c r="LS12" s="160"/>
+      <c r="LT12" s="160"/>
+      <c r="LU12" s="160"/>
+      <c r="LV12" s="160"/>
+      <c r="LW12" s="160"/>
+      <c r="LX12" s="160"/>
+      <c r="LY12" s="160"/>
+      <c r="LZ12" s="160"/>
+      <c r="MA12" s="160"/>
+      <c r="MB12" s="160"/>
+      <c r="MC12" s="160"/>
+      <c r="MD12" s="160"/>
+      <c r="ME12" s="160"/>
+      <c r="MF12" s="160"/>
+      <c r="MG12" s="160"/>
+      <c r="MH12" s="160"/>
+      <c r="MI12" s="160"/>
+      <c r="MJ12" s="160"/>
+      <c r="MK12" s="160"/>
+      <c r="ML12" s="160"/>
+      <c r="MM12" s="160"/>
+      <c r="MN12" s="160"/>
+      <c r="MO12" s="160"/>
+      <c r="MP12" s="160"/>
+      <c r="MQ12" s="160"/>
+      <c r="MR12" s="160"/>
+      <c r="MS12" s="160"/>
+      <c r="MT12" s="160"/>
+      <c r="MU12" s="160"/>
+      <c r="MV12" s="160"/>
+      <c r="MW12" s="160"/>
+      <c r="MX12" s="160"/>
+      <c r="MY12" s="160"/>
+      <c r="MZ12" s="160"/>
+      <c r="NA12" s="160"/>
+      <c r="NB12" s="160"/>
+      <c r="NC12" s="160"/>
+      <c r="ND12" s="160"/>
+      <c r="NE12" s="160"/>
+      <c r="NF12" s="160"/>
+      <c r="NG12" s="160"/>
+      <c r="NH12" s="160"/>
+      <c r="NI12" s="160"/>
+      <c r="NJ12" s="160"/>
+      <c r="NK12" s="160"/>
+      <c r="NL12" s="160"/>
+      <c r="NM12" s="160"/>
+      <c r="NN12" s="160"/>
+      <c r="NO12" s="160"/>
+      <c r="NP12" s="160"/>
+      <c r="NQ12" s="160"/>
+      <c r="NR12" s="160"/>
+      <c r="NS12" s="160"/>
+      <c r="NT12" s="160"/>
+      <c r="NU12" s="160"/>
+      <c r="NV12" s="160"/>
+      <c r="NW12" s="160"/>
+      <c r="NX12" s="160"/>
+      <c r="NY12" s="160"/>
+      <c r="NZ12" s="160"/>
+      <c r="OA12" s="160"/>
+      <c r="OB12" s="160"/>
+      <c r="OC12" s="160"/>
+      <c r="OD12" s="160"/>
+      <c r="OE12" s="160"/>
+      <c r="OF12" s="160"/>
+      <c r="OG12" s="160"/>
+      <c r="OH12" s="160"/>
+      <c r="OI12" s="160"/>
+      <c r="OJ12" s="160"/>
+      <c r="OK12" s="160"/>
+      <c r="OL12" s="160"/>
+      <c r="OM12" s="160"/>
+      <c r="ON12" s="160"/>
+      <c r="OO12" s="160"/>
+      <c r="OP12" s="160"/>
+      <c r="OQ12" s="160"/>
+      <c r="OR12" s="160"/>
+      <c r="OS12" s="160"/>
+      <c r="OT12" s="160"/>
+      <c r="OU12" s="160"/>
+      <c r="OV12" s="160"/>
+      <c r="OW12" s="160"/>
+      <c r="OX12" s="160"/>
+      <c r="OY12" s="160"/>
+      <c r="OZ12" s="160"/>
+      <c r="PA12" s="160"/>
+      <c r="PB12" s="160"/>
+      <c r="PC12" s="160"/>
+      <c r="PD12" s="160"/>
+      <c r="PE12" s="160"/>
+      <c r="PF12" s="160"/>
+      <c r="PG12" s="160"/>
+      <c r="PH12" s="160"/>
+      <c r="PI12" s="161"/>
+      <c r="PJ12" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="PK12" s="193"/>
-      <c r="PL12" s="193"/>
-      <c r="PM12" s="193"/>
-      <c r="PN12" s="193"/>
-      <c r="PO12" s="193"/>
-      <c r="PP12" s="193"/>
-      <c r="PQ12" s="193"/>
-      <c r="PR12" s="193"/>
-      <c r="PS12" s="193"/>
-      <c r="PT12" s="193"/>
-      <c r="PU12" s="193"/>
-      <c r="PV12" s="193"/>
-      <c r="PW12" s="193"/>
-      <c r="PX12" s="193"/>
-      <c r="PY12" s="193"/>
-      <c r="PZ12" s="193"/>
-      <c r="QA12" s="193"/>
-      <c r="QB12" s="193"/>
-      <c r="QC12" s="193"/>
-      <c r="QD12" s="193"/>
-      <c r="QE12" s="193"/>
-      <c r="QF12" s="193"/>
-      <c r="QG12" s="193"/>
-      <c r="QH12" s="193"/>
-      <c r="QI12" s="193"/>
-      <c r="QJ12" s="193"/>
-      <c r="QK12" s="193"/>
-      <c r="QL12" s="193"/>
-      <c r="QM12" s="193"/>
-      <c r="QN12" s="193"/>
-      <c r="QO12" s="193"/>
-      <c r="QP12" s="193"/>
-      <c r="QQ12" s="193"/>
-      <c r="QR12" s="193"/>
-      <c r="QS12" s="193"/>
-      <c r="QT12" s="193"/>
-      <c r="QU12" s="193"/>
-      <c r="QV12" s="193"/>
-      <c r="QW12" s="193"/>
-      <c r="QX12" s="193"/>
-      <c r="QY12" s="193"/>
-      <c r="QZ12" s="193"/>
-      <c r="RA12" s="193"/>
-      <c r="RB12" s="193"/>
-      <c r="RC12" s="193"/>
-      <c r="RD12" s="193"/>
-      <c r="RE12" s="193"/>
-      <c r="RF12" s="193"/>
-      <c r="RG12" s="193"/>
-      <c r="RH12" s="193"/>
-      <c r="RI12" s="193"/>
-      <c r="RJ12" s="193"/>
-      <c r="RK12" s="193"/>
-      <c r="RL12" s="193"/>
-      <c r="RM12" s="193"/>
-      <c r="RN12" s="193"/>
-      <c r="RO12" s="193"/>
-      <c r="RP12" s="193"/>
-      <c r="RQ12" s="193"/>
-      <c r="RR12" s="193"/>
-      <c r="RS12" s="193"/>
-      <c r="RT12" s="193"/>
-      <c r="RU12" s="193"/>
-      <c r="RV12" s="193"/>
-      <c r="RW12" s="193"/>
-      <c r="RX12" s="193"/>
-      <c r="RY12" s="193"/>
-      <c r="RZ12" s="193"/>
-      <c r="SA12" s="193"/>
-      <c r="SB12" s="193"/>
-      <c r="SC12" s="193"/>
-      <c r="SD12" s="193"/>
-      <c r="SE12" s="193"/>
-      <c r="SF12" s="193"/>
-      <c r="SG12" s="193"/>
-      <c r="SH12" s="193"/>
-      <c r="SI12" s="193"/>
-      <c r="SJ12" s="193"/>
-      <c r="SK12" s="193"/>
-      <c r="SL12" s="193"/>
-      <c r="SM12" s="193"/>
-      <c r="SN12" s="193"/>
-      <c r="SO12" s="193"/>
-      <c r="SP12" s="193"/>
-      <c r="SQ12" s="193"/>
-      <c r="SR12" s="193"/>
-      <c r="SS12" s="193"/>
-      <c r="ST12" s="193"/>
-      <c r="SU12" s="193"/>
-      <c r="SV12" s="193"/>
-      <c r="SW12" s="193"/>
-      <c r="SX12" s="193"/>
-      <c r="SY12" s="193"/>
-      <c r="SZ12" s="193"/>
-      <c r="TA12" s="193"/>
-      <c r="TB12" s="193"/>
-      <c r="TC12" s="193"/>
-      <c r="TD12" s="193"/>
-      <c r="TE12" s="193"/>
-      <c r="TF12" s="193"/>
-      <c r="TG12" s="193"/>
-      <c r="TH12" s="193"/>
-      <c r="TI12" s="193"/>
-      <c r="TJ12" s="193"/>
-      <c r="TK12" s="193"/>
-      <c r="TL12" s="193"/>
-      <c r="TM12" s="193"/>
-      <c r="TN12" s="193"/>
-      <c r="TO12" s="193"/>
-      <c r="TP12" s="193"/>
-      <c r="TQ12" s="193"/>
-      <c r="TR12" s="193"/>
-      <c r="TS12" s="193"/>
-      <c r="TT12" s="193"/>
-      <c r="TU12" s="193"/>
-      <c r="TV12" s="193"/>
-      <c r="TW12" s="193"/>
-      <c r="TX12" s="193"/>
-      <c r="TY12" s="194"/>
-      <c r="TZ12" s="192" t="s">
+      <c r="PK12" s="160"/>
+      <c r="PL12" s="160"/>
+      <c r="PM12" s="160"/>
+      <c r="PN12" s="160"/>
+      <c r="PO12" s="160"/>
+      <c r="PP12" s="160"/>
+      <c r="PQ12" s="160"/>
+      <c r="PR12" s="160"/>
+      <c r="PS12" s="160"/>
+      <c r="PT12" s="160"/>
+      <c r="PU12" s="160"/>
+      <c r="PV12" s="160"/>
+      <c r="PW12" s="160"/>
+      <c r="PX12" s="160"/>
+      <c r="PY12" s="160"/>
+      <c r="PZ12" s="160"/>
+      <c r="QA12" s="160"/>
+      <c r="QB12" s="160"/>
+      <c r="QC12" s="160"/>
+      <c r="QD12" s="160"/>
+      <c r="QE12" s="160"/>
+      <c r="QF12" s="160"/>
+      <c r="QG12" s="160"/>
+      <c r="QH12" s="160"/>
+      <c r="QI12" s="160"/>
+      <c r="QJ12" s="160"/>
+      <c r="QK12" s="160"/>
+      <c r="QL12" s="160"/>
+      <c r="QM12" s="160"/>
+      <c r="QN12" s="160"/>
+      <c r="QO12" s="160"/>
+      <c r="QP12" s="160"/>
+      <c r="QQ12" s="160"/>
+      <c r="QR12" s="160"/>
+      <c r="QS12" s="160"/>
+      <c r="QT12" s="160"/>
+      <c r="QU12" s="160"/>
+      <c r="QV12" s="160"/>
+      <c r="QW12" s="160"/>
+      <c r="QX12" s="160"/>
+      <c r="QY12" s="160"/>
+      <c r="QZ12" s="160"/>
+      <c r="RA12" s="160"/>
+      <c r="RB12" s="160"/>
+      <c r="RC12" s="160"/>
+      <c r="RD12" s="160"/>
+      <c r="RE12" s="160"/>
+      <c r="RF12" s="160"/>
+      <c r="RG12" s="160"/>
+      <c r="RH12" s="160"/>
+      <c r="RI12" s="160"/>
+      <c r="RJ12" s="160"/>
+      <c r="RK12" s="160"/>
+      <c r="RL12" s="160"/>
+      <c r="RM12" s="160"/>
+      <c r="RN12" s="160"/>
+      <c r="RO12" s="160"/>
+      <c r="RP12" s="160"/>
+      <c r="RQ12" s="160"/>
+      <c r="RR12" s="160"/>
+      <c r="RS12" s="160"/>
+      <c r="RT12" s="160"/>
+      <c r="RU12" s="160"/>
+      <c r="RV12" s="160"/>
+      <c r="RW12" s="160"/>
+      <c r="RX12" s="160"/>
+      <c r="RY12" s="160"/>
+      <c r="RZ12" s="160"/>
+      <c r="SA12" s="160"/>
+      <c r="SB12" s="160"/>
+      <c r="SC12" s="160"/>
+      <c r="SD12" s="160"/>
+      <c r="SE12" s="160"/>
+      <c r="SF12" s="160"/>
+      <c r="SG12" s="160"/>
+      <c r="SH12" s="160"/>
+      <c r="SI12" s="160"/>
+      <c r="SJ12" s="160"/>
+      <c r="SK12" s="160"/>
+      <c r="SL12" s="160"/>
+      <c r="SM12" s="160"/>
+      <c r="SN12" s="160"/>
+      <c r="SO12" s="160"/>
+      <c r="SP12" s="160"/>
+      <c r="SQ12" s="160"/>
+      <c r="SR12" s="160"/>
+      <c r="SS12" s="160"/>
+      <c r="ST12" s="160"/>
+      <c r="SU12" s="160"/>
+      <c r="SV12" s="160"/>
+      <c r="SW12" s="160"/>
+      <c r="SX12" s="160"/>
+      <c r="SY12" s="160"/>
+      <c r="SZ12" s="160"/>
+      <c r="TA12" s="160"/>
+      <c r="TB12" s="160"/>
+      <c r="TC12" s="160"/>
+      <c r="TD12" s="160"/>
+      <c r="TE12" s="160"/>
+      <c r="TF12" s="160"/>
+      <c r="TG12" s="160"/>
+      <c r="TH12" s="160"/>
+      <c r="TI12" s="160"/>
+      <c r="TJ12" s="160"/>
+      <c r="TK12" s="160"/>
+      <c r="TL12" s="160"/>
+      <c r="TM12" s="160"/>
+      <c r="TN12" s="160"/>
+      <c r="TO12" s="160"/>
+      <c r="TP12" s="160"/>
+      <c r="TQ12" s="160"/>
+      <c r="TR12" s="160"/>
+      <c r="TS12" s="160"/>
+      <c r="TT12" s="160"/>
+      <c r="TU12" s="160"/>
+      <c r="TV12" s="160"/>
+      <c r="TW12" s="160"/>
+      <c r="TX12" s="160"/>
+      <c r="TY12" s="161"/>
+      <c r="TZ12" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="UA12" s="193"/>
-      <c r="UB12" s="193"/>
-      <c r="UC12" s="193"/>
-      <c r="UD12" s="193"/>
-      <c r="UE12" s="193"/>
-      <c r="UF12" s="193"/>
-      <c r="UG12" s="193"/>
-      <c r="UH12" s="193"/>
-      <c r="UI12" s="193"/>
-      <c r="UJ12" s="193"/>
-      <c r="UK12" s="193"/>
-      <c r="UL12" s="193"/>
-      <c r="UM12" s="193"/>
-      <c r="UN12" s="193"/>
-      <c r="UO12" s="193"/>
-      <c r="UP12" s="193"/>
-      <c r="UQ12" s="193"/>
-      <c r="UR12" s="193"/>
-      <c r="US12" s="193"/>
-      <c r="UT12" s="193"/>
-      <c r="UU12" s="193"/>
-      <c r="UV12" s="193"/>
-      <c r="UW12" s="193"/>
-      <c r="UX12" s="193"/>
-      <c r="UY12" s="193"/>
-      <c r="UZ12" s="193"/>
-      <c r="VA12" s="193"/>
-      <c r="VB12" s="193"/>
-      <c r="VC12" s="194"/>
+      <c r="UA12" s="160"/>
+      <c r="UB12" s="160"/>
+      <c r="UC12" s="160"/>
+      <c r="UD12" s="160"/>
+      <c r="UE12" s="160"/>
+      <c r="UF12" s="160"/>
+      <c r="UG12" s="160"/>
+      <c r="UH12" s="160"/>
+      <c r="UI12" s="160"/>
+      <c r="UJ12" s="160"/>
+      <c r="UK12" s="160"/>
+      <c r="UL12" s="160"/>
+      <c r="UM12" s="160"/>
+      <c r="UN12" s="160"/>
+      <c r="UO12" s="160"/>
+      <c r="UP12" s="160"/>
+      <c r="UQ12" s="160"/>
+      <c r="UR12" s="160"/>
+      <c r="US12" s="160"/>
+      <c r="UT12" s="160"/>
+      <c r="UU12" s="160"/>
+      <c r="UV12" s="160"/>
+      <c r="UW12" s="160"/>
+      <c r="UX12" s="160"/>
+      <c r="UY12" s="160"/>
+      <c r="UZ12" s="160"/>
+      <c r="VA12" s="160"/>
+      <c r="VB12" s="160"/>
+      <c r="VC12" s="161"/>
     </row>
     <row r="13" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
-      <c r="B13" s="154" t="s">
+      <c r="B13" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="190"/>
-      <c r="D13" s="195" t="s">
+      <c r="C13" s="180"/>
+      <c r="D13" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
-      <c r="P13" s="196"/>
-      <c r="Q13" s="196"/>
-      <c r="R13" s="196"/>
-      <c r="S13" s="196"/>
-      <c r="T13" s="196"/>
-      <c r="U13" s="196"/>
-      <c r="V13" s="196"/>
-      <c r="W13" s="196"/>
-      <c r="X13" s="196"/>
-      <c r="Y13" s="196"/>
-      <c r="Z13" s="196"/>
-      <c r="AA13" s="196"/>
-      <c r="AB13" s="196"/>
-      <c r="AC13" s="196"/>
-      <c r="AD13" s="196"/>
-      <c r="AE13" s="196"/>
-      <c r="AF13" s="196"/>
-      <c r="AG13" s="197"/>
-      <c r="AH13" s="198" t="s">
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="182"/>
+      <c r="H13" s="182"/>
+      <c r="I13" s="182"/>
+      <c r="J13" s="182"/>
+      <c r="K13" s="182"/>
+      <c r="L13" s="182"/>
+      <c r="M13" s="182"/>
+      <c r="N13" s="182"/>
+      <c r="O13" s="182"/>
+      <c r="P13" s="182"/>
+      <c r="Q13" s="182"/>
+      <c r="R13" s="182"/>
+      <c r="S13" s="182"/>
+      <c r="T13" s="182"/>
+      <c r="U13" s="182"/>
+      <c r="V13" s="182"/>
+      <c r="W13" s="182"/>
+      <c r="X13" s="182"/>
+      <c r="Y13" s="182"/>
+      <c r="Z13" s="182"/>
+      <c r="AA13" s="182"/>
+      <c r="AB13" s="182"/>
+      <c r="AC13" s="182"/>
+      <c r="AD13" s="182"/>
+      <c r="AE13" s="182"/>
+      <c r="AF13" s="182"/>
+      <c r="AG13" s="183"/>
+      <c r="AH13" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="AI13" s="196"/>
-      <c r="AJ13" s="196"/>
-      <c r="AK13" s="196"/>
-      <c r="AL13" s="196"/>
-      <c r="AM13" s="196"/>
-      <c r="AN13" s="196"/>
-      <c r="AO13" s="196"/>
-      <c r="AP13" s="196"/>
-      <c r="AQ13" s="196"/>
-      <c r="AR13" s="196"/>
-      <c r="AS13" s="196"/>
-      <c r="AT13" s="196"/>
-      <c r="AU13" s="196"/>
-      <c r="AV13" s="196"/>
-      <c r="AW13" s="196"/>
-      <c r="AX13" s="196"/>
-      <c r="AY13" s="196"/>
-      <c r="AZ13" s="196"/>
-      <c r="BA13" s="196"/>
-      <c r="BB13" s="196"/>
-      <c r="BC13" s="196"/>
-      <c r="BD13" s="196"/>
-      <c r="BE13" s="196"/>
-      <c r="BF13" s="196"/>
-      <c r="BG13" s="196"/>
-      <c r="BH13" s="196"/>
-      <c r="BI13" s="196"/>
-      <c r="BJ13" s="196"/>
-      <c r="BK13" s="199"/>
-      <c r="BL13" s="195" t="s">
+      <c r="AI13" s="182"/>
+      <c r="AJ13" s="182"/>
+      <c r="AK13" s="182"/>
+      <c r="AL13" s="182"/>
+      <c r="AM13" s="182"/>
+      <c r="AN13" s="182"/>
+      <c r="AO13" s="182"/>
+      <c r="AP13" s="182"/>
+      <c r="AQ13" s="182"/>
+      <c r="AR13" s="182"/>
+      <c r="AS13" s="182"/>
+      <c r="AT13" s="182"/>
+      <c r="AU13" s="182"/>
+      <c r="AV13" s="182"/>
+      <c r="AW13" s="182"/>
+      <c r="AX13" s="182"/>
+      <c r="AY13" s="182"/>
+      <c r="AZ13" s="182"/>
+      <c r="BA13" s="182"/>
+      <c r="BB13" s="182"/>
+      <c r="BC13" s="182"/>
+      <c r="BD13" s="182"/>
+      <c r="BE13" s="182"/>
+      <c r="BF13" s="182"/>
+      <c r="BG13" s="182"/>
+      <c r="BH13" s="182"/>
+      <c r="BI13" s="182"/>
+      <c r="BJ13" s="182"/>
+      <c r="BK13" s="185"/>
+      <c r="BL13" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="BM13" s="196"/>
-      <c r="BN13" s="196"/>
-      <c r="BO13" s="196"/>
-      <c r="BP13" s="196"/>
-      <c r="BQ13" s="196"/>
-      <c r="BR13" s="196"/>
-      <c r="BS13" s="196"/>
-      <c r="BT13" s="196"/>
-      <c r="BU13" s="196"/>
-      <c r="BV13" s="196"/>
-      <c r="BW13" s="196"/>
-      <c r="BX13" s="196"/>
-      <c r="BY13" s="196"/>
-      <c r="BZ13" s="196"/>
-      <c r="CA13" s="196"/>
-      <c r="CB13" s="196"/>
-      <c r="CC13" s="196"/>
-      <c r="CD13" s="196"/>
-      <c r="CE13" s="196"/>
-      <c r="CF13" s="196"/>
-      <c r="CG13" s="196"/>
-      <c r="CH13" s="196"/>
-      <c r="CI13" s="196"/>
-      <c r="CJ13" s="196"/>
-      <c r="CK13" s="196"/>
-      <c r="CL13" s="196"/>
-      <c r="CM13" s="196"/>
-      <c r="CN13" s="196"/>
-      <c r="CO13" s="197"/>
-      <c r="CP13" s="198" t="s">
+      <c r="BM13" s="182"/>
+      <c r="BN13" s="182"/>
+      <c r="BO13" s="182"/>
+      <c r="BP13" s="182"/>
+      <c r="BQ13" s="182"/>
+      <c r="BR13" s="182"/>
+      <c r="BS13" s="182"/>
+      <c r="BT13" s="182"/>
+      <c r="BU13" s="182"/>
+      <c r="BV13" s="182"/>
+      <c r="BW13" s="182"/>
+      <c r="BX13" s="182"/>
+      <c r="BY13" s="182"/>
+      <c r="BZ13" s="182"/>
+      <c r="CA13" s="182"/>
+      <c r="CB13" s="182"/>
+      <c r="CC13" s="182"/>
+      <c r="CD13" s="182"/>
+      <c r="CE13" s="182"/>
+      <c r="CF13" s="182"/>
+      <c r="CG13" s="182"/>
+      <c r="CH13" s="182"/>
+      <c r="CI13" s="182"/>
+      <c r="CJ13" s="182"/>
+      <c r="CK13" s="182"/>
+      <c r="CL13" s="182"/>
+      <c r="CM13" s="182"/>
+      <c r="CN13" s="182"/>
+      <c r="CO13" s="183"/>
+      <c r="CP13" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="CQ13" s="196"/>
-      <c r="CR13" s="196"/>
-      <c r="CS13" s="196"/>
-      <c r="CT13" s="196"/>
-      <c r="CU13" s="196"/>
-      <c r="CV13" s="196"/>
-      <c r="CW13" s="196"/>
-      <c r="CX13" s="196"/>
-      <c r="CY13" s="196"/>
-      <c r="CZ13" s="196"/>
-      <c r="DA13" s="196"/>
-      <c r="DB13" s="196"/>
-      <c r="DC13" s="196"/>
-      <c r="DD13" s="196"/>
-      <c r="DE13" s="196"/>
-      <c r="DF13" s="196"/>
-      <c r="DG13" s="196"/>
-      <c r="DH13" s="196"/>
-      <c r="DI13" s="196"/>
-      <c r="DJ13" s="196"/>
-      <c r="DK13" s="196"/>
-      <c r="DL13" s="196"/>
-      <c r="DM13" s="196"/>
-      <c r="DN13" s="196"/>
-      <c r="DO13" s="196"/>
-      <c r="DP13" s="196"/>
-      <c r="DQ13" s="196"/>
-      <c r="DR13" s="196"/>
-      <c r="DS13" s="197"/>
-      <c r="DT13" s="198" t="s">
+      <c r="CQ13" s="182"/>
+      <c r="CR13" s="182"/>
+      <c r="CS13" s="182"/>
+      <c r="CT13" s="182"/>
+      <c r="CU13" s="182"/>
+      <c r="CV13" s="182"/>
+      <c r="CW13" s="182"/>
+      <c r="CX13" s="182"/>
+      <c r="CY13" s="182"/>
+      <c r="CZ13" s="182"/>
+      <c r="DA13" s="182"/>
+      <c r="DB13" s="182"/>
+      <c r="DC13" s="182"/>
+      <c r="DD13" s="182"/>
+      <c r="DE13" s="182"/>
+      <c r="DF13" s="182"/>
+      <c r="DG13" s="182"/>
+      <c r="DH13" s="182"/>
+      <c r="DI13" s="182"/>
+      <c r="DJ13" s="182"/>
+      <c r="DK13" s="182"/>
+      <c r="DL13" s="182"/>
+      <c r="DM13" s="182"/>
+      <c r="DN13" s="182"/>
+      <c r="DO13" s="182"/>
+      <c r="DP13" s="182"/>
+      <c r="DQ13" s="182"/>
+      <c r="DR13" s="182"/>
+      <c r="DS13" s="183"/>
+      <c r="DT13" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="DU13" s="196"/>
-      <c r="DV13" s="196"/>
-      <c r="DW13" s="196"/>
-      <c r="DX13" s="196"/>
-      <c r="DY13" s="196"/>
-      <c r="DZ13" s="196"/>
-      <c r="EA13" s="196"/>
-      <c r="EB13" s="196"/>
-      <c r="EC13" s="196"/>
-      <c r="ED13" s="196"/>
-      <c r="EE13" s="196"/>
-      <c r="EF13" s="196"/>
-      <c r="EG13" s="196"/>
-      <c r="EH13" s="196"/>
-      <c r="EI13" s="196"/>
-      <c r="EJ13" s="196"/>
-      <c r="EK13" s="196"/>
-      <c r="EL13" s="196"/>
-      <c r="EM13" s="196"/>
-      <c r="EN13" s="196"/>
-      <c r="EO13" s="196"/>
-      <c r="EP13" s="196"/>
-      <c r="EQ13" s="196"/>
-      <c r="ER13" s="196"/>
-      <c r="ES13" s="196"/>
-      <c r="ET13" s="196"/>
-      <c r="EU13" s="196"/>
-      <c r="EV13" s="196"/>
-      <c r="EW13" s="197"/>
-      <c r="EX13" s="198" t="s">
+      <c r="DU13" s="182"/>
+      <c r="DV13" s="182"/>
+      <c r="DW13" s="182"/>
+      <c r="DX13" s="182"/>
+      <c r="DY13" s="182"/>
+      <c r="DZ13" s="182"/>
+      <c r="EA13" s="182"/>
+      <c r="EB13" s="182"/>
+      <c r="EC13" s="182"/>
+      <c r="ED13" s="182"/>
+      <c r="EE13" s="182"/>
+      <c r="EF13" s="182"/>
+      <c r="EG13" s="182"/>
+      <c r="EH13" s="182"/>
+      <c r="EI13" s="182"/>
+      <c r="EJ13" s="182"/>
+      <c r="EK13" s="182"/>
+      <c r="EL13" s="182"/>
+      <c r="EM13" s="182"/>
+      <c r="EN13" s="182"/>
+      <c r="EO13" s="182"/>
+      <c r="EP13" s="182"/>
+      <c r="EQ13" s="182"/>
+      <c r="ER13" s="182"/>
+      <c r="ES13" s="182"/>
+      <c r="ET13" s="182"/>
+      <c r="EU13" s="182"/>
+      <c r="EV13" s="182"/>
+      <c r="EW13" s="183"/>
+      <c r="EX13" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="EY13" s="196"/>
-      <c r="EZ13" s="196"/>
-      <c r="FA13" s="196"/>
-      <c r="FB13" s="196"/>
-      <c r="FC13" s="196"/>
-      <c r="FD13" s="196"/>
-      <c r="FE13" s="196"/>
-      <c r="FF13" s="196"/>
-      <c r="FG13" s="196"/>
-      <c r="FH13" s="196"/>
-      <c r="FI13" s="196"/>
-      <c r="FJ13" s="196"/>
-      <c r="FK13" s="196"/>
-      <c r="FL13" s="196"/>
-      <c r="FM13" s="196"/>
-      <c r="FN13" s="196"/>
-      <c r="FO13" s="196"/>
-      <c r="FP13" s="196"/>
-      <c r="FQ13" s="196"/>
-      <c r="FR13" s="196"/>
-      <c r="FS13" s="196"/>
-      <c r="FT13" s="196"/>
-      <c r="FU13" s="196"/>
-      <c r="FV13" s="196"/>
-      <c r="FW13" s="196"/>
-      <c r="FX13" s="196"/>
-      <c r="FY13" s="196"/>
-      <c r="FZ13" s="196"/>
-      <c r="GA13" s="199"/>
-      <c r="GB13" s="195" t="s">
+      <c r="EY13" s="182"/>
+      <c r="EZ13" s="182"/>
+      <c r="FA13" s="182"/>
+      <c r="FB13" s="182"/>
+      <c r="FC13" s="182"/>
+      <c r="FD13" s="182"/>
+      <c r="FE13" s="182"/>
+      <c r="FF13" s="182"/>
+      <c r="FG13" s="182"/>
+      <c r="FH13" s="182"/>
+      <c r="FI13" s="182"/>
+      <c r="FJ13" s="182"/>
+      <c r="FK13" s="182"/>
+      <c r="FL13" s="182"/>
+      <c r="FM13" s="182"/>
+      <c r="FN13" s="182"/>
+      <c r="FO13" s="182"/>
+      <c r="FP13" s="182"/>
+      <c r="FQ13" s="182"/>
+      <c r="FR13" s="182"/>
+      <c r="FS13" s="182"/>
+      <c r="FT13" s="182"/>
+      <c r="FU13" s="182"/>
+      <c r="FV13" s="182"/>
+      <c r="FW13" s="182"/>
+      <c r="FX13" s="182"/>
+      <c r="FY13" s="182"/>
+      <c r="FZ13" s="182"/>
+      <c r="GA13" s="185"/>
+      <c r="GB13" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="GC13" s="196"/>
-      <c r="GD13" s="196"/>
-      <c r="GE13" s="196"/>
-      <c r="GF13" s="196"/>
-      <c r="GG13" s="196"/>
-      <c r="GH13" s="196"/>
-      <c r="GI13" s="196"/>
-      <c r="GJ13" s="196"/>
-      <c r="GK13" s="196"/>
-      <c r="GL13" s="196"/>
-      <c r="GM13" s="196"/>
-      <c r="GN13" s="196"/>
-      <c r="GO13" s="196"/>
-      <c r="GP13" s="196"/>
-      <c r="GQ13" s="196"/>
-      <c r="GR13" s="196"/>
-      <c r="GS13" s="196"/>
-      <c r="GT13" s="196"/>
-      <c r="GU13" s="196"/>
-      <c r="GV13" s="196"/>
-      <c r="GW13" s="196"/>
-      <c r="GX13" s="196"/>
-      <c r="GY13" s="196"/>
-      <c r="GZ13" s="196"/>
-      <c r="HA13" s="196"/>
-      <c r="HB13" s="196"/>
-      <c r="HC13" s="196"/>
-      <c r="HD13" s="196"/>
-      <c r="HE13" s="197"/>
-      <c r="HF13" s="198" t="s">
+      <c r="GC13" s="182"/>
+      <c r="GD13" s="182"/>
+      <c r="GE13" s="182"/>
+      <c r="GF13" s="182"/>
+      <c r="GG13" s="182"/>
+      <c r="GH13" s="182"/>
+      <c r="GI13" s="182"/>
+      <c r="GJ13" s="182"/>
+      <c r="GK13" s="182"/>
+      <c r="GL13" s="182"/>
+      <c r="GM13" s="182"/>
+      <c r="GN13" s="182"/>
+      <c r="GO13" s="182"/>
+      <c r="GP13" s="182"/>
+      <c r="GQ13" s="182"/>
+      <c r="GR13" s="182"/>
+      <c r="GS13" s="182"/>
+      <c r="GT13" s="182"/>
+      <c r="GU13" s="182"/>
+      <c r="GV13" s="182"/>
+      <c r="GW13" s="182"/>
+      <c r="GX13" s="182"/>
+      <c r="GY13" s="182"/>
+      <c r="GZ13" s="182"/>
+      <c r="HA13" s="182"/>
+      <c r="HB13" s="182"/>
+      <c r="HC13" s="182"/>
+      <c r="HD13" s="182"/>
+      <c r="HE13" s="183"/>
+      <c r="HF13" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="HG13" s="196"/>
-      <c r="HH13" s="196"/>
-      <c r="HI13" s="196"/>
-      <c r="HJ13" s="196"/>
-      <c r="HK13" s="196"/>
-      <c r="HL13" s="196"/>
-      <c r="HM13" s="196"/>
-      <c r="HN13" s="196"/>
-      <c r="HO13" s="196"/>
-      <c r="HP13" s="196"/>
-      <c r="HQ13" s="196"/>
-      <c r="HR13" s="196"/>
-      <c r="HS13" s="196"/>
-      <c r="HT13" s="196"/>
-      <c r="HU13" s="196"/>
-      <c r="HV13" s="196"/>
-      <c r="HW13" s="196"/>
-      <c r="HX13" s="196"/>
-      <c r="HY13" s="196"/>
-      <c r="HZ13" s="196"/>
-      <c r="IA13" s="196"/>
-      <c r="IB13" s="196"/>
-      <c r="IC13" s="196"/>
-      <c r="ID13" s="196"/>
-      <c r="IE13" s="196"/>
-      <c r="IF13" s="196"/>
-      <c r="IG13" s="196"/>
-      <c r="IH13" s="196"/>
-      <c r="II13" s="197"/>
-      <c r="IJ13" s="198" t="s">
+      <c r="HG13" s="182"/>
+      <c r="HH13" s="182"/>
+      <c r="HI13" s="182"/>
+      <c r="HJ13" s="182"/>
+      <c r="HK13" s="182"/>
+      <c r="HL13" s="182"/>
+      <c r="HM13" s="182"/>
+      <c r="HN13" s="182"/>
+      <c r="HO13" s="182"/>
+      <c r="HP13" s="182"/>
+      <c r="HQ13" s="182"/>
+      <c r="HR13" s="182"/>
+      <c r="HS13" s="182"/>
+      <c r="HT13" s="182"/>
+      <c r="HU13" s="182"/>
+      <c r="HV13" s="182"/>
+      <c r="HW13" s="182"/>
+      <c r="HX13" s="182"/>
+      <c r="HY13" s="182"/>
+      <c r="HZ13" s="182"/>
+      <c r="IA13" s="182"/>
+      <c r="IB13" s="182"/>
+      <c r="IC13" s="182"/>
+      <c r="ID13" s="182"/>
+      <c r="IE13" s="182"/>
+      <c r="IF13" s="182"/>
+      <c r="IG13" s="182"/>
+      <c r="IH13" s="182"/>
+      <c r="II13" s="183"/>
+      <c r="IJ13" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="IK13" s="196"/>
-      <c r="IL13" s="196"/>
-      <c r="IM13" s="196"/>
-      <c r="IN13" s="196"/>
-      <c r="IO13" s="196"/>
-      <c r="IP13" s="196"/>
-      <c r="IQ13" s="196"/>
-      <c r="IR13" s="196"/>
-      <c r="IS13" s="196"/>
-      <c r="IT13" s="196"/>
-      <c r="IU13" s="196"/>
-      <c r="IV13" s="196"/>
-      <c r="IW13" s="196"/>
-      <c r="IX13" s="196"/>
-      <c r="IY13" s="196"/>
-      <c r="IZ13" s="196"/>
-      <c r="JA13" s="196"/>
-      <c r="JB13" s="196"/>
-      <c r="JC13" s="196"/>
-      <c r="JD13" s="196"/>
-      <c r="JE13" s="196"/>
-      <c r="JF13" s="196"/>
-      <c r="JG13" s="196"/>
-      <c r="JH13" s="196"/>
-      <c r="JI13" s="196"/>
-      <c r="JJ13" s="196"/>
-      <c r="JK13" s="196"/>
-      <c r="JL13" s="196"/>
-      <c r="JM13" s="197"/>
-      <c r="JN13" s="198" t="s">
+      <c r="IK13" s="182"/>
+      <c r="IL13" s="182"/>
+      <c r="IM13" s="182"/>
+      <c r="IN13" s="182"/>
+      <c r="IO13" s="182"/>
+      <c r="IP13" s="182"/>
+      <c r="IQ13" s="182"/>
+      <c r="IR13" s="182"/>
+      <c r="IS13" s="182"/>
+      <c r="IT13" s="182"/>
+      <c r="IU13" s="182"/>
+      <c r="IV13" s="182"/>
+      <c r="IW13" s="182"/>
+      <c r="IX13" s="182"/>
+      <c r="IY13" s="182"/>
+      <c r="IZ13" s="182"/>
+      <c r="JA13" s="182"/>
+      <c r="JB13" s="182"/>
+      <c r="JC13" s="182"/>
+      <c r="JD13" s="182"/>
+      <c r="JE13" s="182"/>
+      <c r="JF13" s="182"/>
+      <c r="JG13" s="182"/>
+      <c r="JH13" s="182"/>
+      <c r="JI13" s="182"/>
+      <c r="JJ13" s="182"/>
+      <c r="JK13" s="182"/>
+      <c r="JL13" s="182"/>
+      <c r="JM13" s="183"/>
+      <c r="JN13" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="JO13" s="196"/>
-      <c r="JP13" s="196"/>
-      <c r="JQ13" s="196"/>
-      <c r="JR13" s="196"/>
-      <c r="JS13" s="196"/>
-      <c r="JT13" s="196"/>
-      <c r="JU13" s="196"/>
-      <c r="JV13" s="196"/>
-      <c r="JW13" s="196"/>
-      <c r="JX13" s="196"/>
-      <c r="JY13" s="196"/>
-      <c r="JZ13" s="196"/>
-      <c r="KA13" s="196"/>
-      <c r="KB13" s="196"/>
-      <c r="KC13" s="196"/>
-      <c r="KD13" s="196"/>
-      <c r="KE13" s="196"/>
-      <c r="KF13" s="196"/>
-      <c r="KG13" s="196"/>
-      <c r="KH13" s="196"/>
-      <c r="KI13" s="196"/>
-      <c r="KJ13" s="196"/>
-      <c r="KK13" s="196"/>
-      <c r="KL13" s="196"/>
-      <c r="KM13" s="196"/>
-      <c r="KN13" s="196"/>
-      <c r="KO13" s="196"/>
-      <c r="KP13" s="196"/>
-      <c r="KQ13" s="200"/>
-      <c r="KR13" s="154" t="s">
+      <c r="JO13" s="182"/>
+      <c r="JP13" s="182"/>
+      <c r="JQ13" s="182"/>
+      <c r="JR13" s="182"/>
+      <c r="JS13" s="182"/>
+      <c r="JT13" s="182"/>
+      <c r="JU13" s="182"/>
+      <c r="JV13" s="182"/>
+      <c r="JW13" s="182"/>
+      <c r="JX13" s="182"/>
+      <c r="JY13" s="182"/>
+      <c r="JZ13" s="182"/>
+      <c r="KA13" s="182"/>
+      <c r="KB13" s="182"/>
+      <c r="KC13" s="182"/>
+      <c r="KD13" s="182"/>
+      <c r="KE13" s="182"/>
+      <c r="KF13" s="182"/>
+      <c r="KG13" s="182"/>
+      <c r="KH13" s="182"/>
+      <c r="KI13" s="182"/>
+      <c r="KJ13" s="182"/>
+      <c r="KK13" s="182"/>
+      <c r="KL13" s="182"/>
+      <c r="KM13" s="182"/>
+      <c r="KN13" s="182"/>
+      <c r="KO13" s="182"/>
+      <c r="KP13" s="182"/>
+      <c r="KQ13" s="186"/>
+      <c r="KR13" s="179" t="s">
         <v>17</v>
       </c>
-      <c r="KS13" s="155"/>
-      <c r="KT13" s="195" t="s">
+      <c r="KS13" s="228"/>
+      <c r="KT13" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="KU13" s="196"/>
-      <c r="KV13" s="196"/>
-      <c r="KW13" s="196"/>
-      <c r="KX13" s="196"/>
-      <c r="KY13" s="196"/>
-      <c r="KZ13" s="196"/>
-      <c r="LA13" s="196"/>
-      <c r="LB13" s="196"/>
-      <c r="LC13" s="196"/>
-      <c r="LD13" s="196"/>
-      <c r="LE13" s="196"/>
-      <c r="LF13" s="196"/>
-      <c r="LG13" s="196"/>
-      <c r="LH13" s="196"/>
-      <c r="LI13" s="196"/>
-      <c r="LJ13" s="196"/>
-      <c r="LK13" s="196"/>
-      <c r="LL13" s="196"/>
-      <c r="LM13" s="196"/>
-      <c r="LN13" s="196"/>
-      <c r="LO13" s="196"/>
-      <c r="LP13" s="196"/>
-      <c r="LQ13" s="196"/>
-      <c r="LR13" s="196"/>
-      <c r="LS13" s="196"/>
-      <c r="LT13" s="196"/>
-      <c r="LU13" s="196"/>
-      <c r="LV13" s="196"/>
-      <c r="LW13" s="197"/>
-      <c r="LX13" s="198" t="s">
+      <c r="KU13" s="182"/>
+      <c r="KV13" s="182"/>
+      <c r="KW13" s="182"/>
+      <c r="KX13" s="182"/>
+      <c r="KY13" s="182"/>
+      <c r="KZ13" s="182"/>
+      <c r="LA13" s="182"/>
+      <c r="LB13" s="182"/>
+      <c r="LC13" s="182"/>
+      <c r="LD13" s="182"/>
+      <c r="LE13" s="182"/>
+      <c r="LF13" s="182"/>
+      <c r="LG13" s="182"/>
+      <c r="LH13" s="182"/>
+      <c r="LI13" s="182"/>
+      <c r="LJ13" s="182"/>
+      <c r="LK13" s="182"/>
+      <c r="LL13" s="182"/>
+      <c r="LM13" s="182"/>
+      <c r="LN13" s="182"/>
+      <c r="LO13" s="182"/>
+      <c r="LP13" s="182"/>
+      <c r="LQ13" s="182"/>
+      <c r="LR13" s="182"/>
+      <c r="LS13" s="182"/>
+      <c r="LT13" s="182"/>
+      <c r="LU13" s="182"/>
+      <c r="LV13" s="182"/>
+      <c r="LW13" s="183"/>
+      <c r="LX13" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="LY13" s="196"/>
-      <c r="LZ13" s="196"/>
-      <c r="MA13" s="196"/>
-      <c r="MB13" s="196"/>
-      <c r="MC13" s="196"/>
-      <c r="MD13" s="196"/>
-      <c r="ME13" s="196"/>
-      <c r="MF13" s="196"/>
-      <c r="MG13" s="196"/>
-      <c r="MH13" s="196"/>
-      <c r="MI13" s="196"/>
-      <c r="MJ13" s="196"/>
-      <c r="MK13" s="196"/>
-      <c r="ML13" s="196"/>
-      <c r="MM13" s="196"/>
-      <c r="MN13" s="196"/>
-      <c r="MO13" s="196"/>
-      <c r="MP13" s="196"/>
-      <c r="MQ13" s="196"/>
-      <c r="MR13" s="196"/>
-      <c r="MS13" s="196"/>
-      <c r="MT13" s="196"/>
-      <c r="MU13" s="196"/>
-      <c r="MV13" s="196"/>
-      <c r="MW13" s="196"/>
-      <c r="MX13" s="196"/>
-      <c r="MY13" s="196"/>
-      <c r="MZ13" s="196"/>
-      <c r="NA13" s="197"/>
-      <c r="NB13" s="198" t="s">
+      <c r="LY13" s="182"/>
+      <c r="LZ13" s="182"/>
+      <c r="MA13" s="182"/>
+      <c r="MB13" s="182"/>
+      <c r="MC13" s="182"/>
+      <c r="MD13" s="182"/>
+      <c r="ME13" s="182"/>
+      <c r="MF13" s="182"/>
+      <c r="MG13" s="182"/>
+      <c r="MH13" s="182"/>
+      <c r="MI13" s="182"/>
+      <c r="MJ13" s="182"/>
+      <c r="MK13" s="182"/>
+      <c r="ML13" s="182"/>
+      <c r="MM13" s="182"/>
+      <c r="MN13" s="182"/>
+      <c r="MO13" s="182"/>
+      <c r="MP13" s="182"/>
+      <c r="MQ13" s="182"/>
+      <c r="MR13" s="182"/>
+      <c r="MS13" s="182"/>
+      <c r="MT13" s="182"/>
+      <c r="MU13" s="182"/>
+      <c r="MV13" s="182"/>
+      <c r="MW13" s="182"/>
+      <c r="MX13" s="182"/>
+      <c r="MY13" s="182"/>
+      <c r="MZ13" s="182"/>
+      <c r="NA13" s="183"/>
+      <c r="NB13" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="NC13" s="196"/>
-      <c r="ND13" s="196"/>
-      <c r="NE13" s="196"/>
-      <c r="NF13" s="196"/>
-      <c r="NG13" s="196"/>
-      <c r="NH13" s="196"/>
-      <c r="NI13" s="196"/>
-      <c r="NJ13" s="196"/>
-      <c r="NK13" s="196"/>
-      <c r="NL13" s="196"/>
-      <c r="NM13" s="196"/>
-      <c r="NN13" s="196"/>
-      <c r="NO13" s="196"/>
-      <c r="NP13" s="196"/>
-      <c r="NQ13" s="196"/>
-      <c r="NR13" s="196"/>
-      <c r="NS13" s="196"/>
-      <c r="NT13" s="196"/>
-      <c r="NU13" s="196"/>
-      <c r="NV13" s="196"/>
-      <c r="NW13" s="196"/>
-      <c r="NX13" s="196"/>
-      <c r="NY13" s="196"/>
-      <c r="NZ13" s="196"/>
-      <c r="OA13" s="196"/>
-      <c r="OB13" s="196"/>
-      <c r="OC13" s="196"/>
-      <c r="OD13" s="196"/>
-      <c r="OE13" s="197"/>
-      <c r="OF13" s="198" t="s">
+      <c r="NC13" s="182"/>
+      <c r="ND13" s="182"/>
+      <c r="NE13" s="182"/>
+      <c r="NF13" s="182"/>
+      <c r="NG13" s="182"/>
+      <c r="NH13" s="182"/>
+      <c r="NI13" s="182"/>
+      <c r="NJ13" s="182"/>
+      <c r="NK13" s="182"/>
+      <c r="NL13" s="182"/>
+      <c r="NM13" s="182"/>
+      <c r="NN13" s="182"/>
+      <c r="NO13" s="182"/>
+      <c r="NP13" s="182"/>
+      <c r="NQ13" s="182"/>
+      <c r="NR13" s="182"/>
+      <c r="NS13" s="182"/>
+      <c r="NT13" s="182"/>
+      <c r="NU13" s="182"/>
+      <c r="NV13" s="182"/>
+      <c r="NW13" s="182"/>
+      <c r="NX13" s="182"/>
+      <c r="NY13" s="182"/>
+      <c r="NZ13" s="182"/>
+      <c r="OA13" s="182"/>
+      <c r="OB13" s="182"/>
+      <c r="OC13" s="182"/>
+      <c r="OD13" s="182"/>
+      <c r="OE13" s="183"/>
+      <c r="OF13" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="OG13" s="196"/>
-      <c r="OH13" s="196"/>
-      <c r="OI13" s="196"/>
-      <c r="OJ13" s="196"/>
-      <c r="OK13" s="196"/>
-      <c r="OL13" s="196"/>
-      <c r="OM13" s="196"/>
-      <c r="ON13" s="196"/>
-      <c r="OO13" s="196"/>
-      <c r="OP13" s="196"/>
-      <c r="OQ13" s="196"/>
-      <c r="OR13" s="196"/>
-      <c r="OS13" s="196"/>
-      <c r="OT13" s="196"/>
-      <c r="OU13" s="196"/>
-      <c r="OV13" s="196"/>
-      <c r="OW13" s="196"/>
-      <c r="OX13" s="196"/>
-      <c r="OY13" s="196"/>
-      <c r="OZ13" s="196"/>
-      <c r="PA13" s="196"/>
-      <c r="PB13" s="196"/>
-      <c r="PC13" s="196"/>
-      <c r="PD13" s="196"/>
-      <c r="PE13" s="196"/>
-      <c r="PF13" s="196"/>
-      <c r="PG13" s="196"/>
-      <c r="PH13" s="196"/>
-      <c r="PI13" s="200"/>
-      <c r="PJ13" s="195" t="s">
+      <c r="OG13" s="182"/>
+      <c r="OH13" s="182"/>
+      <c r="OI13" s="182"/>
+      <c r="OJ13" s="182"/>
+      <c r="OK13" s="182"/>
+      <c r="OL13" s="182"/>
+      <c r="OM13" s="182"/>
+      <c r="ON13" s="182"/>
+      <c r="OO13" s="182"/>
+      <c r="OP13" s="182"/>
+      <c r="OQ13" s="182"/>
+      <c r="OR13" s="182"/>
+      <c r="OS13" s="182"/>
+      <c r="OT13" s="182"/>
+      <c r="OU13" s="182"/>
+      <c r="OV13" s="182"/>
+      <c r="OW13" s="182"/>
+      <c r="OX13" s="182"/>
+      <c r="OY13" s="182"/>
+      <c r="OZ13" s="182"/>
+      <c r="PA13" s="182"/>
+      <c r="PB13" s="182"/>
+      <c r="PC13" s="182"/>
+      <c r="PD13" s="182"/>
+      <c r="PE13" s="182"/>
+      <c r="PF13" s="182"/>
+      <c r="PG13" s="182"/>
+      <c r="PH13" s="182"/>
+      <c r="PI13" s="186"/>
+      <c r="PJ13" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="PK13" s="196"/>
-      <c r="PL13" s="196"/>
-      <c r="PM13" s="196"/>
-      <c r="PN13" s="196"/>
-      <c r="PO13" s="196"/>
-      <c r="PP13" s="196"/>
-      <c r="PQ13" s="196"/>
-      <c r="PR13" s="196"/>
-      <c r="PS13" s="196"/>
-      <c r="PT13" s="196"/>
-      <c r="PU13" s="196"/>
-      <c r="PV13" s="196"/>
-      <c r="PW13" s="196"/>
-      <c r="PX13" s="196"/>
-      <c r="PY13" s="196"/>
-      <c r="PZ13" s="196"/>
-      <c r="QA13" s="196"/>
-      <c r="QB13" s="196"/>
-      <c r="QC13" s="196"/>
-      <c r="QD13" s="196"/>
-      <c r="QE13" s="196"/>
-      <c r="QF13" s="196"/>
-      <c r="QG13" s="196"/>
-      <c r="QH13" s="196"/>
-      <c r="QI13" s="196"/>
-      <c r="QJ13" s="196"/>
-      <c r="QK13" s="196"/>
-      <c r="QL13" s="196"/>
-      <c r="QM13" s="197"/>
-      <c r="QN13" s="198" t="s">
+      <c r="PK13" s="182"/>
+      <c r="PL13" s="182"/>
+      <c r="PM13" s="182"/>
+      <c r="PN13" s="182"/>
+      <c r="PO13" s="182"/>
+      <c r="PP13" s="182"/>
+      <c r="PQ13" s="182"/>
+      <c r="PR13" s="182"/>
+      <c r="PS13" s="182"/>
+      <c r="PT13" s="182"/>
+      <c r="PU13" s="182"/>
+      <c r="PV13" s="182"/>
+      <c r="PW13" s="182"/>
+      <c r="PX13" s="182"/>
+      <c r="PY13" s="182"/>
+      <c r="PZ13" s="182"/>
+      <c r="QA13" s="182"/>
+      <c r="QB13" s="182"/>
+      <c r="QC13" s="182"/>
+      <c r="QD13" s="182"/>
+      <c r="QE13" s="182"/>
+      <c r="QF13" s="182"/>
+      <c r="QG13" s="182"/>
+      <c r="QH13" s="182"/>
+      <c r="QI13" s="182"/>
+      <c r="QJ13" s="182"/>
+      <c r="QK13" s="182"/>
+      <c r="QL13" s="182"/>
+      <c r="QM13" s="183"/>
+      <c r="QN13" s="184" t="s">
         <v>21</v>
       </c>
-      <c r="QO13" s="196"/>
-      <c r="QP13" s="196"/>
-      <c r="QQ13" s="196"/>
-      <c r="QR13" s="196"/>
-      <c r="QS13" s="196"/>
-      <c r="QT13" s="196"/>
-      <c r="QU13" s="196"/>
-      <c r="QV13" s="196"/>
-      <c r="QW13" s="196"/>
-      <c r="QX13" s="196"/>
-      <c r="QY13" s="196"/>
-      <c r="QZ13" s="196"/>
-      <c r="RA13" s="196"/>
-      <c r="RB13" s="196"/>
-      <c r="RC13" s="196"/>
-      <c r="RD13" s="196"/>
-      <c r="RE13" s="196"/>
-      <c r="RF13" s="196"/>
-      <c r="RG13" s="196"/>
-      <c r="RH13" s="196"/>
-      <c r="RI13" s="196"/>
-      <c r="RJ13" s="196"/>
-      <c r="RK13" s="196"/>
-      <c r="RL13" s="196"/>
-      <c r="RM13" s="196"/>
-      <c r="RN13" s="196"/>
-      <c r="RO13" s="196"/>
-      <c r="RP13" s="196"/>
-      <c r="RQ13" s="197"/>
-      <c r="RR13" s="198" t="s">
+      <c r="QO13" s="182"/>
+      <c r="QP13" s="182"/>
+      <c r="QQ13" s="182"/>
+      <c r="QR13" s="182"/>
+      <c r="QS13" s="182"/>
+      <c r="QT13" s="182"/>
+      <c r="QU13" s="182"/>
+      <c r="QV13" s="182"/>
+      <c r="QW13" s="182"/>
+      <c r="QX13" s="182"/>
+      <c r="QY13" s="182"/>
+      <c r="QZ13" s="182"/>
+      <c r="RA13" s="182"/>
+      <c r="RB13" s="182"/>
+      <c r="RC13" s="182"/>
+      <c r="RD13" s="182"/>
+      <c r="RE13" s="182"/>
+      <c r="RF13" s="182"/>
+      <c r="RG13" s="182"/>
+      <c r="RH13" s="182"/>
+      <c r="RI13" s="182"/>
+      <c r="RJ13" s="182"/>
+      <c r="RK13" s="182"/>
+      <c r="RL13" s="182"/>
+      <c r="RM13" s="182"/>
+      <c r="RN13" s="182"/>
+      <c r="RO13" s="182"/>
+      <c r="RP13" s="182"/>
+      <c r="RQ13" s="183"/>
+      <c r="RR13" s="184" t="s">
         <v>18</v>
       </c>
-      <c r="RS13" s="196"/>
-      <c r="RT13" s="196"/>
-      <c r="RU13" s="196"/>
-      <c r="RV13" s="196"/>
-      <c r="RW13" s="196"/>
-      <c r="RX13" s="196"/>
-      <c r="RY13" s="196"/>
-      <c r="RZ13" s="196"/>
-      <c r="SA13" s="196"/>
-      <c r="SB13" s="196"/>
-      <c r="SC13" s="196"/>
-      <c r="SD13" s="196"/>
-      <c r="SE13" s="196"/>
-      <c r="SF13" s="196"/>
-      <c r="SG13" s="196"/>
-      <c r="SH13" s="196"/>
-      <c r="SI13" s="196"/>
-      <c r="SJ13" s="196"/>
-      <c r="SK13" s="196"/>
-      <c r="SL13" s="196"/>
-      <c r="SM13" s="196"/>
-      <c r="SN13" s="196"/>
-      <c r="SO13" s="196"/>
-      <c r="SP13" s="196"/>
-      <c r="SQ13" s="196"/>
-      <c r="SR13" s="196"/>
-      <c r="SS13" s="196"/>
-      <c r="ST13" s="196"/>
-      <c r="SU13" s="197"/>
-      <c r="SV13" s="198" t="s">
+      <c r="RS13" s="182"/>
+      <c r="RT13" s="182"/>
+      <c r="RU13" s="182"/>
+      <c r="RV13" s="182"/>
+      <c r="RW13" s="182"/>
+      <c r="RX13" s="182"/>
+      <c r="RY13" s="182"/>
+      <c r="RZ13" s="182"/>
+      <c r="SA13" s="182"/>
+      <c r="SB13" s="182"/>
+      <c r="SC13" s="182"/>
+      <c r="SD13" s="182"/>
+      <c r="SE13" s="182"/>
+      <c r="SF13" s="182"/>
+      <c r="SG13" s="182"/>
+      <c r="SH13" s="182"/>
+      <c r="SI13" s="182"/>
+      <c r="SJ13" s="182"/>
+      <c r="SK13" s="182"/>
+      <c r="SL13" s="182"/>
+      <c r="SM13" s="182"/>
+      <c r="SN13" s="182"/>
+      <c r="SO13" s="182"/>
+      <c r="SP13" s="182"/>
+      <c r="SQ13" s="182"/>
+      <c r="SR13" s="182"/>
+      <c r="SS13" s="182"/>
+      <c r="ST13" s="182"/>
+      <c r="SU13" s="183"/>
+      <c r="SV13" s="184" t="s">
         <v>19</v>
       </c>
-      <c r="SW13" s="196"/>
-      <c r="SX13" s="196"/>
-      <c r="SY13" s="196"/>
-      <c r="SZ13" s="196"/>
-      <c r="TA13" s="196"/>
-      <c r="TB13" s="196"/>
-      <c r="TC13" s="196"/>
-      <c r="TD13" s="196"/>
-      <c r="TE13" s="196"/>
-      <c r="TF13" s="196"/>
-      <c r="TG13" s="196"/>
-      <c r="TH13" s="196"/>
-      <c r="TI13" s="196"/>
-      <c r="TJ13" s="196"/>
-      <c r="TK13" s="196"/>
-      <c r="TL13" s="196"/>
-      <c r="TM13" s="196"/>
-      <c r="TN13" s="196"/>
-      <c r="TO13" s="196"/>
-      <c r="TP13" s="196"/>
-      <c r="TQ13" s="196"/>
-      <c r="TR13" s="196"/>
-      <c r="TS13" s="196"/>
-      <c r="TT13" s="196"/>
-      <c r="TU13" s="196"/>
-      <c r="TV13" s="196"/>
-      <c r="TW13" s="196"/>
-      <c r="TX13" s="196"/>
-      <c r="TY13" s="200"/>
-      <c r="TZ13" s="195" t="s">
+      <c r="SW13" s="182"/>
+      <c r="SX13" s="182"/>
+      <c r="SY13" s="182"/>
+      <c r="SZ13" s="182"/>
+      <c r="TA13" s="182"/>
+      <c r="TB13" s="182"/>
+      <c r="TC13" s="182"/>
+      <c r="TD13" s="182"/>
+      <c r="TE13" s="182"/>
+      <c r="TF13" s="182"/>
+      <c r="TG13" s="182"/>
+      <c r="TH13" s="182"/>
+      <c r="TI13" s="182"/>
+      <c r="TJ13" s="182"/>
+      <c r="TK13" s="182"/>
+      <c r="TL13" s="182"/>
+      <c r="TM13" s="182"/>
+      <c r="TN13" s="182"/>
+      <c r="TO13" s="182"/>
+      <c r="TP13" s="182"/>
+      <c r="TQ13" s="182"/>
+      <c r="TR13" s="182"/>
+      <c r="TS13" s="182"/>
+      <c r="TT13" s="182"/>
+      <c r="TU13" s="182"/>
+      <c r="TV13" s="182"/>
+      <c r="TW13" s="182"/>
+      <c r="TX13" s="182"/>
+      <c r="TY13" s="186"/>
+      <c r="TZ13" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="UA13" s="196"/>
-      <c r="UB13" s="196"/>
-      <c r="UC13" s="196"/>
-      <c r="UD13" s="196"/>
-      <c r="UE13" s="196"/>
-      <c r="UF13" s="196"/>
-      <c r="UG13" s="196"/>
-      <c r="UH13" s="196"/>
-      <c r="UI13" s="196"/>
-      <c r="UJ13" s="196"/>
-      <c r="UK13" s="196"/>
-      <c r="UL13" s="196"/>
-      <c r="UM13" s="196"/>
-      <c r="UN13" s="196"/>
-      <c r="UO13" s="196"/>
-      <c r="UP13" s="196"/>
-      <c r="UQ13" s="196"/>
-      <c r="UR13" s="196"/>
-      <c r="US13" s="196"/>
-      <c r="UT13" s="196"/>
-      <c r="UU13" s="196"/>
-      <c r="UV13" s="196"/>
-      <c r="UW13" s="196"/>
-      <c r="UX13" s="196"/>
-      <c r="UY13" s="196"/>
-      <c r="UZ13" s="196"/>
-      <c r="VA13" s="196"/>
-      <c r="VB13" s="196"/>
-      <c r="VC13" s="200"/>
+      <c r="UA13" s="182"/>
+      <c r="UB13" s="182"/>
+      <c r="UC13" s="182"/>
+      <c r="UD13" s="182"/>
+      <c r="UE13" s="182"/>
+      <c r="UF13" s="182"/>
+      <c r="UG13" s="182"/>
+      <c r="UH13" s="182"/>
+      <c r="UI13" s="182"/>
+      <c r="UJ13" s="182"/>
+      <c r="UK13" s="182"/>
+      <c r="UL13" s="182"/>
+      <c r="UM13" s="182"/>
+      <c r="UN13" s="182"/>
+      <c r="UO13" s="182"/>
+      <c r="UP13" s="182"/>
+      <c r="UQ13" s="182"/>
+      <c r="UR13" s="182"/>
+      <c r="US13" s="182"/>
+      <c r="UT13" s="182"/>
+      <c r="UU13" s="182"/>
+      <c r="UV13" s="182"/>
+      <c r="UW13" s="182"/>
+      <c r="UX13" s="182"/>
+      <c r="UY13" s="182"/>
+      <c r="UZ13" s="182"/>
+      <c r="VA13" s="182"/>
+      <c r="VB13" s="182"/>
+      <c r="VC13" s="186"/>
     </row>
     <row r="14" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="154" t="s">
+      <c r="B14" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="190"/>
+      <c r="C14" s="180"/>
       <c r="D14" s="187">
         <v>45414</v>
       </c>
-      <c r="E14" s="185"/>
-      <c r="F14" s="185"/>
-      <c r="G14" s="185"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="185"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="185"/>
-      <c r="L14" s="185"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="185"/>
-      <c r="O14" s="185"/>
-      <c r="P14" s="185"/>
-      <c r="Q14" s="185"/>
-      <c r="R14" s="185"/>
-      <c r="S14" s="185"/>
-      <c r="T14" s="185"/>
-      <c r="U14" s="185"/>
-      <c r="V14" s="185"/>
-      <c r="W14" s="185"/>
-      <c r="X14" s="185"/>
-      <c r="Y14" s="185"/>
-      <c r="Z14" s="185"/>
-      <c r="AA14" s="185"/>
-      <c r="AB14" s="185"/>
-      <c r="AC14" s="185"/>
-      <c r="AD14" s="185"/>
-      <c r="AE14" s="185"/>
-      <c r="AF14" s="185"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="188"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="188"/>
+      <c r="K14" s="188"/>
+      <c r="L14" s="188"/>
+      <c r="M14" s="188"/>
+      <c r="N14" s="188"/>
+      <c r="O14" s="188"/>
+      <c r="P14" s="188"/>
+      <c r="Q14" s="188"/>
+      <c r="R14" s="188"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="188"/>
+      <c r="U14" s="188"/>
+      <c r="V14" s="188"/>
+      <c r="W14" s="188"/>
+      <c r="X14" s="188"/>
+      <c r="Y14" s="188"/>
+      <c r="Z14" s="188"/>
+      <c r="AA14" s="188"/>
+      <c r="AB14" s="188"/>
+      <c r="AC14" s="188"/>
+      <c r="AD14" s="188"/>
+      <c r="AE14" s="188"/>
+      <c r="AF14" s="188"/>
       <c r="AG14" s="189"/>
-      <c r="AH14" s="184">
+      <c r="AH14" s="190">
         <v>45415</v>
       </c>
-      <c r="AI14" s="185"/>
-      <c r="AJ14" s="185"/>
-      <c r="AK14" s="185"/>
-      <c r="AL14" s="185"/>
-      <c r="AM14" s="185"/>
-      <c r="AN14" s="185"/>
-      <c r="AO14" s="185"/>
-      <c r="AP14" s="185"/>
-      <c r="AQ14" s="185"/>
-      <c r="AR14" s="185"/>
-      <c r="AS14" s="185"/>
-      <c r="AT14" s="185"/>
-      <c r="AU14" s="185"/>
-      <c r="AV14" s="185"/>
-      <c r="AW14" s="185"/>
-      <c r="AX14" s="185"/>
-      <c r="AY14" s="185"/>
-      <c r="AZ14" s="185"/>
-      <c r="BA14" s="185"/>
-      <c r="BB14" s="185"/>
-      <c r="BC14" s="185"/>
-      <c r="BD14" s="185"/>
-      <c r="BE14" s="185"/>
-      <c r="BF14" s="185"/>
-      <c r="BG14" s="185"/>
-      <c r="BH14" s="185"/>
-      <c r="BI14" s="185"/>
-      <c r="BJ14" s="185"/>
+      <c r="AI14" s="188"/>
+      <c r="AJ14" s="188"/>
+      <c r="AK14" s="188"/>
+      <c r="AL14" s="188"/>
+      <c r="AM14" s="188"/>
+      <c r="AN14" s="188"/>
+      <c r="AO14" s="188"/>
+      <c r="AP14" s="188"/>
+      <c r="AQ14" s="188"/>
+      <c r="AR14" s="188"/>
+      <c r="AS14" s="188"/>
+      <c r="AT14" s="188"/>
+      <c r="AU14" s="188"/>
+      <c r="AV14" s="188"/>
+      <c r="AW14" s="188"/>
+      <c r="AX14" s="188"/>
+      <c r="AY14" s="188"/>
+      <c r="AZ14" s="188"/>
+      <c r="BA14" s="188"/>
+      <c r="BB14" s="188"/>
+      <c r="BC14" s="188"/>
+      <c r="BD14" s="188"/>
+      <c r="BE14" s="188"/>
+      <c r="BF14" s="188"/>
+      <c r="BG14" s="188"/>
+      <c r="BH14" s="188"/>
+      <c r="BI14" s="188"/>
+      <c r="BJ14" s="188"/>
       <c r="BK14" s="191"/>
       <c r="BL14" s="187">
         <v>45418</v>
       </c>
-      <c r="BM14" s="185"/>
-      <c r="BN14" s="185"/>
-      <c r="BO14" s="185"/>
-      <c r="BP14" s="185"/>
-      <c r="BQ14" s="185"/>
-      <c r="BR14" s="185"/>
-      <c r="BS14" s="185"/>
-      <c r="BT14" s="185"/>
-      <c r="BU14" s="185"/>
-      <c r="BV14" s="185"/>
-      <c r="BW14" s="185"/>
-      <c r="BX14" s="185"/>
-      <c r="BY14" s="185"/>
-      <c r="BZ14" s="185"/>
-      <c r="CA14" s="185"/>
-      <c r="CB14" s="185"/>
-      <c r="CC14" s="185"/>
-      <c r="CD14" s="185"/>
-      <c r="CE14" s="185"/>
-      <c r="CF14" s="185"/>
-      <c r="CG14" s="185"/>
-      <c r="CH14" s="185"/>
-      <c r="CI14" s="185"/>
-      <c r="CJ14" s="185"/>
-      <c r="CK14" s="185"/>
-      <c r="CL14" s="185"/>
-      <c r="CM14" s="185"/>
-      <c r="CN14" s="185"/>
+      <c r="BM14" s="188"/>
+      <c r="BN14" s="188"/>
+      <c r="BO14" s="188"/>
+      <c r="BP14" s="188"/>
+      <c r="BQ14" s="188"/>
+      <c r="BR14" s="188"/>
+      <c r="BS14" s="188"/>
+      <c r="BT14" s="188"/>
+      <c r="BU14" s="188"/>
+      <c r="BV14" s="188"/>
+      <c r="BW14" s="188"/>
+      <c r="BX14" s="188"/>
+      <c r="BY14" s="188"/>
+      <c r="BZ14" s="188"/>
+      <c r="CA14" s="188"/>
+      <c r="CB14" s="188"/>
+      <c r="CC14" s="188"/>
+      <c r="CD14" s="188"/>
+      <c r="CE14" s="188"/>
+      <c r="CF14" s="188"/>
+      <c r="CG14" s="188"/>
+      <c r="CH14" s="188"/>
+      <c r="CI14" s="188"/>
+      <c r="CJ14" s="188"/>
+      <c r="CK14" s="188"/>
+      <c r="CL14" s="188"/>
+      <c r="CM14" s="188"/>
+      <c r="CN14" s="188"/>
       <c r="CO14" s="189"/>
-      <c r="CP14" s="184">
+      <c r="CP14" s="190">
         <v>45420</v>
       </c>
-      <c r="CQ14" s="185"/>
-      <c r="CR14" s="185"/>
-      <c r="CS14" s="185"/>
-      <c r="CT14" s="185"/>
-      <c r="CU14" s="185"/>
-      <c r="CV14" s="185"/>
-      <c r="CW14" s="185"/>
-      <c r="CX14" s="185"/>
-      <c r="CY14" s="185"/>
-      <c r="CZ14" s="185"/>
-      <c r="DA14" s="185"/>
-      <c r="DB14" s="185"/>
-      <c r="DC14" s="185"/>
-      <c r="DD14" s="185"/>
-      <c r="DE14" s="185"/>
-      <c r="DF14" s="185"/>
-      <c r="DG14" s="185"/>
-      <c r="DH14" s="185"/>
-      <c r="DI14" s="185"/>
-      <c r="DJ14" s="185"/>
-      <c r="DK14" s="185"/>
-      <c r="DL14" s="185"/>
-      <c r="DM14" s="185"/>
-      <c r="DN14" s="185"/>
-      <c r="DO14" s="185"/>
-      <c r="DP14" s="185"/>
-      <c r="DQ14" s="185"/>
-      <c r="DR14" s="185"/>
+      <c r="CQ14" s="188"/>
+      <c r="CR14" s="188"/>
+      <c r="CS14" s="188"/>
+      <c r="CT14" s="188"/>
+      <c r="CU14" s="188"/>
+      <c r="CV14" s="188"/>
+      <c r="CW14" s="188"/>
+      <c r="CX14" s="188"/>
+      <c r="CY14" s="188"/>
+      <c r="CZ14" s="188"/>
+      <c r="DA14" s="188"/>
+      <c r="DB14" s="188"/>
+      <c r="DC14" s="188"/>
+      <c r="DD14" s="188"/>
+      <c r="DE14" s="188"/>
+      <c r="DF14" s="188"/>
+      <c r="DG14" s="188"/>
+      <c r="DH14" s="188"/>
+      <c r="DI14" s="188"/>
+      <c r="DJ14" s="188"/>
+      <c r="DK14" s="188"/>
+      <c r="DL14" s="188"/>
+      <c r="DM14" s="188"/>
+      <c r="DN14" s="188"/>
+      <c r="DO14" s="188"/>
+      <c r="DP14" s="188"/>
+      <c r="DQ14" s="188"/>
+      <c r="DR14" s="188"/>
       <c r="DS14" s="189"/>
-      <c r="DT14" s="184">
+      <c r="DT14" s="190">
         <v>45421</v>
       </c>
-      <c r="DU14" s="185"/>
-      <c r="DV14" s="185"/>
-      <c r="DW14" s="185"/>
-      <c r="DX14" s="185"/>
-      <c r="DY14" s="185"/>
-      <c r="DZ14" s="185"/>
-      <c r="EA14" s="185"/>
-      <c r="EB14" s="185"/>
-      <c r="EC14" s="185"/>
-      <c r="ED14" s="185"/>
-      <c r="EE14" s="185"/>
-      <c r="EF14" s="185"/>
-      <c r="EG14" s="185"/>
-      <c r="EH14" s="185"/>
-      <c r="EI14" s="185"/>
-      <c r="EJ14" s="185"/>
-      <c r="EK14" s="185"/>
-      <c r="EL14" s="185"/>
-      <c r="EM14" s="185"/>
-      <c r="EN14" s="185"/>
-      <c r="EO14" s="185"/>
-      <c r="EP14" s="185"/>
-      <c r="EQ14" s="185"/>
-      <c r="ER14" s="185"/>
-      <c r="ES14" s="185"/>
-      <c r="ET14" s="185"/>
-      <c r="EU14" s="185"/>
-      <c r="EV14" s="185"/>
+      <c r="DU14" s="188"/>
+      <c r="DV14" s="188"/>
+      <c r="DW14" s="188"/>
+      <c r="DX14" s="188"/>
+      <c r="DY14" s="188"/>
+      <c r="DZ14" s="188"/>
+      <c r="EA14" s="188"/>
+      <c r="EB14" s="188"/>
+      <c r="EC14" s="188"/>
+      <c r="ED14" s="188"/>
+      <c r="EE14" s="188"/>
+      <c r="EF14" s="188"/>
+      <c r="EG14" s="188"/>
+      <c r="EH14" s="188"/>
+      <c r="EI14" s="188"/>
+      <c r="EJ14" s="188"/>
+      <c r="EK14" s="188"/>
+      <c r="EL14" s="188"/>
+      <c r="EM14" s="188"/>
+      <c r="EN14" s="188"/>
+      <c r="EO14" s="188"/>
+      <c r="EP14" s="188"/>
+      <c r="EQ14" s="188"/>
+      <c r="ER14" s="188"/>
+      <c r="ES14" s="188"/>
+      <c r="ET14" s="188"/>
+      <c r="EU14" s="188"/>
+      <c r="EV14" s="188"/>
       <c r="EW14" s="189"/>
-      <c r="EX14" s="184">
+      <c r="EX14" s="190">
         <v>45422</v>
       </c>
-      <c r="EY14" s="185"/>
-      <c r="EZ14" s="185"/>
-      <c r="FA14" s="185"/>
-      <c r="FB14" s="185"/>
-      <c r="FC14" s="185"/>
-      <c r="FD14" s="185"/>
-      <c r="FE14" s="185"/>
-      <c r="FF14" s="185"/>
-      <c r="FG14" s="185"/>
-      <c r="FH14" s="185"/>
-      <c r="FI14" s="185"/>
-      <c r="FJ14" s="185"/>
-      <c r="FK14" s="185"/>
-      <c r="FL14" s="185"/>
-      <c r="FM14" s="185"/>
-      <c r="FN14" s="185"/>
-      <c r="FO14" s="185"/>
-      <c r="FP14" s="185"/>
-      <c r="FQ14" s="185"/>
-      <c r="FR14" s="185"/>
-      <c r="FS14" s="185"/>
-      <c r="FT14" s="185"/>
-      <c r="FU14" s="185"/>
-      <c r="FV14" s="185"/>
-      <c r="FW14" s="185"/>
-      <c r="FX14" s="185"/>
-      <c r="FY14" s="185"/>
-      <c r="FZ14" s="185"/>
+      <c r="EY14" s="188"/>
+      <c r="EZ14" s="188"/>
+      <c r="FA14" s="188"/>
+      <c r="FB14" s="188"/>
+      <c r="FC14" s="188"/>
+      <c r="FD14" s="188"/>
+      <c r="FE14" s="188"/>
+      <c r="FF14" s="188"/>
+      <c r="FG14" s="188"/>
+      <c r="FH14" s="188"/>
+      <c r="FI14" s="188"/>
+      <c r="FJ14" s="188"/>
+      <c r="FK14" s="188"/>
+      <c r="FL14" s="188"/>
+      <c r="FM14" s="188"/>
+      <c r="FN14" s="188"/>
+      <c r="FO14" s="188"/>
+      <c r="FP14" s="188"/>
+      <c r="FQ14" s="188"/>
+      <c r="FR14" s="188"/>
+      <c r="FS14" s="188"/>
+      <c r="FT14" s="188"/>
+      <c r="FU14" s="188"/>
+      <c r="FV14" s="188"/>
+      <c r="FW14" s="188"/>
+      <c r="FX14" s="188"/>
+      <c r="FY14" s="188"/>
+      <c r="FZ14" s="188"/>
       <c r="GA14" s="191"/>
       <c r="GB14" s="187">
         <v>45425</v>
       </c>
-      <c r="GC14" s="185"/>
-      <c r="GD14" s="185"/>
-      <c r="GE14" s="185"/>
-      <c r="GF14" s="185"/>
-      <c r="GG14" s="185"/>
-      <c r="GH14" s="185"/>
-      <c r="GI14" s="185"/>
-      <c r="GJ14" s="185"/>
-      <c r="GK14" s="185"/>
-      <c r="GL14" s="185"/>
-      <c r="GM14" s="185"/>
-      <c r="GN14" s="185"/>
-      <c r="GO14" s="185"/>
-      <c r="GP14" s="185"/>
-      <c r="GQ14" s="185"/>
-      <c r="GR14" s="185"/>
-      <c r="GS14" s="185"/>
-      <c r="GT14" s="185"/>
-      <c r="GU14" s="185"/>
-      <c r="GV14" s="185"/>
-      <c r="GW14" s="185"/>
-      <c r="GX14" s="185"/>
-      <c r="GY14" s="185"/>
-      <c r="GZ14" s="185"/>
-      <c r="HA14" s="185"/>
-      <c r="HB14" s="185"/>
-      <c r="HC14" s="185"/>
-      <c r="HD14" s="185"/>
+      <c r="GC14" s="188"/>
+      <c r="GD14" s="188"/>
+      <c r="GE14" s="188"/>
+      <c r="GF14" s="188"/>
+      <c r="GG14" s="188"/>
+      <c r="GH14" s="188"/>
+      <c r="GI14" s="188"/>
+      <c r="GJ14" s="188"/>
+      <c r="GK14" s="188"/>
+      <c r="GL14" s="188"/>
+      <c r="GM14" s="188"/>
+      <c r="GN14" s="188"/>
+      <c r="GO14" s="188"/>
+      <c r="GP14" s="188"/>
+      <c r="GQ14" s="188"/>
+      <c r="GR14" s="188"/>
+      <c r="GS14" s="188"/>
+      <c r="GT14" s="188"/>
+      <c r="GU14" s="188"/>
+      <c r="GV14" s="188"/>
+      <c r="GW14" s="188"/>
+      <c r="GX14" s="188"/>
+      <c r="GY14" s="188"/>
+      <c r="GZ14" s="188"/>
+      <c r="HA14" s="188"/>
+      <c r="HB14" s="188"/>
+      <c r="HC14" s="188"/>
+      <c r="HD14" s="188"/>
       <c r="HE14" s="189"/>
-      <c r="HF14" s="184">
+      <c r="HF14" s="190">
         <v>45427</v>
       </c>
-      <c r="HG14" s="185"/>
-      <c r="HH14" s="185"/>
-      <c r="HI14" s="185"/>
-      <c r="HJ14" s="185"/>
-      <c r="HK14" s="185"/>
-      <c r="HL14" s="185"/>
-      <c r="HM14" s="185"/>
-      <c r="HN14" s="185"/>
-      <c r="HO14" s="185"/>
-      <c r="HP14" s="185"/>
-      <c r="HQ14" s="185"/>
-      <c r="HR14" s="185"/>
-      <c r="HS14" s="185"/>
-      <c r="HT14" s="185"/>
-      <c r="HU14" s="185"/>
-      <c r="HV14" s="185"/>
-      <c r="HW14" s="185"/>
-      <c r="HX14" s="185"/>
-      <c r="HY14" s="185"/>
-      <c r="HZ14" s="185"/>
-      <c r="IA14" s="185"/>
-      <c r="IB14" s="185"/>
-      <c r="IC14" s="185"/>
-      <c r="ID14" s="185"/>
-      <c r="IE14" s="185"/>
-      <c r="IF14" s="185"/>
-      <c r="IG14" s="185"/>
-      <c r="IH14" s="185"/>
+      <c r="HG14" s="188"/>
+      <c r="HH14" s="188"/>
+      <c r="HI14" s="188"/>
+      <c r="HJ14" s="188"/>
+      <c r="HK14" s="188"/>
+      <c r="HL14" s="188"/>
+      <c r="HM14" s="188"/>
+      <c r="HN14" s="188"/>
+      <c r="HO14" s="188"/>
+      <c r="HP14" s="188"/>
+      <c r="HQ14" s="188"/>
+      <c r="HR14" s="188"/>
+      <c r="HS14" s="188"/>
+      <c r="HT14" s="188"/>
+      <c r="HU14" s="188"/>
+      <c r="HV14" s="188"/>
+      <c r="HW14" s="188"/>
+      <c r="HX14" s="188"/>
+      <c r="HY14" s="188"/>
+      <c r="HZ14" s="188"/>
+      <c r="IA14" s="188"/>
+      <c r="IB14" s="188"/>
+      <c r="IC14" s="188"/>
+      <c r="ID14" s="188"/>
+      <c r="IE14" s="188"/>
+      <c r="IF14" s="188"/>
+      <c r="IG14" s="188"/>
+      <c r="IH14" s="188"/>
       <c r="II14" s="189"/>
-      <c r="IJ14" s="184">
+      <c r="IJ14" s="190">
         <v>45428</v>
       </c>
-      <c r="IK14" s="185"/>
-      <c r="IL14" s="185"/>
-      <c r="IM14" s="185"/>
-      <c r="IN14" s="185"/>
-      <c r="IO14" s="185"/>
-      <c r="IP14" s="185"/>
-      <c r="IQ14" s="185"/>
-      <c r="IR14" s="185"/>
-      <c r="IS14" s="185"/>
-      <c r="IT14" s="185"/>
-      <c r="IU14" s="185"/>
-      <c r="IV14" s="185"/>
-      <c r="IW14" s="185"/>
-      <c r="IX14" s="185"/>
-      <c r="IY14" s="185"/>
-      <c r="IZ14" s="185"/>
-      <c r="JA14" s="185"/>
-      <c r="JB14" s="185"/>
-      <c r="JC14" s="185"/>
-      <c r="JD14" s="185"/>
-      <c r="JE14" s="185"/>
-      <c r="JF14" s="185"/>
-      <c r="JG14" s="185"/>
-      <c r="JH14" s="185"/>
-      <c r="JI14" s="185"/>
-      <c r="JJ14" s="185"/>
-      <c r="JK14" s="185"/>
-      <c r="JL14" s="185"/>
+      <c r="IK14" s="188"/>
+      <c r="IL14" s="188"/>
+      <c r="IM14" s="188"/>
+      <c r="IN14" s="188"/>
+      <c r="IO14" s="188"/>
+      <c r="IP14" s="188"/>
+      <c r="IQ14" s="188"/>
+      <c r="IR14" s="188"/>
+      <c r="IS14" s="188"/>
+      <c r="IT14" s="188"/>
+      <c r="IU14" s="188"/>
+      <c r="IV14" s="188"/>
+      <c r="IW14" s="188"/>
+      <c r="IX14" s="188"/>
+      <c r="IY14" s="188"/>
+      <c r="IZ14" s="188"/>
+      <c r="JA14" s="188"/>
+      <c r="JB14" s="188"/>
+      <c r="JC14" s="188"/>
+      <c r="JD14" s="188"/>
+      <c r="JE14" s="188"/>
+      <c r="JF14" s="188"/>
+      <c r="JG14" s="188"/>
+      <c r="JH14" s="188"/>
+      <c r="JI14" s="188"/>
+      <c r="JJ14" s="188"/>
+      <c r="JK14" s="188"/>
+      <c r="JL14" s="188"/>
       <c r="JM14" s="189"/>
-      <c r="JN14" s="184">
+      <c r="JN14" s="190">
         <v>45429</v>
       </c>
-      <c r="JO14" s="185"/>
-      <c r="JP14" s="185"/>
-      <c r="JQ14" s="185"/>
-      <c r="JR14" s="185"/>
-      <c r="JS14" s="185"/>
-      <c r="JT14" s="185"/>
-      <c r="JU14" s="185"/>
-      <c r="JV14" s="185"/>
-      <c r="JW14" s="185"/>
-      <c r="JX14" s="185"/>
-      <c r="JY14" s="185"/>
-      <c r="JZ14" s="185"/>
-      <c r="KA14" s="185"/>
-      <c r="KB14" s="185"/>
-      <c r="KC14" s="185"/>
-      <c r="KD14" s="185"/>
-      <c r="KE14" s="185"/>
-      <c r="KF14" s="185"/>
-      <c r="KG14" s="185"/>
-      <c r="KH14" s="185"/>
-      <c r="KI14" s="185"/>
-      <c r="KJ14" s="185"/>
-      <c r="KK14" s="185"/>
-      <c r="KL14" s="185"/>
-      <c r="KM14" s="185"/>
-      <c r="KN14" s="185"/>
-      <c r="KO14" s="185"/>
-      <c r="KP14" s="185"/>
-      <c r="KQ14" s="186"/>
-      <c r="KR14" s="154" t="s">
+      <c r="JO14" s="188"/>
+      <c r="JP14" s="188"/>
+      <c r="JQ14" s="188"/>
+      <c r="JR14" s="188"/>
+      <c r="JS14" s="188"/>
+      <c r="JT14" s="188"/>
+      <c r="JU14" s="188"/>
+      <c r="JV14" s="188"/>
+      <c r="JW14" s="188"/>
+      <c r="JX14" s="188"/>
+      <c r="JY14" s="188"/>
+      <c r="JZ14" s="188"/>
+      <c r="KA14" s="188"/>
+      <c r="KB14" s="188"/>
+      <c r="KC14" s="188"/>
+      <c r="KD14" s="188"/>
+      <c r="KE14" s="188"/>
+      <c r="KF14" s="188"/>
+      <c r="KG14" s="188"/>
+      <c r="KH14" s="188"/>
+      <c r="KI14" s="188"/>
+      <c r="KJ14" s="188"/>
+      <c r="KK14" s="188"/>
+      <c r="KL14" s="188"/>
+      <c r="KM14" s="188"/>
+      <c r="KN14" s="188"/>
+      <c r="KO14" s="188"/>
+      <c r="KP14" s="188"/>
+      <c r="KQ14" s="192"/>
+      <c r="KR14" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="KS14" s="155"/>
+      <c r="KS14" s="228"/>
       <c r="KT14" s="187">
         <v>45432</v>
       </c>
-      <c r="KU14" s="185"/>
-      <c r="KV14" s="185"/>
-      <c r="KW14" s="185"/>
-      <c r="KX14" s="185"/>
-      <c r="KY14" s="185"/>
-      <c r="KZ14" s="185"/>
-      <c r="LA14" s="185"/>
-      <c r="LB14" s="185"/>
-      <c r="LC14" s="185"/>
-      <c r="LD14" s="185"/>
-      <c r="LE14" s="185"/>
-      <c r="LF14" s="185"/>
-      <c r="LG14" s="185"/>
-      <c r="LH14" s="185"/>
-      <c r="LI14" s="185"/>
-      <c r="LJ14" s="185"/>
-      <c r="LK14" s="185"/>
-      <c r="LL14" s="185"/>
-      <c r="LM14" s="185"/>
-      <c r="LN14" s="185"/>
-      <c r="LO14" s="185"/>
-      <c r="LP14" s="185"/>
-      <c r="LQ14" s="185"/>
-      <c r="LR14" s="185"/>
-      <c r="LS14" s="185"/>
-      <c r="LT14" s="185"/>
-      <c r="LU14" s="185"/>
-      <c r="LV14" s="185"/>
+      <c r="KU14" s="188"/>
+      <c r="KV14" s="188"/>
+      <c r="KW14" s="188"/>
+      <c r="KX14" s="188"/>
+      <c r="KY14" s="188"/>
+      <c r="KZ14" s="188"/>
+      <c r="LA14" s="188"/>
+      <c r="LB14" s="188"/>
+      <c r="LC14" s="188"/>
+      <c r="LD14" s="188"/>
+      <c r="LE14" s="188"/>
+      <c r="LF14" s="188"/>
+      <c r="LG14" s="188"/>
+      <c r="LH14" s="188"/>
+      <c r="LI14" s="188"/>
+      <c r="LJ14" s="188"/>
+      <c r="LK14" s="188"/>
+      <c r="LL14" s="188"/>
+      <c r="LM14" s="188"/>
+      <c r="LN14" s="188"/>
+      <c r="LO14" s="188"/>
+      <c r="LP14" s="188"/>
+      <c r="LQ14" s="188"/>
+      <c r="LR14" s="188"/>
+      <c r="LS14" s="188"/>
+      <c r="LT14" s="188"/>
+      <c r="LU14" s="188"/>
+      <c r="LV14" s="188"/>
       <c r="LW14" s="189"/>
-      <c r="LX14" s="184">
+      <c r="LX14" s="190">
         <v>45434</v>
       </c>
-      <c r="LY14" s="185"/>
-      <c r="LZ14" s="185"/>
-      <c r="MA14" s="185"/>
-      <c r="MB14" s="185"/>
-      <c r="MC14" s="185"/>
-      <c r="MD14" s="185"/>
-      <c r="ME14" s="185"/>
-      <c r="MF14" s="185"/>
-      <c r="MG14" s="185"/>
-      <c r="MH14" s="185"/>
-      <c r="MI14" s="185"/>
-      <c r="MJ14" s="185"/>
-      <c r="MK14" s="185"/>
-      <c r="ML14" s="185"/>
-      <c r="MM14" s="185"/>
-      <c r="MN14" s="185"/>
-      <c r="MO14" s="185"/>
-      <c r="MP14" s="185"/>
-      <c r="MQ14" s="185"/>
-      <c r="MR14" s="185"/>
-      <c r="MS14" s="185"/>
-      <c r="MT14" s="185"/>
-      <c r="MU14" s="185"/>
-      <c r="MV14" s="185"/>
-      <c r="MW14" s="185"/>
-      <c r="MX14" s="185"/>
-      <c r="MY14" s="185"/>
-      <c r="MZ14" s="185"/>
+      <c r="LY14" s="188"/>
+      <c r="LZ14" s="188"/>
+      <c r="MA14" s="188"/>
+      <c r="MB14" s="188"/>
+      <c r="MC14" s="188"/>
+      <c r="MD14" s="188"/>
+      <c r="ME14" s="188"/>
+      <c r="MF14" s="188"/>
+      <c r="MG14" s="188"/>
+      <c r="MH14" s="188"/>
+      <c r="MI14" s="188"/>
+      <c r="MJ14" s="188"/>
+      <c r="MK14" s="188"/>
+      <c r="ML14" s="188"/>
+      <c r="MM14" s="188"/>
+      <c r="MN14" s="188"/>
+      <c r="MO14" s="188"/>
+      <c r="MP14" s="188"/>
+      <c r="MQ14" s="188"/>
+      <c r="MR14" s="188"/>
+      <c r="MS14" s="188"/>
+      <c r="MT14" s="188"/>
+      <c r="MU14" s="188"/>
+      <c r="MV14" s="188"/>
+      <c r="MW14" s="188"/>
+      <c r="MX14" s="188"/>
+      <c r="MY14" s="188"/>
+      <c r="MZ14" s="188"/>
       <c r="NA14" s="189"/>
-      <c r="NB14" s="184">
+      <c r="NB14" s="190">
         <v>45435</v>
       </c>
-      <c r="NC14" s="185"/>
-      <c r="ND14" s="185"/>
-      <c r="NE14" s="185"/>
-      <c r="NF14" s="185"/>
-      <c r="NG14" s="185"/>
-      <c r="NH14" s="185"/>
-      <c r="NI14" s="185"/>
-      <c r="NJ14" s="185"/>
-      <c r="NK14" s="185"/>
-      <c r="NL14" s="185"/>
-      <c r="NM14" s="185"/>
-      <c r="NN14" s="185"/>
-      <c r="NO14" s="185"/>
-      <c r="NP14" s="185"/>
-      <c r="NQ14" s="185"/>
-      <c r="NR14" s="185"/>
-      <c r="NS14" s="185"/>
-      <c r="NT14" s="185"/>
-      <c r="NU14" s="185"/>
-      <c r="NV14" s="185"/>
-      <c r="NW14" s="185"/>
-      <c r="NX14" s="185"/>
-      <c r="NY14" s="185"/>
-      <c r="NZ14" s="185"/>
-      <c r="OA14" s="185"/>
-      <c r="OB14" s="185"/>
-      <c r="OC14" s="185"/>
-      <c r="OD14" s="185"/>
+      <c r="NC14" s="188"/>
+      <c r="ND14" s="188"/>
+      <c r="NE14" s="188"/>
+      <c r="NF14" s="188"/>
+      <c r="NG14" s="188"/>
+      <c r="NH14" s="188"/>
+      <c r="NI14" s="188"/>
+      <c r="NJ14" s="188"/>
+      <c r="NK14" s="188"/>
+      <c r="NL14" s="188"/>
+      <c r="NM14" s="188"/>
+      <c r="NN14" s="188"/>
+      <c r="NO14" s="188"/>
+      <c r="NP14" s="188"/>
+      <c r="NQ14" s="188"/>
+      <c r="NR14" s="188"/>
+      <c r="NS14" s="188"/>
+      <c r="NT14" s="188"/>
+      <c r="NU14" s="188"/>
+      <c r="NV14" s="188"/>
+      <c r="NW14" s="188"/>
+      <c r="NX14" s="188"/>
+      <c r="NY14" s="188"/>
+      <c r="NZ14" s="188"/>
+      <c r="OA14" s="188"/>
+      <c r="OB14" s="188"/>
+      <c r="OC14" s="188"/>
+      <c r="OD14" s="188"/>
       <c r="OE14" s="189"/>
-      <c r="OF14" s="184">
+      <c r="OF14" s="190">
         <v>45436</v>
       </c>
-      <c r="OG14" s="185"/>
-      <c r="OH14" s="185"/>
-      <c r="OI14" s="185"/>
-      <c r="OJ14" s="185"/>
-      <c r="OK14" s="185"/>
-      <c r="OL14" s="185"/>
-      <c r="OM14" s="185"/>
-      <c r="ON14" s="185"/>
-      <c r="OO14" s="185"/>
-      <c r="OP14" s="185"/>
-      <c r="OQ14" s="185"/>
-      <c r="OR14" s="185"/>
-      <c r="OS14" s="185"/>
-      <c r="OT14" s="185"/>
-      <c r="OU14" s="185"/>
-      <c r="OV14" s="185"/>
-      <c r="OW14" s="185"/>
-      <c r="OX14" s="185"/>
-      <c r="OY14" s="185"/>
-      <c r="OZ14" s="185"/>
-      <c r="PA14" s="185"/>
-      <c r="PB14" s="185"/>
-      <c r="PC14" s="185"/>
-      <c r="PD14" s="185"/>
-      <c r="PE14" s="185"/>
-      <c r="PF14" s="185"/>
-      <c r="PG14" s="185"/>
-      <c r="PH14" s="185"/>
-      <c r="PI14" s="186"/>
+      <c r="OG14" s="188"/>
+      <c r="OH14" s="188"/>
+      <c r="OI14" s="188"/>
+      <c r="OJ14" s="188"/>
+      <c r="OK14" s="188"/>
+      <c r="OL14" s="188"/>
+      <c r="OM14" s="188"/>
+      <c r="ON14" s="188"/>
+      <c r="OO14" s="188"/>
+      <c r="OP14" s="188"/>
+      <c r="OQ14" s="188"/>
+      <c r="OR14" s="188"/>
+      <c r="OS14" s="188"/>
+      <c r="OT14" s="188"/>
+      <c r="OU14" s="188"/>
+      <c r="OV14" s="188"/>
+      <c r="OW14" s="188"/>
+      <c r="OX14" s="188"/>
+      <c r="OY14" s="188"/>
+      <c r="OZ14" s="188"/>
+      <c r="PA14" s="188"/>
+      <c r="PB14" s="188"/>
+      <c r="PC14" s="188"/>
+      <c r="PD14" s="188"/>
+      <c r="PE14" s="188"/>
+      <c r="PF14" s="188"/>
+      <c r="PG14" s="188"/>
+      <c r="PH14" s="188"/>
+      <c r="PI14" s="192"/>
       <c r="PJ14" s="187">
         <v>45439</v>
       </c>
-      <c r="PK14" s="185"/>
-      <c r="PL14" s="185"/>
-      <c r="PM14" s="185"/>
-      <c r="PN14" s="185"/>
-      <c r="PO14" s="185"/>
-      <c r="PP14" s="185"/>
-      <c r="PQ14" s="185"/>
-      <c r="PR14" s="185"/>
-      <c r="PS14" s="185"/>
-      <c r="PT14" s="185"/>
-      <c r="PU14" s="185"/>
-      <c r="PV14" s="185"/>
-      <c r="PW14" s="185"/>
-      <c r="PX14" s="185"/>
-      <c r="PY14" s="185"/>
-      <c r="PZ14" s="185"/>
-      <c r="QA14" s="185"/>
-      <c r="QB14" s="185"/>
-      <c r="QC14" s="185"/>
-      <c r="QD14" s="185"/>
-      <c r="QE14" s="185"/>
-      <c r="QF14" s="185"/>
-      <c r="QG14" s="185"/>
-      <c r="QH14" s="185"/>
-      <c r="QI14" s="185"/>
-      <c r="QJ14" s="185"/>
-      <c r="QK14" s="185"/>
-      <c r="QL14" s="185"/>
+      <c r="PK14" s="188"/>
+      <c r="PL14" s="188"/>
+      <c r="PM14" s="188"/>
+      <c r="PN14" s="188"/>
+      <c r="PO14" s="188"/>
+      <c r="PP14" s="188"/>
+      <c r="PQ14" s="188"/>
+      <c r="PR14" s="188"/>
+      <c r="PS14" s="188"/>
+      <c r="PT14" s="188"/>
+      <c r="PU14" s="188"/>
+      <c r="PV14" s="188"/>
+      <c r="PW14" s="188"/>
+      <c r="PX14" s="188"/>
+      <c r="PY14" s="188"/>
+      <c r="PZ14" s="188"/>
+      <c r="QA14" s="188"/>
+      <c r="QB14" s="188"/>
+      <c r="QC14" s="188"/>
+      <c r="QD14" s="188"/>
+      <c r="QE14" s="188"/>
+      <c r="QF14" s="188"/>
+      <c r="QG14" s="188"/>
+      <c r="QH14" s="188"/>
+      <c r="QI14" s="188"/>
+      <c r="QJ14" s="188"/>
+      <c r="QK14" s="188"/>
+      <c r="QL14" s="188"/>
       <c r="QM14" s="189"/>
-      <c r="QN14" s="184">
+      <c r="QN14" s="190">
         <v>45441</v>
       </c>
-      <c r="QO14" s="185"/>
-      <c r="QP14" s="185"/>
-      <c r="QQ14" s="185"/>
-      <c r="QR14" s="185"/>
-      <c r="QS14" s="185"/>
-      <c r="QT14" s="185"/>
-      <c r="QU14" s="185"/>
-      <c r="QV14" s="185"/>
-      <c r="QW14" s="185"/>
-      <c r="QX14" s="185"/>
-      <c r="QY14" s="185"/>
-      <c r="QZ14" s="185"/>
-      <c r="RA14" s="185"/>
-      <c r="RB14" s="185"/>
-      <c r="RC14" s="185"/>
-      <c r="RD14" s="185"/>
-      <c r="RE14" s="185"/>
-      <c r="RF14" s="185"/>
-      <c r="RG14" s="185"/>
-      <c r="RH14" s="185"/>
-      <c r="RI14" s="185"/>
-      <c r="RJ14" s="185"/>
-      <c r="RK14" s="185"/>
-      <c r="RL14" s="185"/>
-      <c r="RM14" s="185"/>
-      <c r="RN14" s="185"/>
-      <c r="RO14" s="185"/>
-      <c r="RP14" s="185"/>
+      <c r="QO14" s="188"/>
+      <c r="QP14" s="188"/>
+      <c r="QQ14" s="188"/>
+      <c r="QR14" s="188"/>
+      <c r="QS14" s="188"/>
+      <c r="QT14" s="188"/>
+      <c r="QU14" s="188"/>
+      <c r="QV14" s="188"/>
+      <c r="QW14" s="188"/>
+      <c r="QX14" s="188"/>
+      <c r="QY14" s="188"/>
+      <c r="QZ14" s="188"/>
+      <c r="RA14" s="188"/>
+      <c r="RB14" s="188"/>
+      <c r="RC14" s="188"/>
+      <c r="RD14" s="188"/>
+      <c r="RE14" s="188"/>
+      <c r="RF14" s="188"/>
+      <c r="RG14" s="188"/>
+      <c r="RH14" s="188"/>
+      <c r="RI14" s="188"/>
+      <c r="RJ14" s="188"/>
+      <c r="RK14" s="188"/>
+      <c r="RL14" s="188"/>
+      <c r="RM14" s="188"/>
+      <c r="RN14" s="188"/>
+      <c r="RO14" s="188"/>
+      <c r="RP14" s="188"/>
       <c r="RQ14" s="189"/>
-      <c r="RR14" s="184">
+      <c r="RR14" s="190">
         <v>45442</v>
       </c>
-      <c r="RS14" s="185"/>
-      <c r="RT14" s="185"/>
-      <c r="RU14" s="185"/>
-      <c r="RV14" s="185"/>
-      <c r="RW14" s="185"/>
-      <c r="RX14" s="185"/>
-      <c r="RY14" s="185"/>
-      <c r="RZ14" s="185"/>
-      <c r="SA14" s="185"/>
-      <c r="SB14" s="185"/>
-      <c r="SC14" s="185"/>
-      <c r="SD14" s="185"/>
-      <c r="SE14" s="185"/>
-      <c r="SF14" s="185"/>
-      <c r="SG14" s="185"/>
-      <c r="SH14" s="185"/>
-      <c r="SI14" s="185"/>
-      <c r="SJ14" s="185"/>
-      <c r="SK14" s="185"/>
-      <c r="SL14" s="185"/>
-      <c r="SM14" s="185"/>
-      <c r="SN14" s="185"/>
-      <c r="SO14" s="185"/>
-      <c r="SP14" s="185"/>
-      <c r="SQ14" s="185"/>
-      <c r="SR14" s="185"/>
-      <c r="SS14" s="185"/>
-      <c r="ST14" s="185"/>
+      <c r="RS14" s="188"/>
+      <c r="RT14" s="188"/>
+      <c r="RU14" s="188"/>
+      <c r="RV14" s="188"/>
+      <c r="RW14" s="188"/>
+      <c r="RX14" s="188"/>
+      <c r="RY14" s="188"/>
+      <c r="RZ14" s="188"/>
+      <c r="SA14" s="188"/>
+      <c r="SB14" s="188"/>
+      <c r="SC14" s="188"/>
+      <c r="SD14" s="188"/>
+      <c r="SE14" s="188"/>
+      <c r="SF14" s="188"/>
+      <c r="SG14" s="188"/>
+      <c r="SH14" s="188"/>
+      <c r="SI14" s="188"/>
+      <c r="SJ14" s="188"/>
+      <c r="SK14" s="188"/>
+      <c r="SL14" s="188"/>
+      <c r="SM14" s="188"/>
+      <c r="SN14" s="188"/>
+      <c r="SO14" s="188"/>
+      <c r="SP14" s="188"/>
+      <c r="SQ14" s="188"/>
+      <c r="SR14" s="188"/>
+      <c r="SS14" s="188"/>
+      <c r="ST14" s="188"/>
       <c r="SU14" s="189"/>
-      <c r="SV14" s="184">
+      <c r="SV14" s="190">
         <v>45443</v>
       </c>
-      <c r="SW14" s="185"/>
-      <c r="SX14" s="185"/>
-      <c r="SY14" s="185"/>
-      <c r="SZ14" s="185"/>
-      <c r="TA14" s="185"/>
-      <c r="TB14" s="185"/>
-      <c r="TC14" s="185"/>
-      <c r="TD14" s="185"/>
-      <c r="TE14" s="185"/>
-      <c r="TF14" s="185"/>
-      <c r="TG14" s="185"/>
-      <c r="TH14" s="185"/>
-      <c r="TI14" s="185"/>
-      <c r="TJ14" s="185"/>
-      <c r="TK14" s="185"/>
-      <c r="TL14" s="185"/>
-      <c r="TM14" s="185"/>
-      <c r="TN14" s="185"/>
-      <c r="TO14" s="185"/>
-      <c r="TP14" s="185"/>
-      <c r="TQ14" s="185"/>
-      <c r="TR14" s="185"/>
-      <c r="TS14" s="185"/>
-      <c r="TT14" s="185"/>
-      <c r="TU14" s="185"/>
-      <c r="TV14" s="185"/>
-      <c r="TW14" s="185"/>
-      <c r="TX14" s="185"/>
-      <c r="TY14" s="186"/>
+      <c r="SW14" s="188"/>
+      <c r="SX14" s="188"/>
+      <c r="SY14" s="188"/>
+      <c r="SZ14" s="188"/>
+      <c r="TA14" s="188"/>
+      <c r="TB14" s="188"/>
+      <c r="TC14" s="188"/>
+      <c r="TD14" s="188"/>
+      <c r="TE14" s="188"/>
+      <c r="TF14" s="188"/>
+      <c r="TG14" s="188"/>
+      <c r="TH14" s="188"/>
+      <c r="TI14" s="188"/>
+      <c r="TJ14" s="188"/>
+      <c r="TK14" s="188"/>
+      <c r="TL14" s="188"/>
+      <c r="TM14" s="188"/>
+      <c r="TN14" s="188"/>
+      <c r="TO14" s="188"/>
+      <c r="TP14" s="188"/>
+      <c r="TQ14" s="188"/>
+      <c r="TR14" s="188"/>
+      <c r="TS14" s="188"/>
+      <c r="TT14" s="188"/>
+      <c r="TU14" s="188"/>
+      <c r="TV14" s="188"/>
+      <c r="TW14" s="188"/>
+      <c r="TX14" s="188"/>
+      <c r="TY14" s="192"/>
       <c r="TZ14" s="187">
         <v>45446</v>
       </c>
-      <c r="UA14" s="185"/>
-      <c r="UB14" s="185"/>
-      <c r="UC14" s="185"/>
-      <c r="UD14" s="185"/>
-      <c r="UE14" s="185"/>
-      <c r="UF14" s="185"/>
-      <c r="UG14" s="185"/>
-      <c r="UH14" s="185"/>
-      <c r="UI14" s="185"/>
-      <c r="UJ14" s="185"/>
-      <c r="UK14" s="185"/>
-      <c r="UL14" s="185"/>
-      <c r="UM14" s="185"/>
-      <c r="UN14" s="185"/>
-      <c r="UO14" s="185"/>
-      <c r="UP14" s="185"/>
-      <c r="UQ14" s="185"/>
-      <c r="UR14" s="185"/>
-      <c r="US14" s="185"/>
-      <c r="UT14" s="185"/>
-      <c r="UU14" s="185"/>
-      <c r="UV14" s="185"/>
-      <c r="UW14" s="185"/>
-      <c r="UX14" s="185"/>
-      <c r="UY14" s="185"/>
-      <c r="UZ14" s="185"/>
-      <c r="VA14" s="185"/>
-      <c r="VB14" s="185"/>
-      <c r="VC14" s="186"/>
+      <c r="UA14" s="188"/>
+      <c r="UB14" s="188"/>
+      <c r="UC14" s="188"/>
+      <c r="UD14" s="188"/>
+      <c r="UE14" s="188"/>
+      <c r="UF14" s="188"/>
+      <c r="UG14" s="188"/>
+      <c r="UH14" s="188"/>
+      <c r="UI14" s="188"/>
+      <c r="UJ14" s="188"/>
+      <c r="UK14" s="188"/>
+      <c r="UL14" s="188"/>
+      <c r="UM14" s="188"/>
+      <c r="UN14" s="188"/>
+      <c r="UO14" s="188"/>
+      <c r="UP14" s="188"/>
+      <c r="UQ14" s="188"/>
+      <c r="UR14" s="188"/>
+      <c r="US14" s="188"/>
+      <c r="UT14" s="188"/>
+      <c r="UU14" s="188"/>
+      <c r="UV14" s="188"/>
+      <c r="UW14" s="188"/>
+      <c r="UX14" s="188"/>
+      <c r="UY14" s="188"/>
+      <c r="UZ14" s="188"/>
+      <c r="VA14" s="188"/>
+      <c r="VB14" s="188"/>
+      <c r="VC14" s="192"/>
     </row>
     <row r="15" spans="1:575" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
-      <c r="B15" s="156" t="s">
+      <c r="B15" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="178" t="s">
+      <c r="C15" s="194"/>
+      <c r="D15" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="176"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="176"/>
-      <c r="H15" s="176"/>
-      <c r="I15" s="176"/>
-      <c r="J15" s="176"/>
-      <c r="K15" s="176"/>
-      <c r="L15" s="176"/>
-      <c r="M15" s="176"/>
-      <c r="N15" s="176"/>
-      <c r="O15" s="176"/>
-      <c r="P15" s="176"/>
-      <c r="Q15" s="176"/>
-      <c r="R15" s="176"/>
-      <c r="S15" s="176" t="s">
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="196"/>
+      <c r="O15" s="196"/>
+      <c r="P15" s="196"/>
+      <c r="Q15" s="196"/>
+      <c r="R15" s="196"/>
+      <c r="S15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="T15" s="176"/>
-      <c r="U15" s="176"/>
-      <c r="V15" s="176"/>
-      <c r="W15" s="176"/>
-      <c r="X15" s="176"/>
-      <c r="Y15" s="176"/>
-      <c r="Z15" s="176"/>
-      <c r="AA15" s="176"/>
-      <c r="AB15" s="176"/>
-      <c r="AC15" s="176"/>
-      <c r="AD15" s="176"/>
-      <c r="AE15" s="176"/>
-      <c r="AF15" s="176"/>
-      <c r="AG15" s="183"/>
-      <c r="AH15" s="175" t="s">
+      <c r="T15" s="196"/>
+      <c r="U15" s="196"/>
+      <c r="V15" s="196"/>
+      <c r="W15" s="196"/>
+      <c r="X15" s="196"/>
+      <c r="Y15" s="196"/>
+      <c r="Z15" s="196"/>
+      <c r="AA15" s="196"/>
+      <c r="AB15" s="196"/>
+      <c r="AC15" s="196"/>
+      <c r="AD15" s="196"/>
+      <c r="AE15" s="196"/>
+      <c r="AF15" s="196"/>
+      <c r="AG15" s="197"/>
+      <c r="AH15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="AI15" s="176"/>
-      <c r="AJ15" s="176"/>
-      <c r="AK15" s="176"/>
-      <c r="AL15" s="176"/>
-      <c r="AM15" s="176"/>
-      <c r="AN15" s="176"/>
-      <c r="AO15" s="176"/>
-      <c r="AP15" s="176"/>
-      <c r="AQ15" s="176"/>
-      <c r="AR15" s="176"/>
-      <c r="AS15" s="176"/>
-      <c r="AT15" s="176"/>
-      <c r="AU15" s="176"/>
-      <c r="AV15" s="176"/>
-      <c r="AW15" s="176" t="s">
+      <c r="AI15" s="196"/>
+      <c r="AJ15" s="196"/>
+      <c r="AK15" s="196"/>
+      <c r="AL15" s="196"/>
+      <c r="AM15" s="196"/>
+      <c r="AN15" s="196"/>
+      <c r="AO15" s="196"/>
+      <c r="AP15" s="196"/>
+      <c r="AQ15" s="196"/>
+      <c r="AR15" s="196"/>
+      <c r="AS15" s="196"/>
+      <c r="AT15" s="196"/>
+      <c r="AU15" s="196"/>
+      <c r="AV15" s="196"/>
+      <c r="AW15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="AX15" s="176"/>
-      <c r="AY15" s="176"/>
-      <c r="AZ15" s="176"/>
-      <c r="BA15" s="176"/>
-      <c r="BB15" s="176"/>
-      <c r="BC15" s="176"/>
-      <c r="BD15" s="176"/>
-      <c r="BE15" s="176"/>
-      <c r="BF15" s="176"/>
-      <c r="BG15" s="176"/>
-      <c r="BH15" s="176"/>
-      <c r="BI15" s="176"/>
-      <c r="BJ15" s="176"/>
-      <c r="BK15" s="179"/>
-      <c r="BL15" s="178" t="s">
+      <c r="AX15" s="196"/>
+      <c r="AY15" s="196"/>
+      <c r="AZ15" s="196"/>
+      <c r="BA15" s="196"/>
+      <c r="BB15" s="196"/>
+      <c r="BC15" s="196"/>
+      <c r="BD15" s="196"/>
+      <c r="BE15" s="196"/>
+      <c r="BF15" s="196"/>
+      <c r="BG15" s="196"/>
+      <c r="BH15" s="196"/>
+      <c r="BI15" s="196"/>
+      <c r="BJ15" s="196"/>
+      <c r="BK15" s="199"/>
+      <c r="BL15" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="BM15" s="176"/>
-      <c r="BN15" s="176"/>
-      <c r="BO15" s="176"/>
-      <c r="BP15" s="176"/>
-      <c r="BQ15" s="176"/>
-      <c r="BR15" s="176"/>
-      <c r="BS15" s="176"/>
-      <c r="BT15" s="176"/>
-      <c r="BU15" s="176"/>
-      <c r="BV15" s="176"/>
-      <c r="BW15" s="176"/>
-      <c r="BX15" s="176"/>
-      <c r="BY15" s="176"/>
-      <c r="BZ15" s="179"/>
-      <c r="CA15" s="176" t="s">
+      <c r="BM15" s="196"/>
+      <c r="BN15" s="196"/>
+      <c r="BO15" s="196"/>
+      <c r="BP15" s="196"/>
+      <c r="BQ15" s="196"/>
+      <c r="BR15" s="196"/>
+      <c r="BS15" s="196"/>
+      <c r="BT15" s="196"/>
+      <c r="BU15" s="196"/>
+      <c r="BV15" s="196"/>
+      <c r="BW15" s="196"/>
+      <c r="BX15" s="196"/>
+      <c r="BY15" s="196"/>
+      <c r="BZ15" s="199"/>
+      <c r="CA15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="CB15" s="176"/>
-      <c r="CC15" s="176"/>
-      <c r="CD15" s="176"/>
-      <c r="CE15" s="176"/>
-      <c r="CF15" s="176"/>
-      <c r="CG15" s="176"/>
-      <c r="CH15" s="176"/>
-      <c r="CI15" s="176"/>
-      <c r="CJ15" s="176"/>
-      <c r="CK15" s="176"/>
-      <c r="CL15" s="176"/>
-      <c r="CM15" s="176"/>
-      <c r="CN15" s="176"/>
-      <c r="CO15" s="183"/>
-      <c r="CP15" s="175" t="s">
+      <c r="CB15" s="196"/>
+      <c r="CC15" s="196"/>
+      <c r="CD15" s="196"/>
+      <c r="CE15" s="196"/>
+      <c r="CF15" s="196"/>
+      <c r="CG15" s="196"/>
+      <c r="CH15" s="196"/>
+      <c r="CI15" s="196"/>
+      <c r="CJ15" s="196"/>
+      <c r="CK15" s="196"/>
+      <c r="CL15" s="196"/>
+      <c r="CM15" s="196"/>
+      <c r="CN15" s="196"/>
+      <c r="CO15" s="197"/>
+      <c r="CP15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="CQ15" s="176"/>
-      <c r="CR15" s="176"/>
-      <c r="CS15" s="176"/>
-      <c r="CT15" s="176"/>
-      <c r="CU15" s="176"/>
-      <c r="CV15" s="176"/>
-      <c r="CW15" s="176"/>
-      <c r="CX15" s="176"/>
-      <c r="CY15" s="176"/>
-      <c r="CZ15" s="176"/>
-      <c r="DA15" s="176"/>
-      <c r="DB15" s="176"/>
-      <c r="DC15" s="176"/>
-      <c r="DD15" s="176"/>
-      <c r="DE15" s="176" t="s">
+      <c r="CQ15" s="196"/>
+      <c r="CR15" s="196"/>
+      <c r="CS15" s="196"/>
+      <c r="CT15" s="196"/>
+      <c r="CU15" s="196"/>
+      <c r="CV15" s="196"/>
+      <c r="CW15" s="196"/>
+      <c r="CX15" s="196"/>
+      <c r="CY15" s="196"/>
+      <c r="CZ15" s="196"/>
+      <c r="DA15" s="196"/>
+      <c r="DB15" s="196"/>
+      <c r="DC15" s="196"/>
+      <c r="DD15" s="196"/>
+      <c r="DE15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="DF15" s="176"/>
-      <c r="DG15" s="176"/>
-      <c r="DH15" s="176"/>
-      <c r="DI15" s="176"/>
-      <c r="DJ15" s="176"/>
-      <c r="DK15" s="176"/>
-      <c r="DL15" s="176"/>
-      <c r="DM15" s="176"/>
-      <c r="DN15" s="176"/>
-      <c r="DO15" s="176"/>
-      <c r="DP15" s="176"/>
-      <c r="DQ15" s="176"/>
-      <c r="DR15" s="176"/>
-      <c r="DS15" s="183"/>
-      <c r="DT15" s="175" t="s">
+      <c r="DF15" s="196"/>
+      <c r="DG15" s="196"/>
+      <c r="DH15" s="196"/>
+      <c r="DI15" s="196"/>
+      <c r="DJ15" s="196"/>
+      <c r="DK15" s="196"/>
+      <c r="DL15" s="196"/>
+      <c r="DM15" s="196"/>
+      <c r="DN15" s="196"/>
+      <c r="DO15" s="196"/>
+      <c r="DP15" s="196"/>
+      <c r="DQ15" s="196"/>
+      <c r="DR15" s="196"/>
+      <c r="DS15" s="197"/>
+      <c r="DT15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="DU15" s="176"/>
-      <c r="DV15" s="176"/>
-      <c r="DW15" s="176"/>
-      <c r="DX15" s="176"/>
-      <c r="DY15" s="176"/>
-      <c r="DZ15" s="176"/>
-      <c r="EA15" s="176"/>
-      <c r="EB15" s="176"/>
-      <c r="EC15" s="176"/>
-      <c r="ED15" s="176"/>
-      <c r="EE15" s="176"/>
-      <c r="EF15" s="176"/>
-      <c r="EG15" s="176"/>
-      <c r="EH15" s="176"/>
-      <c r="EI15" s="176" t="s">
+      <c r="DU15" s="196"/>
+      <c r="DV15" s="196"/>
+      <c r="DW15" s="196"/>
+      <c r="DX15" s="196"/>
+      <c r="DY15" s="196"/>
+      <c r="DZ15" s="196"/>
+      <c r="EA15" s="196"/>
+      <c r="EB15" s="196"/>
+      <c r="EC15" s="196"/>
+      <c r="ED15" s="196"/>
+      <c r="EE15" s="196"/>
+      <c r="EF15" s="196"/>
+      <c r="EG15" s="196"/>
+      <c r="EH15" s="196"/>
+      <c r="EI15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="EJ15" s="176"/>
-      <c r="EK15" s="176"/>
-      <c r="EL15" s="176"/>
-      <c r="EM15" s="176"/>
-      <c r="EN15" s="176"/>
-      <c r="EO15" s="176"/>
-      <c r="EP15" s="176"/>
-      <c r="EQ15" s="176"/>
-      <c r="ER15" s="176"/>
-      <c r="ES15" s="176"/>
-      <c r="ET15" s="176"/>
-      <c r="EU15" s="176"/>
-      <c r="EV15" s="176"/>
-      <c r="EW15" s="183"/>
-      <c r="EX15" s="175" t="s">
+      <c r="EJ15" s="196"/>
+      <c r="EK15" s="196"/>
+      <c r="EL15" s="196"/>
+      <c r="EM15" s="196"/>
+      <c r="EN15" s="196"/>
+      <c r="EO15" s="196"/>
+      <c r="EP15" s="196"/>
+      <c r="EQ15" s="196"/>
+      <c r="ER15" s="196"/>
+      <c r="ES15" s="196"/>
+      <c r="ET15" s="196"/>
+      <c r="EU15" s="196"/>
+      <c r="EV15" s="196"/>
+      <c r="EW15" s="197"/>
+      <c r="EX15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="EY15" s="176"/>
-      <c r="EZ15" s="176"/>
-      <c r="FA15" s="176"/>
-      <c r="FB15" s="176"/>
-      <c r="FC15" s="176"/>
-      <c r="FD15" s="176"/>
-      <c r="FE15" s="176"/>
-      <c r="FF15" s="176"/>
-      <c r="FG15" s="176"/>
-      <c r="FH15" s="176"/>
-      <c r="FI15" s="176"/>
-      <c r="FJ15" s="176"/>
-      <c r="FK15" s="176"/>
-      <c r="FL15" s="176"/>
-      <c r="FM15" s="176" t="s">
+      <c r="EY15" s="196"/>
+      <c r="EZ15" s="196"/>
+      <c r="FA15" s="196"/>
+      <c r="FB15" s="196"/>
+      <c r="FC15" s="196"/>
+      <c r="FD15" s="196"/>
+      <c r="FE15" s="196"/>
+      <c r="FF15" s="196"/>
+      <c r="FG15" s="196"/>
+      <c r="FH15" s="196"/>
+      <c r="FI15" s="196"/>
+      <c r="FJ15" s="196"/>
+      <c r="FK15" s="196"/>
+      <c r="FL15" s="196"/>
+      <c r="FM15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="FN15" s="176"/>
-      <c r="FO15" s="176"/>
-      <c r="FP15" s="176"/>
-      <c r="FQ15" s="176"/>
-      <c r="FR15" s="176"/>
-      <c r="FS15" s="176"/>
-      <c r="FT15" s="176"/>
-      <c r="FU15" s="176"/>
-      <c r="FV15" s="176"/>
-      <c r="FW15" s="176"/>
-      <c r="FX15" s="176"/>
-      <c r="FY15" s="176"/>
-      <c r="FZ15" s="176"/>
-      <c r="GA15" s="179"/>
-      <c r="GB15" s="178" t="s">
+      <c r="FN15" s="196"/>
+      <c r="FO15" s="196"/>
+      <c r="FP15" s="196"/>
+      <c r="FQ15" s="196"/>
+      <c r="FR15" s="196"/>
+      <c r="FS15" s="196"/>
+      <c r="FT15" s="196"/>
+      <c r="FU15" s="196"/>
+      <c r="FV15" s="196"/>
+      <c r="FW15" s="196"/>
+      <c r="FX15" s="196"/>
+      <c r="FY15" s="196"/>
+      <c r="FZ15" s="196"/>
+      <c r="GA15" s="199"/>
+      <c r="GB15" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="GC15" s="176"/>
-      <c r="GD15" s="176"/>
-      <c r="GE15" s="176"/>
-      <c r="GF15" s="176"/>
-      <c r="GG15" s="176"/>
-      <c r="GH15" s="176"/>
-      <c r="GI15" s="176"/>
-      <c r="GJ15" s="176"/>
-      <c r="GK15" s="176"/>
-      <c r="GL15" s="176"/>
-      <c r="GM15" s="176"/>
-      <c r="GN15" s="176"/>
-      <c r="GO15" s="176"/>
-      <c r="GP15" s="179"/>
-      <c r="GQ15" s="176" t="s">
+      <c r="GC15" s="196"/>
+      <c r="GD15" s="196"/>
+      <c r="GE15" s="196"/>
+      <c r="GF15" s="196"/>
+      <c r="GG15" s="196"/>
+      <c r="GH15" s="196"/>
+      <c r="GI15" s="196"/>
+      <c r="GJ15" s="196"/>
+      <c r="GK15" s="196"/>
+      <c r="GL15" s="196"/>
+      <c r="GM15" s="196"/>
+      <c r="GN15" s="196"/>
+      <c r="GO15" s="196"/>
+      <c r="GP15" s="199"/>
+      <c r="GQ15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="GR15" s="176"/>
-      <c r="GS15" s="176"/>
-      <c r="GT15" s="176"/>
-      <c r="GU15" s="176"/>
-      <c r="GV15" s="176"/>
-      <c r="GW15" s="176"/>
-      <c r="GX15" s="176"/>
-      <c r="GY15" s="176"/>
-      <c r="GZ15" s="176"/>
-      <c r="HA15" s="176"/>
-      <c r="HB15" s="176"/>
-      <c r="HC15" s="176"/>
-      <c r="HD15" s="176"/>
-      <c r="HE15" s="183"/>
-      <c r="HF15" s="175" t="s">
+      <c r="GR15" s="196"/>
+      <c r="GS15" s="196"/>
+      <c r="GT15" s="196"/>
+      <c r="GU15" s="196"/>
+      <c r="GV15" s="196"/>
+      <c r="GW15" s="196"/>
+      <c r="GX15" s="196"/>
+      <c r="GY15" s="196"/>
+      <c r="GZ15" s="196"/>
+      <c r="HA15" s="196"/>
+      <c r="HB15" s="196"/>
+      <c r="HC15" s="196"/>
+      <c r="HD15" s="196"/>
+      <c r="HE15" s="197"/>
+      <c r="HF15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="HG15" s="176"/>
-      <c r="HH15" s="176"/>
-      <c r="HI15" s="176"/>
-      <c r="HJ15" s="176"/>
-      <c r="HK15" s="176"/>
-      <c r="HL15" s="176"/>
-      <c r="HM15" s="176"/>
-      <c r="HN15" s="176"/>
-      <c r="HO15" s="176"/>
-      <c r="HP15" s="176"/>
-      <c r="HQ15" s="176"/>
-      <c r="HR15" s="176"/>
-      <c r="HS15" s="176"/>
-      <c r="HT15" s="176"/>
-      <c r="HU15" s="176" t="s">
+      <c r="HG15" s="196"/>
+      <c r="HH15" s="196"/>
+      <c r="HI15" s="196"/>
+      <c r="HJ15" s="196"/>
+      <c r="HK15" s="196"/>
+      <c r="HL15" s="196"/>
+      <c r="HM15" s="196"/>
+      <c r="HN15" s="196"/>
+      <c r="HO15" s="196"/>
+      <c r="HP15" s="196"/>
+      <c r="HQ15" s="196"/>
+      <c r="HR15" s="196"/>
+      <c r="HS15" s="196"/>
+      <c r="HT15" s="196"/>
+      <c r="HU15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="HV15" s="176"/>
-      <c r="HW15" s="176"/>
-      <c r="HX15" s="176"/>
-      <c r="HY15" s="176"/>
-      <c r="HZ15" s="176"/>
-      <c r="IA15" s="176"/>
-      <c r="IB15" s="176"/>
-      <c r="IC15" s="176"/>
-      <c r="ID15" s="176"/>
-      <c r="IE15" s="176"/>
-      <c r="IF15" s="176"/>
-      <c r="IG15" s="176"/>
-      <c r="IH15" s="176"/>
-      <c r="II15" s="183"/>
-      <c r="IJ15" s="175" t="s">
+      <c r="HV15" s="196"/>
+      <c r="HW15" s="196"/>
+      <c r="HX15" s="196"/>
+      <c r="HY15" s="196"/>
+      <c r="HZ15" s="196"/>
+      <c r="IA15" s="196"/>
+      <c r="IB15" s="196"/>
+      <c r="IC15" s="196"/>
+      <c r="ID15" s="196"/>
+      <c r="IE15" s="196"/>
+      <c r="IF15" s="196"/>
+      <c r="IG15" s="196"/>
+      <c r="IH15" s="196"/>
+      <c r="II15" s="197"/>
+      <c r="IJ15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="IK15" s="176"/>
-      <c r="IL15" s="176"/>
-      <c r="IM15" s="176"/>
-      <c r="IN15" s="176"/>
-      <c r="IO15" s="176"/>
-      <c r="IP15" s="176"/>
-      <c r="IQ15" s="176"/>
-      <c r="IR15" s="176"/>
-      <c r="IS15" s="176"/>
-      <c r="IT15" s="176"/>
-      <c r="IU15" s="176"/>
-      <c r="IV15" s="176"/>
-      <c r="IW15" s="176"/>
-      <c r="IX15" s="176"/>
-      <c r="IY15" s="176" t="s">
+      <c r="IK15" s="196"/>
+      <c r="IL15" s="196"/>
+      <c r="IM15" s="196"/>
+      <c r="IN15" s="196"/>
+      <c r="IO15" s="196"/>
+      <c r="IP15" s="196"/>
+      <c r="IQ15" s="196"/>
+      <c r="IR15" s="196"/>
+      <c r="IS15" s="196"/>
+      <c r="IT15" s="196"/>
+      <c r="IU15" s="196"/>
+      <c r="IV15" s="196"/>
+      <c r="IW15" s="196"/>
+      <c r="IX15" s="196"/>
+      <c r="IY15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="IZ15" s="176"/>
-      <c r="JA15" s="176"/>
-      <c r="JB15" s="176"/>
-      <c r="JC15" s="176"/>
-      <c r="JD15" s="176"/>
-      <c r="JE15" s="176"/>
-      <c r="JF15" s="176"/>
-      <c r="JG15" s="176"/>
-      <c r="JH15" s="176"/>
-      <c r="JI15" s="176"/>
-      <c r="JJ15" s="176"/>
-      <c r="JK15" s="176"/>
-      <c r="JL15" s="176"/>
-      <c r="JM15" s="183"/>
-      <c r="JN15" s="175" t="s">
+      <c r="IZ15" s="196"/>
+      <c r="JA15" s="196"/>
+      <c r="JB15" s="196"/>
+      <c r="JC15" s="196"/>
+      <c r="JD15" s="196"/>
+      <c r="JE15" s="196"/>
+      <c r="JF15" s="196"/>
+      <c r="JG15" s="196"/>
+      <c r="JH15" s="196"/>
+      <c r="JI15" s="196"/>
+      <c r="JJ15" s="196"/>
+      <c r="JK15" s="196"/>
+      <c r="JL15" s="196"/>
+      <c r="JM15" s="197"/>
+      <c r="JN15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="JO15" s="176"/>
-      <c r="JP15" s="176"/>
-      <c r="JQ15" s="176"/>
-      <c r="JR15" s="176"/>
-      <c r="JS15" s="176"/>
-      <c r="JT15" s="176"/>
-      <c r="JU15" s="176"/>
-      <c r="JV15" s="176"/>
-      <c r="JW15" s="176"/>
-      <c r="JX15" s="176"/>
-      <c r="JY15" s="176"/>
-      <c r="JZ15" s="176"/>
-      <c r="KA15" s="176"/>
-      <c r="KB15" s="176"/>
-      <c r="KC15" s="176" t="s">
+      <c r="JO15" s="196"/>
+      <c r="JP15" s="196"/>
+      <c r="JQ15" s="196"/>
+      <c r="JR15" s="196"/>
+      <c r="JS15" s="196"/>
+      <c r="JT15" s="196"/>
+      <c r="JU15" s="196"/>
+      <c r="JV15" s="196"/>
+      <c r="JW15" s="196"/>
+      <c r="JX15" s="196"/>
+      <c r="JY15" s="196"/>
+      <c r="JZ15" s="196"/>
+      <c r="KA15" s="196"/>
+      <c r="KB15" s="196"/>
+      <c r="KC15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="KD15" s="176"/>
-      <c r="KE15" s="176"/>
-      <c r="KF15" s="176"/>
-      <c r="KG15" s="176"/>
-      <c r="KH15" s="176"/>
-      <c r="KI15" s="176"/>
-      <c r="KJ15" s="176"/>
-      <c r="KK15" s="176"/>
-      <c r="KL15" s="176"/>
-      <c r="KM15" s="176"/>
-      <c r="KN15" s="176"/>
-      <c r="KO15" s="176"/>
-      <c r="KP15" s="176"/>
-      <c r="KQ15" s="177"/>
-      <c r="KR15" s="156" t="s">
+      <c r="KD15" s="196"/>
+      <c r="KE15" s="196"/>
+      <c r="KF15" s="196"/>
+      <c r="KG15" s="196"/>
+      <c r="KH15" s="196"/>
+      <c r="KI15" s="196"/>
+      <c r="KJ15" s="196"/>
+      <c r="KK15" s="196"/>
+      <c r="KL15" s="196"/>
+      <c r="KM15" s="196"/>
+      <c r="KN15" s="196"/>
+      <c r="KO15" s="196"/>
+      <c r="KP15" s="196"/>
+      <c r="KQ15" s="200"/>
+      <c r="KR15" s="193" t="s">
         <v>23</v>
       </c>
-      <c r="KS15" s="157"/>
-      <c r="KT15" s="178" t="s">
+      <c r="KS15" s="229"/>
+      <c r="KT15" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="KU15" s="176"/>
-      <c r="KV15" s="176"/>
-      <c r="KW15" s="176"/>
-      <c r="KX15" s="176"/>
-      <c r="KY15" s="176"/>
-      <c r="KZ15" s="176"/>
-      <c r="LA15" s="176"/>
-      <c r="LB15" s="176"/>
-      <c r="LC15" s="176"/>
-      <c r="LD15" s="176"/>
-      <c r="LE15" s="176"/>
-      <c r="LF15" s="176"/>
-      <c r="LG15" s="176"/>
-      <c r="LH15" s="179"/>
-      <c r="LI15" s="176" t="s">
+      <c r="KU15" s="196"/>
+      <c r="KV15" s="196"/>
+      <c r="KW15" s="196"/>
+      <c r="KX15" s="196"/>
+      <c r="KY15" s="196"/>
+      <c r="KZ15" s="196"/>
+      <c r="LA15" s="196"/>
+      <c r="LB15" s="196"/>
+      <c r="LC15" s="196"/>
+      <c r="LD15" s="196"/>
+      <c r="LE15" s="196"/>
+      <c r="LF15" s="196"/>
+      <c r="LG15" s="196"/>
+      <c r="LH15" s="199"/>
+      <c r="LI15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="LJ15" s="176"/>
-      <c r="LK15" s="176"/>
-      <c r="LL15" s="176"/>
-      <c r="LM15" s="176"/>
-      <c r="LN15" s="176"/>
-      <c r="LO15" s="176"/>
-      <c r="LP15" s="176"/>
-      <c r="LQ15" s="176"/>
-      <c r="LR15" s="176"/>
-      <c r="LS15" s="176"/>
-      <c r="LT15" s="176"/>
-      <c r="LU15" s="176"/>
-      <c r="LV15" s="176"/>
-      <c r="LW15" s="183"/>
-      <c r="LX15" s="175" t="s">
+      <c r="LJ15" s="196"/>
+      <c r="LK15" s="196"/>
+      <c r="LL15" s="196"/>
+      <c r="LM15" s="196"/>
+      <c r="LN15" s="196"/>
+      <c r="LO15" s="196"/>
+      <c r="LP15" s="196"/>
+      <c r="LQ15" s="196"/>
+      <c r="LR15" s="196"/>
+      <c r="LS15" s="196"/>
+      <c r="LT15" s="196"/>
+      <c r="LU15" s="196"/>
+      <c r="LV15" s="196"/>
+      <c r="LW15" s="197"/>
+      <c r="LX15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="LY15" s="176"/>
-      <c r="LZ15" s="176"/>
-      <c r="MA15" s="176"/>
-      <c r="MB15" s="176"/>
-      <c r="MC15" s="176"/>
-      <c r="MD15" s="176"/>
-      <c r="ME15" s="176"/>
-      <c r="MF15" s="176"/>
-      <c r="MG15" s="176"/>
-      <c r="MH15" s="176"/>
-      <c r="MI15" s="176"/>
-      <c r="MJ15" s="176"/>
-      <c r="MK15" s="176"/>
-      <c r="ML15" s="176"/>
-      <c r="MM15" s="176" t="s">
+      <c r="LY15" s="196"/>
+      <c r="LZ15" s="196"/>
+      <c r="MA15" s="196"/>
+      <c r="MB15" s="196"/>
+      <c r="MC15" s="196"/>
+      <c r="MD15" s="196"/>
+      <c r="ME15" s="196"/>
+      <c r="MF15" s="196"/>
+      <c r="MG15" s="196"/>
+      <c r="MH15" s="196"/>
+      <c r="MI15" s="196"/>
+      <c r="MJ15" s="196"/>
+      <c r="MK15" s="196"/>
+      <c r="ML15" s="196"/>
+      <c r="MM15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="MN15" s="176"/>
-      <c r="MO15" s="176"/>
-      <c r="MP15" s="176"/>
-      <c r="MQ15" s="176"/>
-      <c r="MR15" s="176"/>
-      <c r="MS15" s="176"/>
-      <c r="MT15" s="176"/>
-      <c r="MU15" s="176"/>
-      <c r="MV15" s="176"/>
-      <c r="MW15" s="176"/>
-      <c r="MX15" s="176"/>
-      <c r="MY15" s="176"/>
-      <c r="MZ15" s="176"/>
-      <c r="NA15" s="183"/>
-      <c r="NB15" s="175" t="s">
+      <c r="MN15" s="196"/>
+      <c r="MO15" s="196"/>
+      <c r="MP15" s="196"/>
+      <c r="MQ15" s="196"/>
+      <c r="MR15" s="196"/>
+      <c r="MS15" s="196"/>
+      <c r="MT15" s="196"/>
+      <c r="MU15" s="196"/>
+      <c r="MV15" s="196"/>
+      <c r="MW15" s="196"/>
+      <c r="MX15" s="196"/>
+      <c r="MY15" s="196"/>
+      <c r="MZ15" s="196"/>
+      <c r="NA15" s="197"/>
+      <c r="NB15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="NC15" s="176"/>
-      <c r="ND15" s="176"/>
-      <c r="NE15" s="176"/>
-      <c r="NF15" s="176"/>
-      <c r="NG15" s="176"/>
-      <c r="NH15" s="176"/>
-      <c r="NI15" s="176"/>
-      <c r="NJ15" s="176"/>
-      <c r="NK15" s="176"/>
-      <c r="NL15" s="176"/>
-      <c r="NM15" s="176"/>
-      <c r="NN15" s="176"/>
-      <c r="NO15" s="176"/>
-      <c r="NP15" s="176"/>
-      <c r="NQ15" s="176" t="s">
+      <c r="NC15" s="196"/>
+      <c r="ND15" s="196"/>
+      <c r="NE15" s="196"/>
+      <c r="NF15" s="196"/>
+      <c r="NG15" s="196"/>
+      <c r="NH15" s="196"/>
+      <c r="NI15" s="196"/>
+      <c r="NJ15" s="196"/>
+      <c r="NK15" s="196"/>
+      <c r="NL15" s="196"/>
+      <c r="NM15" s="196"/>
+      <c r="NN15" s="196"/>
+      <c r="NO15" s="196"/>
+      <c r="NP15" s="196"/>
+      <c r="NQ15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="NR15" s="176"/>
-      <c r="NS15" s="176"/>
-      <c r="NT15" s="176"/>
-      <c r="NU15" s="176"/>
-      <c r="NV15" s="176"/>
-      <c r="NW15" s="176"/>
-      <c r="NX15" s="176"/>
-      <c r="NY15" s="176"/>
-      <c r="NZ15" s="176"/>
-      <c r="OA15" s="176"/>
-      <c r="OB15" s="176"/>
-      <c r="OC15" s="176"/>
-      <c r="OD15" s="176"/>
-      <c r="OE15" s="183"/>
-      <c r="OF15" s="175" t="s">
+      <c r="NR15" s="196"/>
+      <c r="NS15" s="196"/>
+      <c r="NT15" s="196"/>
+      <c r="NU15" s="196"/>
+      <c r="NV15" s="196"/>
+      <c r="NW15" s="196"/>
+      <c r="NX15" s="196"/>
+      <c r="NY15" s="196"/>
+      <c r="NZ15" s="196"/>
+      <c r="OA15" s="196"/>
+      <c r="OB15" s="196"/>
+      <c r="OC15" s="196"/>
+      <c r="OD15" s="196"/>
+      <c r="OE15" s="197"/>
+      <c r="OF15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="OG15" s="176"/>
-      <c r="OH15" s="176"/>
-      <c r="OI15" s="176"/>
-      <c r="OJ15" s="176"/>
-      <c r="OK15" s="176"/>
-      <c r="OL15" s="176"/>
-      <c r="OM15" s="176"/>
-      <c r="ON15" s="176"/>
-      <c r="OO15" s="176"/>
-      <c r="OP15" s="176"/>
-      <c r="OQ15" s="176"/>
-      <c r="OR15" s="176"/>
-      <c r="OS15" s="176"/>
-      <c r="OT15" s="176"/>
-      <c r="OU15" s="176" t="s">
+      <c r="OG15" s="196"/>
+      <c r="OH15" s="196"/>
+      <c r="OI15" s="196"/>
+      <c r="OJ15" s="196"/>
+      <c r="OK15" s="196"/>
+      <c r="OL15" s="196"/>
+      <c r="OM15" s="196"/>
+      <c r="ON15" s="196"/>
+      <c r="OO15" s="196"/>
+      <c r="OP15" s="196"/>
+      <c r="OQ15" s="196"/>
+      <c r="OR15" s="196"/>
+      <c r="OS15" s="196"/>
+      <c r="OT15" s="196"/>
+      <c r="OU15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="OV15" s="176"/>
-      <c r="OW15" s="176"/>
-      <c r="OX15" s="176"/>
-      <c r="OY15" s="176"/>
-      <c r="OZ15" s="176"/>
-      <c r="PA15" s="176"/>
-      <c r="PB15" s="176"/>
-      <c r="PC15" s="176"/>
-      <c r="PD15" s="176"/>
-      <c r="PE15" s="176"/>
-      <c r="PF15" s="176"/>
-      <c r="PG15" s="176"/>
-      <c r="PH15" s="176"/>
-      <c r="PI15" s="177"/>
-      <c r="PJ15" s="178" t="s">
+      <c r="OV15" s="196"/>
+      <c r="OW15" s="196"/>
+      <c r="OX15" s="196"/>
+      <c r="OY15" s="196"/>
+      <c r="OZ15" s="196"/>
+      <c r="PA15" s="196"/>
+      <c r="PB15" s="196"/>
+      <c r="PC15" s="196"/>
+      <c r="PD15" s="196"/>
+      <c r="PE15" s="196"/>
+      <c r="PF15" s="196"/>
+      <c r="PG15" s="196"/>
+      <c r="PH15" s="196"/>
+      <c r="PI15" s="200"/>
+      <c r="PJ15" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="PK15" s="176"/>
-      <c r="PL15" s="176"/>
-      <c r="PM15" s="176"/>
-      <c r="PN15" s="176"/>
-      <c r="PO15" s="176"/>
-      <c r="PP15" s="176"/>
-      <c r="PQ15" s="176"/>
-      <c r="PR15" s="176"/>
-      <c r="PS15" s="176"/>
-      <c r="PT15" s="176"/>
-      <c r="PU15" s="176"/>
-      <c r="PV15" s="176"/>
-      <c r="PW15" s="176"/>
-      <c r="PX15" s="179"/>
-      <c r="PY15" s="176" t="s">
+      <c r="PK15" s="196"/>
+      <c r="PL15" s="196"/>
+      <c r="PM15" s="196"/>
+      <c r="PN15" s="196"/>
+      <c r="PO15" s="196"/>
+      <c r="PP15" s="196"/>
+      <c r="PQ15" s="196"/>
+      <c r="PR15" s="196"/>
+      <c r="PS15" s="196"/>
+      <c r="PT15" s="196"/>
+      <c r="PU15" s="196"/>
+      <c r="PV15" s="196"/>
+      <c r="PW15" s="196"/>
+      <c r="PX15" s="199"/>
+      <c r="PY15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="PZ15" s="176"/>
-      <c r="QA15" s="176"/>
-      <c r="QB15" s="176"/>
-      <c r="QC15" s="176"/>
-      <c r="QD15" s="176"/>
-      <c r="QE15" s="176"/>
-      <c r="QF15" s="176"/>
-      <c r="QG15" s="176"/>
-      <c r="QH15" s="176"/>
-      <c r="QI15" s="176"/>
-      <c r="QJ15" s="176"/>
-      <c r="QK15" s="176"/>
-      <c r="QL15" s="176"/>
-      <c r="QM15" s="183"/>
-      <c r="QN15" s="175" t="s">
+      <c r="PZ15" s="196"/>
+      <c r="QA15" s="196"/>
+      <c r="QB15" s="196"/>
+      <c r="QC15" s="196"/>
+      <c r="QD15" s="196"/>
+      <c r="QE15" s="196"/>
+      <c r="QF15" s="196"/>
+      <c r="QG15" s="196"/>
+      <c r="QH15" s="196"/>
+      <c r="QI15" s="196"/>
+      <c r="QJ15" s="196"/>
+      <c r="QK15" s="196"/>
+      <c r="QL15" s="196"/>
+      <c r="QM15" s="197"/>
+      <c r="QN15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="QO15" s="176"/>
-      <c r="QP15" s="176"/>
-      <c r="QQ15" s="176"/>
-      <c r="QR15" s="176"/>
-      <c r="QS15" s="176"/>
-      <c r="QT15" s="176"/>
-      <c r="QU15" s="176"/>
-      <c r="QV15" s="176"/>
-      <c r="QW15" s="176"/>
-      <c r="QX15" s="176"/>
-      <c r="QY15" s="176"/>
-      <c r="QZ15" s="176"/>
-      <c r="RA15" s="176"/>
-      <c r="RB15" s="176"/>
-      <c r="RC15" s="176" t="s">
+      <c r="QO15" s="196"/>
+      <c r="QP15" s="196"/>
+      <c r="QQ15" s="196"/>
+      <c r="QR15" s="196"/>
+      <c r="QS15" s="196"/>
+      <c r="QT15" s="196"/>
+      <c r="QU15" s="196"/>
+      <c r="QV15" s="196"/>
+      <c r="QW15" s="196"/>
+      <c r="QX15" s="196"/>
+      <c r="QY15" s="196"/>
+      <c r="QZ15" s="196"/>
+      <c r="RA15" s="196"/>
+      <c r="RB15" s="196"/>
+      <c r="RC15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="RD15" s="176"/>
-      <c r="RE15" s="176"/>
-      <c r="RF15" s="176"/>
-      <c r="RG15" s="176"/>
-      <c r="RH15" s="176"/>
-      <c r="RI15" s="176"/>
-      <c r="RJ15" s="176"/>
-      <c r="RK15" s="176"/>
-      <c r="RL15" s="176"/>
-      <c r="RM15" s="176"/>
-      <c r="RN15" s="176"/>
-      <c r="RO15" s="176"/>
-      <c r="RP15" s="176"/>
-      <c r="RQ15" s="183"/>
-      <c r="RR15" s="175" t="s">
+      <c r="RD15" s="196"/>
+      <c r="RE15" s="196"/>
+      <c r="RF15" s="196"/>
+      <c r="RG15" s="196"/>
+      <c r="RH15" s="196"/>
+      <c r="RI15" s="196"/>
+      <c r="RJ15" s="196"/>
+      <c r="RK15" s="196"/>
+      <c r="RL15" s="196"/>
+      <c r="RM15" s="196"/>
+      <c r="RN15" s="196"/>
+      <c r="RO15" s="196"/>
+      <c r="RP15" s="196"/>
+      <c r="RQ15" s="197"/>
+      <c r="RR15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="RS15" s="176"/>
-      <c r="RT15" s="176"/>
-      <c r="RU15" s="176"/>
-      <c r="RV15" s="176"/>
-      <c r="RW15" s="176"/>
-      <c r="RX15" s="176"/>
-      <c r="RY15" s="176"/>
-      <c r="RZ15" s="176"/>
-      <c r="SA15" s="176"/>
-      <c r="SB15" s="176"/>
-      <c r="SC15" s="176"/>
-      <c r="SD15" s="176"/>
-      <c r="SE15" s="176"/>
-      <c r="SF15" s="176"/>
-      <c r="SG15" s="176" t="s">
+      <c r="RS15" s="196"/>
+      <c r="RT15" s="196"/>
+      <c r="RU15" s="196"/>
+      <c r="RV15" s="196"/>
+      <c r="RW15" s="196"/>
+      <c r="RX15" s="196"/>
+      <c r="RY15" s="196"/>
+      <c r="RZ15" s="196"/>
+      <c r="SA15" s="196"/>
+      <c r="SB15" s="196"/>
+      <c r="SC15" s="196"/>
+      <c r="SD15" s="196"/>
+      <c r="SE15" s="196"/>
+      <c r="SF15" s="196"/>
+      <c r="SG15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="SH15" s="176"/>
-      <c r="SI15" s="176"/>
-      <c r="SJ15" s="176"/>
-      <c r="SK15" s="176"/>
-      <c r="SL15" s="176"/>
-      <c r="SM15" s="176"/>
-      <c r="SN15" s="176"/>
-      <c r="SO15" s="176"/>
-      <c r="SP15" s="176"/>
-      <c r="SQ15" s="176"/>
-      <c r="SR15" s="176"/>
-      <c r="SS15" s="176"/>
-      <c r="ST15" s="176"/>
-      <c r="SU15" s="183"/>
-      <c r="SV15" s="175" t="s">
+      <c r="SH15" s="196"/>
+      <c r="SI15" s="196"/>
+      <c r="SJ15" s="196"/>
+      <c r="SK15" s="196"/>
+      <c r="SL15" s="196"/>
+      <c r="SM15" s="196"/>
+      <c r="SN15" s="196"/>
+      <c r="SO15" s="196"/>
+      <c r="SP15" s="196"/>
+      <c r="SQ15" s="196"/>
+      <c r="SR15" s="196"/>
+      <c r="SS15" s="196"/>
+      <c r="ST15" s="196"/>
+      <c r="SU15" s="197"/>
+      <c r="SV15" s="198" t="s">
         <v>24</v>
       </c>
-      <c r="SW15" s="176"/>
-      <c r="SX15" s="176"/>
-      <c r="SY15" s="176"/>
-      <c r="SZ15" s="176"/>
-      <c r="TA15" s="176"/>
-      <c r="TB15" s="176"/>
-      <c r="TC15" s="176"/>
-      <c r="TD15" s="176"/>
-      <c r="TE15" s="176"/>
-      <c r="TF15" s="176"/>
-      <c r="TG15" s="176"/>
-      <c r="TH15" s="176"/>
-      <c r="TI15" s="176"/>
-      <c r="TJ15" s="176"/>
-      <c r="TK15" s="176" t="s">
+      <c r="SW15" s="196"/>
+      <c r="SX15" s="196"/>
+      <c r="SY15" s="196"/>
+      <c r="SZ15" s="196"/>
+      <c r="TA15" s="196"/>
+      <c r="TB15" s="196"/>
+      <c r="TC15" s="196"/>
+      <c r="TD15" s="196"/>
+      <c r="TE15" s="196"/>
+      <c r="TF15" s="196"/>
+      <c r="TG15" s="196"/>
+      <c r="TH15" s="196"/>
+      <c r="TI15" s="196"/>
+      <c r="TJ15" s="196"/>
+      <c r="TK15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="TL15" s="176"/>
-      <c r="TM15" s="176"/>
-      <c r="TN15" s="176"/>
-      <c r="TO15" s="176"/>
-      <c r="TP15" s="176"/>
-      <c r="TQ15" s="176"/>
-      <c r="TR15" s="176"/>
-      <c r="TS15" s="176"/>
-      <c r="TT15" s="176"/>
-      <c r="TU15" s="176"/>
-      <c r="TV15" s="176"/>
-      <c r="TW15" s="176"/>
-      <c r="TX15" s="176"/>
-      <c r="TY15" s="177"/>
-      <c r="TZ15" s="178" t="s">
+      <c r="TL15" s="196"/>
+      <c r="TM15" s="196"/>
+      <c r="TN15" s="196"/>
+      <c r="TO15" s="196"/>
+      <c r="TP15" s="196"/>
+      <c r="TQ15" s="196"/>
+      <c r="TR15" s="196"/>
+      <c r="TS15" s="196"/>
+      <c r="TT15" s="196"/>
+      <c r="TU15" s="196"/>
+      <c r="TV15" s="196"/>
+      <c r="TW15" s="196"/>
+      <c r="TX15" s="196"/>
+      <c r="TY15" s="200"/>
+      <c r="TZ15" s="195" t="s">
         <v>24</v>
       </c>
-      <c r="UA15" s="176"/>
-      <c r="UB15" s="176"/>
-      <c r="UC15" s="176"/>
-      <c r="UD15" s="176"/>
-      <c r="UE15" s="176"/>
-      <c r="UF15" s="176"/>
-      <c r="UG15" s="176"/>
-      <c r="UH15" s="176"/>
-      <c r="UI15" s="176"/>
-      <c r="UJ15" s="176"/>
-      <c r="UK15" s="176"/>
-      <c r="UL15" s="176"/>
-      <c r="UM15" s="176"/>
-      <c r="UN15" s="179"/>
-      <c r="UO15" s="176" t="s">
+      <c r="UA15" s="196"/>
+      <c r="UB15" s="196"/>
+      <c r="UC15" s="196"/>
+      <c r="UD15" s="196"/>
+      <c r="UE15" s="196"/>
+      <c r="UF15" s="196"/>
+      <c r="UG15" s="196"/>
+      <c r="UH15" s="196"/>
+      <c r="UI15" s="196"/>
+      <c r="UJ15" s="196"/>
+      <c r="UK15" s="196"/>
+      <c r="UL15" s="196"/>
+      <c r="UM15" s="196"/>
+      <c r="UN15" s="199"/>
+      <c r="UO15" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="UP15" s="176"/>
-      <c r="UQ15" s="176"/>
-      <c r="UR15" s="176"/>
-      <c r="US15" s="176"/>
-      <c r="UT15" s="176"/>
-      <c r="UU15" s="176"/>
-      <c r="UV15" s="176"/>
-      <c r="UW15" s="176"/>
-      <c r="UX15" s="176"/>
-      <c r="UY15" s="176"/>
-      <c r="UZ15" s="176"/>
-      <c r="VA15" s="176"/>
-      <c r="VB15" s="176"/>
-      <c r="VC15" s="177"/>
+      <c r="UP15" s="196"/>
+      <c r="UQ15" s="196"/>
+      <c r="UR15" s="196"/>
+      <c r="US15" s="196"/>
+      <c r="UT15" s="196"/>
+      <c r="UU15" s="196"/>
+      <c r="UV15" s="196"/>
+      <c r="UW15" s="196"/>
+      <c r="UX15" s="196"/>
+      <c r="UY15" s="196"/>
+      <c r="UZ15" s="196"/>
+      <c r="VA15" s="196"/>
+      <c r="VB15" s="196"/>
+      <c r="VC15" s="200"/>
     </row>
     <row r="16" spans="1:575" s="3" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -11537,40 +11580,40 @@
       <c r="TW16" s="15"/>
       <c r="TX16" s="15"/>
       <c r="TY16" s="14"/>
-      <c r="TZ16" s="180"/>
-      <c r="UA16" s="181"/>
-      <c r="UB16" s="181"/>
-      <c r="UC16" s="181"/>
-      <c r="UD16" s="181"/>
-      <c r="UE16" s="181"/>
-      <c r="UF16" s="181"/>
-      <c r="UG16" s="181"/>
-      <c r="UH16" s="181"/>
-      <c r="UI16" s="181"/>
-      <c r="UJ16" s="181"/>
-      <c r="UK16" s="181"/>
-      <c r="UL16" s="181"/>
-      <c r="UM16" s="181"/>
-      <c r="UN16" s="181"/>
-      <c r="UO16" s="181"/>
-      <c r="UP16" s="181"/>
-      <c r="UQ16" s="181"/>
-      <c r="UR16" s="181"/>
-      <c r="US16" s="181"/>
-      <c r="UT16" s="181"/>
-      <c r="UU16" s="181"/>
-      <c r="UV16" s="181"/>
-      <c r="UW16" s="181"/>
-      <c r="UX16" s="181"/>
-      <c r="UY16" s="181"/>
-      <c r="UZ16" s="181"/>
-      <c r="VA16" s="181"/>
-      <c r="VB16" s="181"/>
-      <c r="VC16" s="182"/>
+      <c r="TZ16" s="212"/>
+      <c r="UA16" s="213"/>
+      <c r="UB16" s="213"/>
+      <c r="UC16" s="213"/>
+      <c r="UD16" s="213"/>
+      <c r="UE16" s="213"/>
+      <c r="UF16" s="213"/>
+      <c r="UG16" s="213"/>
+      <c r="UH16" s="213"/>
+      <c r="UI16" s="213"/>
+      <c r="UJ16" s="213"/>
+      <c r="UK16" s="213"/>
+      <c r="UL16" s="213"/>
+      <c r="UM16" s="213"/>
+      <c r="UN16" s="213"/>
+      <c r="UO16" s="213"/>
+      <c r="UP16" s="213"/>
+      <c r="UQ16" s="213"/>
+      <c r="UR16" s="213"/>
+      <c r="US16" s="213"/>
+      <c r="UT16" s="213"/>
+      <c r="UU16" s="213"/>
+      <c r="UV16" s="213"/>
+      <c r="UW16" s="213"/>
+      <c r="UX16" s="213"/>
+      <c r="UY16" s="213"/>
+      <c r="UZ16" s="213"/>
+      <c r="VA16" s="213"/>
+      <c r="VB16" s="213"/>
+      <c r="VC16" s="214"/>
     </row>
     <row r="17" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="158" t="s">
+      <c r="B17" s="203" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="63" t="s">
@@ -11876,7 +11919,7 @@
       <c r="KO17" s="18"/>
       <c r="KP17" s="18"/>
       <c r="KQ17" s="24"/>
-      <c r="KR17" s="158" t="s">
+      <c r="KR17" s="203" t="s">
         <v>27</v>
       </c>
       <c r="KS17" s="122" t="s">
@@ -12155,7 +12198,7 @@
     </row>
     <row r="18" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="147"/>
+      <c r="B18" s="202"/>
       <c r="C18" s="64" t="s">
         <v>29</v>
       </c>
@@ -12459,7 +12502,7 @@
       <c r="KO18" s="27"/>
       <c r="KP18" s="27"/>
       <c r="KQ18" s="34"/>
-      <c r="KR18" s="147"/>
+      <c r="KR18" s="202"/>
       <c r="KS18" s="123" t="s">
         <v>29</v>
       </c>
@@ -12736,7 +12779,7 @@
     </row>
     <row r="19" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="148" t="s">
+      <c r="B19" s="201" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="65" t="s">
@@ -13042,7 +13085,7 @@
       <c r="KO19" s="37"/>
       <c r="KP19" s="37"/>
       <c r="KQ19" s="44"/>
-      <c r="KR19" s="148" t="s">
+      <c r="KR19" s="201" t="s">
         <v>30</v>
       </c>
       <c r="KS19" s="124" t="s">
@@ -13321,7 +13364,7 @@
     </row>
     <row r="20" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="147"/>
+      <c r="B20" s="202"/>
       <c r="C20" s="64" t="s">
         <v>29</v>
       </c>
@@ -13625,7 +13668,7 @@
       <c r="KO20" s="27"/>
       <c r="KP20" s="27"/>
       <c r="KQ20" s="34"/>
-      <c r="KR20" s="147"/>
+      <c r="KR20" s="202"/>
       <c r="KS20" s="123" t="s">
         <v>29</v>
       </c>
@@ -13902,7 +13945,7 @@
     </row>
     <row r="21" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="201" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="65" t="s">
@@ -14208,7 +14251,7 @@
       <c r="KO21" s="37"/>
       <c r="KP21" s="37"/>
       <c r="KQ21" s="44"/>
-      <c r="KR21" s="148" t="s">
+      <c r="KR21" s="201" t="s">
         <v>35</v>
       </c>
       <c r="KS21" s="124" t="s">
@@ -14487,7 +14530,7 @@
     </row>
     <row r="22" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="147"/>
+      <c r="B22" s="202"/>
       <c r="C22" s="64" t="s">
         <v>29</v>
       </c>
@@ -14791,7 +14834,7 @@
       <c r="KO22" s="27"/>
       <c r="KP22" s="27"/>
       <c r="KQ22" s="34"/>
-      <c r="KR22" s="147"/>
+      <c r="KR22" s="202"/>
       <c r="KS22" s="123" t="s">
         <v>29</v>
       </c>
@@ -15068,7 +15111,7 @@
     </row>
     <row r="23" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="158" t="s">
+      <c r="B23" s="203" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="63" t="s">
@@ -15374,7 +15417,7 @@
       <c r="KO23" s="18"/>
       <c r="KP23" s="18"/>
       <c r="KQ23" s="24"/>
-      <c r="KR23" s="158" t="s">
+      <c r="KR23" s="203" t="s">
         <v>31</v>
       </c>
       <c r="KS23" s="122" t="s">
@@ -15653,7 +15696,7 @@
     </row>
     <row r="24" spans="1:575" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="159"/>
+      <c r="B24" s="204"/>
       <c r="C24" s="66" t="s">
         <v>29</v>
       </c>
@@ -15957,7 +16000,7 @@
       <c r="KO24" s="18"/>
       <c r="KP24" s="18"/>
       <c r="KQ24" s="24"/>
-      <c r="KR24" s="159"/>
+      <c r="KR24" s="204"/>
       <c r="KS24" s="125" t="s">
         <v>29</v>
       </c>
@@ -16782,36 +16825,36 @@
       <c r="TW25" s="60"/>
       <c r="TX25" s="60"/>
       <c r="TY25" s="72"/>
-      <c r="TZ25" s="169"/>
-      <c r="UA25" s="170"/>
-      <c r="UB25" s="170"/>
-      <c r="UC25" s="170"/>
-      <c r="UD25" s="170"/>
-      <c r="UE25" s="170"/>
-      <c r="UF25" s="170"/>
-      <c r="UG25" s="170"/>
-      <c r="UH25" s="170"/>
-      <c r="UI25" s="170"/>
-      <c r="UJ25" s="170"/>
-      <c r="UK25" s="170"/>
-      <c r="UL25" s="170"/>
-      <c r="UM25" s="170"/>
-      <c r="UN25" s="170"/>
-      <c r="UO25" s="170"/>
-      <c r="UP25" s="170"/>
-      <c r="UQ25" s="170"/>
-      <c r="UR25" s="170"/>
-      <c r="US25" s="170"/>
-      <c r="UT25" s="170"/>
-      <c r="UU25" s="170"/>
-      <c r="UV25" s="170"/>
-      <c r="UW25" s="170"/>
-      <c r="UX25" s="170"/>
-      <c r="UY25" s="170"/>
-      <c r="UZ25" s="170"/>
-      <c r="VA25" s="170"/>
-      <c r="VB25" s="170"/>
-      <c r="VC25" s="171"/>
+      <c r="TZ25" s="205"/>
+      <c r="UA25" s="206"/>
+      <c r="UB25" s="206"/>
+      <c r="UC25" s="206"/>
+      <c r="UD25" s="206"/>
+      <c r="UE25" s="206"/>
+      <c r="UF25" s="206"/>
+      <c r="UG25" s="206"/>
+      <c r="UH25" s="206"/>
+      <c r="UI25" s="206"/>
+      <c r="UJ25" s="206"/>
+      <c r="UK25" s="206"/>
+      <c r="UL25" s="206"/>
+      <c r=